--- a/lod_analysis/excels/artists_full.xlsx
+++ b/lod_analysis/excels/artists_full.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="436">
   <si>
     <t>artist_id</t>
   </si>
@@ -40,1408 +40,1288 @@
     <t>geonames_download_time</t>
   </si>
   <si>
-    <t>1Ffb6ejR6Fe5IamqA5oRUF</t>
-  </si>
-  <si>
-    <t>7I95CM75shzCjHuTzrepjM</t>
-  </si>
-  <si>
-    <t>6kNKUYGn6VNGsRoXmyoDPK</t>
-  </si>
-  <si>
-    <t>05fG473iIaoy82BF1aGhL8</t>
-  </si>
-  <si>
-    <t>3LkSiHbjqOHCKCqBfEZOTv</t>
-  </si>
-  <si>
-    <t>2CmaKO2zEGJ1NWpS1yfVGz</t>
-  </si>
-  <si>
-    <t>3Uobr6LgQpBbk6k4QGAb3V</t>
-  </si>
-  <si>
-    <t>1caBfBEapzw8z2Qz9q0OaQ</t>
-  </si>
-  <si>
-    <t>0nmQIMXWTXfhgOBdNzhGOs</t>
-  </si>
-  <si>
-    <t>39VNwvlQTqE9SvgPjjnMpc</t>
-  </si>
-  <si>
-    <t>5t28BP42x2axFnqOOMg3CM</t>
-  </si>
-  <si>
-    <t>7FBcuc1gsnv6Y1nwFtNRCb</t>
-  </si>
-  <si>
-    <t>6GfiCQDFYANz5wUkSmb3Dr</t>
-  </si>
-  <si>
-    <t>1d5wNTZ8WZYE5WuXXjug9w</t>
-  </si>
-  <si>
-    <t>5BtHciL0e0zOP7prIHn3pP</t>
-  </si>
-  <si>
-    <t>64tNsm6TnZe2zpcMVMOoHL</t>
-  </si>
-  <si>
-    <t>7qAcXJgt1PWnxwUgxMdyuk</t>
-  </si>
-  <si>
-    <t>70BYFdaZbEKbeauJ670ysI</t>
-  </si>
-  <si>
-    <t>6gZq1Q6bdOxsUPUG1TaFbF</t>
-  </si>
-  <si>
-    <t>5eAWCfyUhZtHHtBdNk56l1</t>
-  </si>
-  <si>
-    <t>3886aFez2HDLkio5tUzmP6</t>
+    <t>0du5cEVh5yTK9QJze8zA0C</t>
+  </si>
+  <si>
+    <t>1PAi6SNPtaiFqTRiTfecFr</t>
+  </si>
+  <si>
+    <t>6PvvGcCY2XtUcSRld1Wilr</t>
+  </si>
+  <si>
+    <t>35l9BRT7MXmM8bv2WDQiyB</t>
+  </si>
+  <si>
+    <t>78SHxLdtysAXgywQ4vE0Oa</t>
+  </si>
+  <si>
+    <t>1Fmb52lZ6Jv7FMWXXTPO3K</t>
+  </si>
+  <si>
+    <t>17jVKTope5TIJoBQBTzaxj</t>
+  </si>
+  <si>
+    <t>0gDg7FEsF4Y1jWddJJgcn4</t>
+  </si>
+  <si>
+    <t>06HL4z0CvFAxyc27GXpf02</t>
+  </si>
+  <si>
+    <t>0uAjBatvB4ubpd4kCfjmNt</t>
+  </si>
+  <si>
+    <t>2dd5mrQZvg6SmahdgVKDzh</t>
+  </si>
+  <si>
+    <t>4n1jUVWofpK6Lx1r2EnLCo</t>
+  </si>
+  <si>
+    <t>4exLIFE8sISLr28sqG1qNX</t>
+  </si>
+  <si>
+    <t>3NTbOmzlj2cL86XFuDVFvZ</t>
+  </si>
+  <si>
+    <t>6x9QLdzo6eBZxJ1bHsDkjg</t>
+  </si>
+  <si>
+    <t>34c4iQ5tkaZKu6Sv28BTde</t>
+  </si>
+  <si>
+    <t>2sil8z5kiy4r76CRTXxBCA</t>
+  </si>
+  <si>
+    <t>0Jeckitay8SbvKwqAzWuYH</t>
+  </si>
+  <si>
+    <t>7jefIIksOi1EazgRTfW2Pk</t>
+  </si>
+  <si>
+    <t>1u7kkVrr14iBvrpYnZILJR</t>
+  </si>
+  <si>
+    <t>2tIP7SsRs7vjIcLrU85W8J</t>
+  </si>
+  <si>
+    <t>49bzE5vRBRIota4qeHtQM8</t>
+  </si>
+  <si>
+    <t>6Ff53KvcvAj5U7Z1vojB5o</t>
+  </si>
+  <si>
+    <t>1gALaWbNDnwS2ECV09sn2A</t>
+  </si>
+  <si>
+    <t>0Nn9YwJzcaeuU1jJL06e3r</t>
+  </si>
+  <si>
+    <t>2SHhfs4BiDxGQ3oxqf0UHY</t>
+  </si>
+  <si>
+    <t>4tpUmLEVLCGFr93o8hFFIB</t>
+  </si>
+  <si>
+    <t>41ekW4MXG59xJMXR8dX1OG</t>
+  </si>
+  <si>
+    <t>77tT1kLj6mCWtFNqiOmP9H</t>
+  </si>
+  <si>
+    <t>0f5cjky3a6ee9e0WicpzhW</t>
+  </si>
+  <si>
+    <t>53A0W3U0s8diEn9RhXQhVz</t>
+  </si>
+  <si>
+    <t>2RE8NwNxsOyuNZDD0jRxHP</t>
+  </si>
+  <si>
+    <t>4dwdTW1Lfiq0cM8nBAqIIz</t>
+  </si>
+  <si>
+    <t>7ip3CWlgPZbQHvgJpmcGSS</t>
+  </si>
+  <si>
+    <t>4gwpcMTbLWtBUlOijbVpuu</t>
+  </si>
+  <si>
+    <t>2bcrMsFlF632EQ6VZERWFu</t>
+  </si>
+  <si>
+    <t>4OBJLual30L7gRl5UkeRcT</t>
+  </si>
+  <si>
+    <t>0cpt0xebTXatYk3KvnrU9m</t>
+  </si>
+  <si>
+    <t>04gDigrS5kc9YWfZHwBETP</t>
+  </si>
+  <si>
+    <t>26T3LtbuGT1Fu9m0eRq5X3</t>
+  </si>
+  <si>
+    <t>3JsMj0DEzyWc0VDlHuy9Bx</t>
+  </si>
+  <si>
+    <t>6BkcAbUkfIBM4XudxieMq8</t>
+  </si>
+  <si>
+    <t>2LIk90788K0zvyj2JJVwkJ</t>
+  </si>
+  <si>
+    <t>0KyCXNSa7ZMb5LydfKbLG3</t>
+  </si>
+  <si>
+    <t>3UbyYnvNIT5DFXU4WgiGpP</t>
+  </si>
+  <si>
+    <t>3EhbVgyfGd7HkpsagwL9GS</t>
+  </si>
+  <si>
+    <t>0DR4z5jMA1eqx0CmHBUpkr</t>
+  </si>
+  <si>
+    <t>0dlOr0VIysztGWvU1dpjmP</t>
+  </si>
+  <si>
+    <t>1b81zU0IfjHE8krv2IZ0Hf</t>
+  </si>
+  <si>
+    <t>2EMAnMvWE2eb56ToJVfCWs</t>
+  </si>
+  <si>
+    <t>771qBvjnXOH9Azr6lKy6FB</t>
+  </si>
+  <si>
+    <t>0z4gvV4rjIZ9wHck67ucSV</t>
+  </si>
+  <si>
+    <t>0cwmNvclzPd8mQnoHuIksj</t>
+  </si>
+  <si>
+    <t>7gP3bB2nilZXLfPHJhMdvc</t>
+  </si>
+  <si>
+    <t>4yiQZ8tQPux8cPriYMWUFP</t>
+  </si>
+  <si>
+    <t>19xz1vcuKNjniGEftTOSSH</t>
+  </si>
+  <si>
+    <t>7vk5e3vY1uw9plTHJAMwjN</t>
+  </si>
+  <si>
+    <t>7vXwfZyDp3spzIVNXDaTPN</t>
+  </si>
+  <si>
+    <t>1yjAx9cww4f1QuAaN3dUI2</t>
+  </si>
+  <si>
+    <t>5rScKX1Sh1U67meeUyTGwk</t>
+  </si>
+  <si>
+    <t>3oZa8Xs6IjlIUGLAhVyK4G</t>
+  </si>
+  <si>
+    <t>4rGrN4XDYhP6dUAZMvcuHr</t>
+  </si>
+  <si>
+    <t>3r17AfJCCUqC9Lf0OAc73G</t>
+  </si>
+  <si>
+    <t>3iTsJGG39nMg9YiolUgLMQ</t>
+  </si>
+  <si>
+    <t>0oea1hwGMfUxZbLxJc1XUN</t>
+  </si>
+  <si>
+    <t>08GQAI4eElDnROBrJRGE0X</t>
+  </si>
+  <si>
+    <t>77AiFEVeAVj2ORpC85QVJs</t>
+  </si>
+  <si>
+    <t>2DuJi13MWHjRHrqRUwk8vH</t>
+  </si>
+  <si>
+    <t>0ym94xKp2PIOJtTZKpxbAa</t>
+  </si>
+  <si>
+    <t>1pgtr4nhBQjp9oCUBPyYWh</t>
   </si>
   <si>
     <t>2VYQTNDsvvKN9wmU5W7xpj</t>
   </si>
   <si>
-    <t>6Fwq3TDWpMhcL1KTKVQiI8</t>
-  </si>
-  <si>
-    <t>4olk2DDoPvzAJlJBonZFHk</t>
-  </si>
-  <si>
-    <t>2xiIXseIJcq3nG7C8fHeBj</t>
-  </si>
-  <si>
-    <t>4RddZ3iHvSpGV4dvATac9X</t>
-  </si>
-  <si>
-    <t>4HrkLxQHZ5mgCtIVpiH5QX</t>
-  </si>
-  <si>
-    <t>3TOqt5oJwL9BE2NG9MEwDa</t>
-  </si>
-  <si>
-    <t>1pRaG81GsVtaTBuVSpldt2</t>
-  </si>
-  <si>
-    <t>6B5c4sch27tWHAGdarpPaW</t>
-  </si>
-  <si>
-    <t>0kD8IT1CzF7js2XKM9lLLa</t>
-  </si>
-  <si>
-    <t>2pqd3HsfsvcBGtHvPOg6eg</t>
-  </si>
-  <si>
-    <t>01ZtptlLUxoAbJDrS9fTqX</t>
-  </si>
-  <si>
-    <t>4hxDvVq5t8ebPYPdBl1F9f</t>
-  </si>
-  <si>
-    <t>6Wr3hh341P84m3EI8qdn9O</t>
-  </si>
-  <si>
-    <t>4jpaXieuls7LVzG1uma5Rs</t>
-  </si>
-  <si>
-    <t>7iWiAD5LLKyiox2grgfmUT</t>
-  </si>
-  <si>
-    <t>2zgG1GPDvjaBgxeQaVXI14</t>
-  </si>
-  <si>
-    <t>37394IP6uhnjIpsawpMu4l</t>
-  </si>
-  <si>
-    <t>49bzE5vRBRIota4qeHtQM8</t>
-  </si>
-  <si>
-    <t>4tususHNaR68xdgLstlGBA</t>
-  </si>
-  <si>
-    <t>01crEa9G3pNpXZ5m7wuHOk</t>
-  </si>
-  <si>
-    <t>64g59lHsc4g2jMFokrKDGW</t>
-  </si>
-  <si>
-    <t>1AeC9AuzqGc3IXMC2T5xny</t>
-  </si>
-  <si>
-    <t>5LfGQac0EIXyAN8aUwmNAQ</t>
-  </si>
-  <si>
-    <t>5S6hjAxgxjsLylsTtMIimO</t>
-  </si>
-  <si>
-    <t>0RqtSIYZmd4fiBKVFqyIqD</t>
-  </si>
-  <si>
-    <t>49qiE8dj4JuNdpYGRPdKbF</t>
-  </si>
-  <si>
-    <t>5KDIH2gF0VpelTqyQS7udb</t>
-  </si>
-  <si>
-    <t>0REMf7H0VP6DwfZ9MbuWph</t>
-  </si>
-  <si>
-    <t>5nGIFgo0shDenQYSE0Sn7c</t>
-  </si>
-  <si>
-    <t>6XyY86QOPPrYVGvF9ch6wz</t>
-  </si>
-  <si>
-    <t>0niJkG4tKkne3zwr7I8n9n</t>
-  </si>
-  <si>
-    <t>2RTUTCvo6onsAnheUk3aL9</t>
-  </si>
-  <si>
-    <t>6deZN1bslXzeGvOLaLMOIF</t>
-  </si>
-  <si>
-    <t>7jy3rLJdDQY21OgRLCZ9sD</t>
-  </si>
-  <si>
-    <t>2Tkg8omOIsTL617yXVt26e</t>
-  </si>
-  <si>
-    <t>6BMhCQJYHxxKAeqYS1p5rY</t>
-  </si>
-  <si>
-    <t>43sZBwHjahUvgbx1WNIkIz</t>
-  </si>
-  <si>
-    <t>0EyuKHE1AeE9lWUF8mzKVp</t>
-  </si>
-  <si>
-    <t>3YcBF2ttyueytpXtEzn1Za</t>
-  </si>
-  <si>
-    <t>0lVlNsuGaOr9vMHCZIAKMt</t>
-  </si>
-  <si>
-    <t>0CEFCo8288kQU7mJi25s6E</t>
-  </si>
-  <si>
-    <t>6Hizgjo92FnMp8wGaRUNTn</t>
-  </si>
-  <si>
-    <t>6qXwLwTLdA44HYsA26vaNU</t>
-  </si>
-  <si>
-    <t>7AQzXO3NPNQsI7oNu5rC3r</t>
-  </si>
-  <si>
-    <t>0EdvGhlC1FkGItLOWQzG4J</t>
-  </si>
-  <si>
-    <t>6FBDaR13swtiWwGhX1WQsP</t>
-  </si>
-  <si>
-    <t>0L8ExT028jH3ddEcZwqJJ5</t>
-  </si>
-  <si>
-    <t>1w5Kfo2jwwIPruYS2UWh56</t>
-  </si>
-  <si>
-    <t>2zsLaQhHFdQPdFXqG1nRmM</t>
-  </si>
-  <si>
-    <t>2d0hyoQ5ynDBnkvAbJKORj</t>
-  </si>
-  <si>
-    <t>1OVyBGCKn7vObVIVPXcmLa</t>
-  </si>
-  <si>
-    <t>0L5fC7Ogm2YwgqVCRcF1bT</t>
-  </si>
-  <si>
-    <t>6TZdvF1kFzwnQLgHQynzsO</t>
-  </si>
-  <si>
-    <t>2MqhkhX4npxDZ62ObR5ELO</t>
-  </si>
-  <si>
-    <t>6vwjIs0tbIiseJMR3pqwiL</t>
-  </si>
-  <si>
-    <t>2vKiJjsgjgqIECUyYeIVvO</t>
-  </si>
-  <si>
-    <t>4Ri061lbxtCwNoqDnprznA</t>
-  </si>
-  <si>
-    <t>0fkTQEEyEyH71i9tDhS7CO</t>
-  </si>
-  <si>
-    <t>1KEUVZo7CMTSJoM8doulOT</t>
-  </si>
-  <si>
-    <t>3RNrq3jvMZxD9ZyoOZbQOD</t>
-  </si>
-  <si>
-    <t>1ZjAT2nTrzDIXFfsQ2hWJk</t>
+    <t>488v7rQzthLNK22r0UvMie</t>
+  </si>
+  <si>
+    <t>0NKDgy9j66h3DLnN8qu1bB</t>
+  </si>
+  <si>
+    <t>5GJmQjUNRyNQ2VZ4HOIx1C</t>
+  </si>
+  <si>
+    <t>0XNa1vTidXlvJ2gHSsRi4A</t>
+  </si>
+  <si>
+    <t>3Isy6kedDrgPYoTS1dazA9</t>
+  </si>
+  <si>
+    <t>4gzpq5DPGxSnKTe4SA8HAU</t>
+  </si>
+  <si>
+    <t>6J7biCazzYhU3gM9j1wfid</t>
+  </si>
+  <si>
+    <t>0oSGxfWSnnOXhD2fKuz2Gy</t>
+  </si>
+  <si>
+    <t>6S0dmVVn4udvppDhZIWxCr</t>
+  </si>
+  <si>
+    <t>1yxSLGMDHlW21z4YXirZDS</t>
+  </si>
+  <si>
+    <t>0fA0VVWsXO9YnASrzqfmYu</t>
+  </si>
+  <si>
+    <t>0z5DFXmhT4ZNzWElsM7V89</t>
+  </si>
+  <si>
+    <t>6tbjWDEIzxoDsBA1FuhfPW</t>
+  </si>
+  <si>
+    <t>7EQ0qTo7fWT7DPxmxtSYEc</t>
+  </si>
+  <si>
+    <t>3Y3xIwWyq5wnNHPp5gPjOW</t>
+  </si>
+  <si>
+    <t>3vbKDsSS70ZX9D2OcvbZmS</t>
+  </si>
+  <si>
+    <t>2ZvrvbQNrHKwjT7qfGFFUW</t>
+  </si>
+  <si>
+    <t>02NfyD6AlLA12crYzw5YcR</t>
+  </si>
+  <si>
+    <t>3dXaa6jwM7B52GZpaJEIr5</t>
+  </si>
+  <si>
+    <t>6QMABvTzixnxzsLYyhqRxI</t>
+  </si>
+  <si>
+    <t>1bj5GrcLom5gZFF5t949Xl</t>
+  </si>
+  <si>
+    <t>1k8VBufn1nBs8LN9n4snc8</t>
+  </si>
+  <si>
+    <t>2w7IutHv5g4e8LumrwtjWR</t>
+  </si>
+  <si>
+    <t>7FIoB5PHdrMZVC3q2HE5MS</t>
+  </si>
+  <si>
+    <t>3BmGtnKgCSGYIUhmivXKWX</t>
+  </si>
+  <si>
+    <t>02da1vDJ2hWqfK7aJL6SJm</t>
+  </si>
+  <si>
+    <t>26bcq2nyj5GB7uRr558iQg</t>
   </si>
   <si>
     <t>5aYyPjAsLj7UzANzdupwnS</t>
   </si>
   <si>
-    <t>3ZQEU2arcWXSv3oz8hwWBK</t>
-  </si>
-  <si>
-    <t>4IR8ZkpbyyKrqsIzchF3NB</t>
-  </si>
-  <si>
-    <t>2AVVj8ezW2mJ0v8u7XydiF</t>
-  </si>
-  <si>
-    <t>5ojhEavq6altxW8fWIlLum</t>
-  </si>
-  <si>
-    <t>2ziB7fzrXBoh1HUPS6sVFn</t>
-  </si>
-  <si>
-    <t>4PoYwGOztIrPpBfRIlMSxP</t>
-  </si>
-  <si>
-    <t>3aBkeBhwadnWMWoVJ2CxJC</t>
-  </si>
-  <si>
-    <t>0fGVuq5ed21pM7iWwTcMyk</t>
-  </si>
-  <si>
-    <t>3iYvxketuV7AAPCJuWSDH2</t>
-  </si>
-  <si>
-    <t>7CGoviGsNXYmGOBkXk8dtW</t>
-  </si>
-  <si>
-    <t>74eX4C98E4FCrAMl39qRsJ</t>
-  </si>
-  <si>
-    <t>0eI3X5rAzHRZVe5FPk4MN1</t>
-  </si>
-  <si>
-    <t>4NpFxQe2UvRCAjto3JqlSl</t>
-  </si>
-  <si>
-    <t>1VW5tZ9pmSb2rG0GmSELwW</t>
-  </si>
-  <si>
-    <t>35Uu85Pq33mK8x1jYqsHY2</t>
-  </si>
-  <si>
-    <t>159qqlGwzE04xyqpfAwRLo</t>
-  </si>
-  <si>
-    <t>Bring Me The Horizon</t>
-  </si>
-  <si>
-    <t>Nova Twins</t>
-  </si>
-  <si>
-    <t>The Amity Affliction</t>
-  </si>
-  <si>
-    <t>Slipknot</t>
-  </si>
-  <si>
-    <t>Atreyu</t>
-  </si>
-  <si>
-    <t>Falling In Reverse</t>
-  </si>
-  <si>
-    <t>I Prevail</t>
-  </si>
-  <si>
-    <t>Asking Alexandria</t>
-  </si>
-  <si>
-    <t>Avenged Sevenfold</t>
-  </si>
-  <si>
-    <t>NOTHING MORE</t>
-  </si>
-  <si>
-    <t>Five Finger Death Punch</t>
-  </si>
-  <si>
-    <t>My Chemical Romance</t>
-  </si>
-  <si>
-    <t>Thousand Foot Krutch</t>
-  </si>
-  <si>
-    <t>Egypt Central</t>
-  </si>
-  <si>
-    <t>Breaking Benjamin</t>
-  </si>
-  <si>
-    <t>Alice In Chains</t>
-  </si>
-  <si>
-    <t>Sick Puppies</t>
-  </si>
-  <si>
-    <t>Shinedown</t>
-  </si>
-  <si>
-    <t>Godsmack</t>
-  </si>
-  <si>
-    <t>System Of A Down</t>
-  </si>
-  <si>
-    <t>Sixx:A.M.</t>
+    <t>4dpARuHxo51G3z768sgnrY</t>
+  </si>
+  <si>
+    <t>Bruno Mars</t>
+  </si>
+  <si>
+    <t>Save Ferris</t>
+  </si>
+  <si>
+    <t>Silk Sonic</t>
+  </si>
+  <si>
+    <t>beabadoobee</t>
+  </si>
+  <si>
+    <t>Bush</t>
+  </si>
+  <si>
+    <t>Joan Jett &amp; The Blackhearts</t>
+  </si>
+  <si>
+    <t>DB Boulevard</t>
+  </si>
+  <si>
+    <t>The Rembrandts</t>
+  </si>
+  <si>
+    <t>Taylor Swift</t>
+  </si>
+  <si>
+    <t>A Flock Of Seagulls</t>
+  </si>
+  <si>
+    <t>PSY</t>
+  </si>
+  <si>
+    <t>The WAV.s</t>
+  </si>
+  <si>
+    <t>Travis Barker</t>
+  </si>
+  <si>
+    <t>MAN WITH A MISSION</t>
+  </si>
+  <si>
+    <t>Sisqo</t>
+  </si>
+  <si>
+    <t>Danzig</t>
+  </si>
+  <si>
+    <t>The Goo Goo Dolls</t>
+  </si>
+  <si>
+    <t>Big Mountain</t>
+  </si>
+  <si>
+    <t>Electric Light Orchestra</t>
+  </si>
+  <si>
+    <t>Sex Pistols</t>
+  </si>
+  <si>
+    <t>The Kid LAROI</t>
+  </si>
+  <si>
+    <t>Skillet</t>
+  </si>
+  <si>
+    <t>*NSYNC</t>
+  </si>
+  <si>
+    <t>Nightcrawlers</t>
+  </si>
+  <si>
+    <t>The Knack</t>
+  </si>
+  <si>
+    <t>Roxette</t>
+  </si>
+  <si>
+    <t>Blondie</t>
+  </si>
+  <si>
+    <t>Alpha Blondy</t>
+  </si>
+  <si>
+    <t>Daryl Hall &amp; John Oates</t>
+  </si>
+  <si>
+    <t>Makedah</t>
+  </si>
+  <si>
+    <t>Keane</t>
+  </si>
+  <si>
+    <t>Kool Moe Dee</t>
+  </si>
+  <si>
+    <t>Of Monsters and Men</t>
+  </si>
+  <si>
+    <t>Peter Schilling</t>
+  </si>
+  <si>
+    <t>Capital Cities</t>
+  </si>
+  <si>
+    <t>The Bravery</t>
+  </si>
+  <si>
+    <t>T.I.</t>
+  </si>
+  <si>
+    <t>Pato Banton</t>
+  </si>
+  <si>
+    <t>Maroon 5</t>
+  </si>
+  <si>
+    <t>Cage The Elephant</t>
+  </si>
+  <si>
+    <t>Supertramp</t>
+  </si>
+  <si>
+    <t>Dr. Alban</t>
+  </si>
+  <si>
+    <t>Jack Harlow</t>
+  </si>
+  <si>
+    <t>David Lee Roth</t>
+  </si>
+  <si>
+    <t>Whitesnake</t>
+  </si>
+  <si>
+    <t>Alice Cooper</t>
+  </si>
+  <si>
+    <t>DJ Ötzi</t>
+  </si>
+  <si>
+    <t>Natalie Imbruglia</t>
+  </si>
+  <si>
+    <t>Captain Jack</t>
+  </si>
+  <si>
+    <t>Bryson Tiller</t>
+  </si>
+  <si>
+    <t>Michael Sembello</t>
+  </si>
+  <si>
+    <t>Akon</t>
+  </si>
+  <si>
+    <t>Vengaboys</t>
+  </si>
+  <si>
+    <t>Foster The People</t>
+  </si>
+  <si>
+    <t>Gwen Stefani</t>
+  </si>
+  <si>
+    <t>The Weather Girls</t>
+  </si>
+  <si>
+    <t>Alan Walker</t>
+  </si>
+  <si>
+    <t>Metro Station</t>
+  </si>
+  <si>
+    <t>Desireless</t>
+  </si>
+  <si>
+    <t>Michelle Branch</t>
+  </si>
+  <si>
+    <t>Irene Cara</t>
+  </si>
+  <si>
+    <t>Caesars</t>
+  </si>
+  <si>
+    <t>Fergie</t>
+  </si>
+  <si>
+    <t>Morrissey</t>
+  </si>
+  <si>
+    <t>Peter Tosh</t>
+  </si>
+  <si>
+    <t>Fleetwood Mac</t>
+  </si>
+  <si>
+    <t>Steve Aoki</t>
+  </si>
+  <si>
+    <t>Knife Party</t>
+  </si>
+  <si>
+    <t>Samantha Fox</t>
+  </si>
+  <si>
+    <t>Fountains Of Wayne</t>
   </si>
   <si>
     <t>Marilyn Manson</t>
   </si>
   <si>
-    <t>Saint Asonia</t>
-  </si>
-  <si>
-    <t>Devour the Day</t>
-  </si>
-  <si>
-    <t>Three Days Grace</t>
-  </si>
-  <si>
-    <t>Papa Roach</t>
-  </si>
-  <si>
-    <t>From Ashes to New</t>
-  </si>
-  <si>
-    <t>Disturbed</t>
-  </si>
-  <si>
-    <t>Pop Evil</t>
-  </si>
-  <si>
-    <t>Seether</t>
-  </si>
-  <si>
-    <t>STARSET</t>
-  </si>
-  <si>
-    <t>Highly Suspect</t>
-  </si>
-  <si>
-    <t>Red Sun Rising</t>
-  </si>
-  <si>
-    <t>HELLYEAH</t>
-  </si>
-  <si>
-    <t>Rise Against</t>
-  </si>
-  <si>
-    <t>Avatar</t>
-  </si>
-  <si>
-    <t>Bullet For My Valentine</t>
-  </si>
-  <si>
-    <t>All That Remains</t>
-  </si>
-  <si>
-    <t>Killswitch Engage</t>
-  </si>
-  <si>
-    <t>Skillet</t>
-  </si>
-  <si>
-    <t>Of Mice &amp; Men</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>My Darkest Days</t>
-  </si>
-  <si>
-    <t>Zakk Wylde</t>
-  </si>
-  <si>
-    <t>The Offspring</t>
-  </si>
-  <si>
-    <t>Saliva</t>
-  </si>
-  <si>
-    <t>Thirty Seconds To Mars</t>
-  </si>
-  <si>
-    <t>Stone Sour</t>
-  </si>
-  <si>
-    <t>Staind</t>
-  </si>
-  <si>
-    <t>10 Years</t>
-  </si>
-  <si>
-    <t>Evanescence</t>
-  </si>
-  <si>
-    <t>Linkin Park</t>
-  </si>
-  <si>
-    <t>Finger Eleven</t>
-  </si>
-  <si>
-    <t>3 Doors Down</t>
-  </si>
-  <si>
-    <t>Nickelback</t>
-  </si>
-  <si>
-    <t>Foo Fighters</t>
-  </si>
-  <si>
-    <t>Pillar</t>
-  </si>
-  <si>
-    <t>Hinder</t>
-  </si>
-  <si>
-    <t>Creed</t>
-  </si>
-  <si>
-    <t>Fuel</t>
-  </si>
-  <si>
-    <t>Incubus</t>
-  </si>
-  <si>
-    <t>Machine Head</t>
-  </si>
-  <si>
-    <t>Hollywood Undead</t>
-  </si>
-  <si>
-    <t>Vertical Horizon</t>
-  </si>
-  <si>
-    <t>Tonic</t>
-  </si>
-  <si>
-    <t>Marcy Playground</t>
-  </si>
-  <si>
-    <t>Sublime</t>
-  </si>
-  <si>
-    <t>blink-182</t>
-  </si>
-  <si>
-    <t>Red Hot Chili Peppers</t>
-  </si>
-  <si>
-    <t>Pearl Jam</t>
-  </si>
-  <si>
-    <t>Seven Mary Three</t>
-  </si>
-  <si>
-    <t>Rage Against The Machine</t>
-  </si>
-  <si>
-    <t>Otherwise</t>
-  </si>
-  <si>
-    <t>Volbeat</t>
-  </si>
-  <si>
-    <t>Alien Ant Farm</t>
-  </si>
-  <si>
-    <t>Hoobastank</t>
-  </si>
-  <si>
-    <t>Beartooth</t>
-  </si>
-  <si>
-    <t>Crown The Empire</t>
-  </si>
-  <si>
-    <t>Bobaflex</t>
-  </si>
-  <si>
-    <t>Ashes Remain</t>
-  </si>
-  <si>
-    <t>Smile Empty Soul</t>
-  </si>
-  <si>
-    <t>Korn</t>
-  </si>
-  <si>
-    <t>Adelitas Way</t>
+    <t>La Bouche</t>
+  </si>
+  <si>
+    <t>Eurythmics</t>
+  </si>
+  <si>
+    <t>Bodyrockers</t>
+  </si>
+  <si>
+    <t>Franz Ferdinand</t>
+  </si>
+  <si>
+    <t>Sean Paul</t>
+  </si>
+  <si>
+    <t>Coldplay</t>
+  </si>
+  <si>
+    <t>Jamiroquai</t>
+  </si>
+  <si>
+    <t>David Bowie</t>
+  </si>
+  <si>
+    <t>Sean Kingston</t>
+  </si>
+  <si>
+    <t>Black Eyed Peas</t>
+  </si>
+  <si>
+    <t>Kid Cudi</t>
+  </si>
+  <si>
+    <t>Erasure</t>
+  </si>
+  <si>
+    <t>Madonna</t>
+  </si>
+  <si>
+    <t>Bastille</t>
+  </si>
+  <si>
+    <t>Kenny Loggins</t>
+  </si>
+  <si>
+    <t>Beck</t>
+  </si>
+  <si>
+    <t>Herbie Hancock</t>
+  </si>
+  <si>
+    <t>Jane's Addiction</t>
+  </si>
+  <si>
+    <t>Puddle Of Mudd</t>
+  </si>
+  <si>
+    <t>Majestic</t>
+  </si>
+  <si>
+    <t>Martin Solveig</t>
+  </si>
+  <si>
+    <t>Stereo MC's</t>
+  </si>
+  <si>
+    <t>Stardust</t>
+  </si>
+  <si>
+    <t>George Harrison</t>
+  </si>
+  <si>
+    <t>Kelly Clarkson</t>
+  </si>
+  <si>
+    <t>Soul Asylum</t>
+  </si>
+  <si>
+    <t>Survivor</t>
   </si>
   <si>
     <t>Good Charlotte</t>
   </si>
   <si>
-    <t>CKY</t>
-  </si>
-  <si>
-    <t>Crossfade</t>
-  </si>
-  <si>
-    <t>Saving Abel</t>
-  </si>
-  <si>
-    <t>Escape the Fate</t>
-  </si>
-  <si>
-    <t>Audioslave</t>
-  </si>
-  <si>
-    <t>Soil</t>
-  </si>
-  <si>
-    <t>Rob Thomas</t>
-  </si>
-  <si>
-    <t>Amy Lee</t>
-  </si>
-  <si>
-    <t>Johan Olsen</t>
-  </si>
-  <si>
-    <t>Danko Jones</t>
-  </si>
-  <si>
-    <t>Theory of a Deadman</t>
-  </si>
-  <si>
-    <t>Bad Wolves</t>
-  </si>
-  <si>
-    <t>Greta Van Fleet</t>
-  </si>
-  <si>
-    <t>Jonathan Davis</t>
-  </si>
-  <si>
-    <t>Sevendust</t>
-  </si>
-  <si>
-    <t>Parkway Drive</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Bring-me-the-horizon', 'annotations': {'description': '&lt;p&gt;Bring Me The Horizon are a British &lt;a href="https://genius.com/tags/alternative-rock" rel="noopener"&gt;alternative rock&lt;/a&gt; band from Sheffield, Yorkshire—often stylised as simply “BMTH” or shortened to “Bring Me.” Formed in 2003, the group currently consists of lead vocalist &lt;a href="https://genius.com/artists/Oliver-sykes" rel="noopener" data-api_path="/artists/1007693"&gt;Oliver “Oli” Sykes,&lt;/a&gt; lead guitarist &lt;a href="https://genius.com/artists/Lee-malia" rel="noopener" data-api_path="/artists/1007694"&gt;Lee Malia,&lt;/a&gt; bassist &lt;a href="https://genius.com/artists/Matt-kean" rel="noopener" data-api_path="/artists/1094009"&gt;Matt Kean,&lt;/a&gt; drummer &lt;a href="https://genius.com/artists/Matt-nicholls" rel="noopener" data-api_path="/artists/1094010"&gt;Matt Nicholls,&lt;/a&gt; and keyboardist &lt;a href="https://genius.com/artists/Jordan-fish" rel="noopener" data-api_path="/artists/566546"&gt;Jordan Fish.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/c642295d139a03e53746037448f49329.1000x563x1.jpg" alt="" width="1000" height="563" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;The name of the band was taken from &lt;a href="https://www.imdb.com/title/tt0325980/characters/nm0000136" rel="noopener nofollow"&gt;Captain Jack Sparrow’s&lt;/a&gt; line in the first &lt;a href="https://www.imdb.com/title/tt0325980/" rel="noopener nofollow"&gt;&lt;em&gt;Pirates of the Caribbean&lt;/em&gt;&lt;/a&gt; which he says: &lt;a href="https://youtu.be/eZ69WdGN9Ys?t=18" rel="noopener nofollow"&gt;“Bring me that horizon.”&lt;/a&gt; Oli stated in an &lt;a href="https://www.altpress.com/features/entry/how_bands_got_their_names" rel="noopener nofollow"&gt;interview with &lt;em&gt;Spin&lt;/em&gt;&lt;/a&gt; how the name connects with his vision of the band:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Right at the end of the film—it might even be the very last line—&lt;a href="https://www.imdb.com/name/nm0000136/" rel="noopener nofollow"&gt;Johnny Depp&lt;/a&gt; says, “Bring me that horizon.” That was really inspiring. I was still living with my parents in Sheffield, England, when the movie came out [in 2003]. For me and the band, playing music was always wrapped up with the idea of touring and traveling and seeing the rest of England and the rest of the world. We never thought doing that was possible, but that’s what we wanted to do. So that quote sort of stands in for our feeling of wanting to see what the planet had to offer.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/a3eb78e16fb419fb99e064b798c430da.500x210x14.gif" alt="" width="500" height="210" data-animated="true"&gt;&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;BMTH’s sound has changed dramatically over the years. In their original incarnation, they were known for fast blast beats and &lt;a href="https://genius.com/tags/deathcore" rel="noopener"&gt;deathcore&lt;/a&gt; influences. With the official addition of Jordan Fish on 2013’s &lt;a href="https://genius.com/albums/Bring-me-the-horizon/Sempiternal" rel="noopener" data-api_path="/albums/29438"&gt;&lt;em&gt;Sempiternal&lt;/em&gt;,&lt;/a&gt; the group has steered towards a more stadium-friendly &lt;a href="https://genius.com/tags/alternative-rock" rel="noopener"&gt;alternative rock&lt;/a&gt; sound. This was a conscious decision for the band to embrace melody and reach a wider audience.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="http://www.independent.co.uk/arts-entertainment/music/oli-sykes-interview-bring-me-the-horizon-tour-o2-arena-royal-albert-hall-a7388161.html" rel="noopener nofollow"&gt;Oli explained the shift&lt;/a&gt; as due to maturing in age and shifting interests, as well as a desire to take the band further than ever before:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;We were just a metal band at one point. We were doing alright and playing some shows and now… now we’re one of the biggest heavy rock bands in the world. We want more now. It’s no longer just a fantasy; people know who we are. This can go as far as we want it to go. The only limit is us.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Two years after &lt;em&gt;Sempiternal&lt;/em&gt;, &lt;a href="https://genius.com/albums/Bring-me-the-horizon/That-s-the-spirit" rel="noopener" data-api_path="/albums/127993"&gt;&lt;em&gt;That’s The Spirit&lt;/em&gt;&lt;/a&gt; was released with even more approach to &lt;a href="https://genius.com/tags/alternative-rock" rel="noopener"&gt;alternative rock,&lt;/a&gt; becoming the band’s best selling album to date, with hits like &lt;a href="https://genius.com/Bring-me-the-horizon-drown-lyrics" rel="noopener" data-api_path="/songs/548384"&gt;“Drown,”&lt;/a&gt; &lt;a href="https://genius.com/Bring-me-the-horizon-happy-song-lyrics" rel="noopener" data-api_path="/songs/2174634"&gt;“Happy Song,”&lt;/a&gt; &lt;a href="https://genius.com/Bring-me-the-horizon-throne-lyrics" rel="noopener" data-api_path="/songs/2261403"&gt;“Throne”&lt;/a&gt; and &lt;a href="https://genius.com/Bring-me-the-horizon-follow-you-lyrics" rel="noopener" data-api_path="/songs/2291901"&gt;“Follow You.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;On January 25th, 2019, their sixth studio album &lt;a href="https://genius.com/albums/Bring-me-the-horizon/Amo" rel="noopener" data-api_path="/albums/415250"&gt;&lt;em&gt;amo&lt;/em&gt;&lt;/a&gt; was released. The record is very experimental and mixes pop and electronic elements, inspired also by &lt;a href="https://genius.com/tags/trap" rel="noopener"&gt;trap music&lt;/a&gt; on &lt;a href="https://genius.com/Bring-me-the-horizon-why-you-gotta-kick-me-when-im-down-lyrics" rel="noopener" data-api_path="/songs/4034879"&gt;“why you gotta kick me when i’m down.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;During 2020 COVID-19 pandemic, Bring Me started teasing videos of music prodution. At October 30, &lt;a href="https://genius.com/albums/Bring-me-the-horizon/Post-human-survival-horror" rel="noopener" data-api_path="/albums/614710"&gt;&lt;em&gt;POST HUMAN: SURVIVAL HORROR&lt;/em&gt;&lt;/a&gt; was released as a callback to the band’s old style. It features four singles, &lt;a href="https://genius.com/Bring-me-the-horizon-ludens-lyrics" rel="noopener" data-api_path="/songs/4912244"&gt;“Ludens,”&lt;/a&gt; &lt;a href="https://genius.com/Bring-me-the-horizon-parasite-eve-lyrics" rel="noopener" data-api_path="/songs/5405239"&gt;“Parasite Eve,”&lt;/a&gt; &lt;a href="https://genius.com/Bring-me-the-horizon-obey-lyrics" rel="noopener" data-api_path="/songs/5904555"&gt;“Obey”&lt;/a&gt; and &lt;a href="https://genius.com/Bring-me-the-horizon-teardrops-lyrics" rel="noopener" data-api_path="/songs/6058777"&gt;“Teardrops.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;The band’s logo is called “Antivist Symbol” and it’s  an &lt;a href="https://en.wikipedia.org/wiki/Unicursal_hexagram" rel="noopener nofollow"&gt;unicursal hexagram,&lt;/a&gt; used since 2013’s &lt;a href="https://genius.com/albums/Bring-me-the-horizon/Sempiternal" rel="noopener" data-api_path="/albums/29438"&gt;&lt;em&gt;Sempiternal&lt;/em&gt;&lt;/a&gt; release, because of the song &lt;a href="https://genius.com/Bring-me-the-horizon-antivist-lyrics" rel="noopener" data-api_path="/songs/124028"&gt;“Antivist.”&lt;/a&gt; In Aleister Crowley’s &lt;a href="https://en.wikipedia.org/wiki/Thelema" rel="noopener nofollow"&gt;Thelema,&lt;/a&gt; it means that everybody has one true goal in life.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/151384cf60ce8791a1e2c06ad36d2e5a.878x1000x1.png" alt="" width="878" height="1000" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;&lt;center&gt;(First version)&lt;/center&gt;&lt;/small&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/5fbd85da18e95ecf67085e285dac11bc.400x400x1.jpg" alt="" width="400" height="400" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;&lt;center&gt;(Actual version)&lt;/center&gt;&lt;/small&gt;&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;h3&gt;Current Lineup:&lt;/h3&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/Oliver-sykes" rel="noopener" data-api_path="/artists/1007693"&gt;Oliver “Oli” Sykes:&lt;/a&gt; lead vocals&lt;br&gt;\n&lt;a href="https://genius.com/artists/Jordan-fish" rel="noopener" data-api_path="/artists/566546"&gt;Jordan Fish:&lt;/a&gt; electronics, percussion, vocals&lt;br&gt;\n&lt;a href="https://genius.com/artists/Lee-malia" rel="noopener" data-api_path="/artists/1007694"&gt;Lee Malia:&lt;/a&gt; lead guitar&lt;br&gt;\n&lt;a href="https://genius.com/artists/Matt-kean" rel="noopener" data-api_path="/artists/1094009"&gt;Matt Kean:&lt;/a&gt; bass&lt;br&gt;\n&lt;a href="https://genius.com/artists/Matt-nicholls" rel="noopener" data-api_path="/artists/1094010"&gt;Matt Nicholls:&lt;/a&gt; drums&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/6613c20b24031bece922ae1e86da30cf.800x450x1.jpg" alt="" width="800" height="450" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;&lt;center&gt;(BMTH’s current lineup)&lt;/center&gt;&lt;/small&gt;&lt;/p&gt;', 'alternate_names': ['BMTH']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Nova-twins', 'annotations': {'description': '&lt;p&gt;Nova Twins are an English rock duo formed in London in 2014, consisting of vocalist/guitarist Amy Love and bassist Georgia South. Nova Twins have been described by The Guardian as a “bass-heavy duo fusing grime and punk,” and by themselves as “urban punk.” PRS for Music called them “a genre bending amalgamation of raw punk energy, illegal rave electronics and unapologetic grimey attitude.”&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/The-amity-affliction', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://en.wikipedia.org/wiki/The_Amity_Affliction" rel="noopener nofollow"&gt;The Amity Affliction&lt;/a&gt; is a melodic hardcore/post-hardcore and metalcore band from Gympie, Queensland, Australia.  The band has enjoyed a great deal of &lt;a href="https://en.wikipedia.org/wiki/The_Amity_Affliction_discography" rel="noopener nofollow"&gt;success&lt;/a&gt; in Australia, having two gold and one platinum album under their belts. Their 2014 and 2016 offerings charted in the USA as well.&lt;/p&gt;\n\n&lt;p&gt;The Amity Affliction was formed in 2003 by &lt;a href="https://genius.com/artists/Ahren-stringer" rel="noopener" data-api_path="/artists/90109"&gt;Ahren Stringer&lt;/a&gt; and &lt;a href="https://genius.com/artists/Troy-brady" rel="noopener" data-api_path="/artists/1002214"&gt;Troy Brady&lt;/a&gt; while they were still in high school. The name of the band reflected their amity toward their friend who had died in a car accident, and the pain his death caused.  The line-up on their demo included Garth Buchanan and Lachlan Faulkner; singer &lt;a href="https://genius.com/artists/Joel-birch" rel="noopener" data-api_path="/artists/347115"&gt;Joel Birch&lt;/a&gt; joined before the release of their first EP in 2005. Since then the band has gone through additional changes; the current line-up retains just one original member, Ahren Stringer (vocals, bass guitar), and also includes Joel Birch (vocals), &lt;a href="https://genius.com/artists/Dan-brown%20%28Amity" rel="noopener" data-api_path="/artists/1016619"&gt;Dan Brown&lt;/a&gt; (guitar) and Joe Longobardi. The Amity Affliction has released a total of five studio LPs and &lt;a href="https://genius.com/albums/The-amity-affliction/glory-days" rel="noopener" data-api_path="/albums/305457"&gt;&lt;em&gt;Glory Days&lt;/em&gt;&lt;/a&gt;, a compilation of their early EPs and demos. Their albums, &lt;a href="https://genius.com/albums/The-amity-affliction/youngbloods" rel="noopener" data-api_path="/albums/127767"&gt;&lt;em&gt;Youngbloods&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/The-amity-affliction/chasing-ghosts" rel="noopener" data-api_path="/albums/88476"&gt;Chasing Ghosts&lt;/a&gt; both got gold sales certifications in Australia, while &lt;a href="https://genius.com/albums/The-amity-affliction/Let-the-ocean-take-me" rel="noopener" data-api_path="/albums/105459"&gt;&lt;em&gt;Let The Ocean Take Me&lt;/em&gt;&lt;/a&gt; got platinum.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/albums/The-amity-affliction/This-could-be-heartbreak" rel="noopener" data-api_path="/albums/152805"&gt;&lt;em&gt;This Could Be Heartbreak&lt;/em&gt;&lt;/a&gt;, (released in August 2016) reached number one on the ARIA’s and UK Rock charts, number 12 in the USA and number 29 in Germany.&lt;/p&gt;\n\n&lt;p&gt;Their sixth album &lt;a href="https://genius.com/albums/The-amity-affliction/Misery" rel="noopener" data-api_path="/albums/438853"&gt;&lt;em&gt;Misery&lt;/em&gt;&lt;/a&gt; was released on August 24 2018.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Slipknot', 'annotations': {'description': '&lt;p&gt;Slipknot is a metal group based in Des Moines, Iowa. They were formed in 1995, and are well known for their live shows and their image of nine masked performers. They are one of the most important bands of the NWOAHM (New Wave of American Heavy Metal).&lt;/p&gt;\n\n&lt;p&gt;The band released their demo album &lt;em&gt;Mate, Feed, Kill, Repeat&lt;/em&gt; on October 31st, 1996. Slipknot went through several lineup changes before settling with their most known line-up: Sid Wilson, Joey Jordison, Paul Gray, Chris Fehn, Jim Root, Craig Jones, Shawn “Clown” Crahan, Mick Thompson, and Corey Taylor.&lt;/p&gt;\n\n&lt;p&gt;This core line-up rose to the spotlight after their self-titled debut in 1999 which contained the breakout singles &lt;a href="https://genius.com/Slipknot-wait-and-bleed-lyrics" rel="noopener" data-api_path="/songs/73691"&gt;“Wait and Bleed”&lt;/a&gt; and &lt;a href="https://genius.com/Slipknot-spit-it-out-lyrics" rel="noopener" data-api_path="/songs/73693"&gt;“Spit it Out.”&lt;/a&gt; They would go on to release &lt;em&gt;Iowa&lt;/em&gt; (2001), &lt;em&gt;Vol.3: The Subliminal Verses&lt;/em&gt; (2004), and &lt;em&gt;All Hope Is Gone&lt;/em&gt; (2008), and &lt;em&gt;.5: The Gray Chapter&lt;/em&gt; (2014) and &lt;em&gt;We Are Not Your Kind&lt;/em&gt; (2019). The band has sold millions of records worldwide.&lt;/p&gt;\n\n&lt;p&gt;On May 24th, 2010, bassist and founding member Paul Gray died. Although Slipknot continued to tour, Gray’s death called into the question the possibility of new material. However, in 2013, Slipknot went into the studio to write and record what would be their fifth album. On December 12th of the same year, the band parted ways with drummer and founding member Joey Jordison. It was later revealed in 2016 that Jordison suffered from a rare disease called transverse myelitis (which affected his nerves and left him unable to play the drums).&lt;/p&gt;\n\n&lt;p&gt;During the recording process, Slipknot recruited two new members whose identities were, at the time, kept secret. They released &lt;em&gt;.5: The Gray Chapter&lt;/em&gt; on October 21st, 2014. After a year of touring, it has been confirmed that Alessandro Venturella and Jay Weinberg were the new bassist and drummer of Slipknot.&lt;/p&gt;\n\n&lt;p&gt;On March 14, 2019, Chris Fehn filed a lawsuit against the band citing withheld payments. Fehn specifically accused Corey Taylor and Shawn Crahan of setting up several band-related business entities, in different states, that collect money from the band. Fehn called for full forensic accounting to be done on all of the band’s companies and assets in order to collect any profits and damages he may be owed. On March 17, 2019, the band officially announced, via their website, that Chris Fehn was no longer a member of the band, stating:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Slipknot’s focus is on making album #6, and our upcoming shows around the world, our best ever. Chris knows why he is no longer a part of Slipknot. We are disappointed that he chose to point fingers and manufacture claims, rather than doing what was necessary to continue to be a part of Slipknot. We would have preferred he not take the path that he has, but evolution in all things is a necessary part of this life. Long Live The Knot.&lt;/p&gt;&lt;/blockquote&gt;', 'alternate_names': ['Meld']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Atreyu', 'annotations': {'description': '&lt;p&gt;Atreyu is a &lt;a href="https://genius.com/tags/metalcore" rel="noopener"&gt;metalcore&lt;/a&gt; band founded in Orange County, California in 1998. The band’s name originated from the book/movie The Neverending Story. They have seven full-length albums, the most recent from 2018.&lt;/p&gt;\n\n&lt;p&gt;Vocals: &lt;a href="https://genius.com/artists/Alex-varkatzas" rel="noopener" data-api_path="/artists/1319804"&gt;Alex Varkatzas&lt;/a&gt;&lt;br&gt;\nGuitar: &lt;a href="https://genius.com/artists/Dan-jacobs" rel="noopener" data-api_path="/artists/1415910"&gt;Dan Jacobs&lt;/a&gt;&lt;br&gt;\nGuitar: &lt;a href="https://genius.com/artists/Travis-miguel" rel="noopener" data-api_path="/artists/1415909"&gt;Travis Miguel&lt;/a&gt;&lt;br&gt;\nBass: &lt;a href="https://genius.com/artists/Marc-mcknight" rel="noopener" data-api_path="/artists/1415911"&gt;Marc “Porter” McKnight&lt;/a&gt;&lt;br&gt;\nDrummer/vocals: &lt;a href="https://genius.com/artists/Brandon-saller" rel="noopener" data-api_path="/artists/458806"&gt;Brandon Saller&lt;/a&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Falling-in-reverse', 'annotations': {'description': '&lt;p&gt;Falling in Reverse is an American &lt;a href="https://genius.com/tags/post-hardcore" rel="noopener"&gt;post-hardcore&lt;/a&gt; band based in Las Vegas, Nevada and formed in 2008, signed to &lt;a href="https://genius.com/tags/epitaph-records" rel="noopener"&gt;Epitaph Records&lt;/a&gt;. The band’s name is &lt;a href="https://q1057.com/lead-singer-falling-in-reverse-says-wikipedia-liar/" rel="noopener nofollow"&gt;a reference to&lt;/a&gt; drugs, and &lt;a href="https://archive.is/20130119110322/http://www.chinashopmag.com/2011/11/jail-redemption-and-falling-in-reverse/#selection-1591.286-1591.427" rel="noopener nofollow"&gt;the consequences&lt;/a&gt; of using them:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I just wanted a positive name … I want to influence the nation to quit bad habits like that instead of influencing them to do it because they think that it’s the cool thing.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Vocalist Ronnie Radke &lt;a href="https://archive.is/20130119110322/http://www.chinashopmag.com/2011/11/jail-redemption-and-falling-in-reverse/" rel="noopener nofollow"&gt;began writing&lt;/a&gt; music while serving a 2 ½ year prison sentence, reflecting on his past mistakes, pondering his future goals, and unloading his feelings about being kicked out of his previous band Escape The Fate. His new group began recording its debut album after his release. &lt;em&gt;&lt;a href="https://genius.com/albums/Falling-in-reverse/The-drug-in-me-is-you" rel="noopener" data-api_path="/albums/18899"&gt;The Drug In Me Is You&lt;/a&gt;&lt;/em&gt; arrived on July 26, 2011, and peaked at No. 19 on the Billboard 200, selling 18,000 copies in its first week.&lt;/p&gt;\n\n&lt;p&gt;The band’s second studio album, &lt;em&gt;&lt;a href="https://genius.com/albums/falling-in-reverse/Fashionably-late" rel="noopener" data-api_path="/albums/33539"&gt;Fashionably Late&lt;/a&gt;&lt;/em&gt;, was released on June 18, 2013, which peaked at No. 17 on the Billboard 200. The band released its third album &lt;em&gt;&lt;a href="https://genius.com/albums/falling-in-reverse/just-like-you" rel="noopener" data-api_path="/albums/117913"&gt;Just like You&lt;/a&gt;&lt;/em&gt; on February 24, 2015. The band released its fourth album &lt;em&gt;&lt;a href="https://genius.com/albums/falling-in-reverse/coming-home" rel="noopener" data-api_path="/albums/326332"&gt;Coming Home&lt;/a&gt;&lt;/em&gt; on April 7, 2017.&lt;/p&gt;\n\n&lt;p&gt;On April 21, 2020, Ronnie Radke posted on his Instagram that unfortunately rhythm guitarist and founding member Derek Jones passed away. The band’s current lineup is vocalist &lt;a href="https://genius.com/artists/Ronnie-radke" rel="noopener" data-api_path="/artists/21277"&gt;Ronnie Radke&lt;/a&gt;, guitarist Max Georgiev, bassist Tyler Burgess and drummer Johnny Mele.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/I-prevail', 'annotations': {'description': '&lt;p&gt;Since their formation in 2013, the post-hardcore Detroit-based band has quickly garnered a global fan base with their potent mixture of aggressive rock, electronic arrangements, and seamless melodic elements. Their current lineup consists of clean vocalist &lt;a href="https://genius.com/artists/Brian-burkheiser" rel="noopener" data-api_path="/artists/1137411"&gt;Brian Burkheiser&lt;/a&gt;, unclean vocalist &lt;a href="https://genius.com/artists/Eric-vanlerberghe" rel="noopener" data-api_path="/artists/1137412"&gt;Eric Vanlerberghe&lt;/a&gt;, lead guitarist and studio bassist &lt;a href="https://genius.com/artists/Steve-menoian" rel="noopener" data-api_path="/artists/1137413"&gt;Steve Menoian&lt;/a&gt;, and rhythm guitarist &lt;a href="https://genius.com/artists/Dylan-bowman" rel="noopener" data-api_path="/artists/1138618"&gt;Dylan Bowman&lt;/a&gt;, and Gabe Helguera on the drums.&lt;/p&gt;\n\n&lt;p&gt;I Prevail first gained popularity after &lt;a href="https://www.youtube.com/watch?v=czb_CZfWko8" rel="noopener nofollow"&gt;posting a cover&lt;/a&gt; of &lt;a href="https://genius.com/I-prevail-blank-space-lyrics" rel="noopener" data-api_path="/songs/731773"&gt;“Blank Space”&lt;/a&gt; by &lt;a href="https://genius.com/artists/Taylor-swift" rel="noopener" data-api_path="/artists/1177"&gt;Taylor Swift&lt;/a&gt; on YouTube the first of December in 2014. It was later added as a bonus track to Fearless Records\' &lt;a href="https://genius.com/albums/Fearless-records/Punk-goes-pop-volume-6" rel="noopener" data-api_path="/albums/113789"&gt;&lt;em&gt;Punk Goes Pop Vol. 6.&lt;/em&gt;&lt;/a&gt; Ten days later, two singles for their debut EP were released, &lt;a href="https://genius.com/I-prevail-love-lust-and-liars-lyrics" rel="noopener" data-api_path="/songs/731763"&gt;“Love, Lust, and Liars”&lt;/a&gt; and &lt;a href="https://genius.com/I-prevail-the-enemy-lyrics" rel="noopener" data-api_path="/songs/731770"&gt;“The Enemy”&lt;/a&gt; Shortly after in January 2015, I Prevail released the EP &lt;a href="https://genius.com/albums/I-prevail/Heart-vs-mind" rel="noopener" data-api_path="/albums/122120"&gt;&lt;em&gt;Heart vs. Mind.&lt;/em&gt;&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;In June of 2016, I Prevail announced their debut album &lt;a href="https://genius.com/albums/I-prevail/Lifelines" rel="noopener" data-api_path="/albums/158244"&gt;&lt;em&gt;Lifelines&lt;/em&gt;&lt;/a&gt; would be released in October. &lt;a href="https://genius.com/I-prevail-scars-lyrics" rel="noopener" data-api_path="/songs/2800405"&gt;“Scars”&lt;/a&gt; was the first single, released July 1st, followed by &lt;a href="https://genius.com/I-prevail-stuck-in-your-head-lyrics" rel="noopener" data-api_path="/songs/2837208"&gt;“Stuck in Your Head”&lt;/a&gt; and &lt;a href="https://genius.com/I-prevail-come-and-get-it-lyrics" rel="noopener" data-api_path="/songs/2870351"&gt;“Come and Get It”&lt;/a&gt; released August 14 and September 28, respectively.&lt;/p&gt;\n\n&lt;p&gt;I Prevail toured all summer long on the Vans Warped Tour in 2017. At the Loudwire Music Awards, their song &lt;a href="https://genius.com/I-prevail-alone-lyrics" rel="noopener" data-api_path="/songs/2886622"&gt;“Alone”&lt;/a&gt; won Hard Rock Song of the Year.&lt;/p&gt;\n\n&lt;p&gt;In 2019, I Prevail released a series of singles before their second LP &lt;a href="https://genius.com/albums/I-prevail/Trauma" rel="noopener" data-api_path="/albums/506060"&gt;&lt;em&gt;Trauma&lt;/em&gt;&lt;/a&gt; was released on March 29. The first single released on February 18 was &lt;a href="https://genius.com/I-prevail-bow-down-lyrics" rel="noopener" data-api_path="/songs/4328458"&gt;“Bow Down,”&lt;/a&gt; immediately followed by &lt;a href="https://genius.com/I-prevail-breaking-down-lyrics" rel="noopener" data-api_path="/songs/4337810"&gt;“Breaking Down”&lt;/a&gt; a couple hours later. &lt;a href="https://genius.com/I-prevail-paranoid-lyrics" rel="noopener" data-api_path="/songs/4337807"&gt;“Paranoid”&lt;/a&gt; was released on March 18.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Asking-alexandria', 'annotations': {'description': '&lt;p&gt;Asking Alexandria are an English metalcore band from York, North Yorkshire formed in 2008 by lead guitarist &lt;a href="https://genius.com/artists/Ben-bruce" rel="noopener" data-api_path="/artists/480011"&gt;Ben Bruce&lt;/a&gt; along with lead singer &lt;a href="https://genius.com/artists/Danny-worsnop" rel="noopener" data-api_path="/artists/66091"&gt;Danny Worsnop&lt;/a&gt;, bassist &lt;a href="https://genius.com/artists/Joe-Lancaster" rel="noopener" data-api_path="/artists/1428800"&gt;Joe Lancaster&lt;/a&gt;, keyboardist and synth player &lt;a href="https://genius.com/artists/Ryan-binns" rel="noopener" data-api_path="/artists/1428802"&gt;Ryan Binns&lt;/a&gt;, and current members drummer &lt;a href="https://genius.com/artists/James-cassells" rel="noopener" data-api_path="/artists/1010476"&gt;James Cassells&lt;/a&gt; and rhythm guitarist &lt;a href="https://genius.com/artists/Cameron-liddell" rel="noopener" data-api_path="/artists/1231719"&gt;Cameron Liddell&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/f050f75ea67009475b246e25d6c44c71.770x532x1.jpg" alt="" width="770" height="532" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;&lt;center&gt;(Band’s formation line-up)&lt;/center&gt;&lt;/small&gt;&lt;/p&gt;\n\n&lt;p&gt;Lancaster and Binns later departed from the band in 2009 with Lancaster joining heavy metal band &lt;a href="https://genius.com/artists/With-one-last-breath" rel="noopener" data-api_path="/artists/348634"&gt;With One Last Breath&lt;/a&gt;. Bassist &lt;a href="https://genius.com/artists/Sam-bettley" rel="noopener" data-api_path="/artists/1231718"&gt;Sam Bettley&lt;/a&gt; joined the band that same year, and in January 2015 Worsnop departed to focus on his new band &lt;a href="https://genius.com/artists/We-are-harlot" rel="noopener" data-api_path="/artists/182095"&gt;We Are Harlot&lt;/a&gt; and was later replaced by &lt;a href="https://genius.com/artists/Denis-shaforostov" rel="noopener" data-api_path="/artists/324788"&gt;Denis Stoff&lt;/a&gt;. On October 2016, it was confirmed after many speculations and rumors that Stoff has been kicked out from the band, and Danny Worsnop has returned to the band.&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;The band’s music has mostly been described as metalcore, but has also been labelled heavy metal and hard rock. Additionally, it was also sometimes described as electronicore on their early work.&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;All of the band’s members have expressed their passion for 1980s rock music, and demonstrated it with releases such as the &lt;a href="https://genius.com/albums/Asking-alexandria/Life-gone-wild" rel="noopener" data-api_path="/albums/225726"&gt;&lt;em&gt;Life Gone Wild EP&lt;/em&gt;&lt;/a&gt; featuring covers of two &lt;a href="https://genius.com/artists/Skid-row" rel="noopener" data-api_path="/artists/38337"&gt;Skid Row&lt;/a&gt; songs or the &lt;a href="https://genius.com/albums/Asking-alexandria/Under-the-influence-a-tribute-to-the-legends-of-hard-rock" rel="noopener" data-api_path="/albums/222903"&gt;&lt;em&gt;Under the Influence: A Tribute to the Legends of Hard Rock EP&lt;/em&gt;&lt;/a&gt; featuring covers of songs by bands such as &lt;a href="https://genius.com/artists/Journey" rel="noopener" data-api_path="/artists/13184"&gt;Journey&lt;/a&gt;, &lt;a href="https://genius.com/artists/Motley-crue" rel="noopener" data-api_path="/artists/34312"&gt;Mötley Crüe&lt;/a&gt;, &lt;a href="https://genius.com/artists/Whitesnake" rel="noopener" data-api_path="/artists/36682"&gt;Whitesnake&lt;/a&gt; and &lt;a href="https://genius.com/artists/Def-leppard" rel="noopener" data-api_path="/artists/38335"&gt;Def Leppard&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/8fe544d19df8ad2ba6bff48498baa346.1000x525x1.png" alt="" width="1000" height="525" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;&lt;center&gt;(&lt;em&gt;Under The Influence&lt;/em&gt; artwork)&lt;/center&gt;&lt;/small&gt;&lt;/p&gt;\n\n&lt;p&gt;Their third studio album &lt;a href="https://genius.com/albums/Asking-alexandria/From-death-to-destiny" rel="noopener" data-api_path="/albums/42951"&gt;&lt;em&gt;From Death to Destiny&lt;/em&gt;&lt;/a&gt; is heavily influenced by such bands. Some of their favorite artists include &lt;a href="https://genius.com/artists/Guns-n-roses" rel="noopener" data-api_path="/artists/637"&gt;Guns N\' Roses&lt;/a&gt;, &lt;a href="https://genius.com/artists/Metallica" rel="noopener" data-api_path="/artists/10662"&gt;Metallica&lt;/a&gt;, &lt;a href="https://genius.com/artists/Motley-crue" rel="noopener" data-api_path="/artists/34312"&gt;Mötley Crüe&lt;/a&gt;, &lt;a href="https://genius.com/artists/Sebastian-bach" rel="noopener" data-api_path="/artists/267336"&gt;Sebastian Bach&lt;/a&gt;, &lt;a href="https://genius.com/artists/Skid-row" rel="noopener" data-api_path="/artists/38337"&gt;Skid Row&lt;/a&gt; and &lt;a href="https://genius.com/artists/Van-halen" rel="noopener" data-api_path="/artists/38215"&gt;Van Halen&lt;/a&gt;, but they also take influence from modern bands such as &lt;a href="https://genius.com/artists/Slipknot" rel="noopener" data-api_path="/artists/20222"&gt;Slipknot&lt;/a&gt; and &lt;a href="https://genius.com/artists/Avenged-sevenfold" rel="noopener" data-api_path="/artists/20710"&gt;Avenged Sevenfold&lt;/a&gt;.&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;When asked why he chose that particular name, Ben Bruce explained that:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Most bands have a pretty shit band name, so I just came up with something. I came up with Alexandria as a human name, because people relate to humans.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;&lt;strong&gt;PRESENT LINEUP:&lt;/strong&gt;&lt;br&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Danny-worsnop" rel="noopener" data-api_path="/artists/66091"&gt;Danny Worsnop&lt;/a&gt;:&lt;/strong&gt; lead vocals&lt;br&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Ben-bruce" rel="noopener" data-api_path="/artists/480011"&gt;Ben Bruce&lt;/a&gt;:&lt;/strong&gt; lead guitar, vocals&lt;br&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Cameron-liddell" rel="noopener" data-api_path="/artists/1231719"&gt;Cameron Liddell&lt;/a&gt;:&lt;/strong&gt; rhythm guitar&lt;br&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Sam-bettley" rel="noopener" data-api_path="/artists/1231718"&gt;Sam Bettley&lt;/a&gt;:&lt;/strong&gt; bass&lt;br&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/James-cassells" rel="noopener" data-api_path="/artists/1010476"&gt;James Cassells&lt;/a&gt;:&lt;/strong&gt; drums&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/d6269401cbcd0783368c5f5f2dea1d66.620x330x1.jpg" alt="" width="620" height="330" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;&lt;center&gt;(Band’s actual formation)&lt;/center&gt;&lt;/small&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Avenged-sevenfold', 'annotations': {'description': '&lt;p&gt;Avenged Sevenfold (sometimes abbreviated as A7X) are an American heavy metal band from Huntington Beach, California, formed in 1999. To date, the band have released seven studio albums, one DVD, and one live album. Two of their studio albums, &lt;em&gt;Nightmare&lt;/em&gt; and &lt;em&gt;Hail to the King&lt;/em&gt;, have debuted at #1 on the Billboard charts.&lt;/p&gt;\n\n&lt;p&gt;Until December 2009, the band’s lineup consisted of vocalist M. Shadows, lead guitarist Synyster Gates, rhythm guitarist Zacky Vengeance, bassist Johnny Christ, and drummer Jimmy “The Rev” Sullivan, who died of an accidental drug overdose while the band was making their fifth album, &lt;em&gt;Nightmare&lt;/em&gt;. For &lt;em&gt;Nightmare&lt;/em&gt;, The Rev was temporarily replaced by ex-&lt;a href="https://genius.com/artists/Dream-theater" rel="noopener" data-api_path="/artists/19712"&gt;Dream Theater&lt;/a&gt; drummer Mike Portnoy, before the band found a permanent replacement with Arin Ilejay. In July 2015, however, it was announced that the band would be moving forward without Ilejay. He was replaced by &lt;a href="https://genius.com/artists/Brooks-wackerman" rel="noopener" data-api_path="/artists/1016534"&gt;Brooks Wackerman&lt;/a&gt; of &lt;a href="https://genius.com/artists/Bad-religion" rel="noopener" data-api_path="/artists/27995"&gt;Bad Religion&lt;/a&gt;, who made his first contribution in Call of Duty: Black Ops III’s score “Jade Helm” (2015). In October 2016, the band have released their seventh studio album, “The Stage.”&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/314bfa844f3dd9e91f8c63711f6132f7.700x394x1.jpg" alt="" width="700" height="394" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': ['A7X']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Nothing-more', 'annotations': {'description': '&lt;p&gt;Nothing More is an American rock band from San Antonio, Texas. The band was formed in 2003 by longtime friends &lt;a href="https://genius.com/artists/Jonny-hawkins" rel="noopener" data-api_path="/artists/1046517"&gt;Jonny Hawkins&lt;/a&gt; and &lt;a href="https://genius.com/artists/Mark-vollelunga" rel="noopener" data-api_path="/artists/1151031"&gt;Mark Vollelunga&lt;/a&gt; after meeting and playing together throughout their school years.&lt;/p&gt;\n\n&lt;p&gt;Their debut album, &lt;a href="https://genius.com/albums/Nothing-more/Shelter" rel="noopener" data-api_path="/albums/306950"&gt;&lt;em&gt;Shelter&lt;/em&gt;&lt;/a&gt;, was released in 2004 with a lineup consisting of vocalist Josh Klaus, guitarists Mark Vollelunga and &lt;a href="https://genius.com/artists/Josh-kercheville" rel="noopener" data-api_path="/artists/1151033"&gt;Josh Kercheville&lt;/a&gt;, bassist Matt Reynolds, and drummer Jonny Hawkins. Nothing More had a hard time keeping a consistent lineup, going through several members but still failing to gain traction and secure a record label. Klaus and Reynolds were replaced by Travis Cox and &lt;a href="https://genius.com/artists/Daniel-oliver" rel="noopener" data-api_path="/artists/1151030"&gt;Daniel Oliver&lt;/a&gt; shortly after the release of Shelter, however, Cox was later swapped for &lt;a href="https://genius.com/artists/Trey-graham" rel="noopener" data-api_path="/artists/1151044"&gt;Trey Graham&lt;/a&gt; in 2006.&lt;/p&gt;\n\n&lt;p&gt;With Graham as their vocalist, they released their second album, &lt;a href="https://genius.com/albums/Nothing-more/Save-you-save-me" rel="noopener" data-api_path="/albums/177566"&gt;&lt;em&gt;Save You/Save Me&lt;/em&gt;&lt;/a&gt;, in 2007. However, despite finding some touring success with the album, the band found that they didn’t appreciate the direction that they were heading with Graham’s mainstream pop influence, which consequently leads to the band firing Graham.  After the departure of Graham in 2007 and Kercheville in 2008, the band was settled with core members Hawkins, Vollelunga, and Oliver. They continued in the pursuit of finding their preferred style and creative process, despite the hardships the band faced. Hawkins began to suffer from depression from a number of personal issues, most notably his mother’s fight with cancer and eventual passing.&lt;/p&gt;\n\n&lt;p&gt;It wasn’t long after that Hawkins opted to become the band’s vocalist and frontman, the band deciding that a major change was needed to move forward. This resulted in the first album, &lt;a href="https://genius.com/albums/Nothing-more/The-few-not-fleeting" rel="noopener" data-api_path="/albums/251732"&gt;&lt;em&gt;The Few Not Fleeting&lt;/em&gt;&lt;/a&gt;, to feature Hawkins as the vocalist in 2009. With the main members now largely responsible for the creative control of the band, the album took on more of a progressive/alternative rock sound, delving into the genres that would later define their future albums and mainstream success. This new approach was ultimately the first step in the right direction as they were finally able to find a sound they resonated with, untouched by outside influences. The album’s lyrics took a lot from Hawkins\' struggles, including the first track of the album, “&lt;a href="https://genius.com/Nothing-more-gone-lyrics" rel="noopener" data-api_path="/songs/2162909"&gt;Gone&lt;/a&gt;”, which speaks about his mother’s battle against cancer.&lt;/p&gt;\n\n&lt;p&gt;After years of being unable to find a record label, the band struck gold with their fifth and self-titled album, &lt;a href="https://genius.com/albums/Nothing-more/Nothing-more" rel="noopener" data-api_path="/albums/181520"&gt;&lt;em&gt;Nothing More&lt;/em&gt;&lt;/a&gt;, which was released independently in 2013. Only a day after playing for a second time at the &lt;a href="https://aftershockfestival.com/" rel="noopener nofollow"&gt;Aftershock Festival&lt;/a&gt; in September of the very same year, the long period of searching for a record contract was over. They finally entered a five-album deal with &lt;a href="https://genius.com/artists/Eleven-seven-music" rel="noopener" data-api_path="/artists/1114170"&gt;Eleven Seven Music&lt;/a&gt; and re-released the album in 2014. The album was highly received the second time around, earning them a breakthrough into the mainstream and the #33 spot on the &lt;a href="https://www.billboard.com/charts/billboard-200/2014-07-11" rel="noopener nofollow"&gt;Billboard 200&lt;/a&gt;. They had found success with rock radio and found a handful of their songs surfacing onto the &lt;a href="https://www.billboard.com/music/nothing-more/chart-history/RTT" rel="noopener nofollow"&gt;Mainstream Rock Chart&lt;/a&gt;. “&lt;a href="https://genius.com/Nothing-more-this-is-the-time-ballast-lyrics" rel="noopener" data-api_path="/songs/716375"&gt;This is the Time (Ballast)&lt;/a&gt;” hit #2, followed closely by “&lt;a href="https://genius.com/Nothing-more-heres-to-the-heartache-lyrics" rel="noopener" data-api_path="/songs/610542"&gt;Here’s To The Heartache&lt;/a&gt;” which charted at #4, “&lt;a href="https://genius.com/Nothing-more-jenny-lyrics" rel="noopener" data-api_path="/songs/610548"&gt;Jenny&lt;/a&gt;” at # 6, and “&lt;a href="https://genius.com/Nothing-more-mr-mtv-lyrics" rel="noopener" data-api_path="/songs/599289"&gt;Mr. MTV&lt;/a&gt;” at #12.&lt;/p&gt;\n\n&lt;p&gt;The fifth and latest album, &lt;a href="https://genius.com/albums/Nothing-more/The-stories-we-tell-ourselves" rel="noopener" data-api_path="/albums/348614"&gt;&lt;em&gt;The Stories We Tell Ourselves&lt;/em&gt;&lt;/a&gt;, was released in 2017. “&lt;a href="https://genius.com/Nothing-more-go-to-war-lyrics" rel="noopener" data-api_path="/songs/3130998"&gt;Go To War&lt;/a&gt;” was the first of five promotional singles made public prior to the album. Debuting at #15 on the &lt;a href="https://www.billboard.com/charts/billboard-200/2017-10-06" rel="noopener nofollow"&gt;Billboard 200&lt;/a&gt;, the album was nominated for &lt;a href="https://en.wikipedia.org/wiki/Grammy_Award_for_Best_Rock_Album" rel="noopener nofollow"&gt;Best Rock Album&lt;/a&gt; at the 2018 Grammy Awards, with “Go To War” nominated for Best Rock Performance and &lt;a href="https://en.wikipedia.org/wiki/Grammy_Award_for_Best_Rock_Song" rel="noopener nofollow"&gt;Best Rock Song&lt;/a&gt; as well. Later in the very same month, the single topped the &lt;a href="https://www.billboard.com/charts/hot-mainstream-rock-tracks/2017-12-01" rel="noopener nofollow"&gt;Billboard Mainstream Rock&lt;/a&gt; chart at #1.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Five-finger-death-punch', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Five Finger Death Punch&lt;/strong&gt;, often shortened to Death Punch and abbreviated as &lt;strong&gt;5FDP&lt;/strong&gt; or &lt;strong&gt;FFDP,&lt;/strong&gt; is an American heavy metal band from Los Angeles, California.&lt;/p&gt;\n\n&lt;p&gt;Formed in 2005, the band’s name is derived from a fictional martial arts maneuver in the 2003 film Kill Bill. The band originally consisted of vocalist Ivan Moody, guitarist Zoltan Bathory, guitarist Caleb Andrew Bingham, bassist Matt Snell, and drummer Jeremy Spencer. Bingham was replaced by guitarist Darrell Roberts in 2006, who was then replaced by Jason Hook in 2009. Bassist Matt Snell departed from the band in 2010, and was replaced by Chris Kael in 2011. Drummer Jeremy Spencer was replaced by Charlie Engen in 2018 due to re-occurring back issues. They are one of the most successful groove metal bands, and are known for their raw aesthetic voices.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/624d64cd46fb90d0e8bf51039b3142ca.735x400x1.jpg" alt="" width="735" height="400" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': ['5 Finger Death Punch', 'FFDP', '5FDP']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/My-chemical-romance', 'annotations': {'description': '&lt;p&gt;My Chemical Romance is an alt/punk/hardcore rock band that produced four studio albums and a compilation album over their initial twelve-year lifespan from 2001-2013. They then went on a six-year hiatus, until Halloween of 2019, when they announced a long-awaited revival of the band. They have touched the hearts of millions through their honest, raw lyrics and inspirational stories.&lt;/p&gt;\n\n&lt;p&gt;The band started after front-man and founder &lt;a href="https://genius.com/artists/Gerard-way" rel="noopener" data-api_path="/artists/24398"&gt;Gerard Way&lt;/a&gt; witnessed the 9/11 terror attacks in New York City. He felt compelled to empower people and make a difference in the world. As a result, he wrote the band’s first song, &lt;a href="https://genius.com/my-chemical-romance-skylines-and-turnstiles-lyrics" rel="noopener" data-api_path="/songs/91304"&gt;“Skylines And Turnstiles.”&lt;/a&gt; He shared the lyrics with his friend Matt Pelissier, who agreed to be the then-unnamed band’s drummer. Gerard then recruited Ray Toro, whom he used to be in a band with as the lead guitarist, and eventually invited his brother Mikey Way to be the bassist, and &lt;a href="https://genius.com/artists/Frank-iero" rel="noopener" data-api_path="/artists/212008"&gt;Frank Iero&lt;/a&gt; to be the rhythm guitarist.&lt;/p&gt;\n\n&lt;p&gt;Their first album, &lt;a href="https://genius.com/albums/My-chemical-romance/I-brought-you-my-bullets-you-brought-me-your-love" rel="noopener" data-api_path="/albums/22274"&gt;&lt;em&gt;I Brought You My Bullets, You Brought Me Your Love,&lt;/em&gt;&lt;/a&gt; was released in 2002. Some of the demos for the album were recorded in Matt Pelissier’s attic. Because of this, the demos are lovingly referred to as the “attic demos.” The album’s copyright warning reads:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Unauthorized duplication is a violation of applicable laws and will result in Gerard coming to your house and sucking your blood.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The band shot to stardom with their second album, &lt;a href="https://genius.com/albums/My-chemical-romance/Three-cheers-for-sweet-revenge" rel="noopener" data-api_path="/albums/15523"&gt;&lt;em&gt;Three Cheers For Sweet Revenge,&lt;/em&gt;&lt;/a&gt; which was released on Reprise Records. Songs like &lt;a href="https://genius.com/my-chemical-romance-Im-not-okay-lyrics" rel="noopener" data-api_path="/songs/1650241"&gt;“I’m Not Okay,”&lt;/a&gt; &lt;a href="https://genius.com/my-chemical-romance-helena-lyrics" rel="noopener" data-api_path="/songs/133414"&gt;“Helena,”&lt;/a&gt; and &lt;a href="https://genius.com/my-chemical-romance-the-ghost-of-you-lyrics" rel="noopener" data-api_path="/songs/133427"&gt;“The Ghost Of You”&lt;/a&gt; captivated listeners and expanded their fan-base. Following its release, the band played on the 2005 Vans Warped Tour, along with bands like &lt;a href="https://genius.com/artists/Fall-out-boy" rel="noopener" data-api_path="/artists/7811"&gt;Fall Out Boy&lt;/a&gt; and &lt;a href="https://genius.com/artists/Avenged-sevenfold" rel="noopener" data-api_path="/artists/20710"&gt;Avenged Sevenfold&lt;/a&gt;. Drummer Matt Pelissier decided to leave the band and was replaced by Bob Bryar.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/albums/my-chemical-romance/the-black-parade" rel="noopener" data-api_path="/albums/26560"&gt;&lt;em&gt;The Black Parade&lt;/em&gt;,&lt;/a&gt; arguably the band’s most popular effort, was released in 2006, and was a concept album detailing the death of a character called The Patient. It was again released on Reprise Records, and was the last MCR album with Bob Bryar as drummer. Years after the album dropped, Gerard Way revealed that the band &lt;a href="http://altpress.com/news/entry/gerard_way_says_the_black_parade_was_supposed_to_be_the_end_of_my_chemical" rel="noopener nofollow"&gt;planned on calling it a day and splitting up:&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;When the tour basically ended with us conquering the world, we were supposed to ride off into the sunset. I can’t think of a better ending than that. [It didn’t end there] because you get into careers, mortgages, families, crews, people, the machine itself – not to mention expectations of a record label that invested quite a bit in you, that would like more out of you, a fanbase that wants more out of you.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Luckily for fans, &lt;em&gt;TBP&lt;/em&gt; wasn’t the last of My Chem – they followed up the smash hit in 2010 with their final studio album, &lt;a href="https://genius.com/albums/my-chemical-romance/danger-days" rel="noopener"&gt;&lt;em&gt;Danger Days&lt;/em&gt;.&lt;/a&gt; The album acted as a rebirth from the depressing concepts of their previous releases and involved more upbeat tracks and messages.&lt;/p&gt;\n\n&lt;p&gt;Following &lt;a href="https://genius.com/albums/my-chemical-romance/danger-days" rel="noopener"&gt;&lt;em&gt;Danger Days&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/My-chemical-romance/Conventional-weapons" rel="noopener" data-api_path="/albums/31343"&gt;&lt;em&gt;Conventional Weapons&lt;/em&gt;&lt;/a&gt;, a compilation album featuring ten previously unreleased songs, was gradually released: these tracks feature Bob Bryar, as they were recorded in 2009, prior to his departure from the band. The album was never released due to dissatisfaction from the band’s previous producer.&lt;/p&gt;\n\n&lt;p&gt;On March 22nd, 2013, &lt;a href="http://www.mychemicalromance.com/node/2842611" rel="noopener nofollow"&gt;the band announced that they were breaking up.&lt;/a&gt; A compilation album titled &lt;em&gt;May Death Never Stop You&lt;/em&gt; was released, featuring a new song, &lt;em&gt;Fake Your Death&lt;/em&gt;. Despite the upset fans\' pleas, no definite answer has been given as to why they split. Some claim they had trouble with their record label, while others believe Gerard had relapsed into alcohol dependence. In the end, it was simply left at “personal reasons.”&lt;/p&gt;\n\n&lt;p&gt;The band took a six-year hiatus, assumed by most to be a permanent departure of the group. However, this wasn’t the case. On October 31, 2019, the band suddenly sprung their return to the music scene upon their fans, with &lt;a href="https://twitter.com/MCRofficial/status/1189980367677083648" rel="noopener nofollow"&gt;a tweet advertising an upcoming reunion performance. &lt;/a&gt; Tour dates followed soon after, but news of a new album has yet to come.&lt;/p&gt;', 'alternate_names': ['MCR']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Thousand-foot-krutch', 'annotations': {'description': '&lt;p&gt;&lt;img src="https://images.genius.com/3962028e132c86f93fa8c9f6dca791c8.225x94x1.png" alt="" width="225" height="94" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Thousand Foot Krutch is a Canadian Christian rock band formed in 1995. Thousand Foot Krutch’s music has always been enveloped with heat and energy. The interplay between the pulsing bass, courtesy of Joel Bruyere, and pounding drums of Steve Augustine are the backbone over which Trevor spits out some of the most rapid fire and melodic lyrics in rock and roll. While musically “heavy,”they’ve always veered more towards the funk of Rage Against the Machine while simultaneously incorporating the fast-paced, rhythmic singing of Michael Jackson circa the Bad days. Bending genres and styles, their songs have been featured prominently in numerous commercials, sports promos, and film trailers.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Egypt-central', 'annotations': {'description': '&lt;p&gt;Egypt Central is an American alternative metal band from Memphis, Tennessee. Egypt Central was formed on October 2, 2002. They wrote and recorded for one year until generating a buzz in their hometown of Memphis, Tennessee.[citation needed] After eight shows, they caught the attention of former Lava Records CEO Jason Flom. Flom offered the band a record deal after seeing their live performances. Egypt Central’s self-titled debut album was recorded with producer Josh Abraham in Los Angeles. It experienced many delays, eventually being released by Fat Lady Music on January 15, 2008. Two singles were released to promote the album: “You Make Me Sick” and “Taking You Down”. These two tracks also ended up being on the soundtrack of the video game WWE SmackDown vs. Raw 2009. They have performed with bands like Disturbed, Seether, Sevendust, Hurt, Red, In This Moment, and many others.&lt;/p&gt;\n\n&lt;p&gt;There is rumored to be an entire second album which never got released due to legal issues with their record label. Two songs meant for this album, “Hate” and “California Dreams” (later reworked as “Citizen Radio” and released on the Murder in the French Quarter: Rare &amp;amp; Unreleased EP), were performed live while on tour in 2008.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Breaking-benjamin', 'annotations': {'description': '&lt;p&gt;Breaking Benjamin is a rock band from Wilkes-Barre, Pennsylvania. The band was formed in 1999 by lead singer &lt;a href="https://genius.com/artists/Benjamin-burnley" rel="noopener" data-api_path="/artists/502352"&gt;Ben Burnley&lt;/a&gt; and former drummer &lt;a href="https://genius.com/artists/Jeremy-hummel" rel="noopener" data-api_path="/artists/1087832"&gt;Jeremy Hummel&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The band was originally named Plan 9, which is a reference to the 1959 film &lt;a href="https://www.imdb.com/title/tt0052077/" rel="noopener nofollow"&gt;&lt;em&gt;Plan 9 from Outer Space&lt;/em&gt;&lt;/a&gt;. The band continuously was misnamed as Planet 9 and drove them to change their name to Breaking Benjamin (Which was the name of Ben’s previous band.) The name originates from  an incident in which Ben accidentally dropped the mic, and the sound man yelled&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;“Thanks to Benjamin for breaking my fucking mic!”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;In 2004, their sophomore album &lt;a href="https://genius.com/albums/Breaking-benjamin/We-are-not-alone" rel="noopener" data-api_path="/albums/76017"&gt;&lt;em&gt;We Are Not Alone&lt;/em&gt;&lt;/a&gt; was released. They collaborated with &lt;a href="https://genius.com/artists/Smashing-pumpkins" rel="noopener" data-api_path="/artists/12025"&gt;Smashing Pumpkins&lt;/a&gt; vocalist &lt;a href="https://genius.com/artists/Billy-corgan" rel="noopener" data-api_path="/artists/42637"&gt;Billy Corgan&lt;/a&gt; on writing their songs &lt;a href="https://genius.com/Breaking-benjamin-rain-lyrics" rel="noopener" data-api_path="/songs/424617"&gt;“Rain”&lt;/a&gt;, &lt;a href="https://genius.com/Breaking-benjamin-forget-it-lyrics" rel="noopener" data-api_path="/songs/399168"&gt;“Forget It”&lt;/a&gt;, and &lt;a href="https://genius.com/Breaking-benjamin-follow-radio-edit-lyrics" rel="noopener" data-api_path="/songs/424537"&gt;“Follow”&lt;/a&gt;. The album peaked at #20 on the &lt;a href="https://www.billboard.com/music/breaking-benjamin/chart-history/billboard-200/song/457115" rel="noopener nofollow"&gt;Billboard 200&lt;/a&gt; and has been certified &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;ar=BREAKING+BENJAMIN&amp;amp;ti=WE+ARE+NOT+ALONE" rel="noopener nofollow"&gt;platinum&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2005, they released their second platinum album &lt;a href="https://genius.com/albums/Breaking-benjamin/Phobia" rel="noopener" data-api_path="/albums/18447"&gt;&lt;em&gt;Phobia&lt;/em&gt;&lt;/a&gt;. The albums lead single &lt;a href="https://genius.com/Breaking-benjamin-the-diary-of-jane-lyrics" rel="noopener" data-api_path="/songs/79054"&gt;“Diary of Jane”&lt;/a&gt; peaked at #2 on the Billboard &lt;a href="https://www.billboard.com/music/breaking-benjamin/chart-history/hot-mainstream-rock-tracks/song/502058" rel="noopener nofollow"&gt;Mainstream Rock Chart&lt;/a&gt;. It received a double-platinum certification and was the fastest single added to radio stations in Hollywood Records history.&lt;/p&gt;\n\n&lt;p&gt;The band began their hiatus in 2010 after a dispute between band members about the release of the &lt;a href="https://genius.com/Breaking-benjamin-blow-me-away-feat-valora-lyrics" rel="noopener" data-api_path="/songs/1513040"&gt;“Blow Me Away”&lt;/a&gt; remix with Syndee Duran.&lt;/p&gt;\n\n&lt;p&gt;Ben returned in 2014 with a whole new lineup. Their first album together &lt;a href="https://genius.com/albums/Breaking-benjamin/Dark-before-dawn" rel="noopener" data-api_path="/albums/126578"&gt;&lt;em&gt;Dark Before Dawn&lt;/em&gt;&lt;/a&gt; made its way up the charts very quickly and peaked at #1 on the Billboard 200. It was certified &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;ar=BREAKING+BENJAMIN&amp;amp;ti=DARK+BEFORE+DAWN" rel="noopener nofollow"&gt;gold&lt;/a&gt; in 2016.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Alice-in-chains', 'annotations': {'description': '&lt;p&gt;Alice in Chains are a Seattle-based rock band. They rose to international fame in the early 1990s as part of the ‘grunge’ movement. They are one of the most critically and commercially acclaimed acts of the 90s. Their first 3 studio albums all went multi-platinum and they have received 8 Grammy nominations for Best Hard Rock performance (sadly, never winning once).&lt;/p&gt;\n\n&lt;p&gt;Their unique sound comes from the harmonized vocals of co-founders &lt;a href="https://genius.com/artists/layne-staley" rel="noopener" data-api_path="/artists/461445"&gt;Layne Staley&lt;/a&gt; and &lt;a href="https://genius.com/artists/jerry-cantrell" rel="noopener" data-api_path="/artists/159296"&gt;Jerry Cantrell&lt;/a&gt;, as showcased in some of their biggest songs like &lt;a href="https://genius.com/Alice-in-chains-no-excuses-lyrics" rel="noopener" data-api_path="/songs/339309"&gt;“No Excuses”&lt;/a&gt; from &lt;a href="https://genius.com/albums/alice-in-chains/jar-of-flies" rel="noopener" data-api_path="/albums/38745"&gt;&lt;em&gt;Jar of Flies&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/Alice-in-chains-angry-chair-lyrics" rel="noopener" data-api_path="/songs/391256"&gt;“Angry Chair”&lt;/a&gt; from &lt;a href="https://genius.com/albums/alice-in-chains/dirt" rel="noopener" data-api_path="/albums/38159"&gt;&lt;em&gt;Dirt&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/Alice-in-chains-again-lyrics" rel="noopener" data-api_path="/songs/113953"&gt;“Again”&lt;/a&gt; from the &lt;a href="https://genius.com/albums/alice-in-chains/alice-in-chains" rel="noopener" data-api_path="/albums/27730"&gt;self-titled&lt;/a&gt; album. Cantrell also serves as the primary songwriter and guitarist of the band.&lt;/p&gt;\n\n&lt;p&gt;The band was never restricted to grunge. Cantrell believes it to be heavy metal; and indeed a lot of modern heavy metal bands &lt;a href="https://en.wikipedia.org/wiki/Alice_in_Chains#Legacy" rel="noopener nofollow"&gt;cite Alice in Chains as an influence&lt;/a&gt;, including &lt;a href="https://genius.com/artists/Metallica" rel="noopener" data-api_path="/artists/10662"&gt;Metallica&lt;/a&gt; for &lt;a href="https://genius.com/albums/Metallica/Death-magnetic" rel="noopener" data-api_path="/albums/40083"&gt;Death Magnetic&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The band’s frontman, Layne Staley, suffered throughout his life from depression and substance abuse, which eventually took his life in 2002. It was a huge blow to the industry and many prominent bands recorded &lt;a href="https://genius.com/Staind-layne-lyrics" rel="noopener" data-api_path="/songs/2303320"&gt;songs&lt;/a&gt; as odes to Staley.&lt;/p&gt;\n\n&lt;p&gt;After extended inactivity, the band recruited &lt;a href="https://genius.com/artists/william-duvall" rel="noopener" data-api_path="/artists/574582"&gt;William DuVall&lt;/a&gt; and have released three successful studio albums since his inclusion.&lt;/p&gt;', 'alternate_names': ['AIC']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Sick-puppies', 'annotations': {'description': '&lt;p&gt;Sick Puppies is a hard rock band from Australia that formed in 1997. The band currently consists of:&lt;/p&gt;\n\n&lt;p&gt;Bryan Scott – lead vocals, guitar&lt;br&gt;\nEmma Anzai – bass, vocals&lt;br&gt;\nMark Goodwin – drums, backing vocals&lt;/p&gt;\n\n&lt;p&gt;They initially rose to fame from their song All The Same being posted on YouTube in a music video.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Shinedown', 'annotations': {'description': '&lt;p&gt;Shinedown is an American hard rock band from Jacksonville, Florida, formed in 2001 and founded by members Brent Smith (vocals), Brad Stewart (bass), Jasin Todd (guitar), and Barry Kerch (drums).&lt;/p&gt;\n\n&lt;p&gt;Smith originally performed as the frontman and lead singer of a band titled &lt;a href="https://genius.com/artists/Dreve" rel="noopener" data-api_path="/artists/1192441"&gt;Dreve&lt;/a&gt; in the mid-1990’s. The only member to be signed to a label was Brent Smith, as the record label was unhappy with Dreve and were dropped prior to releasing an album.&lt;/p&gt;\n\n&lt;p&gt;During the span of their first five albums, a few lineup changes followed, making the band’s only two remaining original members Smith and Kerch.&lt;/p&gt;\n\n&lt;p&gt;Since their inception, the group has released &lt;em&gt;Leave a Whisper&lt;/em&gt;, &lt;em&gt;Us and Them&lt;/em&gt;, &lt;em&gt;The Sound of Madness&lt;/em&gt;, &lt;em&gt;Amaryllis&lt;/em&gt;, and &lt;em&gt;Threat to Survival&lt;/em&gt;, along with &lt;em&gt;Attention Attention&lt;/em&gt;. Over their 18 year span, they have sold more than six million albums worldwide.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Godsmack', 'annotations': {'description': '&lt;p&gt;Godsmack is an American alternative metal band from Lawrence, Massachusetts, formed in 1995. The band is composed of founder, frontman and songwriter Sully Erna, guitarist Tony Rombola, bassist Robbie Merrill, and drummer Shannon Larkin. Since its formation, Godsmack has released six studio albums, one EP, four DVDs, one compilation album, and one live album.&lt;/p&gt;\n\n&lt;p&gt;The band has had three consecutive number-one albums (Faceless, IV, and The Oracle) on the Billboard 200. The band also has 20 top ten rock radio hits, including 15 songs in the top five, a record number of top ten singles by a rock artist.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/System-of-a-down', 'annotations': {'description': '&lt;p&gt;System of a Down, also known by the acronym ‘SOAD’ and often shortened to ‘System,’ are an Armenian four-piece rock band from Southern California, formed in 1994.&lt;/p&gt;\n\n&lt;hr&gt;\n\n\n&lt;p&gt;The band achieved commercial success with the release of five studio albums, and &lt;a href="https://genius.com/albums/System-of-a-down/Toxicity" rel="noopener" data-api_path="/albums/18852"&gt;&lt;em&gt;Toxicity&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/System-of-a-down/Mezmerize" rel="noopener" data-api_path="/albums/20128"&gt;&lt;em&gt;Mezmerize&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/System-of-a-down/Hypnotize" rel="noopener" data-api_path="/albums/26057"&gt;&lt;em&gt;Hypnotize&lt;/em&gt;&lt;/a&gt; have all debuted at number one on the Billboard 200. System of a Down has been nominated for four Grammy Awards, and their song &lt;a href="https://genius.com/System-of-a-down-byob-lyrics" rel="noopener" data-api_path="/songs/75978"&gt;“B.Y.O.B.”&lt;/a&gt; won the Best Hard Rock Performance of 2006.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/6721d312ac721b756f51a7f55359521a.1000x1000x1.jpg" alt="" width="1000" height="1000" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;&lt;center&gt;(&lt;em&gt;Toxicity&lt;/em&gt;’s album art)&lt;/center&gt;&lt;/small&gt;&lt;/p&gt;\n\n&lt;p&gt;The group briefly disbanded in August 2006 and reunited in November 2010, embarking on a tour for the following three years. They had two subsequent worldwide tours in 2015 and 2017.&lt;br&gt;\nThey returned with two singles, &lt;a href="https://genius.com/System-of-a-down-protect-the-land-lyrics" rel="noopener" data-api_path="/songs/6139655"&gt;“Protect the Land”&lt;/a&gt; and &lt;a href="https://genius.com/System-of-a-down-genocidal-humanoidz-lyrics" rel="noopener" data-api_path="/songs/6139659"&gt;“Genocidal Humanoidz”&lt;/a&gt; in November 2020, after fifteen years since their last studio album.&lt;/p&gt;\n\n&lt;p&gt;System of a Down has sold over 40 million records worldwide, and two of their singles, &lt;a href="https://genius.com/System-of-a-down-aerials-lyrics" rel="noopener" data-api_path="/songs/94438"&gt;“Aerials”&lt;/a&gt; and &lt;a href="https://genius.com/System-of-a-down-hypnotize-lyrics" rel="noopener" data-api_path="/songs/105732"&gt;“Hypnotize,”&lt;/a&gt; reached number one on Billboard’s Alternative Songs chart.&lt;/p&gt;\n\n&lt;hr&gt;\n\n\n&lt;p&gt;The band currently consists of four Armenian Americans:&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;&lt;a href="https://genius.com/artists/Serj-tankian" rel="noopener" data-api_path="/artists/11189"&gt;Serj Tankian&lt;/a&gt;:&lt;/strong&gt; lead vocals, keyboards, guitar on occasion.&lt;br&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Daron-malakian" rel="noopener" data-api_path="/artists/126460"&gt;Daron Malakian&lt;/a&gt;:&lt;/strong&gt; vocals, guitar.&lt;br&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Shavo-odadijan" rel="noopener"&gt;Shavo Odadjian&lt;/a&gt;:&lt;/strong&gt; bass, backing vocals.&lt;br&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/John-dolmayan" rel="noopener" data-api_path="/artists/646522"&gt;John Dolmayan&lt;/a&gt;:&lt;/strong&gt; drums.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/ee9fd1183055081763eedde0c6953a99.620x400x1.jpg" alt="" width="620" height="400" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;center&gt;&lt;small&gt;(SOAD’s actual formation)\n&lt;/small&gt;&lt;/center&gt;', 'alternate_names': ['SOAD']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Sixx-am', 'annotations': {'description': '&lt;p&gt;Sixx:A.M. is a side project of &lt;a href="https://genius.com/artists/Motley-crue" rel="noopener" data-api_path="/artists/34312"&gt;Motley Crue&lt;/a&gt;’s bassist &lt;a href="https://genius.com/artists/Nikki-sixx" rel="noopener" data-api_path="/artists/663569"&gt;Nikki Sixx&lt;/a&gt;.&lt;br&gt;\nThe name of the hard rock band is a clever word play of the members\' last names (Nikki &lt;strong&gt;Sixx&lt;/strong&gt; – the bassist; DJ &lt;strong&gt;A&lt;/strong&gt;shba – the lead guitarist, James &lt;strong&gt;M&lt;/strong&gt;ichael – the vocalist, the lead guitarist and the drum programmer).&lt;/p&gt;\n\n&lt;p&gt;The band has released 3 studio albums. &lt;em&gt;The Heroin Diaries Soundtracks&lt;/em&gt; and &lt;em&gt;This Is Gonna Hurt&lt;/em&gt; were both concept albums accompanied by Nikki Sixx’s books. The debut was based on &lt;em&gt;The Heroin Diaries: A Year in the Life of a Shattered Rock Star&lt;/em&gt;, a collection of Nikki Sixx’s diaries entries which chronicles his struggle with drug dependency between the two Christmas in 1986 and 1987. &lt;em&gt;This is Gonna Hurt&lt;/em&gt; was released as a companion to Nikki Sixx’s photograph album with the same title, with the songs and the photographs inspiring each other.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/b159be719c06247bf18848b3d5f79c7e.826x778x1.jpg" alt="" width="826" height="778" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
+    <t>Adele</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Bruno-mars', 'annotations': {'description': '&lt;p&gt;Peter Gene Hernandez (born October 8, 1985), known by his stage name Bruno Mars, is an American singer-songwriter and record producer.&lt;/p&gt;\n\n&lt;p&gt;Raised in Honolulu, Hawaii, by a family of musicians, Mars began making music at a young age and performed in various musical venues in his hometown throughout his childhood. He graduated from high school and moved to Los Angeles, California, to pursue a musical career.&lt;/p&gt;\n\n&lt;p&gt;His debut album &lt;a href="https://genius.com/albums/Bruno-mars/Doo-wops-hooligans" rel="noopener" data-api_path="/albums/13120"&gt;&lt;em&gt;Doo-Wops and Hooligans&lt;/em&gt;&lt;/a&gt; was released in 2010 with three hit singles. His second album, &lt;a href="https://genius.com/albums/Bruno-mars/Unorthodox-jukebox" rel="noopener" data-api_path="/albums/493008"&gt;&lt;em&gt;Unorthodox Jukebox&lt;/em&gt;&lt;/a&gt;, was released in 2012 and quickly reached the number one selling album in the U.S. at the time while spawning multiple hit singles of its own. On Friday, October 7th, 2016, he released the lead single and music video for &lt;a href="https://genius.com/Bruno-mars-24k-magic-lyrics" rel="noopener" data-api_path="/songs/2872960"&gt;“24K Magic,”&lt;/a&gt; from his &lt;a href="https://genius.com/albums/Bruno-mars/24k-magic" rel="noopener" data-api_path="/albums/229460"&gt;third studio album of the same name&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Having sold over 100 million records in the short span of his career, he is one of the best-selling artists of all time. To date, he has had six number-one singles on the Billboard Hot 100: plus, having started his career in 2010, he is the fastest artist to score five No. 1 hits since Memphis-based rockstar &lt;a href="https://genius.com/artists/Elvis-presley" rel="noopener" data-api_path="/artists/1645"&gt;Elvis Presley&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Mars has also produced many hit songs for other artists with his production team, &lt;a href="https://genius.com/artists/The-smeezingtons" rel="noopener" data-api_path="/artists/27679"&gt;The Smeezingtons&lt;/a&gt;, that was organized in 2009.&lt;/p&gt;', 'alternate_names': ['Pete Hernandez', 'Peter Hernandez', 'Peter G. Hernandez', 'Peter Gene Hernandez']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Save-ferris', 'annotations': {'description': '&lt;p&gt;Save Ferris is a ska punk band formed circa 1995 in Orange County, California. Their name is a reference to the 1986 film Ferris Bueller’s Day Off. The group’s original lineup consisted of Monique Powell (Vocals), Bill Uechi (Bass), Eric Zamora (Alto &amp;amp; Tenor Saxophone), Brian Mashburn (Guitar, Vocals), T-Bone Willy (Trombone), José Castellaños  (Trumpet), Marc Harismendy (Drums).&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Silk-sonic', 'annotations': {'description': '&lt;p&gt;Silk Sonic is an R&amp;amp;B/soul and funk super-duo, consisting of American singer-songwriters &lt;a href="https://genius.com/artists/Bruno-mars" rel="noopener" data-api_path="/artists/500"&gt;Bruno Mars&lt;/a&gt; and &lt;a href="https://genius.com/artists/Anderson-paak" rel="noopener" data-api_path="/artists/58017"&gt;Anderson .Paak&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In late February 2021, the duo announced their debut album under this banner, titled &lt;a href="https://genius.com/albums/Silk-sonic/An-evening-with-silk-sonic" rel="noopener" data-api_path="/albums/740313"&gt;&lt;em&gt;An Evening With Silk Sonic&lt;/em&gt;&lt;/a&gt;, which was previewed by three singles, &lt;a href="https://genius.com/Silk-sonic-leave-the-door-open-lyrics" rel="noopener" data-api_path="/songs/6531412"&gt;“Leave The Door Open”&lt;/a&gt; (released on March 5), &lt;a href="https://genius.com/Silk-sonic-skate-lyrics" rel="noopener" data-api_path="/songs/7055426"&gt;“Skate”&lt;/a&gt; (on July 30), and &lt;a href="https://genius.com/Silk-sonic-smokin-out-the-window-lyrics" rel="noopener" data-api_path="/songs/7131091"&gt;“Smokin\' Out The Window”&lt;/a&gt; (on November 5).&lt;/p&gt;\n\n&lt;p&gt;The album was eventually released on November 12, 2021 and represented the creative peak of the artists\' collaboration: in fact, while .Paak was opening for Bruno on the European leg of his &lt;em&gt;24K Magic Tour&lt;/em&gt; in 2017, the two started developing what would become Silk Sonic’s debut album.&lt;/p&gt;\n\n&lt;p&gt;While Silk Sonic represents Bruno Mars\' first proper collaborative project, Paak had previously collaborated with producer &lt;a href="https://genius.com/artists/Knxwledge" rel="noopener" data-api_path="/artists/30574"&gt;Knxwledge&lt;/a&gt; under the banner &lt;a href="https://genius.com/artists/Nxworries" rel="noopener" data-api_path="/artists/339382"&gt;NxWorries&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Bruno Mars Anderson .Paak &amp; Silk Sonic', 'Anderson .Paak Bruno Mars &amp; Silk Sonic']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Powfu-and-beabadoobee', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Bush', 'annotations': {'description': '&lt;p&gt;Bush, a band from London, England, was formed in 1992.&lt;/p&gt;\n\n&lt;p&gt;In 1994 they released their debut album &lt;a href="https://genius.com/albums/Bush/Sixteen-stone" rel="noopener" data-api_path="/albums/52112"&gt;&lt;em&gt;Sixteen Stone&lt;/em&gt;&lt;/a&gt;. It had immediate success and has been certified &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;ar=BUSH&amp;amp;ti=SIXTEEN+STONE" rel="noopener nofollow"&gt;6x multi-platinum&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Bush has been on the &lt;a href="https://www.billboard.com/charts/hot-mainstream-rock-tracks" rel="noopener nofollow"&gt;Billboard mainstream rock charts&lt;/a&gt; numerous times and they hit #1 with their sophomore album &lt;a href="https://genius.com/albums/Bush/Razorblade-suitcase" rel="noopener" data-api_path="/albums/68464"&gt;&lt;em&gt;Razorblade Suitcase&lt;/em&gt;&lt;/a&gt; in 1996.&lt;/p&gt;\n\n&lt;p&gt;The band broke up in 2002. Vocalist &lt;a href="https://genius.com/artists/Gavin-rossdale" rel="noopener" data-api_path="/artists/239033"&gt;Gavin Rossdale&lt;/a&gt; used this time to form a new band called &lt;a href="https://genius.com/artists/Institute" rel="noopener" data-api_path="/artists/365706"&gt;Institute&lt;/a&gt; in 2004. When Institute failed to have commercial success Rossdale went solo.&lt;/p&gt;\n\n&lt;p&gt;Since then, the band has reformed with new members &lt;a href="https://genius.com/artists/Chris-traynor" rel="noopener" data-api_path="/artists/1786070"&gt;Chris Traynor&lt;/a&gt; and &lt;a href="https://genius.com/artists/Corey-britz" rel="noopener" data-api_path="/artists/1971328"&gt;Corey Britz&lt;/a&gt; taking the spots of &lt;a href="https://genius.com/artists/Nigel-pulsford" rel="noopener" data-api_path="/artists/612039"&gt;Nigel Pulsford&lt;/a&gt; and &lt;a href="https://genius.com/artists/Dave-parsons" rel="noopener" data-api_path="/artists/38599"&gt;Dave Parsons&lt;/a&gt; in 2010.&lt;/p&gt;\n\n&lt;p&gt;They quickly announced their new album &lt;em&gt;&lt;a href="https://genius.com/albums/Bush/The-sea-of-memories" rel="noopener" data-api_path="/albums/131140"&gt;The Sea of Memories&lt;/a&gt;&lt;/em&gt; (previously titled &lt;em&gt;Everything Always Now&lt;/em&gt;) and their first single “&lt;a href="https://genius.com/Bush-afterlife-lyrics" rel="noopener" data-api_path="/songs/944317"&gt;Afterlife&lt;/a&gt;” at the 2010 &lt;a href="https://epicenterfestival.com/" rel="noopener nofollow"&gt;Epicenter Music Festival&lt;/a&gt; in Fontana, California. The album released September 13, 2011, and peaked at #18 on the &lt;a href="https://www.billboard.com/music/bush/chart-history/TLP" rel="noopener nofollow"&gt;Billboard 200&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;They released their sixth studio album &lt;em&gt;&lt;a href="https://genius.com/albums/Bush/Man-on-the-run" rel="noopener" data-api_path="/albums/113268"&gt;Man On the Run&lt;/a&gt;&lt;/em&gt; on October 21, 2014. The album was lead by the single “&lt;a href="https://genius.com/Bush-the-only-way-out-lyrics" rel="noopener" data-api_path="/songs/534423"&gt;The Only Way Out&lt;/a&gt;”.&lt;/p&gt;\n\n&lt;p&gt;Preceding their seventh album release Bush released their lead single “&lt;a href="https://genius.com/Bush-mad-love-lyrics" rel="noopener" data-api_path="/songs/2977300"&gt;Mad Love&lt;/a&gt;”. &lt;em&gt;&lt;a href="https://genius.com/albums/Bush/Black-and-white-rainbows" rel="noopener" data-api_path="/albums/328961"&gt;Black and White Rainbows&lt;/a&gt;&lt;/em&gt; was released March 10, 2017, and peaked at #8 on &lt;a href="https://www.billboard.com/music/bush/chart-history/RCK" rel="noopener nofollow"&gt;Billboard Top Rock Albums&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In May of 2019 Bush titled their eighth studio album &lt;em&gt;The Mind Plays Trick on You&lt;/em&gt;, but later changed it to &lt;em&gt;&lt;a href="https://genius.com/albums/Bush/The-kingdom" rel="noopener" data-api_path="/albums/609283"&gt;The Kingdom&lt;/a&gt;&lt;/em&gt; on March 3, 2020, after releasing their single “&lt;a href="https://genius.com/Bush-flowers-on-a-grave-lyrics" rel="noopener" data-api_path="/songs/5317160"&gt;Flowers on a Grave&lt;/a&gt;”.&lt;/p&gt;', 'alternate_names': ['Stingray (Bush)']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Joan-jett-and-the-blackhearts', 'annotations': {'description': '&lt;p&gt;After splitting with &lt;a href="https://genius.com/artists/The-runaways" rel="noopener" data-api_path="/artists/37911"&gt;The Runaways&lt;/a&gt;, and releasing her first solo album, &lt;a href="https://genius.com/artists/Joan-jett" rel="noopener" data-api_path="/artists/63682"&gt;Joan Jett&lt;/a&gt; placed an ad in LA Weekly looking for bandmates. Gary Ryan, Eric Ambel, and Danny “Furious” O\'Brien joined her, creating the orginial Blackhearts lineup.&lt;br&gt;\nAfter their initial tour though, O\'Brien was replaced with Lee Crystal.&lt;/p&gt;\n\n&lt;p&gt;Early on, keeping the band afloat was not easy. Joan and producer &lt;a href="https://genius.com/artists/Kenny-laguna" rel="noopener" data-api_path="/artists/73857"&gt;Kenny Laguna&lt;/a&gt; struggled, sometimes selling copies of albums from the trunk of his car. Eventually unable to keep up with the demand for Joan Jett’s album, they signed with Boardwalk Records.&lt;/p&gt;\n\n&lt;p&gt;In 1981 the band released their first album together, &lt;a href="https://genius.com/albums/Joan-jett-and-the-blackhearts/I-love-rock-n-roll" rel="noopener" data-api_path="/albums/46351"&gt;&lt;em&gt;I Love Rock N Roll&lt;/em&gt;&lt;/a&gt;. The band’s line up has continued to change over the years.&lt;/p&gt;\n\n&lt;p&gt;To date the band has ten studio albums, with two additional albums released under just “Joan Jett.”&lt;br&gt;\nTheir current line up is Joan Jett, Dougie Needles, Hal B. Selzer, and Thommy Price.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Db-boulevard', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-rembrandts', 'annotations': {'description': '&lt;p&gt;The band fated to be remembered for the theme song from &lt;em&gt;Friends&lt;/em&gt;, &lt;a href="https://genius.com/The-rembrandts-ill-be-there-for-you-lyrics" rel="noopener" data-api_path="/songs/118120"&gt;“I’ll Be There for You”&lt;/a&gt;, was created in 1989 when music-industry veterans Phil Solem (formerly of The Quick and a solo career) and Danny Wilde (formerly of Great Buildings) recorded their self-titled album in Wilde’s home. The duo split in 1997 but have periodically reunited to write new songs and produce for other artists.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Taylor-swift', 'annotations': {'description': '&lt;p&gt;One of the defining artists of the 2010s, Taylor Alison Swift, born December 13th, &lt;a href="https://genius.com/albums/Taylor-swift/1989" rel="noopener" data-api_path="/albums/110728"&gt;1989&lt;/a&gt;, is an American singer-songwriter and actress who has achieved success in both country and pop. Raised on a &lt;a href="https://genius.com/Taylor-swift-christmas-tree-farm-lyrics" rel="noopener" data-api_path="/songs/5077615"&gt;Christmas tree farm&lt;/a&gt; in Reading, Pennsylvania, Swift moved to &lt;a href="https://www.visitmusiccity.com/" rel="noopener nofollow"&gt;Nashville, Tennessee&lt;/a&gt; at age fourteen to pursue a career in country music. &lt;a href="https://genius.com/artists/scott-borchetta" rel="noopener" data-api_path="/artists/661895"&gt;Scott Borchetta&lt;/a&gt; signed Swift to his then-nonexistent label &lt;a href="https://genius.com/artists/big-machine-records" rel="noopener" data-api_path="/artists/1049237"&gt;Big Machine Records&lt;/a&gt; after seeing her perform at the &lt;a href="https://www.tennessean.com/story/entertainment/music/2018/08/23/taylor-swift-nashville-nissan-stadium-tickets-bluebird-cafe/1066495002/" rel="noopener nofollow"&gt;Bluebird Cafe&lt;/a&gt; in November 2004.&lt;/p&gt;\n\n&lt;p&gt;Swift debuted in June 2006 with &lt;a href="https://genius.com/Taylor-swift-tim-mcgraw-lyrics" rel="noopener" data-api_path="/songs/132077"&gt;“Tim McGraw,”&lt;/a&gt; an ode to a lover who would be leaving town. The song served as an introduction to her &lt;a href="https://genius.com/albums/Taylor-swift/Taylor-swift" rel="noopener" data-api_path="/albums/12682"&gt;self-titled debut album&lt;/a&gt;, which touched upon topics like heartbreak and bullying Swift faced at school. Her honesty and relatability appealed to fans from all walks of life, and went on to become the &lt;a href="https://www.bbc.co.uk/newsround/51711128" rel="noopener nofollow"&gt;longest-charting album&lt;/a&gt; of the 2000s, spending 227 weeks on the &lt;em&gt;Billboard&lt;/em&gt; 200.&lt;/p&gt;\n\n&lt;p&gt;Swift’s sophomore effort, &lt;a href="https://genius.com/albums/taylor-swift/fearless" rel="noopener" data-api_path="/albums/12731"&gt;&lt;em&gt;Fearless&lt;/em&gt;&lt;/a&gt;, came in November 2008 and cemented her status as a country superstar, while tracks like &lt;a href="https://genius.com/taylor-swift-love-story-lyrics" rel="noopener" data-api_path="/songs/98867"&gt;“Love Story”&lt;/a&gt; and &lt;a href="https://genius.com/taylor-swift-you-belong-with-me-lyrics" rel="noopener" data-api_path="/songs/98869"&gt;“You Belong With Me”&lt;/a&gt; also garnered mainstream attention. Not only did the record become her first &lt;a href="https://www.billboard.com/articles/news/1043458/taylor-swift-soars-to-no-1-debut" rel="noopener nofollow"&gt;number one&lt;/a&gt;, but it also became the &lt;a href="https://web.archive.org/web/20101115082527/http://www.bigmachinerecords.com/index.cfm?id=6&amp;amp;viewStory=369" rel="noopener nofollow"&gt;most-awarded country album&lt;/a&gt; of all time, winning accolades such as the Grammy award for &lt;a href="http://edition.cnn.com/2010/SHOWBIZ/Music/01/31/ent.grammys/" rel="noopener nofollow"&gt;Album of the Year&lt;/a&gt;. Until &lt;a href="https://genius.com/artists/billie-eilish" rel="noopener" data-api_path="/artists/615550"&gt;Billie Eilish&lt;/a&gt;’s 2020 win, then-20-year-old Swift was the youngest person to have ever received the honor.&lt;/p&gt;\n\n&lt;p&gt;Following the success of &lt;em&gt;Fearless&lt;/em&gt;, some had &lt;a href="https://genius.com/Taylor-swift-billboard-woman-of-the-decade-speech-annotated" rel="noopener" data-api_path="/songs/5123299"&gt;doubts&lt;/a&gt; about Swift’s songwriting abilities, and Swift wrote her third album, &lt;a href="https://genius.com/albums/Taylor-swift/Speak-now" rel="noopener" data-api_path="/albums/10982"&gt;&lt;em&gt;Speak Now&lt;/em&gt;&lt;/a&gt;, alone to prove herself. It became the &lt;a href="https://www.guinnessworldrecords.com/world-records/fastest-selling-digital-album-in-the-us-by-a-female-artist/" rel="noopener nofollow"&gt;fastest-selling digital album&lt;/a&gt; by a female artist in the U.S., selling over 278,000 digital downloads in its first week, and although it lost critic’s-choice awards like the &lt;a href="http://www.cmt.com/acm-awards/2011/nominees.jhtml" rel="noopener nofollow"&gt;ACM Album of the Year&lt;/a&gt; and &lt;a href="http://www.hollywoodreporter.com/news/grammy-awards-2012-winners-whitney-houston-death-adele-289778" rel="noopener nofollow"&gt;Grammy for Best Country Album&lt;/a&gt;, it saw great success at fan-influenced shows like the &lt;a href="http://www.billboard.com/articles/news/471886/2011-billboard-music-awards-winners-list" rel="noopener nofollow"&gt;&lt;em&gt;Billboard&lt;/em&gt; Music Awards&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Before releasing &lt;a href="https://genius.com/albums/taylor-swift/red" rel="noopener" data-api_path="/albums/22453"&gt;&lt;em&gt;Red&lt;/em&gt;&lt;/a&gt; in October 2012, Swift began straightening her signature curly hair, signaling a new era in her personal life and career. After going through a whirlwind heartbreak, she channeled her emotions into fan-favorite songs like &lt;a href="https://genius.com/taylor-swift-all-too-well-lyrics" rel="noopener" data-api_path="/songs/102701"&gt;“All Too Well,”&lt;/a&gt; which &lt;a href="https://www.rollingstone.com/music/music-lists/rob-sheffield-best-songs-2010s-930083/taylor-swift-all-too-well-single-2012-930279/" rel="noopener nofollow"&gt;&lt;em&gt;Rolling Stone&lt;/em&gt;&lt;/a&gt; named as the best song of the 2010s. Despite being a cult-classic, &lt;em&gt;Red&lt;/em&gt; infamously &lt;a href="http://www.latimes.com/entertainment/music/la-et-ms-grammy-nominations-winners-list-story.html#page=1" rel="noopener nofollow"&gt;lost the Grammy&lt;/a&gt; for Album of the Year, pushing Swift to change her sound and approach to music.&lt;/p&gt;\n\n&lt;p&gt;October 2014’s &lt;a href="https://genius.com/albums/taylor-swift/1989" rel="noopener" data-api_path="/albums/110728"&gt;&lt;em&gt;1989&lt;/em&gt;&lt;/a&gt; was Swift’s official entrance to the pop music scene, and it cemented her status as a musical titan, becoming the &lt;a href="http://www.billboard.com/articles/columns/chart-beat/6304536/official-taylor-swifts-1989-debuts-with-1287-million-sold-in" rel="noopener nofollow"&gt;only album of 2014&lt;/a&gt; to sell over a million copies in its first week and spending &lt;a href="https://www.billboard.com/pro/taylor-swift-1989-11th-week-no-1-billboard-200/" rel="noopener nofollow"&gt;eleven non-consecutive weeks&lt;/a&gt; at #1. She also won the coveted Grammy for &lt;a href="https://web.archive.org/web/20160221180634/http://www.theguardian.com/music/2016/feb/15/grammy-awards-2016-the-main-nominees" rel="noopener nofollow"&gt;Album of the Year&lt;/a&gt;, using her &lt;a href="https://genius.com/Taylor-swift-album-of-the-year-acceptance-speech-grammys-2016-annotated" rel="noopener" data-api_path="/songs/2423744"&gt;acceptance speech&lt;/a&gt; to applaud hard-working women and becoming the &lt;a href="https://web.archive.org/web/20160301073145/http://www.billboard.com/articles/news/grammys/6882510/taylor-swift-grammy-album-of-the-year-win-multiple" rel="noopener nofollow"&gt;first woman&lt;/a&gt; to win Album of the Year twice, and for different genres. Lead single &lt;a href="https://genius.com/taylor-swift-shake-it-off-lyrics" rel="noopener" data-api_path="/songs/499725"&gt;“Shake It Off”&lt;/a&gt; became one of her biggest hits, earning Swift her &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;ar=Taylor+Swift&amp;amp;ti=Shake+It+Off#search_section" rel="noopener nofollow"&gt;first diamond single&lt;/a&gt; by March 2020.&lt;/p&gt;\n\n&lt;p&gt;Around the time of her triumphant Grammy win, Swift became entangled in a &lt;a href="https://www.cbsnews.com/media/kanye-west-vs-taylor-swift-timeline/" rel="noopener nofollow"&gt;highly-publicized feud&lt;/a&gt; with rapper &lt;a href="https://www.cbsnews.com/media/kanye-west-vs-taylor-swift-timeline/" rel="noopener nofollow"&gt;Kanye West&lt;/a&gt;, who claimed that his interrupting her speech at the &lt;a href="https://www.youtube.com/watch?v=1z8gCZ7zpsQ" rel="noopener nofollow"&gt;2009 Video Music Awards&lt;/a&gt; was what “made [her] famous” on his track &lt;a href="https://genius.com/kanye-west-famous-lyrics" rel="noopener" data-api_path="/songs/2412662"&gt;“Famous.”&lt;/a&gt; After standing up for herself and claiming West never told her he would call her a “bitch” on the song, the public turned against Swift and began calling her things like a &lt;a href="https://www.billboard.com/articles/columns/pop/7934297/taylor-swift-the-snake-history-kim-kanye-instagram" rel="noopener nofollow"&gt;“snake”&lt;/a&gt; and a liar on social media.&lt;/p&gt;\n\n&lt;p&gt;Following the backlash, Swift took a hiatus from the spotlight, breaking her typical cycle of releasing an album every two years. During this time, Swift worked on songs like &lt;a href="https://genius.com/Calvin-harris-this-is-what-you-came-for-lyrics" rel="noopener" data-api_path="/songs/2463453"&gt;“This Is What You Came For,”&lt;/a&gt; which she wrote for then-boyfriend &lt;a href="https://genius.com/artists/calvin-harris" rel="noopener" data-api_path="/artists/2069"&gt;Calvin Harris&lt;/a&gt; under a pseudonym, &lt;a href="https://genius.com/little-big-town-better-man-lyrics" rel="noopener" data-api_path="/songs/2887929"&gt;“Better Man,”&lt;/a&gt; which she wrote for country group &lt;a href="https://genius.com/artists/little-big-town" rel="noopener" data-api_path="/artists/62418"&gt;Little Big Town&lt;/a&gt;, and &lt;a href="https://genius.com/Zayn-and-taylor-swift-i-dont-wanna-live-forever-fifty-shades-darker-lyrics" rel="noopener" data-api_path="/songs/2927948"&gt;“I Don’t Wanna Live Forever,”&lt;/a&gt; a collaboration with &lt;a href="https://genius.com/artists/zayn" rel="noopener" data-api_path="/artists/339472"&gt;ZAYN&lt;/a&gt; that appeared in the film &lt;a href="http://www.imdb.com/title/tt4465564/" rel="noopener nofollow"&gt;&lt;em&gt;Fifty Shades Darker&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In August 2017, Swift took a &lt;a href="https://www.nbcnews.com/pop-culture/pop-culture-news/taylor-swift-sexual-assault-trial-heads-jury-n792636" rel="noopener nofollow"&gt;DJ who groped her to court&lt;/a&gt;, after he tried to sue her for defamation. She counter-sued for a symbolic $1 and the jury decided in her favor. Swift told &lt;a href="https://time.com/5049659/taylor-swift-interview-person-of-the-year-2017/" rel="noopener nofollow"&gt;&lt;em&gt;TIME&lt;/em&gt;&lt;/a&gt; that she went through with the trial to stand in solidarity with other survivors of sexual assault, which was especially poignant in the face of the &lt;a href="https://metoomvmt.org/" rel="noopener nofollow"&gt;#MeToo Movement&lt;/a&gt; that was rising at the time.&lt;/p&gt;\n\n&lt;p&gt;Just days after the case concluded, Swift &lt;a href="https://www.theverge.com/tldr/2017/8/18/16169342/taylor-swift-social-media-black-out-reddit-theories" rel="noopener nofollow"&gt;wiped her social media accounts&lt;/a&gt; to tease the release of &lt;a href="https://genius.com/Taylor-swift-look-what-you-made-me-do-lyrics" rel="noopener" data-api_path="/songs/3210592"&gt;“Look What You Made Me Do”&lt;/a&gt; and her sixth studio album, November 2017’s &lt;a href="https://genius.com/albums/Taylor-swift/Reputation" rel="noopener" data-api_path="/albums/350247"&gt;&lt;em&gt;reputation&lt;/em&gt;&lt;/a&gt;. Despite the previous summer’s conflict, the record had her biggest sales week to date, debuting at #1 and selling &lt;a href="https://www.billboard.com/articles/business/8046278/taylor-swift-streaming-services-reputation-music-industry-analysis" rel="noopener nofollow"&gt;1.2 million copies&lt;/a&gt; in the U.S. in its first week, more than all the other 199 albums on the &lt;em&gt;Billboard&lt;/em&gt; chart combined. It also went on to become the &lt;a href="https://www.billboard.com/charts/year-end/2018/top-billboard-200-albums" rel="noopener nofollow"&gt;best-selling U.S. album&lt;/a&gt; of 2018, despite its 2017 release, and won accolades like the American Music Award for &lt;a href="https://www.hollywoodreporter.com/lists/ama-nominations-2018-list-full-1142123" rel="noopener nofollow"&gt;Favorite Pop/Rock Album&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;reputation&lt;/em&gt; was Swift’s last album with &lt;a href="https://genius.com/artists/big-machine-records" rel="noopener" data-api_path="/artists/1049237"&gt;Big Machine Records&lt;/a&gt; before &lt;a href="https://www.instagram.com/p/BqXgDJBlz7d/" rel="noopener nofollow"&gt;signing&lt;/a&gt; with &lt;a href="https://genius.com/artists/republic-records" rel="noopener" data-api_path="/artists/1011844"&gt;Republic Records&lt;/a&gt;. Following her new contract, Scott Borchetta &lt;a href="https://www.billboard.com/articles/business/8518119/scooter-braun-acquires-big-machine-label-group-scott-borchetta" rel="noopener nofollow"&gt;sold Big Machine Records&lt;/a&gt; to entertainment mogul &lt;a href="https://genius.com/artists/Scooter-braun" rel="noopener" data-api_path="/artists/649687"&gt;Scooter Braun&lt;/a&gt;. Swift &lt;a href="https://mashable.com/article/taylor-swift-tumblr-letter-scooter-braun/" rel="noopener nofollow"&gt;took to social media&lt;/a&gt; to describe her disappointment, but vowed to &lt;a href="https://www.cbsnews.com/news/taylor-swift-moving-to-regain-control-of-her-catalog-by-re-recording-masters-of-prior-songs/" rel="noopener nofollow"&gt;re-record the albums&lt;/a&gt; Braun purchased so she could be the full owner.&lt;/p&gt;\n\n&lt;p&gt;Swift’s dedication to artistic ownership became a large focus of the &lt;a href="https://genius.com/albums/taylor-swift/lover" rel="noopener" data-api_path="/albums/520929"&gt;&lt;em&gt;Lover&lt;/em&gt;&lt;/a&gt; era — she co-produced most tracks on the album, as well as directing or co-directing each music video, including &lt;a href="https://genius.com/taylor-swift-me-lyrics" rel="noopener" data-api_path="/songs/4472545"&gt;“ME!”&lt;/a&gt; and &lt;a href="https://genius.com/taylor-swift-lover-lyrics" rel="noopener" data-api_path="/songs/4508914"&gt;“Lover.”&lt;/a&gt; Swift also became politically vocal, starting with an &lt;a href="https://time.com/5418427/taylor-swift-politics/" rel="noopener nofollow"&gt;October 2018 Instagram post&lt;/a&gt; about the U.S. midterm elections and continuing with acts like her support of the LGBT community on &lt;a href="https://genius.com/taylor-swift-you-need-to-calm-down-lyrics" rel="noopener" data-api_path="/songs/4625737"&gt;“You Need to Calm Down.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;In November 2019, the &lt;a href="https://people.com/music/amas-2019-taylor-swift-artist-of-the-decade-speech/" rel="noopener nofollow"&gt;American Music Awards&lt;/a&gt; named Swift as the Artist of the Decade, and she performed a &lt;a href="https://www.youtube.com/watch?v=SVY8I46dkb0" rel="noopener nofollow"&gt;medley&lt;/a&gt; of some of her biggest hits at the ceremony. That night, she also beat &lt;a href="https://genius.com/artists/michael-jackson" rel="noopener" data-api_path="/artists/835"&gt;Michael Jackson&lt;/a&gt;’s record to become the artist with the &lt;a href="https://www.cbsnews.com/news/taylor-swift-ama-singer-beats-michael-jackson-for-most-american-music-awards-2019-performance-artist-of-the-decade/" rel="noopener nofollow"&gt;most AMA wins in history&lt;/a&gt;, earning her 29th award. The next month, &lt;a href="https://www.billboard.com/articles/columns/pop/8543996/taylor-swift-first-ever-woman-of-the-decade-award" rel="noopener nofollow"&gt;&lt;em&gt;Billboard&lt;/em&gt;&lt;/a&gt; named Swift their &lt;a href="https://genius.com/Taylor-swift-billboard-woman-of-the-decade-speech-annotated" rel="noopener" data-api_path="/songs/5123299"&gt;Woman of the Decade&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In January 2020, Swift released &lt;a href="https://www.imdb.com/title/tt11388580/" rel="noopener nofollow"&gt;&lt;em&gt;Miss Americana&lt;/em&gt;&lt;/a&gt;, a documentary directed by &lt;a href="https://www.imdb.com/name/nm5300836/" rel="noopener nofollow"&gt;Lana Wilson&lt;/a&gt; that offered fans an unprecedented glimpse into Swift’s everyday life and decision to speak up about politics, alongside &lt;a href="https://genius.com/taylor-swift-only-the-young-lyrics" rel="noopener" data-api_path="/songs/5191847"&gt;“Only The Young”&lt;/a&gt;, a political track she wrote while recording &lt;a href="https://genius.com/albums/taylor-swift/lover" rel="noopener" data-api_path="/albums/520929"&gt;&lt;em&gt;Lover&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In July 2020, Swift released her eighth studio album, &lt;a href="https://genius.com/albums/Taylor-swift/Folklore" rel="noopener" data-api_path="/albums/659925"&gt;&lt;em&gt;folklore&lt;/em&gt;&lt;/a&gt;, after announcing it the day before, making it her first “surprise” release. While most of her work is autobiographical, she notably focused on &lt;a href="https://www.instagram.com/p/CDAsU8BDzLt/" rel="noopener nofollow"&gt;telling other people’s stories&lt;/a&gt; throughout the record. She went on to release &lt;em&gt;The Long Pond Studio Sessions&lt;/em&gt; on the streaming service, Disney+, where she performed &lt;em&gt;folklore&lt;/em&gt; live for the first time. &lt;em&gt;folklore&lt;/em&gt; won the &lt;a href="https://variety.com/2021/music/news/taylor-swift-grammys-album-of-year-first-woman-three-times-folklore-1234930200/" rel="noopener nofollow"&gt;Grammy Award for Album of the Year&lt;/a&gt; in March 2021, making Swift the first woman and fourth artist overall to win Album of the Year three times.&lt;/p&gt;\n\n&lt;p&gt;Swift released the follow-up project &lt;a href="https://genius.com/albums/Taylor-swift/Evermore" rel="noopener" data-api_path="/albums/710140"&gt;&lt;em&gt;evermore&lt;/em&gt;&lt;/a&gt; in December 2020, expanding the stories she told on &lt;em&gt;folklore&lt;/em&gt; as well as becoming her second surprise release. It featured collaborations with &lt;a href="https://genius.com/artists/bon-iver" rel="noopener" data-api_path="/artists/589"&gt;Bon Iver&lt;/a&gt;, who also appeared on &lt;em&gt;folklore&lt;/em&gt;, her long-time friends in &lt;a href="https://genius.com/artists/haim" rel="noopener" data-api_path="/artists/43588"&gt;HAIM&lt;/a&gt;, and &lt;a href="https://genius.com/artists/the-national" rel="noopener" data-api_path="/artists/658"&gt;The National&lt;/a&gt;, whose member &lt;a href="https://genius.com/artists/aaron-dessner" rel="noopener" data-api_path="/artists/243981"&gt;Aaron Dessner&lt;/a&gt; was a key collaborator and producer throughout both &lt;em&gt;folklore&lt;/em&gt; and &lt;em&gt;evermore&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt; Swift shifted her focus to her back-catalog in 2021, vowing to &lt;a href="https://www.npr.org/2019/08/22/753393630/look-what-they-made-her-do-taylor-swift-to-re-record-her-catalog" rel="noopener nofollow"&gt;rerecord&lt;/a&gt; her first six albums to regain legal ownership. She kicked off this release cycle with &lt;a href="https://genius.com/Taylor-swift-love-story-taylors-version-lyrics" rel="noopener" data-api_path="/songs/6478833"&gt;“Love Story (Taylor’s Version)”&lt;/a&gt; in February 2021, which preceded the release of &lt;a href="https://genius.com/albums/Taylor-swift/Fearless-taylors-version" rel="noopener" data-api_path="/albums/734107"&gt;&lt;em&gt;Fearless&lt;/em&gt; (Taylor’s Version)&lt;/a&gt; in April. To make these releases more exciting for fans, she added “Vault” songs that she never released to each rerecording.&lt;/p&gt;\n\n&lt;p&gt;For the second rerecord, Swift announced the &lt;a href="https://genius.com/albums/Taylor-swift/Red-taylors-version" rel="noopener" data-api_path="/albums/758022"&gt;&lt;em&gt;Red&lt;/em&gt; (Taylor’s Version)&lt;/a&gt; which, includes 30 songs and 9 “Vault” songs.&lt;/p&gt;', 'alternate_names': ['Nils Sjöberg', 'Taylor A. Swift', 'Taylor Alison Swift']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/A-flock-of-seagulls', 'annotations': {'description': '&lt;p&gt;A Flock of Seagulls are an English new wave band formed by brothers Mike and Ali Score in Liverpool in 1980. They are famous for their international hits “I Ran”, “Space Age Love Song,” “Wishing (If I Had a Photograph of You)” and “The More You Live, the More You Love” – and infamous for the unique hairstyle of frontman Mike Score, which was &lt;a href="http://www.worcestermag.com/2017/04/26/mike-score-still-flying-with-flock-of-seagulls" rel="noopener nofollow"&gt;accidentally created one night&lt;/a&gt; as the band was rushing to get on stage.&lt;/p&gt;\n\n&lt;p&gt;Originally named Level 7, the members were at a Stranglers concert when the singer &lt;a href="http://www.worcestermag.com/2017/04/26/mike-score-still-flying-with-flock-of-seagulls" rel="noopener nofollow"&gt;looked directly at them&lt;/a&gt; and sang the lyric &lt;a href="https://genius.com/15461027" rel="noopener" data-api_path="/referents/15461027"&gt;“a flock of seagulls!”&lt;/a&gt; They took this as a sign to change their name.&lt;/p&gt;\n\n&lt;p&gt;Their 1982 self-titled debut album has been called “a pioneering mixture of angular guitar riffs, skewed melodies and vibrant synths” that found &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=A+Flock+Of+Seagulls&amp;amp;titel=A+Flock+Of+Seagulls&amp;amp;cat=a" rel="noopener nofollow"&gt;international success&lt;/a&gt; including a #10 peak &lt;a href="https://www.billboard.com/music/a-flock-of-seagulls/chart-history/billboard-200" rel="noopener nofollow"&gt;in the US&lt;/a&gt;. The single “I Ran” was a massive hit, reaching the top 10 in four countries and making the top 50 in four others. The follow-up single “Space Age Love Song” was also a success, reaching the top 30 in three countries.&lt;/p&gt;\n\n&lt;p&gt;“Wishing (If I Had A Photograph Of You)”, the lead single of their sophomore album &lt;em&gt;Listen&lt;/em&gt;, reached the top 10 in four countries, their first and only in their homeland &lt;a href="http://www.officialcharts.com/artist/19502/a-flock-of-seagulls/" rel="noopener nofollow"&gt;the UK&lt;/a&gt;. The next two singles performed well &lt;a href="http://www.officialcharts.com/artist/19502/a-flock-of-seagulls/" rel="noopener nofollow"&gt;in the UK&lt;/a&gt; but had sporadic success elsewhere.&lt;/p&gt;\n\n&lt;p&gt;A third album &lt;em&gt;The Story of a Young Heart&lt;/em&gt; spawned the band’s final hit “The More You Live, The More You Love”, performing admirably in six countries. Their fourth album &lt;em&gt;Dream Come True&lt;/em&gt; made no impact outside of the UK in 1986. The band broke up later that year when the Score brothers &lt;a href="https://www.axs.com/whatever-happened-to-a-flock-of-seagulls-112566" rel="noopener nofollow"&gt;had a falling out&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Mike Score revived the band a couple years later on his own, moving to Philedelphia and &lt;a href="https://yeahthatstheticket.wordpress.com/2015/08/29/1988-11-18-a-flock-of-seagulls/" rel="noopener nofollow"&gt;recruiting local musicians&lt;/a&gt;. But both a 1989 single and a 1995 album &lt;em&gt;The Light at the End of the World&lt;/em&gt; did not chart internationally.&lt;/p&gt;\n\n&lt;p&gt;In 2003 the band &lt;a href="https://www.rollingstone.com/music/music-lists/where-are-they-now-1982s-biggest-pop-acts-20600/a-flock-of-seagulls-65603/" rel="noopener nofollow"&gt;briefly reunited&lt;/a&gt; for a one-off performance on the VH1 series &lt;em&gt;Bands Reunited&lt;/em&gt;, followed by a brief tour of the US, but frontman Mike Score &lt;a href="https://www.billboard.com/articles/columns/rock/8457384/a-flock-of-seagulls-reunion-new-album-interview" rel="noopener nofollow"&gt;later shared&lt;/a&gt; “that didn’t work out well for me”. However in 2017, August Day Records approached him to reunite the band again to re-record their songs with an orchestra. He agreed and the four original members were assembled to create &lt;em&gt;Ascension&lt;/em&gt; in 2018, re-recordings of their earlier songs with accompaniment by the Prague Philharmonic Orchestra. A second orchestral album &lt;em&gt;String Theory&lt;/em&gt; &lt;a href="https://www.iconvsicon.com/2021/06/28/a-flock-of-seagulls-return-with-say-you-love-me-single-from-their-new-album-string-theory/" rel="noopener nofollow"&gt;arrived in 2021&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Psy', 'annotations': {'description': '&lt;p&gt;Park Jae-sang, better known by his stage name Psy, stylized PSY, is a South Korean singer, songwriter, rapper, dancer, record producer and television personality.&lt;/p&gt;\n\n&lt;p&gt;His earlier efforts showcased his comedic stylings within the Korean music world, but none matched that off 2012’s &lt;a href="https://genius.com/Psy-gangnam-style-lyrics" rel="noopener" data-api_path="/songs/88368"&gt;“Gangnam Style”&lt;/a&gt;, which would eventually hit more than 4 billion views on YouTube. In 2013, he was also made the official South Korean &lt;a href="https://web.archive.org/web/20200810111413/http://travel.cnn.com/psy-named-korea-tourism-ambassador-877941/" rel="noopener nofollow"&gt;tourism ambassador&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Psy also founded the South Korean label &lt;a href="https://genius.com/artists/P-nation" rel="noopener" data-api_path="/artists/160396"&gt;P-Nation&lt;/a&gt; with artists such as &lt;a href="https://genius.com/artists/Crush" rel="noopener" data-api_path="/artists/51935"&gt;Crush&lt;/a&gt;, &lt;a href="https://genius.com/artists/Jessi" rel="noopener" data-api_path="/artists/672794"&gt;Jessi&lt;/a&gt;, &lt;a href="https://genius.com/artists/Dawn-korea-rapper" rel="noopener" data-api_path="/artists/1469207"&gt;Dawn&lt;/a&gt;, &lt;a href="https://genius.com/artists/Hyuna" rel="noopener" data-api_path="/artists/27893"&gt;HyunA&lt;/a&gt;, and himself.&lt;/p&gt;', 'alternate_names': ['Park Jae-Sang (박재상)']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-wavs', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Travis-barker', 'annotations': {'description': '&lt;p&gt;Travis Barker is an American musician, producer, businessman, &lt;a href="https://genius.com/Travis-barker-travis-barkers-tattoos-annotated" rel="noopener" data-api_path="/songs/3208986"&gt;tattoo enthusiast&lt;/a&gt;, and drummer extraordinaire, best known for his involvement in the pop-punk goliath &lt;a href="https://genius.com/artists/Blink-182" rel="noopener" data-api_path="/artists/13373"&gt;blink-182&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Compelled to constantly stay busy, Barker has taken on many music projects, often simultaneously, and even founded his own record label &lt;a href="https://genius.com/artists/Dta-records" rel="noopener" data-api_path="/artists/2186912"&gt;DTA Records&lt;/a&gt;. Travis\' musical acts (and his time with them):&lt;/p&gt;\n\n&lt;ul&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/The-aquabats" rel="noopener" data-api_path="/artists/311271"&gt;The Aquabats&lt;/a&gt; (1997-1998)&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Blink-182" rel="noopener" data-api_path="/artists/13373"&gt;Blink-182&lt;/a&gt; (1998-2005, 2009-present)&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Box-car-racer" rel="noopener" data-api_path="/artists/62212"&gt;Box Car Racer&lt;/a&gt; (2001-2003)&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Transplants" rel="noopener" data-api_path="/artists/1435"&gt;Transplants&lt;/a&gt; (2002-2003, 2004-2006, 2010-present)&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/44" rel="noopener" data-api_path="/artists/136713"&gt;+44&lt;/a&gt; (2005-2009)&lt;/li&gt;\n&lt;li&gt;Expen$ive Taste (2005-2010)&lt;/li&gt;\n&lt;li&gt;TRV$DJAM (2008-2009)&lt;/li&gt;\n&lt;/ul&gt;\n\n\n&lt;p&gt;Additionally, he released &lt;a href="https://genius.com/albums/Travis-barker-and-yelawolf/Psycho-white" rel="noopener" data-api_path="/albums/21355"&gt;a collaborative album with Yelawolf&lt;/a&gt; and &lt;a href="http://www.hotnewhiphop.com/asher-roth-and-nottz-and-travis-barker-rawther-new-mixtape.116259.html" rel="noopener nofollow"&gt;a collaborative EP with Asher Roth and Nottz&lt;/a&gt; – not to mention his &lt;a href="https://en.wikipedia.org/wiki/Travis_Barker#Guest_appearances" rel="noopener nofollow"&gt;extensive list of guest appearances&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Aside from music, Barker founded the apparel &amp;amp; accessory line &lt;a href="https://www.famoussas.com/" rel="noopener nofollow"&gt;Famous Stars and Straps&lt;/a&gt; in 1999 and record label LaSalle Records in 2004. He also &lt;a href="http://skately.com/library/shoes/dc-shoes-alias/remix-white-black" rel="noopener nofollow"&gt;developed a shoe for DC Shoe Company&lt;/a&gt; and has his own line of drumming products through Zildjian.&lt;/p&gt;\n\n&lt;p&gt;Travis is &lt;a href="https://www.mensjournal.com/entertainment/blink-182s-travis-barker-why-im-vegan-w473107/" rel="noopener nofollow"&gt;reportedly&lt;/a&gt; also a pure vegan.&lt;/p&gt;', 'alternate_names': ['Travis L. Barker', 'Travis Landon Barker']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Man-with-a-mission', 'annotations': {'description': '&lt;p&gt;Hailing from Shibuya, Tokyo, Japan, MAN WITH A MISSION (&lt;a href="https://www.mwamjapan.info/" rel="noopener nofollow"&gt;MWAM&lt;/a&gt;), is a five-member Japanese rock band which formed in 2010.&lt;/p&gt;\n\n&lt;p&gt;The members, which consist of Tokyo Tanaka (lead vocals), Jean-Ken Johnny (guitar, co-lead vocals, rapper), Kamikaze Boy (bass guitar, backing vocals), DJ Santa Monica (DJ, sampling), and Spear Rib (drums) debuted with the single &lt;a href="https://genius.com/Man-with-a-mission-wake-myself-again-lyrics" rel="noopener" data-api_path="/songs/2936559"&gt;“Wake Myself Again”&lt;/a&gt; on July 1, 2013.&lt;/p&gt;\n\n&lt;p&gt;MWAM is known for wearing wolf masks, which change in design often at concerts and in music videos. They are often also associated for providing the theme songs for video games, live action shows and anime.&lt;/p&gt;\n\n&lt;p&gt;According to the band’s &lt;a href="https://www.mwamjapan.info/" rel="noopener nofollow"&gt;official website&lt;/a&gt;, the band’s concept is described as follows:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;In the year 19XX the earth was engulfed in war.&lt;br&gt;\nNation pitted against nation, human against human. Every living thing on the planet was locked in a chaotic battle to acquire each other’s wealth and power.&lt;br&gt;\nIn the meantime, in the farthest away land of “Ladyland” there lived a genius biologist named Dr. Jimi (hobby: guitar) who was about to conclude a mad science experiment for a pack of superior creatures that would be called MAN WITH A MISSION (MWAM).&lt;/p&gt;&lt;/blockquote&gt;', 'alternate_names': ['MWAM']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Danzig', 'annotations': {'description': '&lt;p&gt;Danzig is a metal band originating from New Jersey in 1987. Overtime, the lineup has lost and gained many musicians. Glenn Danzig, the vocalist and songwriter, is the only member who has been in the band from the start. Danzig is well known for the old hit “Mother” released in 1989 on the band’s self-titled album. As of April 2018, Danzig has released 11 studio albums. Each album from “Danzig II: Lucifuge” to “Danzig 777: I Luciferi” somehow incorporate the number of the album into the title. The first three Danzig albums have bluesy-metal sounds, and are seen as the highlight of Danzig’s music. “Danzig 4”, or “4p,” is the final album to include the original lineup of Chuck Biscuits on drums, Eerie Von on bass, and John Christ on guitar. Biscuits left shortly after the album’s release due to a contract dispute, and Von and Christ left because they didn’t like what Glenn was planning for the band. “Danzig 5: Blackacidevil,” as well as the two albums following it, have dark, industrial metal sounds. It is obvious that Glenn’s voice had begun weakening due to years of constant touring. “Circle of Snakes” is heavy doom metal, featuring the song “Skincarver” that is frequently played at Danzig concerts. A six year break followed in which “The Lost Tracks of Danzig” was released, a compilation of tracks Glenn believed did not fit in with the mood of the albums they were written for. The break ended when “Deth Red Sabaoth” was released, with heavy metal sounds. Glenn’s voice was surprisingly strong in this album. “Skeletons” was released 5 years later, featuring a few covers such as Glenn’s metal-ifying of Elvis Presley’s “Let Yourself Go.” In 2017, Danzig released “Black Laden Crown,” which received a bit of backlash due to Glenn’s weak vocals on a few of the tracks. Glenn actually played drums, guitar, and bass on some of the songs. 2018 is Danzig’s 30th anniversary, where they will be playing multiple shows in Europe and in the US.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-goo-goo-dolls', 'annotations': {'description': '&lt;p&gt;The Goo Goo Dolls are an American rock band formed in 1986 in Buffalo, NY, during one of Buffalo’s most prolific underground music phases. The band was formed by &lt;b&gt;John Rzeznik&lt;/b&gt; (Also known as&lt;b&gt; Johnny Rzeznik&lt;/b&gt;), lead singer and songwriter for the band, with bassist/vocalist &lt;b&gt;Robby Takac&lt;/b&gt;, and drummer &lt;b&gt;George Tutuska&lt;/b&gt;. &lt;b&gt;Mike Malinin&lt;/b&gt; later replaced Tutuska as the band’s drummer.&lt;/p&gt;\n\n&lt;p&gt;The band has released twelve studio albums between 1986 and 2020, but they are best known for platinum-selling &lt;b&gt;&lt;em&gt;A Boy Named Goo&lt;/em&gt;&lt;/b&gt; (1995) and &lt;b&gt;&lt;em&gt;Dizzy Up the Girl&lt;/em&gt;&lt;/b&gt; (1998). These mid- to late 1990s albums contain the Goo Goo Dolls\' biggest hits to date – &lt;b&gt;Name&lt;/b&gt; and “&lt;b&gt;Iris&lt;/b&gt;” most notably, but also “&lt;b&gt;Slide&lt;/b&gt;,” “&lt;b&gt;Black Balloon&lt;/b&gt;,” and “&lt;b&gt;Dizzy&lt;/b&gt;.”&lt;/p&gt;\n\n&lt;p&gt;These hits made the Goo Goo Dolls a household name for radio-friendly “&lt;b&gt;prom night power balladry&lt;/b&gt;” (as one &lt;a href="http://absolutegoo.com/throwback-thursday2002rolling-stone-reviews-gutterflower/" rel="noopener nofollow"&gt;Rolling Stone review&lt;/a&gt; put it), but the band’s early output was often far rougher musically, melding the band’s edgier punk influences with an often soft sensibility in the mold of the band’s early heroes, &lt;a href="https://genius.com/artists/The-replacements" rel="noopener" data-api_path="/artists/4749"&gt;The Replacements&lt;/a&gt;. One can hear these influences on many songs on &lt;b&gt;&lt;em&gt;A Boy Named Goo&lt;/em&gt;&lt;/b&gt; though these affinities would fade after &lt;b&gt;&lt;em&gt;Dizzy Up the Girl&lt;/em&gt;&lt;/b&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Big-mountain', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Electric-light-orchestra', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/artists/Roy-wood" rel="noopener" data-api_path="/artists/32623"&gt;Roy Wood&lt;/a&gt;, &lt;a href="https://genius.com/artists/Jeff-lynne" rel="noopener" data-api_path="/artists/34990"&gt;Jeff Lynne&lt;/a&gt; and &lt;a href="https://genius.com/artists/Bev-bevan" rel="noopener" data-api_path="/artists/1212371"&gt;Bev Bevan&lt;/a&gt; from Birmingham, England formed the progressive pop-rock band Electric Light Orchestra (ELO) in 1970, best known for their poppy, futuristic, and classical sound.&lt;/p&gt;\n\n&lt;p&gt;Roy Wood departed the band in 1972, and Jeff Lynne took over with writing and arranging as well as producing all their albums.  During the 13 years when E.L.O. was most active, they sold 50 million, achieving 21 RIAA, 19 CRIA, and 38 BPI awards.&lt;/p&gt;', 'alternate_names': ['ELO', "Jeff Lynne's ELO"]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Sex-pistols', 'annotations': {'description': '&lt;p&gt;Short-lived, yet long-influencing, the Sex Pistols were an English punk band formed in London in 1975. They initiated the punk movement in the UK and subsequently inspired a plethora of groups. Their original line-up consisted of singer &lt;a href="https://genius.com/artists/John-lydon" rel="noopener" data-api_path="/artists/221228"&gt;John “Johnny Rotten” Lydon&lt;/a&gt;, guitarist &lt;a href="https://genius.com/artists/Steve-jones" rel="noopener" data-api_path="/artists/374884"&gt;Steve “Jonesy” Jones&lt;/a&gt;, bassist Glen Matlock (replaced by trainwreck and subsequent punk icon &lt;a href="https://genius.com/artists/Sid-vicious" rel="noopener" data-api_path="/artists/346731"&gt;Sid Vicious&lt;/a&gt;), and drummer Paul Cook. Under the management of Malcolm McLaren, the Pistols created a ton of controversy, scoring even more publicity as a result.&lt;/p&gt;\n\n&lt;p&gt;Their first and only studio album, &lt;a href="https://genius.com/albums/Sex-pistols/Never-mind-the-bollocks-here-s-the-sex-pistols" rel="noopener" data-api_path="/albums/17469"&gt;&lt;em&gt;Never Mind the Bollocks, Here’s the Sex Pistols&lt;/em&gt;&lt;/a&gt;, was released in 1977. During a promotional tour in the United States the following year, the group decided to disband. The original four reunited in the 90s with the adequately titled “Never Mind The Pistols… Here`s the Filthy Lucre” Tour.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-kid-laroi', 'annotations': {'description': '&lt;p&gt;Charlton Kenneth-Jeffery Howard (b. August 17, 2003), better known as The Kid Laroi (stylized as The Kid LAROI), is an Australian rapper/singer hailing from South Sydney.&lt;/p&gt;\n\n&lt;p&gt;Originally from the Redfern/Waterloo area, The Kid Laroi’s precocious talent impressed the Australian underground hip-hop scene. His first demo &lt;a href="https://genius.com/The-kid-laroi-disconnect-demo-lyrics" rel="noopener" data-api_path="/songs/3882778"&gt;“Disconnect”&lt;/a&gt; was &lt;a href="http://www.abc.net.au/triplej/programs/triplej-breakfast/ue-high-finalist-the-kid-laroi/10077264" rel="noopener nofollow"&gt;even selected as a &lt;em&gt;Triple J&lt;/em&gt; Unearthed High 2018 finalist&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;He soon caught the attention of American rappers &lt;a href="https://genius.com/artists/lil-skies" rel="noopener" data-api_path="/artists/1015007"&gt;Lil Skies&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Juice-wrld" rel="noopener" data-api_path="/artists/1237094"&gt;Juice WRLD&lt;/a&gt;. In early January 2019, Laroi toured with Juice WRLD during his Australian tour. It was announced shortly after the tour with Juice that he would also be the supporting act of &lt;a href="https://genius.com/artists/denzel-curry" rel="noopener" data-api_path="/artists/16690"&gt;Denzel Curry&lt;/a&gt;’s Sydney concert. This opened up more opportunities, including a career-changing slot at &lt;em&gt;Rolling Loud&lt;/em&gt; 2019 for the then 16 year old.&lt;/p&gt;\n\n&lt;p&gt;Laroi soon relocated to the US, utilising a strong social media presence to build a rapidly growing fanbase. In June 2020, Laroi and late mentor Juice WRLD released their long-awaited collaboration titled &lt;a href="https://genius.com/The-kid-laroi-and-juice-wrld-go-lyrics" rel="noopener" data-api_path="/songs/5288212"&gt;“GO,“&lt;/a&gt; which &lt;a href="https://www.billboard.com/music/juice-wrld/chart-history/HSI/song/1208449" rel="noopener nofollow"&gt;peaked at #52&lt;/a&gt; on the &lt;em&gt;Billboard&lt;/em&gt; charts.&lt;/p&gt;\n\n&lt;p&gt;Laroi released his debut studio mixtape, &lt;a href="https://genius.com/albums/The-kid-laroi/F-ck-love" rel="noopener" data-api_path="/albums/599735"&gt;&lt;em&gt;F*CK LOVE&lt;/em&gt;&lt;/a&gt;, on July 24, 2020. The mixtape showed a young artist experimenting with different musical styles resembling more of a melodic blend of pop and emo rap, as he sang and rapped on issues of love and broken hearts.&lt;/p&gt;\n\n&lt;p&gt;In November 2020, Laroi released a deluxe version of this mixtape, titled &lt;a href="https://genius.com/albums/The-kid-laroi/F-ck-love-savage" rel="noopener" data-api_path="/albums/672580"&gt;&lt;i&gt;F*CK LOVE (SAVAGE)&lt;/i&gt;&lt;/a&gt;. The project was led by the hit track &lt;a href="https://genius.com/The-kid-laroi-so-done-lyrics" rel="noopener" data-api_path="/songs/5289231"&gt;“SO DONE”&lt;/a&gt; and ultimately saw five of its seven tracks reach the &lt;em&gt;Billboard Hot 100&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;For the majority of this time, Laroi had been signed to &lt;a href="https://genius.com/artists/lil-bibby" rel="noopener" data-api_path="/artists/33238"&gt;Lil Bibby&lt;/a&gt; management &lt;a href="https://genius.com/artists/Grade-a-productions" rel="noopener" data-api_path="/artists/669837"&gt;Grade A Productions&lt;/a&gt; and Columbia Records/Sony Music Australia. In June 2021, it was announced that Laroi would be managed by &lt;a href="https://www.nme.com/en_au/news/music/the-kid-laroi-joins-scooter-braun-projects-management-roster-2956308" rel="noopener nofollow"&gt;none other than Scooter Braun&lt;/a&gt;, famous for managing &lt;a href="https://genius.com/artists/justin-bieber" rel="noopener" data-api_path="/artists/357"&gt;Justin Bieber&lt;/a&gt; and &lt;a href="https://genius.com/artists/ariana-grande" rel="noopener" data-api_path="/artists/26507"&gt;Ariana Grande&lt;/a&gt; amongst others.&lt;/p&gt;\n\n&lt;p&gt;In July 2021, Laroi released another deluxe version of his mixtape titled &lt;a href="https://genius.com/albums/The-kid-laroi/F-ck-love-3-over-you" rel="noopener" data-api_path="/albums/695020"&gt;&lt;em&gt;F&lt;/em&gt;CK LOVE 3: Over You*&lt;/a&gt;. The mixtape featured a star-studded features list including Justin Bieber, Machine Gun Kelly and Polo G. The mixtape debuted at #1 on the Billboard Global 200, making Laroi the &lt;a href="https://www.abc.net.au/triplej/news/musicnews/the-kid-laroi-1-billboard-200-us-chart-records-f*ck-love/13479922" rel="noopener nofollow"&gt;youngest artist to make #1 since Billie Eilish in 2019&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Laroi’s debut album is expected to drop in late 2021/early 2022.&lt;/p&gt;\n\n&lt;hr&gt;\n\n\n&lt;p&gt;Howard’s moniker ‘Laroi’ is derived from his Indigenous Australian roots, namely the &lt;a href="https://en.wikipedia.org/wiki/Gamilaraay" rel="noopener nofollow"&gt;Gamilaraay/Gomeroi/Kamilaroi/Gamilaroi&lt;/a&gt; people of northern inland New South Wales. They are one of the four largest Indigenous nations in Australia.&lt;/p&gt;\n\n&lt;p&gt;The name is formed from “gamil”, meaning “no”, and the suffix -(b)araay, bearing the sense of “having”. It is a common practice among Australian tribes to have themselves identified according to their respective words for “no”. Unfortunately, the spoken language is considered to have died out by the 1950s, although anthropological research seeks to piece it together once more.&lt;/p&gt;', 'alternate_names': ['Charlton Kenneth-Jeffery Howard', 'Charlton Howard', 'Laroi']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Skillet', 'annotations': {'description': '&lt;p&gt;Skillet is a heavy rock band from Memphis, TN that has been a voice in both the mainstream and Christian music industries. The band has been led by John Cooper since the band’s start in 1996. Later on in 2000, the year the band’s third album &lt;em&gt;Invincible&lt;/em&gt; came out, Cooper’s wife Korey joined the band as rhythm guitarist and pianist.&lt;/p&gt;\n\n&lt;p&gt;The band started gaining mainstream attention when moving from Ardent Records to Atlantic Records in 2003. The band’s first breakthrough album, &lt;em&gt;Comatose&lt;/em&gt;, making it to No. 55 on the Billboard 200 and certified Gold by the RIAA. Skillet continued to rise up on the charts with their 8&lt;sup&gt;th&lt;/sup&gt; studio album, &lt;em&gt;Awake&lt;/em&gt;, charting at No. 2 on the Billboard 200. The album featured a new addition to the band, Jen Ledger, who provided both drums and vocals.&lt;/p&gt;\n\n&lt;p&gt;Since then, Skillet has continued to see mainstream success with their 9&lt;sup&gt;th&lt;/sup&gt; studio album, &lt;em&gt;Unleashed&lt;/em&gt;, with their lead single “Feel Invincible” becoming one of the theme songs for WWE’s Battleground (2016).&lt;/p&gt;\n\n&lt;p&gt;In 2018, both Jen Ledger and John Cooper released their own side projects &lt;a href="https://genius.com/artists/ledger" rel="noopener" data-api_path="/artists/656529"&gt;LEDGER&lt;/a&gt; and &lt;a href="https://genius.com/artists/fight-the-fury" rel="noopener" data-api_path="/artists/1582744"&gt;Fight the Fury&lt;/a&gt;, respectively. The intention behind the projects was not to disband Skillet, but instead to explore each artist’s own creative sides.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Nsync', 'annotations': {'description': '&lt;p&gt;*NSYNC (sometimes stylized as ★NSYNC, formally stylized as ‘N Sync) was an American boy band formed in Orlando, Florida in 1995 and launched in Germany by BMG Ariola Munich. The group consisted of &lt;a href="https://genius.com/artists/Justin-timberlake" rel="noopener" data-api_path="/artists/334"&gt;Justin Timberlake&lt;/a&gt;, &lt;a href="https://genius.com/artists/Jc-chasez" rel="noopener" data-api_path="/artists/8613"&gt;J.C. Chasez&lt;/a&gt;, &lt;a href="https://genius.com/artists/Chris-kirkpatrick" rel="noopener" data-api_path="/artists/218290"&gt;Chris Kirkpatrick&lt;/a&gt;, &lt;a href="https://genius.com/artists/Joey-fatone" rel="noopener" data-api_path="/artists/390329"&gt;Joey Fatone&lt;/a&gt; and &lt;a href="https://genius.com/artists/Lance-bass" rel="noopener" data-api_path="/artists/996500"&gt;Lance Bass&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;After heavily publicized legal battles with their former manager Lou Pearlman and former record label Sony BMG, the group’s second album, &lt;em&gt;&lt;a href="https://genius.com/albums/N-sync/No-strings-attached" rel="noopener" data-api_path="/albums/6463"&gt;No Strings Attached&lt;/a&gt;&lt;/em&gt;, sold over one million copies in one day and 2.42 million copies in one week.&lt;/p&gt;\n\n&lt;p&gt;In addition to a host of Grammy Award nominations, *NSYNC has performed at the World Series, the Super Bowl and the Olympic Games, and sang or recorded with &lt;a href="https://genius.com/artists/Elton-john" rel="noopener" data-api_path="/artists/560"&gt;Elton John&lt;/a&gt;, &lt;a href="https://genius.com/artists/Lisa-left-eye-lopes" rel="noopener" data-api_path="/artists/7393"&gt;Lisa ‘Left Eye’ Lopes&lt;/a&gt;, &lt;a href="https://genius.com/artists/Aerosmith" rel="noopener" data-api_path="/artists/533"&gt;Aerosmith&lt;/a&gt;, &lt;a href="https://genius.com/artists/Mary-j-blige" rel="noopener" data-api_path="/artists/358"&gt;Mary J. Blige&lt;/a&gt;, &lt;a href="https://genius.com/artists/Britney-spears" rel="noopener" data-api_path="/artists/1052"&gt;Britney Spears&lt;/a&gt;, &lt;a href="https://genius.com/artists/Nelly" rel="noopener" data-api_path="/artists/148"&gt;Nelly&lt;/a&gt;, &lt;a href="https://genius.com/artists/Michael-jackson" rel="noopener" data-api_path="/artists/835"&gt;Michael Jackson&lt;/a&gt;, &lt;a href="https://genius.com/artists/Phil-collins" rel="noopener" data-api_path="/artists/3927"&gt;Phil Collins&lt;/a&gt;, &lt;a href="https://genius.com/artists/Stevie-wonder" rel="noopener" data-api_path="/artists/1602"&gt;Stevie Wonder&lt;/a&gt;, &lt;a href="https://genius.com/artists/Celine-dion" rel="noopener" data-api_path="/artists/65300"&gt;Céline Dion&lt;/a&gt; and &lt;a href="https://genius.com/artists/Gloria-estefan" rel="noopener" data-api_path="/artists/83348"&gt;Gloria Estefan&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;While *NSYNC announced a “temporary hiatus” in spring 2002, the band has not recorded new material since. The group’s official website was shut down in the summer of 2006, and in 2007, Lance Bass confirmed that the group has “definitely broken up.” They have sold over 50 million albums during their career.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Riton-and-nightcrawlers', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-knack', 'annotations': {'description': '&lt;p&gt;The Knack was an American rock band based in Los Angeles that rose to fame with their first single, “My Sharona”, an international number-one hit in 1979.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/e7da446954646ea01484e56a690d87de.800x531x1.jpg" alt="" width="800" height="531" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Roxette', 'annotations': {'description': '&lt;p&gt;Roxette is a Swedish pop rock duo, consisting of Marie Fredriksson (vocals and keyboards) and Per Gessle (vocals and guitar).&lt;/p&gt;\n\n&lt;p&gt;Formed in 1986, the duo became an international act in the late 1980s, when they released their breakthrough album &lt;a href="https://genius.com/albums/Roxette/Look-sharp" rel="noopener" data-api_path="/albums/126089"&gt;&lt;em&gt;Look Sharp!&lt;/em&gt;&lt;/a&gt; Their third album &lt;a href="https://genius.com/albums/Roxette/Joyride" rel="noopener" data-api_path="/albums/230483"&gt;&lt;em&gt;Joyride&lt;/em&gt;&lt;/a&gt; released in 1991 became just as successful as its predecessor.&lt;/p&gt;\n\n&lt;p&gt;Roxette went on to achieve nineteen UK Top 40 hits and several US Hot 100 hits, including four US number-ones with &lt;a href="https://genius.com/Roxette-the-look-lyrics" rel="noopener" data-api_path="/songs/1547969"&gt;“The Look,”&lt;/a&gt; &lt;a href="https://genius.com/Roxette-listen-to-your-heart-lyrics" rel="noopener" data-api_path="/songs/415215"&gt;“Listen to Your Heart,”&lt;/a&gt; &lt;a href="https://genius.com/Roxette-it-must-have-been-love-lyrics" rel="noopener" data-api_path="/songs/2109110"&gt;“It Must Have Been Love,”&lt;/a&gt; and &lt;a href="https://genius.com/Roxette-joyride-lyrics" rel="noopener" data-api_path="/songs/1113891"&gt;“Joyride.”&lt;/a&gt; Other hits include &lt;a href="https://genius.com/Roxette-dangerous-lyrics" rel="noopener" data-api_path="/songs/1342102"&gt;“Dangerous,”&lt;/a&gt; &lt;a href="https://genius.com/Roxette-fading-like-a-flower-every-time-you-leave-lyrics" rel="noopener" data-api_path="/songs/994670"&gt;“Fading Like a Flower,”&lt;/a&gt; &lt;a href="https://genius.com/Roxette-spending-my-time-lyrics" rel="noopener" data-api_path="/songs/1666849"&gt;“Spending My Time,”&lt;/a&gt; &lt;a href="https://genius.com/Roxette-how-do-you-do-lyrics" rel="noopener" data-api_path="/songs/1242128"&gt;“How Do You Do!”&lt;/a&gt; and &lt;a href="https://genius.com/Roxette-sleeping-in-my-car-lyrics" rel="noopener" data-api_path="/songs/533376"&gt;“Sleeping in My Car.”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;On December 9, 2019, lead vocalist Marie Fredriksson &lt;a href="https://www.billboard.com/articles/columns/pop/8545847/roxette-singer-marie-fredriksson-dies-61-obituary" rel="noopener nofollow"&gt;passed away&lt;/a&gt; at the age of 61 due to a long 17 year battle with cancer.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Blondie', 'annotations': {'description': '&lt;p&gt;&lt;a href="http://punkturns30.blogspot.com/2007/05/blondie-is-group.html" rel="noopener nofollow"&gt;Blondie is a Group!&lt;/a&gt; hailed the merch for their April 1978 gigs, when the 5-member band (give or take 1 or 2, time-wise) had an underground following in the U.S. (especially in their hood, NYC), after two critically lauded records and hits outside their turf: the UK and Australia.&lt;/p&gt;\n\n&lt;p&gt;The captivating vocalist &lt;a href="https://genius.com/artists/Debbie-harry" rel="noopener" data-api_path="/artists/118226"&gt;Debbie Harry&lt;/a&gt;, a brunette raised in Jersey, had stage-presence and more visual appeal as a (bleached) blonde, sang clever songs with hooks.  Some bordered on punk, but with synths, like “&lt;a href="https://genius.com/Blondie-rip-her-to-shreds-lyrics" rel="noopener" data-api_path="/songs/192723"&gt;Rip Her to Shreds&lt;/a&gt;”; More than a few had a retro girl-group pop  1960s feel, “&lt;a href="https://genius.com/Blondie-in-the-flesh-lyrics" rel="noopener" data-api_path="/songs/192084"&gt;In The Flesh&lt;/a&gt;”.  Others delivered a cinematic flair, e.g., the fun spy-thrill ride, “&lt;a href="https://genius.com/Blondie-contact-in-red-square-lyrics" rel="noopener" data-api_path="/songs/192748"&gt;Contact in Red Square&lt;/a&gt;”, plotted in just over two minutes.  Many critics dubbed the band retro, to the shock of &lt;a href="https://genius.com/artists/Debbie-harry" rel="noopener" data-api_path="/artists/118226"&gt;Debbie Harry&lt;/a&gt; who stated at the time they were firmly &lt;a href="https://www.rocksbackpages.com/Library/Article/blondies-debbie-harry-1978" rel="noopener nofollow"&gt;new wave&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;September 1978’s 3rd album made Blondie platinum.  Hit producer &lt;a href="https://genius.com/artists/Mike-chapman" rel="noopener" data-api_path="/artists/30909"&gt;Mike Chapman&lt;/a&gt; pushed the band to deliver their best (at least in a commercial sense).  He proposed an electronic-loop to an old song in their repertoire that never made the cut as a studio recording, dubbed “&lt;a href="https://genius.com/Blondie/Heart-of-glass" rel="noopener"&gt;Heart of Glass&lt;/a&gt;”, blowing up early 1979 airwaves as the the 3rd or 4th single from the 1978 album, i.e., 4th in the UK and other countries.  In the U.S. it was the 3rd single, the first 2 (the only cover songs on the album) having failed to scratch the HOT 100.  In the UK, the 1st single, “&lt;a href="https://genius.com/artists/Picture-this" rel="noopener" data-api_path="/artists/624636"&gt;Picture This&lt;/a&gt;“, penned by Harrry/Stein/Destri got to# 12, doing almost as well in Sweden and other European countries.&lt;/p&gt;\n\n&lt;p&gt;“&lt;a href="https://genius.com/Blondie/Heart-of-glass" rel="noopener"&gt;Heart of Glass&lt;/a&gt;“ from the 3rd record &lt;a href="https://genius.com/albums/Blondie/Parallel-lines" rel="noopener" data-api_path="/albums/28158"&gt;&lt;em&gt;Parallel Lines&lt;/em&gt;&lt;/a&gt; turned the band into a brand, despite being critically acclaimed.  It hurled out 2 more hits, ”&lt;a href="https://genius.com/artists/One-way-or-another" rel="noopener" data-api_path="/artists/455903"&gt;One way or another&lt;/a&gt;“ in North America, by Debbie Harry and &lt;a href="https://genius.com/artists/Nigel-harrison" rel="noopener" data-api_path="/artists/540398"&gt;Nigel Harrison&lt;/a&gt;, their English bassist.  ”&lt;a href="https://genius.com/artists/Sunday-girl" rel="noopener" data-api_path="/artists/390926"&gt;Sunday Girl&lt;/a&gt;“ by &lt;a href="https://genius.com/artists/Chris-stein" rel="noopener" data-api_path="/artists/713417"&gt;Chris Stein&lt;/a&gt;, became their 2nd #1 in the UK.&lt;/p&gt;\n\n&lt;p&gt;The 4th record, served in September 1979 &lt;a href="https://genius.com/albums/Blondie/Eat-to-the-beat" rel="noopener" data-api_path="/albums/40103"&gt;&lt;em&gt;Eat to the Beat&lt;/em&gt;&lt;/a&gt; did not disappoint, despite or because of more eclectic and experimental tunes.  It moved steadily into U.S. platinum; for that it didn’t need to break out another “Heart of Glass”.  Album sales weren’t hurt when February 1980’s soon-to-be monster hit ate the beat, pimped out of the main theme of a movie, &lt;a href="https://www.imdb.com/title/tt0080365/" rel="noopener nofollow"&gt;American Gigolo&lt;/a&gt;.  &lt;a href="https://genius.com/Blondie-call-me-lyrics" rel="noopener" data-api_path="/songs/193085"&gt;“Call Me”&lt;/a&gt;“, penned and produced by &lt;a href="https://genius.com/artists/Giorgio-moroder" rel="noopener" data-api_path="/artists/50122"&gt;Giorgio Moroder&lt;/a&gt;, with lyrics by Debbie Harry, was a world-wide smash, becoming Billboard’s #1 single of 1980.&lt;/p&gt;\n\n&lt;p&gt;In November 1980 Blondie spawned a more daring album with some originals that smacked of show-tunes, closing with an actual siren-song cover, &lt;a href="https://genius.com/albums/E-girls-jp/Follow-me" rel="noopener" data-api_path="/albums/753247"&gt;Follow Me&lt;/a&gt; from the 1960 musical Camelot.  The opening (mostly) instrumental track is a dramatic, string-hued piece culminating to a space-age outro and Debbie Harry’s spoken deadpan narration of a future history; panned by critics, it has an &lt;a href="https://genius.com/artists/Ennio-morricone" rel="noopener" data-api_path="/artists/47679"&gt;Ennio Morricone&lt;/a&gt;-esqe edge.   Despite its sheer musicality, &lt;a href="https://genius.com/albums/Blondie/Autoamerican" rel="noopener" data-api_path="/albums/6414"&gt;&lt;em&gt;Autoamerican&lt;/em&gt;&lt;/a&gt; drove it through: the reggae cover-song single “&lt;a href="https://genius.com/albums/John-holt/The-tide-is-high" rel="noopener" data-api_path="/albums/255121"&gt;The Tide Is High&lt;/a&gt;”, was a worldwide tidal wave splash, #1 in the U.S., as was the next single, an about-face to the beach water of tide’s high, a song with an urban-sense, made to dance.  It bested the “Tide”, particularly in the U.S., rapping it up to #1.  “&lt;a href="https://genius.com/artists/rapture" rel="noopener" data-api_path="/artists/17012"&gt;Rapture&lt;/a&gt;“ was Blondie’s 3rd and last #1 (in the U.S., that is), and the 2nd penned by Harry/Stein.  A &lt;a href="https://genius.com/artists/Chris-stein" rel="noopener" data-api_path="/artists/713417"&gt;Chris Stein&lt;/a&gt; quote sums it up well, from &lt;a href="https://www.biography.com/news/blondie-debbie-harry-rapture-tide-is-high" rel="noopener nofollow"&gt;Biography&lt;/a&gt;,&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;“Rapture” was the first time many Americans were exposed to this new art form. U-God and Inspectah Deck from the Wu-Tang Clan once told me that ‘Rapture’ was the first rap song they ever heard as kids,” Stein told the New York Post. “That’s mind-boggling.”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/albums/Blondie/Autoamerican" rel="noopener" data-api_path="/albums/6414"&gt;&lt;em&gt;Autoamerican&lt;/em&gt;&lt;/a&gt; was recorded in L.A. at the insistence of their producer.  The music and painted album cover still attested to the band’s roots, musically and physically, firmly, NYC.  Along with quintessential bands such as &lt;a href="https://genius.com/artists/Ramones" rel="noopener" data-api_path="/artists/765"&gt;Ramones&lt;/a&gt;, &lt;a href="https://genius.com/artists/Talking-heads" rel="noopener" data-api_path="/artists/13347"&gt;Talking Heads&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Television" rel="noopener" data-api_path="/artists/31147"&gt;Television&lt;/a&gt;, Blondie gained underground grounding by regularly gigging at &lt;a href="https://genius.com/De-la-soul-cbgbs-lyrics" rel="noopener" data-api_path="/songs/2845157"&gt;CBGB’S&lt;/a&gt; and Live at Max’s Kansas City- the venue’s 2nd phase in 1975&lt;/p&gt;\n\n&lt;p&gt;1982 brought on the band’s sixth studio album, a commercial flop compared to its predecessors: &lt;a href="https://genius.com/albums/blondie/the-hunter" rel="noopener" data-api_path="/albums/40144"&gt;&lt;em&gt;The Hunter&lt;/em&gt;&lt;/a&gt; yielded a couple of semi-hits, primarily the Harry/Stein song “&lt;a href="https://genius.com/Blondie-island-of-lost-souls-lyrics" rel="noopener" data-api_path="/songs/192946"&gt;Island of Lost Souls&lt;/a&gt;”.&lt;/p&gt;\n\n&lt;p&gt;Blondie, the band, fizzled-out afterwards.  &lt;a href="https://genius.com/artists/Debbie-harry" rel="noopener" data-api_path="/artists/118226"&gt;Debbie Harry&lt;/a&gt; would continue putting out solo records (Chris Stein’s chops contributing when possible), the first of which was before &lt;a href="https://genius.com/Red-hot-chili-peppers-the-hunter-lyrics" rel="noopener" data-api_path="/songs/2467627"&gt;The Hunter&lt;/a&gt;, 1981’s &lt;a href="https://genius.com/artists/Kookoo" rel="noopener" data-api_path="/artists/1427490"&gt;Kookoo&lt;/a&gt;, produced and co-written by &lt;a href="https://genius.com/artists/Nile-rodgers" rel="noopener" data-api_path="/artists/34636"&gt;Nile Rodgers&lt;/a&gt; and &lt;a href="https://genius.com/artists/Bernard-edwards" rel="noopener" data-api_path="/artists/189401"&gt;Bernard Edwards&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Not until 1999 did Blondie yield a  “comeback album”, sort of: &lt;a href="https://genius.com/albums/blondie/no-exit" rel="noopener" data-api_path="/albums/40159"&gt;&lt;em&gt;No Exit&lt;/em&gt;&lt;/a&gt; had one big international hit, Blondie’s sixth #1 in the UK, &lt;a href="https://genius.com/Blondie-maria-lyrics" rel="noopener" data-api_path="/songs/193016"&gt;“Maria”&lt;/a&gt;, penned by keyboardist &lt;a href="https://genius.com/artists/Jimmy-destri" rel="noopener" data-api_path="/artists/1036333"&gt;Jimmy Destri&lt;/a&gt;.  Since then the band (or variation thereof, always with “Harry/Stein”) have continued releasing albums.&lt;/p&gt;\n\n&lt;p&gt;In 2006, Blondie was inducted into &lt;a href="https://www.rockhall.com/inductees/blondie" rel="noopener nofollow"&gt;The Rock &amp;amp; Roll Hall of Fame&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://www.morrisonhotelgallery.com/search/Mick--Rock" rel="noopener nofollow"&gt;Mick Rock&lt;/a&gt;, photographer, &lt;a href="https://www.morrisonhotelgallery.com/collections/JE4xhs/The-Best-Photographs-of-Debbie-Harry" rel="noopener nofollow"&gt;took the best shots of Debbie Harry, or was it Andy Warhol, who turned them into…paintings?&lt;/a&gt;.  Picture this:&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/40bac203f70bccd6a20017700e646dae.411x490x1.jpg" alt="" width="411" height="490" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Alpha-blondy', 'annotations': {'description': "&lt;p&gt;Hailing from the Cote d'Ivoire, Alpha Blondy is among the world’s most popular reggae artists. With his 12-piece band Solar System, Blondy offers a reggae beat with a distinctive African cast. Calling himself an African Rasta, Blondy creates Jah-centered anthems promoting morality, love, peace, and social consciousness. With a range that moves from sensitivity to rage over injustice, much of Blondy’s music empathizes with the impoverished and those on society’s fringe. Blondy is also a staunch supporter of African unity, and to this end, he sings to Muslim audiences in Hebrew and sings in Arabic to Israelis. Some of his best-known songs include “Cocody Rock,” “Jerusalem,” and “Apartheid Is Nazism.”&lt;/p&gt;", 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Hall-and-oates', 'annotations': {'description': '&lt;p&gt;Hall &amp;amp; Oates released the first of their 18 albums in 1972 on Atlantic Records. They would go on to sell 13 million albums and 6 million singles primarily during the 70’s and 80’s when they recorded their most prolific and profound music. They blended  rock, jazz, soul, and pop create a genre they titled rock and soul.&lt;/p&gt;\n\n&lt;p&gt;While their technical musicianship, innovative songwriting styles, and popular live performances were praised, they also had a fruitful partnership with their manager Tommy Mottola, who was helped Hall &amp;amp; Oates break into music videos before they were popular and made profitable financial deals by helping them get on the ground level of and corporate sponsorship of tours. Hall &amp;amp; Oates were inducted into the Rock and Roll Hall of Fame in 2014.&lt;/p&gt;', 'alternate_names': ['Daryl Hall John Oates', 'Daryl Hall &amp; John Oates']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Makedah', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Keane', 'annotations': {'description': '&lt;p&gt;Keane, formed as The Lotus Eaters by Dominic Scott, Richard Hughes and Tim Rice-Oxley, who nearly became a member of &lt;a href="https://genius.com/artists/Coldplay" rel="noopener" data-api_path="/artists/8351"&gt;Coldplay&lt;/a&gt;, in 1995, and soon joined by singer Tom Chaplin in 1997, became one of the leading British bands of the 2000s alongside groups such as Coldplay, Snow Patrol, Travis and Muse. After Scott left the group in 2001, Keane had a commercial breakthrough with their first full-length studio album, &lt;em&gt;Hopes and Fears&lt;/em&gt;, scoring top 10 hits with &lt;a href="https://genius.com/Keane-somewhere-only-we-know-lyrics" rel="noopener" data-api_path="/songs/134995"&gt;“Somewhere Only We Know”&lt;/a&gt;, &lt;a href="https://genius.com/Keane-everybodys-changing-lyrics" rel="noopener" data-api_path="/songs/445234"&gt;“Everybody’s Changing”&lt;/a&gt; and &lt;a href="https://genius.com/Keane-bedshaped-lyrics" rel="noopener" data-api_path="/songs/380953"&gt;“Bedshaped”&lt;/a&gt;. The group gained recognition for their piano-based rock sound, which mostly lacked guitars after Scott’s departure.&lt;/p&gt;\n\n&lt;p&gt;Keane continued to have similar commercial success with their next three albums, &lt;em&gt;Under the Iron Sea&lt;/em&gt; (2006), &lt;em&gt;Perfect Symmetry&lt;/em&gt; (2008) and &lt;em&gt;Strangeland&lt;/em&gt; (2012), bringing bassist Jesse Quin into the lineup in 2008. The group then went on an extended hiatus after releasing a greatest hits compilation, but it was revealed in January 2019 that they had begun working on new material.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Kool-moe-dee', 'annotations': {'description': '&lt;p&gt;Kool Moe Dee is one of rap’s earliest stars. Starting his career in the early ‘70s, he formed the legendary Treacherous Three with DJ Easy Lee, Special K, and L.A. Sunshine.&lt;/p&gt;\n\n&lt;p&gt;After the group’s first break-up in ‘84, Kool Moe Dee went solo, establishing himself as one of hip-hop’s first big stars with his breakout solo album, &lt;a href="https://genius.com/albums/Kool-moe-dee/How-ya-like-me-now" rel="noopener" data-api_path="/albums/4541"&gt;&lt;em&gt;“How Ya Like Me Now?”&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;He became one of the first hip-hop acts to get a Grammy, and became the first to perform at the Grammy’s.&lt;/p&gt;\n\n&lt;p&gt;Kool Moe Dee is now mostly remembered for his feud with &lt;a href="https://genius.com/artists/Ll-cool-j" rel="noopener" data-api_path="/artists/848"&gt;LL Cool J&lt;/a&gt;, where they exchanged musical punches that entertained hip-hop heads for years, with the winner of the feud still being debated to this day.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Of-monsters-and-men', 'annotations': {'description': '&lt;p&gt;Of Monsters and Men is an Icelandic folk band from Keflavík, Iceland, formed in 2010. The band consists of lead singers and guitarists &lt;a href="https://genius.com/artists/Nanna-bryndis-hilmarsdottir" rel="noopener" data-api_path="/artists/102029"&gt;Nanna Bryndís Hilmarsdóttir&lt;/a&gt; and &lt;a href="https://genius.com/artists/Ragnar-orhallsson" rel="noopener" data-api_path="/artists/393570"&gt;Ragnar “Raggi” Þórhallsson,&lt;/a&gt; guitarist &lt;a href="https://genius.com/artists/Brynjar-leifsson" rel="noopener" data-api_path="/artists/685038"&gt;Brynjar Leifsson&lt;/a&gt;, drummer &lt;a href="https://genius.com/artists/Arnar-rosenkranz-hilmarsson" rel="noopener" data-api_path="/artists/393569"&gt;Arnar Rósenkranz Hilmarsson&lt;/a&gt; and bassist &lt;a href="https://genius.com/artists/Kristjan-pall-kristjansson" rel="noopener" data-api_path="/artists/1053642"&gt;Kristján Páll Kristjánsson&lt;/a&gt;. Their debut album, &lt;a href="https://genius.com/albums/Of-monsters-and-men/My-head-is-an-animal" rel="noopener" data-api_path="/albums/688607"&gt;&lt;em&gt;My Head Is An Animal&lt;/em&gt;&lt;/a&gt;, first released in 2011, and its lead single, &lt;a href="https://genius.com/Of-monsters-and-men-little-talks-lyrics" rel="noopener" data-api_path="/songs/68718"&gt;“Little Talks”&lt;/a&gt; were successful worldwide. In 2015, their sophomore album, &lt;a href="https://genius.com/albums/Of-monsters-and-men/Beneath-the-skin" rel="noopener" data-api_path="/albums/121632"&gt;&lt;em&gt;Beneath the Skin&lt;/em&gt;&lt;/a&gt; was released to generally positive reviews and is the band’s highest charting album, reaching #3 on Billboard’s Top 200.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Peter-schilling', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Pierre Schilling', 'Pierre Michael Schilling']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Capital-cities', 'annotations': {'description': '&lt;p&gt;Capital Cities is an American indie pop duo from Los Angeles, California, formed by Ryan Merchant and Sebu Simonian. Its debut EP was released on June 7, 2011, with lead single “Safe And Sound.” A subsequent single, “Kangaroo Court,” was released on May 1, 2012. The band was featured on the Pop Up #1 compilation curated by Perez Hilton that was released on August 7, 2012. The band’s song “Safe and Sound” charted at #1 on the US Alternative Songs chart. The song was also used in a German Vodafone commercial. The song “Center Stage” was featured on ESPN’s First Take where they played a short segment of the retro sounding track before going to commercial breaks&lt;/p&gt;', 'alternate_names': ['Ryan Merchant &amp; Sebu Simonian']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-bravery', 'annotations': {'description': '&lt;p&gt;Formed in New York City in 2003, The Bravery was a post-punk revival group consisting of lead vocalist Sam Endicott, guitarist Michael Zakarin, keyboardist John Conway, bassist Mike Hindert and drummer Anthony Burulcich. The band released three dance-rock albums before “taking a hiatus” in 2012. Currently, the group has no plans to get back together.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Ti', 'annotations': {'description': '&lt;p&gt;Clifford Harris, Jr., better known as &lt;strong&gt;T.I.&lt;/strong&gt;, is a rapper, film &amp;amp; music producer, actor, and author from Atlanta. He is also the founder and CEO of Grand Hustle Records.&lt;/p&gt;\n\n&lt;p&gt;T.I. has released eleven studio albums and has had a successful acting career, starring in the films &lt;a href="http://www.imdb.com/title/tt0478970/" rel="noopener nofollow"&gt;&lt;em&gt;Ant-Man&lt;/em&gt;&lt;/a&gt;, &lt;a href="http://www.imdb.com/title/tt1135084/?ref_=fn_al_tt_1" rel="noopener nofollow"&gt;&lt;em&gt;Takers&lt;/em&gt;&lt;/a&gt; and &lt;a href="http://www.imdb.com/title/tt0466856/?ref_=fn_al_tt_1" rel="noopener nofollow"&gt;&lt;em&gt;ATL&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Clifford J. Harris Jr.', 'Clifford Harris', 'Clifford Joseph Harris Jr.', 'Clifford Joseph Harris', 'Clifford Harris Jr', 'T.I.P.']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Pato-banton', 'annotations': {'description': '&lt;p&gt;Pato Banton is a reggae singer and toaster from Birmingham, England. He received the nickname “Pato Banton” from his stepfather; The first name derives from a Jamaican night owl that stays up all night calling “patoo, patoo” and the last name from the disc jockey slang word “Banton” which means heavyweight lyricist or storyteller.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Maroon-5', 'annotations': {'description': '&lt;p&gt;Maroon 5 is an American pop rock band. They were originally formed in 1994 as &lt;a href="https://genius.com/artists/Karas-flowers" rel="noopener" data-api_path="/artists/215848"&gt;Kara’s Flowers&lt;/a&gt; while they were still attending high school. They signed to Reprise Records and released an album, &lt;em&gt;The Fourth World&lt;/em&gt;, in 1997. After a mediocre response to the album, the band parted with their record label and attended college, but in 2001, the band regrouped, added James Valentine to the lineup, and pursued a new direction under the name Maroon 5.&lt;/p&gt;\n\n&lt;p&gt;Their first big hit came in the form of &lt;a href="https://genius.com/Maroon-5-harder-to-breathe-lyrics" rel="noopener" data-api_path="/songs/64029"&gt;“Harder to Breathe,”&lt;/a&gt; the edgier lead single from their debut, &lt;a href="https://genius.com/albums/Maroon-5/Songs-about-jane" rel="noopener" data-api_path="/albums/14452"&gt;&lt;em&gt;Songs About Jane&lt;/em&gt;&lt;/a&gt;. The continued success of that song and other singles &lt;a href="https://genius.com/Maroon-5-this-love-lyrics" rel="noopener" data-api_path="/songs/102120"&gt;“This Love,”&lt;/a&gt; &lt;a href="https://genius.com/Maroon-5-she-will-be-loved-lyrics" rel="noopener" data-api_path="/songs/87556"&gt;“She Will Be Loved,”&lt;/a&gt; and &lt;a href="https://genius.com/Maroon-5-sunday-morning-lyrics" rel="noopener" data-api_path="/songs/190916"&gt;“Sunday Morning”&lt;/a&gt; cemented the quintet as a pop-rock band to keep an eye out for.&lt;/p&gt;\n\n&lt;p&gt;However, for their second album, &lt;a href="https://genius.com/albums/Maroon-5/It-won-t-be-soon-before-long" rel="noopener" data-api_path="/albums/26459"&gt;&lt;em&gt;It Won’t Be Soon Before Long&lt;/em&gt;&lt;/a&gt;, they switched to ambing up on slick pop production—and it worked for them. Lead single &lt;a href="https://genius.com/Maroon-5-makes-me-wonder-lyrics" rel="noopener" data-api_path="/songs/107870"&gt;“Makes Me Wonder”&lt;/a&gt; jumped 63 places in one week to reach number one, becoming their first ever #1 single.&lt;/p&gt;\n\n&lt;p&gt;With the releases of &lt;a href="https://genius.com/albums/Maroon-5/Hands-all-over" rel="noopener" data-api_path="/albums/12388"&gt;&lt;em&gt;Hands All Over&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Maroon-5/Overexposed" rel="noopener" data-api_path="/albums/16329"&gt;&lt;em&gt;Overexposed&lt;/em&gt;&lt;/a&gt;, and &lt;a href="https://genius.com/albums/Maroon-5/V" rel="noopener" data-api_path="/albums/105603"&gt;&lt;em&gt;V&lt;/em&gt;&lt;/a&gt;, the group has been slowly growing poppier yet keeping their appeal. In fact, after the #14 peak of their 2010 single &lt;a href="https://genius.com/Maroon-5-misery-lyrics" rel="noopener" data-api_path="/songs/72945"&gt;“Misery,”&lt;/a&gt; they hit the top ten with every single one of their singles until 2015’s &lt;a href="https://genius.com/Maroon-5-this-summers-gonna-hurt-lyrics" rel="noopener" data-api_path="/songs/1862772"&gt;“This Summer’s Gonna Hurt.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Their tried-and-true formula of songs that blur the line between love and hooking up has kept all of their fans from the early 2000s and made new ones far into the 2010s.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Cage-the-elephant', 'annotations': {'description': '&lt;p&gt;Cage The Elephant is an American Rock band that formed in Bowling Green, Kentucky in 2006. They are known for their electric live performances.&lt;/p&gt;\n\n&lt;p&gt;They have released four albums, the first being their self-titled album, &lt;a href="http://rock.genius.com/albums/Cage-the-elephant/Cage-the-elephant" rel="noopener" data-api_path="/albums/5961"&gt;&lt;em&gt;Cage The Elephant&lt;/em&gt;,&lt;/a&gt; which got even more attention after their single &lt;a href="http://rock.genius.com/Cage-the-elephant-aint-no-rest-for-the-wicked-lyrics" rel="noopener" data-api_path="/songs/31934"&gt;“Ain’t No Rest for the Wicked”&lt;/a&gt; was used for the intro of the popular video game &lt;a href="http://tinyurl.com/8m6lj4" rel="noopener nofollow"&gt;&lt;em&gt;Borderlands&lt;/em&gt;&lt;/a&gt;.&lt;br&gt;\n&lt;a href="https://genius.com/albums/Cage-the-elephant/Thank-you-happy-birthday" rel="noopener" data-api_path="/albums/71313"&gt;&lt;em&gt;Thank You, Happy Birthday&lt;/em&gt;&lt;/a&gt; followed in 2011, then came  &lt;a href="https://genius.com/albums/Cage-the-elephant/Melophobia" rel="noopener" data-api_path="/albums/41942"&gt;&lt;em&gt;Melophobia&lt;/em&gt;&lt;/a&gt; in 2013 and 2015’s &lt;a href="https://genius.com/albums/Cage-the-elephant/Tell-me-i-m-pretty" rel="noopener" data-api_path="/albums/134192"&gt;&lt;em&gt;Tell Me I’m Pretty&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Members of Cage the Elephant had previously been involved in the band Perfect Confusion when they were in high school. They only released one album, self-titled, and is available to listen on Spotify.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Supertramp', 'annotations': {'description': '&lt;p&gt;Supertramp are an English rock band formed in 1969 (assuming this name in 1970). Their style oscillates between progressive rock and a more mainstream pop rock. The band’s work is marked by the songwriting of founders Rick Davies and Roger Hodgson and the prominent use of Wurlitzer electric piano and saxophone.&lt;/p&gt;\n\n&lt;p&gt;Garnering tremendous success in the latter half of the ‘70s, Supertramp created several very popular and recognisable hit singles, beginning with &lt;a href="https://genius.com/Supertramp-school-lyrics" rel="noopener" data-api_path="/songs/307015"&gt;School&lt;/a&gt; and &lt;a href="https://genius.com/Supertramp-dreamer-lyrics" rel="noopener" data-api_path="/songs/732412"&gt;Dreamer&lt;/a&gt; off their 1974 commercial breakthrough, &lt;a href="https://genius.com/albums/Supertramp/Crime-of-the-century" rel="noopener" data-api_path="/albums/67354"&gt;&lt;em&gt;Crime Of The Century&lt;/em&gt;&lt;/a&gt;. 1977’s &lt;a href="https://genius.com/albums/Supertramp/Even-in-the-quietest-moments" rel="noopener" data-api_path="/albums/147348"&gt;&lt;em&gt;Even In The Quietest Moments…&lt;/em&gt;&lt;/a&gt; saw two more Hodgson-penned highlights in &lt;a href="https://genius.com/Supertramp-give-a-little-bit-lyrics" rel="noopener" data-api_path="/songs/967668"&gt;Give A Little Bit&lt;/a&gt; and &lt;a href="https://genius.com/Supertramp-fools-overture-lyrics" rel="noopener" data-api_path="/songs/1645350"&gt;Fool’s Overture&lt;/a&gt;, before the band and its leading duo reached their peak with the band’s top-selling record, 1979’s &lt;a href="https://genius.com/albums/Supertramp/Breakfast-in-america" rel="noopener" data-api_path="/albums/82564"&gt;&lt;em&gt;Breakfast In America&lt;/em&gt;&lt;/a&gt;. This album alone includes no less than 6 popular tracks: four of Hodgson’s (&lt;a href="https://genius.com/Supertramp-the-logical-song-lyrics" rel="noopener" data-api_path="/songs/440468"&gt;The Logical Song&lt;/a&gt;, &lt;a href="https://genius.com/Supertramp-take-the-long-way-home-lyrics" rel="noopener" data-api_path="/songs/482326"&gt;Take The Long Way Home&lt;/a&gt;, &lt;a href="https://genius.com/Supertramp-child-of-vision-lyrics" rel="noopener" data-api_path="/songs/477112"&gt;Child Of Vision&lt;/a&gt; and &lt;a href="https://genius.com/Supertramp-breakfast-in-america-lyrics" rel="noopener" data-api_path="/songs/482324"&gt;the title track&lt;/a&gt;) and the two most well-known of Davies’ creations, &lt;a href="https://genius.com/Supertramp-gone-hollywood-lyrics" rel="noopener" data-api_path="/songs/482321"&gt;Gone Hollywood&lt;/a&gt; and &lt;a href="https://genius.com/Supertramp-goodbye-stranger-lyrics" rel="noopener" data-api_path="/songs/361826"&gt;Goodbye Stranger&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The next album would be the last including Roger Hodgson, after which Richard Davies helmed the band alone into the ‘80s and the rise of digital synthesizers.&lt;/p&gt;\n\n&lt;p&gt;While Supertramp still exists, the latest album by the band was released in 2002.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Dr-alban', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Jack-harlow', 'annotations': {'description': '&lt;p&gt;Jack Harlow (born March 13, 1998) is an American rapper from Louisville, Kentucky. He released his first official project in 2014 titled &lt;a href="https://genius.com/albums/Jack-harlow/Finally-handsome" rel="noopener" data-api_path="/albums/637961"&gt;&lt;em&gt;Finally Handsome&lt;/em&gt;&lt;/a&gt;, as well as an &lt;a href="https://genius.com/albums/Jack-harlow/The-handsome-harlow-ep" rel="noopener" data-api_path="/albums/168646"&gt;EP&lt;/a&gt; the following year which kickstarted his drive to make music.&lt;/p&gt;\n\n&lt;p&gt;After racking up around 250,000 total views on YouTube as of 2016, his 2017 project, &lt;a href="https://genius.com/albums/Jack-harlow/Gazebo" rel="noopener" data-api_path="/albums/381055"&gt;&lt;em&gt;Gazebo&lt;/em&gt;&lt;/a&gt;, was immediately met with a very positive reaction by fans and celebrities alike; launching his career to another platform. &lt;a href="https://genius.com/Jack-harlow-dark-knight-lyrics" rel="noopener" data-api_path="/songs/3292652"&gt;“Dark Knight”&lt;/a&gt;—the second song released off the album—eventually featured on the front page of Worldstar Hip-Hop and racked up 1,000,000+ views on YouTube. Additionally, he even got a co-sign for the aforementioned song from both &lt;a href="https://genius.com/artists/Peter-rosenberg" rel="noopener" data-api_path="/artists/28758"&gt;Peter Rosenberg&lt;/a&gt; and fellow Louisville native &lt;a href="https://genius.com/artists/Bryson-tiller" rel="noopener" data-api_path="/artists/264368"&gt;Bryson Tiller&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Harlow is now associated with DJ Drama and Don Cannon’s &lt;a href="http://thegenerationnow.com/bio.html" rel="noopener nofollow"&gt;Generation Now&lt;/a&gt; record label. In 2018, he released &lt;a href="https://genius.com/albums/Jack-harlow/Loose" rel="noopener" data-api_path="/albums/450642"&gt;&lt;em&gt;Loose&lt;/em&gt;&lt;/a&gt;. Harlow’s fourth official project and his first major release since &lt;a href="https://www.billboard.com/articles/columns/hip-hop/8468418/jack-harlow-signs-with-atlantic-records-generation-now-sundown-video" rel="noopener nofollow"&gt;signing with Generation Now and Atlantic Records&lt;/a&gt;, the project was a showcase of his increasing stardom, as he managed to get rap veteran &lt;a href="https://genius.com/artists/Cyhi-the-prynce" rel="noopener" data-api_path="/artists/758"&gt;CyHi The Prynce&lt;/a&gt; and former XXL Freshman &lt;a href="https://genius.com/artists/K-camp" rel="noopener" data-api_path="/artists/20742"&gt;K Camp&lt;/a&gt; to feature on the project. That same year, Harlow was even a guest performer at Genius\' very own &lt;a href="https://genius.com/a/announcing-the-second-annual-genius-iq-bbq-live-concert-with-headliner-2-chainz" rel="noopener" data-api_path="/articles/5743"&gt;IQ/BBQ&lt;/a&gt;. Jack was later named to the 2020 XXL Freshman list, himself.&lt;/p&gt;\n\n&lt;p&gt;His shot to stardom reached a peak it had never seen in 2020, as his song &lt;a href="https://genius.com/amp/Jack-harlow-whats-poppin-remix-lyrics" rel="noopener" data-api_path="/songs/5701202"&gt;“WHATS POPPIN”&lt;/a&gt; acquired features from Lil Wayne, DaBaby, and Tory Lanez and made it to the Top Ten of the Billboard Hot 100.&lt;/p&gt;', 'alternate_names': ['Jackman Harlow', 'Jackman Thomas Harlow', 'Missionary Jack']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/David-lee-roth', 'annotations': {'description': '&lt;p&gt;David Lee Roth (born October 10, 1954) is an American rock vocalist, songwriter, actor, author, and former radio personality. Roth is best known as the original (1974–1985) and current (2006–present) lead singer of hard rock band &lt;a href="https://genius.com/artists/Van-halen" rel="noopener" data-api_path="/artists/38215"&gt;Van Halen&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;More information here: &lt;/p&gt;&lt;div class="embedly_preview"&gt;\n&lt;a href="https://www.bbc.co.uk/music/artists/802d37d5-0aaa-492e-b366-99f75e5a196f"&gt;\n  &lt;div class="gray_container"&gt;\n    \n      &lt;div class="embedly_preview-thumb"&gt;\n        &lt;img src="https://i.genius.com/365d55b2ac1bbd11c99ae06262a1b2337aba5b89?url=https%3A%2F%2Fichef.bbci.co.uk%2Fimages%2Fic%2F960x540%2Fp01bqtl7.jpg"&gt;\n      &lt;/div&gt;\n    \n    &lt;div class="embedly_preview-text"&gt;\n      &lt;span class="embedly_preview-title"&gt;David Lee Roth - New Songs, Playlists &amp;amp; Latest News - BBC Music&lt;/span&gt;\n      \n        &lt;span class="embedly_preview-dash"&gt; — &lt;/span&gt;\n        &lt;span class="embedly_preview-provider"&gt;BBC&lt;/span&gt;\n      \n      \n        &lt;div class="embedly_preview-description"&gt;The BBC artist page for David Lee Roth. Find the best clips, watch programmes, catch up on the news, and read the latest David Lee Roth interviews.&lt;/div&gt;\n      \n    &lt;/div&gt;\n  &lt;/div&gt;\n&lt;/a&gt;\n&lt;/div&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Whitesnake', 'annotations': {'description': '&lt;p&gt;&lt;b&gt;Whitesnake&lt;/b&gt; are a rock band formed in England in 1978 by &lt;a href="https://genius.com/artists/David-coverdale" rel="noopener" data-api_path="/artists/368979"&gt;David Coverdale&lt;/a&gt;, after his departure from his previous band &lt;b&gt;&lt;a href="https://genius.com/artists/Deep-purple" rel="noopener" data-api_path="/artists/34310"&gt;Deep Purple&lt;/a&gt;&lt;/b&gt;. Their early material has been compared by critics to the blues rock of Deep Purple, but they slowly began moving toward a more commercially accessible rock style. By the turn of the decade, the band’s commercial fortunes changed and they released a string of UK top 10 albums, &lt;i&gt;Ready an\' Willing&lt;/i&gt; (1980), &lt;i&gt;Come an\' Get It&lt;/i&gt; (1981), &lt;i&gt;Saints &amp;amp; Sinners&lt;/i&gt; (1982) and &lt;i&gt;Slide It In&lt;/i&gt; (1984), the last of which was their first to chart in the US and is certified 2x platinum.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Alice-cooper', 'annotations': {'description': '&lt;p&gt;Alice Cooper is the stage name and &lt;a href="http://www.chicagotribune.com/entertainment/ct-ott-1031-alice-cooper-20141029-story.html" rel="noopener nofollow"&gt;‘fun villain’&lt;/a&gt; character of Vincent Furnier. Cooper became the target of parents and ministers for his dark lyrics and gory theatrical performances that &lt;a href="https://www.grammy.com/grammys/videos/alice-cooper-godfather-shock-rock" rel="noopener nofollow"&gt;earned him the&lt;/a&gt; title Godfather of Shock Rock. Despite once &lt;a href="http://mentalfloss.com/article/26158/quick-10-10-famous-uses-ouija-board" rel="noopener nofollow"&gt;claiming the name was conjured&lt;/a&gt; from a ouija board that told him he’s the reincarnation of a 17th century witch, Cooper laughs the topic off with flippant &lt;a href="https://www.alicecooperechive.com/articles/feature/torb/961222" rel="noopener nofollow"&gt;answers like&lt;/a&gt; “It was either a Scrabble board or a bowl of alphabet soup” &lt;a href="https://www.alicecooperechive.com/articles/feature/hesu/050616" rel="noopener nofollow"&gt;and&lt;/a&gt; “I didn’t want a name like Iron Butterfly or Black Sabbath. I wanted it to be something your aunt might be called.”&lt;/p&gt;\n\n&lt;p&gt;The band Alice Cooper was &lt;a href="http://ultimateclassicrock.com/alice-cooper-pretties-for-you/" rel="noopener nofollow"&gt;originally signed&lt;/a&gt; by Frank Zappa to his own record label. Their first notoriety came when Cooper tossed a wayward chicken (possibly &lt;a href="https://www.theguardian.com/music/2014/jun/12/alice-cooper-i-realised-rock-needed-a-villain-super-duper-alice-cooper-documentary" rel="noopener nofollow"&gt;arranged by&lt;/a&gt; long-time manager Shep Gordon) into the crowd, who then tore it apart at the 1969 Toronto Rock ‘n’ Roll Revival Festival. Newspapers claimed he’d bit the bird’s head off and drank its blood. Zappa advised them to not deny the story and Cooper used it as &lt;a href="https://www.theguardian.com/music/2014/jun/12/alice-cooper-i-realised-rock-needed-a-villain-super-duper-alice-cooper-documentary" rel="noopener nofollow"&gt;inspiration to&lt;/a&gt; make his character darker.&lt;/p&gt;\n\n&lt;p&gt;The band’s teaming with producer Bob Ezrin for their third album &lt;em&gt;Love It To Death&lt;/em&gt; led to their US breakthrough with a &lt;a href="https://www.billboard.com/music/alice-cooper/chart-history" rel="noopener nofollow"&gt;top 30&lt;/a&gt; hit “I’m Eighteen” in early 1971. By then, the band was already infamous for their stage show, which had escalated into simulated torture and executions. That same year, &lt;em&gt;Killer&lt;/em&gt; was released with its two singles “Under My Wheels” and “Be My Lover” finding moderate US success, and both albums being &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;se=alice+cooper#search_section" rel="noopener nofollow"&gt;certified gold&lt;/a&gt; the following year.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;School’s Out&lt;/em&gt; and &lt;em&gt;Billion Dollar Babies&lt;/em&gt; expanded the band’s success to overseas with four songs &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Alice+Cooper&amp;amp;titel=No+More+Mr%2E+Nice+Guy&amp;amp;cat=s" rel="noopener nofollow"&gt;cracking the top 20&lt;/a&gt; in &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Alice+Cooper&amp;amp;titel=Hello+Hurray&amp;amp;cat=s" rel="noopener nofollow"&gt;several countries&lt;/a&gt; including the UK &lt;a href="http://www.officialcharts.com/artist/14640/alice-cooper/" rel="noopener nofollow"&gt;chart-topper&lt;/a&gt; “School’s Out”. Both albums reached the top 10 around the globe and the band’s stage show began incorporating the decapitation of dolls &lt;a href="https://www.alicecooperechive.com/articles/feature/torb/961222" rel="noopener nofollow"&gt;with butcher knives&lt;/a&gt; and &lt;a href="https://www.theguardian.com/music/2014/jun/12/alice-cooper-i-realised-rock-needed-a-villain-super-duper-alice-cooper-documentary" rel="noopener nofollow"&gt;props like&lt;/a&gt; the gallows, a guillotine and a live boa constrictor.&lt;/p&gt;\n\n&lt;p&gt;Less success with their sixth album &lt;em&gt;Muscle Of Love&lt;/em&gt; and &lt;a href="https://archive.is/20130115174817/http://news.google.ca/newspapers?id=gD8dAAAAIBAJ&amp;amp;sjid=26YEAAAAIBAJ&amp;amp;pg=3132,2262079&amp;amp;dq=dennis-dunaway+billion-dollar-babies&amp;amp;hl=en" rel="noopener nofollow"&gt;strained relations&lt;/a&gt; between members drove Furnier to legally change his name to Alice Cooper and begin a solo career in 1975 with the release of &lt;em&gt;Welcome To My Nightmare&lt;/em&gt;. His first four solo efforts were internationally successful, but sales were largely fueled by his softer ballads “Only Women Bleed”, “I Never Cry”, “You and Me” and “How You Gonna See Me Now”. Bob Ezrin stopped producing Cooper’s albums halfway through this era.&lt;/p&gt;\n\n&lt;p&gt;By the late 1970s, Cooper’s public image softened with appearances on The Muppets, Hollywood Squares and in various films including &lt;em&gt;Sgt Pepper’s Lonely Hearts Club Band&lt;/em&gt;. By the early 1980s, &lt;a href="https://www.theguardian.com/music/2014/jun/12/alice-cooper-i-realised-rock-needed-a-villain-super-duper-alice-cooper-documentary" rel="noopener nofollow"&gt;punk and hair metal&lt;/a&gt; began to make his 70s glam rock look tame. Meanwhile, Cooper was &lt;a href="https://www.theguardian.com/music/2014/jun/12/alice-cooper-i-realised-rock-needed-a-villain-super-duper-alice-cooper-documentary" rel="noopener nofollow"&gt;drinking himself&lt;/a&gt; almost to death. His next four albums from 1980-1983 only offered one US top 40 and a few modest chart appearances overseas.&lt;/p&gt;\n\n&lt;p&gt;After being hospitalized more than once for alcoholism and dropped from his record label, Cooper &lt;a href="http://ultimateclassicrock.com/alice-cooper-survived-80s/" rel="noopener nofollow"&gt;finally got sober&lt;/a&gt; and renewed his faith in 1984, &lt;a href="https://www.theguardian.com/music/2014/jun/12/alice-cooper-i-realised-rock-needed-a-villain-super-duper-alice-cooper-documentary" rel="noopener nofollow"&gt;reinventing his character&lt;/a&gt; as an abuser instead of a victim:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Alice had to be reborn as an arrogant villain. Now he wasn’t the one who was beaten, he was the one who was going to beat. He was the dominatrix, he wasn’t the trick.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Cooper’s next two albums for MCA Records were somewhat more successful than his previous four, but it wasn’t until 1989’s &lt;em&gt;Poison&lt;/em&gt; for Epic Records, a collaborative effort with hitmaker Desmond Child, that Cooper had a big comeback. Its title track reached the top 30 &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Alice+Cooper&amp;amp;titel=Poison&amp;amp;cat=s" rel="noopener nofollow"&gt;in several countries&lt;/a&gt; and three more singles found further scattered chart success, helping &lt;em&gt;Poison&lt;/em&gt; reach the top 20 around the world. Efforts since, however, have not generated the same level of massive worldwide chart success, the best showing being in the UK where he scored five more modest hits in the first half of the 90s.&lt;/p&gt;\n\n&lt;p&gt;In 1999, two years after the passing of original guitarist Glen Buxton, Cooper &lt;a href="http://www.pennyblackmusic.co.uk/magsitepages/article/8875/Alice-Cooper-50th-Anniversary-of-the-Alice-Cooper-Group-Original-Line-Up-Celebration-Part-1" rel="noopener nofollow"&gt;reunited with&lt;/a&gt; his remaining old bandmates for a single performance. In the 2000s, Cooper received a number of awards including &lt;a href="http://projects.latimes.com/hollywood/star-walk/alice-cooper/" rel="noopener nofollow"&gt;a star on&lt;/a&gt; the Hollywood Walk Of Fame, an honorary degree, a key to the city of Alice, North Dakota, and a &lt;a href="https://www.gettyimages.com/detail/news-photo/alice-cooper-with-his-living-legend-award-at-the-classic-news-photo/832572814" rel="noopener nofollow"&gt;living legend award&lt;/a&gt;. The original incarnation of the Alice Cooper band was &lt;a href="https://www.rockhall.com/inductees/alice-cooper" rel="noopener nofollow"&gt;inducted into&lt;/a&gt; the Rock And Roll Hall Of Fame in 2011.&lt;/p&gt;\n\n&lt;p&gt;Beginning in 2015, Cooper has &lt;a href="https://www.rollingstone.com/music/music-news/alice-cooper-breaks-silence-on-joe-perry-collapse-251164/" rel="noopener nofollow"&gt;participated as frontman&lt;/a&gt; of the supergroup Hollywood Vampires alongside Joe Perry of Aerosmith and actor Johnny Depp. In 2017, his 27th studio album &lt;em&gt;Paranormal&lt;/em&gt; featured “The Sound Of A” – a song lost for five decades that Cooper had originally &lt;a href="https://www.loudersound.com/news/alice-cooper-launches-creepy-video-for-50-year-old-song-the-sound-of-a" rel="noopener nofollow"&gt;written in&lt;/a&gt; 1967.&lt;/p&gt;', 'alternate_names': ['Vincent Furnier', 'Vincent Damon Furnier']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Dj-otzi', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;DJ Ötzi&lt;/strong&gt;, born 7 January 1971, is an Austrian singer, internationally best known for his 2001 single &lt;a href="https://genius.com/Dj-otzi-hey-baby-lyrics" rel="noopener" data-api_path="/songs/1000672"&gt;Hey Baby&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Natalie-imbruglia', 'annotations': {'description': "&lt;p&gt;Natalie Jane Imbruglia, born 4 February 1975), is an Australian singer-songwriter, model and actress, naturalised in the UK. In the early 1990s, she played Beth Brennan in the Australian soap opera Neighbours. Three years after leaving the program, she began a singing career with her successful hit cover of Ednaswap’s song “Torn”.&lt;/p&gt;\n\n&lt;p&gt;Her subsequent album, Left of the Middle (1997), sold 7 million copies worldwide. Further releases include White Lilies Island (2001), Counting Down the Days (2005), a hits compilation, Glorious: The Singles 97–07 (2007), Come to Life (2009), and a cover album of songs originally performed by male artists, Male (2015). Since 1997, Imbruglia has sold 10 million records worldwide, and received several accolades, including eight ARIA Awards, two Brit Awards, one Billboard Music Award, and three Grammy nominations.&lt;/p&gt;\n\n&lt;p&gt;In addition to her singing career, Imbruglia has appeared in several films, including 2003 film Johnny English and an Australian indie film, Closed for Winter (2009). She has also modelled for several brands, such as L'Oreal, Gap, and Kailis.&lt;/p&gt;\n\n&lt;p&gt;Since 2005, Imbruglia has been a spokesperson of Virgin Unite and campaigns to raise awareness of obstetric fistula.&lt;/p&gt;", 'alternate_names': ['Natalie Jane Imbruglia']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Captain-jack', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Bryson-tiller', 'annotations': {'description': '&lt;p&gt;Bryson Tiller is an American singer-songwriter from Louisville, Kentucky.&lt;/p&gt;\n\n&lt;p&gt;Bryson’s success didn’t happen overnight. Bryson released &lt;a href="https://genius.com/albums/Bryson-tiller/Killer-instinct" rel="noopener" data-api_path="/albums/141252"&gt;&lt;em&gt;Killer Instinct&lt;/em&gt;&lt;/a&gt; back in 2011. At the same time, he worked two jobs whilst also dealing with relationship issues. At one point, Bryson even considered applying for a third job to provide for his newborn daughter, Harley, who is featured in the &lt;a href="https://genius.com/albums/Bryson-tiller/True-to-self" rel="noopener" data-api_path="/albums/326050"&gt;&lt;em&gt;True To Self&lt;/em&gt;&lt;/a&gt; cover art.&lt;/p&gt;\n\n&lt;p&gt;Bryson’s life changed forever with the release of his breakout single &lt;a href="https://genius.com/Bryson-tiller-dont-lyrics" rel="noopener" data-api_path="/songs/579968"&gt;“Don’t,”&lt;/a&gt; which he dropped on SoundCloud in 2014 and has since been streamed over 35 million times. With the release of this track, Tiller began receiving attention from music industry insiders, receiving early co-signs from super-producer &lt;a href="https://genius.com/artists/Timbaland" rel="noopener" data-api_path="/artists/112"&gt;Timbaland&lt;/a&gt; and rapper &lt;a href="https://genius.com/artists/Drake" rel="noopener" data-api_path="/artists/130"&gt;Drake&lt;/a&gt;. This led to multiple major label deals for Bryson, one of those being an &lt;a href="https://genius.com/artists/Ovo-sound" rel="noopener" data-api_path="/artists/1247315"&gt;OVO&lt;/a&gt; contract from Drizzy, but Bryson surprisingly declined the offer. Later, Bryson chose to sign a creative partnership with RCA Records on August 25, 2015.&lt;/p&gt;\n\n&lt;p&gt;Since the release of “Don’t,” Bryson has dropped three albums: his debut studio album, &lt;a href="https://genius.com/albums/Bryson-tiller/T-r-a-p-s-o-u-l" rel="noopener" data-api_path="/albums/129455"&gt;&lt;em&gt;T R A P S O U L&lt;/em&gt;&lt;/a&gt;, in 2015, &lt;em&gt;True To Self&lt;/em&gt; in 2017, and &lt;a href="https://genius.com/albums/Bryson-tiller/A-n-n-i-v-e-r-s-a-r-y" rel="noopener" data-api_path="/albums/433638"&gt;&lt;em&gt;A N N I V E R S A R Y&lt;/em&gt;&lt;/a&gt; in 2020, precisely five years after the release of his debut album.&lt;/p&gt;', 'alternate_names': ['Pen Griffey', 'Gawdtilla', 'Young Tiller', 'Bryson D. Tiller', 'Bryson Djuan Tiller', 'Bryson Dujuan Tiller']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Michael-sembello', 'annotations': {'description': '&lt;p&gt;Michael Andrew Sembello (born April 17, 1954) is an American singer, musician, songwriter, composer and producer from Philadelphia, Pennsylvania.&lt;/p&gt;', 'alternate_names': ['Michael Andrew Sembello', 'Mike Sembello']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Akon', 'annotations': {'description': '&lt;p&gt;Akon (born Aliaume Akon Thiam), is a Senegalese-American Grammy-nominated and platinum-selling rapper, songwriter, singer and businessman. His trademark is singing the word ‘convict’ at the beginning of most of his songs.&lt;/p&gt;\n\n&lt;p&gt;Akon was born in the US but &lt;a href="https://wbssmedia.com/artists/detail/645" rel="noopener nofollow"&gt;spent much&lt;/a&gt; of childhood in the West African country Senegal. There, he learned to play five instruments including the djembe, guitar and drums. Early on Akon &lt;a href="http://www.hollywood.com/general/akon-sued-for-150-million-by-former-business-partner-report-60686814/" rel="noopener nofollow"&gt;signed a deal with&lt;/a&gt; Elektra Records, but was later dropped from the label.&lt;/p&gt;\n\n&lt;p&gt;His &lt;a href="http://www.hollywood.com/general/akon-sued-for-150-million-by-former-business-partner-report-60686814/" rel="noopener nofollow"&gt;career took off&lt;/a&gt; when Lil Zane introduced Akon to music executive DeVyne Stephens, who signed him to his label UpFront Records &lt;a href="http://www.hollywood.com/general/akon-sued-for-150-million-by-former-business-partner-report-60686814/" rel="noopener nofollow"&gt;and became his&lt;/a&gt; longtime manager and business partner.&lt;/p&gt;\n\n&lt;p&gt;Akon’s music with Stephens, specifically “Lonely”, caught the attention of SRC Records (under Universal). SRC’s A&amp;amp;R man Jerome Foster and CEO Steve Rifkind flew to Atlanta on a private plane &lt;a href="https://wbssmedia.com/artists/detail/645" rel="noopener nofollow"&gt;to sign him&lt;/a&gt;. His 2004 debut album &lt;em&gt;Trouble&lt;/em&gt; scored two international smash hits with “Locked Up” and “Lonely”, the latter topping the pop chart &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Akon&amp;amp;titel=Lonely&amp;amp;cat=s" rel="noopener nofollow"&gt;in seven countries&lt;/a&gt; and reaching the top 5 in seven more including &lt;a href="https://www.billboard.com/music/akon/chart-history" rel="noopener nofollow"&gt;the US&lt;/a&gt; and &lt;a href="http://www.officialcharts.com/artist/14451/akon/" rel="noopener nofollow"&gt;the UK&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;That year, Akon launched Konvict Music – a record label that would release Akon’s next albums in addition to albums by T-Pain and Sway. In 2005, Akon made two guest appearances during the success of &lt;em&gt;Trouble&lt;/em&gt; that were also successful: the Young Jeezy song “Soul Survivor” which did well in the US and UK, and “Moonshine” with Savage which was a huge hit in Australia and New Zealand.&lt;/p&gt;\n\n&lt;p&gt;His 2006 sophomore album &lt;em&gt;Konvicted&lt;/em&gt; spawned three international chart-toppers: “Smack That” featuring Eminem (top 10 &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Akon+feat%2E+Eminem&amp;amp;titel=Smack+That&amp;amp;cat=s" rel="noopener nofollow"&gt;in twelve countries&lt;/a&gt;), “I Wanna Love You” featuring Snoop Dogg (top 20 &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Akon+feat%2E+Snoop+Dogg&amp;amp;titel=I+Wanna+Love+You&amp;amp;cat=s" rel="noopener nofollow"&gt;in ten countries&lt;/a&gt;), and “Don’t Matter” (top 10 &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Akon+feat%2E+Snoop+Dogg&amp;amp;titel=I+Wanna+Love+You&amp;amp;cat=s" rel="noopener nofollow"&gt;in five countries&lt;/a&gt;). The album was &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;ar=AKON&amp;amp;ti=KONVICTED" rel="noopener nofollow"&gt;certified platinum&lt;/a&gt; within seven weeks, eventually reaching triple platinum a year later. Also that year, he made a guest appearance on the Gwen Stefani song “The Sweet Escape”, a top 10 song &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Gwen+Stefani+feat%2E+Akon&amp;amp;titel=The+Sweet+Escape&amp;amp;cat=s" rel="noopener nofollow"&gt;in twelve countries&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;2007 and 2008 saw Akon make several more guest appearances with various artists, giving him eight more US top 40 hits with scattered international success – the biggest being “Dangerous” with Kardinal Offishal, taken from an album he’d executive-produced.&lt;/p&gt;\n\n&lt;p&gt;Akon’s third album &lt;em&gt;Freedom&lt;/em&gt; was internationally successful in late 2008 with three singles reaching the top 10 in several countries, but it did not equal the success of his previous albums. During this time, Akon also remixed “Wanna Be Startin\' Somethin\'” for the 25th anniversary re-release of Michael Jackson’s &lt;em&gt;Thriller&lt;/em&gt;, &lt;a href="https://wbssmedia.com/artists/detail/645" rel="noopener nofollow"&gt;launched a clothing line&lt;/a&gt;, and founded KonLive Distribution (the label that signed Lady Gaga and released her first three albums) with Jimmy Iovine.&lt;/p&gt;\n\n&lt;p&gt;Since 2009, Akon has continued to collaborate with several artists, his most successful being the &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=David+Guetta+feat%2E+Akon&amp;amp;titel=Sexy+Bitch&amp;amp;cat=s" rel="noopener nofollow"&gt;international chart topper&lt;/a&gt; “Sexy Bitch” with David Guetta. His other work includes being one-third of the rap supergroup Flipsyde, heavy involvement in “We Are the World 25 for Haiti”, and co-writing for artists like NKOTB and Whitney Houston.&lt;/p&gt;\n\n&lt;p&gt;Outside of music, Akon has appeared in the films &lt;em&gt;Black November&lt;/em&gt; and &lt;em&gt;American Heist&lt;/em&gt; and founded &lt;a href="http://akonlightingafrica.com/our-activities/overview/" rel="noopener nofollow"&gt;Akon Lighting Africa&lt;/a&gt;, an effort to provide electricity via solar energy to African villages without power. His fourth album, a five-part concept album tentatively titled &lt;em&gt;Stadium&lt;/em&gt;, was in the works in 2010, but aside from &lt;a href="https://www.billboard.com/articles/news/6429405/akon-new-album-stadium" rel="noopener nofollow"&gt;teasing random singles&lt;/a&gt; like “To Each His Own”, “Whole Lot” and “Just A Man”, the full project did not materialize. Instead, Akon released two albums in 2019 and a mixtape in 2020.&lt;/p&gt;', 'alternate_names': ['Aliune Akon Thiam', 'Aliaune Damala Badara Akon Thiam', 'Aliaune Thiam']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Vengaboys', 'annotations': {'description': '&lt;p&gt;Vengaboys are a very popular bubblegum pop group. The members of the group are &lt;a href="http://www.bubblegumdancer.com/project.php?id=128#ixzz5IzGQMbFa" rel="noopener nofollow"&gt;Kim Sasabone, Denise Post-Van Rijswijk, Yorick Bakker, and Donny Latupeirissa&lt;/a&gt;. They’re well-known for their cartoonish poppy songs such as “Boom, Boom, Boom, Boom!!” They’ve sold an estimated &lt;a href="https://en.wikipedia.org/wiki/Vengaboys#Discography" rel="noopener nofollow"&gt;25 million records worldwide&lt;/a&gt; and was named the “Best Selling Music Group” in 2003 by World Music Awards.&lt;/p&gt;\n\n&lt;p&gt;The group has released three albums; &lt;em&gt;Up &amp;amp; Down-The Party Album&lt;/em&gt;, &lt;em&gt;The Party Album!&lt;/em&gt;, and &lt;em&gt;The Platinum Album&lt;/em&gt;; two of the albums have achieved gold and platinum status in other countries.&lt;/p&gt;\n\n&lt;p&gt;The group took a hiatus after 2000 and returned in 2006 with a new member Donny Latupeirissa, or Ma\'Donny. In 2010, the band confirmed that their &lt;a href="https://en.wikipedia.org/wiki/Vengaboys#Discography" rel="noopener nofollow"&gt;comeback single&lt;/a&gt; would be “Rocket to Uranus” and was released in June. In 2013, they released a new single called “Hot Hot Hot”.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;The X-mas Party Album&lt;/em&gt; was released in 2014. In 2017, the band announced Party On the Dance Floor Tour.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Foster-the-people', 'annotations': {'description': '&lt;p&gt;Foster the People is an American indie pop band formed in Los Angeles, California in 2009. The group is composed of &lt;a href="https://genius.com/artists/Mark-foster" rel="noopener" data-api_path="/artists/20731"&gt;Mark Foster&lt;/a&gt;, &lt;a href="https://genius.com/artists/Mark-pontius" rel="noopener" data-api_path="/artists/634157"&gt;Mark Pontius&lt;/a&gt;, &lt;a href="https://genius.com/artists/Sean-cimino" rel="noopener" data-api_path="/artists/634158"&gt;Sean Cimino&lt;/a&gt; and &lt;a href="https://genius.com/artists/Isom-innis" rel="noopener" data-api_path="/artists/182399"&gt;Isom Innis&lt;/a&gt;. The group’s music, described as melodic dance-infused pop and rock, spans many genres. Tyler Halford is currently a touring member of the band. &lt;a href="https://genius.com/artists/Danyew" rel="noopener" data-api_path="/artists/479945"&gt;Phil Danyew&lt;/a&gt; toured with the band from 2014-2019, as he now has his own project, Elephant Castle. &lt;a href="https://genius.com/artists/Jacob-fink" rel="noopener" data-api_path="/artists/634156"&gt;Jacob “Cubbie” Fink&lt;/a&gt; was once a member but had left the band in 2015 after the release of their second album. &lt;a href="https://genius.com/artists/Arlene-deradoorian" rel="noopener" data-api_path="/artists/1019524"&gt;Arlene Deradoorian&lt;/a&gt; (sister of Angel Deradoorian) and &lt;a href="https://genius.com/artists/Haley-dekle" rel="noopener" data-api_path="/artists/236557"&gt;Haley Dekle&lt;/a&gt; had also provided backing vocals for the group in 2014.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Gwen-stefani', 'annotations': {'description': '&lt;p&gt;Gwen Renée Stefani, known simply as Gwen Stefani, is an American singer and songwriter, born on October 3, 1969 in Fullerton, California. She started her musical career as the lead singer in the American pop-rock band, &lt;a href="https://genius.com/artists/No-doubt" rel="noopener" data-api_path="/artists/24421"&gt;No Doubt&lt;/a&gt;, in the early ‘90s. The band has achieved major success with their 1995 album &lt;a href="https://genius.com/albums/No-doubt/Tragic-kingdom" rel="noopener" data-api_path="/albums/43506"&gt;&lt;em&gt;Tragic Kingdom&lt;/em&gt;&lt;/a&gt;, which spawned the hit singles &lt;a href="https://genius.com/No-doubt-just-a-girl-lyrics" rel="noopener" data-api_path="/songs/210348"&gt;“Just a Girl”&lt;/a&gt; and &lt;a href="https://genius.com/No-doubt-dont-speak-lyrics" rel="noopener" data-api_path="/songs/208107"&gt;“Don’t Speak”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2004, Stefani released her first solo album, &lt;a href="https://genius.com/albums/Gwen-stefani/Love-angel-music-baby" rel="noopener" data-api_path="/albums/6076"&gt;&lt;em&gt;Love. Angel. Music. Baby.&lt;/em&gt;&lt;/a&gt;, which spawned the hit songs &lt;a href="https://genius.com/Gwen-stefani-rich-girl-lyrics" rel="noopener" data-api_path="/songs/32729"&gt;“Rich Girl”&lt;/a&gt;, &lt;a href="https://genius.com/Gwen-stefani-hollaback-girl-lyrics" rel="noopener" data-api_path="/songs/4385"&gt;“Hollaback Girl”&lt;/a&gt;, and &lt;a href="https://genius.com/Gwen-stefani-what-you-waiting-for-lyrics" rel="noopener" data-api_path="/songs/284592"&gt;“What You Waiting For?”&lt;/a&gt;; all three songs went number one on the Billboard Hot 100 chart, and also became the first US music download to sell one million copies.&lt;/p&gt;\n\n&lt;p&gt;In 2006, Stefani released her second solo album, &lt;a href="https://genius.com/albums/Gwen-stefani/The-sweet-escape" rel="noopener" data-api_path="/albums/22036"&gt;&lt;em&gt;The Sweet Escape&lt;/em&gt;&lt;/a&gt;, which spawned singles &lt;a href="https://genius.com/Gwen-stefani-the-sweet-escape-lyrics" rel="noopener" data-api_path="/songs/90487"&gt;“The Sweet Escape”&lt;/a&gt; and &lt;a href="https://genius.com/Gwen-stefani-wind-it-up-lyrics" rel="noopener" data-api_path="/songs/423090"&gt;“Wind It Up”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2016, she released her third solo album, &lt;a href="https://genius.com/albums/Gwen-stefani/This-is-what-the-truth-feels-like" rel="noopener" data-api_path="/albums/113812"&gt;&lt;em&gt;This Is What the Truth Feels Like&lt;/em&gt;&lt;/a&gt;, which became her first solo number-one album to chart on the Billboard 200. The album had hit songs such as, &lt;a href="https://genius.com/Gwen-stefani-make-me-like-you-lyrics" rel="noopener" data-api_path="/songs/2417511"&gt;“Make Me Like You”&lt;/a&gt; and &lt;a href="https://genius.com/Gwen-stefani-used-to-love-you-lyrics" rel="noopener" data-api_path="/songs/2332048"&gt;“Used to Love You”&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Gwen Renée Stefani Shelton', 'Gwen Renée Stefani']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-weather-girls', 'annotations': {'description': "&lt;p&gt;&lt;strong&gt;The Weather Girls&lt;/strong&gt; is a female American duo of &lt;strong&gt;Martha Wash&lt;/strong&gt; and &lt;strong&gt;Izora Armstead&lt;/strong&gt; as his most well-known line-up. The Weather girls members launched their musical career in 1976 in San Francisco, California as the Sylvester disco-female singer’s backup duet, &lt;strong&gt;Two Tons O' Fun&lt;/strong&gt;. In 1979 the duo signed Fantasy Records after years of modest success with Sylvester’s history. Following the release of “It’s Raining Men” (1982), the Weather Girls became their first number-one dance hit, a successful recognition.&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;Despite critical and commercial success, the duo struggled to repeat the success of “It’s Raining Men” and ultimately disbanded after the release of their self-titled fifth album The Weather Girls in 1988.&lt;/p&gt;", 'alternate_names': ["Two Tons O' Fun"]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Alan-walker', 'annotations': {'description': '&lt;p&gt;Alan Walker is a record producer and DJ, born in Northampton, England, on 24th of August 1997, but was raised and has lived in Bergen, Norway since the age of 2.&lt;/p&gt;\n\n&lt;p&gt; He initially had no musical background, however, he later taught himself by watching tutorials on YouTube based on music production. In July 2012, with the help and feedback from his fans online, he began pursuing his music production career and slowly began posting his music to &lt;a href="https://www.youtube.com/channel/UCJrOtniJ0-NWz37R30urifQ" rel="noopener nofollow"&gt;YouTube&lt;/a&gt; and &lt;a href="https://soundcloud.com/alanwalker" rel="noopener nofollow"&gt;SoundCloud&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;His song &lt;a href="https://genius.com/Alan-walker-fade-lyrics" rel="noopener" data-api_path="/songs/2865113"&gt;“Fade”&lt;/a&gt; gained attention after its release on YouTube via the label NCS. After signing with MER Musikk under Sony Music Sweden, Walker released his first official single &lt;a href="https://genius.com/Alan-walker-faded-lyrics" rel="noopener" data-api_path="/songs/2396871"&gt;“Faded”&lt;/a&gt;, a remastered vocal version of “Fade”. After the song and the video were released, they gained worldwide attention. The single topped the year-end charts in Austria, Germany, Switzerland and Sweden, iTunes charts in 32 countries, as well as entering top 10 in Spotify Global Chart.&lt;/p&gt;\n\n&lt;p&gt;On October 27th of 2018, Walker released the song &lt;a href="https://genius.com/Alan-walker-noah-cyrus-and-digital-farm-animals-all-falls-down-lyrics" rel="noopener" data-api_path="/songs/3234393"&gt;“All Falls Down”&lt;/a&gt; which featured American singer &lt;a href="https://genius.com/artists/Noah-cyrus" rel="noopener" data-api_path="/artists/405554"&gt;Noah Cyrus&lt;/a&gt; and British DJ and record producer &lt;a href="https://genius.com/artists/Digital-farm-animals" rel="noopener" data-api_path="/artists/497319"&gt;Digital Farm Animals&lt;/a&gt;. With this song followed an announcement of Walker’s first studio album, &lt;a href="https://genius.com/albums/Alan-walker/Different-world" rel="noopener" data-api_path="/albums/368574"&gt;&lt;em&gt;Different World&lt;/em&gt;&lt;/a&gt; which was released in December 2018.&lt;/p&gt;', 'alternate_names': ['Alan Olav Walker', 'Walkzz', 'DJ Walkzz']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Metro-station', 'annotations': {'description': '&lt;p&gt;Metro Station is an American pop band that was formed in Los Angeles by &lt;a href="https://genius.com/artists/Trace-cyrus" rel="noopener" data-api_path="/artists/59818"&gt;Trace Cyrus&lt;/a&gt; and &lt;a href="https://genius.com/artists/Mason-musso" rel="noopener" data-api_path="/artists/681526"&gt;Mason Musso&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Desireless', 'annotations': {'description': '&lt;p&gt;Claudie Fritsch-Mentrop, known by her stage name Desireless (born 25 December 1952, Paris, France), is a French singer. Between 1986 and 1988, her hit single “Voyage, voyage” made it to number one in many European and Asian single charts and sold over five million copies.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Michelle-branch', 'annotations': {'description': '&lt;p&gt;Michelle Branch, born on July 2, 1983, is a pop-rock American singer and songwriter from Sedona, Arizona, U.S.&lt;/p&gt;\n\n&lt;p&gt;On June 1, 2000, Branch released her debut album, &lt;a href="https://genius.com/albums/Michelle-branch/Broken-bracelet" rel="noopener" data-api_path="/albums/213284"&gt;&lt;em&gt;Broken Bracelet&lt;/em&gt;&lt;/a&gt;, which was self produced and released independently.&lt;/p&gt;\n\n&lt;p&gt;In 2001, she &lt;a href="https://usatoday30.usatoday.com/life/music/2001-09-14-michelle-branch.htm" rel="noopener nofollow"&gt;signed&lt;/a&gt; a record deal with &lt;a href="https://maverick.com/" rel="noopener nofollow"&gt;Maverick Records&lt;/a&gt;. The same year, she released her second studio album, &lt;a href="https://genius.com/albums/Michelle-branch/The-spirit-room" rel="noopener" data-api_path="/albums/84655"&gt;&lt;em&gt;The Spirit Room&lt;/em&gt;&lt;/a&gt;, on August 14th. The album peaked at #28 on the &lt;a href="https://www.billboard.com/music/Michelle-Branch/chart-history/TLP" rel="noopener nofollow"&gt;Billboard 200&lt;/a&gt;, making it her first album to appear on the chart at the time. The album produced three singles: &lt;a href="https://genius.com/Michelle-branch-everywhere-lyrics" rel="noopener" data-api_path="/songs/857056"&gt;“Everywhere”&lt;/a&gt;, &lt;a href="https://genius.com/Michelle-branch-all-you-wanted-lyrics" rel="noopener" data-api_path="/songs/369728"&gt;“All You Wanted”&lt;/a&gt;, and &lt;a href="https://genius.com/Michelle-branch-goodbye-to-you-lyrics" rel="noopener" data-api_path="/songs/857297"&gt;“Goodbye To You”&lt;/a&gt;. All singles &lt;a href="https://www.billboard.com/music/michelle-branch/chart-history/HSI" rel="noopener nofollow"&gt;peaked&lt;/a&gt; within the top 25 on the Billboard Hot 100, at #12, #6, and #21, respectively.&lt;/p&gt;\n\n&lt;p&gt;On June 21, 2003, she released her third studio album, &lt;a href="https://genius.com/albums/Michelle-branch/Hotel-paper" rel="noopener" data-api_path="/albums/163274"&gt;&lt;em&gt;Hotel Paper&lt;/em&gt;&lt;/a&gt;. The album &lt;a href="https://www.billboard.com/music/michelle-branch/chart-history/TLP" rel="noopener nofollow"&gt;peaked&lt;/a&gt; at #2 on the Billboard 200, making it her highest peaking album on the chart at the time. Two singles were released from the album: &lt;a href="https://genius.com/Michelle-branch-are-you-happy-now-lyrics" rel="noopener" data-api_path="/songs/857127"&gt;“Are You Happy Now?”&lt;/a&gt; and &lt;a href="https://genius.com/Michelle-branch-breathe-lyrics" rel="noopener" data-api_path="/songs/856569"&gt;“Breathe”&lt;/a&gt;, both &lt;a href="https://www.billboard.com/music/michelle-branch/chart-history/HSI" rel="noopener nofollow"&gt;peaking&lt;/a&gt; within the top 40 on the Hot 100.&lt;/p&gt;\n\n&lt;p&gt;In 2005, Branch was part of a country duo with fellow solo artist Jessica Harp, naming themselves The Wreckers. Their debut and only studio album, &lt;a href="https://genius.com/albums/The-wreckers/Stand-still-look-pretty" rel="noopener" data-api_path="/albums/220220"&gt;&lt;em&gt;Stand Still, Look Pretty&lt;/em&gt;&lt;/a&gt;, was released on May 23, 2006. The duo &lt;a href="http://www.contactmusic.com/news/the-wreckers-split_1058117" rel="noopener nofollow"&gt;eventually&lt;/a&gt; split up in 2008.&lt;/p&gt;\n\n&lt;p&gt;In 2010, she released an extended play titled &lt;a href="https://genius.com/albums/Michelle-branch/Everything-comes-and-goes-ep" rel="noopener" data-api_path="/albums/163277"&gt;&lt;em&gt;Everything Comes and Goes&lt;/em&gt;&lt;/a&gt;, and in 2011 an extended play, titled &lt;a href="https://genius.com/albums/Michelle-branch/The-loud-music-hits-ep" rel="noopener" data-api_path="/albums/207631"&gt;&lt;em&gt;The Loud Music Hits&lt;/em&gt;&lt;/a&gt;, which featured several of Branch’s biggest hit singles from her career and a new song titled &lt;a href="https://genius.com/Michelle-branch-loud-music-lyrics" rel="noopener" data-api_path="/songs/857805"&gt;“Loud Music”&lt;/a&gt;. An album titled &lt;em&gt;West Coast Time&lt;/em&gt; was &lt;a href="https://www.billboard.com/articles/news/467749/michelle-branch-the-making-of-new-album-west-coast-time-exclusive-video" rel="noopener nofollow"&gt;set to be released&lt;/a&gt; the same year, but never came to fruition, though many songs from the album sessions have leaked online. In 2015, Branch &lt;a href="https://twitter.com/michellebranch/status/623344244543983616?lang=en" rel="noopener nofollow"&gt;confirmed&lt;/a&gt; the album would not be released.&lt;/p&gt;\n\n&lt;p&gt;For the first time in fourteen years, Branch released her fourth full-length studio album, &lt;a href="https://genius.com/albums/Michelle-branch/Hopeless-romantic" rel="noopener" data-api_path="/albums/328350"&gt;&lt;em&gt;Hopeless Romantic&lt;/em&gt;&lt;/a&gt;. The album was her first on a new label, Verve Records.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Irene-cara', 'annotations': {'description': '&lt;p&gt;An 80s pop star. Most famous for her work on the Flashdance soundtrack and her role in Fame.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Caesars', 'annotations': {'description': '&lt;p&gt;Caesars was a four member band formed in Stockholm in 1993. They released their first EP in 1995 and their third studio-album ‘Love for the Streets’ in their native country in 2002. It was the album that carried their biggest hit ‘Jerk it out’ which gained global success when it appeared in a wildly broadcasted commercial in 2005.&lt;br&gt;\nThey released their last full-length album called “Strawberry Weed” in 2008.&lt;br&gt;\nIn 2012 the band’s guitarist Joakim Åhlund stated that they’d “put the band on ice”, and they haven’t released anything since.&lt;/p&gt;', 'alternate_names': ["Caesar's Palace"]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Fergie', 'annotations': {'description': '&lt;p&gt;Fergie Duhamel, born Stacy Ann Ferguson, started her career in television. She starred in six seasons of &lt;em&gt;Kids Incorporated&lt;/em&gt; before leaving the show in 1989. Fergie would venture through a couple of gigs including music group &lt;a href="https://genius.com/artists/Wild-orchid" rel="noopener" data-api_path="/artists/360903"&gt;Wild Orchid&lt;/a&gt; before landing success with one of the most recognizable band of the 2000s: &lt;a href="https://genius.com/artists/Black-eyed-peas" rel="noopener" data-api_path="/artists/425"&gt;Black Eyed Peas&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Joining the band in 2003, with her first feature on hit single &lt;a href="https://genius.com/Black-eyed-peas-where-is-the-love-lyrics" rel="noopener" data-api_path="/songs/10680"&gt;“Where is the Love?”"&lt;/a&gt;, Fergie, &lt;a href="https://genius.com/artists/William" rel="noopener" data-api_path="/artists/713"&gt;\u200bwill.i.am&lt;/a&gt;, &lt;a href="https://genius.com/artists/Apldeap" rel="noopener" data-api_path="/artists/47060"&gt;Apl.de.ap&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Taboo" rel="noopener" data-api_path="/artists/5181"&gt;Taboo&lt;/a&gt; reached mainstream success as the Black Eyed Peas grew in renown and popularity as a pop-hiphop group. After releasing the commercially successful album &lt;em&gt;&lt;a href="https://genius.com/albums/Black-eyed-peas-monkey-business" rel="noopener"&gt;Monkey Business&lt;/a&gt;&lt;/em&gt; with the Black Eyed Peas in mid-2005, Fergie ventured into her solo career with a debut album that continues to be her greatest work: &lt;em&gt;&lt;a href="https://genius.com/albums/The-Dutchess" rel="noopener"&gt;The Dutchess&lt;/a&gt;&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;Released in 2006, the record brought Fergie five multi-platinum singles, including &lt;a href="https://genius.com/Fergie-glamorous-lyrics" rel="noopener" data-api_path="/songs/32326"&gt;“Glamorous”&lt;/a&gt;, &lt;a href="https://genius.com/Fergie-big-girls-dont-cry-lyrics" rel="noopener" data-api_path="/songs/268843"&gt;“Big Girls Don’t Cry”&lt;/a&gt;, and &lt;a href="https://genius.com/Fergie-fergalicious-lyrics" rel="noopener" data-api_path="/songs/32275"&gt;“Fergalicious”&lt;/a&gt;. The latter has catapulted Fergie into pop culture relevance, and the term “fergalicious” or some variation of it is never put to rest in American pop culture.&lt;/p&gt;\n\n&lt;p&gt;With the Black Eyed Peas, Fergie climbed to even greater heights, with singles &lt;a href="https://genius.com/Black-eyed-peas-boom-boom-pow" rel="noopener"&gt;“Boom Boom Pow”&lt;/a&gt; and &lt;a href="https://genius.com/Black-eyed-i-gotta-feeling" rel="noopener"&gt;“I Gotta Feeling”&lt;/a&gt; dominating 2009.&lt;/p&gt;\n\n&lt;p&gt;Fergie later got a &lt;a href="http://www.dailymail.co.uk/tvshowbiz/article-2040842/Fergie-unveils-wax-figure-doppelg-nger-Madame-Tussauds.html" rel="noopener nofollow"&gt;Madame Tussauds figure&lt;/a&gt;, headlined the &lt;a href="https://www.youtube.com/watch?v=11T2B9NH8yM" rel="noopener nofollow"&gt;Super Bowl halftime show with the rest of the band&lt;/a&gt;; and &lt;a href="https://www.avon.com/product/39692/outspoken-by-fergie-eau-de-parfum-spray?setlang=en" rel="noopener nofollow"&gt;released her own fragrance &lt;em&gt;Outspoken&lt;/em&gt;&lt;/a&gt;. She returned to her solo career in 2014 with &lt;a href="https://genius.com/Fergie-la-love-la-la-lyrics" rel="noopener" data-api_path="/songs/520238"&gt;“L.A. LOVE”&lt;/a&gt; and &lt;a href="https://genius.com/Fergie-milf-lyrics" rel="noopener" data-api_path="/songs/2710603"&gt;“M.I.L.F. $”&lt;/a&gt; in 2016.&lt;/p&gt;\n\n&lt;p&gt;Fergie has fearlessly imprinted the face of modern pop music. The world can only wait to see what she will conquer next.&lt;/p&gt;', 'alternate_names': ['Stacy Ann Ferguson', 'Stacy Ferguson']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Morrissey', 'annotations': {'description': '&lt;p&gt;Steven Patrick Morrissey is an English singer and lyricist, most notably known for being the lead vocalist in English band &lt;a href="https://genius.com/artists/The-smiths" rel="noopener" data-api_path="/artists/16669"&gt;The Smiths&lt;/a&gt;. He’s also had a successful solo career after the group disbanded in 1987.&lt;/p&gt;', 'alternate_names': ['Steven Morrissey', 'Steven P. Morrissey', 'Steven Patrick Morrissey']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Peter-tosh', 'annotations': {'description': '&lt;p&gt;Hubert Winston McIntosh (October 19, 1944 – September 11, 1987), better known by his stage name Peter Tosh, was a talented reggae multi-instrumentalist, songwriter, and vocalist from Jamaica. In addition to being a founding member of &lt;a href="https://genius.com/artists/The-wailers" rel="noopener" data-api_path="/artists/16126"&gt;The Wailers&lt;/a&gt;, Tosh would go on to distinguish himself as one of the biggest reggae artists of the 1970’s and 1980’s.&lt;/p&gt;\n\n&lt;p&gt;Many of the songs that he wrote for the Wailers were influenced by the prevailing &lt;a href="http://www.jamaicaobserver.com/news/the-making-of-peter-tosh-live-at-the-one-love-peace-concert_131076" rel="noopener nofollow"&gt;political and economic repression.&lt;/a&gt; Sung with his rich baritone, Wailer hits like &lt;a href="https://genius.com/The-wailers-no-sympathy-lyrics" rel="noopener" data-api_path="/songs/809985"&gt;“No Sympathy,”&lt;/a&gt; &lt;a href="https://genius.com/The-wailers-400-years-lyrics" rel="noopener" data-api_path="/songs/810134"&gt;“400 Years,”&lt;/a&gt; and “&lt;a href="https://genius.com/The-wailers-stop-that-train-lyrics" rel="noopener" data-api_path="/songs/306027"&gt;Stop That Train"&lt;/a&gt; all reflect his response to the political and social situation of the oppressed. He also co-wrote one of the most celebrated reggae anthems, &lt;a href="https://genius.com/The-wailers-get-up-stand-up-lyrics" rel="noopener" data-api_path="/songs/4743273"&gt;“Get Up, Stand Up,”&lt;/a&gt; with Bob Marley.&lt;/p&gt;\n\n&lt;p&gt;By the time The Wailers\' released their 1973 album, &lt;em&gt;Burnin\'&lt;/em&gt;, Tosh &lt;a href="https://web.archive.org/web/20120709081953/http://lareviewofbooks.org/article.php?type=&amp;amp;id=688&amp;amp;fulltext=1&amp;amp;media=" rel="noopener nofollow"&gt;had begun to chafe&lt;/a&gt; at Island Records insistence on marketing the group as Bob Marley &amp;amp; The Wailers. Resentful of the perception that he was merely backing up his old friend (Bob Marley), Tosh decided to become a solo artist. His 1976 debut album, &lt;a href="https://genius.com/albums/Peter-tosh/Legalize-it" rel="noopener" data-api_path="/albums/27664"&gt;&lt;em&gt;Legalize It&lt;/em&gt;,&lt;/a&gt; spent two weeks in the &lt;a href="https://www.billboard.com/music/peter-tosh/chart-history/billboard-200/song/194689" rel="noopener nofollow"&gt;Billboard 200&lt;/a&gt; and even got platinum certified. Its title track &lt;a href="http://petertosh.com/legalize-it-jamaicas-weed-decriminalization-explained-by-the-wailers-lyrics-of-peter-tosh/" rel="noopener nofollow"&gt;became an international mantra&lt;/a&gt; as it espoused decriminalizing the use and possession of marijuana.&lt;/p&gt;\n\n&lt;p&gt;Tosh was murdered by robbers at the age of 42, he died &lt;a href="https://www.nytimes.com/1987/09/13/world/gunmen-kill-peter-tosh-reggae-star-in-jamaica.html" rel="noopener nofollow"&gt;from gunshot wounds&lt;/a&gt; sustained during a home invasion in 1987. In 2012, Tosh was posthumously awarded Jamaica’s &lt;a href="http://www.jamaicaobserver.com/news/Peter-Tosh-heads-national-honours-list_12208356" rel="noopener nofollow"&gt;Order of Merit&lt;/a&gt;, and a museum commemorating his life has been open to the public in Kingston, Jamaica since 2016.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Fleetwood-mac', 'annotations': {'description': '&lt;p&gt;Formed from the ashes of John Mayall’s Bluesbreaker, legendary blues guitarist Peter Green, drummer Mick Fleetwood and bassist John (Mac) McVie formed Fleetwood Mac and had several songs reach the top two spots of the UK Chart in the late 1960s and early 1970s. The band went through &lt;a href="https://www.buzzfeed.com/perpetua/19-things-you-might-not-know-about-fleetwood-mac?utm_term=.bt97VVBqm#.hlON88R4W" rel="noopener nofollow"&gt;nine lineup changes&lt;/a&gt;, including Green’s exit, before the addition of Stevie Nicks and Lindsey Buckingham, a move that elevated the band to international stardom with their self-titled 1975 album, which scored &lt;a href="https://www.billboard.com/music/fleetwood-mac/chart-history" rel="noopener nofollow"&gt;three top 20 US hits&lt;/a&gt;, and its follow-up &lt;em&gt;Rumours&lt;/em&gt;, one of the &lt;a href="https://www.businessinsider.com/50-best-selling-albums-all-time-2016-9#11-shania-twain-come-on-over-40" rel="noopener nofollow"&gt;best-selling albums&lt;/a&gt; of all time, spawning four top 10 hits in the US and four top 40s in the UK.&lt;/p&gt;\n\n&lt;p&gt;The band released three more albums over the next ten years that reached the top 10 in several countries around the world, racking up 9 more US top 20s and 5 more UK top 10s, but &lt;a href="https://www.uncut.co.uk/features/fleetwood-mac-everybody-was-pretty-weirded-out-the-story-of-rumours-26395" rel="noopener nofollow"&gt;relations between members&lt;/a&gt; were in a &lt;a href="https://www.buzzfeed.com/perpetua/19-things-you-might-not-know-about-fleetwood-mac?utm_term=.xcyDpp2nw#.njnwkkPVA" rel="noopener nofollow"&gt;continuous state of turmoil&lt;/a&gt; with breakups, marriages, divorces, affairs and overindulgence in alcohol and drugs. &lt;a href="http://creation.com.es/news/fleetwood-mac-hold-me/" rel="noopener nofollow"&gt;A prime example can be found&lt;/a&gt; in the 1982 video shoot for “Hold Me\', with the producer calling it “a fucking nightmare” and its director adding, “Four of them—I can’t recall which four—couldn’t be together in the same room for very long … John McVie was drunk and tried to punch me. Stevie Nicks didn’t want to walk on the sand with her platforms. Christine McVie was fed up with all of them. Mick thought she was being a bitch, he wouldn’t talk to her.”&lt;/p&gt;\n\n&lt;p&gt;Nicks, Buckingham and Christine McVie had each also launched successful solo careers during their membership in the band, but after the band’s internationally successful 1987 album &lt;em&gt;Tango In The Night&lt;/em&gt; spawned four US top 20 hits, &lt;a href="https://www.rollingstone.com/music/music-news/lindsey-buckingham-leaves-fleetwood-mac-84541/" rel="noopener nofollow"&gt;Buckingham officially left that year&lt;/a&gt;. Fleetwood Mac struggled to remain relevant with 1990’s &lt;em&gt;Behind The Mask&lt;/em&gt; finding moderate success and 1995’s &lt;em&gt;Time&lt;/em&gt; going largely unnoticed.&lt;/p&gt;\n\n&lt;p&gt;In 1997, the classic lineup of Fleetwood / McVie / McVie / Nicks / Buckingham &lt;a href="http://ultimateclassicrock.com/fleetwood-macs-reunion-album-the-dance-turns-15/" rel="noopener nofollow"&gt;reunited&lt;/a&gt; to record the live album &lt;em&gt;The Dance&lt;/em&gt;, which led to international success, three Grammy nominations, a 44-date North American tour and a 1998 induction into the Rock And Roll Hall Of Fame. A 2003 album without Christine McVie found success at first, but cooled quickly. The band has continued to see its members occasionally exit and return since.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Steve-aoki', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://steveaoki.com/" rel="noopener nofollow"&gt;Steve Aoki&lt;/a&gt; is an American electronic house DJ, producer, and founder of &lt;a href="https://genius.com/artists/Dim-mak-records" rel="noopener" data-api_path="/artists/1013116"&gt;Dim Mak Records&lt;/a&gt;, heard world-wide. He is also the son of the &lt;a href="http://www.benihana.com/about/" rel="noopener nofollow"&gt;Benihana’s&lt;/a&gt; founder, Rocky Aoki.&lt;/p&gt;\n\n&lt;p&gt;Throughout his career, Aoki has built an extensive catalog of collaborations with other acts, such as &lt;a href="https://genius.com/artists/William" rel="noopener" data-api_path="/artists/713"&gt;\u200bwill.i.am&lt;/a&gt;, &lt;a href="https://genius.com/artists/Bts" rel="noopener" data-api_path="/artists/70113"&gt;BTS&lt;/a&gt;, &lt;a href="https://genius.com/artists/Fall-out-boy" rel="noopener" data-api_path="/artists/7811"&gt;Fall Out Boy&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Monsta-x" rel="noopener" data-api_path="/artists/653084"&gt;MONSTA X&lt;/a&gt;, just to name a few. Some of his most popular tracks are remixes of other artists\' works, such as his remix of &lt;a href="https://genius.com/artists/Kid-cudi" rel="noopener" data-api_path="/artists/68"&gt;Kid Cudi&lt;/a&gt;’s &lt;a href="https://genius.com/Kid-cudi-pursuit-of-happiness-steve-aoki-remix-lyrics" rel="noopener" data-api_path="/songs/2102308"&gt;“Pursuit of Happiness”&lt;/a&gt;, or the remix of &lt;a href="https://genius.com/Bts-mic-drop-steve-aoki-remix-lyrics" rel="noopener" data-api_path="/songs/3333474"&gt;“MIC Drop”&lt;/a&gt; by BTS.&lt;/p&gt;\n\n&lt;p&gt;Aoki has also dedicated himself to other projects, such as DIM MAK’s &lt;a href="https://dimmakcollection.com/" rel="noopener nofollow"&gt;clothing line&lt;/a&gt; or the &lt;a href="https://aokifoundation.org/" rel="noopener nofollow"&gt;Aoki Foundation&lt;/a&gt;, which aims to support organizations in the field of brain science and research.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Knife-party', 'annotations': {'description': '&lt;p&gt;America has Skrillex. Australia has Knife Party. Both make the same type of music – in very different styles.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Samantha-fox', 'annotations': {'description': '&lt;p&gt;Samantha Karen Fox (born April 15, 1966) is an English singer-songwriter and actress. She rose to fame in the 1980s as a Page 3 model, but became a legitimate star after the release of her debut single, “&lt;a href="https://genius.com/Samantha-fox-touch-me-i-want-your-body-lyrics" rel="noopener" data-api_path="/songs/1929749"&gt;Touch Me (I Want Your Body)&lt;/a&gt;”.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Fountains-of-wayne', 'annotations': {'description': '&lt;p&gt;Fountains of Wayne was an American rock band that formed in New York City in 1995. The band consisted of singer Chris Collingwood, bassist Adam Schlesinger, guitarist Jody Porter, and drummer Brian Young. The band was best known for their 2003 Grammy-nominated single “Stacy’s Mom.”&lt;/p&gt;', 'alternate_names': []}}</t>
   </si>
   <si>
     <t>{'url': 'https://genius.com/artists/Marilyn-manson', 'annotations': {'description': '&lt;p&gt;Brian Hugh Warner who is better known under his stage name of &lt;strong&gt;Marilyn Manson&lt;/strong&gt; is a musician, painter, actor, multimedia artist, and former music journalist. His stage name is a combination of the names of two American icons, actress &lt;a href="https://genius.com/artists/Marilyn-monroe" rel="noopener" data-api_path="/artists/1949"&gt;Marilyn Monroe&lt;/a&gt; and multiple murder conspiracy convict &lt;a href="https://genius.com/artists/Charles-manson" rel="noopener" data-api_path="/artists/25277"&gt;Charles Manson&lt;/a&gt;.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I picked that (Marilyn Manson) as the fakest stage name of all to say that this is what show business is, fake. Marilyn Monroe wasn’t even her real name, Charles Manson isn’t his real name, and now, I’m taking that to be my real name. But what’s real? You can’t find the truth, you just pick the lie you like the best. As long as you know everything’s a lie, you can’t hurt yourself.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;—&lt;a href="http://hollywoodlife.com/celeb/marilyn-manson/" rel="noopener nofollow"&gt;Marylin Manson&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Marilyn Manson is also the name of his rock band, originally “Marilyn Manson and the Spooky Kids”, where everyone had the same naming convention as the singer:&lt;/p&gt;\n\n&lt;ul&gt;\n&lt;li&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Twiggy-ramirez" rel="noopener" data-api_path="/artists/1099065"&gt;Twiggy Ramirez&lt;/a&gt;:&lt;/strong&gt; &lt;a href="https://genius.com/artists/Twiggy" rel="noopener" data-api_path="/artists/19553"&gt;Twiggy&lt;/a&gt; + &lt;a href="https://en.wikipedia.org/wiki/Richard_Ramirez" rel="noopener nofollow"&gt;Richard Ramirez&lt;/a&gt;\n&lt;/li&gt;\n&lt;li&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Madonna-wayne-gacy" rel="noopener" data-api_path="/artists/649881"&gt;Madonna Wayne Gacy&lt;/a&gt;:&lt;/strong&gt; &lt;a href="https://genius.com/artists/Madonna" rel="noopener" data-api_path="/artists/276"&gt;Madonna&lt;/a&gt; + &lt;a href="https://en.wikipedia.org/wiki/John_Wayne_Gacy" rel="noopener nofollow"&gt;John Wayne Gacy&lt;/a&gt;\n&lt;/li&gt;\n&lt;li&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Ginger-fish" rel="noopener" data-api_path="/artists/649880"&gt;Ginger Fish&lt;/a&gt;:&lt;/strong&gt; &lt;a href="https://genius.com/artists/Fred-astaire-and-ginger-rogers" rel="noopener" data-api_path="/artists/382665"&gt;Ginger Roberts&lt;/a&gt; + &lt;a href="https://en.wikipedia.org/wiki/Albert_Fish" rel="noopener nofollow"&gt;Albert FIsh&lt;/a&gt;\n&lt;/li&gt;\n&lt;li&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Daisy-berkowitz" rel="noopener" data-api_path="/artists/404173"&gt;Daisy Berkowitz&lt;/a&gt;:&lt;/strong&gt; &lt;a href="https://en.wikipedia.org/wiki/Daisy_Duke" rel="noopener nofollow"&gt;Daisy Duke&lt;/a&gt; + &lt;a href="https://en.wikipedia.org/wiki/David_Berkowitz" rel="noopener nofollow"&gt;David “Son of Sam” Berkowitz&lt;/a&gt;\n&lt;/li&gt;\n&lt;li&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Gidget-gein" rel="noopener" data-api_path="/artists/526358"&gt;Gidget Gein&lt;/a&gt;:&lt;/strong&gt; &lt;a href="https://en.wikipedia.org/wiki/Gidget" rel="noopener nofollow"&gt;Gidget&lt;/a&gt; + &lt;a href="https://en.wikipedia.org/wiki/Ed_Gein" rel="noopener nofollow"&gt;Ed Gein&lt;/a&gt;\n&lt;/li&gt;\n&lt;li&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Sara-lee-lucas" rel="noopener" data-api_path="/artists/491172"&gt;Sara Lee Lucas&lt;/a&gt;:&lt;/strong&gt; &lt;a href="https://en.wikipedia.org/wiki/Sara_Lee_Corporation" rel="noopener nofollow"&gt;Sara Lee&lt;/a&gt; + &lt;a href="https://en.wikipedia.org/wiki/Henry_Lee_Lucas" rel="noopener nofollow"&gt;Henry Lee Lucas&lt;/a&gt;\n&lt;/li&gt;\n&lt;li&gt;Plus &lt;a href="https://genius.com/artists/Olivia-newton-john" rel="noopener" data-api_path="/artists/281740"&gt;Olivia Newton&lt;/a&gt;, &lt;a href="https://en.wikipedia.org/wiki/Ted_Bundy" rel="noopener nofollow"&gt;Bundy&lt;/a&gt; and &lt;a href="https://genius.com/artists/Zsa-zsa-gabor" rel="noopener" data-api_path="/artists/14183"&gt;Zsa Zsa&lt;/a&gt; &lt;a href="https://en.wikipedia.org/wiki/Richard_Speck" rel="noopener nofollow"&gt;Speck&lt;/a&gt;, who left early in the band.&lt;/li&gt;\n&lt;/ul&gt;', 'alternate_names': ['Brian H. Warner', 'Brian Hugh Warner', 'Brian Warner']}}</t>
   </si>
   <si>
-    <t>{'url': 'https://genius.com/artists/Saint-asonia', 'annotations': {'description': '&lt;p&gt;A Canadian rock/post-grunge “supergroup” featuring ex-Three Days Grace vocalist/guitarist Adam Gontier, Staind guitarist Mike Mushok, Eye Empire bassist Corey Lowery, and former Finger Eleven drummer Rich Beddoe, Saint Asonia came into being after Mushok and Gontier began writing together just after the latter’s split with his flagship band. Impressed with what they had managed to conjure up, the duo enlisted the rest of the crew and headed into the studio with producer Johnny K (Disturbed, Megadeth, Sevendust) to begin work on a debut long-player. “Better Place,” the first single from the record, was issued in May 2015, followed by the release of the eponymous full-length Saint Asonia later that summer. In 2017, Rich Beddoe left the band and was replaced by Mike Mushok’s Former Staind bandmate Sal Giancarelli. then in 2018, Corey Lowery left the band to join seether and was replaced by Adam Gontier’s cousin and former Art Of Dying bassist, Cale Gontier.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Devour-the-day', 'annotations': {'description': '&lt;p&gt;Once former members of the alternative metal band &lt;a href="https://genius.com/artists/Egypt-central" rel="noopener" data-api_path="/artists/63069"&gt;Egypt Central&lt;/a&gt;,  Blake Allison (drummer) and Joey “Chicago” Walser (lead vocalist) formed their own musical group, Devour the Day.&lt;/p&gt;\n\n&lt;p&gt;According to &lt;a href="http://www.live-metal.net/keepingrealmusicalive/interview-blake-allison-of-devour-the-day/" rel="noopener nofollow"&gt;an interview&lt;/a&gt; with &lt;em&gt;Live Metal&lt;/em&gt;, without disrespecting the history they have had with their previous group, Blake Allison spoke about how much more in-depth their debut album &lt;em&gt;&lt;a href="https://genius.com/albums/Devour-the-day/Time-pressure" rel="noopener" data-api_path="/albums/280704"&gt;Time &amp;amp; Pressure&lt;/a&gt;&lt;/em&gt; was than their previous work with Egypt Central.&lt;/p&gt;\n\n&lt;p&gt;The duo has definitely reflected more on the uncertainty that surrounded their future after their previous band’s fall out, resulting in songs that are sonically appealing with more depth than anything they did before.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Three-days-grace', 'annotations': {'description': '&lt;p&gt;Three Days Grace is a Canadian alternative rock band formed in 1997 and now based in Toronto. Consisting of lead vocalist &lt;a href="https://genius.com/artists/Matt-walst" rel="noopener" data-api_path="/artists/1102458"&gt;Matt Walst&lt;/a&gt;, lead guitarist &lt;a href="https://genius.com/artists/Barry-stock" rel="noopener" data-api_path="/artists/73436"&gt;Barry Stock&lt;/a&gt;, drummer &lt;a href="https://genius.com/artists/Neil-sanderson" rel="noopener" data-api_path="/artists/73434"&gt;Neil Sanderson&lt;/a&gt;, and bassist &lt;a href="https://genius.com/artists/Brad-walst" rel="noopener" data-api_path="/artists/73435"&gt;Brad Walst&lt;/a&gt;, the band is best known for their metal-influenced, hard rock sound and clever songwriting.&lt;/p&gt;\n\n&lt;p&gt;TDG grew out of &lt;a href="https://genius.com/artists/Groundswell" rel="noopener" data-api_path="/artists/62823"&gt;Groundswell&lt;/a&gt;, a five-member high-school band founded in 1992. With &lt;a href="https://genius.com/artists/Adam-gontier" rel="noopener" data-api_path="/artists/72936"&gt;Adam Gontier&lt;/a&gt; as lead vocalist, &lt;a href="https://genius.com/artists/Neil-sanderson" rel="noopener" data-api_path="/artists/73434"&gt;Neil Sanderson&lt;/a&gt; as drummer, &lt;a href="https://genius.com/artists/Brad-walst" rel="noopener" data-api_path="/artists/73435"&gt;Brad Walst&lt;/a&gt; as bassist, &lt;a href="https://genius.com/artists/Phil-crowe" rel="noopener" data-api_path="/artists/2060493"&gt;Phil Crowe&lt;/a&gt; as lead guitarist, and &lt;a href="https://genius.com/artists/Joe-grant" rel="noopener" data-api_path="/artists/1216873"&gt;Joe Grant&lt;/a&gt; as rhythm guitarist, Groundswell released one album, &lt;a href="https://genius.com/albums/Groundswell/Wave-of-popular-feeling" rel="noopener" data-api_path="/albums/235662"&gt;&lt;em&gt;Wave of Popular Feeling&lt;/em&gt;&lt;/a&gt; in 1995. That same year, the band broke up, and it was not until 1997 that &lt;a href="https://genius.com/artists/Adam-gontier" rel="noopener" data-api_path="/artists/72936"&gt;Adam Gontier&lt;/a&gt;, &lt;a href="https://genius.com/artists/Neil-sanderson" rel="noopener" data-api_path="/artists/73434"&gt;Neil Sanderson&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Brad-walst" rel="noopener" data-api_path="/artists/73435"&gt;Brad Walst&lt;/a&gt; got together as “Three Days Grace”.&lt;/p&gt;\n\n&lt;p&gt;Working with local producer &lt;a href="https://genius.com/artists/Gavin-brown" rel="noopener" data-api_path="/artists/128850"&gt;Gavin Brown&lt;/a&gt;, the trio re-worked a number of their past songs and compiled a demo album. After handing it to &lt;a href="https://genius.com/artists/Emi-music-publishing" rel="noopener" data-api_path="/artists/648041"&gt;EMI Music Publishing Canada&lt;/a&gt;, TDG produced their smash single &lt;a href="https://genius.com/Three-days-grace-i-hate-everything-about-you-lyrics" rel="noopener" data-api_path="/songs/107580"&gt;“I Hate Everything About You”&lt;/a&gt;, which would be released in 2003 alongside their eponymous debut album &lt;a href="https://genius.com/albums/Three-days-grace/Three-days-grace" rel="noopener" data-api_path="/albums/26399"&gt;&lt;em&gt;Three Days Grace&lt;/em&gt;&lt;/a&gt; through American label &lt;a href="https://genius.com/artists/Jive-records" rel="noopener" data-api_path="/artists/649293"&gt;Jive Records&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In late 2003, the band welcomed lead guitarist &lt;a href="https://genius.com/artists/Barry-stock" rel="noopener" data-api_path="/artists/73436"&gt;Barry Stock&lt;/a&gt;, and released two additional singles, &lt;a href="https://genius.com/Three-days-grace-just-like-you-lyrics" rel="noopener" data-api_path="/songs/424351"&gt;Just Like You&lt;/a&gt; and &lt;a href="https://genius.com/Three-days-grace-home-lyrics" rel="noopener" data-api_path="/songs/383357"&gt;“Home”&lt;/a&gt;. Going on tour for TDG’s debut album, lead singer &lt;a href="https://genius.com/artists/Adam-gontier" rel="noopener" data-api_path="/artists/72936"&gt;Adam Gontier&lt;/a&gt; developed a prescription drug addiction, and with the support of his friends and family, checked into rehab in 2005.&lt;/p&gt;\n\n&lt;p&gt;While undergoing treatment, Gontier wrote songs about his journey to recovery, which would become tracks on TDG’s second album. After leaving the center, Gontier continued producing music with the band, culminating in 2006’s &lt;a href="https://genius.com/albums/Three-days-grace/One-x-special-edition" rel="noopener" data-api_path="/albums/18897"&gt;&lt;em&gt;One-X&lt;/em&gt;&lt;/a&gt;. The album was positively received: TDG catapulted to the top of Billboard’s 2007 charts, the single &lt;a href="https://genius.com/Three-days-grace-animal-i-have-become-lyrics" rel="noopener" data-api_path="/songs/80495"&gt;“Animal I Have Become”&lt;/a&gt; became the band’s most successful track, and &lt;em&gt;One-X&lt;/em&gt; was certified double platinum July 2007 in Canada. Later in 2016, the album would earn triple platinum in the US.&lt;/p&gt;\n\n&lt;p&gt;In 2009, TDG released their third album, &lt;a href="https://genius.com/albums/Three-days-grace/Life-starts-now" rel="noopener" data-api_path="/albums/82833"&gt;&lt;em&gt;Life Starts Now&lt;/em&gt;&lt;/a&gt;, transitioning from the dark lyrics of their previous records into a lighter and more mature era.&lt;/p&gt;\n\n&lt;p&gt;In 2011, following the disbanding of &lt;a href="https://genius.com/artists/Jive-records" rel="noopener" data-api_path="/artists/649293"&gt;Jive Records&lt;/a&gt;, TDG signed on to &lt;a href="https://genius.com/artists/Rca-records-ltd" rel="noopener" data-api_path="/artists/2538696"&gt;RCA Records&lt;/a&gt;. On June 5, 2012, TDG announced their fourth studio album, &lt;a href="https://genius.com/albums/Three-days-grace/Transit-of-venus" rel="noopener" data-api_path="/albums/82577"&gt;Transit of Venus&lt;/a&gt;, inspired by the rare astrological phenomenon that had occurred that day and released later in October.&lt;/p&gt;\n\n&lt;p&gt;In a surprise announcement on January 9, 2013, lead singer &lt;a href="https://genius.com/artists/Adam-gontier" rel="noopener" data-api_path="/artists/72936"&gt;Adam Gontier&lt;/a&gt; revealed that he was leaving TDG. He was replaced by bassist &lt;a href="https://genius.com/artists/Brad-walst" rel="noopener" data-api_path="/artists/73435"&gt;Brad Walst&lt;/a&gt;’s brother &lt;a href="https://genius.com/artists/Matt-walst" rel="noopener" data-api_path="/artists/1102458"&gt;Matt Walst&lt;/a&gt;, who remains the band’s lead singer today.&lt;/p&gt;\n\n&lt;p&gt;In April 2014, the band released their first single of the year, &lt;a href="https://genius.com/Three-days-grace-painkiller-lyrics" rel="noopener" data-api_path="/songs/393555"&gt;“Painkiller”&lt;/a&gt;, which shot to No. 1 on Billboard’s Mainstream Rock Chart in August. The following month, TDG released their next single, &lt;a href="https://genius.com/Three-days-grace-i-am-machine-lyrics" rel="noopener" data-api_path="/songs/528054"&gt;“I Am Machine”&lt;/a&gt;, and on January 26, 2015, the band confirmed that the title of their next album. In March 2015, TDG released the third single &lt;a href="https://genius.com/Three-days-grace-human-race-lyrics" rel="noopener" data-api_path="/songs/729619"&gt;“Human Race”&lt;/a&gt;, and a week later, they released their fifth studio album, &lt;a href="https://genius.com/albums/Three-days-grace/Human" rel="noopener" data-api_path="/albums/122280"&gt;&lt;em&gt;Human&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Throughout 2015, TDG went on tour, performing in US and Canada, and in early 2016, Europe and Russia. In November 2016, they released a cover single of &lt;a href="https://genius.com/artists/Phantogram" rel="noopener" data-api_path="/artists/12520"&gt;Phantogram&lt;/a&gt;’s &lt;a href="https://genius.com/Three-days-grace-you-dont-get-me-high-anymore-lyrics" rel="noopener" data-api_path="/songs/2911417"&gt;“You Don’t Get Me High Anymore”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Over the summer of 2017, TDG began working on their sixth studio album, &lt;a href="https://genius.com/albums/Three-days-grace/Outsider" rel="noopener" data-api_path="/albums/396513"&gt;“Outsider”&lt;/a&gt;, which was released in March 2018. The first single of the album, &lt;a href="https://genius.com/Three-days-grace-the-mountain-lyrics" rel="noopener" data-api_path="/songs/3461381"&gt;“The Mountain”&lt;/a&gt;, was released January 2018, and followed by &lt;a href="https://genius.com/Three-days-grace-infra-red-lyrics" rel="noopener" data-api_path="/songs/3522134"&gt;“Infra-Red”&lt;/a&gt; in June and &lt;a href="https://genius.com/Three-days-grace-right-left-wrong-lyrics" rel="noopener" data-api_path="/songs/3522132"&gt;“Right Left Wrong”&lt;/a&gt; in November. All three singles made a No. 1 debut on Billboard’s Mainstream Rock Chart, setting the band a record of 15 smash-hit singles. In 2019, the TDG won iHeart Radio’s Rock Artist of the Year.&lt;/p&gt;\n\n&lt;p&gt;In July of 2020, TDG released a cover of &lt;a href="https://genius.com/artists/Gotye" rel="noopener" data-api_path="/artists/17395"&gt;Gotye&lt;/a&gt;’s &lt;a href="https://genius.com/Three-days-grace-somebody-that-i-used-to-know-lyrics" rel="noopener" data-api_path="/songs/5788123"&gt;“Somebody That I Used To Know”&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Papa-roach', 'annotations': {'description': '&lt;p&gt;Papa Roach is an American rock band  from Vacaville, California. Formed in 1993, they would release two EPs (&lt;em&gt;Potatoes for Christmas&lt;/em&gt; and &lt;em&gt;Caca Bonita&lt;/em&gt;) and a self-produced album (&lt;a href="https://genius.com/albums/Papa-roach/Old-friends-from-young-years" rel="noopener" data-api_path="/albums/76384"&gt;&lt;em&gt;Old Friends from Young Years&lt;/em&gt;&lt;/a&gt;) before getting signed to a major label. Their first major-label release was the triple-platinum album &lt;a href="https://genius.com/albums/Papa-roach/Infest" rel="noopener" data-api_path="/albums/36538"&gt;&lt;em&gt;Infest&lt;/em&gt;&lt;/a&gt; in 2000.&lt;/p&gt;\n\n&lt;p&gt;Papa Roach has sold more than 20 million album copies worldwide and are known for their songs “Last Resort”, &lt;a href="https://genius.com/Papa-roach-last-resort-lyrics" rel="noopener" data-api_path="/songs/170534"&gt;&lt;em&gt;Between Angels and Insects&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/Papa-roach-she-loves-me-not-lyrics" rel="noopener" data-api_path="/songs/338428"&gt;&lt;em&gt;She Loves Me Not&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/Papa-roach-scars-lyrics" rel="noopener" data-api_path="/songs/67321"&gt;&lt;em&gt;Scars&lt;/em&gt;&lt;/a&gt;, and “ &lt;a href="https://genius.com/Papa-roach-born-for-greatness-lyrics" rel="noopener" data-api_path="/songs/3040558"&gt;&lt;em&gt;Born for Greatness&lt;/em&gt;&lt;/a&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/From-ashes-to-new', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Disturbed', 'annotations': {'description': '&lt;p&gt;Disturbed is an American heavy metal band formed in 1994 (named Brawl at this time) from Chicago, Illinois. In 1996 singer Erich Awalt was replaced by David Draiman and the band was renamed “Disturbed”.&lt;/p&gt;\n\n&lt;p&gt;Disturbed is most famously known for their songs “&lt;a href="https://genius.com/Disturbed-down-with-the-sickness-lyrics" rel="noopener" data-api_path="/songs/97449"&gt;Down With The Sickness&lt;/a&gt;” and their cover of “&lt;a href="https://genius.com/Disturbed-the-sound-of-silence-lyrics" rel="noopener" data-api_path="/songs/2282530"&gt;The Sound of Silence&lt;/a&gt;”.&lt;/p&gt;\n\n&lt;p&gt;Disturbed went on hiatus in July 2011, to get a break from touring, but started to miss it and engaged in some side projects; &lt;a href="https://genius.com/artists/Device" rel="noopener" data-api_path="/artists/170170"&gt;Device&lt;/a&gt;, &lt;a href="https://genius.com/artists/Fight-or-flight" rel="noopener" data-api_path="/artists/343727"&gt;Fight Or Flight&lt;/a&gt;, &lt;a href="https://genius.com/artists/Adrenaline-mob" rel="noopener" data-api_path="/artists/329908"&gt;Adrenaline Mob&lt;/a&gt; and &lt;a href="https://genius.com/artists/Art-of-anarchy" rel="noopener" data-api_path="/artists/1019795"&gt;Art Of Anarchy&lt;/a&gt;.&lt;br&gt;\nDisturbed returned in 2015 announcing their return with their new album – &lt;em&gt;&lt;a href="https://genius.com/albums/Disturbed/Immortalized" rel="noopener" data-api_path="/albums/126740"&gt;Immortalized&lt;/a&gt;&lt;/em&gt;, which was recorded in secret and releasing the first single from the album, “&lt;a href="https://genius.com/Disturbed-the-vengeful-one-lyrics" rel="noopener" data-api_path="/songs/2149822"&gt;The Vengeful One&lt;/a&gt;,” in advance.&lt;br&gt;\n&lt;em&gt;Immortalized&lt;/em&gt; was &lt;a href="https://www.billboard.com/articles/columns/chart-beat/6678673/disturbed-scores-fifth-no-1-album-on-billboard-200-chart" rel="noopener nofollow"&gt;Disturbed’s fifth straight No. 1-debuting studio album on Billboard 200&lt;/a&gt;, making them the third group in history to have achieved five consecutive studio albums at No. 1. The other two being &lt;a href="https://genius.com/artists/Metallica" rel="noopener" data-api_path="/artists/10662"&gt;Metallica&lt;/a&gt; and &lt;a href="https://genius.com/artists/Dave-matthews-band" rel="noopener" data-api_path="/artists/18451"&gt;Dave Matthews Band&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Members:&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/David-draiman" rel="noopener" data-api_path="/artists/71550"&gt;David Draiman&lt;/a&gt; – vocals&lt;br&gt;\n&lt;a href="https://genius.com/artists/Dan-donegan" rel="noopener" data-api_path="/artists/177598"&gt;Dan Donegan&lt;/a&gt; – guitar, keyboards&lt;br&gt;\n&lt;a href="https://genius.com/artists/John-moyer" rel="noopener" data-api_path="/artists/684586"&gt;John Moyer&lt;/a&gt; – bass, backing vocals&lt;br&gt;\n&lt;a href="https://genius.com/artists/Mike-wengren" rel="noopener" data-api_path="/artists/177599"&gt;Mike Wengren&lt;/a&gt; – drums&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Pop-evil', 'annotations': {'description': '&lt;p&gt;Pop Evil is an American rock band that was formed in North Muskegon, Michigan in 2001 by Leigh Kakaty. He then added Dave Grahs, Dylan Allison, and Jamie Nummer.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Seether', 'annotations': {'description': '&lt;p&gt;Seether is a rock band founded in Pretoria, South Africa, 1999.&lt;/p&gt;\n\n&lt;p&gt;The band originally performed under the name Saron Gas until 2002, when they moved to the United States and changed it to Seether, after the &lt;a href="https://genius.com/artists/Veruca-salt" rel="noopener" data-api_path="/artists/356519"&gt;Veruca Salt&lt;/a&gt; song, to avoid confusion with the deadly chemical known as &lt;a href="https://emergency.cdc.gov/agent/sarin/basics/facts.asp" rel="noopener nofollow"&gt;sarin gas&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;They gained mainstream popularity in 2002 with their single &lt;a href="https://genius.com/Seether-fine-again-lyrics" rel="noopener" data-api_path="/songs/99710"&gt;“Fine Again,”&lt;/a&gt; and their success was sustained in 2004 with the single &lt;a href="https://genius.com/Seether-broken-lyrics" rel="noopener" data-api_path="/songs/2422300"&gt;“Broken”&lt;/a&gt; which peaked at #20 on the &lt;a href="https://www.billboard.com/music/seether/chart-history/hot-100/song/431934" rel="noopener nofollow"&gt;Billboard Hot 100&lt;/a&gt;. They have experienced continued success with hits such as &lt;a href="https://genius.com/Seether-remedy-lyrics" rel="noopener" data-api_path="/songs/741588"&gt;“Remedy,”&lt;/a&gt; &lt;a href="https://genius.com/Seether-fake-it-lyrics" rel="noopener" data-api_path="/songs/192151"&gt;“Fake It,”&lt;/a&gt; and &lt;a href="https://genius.com/Seether-words-as-weapons-lyrics" rel="noopener" data-api_path="/songs/419632"&gt;“Words as Weapons”&lt;/a&gt; to name a few.&lt;/p&gt;\n\n&lt;p&gt;They won ‘Artist of the Year’ and ‘Best Alternative Artist’ at the 2008 &lt;a href="http://www.mtv.com/vma" rel="noopener nofollow"&gt;MTV Africa Music Awards&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Saron Gas']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Starset', 'annotations': {'description': '&lt;p&gt;Starset is an American-based concept band, passing on the stories of the Starset Society.&lt;/p&gt;\n\n&lt;p&gt;They released their debut studio album &lt;em&gt;&lt;a href="https://genius.com/albums/Starset/Transmissions" rel="noopener" data-api_path="/albums/115025"&gt;Transmissions&lt;/a&gt;&lt;/em&gt; on July 8, 2014 along with its biggest single &lt;a href="https://genius.com/Starset-my-demons-lyrics" rel="noopener" data-api_path="/songs/562640"&gt;“My Demons”&lt;/a&gt;. Their second studio album &lt;em&gt;&lt;a href="https://genius.com/Starset-my-demons-lyrics" rel="noopener" data-api_path="/songs/562640"&gt;Vessels&lt;/a&gt;&lt;/em&gt; came on January 20, 2017 and it featured their most popular song to date &lt;a href="https://genius.com/Starset-monster-lyrics" rel="noopener" data-api_path="/songs/2894841"&gt;“Monster”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Their third studio album called “DIVISIONS” was released on September 13, 2019, including songs like “MANIFEST”.&lt;/p&gt;\n\n&lt;p&gt;The band’s current members are:&lt;/p&gt;\n\n&lt;ul&gt;\n&lt;li&gt;Dustin Bates on rhythm guitar, keyboard and lead vocals&lt;/li&gt;\n&lt;li&gt;Ron DeChant on bass, keyboard, and backup vocals&lt;/li&gt;\n&lt;li&gt;Brock Richards on lead guitar and backup vocals&lt;/li&gt;\n&lt;li&gt;Adam Gilbert on drums&lt;/li&gt;\n&lt;/ul&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Highly-suspect', 'annotations': {'description': '&lt;p&gt;Highly Suspect is a rock music quartet from Massachusetts.  Forming in 2009 as a cover band, playing music from bands such as &lt;a href="https://genius.com/artists/Sublime" rel="noopener" data-api_path="/artists/659"&gt;Sublime&lt;/a&gt; and &lt;a href="https://genius.com/artists/Pink-floyd" rel="noopener" data-api_path="/artists/694"&gt;Pink Floyd&lt;/a&gt;, they soon began releasing their own music.&lt;/p&gt;\n\n&lt;p&gt;In 2019, as a prelude to the release of their fourth album titled ‘MCID’, the original three members – Johnny Stevens (Vocals, Electric Guitar), Rich Meyer (Bass) and Ryan Meyer (Drums) – were joined by their best friend Matt Kofos who became their second guitarist. Matt had previously been the band’s drum tech, and was the 2nd guitarist on tour.&lt;/p&gt;\n\n&lt;p&gt;After four EPs and three albums, the band has evolved yet kept an original style of music, making it difficult to find any specific influences. Taking a break from their focus on rock in the previous albums, the fourth album, ‘MCID’, also features prominent Hip-Hop and Rap influences. Frontman Johnny Stevens &lt;a href="http://rockrevoltmagazine.com/interview-and-show-review-highly-suspect/" rel="noopener nofollow"&gt;described&lt;/a&gt; their musical influences as:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Every type of music you can think of! We listened to everything from Hip Hop to Reggae to Electronic to Rock to Jazz to Classical – just music in general. We try to take the best parts of things that we like and incorporate it into what we’re doing.&lt;/p&gt;&lt;/blockquote&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Red-sun-rising', 'annotations': {'description': '&lt;p&gt;Red Sun Rising, stylized as RED SUN RISING,is an American rock band from Akron, Ohio. The band often uses the hashtag #WeAreThread, which is said to be the name of the genre of music they would like to represent.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Hellyeah', 'annotations': {'description': '&lt;p&gt;Hellyeah is an American heavy metal supergroup, consisting of &lt;a href="https://genius.com/artists/Mudvayne" rel="noopener" data-api_path="/artists/67442"&gt;Mudvayne&lt;/a&gt; vocalist Chad Gray, former &lt;a href="https://genius.com/artists/Nothingface" rel="noopener" data-api_path="/artists/359401"&gt;Nothingface&lt;/a&gt; guitarist Tom Maxwell, bass player Kyle Sanders, guitarist Christian Brady and &lt;a href="https://genius.com/artists/stone-sour" rel="noopener" data-api_path="/artists/59680"&gt;Stone Sour&lt;/a&gt; drummer Roy Mayorga. The idea to form a supergroup originated in 2000 on the Tattoo the Earth tour, although plans were constantly put on hold due to scheduling conflicts. The summer of 2006 allowed the band to take the project seriously and record its first album. Recorded at Chasin\' Jason studio in Dimebag Darrell’s backyard, a self-titled album was completed in roughly one month. Released on April 10, 2007, the album entered the Billboard 200 at number 9, selling 45,000 copies.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Rise-against', 'annotations': {'description': '&lt;p&gt;Rise Against is an American punk rock band from Chicago, Illinois, formed in December 1999. The band currently consists of &lt;a href="https://genius.com/artists/Tim-mcilrath" rel="noopener" data-api_path="/artists/2421"&gt;Tim McIlrath&lt;/a&gt; (lead vocals, rhythm guitar), &lt;a href="https://genius.com/artists/Zach-blair" rel="noopener" data-api_path="/artists/1232435"&gt;Zach Blair&lt;/a&gt; (lead guitar, backing vocals), &lt;a href="https://genius.com/artists/Joe-principe" rel="noopener" data-api_path="/artists/1033459"&gt;Joe Principe&lt;/a&gt; (bass guitar, backing vocals) and &lt;a href="https://genius.com/artists/Brandon-barnes" rel="noopener" data-api_path="/artists/205662"&gt;Brandon Barnes&lt;/a&gt; (drums, percussion).&lt;/p&gt;\n\n&lt;p&gt;The band is known for its advocacy of progressive organizations such as Amnesty International and It Gets Better Project. The band actively promotes animal rights and all members are straight edge (excluding Barnes), PETA supporters, and vegetarians.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Avatar-the-last-airbender', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Avatar: The Last Airbender&lt;/em&gt; is an American animated television series that aired for three seasons (referred to as “books” in each episode’s title card) on &lt;a href="http://www.nick.com/" rel="noopener nofollow"&gt;Nickelodeon&lt;/a&gt; from 2005 to 2008.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Avatar: The Last Airbender&lt;/em&gt; is set in an Asiatic world in which some people are able to manipulate the classical elements by use of psychokinetic variants of Chinese martial arts, known as “bending”. The show combines the styles of anime and American cartoons, and relies on the imagery of various East Asian, Inuit, Southeast Asian, South Asian, and New World societies.&lt;/p&gt;\n\n&lt;p&gt;The series follows the adventures of protagonist twelve-year-old &lt;a href="http://avatar.wikia.com/wiki/Aang" rel="noopener nofollow"&gt;Aang&lt;/a&gt;, the Avatar, and his friends, who must bring peace and unity to the world by ending the &lt;a href="http://avatar.wikia.com/wiki/Ozai" rel="noopener nofollow"&gt;Fire Lord&lt;/a&gt;’s war against the other three nations.&lt;/p&gt;\n\n&lt;p&gt;In 2012, a sequel, &lt;em&gt;&lt;a href="https://genius.com/artists/The-legend-of-korra" rel="noopener" data-api_path="/artists/986116"&gt;The Legend of Korra&lt;/a&gt;&lt;/em&gt;, aired in Nickelodeon, set 70 years after the end of the series.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Bullet-for-my-valentine', 'annotations': {'description': '&lt;p&gt;Bullet For My Valentine are a Welsh heavy metal band, formed in 1998 under the name &lt;a href="https://genius.com/artists/Jeff-killed-john" rel="noopener" data-api_path="/artists/1493923"&gt;‘Jeff Killed John’&lt;/a&gt;. The band changed their name in 2003 in addition to reworking their musical style and image.&lt;/p&gt;\n\n&lt;p&gt;Bullet For My Valentine’s music has often been labelled as heavy metal, metalcore and hard rock although it is difficult to place them in a specific genre. For example, &lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Scream-aim-fire" rel="noopener" data-api_path="/albums/81429"&gt;&lt;em&gt;Scream Aim Fire&lt;/em&gt;&lt;/a&gt; is a mix of heavy metal and metalcore with lots of thrash metal influences. On the other hand, &lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Gravity" rel="noopener" data-api_path="/albums/415984"&gt;&lt;em&gt;Gravity&lt;/em&gt;&lt;/a&gt; sees the band stepping out of their comfort zone by infusing electronical elements with their instruments, resulting in a new and unique sound, yet still recognisable.&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;Discography:&lt;/strong&gt;&lt;br&gt;\n&lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Bullet-for-my-valentine" rel="noopener" data-api_path="/albums/784390"&gt;&lt;em&gt;Bullet for My Valentine&lt;/em&gt; EP&lt;/a&gt; (2004)&lt;br&gt;\n&lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Hand-of-blood" rel="noopener" data-api_path="/albums/240662"&gt;&lt;em&gt;Hand of Blood&lt;/em&gt; EP&lt;/a&gt; (2004)&lt;br&gt;\n&lt;a href="https://genius.com/albums/Bullet-for-my-valentine/The-poison" rel="noopener" data-api_path="/albums/28088"&gt;&lt;em&gt;The Poison&lt;/em&gt;&lt;/a&gt; (2005)&lt;br&gt;\n&lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Rare-cuts" rel="noopener" data-api_path="/albums/234956"&gt;&lt;em&gt;Rare Cuts&lt;/em&gt; EP&lt;/a&gt; (2007)&lt;br&gt;\n&lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Scream-aim-fire" rel="noopener" data-api_path="/albums/81429"&gt;&lt;em&gt;Scream Aim Fire&lt;/em&gt;&lt;/a&gt; (2008)&lt;br&gt;\n&lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Fever" rel="noopener" data-api_path="/albums/40634"&gt;&lt;em&gt;Fever&lt;/em&gt;&lt;/a&gt; (2010)&lt;br&gt;\n&lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Temper-temper" rel="noopener" data-api_path="/albums/86401"&gt;&lt;em&gt;Temper Temper&lt;/em&gt;&lt;/a&gt; (2013)&lt;br&gt;\n&lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Venom" rel="noopener" data-api_path="/albums/124763"&gt;&lt;em&gt;Venom&lt;/em&gt;&lt;/a&gt; (2015)&lt;br&gt;\n&lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Gravity" rel="noopener" data-api_path="/albums/415984"&gt;&lt;em&gt;Gravity&lt;/em&gt;&lt;/a&gt; (2018)&lt;br&gt;\n&lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Bullet-for-my-valentine" rel="noopener" data-api_path="/albums/784390"&gt;&lt;em&gt;Bullet For My Valentine&lt;/em&gt;&lt;/a&gt; (2021)&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;Members:&lt;/strong&gt;&lt;br&gt;\n&lt;a href="https://genius.com/artists/Matt-tuck" rel="noopener" data-api_path="/artists/1221735"&gt;&lt;strong&gt;Matt Tuck&lt;/strong&gt;&lt;/a&gt;: Lead Vocals, Rhythm Guitar (1998–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Michael-padge-paget" rel="noopener" data-api_path="/artists/1493991"&gt;&lt;strong&gt;Michael “Padge” Paget&lt;/strong&gt;&lt;/a&gt;: Lead Guitar, Backing Vocals (1998–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Jamie-mathias" rel="noopener" data-api_path="/artists/1506712"&gt;&lt;strong&gt;Jamie Mathias&lt;/strong&gt;&lt;/a&gt;: Bass, Vocals (2015–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Jason-bowld" rel="noopener" data-api_path="/artists/1492103"&gt;&lt;strong&gt;Jason Bowld&lt;/strong&gt;&lt;/a&gt;: Drums (2017–present)&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/Michael-moose-thomas" rel="noopener" data-api_path="/artists/1493992"&gt;Michael “Moose” Thomas&lt;/a&gt;: Drums (1998–2016)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Jason-jay-james" rel="noopener" data-api_path="/artists/1494007"&gt;Jason “Jay” James&lt;/a&gt;: Bass, Backing Vocals (2003–2015)&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/7ff6c48f799e64087701a832831942a5.1000x760x1.png" alt="" width="1000" height="760" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;&lt;center&gt;Padge, Matt, Jason &amp;amp; Jamie&lt;/center&gt;\n&lt;small&gt;&lt;/small&gt;&lt;/small&gt;&lt;/p&gt;', 'alternate_names': ['BFMV']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/All-that-remains', 'annotations': {'description': '&lt;p&gt;All That Remains is an American metal band that was formed in 1998 by frontman &lt;a href="https://genius.com/artists/Phil-labonte" rel="noopener" data-api_path="/artists/1002170"&gt;Phil Labonte&lt;/a&gt;. The band initially started off as a side project for Labonte whilst he was the vocalist for &lt;a href="https://genius.com/artists/Shadows-fall" rel="noopener" data-api_path="/artists/186967"&gt;Shadows Fall&lt;/a&gt;, another metal band from Massachusetts, but became his full time focus after leaving in 1999.&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;Discography:&lt;/strong&gt;&lt;br&gt;\n&lt;a href="https://genius.com/albums/All-that-remains/Behind-silence-and-solitude" rel="noopener" data-api_path="/albums/245604"&gt;&lt;em&gt;Behind Silence and Solitude&lt;/em&gt;&lt;/a&gt; (2002)&lt;br&gt;\n&lt;a href="https://genius.com/albums/All-that-remains/This-darkened-heart" rel="noopener" data-api_path="/albums/245953"&gt;&lt;em&gt;This Darkened Heart&lt;/em&gt;&lt;/a&gt; (2004)&lt;br&gt;\n&lt;a href="https://genius.com/albums/All-that-remains/The-fall-of-ideals" rel="noopener" data-api_path="/albums/160837"&gt;&lt;em&gt;The Fall of Ideals&lt;/em&gt;&lt;/a&gt; (2006)&lt;br&gt;\n&lt;a href="https://genius.com/albums/All-that-remains/Overcome" rel="noopener" data-api_path="/albums/87449"&gt;&lt;em&gt;Overcome&lt;/em&gt;&lt;/a&gt; (2008)&lt;br&gt;\n&lt;a href="https://genius.com/albums/All-that-remains/For-we-are-many" rel="noopener" data-api_path="/albums/122296"&gt;&lt;em&gt;For We Are Many&lt;/em&gt;&lt;/a&gt; (2010)&lt;br&gt;\n&lt;a href="https://genius.com/albums/All-that-remains/A-war-you-cannot-win" rel="noopener" data-api_path="/albums/79877"&gt;&lt;em&gt;A War You Cannot Win&lt;/em&gt;&lt;/a&gt; (2012)&lt;br&gt;\n&lt;a href="https://genius.com/albums/All-that-remains/The-order-of-things" rel="noopener" data-api_path="/albums/229242"&gt;&lt;em&gt;The Order of Things&lt;/em&gt;&lt;/a&gt; (2015)&lt;br&gt;\n&lt;a href="https://genius.com/albums/All-that-remains/Madness" rel="noopener" data-api_path="/albums/336822"&gt;&lt;em&gt;Madness&lt;/em&gt;&lt;/a&gt; (2017)&lt;br&gt;\n&lt;a href="https://genius.com/albums/All-that-remains/Victim-of-the-new-disease" rel="noopener" data-api_path="/albums/462333"&gt;&lt;em&gt;Victim of the New Disease&lt;/em&gt;&lt;/a&gt; (2018)&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;Members&lt;/strong&gt;:&lt;br&gt;\n&lt;a href="https://genius.com/artists/Phil-labonte" rel="noopener" data-api_path="/artists/1002170"&gt;&lt;strong&gt;Phil Labonte&lt;/strong&gt;&lt;/a&gt; – Lead vocals (1998–present), Piano (2003–2004)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Mike-martin-all-that-remains" rel="noopener" data-api_path="/artists/1002171"&gt;&lt;strong&gt;Mike Martin&lt;/strong&gt;&lt;/a&gt; – Rhythm Guitar (2004–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Jason-costa" rel="noopener" data-api_path="/artists/1002168"&gt;&lt;strong&gt;Jason Costa&lt;/strong&gt;&lt;/a&gt; – Drums (2007–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Aaron-patrick" rel="noopener" data-api_path="/artists/1494706"&gt;&lt;strong&gt;Aaron Patrick&lt;/strong&gt;&lt;/a&gt; – Bass, Backing vocals (2015–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Jason-richardson" rel="noopener" data-api_path="/artists/977977"&gt;&lt;strong&gt;Jason Richardson&lt;/strong&gt;&lt;/a&gt; – Lead Guitar (2018–present)&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/Oli-herbert" rel="noopener" data-api_path="/artists/1002169"&gt;Oli Herbert&lt;/a&gt; – Lead Guitar (1998–2018)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Jeanne-sagan" rel="noopener" data-api_path="/artists/1493860"&gt;Jeanne Sagan&lt;/a&gt; – Bass, Backing vocals (2006–2015)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Shannon-lucas" rel="noopener" data-api_path="/artists/656082"&gt;Shannon Lucas&lt;/a&gt; – Drums (2006)&lt;br&gt;\nMichael Bartlett – Drums (1998–2006)&lt;br&gt;\nMatt Deis – Bass (2003–2005)&lt;br&gt;\nChris Bartlett – Rhythm Guitar (1998–2004)&lt;br&gt;\nDan Egan – Bass (1998–2003)&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/4cab701c551fd2f3faf3013f57ab7bf5.700x400x1.jpg" alt="" width="700" height="400" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;center&gt;&lt;small&gt;Jason R, Mike, Phil, Jason C and Aaron&lt;small&gt;&lt;/small&gt;&lt;/small&gt;&lt;/center&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Killswitch-engage', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://www.allmusic.com/artist/killswitch-engage-mn0000771792/biography" rel="noopener nofollow"&gt;Killswitch Engage&lt;/a&gt; formed in 1999, in Westfield, Massachusetts, after the disbanding of the two bands &lt;a href="https://genius.com/artists/Overcast" rel="noopener" data-api_path="/artists/368028"&gt;Overcast&lt;/a&gt; and &lt;a href="https://genius.com/artists/Aftershock" rel="noopener" data-api_path="/artists/349564"&gt;Aftershock&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 1998 when Overcast split, D\'Antonio started his search to find the right people to fuse hardcore and metal with melody.&lt;br&gt;\nD\'Antonio got in contact with Adam Dutkiewicz, and Joel Stroetzel, the drummer respectively guitarist for Aftershock. The band was completed when Jesse Leach, vocalist for Corrin and Nothing Stays Gold joined.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://m.axs.com/5-interesting-facts-about-killswitch-engage-46963" rel="noopener nofollow"&gt;The band’s name&lt;/a&gt; comes from an episode of the television series &lt;em&gt;The X-Files&lt;/em&gt; entitled “Kill Switch”.&lt;/p&gt;\n\n&lt;p&gt;After the release of their debut album &lt;em&gt;&lt;a href="https://genius.com/albums/Killswitch-engage/Alive-or-just-breathing" rel="noopener" data-api_path="/albums/54976"&gt;Alive Or Just Breathing&lt;/a&gt;&lt;/em&gt; and the following tour, in 2002 – &lt;a href="https://web.archive.org/web/20071225194310/http://www.roadrunnerrecords.com/blabbermouth.net/news.aspx?mode=Article&amp;amp;newsitemID=4557" rel="noopener nofollow"&gt;Jesse Leach quit Killswitch Engage&lt;/a&gt; due to struggles with straining his voice combined with being a newly-wed, with his wife missing him.&lt;br&gt;\nLeach was soon replaced by &lt;a href="https://genius.com/artists/Howard-jones-rock" rel="noopener" data-api_path="/artists/1157271"&gt;Howard Jones&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;After nine years of service and taking the band to fame, &lt;a href="https://web.archive.org/web/20120108163920/http://www.metalhammer.co.uk/top-posts/howard-jones-leaves-killswitch-engage" rel="noopener nofollow"&gt;Howard quit the band in 2012&lt;/a&gt;. &lt;a href="https://www.ultimate-guitar.com/news/general_music_news/howard_jones_explains_killswitch_engage_departure.html?no_takeover" rel="noopener nofollow"&gt;He later stated&lt;/a&gt; it was due to the heretic lifestyle in combination with his diabetes.&lt;/p&gt;\n\n&lt;p&gt;To replace Howard, the band held auditions for a new vocalist. They had a lot of applicants at try-outs, &lt;a href="http://www.radiometal.com/article/killswitch-engage-jesse-leachs-return-as-seen-by-adam-dutkiewicz,103989" rel="noopener nofollow"&gt;but they wound choosing their former vocalist – Jesse Leach&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Skillet', 'annotations': {'description': '&lt;p&gt;Skillet is a heavy rock band from Memphis, TN that has been a voice in both the mainstream and Christian music industries. The band has been led by John Cooper since the band’s start in 1996. Later on in 2000, the year the band’s third album &lt;em&gt;Invincible&lt;/em&gt; came out, Cooper’s wife Korey joined the band as rhythm guitarist and pianist.&lt;/p&gt;\n\n&lt;p&gt;The band started gaining mainstream attention when moving from Ardent Records to Atlantic Records in 2003. The band’s first breakthrough album, &lt;em&gt;Comatose&lt;/em&gt;, making it to No. 55 on the Billboard 200 and certified Gold by the RIAA. Skillet continued to rise up on the charts with their 8&lt;sup&gt;th&lt;/sup&gt; studio album, &lt;em&gt;Awake&lt;/em&gt;, charting at No. 2 on the Billboard 200. The album featured a new addition to the band, Jen Ledger, who provided both drums and vocals.&lt;/p&gt;\n\n&lt;p&gt;Since then, Skillet has continued to see mainstream success with their 9&lt;sup&gt;th&lt;/sup&gt; studio album, &lt;em&gt;Unleashed&lt;/em&gt;, with their lead single “Feel Invincible” becoming one of the theme songs for WWE’s Battleground (2016).&lt;/p&gt;\n\n&lt;p&gt;In 2018, both Jen Ledger and John Cooper released their own side projects &lt;a href="https://genius.com/artists/ledger" rel="noopener" data-api_path="/artists/656529"&gt;LEDGER&lt;/a&gt; and &lt;a href="https://genius.com/artists/fight-the-fury" rel="noopener" data-api_path="/artists/1582744"&gt;Fight the Fury&lt;/a&gt;, respectively. The intention behind the projects was not to disband Skillet, but instead to explore each artist’s own creative sides.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Of-mice-and-men', 'annotations': {'description': '&lt;p&gt;Of Mice &amp;amp; Men is an American &lt;a href="https://genius.com/tags/metalcore" rel="noopener"&gt;metalcore&lt;/a&gt; band from Costa Mesa, California.&lt;/p&gt;\n\n&lt;p&gt;The group was founded by &lt;a href="https://genius.com/artists/Austin-carlile" rel="noopener" data-api_path="/artists/933001"&gt;Austin Carlile&lt;/a&gt; and &lt;a href="https://genius.com/artists/Jaxin-hall" rel="noopener" data-api_path="/artists/1046926"&gt;Jaxin Hall&lt;/a&gt; in mid-2009 after Carlile’s departure from &lt;a href="https://genius.com/artists/Attack-attack" rel="noopener" data-api_path="/artists/169123"&gt;Attack Attack!&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The band takes its name from the eponymous John Steinbeck novella of the same title.&lt;/p&gt;\n\n&lt;p&gt;In an interview Austin said:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The book &lt;em&gt;Of Mice and Men&lt;/em&gt; says ‘the well-laid plans of mice and men often falter.’ You make plans, and they get screwed up. Jaxin and I both had plans for life, and they both got screwed up, so now we’re making the most of what we can.&lt;/p&gt;&lt;/blockquote&gt;', 'alternate_names': ['OM&amp;M']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Red', 'annotations': {'description': '&lt;p&gt;RED is an American Christian alternative rock/metal band from Pennsylvania. The band’s name &lt;a href="https://www.newreleasetoday.com/article.php?article_id=22" rel="noopener nofollow"&gt;represents&lt;/a&gt; the blood of Christ. The band was formed by twin brothers Anthony (lead guitar) and Randy (bass) Armstrong, Michael Barnes (lead vocals), and Andrew Hendrix (drums) in 2002. The band started out as a CCM cover band for local youth groups, until they grew tired of the genre, wanting to make more personal music with a nu-metal/post-grunge sound.&lt;/p&gt;\n\n&lt;p&gt;Later in 2004, &lt;a href="https://genius.com/artists/jasen-rauch" rel="noopener" data-api_path="/artists/338260"&gt;Jasen Rauch&lt;/a&gt; joined the band as an additional guitarist, eventually becoming one of the main songwriters. The band started recording demos with the help of Grammy-nominated rock producer &lt;a href="https://genius.com/artists/rob-graves" rel="noopener" data-api_path="/artists/91665"&gt;Rob Graves&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Not long after, the band was signed to Essential Records, a subdivision of Provident Label Group, owned by Sony Music Entertainment. Around the same time, Hendrix decided to leave his role as drummer, later being replaced by Hayden Lamb (twin brother of Hunter Lamb, the ex-guitarist of &lt;a href="https://genius.com/artists/paramore" rel="noopener" data-api_path="/artists/22531"&gt;Paramore&lt;/a&gt;). This led to the release of the debut album &lt;a href="https://genius.com/albums/red/end-of-silence" rel="noopener" data-api_path="/albums/119280"&gt;&lt;em&gt;End of Silence&lt;/em&gt;&lt;/a&gt;. The album was most known for it’s singles &lt;a href="https://genius.com/Red-breathe-into-me-lyrics" rel="noopener" data-api_path="/songs/428086"&gt;Breathe Into Me&lt;/a&gt; and &lt;a href="https://genius.com/Red-already-over-lyrics" rel="noopener" data-api_path="/songs/65832"&gt;Already Over&lt;/a&gt; and was eventually nominated for a Grammy for Best Rock Gospel Album in 2007.&lt;br&gt;\nAs the band prepared for their sophomore album, &lt;a href="https://genius.com/albums/Red/Innocence-instinct" rel="noopener" data-api_path="/albums/119282"&gt;&lt;em&gt;Innocence &amp;amp; Instinct&lt;/em&gt;&lt;/a&gt;, the band was involved in a car-crash on the highway damaging their van and gear. From this, Hayden Lamb was injured, leading Joe Rickard to take over for him as the drummer.&lt;/p&gt;\n\n&lt;p&gt;Shortly after the release of the album in 2009, Jasen Rauch decided to leave the band, to pursue producing and songwriting, which eventually led to him becoming the lead guitarist for &lt;a href="https://genius.com/artists/breaking-benjamin" rel="noopener" data-api_path="/artists/21856"&gt;Breaking Benjamin&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The third album, &lt;a href="https://genius.com/albums/Red/Until-we-have-faces" rel="noopener" data-api_path="/albums/119281"&gt;&lt;em&gt;Until We Have Faces&lt;/em&gt;&lt;/a&gt;, led to the band’s first television performance appearing on Conan, then The Tonight Show Starring Jay Leno a week later. Rickard later departed from the band after finishing the “&lt;a href="https://genius.com/albums/Red/Release-the-panic-recalibrated" rel="noopener" data-api_path="/albums/127681"&gt;recalibrated&lt;/a&gt;” version of the fourth album &lt;a href="https://genius.com/albums/Red/Release-the-panic" rel="noopener" data-api_path="/albums/119283"&gt;&lt;em&gt;Release the Panic&lt;/em&gt;&lt;/a&gt;, joining the Swedish heavy metal band &lt;a href="https://genius.com/artists/in-flames" rel="noopener" data-api_path="/artists/17320"&gt;In Flames&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2015, the band released &lt;a href="https://genius.com/albums/Red/Of-beauty-and-rage" rel="noopener" data-api_path="/albums/119379"&gt;&lt;em&gt;of Beauty and Rage&lt;/em&gt;&lt;/a&gt;, an album funded by PledgeMusic, having Dan Johnson of &lt;a href="https://genius.com/artists/love-and-death" rel="noopener" data-api_path="/artists/106178"&gt;Love &amp;amp; Death&lt;/a&gt; as the studio and touring drummer. In the Fall of 2017, Red released &lt;a href="https://genius.com/albums/red/gone" rel="noopener" data-api_path="/albums/369504"&gt;&lt;em&gt;Gone&lt;/em&gt;&lt;/a&gt;, another PledgeMusic funded album, having Rickard return as the studio drummer.&lt;/p&gt;\n\n&lt;p&gt;2019 saw Red go independent for the first time being funded solely by the fans via PledgeMusic. It also saw the official membership of Dan Johnson as the drummer for the band. They released their single &lt;a href="https://genius.com/red-the-evening-hate-lyrics" rel="noopener" data-api_path="/songs/4577772"&gt;The Evening Hate&lt;/a&gt; that June along with a 13+ minute music video created by the band.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/My-darkest-days', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Zakk-wylde', 'annotations': {'description': '&lt;p&gt;Brother Zakk, the leader &lt;a href="http://bravewords.com/news/black-label-society-chapters-and-patches-explained" rel="noopener nofollow"&gt;“Doom Crew Inc.”&lt;/a&gt; was born January 14, 1967. The Guitar God is the founder of the band &lt;a href="https://genius.com/artists/Black-label-society" rel="noopener" data-api_path="/artists/140180"&gt;Black Label Society&lt;/a&gt; and is best known for playing guitar with &lt;a href="https://genius.com/artists/Ozzy-osbourne" rel="noopener" data-api_path="/artists/3347"&gt;Ozzy Osbourne.&lt;/a&gt; Although not really serious about guitar until his teenage years, Jeffrey Phillip Wielandt started playing around 8. From then on he mastered his craft with many hours of practice. Sometimes 12 hours a day!&lt;/p&gt;\n\n&lt;p&gt;The Godfather of the guitar “squeal” sound plays mostly Gibson Les Paul’s. The most famous being the black and white bullseye model dubbed “The Grail”. Being a prolific song writer, singer, musician (playing piano, harmonica, bass and guitar!) producer and even actor (most notably Ghode in &lt;em&gt;RockStar&lt;/em&gt;) earned him a spot on the Hollywood Walk of Fame in 2006. Not too bad for a boy from Jersey!&lt;/p&gt;\n\n&lt;p&gt;The “Berserker” is touring with Black Label Society and also Zakk Sabbath. A band made up of Zakk(vocals and guitar), “Blasko” (bass) and Joey Castillo (Danzig). After being hospitalized for blood clots in 2009, Zakk has been alcohol free since. I guess no more Black Tooth Grins! Shout out to Dimebag Darrell (“In This River” is dedicated to him) and his brother Vinnie Paul! Both good friends, more like brothers, of Zakk and all the Doom Crew!&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/f6d648414e6c36cb3f2f4790ba404a29.460x292x1.jpg" alt="" width="460" height="292" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/The-offspring', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;The Offspring&lt;/strong&gt; is an American punk rock band from &lt;a href="http://en.wikipedia.org/wiki/Huntington_Beach,_California" rel="noopener nofollow"&gt;Huntington Beach, California&lt;/a&gt;, formed in 1984. The current line-up of the band includes: Brian Keith “Dexter” Holland (vocals, guitar), Kevin “Noodles” Wasserman (lead guitar), Todd Morse (bass), and Pete Parada (drums).&lt;/p&gt;\n\n&lt;p&gt;The Offspring is currently one of the biggest punk rock acts, along with the likes of &lt;a href="http://https.genius.com/artists/green-day" rel="noopener" data-api_path="/artists/632"&gt;Green Day,&lt;/a&gt; &lt;a href="http://https.genius.com/artists/rancid" rel="noopener" data-api_path="/artists/30419"&gt;Rancid,&lt;/a&gt; and &lt;a href="http://https.genius.com/artists/sublime" rel="noopener" data-api_path="/artists/659"&gt;Sublime,&lt;/a&gt; all of which come from California. The Offspring and other groups are credited for reviving main-stream punk rock, though it isn’t as popular as it was in the ‘80s.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Saliva', 'annotations': {'description': '&lt;p&gt;Saliva is an American rock band formed in Memphis, Tennessee in 1996. Saliva released their self-titled debut album on August 26, 1997, through Rockingchair Records, a record label owned and operated by Mark Yoshida, who recorded and produced the release at his studio, Rockingchair Studios.&lt;/p&gt;\n\n&lt;p&gt;They were signed to Island Records and went on to release their second studio album Every Six Seconds. Saliva later released their third studio album titled Back into Your System on November 12, 2002 which reached No. 19 on the Billboard 200. Back into Your System launched one of Saliva’s most successful songs, “Always”, reaching No. 51 on the Billboard Hot 100 and No. 1 on the Modern Rock Chart. Three years after Survival of the Sickest, Saliva released Blood Stained Love Story on January 23, 2007, repeating Back into Your System’s chart performance at No. 19 on the Billboard 200. Its first single, “Ladies and Gentlemen”, peaked at No. 2 on the Mainstream Rock Chart.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Thirty-seconds-to-mars', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Thirty Seconds to Mars&lt;/strong&gt; is an alternative rock band from Los Angeles, CA formed in 1998. The band is led by award-winning actor, songwriter, and producer &lt;a href="https://genius.com/artists/jared-leto" rel="noopener" data-api_path="/artists/670096"&gt;Jared Leto&lt;/a&gt;. Along with him is his brother Shannon on drums and Tomo Miličević on guitar, who in 2018 took a break from the band for personal reasons. Since 2002, the band has released five albums and set the record for most shows performed during a single album cycle for their album &lt;em&gt;This is War&lt;/em&gt;. During the process of making the same album, Leto and his bandmates underwent a lawsuit with EMI. The band documented the whole lawsuit plus the making of the album in the documentary &lt;em&gt;Artifact&lt;/em&gt;.&lt;/p&gt;', 'alternate_names': ['30STM', '30 Seconds to Mars']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Stone-sour', 'annotations': {'description': '&lt;p&gt;Stone Sour is an American rock band formed in Des Moines, Iowa in 1992.&lt;/p&gt;\n\n&lt;p&gt;Stone Sour earned the group two Grammy Award nominations, both for Best Metal Performance, for the singles “Get Inside”, in 2003, and “Inhale”, in 2004. The album went on to become RIAA certified Gold.&lt;/p&gt;\n\n&lt;p&gt;In 2006, following the release of &lt;em&gt;Come What(ever) May&lt;/em&gt;, the group received another Grammy Award nomination for Best Metal Performance for the single “30/30-150”.&lt;/p&gt;\n\n&lt;p&gt;Stone Sour has sold over four million albums worldwide.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Staind', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://en.wikipedia.org/wiki/Staind" rel="noopener nofollow"&gt;Staind&lt;/a&gt; was an American rock band, formed in 1995 in Springfield, Massachusetts. For years, the band consisted of lead vocalist and rhythm guitarist &lt;a href="https://genius.com/artists/Aaron-lewis" rel="noopener" data-api_path="/artists/347635"&gt;Aaron Lewis&lt;/a&gt;, lead guitarist Mike Mushok, bassist and backing vocalist Johnny April, and drummer Jon Wysocki (who left in May 2011). To date, the band has recorded seven studio albums: &lt;a href="https://genius.com/albums/Staind/Tormented" rel="noopener" data-api_path="/albums/243184"&gt;&lt;em&gt;Tormented&lt;/em&gt;&lt;/a&gt; (1996), &lt;a href="https://genius.com/albums/Staind/Dysfunction" rel="noopener" data-api_path="/albums/160795"&gt;&lt;em&gt;Dysfunction&lt;/em&gt;&lt;/a&gt; (1999), &lt;a href="https://genius.com/albums/Staind/Break-the-cycle" rel="noopener" data-api_path="/albums/42347"&gt;&lt;em&gt;Break the Cycle&lt;/em&gt;&lt;/a&gt; (2001), &lt;a href="https://genius.com/albums/Staind/14-shades-of-grey" rel="noopener" data-api_path="/albums/80503"&gt;&lt;em&gt;14 Shades of Grey&lt;/em&gt;&lt;/a&gt; (2003), &lt;a href="https://genius.com/albums/Staind/Chapter-v" rel="noopener" data-api_path="/albums/492820"&gt;&lt;em&gt;Chapter V&lt;/em&gt;&lt;/a&gt; (2005), &lt;a href="https://genius.com/albums/Staind/The-illusion-of-progress" rel="noopener" data-api_path="/albums/149841"&gt;&lt;em&gt;The Illusion of Progress&lt;/em&gt;&lt;/a&gt; (2008), and their self-titled album &lt;a href="https://genius.com/albums/Staind/Staind" rel="noopener" data-api_path="/albums/91487"&gt;&lt;em&gt;Staind&lt;/em&gt;&lt;/a&gt;(2011).&lt;/p&gt;\n\n&lt;p&gt;On May 20, 2011, Staind announced that the band and long-time drummer Jon Wysocki had parted ways. In November 2011 Sam Giancarelli was announced as the new drummer.&lt;/p&gt;\n\n&lt;p&gt;In July 2012 the band announced it was taking a hiatus after releasing 7 albums over 14 years. The band did not perform again until April 27, 2014 at the &lt;em&gt;Welcome To Rockville Festival&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;In late 2014 the band went back on hiatus while Aaron Lewis played solo shows and began work on his second studio album &lt;a href="https://genius.com/albums/Aaron-lewis/Sinner" rel="noopener" data-api_path="/albums/157423"&gt;&lt;em&gt;Sinner&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In an interview in September 2016 Aaron Lewis stated that the band will likely stay in hiatus for the “foreseeable future”.&lt;/p&gt;\n\n&lt;p&gt;In September 2019, Staind made their return to touring after the release of Lewis\' 2019 album &lt;a href="https://genius.com/albums/Aaron-lewis/State%20I\'m%20In" rel="noopener"&gt;&lt;em&gt;State I’m In&lt;/em&gt;&lt;/a&gt; at the &lt;em&gt;Louder than Life Festival&lt;/em&gt; with Aaron Lewis commenting earlier &lt;a href="https://www.altpress.com/news/aaron-lewis-stained-new-album/" rel="noopener nofollow"&gt;what he thinks a new Staind album would sound like&lt;/a&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/10-years', 'annotations': {'description': '&lt;p&gt;Alternative rock band 10 Years began in Knoxville, Tennessee in 1999 with original members Mike Underdown, Brian Vodinh, Lewis Cosby and Ryan Johnson. After releasing their first album &lt;em&gt;Into the Half Moon&lt;/em&gt; in 2001 Cosby was replaced by Andy Parks on bass and Jesse Hasek replaced Underdown as vocalist. Their second studio album &lt;em&gt;Killing All That Holds You&lt;/em&gt; attracted the attention of Republic Records.&lt;/p&gt;\n\n&lt;p&gt;In 2005, the band released &lt;em&gt;The Autumn Effect&lt;/em&gt; featuring a new recording of what would become their breakthrough hit “Wasteland”. It topped the Active Rock and Alternative Songs charts and became a minor &lt;a href="https://www.billboard.com/music/10-years" rel="noopener nofollow"&gt;pop crossover hit&lt;/a&gt;. The album and single were &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;ar=10+YEARS&amp;amp;ti=WASTELAND" rel="noopener nofollow"&gt;both&lt;/a&gt; eventually &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;ar=10+YEARS&amp;amp;ti=AUTUMN+EFFECT" rel="noopener nofollow"&gt;certified gold&lt;/a&gt;. In support of the album, the band spent two years touring the world with with Disturbed, Breaking Benjamin, Korn and several others.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Division&lt;/em&gt; was released in 2008 and peaked at #12 on the Billboard 200, helped by its lead single “Beautiful” which reached the top 10 on the Rock Chart. The band toured with Linkin Park, then Mudvayne to support the album. &lt;em&gt;Feeding The Wolves&lt;/em&gt; would be their last for Republic Records. It peaked at #17 and spawned two more Rock Chart top tens: “Shoot It Out” and “Fix Me”. In the summer of 2010, the band had the &lt;a href="http://noisecreep.com/shinedown-carnival-of-madness-tour-dates-with-chevelle-sevendus/" rel="noopener nofollow"&gt;opening slot&lt;/a&gt; on Shinedown’s &lt;em&gt;Carnival Of Madness&lt;/em&gt; tour alongside Sevendust, Puddle Of Mudd &amp;amp; Chevelle. Another &lt;a href="http://www.blabbermouth.net/news/sevendust-10-years-more-harddrive-live-tour-details-revealed/" rel="noopener nofollow"&gt;tour with&lt;/a&gt; Sevendust soon followed.&lt;/p&gt;\n\n&lt;p&gt;10 Years\' next two albums were independently released after a disagreement with Universal Music on the direction of the band. Hasek &lt;a href="https://backstageaxxess.com/2012/09/jesse-hasek-10-years-interview/" rel="noopener nofollow"&gt;explained&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt; They wanted something different out of us than we wanted to be and just kind of trying to keep up with the mainstream junk per se. Our last album was called &lt;em&gt;Feeding the Wolves&lt;/em&gt; because it was the first time we really felt like that we had to compromise more than we wanted to … It got to a point where I just told myself I couldn’t do that anymore.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;em&gt;Minus The Machine&lt;/em&gt; spawned three moderately successful Rock Chart hits in 2012 and &lt;em&gt;From Birth to Burial&lt;/em&gt; provided one more in 2015. In 2016, Hasek contacted Vodinh (who had left three years earlier) saying that &lt;a href="https://www.knoxnews.com/story/entertainment/music/2017/10/05/10-years-band-return-knoxville-after-lineup-change/708494001/" rel="noopener nofollow"&gt;the band’s lineup&lt;/a&gt; was ‘toxic’ and it wouldn’t be ‘healthy for him to stay in the band’ as it was. Vodinh and original rhythm guitarist Matt Wantland rejoined, and founding member Ryan Johnson was ousted.&lt;/p&gt;\n\n&lt;p&gt;The band signed with Mascot Records and released &lt;em&gt;(How to Live) as Ghosts&lt;/em&gt; in 2017, featuring their fourth Rock Chart top five “Novacaine”. 2020’s &lt;em&gt;Violent Allies&lt;/em&gt; is their first album in fifteen years to not appear on the Billboard 200 despite both singles reaching the top 30 on the Rock Chart.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Evanescence', 'annotations': {'description': '&lt;p&gt;Evanescence is an American rock band founded in Little Rock, Arkansas in 1995 by singer/pianist Amy Lee and guitarist Ben Moody. Evanescence was originally promoted in Christian stores. Later, the band made it clear they did not want to be considered part of the Christian rock genre, like fellow Wind-up Records artists Creed. Some of their most popular hits include: “&lt;a href="https://genius.com/Evanescence-bring-me-to-life-lyrics" rel="noopener" data-api_path="/songs/67202"&gt;Bring Me to Life&lt;/a&gt;,” “&lt;a href="https://genius.com/Evanescence-my-immortal-lyrics" rel="noopener" data-api_path="/songs/113158"&gt;My Immortal&lt;/a&gt;,” and “&lt;a href="https://genius.com/Evanescence-what-you-want-lyrics" rel="noopener" data-api_path="/songs/218592"&gt;What You Want&lt;/a&gt;.”&lt;/p&gt;\n\n&lt;p&gt;In 2014, the band &lt;a href="https://twitter.com/AmyLeeEV/status/446110328418349056" rel="noopener nofollow"&gt;parted ways&lt;/a&gt; with their long-term record label Wind-Up and became independent artists. In late 2016, they released a &lt;em&gt;Ultimate Collection&lt;/em&gt; box set featuring all their albums along with the 2000 demo album &lt;a href="https://genius.com/albums/Evanescence/Origin" rel="noopener" data-api_path="/albums/45335"&gt;&lt;em&gt;Origin&lt;/em&gt;&lt;/a&gt; and a B-sides compilation &lt;a href="https://genius.com/albums/Evanescence/Lost-whispers" rel="noopener" data-api_path="/albums/332896"&gt;&lt;em&gt;Lost Whispers&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In November 2017, they released their fourth album, &lt;a href="https://genius.com/albums/Evanescence/Synthesis" rel="noopener" data-api_path="/albums/363298"&gt;&lt;em&gt;Synthesis&lt;/em&gt;&lt;/a&gt;, featuring a reimagining of some of their past songs plus two new original songs with the spotlight on full orchestra and electronics.&lt;/p&gt;\n\n&lt;p&gt;Their fifth album, &lt;a href="https://genius.com/albums/Evanescence/The-bitter-truth" rel="noopener" data-api_path="/albums/624604"&gt;&lt;em&gt;The Bitter Truth&lt;/em&gt;&lt;/a&gt;, was released in March 2021.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Linkin-park', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/albums/Linkin-park/Hybrid-theory" rel="noopener" data-api_path="/albums/15321"&gt;&lt;em&gt;Hybrid Theory&lt;/em&gt;&lt;/a&gt; isn’t just the title of Linkin Park’s chart-topping debut album, but a career mission statement.&lt;/p&gt;\n\n&lt;p&gt;From day one, the same six players (lead vocalist &lt;a href="https://genius.com/artists/Chester-bennington" rel="noopener" data-api_path="/artists/1015"&gt;Chester Bennington&lt;/a&gt;, drummer/percussionist &lt;a href="https://genius.com/artists/Rob-bourdon" rel="noopener" data-api_path="/artists/643808"&gt;Rob Bourdon&lt;/a&gt;, guitarist &lt;a href="https://genius.com/artists/Brad-delson" rel="noopener" data-api_path="/artists/177201"&gt;Brad Delson&lt;/a&gt;, bassist &lt;a href="https://genius.com/artists/Dave-farrell" rel="noopener" data-api_path="/artists/635618"&gt;Dave ‘Phoenix’ Farrell&lt;/a&gt;, DJ/Programmer &lt;a href="https://genius.com/artists/Joe-hahn" rel="noopener" data-api_path="/artists/271318"&gt;Joe Hahn&lt;/a&gt;, and keyboardist, guitarist, and co-lead vocals &lt;a href="https://genius.com/artists/Mike-shinoda" rel="noopener" data-api_path="/artists/4431"&gt;Mike Shinoda&lt;/a&gt;) built the band by fusing all their favorite styles of music into one unmistakable signature sound. With each album, Linkin Park defiantly challenges themselves and their fans by blasting into new musical territory. After setting the template for rock that incorporated hip-hop influences with &lt;em&gt;Hybrid Theory&lt;/em&gt; and &lt;a href="https://genius.com/albums/Linkin-park/Meteora" rel="noopener" data-api_path="/albums/5986"&gt;&lt;em&gt;Meteora&lt;/em&gt;&lt;/a&gt;, they shifted gears completely and defied expectations with the polychromatic &lt;a href="https://genius.com/albums/Linkin-park/Minutes-to-midnight" rel="noopener" data-api_path="/albums/16008"&gt;&lt;em&gt;Minutes to Midnight&lt;/em&gt;&lt;/a&gt;, and again with the esoteric &lt;a href="https://genius.com/albums/Linkin-park/A-thousand-suns" rel="noopener" data-api_path="/albums/15414"&gt;&lt;em&gt;A Thousand Suns&lt;/em&gt;&lt;/a&gt;, before melding a piece of them all into 2012’s &lt;a href="https://genius.com/albums/Linkin-park/Living-things" rel="noopener" data-api_path="/albums/16392"&gt;&lt;em&gt;LIVING THINGS&lt;/em&gt;&lt;/a&gt;. With their 2014 release and heaviest offering in years, &lt;a href="https://genius.com/albums/Linkin-park/The-hunting-party" rel="noopener" data-api_path="/albums/100521"&gt;&lt;em&gt;The Hunting Party&lt;/em&gt;&lt;/a&gt;, Linkin Park manage to capture their ever-innovative spirit with a hunger seldom seen in bands on their seventh album. &lt;a href="https://genius.com/albums/Linkin-park/One-more-light" rel="noopener" data-api_path="/albums/330664"&gt;&lt;em&gt;One More Light&lt;/em&gt;&lt;/a&gt; (2017) is an interesting personal album, filled with a lot of emotion.&lt;/p&gt;\n\n&lt;p&gt;Unfortunately, on July 20, 2017, Chester unexpectedly &lt;a href="http://www.tmz.com/2017/07/20/linkin-park-singer-chester-bennington-dead-commits-suicide/" rel="noopener nofollow"&gt;died by suicide&lt;/a&gt;, shocking and saddening both fans and his own band members alike.&lt;/p&gt;\n\n&lt;p&gt;As for the band’s name, they were originally called Hybrid Theory, but trademark issues with a band called Hybrid forced the band to rethink their name. According to &lt;a href="https://www.altpress.com/features/entry/how_bands_got_their_names/P1" rel="noopener nofollow"&gt;&lt;em&gt;Alternative Press&lt;/em&gt;&lt;/a&gt;, Bennington suggested “Lincoln Park” since he had to drive past there after band practice to get home. However, the domain name “lincolnpark.com” cost more than the band could afford so they changed the spelling to Linkin Park. It was also suggested that the name change would help them appear right next to Limp Bizkit at record stores.&lt;/p&gt;', 'alternate_names': ['Hybrid Theory', 'Xero', 'MMM...COOKIES']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Finger-eleven', 'annotations': {'description': '&lt;p&gt;Finger Eleven is a Canadian rock band from Burlington, Ontario, formed in 1990. They have released seven total studio albums (six as Finger Eleven and one as Rainbow Butt Monkeys), with their album The Greyest of Blue Skies bringing them into the mainstream. The 2003 self-titled album achieved Gold status in the United States and Platinum in Canada, largely from the success of the single “One Thing”, which marked the band’s first placing on the US Hot 100 Chart at number 16. Their 2007 album, Them vs. You vs. Me, launched the single “Paralyzer”, which went on to top numerous charts including the Canadian Hot 100 and both US rock charts, as well as reaching No. 6 on the US Hot 100 and No. 12 on the Australian Singles Chart.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/3-doors-down', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;3 Doors Down&lt;/strong&gt; is an American rock band. The band was formed in 1996 in Mississippi. The band consists of front-man Brad Arnold, guitarist Chris Henderson, drummer Greg Upchurch, guitarist Chet Roberts, and bassist Justin Biltonen.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://www.altpress.com/features/entry/how_bands_got_their_names" rel="noopener nofollow"&gt;The name 3 Doors Down came while the band was tour&lt;/a&gt; and they saw a building that had a sign with most of its letters fallen off, leaving it to read “Doors Down”. At the time, there were only three members in the band and so decided for the name 3 Doors Down.&lt;/p&gt;\n\n&lt;p&gt;The group enjoyed mainstream success in the mid-to-late nineties and the early 2000’s, with “Here Without You”, “Kryptonite”, and “When I’m Gone”.&lt;/p&gt;\n\n&lt;p&gt;Recently, the group received a large amount of media attention over their decision to perform at the inauguration of President Donald J. Trump in early 2017.&lt;/p&gt;', 'alternate_names': ['Three Doors Down']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Nickelback', 'annotations': {'description': '&lt;p&gt;Nickelback is a Canadian rock band formed in 1995 in Hanna, Alberta. The band is composed of lead guitarist and lead vocalist &lt;a href="https://genius.com/artists/Chad-kroeger" rel="noopener" data-api_path="/artists/7804"&gt;Chad Kroeger&lt;/a&gt;, rhythm guitarist, keyboardist and backing vocalist Ryan Peake, bassist Mike Kroeger, and drummer Daniel Adair.&lt;/p&gt;\n\n&lt;p&gt;They formed in the early 1990’s as a cover band called “The Village Idiots”. They eventually changed its name to Nickelback, which originates from the change Mike Kroeger usually gave back when he worked at Starbucks. Because everything was changed at $X.95, he would usually say, &lt;a href="http://www.rollingstone.com/music/artists/nickelback/biography" rel="noopener nofollow"&gt;“Here’s your nickel back.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Nickelback is one of the most commercially successful Canadian groups, having sold more than 50 million albums worldwide and ranking as the eleventh best-selling music act, and the second best-selling foreign act in the U.S. behind &lt;a href="https://genius.com/artists/The-beatles" rel="noopener" data-api_path="/artists/586"&gt;The Beatles&lt;/a&gt;, of the 2000’s.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Billboard&lt;/em&gt; ranks them the &lt;a href="http://www.billboard.com/articles/news/266420/artists-of-the-decade" rel="noopener nofollow"&gt;top rock group of the decade&lt;/a&gt;, and they listed their hit &lt;a href="https://genius.com/Nickelback-how-you-remind-me-lyrics" rel="noopener" data-api_path="/songs/196442"&gt;“How You Remind Me”&lt;/a&gt;  as the &lt;a href="https://books.google.ae/books?id=EgHgDgiLzqMC&amp;amp;pg=PA17" rel="noopener nofollow"&gt;top rock song of the decade&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['The Village Idiots']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Foo-fighters', 'annotations': {'description': '&lt;p&gt;Foo Fighters are an American rock band formed in 1995 by former &lt;a href="https://genius.com/artists/Nirvana" rel="noopener" data-api_path="/artists/12712"&gt;Nirvana&lt;/a&gt; drummer &lt;a href="https://genius.com/artists/Dave-grohl" rel="noopener" data-api_path="/artists/110465"&gt;Dave Grohl.&lt;/a&gt; Originally a solo project by him to overcome the grief of &lt;a href="https://genius.com/artists/Kurt-cobain" rel="noopener" data-api_path="/artists/23665"&gt;Kurt Cobain’s&lt;/a&gt; death, Grohl attracted label interest with his inaugural demo tape.&lt;/p&gt;\n\n&lt;p&gt;According to Dave Grohl, the band is &lt;a href="http://www.clashmusic.com/news/foo-fighters-on-their-band-name" rel="noopener nofollow"&gt;named after the UFOs&lt;/a&gt; that were reported by Allied aircraft pilots in World War II.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I was reading a lot of books on UFOs. Not only is it a fascinating subject, but there’s a treasure trove of band names in those UFO books! So, since I had recorded the first record by myself, playing all the instruments, but I wanted people to think that it was a group, I figured that FOO FIGHTERS might lead people to believe that it was more than just one guy. Silly, huh?&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Following the recording and release of the band’s &lt;a href="https://genius.com/albums/Foo-fighters/Foo-fighters" rel="noopener" data-api_path="/albums/31145"&gt;self-titled debut album,&lt;/a&gt; Grohl recruited a full band to perform the songs live.&lt;/p&gt;\n\n&lt;p&gt;Foo Fighters have since achieved mainstream critical and commercial success, with nine studio albums (two of which reached #1 on the Billboard charts), &lt;a href="https://www.grammy.com/grammys/artists/foo-fighters/14694" rel="noopener nofollow"&gt;twelve Grammy awards,&lt;/a&gt; and no signs of slowing down.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Pillar', 'annotations': {'description': '&lt;p&gt;Pillar is a Grammy-nominated Christian rock band. Known for their Spirit-filled lyrics, Pillar’s sound has evolved with each album, starting with a rapcore/nu metal sound early in their career (&lt;em&gt;Metamorphosis&lt;/em&gt;, &lt;em&gt;Original Superman&lt;/em&gt;, &lt;em&gt;Above&lt;/em&gt;, &lt;em&gt;Fireproof&lt;/em&gt;) and transitioning to metal (&lt;em&gt;Where Do We Go From Here&lt;/em&gt;, &lt;em&gt;The Reckoning&lt;/em&gt;, &lt;em&gt;For the Love of the Game&lt;/em&gt;), and finally post-grunge with their two most recent albums, &lt;em&gt;Confessions&lt;/em&gt; (2009) and the independently crowdfunded &lt;em&gt;One Love Revolution&lt;/em&gt; (2015).&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Hinder', 'annotations': {'description': '&lt;p&gt;Hinder is an American rock band hailing from the state of Oklahoma. Formed in 2001 by the drummer, &lt;a href="https://genius.com/artists/Cody-hanson" rel="noopener" data-api_path="/artists/59530"&gt;Cody Hanson&lt;/a&gt;, guitarist Joe “Blower” Garvey and the then lead singer, &lt;a href="https://genius.com/artists/Austin-winkler" rel="noopener" data-api_path="/artists/977945"&gt;Austin Winkler&lt;/a&gt;. The band’s style consists of a combination of elements from alt-rock, post-grunge, hard rock and southern rock.&lt;/p&gt;\n\n&lt;p&gt;The band released 4 studio albums with Winkler; &lt;em&gt;&lt;a href="https://genius.com/albums/Hinder/Extreme-behavior" rel="noopener" data-api_path="/albums/38743"&gt;Extreme Behavior&lt;/a&gt;&lt;/em&gt; (2006), &lt;em&gt;&lt;a href="https://genius.com/albums/Hinder/Take-it-to-the-limit" rel="noopener" data-api_path="/albums/39246"&gt;Take it to the Limit&lt;/a&gt;&lt;/em&gt; (2008), &lt;em&gt;&lt;a href="https://genius.com/albums/Hinder/All-american-nightmare" rel="noopener" data-api_path="/albums/38738"&gt;All American Nightmare&lt;/a&gt;&lt;/em&gt; (2010), and &lt;em&gt;&lt;a href="https://genius.com/albums/Hinder/Welcome-to-the-freakshow" rel="noopener" data-api_path="/albums/159487"&gt;Welcome to the Freakshow&lt;/a&gt;&lt;/em&gt; (2012).&lt;/p&gt;\n\n&lt;p&gt;Since the band got its new (and current) lead singer &lt;a href="https://genius.com/artists/Marshal-dutton" rel="noopener" data-api_path="/artists/59531"&gt;Marshal Dutton&lt;/a&gt; they have released one album (&lt;em&gt;&lt;a href="https://genius.com/albums/Hinder/When-the-smoke-clears" rel="noopener" data-api_path="/albums/127389"&gt;When the Smoke Clears&lt;/a&gt;&lt;/em&gt;, 2015) and one EP (&lt;em&gt;&lt;a href="https://genius.com/albums/Hinder/Stripped" rel="noopener" data-api_path="/albums/159490"&gt;Stripped&lt;/a&gt;&lt;/em&gt;, 2016).&lt;/p&gt;\n\n&lt;p&gt;The band was inducted into the Oklahoma Music Hall of Fame in 2007.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Creed', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Creed&lt;/strong&gt; is an American rock band, formed in 1993 in Tallahassee, Florida. The band’s original line-up consists of lead vocalist Scott Stapp, guitarist and vocalist Mark Tremonti, bassist Brian Marshall, and drummer Scott Phillips.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Fuel', 'annotations': {'description': '&lt;p&gt;Fuel is an American rock band formed by guitarist/songwriter Carl Bell and bassist Jeff Abercrombie in 1994. They are known for their hit songs “Shimmer” from Sunburn, “Hemorrhage (In My Hands)” and “Bad Day” from Something Like Human, and “Falls on Me” from Natural Selection. The band has sold nearly four million records worldwide.&lt;/p&gt;\n\n&lt;p&gt;Fuel has many times changed its members. Since 2006 original singer Brett Scallions and guitarist Carl Bell have not been a part of the band during the same time, due to unsolved differences. And in 2020, Brett announced on his Facebook page that he would never return to Fuel again. Which happened at the same time Bell decided to come back.&lt;/p&gt;\n\n&lt;p&gt;Their song “&lt;a href="https://genius.com/Fuel-quarter-lyrics" rel="noopener" data-api_path="/songs/1749622"&gt;Quarter&lt;/a&gt;” was featured in the games “Need for Speed: Underground”, “NFL Street” and “NASCAR Thunder 2004”.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Incubus', 'annotations': {'description': '&lt;p&gt;Incubus is an American alternative rock band from Calabasas, California. The band was formed in 1991 by vocalist Brandon Boyd, lead guitarist Mike Einziger, and drummer Jose Pasillas while enrolled in Calabasas High School. Incubus later expanded to include bassist Alex “Dirk Lance” Katunich, and Gavin “DJ Lyfe” Koppell; both of whom were eventually replaced by bassist Ben Kenney and DJ Kilmore respectively.&lt;/p&gt;\n\n&lt;p&gt;Incubus has attained commercial success, reaching multi-platinum sales, as well as releasing several successful singles, &lt;a href="https://genius.com/Incubus-dig-lyrics" rel="noopener" data-api_path="/songs/313626"&gt;Dig&lt;/a&gt; &amp;amp; &lt;a href="https://genius.com/Incubus-drive-lyrics" rel="noopener" data-api_path="/songs/108451"&gt;Drive&lt;/a&gt; especially.&lt;/p&gt;\n\n&lt;p&gt; The band have undergone many style changes over their long careers. Their early work, &lt;i&gt;Fungus Amongus&lt;/i&gt; (1995) and &lt;i&gt;S.C.I.E.N.C.E.&lt;/i&gt; (1997) were aggressive and clunky Funk Metal inspired by 80’s bands, such as the &lt;a href="https://genius.com/artists/Red-hot-chili-peppers" rel="noopener" data-api_path="/artists/1460"&gt;Red Hot Chili Peppers&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt; As the band earned mainstream recognition in the late 90’s and early 00’s their style matured significantly. Their albums &lt;a href="https://genius.com/albums/Incubus/Make-yourself" rel="noopener" data-api_path="/albums/26607"&gt;&lt;i&gt;Make Yourself&lt;/i&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/Incubus/Morning-view" rel="noopener" data-api_path="/albums/80202"&gt;&lt;i&gt;Morning View&lt;/i&gt;&lt;/a&gt; evolved into a more Post-Grunge sound.&lt;/p&gt;\n\n&lt;p&gt; The Band’s success continued with the album &lt;i&gt;A Crow Left of the Murder…&lt;/i&gt; (2004). Their sixth studio album, &lt;a href="https://www.billboard.com/music/Incubus/chart-history/TLP" rel="noopener nofollow"&gt;Light Grenades, debuted at #1&lt;/a&gt;, their first and only #1 album.&lt;/p&gt;\n\n&lt;p&gt;Incubus\' first greatest hits album &lt;i&gt;Monuments and Melodies&lt;/i&gt; came out in June 2009. With their 2011 album &lt;i&gt;If Not Now, When?&lt;/i&gt; the band developed a more Pop-Rock style. The band released their eighth studio album, titled 8, on April 21, 2017.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Machine-head', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Hollywood-undead', 'annotations': {'description': '&lt;p&gt;Hollywood Undead was formed in June/July 2005 by J-Dog and Deuce (past member). All of the members have grown up in LA, California. Nowadays there are five members; J-Dog (vocals, guitar, bass guitar, keyboards, synthesizer), Charlie Scene (vocals, lead guitar), Johnny 3 Tears (vocals, bass guitar), Funny Man (vocals) and Danny (vocals, keyboards, guitar). There are also three past members; Da Kurlzz (vocals, drums, percussion, left in June 2017) Deuce (vocals, left in 2009 for an unconfirmed reason) and Shady Jeff (vocals, left in 2007 because of disagreement with other members). All members wear masks and use nicknames. They are well known for their sarcastic and accurate lyrics. Some of their songs are about partying, drinking, taking drugs, girls but also about love, feelings, being heartless, having a broken heart and similar things.&lt;/p&gt;\n\n&lt;p&gt;The name &lt;em&gt;“Hollywood Undead”&lt;/em&gt; was introduced by J-Dog when he and Deuce wrote a song called “Hollywood,” and at the time called the band “Undead” (this designation comes from the times when they used to call people who lived in Hollywood  “undead” because they were partying all the time and that is why they thought they looked like zombies). J-Dog wrote the band name and name of the song on a small CD and showed it to his neighbor. The neighbor didn’t read it correctly, and thought that both of those words were the name of the band. J-Dog liked the way it sounded, and the name stuck.&lt;/p&gt;\n\n&lt;p&gt;Their first album was released on September 2nd, 2008. It was called &lt;em&gt;Swan Songs&lt;/em&gt; and includes songs like “City”, “Black Dahlia” and “Everywhere I Go”.&lt;br&gt;\nSecond studio album was called &lt;em&gt;American Tragedy&lt;/em&gt; and was released in 2011. On this album, the main vocals are sung by Danny rather than Deuce. American Tragedy features songs such as “Been to Hell”, “S.C.A.V.A.”, “Bullet”.&lt;br&gt;\nThird album was titled &lt;em&gt;Notes From The Underground&lt;/em&gt;. It was released in 2013. Songs from this album included “We Are”, “From the Ground”, “Outside” and many others.&lt;br&gt;\nIn 2015 they released their fourth album entitled &lt;em&gt;Day of the Dead&lt;/em&gt; where you can find songs like “Day of the Dead”, “Disease” or “Fuck the World”.&lt;br&gt;\nOn October 27th, 2017 the album &lt;em&gt;Five&lt;/em&gt; was released. The band states that it is “ their best album so far”. Some tracks on this album include “California Dreaming”, “Whatever It Takes”, “Renegade” or “We Own The Night”.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Vertical-horizon', 'annotations': {'description': '&lt;p&gt;Vertical Horizon is an American alternative rock band formed at Georgetown University in Washington, D.C. in 1991. &lt;/p&gt;&lt;div class="embedly_preview"&gt;\n&lt;a href="https://en.wikipedia.org/wiki/Vertical_Horizon"&gt;\n  &lt;div class="gray_container"&gt;\n    \n      &lt;div class="embedly_preview-thumb"&gt;\n        &lt;img src="https://upload.wikimedia.org/wikipedia/commons/thumb/4/48/Vertical_Horizon_in_2010.jpg/300px-Vertical_Horizon_in_2010.jpg"&gt;\n      &lt;/div&gt;\n    \n    &lt;div class="embedly_preview-text"&gt;\n      &lt;span class="embedly_preview-title"&gt;Vertical Horizon - Wikipedia&lt;/span&gt;\n      \n        &lt;span class="embedly_preview-dash"&gt; — &lt;/span&gt;\n        &lt;span class="embedly_preview-provider"&gt;Wikipedia&lt;/span&gt;\n      \n      \n        &lt;div class="embedly_preview-description"&gt;Vertical Horizon was formed in 1991 by Georgetown University undergrads Matthew Scannell and Keith Kane. Early performances included cover sets of artists such as Simon &amp;amp; Garfunkel in the campus\' Leavey Center food court.&lt;/div&gt;\n      \n    &lt;/div&gt;\n  &lt;/div&gt;\n&lt;/a&gt;\n&lt;/div&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Tonic', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Marcy-playground', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Sublime', 'annotations': {'description': '&lt;p&gt;Sublime was an American ska punk and alternative rock band from Long Beach, California, formed in 1988. The band’s line-up, unchanged until their breakup, consisted of Bradley Nowell (vocals and guitar), Eric Wilson (bass) and Bud Gaugh (drums). Lou Dog, Nowell’s dalmatian, was the mascot of the band. Michael ‘Miguel’ Happoldt and Marshall Goodman “Ras MG” contributed to and co-wrote several Sublime songs. Nowell died of a heroin overdose in 1996. In 1997, posthumous songs such as “Santeria”, “Wrong Way”, “Doin\' Time”, and “April 29, 1992 (Miami)” were released to U.S. radio.&lt;/p&gt;\n\n&lt;p&gt;Sublime released three studio albums, one live album, five compilation albums (one of which also contains never-before released material), three EPs and one box set. Although their first two albums (40oz. to Freedom [1992] and Robbin\' the Hood [1994]) were quite popular in the United States, Sublime did not experience major commercial success until 1996 with their self-titled third album. Released two months after Nowell’s death, it peaked at number 13 on the Billboard 200 and spawned the single “What I Got”, which remains the band’s only number one hit single (on the Billboard Alternative Songs chart) in their musical career. As of 2009, the band has sold over 17 million albums worldwide, including about 10 million in the U.S. alone.&lt;/p&gt;\n\n&lt;p&gt;See also &lt;a href="https://genius.com/artists/Sublime-with-rome" rel="noopener" data-api_path="/artists/21304"&gt;Sublime With Rome&lt;/a&gt;, a collaboration between Eric Wilson and vocalist/guitarist &lt;a href="https://genius.com/artists/Rome-ramirez" rel="noopener" data-api_path="/artists/44898"&gt;Rome Ramirez&lt;/a&gt; who managed to release a few albums of their own.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Blink-182', 'annotations': {'description': '&lt;p&gt;blink-182 set off the 1990s storm of pop-punk, blazing a trail in the genre with electrifying riffs and memorable lines—&lt;a href="https://genius.com/Blink-182-fuck-a-dog-lyrics" rel="noopener" data-api_path="/songs/232912"&gt;“Fuck a Dog,”&lt;/a&gt; anyone? The band has seen some lineup changes over the years, but its core trio (&lt;a href="https://genius.com/artists/Tom-delonge" rel="noopener" data-api_path="/artists/50626"&gt;Tom DeLonge&lt;/a&gt;, &lt;a href="https://genius.com/artists/Mark-hoppus" rel="noopener" data-api_path="/artists/23941"&gt;Mark Hoppus&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Travis-barker" rel="noopener" data-api_path="/artists/1604"&gt;Travis Barker&lt;/a&gt;) has mostly stood the test of time. As of 2015, DeLonge left the band to pursue other projects.&lt;/p&gt;\n\n&lt;p&gt;Founded in 1992 in Poway, California (a suburb in San Diego), DeLonge, Hoppus, and former drummer Scott Raynor formed the band in Raynor’s bedroom, writing songs for their demos, and playing practical jokes along the way. Initially, under the name Blink, the trio was forced to change the name to avoid a lawsuit with the Irish pop-rock group of the same name, so they added “182” at random (fans continue to speculate what “182” means to this day).&lt;/p&gt;\n\n&lt;p&gt;After releasing their demo album &lt;em&gt;&lt;a href="https://genius.com/albums/Blink-182/Buddha" rel="noopener" data-api_path="/albums/80025"&gt;Buddha&lt;/a&gt;&lt;/em&gt;, blink-182 released &lt;em&gt;&lt;a href="https://genius.com/albums/Blink-182/Cheshire-cat" rel="noopener" data-api_path="/albums/40902"&gt;Cheshire Cat&lt;/a&gt;&lt;/em&gt; in 1995 under Cargo Records. While not a major success at the time, the album generated buzz from the Southern California punk scene and major labels alike. After being signed to MCA Records, the band released &lt;em&gt;&lt;a href="https://genius.com/albums/Blink-182/Dude-ranch" rel="noopener" data-api_path="/albums/17882"&gt;Dude Ranch&lt;/a&gt;&lt;/em&gt; in 1997 with the hit singles &lt;a href="https://genius.com/Blink-182-dammit-lyrics" rel="noopener" data-api_path="/songs/153143"&gt;“Dammit”&lt;/a&gt; and &lt;a href="https://genius.com/Blink-182-josie-lyrics" rel="noopener" data-api_path="/songs/77200"&gt;“Josie”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 1998, Scott Raynor was removed for his drinking addiction, which affected the band’s performance and created tensions for the trio. Travis Barker, formerly of &lt;a href="https://genius.com/artists/The-aquabats" rel="noopener" data-api_path="/artists/311271"&gt;The Aquabats&lt;/a&gt;, filled in for Raynor during the West Coast mini-tour, and was quickly welcomed as a permanent drummer. His drumming technique heavily influenced the band, causing a sonic shift in their songwriting. With the aid of their new producer Jerry Finn, blink-182 went on to record their next album.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;&lt;a href="https://genius.com/albums/Blink-182/Enema-of-the-state" rel="noopener" data-api_path="/albums/13545"&gt;Enema of the State&lt;/a&gt;&lt;/em&gt; (1999) was the band’s first enormous commercial success, selling over 15 million copies worldwide on the strength of singles &lt;a href="https://genius.com/Blink-182-whats-my-age-again-lyrics" rel="noopener" data-api_path="/songs/60702"&gt;“What’s My Age Again?”&lt;/a&gt;, &lt;a href="https://genius.com/Blink-182-all-the-small-things-lyrics" rel="noopener" data-api_path="/songs/62154"&gt;“All the Small Things,”&lt;/a&gt; and &lt;a href="https://genius.com/Blink-182-adams-song-lyrics" rel="noopener" data-api_path="/songs/73324"&gt;“Adam’s Song.”&lt;/a&gt; Their 2001 release, &lt;em&gt;&lt;a href="https://genius.com/albums/Blink-182/Take-off-your-pants-and-jacket" rel="noopener" data-api_path="/albums/14072"&gt;Take Off Your Pants and Jacket,&lt;/a&gt;&lt;/em&gt; peaked at #1 on U.S. &lt;em&gt;Billboard&lt;/em&gt; and introduced the world to the catchy &lt;a href="https://genius.com/Blink-182-first-date-lyrics" rel="noopener" data-api_path="/songs/217244"&gt;“First Date.”&lt;/a&gt; A 2003 &lt;a href="https://genius.com/albums/Blink-182/Blink-182" rel="noopener" data-api_path="/albums/13901"&gt;self-titled album&lt;/a&gt; saw a stylistic shift in the band’s music, marked by fatherhood and maturity in songs like &lt;a href="https://genius.com/Blink-182-i-miss-you-lyrics" rel="noopener" data-api_path="/songs/61981"&gt;“I Miss You”&lt;/a&gt; and &lt;a href="https://genius.com/Blink-182-down-lyrics" rel="noopener" data-api_path="/songs/210822"&gt;“Down”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The band went on a four-year hiatus from 2005 to 2009. DeLonge focused on &lt;a href="https://genius.com/artists/Angels-and-airwaves" rel="noopener" data-api_path="/artists/70500"&gt;Angels &amp;amp; Airwaves&lt;/a&gt; (with elements taken from &lt;a href="https://genius.com/artists/Box-car-racer" rel="noopener" data-api_path="/artists/62212"&gt;Box Car Racer&lt;/a&gt;), Hoppus fronted &lt;a href="https://genius.com/artists/44" rel="noopener" data-api_path="/artists/136713"&gt;+44&lt;/a&gt; with Barker, who also worked on solo drum work and collaborated with the late &lt;a href="https://genius.com/artists/Dj-am" rel="noopener" data-api_path="/artists/35824"&gt;DJ AM&lt;/a&gt;. After the band’s reunion in 2009 following &lt;a href="https://www.youtube.com/watch?v=LZ0slwm4K4M" rel="noopener nofollow"&gt;Barker’s plane crash&lt;/a&gt;, they released &lt;em&gt;&lt;a href="https://genius.com/albums/Blink-182/Neighborhoods" rel="noopener" data-api_path="/albums/14664"&gt;Neighborhoods&lt;/a&gt;&lt;/em&gt; to critical acclaim in 2011, although the album left mixed feelings in the divided fanbase.&lt;/p&gt;\n\n&lt;p&gt;Upon DeLonge’s departure from the band in 2015, &lt;a href="https://genius.com/artists/Alkaline-trio" rel="noopener" data-api_path="/artists/2055"&gt;Alkaline Trio&lt;/a&gt; frontman Matt Skiba was announced as his replacement. The new lineup returned to the studio in August of 2015 to record their long-awaited seventh album, &lt;em&gt;&lt;a href="https://genius.com/albums/Blink-182/California" rel="noopener" data-api_path="/albums/150529"&gt;California&lt;/a&gt;&lt;/em&gt;, which released on July 1, 2016.&lt;/p&gt;\n\n&lt;p&gt;Their eighth album, titled &lt;a href="https://genius.com/albums/Blink-182/Nine" rel="noopener" data-api_path="/albums/527823"&gt;&lt;em&gt;NINE&lt;/em&gt;&lt;/a&gt; hit the world with the singles, &lt;a href="https://genius.com/Blink-182-blame-it-on-my-youth-lyrics" rel="noopener" data-api_path="/songs/4535831"&gt;“Blame It On My Youth”&lt;/a&gt;, &lt;a href="https://genius.com/Blink-182-generational-divide-lyrics" rel="noopener" data-api_path="/songs/4640238"&gt;“Generational Divide”&lt;/a&gt;, &lt;a href="https://genius.com/Blink-182-happy-days-lyrics" rel="noopener" data-api_path="/songs/4666218"&gt;“Happy Days”&lt;/a&gt;, &lt;a href="https://genius.com/Blink-182-darkside-lyrics" rel="noopener" data-api_path="/songs/4712585"&gt;“Darkside”&lt;/a&gt;, and &lt;a href="https://genius.com/Blink-182-i-really-wish-i-hated-you-lyrics" rel="noopener" data-api_path="/songs/4726613"&gt;“I Really Wish I Hated You”&lt;/a&gt; in 2019.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Red-hot-chili-peppers', 'annotations': {'description': '&lt;p&gt;The Red Hot Chili Peppers are a rock band based in Los Angeles, CA that incorporates elements of rap, funk, punk, and rock into their work, mainly classified as an alternative rock band. They made it mainstream off the success of their 1991’s fifth studio album &lt;em&gt;&lt;a href="https://genius.com/albums/Red-hot-chili-peppers/Blood-sugar-sex-magik" rel="noopener" data-api_path="/albums/16011"&gt;Blood Sugar Sex Magik&lt;/a&gt;&lt;/em&gt;, led by singles &lt;a href="https://genius.com/Red-hot-chili-peppers-give-it-away-lyrics" rel="noopener" data-api_path="/songs/70268"&gt;“Give it Away”&lt;/a&gt; and &lt;a href="https://genius.com/Red-hot-chili-peppers-under-the-bridge-lyrics" rel="noopener" data-api_path="/songs/3226"&gt;“Under the Bridge.”&lt;/a&gt; After losing guitarist &lt;a href="https://genius.com/artists/John-frusciante" rel="noopener" data-api_path="/artists/1695"&gt;John Frusciante&lt;/a&gt; and losing popularity following the release of the less successful &lt;em&gt;&lt;a href="https://genius.com/albums/Red-hot-chili-peppers/One-hot-minute" rel="noopener" data-api_path="/albums/19418"&gt;One Hot Minute&lt;/a&gt;&lt;/em&gt;, the band reunited for 1999’s &lt;em&gt;&lt;a href="https://genius.com/albums/Red-hot-chili-peppers/Californication" rel="noopener" data-api_path="/albums/11888"&gt;Californication&lt;/a&gt;&lt;/em&gt;. The &lt;a href="https://genius.com/Red-hot-chili-peppers-californication-lyrics" rel="noopener" data-api_path="/songs/3227"&gt;title track&lt;/a&gt; and hit singles &lt;a href="https://genius.com/Red-hot-chili-peppers-around-the-world-lyrics" rel="noopener" data-api_path="/songs/54310"&gt;“Around the World,”&lt;/a&gt; &lt;a href="https://genius.com/Red-hot-chili-peppers-scar-tissue-lyrics" rel="noopener" data-api_path="/songs/73315"&gt;“Scar Tissue”&lt;/a&gt; and &lt;a href="https://genius.com/Red-hot-chili-peppers-otherside-lyrics" rel="noopener" data-api_path="/songs/54316"&gt;“Otherside”&lt;/a&gt; propelled them back to the fame. After 2002’s solid release &lt;em&gt;&lt;a href="https://genius.com/albums/Red-hot-chili-peppers/By-the-way" rel="noopener" data-api_path="/albums/20513"&gt;By the Way&lt;/a&gt;&lt;/em&gt; and 2006’s double-disc &lt;em&gt;&lt;a href="https://genius.com/albums/Red-hot-chili-peppers/Stadium-arcadium" rel="noopener" data-api_path="/albums/11881"&gt;Stadium Arcadium&lt;/a&gt;&lt;/em&gt;, Frusciante once again left the band to further pursue his solo career. The band added &lt;a href="https://genius.com/artists/Josh-klinghoffer" rel="noopener" data-api_path="/artists/633985"&gt;Josh Klinghoffer&lt;/a&gt; to help fill his void, and released &lt;em&gt;&lt;a href="https://genius.com/albums/Red-hot-chili-peppers/I-m-with-you" rel="noopener" data-api_path="/albums/14516"&gt;I’m With You&lt;/a&gt;&lt;/em&gt; in 2011.&lt;/p&gt;\n\n&lt;p&gt;In December 2019, the band announced &lt;a href="https://www.instagram.com/p/B6G0L3OHVe8/" rel="noopener nofollow"&gt;via Instagram&lt;/a&gt; that Klinghoffer had left after 10 years, and Frusciante would be rejoining.&lt;/p&gt;\n\n&lt;p&gt;Their lyrical content was mostly centered around sex, drugs, and the Los Angeles lifestyle, and lead singer &lt;a href="https://genius.com/artists/Anthony-kiedis" rel="noopener" data-api_path="/artists/582309"&gt;Anthony Kiedis&lt;/a&gt; mostly rapped them as he wasn’t confident as vocalist. Most members of the band also suffered from drug addiction, as Kiedis and Frusciante had to check themselves into rehab for heroin addiction at various points in their lives. But &lt;em&gt;&lt;a href="https://genius.com/albums/Red-hot-chili-peppers/Californication" rel="noopener" data-api_path="/albums/11888"&gt;Californication&lt;/a&gt;&lt;/em&gt; marked a change in the band’s content matter and lifestyle. The band was sober for the most part, and the lyrics had shifted to songs about love and the pains of addiction, the title even criticized the city they loved so much. In addition, Kiedis had started to sing his lyrics much more often as he finally felt comfortable with his voice. That change has allowed the band to stick around for over 20 years despite multiple changes to their lineup and is part of why they remain relevant.&lt;/p&gt;\n\n&lt;h3&gt;List of band members:&lt;/h3&gt;\n\n&lt;p&gt;&lt;strong&gt;Current:&lt;/strong&gt;&lt;/p&gt;\n\n&lt;ul&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Anthony-kiedis" rel="noopener" data-api_path="/artists/582309"&gt;Anthony Kiedis&lt;/a&gt; (lead vocals) 1983–1986, 1986–present&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Flea" rel="noopener" data-api_path="/artists/61532"&gt;Flea&lt;/a&gt; (bass, backing vocals) 1983–present&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Chad-smith" rel="noopener" data-api_path="/artists/387527"&gt;Chad Smith&lt;/a&gt; (drums) 1988–present&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/John-frusciante" rel="noopener" data-api_path="/artists/1695"&gt;John Frusciante&lt;/a&gt; (lead guitars, backing vocals) 1988–1992, 1998–2009, 2019–present&lt;/li&gt;\n&lt;/ul&gt;\n\n\n&lt;p&gt;&lt;strong&gt;Former:&lt;/strong&gt;&lt;/p&gt;\n\n&lt;ul&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Hillel-slovak" rel="noopener" data-api_path="/artists/992756"&gt;Hillel Slovak&lt;/a&gt; (guitars, backing vocals) 1983, 1985–1988&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Jack-irons" rel="noopener" data-api_path="/artists/678033"&gt;Jack Irons&lt;/a&gt; (drums, backing vocals) 1983, 1986–1988&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Cliff-martinez" rel="noopener" data-api_path="/artists/531678"&gt;Cliff Martinez&lt;/a&gt; (drums) 1983–1986&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Jack-sherman" rel="noopener" data-api_path="/artists/146214"&gt;Jack Sherman&lt;/a&gt; (guitars, backing vocals) 1983–1984&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Dave-navarro" rel="noopener" data-api_path="/artists/27020"&gt;Dave Navarro&lt;/a&gt; (guitars, backing vocals) 1993–1998&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Josh-klinghoffer" rel="noopener" data-api_path="/artists/633985"&gt;Josh Klinghoffer&lt;/a&gt; (guitars, backing vocals) 2009–2019&lt;/li&gt;\n&lt;/ul&gt;', 'alternate_names': ['RHCP', 'Red Hot', 'Chili Peppers']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Pearl-jam', 'annotations': {'description': '&lt;p&gt;Founded in 1990 in Seattle, Pearl Jam is one of the most successful bands out of the grunge movement, if not of the whole alternative rock scene from the early 90s. The group started with &lt;a href="https://genius.com/artists/Stone-gossard" rel="noopener" data-api_path="/artists/378232"&gt;Stone Gossard&lt;/a&gt; (guitar) and &lt;a href="https://genius.com/artists/Jeff-ament" rel="noopener" data-api_path="/artists/349346"&gt;Jeff Ament&lt;/a&gt; (bass), veterans of the proto-grunge scene, recording a demo along with local guitarist &lt;a href="https://genius.com/artists/Mike-mccready" rel="noopener" data-api_path="/artists/372621"&gt;Mike McCready&lt;/a&gt;. Once the tape passed along, it attracted a San Diego-based singer, &lt;a href="https://genius.com/artists/Eddie-vedder" rel="noopener" data-api_path="/artists/48352"&gt;Eddie Vedder&lt;/a&gt;. Along with drummer Dave Krusen, they signed with Epic Records and released &lt;em&gt;Ten&lt;/em&gt; in 1991, which by the following year was becoming one of the most successful debut albums ever.&lt;/p&gt;\n\n&lt;p&gt;Growing uncomfortable with success, the following albums went for a more anguished and experimental sound, and the band’s notorious activism had its most prominent case once they boycotted Ticketmaster, accusing them of price-gouging fans. In the meantime, various drummers passed through the band, with percussion only settling once &lt;a href="https://genius.com/artists/Soundgarden" rel="noopener" data-api_path="/artists/19976"&gt;Soundgarden&lt;/a&gt;’s  &lt;a href="https://genius.com/artists/Matt-cameron" rel="noopener" data-api_path="/artists/564462"&gt;Matt Cameron&lt;/a&gt; joined them in the tour for 1998’s &lt;em&gt;Yield&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;With 10 studio albums and various live recordings (including “Official Bootlegs” of basically every concert the band performed since 2000), Pearl Jam has sold nearly 32 million records in the U.S. and an estimated 60 million worldwide.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Seven-mary-three', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Rage-against-the-machine', 'annotations': {'description': '&lt;p&gt;Formed in Los Angeles in 1991, Rage Against the Machine are critically acclaimed for their aggressive, politically charged rhymes. During the 1990s, they found huge success with their politicised image, broad array of influences and punk attitudes. The band represents an important intersection in 90s culture – between the musical expression of urban black rebels (hip-hop, funk) and their white counterpart (metal, punk rock).&lt;/p&gt;\n\n&lt;p&gt;Accompanying a musical fusion of punk, hip-hop and metal, the lyricism of frontman &lt;a href="https://genius.com/artists/Zack-de-la-rocha" rel="noopener" data-api_path="/artists/9775"&gt;Zack de la Rocha&lt;/a&gt; provides a fiery critique of corporate America, government oppression, and cultural imperialism. Both de la Rocha and guitarist &lt;a href="https://genius.com/artists/Tom-morello" rel="noopener" data-api_path="/artists/4781"&gt;Tom Morello&lt;/a&gt; were &lt;a href="http://www.rollingstone.com/music/artists/rage-against-the-machine/biography" rel="noopener nofollow"&gt;born into activist families&lt;/a&gt;, influential to shaping the band’s political views and activism. De la Rocha’s father devoted his artistic work to Chicano causes, and Morello was raised by a civil rights activist mother and a Kenyan rebel-turned-diplomat father.&lt;/p&gt;\n\n&lt;p&gt;Rage Against the Machine view their music as a &lt;a href="http://www.musicfanclubs.org/rage/articles/juice00.htm" rel="noopener nofollow"&gt;vehicle for social activism&lt;/a&gt;, and de la Rocha has explained this by saying:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I’m interested in spreading those ideas through art, because music has the power to cross borders, to break military sieges and to establish real dialogue.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Over their career, Rage Against the Machine have &lt;a href="http://www.rollingstone.com/music/news/the-battle-of-rage-against-the-machine-19991125" rel="noopener nofollow"&gt;championed numerous causes&lt;/a&gt;, including death-row inmate Mumia Abu-Jamal’s fight for a new trial, the Zapatista freedom fighters in Mexico, and the treatment of sweatshop workers. The band’s leftist and revolutionary political views are further represented in almost all of their songs, and this politically fuelled commentary is key to their identity. Notable examples of these beliefs are discussed in &lt;a href="https://genius.com/Rage-against-the-machine-killing-in-the-name-lyrics" rel="noopener" data-api_path="/songs/4569"&gt;“Killing in the Name”&lt;/a&gt; (addressing racism and police corruption), &lt;a href="https://genius.com/Rage-against-the-machine-wake-up-lyrics" rel="noopener" data-api_path="/songs/39712"&gt;“Wake Up”&lt;/a&gt; (addressing racism in the American government), and &lt;a href="https://genius.com/Rage-against-the-machine-freedom-lyrics" rel="noopener" data-api_path="/songs/39703"&gt;“Freedom”&lt;/a&gt; (supporting imprisoned American-Indian activist Leonard Peltier).&lt;/p&gt;\n\n&lt;p&gt;Rage Against the Machine split up in 2000, with three of the band members joining &lt;a href="https://genius.com/artists/Soundgarden" rel="noopener" data-api_path="/artists/19976"&gt;Soundgarden&lt;/a&gt;’s &lt;a href="https://genius.com/artists/Chris-cornell" rel="noopener" data-api_path="/artists/18435"&gt;Chris Cornell&lt;/a&gt; to form rock supergroup &lt;a href="https://genius.com/artists/Audioslave" rel="noopener" data-api_path="/artists/39547"&gt;Audioslave&lt;/a&gt;. They reunited in 2007, and since then have sporadically performed major live events, but are yet to record any new material. In May 2016, it was revealed that &lt;a href="https://genius.com/artists/Tom-morello" rel="noopener" data-api_path="/artists/4781"&gt;Tom Morello&lt;/a&gt;, &lt;a href="https://genius.com/artists/Brad-wilk" rel="noopener" data-api_path="/artists/646889"&gt;Brad Wilk&lt;/a&gt; and &lt;a href="https://genius.com/artists/Tim-commerford" rel="noopener" data-api_path="/artists/646888"&gt;Tim Commerford&lt;/a&gt; had united with &lt;a href="https://genius.com/artists/Chuck-d" rel="noopener" data-api_path="/artists/1884"&gt;Chuck D&lt;/a&gt; of &lt;a href="https://genius.com/artists/Public-enemy" rel="noopener" data-api_path="/artists/203"&gt;Public Enemy&lt;/a&gt; and &lt;a href="https://genius.com/artists/B-real" rel="noopener" data-api_path="/artists/998"&gt;B-Real&lt;/a&gt; of &lt;a href="https://genius.com/artists/Cypress-hill" rel="noopener" data-api_path="/artists/1317"&gt;Cypress Hill&lt;/a&gt; to form the supergroup, &lt;a href="https://genius.com/artists/Prophets-of-rage" rel="noopener" data-api_path="/artists/980209"&gt;Prophets of Rage&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Otherwise', 'annotations': {'description': '&lt;p&gt;OTHERWISE is a hard rock/alternative/metal band from Las Vegas, Nevada signed to Century Media. Their hit single, “Soldiers” sold over 75,000 copies and was the first song by an unsigned on Sirius XM Octane to be at #1. The band consists of lead vocalist Adrian Patrick, lead guitarist Ryan Patrick, drummer Brian Medieros, and bassist Tony “The Beast” Carboney.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Volbeat', 'annotations': {'description': '&lt;p&gt;Volbeat is a Danish rock band formed in Copenhagen in 2001. They play a fusion of rock and roll, heavy metal, and rockabilly. Their current line-up consists of vocalist and guitarist &lt;a href="https://genius.com/artists/Michael-poulsen" rel="noopener" data-api_path="/artists/664303"&gt;Michael Poulsen&lt;/a&gt;, guitarist &lt;a href="https://genius.com/artists/Rob-caggiano" rel="noopener" data-api_path="/artists/214690"&gt;Rob Caggiano&lt;/a&gt;, drummer &lt;a href="https://genius.com/artists/Jon-larsen" rel="noopener" data-api_path="/artists/1104130"&gt;Jon Larsen&lt;/a&gt; and bassist &lt;a href="https://genius.com/artists/Kaspar-boye-larsen" rel="noopener" data-api_path="/artists/1824690"&gt;Kaspar Boye Larsen&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Singer Michael Poulsen’s first band was death metal act &lt;a href="https://genius.com/artists/Dominus" rel="noopener" data-api_path="/artists/354240"&gt;Dominus&lt;/a&gt;. In 2000, Poulsen became fed up with the death metal music scene, causing Dominus to break up. In 2001, Poulsen went on to form a new band with some friends and other former Dominus members. This was the beginning of Volbeat.&lt;/p&gt;\n\n&lt;p&gt;The band name “Volbeat” was derived from Dominus’s third album name, which was called &lt;a href="https://genius.com/albums/Dominus/Vol-beat" rel="noopener" data-api_path="/albums/226124"&gt;&lt;em&gt;Vol.Beat&lt;/em&gt;&lt;/a&gt; (read as: Volume Beat). After selling 1,000 copies of their &lt;a href="https://genius.com/albums/Volbeat/Beat-the-meat" rel="noopener" data-api_path="/albums/213919"&gt;&lt;em&gt;Beat the Meat&lt;/em&gt;&lt;/a&gt; demo tape, Volbeat was signed to a record deal by &lt;a href="https://genius.com/artists/Rebel-monster-records" rel="noopener" data-api_path="/artists/1108254"&gt;Rebel Monster Records&lt;/a&gt;, a sub-label of &lt;a href="https://genius.com/artists/Mascot-records" rel="noopener" data-api_path="/artists/1108255"&gt;Mascot Records&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The band is currently signed to Dutch label Mascot Records and has released six studio albums and one DVD. All of their studio albums have been certified gold in Denmark. Their second album &lt;a href="https://genius.com/albums/Volbeat/Rock-the-rebel-metal-the-devil" rel="noopener" data-api_path="/albums/41582"&gt;&lt;em&gt;Rock the Rebel/Metal the Devil&lt;/em&gt;&lt;/a&gt; received platinum status, and their 2010-release &lt;a href="https://genius.com/albums/Volbeat/Beyond-heaven-above-hell" rel="noopener" data-api_path="/albums/56985"&gt;&lt;em&gt;Beyond Hell/Above Heaven&lt;/em&gt;&lt;/a&gt; was subject to widespread international critical acclaim, receiving double platinum in Denmark, platinum in Finland and Germany, and gold in the United States, Sweden, and Austria.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Alien-ant-farm', 'annotations': {'description': '&lt;p&gt;Alien Ant Farm is an American rock band &lt;a href="http://www.mtv.com/news/1454457/alien-ant-farm-injured-in-bus-accident/" rel="noopener nofollow"&gt;of childhood friends&lt;/a&gt; formed in Riverside, California, in 1995. Their name comes &lt;a href="https://www.fredericksburg.com/calendar/charity_fundraisers/alien-ant-farm-at-hard-times/event_262095da-7025-11e4-9677-c392b372c9ea.html" rel="noopener nofollow"&gt;from an idea&lt;/a&gt; original guitarist Terry Corso had about aliens and the Earth:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It was just my daydream about our planet being seeded by entities from other dimensions.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;After self-releasing two EPs, AAF released their first &lt;a href="https://www.discogs.com/Alien-Ant-Farm-Greatest-Hits/release/3402074" rel="noopener nofollow"&gt;full album&lt;/a&gt; &lt;em&gt;Greatest Hits&lt;/em&gt; on Chick Music Records, featuring the original recordings of two future hits “Movies” and a cover of Michael Jackson’s “Smooth Criminal” (listed as “Slick Thief”). The &lt;a href="http://archives.starbulletin.com/2005/08/19/features/index3.html" rel="noopener nofollow"&gt;album won&lt;/a&gt; Best Independent Album at that year’s LA Music Awards and, through a friendship with Papa Roach, AAF was signed to DreamWorks Records.&lt;/p&gt;\n\n&lt;p&gt;In 2001 AAF released &lt;em&gt;ANThology&lt;/em&gt; with “Movies” as the band’s first single. It originally reached #53 in the UK and #18 on the &lt;a href="https://www.billboard.com/music/alien-ant-farm/chart-history/alternative-songs" rel="noopener nofollow"&gt;US Alternative Chart&lt;/a&gt; in the first half of 2001. Next “Smooth Criminal” was released and it became an international smash hit, reaching the top 30 &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Alien+Ant+Farm&amp;amp;titel=Smooth+Criminal&amp;amp;cat=s" rel="noopener nofollow"&gt;in fifteen countries&lt;/a&gt;. While “Criminal” was gaining steam, AAF toured with Linkin Park and Papa Roach, traveled with The Warped Tour, and headlined an MTV Fall Tour.&lt;/p&gt;\n\n&lt;p&gt;The success of “Criminal” shot “Movies” up to #5 in the UK and the top 30 in &lt;a href="https://australian-charts.com/showitem.asp?interpret=Alien+Ant+Farm&amp;amp;titel=Movies&amp;amp;cat=s" rel="noopener nofollow"&gt;Australia &amp;amp; New Zealand&lt;/a&gt; in early 2002. The band appeared at several European festivals that year, Australia’s Big Day Out and headlined in Japan.  On the way to a festival in Spain, the band’s tour bus &lt;a href="http://www.mtv.com/news/1454457/alien-ant-farm-injured-in-bus-accident/" rel="noopener nofollow"&gt;collided with&lt;/a&gt; a parked truck, killing the bus driver and injuring several members of the band and their crew, one ending up in a coma.&lt;/p&gt;\n\n&lt;p&gt;In 2003, AAF released &lt;em&gt;Truant&lt;/em&gt; and &lt;a href="http://genxsummer.com/alienantfarm.html" rel="noopener nofollow"&gt;toured Europe&lt;/a&gt; with Metallica. The album’s lead single “These Days” was a minor Alternative and Rock hit in the US. The follow-up single “Glow” reached #5 &lt;a href="https://charts.nz/showitem.asp?interpret=Alien+Ant+Farm&amp;amp;titel=Glow&amp;amp;cat=s" rel="noopener nofollow"&gt;in New Zealand&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;DreamWorks Records was soon after sold to Universal and the band was placed under Universal’s Geffen Records, who shelved the band’s fourth album. AAF &lt;a href="http://www.popentertainment.com/alienantfarm.htm" rel="noopener nofollow"&gt;responded by&lt;/a&gt; bootlegging it and selling ‘a few thousand’ copies to fans.&lt;/p&gt;\n\n&lt;p&gt;Eventually Geffen relented and allowed the release of the album on a different label owned by Universal. The song “Forgive And Forget” was added and it was released as &lt;em&gt;Up In The Attic&lt;/em&gt; in 2006. None of the album’s singles charted. Its lack of success led to an &lt;a href="https://answerstoall.com/language/why-did-alien-ant-farm-break-up/" rel="noopener nofollow"&gt;unannounced 2007 breakup&lt;/a&gt;, that would only last until 2008. The band then toured for a few years before beginning work on their fifth album &lt;em&gt;Always And Forever&lt;/em&gt; in 2012, which found little success upon release in 2015.&lt;/p&gt;\n\n&lt;p&gt;Since then, the band continues to tour, taking part in 2016’s Make America Rock Again tour with Saliva, Saving Abel, Tantric, Trapt, Crazy Town and 12 Stones, as well as 2018’s Gen-X Summer Tour with Buckcherry, Lit and POD. As of summer 2018, the band had &lt;a href="http://genxsummer.com/alienantfarm.html" rel="noopener nofollow"&gt;sold over 5 million units&lt;/a&gt; worldwide.  In 2020, during their Covid-19 quarantine, AAF released another 80s cover, this time Wham’s “Everything She Wants”. Its  &lt;a href="https://www.youtube.com/watch?v=Kfg4t-PAcBg" rel="noopener nofollow"&gt;music video&lt;/a&gt; features cameos by several famous musicians.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Hoobastank', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Hoobustank']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Beartooth', 'annotations': {'description': '&lt;p&gt;Beartooth is a &lt;a href="https://genius.com/tags/metalcore" rel="noopener"&gt;metalcore&lt;/a&gt; band that originated in Columbus, Ohio back in 2012 after &lt;a href="https://genius.com/artists/Caleb-shomo" rel="noopener" data-api_path="/artists/66490"&gt;Caleb Shomo&lt;/a&gt; left his old band &lt;a href="https://genius.com/artists/Attack-attack" rel="noopener" data-api_path="/artists/169123"&gt;Attack Attack!&lt;/a&gt; earlier that year. Caleb started writing Beartooth songs while he was still in Attack Attack!. Later in 2012, Caleb Shomo (Vocals) formed Beartooth with the original members Brandon Mullins (Drums), Nick Reed (Bass), Taylor Lumley (Guitar), and himself. Nick Reed and Brandon Mullins have left Beartooth since the band started. Beartooth released their debut EP &lt;a href="https://genius.com/albums/Beartooth/Sick-ep" rel="noopener" data-api_path="/albums/46694"&gt;&lt;em&gt;Sick&lt;/em&gt;&lt;/a&gt; on July 26, 2013 and the next year,(2014) they released their debut album &lt;a href="https://genius.com/albums/Beartooth/Disgusting" rel="noopener" data-api_path="/albums/107205"&gt;&lt;em&gt;Disgusting&lt;/em&gt;&lt;/a&gt; on June 10, 2014. Their sophomore album &lt;a href="https://genius.com/albums/Beartooth/Aggressive" rel="noopener" data-api_path="/albums/149955"&gt;&lt;em&gt;Aggressive&lt;/em&gt;&lt;/a&gt; was released on June 3, 2016. Their third album, &lt;a href="https://genius.com/albums/Beartooth/Disease" rel="noopener" data-api_path="/albums/443008"&gt;&lt;em&gt;Disease&lt;/em&gt;&lt;/a&gt;, was released on September 28, 2018.&lt;/p&gt;\n\n&lt;p&gt;Since the band started, Caleb has also ‘taken in’ 2 members, Oshie Bichar (Bass) and Kamron Bradbury (Guitar). The members of the group today (2018) are Caleb, Kamron, Oshie, Zach, and Connor.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Crown-the-empire', 'annotations': {'description': '&lt;p&gt;Crown The Empire is a &lt;a href="https://genius.com/tags/metalcore" rel="noopener"&gt;metalcore&lt;/a&gt; and &lt;a href="https://genius.com/tags/post-hardcore" rel="noopener"&gt;post-hardcore&lt;/a&gt; band from &lt;a href="https://www.tripadvisor.com/Tourism-g55711-Dallas_Texas-Vacations.html" rel="noopener nofollow"&gt;Dallas, Texas&lt;/a&gt;. They released their debut EP, &lt;em&gt;Limitless&lt;/em&gt;, in 2011, and have released two full-length concept albums: &lt;a href="https://genius.com/albums/Crown-the-empire/The-fallout-deluxe-reissue" rel="noopener" data-api_path="/albums/86878"&gt;&lt;em&gt;The Fallout&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/Crown-the-empire/The-resistance-rise-of-the-runaways" rel="noopener" data-api_path="/albums/107115"&gt;&lt;em&gt;The Resistance: Rise of the Runaways&lt;/em&gt;&lt;/a&gt; in 2012 and 2014 respectively. These records encapsulated the band’s ability to write albums with sophisticated and intriguing post-apocalyptic themes.&lt;/p&gt;\n\n&lt;p&gt;Their album, &lt;a href="https://genius.com/albums/Crown-the-empire/Retrograde" rel="noopener" data-api_path="/albums/155523"&gt;&lt;em&gt;Retrograde&lt;/em&gt;&lt;/a&gt;, was released on 22nd July, 2016 via &lt;a href="https://riserecords.com/" rel="noopener nofollow"&gt;Rise Records&lt;/a&gt; and moved away from their prior post-apocaplytic themes towards a more emotional and personal theme.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Bobaflex', 'annotations': {'description': '&lt;p&gt;BOBAFLEX is known as one of the hardest working bands in the country. Renowned for their high energy, live shows and relentless touring the band was formed in 1998 by brothers Shaun and Marty McCoy. The brothers are known for their ancestral ties to the most infamous family feud in American history between the Hatfield and McCoy.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Ashes-remain', 'annotations': {'description': '&lt;p&gt;Ashes Remain is an American Christian Rock band formed in Baltimore, Maryland in 2001&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Smile-empty-soul', 'annotations': {'description': '&lt;p&gt;Smile Empty Soul is an American hard rock band from Santa Clarita, California, United States.&lt;br&gt;\nFormed in 1998, while its original members were attending different high schools in the Santa Clarita area. The band, originally a three-piece group, consisted of vocalist and guitarist Sean Danielsen, bassist Ryan Martin and drummer Derek Gledhill.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Korn', 'annotations': {'description': '&lt;p&gt;Bakersfield friends James “Munky” Shaffer, Reginald “Fieldy” Arvizu and David Silveria &lt;a href="https://www.rollingstone.com/music/music-news/korns-1994-debut-lp-the-oral-history-of-the-most-important-metal-record-of-the-last-20-years-44821/" rel="noopener nofollow"&gt;formed the funk-rock band LAPD&lt;/a&gt; in 1989 and moved to Los Angeles with another friend Brian “Head” Welch as their roadie. Later, with Welch as second guitarist, the band named themselves Creep and recorded a demo with pal Ross Robinson.&lt;/p&gt;\n\n&lt;p&gt;However, when Shaffer and Welch visited family in Bakersfield, they met Jonathan Davis who added a darker, goth-tinged edge to the band’s heavy groove. &lt;a href="https://www.rollingstone.com/music/music-news/korns-1994-debut-lp-the-oral-history-of-the-most-important-metal-record-of-the-last-20-years-44821/" rel="noopener nofollow"&gt;Robinson recalled&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The band wasn’t dark yet; it had, like, killer grooves and good riffs, but there was some happy edge to it. And when (Davis) walked into the room, it went dark and goth. Basically, during the first song, to audition in the rehearsal room, he started freaking the hell out [laughs]. You couldn’t hear his voice, but you felt chills all over your body, and it was instantly like, “Oh my God, yeah – he’s the one.”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;They chose the name Korn (based on &lt;a href="https://www.youtube.com/watch?v=ZYnk4layQqs" rel="noopener nofollow"&gt;a gross story&lt;/a&gt; Davis once overheard) and recorded four songs &lt;a href="https://www.rollingstone.com/music/music-news/korns-1994-debut-lp-the-oral-history-of-the-most-important-metal-record-of-the-last-20-years-44821/" rel="noopener nofollow"&gt;inspired by acts like&lt;/a&gt; Pantera, Ice Cube, Duran Duran, Cypress Hill, The Cure, Primus and potentially anything in between. That demo attracted Immortal Records. Their debut album only peaked at #72 in the US, but over time became the seed that sprouted into a whole new style of heavy music most commonly called nu-metal. &lt;a href="https://noisey.vice.com/en_us/article/r7pbkg/rank-your-records-korn" rel="noopener nofollow"&gt;Davis explained&lt;/a&gt; in 2015:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;At the time in rock, there was nothing new or different, and it felt so stagnant. And here come these guys from Bakersfield with this bouncing sound, and I’m screaming my throat out, being super emotional and bringing up all this weird shit … It changed everything, man. And I’m not saying that because I was in the band, but I started seeing kids in baggy clothes and metal kids in Adidas.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Korn’s second album &lt;em&gt;Life Is Peachy&lt;/em&gt; began to expand the band’s sound from just dark and serious into frivolity, with a light-hearted cover of “Low Rider” and the band’s first almost-hit in the US “ADIDAS”. The formula worked in the UK where all three singles reached the top 30.&lt;/p&gt;\n\n&lt;p&gt;It was the band’s third album &lt;em&gt;Follow The Leader&lt;/em&gt;, another collection of dark songs mixed in with some silly ones, that broke the band in the US. Despite two of its singles only reaching the top 20 on two rock charts (but not crossing over to mainstream success), Korn became &lt;a href="https://noisey.vice.com/en_us/article/r7pbkg/rank-your-records-korn" rel="noopener nofollow"&gt;what Noisey called&lt;/a&gt; “the biggest band in the fucking world”.&lt;/p&gt;\n\n&lt;p&gt;With an established sound, the band continued releasing successful albums and playing to packed arenas through the 2000s. But aside from their experimental tenth album &lt;em&gt;The Path Of Totality&lt;/em&gt; – a mixing of metal and dubstep – their albums remained formulaic and predictable. They are still best remembered for their self-titled debut and third album &lt;em&gt;Follow The Leader&lt;/em&gt;. In 2005, it was common to refer to Korn as a band whose best albums are &lt;a href="https://www.nme.com/reviews/album/reviews-nme-6437" rel="noopener nofollow"&gt;their odd-numbered ones&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The received wisdom about Korn is that they deliver on the odd numbers. Album one, ‘Korn’, revitalised metal, dragging it out of the middle ages into the modern era. Album three, ‘Follow The Leader’, took the form into the mainstream, blowing boundaries and preconceptions. Album four, ‘Issues’, was dense and impenetrable.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Welch quit in 2005 after having “Revelation of Christ” and Silveria left silently in 2006, but years later &lt;a href="https://www.ultimate-guitar.com/news/general_music_news/jonathan_davis_on_david_silveria_reunion_never_never_again.html" rel="noopener nofollow"&gt;revealed&lt;/a&gt; one reason for leaving was that he “was being asked to be a puppet and dumb down my playing” while producers made “cookie cutter Korn songs”. Welch later rejoined in 2013.&lt;/p&gt;\n\n&lt;p&gt;The band’s lifestyles have changed drastically over the band’s three-decade career, moving away from the spoils of excess to inspiring others to overcome their addictions and depression. In 2016, Davis &lt;a href="https://www.theguardian.com/music/2016/oct/21/korn-serenity-of-suffering-jonathan-davis-interview" rel="noopener nofollow"&gt;told The Guardian&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Nothing brings more joy into my fucking heart than seeing our music help a kid who is depressed, or suicidal, or going through an episode. That’s the payoff to me, that’s why we keep coming out here, that’s why we keep making records. Because we like to see people smile.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;As of 2020, the band has released 13 albums. The first seven are certified platinum and the band is &lt;a href="https://www.rollingstone.com/music/music-news/korns-1994-debut-lp-the-oral-history-of-the-most-important-metal-record-of-the-last-20-years-44821/" rel="noopener nofollow"&gt;widely recognized as&lt;/a&gt; a pioneer of “one of heavy music’s biggest paradigm shifts”. They’re credited with creating the genre ‘nu-metal’ – a label &lt;a href="https://noisey.vice.com/en_us/article/r7pbkg/rank-your-records-korn" rel="noopener nofollow"&gt;Davis originally rejected&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I’d like to find that fucking writer that coined that term, nu-metal … Yeah, we’re heavy and downtuned, but metal, to me, is like Judas Priest and Iron Maiden. That’s metal, man. I always thought of us as a funk band, that funky groovy shit.&lt;/p&gt;&lt;/blockquote&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Adelitas-way', 'annotations': {'description': '&lt;p&gt;Adelitas Way is an American hard rock band from Las Vegas, Nevada, United States, formed in 2006 by lead singer and writer &lt;a href="https://genius.com/artists/Rick-dejesus" rel="noopener" data-api_path="/artists/1044899"&gt;Rick DeJesus&lt;/a&gt; &lt;a href="https://www.ticketfly.com/event/1041537-adelitas-way-lancaster/" rel="noopener nofollow"&gt;after he&lt;/a&gt; moved there from Philadelphia on a dare to audition for a show on VH1. The band name was &lt;a href="https://www.ticketfly.com/event/1526924-adelitas-way-lancaster/" rel="noopener nofollow"&gt;inspired by&lt;/a&gt; a visit to a bar in Tijuana, Mexico that turned out to be a brothel, and the sad stories told by the girls who worked there at the time.&lt;/p&gt;\n\n&lt;p&gt;Early shows with Chris Cornell, Hinder and Tantric helped generate enough industry buzz to get the band signed to Virgin Records. The band rose to fame when their debut single “Invincible” was featured on &lt;em&gt;CSI Miami&lt;/em&gt; and used as the theme song for the weekly &lt;em&gt;WWE Superstars&lt;/em&gt; show in 2009. It became their first of their seven top 10 US Active Rock Chart songs over a span of ten years.&lt;/p&gt;\n\n&lt;p&gt;Tours with Guns N Roses, Shinedown, Creed, Alter Bridge, Three Days Grace, Halestorm, Theory of a Deadman, Breaking Benjamin, The Pretty Reckless, and Godsmack have kept the band in the active rock spotlight over the years. As of 2020, the band has released six studio LP’s, &lt;em&gt;Shine On&lt;/em&gt; being their most recent, and one EP titled &lt;em&gt;Live, Love, Life&lt;/em&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+    <t>{'url': 'https://genius.com/artists/La-bouche', 'annotations': {'description': '&lt;p&gt;La Bouche is a duo, created in 1987. Their career started to take off when they released “Sweet Dreams” and “Be My Lover” which both were hits on the Billboard Hot 100, peaking at #13 and #6, respectively. In 2018, They came back with a new single called ‘Night After Night’.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Eurythmics', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://www.theguardian.com/music/2016/feb/13/dave-stewart-interview-annie-lennox-eurythmics-sweet-dreams-are-made-of-this" rel="noopener nofollow"&gt;While working&lt;/a&gt; as a waitress at a health food restaurant in London, Annie Lennox met Dave Stewart, with whom she formed the band Catch with singer-songwriter Peet Coombes. Catch &lt;a href="https://www.discogs.com/artist/2435996-The-Catch-2" rel="noopener nofollow"&gt;released one single&lt;/a&gt; before adding two more members and changing their name to The Tourists. Under that name, the band &lt;a href="https://www.officialcharts.com/artist/17717/tourists/" rel="noopener nofollow"&gt;scored five UK hits&lt;/a&gt; before Coombes\' substance abuse broke the band apart.&lt;/p&gt;\n\n&lt;p&gt;Lennox and Stewart continued writing together as Eurythmics, with Stewart moving from guitar to synthesizer and Lennox adopting an androgynous look. Within a few years, the duo was propelled into international stardom when “Sweet Dreams (Are Made Of This)”, a single from their second album, became a top ten hit in nine countries.&lt;/p&gt;\n\n&lt;p&gt;Over the decade, the duo moved away from their dark new wave sound and S&amp;amp;M imagery, evolving into a more mainstream synthpop and rock band. In that time, they scored &lt;a href="https://www.officialcharts.com/artist/27723/eurythmics/" rel="noopener nofollow"&gt;twenty-one&lt;/a&gt; UK top 40’s (ten of which were also US top 40 hits). In 1990, Eurythmics quietly disbanded and Lennox took a break from music to have her first child. Stewart collaborated Candy Dulfer and scored a top 20 hit in several countries around the world with “Lily Was Here”.&lt;/p&gt;\n\n&lt;p&gt;Stewart then formed Dave Stewart and the Spiritual Cowboys that year, releasing two albums. He also launched a successful career as a solo musician and producer, collaborating with several artists like Paul McCartney, Bono, Stevie Nicks and Mick Jagger. In 1992, Lennox began her own successful solo career, releasing several singles that reached the top 20 in at least nine countries around the world.&lt;/p&gt;\n\n&lt;p&gt;Lennox and Stewart reunited in 1999 for the album &lt;em&gt;Peace&lt;/em&gt;. It gave the group two more UK top 40 singles that also found additional scattered chart success overseas. That same year, the band &lt;a href="https://www.telegraph.co.uk/culture/music/brit-awards/11432476/The-Brit-Awards-most-successful-acts.html?frame=3210735" rel="noopener nofollow"&gt;won an award&lt;/a&gt; for Outstanding Contribution to British Music.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Bodyrockers', 'annotations': {'description': '&lt;p&gt;Bodyrockers were an Anglo-Irish / Australian Dance Rock Group consisting of Kaz James and Dylan Burns. The group released their first (and only) album in 2005 which featured the single “I Like The Way (You Move)”.&lt;br&gt;\nThis song was their biggest hit as it charted all over the globe.&lt;/p&gt;\n\n&lt;p&gt;After creating an unreleased second album, the duo disbanded shortly afterwards and worked on solo work on their own.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Franz-ferdinand', 'annotations': {'description': '&lt;p&gt;Franz Ferdinand are a Scottish rock band formed in 2002 and based in Glasgow. The band was originally composed of Alex Kapranos (lead vocals and guitar), Bob Hardy (bass guitar), Nick McCarthy (rhythm guitar, keyboards and backing vocals), and Paul Thomson (drums, percussion and backing vocals). Following McCarthy’s departure in 2016 after four albums and a full-length collaboration with &lt;a href="https://genius.com/artists/Sparks" rel="noopener" data-api_path="/artists/3490"&gt;Sparks&lt;/a&gt; using the name &lt;a href="https://genius.com/artists/Ffs" rel="noopener" data-api_path="/artists/341895"&gt;FFS&lt;/a&gt;, the band brought in Julian Corrie (keyboards, synthesizers, backing vocals) before working on their fifth album, &lt;a href="https://genius.com/albums/Franz-ferdinand/Always-ascending" rel="noopener" data-api_path="/albums/376692"&gt;&lt;em&gt;Always Ascending&lt;/em&gt;&lt;/a&gt;. After the album’s recording, they added Dino Bardot (guitar and backing vocals) to the line-up.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Sean-paul', 'annotations': {'description': '&lt;p&gt;Sean Paul Ryan Francis Henriques (born January 9, 1973), better known as Sean Paul is a Jamaican dancehall musician.&lt;/p&gt;\n\n&lt;p&gt;On March 28, 2000, he had released his debut studio album, &lt;a href="https://genius.com/albums/Sean-paul/Stage-one" rel="noopener" data-api_path="/albums/22227"&gt;&lt;em&gt;Stage One&lt;/em&gt;&lt;/a&gt;, through &lt;a href="https://genius.com/artists/Vp-records" rel="noopener" data-api_path="/artists/157515"&gt;VP Records&lt;/a&gt; and &lt;a href="https://genius.com/artists/Universal-music-group" rel="noopener" data-api_path="/artists/1104563"&gt;Universal Music Group&lt;/a&gt;. The album’s most notable song was its first single &lt;a href="https://genius.com/Sean-paul-deport-them-lyrics" rel="noopener" data-api_path="/songs/91093"&gt;“Deport Them”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;On November 12, 2002, Sean Paul released his second album, entitled &lt;a href="https://genius.com/albums/Sean-paul/Dutty-rock" rel="noopener" data-api_path="/albums/6553"&gt;&lt;em&gt;Dutty Rock&lt;/em&gt;&lt;/a&gt;, which later inspired him to name his own record label, &lt;a href="https://genius.com/artists/Dutty%20Rock%20Productions" rel="noopener" data-api_path="/artists/1336468"&gt;Dutty-rock-productions&lt;/a&gt;. The album’s most popular songs were the solo singles &lt;a href="https://genius.com/Sean-paul-like-glue-lyrics" rel="noopener" data-api_path="/songs/107606"&gt;“Like Glue”&lt;/a&gt; and &lt;a href="https://genius.com/Sean-paul-get-busy-lyrics" rel="noopener" data-api_path="/songs/33067"&gt;“Get Busy”&lt;/a&gt;, and his collaboration with singer &lt;a href="https://genius.com/artists/Beyonce" rel="noopener" data-api_path="/artists/498"&gt;Beyoncé&lt;/a&gt;, called &lt;a href="https://genius.com/Beyonce-baby-boy-lyrics" rel="noopener" data-api_path="/songs/81345"&gt;“Baby Boy”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;On September 27, 2005, Sean released his third studio album, &lt;a href="https://genius.com/albums/Sean-paul/The-trinity" rel="noopener" data-api_path="/albums/165398"&gt;&lt;em&gt;The Trinity&lt;/em&gt;&lt;/a&gt;, under the label &lt;a href="https://genius.com/artists/Atlantic-records" rel="noopener" data-api_path="/artists/68978"&gt;Atlantic Records&lt;/a&gt;. The project contains songs like &lt;a href="https://genius.com/Sean-paul-temperature-lyrics" rel="noopener" data-api_path="/songs/55368"&gt;“Temperature”&lt;/a&gt;, &lt;a href="https://genius.com/Sean-paul-ever-blazin-lyrics" rel="noopener" data-api_path="/songs/829779"&gt;“Ever Blazin\'”&lt;/a&gt; and &lt;a href="https://genius.com/Sean-paul-we-be-burnin-recognize-it-lyrics" rel="noopener" data-api_path="/songs/54129"&gt;“We Be Burnin\' (Recognize It)”&lt;/a&gt;, which serves as the radio edit of &lt;a href="https://genius.com/Sean-paul-we-be-burnin-legalize-it-lyrics" rel="noopener" data-api_path="/songs/334550"&gt;“We Be Burnin\' (Legalize It)”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;On August 18, 2009, Sean Paul released his fourth studio album, &lt;a href="https://genius.com/albums/Sean-paul/Imperial-blaze" rel="noopener" data-api_path="/albums/13349"&gt;&lt;em&gt;Imperial Blaze&lt;/em&gt;&lt;/a&gt;, via &lt;a href="https://genius.com/artists/Vp-records" rel="noopener" data-api_path="/artists/157515"&gt;VP Records&lt;/a&gt;. The most notable songs in the album are &lt;a href="https://genius.com/Sean-paul-press-it-up-lyrics" rel="noopener" data-api_path="/songs/829552"&gt;“Press It Up”&lt;/a&gt;, &lt;a href="https://genius.com/Sean-paul-so-fine-lyrics" rel="noopener" data-api_path="/songs/75931"&gt;“So Fine”&lt;/a&gt; and &lt;a href="https://genius.com/Sean-paul-hold-my-hand-lyrics" rel="noopener" data-api_path="/songs/829962"&gt;“Hold My Hand”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;On January 24, 2012, he had released his fifth studio album, entitled &lt;a href="https://genius.com/albums/Sean-paul/Tomahawk-technique" rel="noopener" data-api_path="/albums/219947"&gt;&lt;em&gt;Tomahawk Technique&lt;/em&gt;&lt;/a&gt;, under the label &lt;a href="https://genius.com/artists/Atlantic-records" rel="noopener" data-api_path="/artists/68978"&gt;Atlantic Records&lt;/a&gt;. The project contains songs like &lt;a href="https://genius.com/Sean-paul-she-doesnt-mind-lyrics" rel="noopener" data-api_path="/songs/66696"&gt;“She Doesn’t Mind”&lt;/a&gt;, &lt;a href="https://genius.com/Sean-paul-body-lyrics" rel="noopener" data-api_path="/songs/829432"&gt;“Body”&lt;/a&gt;, and &lt;a href="https://genius.com/Sean-paul-got-2-luv-u-lyrics" rel="noopener" data-api_path="/songs/59823"&gt;“Got 2 Luv U”&lt;/a&gt;, which features &lt;a href="https://genius.com/artists/Alexis-jordan" rel="noopener" data-api_path="/artists/15103"&gt;Alexis Jordan&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Sean P. F. Henriques', 'Sean Henriques', 'Sean Paul Francis Henriques', 'Dutty Paul']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Coldplay', 'annotations': {'description': '&lt;p&gt;Coldplay is a British rock band, formed in 1997 by University College London classmates &lt;a href="https://genius.com/artists/Chris-martin" rel="noopener" data-api_path="/artists/353"&gt;Chris Martin&lt;/a&gt; (vocals, guitar, piano), &lt;a href="https://genius.com/artists/Jonny-buckland" rel="noopener" data-api_path="/artists/182604"&gt;Jonny Buckland&lt;/a&gt; (guitar) and &lt;a href="https://genius.com/artists/Guy-berryman" rel="noopener" data-api_path="/artists/173684"&gt;Guy Berryman&lt;/a&gt; (bass), along with drummer &lt;a href="https://genius.com/artists/Will-champion" rel="noopener" data-api_path="/artists/182605"&gt;Will Champion&lt;/a&gt;. The band’s name comes from &lt;a href="https://web.archive.org/web/20170809171008/http://www.coldplay.com/newsdetail.php?id=80" rel="noopener nofollow"&gt;Tim Crompton&lt;/a&gt;, a student who was in the same university as the members (University College London) at the time. They were previously known as Pectoralz, then changed their name to Starfish in 1997 &lt;a href="https://kiisfm.iheart.com/content/2021-06-15-24-facts-you-need-to-know-about-our-2021-iheartradio-music-festival-lineup/" rel="noopener nofollow"&gt;before finally settling on the name Coldplay&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Once they issued their debut, &lt;em&gt;&lt;a href="https://genius.com/albums/Coldplay/Parachutes" rel="noopener" data-api_path="/albums/18002"&gt;Parachutes&lt;/a&gt;&lt;/em&gt; in 2000, many saw them as a &lt;a href="https://genius.com/artists/Radiohead" rel="noopener" data-api_path="/artists/604"&gt;Radiohead&lt;/a&gt; knock-off. No doubt, Coldplay’s sound —elegant, melodic, vaguely spacey and very dramatic — bore plenty of similarity to mid-1990s Radiohead. But the group’s hooks, sharpened by frontman Chris Martin’s ability to pull heartstrings, and the their willingness to evolve their sound, gave Coldplay staying power. The greatest examples are second album &lt;em&gt;&lt;a href="https://genius.com/albums/Coldplay/A-rush-of-blood-to-the-head" rel="noopener" data-api_path="/albums/17979"&gt;A Rush of Blood to the Head&lt;/a&gt;&lt;/em&gt; (2002), which was generally considered to be musically and lyrically more mature and sophisticated, and less obviously the product of one particular influence, and the fourth one &lt;em&gt;&lt;a href="https://genius.com/albums/Coldplay/A-rush-of-blood-to-the-head" rel="noopener" data-api_path="/albums/17979"&gt;Viva La Vida or Death and All His Friends&lt;/a&gt;&lt;/em&gt; (2008), where producer &lt;a href="https://genius.com/artists/Brian-eno" rel="noopener" data-api_path="/artists/29972"&gt;Brian Eno&lt;/a&gt; influenced the band to broaden their sound and led to various sonic landscapes. Both won the Grammy Award for Best Rock Album and spawned sucessful singles such as &lt;a href="https://genius.com/Coldplay-clocks-lyrics" rel="noopener" data-api_path="/songs/53753"&gt;“Clocks”&lt;/a&gt;, &lt;a href="https://genius.com/Coldplay-viva-la-vida-lyrics" rel="noopener" data-api_path="/songs/49192"&gt;“Viva la Vida”&lt;/a&gt;, &lt;a href="https://genius.com/Coldplay-in-my-place-lyrics" rel="noopener" data-api_path="/songs/77596"&gt;“In My Place”&lt;/a&gt;, &lt;a href="https://genius.com/Coldplay-violet-hill-lyrics" rel="noopener" data-api_path="/songs/64086"&gt;“Violet Hill”&lt;/a&gt; and &lt;a href="https://genius.com/Coldplay-the-scientist-lyrics" rel="noopener" data-api_path="/songs/77594"&gt;“The Scientist”&lt;/a&gt;.&lt;br&gt;\nColdplay also proved they can use truly rock sounds in their albums, as shown in &lt;a href="https://genius.com/albums/Coldplay/X-y" rel="noopener" data-api_path="/albums/11506"&gt;&lt;em&gt;X&amp;amp;Y&lt;/em&gt;&lt;/a&gt;, and juggle with more electronics albums like &lt;a href="https://genius.com/albums/Coldplay/Mylo-xyloto" rel="noopener" data-api_path="/albums/12250"&gt;&lt;em&gt;Mylo Xyloto&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Coldplay/Ghost-stories" rel="noopener" data-api_path="/albums/85921"&gt;&lt;em&gt;Ghost Stories&lt;/em&gt;&lt;/a&gt; or &lt;a href="https://genius.com/albums/Coldplay/A-head-full-of-dreams" rel="noopener" data-api_path="/albums/134218"&gt;&lt;em&gt;A Head Full of Dreams&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;As a result, the band became one of the most commercially successful acts of the new millennium, with over 80 million albums sold – even if along with the acclaim came a vocal opposition, due to the supposedly derivative nature, the overtly emotional lyrics, and the fact they’re good-mannered English boys instead of wild rockstars. As a result, Coldplay are thought as either a punchline showing all that’s wrong with 21st century rock, or a really good if overplayed band with songs tailor made for stadium performances.&lt;/p&gt;', 'alternate_names': ['Starfish']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Jamiroquai', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Jamiroquai&lt;/strong&gt; is an acid-jazz band formed in London in 1992. It’s led by frontman &lt;a href="https://genius.com/artists/Jason-kay" rel="noopener" data-api_path="/artists/2521215"&gt;Jay Kay&lt;/a&gt;, the band’s best-known and only remaining original member. Early Jamiroquai records were known for the use of a didgeridoo, played by &lt;a href="https://genius.com/artists/Wallis-buchanan" rel="noopener" data-api_path="/artists/989947"&gt;Wallis Buchanan&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The name “Jamiroquai” is a portmanteau of “jam session” and the Native American “Iroquoi” tribe. Jay Kay’s interest in Native Americans can be seen clearly in the video for &lt;a href="https://genius.com/Jamiroquai-too-young-to-die-lyrics" rel="noopener" data-api_path="/songs/2165125"&gt;“Too Young To Die.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;As of January 2017, Jamiroquai is:&lt;br&gt;\n– Jay Kay&lt;br&gt;\n– &lt;a href="https://genius.com/artists/Derrick-mckenzie" rel="noopener" data-api_path="/artists/514811"&gt;Derrick McKenzie&lt;/a&gt;&lt;br&gt;\n– &lt;a href="https://genius.com/artists/Sola-akingbola" rel="noopener" data-api_path="/artists/989949"&gt;Sola Akingbola&lt;/a&gt;&lt;br&gt;\n– &lt;a href="https://genius.com/artists/Rob-harris" rel="noopener" data-api_path="/artists/430309"&gt;Rob Harris&lt;/a&gt;&lt;br&gt;\n– &lt;a href="https://genius.com/artists/Matthew-johnson" rel="noopener" data-api_path="/artists/669257"&gt;Matthew Johnson&lt;/a&gt;&lt;br&gt;\n– &lt;a href="https://genius.com/artists/Paul-turner" rel="noopener" data-api_path="/artists/531823"&gt;Paul Turner&lt;/a&gt;&lt;br&gt;\n– Jim Corry&lt;br&gt;\n– Malcolm Strachan&lt;/p&gt;\n\n&lt;p&gt;The group’s 7th album titled &lt;a href="https://genius.com/albums/Jamiroquai/Automaton" rel="noopener" data-api_path="/albums/327380"&gt;&lt;em&gt;Automaton&lt;/em&gt;&lt;/a&gt; was released on 31 March, 2017, nearly 6,5 years after the release of &lt;a href="https://genius.com/albums/Jamiroquai/Rock-dust-light-star" rel="noopener" data-api_path="/albums/125040"&gt;&lt;em&gt;Rock Dust Light Star.&lt;/em&gt;&lt;/a&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/David-bowie', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://www.davidbowie.com/" rel="noopener nofollow"&gt;David Bowie&lt;/a&gt; (1947 – 2016) was a British musician, and one of the most iconic rock stars with a widely diverse career where he frequently changed his appearance and musical style, resulting in an acclaimed  discography comparable to other stalwarts such as &lt;a href="https://genius.com/artists/The-beatles" rel="noopener" data-api_path="/artists/586"&gt;The Beatles&lt;/a&gt; and &lt;a href="https://genius.com/artists/Bob-dylan" rel="noopener" data-api_path="/artists/181"&gt;Bob Dylan&lt;/a&gt;. In 1966 David Robert Jones chose the surname “Bowie” (as in a Bowie knife, or a Jagger) to cut out any association with teen idol &lt;a href="https://genius.com/artists/Davy-jones" rel="noopener" data-api_path="/artists/386169"&gt;Davy Jones&lt;/a&gt;. Enduring many early missteps, his music had a seminal lift-off with &lt;a href="https://genius.com/David-bowie-space-oddity-lyrics" rel="noopener" data-api_path="/songs/112817"&gt;“Space Oddity”&lt;/a&gt;, used in the BBC’s coverage of the 1969 &lt;a href="http://www.telegraph.co.uk/news/science/space/5871370/Apollo-11-moon-landing-Moon-music.html" rel="noopener nofollow"&gt;Apollo 11 moon landing&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The single rose to #5 in the UK charts as a result of his Top of the Pops performance.  The sci-fi rubric of the song about a fictional character, Major Tom, foreshadowed his future 1972 breakthrough.  In the meantime, Bowie remained a cult figure. 1971’s landmark album, &lt;a href="https://genius.com/albums/David-bowie/Hunky-dory" rel="noopener" data-api_path="/albums/24468"&gt;&lt;em&gt;Hunky Dory&lt;/em&gt;&lt;/a&gt; went largely unnoticed, despite being his first Major RCA release.&lt;/p&gt;\n\n&lt;p&gt;By early 1972, Bowie not only commanded notice, he set the plaform(s) for a genre.  His alter-ego, an androgynous alien that dazzled and shocked, did not mask the brilliance of his musical acumen: it put the public spotlight on it.  Cut from the punk rock performance debauchery of &lt;a href="https://genius.com/artists/Iggy-pop" rel="noopener" data-api_path="/artists/21273"&gt;Iggy Pop&lt;/a&gt; with the alternative underground, aloof artistry of &lt;a href="https://genius.com/artists/Lou-reed" rel="noopener" data-api_path="/artists/13277"&gt;Lou Reed&lt;/a&gt;, Ziggy Stardust was the main-man-alien lead in his conceptual &lt;a href="https://genius.com/albums/David-bowie/The-rise-and-fall-of-ziggy-stardust-and-the-spiders-from-mars" rel="noopener" data-api_path="/albums/18495"&gt;breakthrough album&lt;/a&gt;, and the public persona which haunted him beyond Ziggy’s expiration date.  Ziggy’s “fall” in the plot of the album’s theme took on an ambiguous direction, which drove &lt;a href="https://genius.com/albums/David-bowie/alladin-sane" rel="noopener"&gt;&lt;em&gt;Aladdin Sane&lt;/em&gt;&lt;/a&gt;’s zigzagging broader musical strokes without a conceptual framework.  And yet it framed, over time, the penultimate image of Ziggy, as an icon, emblem, fashion-plate, rock-saint, emoji, etc.&lt;/p&gt;\n\n&lt;p&gt;Bowie used his new-found popularity to move to America, and dabble with new musical directions and cocaine. &lt;a href="https://genius.com/albums/David-bowie/diamond-dogs" rel="noopener" data-api_path="/albums/46048"&gt;&lt;em&gt;Diamond Dogs&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/David-bowie/young-americans" rel="noopener" data-api_path="/albums/76501"&gt;&lt;em&gt;Young Americans&lt;/em&gt;&lt;/a&gt; continue to divide critics, but &lt;a href="https://genius.com/albums/David-bowie/station-to-station" rel="noopener" data-api_path="/albums/32130"&gt;&lt;em&gt;Station To Station&lt;/em&gt;&lt;/a&gt; found Bowie at a new creative peak, despite escalating drug use and related health issues.&lt;/p&gt;\n\n&lt;p&gt;Moving back to Europe helped Bowie reach even greater musical heights. He recorded his iconic “Berlin Trilogy” – &lt;a href="https://genius.com/albums/David-bowie/low" rel="noopener" data-api_path="/albums/28910"&gt;&lt;em&gt;Low&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/David-bowie/heroes" rel="noopener" data-api_path="/albums/28200"&gt;&lt;em&gt;“Heroes”&lt;/em&gt;&lt;/a&gt;, and &lt;a href="https://genius.com/albums/David-bowie/Lodger" rel="noopener" data-api_path="/albums/76513"&gt;&lt;em&gt;Lodger&lt;/em&gt;&lt;/a&gt;, with &lt;a href="https://genius.com/artists/Brian-eno" rel="noopener" data-api_path="/artists/29972"&gt;Brian Eno&lt;/a&gt; and &lt;a href="https://genius.com/artists/Tony-visconti" rel="noopener" data-api_path="/artists/37268"&gt;Tony Visconti&lt;/a&gt; (despite the name, only &lt;em&gt;Heroes&lt;/em&gt; was recorded in Berlin), and produced Iggy Pop’s first two solo albums. This was followed by the hard-rocking &lt;a href="https://genius.com/albums/David-bowie/Scary-monsters-and-super-creeps" rel="noopener" data-api_path="/albums/76520"&gt;&lt;em&gt;Scary Monsters (And Super Creeps)&lt;/em&gt;&lt;/a&gt;, and disco-influenced &lt;a href="https://genius.com/albums/David-bowie/Let-s-dance" rel="noopener" data-api_path="/albums/26657"&gt;&lt;em&gt;Let’s Dance&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Bowie entered a period of critical apathy during the 1980s, as albums like &lt;a href="https://genius.com/albums/David-bowie/Tonight" rel="noopener" data-api_path="/albums/76500"&gt;&lt;em&gt;Tonight&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/David-bowie/Never-let-me-down" rel="noopener" data-api_path="/albums/76508"&gt;&lt;em&gt;Never Let Me Down&lt;/em&gt;&lt;/a&gt; fell relatively flat. These were his &lt;a href="https://genius.com/artists/Tin-machine" rel="noopener" data-api_path="/artists/359829"&gt;Tin Machine&lt;/a&gt; days, and they paved the way for a renaissance of huge proportions, with albums such as &lt;a href="https://genius.com/albums/David-bowie/1-outside" rel="noopener" data-api_path="/albums/76519"&gt;&lt;em&gt;1. Outside&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/David-bowie/Earthling" rel="noopener" data-api_path="/albums/76522"&gt;&lt;em&gt;Earthling&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/David-bowie/Heathen" rel="noopener" data-api_path="/albums/47864"&gt;&lt;em&gt;Heathen&lt;/em&gt;&lt;/a&gt;, and &lt;a href="https://genius.com/albums/David-bowie/Reality" rel="noopener" data-api_path="/albums/76523"&gt;&lt;em&gt;Reality&lt;/em&gt;&lt;/a&gt; reclaiming his status as a number one pop star. Radio silence then ensued for much of the 2000s, until he surprisingly issued 2013’s &lt;a href="https://genius.com/albums/David-bowie/The-next-day" rel="noopener" data-api_path="/albums/26468"&gt;&lt;em&gt;The Next Day&lt;/em&gt;&lt;/a&gt;, recorded in secret and released to critical acclaim.&lt;/p&gt;\n\n&lt;p&gt;David Bowie passed away on January 10, 2016, due to cancer, two days after his 69th birthday and the release of his final album, &lt;a href="https://genius.com/albums/David-bowie/Blackstar" rel="noopener" data-api_path="/albums/138144"&gt;&lt;em&gt;Blackstar&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['David R. Jones', 'Ziggy Stardust', 'David Robert Jones']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Sean-kingston', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Kisean Paul Anderson']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Black-eyed-peas', 'annotations': {'description': '&lt;p&gt;The Black Eyed Peas is a hip-hop and pop group, currently consisting of rappers &lt;a href="https://genius.com/artists/William" rel="noopener" data-api_path="/artists/713"&gt;will.i.am,&lt;/a&gt; &lt;a href="https://genius.com/artists/Apldeap" rel="noopener" data-api_path="/artists/47060"&gt;apl.de.ap,&lt;/a&gt; &lt;a href="https://genius.com/artists/Taboo" rel="noopener" data-api_path="/artists/5181"&gt;Taboo,&lt;/a&gt; and singer &lt;a href="https://genius.com/artists/Jessica-reynoso" rel="noopener" data-api_path="/artists/324362"&gt;Jessica Reynoso.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Originally, The Black Eyed Peas were a hip-hop group, standing alongside the likes of &lt;a href="https://genius.com/artists/Talib-kweli" rel="noopener" data-api_path="/artists/388"&gt;Talib Kweli&lt;/a&gt; and &lt;a href="https://genius.com/artists/Jurassic-5" rel="noopener" data-api_path="/artists/1191"&gt;Jurassic 5.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/a95485251f6d98334766291552e4008a.400x318x1.jpg" alt="" width="400" height="318" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;In the early 2000s, they started to add pop and EDM influences to their music. They subsequently added &lt;a href="https://genius.com/artists/Fergie" rel="noopener" data-api_path="/artists/950"&gt;Fergie&lt;/a&gt; to the group and became the pop sensations that they became from 2003 to 2011. Fergie eventually left in 2018 and the Peas returned to their hip-hop roots.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Kid-cudi', 'annotations': {'description': '&lt;p&gt;Kid Cudi, born Scott Ramon Seguro Mescudi on January 30, 1984, is an American recording artist from Cleveland, Ohio.&lt;/p&gt;\n\n&lt;p&gt;His debut single &lt;a href="https://genius.com/Kid-cudi-day-n-nite-nightmare-lyrics" rel="noopener" data-api_path="/songs/131"&gt;“Day ‘n’ Nite”&lt;/a&gt; became an online favorite in 2008. Based in Brooklyn, he first became affiliated with &lt;a href="https://en.wikipedia.org/wiki/Fool%27s_Gold_Records" rel="noopener nofollow"&gt;Fool’s Gold&lt;/a&gt;, the label of DJs &lt;a href="https://genius.com/artists/A-trak" rel="noopener" data-api_path="/artists/2906"&gt;A-Trak&lt;/a&gt; and &lt;a href="https://genius.com/artists/nick-catchdubs" rel="noopener" data-api_path="/artists/49829"&gt;Nick Catchdubs&lt;/a&gt;. After releasing his popular mixtape &lt;a href="https://genius.com/albums/Kid-cudi/A-kid-named-cudi" rel="noopener" data-api_path="/albums/4424"&gt;&lt;em&gt;A Kid Named Cudi&lt;/em&gt;&lt;/a&gt;, Cudi’s career took off as he got associated with &lt;a href="https://genius.com/artists/Kanye-west" rel="noopener" data-api_path="/artists/72"&gt;Kanye West&lt;/a&gt; and joined his label &lt;a href="http://en.wikipedia.org/wiki/GOOD_Music" rel="noopener nofollow"&gt;G.O.O.D Music&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;His catalog currently counts 7 solo studio albums, entitled: &lt;a href="https://genius.com/albums/Kid-cudi/Man-on-the-moon-the-end-of-day" rel="noopener" data-api_path="/albums/4427"&gt;&lt;em&gt;Man on the Moon: The End of Day&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Kid-cudi/Man-on-the-moon-ii-the-legend-of-mr-rager" rel="noopener" data-api_path="/albums/4428"&gt;&lt;em&gt;Man on the Moon II: The Legend of Mr. Rager&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Kid-cudi/Indicud" rel="noopener" data-api_path="/albums/20193"&gt;&lt;em&gt;Indicud&lt;/em&gt;&lt;/a&gt; which was released after Cudi &lt;a href="http://hypetrak.com/2013/04/kid-cudi-leaves-good-music/" rel="noopener nofollow"&gt;famously departed from GOOD Music&lt;/a&gt; and the latest ones &lt;a href="https://genius.com/albums/Kid-cudi/Satellite-flight-the-journey-to-mother-moon" rel="noopener" data-api_path="/albums/67138"&gt;&lt;em&gt;Satellite Flight: The Journey To Mother Moon&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Kid-cudi/Speedin-bullet-2-heaven" rel="noopener" data-api_path="/albums/128397"&gt;&lt;em&gt;Speedin\' Bullet To Heaven&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Kid-cudi/Passion-pain-demon-slayin" rel="noopener" data-api_path="/albums/152011"&gt;&lt;em&gt;Passion, Pain &amp;amp; Demon Slayin\'&lt;/em&gt;&lt;/a&gt;, and the long anticipated &lt;a href="https://genius.com/albums/Kid-cudi/man-on-the-moon-iii-the-chosen" rel="noopener" data-api_path="/albums/692902"&gt;&lt;em&gt;Man on the Moon III: The Chosen&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In addition, Cudi released an alternative rock album with long-time friend and collaborator &lt;a href="https://genius.com/artists/dot-da-genius" rel="noopener" data-api_path="/artists/11845"&gt;Dot Da Genius&lt;/a&gt; in duo group &lt;a href="https://genius.com/artists/Wzrd" rel="noopener" data-api_path="/artists/15049"&gt;WZRD&lt;/a&gt;, as well as a &lt;a href="https://genius.com/albums/Kids-see-ghosts/Kids-see-ghosts" rel="noopener" data-api_path="/albums/425948"&gt;collaborative album&lt;/a&gt; with on-again-off-again friend &lt;a href="https://genius.com/artists/Kanye-west" rel="noopener" data-api_path="/artists/72"&gt;Kanye West&lt;/a&gt; as duo group &lt;a href="https://genius.com/artists/kids-see-ghosts" rel="noopener" data-api_path="/artists/1464821"&gt;Kids See Ghosts&lt;/a&gt;. Cudi has also been featured on the G.O.O.D Music projects: &lt;a href="https://genius.com/albums/Good-music-group/Cruel-summer" rel="noopener"&gt;&lt;em&gt;Cruel Summer&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/Kanye-west/G-o-o-d-fridays" rel="noopener" data-api_path="/albums/14775"&gt;&lt;em&gt;G.O.O.D. Fridays&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['King WZRD', 'S. R. S. Mescudi', 'Scott R. S. Mescudi', 'Scott S. Mescudi', 'Scott R. Mescudi', 'Scott Ramon Mescudi', 'Scott Seguro Mescudi', 'Cud Life', 'King Cudi', 'Scott Mescudi', 'The Man on the Moon', 'Mr. Solo Dolo', 'Scott Ramon Seguro Mescudi', 'Cudi', 'Cudder', 'Mr. Rager', 'King Wizard']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Erasure', 'annotations': {'description': '&lt;p&gt;&lt;img src="https://images.rapgenius.com/49fb726842ac1beeb5661ce204e0c7a7.906x428x1.jpg" alt="" width="906" height="428" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Erasure are an English synthpop duo that formed in London in 1985. Since then, singer/lyricist &lt;a href="https://genius.com/artists/Andy-bell" rel="noopener" data-api_path="/artists/350629"&gt;Andy Bell&lt;/a&gt; (left) and composer/producer &lt;a href="https://genius.com/artists/Vince-clarke" rel="noopener" data-api_path="/artists/494624"&gt;Vince Clarke&lt;/a&gt; (right) have unleashed 18 albums and dozens of singles and EPs onto the charts. Their latest album, &lt;a href="https://genius.com/albums/Erasure/The-neon" rel="noopener" data-api_path="/albums/643348"&gt;&lt;em&gt;The Neon&lt;/em&gt;&lt;/a&gt;, is slated for release on August 2020.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Madonna', 'annotations': {'description': '&lt;p&gt;With more than 335 million copies of her albums sold, &lt;strong&gt;Madonna&lt;/strong&gt; is the most successful female artist of all time.&lt;/p&gt;\n\n&lt;p&gt;Her career as a singer, songwriter, producer and entertainer has spanned almost 40 years, with the release of 14 studio albums, making her impact on pop culture undeniable, inspiring almost every big female act to come up after her.&lt;/p&gt;\n\n&lt;p&gt;An activist against racism, LGBTQphobia and sexism through almost all of her career, she has brought up several controversial topics to the pop music scene such as abortion, sexual freedom, female empowerment and the search for fame.&lt;/p&gt;', 'alternate_names': ['The Queen of Pop', 'Madonna Ciccone', 'Madonna Louise Ciccone', 'Madonna Louise Veronica Ciccone']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Bastille', 'annotations': {'description': '&lt;p&gt;Bastille is a British indie pop band. After releasing &lt;a href="https://www.discogs.com/Bastille-Flaws/release/3697903" rel="noopener nofollow"&gt;a limited single&lt;/a&gt; in 2010 and the &lt;a href="https://www.discogs.com/Bastille-Laura-Palmer-EP/release/5534706" rel="noopener nofollow"&gt;Laura Palmer EP&lt;/a&gt; in 2011, the band was &lt;a href="https://www.musicweek.com/news/read/emi-signs-bastille-and-eric-prydz-to-virgin-records/047494" rel="noopener nofollow"&gt;signed to Virgin Records&lt;/a&gt;. Following their signing, the band released two mix-tapes – &lt;a href="https://genius.com/albums/Bastille/Other-people-s-heartache" rel="noopener" data-api_path="/albums/43947"&gt;&lt;em&gt;Other People’s Heartache&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/Bastille/Other-people-s-heartache-pt-2" rel="noopener" data-api_path="/albums/109619"&gt;&lt;em&gt;Other People’s Heartache Pt. 2&lt;/em&gt;&lt;/a&gt; — for free. In &lt;a href="https://www.theguardian.com/music/2014/jan/23/bastille-weve-enjoyed-proving-people-wrong" rel="noopener nofollow"&gt;an interview with &lt;em&gt;The Guardian&lt;/em&gt;&lt;/a&gt;, Dan Smith discussed the mixtapes:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Someone recently said to us: ‘The mixtapes were very clever, was that the label’s idea?’ Actually the label were completely against it; we were stealing and sampling illegally left, right and centre. The label said: ‘We want nothing to do with this.’ When it came to hosting the mixtapes, I had to register the website myself.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/a3c564f64111e77b0d1f1ec5caf9d50a.600x400x1.jpg" alt="" width="600" height="400" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Preceding the release of their debut album, &lt;a href="https://genius.com/albums/Bastille/Bad-blood" rel="noopener" data-api_path="/albums/30558"&gt;&lt;em&gt;Bad Blood&lt;/em&gt;&lt;/a&gt;, the band released several singles — &lt;a href="https://genius.com/Bastille-overjoyed-lyrics" rel="noopener" data-api_path="/songs/349744"&gt;“Overjoyed”&lt;/a&gt;, &lt;a href="https://genius.com/Bastille-bad-blood-lyrics" rel="noopener" data-api_path="/songs/201672"&gt;“Bad Blood”&lt;/a&gt; and &lt;a href="https://genius.com/Bastille-flaws-lyrics" rel="noopener" data-api_path="/songs/261175"&gt;“Flaws”&lt;/a&gt;— to moderate commercial success. In February 2013, the band was catapulted into the charts by the album’s fourth single, &lt;a href="https://genius.com/Bastille-pompeii-lyrics" rel="noopener" data-api_path="/songs/133381"&gt;“Pompeii”&lt;/a&gt;. The song was &lt;a href="http://goo.gl/QRwhwa" rel="noopener nofollow"&gt;a commercial hit&lt;/a&gt;, going &lt;a href="http://goo.gl/GCv38Y" rel="noopener nofollow"&gt;up to 5x Platinum around the world&lt;/a&gt;. In June 2014, “Pompeii” was confirmed to be the &lt;a href="http://www.officialcharts.com/chart-news/the-top-10-most-streamed-songs-and-artists-of-all-time-revealed-__4249/" rel="noopener nofollow"&gt;United Kingdom’s most streamed song&lt;/a&gt; ever. Unfortunately, it has since &lt;a href="https://en.wikipedia.org/wiki/List_of_most_streamed_songs_in_the_United_Kingdom#Most_streamed_songs" rel="noopener nofollow"&gt;been overtaken&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Bad Blood&lt;/em&gt; was released in March 2013 and reissued as &lt;a href="https://genius.com/albums/Bastille/All-this-bad-blood" rel="noopener" data-api_path="/albums/75074"&gt;&lt;em&gt;All This Bad Blood&lt;/em&gt;&lt;/a&gt; in November that year to include bonus tracks and the &lt;em&gt;Other People’s Heartache&lt;/em&gt; mixtapes.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/29ddd0e0a627a9d7108a6c5846153e75.636x421x1.jpg" alt="" width="636" height="421" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;In 2014, the band released &lt;a href="https://genius.com/albums/Bastille/Vs-other-people-s-heartache-pt-iii" rel="noopener" data-api_path="/albums/113882"&gt;&lt;em&gt;VS. (Other People’s Heartache Pt. III)&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In September 2016, the band released their hotly anticipated sophomore album, &lt;a href="https://genius.com/albums/Bastille/Wild-world" rel="noopener" data-api_path="/albums/154570"&gt;&lt;em&gt;Wild World&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In June 2019 the band has released their 3rd studio album &lt;a href="https://genius.com/albums/Bastille/Doom-days" rel="noopener" data-api_path="/albums/425185"&gt;&lt;em&gt;Doom Days,&lt;/em&gt;&lt;/a&gt; which was described by Dan as an “apocalyptic party album.” &lt;a href="https://genius.com/albums/Bastille/Doom-days-this-got-out-of-hand" rel="noopener" data-api_path="/albums/583438"&gt;An extended version&lt;/a&gt; of the album was then released in December of 2019.&lt;/p&gt;\n\n&lt;p&gt;The band consists of lead singer &lt;a href="https://genius.com/artists/Dan-smith" rel="noopener" data-api_path="/artists/43323"&gt;Dan Smith,&lt;/a&gt; keyboardist &lt;a href="https://genius.com/artists/Kyle-simmons" rel="noopener" data-api_path="/artists/1004461"&gt;Kyle Simmons,&lt;/a&gt; bassist and guitarist &lt;a href="https://genius.com/artists/Will-farquarson" rel="noopener" data-api_path="/artists/1805068"&gt;Will Farquarson,&lt;/a&gt; and drummer &lt;a href="https://genius.com/artists/Chris-woody-wood" rel="noopener" data-api_path="/artists/659373"&gt;Chris “Woody” Wood&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['BΔSTILLE']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Kenny-loggins', 'annotations': {'description': '&lt;p&gt;Singer, songwriter, and guitarist Kenny Loggins has enjoyed more than three decades of success in the music business, as a songwriter and performer, mostly in a soft rock vein. He was born Kenneth Clarke Loggins in Everett, WA in early 1948, and the family later moved to Detroit, and finally to Alhambra, CA when he was in his teens. He initially turned to music as a way of compensating for his extreme shyness, and found that he was, indeed, a talented guitarist and had a voice. For a time in the late ‘60s he was based in Pasadena, studying at Pasadena City College. At the end of the decade, Loggins passed through the lineup of a band called Gator Creek, who were good enough to get signed to Mercury Records. The group recorded one self-titled album, which was issued in 1970 and included an early version of “Danny’s Song,” a track that he later recorded again as part of Loggins &amp;amp; Messina. He also spent time with a short-lived group called Second Helping, and was a member of the stage incarnation of the Electric Prunes during a later phase of that group’s history.&lt;br&gt;\nLoggins was proficient on the guitar and piano, but it was his songwriting that allowed him to make his first lasting impression on the music industry. He took a job as a staff writer for Wingate Music, for $100.00 a week, and later that year four of his songs ended up on the Nitty Gritty Dirt Band album Uncle Charlie &amp;amp; His Dog Teddy. This event was particularly fortuitous, as that album was the first release by the newly reconstituted version of the group, and included what proved to be their biggest hit, “Mr. Bojangles.” The presence of the latter helped make Uncle Charlie one of the group’s biggest selling long-players; and the exposure generated a second hit in the form of Loggins’ own “House at Pooh Corner.”&lt;br&gt;\nThe success of the Nitty Gritty Dirt Band’s recordings brought Loggins to the attention of former Poco member Jim Messina, who was working as a staff producer at CBS. It was Messina’s intention to produce Loggins\' debut album, but he also ended up playing and singing on the record, and it worked out so well that the two ended up in a duo. Loggins &amp;amp; Messina were among the most popular folk-based soft rock acts of the first half of the ‘70s and enjoyed a four-year string of successful albums.&lt;br&gt;\nLoggins &amp;amp; Messina broke up in 1976, and Loggins retained a strong following in the years immediately after. He went on to solo stardom with such million-selling albums as Celebrate Me Home, Nightwatch (which included the hit “Whenever I Call You Friend”), and Keep the Fire, all in the cheerful, sensitive style he had displayed in Loggins &amp;amp; Messina. Loggins also became known as the king of the movie soundtrack song, scoring Top Ten hits with “I’m Alright” (from Caddyshack), “Footloose” (from Footloose), “Danger Zone” (from Top Gun), and “Nobody’s Fool” (from Caddyshack II). During this period, he was also one of the participants in USA for Africa on the benefit recording “We Are the World.” His own albums sold less well (and came less frequently) throughout the \'80s, with later efforts like 1991’s Leap of Faith, 1997’s The Unimaginable Life, and 1998’s December finding favor primarily in adult contemporary circles; in 1994, he also issued a children’s album, Return to Pooh Corner, and released its sequel, More Songs from Pooh Corner, in early 2000. He reunited with Messina in 2005 for a successful tour, album, and concert video, and in 2007, Loggins released How About Now, his first new solo album in four years. It was followed by All Join In in 2009. ~ William Ruhlmann &amp;amp; Bruce Eder, Rovi&lt;/p&gt;\n\n&lt;p&gt;(Retrieved 12/21/15 from &lt;/p&gt;&lt;div class="embedly_preview"&gt;\n&lt;a href="http://www.billboard.com/artist/305726/kenny-loggins/biography"&gt;\n  &lt;div class="gray_container"&gt;\n    \n      &lt;div class="embedly_preview-thumb"&gt;\n        &lt;img src="https://i.genius.com/c2d069d55c90776f5b2646d3adb0b14c5f8f2bf0?url=http%3A%2F%2Fwww.billboard.com%2Ffiles%2Fstyles%2Fmagazine_cover%2Fpublic%2Fmedia%2Fbb10-nicky-jam-j-balvin-2017-billboard-225.jpg"&gt;\n      &lt;/div&gt;\n    \n    &lt;div class="embedly_preview-text"&gt;\n      &lt;span class="embedly_preview-title"&gt;Kenny Loggins - Biography | Billboard&lt;/span&gt;\n      \n        &lt;span class="embedly_preview-dash"&gt; — &lt;/span&gt;\n        &lt;span class="embedly_preview-provider"&gt;Billboard&lt;/span&gt;\n      \n      \n    &lt;/div&gt;\n  &lt;/div&gt;\n&lt;/a&gt;\n&lt;/div&gt;)', 'alternate_names': ['Kenneth Loggins', 'Kenneth C. Loggins', 'Kenneth Clark Loggins']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Beck', 'annotations': {'description': '&lt;p&gt;Beck took the lo-fi sound of DIY indie rock to the &lt;a href="https://www.billboard.com/music/beck/chart-history/alternative-songs/song/23942" rel="noopener nofollow"&gt;Billboard charts&lt;/a&gt; in 1994 with his slacker anthem &lt;a href="https://genius.com/Beck-loser-lyrics" rel="noopener" data-api_path="/songs/4905"&gt;“Loser,”&lt;/a&gt; but his avant-pop palette extends well beyond the folk-rap beats and samples of that hit; encompassing everything from funk, soul, and psychedelia to wild experiments with feedback, toy instruments, and found sounds. Plus, his disjointed, surreal lyrics (which were often compared to &lt;a href="https://genius.com/albums/Bob-dylan/Highway-61-revisited" rel="noopener" data-api_path="/albums/13573"&gt;&lt;em&gt;Highway 61 Revisited&lt;/em&gt;&lt;/a&gt;-era &lt;a href="https://genius.com/artists/Bob-dylan" rel="noopener" data-api_path="/artists/181"&gt;Bob Dylan&lt;/a&gt;) made for an alt-pop sound that helped define the ‘90s and made Beck one of the most interesting musicians of his era.&lt;/p&gt;', 'alternate_names': ['Bek Campbell', 'Bek D. Campbell', 'Bek David Campbell', 'Beck D. Hansen', 'Beck David Hansen', 'Beck Hansen']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Herbie-hancock', 'annotations': {'description': '&lt;p&gt;Herbert Jeffrey “Herbie” Hancock (born April 12, 1940) is an American pianist, keyboardist, bandleader, composer and actor from Chicago, Illinois.&lt;/p&gt;\n\n&lt;p&gt;In 1960 he began working with &lt;a href="https://en.wikipedia.org/wiki/Donald_Byrd" rel="noopener nofollow"&gt;Donald Byrd&lt;/a&gt; and &lt;a href="https://en.wikipedia.org/wiki/Coleman_Hawkins" rel="noopener nofollow"&gt;Coleman Hawkins&lt;/a&gt;. He recorded his first solo album &lt;em&gt;“Takin\' Off”&lt;/em&gt; for Blue Note Records in 1962. &lt;em&gt;“Watermelon Man”&lt;/em&gt;. Thanks to the album he caught the attention of &lt;a href="https://genius.com/artists/Miles-Davis" rel="noopener" data-api_path="/artists/8150"&gt;Miles Davis&lt;/a&gt;, who asks, in May 1963, Hancock to join his &lt;a href="https://en.wikipedia.org/wiki/Miles_Davis_Quintet#Second_Great_Quintet_.281964.E2.80.9368.29" rel="noopener nofollow"&gt;Second Great Quintet&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In the sixties he records two important albums in jazz history: &lt;em&gt;“Empyrean Isles”&lt;/em&gt; (1964) and &lt;em&gt;“Maiden Voyage”&lt;/em&gt; (1965), both for Blue Note. During this period, Hancock also composed the score to &lt;a href="https://en.wikipedia.org/wiki/Michelangelo_Antonioni" rel="noopener nofollow"&gt;Michelangelo Antonioni&lt;/a&gt;’s film &lt;a href="https://en.wikipedia.org/wiki/Blowup" rel="noopener nofollow"&gt;Blowup&lt;/a&gt; (1966), the first of many film soundtracks he recorded in his career.&lt;/p&gt;\n\n&lt;p&gt;Hancock left Blue Note in 1969, signing with Warner Bros. Records. In the seventies he changes his style, using electronic instruments to create a blend of funk and jazz. This change culminate in album like &lt;em&gt;“Head Hunters”&lt;/em&gt;. Later he recorded many albums consisting of jazz-inflected disco and pop music. During this years he found time to record more traditional jazz while creating more commercially oriented music. His instrumental single “Rockit” was the first jazz hip-hop song and became a worldwide anthem for the breakdancers and for the hip-hop culture of the 1980s. It was also the first mainstream single to feature scratching, and also featured an innovative animated music video.&lt;/p&gt;\n\n&lt;p&gt;In 1986 Hancock performed and acted in the film ‘Round Midnight. He also wrote the score/soundtrack, for which he won an Academy Award for Original Music Score.&lt;/p&gt;\n\n&lt;p&gt;During the last decades he recorded also tribute albums (&lt;em&gt;“Gershwin’s World”&lt;/em&gt;, &lt;em&gt;“River: The Joni Letters”&lt;/em&gt;) or the album &lt;em&gt;“The New Standard”&lt;/em&gt; in which he reinterprets contemporaneous rock and R&amp;amp;B songs.&lt;/p&gt;\n\n&lt;p&gt;In his career he won &lt;a href="https://en.wikipedia.org/wiki/Herbie_Hancock#Awards" rel="noopener nofollow"&gt;many prizes&lt;/a&gt;, including one Academy Award and fourteen Grammy.&lt;/p&gt;\n\n&lt;p&gt;Herbie Hancock helped to redefine the role of a jazz rhythm section and was one of the primary architects of the post-bop sound. He was one of the first jazz musicians to embrace synthesizers and funk music. Hancock’s music is often melodic and accessible; he has had many songs “cross over” and achieved success among pop audiences.&lt;/p&gt;', 'alternate_names': ['Herbert Hancock', 'Herbert J. Hancock', 'Herbert Jeffrey Hancock', 'H. Hancock']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Janes-addiction', 'annotations': {'description': '&lt;p&gt;Without &lt;a href="http://www.janesaddiction.com/biography" rel="noopener nofollow"&gt;Jane’s Addiction&lt;/a&gt;, there might still have been a &lt;a href="https://genius.com/artists/Soundgarden" rel="noopener" data-api_path="/artists/19976"&gt;Soundgarden&lt;/a&gt;, an &lt;a href="https://genius.com/artists/Alice-in-chains" rel="noopener" data-api_path="/artists/32179"&gt;Alice in Chains&lt;/a&gt;, a &lt;a href="https://genius.com/artists/Nine-inch-nails" rel="noopener" data-api_path="/artists/12757"&gt;Nine Inch Nails&lt;/a&gt;, a &lt;a href="https://genius.com/artists/Rage-against-the-machine" rel="noopener" data-api_path="/artists/1499"&gt;Rage Against the Machine&lt;/a&gt;, and even a &lt;a href="https://genius.com/artists/Nirvana" rel="noopener" data-api_path="/artists/12712"&gt;Nirvana&lt;/a&gt;, but they wouldn’t sound the same. As Tom Morello said when inducting Jane’s into Guitar Center’s Rock Walk of Fame in June 2011:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Nirvana often gets credit for being the first ‘Alternative’ band to break through, the band that changed music and led rock out of the hair metal wilderness of the ’80’s. That’s just not true. It was Jane’s Addiction.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;strong&gt;Members&lt;/strong&gt;&lt;br&gt;\n&lt;a href="https://genius.com/artists/Perry-farrell" rel="noopener" data-api_path="/artists/133786"&gt;Perry Farrell&lt;/a&gt; – lead vocals (1985–1991, 1997, 2001–2004, 2008–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Dave-navarro" rel="noopener" data-api_path="/artists/27020"&gt;Dave Navarro&lt;/a&gt; – lead and rhythm guitars, acoustic guitar, piano (1986–1991, 1997, 2001–2004, 2008–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Eric-avery" rel="noopener" data-api_path="/artists/25892"&gt;Eric Avery&lt;/a&gt; – bass (1985–1991, 2008–2010)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Stephen-perkins" rel="noopener" data-api_path="/artists/27021"&gt;Stephen Perkins&lt;/a&gt; – drums, percussion (1986–1991, 1997, 2001–2004, 2008–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Chris-chaney" rel="noopener" data-api_path="/artists/978390"&gt;Chris Chaney&lt;/a&gt; – bass (2002–2004, 2011–present)&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Puddle-of-mudd', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Puddle of Mudd&lt;/strong&gt; is an American rock band. They formed in 1991 in Kansas City, Missouri. The group currently consists of Wes Scantlin, Dave Moreno, Michael John Adams, and Matt Fuller.&lt;/p&gt;\n\n&lt;p&gt;The group is best known for a series of hits in the 2000s, including &lt;em&gt;“Blurry”&lt;/em&gt;, &lt;em&gt;“She Hates Me”&lt;/em&gt;, and “&lt;em&gt;Psycho&lt;/em&gt;”.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Madam-majestic', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Martin-solveig', 'annotations': {'description': '&lt;p&gt;Born as Martin Picandet, Martin Solveig is a french DJ, singer, songwriter, producer and radio host. He became a DJ at 18, starting to work in Parisian nightclubs. His tracks mix house, electro, pop and trap. His first album, “Sur la Terre” was released on 2008, with his latest singe being “Do it Right” (2016).&lt;/p&gt;', 'alternate_names': ['Martin Laurent Picandet', 'Martin Picandet']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Stereo-mcs', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Stardust', 'annotations': {'description': '&lt;p&gt;Short-lived collaborative project with members Alain “Braxe” Quême, Benjamin “Diamond” Cohen and Thomas Bangalter. “Music Sounds Better With You” became their only song and won the DJ Award for “Track of the Season”.  The band was founded in 1997 and disbanded in 1998.&lt;/p&gt;\n\n&lt;p&gt;Stardust denied a request to make an album from many labels, one of which offered $1,000,000.&lt;/p&gt;\n\n&lt;p&gt;In 2018, Benjamin Diamond announced Stardust would be returning to re-release Music Sounds Better With You which would release on streaming services and vinyl summer of 2019.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/George-harrison', 'annotations': {'description': '&lt;p&gt;If George Harrison were merely remembered for his involvement in &lt;a href="https://genius.com/artists/The-beatles" rel="noopener" data-api_path="/artists/586"&gt;The Beatles&lt;/a&gt;, his legacy would be solidified as one of rock’s greatest names. Along with staging the &lt;a href="https://www.imdb.com/title/tt0158560/" rel="noopener nofollow"&gt;world’s first benefit concert&lt;/a&gt; where major artists performed together for humanitarian relief, introducing pop culture to classical Indian music and gaining three #1 singles as a solo artist, he was also a film producer and an avid gardener.&lt;/p&gt;\n\n&lt;p&gt;In 1957, he met a young &lt;a href="https://genius.com/artists/Paul-mccartney" rel="noopener" data-api_path="/artists/1601"&gt;Paul McCartney&lt;/a&gt; on a bus they both took to school. McCartney then introduced him to &lt;a href="https://genius.com/artists/John-lennon" rel="noopener" data-api_path="/artists/16450"&gt;John Lennon&lt;/a&gt; to audition for his skiffle group, the Quarrymen. Lennon originally rejected Harrison as he thought he was too young to be the band, having just turned 15. Harrison eventually impressed Lennon with his guitar skills and was accepted as a member of the group.&lt;/p&gt;\n\n&lt;p&gt;During his time with The Beatles, Harrison was the lead guitarist, one of the singers, and contributed many songs such as &lt;a href="https://genius.com/The-beatles-taxman-lyrics" rel="noopener" data-api_path="/songs/75223"&gt;“Taxman,”&lt;/a&gt; &lt;a href="https://genius.com/The-beatles-within-you-without-you-lyrics" rel="noopener" data-api_path="/songs/76567"&gt;“Within You Without You,”&lt;/a&gt; &lt;a href="https://genius.com/The-beatles-while-my-guitar-gently-weeps-lyrics" rel="noopener" data-api_path="/songs/75670"&gt;“While My Guitar Gently Weeps,”&lt;/a&gt; &lt;a href="https://genius.com/The-beatles-here-comes-the-sun-lyrics" rel="noopener" data-api_path="/songs/87577"&gt;“Here Comes the Sun”&lt;/a&gt; and &lt;a href="https://genius.com/The-beatles-something-lyrics" rel="noopener" data-api_path="/songs/87564"&gt;“Something.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Harrison released his debut album, &lt;a href="https://genius.com/albums/George-harrison/Wonderwall-music" rel="noopener" data-api_path="/albums/345852"&gt;&lt;em&gt;Wonderwall Music&lt;/em&gt;&lt;/a&gt;, during 1968 as the soundtrack to the film &lt;em&gt;Wonderwall&lt;/em&gt;. It was the first solo album to be released by a Beatle. Harrison released another album, &lt;a href="https://genius.com/albums/George-harrison/Electronic-sound" rel="noopener" data-api_path="/albums/185269"&gt;&lt;em&gt;Electronic Sounds&lt;/em&gt;&lt;/a&gt;, before The Beatles breakup in 1970.&lt;/p&gt;\n\n&lt;p&gt;In 1970, Harrison released the critically acclaimed triple album, &lt;a href="https://genius.com/albums/George-harrison/All-things-must-pass" rel="noopener" data-api_path="/albums/41860"&gt;&lt;em&gt;All Things Must Pass&lt;/em&gt;&lt;/a&gt;. The album consisted of songs that Harrison had been collecting throughout his time with The Beatles. The album was co-produced by &lt;a href="https://genius.com/artists/Phil-spector" rel="noopener" data-api_path="/artists/29024"&gt;Phil Spector&lt;/a&gt; and made use of his famous Wall Of Sound technique. The album produced the #1 hit, &lt;a href="https://genius.com/George-harrison-my-sweet-lord-lyrics" rel="noopener" data-api_path="/songs/202126"&gt;“My Sweet Lord.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;In later years, Harrison released 9 studio albums spawning two #1 singles: &lt;a href="https://genius.com/George-harrison-give-me-love-give-me-peace-on-earth-lyrics" rel="noopener" data-api_path="/songs/207155"&gt;“Give Me Love (Give Me Peace On Earth)”&lt;/a&gt; and &lt;a href="https://genius.com/George-harrison-got-my-mind-set-on-you-lyrics" rel="noopener" data-api_path="/songs/402440"&gt;“Got My Mind Set On You.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;During 1988, Harrison founded supergroup, &lt;a href="https://genius.com/artists/The-traveling-wilburys" rel="noopener" data-api_path="/artists/60612"&gt;The Travelling Wilburys&lt;/a&gt;, along with &lt;a href="https://genius.com/artists/Jeff-lynne" rel="noopener" data-api_path="/artists/34990"&gt;Jeff Lynne&lt;/a&gt;, &lt;a href="https://genius.com/artists/Tom-petty" rel="noopener" data-api_path="/artists/20785"&gt;Tom Petty&lt;/a&gt;, &lt;a href="https://genius.com/artists/Bob-dylan" rel="noopener" data-api_path="/artists/181"&gt;Bob Dylan&lt;/a&gt; and &lt;a href="https://genius.com/artists/Roy-orbison" rel="noopener" data-api_path="/artists/47372"&gt;Roy Orbison&lt;/a&gt;. The group released &lt;a href="https://genius.com/albums/The-traveling-wilburys/Traveling-wilburys-vol-1" rel="noopener" data-api_path="/albums/39460"&gt;&lt;em&gt;Traveling Wilburys, Vol. 1&lt;/em&gt;&lt;/a&gt; to much success. Following Orbison’s death, the remaining members released their final album, &lt;a href="https://genius.com/albums/The-traveling-wilburys/Traveling-wilburys-vol-3" rel="noopener" data-api_path="/albums/171091"&gt;&lt;em&gt;Traveling Wilburys, Vol. 3&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;During 1970, Harrison bought Friar Park, a 62 acre mansion in Henley-on-Thames. He spent years renovating the mansion and personally caring for  it’s grounds. The cover for &lt;em&gt;All Things Must Pass&lt;/em&gt; was shot in the grounds of the mansion along with many of his music videos.&lt;/p&gt;\n\n&lt;p&gt;During the filming of &lt;a href="https://www.imdb.com/title/tt0058182/" rel="noopener nofollow"&gt;&lt;em&gt;A Hard Day’s Night&lt;/em&gt;&lt;/a&gt;, Harrison met his first wife Pattie Boyd, who played the role of a schoolgirl. They married in 1966, divorcing in 1977 on the grounds of Harrison’s infidelities. Boyd later on married Harrison’s longtime friend &lt;a href="https://genius.com/artists/Eric-clapton" rel="noopener" data-api_path="/artists/19272"&gt;Eric Clapton&lt;/a&gt;. Harrison then met Olivia Arias who was working for Harrison’s record label, &lt;a href="http://www.georgeharrison.com/dark-horse-records/" rel="noopener nofollow"&gt;Dark Horse Records&lt;/a&gt;, as a secretary. They married in 1978 and had a son, Dhani, born on August 1st, 1978.&lt;/p&gt;\n\n&lt;p&gt;In 1999, Harrison’s home was broken into by a crazed fan who stabbed him multiple times, only to be stopped by Harrison’s wife.&lt;/p&gt;\n\n&lt;p&gt;George Harrison (1943-2001) passed away at 58 to a long battle with cancer.&lt;/p&gt;', 'alternate_names': ['Nelson Wilbury']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Kelly-clarkson', 'annotations': {'description': '&lt;p&gt;Kelly Brianne Clarkson (born April 24, 1982) is an American singer, songwriter, and occasional actress. In 2002, she came to prominence after winning the first season of American Idol, and has since been established as “The Original American Idol”. Her debut single, “A Moment Like This”, topped the US Billboard Hot 100 and broke the record for the biggest jump to number one in the chart’s history.&lt;/p&gt;\n\n&lt;p&gt;Her first album, &lt;em&gt;&lt;a href="https://genius.com/albums/Kelly-clarkson/Thankful" rel="noopener" data-api_path="/albums/41088"&gt;Thankful&lt;/a&gt;&lt;/em&gt; included the top ten single “Miss Independent”, which earned her first Grammy nomination. Her second album &lt;em&gt;&lt;a href="https://genius.com/albums/Kelly-clarkson/Breakaway" rel="noopener" data-api_path="/albums/41090"&gt;Breakaway&lt;/a&gt;&lt;/em&gt; produced the hit single “Since U Been Gone” which reached number two on the Hot 100 and was certified platinum by the RIAA.&lt;/p&gt;\n\n&lt;p&gt;Clarkson went in a different direction with her self-creatively-controlled third album, &lt;em&gt;&lt;a href="https://genius.com/albums/Kelly-clarkson/My-december" rel="noopener" data-api_path="/albums/41095"&gt;My December&lt;/a&gt;&lt;/em&gt;. It debuted at number two on the Billboard 200 and produced the top-ten single “Never Again.” Her fourth album, &lt;em&gt;&lt;a href="https://genius.com/albums/Kelly-clarkson/All-i-ever-wanted" rel="noopener" data-api_path="/albums/11133"&gt;All I Ever Wanted&lt;/a&gt;&lt;/em&gt; debuted at number one on the Billboard 200. Lead single “My Life Would Suck Without You” re-broke the record for biggest jump to number one on the Hot 100, jumping 97-1 in its second week on the chart. The record still stands today.&lt;/p&gt;\n\n&lt;p&gt;Fifth album &lt;em&gt;&lt;a href="https://genius.com/albums/Kelly-clarkson/Stronger" rel="noopener" data-api_path="/albums/41114"&gt;Stronger&lt;/a&gt;&lt;/em&gt; produced the top-ten “Mr. Know It All” and her third number one, “Stronger (What Doesn’t Kill You).” Later, she released her &lt;a href="https://genius.com/albums/Kelly-clarkson/Greatest-hits-chapter-one" rel="noopener" data-api_path="/albums/108251"&gt;greatest hits&lt;/a&gt; album, producing the top-twenty single “Catch My Breath.” Her holiday album, &lt;em&gt;&lt;a href="https://genius.com/albums/Kelly-clarkson/Wrapped-in-red" rel="noopener" data-api_path="/albums/80779"&gt;Wrapped in Red&lt;/a&gt;&lt;/em&gt; became the highest-selling holiday album of 2013, which made Clarkson the first female to accomplish a feat.&lt;/p&gt;\n\n&lt;p&gt;Her sixth album, &lt;em&gt;&lt;a href="https://genius.com/albums/Kelly-clarkson/Piece-by-piece" rel="noopener" data-api_path="/albums/118882"&gt;Piece by Piece&lt;/a&gt;&lt;/em&gt;, was released on March 3, 2015. Lead single “Heartbeat Song” was released on January 12, 2015, and has peaked at 21 on the Hot 100.&lt;/p&gt;', 'alternate_names': ['Kelly Brianne Clarkson']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Soul-asylum', 'annotations': {'description': '&lt;p&gt;Soul Asylum is an American alternative rock band formed in 1981 in Minneapolis, Minnesota, best known for the Grammy-winning 1993 hit “Runaway Train”. The band was originally called Loud Fast Rules, with a lineup consisting of Dave Pirner, Dan Murphy, Karl Mueller, and Pat Morley. They changed their name to Soul Asylum in 1983. Morley was replaced by Grant Young in 1984. The band recorded three albums with Twin/Tone Records and two with A&amp;amp;M Records, with little commercial success. In 1992, they released the triple-platinum album Grave Dancers Union, featuring “Runaway Train”. The band played at the inauguration of President Bill Clinton early the next year. They also scored a platinum record with the album Let Your Dim Light Shine three years later.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/f7ed8205179ddd2b4c40090997cd9664.653x827x1.jpg" alt="" width="653" height="827" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Survivor', 'annotations': {'description': '&lt;p&gt;The legendary Chicago rock band Survivor formed in 1978 by guitarist/songwriter Jim Peterik. They are most notably recognized by their double platinum single &lt;a href="https://genius.com/Survivor-eye-of-the-tiger-lyrics" rel="noopener" data-api_path="/songs/202978"&gt;“Eye of the Tiger”&lt;/a&gt;, the theme song for the motion picture &lt;a href="https://en.wikipedia.org/wiki/Rocky_III" rel="noopener nofollow"&gt;&lt;em&gt;Rocky III&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The band has gone through &lt;a href="https://en.wikipedia.org/wiki/Survivor_%28band%29" rel="noopener nofollow"&gt;several lineups&lt;/a&gt; throughout the years and has split/reunited several times.&lt;/p&gt;', 'alternate_names': []}}</t>
   </si>
   <si>
     <t>{'url': 'https://genius.com/artists/Good-charlotte', 'annotations': {'description': '&lt;p&gt;First formed in 1996 by brothers Joel and Benji Madden, Maryland’s GOOD CHARLOTTE soundtracked the turn-of-the-century and empowered a generation with one cleverly catchy anthem after another. 2000’s landmark self-titled debut earned a gold plaque and quietly set the stage for worldwide superstardom. In 2002, they unleashed the now-classic The Young and the Hopeless, which eventually went RIAA triple-platinum and would be lauded in the Top 20 of Rolling Stone’s “50 Greatest Pop-Punk Albums” and BuzzFeed’s “36 Pop Punk Albums You Need to Hear Before You F——ing Die.” 2004’s The Chronicles of Life and Death bowed at #3 on the Billboard Top 200 and reached platinum status as Good Morning Revival [2007] and Cardiology [2010] repeated that Top 10 success and brought the band around the world multiple times in front of countless screaming fans. Along the way, everyone from N.E.R.D. and Three 6 Mafia to Avenged Sevenfold and Tonight Alive jumped at the chance to collaborate. By 2018, cumulative sales exceeded 11 million worldwide, while accolades encompassed everything from KERRANG! Awards to an MTV VMA. Following a six-year hiatus, they made a much-lauded return with their first independent offering Youth Authority during 2016. However, their music and message prove as potent as ever on 2018’s Generation Rx—the first album to be released under their partnership with BMG. Generation Rx needed a voice, and there’s no one better to provide it than GOOD CHARLOTTE.&lt;/p&gt;', 'alternate_names': []}}</t>
   </si>
   <si>
-    <t>{'url': 'https://genius.com/artists/Cky', 'annotations': {'description': '&lt;p&gt;CKY is an American rock band from West Chester, Pennsylvania. CKY was formed in 1998 by lead vocalist and guitarist Deron Miller, guitarist and backing vocalist Chad I Ginsburg, and drummer Jess Margera. Originally known by the full name Camp Kill Yourself, and later as Camp, CKY got recognition through its musical contributions to the CKY video series and the TV series Jackass, both of which featured Jess Margera’s brother Bam Margera.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Crossfade', 'annotations': {'description': '&lt;p&gt;Crossfade is an American rock/metal band originating from Columbia, South Carolina. Their current members are Ed Sloan on lead vocals and guitar, Les Hall on lead guitar, keyboard, and backing vocals, and Mitch James on backing vocals and bass. Since their formation, Crossfade has released three studio albums – their platinum selling self-titled debut album in 2004, Falling Away in 2006, and We All Bleed in 2011.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Saving-abel', 'annotations': {'description': '&lt;p&gt;&lt;img src="https://images.genius.com/fc94fb0c3ed8a8f909dbc7630a0987ff.1x1x1.gif" alt="" width="1" height="1" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt; Saving Abel is an American rock band from Corinth, Mississippi, who started in 2004 by Jared Weeks and Jason Null. The band title is from the ancient biblical story of Cain and Abel, that is about a brother who killed his own brother. Band member Jason Null thought up the band title saying “I Googled the story of Cain and Abel and found a line about ‘there was no saving Abel,’ which just jumped out at me.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Escape-the-fate', 'annotations': {'description': '&lt;p&gt;Escape the Fate is an American rock band from Las Vegas, Nevada, formed in 2005 and originally from Pahrump, Nevada. They are signed to Eleven Seven Music. The group consists of &lt;a href="https://genius.com/artists/Robert-ortiz" rel="noopener" data-api_path="/artists/1434165"&gt;Robert Ortiz&lt;/a&gt; (drummer), &lt;a href="https://genius.com/artists/Craig-mabbitt" rel="noopener" data-api_path="/artists/346335"&gt;Craig Mabbitt&lt;/a&gt; (lead vocalist), &lt;a href="https://genius.com/artists/Tj-bell" rel="noopener" data-api_path="/artists/1063414"&gt;TJ Bell&lt;/a&gt; (rhythm guitarist and vocalist), &lt;a href="https://genius.com/artists/Kevin-gruft" rel="noopener" data-api_path="/artists/1125960"&gt;Kevin “Thrasher” Gruft&lt;/a&gt; (lead guitarist) and touring musician &lt;a href="https://genius.com/artists/Max-georgiev" rel="noopener"&gt;Max Georgiev&lt;/a&gt; (bassist). As of 2013, Ortiz is the last founding member in the current lineup of the group.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Audioslave', 'annotations': {'description': '&lt;p&gt;Audioslave was an American rock supergroup that formed in Los Angeles, California in 2001 and disbanded in 2007. Its members consisted of lead vocalist/rhythm guitarist &lt;a href="https://genius.com/artists/Chris-cornell" rel="noopener" data-api_path="/artists/18435"&gt;Chris Cornell&lt;/a&gt; (who at the time broke away from the band &lt;a href="https://genius.com/artists/Soundgarden" rel="noopener" data-api_path="/artists/19976"&gt;Soundgarden&lt;/a&gt;), lead guitarist &lt;a href="https://genius.com/artists/Tom-morello" rel="noopener" data-api_path="/artists/4781"&gt;Tom Morello&lt;/a&gt;, bassist &lt;a href="https://genius.com/artists/tim-commerford" rel="noopener" data-api_path="/artists/646888"&gt;Tim Commerford&lt;/a&gt;, and drummer &lt;a href="https://genius.com/artists/brad-wilk" rel="noopener" data-api_path="/artists/646889"&gt;Brad Wilk&lt;/a&gt; (all three of which were members of the then-broken-up band &lt;a href="https://genius.com/artists/Rage-against-the-machine" rel="noopener" data-api_path="/artists/1499"&gt;Rage Against the Machine&lt;/a&gt;). Thus, they were initially described as a combination of both bands, but by the time their 2005 album &lt;em&gt;Out of Exile&lt;/em&gt; came out, they became noted as being their own band.&lt;/p&gt;\n\n&lt;p&gt;They produced three studio albums and received just as many Grammy nominations over their six years of existence, and were the first American rock band to perform an open-air concert in Cuba. Their biggest hit was &lt;a href="https://genius.com/Audioslave-like-a-stone-lyrics" rel="noopener" data-api_path="/songs/121557"&gt;“Like A Stone”&lt;/a&gt; from their 2002 self-titled debut album.&lt;/p&gt;\n\n&lt;p&gt;They broke up in 2007 due to “irresolvable personality conflicts as well as musical differences”, according to Cornell, which was later solidified by the reunion tour of Rage and solo album releases by Morello and Cornell in the same year.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Soil', 'annotations': {'description': '&lt;p&gt;&lt;a href="http://www.soiltheband.com/bio/" rel="noopener nofollow"&gt;SOiL&lt;/a&gt;, is an American rock band that was formed in Chicago, Illinois in 1997. Most known for their songs “Halo”, “Unreal” and “Redefine”.&lt;/p&gt;\n\n&lt;p&gt;When the song “Halo” was released it got a lot of attention and a lot of labels wanted to sign the band. They decided to sign with &lt;a href="https://www.jayrecords.com/" rel="noopener nofollow"&gt;J Records&lt;/a&gt; and achieved mainstream success with their major label debut, &lt;em&gt;&lt;a href="https://genius.com/albums/Soil/Scars" rel="noopener" data-api_path="/albums/274484"&gt;Scars&lt;/a&gt;&lt;/em&gt;, in 2001. The songs “Halo” and “Unreal” got the band exposure on MTV.&lt;br&gt;\nThey even won Metal Edge magazine’s 2001 Readers’ Choice Award for “Next Big Thing”.&lt;/p&gt;\n\n&lt;p&gt;In 2004 they released their second album &lt;em&gt;&lt;a href="https://genius.com/albums/Soil/Redefine" rel="noopener" data-api_path="/albums/224050"&gt;Re*de*fi*ne&lt;/a&gt;&lt;/em&gt; through J Records,  and embarked on a worldwide tour. In late 2004 frontman Ryan McCombs &lt;a href="http://www.blabbermouth.net/news/soil-confirm-singer-s-departure/" rel="noopener nofollow"&gt;left the group&lt;/a&gt;. He would go on to become the new vocalist of &lt;a href="https://genius.com/artists/Drowning-pool" rel="noopener" data-api_path="/artists/15619"&gt;Drowning Pool&lt;/a&gt; the following year.&lt;/p&gt;\n\n&lt;p&gt;After McCombs departure the band recruited AJ Cavalier as its new singer and released two more studio albums &lt;em&gt;&lt;a href="https://genius.com/albums/Soil/True-self" rel="noopener" data-api_path="/albums/252125"&gt;True Self&lt;/a&gt;&lt;/em&gt; in 2006 and &lt;em&gt;&lt;a href="https://genius.com/albums/Soil/Picture-perfect" rel="noopener" data-api_path="/albums/172278"&gt;Picture Perfect&lt;/a&gt;&lt;/em&gt; in 2009.&lt;/p&gt;\n\n&lt;p&gt;In 2011, SOiL reunited with Ryan McCombs for a 10th anniversairy tour of their debut album, Scars. He stayed with the band and they released a new album in 2013, entitled “&lt;a href="https://genius.com/albums/Soil/Whole" rel="noopener" data-api_path="/albums/211905"&gt;Whole&lt;/a&gt;”.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Rob-thomas', 'annotations': {'description': '&lt;p&gt;The lead singer of Alt-Rock band &lt;a href="https://genius.com/artists/Matchbox-twenty" rel="noopener" data-api_path="/artists/71892"&gt;Matchbox Twenty&lt;/a&gt;, best known for the 1999 hit &lt;a href="https://genius.com/Santana-smooth-lyrics" rel="noopener" data-api_path="/songs/114915"&gt;‘Smooth’&lt;/a&gt;, his collaboration with &lt;a href="https://genius.com/artists/Santana" rel="noopener" data-api_path="/artists/8439"&gt;Santana&lt;/a&gt;, has won a total of 3 Grammy Awards, provided vocals for 8 albums total and written songs for artists such as Mick Jagger and Pat Green.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/albums/Rob-thomas/Chip-tooth-smile" rel="noopener" data-api_path="/albums/505362"&gt;‘Chip Tooth Smile’&lt;/a&gt;, released April 2019, has been compared to Bruce Springsteen’s work in both sound and design, and peaked at 13 on Billboard 200.&lt;/p&gt;\n\n&lt;p&gt;Thomas has also founded the charity &lt;a href="https://www.sidewalkangelsfoundation.org/" rel="noopener nofollow"&gt;Sidewalk Angels&lt;/a&gt; with his wife Marisol, which provides funds for no-kill animal shelters and rescue organizations.&lt;/p&gt;', 'alternate_names': ['Robert K. Thomas', 'Robert Kelly Thomas']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Amy-lee', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Amy Lee&lt;/strong&gt; is an U.S. singer, songwriter, record producer, and multi-instrumentalist, famous as the lead singer and co-founder of &lt;a href="https://genius.com/artists/Evanescence" rel="noopener" data-api_path="/artists/17912"&gt;Evanescence&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Johan-olsen', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Danko-jones', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Theory', 'annotations': {'description': '&lt;p&gt;Theory is a Canadian rock band formed in Delta, British Columbia, in 2001.&lt;/p&gt;\n\n&lt;p&gt;Originally named Theory of a Deadman, their name comes from their song &lt;a href="https://genius.com/Theory-of-a-deadman-the-last-song-lyrics" rel="noopener" data-api_path="/songs/517134"&gt;“The Last Song”&lt;/a&gt; (Originally titled “Theory of a Deadman”) which describes a man about to commit suicide.&lt;/p&gt;\n\n&lt;p&gt;In 2008, they released their third album &lt;a href="https://genius.com/albums/Theory-of-a-deadman/Scars-and-souvenirs" rel="noopener" data-api_path="/albums/20339"&gt;&lt;em&gt;Scars &amp;amp; Souvenirs&lt;/em&gt;&lt;/a&gt;, which features vocals from &lt;a href="https://genius.com/artists/Chris-daughtry" rel="noopener" data-api_path="/artists/152338"&gt;Chris Daughtry&lt;/a&gt; and &lt;a href="https://genius.com/artists/Robin-diaz" rel="noopener" data-api_path="/artists/648354"&gt;Robin Diaz&lt;/a&gt;. The album was certified &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;ar=THEORY+OF+A+DEADMAN&amp;amp;ti=SCARS+%26amp%3B+SOUVENIRS" rel="noopener nofollow"&gt;platinum&lt;/a&gt; in 2011. The album’s singles &lt;a href="https://genius.com/Theory-of-a-deadman-bad-girlfriend-lyrics" rel="noopener" data-api_path="/songs/245138"&gt;“Bad Girlfriend”&lt;/a&gt;, &lt;a href="https://genius.com/Theory-of-a-deadman-all-or-nothing-lyrics" rel="noopener" data-api_path="/songs/516566"&gt;“All or Nothing”&lt;/a&gt;, and &lt;a href="https://genius.com/Theory-of-a-deadman-all-or-nothing-lyrics" rel="noopener" data-api_path="/songs/516566"&gt;“Not Meant to Be”&lt;/a&gt; all made their way onto the &lt;a href="https://www.billboard.com/music/theory-of-a-deadman/chart-history" rel="noopener nofollow"&gt;Billboard Hot 100 Chart&lt;/a&gt;. The band shortened their name to Theory in 2017.&lt;/p&gt;\n\n&lt;p&gt;They’ve been nominated for a handful of &lt;a href="https://junoawards.ca/" rel="noopener nofollow"&gt;Juno Awards&lt;/a&gt; and have won the ‘New Group of the Year’ award in 2003.&lt;/p&gt;', 'alternate_names': ['Theory of a Deadman']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Bad-wolves', 'annotations': {'description': '&lt;p&gt;Bad Wolves is an American metal band formed in 2017 led by Tommy Vext as lead vocals followed by John Boecklin on drums, Doc Coyle as lead guitar, Chris Cain on the rhythm guitar, and Kyle Konkiel on the bass guitar. In May 2017, Bad Wolves released their debut single, “Learn to Live”, in November 2017, Bad Wolves released their second single, “Toast to the Ghost”, and on January 18, 2018, they released a third single, which was a cover of “Zombie” (originally by &lt;a href="https://genius.com/artists/The-cranberries" rel="noopener" data-api_path="/artists/31849"&gt;The Cranberries&lt;/a&gt;). Bad Wolves then finally released their debut studio album, “Disobey”, on May 11, 2018.&lt;br&gt;\nBad Wolves is managed by the Zoltan Bathory of Five Finger Death Punch.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Greta-van-fleet', 'annotations': {'description': '&lt;p&gt;Greta Van Fleet is four young musicians – twin brothers &lt;a href="https://genius.com/artists/Josh-kiszka" rel="noopener" data-api_path="/artists/1171460"&gt;Josh&lt;/a&gt; (vocals) and &lt;a href="https://genius.com/artists/Jake-kiszka" rel="noopener" data-api_path="/artists/1171459"&gt;Jake&lt;/a&gt; (guitar), younger brother &lt;a href="https://genius.com/artists/Sam-kiszka" rel="noopener" data-api_path="/artists/1171461"&gt;Sam&lt;/a&gt; (bass/keys), and longtime family friend &lt;a href="https://genius.com/artists/Danny-wagner" rel="noopener" data-api_path="/artists/1171462"&gt;Danny Wagner&lt;/a&gt; (drums). All are from the tiny Michigan hamlet of Frankenmuth known for its family-style chicken dinners and the world’s largest Christmas store. All four were raised on their parents’ extensive vinyl collections which helped give birth to the music they make today:  a high-energy hybrid of rock’n’roll, blues, and soul.&lt;/p&gt;\n\n&lt;p&gt;2017, Greta Van Fleet’s first year as a professional band, was a wild ride of sold-out concerts in North America and Europe, glowing press, accolades from a slew of fellow artists from &lt;a href="https://genius.com/artists/Elton-john" rel="noopener" data-api_path="/artists/560"&gt;Elton John&lt;/a&gt; to &lt;a href="https://genius.com/artists/Nikki-sixx" rel="noopener" data-api_path="/artists/663569"&gt;Nikki Sixx&lt;/a&gt; to &lt;a href="https://genius.com/artists/Justin-bieber" rel="noopener" data-api_path="/artists/357"&gt;Justin Bieber&lt;/a&gt;, millions of YouTube video plays and Spotify streams, two #1 singles at Rock Radio and two #1 EPs, and most importantly, the genesis of an extraordinary connection with their fans. With their debut album &lt;a href="https://genius.com/albums/Greta-van-fleet/Anthem-of-the-peaceful-army" rel="noopener" data-api_path="/albums/448142"&gt;&lt;em&gt;Anthem of the Peaceful Army&lt;/em&gt;&lt;/a&gt; released in October of 2018 and the single from that, &lt;a href="https://genius.com/Greta-van-fleet-when-the-curtain-falls-lyrics" rel="noopener" data-api_path="/songs/3841510"&gt;“When the Curtain Falls”&lt;/a&gt; peaking at number 3 on the Billboard Mainstream Rock Songs chart.&lt;/p&gt;\n\n&lt;p&gt;Greta Van Fleet’s shared message with their music is to spread “peace, love and unity,” and their collective goal is to have people walk out of their live shows feeling invigorated, energized and exhilarated, and to take that feeling out into the world.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Jonathan-davis', 'annotations': {'description': '&lt;p&gt;Jonathan Davis is best known for being the vocalist and frontman of the popular nu-metal band Korn. While he still works with Korn, Davis has worked solo on multiple projects: he wrote and produced songs for the feature films Queen of the Damned and American Satan, he toured with his band The SFA, and he released his first solo album “Black Labyrinth.” Davis also has an EDM alter ego named J-Devil, and has been DJing since 1987.&lt;br&gt;\n    Davis discovered his love for music when he was 3 years old and saw his parents rehearsing for a local production of “Jesus Christ the Superstar.” He joined Korn in 1993. Davis began writing songs for “Black Labyrinth” in 2007, but due to multiple setback the album wasn’t released until May 25, 2018 through Sumerian Records.&lt;/p&gt;', 'alternate_names': ['J. H. Davis', 'J Devil', 'Jonathan "JD" Davis', 'Jonathan H. Davis', 'Jonathan Howsman Davis']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Sevendust', 'annotations': {'description': '&lt;p&gt;Sevendust was officially formed in April 1997 after attempting to name themselves “Rumblefish” and later “Crawlspace,” both of which were names already taken by other bands. The name refers to the popular insecticide “Sevin Dust” which Hornsby saw in his grandmother’s garage&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Parkway-drive', 'annotations': {'description': "&lt;p&gt;Parkway Drive is an Australian metalcore band from Byron Bay, New South Wales, formed in 2003. As of 2015, Parkway Drive has released five full-length albums (Killing with a Smile, Horizons, Deep Blue, Atlas and Ire), one EP, two DVDs, a split album and one book, Ten Years of Parkway Drive. The band’s latest four albums have reached the top 10 of the Australian ARIA Charts, with Ire reaching number 1 in October 2015.&lt;/p&gt;\n\n&lt;p&gt;The band’s line-up has remained consistent for most of their career, with the only exceptions being the departure of Brett Versteeg in 2004, followed by Shaun Cash in 2006; since the addition of bassist Jia O'Connor in 2006, no members have left the group.&lt;/p&gt;", 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Bring_Me_the_Horizon', 'artist_name': 'Bring Me the Horizon', 'wiki': 'http://en.wikipedia.org/wiki/Bring_Me_the_Horizon', 'hometown': 'http://dbpedia.org/resource/South_Yorkshire', 'start_year': '2004', 'labels': ['http://dbpedia.org/resource/BMG_Rights_Management', 'http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Earache_Records', 'http://dbpedia.org/resource/Epitaph_Records', 'http://dbpedia.org/resource/RCA_Records', 'http://dbpedia.org/resource/Shock_Records', 'http://dbpedia.org/resource/Sony_Music', 'http://dbpedia.org/resource/Visible_Noise'], 'plays_in': ['http://dbpedia.org/resource/Pyewacket_(film)'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Deathcore', 'http://dbpedia.org/resource/Electronic_rock', 'http://dbpedia.org/resource/Metalcore', 'http://dbpedia.org/resource/Pop_rock'], 'actual_members': ['http://dbpedia.org/resource/Oliver_Sykes', 'Jordan Fish', 'Lee Malia', 'Matt Nicholls', 'Matt Kean'], 'old_members': ['http://dbpedia.org/resource/Jona_Weinhofen', 'Curtis Ward'], 'related_artists': ['http://dbpedia.org/resource/Dan_Lancaster', 'http://dbpedia.org/resource/I_Killed_the_Prom_Queen', 'http://dbpedia.org/resource/Jona_Weinhofen', 'http://dbpedia.org/resource/Proxies_(band)', 'http://dbpedia.org/resource/Ted_Jensen', 'http://dbpedia.org/resource/Zakk_Cervini'], 'abstract': "Bring Me the Horizon (often abbreviated as BMTH) are a British rock band formed in Sheffield in 2004. The group consists of lead vocalist Oliver Sykes, guitarist Lee Malia, bassist Matt Kean, drummer Matt Nicholls and keyboardist Jordan Fish. They are signed to RCA Records globally and Columbia Records exclusively in the United States. The band released their debut album Count Your Blessings in 2006. Upon release, the album's sound polarised listeners, and was met with critical disdain. The band began to break away from their controversial sound with Suicide Season (2008), which was a creative, critical and commercial turning point for the band. Bring Me the Horizon released their third album, There Is a Hell Believe Me I've Seen It. There Is a Heaven Let's Keep It a Secret., in 2010, propelling them to greater international fame, whilst incorporating influences from classical music, electronica and pop. Their major label debut, Sempiternal (2013) achieved Gold certification in Australia (35,000) and Silver in the United Kingdom (60,000). That's the Spirit (2015) debuted at number two in the UK Albums Chart and the US Billboard 200. Their sixth studio album Amo (2019) became their first UK chart topper. As well as these six studio albums, they have also released two extended plays and two live albums. They have received four Kerrang! Awards, including two for Best British Band and one for Best Live Band, and have been nominated for two Grammy Awards. The style of their early work, including their debut album Count Your Blessings, has been described primarily as deathcore, but they started to adopt a more eclectic style of metalcore on later albums. Furthermore, That's the Spirit marked a shift in their sound to less aggressive rock music styles. Amo saw a shift into different genres, such as electronica, pop and hip hop."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Nova_Twins', 'artist_name': 'Nova Twins', 'wiki': 'http://en.wikipedia.org/wiki/Nova_Twins', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '2014', 'labels': ['http://dbpedia.org/resource/Jason_Aalon_Butler'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Punk_rock', 'http://dbpedia.org/resource/Rap_rock'], 'actual_members': ['Amy Love', 'Georgia South'], 'abstract': 'Nova Twins are an English rock duo formed in London, England, in 2014, consisting of vocalist/guitarist Amy Love and bassist Georgia South.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/The_Amity_Affliction', 'artist_name': 'The Amity Affliction', 'wiki': 'http://en.wikipedia.org/wiki/The_Amity_Affliction', 'hometown': 'http://dbpedia.org/resource/Gympie', 'start_year': '2003', 'labels': ['http://dbpedia.org/resource/Boomtown_Records', 'http://dbpedia.org/resource/Pure_Noise_Records', 'http://dbpedia.org/resource/Roadrunner_Records', 'http://dbpedia.org/resource/UNFD'], 'genres': ['http://dbpedia.org/resource/Emo', 'http://dbpedia.org/resource/Melodic_metalcore', 'http://dbpedia.org/resource/Metalcore', 'http://dbpedia.org/resource/Post-hardcore'], 'actual_members': ['Ahren Stringer', 'Dan Brown', 'Joe Longobardi', 'Joel Birch'], 'old_members': ['Chris Burt', 'Clint Owen Ellis', 'Garth Buchanan', 'Imran Siddiqi', 'Lachlan Faulkner', 'Ryan Burt', 'Trad Nathan', 'Troels Thomasen', 'Troy Brady'], 'related_artists': ['http://dbpedia.org/resource/Confession_(band)', 'http://dbpedia.org/resource/The_Getaway_Plan', 'http://dbpedia.org/resource/Windwaker_(band)'], 'abstract': "The Amity Affliction is an Australian metalcore band from Gympie, Queensland, formed in 2003. The band's current line-up consists of Ahren Stringer (bass, clean vocals), Joel Birch (lead vocals), Dan Brown (guitar) and Joe Longobardi (drums). The Amity Affliction has released seven studio albums including Severed Ties (2008), Youngbloods (2010), Chasing Ghosts (2012), Let the Ocean Take Me (2014), This Could Be Heartbreak (2016) and Misery (2018), the latter four debuting at number one on the ARIA charts. They are known for their highly personal songs, often dealing with depression, anxiety, death, substance abuse, and suicide, many lyrics stemming from vocalist Joel Birch's past struggles. The Amity Affliction released their latest album, Everyone Loves You... Once You Leave Them, on 21 February 2020."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Slipknot_(band)', 'artist_name': 'Slipknot', 'wiki': 'http://en.wikipedia.org/wiki/Slipknot_(band)', 'hometown': 'http://dbpedia.org/resource/Des_Moines,_Iowa', 'start_year': '1995', 'labels': ['http://dbpedia.org/resource/Roadrunner_Records'], 'plays_in': ['http://dbpedia.org/resource/MTV_The_Return_of_the_Rock', 'http://dbpedia.org/resource/Roadrunner_United'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Groove_metal', 'http://dbpedia.org/resource/Heavy_metal_music', 'http://dbpedia.org/resource/Nu_metal', 'Heavy metal'], 'actual_members': ['http://dbpedia.org/resource/Alessandro_Venturella', 'http://dbpedia.org/resource/Corey_Taylor', 'http://dbpedia.org/resource/Craig_Jones_(musician)', 'http://dbpedia.org/resource/Dirty_Little_Rabbits', 'http://dbpedia.org/resource/Jay_Weinberg', 'http://dbpedia.org/resource/Jim_Root', 'http://dbpedia.org/resource/Mick_Thomson', 'http://dbpedia.org/resource/Shawn_Crahan', 'http://dbpedia.org/resource/Sid_Wilson', 'Michael Pfaff'], 'old_members': ['http://dbpedia.org/resource/Brandon_Darner', 'http://dbpedia.org/resource/Chris_Fehn', 'http://dbpedia.org/resource/Donnie_Steele', 'http://dbpedia.org/resource/Joey_Jordison', 'http://dbpedia.org/resource/Paul_Gray_(American_musician)', 'http://dbpedia.org/resource/Slipknot_(band)', 'Greg Welts', 'Josh Brainard', 'Anders Colsefni'], 'related_artists': ['http://dbpedia.org/resource/Stone_Sour'], 'abstract': 'Slipknot is an American heavy metal band formed in Des Moines, Iowa, in 1995 by percussionist Shawn Crahan, drummer Joey Jordison and bassist Paul Gray. After several lineup changes in its early years, the band settled on nine members for more than a decade: Crahan, Jordison, Gray, Craig Jones, Mick Thomson, Corey Taylor, Sid Wilson, Chris Fehn, and Jim Root. Gray died on May 24, 2010, and was replaced during 2011–2014 by guitarist Donnie Steele. Jordison was dismissed from the band on December 12, 2013. Steele left during the recording sessions for .5: The Gray Chapter. The band found replacements in Alessandro Venturella on bass and Jay Weinberg on drums. After the departure of Jordison, as of December 2013 the only founding member in the current lineup is percussionist Crahan. Fehn was also dismissed from the band in March 2019 prior to the writing of We Are Not Your Kind. Slipknot is well known for its attention-grabbing image, aggressive style of music, and energetic and chaotic live shows. The band rapidly rose to fame following the release of their eponymous debut album in 1999. The 2001 follow-up album, Iowa, although darker in tone, made the band more popular. After a brief hiatus, Slipknot returned in 2004 with Vol. 3: (The Subliminal Verses), before going on another hiatus and returning in 2008 with its fourth album, All Hope Is Gone, which debuted at number one on the Billboard 200 chart. After another long hiatus, Slipknot released its fifth studio album, .5: The Gray Chapter, in 2014. Their sixth studio album, We Are Not Your Kind, was released on August 9, 2019. The band has released two live albums titled 9.0: Live and Day of the Gusano: Live in Mexico, a compilation album titled Antennas to Hell, and five live DVDs. The band has sold 30 million records worldwide.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Atreyu', 'artist_name': 'Atreyu', 'wiki': 'http://en.wikipedia.org/wiki/Atreyu', 'hometown': 'http://dbpedia.org/resource/Yorba_Linda,_California', 'start_year': '1998', 'end_year': '2011', 'labels': ['http://dbpedia.org/resource/Hollywood_Records', 'http://dbpedia.org/resource/Roadrunner_Records', 'http://dbpedia.org/resource/Spinefarm_Records', 'http://dbpedia.org/resource/Victory_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Metalcore', 'http://dbpedia.org/resource/Post-hardcore'], 'actual_members': ['http://dbpedia.org/resource/Brandon_Saller', 'Dan Jacobs', 'Kyle Rosa', 'Marc McKnight', 'Travis Miguel'], 'old_members': ['http://dbpedia.org/resource/Alex_Varkatzas', 'Kyle Stanley', 'Chris Thomson', "Brian O'Donnell"], 'related_artists': ['http://dbpedia.org/resource/Alex_Varkatzas', 'http://dbpedia.org/resource/Brandon_Saller'], 'abstract': 'Atreyu is an American metalcore band from Yorba Linda, California, formed in 1998. The band currently consists of clean vocalist Brandon Saller, guitarists Dan Jacobs and Travis Miguel, bassist and unclean vocalist Marc "Porter" McKnight, and drummer Kyle Rosa. The band have released eight studio albums: Suicide Notes and Butterfly Kisses (2002), The Curse (2004), A Death-Grip on Yesterday (2006), Lead Sails Paper Anchor (2007), Congregation of the Damned (2009), Long Live (2015), In Our Wake (2018) and Baptize (2021).'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Falling_in_Reverse', 'artist_name': 'Falling in Reverse', 'wiki': 'http://en.wikipedia.org/wiki/Falling_in_Reverse', 'hometown': 'http://dbpedia.org/resource/Las_Vegas', 'start_year': '2008', 'labels': ['http://dbpedia.org/resource/Epitaph_Records'], 'genres': ['http://dbpedia.org/resource/Electronica', 'http://dbpedia.org/resource/Emo', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Hip_hop_music', 'http://dbpedia.org/resource/Metalcore', 'http://dbpedia.org/resource/Pop-punk', 'http://dbpedia.org/resource/Post-hardcore', 'pop punk', 'hip hop'], 'actual_members': ['http://dbpedia.org/resource/Ronnie_Radke', 'Christian Thompson', 'Max Georgiev', 'Wes Horton III'], 'old_members': ['See [[#Band_members'], 'related_artists': ['http://dbpedia.org/resource/Charles_Kallaghan_Massabo', 'http://dbpedia.org/resource/Derek_Jones_(musician)', 'http://dbpedia.org/resource/Escape_the_Fate', 'http://dbpedia.org/resource/I_Am_Ghost', 'http://dbpedia.org/resource/Jacky_Vincent', 'http://dbpedia.org/resource/LoveHateHero', 'http://dbpedia.org/resource/Luke_Holland', 'http://dbpedia.org/resource/Max_Green_(musician)', 'http://dbpedia.org/resource/Mika_Horiuchi', 'http://dbpedia.org/resource/Nason_Schoeffler', 'http://dbpedia.org/resource/Omar_Espinosa', 'http://dbpedia.org/resource/Ryan_Seaman'], 'abstract': "Falling in Reverse is an American rock band based in Las Vegas, Nevada that formed in 2008 by lead vocalist Ronnie Radke while he was incarcerated. The band's original name was 'From Behind These Walls,' but was quickly renamed to Falling in Reverse shortly after formation. They are currently signed to Epitaph Records. The band is currently led by lead vocalist Radke, alongside guitarists Max Georgiev and Christian Thompson and bassist Wes Horton III. The group released its debut album, The Drug in Me Is You, on July 26, 2011, which peaked at No. 19 on the Billboard 200, selling 18,000 copies in its first week. On December 17, 2019 the album was certified gold by RIAA equivalent to 500,000 copies sold. The band's second studio album, Fashionably Late, was released on June 18, 2013, which peaked at No. 17 on the Billboard 200. The band released their third album Just Like You on February 24, 2015. Coming Home, their latest album, was released on April 7, 2017."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/I_Prevail', 'artist_name': 'I Prevail', 'wiki': 'http://en.wikipedia.org/wiki/I_Prevail', 'hometown': 'http://dbpedia.org/resource/Southfield,_Michigan', 'start_year': '2013', 'labels': ['http://dbpedia.org/resource/Fearless_Records'], 'genres': ['http://dbpedia.org/resource/Metalcore', 'http://dbpedia.org/resource/Pop-punk', 'http://dbpedia.org/resource/Post-hardcore', 'pop punk'], 'actual_members': ['Brian Burkheiser', 'Eric Vanlerberghe', 'Steve Menoian', 'Dylan Bowman', 'Gabe Helguera'], 'old_members': ['Jordan Berger', 'Lee Runestad', 'Tony Camposeo'], 'related_artists': ['http://dbpedia.org/resource/Windwaker_(band)'], 'abstract': 'I Prevail is an American metalcore band formed in Southfield, Michigan, in 2013. They released their debut EP Heart vs. Mind (2014) and rose to popularity from releasing a metal cover of Taylor Swift\'s "Blank Space" as a single, which eventually was certified platinum in the US. The band has since released two studio albums, Lifelines (2016) and Trauma (2019). The band found success with their original material as well, with the singles "Breaking Down" and "Hurricane" performing well on rock radio, the single "Bow Down" being nominated for the Grammy Award for Best Metal Performance in 2019, and Trauma being nominated for the Grammy Award for Best Rock Album the same year.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Asking_Alexandria', 'artist_name': 'Asking Alexandria', 'wiki': 'http://en.wikipedia.org/wiki/Asking_Alexandria', 'hometown': 'http://dbpedia.org/resource/England', 'start_year': '2006', 'labels': ['http://dbpedia.org/resource/Better_Noise_Music', 'http://dbpedia.org/resource/Monstercat', 'http://dbpedia.org/resource/Sumerian_Records'], 'genres': ['http://dbpedia.org/resource/Electronicore', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music', 'http://dbpedia.org/resource/Metalcore', 'http://dbpedia.org/resource/Post-hardcore', 'heavy metal'], 'actual_members': ['http://dbpedia.org/resource/Ben_Bruce', 'http://dbpedia.org/resource/Danny_Worsnop', 'Cameron Liddell', 'James Cassells', 'Sam Bettley'], 'old_members': ['http://dbpedia.org/resource/Denis_Stoff', 'http://dbpedia.org/resource/Joe_Lancaster_(musician)', 'Ryan Binns'], 'related_artists': ['http://dbpedia.org/resource/Danny_Worsnop', 'http://dbpedia.org/resource/Denis_Stoff', 'http://dbpedia.org/resource/Joe_Lancaster_(musician)', 'http://dbpedia.org/resource/Matt_Good', 'http://dbpedia.org/resource/We_Are_Harlot'], 'abstract': "Asking Alexandria are a British rock band from York, North Yorkshire, consisting of guitarists Ben Bruce and Cameron Liddell, drummer James Cassells, lead vocalist Danny Worsnop, and bassist Sam Bettley. Initially formed in 2006 by Ben Bruce, the band officially established as a six-piece in 2008 with the founding line-up consisting of Bruce, Worsnop, Cassells, Liddell, Joe Lancaster and Ryan Binns. After the departure of Lancaster and Binns, as well as the recruitment of bassist Sam Bettley in 2009, the band released their debut album Stand Up and Scream (2009). The band released two studio albums Reckless &amp; Relentless (2011) and From Death to Destiny (2013), before the departure of Worsnop in January 2015. He was replaced by Denis Stoff and the band released The Black (2016). Stoff departed from the band in October that year, and Worsnop subsequently returned to the band. The band released their self-titled fifth album in late 2017, which was a marked stylistic departure from their previous works. Their sixth studio album, Like a House on Fire, which was released on 15 May 2020, shows the group's continuity of a more straightforward and melodic hard rock sound, while also shift into different genres. Its follow-up and their seventh studio album, See What's on the Inside, was released on 1 October 2021."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Avenged_Sevenfold', 'artist_name': 'Avenged Sevenfold', 'wiki': 'http://en.wikipedia.org/wiki/Avenged_Sevenfold', 'hometown': 'http://dbpedia.org/resource/Huntington_Beach,_California', 'start_year': '1999', 'aliases': ['A7X'], 'labels': ['http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/Good_Life_Recordings', 'http://dbpedia.org/resource/Hopeless_Records', 'http://dbpedia.org/resource/Warner_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music', 'http://dbpedia.org/resource/Metalcore', 'Heavy metal'], 'actual_members': ['http://dbpedia.org/resource/Brooks_Wackerman', 'http://dbpedia.org/resource/M._Shadows', 'http://dbpedia.org/resource/Synyster_Gates', 'Johnny Christ', 'Zacky Vengeance'], 'old_members': ['http://dbpedia.org/resource/The_Rev', 'Arin Ilejay', 'Dameon Ash', 'Justin Sane', 'Matt Wendt'], 'related_artists': ['http://dbpedia.org/resource/Brian_Haner', 'http://dbpedia.org/resource/Brooks_Wackerman', 'http://dbpedia.org/resource/Cowboy_Troy', 'http://dbpedia.org/resource/Fozzy', 'http://dbpedia.org/resource/M._Shadows', 'http://dbpedia.org/resource/Mass_Mental', 'http://dbpedia.org/resource/Mike_Portnoy', 'http://dbpedia.org/resource/Sherry_Drive', 'http://dbpedia.org/resource/Suburban_Legends', 'http://dbpedia.org/resource/Suicidal_Tendencies', 'http://dbpedia.org/resource/Synyster_Gates', 'http://dbpedia.org/resource/The_Confession_(band)__The_Confession__1', 'http://dbpedia.org/resource/The_Rev'], 'abstract': 'Avenged Sevenfold (sometimes abbreviated as A7X) is an American heavy metal band from Huntington Beach, California, formed in 1999. The band\'s current lineup consists of lead vocalist M. Shadows, rhythm guitarist and backing vocalist Zacky Vengeance, lead guitarist and backing vocalist Synyster Gates, bassist and backing vocalist Johnny Christ, and drummer Brooks Wackerman. Avenged Sevenfold is known for its diverse rock sound and dramatic imagery in album covers and merchandise. The band emerged with a metalcore sound on their debut album Sounding the Seventh Trumpet and continued this sound through their second album Waking the Fallen. However, the band\'s style had evolved by the group\'s third album and first major label release, City of Evil, into a heavy metal and hard rock style. The band continued to explore new sounds with its self-titled release and enjoyed continued mainstream success before their drummer, James "The Rev" Sullivan, died in 2009. Despite his death, Avenged Sevenfold continued on with the help of drummer Mike Portnoy (Dream Theater), and released and toured in support of their fifth album Nightmare in 2010, which debuted on the top spot of the Billboard 200, their first number one debut. In 2011 drummer Arin Ilejay joined the band on tours and recording. The band\'s sixth studio album Hail to the King, which was released in 2013, marked the only Avenged Sevenfold album featuring Ilejay. Hail to the King charted as number 1 on the Billboard 200, the UK Albums chart, as well as the Finnish, Brazilian, Canadian, and Irish charts. In late 2014, Ilejay left the band, and was replaced by former Bad Religion drummer Brooks Wackerman, but the lineup change was not announced to the public until 2015. The band then surprise-released their seventh studio album titled The Stage on October 28, 2016, which debuted as number 4 on the Billboard 200 chart in the US. The Stage is their first conceptual album and it marked another stylistic change for the band, moving towards a progressive metal sound. To date, Avenged Sevenfold has released seven studio albums, one live album/DVD, two compilation albums and eighteen singles and have sold over 8 million albums worldwide, and their records have received numerous certification awards, including five platinum album awards from their home country\'s institution (RIAA). They have also created four original songs for the Call of Duty: Black Ops series, all of which were compiled together in the 2018 EP Black Reign. The band were ranked No. 47 on Loudwire\'s list of Top 50 Metal Bands of All Time.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Nothing_More', 'artist_name': 'Nothing More', 'wiki': 'http://en.wikipedia.org/wiki/Nothing_More', 'hometown': 'http://dbpedia.org/resource/San_Antonio', 'start_year': '2003', 'labels': ['http://dbpedia.org/resource/Eleven_Seven_Label_Group'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music', 'http://dbpedia.org/resource/Progressive_metal', 'http://dbpedia.org/resource/Progressive_rock'], 'actual_members': ['Jonny Hawkins', 'Mark Vollelunga', 'Daniel Oliver', 'Ben Anderson'], 'old_members': ['Josh Kercheville', 'Josh Klaus', 'Matt Reynolds', 'Travis Cox', 'Trey Graham', 'Devin Travieso', "Paul O'Brien"], 'abstract': 'Nothing More is an American rock band from San Antonio, Texas. Formed in 2003, the band spent much of the 2000s recording independent albums and struggling to maintain a steady lineup or attract record label interest. Towards the end of the decade, the band\'s long-time drummer, Jonny Hawkins, decided to switch to being the band\'s frontman and lead vocalist, stabilizing the band\'s core lineup along with other long-time members Mark Vollelunga (guitar) and Daniel Oliver (bass). The band self-funded and recorded their fourth studio album, Nothing More, over the course of three years and used it to gain the attention of Eleven Seven Music record label, who signed the band to a five album record contract upon hearing it. The album became the band\'s breakthrough release in 2014, with multiple charting singles, including "This is the Time (Ballast)", which hit number 1 on the Mediabase Active Rock chart and number 2 on the Billboard Mainstream Rock chart, and "Mr. MTV", "Jenny" and "Here\'s to the Heartache" all charting in the top 15 of both charts. The band began working on a follow-up in 2016 while continuing to tour in support of their self-titled release, and in September 2017, released their fifth studio album - their second on a major record label - The Stories We Tell Ourselves. The lead single, "Go to War", outperformed the prior singles, topping the Mainstream Rock chart, and the release earned the band three Grammy Award nominations; Best Rock Album for the album, and Best Rock Song and Best Rock Performance for "Go to War". The band continued to promote the release moving into 2018, releasing singles, "Do You Really Want It?" and "Just Say When", and embarking on multiple North American tours into 2019.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Five_Finger_Death_Punch', 'artist_name': 'Five Finger Death Punch', 'wiki': 'http://en.wikipedia.org/wiki/Five_Finger_Death_Punch', 'hometown': 'http://dbpedia.org/resource/Las_Vegas', 'start_year': '2005', 'aliases': ['5FDP', 'Death Punch', 'FFDP', 'Five Finger'], 'labels': ['http://dbpedia.org/resource/Better_Noise_Music', 'http://dbpedia.org/resource/EMI', 'http://dbpedia.org/resource/Prospect_Park_(production_company)', 'http://dbpedia.org/resource/Spinefarm_Records', 'http://dbpedia.org/resource/The_Firm,_Inc.', 'http://dbpedia.org/resource/Universal_Music_Group'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Groove_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music', 'http://dbpedia.org/resource/Thrash_metal', 'Heavy metal'], 'actual_members': ['http://dbpedia.org/resource/Ivan_Moody', 'http://dbpedia.org/resource/Zoltan_Bathory', 'Chris Kael', 'Charlie Engen', 'Andy James'], 'old_members': ['http://dbpedia.org/resource/Darrell_Roberts', 'http://dbpedia.org/resource/Jason_Hook', 'http://dbpedia.org/resource/Jeremy_Spencer_(drummer)', 'Caleb Bingham', 'Matt Snell'], 'related_artists': ['http://dbpedia.org/resource/Bad_Wolves', 'http://dbpedia.org/resource/Darrell_Roberts', 'http://dbpedia.org/resource/Davey_Suicide', 'http://dbpedia.org/resource/Ghost_Machine', 'http://dbpedia.org/resource/Invidia_(band)', 'http://dbpedia.org/resource/Ivan_Moody', 'http://dbpedia.org/resource/Jason_Hook', 'http://dbpedia.org/resource/Jeremy_Spencer_(drummer)', 'http://dbpedia.org/resource/Kevin_Churko', 'http://dbpedia.org/resource/Scale_the_Summit', 'http://dbpedia.org/resource/Sintanic', 'http://dbpedia.org/resource/Zoltan_Bathory'], 'abstract': 'Five Finger Death Punch, also abbreviated as 5FDP or FFDP, is an American heavy metal band from Las Vegas, Nevada, formed in 2005. The band originally consisted of vocalist Ivan Moody, rhythm guitarist Zoltan Bathory, lead guitarist Caleb Andrew Bingham, bassist Matt Snell, and drummer Jeremy Spencer. Bingham was replaced by guitarist Darrell Roberts in 2006, who was then replaced by Jason Hook in 2009. Bassist Matt Snell departed from the band in 2010, and was replaced by in 2011. Spencer then departed the band in 2018 due to recurring back issues, and was replaced by Charlie Engen, making rhythm guitarist Bathory the only remaining founding member of the band. In October 2020, British guitarist Andy James became the band\'s lead guitarist, replacing Jason Hook. Five Finger Death Punch\'s debut album The Way of the Fist was released in 2007, which began achieving rapid success and selling over 500,000 copies in the United States. The 2009 follow-up album War Is the Answer further increased their popularity, selling over 1,000,000 copies and got certified Platinum by the RIAA, the band\'s third album, American Capitalist, was released on October 11, 2011, and achieved Platinum status. The following four albums—The Wrong Side of Heaven and the Righteous Side of Hell, Volume 1 (2013), The Wrong Side of Heaven and the Righteous Side of Hell, Volume 2 (2013), Got Your Six (2015), and And Justice for None (2018)—have all been certified Platinum and Gold, making Five Finger Death Punch one of the most successful heavy metal bands of the decade. The band has played international music festivals including Mayhem Festival in 2008, 2010 and 2013, and Download Festival in 2009, 2010, 2013, 2015, and 2017. The band released their eighth studio album, F8, in 2020. Five Finger Death Punch are the recipients of the RadioContraband Rock Radio Awards for "Indie Artist of the Year" in 2011, 2012, 2013, and 2014. They were also honored with the Radio Contraband Rock Radio Award for Album (American Capitalist) and Song of the Year ("Coming Down") in 2012 and "Video of the Year" for "Wrong Side of Heaven" in 2014. To date, Five Finger Death Punch has released eight studio albums, one live album, two compilation albums, one extended play (EP) and 32 singles.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/My_Chemical_Romance', 'artist_name': 'My Chemical Romance', 'wiki': 'http://en.wikipedia.org/wiki/My_Chemical_Romance', 'hometown': 'http://dbpedia.org/resource/Newark,_New_Jersey', 'start_year': '2001', 'end_year': '2013', 'aliases': ['MCR', 'My Chem'], 'labels': ['http://dbpedia.org/resource/Eyeball_Records', 'http://dbpedia.org/resource/Reprise_Records', 'http://dbpedia.org/resource/Warner_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Emo', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Pop-punk', 'http://dbpedia.org/resource/Post-hardcore', 'http://dbpedia.org/resource/Punk_rock'], 'actual_members': ['http://dbpedia.org/resource/Frank_Iero', 'http://dbpedia.org/resource/Gerard_Way', 'http://dbpedia.org/resource/Mikey_Way', 'http://dbpedia.org/resource/Ray_Toro'], 'old_members': ['http://dbpedia.org/resource/Bob_Bryar', 'http://dbpedia.org/resource/James_Dewees', 'Matt Pelissier'], 'related_artists': ['http://dbpedia.org/resource/American_Nightmare_(band)', 'http://dbpedia.org/resource/Bert_McCracken', 'http://dbpedia.org/resource/Bob_Bryar', 'http://dbpedia.org/resource/Death_Spells', 'http://dbpedia.org/resource/Frank_Iero', 'http://dbpedia.org/resource/Geoff_Rickly', 'http://dbpedia.org/resource/James_Dewees', 'http://dbpedia.org/resource/Jarrod_Alexander', 'http://dbpedia.org/resource/John_Miceli', 'http://dbpedia.org/resource/Leathermouth', 'http://dbpedia.org/resource/Mikey_Way', 'http://dbpedia.org/resource/One_Buck_Short', 'http://dbpedia.org/resource/Pencey_Prep', 'http://dbpedia.org/resource/Pete_Parada', 'http://dbpedia.org/resource/Pop_Shuvit', 'http://dbpedia.org/resource/Quinn_Allman', 'http://dbpedia.org/resource/Ray_Toro', 'http://dbpedia.org/resource/Reggie_and_the_Full_Effect'], 'abstract': 'My Chemical Romance (commonly abbreviated to MCR or My Chem) is an American rock band from Newark, New Jersey. The band\'s current lineup consists of lead vocalist Gerard Way, lead guitarist Ray Toro, rhythm guitarist Frank Iero, and bassist Mikey Way. Founded by Gerard, Mikey, Toro, and Matt Pelissier (and later joined by Iero), the band signed with Eyeball Records and released their debut album, I Brought You My Bullets, You Brought Me Your Love, in 2002. They signed with Reprise Records the next year and released their major-label debut, Three Cheers for Sweet Revenge, in 2004. Shortly after the album\'s release, Pelissier was replaced by Bob Bryar. The album was a commercial success, and it attained platinum status over a year later. The success of the band’s previous albums was eclipsed by that of their 2006 concept album, The Black Parade, which generally received favorable reviews from music critics and was certified triple platinum in the United States and the United Kingdom. The band’s long-time drummer, Bob Bryar, left in March 2010, and they released their fourth studio album, Danger Days: The True Lives of the Fabulous Killjoys, in November of the same year, to positive reviews. On tour, the band replaced Bryar with drummers including Michael Pedicone and Jarrod Alexander, and, in 2012, added touring keyboardist James Dewees. Also in 2012, and the early part of 2013, over the course of five months, the band released a series of singles they had recorded in 2009, under the collective title Conventional Weapons. Then, on March 22, 2013, one month after the release of the final single in the series, the band announced its breakup. In March 2014, a greatest hits album, titled May Death Never Stop You, was released. On September 23, 2016, a tenth-anniversary reissue of The Black Parade, including demos and live versions of the B-sides from the album and an early version of "Welcome to the Black Parade", titled "The Five of Us Are Dying", was released, titled The Black Parade/Living with Ghosts. In 2017, the band reunited out of the public eye. On October 31, 2019, they announced a reunion show, which took place in Los Angeles on December 20, 2019. This was extended to a small tour consisting of appearances in Australia, New Zealand and Japan a week later. In January 2020, they announced North American and European tours, but these were later postponed to 2022 because of the COVID-19 pandemic.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Thousand_Foot_Krutch', 'artist_name': 'Thousand Foot Krutch', 'wiki': 'http://en.wikipedia.org/wiki/Thousand_Foot_Krutch', 'hometown': 'http://dbpedia.org/resource/Peterborough,_Ontario', 'start_year': '1995', 'end_year': '2017', 'aliases': ['Oddball (1995–1996)'], 'labels': ['http://dbpedia.org/resource/Tooth_&amp;_Nail_Records'], 'genres': ['http://dbpedia.org/resource/Christian_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Rap_metal'], 'actual_members': ['http://dbpedia.org/resource/Trevor_McNevan', 'Steve Augustine', 'Joel Bruyere'], 'old_members': ['http://dbpedia.org/resource/Neil_Sanderson', 'Dave Smith', 'Geoff Laforet', 'Tim Baxter', 'Christian Harvey'], 'related_artists': ['http://dbpedia.org/resource/FM_Static', 'http://dbpedia.org/resource/Hawk_Nelson', 'http://dbpedia.org/resource/Manafest', 'http://dbpedia.org/resource/Neil_Sanderson', 'http://dbpedia.org/resource/Randy_Torres', 'http://dbpedia.org/resource/Scarlet_White', 'http://dbpedia.org/resource/T._J._Harris', 'http://dbpedia.org/resource/The_Class_of_98', 'http://dbpedia.org/resource/Trevor_McNevan'], 'abstract': 'Thousand Foot Krutch (often abbreviated TFK) is a Canadian Christian rock band formed in Peterborough, Ontario, in 1997. The band has released eight studio albums, two live albums, and three remix albums. The band currently consists of founding member Trevor McNevan (vocals, guitar), Steve Augustine (drums), and Joel Bruyere (bass, backing vocals). Since forming, Thousand Foot Krutch has sold over 1.1 million albums and reached No. 1 on the Billboard Hard Rock Albums Chart twice.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Egypt_Central', 'artist_name': 'Egypt Central', 'wiki': 'http://en.wikipedia.org/wiki/Egypt_Central', 'hometown': 'http://dbpedia.org/resource/Memphis,_Tennessee', 'start_year': '2001', 'end_year': '2012', 'labels': ['http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Bieler_Bros._Records', 'http://dbpedia.org/resource/Lava'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['Blake Allison', 'Joey Chicago', 'John Falls'], 'old_members': ["Chris D'Abaldo", 'Don Wray', 'Heath Hindman', 'Jeff James', 'Josie Cummings', 'Michael Spann', 'Stephen “Worm” Williams'], 'related_artists': ['http://dbpedia.org/resource/Devour_the_Day', 'http://dbpedia.org/resource/Saliva_(band)'], 'abstract': 'Egypt Central is an American alternative metal band from Memphis, Tennessee.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Breaking_Benjamin', 'artist_name': 'Breaking Benjamin', 'wiki': 'http://en.wikipedia.org/wiki/Breaking_Benjamin', 'hometown': 'http://dbpedia.org/resource/Wilkes-Barre,_Pennsylvania', 'start_year': '1999', 'end_year': '2010', 'aliases': ['Plan 9'], 'labels': ['http://dbpedia.org/resource/Hollywood_Records'], 'plays_in': ['http://dbpedia.org/resource/Halo_2_Original_Soundtrack', 'http://dbpedia.org/resource/Tongan_Ninja'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['http://dbpedia.org/resource/Benjamin_Burnley', 'http://dbpedia.org/resource/Jasen_Rauch', 'http://dbpedia.org/resource/Keith_Wallen', 'Aaron Bruch', 'Shaun Foist'], 'old_members': ['http://dbpedia.org/resource/Chad_Szeliga', 'Jason Davoli', 'Mark Klepaski', 'Jonathan "Bug" Price', 'Jeremy Hummel', 'Aaron Fink'], 'related_artists': ['http://dbpedia.org/resource/Chad_Szeliga', 'http://dbpedia.org/resource/Cold_(band)', 'http://dbpedia.org/resource/Dale_Stewart', 'http://dbpedia.org/resource/Keith_Wallen', 'http://dbpedia.org/resource/Leo_(band)', 'http://dbpedia.org/resource/Lifer_(band)', 'http://dbpedia.org/resource/Scooter_Ward', 'http://dbpedia.org/resource/Shaun_Morgan', 'http://dbpedia.org/resource/Sherry_Drive', 'http://dbpedia.org/resource/Spencer_Chamberlain', 'http://dbpedia.org/resource/T._J._Harris'], 'abstract': 'Breaking Benjamin is an American rock band from Wilkes-Barre, Pennsylvania, formed in 1999 by lead singer and guitarist Benjamin Burnley and drummer Jeremy Hummel. The first lineup of the band also included guitarist Aaron Fink and bassist Mark Klepaski. This lineup released two albums, Saturate (2002) and We Are Not Alone (2004), before Hummel was replaced by Chad Szeliga in 2005. The band released two more studio albums, Phobia (2006) and Dear Agony (2009), before entering an extended hiatus in early 2010 due to Burnley\'s recurring illnesses. Amid the hiatus, the release of a compilation album, Shallow Bay: The Best of Breaking Benjamin (2011), unauthorized by Burnley, brought about legal trouble within the band resulting in the dismissal of Fink and Klepaski. Szeliga later announced his departure in 2013 citing creative differences. Burnley remained the sole member of the band until late 2014, when the current lineup was announced, including bassist and backing vocalist Aaron Bruch, guitarist and backing vocalist Keith Wallen, guitarist Jasen Rauch, and drummer Shaun Foist. The band afterward released Dark Before Dawn (2015) and Ember (2018), which debuted at number one and three on the Billboard 200, respectively. Following these albums, the band released another compilation, Aurora (2020), featuring reworked acoustic versions of past songs along with one original new song. Despite significant lineup changes, the band\'s musical style and lyrical content have remained consistent, with Burnley serving as the primary composer and lead vocalist since the band\'s inception. The band has commonly been noted for its formulaic hard rock tendencies with angst-heavy lyrics, swelling choruses, and "crunching" guitars. In the United States alone, the band has sold more than 7 million units and yielded three RIAA-certified platinum records, two gold records, and several certified singles, including two multi-platinum, two platinum, and five gold. The band has also produced one number one record on the Billboard 200.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Alice_in_Chains', 'artist_name': 'Alice in Chains', 'wiki': 'http://en.wikipedia.org/wiki/Alice_in_Chains', 'hometown': 'http://dbpedia.org/resource/Seattle', 'start_year': '1987', 'end_year': '2002', 'aliases': ['AIC'], 'labels': ['http://dbpedia.org/resource/BMG_Rights_Management', 'http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/EMI_Records', 'http://dbpedia.org/resource/Virgin_Records'], 'plays_in': ['http://dbpedia.org/resource/Black_Antenna'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Grunge', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music', 'http://dbpedia.org/resource/Sludge_metal', 'Heavy metal'], 'actual_members': ['http://dbpedia.org/resource/Jerry_Cantrell', 'http://dbpedia.org/resource/Mike_Inez', 'http://dbpedia.org/resource/Sean_Kinney', 'http://dbpedia.org/resource/William_DuVall'], 'old_members': ['http://dbpedia.org/resource/Layne_Staley', 'http://dbpedia.org/resource/Mike_Starr_(musician)'], 'related_artists': ["http://dbpedia.org/resource/Alice_N'_Chains", 'http://dbpedia.org/resource/Mad_Season_(band)', 'http://dbpedia.org/resource/Sleze', 'http://dbpedia.org/resource/Spys4Darwin'], 'abstract': "Alice in Chains (often abbreviated as AIC) is an American rock band from Seattle, Washington, formed in 1987 by guitarist and vocalist Jerry Cantrell and drummer Sean Kinney, who later recruited bassist Mike Starr and lead vocalist Layne Staley. Starr was replaced by Mike Inez in 1993. William DuVall joined the band in 2006 as co-lead vocalist and rhythm guitarist, replacing Staley, who died in 2002. The band took its name from Staley's previous group, the glam metal band Alice N' Chains. Often associated with grunge music, Alice in Chains' sound incorporates heavy metal elements. The band is known for its distinctive vocal style, which often included the harmonized vocals between Staley and Cantrell (and later Cantrell and DuVall). Cantrell started to sing lead vocals on the 1992 acoustic EP Sap, and his role continued to grow in the following albums, making Alice in Chains a two-vocal band. Alice in Chains rose to international fame as part of the grunge movement of the early 1990s, along with other Seattle bands such as Nirvana, Pearl Jam, and Soundgarden. They achieved success during the era with the albums Facelift (1990), Dirt (1992), Alice in Chains (1995), as well as the EP Jar of Flies (1994). Although never officially disbanding, Alice in Chains was plagued by extended inactivity from 1996 onward, due to Staley's substance abuse, which resulted in his death in 2002. The band regrouped in 2006, with DuVall taking over as lead vocalist full-time, and they have since released three more albums: Black Gives Way to Blue (2009), The Devil Put Dinosaurs Here (2013), and Rainier Fog (2018). Alice in Chains have sold over 30 million records worldwide, and over 14 million records in the US alone. The band has had 18 Top 10 songs on Billboard's Mainstream Rock Tracks chart, 5 No. 1 hits, and received 11 Grammy Award nominations. The band was ranked number 34 on VH1's 100 Greatest Artists of Hard Rock and was ranked as the 15th greatest live band by Hit Parader. Since its formation, Alice in Chains has released six studio albums, three EPs, three live albums, four compilations, two DVDs, 43 music videos, and 32 singles."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Sick_Puppies', 'artist_name': 'Sick Puppies', 'wiki': 'http://en.wikipedia.org/wiki/Sick_Puppies', 'hometown': 'http://dbpedia.org/resource/Sydney', 'start_year': '1997', 'labels': ['http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/EMI_Records', 'http://dbpedia.org/resource/Virgin_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['http://dbpedia.org/resource/Mark_Goodwin_(musician)', 'Bryan Scott', 'Emma Anzai'], 'old_members': ['http://dbpedia.org/resource/Shimon_Moore', 'Chris Mileski'], 'related_artists': ['http://dbpedia.org/resource/Blue_Stahli', 'http://dbpedia.org/resource/Mark_Goodwin_(musician)', 'http://dbpedia.org/resource/Shim_(band)'], 'abstract': 'Sick Puppies are an Australian rock band formed in Sydney in 1997. After releasing their debut album, Welcome to the Real World in 2001, the band rose to prominence in 2006 when their song "All the Same" was uploaded, along with a video, to YouTube. The video supported the Free Hugs Campaign, which was launched in Sydney, and has since received over 78 million views on the website. This success was followed up with their second studio album, Dressed Up as Life in 2007, which entered the Billboard 200 at number 181. Their third studio album, Tri-Polar, came out on 14 July 2009. The band\'s fourth studio album, Connect was released on 16 July 2013. They released their fifth studio album, Fury on 20 May 2016 with new vocalist Bryan Scott after Shimon Moore was kicked out of the band in October 2014.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Shinedown', 'artist_name': 'Shinedown', 'wiki': 'http://en.wikipedia.org/wiki/Shinedown', 'hometown': 'http://dbpedia.org/resource/Jacksonville,_Florida', 'start_year': '2001', 'labels': ['http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Roadrunner_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['http://dbpedia.org/resource/Brent_Smith', 'http://dbpedia.org/resource/Zach_Myers', 'Eric Bass', 'Barry Kerch '], 'old_members': ['http://dbpedia.org/resource/Brad_Stewart', 'http://dbpedia.org/resource/Nick_Perri', 'Jasin Todd'], 'related_artists': ['http://dbpedia.org/resource/3_Doors_Down', 'http://dbpedia.org/resource/Brad_Stewart', 'http://dbpedia.org/resource/Call_Me_No_One', 'http://dbpedia.org/resource/Chris_Chaney', 'http://dbpedia.org/resource/Deepfield', 'http://dbpedia.org/resource/Fuel_(band)', 'http://dbpedia.org/resource/Nick_Perri', 'http://dbpedia.org/resource/Zach_Myers'], 'abstract': "Shinedown is an American rock band from Jacksonville, Florida, formed by singer Brent Smith in 2001 after the dissolution of Dreve, his previous band. Smith, still under contract with record label Atlantic Records, recruited the band's original lineup of Jasin Todd as guitarist, Brad Stewart on bass, and Barry Kerch on drums. Consistent for the first two album cycles, a few lineup changes followed in the late 2000s, eventually stabilizing with Smith and Kerch alongside Zach Myers on guitar and Eric Bass on bass. The group has released six studio albums: Leave a Whisper (2003), Us and Them (2005), The Sound of Madness (2008), Amaryllis (2012), Threat to Survival (2015), and Attention Attention (2018). Shinedown has the most number one singles on the Billboard Mainstream Rock charts out of any band, with 16, and all of their released singles have reached the top 5 on the chart. Additionally, on June 3, 2021 Shinedown was ranked #1 by Billboard on the Greatest of All Time Mainstreams Rock Artists chart released to celebrate the Mainstream Rock Chart's 40th Anniversary. To date, the band has sold more than 10 million records."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Godsmack', 'artist_name': 'Godsmack', 'wiki': 'http://en.wikipedia.org/wiki/Godsmack', 'hometown': 'http://dbpedia.org/resource/Lawrence,_Massachusetts', 'start_year': '1995', 'labels': ['http://dbpedia.org/resource/BMG_Rights_Management', 'http://dbpedia.org/resource/Republic_Records', 'http://dbpedia.org/resource/Universal_Music_Group'], 'plays_in': ['http://dbpedia.org/resource/Woodstock_1999_(album)'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Post-grunge', 'Heavy metal'], 'actual_members': ['http://dbpedia.org/resource/Robbie_Merrill', 'http://dbpedia.org/resource/Shannon_Larkin', 'http://dbpedia.org/resource/Sully_Erna', 'http://dbpedia.org/resource/Tony_Rombola'], 'old_members': ['http://dbpedia.org/resource/Tommy_Stewart', "Joe D'Arco", 'Lee Richards'], 'related_artists': ['http://dbpedia.org/resource/Amen_(American_band)', 'http://dbpedia.org/resource/Another_Animal', 'http://dbpedia.org/resource/Camp_Freddy', 'http://dbpedia.org/resource/Candlebox', 'http://dbpedia.org/resource/Dave_Fortman', 'http://dbpedia.org/resource/Jay_Baumgardner', 'http://dbpedia.org/resource/Kilgore_(band)', 'http://dbpedia.org/resource/Robbie_Merrill', 'http://dbpedia.org/resource/Shannon_Larkin', 'http://dbpedia.org/resource/Snot_(band)', 'http://dbpedia.org/resource/Souls_at_Zero_(band)', 'http://dbpedia.org/resource/Sully_Erna', 'http://dbpedia.org/resource/The_Apocalypse_Blues_Revival', 'http://dbpedia.org/resource/Tommy_Stewart', 'http://dbpedia.org/resource/Tony_Rombola', 'http://dbpedia.org/resource/Ugly_Kid_Joe', 'http://dbpedia.org/resource/Wrathchild_America'], 'abstract': 'Godsmack is an American rock band from Lawrence, Massachusetts, formed in 1995. The band is composed of founder, frontman and songwriter Sully Erna, guitarist Tony Rombola, bassist Robbie Merrill and drummer Shannon Larkin. Since its formation, Godsmack has released seven studio albums, one EP (The Other Side), four DVDs, one compilation album (Good Times, Bad Times... Ten Years of Godsmack), and one live album (Live &amp; Inspired). The band has released three consecutive number-one albums (Faceless, IV and The Oracle) on the Billboard 200. The band also has 25 top ten rock radio hits, including 18 songs in the top five. The band\'s seventh album, When Legends Rise was released on April 27, 2018. Since its inception, Godsmack has toured with Ozzfest on more than one occasion and has toured with many other large tours and festivals, including supporting its albums with its own arena tours. In honor of the band\'s success and the release of their sixth studio album, 1000hp, Mayor Marty Walsh declared August 6 as "Godsmack Day" in the city of Boston.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/System_of_a_Down', 'artist_name': 'System of a Down', 'wiki': 'http://en.wikipedia.org/wiki/System_of_a_Down', 'hometown': 'http://dbpedia.org/resource/Glendale,_California', 'start_year': '1994', 'end_year': '2006', 'aliases': ['SoaD', 'System'], 'labels': ['http://dbpedia.org/resource/American_Recordings_(record_label)', 'http://dbpedia.org/resource/Columbia_Records'], 'plays_in': ['http://dbpedia.org/resource/MTV_The_Return_of_the_Rock', 'http://dbpedia.org/resource/Screamers_(2006_film)'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Progressive_metal', 'heavy metal'], 'actual_members': ['http://dbpedia.org/resource/Daron_Malakian', 'http://dbpedia.org/resource/John_Dolmayan', 'http://dbpedia.org/resource/Serj_Tankian', 'http://dbpedia.org/resource/Shavo_Odadjian'], 'old_members': ['http://dbpedia.org/resource/Ontronik_Khachaturian', 'Andy Khachaturian'], 'related_artists': ['http://dbpedia.org/resource/Achozen', 'http://dbpedia.org/resource/Arto_Tunçboyacıyan', 'http://dbpedia.org/resource/Axis_of_Justice', 'http://dbpedia.org/resource/Bad_Acid_Trip', 'http://dbpedia.org/resource/Ben_Weinman', 'http://dbpedia.org/resource/Dana_Nielsen', 'http://dbpedia.org/resource/Daron_Malakian', 'http://dbpedia.org/resource/Daron_Malakian_and_Scars_on_Broadway', 'http://dbpedia.org/resource/Flying_Cunts_of_Chaos', 'http://dbpedia.org/resource/Greg_Fidelman', 'http://dbpedia.org/resource/John_Dolmayan', 'http://dbpedia.org/resource/Kultur_Shock', 'http://dbpedia.org/resource/Mower_(band)', 'http://dbpedia.org/resource/Mt._Helium', 'http://dbpedia.org/resource/Onesidezero', 'http://dbpedia.org/resource/Ontronik_Khachaturian', 'http://dbpedia.org/resource/Serj_Tankian', 'http://dbpedia.org/resource/Shavo_Odadjian', 'http://dbpedia.org/resource/Viza'], 'abstract': 'System of a Down (also known as SoaD or simply System) is an Armenian-American heavy metal band formed in Glendale, California, in 1994. It currently consists of members Serj Tankian (lead vocals, keyboards), Daron Malakian (guitar, vocals), Shavo Odadjian (bass, backing vocals), and John Dolmayan (drums), who replaced original drummer Andy Khachaturian in 1997. The band achieved commercial success with the release of five studio albums, three of which debuted at number one on the US Billboard 200. System of a Down has been nominated for four Grammy Awards and their song "B.Y.O.B." won a Grammy Award for Best Hard Rock Performance in 2006. The band went on hiatus in 2006 and reunited in 2010. Other than two new songs in 2020 ("Protect the Land" and "Genocidal Humanoidz"), System of a Down has not released a full-length record since the Mezmerize and Hypnotize albums in 2005. The band has sold over 40 million records worldwide, while two of their singles "Aerials" and "Hypnotize" reached number one on Billboard\'s Alternative Songs chart. All members of System of a Down are of Armenian descent, being born to Armenian immigrants or immigrating from Armenia themselves.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Sixx:A.M.', 'artist_name': 'Sixx:A.M.', 'wiki': 'http://en.wikipedia.org/wiki/Sixx:A.M.', 'hometown': 'http://dbpedia.org/resource/Los_Angeles', 'start_year': '2007', 'end_year': '2021', 'labels': ['http://dbpedia.org/resource/Eleven_Seven_Label_Group'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['http://dbpedia.org/resource/DJ_Ashba', 'http://dbpedia.org/resource/James_Michael', 'http://dbpedia.org/resource/Nikki_Sixx', 'Dustin Steinke'], 'related_artists': ['http://dbpedia.org/resource/Beautiful_Creatures_(band)', 'http://dbpedia.org/resource/Brides_of_Destruction', 'http://dbpedia.org/resource/DJ_Ashba', "http://dbpedia.org/resource/Guns_N'_Roses", 'http://dbpedia.org/resource/Halestorm', 'http://dbpedia.org/resource/James_Michael', 'http://dbpedia.org/resource/Mötley_Crüe', 'http://dbpedia.org/resource/Nikki_Sixx', 'http://dbpedia.org/resource/Pyromantic', 'http://dbpedia.org/resource/Tony_Palermo'], 'abstract': 'Sixx:A.M. is an American hard rock band from Los Angeles, California, formed in 2007 by Nikki Sixx, DJ Ashba, and James Michael, and was a side project of Sixx, who was also at the time bass guitarist for Mötley Crüe. The group is best known for their songs "Life Is Beautiful" and "Lies of the Beautiful People". The name Sixx:A.M. is a combination of all of the members\' last names (Sixx, Ashba, Michael). To date, Sixx:A.M. have released five studio albums: The Heroin Diaries Soundtrack (2007), This Is Gonna Hurt (2011), Modern Vintage (2014) Prayers for the Damned and Blessed (2016), and three EPs; X-Mas In Hell (2008); Live Is Beautiful (2008) and 7 (2011).'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Marilyn_Manson_(band)', 'artist_name': 'Marilyn Manson', 'wiki': 'http://en.wikipedia.org/wiki/Marilyn_Manson_(band)', 'hometown': 'http://dbpedia.org/resource/Fort_Lauderdale,_Florida', 'start_year': '1989', 'aliases': ['Marilyn Manson &amp; the Spooky Kids (1989–1993)'], 'labels': ['http://dbpedia.org/resource/Concord_Music_Group', 'http://dbpedia.org/resource/Cooking_Vinyl', 'http://dbpedia.org/resource/Hell,_etc._(label)', 'http://dbpedia.org/resource/Interscope_Records', 'http://dbpedia.org/resource/Loma_Vista_Recordings', 'http://dbpedia.org/resource/Nothing_Records', 'http://dbpedia.org/resource/Virgin_Music_Label_&amp;_Artist_Services'], 'plays_in': ['http://dbpedia.org/resource/Private_Parts_(1997_film)'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Industrial_metal', 'http://dbpedia.org/resource/Industrial_rock', 'http://dbpedia.org/resource/Shock_rock'], 'actual_members': ['http://dbpedia.org/resource/Juan_Alderete', 'http://dbpedia.org/resource/Marilyn_Manson', 'http://dbpedia.org/resource/Tim_Skold', 'Brandon Pertzborn', 'Paul Wiley', 'Tim Sköld'], 'old_members': ['http://dbpedia.org/resource/Chris_Vrenna', 'http://dbpedia.org/resource/Fred_Sablan', 'http://dbpedia.org/resource/Gidget_Gein', 'http://dbpedia.org/resource/Gil_Sharone', 'http://dbpedia.org/resource/Ginger_Fish', 'http://dbpedia.org/resource/John_5_(guitarist)', 'http://dbpedia.org/resource/Madonna_Wayne_Gacy', 'http://dbpedia.org/resource/Olivia_Newton_Bundy', 'http://dbpedia.org/resource/Sara_Lee_Lucas', 'http://dbpedia.org/resource/Scott_Putesky', 'http://dbpedia.org/resource/Twiggy_Ramirez', 'http://dbpedia.org/resource/Tyler_Bates', 'http://dbpedia.org/resource/Zim_Zum', 'Zsa Zsa Speck', 'Daisy Berkowitz'], 'related_artists': ['http://dbpedia.org/resource/Godhead_(band)', 'http://dbpedia.org/resource/Jack_Off_Jill', 'http://dbpedia.org/resource/Nine_Inch_Nails', 'http://dbpedia.org/resource/Rasputina_(band)', 'http://dbpedia.org/resource/Rob_Zombie', 'http://dbpedia.org/resource/Shooter_Jennings'], 'abstract': 'Marilyn Manson is an American rock band formed by namesake lead singer Marilyn Manson and guitarist Daisy Berkowitz in Fort Lauderdale, Florida, in 1989. Originally named Marilyn Manson &amp; the Spooky Kids, they gained a local cult following in South Florida in the early 1990s with their theatrical live performances. In 1993, they were the first act signed to Trent Reznor\'s Nothing Records label. Until 1996, the name of each member was created by combining the first name of a female sex symbol and the last name of a serial killer, for example Marilyn Monroe and Charles Manson. Their lineup has changed between many of their album releases; the eponymous lead singer is the only remaining original member. In the past, band members dressed in outlandish makeup and costumes, and engaged in intentionally shocking behavior both onstage and off. Their lyrics often received criticism for their anti-religious sentiment and references to sex, violence and drugs, while their live performances were frequently called offensive and obscene. On several occasions, protests and petitions led to the group being blocked from performing, with at least three US states passing legislation banning the group from performing at state-owned venues. They released a number of platinum-selling albums, including Antichrist Superstar (1996) and Mechanical Animals (1998). These albums, along with their highly stylized music videos and worldwide touring, brought public recognition to Marilyn Manson. In 1999, news media, infamously, falsely blamed the band for influencing the perpetrators of the Columbine High School massacre. As this controversy began to wane throughout the 2000s, so did the band\'s mainstream popularity. Despite this, Jon Wiederhorn of MTV, in June 2003, referred to Marilyn Manson as "the only true artist today". Marilyn Manson is widely regarded as being one of the most iconic and controversial figures in rock music, with the band and its lead singer influencing numerous other groups and musicians, both in metal-associated acts and also in wider popular culture. VH1 ranked Marilyn Manson as the seventy-eighth best rock band on their 100 Great Artists of Hard Rock. They were inducted into the Kerrang! Hall of Fame in 2000, and have been nominated for four Grammy Awards. In the U.S., the band has seen ten of its releases debut in the top ten, including two number-one albums. Marilyn Manson have sold in excess of 50 million records worldwide.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Saint_Asonia', 'artist_name': 'Saint Asonia', 'wiki': 'http://en.wikipedia.org/wiki/Saint_Asonia', 'hometown': 'http://dbpedia.org/resource/Toronto', 'start_year': '2015', 'aliases': ['SΔINT ΔSONIΔ'], 'labels': ['http://dbpedia.org/resource/RCA_Records', 'http://dbpedia.org/resource/Spinefarm_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['http://dbpedia.org/resource/Adam_Gontier', 'http://dbpedia.org/resource/Mike_Mushok', 'Cale Gontier', 'Cody Watkins'], 'old_members': ['http://dbpedia.org/resource/Corey_Lowery', 'http://dbpedia.org/resource/Finger_Eleven', 'http://dbpedia.org/resource/Staind', 'Rich Beddoe', 'Sal Giancarelli'], 'related_artists': ['http://dbpedia.org/resource/Art_of_Dying_(band)', 'http://dbpedia.org/resource/Corey_Lowery', 'http://dbpedia.org/resource/Dark_New_Day', 'http://dbpedia.org/resource/Finger_Eleven', 'http://dbpedia.org/resource/Mike_Mushok', 'http://dbpedia.org/resource/Seether', 'http://dbpedia.org/resource/Sharon_den_Adel', 'http://dbpedia.org/resource/Staind', 'http://dbpedia.org/resource/Stuck_Mojo', 'http://dbpedia.org/resource/Three_Days_Grace'], 'abstract': "Saint Asonia (stylized as SΔINT ΔSONIΔ) is a Canadian-American rock supergroup consisting of lead vocalist and rhythm guitarist Adam Gontier, lead guitarist Mike Mushok, bassist and backing vocalist Cale Gontier, and drummer Cody Watkins. In 2017, the band's original drummer, Rich Beddoe, left the band and was replaced by Mushok's Staind bandmate Sal Giancarelli, and one year later bassist and backing vocalist Corey Lowery left the band to join Seether and his place was taken by Gontier's cousin Cale Gontier. The band formed in Toronto, Canada in 2015 after Gontier's departure from Three Days Grace in 2013. Their second studio album, titled Flawed Design, was released on October 25, 2019. On January 26, 2020, Art of Dying drummer Cody Watkins became the new drummer for Saint Asonia replacing Sal Giancarelli."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Devour_the_Day', 'artist_name': 'Devour the Day', 'wiki': 'http://en.wikipedia.org/wiki/Devour_the_Day', 'hometown': 'http://dbpedia.org/resource/Memphis,_Tennessee', 'start_year': '2012', 'labels': ['http://dbpedia.org/resource/Razor_&amp;_Tie'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Experimental_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['Blake Allison', 'Joey "Chicago" Walser', 'Ronnie Farris'], 'old_members': ['David Hoffman'], 'related_artists': ['http://dbpedia.org/resource/Egypt_Central'], 'abstract': 'Devour the Day is an American hard rock band founded in 2012 by singer/guitarist Blake Allison and bassist Joey "Chicago" Walser after the breakup of their previous band Egypt Central.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Three_Days_Grace', 'artist_name': 'Three Days Grace', 'wiki': 'http://en.wikipedia.org/wiki/Three_Days_Grace', 'hometown': 'http://dbpedia.org/resource/Asphodel–Norwood', 'start_year': '1997', 'labels': ['http://dbpedia.org/resource/Jive_Records', 'http://dbpedia.org/resource/RCA_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['http://dbpedia.org/resource/Barry_Stock', 'http://dbpedia.org/resource/Neil_Sanderson', 'Matt Walst', 'Brad Walst'], 'old_members': ['http://dbpedia.org/resource/Adam_Gontier'], 'related_artists': ['http://dbpedia.org/resource/Barry_Stock', 'http://dbpedia.org/resource/Big_Dirty_Band', 'http://dbpedia.org/resource/My_Darkest_Days', 'http://dbpedia.org/resource/Neil_Sanderson', 'http://dbpedia.org/resource/Saint_Asonia'], 'abstract': 'Three Days Grace is a Canadian rock band formed in Norwood, Ontario in 1997. The band\'s original iteration was called "Groundswell" and played in various local Norwood back-yard parties and area establishments from 1993 to 1996. Based in Toronto, the band\'s original line-up consisted of guitarist and lead vocalist Adam Gontier, drummer and backing vocalist Neil Sanderson, and bassist Brad Walst. In 2003, Barry Stock was recruited as the band\'s lead guitarist, making them a four-member band. In 2013, Gontier left the band and was replaced by My Darkest Days\' vocalist Matt Walst, who is also the younger brother of Brad Walst. Currently signed to RCA Records, they have released six studio albums, each at three-year intervals: Three Days Grace in 2003, One-X in 2006, Life Starts Now in 2009, Transit of Venus in 2012, Human in 2015, and Outsider in 2018. Their upcoming seventh studio album Explosions is due to be released on May 6, 2022. The first three albums have been RIAA certified 2x platinum, 3x platinum, and platinum, respectively, in the United States. In Canada, they have been certified by Music Canada as platinum, triple platinum, and double platinum, respectively. The band has had 15 No. 1 songs on the Billboard Hot Mainstream Rock Tracks chart, and three No. 1 hits on Alternative Songs.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Papa_Roach', 'artist_name': 'Papa Roach', 'wiki': 'http://en.wikipedia.org/wiki/Papa_Roach', 'hometown': 'http://dbpedia.org/resource/Vacaville,_California', 'start_year': '1993', 'labels': ['http://dbpedia.org/resource/DGC_Records', 'http://dbpedia.org/resource/DreamWorks_Records', 'http://dbpedia.org/resource/Eleven_Seven_Label_Group', 'http://dbpedia.org/resource/Geffen_Records', 'http://dbpedia.org/resource/Interscope_Records'], 'plays_in': ['http://dbpedia.org/resource/MTV_The_Return_of_the_Rock'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Rap_metal'], 'actual_members': ['http://dbpedia.org/resource/Jacoby_Shaddix', 'http://dbpedia.org/resource/Jerry_Horton', 'http://dbpedia.org/resource/Tony_Palermo', 'Tobin Esperance'], 'old_members': ['Dave Buckner', 'Ben Luther', 'Will James', 'Ryan Brown', 'Anne Mikolajcik'], 'related_artists': ['http://dbpedia.org/resource/Bleeker_(band)', 'http://dbpedia.org/resource/Coldrain', 'http://dbpedia.org/resource/Colin_Brittain', 'http://dbpedia.org/resource/Dear_Superstar', 'http://dbpedia.org/resource/Fight_the_Sky', 'http://dbpedia.org/resource/Ice_Nine_Kills', 'http://dbpedia.org/resource/Jacoby_Shaddix', 'http://dbpedia.org/resource/Jason_Evigan', 'http://dbpedia.org/resource/Jay_Baumgardner', 'http://dbpedia.org/resource/Jerry_Horton', 'http://dbpedia.org/resource/Nicholas_Furlong_(musician)', 'http://dbpedia.org/resource/Skindred', 'http://dbpedia.org/resource/The_Halo_Method', 'http://dbpedia.org/resource/Tony_Palermo'], 'abstract': 'Papa Roach is an American rock band from Vacaville, California, formed in 1993. The original lineup consisted of lead vocalist Jacoby Shaddix, guitarist Jerry Horton, drummer Dave Buckner, bassist Will James, and trombonist Ben Luther. After two EPs, James left and was replaced by Tobin Esperance. The band independently released two more EPs before signing with DreamWorks Records in 1999, subsequently releasing the triple-platinum Infest in 2000, the gold album Lovehatetragedy in 2002 and the platinum album Getting Away with Murder in 2004. A year after The Paramour Sessions, Buckner left in 2007, and was replaced by Tony Palermo. Papa Roach then made Metamorphosis (2009), Time for Annihilation (2010), The Connection (2012), F.E.A.R. (2015), and Crooked Teeth (2017). Their tenth studio album, Who Do You Trust?, was released on January 18, 2019.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/From_Ashes_to_New', 'artist_name': 'From Ashes to New', 'wiki': 'http://en.wikipedia.org/wiki/From_Ashes_to_New', 'hometown': 'http://dbpedia.org/resource/Lancaster,_Pennsylvania', 'start_year': '2013', 'labels': ['http://dbpedia.org/resource/Better_Noise_Music', 'http://dbpedia.org/resource/Eleven_Seven_Label_Group'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Rap_metal', 'http://dbpedia.org/resource/Rap_rock'], 'actual_members': ['http://dbpedia.org/resource/Mat_Madiro', 'Danny Case', 'Matt Brandyberry', 'Lance Dowdle'], 'old_members': ['Branden "Boo" Kreider', 'Chris Musser', "Tim D'onofrio", 'Dan Kecki', 'Garrett Russell', 'Jon-Mikel Valudes'], 'related_artists': ['http://dbpedia.org/resource/Mat_Madiro'], 'abstract': 'From Ashes to New is an American rock band from Lancaster, Pennsylvania. The band\'s lineup frequently shifted in it\'s early years, musician Matt Brandyberry being the founding and sole constant member of the group. The band has released three studio albums, Day One (2016), The Future (2018), and Panic (2020). They have found moderate success with some of their singles, including "Through It All", "Crazy", and "Panic", which reached peaks of 6, 3, and 11, respectively, on the Billboard Mainstream Rock chart.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Disturbed_(band)', 'artist_name': 'Disturbed', 'wiki': 'http://en.wikipedia.org/wiki/Disturbed_(band)', 'hometown': 'http://dbpedia.org/resource/Chicago', 'start_year': '1994', 'end_year': '2011', 'labels': ['http://dbpedia.org/resource/Giant_Records_(Warner)', 'http://dbpedia.org/resource/Reprise_Records', 'http://dbpedia.org/resource/Warner_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music', 'http://dbpedia.org/resource/Nu_metal', 'Heavy metal'], 'actual_members': ['http://dbpedia.org/resource/Dan_Donegan', 'http://dbpedia.org/resource/David_Draiman', 'http://dbpedia.org/resource/John_Moyer', 'http://dbpedia.org/resource/Mike_Wengren'], 'old_members': ['Erich Awalt', 'Steve Kmak'], 'related_artists': ['http://dbpedia.org/resource/Dan_Donegan', 'http://dbpedia.org/resource/David_Draiman', 'http://dbpedia.org/resource/Fight_or_Flight_(band)', 'http://dbpedia.org/resource/Heaven_Below', 'http://dbpedia.org/resource/John_Moyer__John_Moyer__1', 'http://dbpedia.org/resource/Kevin_Churko', "http://dbpedia.org/resource/Marty_O'Brien", 'http://dbpedia.org/resource/Mike_Wengren', 'http://dbpedia.org/resource/Neal_Avron', 'http://dbpedia.org/resource/The_Union_Underground'], 'abstract': 'Disturbed is an American heavy metal band from Chicago, formed in 1994. The band includes vocalist David Draiman, guitarist/keyboardist Dan Donegan, bassist John Moyer and drummer Mike Wengren. Donegan and Wengren have been involved in the band since its inception, with Moyer replacing former bassist Steve "Fuzz" Kmak and Draiman replacing original lead vocalist Erich Awalt. The band has released seven studio albums, five of which have consecutively debuted at number one on the Billboard 200. Disturbed went into hiatus in October 2011, during which the band\'s members focused on various side projects, and returned in June 2015, releasing their first album in four years, Immortalized in August 2015. They also released two live albums, Music as a Weapon II in February 2004 and Disturbed: Live at Red Rocks in November 2016. Disturbed has sold over 17 million records worldwide, making them one of the most successful rock bands in the modern era alongside Slipknot and Godsmack, among others.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Pop_Evil', 'artist_name': 'Pop Evil', 'wiki': 'http://en.wikipedia.org/wiki/Pop_Evil', 'hometown': 'http://dbpedia.org/resource/Muskegon,_Michigan', 'start_year': '2001', 'labels': ['http://dbpedia.org/resource/MNRK_Music_Group'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['Dave Grahs ', 'Leigh Kakaty', 'Nick Fuelling', 'Hayley Cramer'], 'old_members': ['Jamie Nummer', 'Dylan Allison', 'Tony Greve', 'Chachi Riot', 'Jay Taylor', 'Aaron Antoon ', 'Matt DiRito'], 'related_artists': ['http://dbpedia.org/resource/Jason_Hartless'], 'abstract': 'Pop Evil is an American rock band that was formed in North Muskegon, Michigan, in 2001 by Leigh Kakaty. The band\'s roots reside in TenFive, a group formed in the late-1990s by Kakaty and guitarist Jason Reed. Pop Evil won the Radio Contraband Rock Radio Award for "Song of the Year" for "Trenches" in 2013.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Seether', 'artist_name': 'Seether', 'wiki': 'http://en.wikipedia.org/wiki/Seether', 'hometown': 'http://dbpedia.org/resource/Pretoria', 'start_year': '1999', 'aliases': ['Saron Gas (1999–2002)'], 'labels': ['http://dbpedia.org/resource/Concord_Music_Group', 'http://dbpedia.org/resource/Fantasy_Records', 'http://dbpedia.org/resource/Spinefarm_Records', 'http://dbpedia.org/resource/Wind-up_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['http://dbpedia.org/resource/Corey_Lowery', 'http://dbpedia.org/resource/Dale_Stewart', 'http://dbpedia.org/resource/Shaun_Morgan', 'John Humphrey'], 'old_members': ['http://dbpedia.org/resource/Patrick_Callahan', 'http://dbpedia.org/resource/Troy_McLawhorn', 'Johan Greyling', 'Tyronne Morris', 'Nick Oshiro', 'David "Dave" Cohoe', 'Pat Callahan'], 'related_artists': ['http://dbpedia.org/resource/Brian_Tichy', 'http://dbpedia.org/resource/Clint_Lowery', 'http://dbpedia.org/resource/Corey_Lowery', 'http://dbpedia.org/resource/Dale_Stewart', 'http://dbpedia.org/resource/Dark_New_Day', 'http://dbpedia.org/resource/Diana_Meltzer', 'http://dbpedia.org/resource/Edgewater_(band)', 'http://dbpedia.org/resource/Josh_Freese', 'http://dbpedia.org/resource/Memento_(band)', 'http://dbpedia.org/resource/Patrick_Callahan', 'http://dbpedia.org/resource/Saint_Asonia', 'http://dbpedia.org/resource/Shaun_Morgan', 'http://dbpedia.org/resource/Troy_McLawhorn', 'http://dbpedia.org/resource/Van_Coke_Kartel'], 'abstract': 'Seether are a South African rock band founded in 1999 in Pretoria, Gauteng. The band originally performed under the name "Saron Gas" until 2002, when they moved to the United States and changed it to Seether to avoid confusion with the deadly chemical known as sarin gas. Lead vocalist and guitarist Shaun Morgan is the band\'s longest serving member, bassist Dale Stewart joined shortly after formation while drummer John Humphrey joined them for the band\'s second album. Since 2018, the band has been employing second guitarist Corey Lowery. Several notable guitarists like Corey\'s brother Clint and Troy McLawhorn have toured or recorded with the band, however, Shaun has recorded most guitar parts for the band\'s records. Seether gained mainstream popularity in 2002 with their US Active Rock number one single "Fine Again". Their success was sustained in 2004 with the single "Broken", which peaked at number 20 on the Billboard Hot 100. They have experienced continued success with many number one hits on the Hot Mainstream Rock Tracks chart, such as "Remedy", "Fake It", "Country Song", "Words as Weapons", "Let You Down" and "Dangerous". The band has released eight studio albums; their most recent, Si Vis Pacem, Para Bellum, was released on 28 August 2020.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Starset', 'artist_name': 'Starset', 'wiki': 'http://en.wikipedia.org/wiki/Starset', 'hometown': 'http://dbpedia.org/resource/Columbus,_Ohio', 'start_year': '2013', 'labels': ['http://dbpedia.org/resource/Fearless_Records', 'http://dbpedia.org/resource/Razor_&amp;_Tie'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Electronic_rock', 'http://dbpedia.org/resource/Hard_rock'], 'actual_members': ['Dustin Bates', 'Ron DeChant', 'Brock Richards', 'Adam Gilbert'], 'related_artists': ['http://dbpedia.org/resource/Downplay', 'http://dbpedia.org/resource/Joe_Rickard', 'http://dbpedia.org/resource/Live_My_Last', 'http://dbpedia.org/resource/Luke_Holland'], 'abstract': 'Starset is an American rock band from Columbus, Ohio, formed by Dustin Bates in 2013. They released their debut album, Transmissions, in 2014 and their second album, Vessels, on January 20, 2017. The band has found success in expanding the ideas of their concept albums through social media and YouTube, with the band generating over $230,000 in revenue from views from the latter as of November 2016. Their single "My Demons" had accumulated over 280 million YouTube views in the same time period. Their most commercially successful song, "Monster", peaked at number 2 on the Billboard US Mainstream Rock chart in May 2017. A third studio album, Divisions, was released on September 13, 2019, with their fourth studio album, Horizons, released on October 22, 2021.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Highly_Suspect', 'artist_name': 'Highly Suspect', 'wiki': 'http://en.wikipedia.org/wiki/Highly_Suspect', 'hometown': 'http://dbpedia.org/resource/Massachusetts', 'start_year': '2009', 'labels': ['http://dbpedia.org/resource/300_Entertainment', 'http://dbpedia.org/resource/Atlantic_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Blues_rock', 'http://dbpedia.org/resource/Grunge', 'http://dbpedia.org/resource/Hard_rock'], 'actual_members': ['Johnny Stevens ', 'Rich Meyer', 'Ryan Meyer', 'Matt Kofos'], 'related_artists': ['http://dbpedia.org/resource/Fairy_Bones'], 'abstract': 'Highly Suspect is an American rock band from Cape Cod, Massachusetts. The band consists of twin brothers Rich (bass guitar, backing vocals) and Ryan Meyer (drums, backing vocals), Johnny Stevens (guitar, lead vocals), and Matt Kofos (guitar, synthesizer, backing vocals). After starting as a bar cover band, they relocated to Brooklyn, New York, where they recorded The Worst Humans EP with producer Joel Hamilton. The band\'s first studio album, Mister Asylum, was released on July 17, 2015, earning Highly Suspect a nomination for Best Rock Album at the 58th Annual Grammy Awards. The song "Lydia" was also nominated for Best Rock Song. Their second studio album, The Boy Who Died Wolf, was released on November 18, 2016. Two singles have been released from the album, "My Name Is Human", which topped the Billboard US Mainstream Rock Songs chart, and "Little One", which peaked at number 2 on the same chart. Highly Suspect\'s third studio album, MCID, was released on November 1, 2019.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Red_Sun_Rising', 'artist_name': 'Red Sun Rising', 'wiki': 'http://en.wikipedia.org/wiki/Red_Sun_Rising', 'hometown': 'http://dbpedia.org/resource/Ohio', 'start_year': '2007', 'end_year': '2020', 'labels': ['http://dbpedia.org/resource/Razor_&amp;_Tie'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Hard_rock'], 'actual_members': ['Dave McGarry', 'Mike Protich', 'Pat Gerasia', 'Ricky Miller', 'Ryan Williams'], 'old_members': ['Adam Mercer', 'Bobby Consiglio', 'Hayes Hornish', 'Mark Jendrisak', 'Mark Matthews', 'Mitch Bandel', 'Tyler Valendza'], 'abstract': 'Red Sun Rising is an American rock band from Akron, Ohio that is currently on hiatus. The band has released two studio albums through the Razor &amp; Tie record label; their first, Polyester Zeal, in 2015, and their second, Thread, on March 30, 2018. The band also released an EP titled Peel on March 22, 2019.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Hellyeah', 'artist_name': 'Hellyeah', 'wiki': 'http://en.wikipedia.org/wiki/Hellyeah', 'hometown': 'http://dbpedia.org/resource/Dallas', 'start_year': '2006', 'end_year': '2021', 'labels': ['http://dbpedia.org/resource/Eleven_Seven_Label_Group', 'http://dbpedia.org/resource/Epic_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Groove_metal', 'http://dbpedia.org/resource/Heavy_metal_music', 'Heavy metal'], 'old_members': ['http://dbpedia.org/resource/Bob_Kakaha', 'http://dbpedia.org/resource/Chad_Gray', 'http://dbpedia.org/resource/Greg_Tribbett', 'http://dbpedia.org/resource/Nothingface_(band)', 'http://dbpedia.org/resource/Roy_Mayorga', 'http://dbpedia.org/resource/Tom_Maxwell_(guitarist)', 'http://dbpedia.org/resource/Vinnie_Paul', 'Jerry Montano', 'Bob Zilla', 'Christian Brady', 'Kyle Sanders'], 'related_artists': ['http://dbpedia.org/resource/Audiotopsy_(band)', 'http://dbpedia.org/resource/Bob_Kakaha', 'http://dbpedia.org/resource/Chad_Gray', 'http://dbpedia.org/resource/Damageplan', 'http://dbpedia.org/resource/Deadlights_(American_band)', 'http://dbpedia.org/resource/Gasoline_(band)', 'http://dbpedia.org/resource/Greg_Tribbett', 'http://dbpedia.org/resource/MonstrO_(band)', 'http://dbpedia.org/resource/Mudvayne', 'http://dbpedia.org/resource/Nothingface_(band)', 'http://dbpedia.org/resource/Pantera', 'http://dbpedia.org/resource/Roy_Mayorga', 'http://dbpedia.org/resource/Stone_Sour', 'http://dbpedia.org/resource/Tom_Maxwell_(guitarist)__Tom_Maxwell__1', 'http://dbpedia.org/resource/Vinnie_Paul'], 'abstract': "Hellyeah, stylized as HELLYEAH, was an American heavy metal supergroup formed in Dallas, Texas, in 2006. The band's last lineup consisted of lead vocalist Chad Gray, guitarists Christian Brady and Tom Maxwell, bassist Kyle Sanders, and drummer Roy Mayorga. The idea to form a supergroup originated in 2000 on the Tattoo the Earth tour, although plans were constantly put on hold due to scheduling conflicts. The summer of 2006 allowed the band to take the project seriously and record its first album. Recorded at Chasin' Jason studio in Dimebag Darrell's backyard, their self-titled album entered the Billboard 200 at number 9, selling 45,000 copies. They went on to release five more studio albums between 2010 and 2019. As of 2021, the band is on hiatus."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Rise_Against', 'artist_name': 'Rise Against', 'wiki': 'http://en.wikipedia.org/wiki/Rise_Against', 'hometown': 'http://dbpedia.org/resource/Illinois', 'start_year': '1999', 'aliases': ['Transistor Revolt'], 'labels': ['http://dbpedia.org/resource/DGC_Records', 'http://dbpedia.org/resource/Fat_Wreck_Chords', 'http://dbpedia.org/resource/Geffen_Records', 'http://dbpedia.org/resource/Interscope_Records', 'http://dbpedia.org/resource/Loma_Vista_Recordings', 'http://dbpedia.org/resource/Virgin_Records'], 'genres': ['http://dbpedia.org/resource/Hardcore_punk', 'http://dbpedia.org/resource/Melodic_hardcore', 'http://dbpedia.org/resource/Punk_rock'], 'actual_members': ['http://dbpedia.org/resource/Brandon_Barnes', 'http://dbpedia.org/resource/Joe_Principe', 'http://dbpedia.org/resource/Tim_McIlrath', 'http://dbpedia.org/resource/Zach_Blair'], 'old_members': ['Dan Wleklinski', 'Kevin White', 'Todd Mohney', 'Chris Chasse', 'Tony Tintari'], 'related_artists': ['http://dbpedia.org/resource/88_Fingers_Louie', 'http://dbpedia.org/resource/Alexisonfire', 'http://dbpedia.org/resource/Arma_Angelus', 'http://dbpedia.org/resource/Axis_of_Justice', 'http://dbpedia.org/resource/Bad_Waitress', 'http://dbpedia.org/resource/Baxter_(punk_band)', 'http://dbpedia.org/resource/Billy_Talent', 'http://dbpedia.org/resource/Brandon_Barnes', 'http://dbpedia.org/resource/Cancer_Bats', 'http://dbpedia.org/resource/Gwar', 'http://dbpedia.org/resource/Hagfish_(band)', 'http://dbpedia.org/resource/Joe_Principe', 'http://dbpedia.org/resource/Jon_Snodgrass_(musician)', 'http://dbpedia.org/resource/Only_Crime', 'http://dbpedia.org/resource/Squirtgun', 'http://dbpedia.org/resource/The_Honor_System_(band)', 'http://dbpedia.org/resource/The_Killing_Tree', 'http://dbpedia.org/resource/The_Methadones', 'http://dbpedia.org/resource/Tim_McIlrath', 'http://dbpedia.org/resource/Zach_Blair'], 'abstract': 'Rise Against is an American punk rock band from Chicago, formed in 1999. The group\'s current line-up comprises vocalist/rhythm guitarist Tim McIlrath, lead guitarist Zach Blair, bassist Joe Principe and drummer Brandon Barnes. Rooted in hardcore punk and melodic hardcore, Rise Against\'s music emphasizes melody, catchy hooks, an aggressive sound and playstyle, and rapid tempos. Lyrically, the band is known for their outspoken social commentary, covering a wide range of topics such as political injustice, animal rights, humanitarianism, and environmentalism. The band spent its first four years signed to the independent record label Fat Wreck Chords, on which they released two studio albums, The Unraveling (2001) and Revolutions per Minute (2003). Both the albums were met with underground success, and in 2003 the band signed with the major label Dreamworks, which was absorbed by Geffen. Rise Against\'s major label debut Siren Song of the Counter Culture (2004) brought the band mainstream success, largely in part to the popularity of the singles "Give It All" and "Swing Life Away". The band\'s next album, The Sufferer &amp; the Witness (2006), peaked at number ten on the Billboard 200 in the United States, and was Rise Against\'s first album to chart in countries outside of North America. With the release of Appeal to Reason (2008), Rise Against\'s music shifted toward a more accessible and radio-friendly sound, with greater emphasis on production value. The album\'s third single, "Savior", broke the record for the most consecutive weeks spent on both the Hot Rock Songs and Alternative Songs charts. Rise Against\'s popularity grew with the release of Endgame (2011), which peaked at number two on the Billboard 200, and charted highly worldwide. The band\'s 7th and 8th albums, The Black Market (2014) and Wolves (2017) continued the trend of commercial success, and both peaked with the top ten on the Billboard 200. Rise Against is also known for their advocacy of progressivism, supporting organizations such as Amnesty International and the It Gets Better Project. The band actively promotes animal rights and most of the members are straight edge, PETA supporters and vegetarians.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/All_That_Remains_(band)', 'artist_name': 'All That Remains', 'wiki': 'http://en.wikipedia.org/wiki/All_That_Remains_(band)', 'hometown': 'http://dbpedia.org/resource/Springfield,_Massachusetts', 'start_year': '1998', 'labels': ['http://dbpedia.org/resource/Prosthetic_Records', 'http://dbpedia.org/resource/Razor_&amp;_Tie'], 'genres': ['http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music', 'http://dbpedia.org/resource/Melodic_death_metal', 'http://dbpedia.org/resource/Metalcore'], 'actual_members': ['http://dbpedia.org/resource/Jason_Costa', 'http://dbpedia.org/resource/Jason_Richardson_(musician)', 'http://dbpedia.org/resource/Philip_Labonte', 'Mike Martin'], 'old_members': ['http://dbpedia.org/resource/Jeanne_Sagan', 'http://dbpedia.org/resource/Matt_Deis', 'http://dbpedia.org/resource/Shannon_Lucas', 'Chris Bartlett', 'Michael Bartlett', 'Dan Egan', 'Aaron Patrick', 'Oli Herbert'], 'related_artists': ['http://dbpedia.org/resource/Adam_Dutkiewicz', 'http://dbpedia.org/resource/Bury_Your_Dead', 'http://dbpedia.org/resource/Diecast_(band)', 'http://dbpedia.org/resource/Divine_Heresy', 'http://dbpedia.org/resource/Jason_Costa', 'http://dbpedia.org/resource/Jason_Richardson_(musician)', 'http://dbpedia.org/resource/Jason_Suecof', 'http://dbpedia.org/resource/Jeanne_Sagan', 'http://dbpedia.org/resource/Matt_Deis', 'http://dbpedia.org/resource/Philip_Labonte', 'http://dbpedia.org/resource/Shadows_Fall', 'http://dbpedia.org/resource/Shannon_Lucas', 'http://dbpedia.org/resource/The_Acacia_Strain', 'http://dbpedia.org/resource/The_Black_Dahlia_Murder_(band)', 'http://dbpedia.org/resource/The_Empire_Shall_Fall', 'http://dbpedia.org/resource/Tim_Yeung', 'http://dbpedia.org/resource/Tony_Laureano', 'http://dbpedia.org/resource/Zeuss'], 'abstract': "All That Remains is an American heavy metal band from Springfield, Massachusetts, formed in 1998. They have released nine studio albums, a live CD and DVD, and have sold over a million records worldwide. The group currently consists of vocalist Philip Labonte, rhythm guitarist Mike Martin, former Diecast drummer Jason Costa, and lead guitarist Jason Richardson, with Labonte being the last remaining original member. In spite of this, the band's line-up had remained consistent from the release of 2008's Overcome until 2015's The Order of Things, spanning four albums. This line-up changed, however, in September 2015, when long-time bassist Jeanne Sagan left the band, with Patrick taking her place and then again on February 5, 2019, when the band confirmed that Jason Richardson would be joining the band to replace the deceased lead guitarist and original member, Oli Herbert. In 2021, Aaron Patrick parted ways with All That Remains to focus on his other band, Bury Your Dead."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Killswitch_Engage', 'artist_name': 'Killswitch Engage', 'wiki': 'http://en.wikipedia.org/wiki/Killswitch_Engage', 'hometown': 'http://dbpedia.org/resource/Westfield,_Massachusetts', 'start_year': '1999', 'labels': ['http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Ferret_Music', 'http://dbpedia.org/resource/Metal_Blade_Records', 'http://dbpedia.org/resource/Roadrunner_Records', 'http://dbpedia.org/resource/Sony_Music'], 'plays_in': ['http://dbpedia.org/resource/Catch_the_Throne', 'http://dbpedia.org/resource/Roadrunner_United'], 'genres': ['http://dbpedia.org/resource/Metalcore'], 'actual_members': ['http://dbpedia.org/resource/Adam_Dutkiewicz', 'http://dbpedia.org/resource/Jesse_Leach', 'http://dbpedia.org/resource/Joel_Stroetzel', 'http://dbpedia.org/resource/Justin_Foley', "http://dbpedia.org/resource/Mike_D'Antonio"], 'old_members': ['http://dbpedia.org/resource/Howard_Jones_(American_musician)', 'Tom Gomes', 'Pete Cortese'], 'related_artists': ['http://dbpedia.org/resource/Adam_Dutkiewicz', 'http://dbpedia.org/resource/Affiance_(band)', 'http://dbpedia.org/resource/Blood_Has_Been_Shed', 'http://dbpedia.org/resource/Death_Ray_Vision', 'http://dbpedia.org/resource/Howard_Jones_(American_musician)', 'http://dbpedia.org/resource/Jesse_Leach', 'http://dbpedia.org/resource/Joel_Stroetzel', 'http://dbpedia.org/resource/Jordan_Mancino', 'http://dbpedia.org/resource/Justin_Foley', "http://dbpedia.org/resource/Mike_D'Antonio", 'http://dbpedia.org/resource/Overcast_(band)', 'http://dbpedia.org/resource/Serpentine_Dominion', 'http://dbpedia.org/resource/Shadows_Fall', 'http://dbpedia.org/resource/The_Empire_Shall_Fall', 'http://dbpedia.org/resource/Times_of_Grace', 'http://dbpedia.org/resource/Unearth'], 'abstract': 'Killswitch Engage is an American metalcore band from Westfield, Massachusetts, formed in 1999 after the disbanding of Overcast and Aftershock. Killswitch Engage\'s current lineup consists of vocalist Jesse Leach, guitarists Joel Stroetzel and Adam Dutkiewicz, bassist Mike D\'Antonio, and drummer Justin Foley. The band has released eight studio albums and two live performance albums. Their eighth studio album, Atonement, was released on August 16, 2019. Killswitch Engage rose to fame with its 2004 release The End of Heartache, which peaked at number 21 on the Billboard 200, and was certified gold by the RIAA in December 2007 for over 500,000 shipments in the United States. The title track, "The End of Heartache", was nominated for a Grammy Award in 2005 for Best Metal Performance, and a live DVD titled (Set This) World Ablaze was released in 2005. Killswitch Engage has performed at festivals such as Soundwave Festival, Wacken Open Air, Reading and Leeds Festivals, Ozzfest, Download Festival, Rock on the Range, Rock am Ring, Mayhem Festival, Monsters of Rock, Pointfest, Knotfest and Heavy MTL. The band has sold over four million records in the U.S. and has been considered notable within the New Wave of American Heavy Metal, and has also been considered one of the earliest leading forces of the metalcore genre.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Skillet_(band)', 'artist_name': 'Skillet', 'wiki': 'http://en.wikipedia.org/wiki/Skillet_(band)', 'hometown': 'http://dbpedia.org/resource/Memphis,_Tennessee', 'start_year': '1996', 'labels': ['http://dbpedia.org/resource/Ardent_Records', 'http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Fair_Trade_Services', 'http://dbpedia.org/resource/ForeFront_Records', 'http://dbpedia.org/resource/Lava_Records', 'http://dbpedia.org/resource/Warner_Music_Group'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Christian_metal', 'http://dbpedia.org/resource/Christian_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Symphonic_metal'], 'actual_members': ['http://dbpedia.org/resource/Jen_Ledger', 'http://dbpedia.org/resource/John_Cooper_(musician)', 'Korey Cooper', 'Seth Morrison'], 'old_members': ['http://dbpedia.org/resource/Ken_Steorts', 'Kevin Haaland', 'Trey McClurkin', 'Jonathan Salas', 'Ben Kasica', 'Lori Peters'], 'related_artists': ['http://dbpedia.org/resource/Brian_Howes', 'http://dbpedia.org/resource/Jen_Ledger', 'http://dbpedia.org/resource/John_Cooper_(musician)', 'http://dbpedia.org/resource/Scarlet_White', 'http://dbpedia.org/resource/T._J._Harris'], 'abstract': 'Skillet is an American Christian rock band formed in Memphis, Tennessee, in 1996. The band currently consists of husband John Cooper (lead vocals, bass) and wife Korey Cooper (rhythm guitar, keyboards, backing vocals) along with Jen Ledger (drums, vocals) and Seth Morrison (lead guitar). The band has released ten albums, two of which, Collide and Comatose, received Grammy nominations. Two of their albums, Comatose and Awake, are certified Platinum and Double Platinum respectively by the RIAA, while Rise and Unleashed are certified Gold as of June 29, 2020. Five of their songs, "Whispers in the Dark", "Hero", "Monster", "Awake and Alive", and "Feel Invincible", are certified Platinum, while another four, "Rebirthing", "Comatose", "Not Gonna Die", and "The Resistance" are certified Gold. Skillet went through several line-up changes early in their career, leaving founder John Cooper as the only original member remaining in the band. They are known for a relentless touring schedule, which garnered them a top five ranking in the Hardest Working Bands of 2010 by Songkick.com.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Of_Mice_&amp;_Men_(band)', 'artist_name': 'Of Mice &amp; Men', 'wiki': 'http://en.wikipedia.org/wiki/Of_Mice_&amp;_Men_(band)', 'hometown': 'http://dbpedia.org/resource/Costa_Mesa,_California', 'start_year': '2009', 'labels': ['http://dbpedia.org/resource/Rise_Records', 'http://dbpedia.org/resource/SharpTone_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Metalcore', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Post-hardcore'], 'actual_members': ['http://dbpedia.org/resource/Aaron_Pauley', 'Valentino Arteaga', 'Alan Ashby', 'Phil Manansala'], 'old_members': ['http://dbpedia.org/resource/Austin_Carlile', 'http://dbpedia.org/resource/Jerry_Roush', 'Shayley Bourget', 'Jaxin Hall', 'Jon Kintz'], 'related_artists': ['http://dbpedia.org/resource/A_Static_Lullaby', 'http://dbpedia.org/resource/Aaron_Pauley', 'http://dbpedia.org/resource/Austin_Carlile', 'http://dbpedia.org/resource/Dayshell', 'http://dbpedia.org/resource/Glass_Cloud', "http://dbpedia.org/resource/Jamie's_Elsewhere", 'http://dbpedia.org/resource/Jerry_Roush', 'http://dbpedia.org/resource/Lower_Definition', 'http://dbpedia.org/resource/Sherry_Drive', 'http://dbpedia.org/resource/Sky_Eats_Airplane'], 'abstract': "Of Mice &amp; Men (often abbreviated OM&amp;M) is an American rock band formed in Costa Mesa, California, in 2009. The band's line-up currently consists of drummer Valentino Arteaga, guitarists Phil Manansala and Alan Ashby, and bassist and lead vocalist Aaron Pauley. The group was founded by former lead vocalist Austin Carlile and former bassist Jaxin Hall in mid-2009 after Carlile's departure from Attack Attack!. Carlile departed from the band in December 2016 citing that a long-term health condition prompted his exit. After Carlile's departure, the band continued to pursue creating music with Pauley as the band's bassist and lead vocalist. Since 2009, the band has released six studio albums: Of Mice &amp; Men (2010), The Flood (2011), Restoring Force (2014), Cold World (2016), Defy (2018), and Earthandsky (2019). Of Mice &amp; Men's earlier music has been described as metalcore and post-hardcore. Their later material, however, has been considered to be more melodic and shifted over to genres such as nu metal, alternative metal, and hard rock, while retaining their original sound. The band has played international music festivals including the Vans Warped Tour in 2010, 2011, 2012, and 2014 and Soundwave Music Festival in 2013 and 2015."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Uisce_Beatha_(band)', 'artist_name': 'Red', 'wiki': 'http://en.wikipedia.org/wiki/Uisce_Beatha_(band)', 'hometown': 'http://dbpedia.org/resource/London,_Ontario', 'start_year': '1990', 'end_year': '1990', 'genres': ['http://dbpedia.org/resource/Folk_rock'], 'old_members': ['*Alan Glen', '*John Glen', '*Paul Meadows', '*Damian Morrissy', '*Doug Watt', '*Marty Coles', '*Patrick McLaughlin'], 'abstract': 'Uisce Beatha was a 1990s Canadian folk rock band based initially in London, Ontario and after 1993 in Halifax, Nova Scotia. The band took its name from the Irish name for whisky, meaning water of life. Their music ranged from Celtic to punk.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/My_Darkest_Days', 'artist_name': 'My Darkest Days', 'wiki': 'http://en.wikipedia.org/wiki/My_Darkest_Days', 'hometown': 'http://dbpedia.org/resource/Peterborough,_Ontario', 'start_year': '2005', 'end_year': '2013', 'aliases': ['MDD'], 'labels': ['http://dbpedia.org/resource/604_Records', 'http://dbpedia.org/resource/Mercury_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['Matt Walst', 'Reid Henry', 'Brendan McMillan', 'Doug Oliver', '', 'Past members ', 'Chris McMillan', 'Paulo Neta', 'Sal Costa'], 'related_artists': ['http://dbpedia.org/resource/Chad_Kroeger', 'http://dbpedia.org/resource/Cold_Creek_County', 'http://dbpedia.org/resource/Jessie_James_Decker', 'http://dbpedia.org/resource/Ludacris', 'http://dbpedia.org/resource/My_Darkest_Days', 'http://dbpedia.org/resource/Smashing_Satellites', 'http://dbpedia.org/resource/Three_Days_Grace', 'http://dbpedia.org/resource/Zakk_Wylde'], 'abstract': 'My Darkest Days was a Canadian rock band based in Peterborough, Ontario, consisting of lead singer Matt Walst, bassist Brendan McMillan, drummer Doug Oliver, and keyboardist Reid Henry. They were discovered by Chad Kroeger of Nickelback, who signed them to his record label, 604 Records. They are best known for their 2010 single "Porn Star Dancing". In June 2010 the band went on tour with Sick Puppies, Janus, and It\'s Alive, and shot the video for "Porn Star Dancing" in Las Vegas. In August 2010, they toured with Trapt, Skillet, and Papa Roach. Chad Kroeger appears and sings in the "Porn Star Dancing" video, as does American rapper Ludacris (in the extended version only) and Black Label Society frontman Zakk Wylde, playing lead guitar for the single. Matt Walst is currently the lead vocalist of his brother Brad\'s band Three Days Grace.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Zakk_Wylde', 'artist_name': 'Zakk Wylde', 'wiki': 'http://en.wikipedia.org/wiki/Zakk_Wylde', 'hometown': 'http://dbpedia.org/resource/Jackson_Township,_New_Jersey', 'birth_date': '14 January 1967', 'start_year': '1987', 'labels': ['http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Geffen_Records', 'http://dbpedia.org/resource/Inside_Out_Music', 'http://dbpedia.org/resource/Roadrunner_Records', 'http://dbpedia.org/resource/Sony_Music', 'http://dbpedia.org/resource/Spitfire_Records'], 'genres': ['http://dbpedia.org/resource/Groove_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music', 'http://dbpedia.org/resource/Southern_rock', 'Heavy metal'], 'related_artists': ['http://dbpedia.org/resource/Black_Label_Society', "http://dbpedia.org/resource/Greg_D'Angelo", 'http://dbpedia.org/resource/Joey_Castillo', 'http://dbpedia.org/resource/My_Darkest_Days', 'http://dbpedia.org/resource/Ozzy_Osbourne', 'http://dbpedia.org/resource/Pride_&amp;_Glory_(band)', 'http://dbpedia.org/resource/Rick_Parashar', 'http://dbpedia.org/resource/Thomas_McRocklin', 'http://dbpedia.org/resource/White_Lion'], 'abstract': 'Zachary Phillip Wylde (born Jeffrey Phillip Wielandt; January 14, 1967) is an American guitarist, singer and songwriter. He is best known for his tenure as the lead guitarist for Ozzy Osbourne and as the founder, lead guitarist, and lead singer of the heavy metal band Black Label Society. His signature bulls-eye design appears on many of his guitars and is widely recognized. He was also the lead guitarist and vocalist of Pride &amp; Glory, who released one self-titled album in 1994 before disbanding. As a solo artist, he released the albums Book of Shadows and Book of Shadows II.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/The_Offspring', 'artist_name': 'The Offspring', 'wiki': 'http://en.wikipedia.org/wiki/The_Offspring', 'hometown': 'http://dbpedia.org/resource/Garden_Grove,_California', 'start_year': '1984', 'aliases': ['(1984–1986)', 'Manic Subsidal'], 'labels': ['http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Concord_Records', 'http://dbpedia.org/resource/Epitaph_Records', 'http://dbpedia.org/resource/Nemesis_Records', 'http://dbpedia.org/resource/Nitro_Records', 'http://dbpedia.org/resource/Time_Bomb_Recordings'], 'plays_in': ['http://dbpedia.org/resource/Woodstock_1999_(album)'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Melodic_hardcore', 'http://dbpedia.org/resource/Pop-punk', 'http://dbpedia.org/resource/Punk_rock', 'http://dbpedia.org/resource/Skate_punk', 'pop punk'], 'actual_members': ['http://dbpedia.org/resource/Dexter_Holland', 'http://dbpedia.org/resource/Noodles_(musician)'], 'old_members': ['http://dbpedia.org/resource/Atom_Willard', 'http://dbpedia.org/resource/Greg_K.', 'http://dbpedia.org/resource/James_Lilja', 'http://dbpedia.org/resource/Pete_Parada', 'http://dbpedia.org/resource/Ron_Welty'], 'related_artists': ['http://dbpedia.org/resource/311_(band)', 'http://dbpedia.org/resource/Andrew_Freeman_(musician)', 'http://dbpedia.org/resource/Atom_Willard', 'http://dbpedia.org/resource/Chris_Higgins_(musician)', 'http://dbpedia.org/resource/Dexter_Holland', 'http://dbpedia.org/resource/F.O.D._(band)', 'http://dbpedia.org/resource/Face_to_Face_(punk_band)', 'http://dbpedia.org/resource/Gob_(band)', 'http://dbpedia.org/resource/Greg_K.', 'http://dbpedia.org/resource/H2O_(American_band)', 'http://dbpedia.org/resource/Jackson_United', 'http://dbpedia.org/resource/James_Lilja', 'http://dbpedia.org/resource/Jamie_Miller_(American_musician)', 'http://dbpedia.org/resource/Josh_Freese', 'http://dbpedia.org/resource/Noodles_(musician)', 'http://dbpedia.org/resource/Pete_Parada', 'http://dbpedia.org/resource/Rocket_from_the_Crypt', 'http://dbpedia.org/resource/Ron_Welty', 'http://dbpedia.org/resource/Scott_Shiflett', 'http://dbpedia.org/resource/Steady_Ground', 'http://dbpedia.org/resource/The_Didjits', 'http://dbpedia.org/resource/The_Special_Goodness', 'http://dbpedia.org/resource/Thom_Wilson', 'http://dbpedia.org/resource/Tom_Thacker_(musician)', 'http://dbpedia.org/resource/Tony_Kanal'], 'abstract': 'The Offspring is an American rock band from Garden Grove, California, formed in 1984. Originally formed under the name Manic Subsidal, the band\'s lineup consists of lead vocalist and rhythm guitarist Bryan "Dexter" Holland, bassist Todd Morse and lead guitarist Kevin "Noodles" Wasserman. Over the course of their 37-year career, they have released ten studio albums and experienced multiple lineup changes, most noticeably with their drummers. Their longest-serving drummer was Ron Welty, who replaced original drummer James Lilja in 1987, and stayed with the band for 16 years; he was replaced by Atom Willard in 2003, and then four years later by former drummer Pete Parada. Gregory "Greg K." Kriesel, one of the co-founders of the Offspring, was their bassist until 2018 when he parted ways due to business disputes with the band, leaving Holland as the sole remaining original member. Kriesel was replaced by Todd Morse of H2O, who had been the Offspring\'s touring guitarist since 2009. The Offspring is often credited—alongside fellow California punk bands Green Day and Rancid—for reviving mainstream interest in punk rock in the 1990s. They have sold over 40 million records worldwide, making them one of the best-selling punk rock bands in history. After achieving a local following with their early releases, including their 1989 self-titled debut album and the vinyl-only EP Baghdad (1991), The Offspring signed with Epitaph Records and released two albums for the independent label, Ignition (1992) and Smash (1994). Smash, which contained the band\'s first major hit "Come Out and Play", propelled punk rock into the mainstream and holds the distinction as one of the best-selling albums released on an independent record label, selling over eleven million copies worldwide. The success of Smash attracted attention from major labels, including Columbia Records, with whom The Offspring signed in 1996; their first album for the label, Ixnay on the Hombre (1997), did not match the success of its predecessor, but received critical acclaim and gold and platinum awards. The band\'s fifth album, Americana (1998), regained their previous level of popularity, obtaining support from MTV and radio, and selling over five million units in the US. The Offspring has since released five more albums: Conspiracy of One (2000), Splinter (2003), Rise and Fall, Rage and Grace (2008), Days Go By (2012) and Let the Bad Times Roll (2021).'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Saliva_(band)', 'artist_name': 'Saliva', 'wiki': 'http://en.wikipedia.org/wiki/Saliva_(band)', 'hometown': 'http://dbpedia.org/resource/Bartlett,_Tennessee', 'start_year': '1996', 'labels': ['http://dbpedia.org/resource/Island_Records', 'http://dbpedia.org/resource/Megaforce_Records'], 'plays_in': ['http://dbpedia.org/resource/Swimfan'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Post-grunge', 'http://dbpedia.org/resource/Rap_metal'], 'actual_members': ['http://dbpedia.org/resource/Brad_Stewart', 'Paul Crosby ', 'Wayne Swinny ', 'Bobby Amaru'], 'old_members': ['http://dbpedia.org/resource/Josey_Scott', "Chris D'Abaldo", 'Dave Novotny', 'Jonathan Montoya', 'Todd Poole '], 'related_artists': ['http://dbpedia.org/resource/Brad_Arnold', 'http://dbpedia.org/resource/Brad_Stewart', 'http://dbpedia.org/resource/Burn_Season', 'http://dbpedia.org/resource/Egypt_Central', 'http://dbpedia.org/resource/Fuel_(band)', 'http://dbpedia.org/resource/Full_Devil_Jacket', 'http://dbpedia.org/resource/Josey_Scott', 'http://dbpedia.org/resource/Roxy_Blue', 'http://dbpedia.org/resource/Zach_Myers'], 'abstract': 'Saliva is an American rock band, formed in Memphis, Tennessee, in 1996. Saliva released their self-titled debut album on August 26, 1997, through Rockingchair Records, a label owned and operated by Mark Yoshida. The release was recorded and produced by Bill Pappas at Rockingchair Studios. They were signed to Island Records and went on to release their second studio album Every Six Seconds. Saliva later released their third studio album titled Back into Your System on November 12, 2002, which reached No. 19 on the Billboard 200. Back into Your System launched one of Saliva\'s most successful songs, "Always", reaching No. 51 on the Billboard Hot 100 and No. 1 on the Modern Rock Chart. Three years after Survival of the Sickest, Saliva released Blood Stained Love Story on January 23, 2007, repeating Back into Your System\'s chart performance at No. 19 on the Billboard 200. Its first single, "Ladies and Gentlemen", peaked at No. 2 on the Mainstream Rock Chart.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Thirty_Seconds_to_Mars', 'artist_name': 'Thirty Seconds to Mars', 'wiki': 'http://en.wikipedia.org/wiki/Thirty_Seconds_to_Mars', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '1998', 'labels': ['http://dbpedia.org/resource/EMI', 'http://dbpedia.org/resource/Immortal_Records', 'http://dbpedia.org/resource/Interscope_Records', 'http://dbpedia.org/resource/Universal_Music_Group', 'http://dbpedia.org/resource/Virgin_Records'], 'plays_in': ['http://dbpedia.org/resource/A_Day_in_the_Life_of_America', 'http://dbpedia.org/resource/Amor_à_Vida', 'http://dbpedia.org/resource/Artifact_(film)', 'http://dbpedia.org/resource/The_Vision_of_Paolo_Soleri:_Prophet_in_the_Desert'], 'genres': ['http://dbpedia.org/resource/Alternative_rock'], 'actual_members': ['http://dbpedia.org/resource/Jared_Leto', 'http://dbpedia.org/resource/Shannon_Leto'], 'old_members': ['http://dbpedia.org/resource/Matt_Wachter', 'http://dbpedia.org/resource/Solon_Bixler', 'http://dbpedia.org/resource/Tomo_Miličević'], 'related_artists': ['http://dbpedia.org/resource/Brian_Gardner', 'http://dbpedia.org/resource/Contemplate_(pop_duo)', 'http://dbpedia.org/resource/David_Bason', 'http://dbpedia.org/resource/Great_Northern_(indie_band)', 'http://dbpedia.org/resource/Josh_Abraham', 'http://dbpedia.org/resource/Kiwi_Time', 'http://dbpedia.org/resource/Matt_Frey', 'http://dbpedia.org/resource/Matt_McJunkins', 'http://dbpedia.org/resource/Matt_Wachter', 'http://dbpedia.org/resource/Sam_de_Jong', 'http://dbpedia.org/resource/Solon_Bixler', 'http://dbpedia.org/resource/The_Wondergirls', 'http://dbpedia.org/resource/Tim_Kelleher_(musician)'], 'abstract': "Thirty Seconds to Mars (commonly stylized as 30 Seconds to Mars) is an American rock band from Los Angeles, California, formed in 1998. The band consists of brothers Jared Leto (lead vocals, guitar, bass, keyboards) and Shannon Leto (drums, percussion). During the course of its existence, it has undergone various line-up changes. The band's debut album, 30 Seconds to Mars (2002), was produced by Bob Ezrin and released to positive reviews but only to limited commercial success. The band achieved worldwide fame with the release of its second album A Beautiful Lie (2005), which received multiple certifications all over the world. Its next release, This Is War (2009), showed a dramatic evolution in the band's musical style, as it incorporated experimental music as well as eclectic influences. The recording process of the album was marked by a legal dispute with record label EMI that eventually became the subject of the documentary film Artifact (2012). Thirty Seconds to Mars then moved to Universal Music and released the fourth album, Love, Lust, Faith and Dreams (2013), to critical and commercial success. It was followed by America (2018), which polarized critics upon release. As of September 2014, the band had sold over 15 million albums worldwide. Thirty Seconds to Mars has consistently enjoyed sold out tours and numerous headlining festival slots. The band is noted for its energetic live performances and for fusing elements from a wide variety of genres, through its use of philosophical and spiritual lyrics, concept albums, and experimental music. Thirty Seconds to Mars has received several awards and accolades throughout its career, including a Guinness World Record, and has been included in the Kerrang! list of best artists of the 2000s."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Stone_Sour', 'artist_name': 'Stone Sour', 'wiki': 'http://en.wikipedia.org/wiki/Stone_Sour', 'hometown': 'http://dbpedia.org/resource/Des_Moines,_Iowa', 'start_year': '1992', 'end_year': '1997', 'labels': ['http://dbpedia.org/resource/Roadrunner_Records'], 'plays_in': ['http://dbpedia.org/resource/Roadrunner_United'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music', 'heavy metal'], 'actual_members': ['http://dbpedia.org/resource/Christian_Martucci', 'http://dbpedia.org/resource/Corey_Taylor', 'http://dbpedia.org/resource/Johny_Chow', 'http://dbpedia.org/resource/Josh_Rand', 'http://dbpedia.org/resource/Roy_Mayorga'], 'old_members': ['http://dbpedia.org/resource/Jim_Root', 'Shawn Economaki', 'Joel Ekman'], 'related_artists': ['http://dbpedia.org/resource/Amebix', 'http://dbpedia.org/resource/Amen_(American_band)', 'http://dbpedia.org/resource/Axis_of_Justice', 'http://dbpedia.org/resource/Black_President_(band)', 'http://dbpedia.org/resource/Cavalera_Conspiracy', 'http://dbpedia.org/resource/Christian_Martucci', 'http://dbpedia.org/resource/Fireball_Ministry', 'http://dbpedia.org/resource/Hellyeah', 'http://dbpedia.org/resource/Isaac_James', 'http://dbpedia.org/resource/Jim_Root', 'http://dbpedia.org/resource/Johny_Chow', 'http://dbpedia.org/resource/Josh_Rand', 'http://dbpedia.org/resource/Junk_Beer_Kidnap_Band', 'http://dbpedia.org/resource/Mike_Portnoy', 'http://dbpedia.org/resource/Ministry_(band)', 'http://dbpedia.org/resource/Nausea_(band)', 'http://dbpedia.org/resource/Rachel_Bolan', 'http://dbpedia.org/resource/Roy_Mayorga', 'http://dbpedia.org/resource/Shannon_Larkin', 'http://dbpedia.org/resource/Slipknot_(band)', 'http://dbpedia.org/resource/Souls_of_We', 'http://dbpedia.org/resource/Sound_City_Players'], 'abstract': 'Stone Sour is an American rock band formed in Des Moines, Iowa, in 1992. The band performed for five years before disbanding in 1997. They reunited in 2000 and since 2015, the group has consisted of Corey Taylor (lead vocals, guitar), Josh Rand (guitar), Christian Martucci (guitar), Johny Chow (bass) and Roy Mayorga (drums). Longtime members Joel Ekman (drums, percussion) and Shawn Economaki (bass guitar) left the band in 2006 and 2011, respectively. Former lead guitarist Jim Root left in 2014. To date, Stone Sour has released six studio albums: Stone Sour (2002); Come What(ever) May (2006); Audio Secrecy (2010); House of Gold &amp; Bones – Part 1 (2012); House of Gold &amp; Bones – Part 2 (2013) and Hydrograd (2017). They also released a digital live album, Live in Moscow, in 2007. Their album, Hydrograd was released in June 2017 and is their first album to feature guitarist Christian Martucci and bassist Johny Chow. Stone Sour earned the group two Grammy Award nominations, both for Best Metal Performance, for the singles "Get Inside", in 2003, and "Inhale", in 2004. From their album Come What(ever) May, the group received another Grammy Award nomination for Best Metal Performance for the single "30/30-150", in 2007. The band has sold 2.1 million albums in the United States as of April 2017.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Staind', 'artist_name': 'Staind', 'wiki': 'http://en.wikipedia.org/wiki/Staind', 'hometown': 'http://dbpedia.org/resource/Springfield,_Massachusetts', 'start_year': '1995', 'end_year': '2012', 'labels': ['http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Elektra_Records', 'http://dbpedia.org/resource/Flip_Records_(1994)', 'http://dbpedia.org/resource/Roadrunner_Records'], 'plays_in': ['http://dbpedia.org/resource/MTV_The_Return_of_the_Rock'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['http://dbpedia.org/resource/Aaron_Lewis', 'http://dbpedia.org/resource/Mike_Mushok', 'Johnny April', 'Sal Giancarelli'], 'related_artists': ['http://dbpedia.org/resource/Aaron_Lewis', 'http://dbpedia.org/resource/Cold_(band)', 'http://dbpedia.org/resource/David_Bottrill', 'http://dbpedia.org/resource/Kilgore_(band)', 'http://dbpedia.org/resource/Mike_Mushok', 'http://dbpedia.org/resource/Newsted', 'http://dbpedia.org/resource/Saint_Asonia', 'http://dbpedia.org/resource/Soil_(American_band)', 'http://dbpedia.org/resource/Will_Hunt'], 'abstract': 'Staind (/steɪnd/ STAYND) is an American rock band formed in Springfield, Massachusetts, in 1995. The original lineup consisted of lead vocalist and rhythm guitarist Aaron Lewis, lead guitarist Mike Mushok, bassist and backing vocalist Johnny April, and drummer Jon Wysocki. The lineup has been stable outside of the 2011 departure of Wysocki, who was replaced by Sal Giancarelli. Staind has recorded seven studio albums: Tormented (1996), Dysfunction (1999), Break the Cycle (2001), 14 Shades of Grey (2003), Chapter V (2005), The Illusion of Progress (2008), and Staind (2011). The band\'s activity became more sporadic after their self-titled release, with Lewis pursuing a solo country music career and Mushok subsequently joining the band Saint Asonia, but they have continued to tour on and off in the following years. In 2016, Lewis reiterated that the band had not broken up, and would possibly create another album, but that his then-current focus was on his solo career. The band reunited more permanently in 2019 for several shows, continuing with live appearances in 2020. Many of their singles have reached high positions on US rock and all-format charts as well, including "It\'s Been Awhile", "Fade", "Price to Play", "So Far Away", and "Right Here".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/10_Years_(band)', 'artist_name': '10 Years', 'wiki': 'http://en.wikipedia.org/wiki/10_Years_(band)', 'hometown': 'http://dbpedia.org/resource/Tennessee', 'start_year': '1999', 'labels': ['http://dbpedia.org/resource/Mascot_Records', 'http://dbpedia.org/resource/Universal_Records_(1995−2005)', 'http://dbpedia.org/resource/Warner_Music_Group'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Post-grunge', 'http://dbpedia.org/resource/Progressive_metal'], 'actual_members': ['Brian Vodinh', 'Chad Grennor', 'Jesse Hasek', 'Luke Narey', 'Matt Wantland'], 'old_members': ['Andy Parks', 'Chad Huff', 'Kyle Mayer', 'Lewis "Big Lew" Cosby', 'Mike Underdown', 'Ryan "Tater" Johnson', 'Ryan Collier'], 'related_artists': ['http://dbpedia.org/resource/The_American_Plague'], 'abstract': '10 Years is an American alternative metal band formed in Knoxville, Tennessee in 1999. The band consists of lead vocalist Jesse Hasek, lead guitarist Brian Vodinh, rhythm guitarist Matt Wantland, bassist Chad Grennor, and drummer Luke Narey. The group has gone through multiple line-up changes since their inception, with Vodinh and Wantland being the only remaining founding members. To date, they have released nine studio albums, their most recent being Violent Allies, released on September 18, 2020.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Evanescence', 'artist_name': 'Evanescence', 'wiki': 'http://en.wikipedia.org/wiki/Evanescence', 'hometown': 'http://dbpedia.org/resource/Little_Rock,_Arkansas', 'start_year': '1995', 'end_year': '1995', 'labels': ['http://dbpedia.org/resource/BMG_Rights_Management', 'http://dbpedia.org/resource/Concord_Music_Group', 'http://dbpedia.org/resource/Wind-up_Records'], 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Gothic_metal', 'http://dbpedia.org/resource/Gothic_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Nu_metal'], 'actual_members': ['http://dbpedia.org/resource/Amy_Lee', 'http://dbpedia.org/resource/Jen_Majura', 'http://dbpedia.org/resource/Tim_McCord', 'http://dbpedia.org/resource/Troy_McLawhorn', 'http://dbpedia.org/resource/Will_Hunt'], 'old_members': ['http://dbpedia.org/resource/Ben_Moody', 'http://dbpedia.org/resource/David_Hodges', 'http://dbpedia.org/resource/John_LeCompt', 'http://dbpedia.org/resource/Rocky_Gray', 'http://dbpedia.org/resource/Terry_Balsamo', 'Will Boyd'], 'related_artists': ['http://dbpedia.org/resource/Dark_New_Day', 'http://dbpedia.org/resource/Lindsey_Stirling', 'http://dbpedia.org/resource/Within_Temptation'], 'abstract': 'Evanescence is an American rock band founded in Little Rock, Arkansas, in 1995 by singer, pianist, and keyboardist Amy Lee and guitarist Ben Moody. After recording independent albums, the band released their first full-length album, Fallen, on Wind-up Records in 2003. On the strength of hit singles "Bring Me to Life" and "My Immortal", Fallen sold more than 17 million copies worldwide and helped the band win two Grammy Awards out of six nominations. A year later, Evanescence released their first live album, Anywhere but Home, which sold more than one million copies worldwide. In 2006, the band released their second studio album, The Open Door, which sold more than five million copies. The band reconvened in June 2009 with a new lineup; their next studio album, Evanescence, was released in 2011. It debuted at the top of the Billboard 200 chart with 127,000 copies in sales. The album also debuted at number one on four other different Billboard charts; the Rock Albums, Digital Albums, Alternative Albums, and the Hard Rock Albums charts. The band spent 2012 on tour in promotion of their latest album with other bands including The Pretty Reckless and Fair to Midland. Troy McLawhorn also became a full-time band member during this time. Following the end of the album\'s tour cycle in 2012, the band entered another hiatus. In 2015, Evanescence emerged from hiatus and announced they would resume touring; however, they stated that new Evanescence material was not being produced, as Lee was focusing on a solo project instead. In addition, Balsamo left the band and was replaced by Jen Majura. In March 2017, Lee stated Evanescence was working on a fourth album for release later in 2017; Synthesis was released worldwide on November 10, 2017, and marked a stylistic change in the band\'s sound. On March 26, 2021, the band released their fifth studio album, The Bitter Truth. The lineup of the group changed several times over the course of the first two studio albums\' productions and promotions: David Hodges left in 2002, co-founder Moody left in 2003 (mid-tour), followed by guitarist John LeCompt and drummer Rocky Gray in 2007, and Terry Balsamo in 2015. As a result, none of the band\'s five studio albums feature the same lineup. The latter two changes led to a hiatus, with temporary band members contributing to tour performances.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Linkin_Park', 'artist_name': 'Linkin Park', 'wiki': 'http://en.wikipedia.org/wiki/Linkin_Park', 'plays_in': ['http://dbpedia.org/resource/Inside_Living_Things'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Electronic_rock', 'rap rock', 'pop rock', 'nu metal', 'Alternative rock'], 'actual_members': ['Rob Bourdon', 'Brad Delson', 'Mike Shinoda', 'Dave Farrell', 'Joe Hahn'], 'old_members': ['Mark Wakefield', 'Chester Bennington'], 'related_artists': ['http://dbpedia.org/resource/Aaron_Lewis', 'http://dbpedia.org/resource/Adrian_Young__Adrian_Young__1', 'http://dbpedia.org/resource/Amir_Derakh', 'http://dbpedia.org/resource/Beta_State', 'http://dbpedia.org/resource/Brad_Delson', 'http://dbpedia.org/resource/Camp_Freddy', 'http://dbpedia.org/resource/Contemplate_(pop_duo)', 'http://dbpedia.org/resource/DJ_Lynnwood', 'http://dbpedia.org/resource/Dave_Farrell', 'http://dbpedia.org/resource/David_Brown_(British_musician)', 'http://dbpedia.org/resource/Dead_by_Sunrise', 'http://dbpedia.org/resource/Hoobastank', 'http://dbpedia.org/resource/Ilsey_Juber', 'http://dbpedia.org/resource/J._R._Rotem', 'http://dbpedia.org/resource/Joe_Hahn', 'http://dbpedia.org/resource/Jonathan_Davis', 'http://dbpedia.org/resource/Josh_Abraham', 'http://dbpedia.org/resource/Julien-K', 'http://dbpedia.org/resource/Justin_Lassen', 'http://dbpedia.org/resource/Kings_of_Chaos_(band)', 'http://dbpedia.org/resource/KutMasta_Kurt', 'http://dbpedia.org/resource/Mickey_Petralia', 'http://dbpedia.org/resource/Money_Mark', 'http://dbpedia.org/resource/Neal_Avron', 'http://dbpedia.org/resource/RAC_(musician)', 'http://dbpedia.org/resource/Rob_Bourdon', 'http://dbpedia.org/resource/Ryan_Key', 'http://dbpedia.org/resource/Ryan_Shuck', 'http://dbpedia.org/resource/Shavo_Odadjian', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Steve_Aoki', 'http://dbpedia.org/resource/Steve_Jablonsky', 'http://dbpedia.org/resource/Steven_McKellar', 'http://dbpedia.org/resource/Stone_Temple_Pilots', 'http://dbpedia.org/resource/Styles_of_Beyond', 'http://dbpedia.org/resource/The_X-Ecutioners', 'http://dbpedia.org/resource/Tom_Dumont', 'http://dbpedia.org/resource/Tony_Kanal', 'http://dbpedia.org/resource/Unkle', 'http://dbpedia.org/resource/Xombie_(band)', 'http://dbpedia.org/resource/Z-Trip'], 'abstract': 'Linkin Park is an American rock band from Agoura Hills, California. The band\'s current lineup comprises vocalist/rhythm guitarist/keyboardist Mike Shinoda, lead guitarist Brad Delson, bassist Dave Farrell, DJ/turntablist Joe Hahn and drummer Rob Bourdon, all of whom are founding members. Vocalists Mark Wakefield and Chester Bennington are former members of the band. Categorized as alternative rock, Linkin Park\'s earlier music spanned a fusion of heavy metal and hip hop, while their later music features more electronica and pop elements. Formed in 1996, Linkin Park rose to international fame with their debut studio album, Hybrid Theory (2000), which became certified Diamond by the Recording Industry Association of America (RIAA). Released during the peak of the nu metal scene, the album\'s singles\' heavy airplay on MTV led the singles "One Step Closer", "Crawling" and "In the End" all to chart highly on the Mainstream Rock chart; the latter crossed over to the pop chart. Their second album, Meteora (2003), continued the band\'s success. The band explored experimental sounds on their third album, Minutes to Midnight (2007). By the end of the decade, Linkin Park was among the most successful and popular rock acts. The band continued to explore a wider variation of musical types on their fourth album, A Thousand Suns (2010), layering their music with more electronic sounds. The band\'s fifth album, Living Things (2012), combined musical elements from all of their previous records. Their sixth album, The Hunting Party (2014), returned to a heavier rock sound, and their seventh album, One More Light (2017), was their first pop-oriented record. Linkin Park went on a hiatus when longtime lead vocalist Bennington died by suicide in July 2017. In April 2020, bassist Dave Farrell revealed the band was working on new music. Linkin Park is among the best-selling bands of the 21st century and the world\'s best-selling music artists, having sold over 100 million records worldwide. They have won two Grammy Awards, six American Music Awards, two Billboard Music Awards, four MTV Video Music Awards, 10 MTV Europe Music Awards and three World Music Awards. In 2003, MTV2 named Linkin Park the sixth-greatest band of the music video era and the third-best of the new millennium. Billboard ranked Linkin Park No. 19 on the Best Artists of the Decade list. In 2012, the band was voted as the greatest artist of the 2000s in a Bracket Madness poll on VH1. In 2014, the band was declared as "The Biggest Rock Band in the World Right Now" by Kerrang!.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Finger_Eleven', 'artist_name': 'Finger Eleven', 'wiki': 'http://en.wikipedia.org/wiki/Finger_Eleven', 'hometown': 'http://dbpedia.org/resource/Burlington,_Ontario', 'start_year': '1990', 'aliases': ['Rainbow Butt Monkeys (1990–1996', '2018)'], 'labels': ['http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/Wind-up_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['http://dbpedia.org/resource/James_Black_(guitarist)', 'Scott Anderson', 'Steve Molella', 'Rick Jackett', 'Sean Anderson'], 'old_members': ['Rich Beddoe', 'Rob Gommerman'], 'related_artists': ['http://dbpedia.org/resource/Diana_Meltzer', 'http://dbpedia.org/resource/James_Black_(guitarist)', 'http://dbpedia.org/resource/Kev_Gray_&amp;_The_Gravy_Train', 'http://dbpedia.org/resource/Saint_Asonia'], 'abstract': 'Finger Eleven is a Canadian rock band from Burlington, Ontario, formed in 1990. They have released seven studio albums (six as Finger Eleven and one as Rainbow Butt Monkeys), with their album The Greyest of Blue Skies bringing them into the mainstream. Their 2003 self-titled album achieved Gold status in the United States and Platinum in Canada, largely from the success of the single "One Thing", which marked the band\'s first placing on the US Hot 100 Chart at number 16. Their 2007 album, Them vs. You vs. Me launched the single "Paralyzer", which went on to top the Canadian Hot 100 and both US rock charts, as well as reaching No. 6 on the US Hot 100 and No. 12 on the Australian Singles Chart. They won the Juno Award for Rock Album of the Year in 2008. The same album was later certified gold in the US and multi-platinum in Canada. They released their sixth studio album, Life Turns Electric, on October 5, 2010; it was nominated as Best Rock Album of the Year at the Juno Awards of 2011. Five Crooked Lines, their 7th studio album, was released in 2015. Between 1995 and 2016, Finger Eleven was among the top 75 best-selling Canadian artists in Canada and among the top 25 best-selling Canadian bands in Canada.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/3_Doors_Down', 'artist_name': '3 Doors Down', 'wiki': 'http://en.wikipedia.org/wiki/3_Doors_Down', 'hometown': 'http://dbpedia.org/resource/Escatawpa,_Mississippi', 'start_year': '1996', 'labels': ['http://dbpedia.org/resource/Republic_Records', 'http://dbpedia.org/resource/Universal_Records_(1995−2005)'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['http://dbpedia.org/resource/Brad_Arnold', 'Chet Roberts', 'Chris Henderson', 'Justin Biltonen', 'Greg Upchurch'], 'old_members': ['http://dbpedia.org/resource/Daniel_Adair', 'Todd Harrell', 'Matt Roberts', 'Richard Liles'], 'related_artists': ['http://dbpedia.org/resource/Bob_Seger', 'http://dbpedia.org/resource/Brad_Arnold', 'http://dbpedia.org/resource/Daniel_Adair', 'http://dbpedia.org/resource/Josh_Freese', 'http://dbpedia.org/resource/Nickelback', 'http://dbpedia.org/resource/Puddle_of_Mudd', 'http://dbpedia.org/resource/Rick_Parashar', 'http://dbpedia.org/resource/Scott_Logan_(musician)', 'http://dbpedia.org/resource/Shinedown'], 'abstract': '3 Doors Down is an American rock band from Escatawpa, Mississippi, that formed in 1996. The band originally consisted of Brad Arnold (lead vocals, drums), Matt Roberts (lead guitar, backing vocals), and Todd Harrell (bass guitar). The band rose to international fame with their first single, "Kryptonite", which placed in the top three on the Billboard Hot 100 chart. The band then signed with Republic Records and released their debut album, The Better Life, in 2000. The album was the 11th-best-selling album of the year and was certified 6x platinum in the United States. The group was later joined by drummer Richard Liles, who played during the tour for their first album. The band\'s second album, Away from the Sun (2002), continued the band\'s success; it debuted at No. 8 on the Billboard 200 chart, went multi-platinum in the U.S. like its predecessor, and spawned the hits "When I\'m Gone" and "Here Without You". The band toured extensively for two years. Daniel Adair played drums on tour from 2002 to 2006. This configuration played nearly 1,000 shows across the world following the release of Away from the Sun. In 2005, Greg Upchurch (Puddle of Mudd) joined to play drums to replace Adair. 3 Doors Down released their third album, Seventeen Days, in 2005. The album debuted at No. 1 on the Billboard 200 chart and was certified platinum within one month of release. The band continued their success with their next two albums, 3 Doors Down (2008) and Time of My Life (2011), debuting at No. 1 and No. 3 respectively on the Billboard 200 chart. Their latest album, Us and the Night, was released in 2016; they were working on new material for a seventh studio album as of 2019. The band has been primarily described as post-grunge and alternative rock, while occasionally crossing into hard rock, and Southern rock. Their lyrical content contains overarching themes of angst, rebellion, revenge, yearning, and abandonment. 3 Doors Down has sold 30 million copies worldwide. Original guitarist Matt Roberts departed in 2012, owing to health issues. He was replaced by Chet Roberts, who was formerly Chris Henderson\'s guitar tech. Harrell was fired from the band in 2013 after being charged with vehicular homicide, and was replaced by bassist Justin Biltonen.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Nickelback', 'artist_name': 'Nickelback', 'wiki': 'http://en.wikipedia.org/wiki/Nickelback', 'hometown': 'http://dbpedia.org/resource/Hanna,_Alberta', 'start_year': '1995', 'labels': ['http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/BMG_Rights_Management', 'http://dbpedia.org/resource/EMI_Records', 'http://dbpedia.org/resource/Live_Nation_Entertainment', 'http://dbpedia.org/resource/Republic_Records', 'http://dbpedia.org/resource/Roadrunner_Records', 'http://dbpedia.org/resource/Universal_Music_Group'], 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['Chad Kroeger', 'Daniel Adair', 'Mike Kroeger', 'Ryan Peake'], 'old_members': ['Brandon Kroeger', 'Mitch Guindon', 'Ryan Vikedal'], 'related_artists': ['http://dbpedia.org/resource/3_Doors_Down', 'http://dbpedia.org/resource/Billy_Gibbons', 'http://dbpedia.org/resource/Chad_Kroeger', 'http://dbpedia.org/resource/Daniel_Adair', 'http://dbpedia.org/resource/Joey_Moi', 'http://dbpedia.org/resource/Jon_Redwine', 'http://dbpedia.org/resource/Josey_Scott', 'http://dbpedia.org/resource/Josh_Ramsay', 'http://dbpedia.org/resource/Mike_Shipley', 'http://dbpedia.org/resource/Nuno_Bettencourt', 'http://dbpedia.org/resource/Rick_Parashar', 'http://dbpedia.org/resource/Robert_John_%22Mutt%22_Lange', 'http://dbpedia.org/resource/Ryan_Peake', 'http://dbpedia.org/resource/Theory_of_a_Deadman'], 'abstract': 'Nickelback is a Canadian rock band formed in 1995 in Hanna, Alberta. It is composed of guitarist and lead vocalist Chad Kroeger, guitarist, keyboardist and backing vocalist Ryan Peake, bassist Mike Kroeger, and drummer Daniel Adair. It went through several drummer changes between 1995 and 2005, achieving its current lineup when Adair replaced Ryan Vikedal. Nickelback is one of the most commercially successful Canadian rock bands, having sold more than 50 million albums worldwide. In 2009, Billboard ranked it the most successful rock group of that decade; "How You Remind Me" was the best-selling rock song and the fourth-best overall. The band ranked at No. 7 on the Billboard top artist of the decade list, with four albums among the publication\'s top albums of the decade. The band signed with Roadrunner Records in 1999 and re-released its once-independent album The State. This album was commercially successful, as was its follow-up, Silver Side Up, in 2001. The band then released its biggest hit, "How You Remind Me", a No. 1 on the Billboard and Canadian Singles Charts. The fourth album, The Long Road, was released in 2003 and spawned five singles, including Canadian No. 1 "Someday", which also reached No. 7 on the Billboard Hot 100. In 2005, the band\'s best-selling album to date, All the Right Reasons, produced three top-ten and five top-twenty singles on the Billboard Hot 100, including "Photograph", "Far Away", and "Rockstar". Dark Horse sold well in 2008, producing eight singles, one cracking the top ten on the Billboard Hot 100 and two in the top twenty. In 2011, the seventh album, Here and Now, topped the charts. The eighth, No Fixed Address, was released in 2014, followed by Feed the Machine in 2017. Nickelback is based in Vancouver, British Columbia. It originally published through EMI Canada before signing a global distribution deal with Roadrunner Records. For Here and Now, it left EMI Canada for Universal Music Canada.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Foo_Fighters', 'artist_name': 'Foo Fighters', 'wiki': 'http://en.wikipedia.org/wiki/Foo_Fighters', 'hometown': 'http://dbpedia.org/resource/Washington_(state)', 'start_year': '1994', 'aliases': ['Dee Gees', 'The Holy Shits'], 'labels': ['http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/RCA_Records', 'http://dbpedia.org/resource/Roswell_Records'], 'plays_in': ['http://dbpedia.org/resource/Dreamer_(Emmerson_Nogueira_album)', 'http://dbpedia.org/resource/Grammy_Nominees', 'http://dbpedia.org/resource/Real_Steel'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Grunge', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['http://dbpedia.org/resource/Chris_Shiflett', 'http://dbpedia.org/resource/Dave_Grohl', 'http://dbpedia.org/resource/Nate_Mendel', 'http://dbpedia.org/resource/Pat_Smear', 'http://dbpedia.org/resource/Rami_Jaffee', 'http://dbpedia.org/resource/Taylor_Hawkins'], 'old_members': ['http://dbpedia.org/resource/Franz_Stahl', 'William Goldsmith'], 'related_artists': ['http://dbpedia.org/resource/Nirvana_(band)', 'http://dbpedia.org/resource/Scream_(band)', 'http://dbpedia.org/resource/Sunny_Day_Real_Estate', 'http://dbpedia.org/resource/The_Fire_Theft'], 'abstract': "Foo Fighters are an American rock band formed in Seattle, Washington, in 1994. The band was founded by former Nirvana drummer Dave Grohl as a one-man project following the dissolution of Nirvana after the suicide of Kurt Cobain. The group took its name from foo fighter, a nickname coined by Allied aircraft pilots for UFOs and other aerial phenomena. Over the course of their career, Foo Fighters have won 12 Grammy Awards, including Best Rock Album four times. They were inducted into the Rock and Roll Hall of Fame in 2021, their first year of eligibility. Prior to the release of Foo Fighters' 1995 debut album Foo Fighters, which featured Grohl as the only official member, Grohl recruited bassist Nate Mendel and drummer William Goldsmith, both formerly of Sunny Day Real Estate, as well as Nirvana touring guitarist Pat Smear. The band began with performances in Portland, Oregon. Goldsmith quit during the recording of their second album The Colour and the Shape (1997); most of the drum parts were re-recorded by Grohl. Smear departed soon afterward but appeared as a guest with the band frequently from 2005; he rejoined in 2010. Smear and Goldsmith were replaced by Franz Stahl and Taylor Hawkins; Stahl was fired before the recording of the group's third album, There Is Nothing Left to Lose (1999). The band briefly continued as a trio until Chris Shiflett joined on guitar after the completion of There Is Nothing Left to Lose. Foo Fighters released their fourth album, One by One, in 2002. It was followed with the two-disc In Your Honor (2005), which was split between acoustic songs and heavier material. Foo Fighters released their sixth album, Echoes, Silence, Patience &amp; Grace, in 2007. For Foo Fighters' seventh studio album, Wasting Light (2011), produced by Butch Vig, Smear returned as a full member. Sonic Highways (2014) was released as the soundtrack to the television miniseries directed by Grohl. Concrete and Gold (2017) was the second Foo Fighters album to reach number one in the United States and their first studio album to feature longtime session and touring keyboardist Rami Jaffee as a full member. In 2021, the band released their tenth album, Medicine at Midnight."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Pillar_(band)', 'artist_name': 'Pillar', 'wiki': 'http://en.wikipedia.org/wiki/Pillar_(band)', 'hometown': 'http://dbpedia.org/resource/Tulsa,_Oklahoma', 'start_year': '1998', 'labels': ['http://dbpedia.org/resource/Essential_Records_(Christian)', 'http://dbpedia.org/resource/Flicker_Records', 'http://dbpedia.org/resource/Sony_BMG'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Christian_metal', 'http://dbpedia.org/resource/Christian_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Rap_rock'], 'actual_members': ['http://dbpedia.org/resource/Lester_Estelle_II', 'http://dbpedia.org/resource/Michael_Wittig', 'http://dbpedia.org/resource/Noah_Henson', 'http://dbpedia.org/resource/Rob_Beckley', 'Lester Estelle', 'Michael "Kalel" Wittig'], 'old_members': ['Brad Noone', 'Travis Jenkins', 'Dustin Adams', 'Joey Avalos', 'Chase Lovelace', 'Rich Gilliland', 'Taylor Carroll'], 'related_artists': ['http://dbpedia.org/resource/Lester_Estelle_II', 'http://dbpedia.org/resource/Michael_Wittig', 'http://dbpedia.org/resource/Noah_Henson', 'http://dbpedia.org/resource/Scarlet_White', 'http://dbpedia.org/resource/Stars_Go_Dim', 'http://dbpedia.org/resource/T._J._Harris'], 'abstract': 'Pillar is an American Christian rock band from Tulsa, consisting of members Rob Beckley, Noah Henson, Michael "Kalel" Wittig, and Lester Estelle II. The band has released nine studio albums, three EPs, and 24 singles since its formation in 1998.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Hinder', 'artist_name': 'Hinder', 'wiki': 'http://en.wikipedia.org/wiki/Hinder', 'hometown': 'http://dbpedia.org/resource/Oklahoma_City', 'start_year': '2001', 'labels': ['http://dbpedia.org/resource/Republic_Records', 'http://dbpedia.org/resource/The_End_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Glam_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['http://dbpedia.org/resource/Cody_Hanson', 'http://dbpedia.org/resource/Marshal_Dutton', 'Joe "Blower" Garvey', 'Mike Rodden', 'Mark King'], 'old_members': ['http://dbpedia.org/resource/Austin_John', 'Cole Parker', 'Austin Winkler'], 'related_artists': ['http://dbpedia.org/resource/Austin_John', 'http://dbpedia.org/resource/Brian_Howes', 'http://dbpedia.org/resource/Cody_Hanson', 'http://dbpedia.org/resource/Marshal_Dutton', 'http://dbpedia.org/resource/Mick_Mars', 'http://dbpedia.org/resource/Nine_Shrines', 'http://dbpedia.org/resource/Smashing_Satellites'], 'abstract': 'Hinder is an American rock band from Oklahoma City, Oklahoma, formed in 2001 by lead singer Austin Winkler, guitarist Joe "Blower" Garvey, and drummer Cody Hanson with bassist Mike Roden and guitarist Mark King joining in 2003, solidifying the line-up. The band released four studio albums with Winkler; Extreme Behavior (2005), Take It to the Limit (2008), All American Nightmare (2010) and Welcome to the Freakshow (2012). Cody Hanson, along with former lead singer Austin Winkler, wrote the majority of the band\'s music on their first four albums. After Winkler left the band in 2013, they looked for a new lead vocalist, and added Marshal Dutton. They have since released: When The Smoke Clears (2015) and The Reign (2017) with their new vocalist. Their seventh studio album is currently in the works. The band was inducted into the Oklahoma Music Hall of Fame in 2007.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Creed_(band)', 'artist_name': 'Creed', 'wiki': 'http://en.wikipedia.org/wiki/Creed_(band)', 'hometown': 'http://dbpedia.org/resource/Tallahassee,_Florida', 'start_year': '1994', 'end_year': '2004', 'labels': ['http://dbpedia.org/resource/Wind-up_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['http://dbpedia.org/resource/Brian_Marshall', 'http://dbpedia.org/resource/Mark_Tremonti', 'http://dbpedia.org/resource/Scott_Phillips_(musician)', 'http://dbpedia.org/resource/Scott_Stapp'], 'old_members': ['Brian Brasher'], 'related_artists': ['http://dbpedia.org/resource/Alter_Bridge', 'http://dbpedia.org/resource/Brett_Hestla', 'http://dbpedia.org/resource/Brian_Marshall', 'http://dbpedia.org/resource/Diana_Meltzer', 'http://dbpedia.org/resource/Eric_Friedman', 'http://dbpedia.org/resource/Mark_Tremonti', 'http://dbpedia.org/resource/Mile_(band)', 'http://dbpedia.org/resource/Scott_Phillips_(musician)', 'http://dbpedia.org/resource/Scott_Stapp', 'http://dbpedia.org/resource/Souleye_(hip_hop_artist)', 'http://dbpedia.org/resource/Virgos_Merlot'], 'abstract': "Creed is an American rock band from Tallahassee, Florida, formed in 1994. For most of its existence, the band consisted of lead vocalist Scott Stapp, guitarist and vocalist Mark Tremonti, bassist Brian Marshall, and drummer Scott Phillips. Creed released two studio albums, My Own Prison in 1997 and Human Clay in 1999, before Marshall left the band in 2000. The band's third album, Weathered, was released in 2001, with Tremonti on bass guitar. Creed disbanded in 2004; Stapp pursued a solo career while Tremonti, Marshall, and Phillips founded the band Alter Bridge with Myles Kennedy. In 2009, Creed reunited for a fourth album, Full Circle, then toured until 2012. Since then, Creed has been on hiatus while the instrumental members have remained active with Alter Bridge; Stapp has continued his solo career and joined the band Art of Anarchy in 2016. Tremonti also formed his own band, Tremonti, in 2011. Creed is one of the prominent acts of the post-grunge movement that began in the mid-1990s. Becoming popular in the late 1990s and early 2000s, Creed released three consecutive multi-platinum albums, with their album Human Clay being certified diamond. Creed has sold over 28 million records in the United States, has sold over 53 million albums worldwide, and was the ninth best-selling artist of the 2000s. However, Creed has been negatively received by some critics and listeners; readers of Rolling Stone magazine ranked the band the worst artist of the 1990s."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Fuel_(hardcore_band)', 'artist_name': 'Fuel', 'wiki': 'http://en.wikipedia.org/wiki/Fuel_(hardcore_band)', 'hometown': 'http://dbpedia.org/resource/San_Francisco_Bay_Area', 'start_year': '1989', 'end_year': '1991', 'labels': ['http://dbpedia.org/resource/Cargo_Music', 'http://dbpedia.org/resource/Ebullition_Records', 'http://dbpedia.org/resource/Lookout_Records', 'http://dbpedia.org/resource/Rough_Trade_Records'], 'genres': ['http://dbpedia.org/resource/Emo', 'http://dbpedia.org/resource/Melodic_hardcore', 'http://dbpedia.org/resource/Post-hardcore', 'http://dbpedia.org/resource/Punk_rock'], 'old_members': ['Mike Kirsch', 'Jim Allison', 'Aaron Arroyo', 'Jeff Stofan'], 'related_artists': ['http://dbpedia.org/resource/Monsula', 'http://dbpedia.org/resource/Pinhead_Gunpowder'], 'abstract': 'Fuel was a short-lived Bay Area post-hardcore musical act that created both personal and political songs, something that was unique during the "first wave" of emo in the 1990s. Fuel had a sound akin to the mostly East Coast bands on Dischord Records, especially Fugazi, with twin guitars and dueling rough post-hardcore vocals. In fact, it is noted that Fuel was often jokingly referred to as "Fuelgazi." Fuel\'s style resembled the D.C. sound of many Dischord bands. Fuel featured Mike Kirsch (later Sarah Kirsch; of early Pinhead Gunpowder and a number of other punk rock bands) on guitar/vocals, Jim Allison on guitar/vocals, Aaron Arroyo on bass, and Jeff Stofan (also of Monsula and the White Trash Debutantes at one time) on drums. Fuel released one LP in 1990, first on Cargo Records then repressed by . The album was produced by Kevin Army. Army audio engineered the albums of punk bands such as Operation Ivy, Green Day, and The Mr. T Experience. In addition, Fuel put out an EP "Take Effect" on Lookout Records, also in 1990. In the fall of 1991 the band also released a split 7-inch with Canadian band Phleg Camp on Allied Records. The CD release Monuments to Excess collected the LP, the Take Effect EP, the band\'s portion of a split EP, and some tracks that had appeared on compilations. In 2008, Alternative Press named Fuel as a group of significant interest in its profile of "23 Bands who Shaped Punk." Jason Black of Hot Water Music and The Draft contributed a testimony for the article citing musical influence.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Incubus_(band)', 'artist_name': 'Incubus', 'wiki': 'http://en.wikipedia.org/wiki/Incubus_(band)', 'hometown': 'http://dbpedia.org/resource/Calabasas,_California', 'start_year': '1991', 'labels': ['http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Immortal_Records', 'http://dbpedia.org/resource/Island_Records', 'http://dbpedia.org/resource/Johnny_Wright_(music_manager)'], 'plays_in': ['http://dbpedia.org/resource/Halo_2_Original_Soundtrack', 'http://dbpedia.org/resource/Life_Is_Peachy', 'http://dbpedia.org/resource/MTV_The_Return_of_the_Rock'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Funk_metal', 'http://dbpedia.org/resource/Funk_rock', 'http://dbpedia.org/resource/Nu_metal'], 'actual_members': ['http://dbpedia.org/resource/Ben_Kenney', 'http://dbpedia.org/resource/Brandon_Boyd', 'http://dbpedia.org/resource/Chris_Kilmore', 'http://dbpedia.org/resource/José_Pasillas', 'http://dbpedia.org/resource/Mike_Einziger'], 'old_members': ['http://dbpedia.org/resource/Alex_Katunich', 'http://dbpedia.org/resource/Gavin_Koppel'], 'related_artists': ['http://dbpedia.org/resource/Alex_Katunich', 'http://dbpedia.org/resource/Ann_Marie_Calhoun', 'http://dbpedia.org/resource/Audiovent', 'http://dbpedia.org/resource/Ben_Kenney', 'http://dbpedia.org/resource/Brandon_Boyd', 'http://dbpedia.org/resource/Chris_Kilmore', 'http://dbpedia.org/resource/Gavin_Koppel', 'http://dbpedia.org/resource/José_Pasillas', 'http://dbpedia.org/resource/Kiwi_Time', 'http://dbpedia.org/resource/Mike_Einziger', 'http://dbpedia.org/resource/Skrillex'], 'abstract': 'Incubus is an American rock band from Calabasas, California. The band was formed in 1991 by vocalist Brandon Boyd, lead guitarist Mike Einziger, and drummer José Pasillas while enrolled in Calabasas High School and later expanded to include bassist Alex "Dirk Lance" Katunich, and Gavin "DJ Lyfe" Koppell; both of whom were eventually replaced by bassist Ben Kenney and DJ Kilmore, respectively. Incubus has attained commercial success, reaching multi-platinum sales, as well as releasing several successful singles. After their first two albums, Fungus Amongus (1995) and S.C.I.E.N.C.E. (1997), the band earned mainstream recognition with the release of their 1999 album Make Yourself which spawned several hits, including the band\'s highest charting song "Drive." Success continued with the albums Morning View (2001) and A Crow Left of the Murder... (2004). Their sixth studio album, Light Grenades, debuted at No. 1 in 2006 and was followed by Incubus\'s first greatest hits album Monuments and Melodies in June 2009 and the band\'s 2011 album, If Not Now, When?. Incubus also released an EP, Trust Fall (Side A), in early 2015, and two years later, the band released their eighth studio album, titled 8, on April 21, 2017. A second EP, Trust Fall (Side B), was released on April 17, 2020. Worldwide, Incubus has sold over 19 million albums.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Machine_Head_(band)', 'artist_name': 'Machine Head', 'wiki': 'http://en.wikipedia.org/wiki/Machine_Head_(band)', 'hometown': 'http://dbpedia.org/resource/Oakland,_California', 'start_year': '1991', 'labels': ['http://dbpedia.org/resource/Nuclear_Blast', 'http://dbpedia.org/resource/Roadrunner_Records'], 'plays_in': ['http://dbpedia.org/resource/51_Birch_Street', 'http://dbpedia.org/resource/Blind_Horizon', 'http://dbpedia.org/resource/Edison_(film)', 'http://dbpedia.org/resource/MTV_The_Return_of_the_Rock', 'http://dbpedia.org/resource/Raise_Your_Voice', 'http://dbpedia.org/resource/Roadrunner_United', 'http://dbpedia.org/resource/Shooting_Gallery_(film)', 'http://dbpedia.org/resource/The_Animatrix'], 'genres': ['http://dbpedia.org/resource/Groove_metal', 'http://dbpedia.org/resource/Heavy_metal_music', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Thrash_metal'], 'actual_members': ['http://dbpedia.org/resource/Jared_MacEachern', 'http://dbpedia.org/resource/Robb_Flynn', 'http://dbpedia.org/resource/Wacław_Kiełtyka', 'Matt Alston'], 'old_members': ['http://dbpedia.org/resource/Adam_Duce', 'http://dbpedia.org/resource/Ahrue_Luster', 'http://dbpedia.org/resource/Chris_Kontos_(musician)', 'http://dbpedia.org/resource/Dave_McClain_(musician)', 'http://dbpedia.org/resource/Logan_Mader', 'http://dbpedia.org/resource/Phil_Demmel', 'http://dbpedia.org/resource/Tony_Costanza'], 'related_artists': ['http://dbpedia.org/resource/Adam_Duce', 'http://dbpedia.org/resource/Biohazard_(band)', 'http://dbpedia.org/resource/Cristian_Machado', 'http://dbpedia.org/resource/Dave_McClain_(musician)', 'http://dbpedia.org/resource/Dublin_Death_Patrol', 'http://dbpedia.org/resource/Forbidden_(band)', 'http://dbpedia.org/resource/Jared_MacEachern', 'http://dbpedia.org/resource/Joel_Wanasek', 'http://dbpedia.org/resource/Juggernaut_(band)', 'http://dbpedia.org/resource/Logan_Mader', 'http://dbpedia.org/resource/Matt_Hyde_(British_producer)', 'http://dbpedia.org/resource/Medication_(band)', 'http://dbpedia.org/resource/PCN_(band)', 'http://dbpedia.org/resource/Phil_Demmel', 'http://dbpedia.org/resource/Robb_Flynn', 'http://dbpedia.org/resource/Ross_Robinson', 'http://dbpedia.org/resource/S.A.Slayer', 'http://dbpedia.org/resource/Sintanic', 'http://dbpedia.org/resource/The_New_Dominion', 'http://dbpedia.org/resource/Tony_Costanza', 'http://dbpedia.org/resource/Vio-lence'], 'abstract': 'Machine Head is an American heavy metal band from Oakland, California. The band was formed in 1991 by vocalist/guitarist Robb Flynn, who remains the only original member of the band. Machine Head\'s aggressive musicianship made it one of the pioneering bands in the new wave of American heavy metal. Its current lineup comprises Flynn, bassist Jared MacEachern, guitarist Wacław Kiełtyka and drummer Matt Alston. Bassist Adam Duce, guitarists Logan Mader, Ahrue Luster and Phil Demmel, and drummers Tony Costanza, Chris Kontos and Dave McClain are former members of the band; Mader and Kontos toured with the band in 2019 and 2020 as part of the 25th anniversary tour for its first album, Burn My Eyes (1994). Machine Head\'s first four albums earned the band a growing fan base in Europe, however the band would not have success in the United States until later releases. The band drew controversy with its fourth album, Supercharger (2001), which was released three weeks after the September 11 attacks; its only single, "Crashing Around You", and its music video (which featured burning buildings) was pulled from all media outlets. The band nearly disbanded in 2002 after negotiating off its label Roadrunner Records as a result of the controversy, however the band would eventually re-sign with the label. Having experimented with elements of groove metal and nu metal in its early releases, Machine Head changed to a more traditional thrash metal sound and longer songs with its sixth album, The Blackening (2007), which drew critical acclaim and was chosen as Album of the Decade by Metal Hammer in 2010; the album\'s first single, "Aesthetics of Hate", also earned the band a Grammy Award nomination. The band achieved similar success with its following two albums, Unto the Locust (2011) and Bloodstone &amp; Diamonds (2014), before returning to its nu metal roots with the band\'s ninth album, Catharsis (2018). Machine Head has released nine studio albums, two live albums, one video album, 13 singles and 15 music videos. Four of the band\'s studio albums have been certified silver in the United Kingdom, and the band\'s highest peak on the Billboard 200 came with Bloodstone &amp; Diamonds at number 21. As of 2013, the band has sold over three million records worldwide.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Hollywood_Undead', 'artist_name': 'Hollywood Undead', 'wiki': 'http://en.wikipedia.org/wiki/Hollywood_Undead', 'hometown': 'http://dbpedia.org/resource/Los_Angeles', 'start_year': '2005', 'labels': ['http://dbpedia.org/resource/A&amp;M_Octone_Records', 'http://dbpedia.org/resource/BMG_Rights_Management', 'http://dbpedia.org/resource/Interscope_Records', 'http://dbpedia.org/resource/Polydor_Records'], 'genres': ['http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Rap_metal', 'http://dbpedia.org/resource/Rap_rock'], 'actual_members': ['J-Dog', 'Funny Man', 'Johnny 3 Tears', 'Charlie Scene', 'Danny'], 'old_members': ['http://dbpedia.org/resource/Deuce_(musician)', 'Shady Jeff', 'Da Kurlzz'], 'related_artists': ['http://dbpedia.org/resource/A_Static_Lullaby', 'http://dbpedia.org/resource/Danny_Lohner', 'http://dbpedia.org/resource/Deuce_(musician)__Deuce__1', 'http://dbpedia.org/resource/Elias_Mallin', 'http://dbpedia.org/resource/Ice_Nine_Kills', 'http://dbpedia.org/resource/Luke_Holland', 'http://dbpedia.org/resource/Xombie_(band)'], 'abstract': 'Hollywood Undead is an American rap rock band from Los Angeles, California, formed in 2005. They released their debut album, Swan Songs, on September 2, 2008, and their live CD/DVD Desperate Measures, on November 10, 2009. Their second studio album, American Tragedy, was released April 5, 2011. All of the band members use pseudonyms and previously wore their own unique mask, most of which were based on the common hockey goaltender design. The band members currently consist of Charlie Scene, Danny, Funny Man, J-Dog, and Johnny 3 Tears. Their third studio album, titled Notes from the Underground, was released on January 8, 2013. Their fourth studio album, Day of the Dead, was released on March 31, 2015.Hollywood Undead\'s fifth record is titled Five (or V), and was released on October 27, 2017. The first single from the album, called "California Dreaming", was made available July 24, 2017. Their sixth studio album, New Empire, Vol. 1, was released on February 14, 2020. Its follow-up and their most recent album, New Empire, Vol. 2, was released on December 4, 2020.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Vertical_Horizon', 'artist_name': 'Vertical Horizon', 'wiki': 'http://en.wikipedia.org/wiki/Vertical_Horizon', 'hometown': 'http://dbpedia.org/resource/Washington,_D.C.', 'start_year': '1991', 'labels': ['http://dbpedia.org/resource/RCA_Records'], 'genres': ['http://dbpedia.org/resource/Acoustic_music', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['http://dbpedia.org/resource/John_Wesley_(guitarist)', 'http://dbpedia.org/resource/Matt_Scannell', 'Ron LaVella', 'Donovan White', 'Mark Pacificar'], 'old_members': ['http://dbpedia.org/resource/Ed_Toth', 'http://dbpedia.org/resource/Vertical_Horizon', 'Craig McIntyre ', 'Steve Fekete', 'Eric Holden ', 'Richie Noble', 'Jason Sutter ', 'Jeffrey Jarvis', 'Ryan "Chopper" Fisher', 'Corey McCormick', 'Jenn Oberle', 'Keith Kane', 'Sean Hurley', 'Seth Horan'], 'related_artists': ['http://dbpedia.org/resource/Carter_Beauford', 'http://dbpedia.org/resource/Ed_Toth', 'http://dbpedia.org/resource/John_Wesley_(guitarist)', 'http://dbpedia.org/resource/Matt_Scannell', 'http://dbpedia.org/resource/Neil_Peart', 'http://dbpedia.org/resource/Stroke_9'], 'abstract': 'Vertical Horizon is an American alternative rock band. Vocalist Matt Scannell and guitarist Keith Kane started the band in 1991 when they were students at Georgetown University. The band is best known for its 1999 number one single "Everything You Want"; other hit singles include "You\'re a God", "Best I Ever Had (Grey Sky Morning)", and "I\'m Still Here".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Tonic_(band)', 'artist_name': 'Tonic', 'wiki': 'http://en.wikipedia.org/wiki/Tonic_(band)', 'hometown': 'http://dbpedia.org/resource/Los_Angeles', 'start_year': '1993', 'end_year': '2004', 'labels': ['http://dbpedia.org/resource/429_Records', 'http://dbpedia.org/resource/A&amp;M_Records', 'http://dbpedia.org/resource/Polydor_Records', 'http://dbpedia.org/resource/Universal_Music_Group'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['http://dbpedia.org/resource/Dan_Lavery', 'http://dbpedia.org/resource/Emerson_Hart', 'http://dbpedia.org/resource/Jeff_Russo'], 'old_members': ['Dan Rothchild', 'Kevin Shepard'], 'related_artists': ['http://dbpedia.org/resource/Dan_Lavery', 'http://dbpedia.org/resource/Emerson_Hart', 'http://dbpedia.org/resource/Ingram_Hill', 'http://dbpedia.org/resource/Jeff_Russo'], 'abstract': 'Tonic is an American rock band, formed in 1993 by Emerson Hart and Jeff Russo. Later members have included Dan Lavery, Kevin Shepard, and Dan Rothchild. Signed to a recording contract in 1995, the band released its debut album Lemon Parade in 1996. The single "If You Could Only See" reached No. 11 on the Billboard Airplay Hot 100 in 1997, and Lemon Parade itself reached platinum status. Tonic spent much of the next two years touring, adding to its reputation as a relentlessly gigging band. In addition to extensive touring Tonic produced other work, including songs for feature film soundtracks. After self-producing its 1999 album Sugar, Tonic released its third album Head on Straight in 2002. Tonic received two Grammy nominations from Head on Straight, including one for Best Rock Performance by a Duo or Group with Vocal for "Take Me As I Am", and one for Best Rock Album. The band then went on hiatus beginning in 2004 while its members pursued other musical endeavors. It wasn\'t until late 2008 Tonic became active again, embarking on a tour and releasing a greatest-hits compilation, all of which served as a prelude to their fourth studio album, 2010\'s Tonic. After the release of that album, Tonic has continued to tour and remain active, utilizing direct funding from fans to make an all-acoustic version of Lemon Parade titled Lemon Parade Revisited in 2016, and debuting their first non-album single with 2021\'s "To Be Loved".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Marcy_Playground', 'artist_name': 'Marcy Playground', 'wiki': 'http://en.wikipedia.org/wiki/Marcy_Playground', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '1994', 'labels': ['http://dbpedia.org/resource/Capitol_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Post-grunge', 'http://dbpedia.org/resource/Power_pop'], 'actual_members': ['http://dbpedia.org/resource/Dylan_Keefe', 'http://dbpedia.org/resource/John_Wozniak', 'http://dbpedia.org/resource/Shlomi_Lavie'], 'old_members': ['Conor Levis', 'Dan Rieser', 'Glenn Braver', 'Gonzalo Martinez de la Cotera', 'Jared Kotler'], 'related_artists': ['http://dbpedia.org/resource/Dylan_Keefe', 'http://dbpedia.org/resource/John_Wozniak', 'http://dbpedia.org/resource/Shlomi_Lavie'], 'abstract': 'Marcy Playground is an American alternative rock band consisting of three members: John Wozniak (lead vocals, guitar), Dylan Keefe (bass), and Shlomi Lavie (drums). The band is best known for their 1997 hit "Sex and Candy".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Sublime_(band)', 'artist_name': 'Sublime', 'wiki': 'http://en.wikipedia.org/wiki/Sublime_(band)', 'hometown': 'http://dbpedia.org/resource/Long_Beach,_California', 'start_year': '1988', 'end_year': '1996', 'labels': ['http://dbpedia.org/resource/MCA_Records', 'http://dbpedia.org/resource/Skunk_Records'], 'genres': ['http://dbpedia.org/resource/Reggae_rock', 'http://dbpedia.org/resource/Ska_punk'], 'old_members': ['http://dbpedia.org/resource/Bradley_Nowell', 'http://dbpedia.org/resource/Bud_Gaugh', 'http://dbpedia.org/resource/Eric_Wilson_(bassist)'], 'related_artists': ['http://dbpedia.org/resource/3rd_Alley', 'http://dbpedia.org/resource/Bad_Brains', 'http://dbpedia.org/resource/Bradley_Nowell', 'http://dbpedia.org/resource/Bud_Gaugh', 'http://dbpedia.org/resource/Eric_Wilson_(bassist)', 'http://dbpedia.org/resource/Eyes_Adrift', 'http://dbpedia.org/resource/Gwen_Stefani', 'http://dbpedia.org/resource/Long_Beach_Dub_Allstars', 'http://dbpedia.org/resource/Long_Beach_Shortbus', 'http://dbpedia.org/resource/Mad_Lion', 'http://dbpedia.org/resource/Marshall_Goodman', 'http://dbpedia.org/resource/No_Doubt', 'http://dbpedia.org/resource/Notch_(musician)', 'http://dbpedia.org/resource/Slightly_Stoopid', 'http://dbpedia.org/resource/Steve_Chadie', 'http://dbpedia.org/resource/Sublime_with_Rome', 'http://dbpedia.org/resource/The_Specials', 'http://dbpedia.org/resource/The_Toyes__The_Toyes__1', 'http://dbpedia.org/resource/The_Ziggens', 'http://dbpedia.org/resource/Tribo_de_Jah', 'http://dbpedia.org/resource/Volcano_(supergroup)'], 'abstract': 'Sublime was an American reggae rock and ska punk band from Long Beach, California, formed in 1988. The band\'s line-up, unchanged until their breakup, consisted of Bradley Nowell (vocals and guitar), Eric Wilson (bass), and Bud Gaugh (drums). Lou Dog, Nowell\'s dalmatian, was the mascot of the band. Nowell died of a heroin overdose in 1996, resulting in Sublime\'s breakup. In 1997, songs such as "What I Got", "Santeria", "Wrong Way", "Doin\' Time", and "April 29, 1992 (Miami)" were released to U.S. radio. Sublime released three studio albums, one live album, five compilation albums (one of which also contains never-before released material), three EPs, and one box set. Although their first two albums—40oz. to Freedom (1992) and Robbin\' the Hood (1994)—were quite popular in the United States, Sublime did not experience major commercial success until 1996 with their self-titled third album, released two months after Nowell\'s death, which peaked at No. 13 on the Billboard 200, and spawned the single "What I Got", which remains the band\'s only No. 1 hit single (on the Billboard Alternative Songs chart) in their musical career. As of 2009, the band has sold over 17 million albums worldwide, including about 10 million in the U.S. alone. Michael "Miguel" Happoldt and Marshall "Ras MG" Goodman contributed to several Sublime songs. In 2009, the surviving members attempted to reform the band with Rome Ramirez, a young guitarist and admitted Sublime fan from California. However, not long after performing at Cypress Hill\'s Smokeout Festival, a Los Angeles judge banned the new lineup from using the Sublime name as they needed permission from Nowell\'s estate, which owns the rights to the Sublime name. This prompted the lineup of Wilson, Gaugh and Ramirez to change their name to Sublime with Rome, which has since released three albums, although Gaugh left the group shortly after the release of their 2011 debut Yours Truly.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Blink_(band)', 'artist_name': 'Blink', 'wiki': 'http://en.wikipedia.org/wiki/Blink_(band)', 'hometown': 'http://dbpedia.org/resource/Dublin', 'start_year': '1991', 'end_year': '2004', 'labels': ['http://dbpedia.org/resource/EMI', 'http://dbpedia.org/resource/Parlophone'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Dream_pop', 'http://dbpedia.org/resource/Pop_rock'], 'actual_members': ['Barry Campbell', 'Brian McLoughlin', 'Dermot Lambert', 'Robbie Sexton'], 'abstract': 'Blink are a pop rock band from Ireland. Noted for their melancholy humour, they have released four albums since their inception in the early 1990s. Their 1994 debut album, A Map of the Universe by Blink, was a Top Ten in the Irish album charts and their second album, 1998\'s The End is High, was a Billboard album of the week. Their most recent release, 2004\'s Deep inside the Sound of Sadness, was nominated for Irish Album of the Year at the 2005 Meteor Music Awards, losing out to Snow Patrol for their album Final Straw. The band are also notable for being the first band pictured on a telephone card. A run of 202,000 were produced in 1993. This included a smaller limited run of 2000 cards, which were used as membership cards for the band\'s fan club. All the cards read \'Limited Edition\' despite being produced in great quantities. The band\'s name comes from the song "Iceblink Luck" by the Cocteau Twins, a favourite song of drummer Barry Campbell. San Diego–based pop punk band Blink-182 originally also performed under the name Blink, even releasing several demos and their debut studio album, Cheshire Cat, under this name, but the threat of a legal dispute with the Irish band resulted in their name change to Blink-182. After the name change, Blink-182 re-released Cheshire Cat under their current moniker.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Red_Hot_Chili_Peppers', 'artist_name': 'Red Hot Chili Peppers', 'wiki': 'http://en.wikipedia.org/wiki/Red_Hot_Chili_Peppers', 'hometown': 'http://dbpedia.org/resource/Los_Angeles', 'start_year': '1983', 'labels': ['http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/EMI_America_Records', 'http://dbpedia.org/resource/Enigma_Records', 'http://dbpedia.org/resource/Warner_Records'], 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees', 'http://dbpedia.org/resource/Woodstock_1999_(album)'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Funk_metal', 'http://dbpedia.org/resource/Funk_rock', 'http://dbpedia.org/resource/Rap_rock'], 'actual_members': ['http://dbpedia.org/resource/Anthony_Kiedis', 'http://dbpedia.org/resource/Chad_Smith', 'http://dbpedia.org/resource/Flea_(musician)', 'http://dbpedia.org/resource/John_Frusciante'], 'old_members': ['http://dbpedia.org/resource/Arik_Marshall', 'http://dbpedia.org/resource/Cliff_Martinez', 'http://dbpedia.org/resource/D._H._Peligro', 'http://dbpedia.org/resource/Dave_Navarro', 'http://dbpedia.org/resource/DeWayne_McKnight', 'http://dbpedia.org/resource/Hillel_Slovak', 'http://dbpedia.org/resource/Jack_Irons', 'http://dbpedia.org/resource/Jack_Sherman', 'http://dbpedia.org/resource/Jesse_Tobias', 'http://dbpedia.org/resource/Josh_Klinghoffer'], 'related_artists': ['http://dbpedia.org/resource/Ataxia_(band)', "http://dbpedia.org/resource/Jane's_Addiction", 'http://dbpedia.org/resource/The_Mars_Volta', 'http://dbpedia.org/resource/What_Is_This%3F'], 'abstract': "The Red Hot Chili Peppers are an American rock band formed in Los Angeles in 1983. Their music incorporates elements of alternative rock, funk, punk rock and psychedelic rock. The band consists of vocalist Anthony Kiedis, bassist Flea, drummer Chad Smith, and guitarist John Frusciante. With over 100 million records sold worldwide, the Red Hot Chili Peppers are one of the best-selling bands of all time. They are the most successful band in the history of alternative rock, with the records for most number-one singles (13), most cumulative weeks at number one (85) and most top-ten songs (25) on the Billboard Alternative Songs chart. They have won six Grammy Awards, and in 2012 were inducted into the Rock and Roll Hall of Fame. The Red Hot Chili Peppers were formed in Los Angeles by Kiedis, Flea, guitarist Hillel Slovak and drummer Jack Irons. Due to commitments to other bands, Slovak and Irons did not play on the band's 1984 self-titled debut album, which instead featured guitarist Jack Sherman and drummer Cliff Martinez. Slovak rejoined for their second album, Freaky Styley (1985), and Irons for their third, The Uplift Mofo Party Plan (1987). Slovak died of a drug overdose on June 25, 1988; Irons, devastated, left the band. With new recruits Frusciante and Smith, the Red Hot Chili Peppers recorded Mother's Milk (1989) and their first major commercial success, Blood Sugar Sex Magik (1991). Frusciante was uncomfortable with their newfound popularity and left abruptly on tour in 1992. After a series of temporary guitarists, he was replaced by Dave Navarro, who appeared on the group's sixth album, One Hot Minute (1995). Although successful, the album failed to match the critical or popular acclaim of Blood Sugar Sex Magik. Frusciante and Kiedis struggled with drug addiction throughout the 1990s. In 1998, following Navarro's departure, Frusciante rejoined the band. Their seventh album, Californication (1999), became their biggest commercial success, with 16 million copies sold worldwide. By the Way (2002) and Stadium Arcadium (2006) were also successful; Stadium Arcadium was their first album to reach number one on the Billboard 200 chart. Frusciante left again in 2009 to focus on his solo career; he was replaced by Josh Klinghoffer, who appeared on I'm with You (2011) and The Getaway (2016), before Frusciante rejoined in 2019."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Pearl_Jam', 'artist_name': 'Pearl Jam', 'wiki': 'http://en.wikipedia.org/wiki/Pearl_Jam', 'hometown': 'http://dbpedia.org/resource/Seattle', 'start_year': '1990', 'aliases': ['Mookie Blaylock (early)'], 'labels': ['http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/J_Records', 'http://dbpedia.org/resource/Monkeywrench_Records', 'http://dbpedia.org/resource/Third_Man_Records', 'http://dbpedia.org/resource/Universal_Music_Group'], 'plays_in': ['http://dbpedia.org/resource/Vote_for_Change%3F_2004'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Grunge', 'http://dbpedia.org/resource/Hard_rock'], 'actual_members': ['http://dbpedia.org/resource/Eddie_Vedder', 'http://dbpedia.org/resource/Jeff_Ament', 'http://dbpedia.org/resource/Matt_Cameron', 'http://dbpedia.org/resource/Mike_McCready', 'http://dbpedia.org/resource/Stone_Gossard'], 'old_members': ['http://dbpedia.org/resource/Dave_Abbruzzese', 'http://dbpedia.org/resource/Dave_Krusen', 'http://dbpedia.org/resource/Jack_Irons', 'http://dbpedia.org/resource/Matt_Chamberlain'], 'related_artists': ['http://dbpedia.org/resource/Green_River_(band)', 'http://dbpedia.org/resource/Hovercraft_(band)', 'http://dbpedia.org/resource/Mother_Love_Bone', 'http://dbpedia.org/resource/Neil_Young', 'http://dbpedia.org/resource/Temple_of_the_Dog'], 'abstract': 'Pearl Jam is an American rock band formed in Seattle, Washington, in 1990. The band\'s lineup consists of founding members Jeff Ament (bass guitar), Stone Gossard (rhythm guitar), Mike McCready (lead guitar), and Eddie Vedder (lead vocals, guitar), as well as Matt Cameron (drums), who joined in 1998. Keyboardist Boom Gaspar has also been a touring/session member with the band since 2002. Drummers Jack Irons, Dave Krusen, Matt Chamberlain, and Dave Abbruzzese are former members of the band. Pearl Jam outsold many of their contemporaries from the early 1990s, and are considered one of the most influential bands of the decade, being dubbed as "the most popular American rock &amp; roll band of the \'90s". Formed after the demise of Gossard and Ament\'s previous band, Mother Love Bone, Pearl Jam broke into the mainstream with their debut album, Ten, in 1991. Ten stayed on the Billboard 200 chart for nearly five years, and has gone on to become one of the highest-selling rock records ever, going 13x platinum in the United States. Released in 1993, Pearl Jam\'s second album, Vs., sold over 950,000 copies in its first week of release, setting the record for most copies of an album sold in its first week of release at the time. Their third album, Vitalogy (1994), became the second-fastest-selling CD in history at the time, with more than 877,000 units sold in its first week. One of the key bands in the grunge movement of the early 1990s, Pearl Jam\'s members often shunned popular music industry practices such as making music videos or participating in interviews. The band also sued Ticketmaster, claiming it had monopolized the concert-ticket market. In 2006, Rolling Stone described the band as having "spent much of the past decade deliberately tearing apart their own fame." Pearl Jam had sold more than 85 million albums worldwide by 2018, including nearly 32 million albums in the United States by 2012, making them one of the best-selling bands of all time. Pearl Jam was inducted into the Rock and Roll Hall of Fame in 2017 in its first year of eligibility. They were ranked at No. 8 in a reader poll by Rolling Stone magazine in its "Top Ten Live Acts of All Time" issue. Throughout its career, the band has also promoted wider social and political issues, from pro-choice sentiments to opposition to George W. Bush\'s presidency. Vedder acts as the band\'s spokesman on these issues.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Seven_Mary_Three', 'artist_name': 'Seven Mary Three', 'wiki': 'http://en.wikipedia.org/wiki/Seven_Mary_Three', 'hometown': 'http://dbpedia.org/resource/Williamsburg,_Virginia', 'start_year': '1992', 'end_year': '1992', 'aliases': ['7 Mary 3', '7M3'], 'labels': ['http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/DRT_Entertainment', 'http://dbpedia.org/resource/Mammoth_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Post-grunge'], 'old_members': ['Casey Daniel', 'Giti Khalsa', 'Jason Pollock', 'Jason Ross', 'Mike Levesque', 'Thomas Juliano'], 'abstract': 'Seven Mary Three (occasionally abbreviated to 7 Mary 3 or 7M3) was an American rock band. They released seven studio albums and one live album, and are best known for their hit single "Cumbersome".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Rage_Against_the_Machine', 'artist_name': 'Rage Against the Machine', 'wiki': 'http://en.wikipedia.org/wiki/Rage_Against_the_Machine', 'plays_in': ['http://dbpedia.org/resource/Live_at_Finsbury_Park', 'http://dbpedia.org/resource/Woodstock_1999_(album)'], 'genres': ['http://dbpedia.org/resource/Funk_metal', 'rap rock', 'alternative metal', 'Rap metal'], 'actual_members': ['Tim Commerford', 'Zack de la Rocha', 'Tom Morello', 'Brad Wilk'], 'related_artists': ['http://dbpedia.org/resource/Audioslave', 'http://dbpedia.org/resource/Axis_of_Justice', 'http://dbpedia.org/resource/Brad_Wilk', 'http://dbpedia.org/resource/Chuck_D', "http://dbpedia.org/resource/Class_of_'99", 'http://dbpedia.org/resource/Greta_(band)', 'http://dbpedia.org/resource/Inside_Out_(band)', 'http://dbpedia.org/resource/Jimmy_Boyle_(record_producer)', 'http://dbpedia.org/resource/Justin_Goldberg', 'http://dbpedia.org/resource/Las_Manos_de_Filippi', 'http://dbpedia.org/resource/Lock_Up_(American_band)', 'http://dbpedia.org/resource/No_For_An_Answer', 'http://dbpedia.org/resource/One_Day_as_a_Lion__One_Day_As_A_Lion__1', 'http://dbpedia.org/resource/Prophets_of_Rage', 'http://dbpedia.org/resource/Rodney_Mills', 'http://dbpedia.org/resource/Sound_City_Players', 'http://dbpedia.org/resource/Street_Sweeper_Social_Club', 'http://dbpedia.org/resource/The_Coup', 'http://dbpedia.org/resource/The_Last_Internationale', 'http://dbpedia.org/resource/The_Nightwatchman', 'http://dbpedia.org/resource/Tim_Commerford', 'http://dbpedia.org/resource/Tom_Morello', 'http://dbpedia.org/resource/Wakrat', 'http://dbpedia.org/resource/Xombie_(band)', 'http://dbpedia.org/resource/Zack_de_la_Rocha'], 'abstract': "Rage Against the Machine (often abbreviated as RATM or shortened to Rage) is an American rock band from Los Angeles, California. Formed in 1991, the group consists of vocalist Zack de la Rocha, bassist and backing vocalist Tim Commerford, guitarist Tom Morello, and drummer Brad Wilk. Their songs express revolutionary political views. As of 2010, they have sold over 16 million records worldwide. The band was nominated for induction into the Rock &amp; Roll Hall of Fame in their first year of eligibility in 2017, then again in 2018, 2019, and 2021, though the bids failed. Rage Against the Machine released its self-titled debut album in 1992 to commercial and critical success, leading to a slot in the 1993 Lollapalooza festival; in 2003, the album was ranked number 368 on Rolling Stone's list of the 500 greatest albums of all time. The follow-up albums, Evil Empire (1996) and The Battle of Los Angeles (1999), were also successful; both albums topped the Billboard 200 chart. During their initial nine-year run, Rage Against the Machine became a popular and influential band, and had a large influence on the nu metal genre which came to prominence during the second half of the 1990s. They were also ranked No. 33 on VH1's 100 Greatest Artists of Hard Rock. In 2000, Rage Against the Machine released the cover album Renegades and disbanded after growing creative differences led to De la Rocha's departure. De la Rocha started a low-profile solo career, while the rest of the band formed the rock supergroup Audioslave with Chris Cornell, the former frontman of Soundgarden; Audioslave recorded three albums before disbanding in 2007. The same year, Rage Against the Machine announced a reunion and performed together for the first time in seven years at the Coachella Valley Music and Arts Festival in April 2007. Within the next four years, minus a sabbatical in 2009, the band continued to perform at more live venues and festivals around the world before going on hiatus once again in 2011. In 2016, Morello, Commerford and Wilk formed a new band, Prophets of Rage, with B-Real, Chuck D, and DJ Lord; that band released one EP and one full-length studio album before disbanding in 2019. After an eight-year hiatus, Rage Against the Machine announced in November 2019 that they were reuniting for a world tour, which was initially scheduled to start in 2020 but was ultimately postponed to 2021 and again to 2022, due to the COVID-19 pandemic."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Otherwise_(band)', 'artist_name': 'Otherwise', 'wiki': 'http://en.wikipedia.org/wiki/Otherwise_(band)', 'hometown': 'http://dbpedia.org/resource/Las_Vegas_Valley', 'start_year': '2003', 'labels': ['http://dbpedia.org/resource/Century_Media_Records', 'http://dbpedia.org/resource/Mascot_Label_Group'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['Adrian Patrick', 'Joe Conner', 'Nick Bedrosian', 'Ryan Patrick'], 'old_members': ['Alan Doucette', 'Andrew Pugh', 'Brian Medeiros', 'Corky Gainsford', 'Dave McMahan', 'Don DW King', 'Flavio Ivan Mendoza', 'Jason Juadines', 'Ray Kemple', 'Ted Carrasco', 'Tony "The Beast" Carboney', 'Vassilios Metropoulos'], 'abstract': 'Otherwise is an American hard rock band from Las Vegas, Nevada. They have released four full-length albums on the Sony Music-owned label Century Media Records, titled True Love Never Dies (2012), Peace at All Costs (2014) Sleeping Lions (2017) and Defy (2019). Prior to signing their record deal with Century Media, as an unsigned band they released one self-titled full-length album (2006) and one EP titled Some Kind of Alchemy (2009). The band was discovered by music industry executive Clay Busch and the bands hit song “Soldiers” was debuted on Sirius XM Octane by Jose Mangin. The band is the first unsigned artist to chart #1 on Sirius XM Octane with the song “Soldiers”. In 2018, it was announced that the band had signed to Mascot Records, with a new studio album released on the label on November 8, 2019.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Volbeat', 'artist_name': 'Volbeat', 'wiki': 'http://en.wikipedia.org/wiki/Volbeat', 'hometown': 'http://dbpedia.org/resource/Copenhagen', 'start_year': '2001', 'labels': ['http://dbpedia.org/resource/Mascot_Records', 'http://dbpedia.org/resource/Republic_Records', 'http://dbpedia.org/resource/Spinefarm_Records', 'http://dbpedia.org/resource/Universal_Music_Group', 'http://dbpedia.org/resource/Vertigo_Records'], 'genres': ['http://dbpedia.org/resource/Groove_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music', 'http://dbpedia.org/resource/Psychobilly', 'http://dbpedia.org/resource/Rock_and_roll', 'http://dbpedia.org/resource/Rockabilly', 'Heavy metal'], 'actual_members': ['http://dbpedia.org/resource/Jon_Larsen_(Danish_musician)', 'http://dbpedia.org/resource/Michael_Poulsen', 'http://dbpedia.org/resource/Rob_Caggiano', 'Kaspar Boye Larsen'], 'old_members': ['http://dbpedia.org/resource/Anders_Kjølholm', 'http://dbpedia.org/resource/Franz_Gottschalk', 'http://dbpedia.org/resource/Thomas_Bredahl', 'Teddy Vang'], 'related_artists': ['http://dbpedia.org/resource/Anders_Kjølholm', 'http://dbpedia.org/resource/Dominus_(band)', 'http://dbpedia.org/resource/Franz_Gottschalk', 'http://dbpedia.org/resource/Jon_Larsen_(Danish_musician)', 'http://dbpedia.org/resource/Michael_Poulsen__Michael_Poulsen__1', 'http://dbpedia.org/resource/Napalm_Death', 'http://dbpedia.org/resource/Rob_Caggiano', 'http://dbpedia.org/resource/Thomas_Bredahl'], 'abstract': "Volbeat are a Danish rock band formed in Copenhagen in 2001. They play a fusion of rock and roll, heavy metal and rockabilly. Their current line-up consists of vocalist and guitarist Michael Poulsen, guitarist Rob Caggiano, drummer Jon Larsen and bassist Kaspar Boye Larsen. The band is signed to Dutch label Mascot Records and has released seven studio albums and one DVD. All of their studio albums have been certified gold in Denmark. Their second album Rock the Rebel/Metal the Devil received platinum status, and their 2010 release Beyond Hell/Above Heaven was subject to widespread international critical acclaim, receiving double platinum in Denmark, platinum in Finland and Germany, and gold in the United States, Sweden and Austria. Volbeat's seventh album, Rewind, Replay, Rebound, was released on 2 August 2019. Their eighth album, Servant of the Mind, was released on 3 December 2021."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Alien_Ant_Farm', 'artist_name': 'Alien Ant Farm', 'wiki': 'http://en.wikipedia.org/wiki/Alien_Ant_Farm', 'hometown': 'http://dbpedia.org/resource/Riverside,_California', 'start_year': '1996', 'labels': ['http://dbpedia.org/resource/DreamWorks_Records', 'http://dbpedia.org/resource/Executive_Music_Group', 'http://dbpedia.org/resource/Universal_Music_Group'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Pop-punk', 'http://dbpedia.org/resource/Punk_rock', 'pop punk'], 'actual_members': ['Dryden Mitchell', 'Terry Corso', 'Tim Peugh', 'Mike Cosgrove'], 'old_members': ['Tye Zamora', 'Joe Hill'], 'related_artists': ['http://dbpedia.org/resource/Chain_of_Strength', 'http://dbpedia.org/resource/Excel_(band)', 'http://dbpedia.org/resource/Inside_Out_(band)', 'http://dbpedia.org/resource/Jay_Baumgardner'], 'abstract': 'Alien Ant Farm is an American rock band that formed in Riverside, California in 1996. They have released five studio albums and sold over 5 million units worldwide. The band\'s cover of Michael Jackson\'s "Smooth Criminal" topped the Billboard Alternative songs charts in 2001, and was featured in the film American Pie 2. They released their debut album Greatest Hits independently in 1999, then signed to DreamWorks Records in 2000. Their second album ANThology was released in 2001 and has been certified platinum by the RIAA, selling over one million copies and reaching number 11 on the Billboard 200. Following up that was their third album, TruANT, released in 2003. The album was produced by brothers Robert and Dean DeLeo of Stone Temple Pilots, and made it to number 42 on the Billboard 200. In 2005 the band recorded their next album 3rd Draft, however its release was denied by the label after Geffen bought out DreamWorks. It was eventually released in 2006 as Up in the Attic, charting at number 114 on the Billboard 200. After several years of sporadic touring, the band\'s fifth studio album Always and Forever was released in February 2015.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Hoobastank', 'artist_name': 'Hoobastank', 'wiki': 'http://en.wikipedia.org/wiki/Hoobastank', 'hometown': 'http://dbpedia.org/resource/Agoura_Hills,_California', 'start_year': '1994', 'aliases': ['Hoobustank (1994–2001)'], 'labels': ['http://dbpedia.org/resource/EMI', 'http://dbpedia.org/resource/Island_Records', 'http://dbpedia.org/resource/Napalm_Records'], 'plays_in': ['http://dbpedia.org/resource/Halo_2_Original_Soundtrack'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Funk_metal', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Post-grunge', 'http://dbpedia.org/resource/Ska_punk'], 'actual_members': ['Doug Robb', 'Dan Estrin', 'Chris Hesse', 'Jesse Charland'], 'old_members': ['Markku Lappalainen', 'Jeremy Wasser', 'Derek Kwan', 'Matt McKenzie', 'Josh Moreau', 'David Amezcua', 'Kevin Antreassian'], 'related_artists': ['http://dbpedia.org/resource/Linkin_Park', 'http://dbpedia.org/resource/Vanessa_Amorosi'], 'abstract': 'Hoobastank (sometimes stylized as h∞bastank, and originally known as Hoobustank) is an American rock band formed in 1994 in Agoura Hills, California by lead vocalist Doug Robb, guitarist Dan Estrin, drummer Chris Hesse, and original bassist Markku Lappalainen. They were signed to Island Records from 2001 to 2012 and have released six albums and one extended play to date. Their most recent album, Push Pull, was released on May 25, 2018. They have sold 10 million albums worldwide. The band is best known for their biggest hit single "The Reason".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Beartooth_(band)', 'artist_name': 'Beartooth', 'wiki': 'http://en.wikipedia.org/wiki/Beartooth_(band)', 'hometown': 'http://dbpedia.org/resource/Columbus,_Ohio', 'start_year': '2012', 'aliases': ['Noise (2012)'], 'labels': ['http://dbpedia.org/resource/Red_Bull_Records', 'http://dbpedia.org/resource/UNFD'], 'genres': ['http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Hardcore_punk', 'http://dbpedia.org/resource/Melodic_hardcore', 'http://dbpedia.org/resource/Metalcore'], 'actual_members': ['http://dbpedia.org/resource/Caleb_Shomo', 'Zach Huston', 'Will Deely', 'Connor Denis', 'Oshie Bichar'], 'old_members': ['Nick Reed', 'Brandon Mullins', 'Taylor Lumley', 'Kamron Bradbury'], 'related_artists': ['http://dbpedia.org/resource/Attack_Attack!_(American_band)', 'http://dbpedia.org/resource/Caleb_Shomo', 'http://dbpedia.org/resource/City_Lights_(band)', 'http://dbpedia.org/resource/Crossfaith', 'http://dbpedia.org/resource/Dragged_Under', 'http://dbpedia.org/resource/My_Ticket_Home', 'http://dbpedia.org/resource/Sylar_(band)', 'http://dbpedia.org/resource/Windwaker_(band)'], 'abstract': 'Beartooth is an American hardcore punk band formed by Caleb Shomo in Columbus, Ohio, in 2012. They have been signed to Red Bull Records since 2013. Their debut EP Sick was released on July 26, 2013, followed by their debut full-length album Disgusting on June 10, 2014. Their second album Aggressive was released on June 3, 2016. Their third album Disease was released on September 28, 2018. Their fourth album Below was released on June 25, 2021.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Crown_the_Empire', 'artist_name': 'Crown the Empire', 'wiki': 'http://en.wikipedia.org/wiki/Crown_the_Empire', 'hometown': 'http://dbpedia.org/resource/Texas', 'start_year': '2010', 'labels': ['http://dbpedia.org/resource/Rise_Records'], 'genres': ['http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Metalcore', 'http://dbpedia.org/resource/Post-hardcore', 'http://dbpedia.org/resource/Progressive_rock'], 'actual_members': ['Andrew "Andy Leo" Rockhold', 'Brandon Hoover', 'Hayden Tree', 'Brent Taddie'], 'old_members': ['Alex Massey', 'Brandon Shroyer', 'Zac Johnson', 'Austin Duncan', 'Bennett "Benn Suede" Vogelman', 'Dave Escamilla'], 'related_artists': ['http://dbpedia.org/resource/Palisades_(band)'], 'abstract': 'Crown the Empire is an American metalcore band formed in 2010 in Dallas, Texas. They have released one EP and four full-length albums.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Ashes_Remain', 'artist_name': 'Ashes Remain', 'wiki': 'http://en.wikipedia.org/wiki/Ashes_Remain', 'hometown': 'http://dbpedia.org/resource/Maryland', 'start_year': '2001', 'labels': ['http://dbpedia.org/resource/BEC_Recordings', 'http://dbpedia.org/resource/Fair_Trade_Services'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Christian_rock', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['Ben Kirk', 'Jon Hively', 'Josh Smith', 'Rob Tahan', 'Ryan Nalepa'], 'old_members': ['Ben Ogden'], 'abstract': 'Ashes Remain is an American Christian rock band, formed in 2001 and based in Baltimore, Maryland. The band was founded by Josh Smith and Ryan Nalepa. While they released two albums in their first six years, the band is popularly known for its third album, What I\'ve Become, which was released in 2011. They have released four albums, Lose the Alibis (2003), Last Day Breathing (2007), What I\'ve Become (2011), and Let the Light In (2017), two EPs, Red Devotion (2009) and Christmas EP (2012) and two non-album singles, "Separated" (2004) and "Here For a Reason" (2014).'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Smile_Empty_Soul', 'artist_name': 'Smile Empty Soul', 'wiki': 'http://en.wikipedia.org/wiki/Smile_Empty_Soul', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '1998', 'aliases': ['Hecklers Veto (1998–2001)'], 'labels': ['http://dbpedia.org/resource/Bieler_Bros._Records', 'http://dbpedia.org/resource/Lava_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['http://dbpedia.org/resource/Sean_Danielsen', 'http://dbpedia.org/resource/Smile_Empty_Soul', 'Ty Del Rose'], 'old_members': ['http://dbpedia.org/resource/Hed_PE', 'http://dbpedia.org/resource/Hurt_(band)', 'Ryan Martin', 'Victor Ribas', 'Dominic Weir', 'Mike Booth', 'Derek Gledhill', 'Jake Kilmer', 'Mark Young'], 'related_artists': ['http://dbpedia.org/resource/Cold_(band)', 'http://dbpedia.org/resource/Sean_Danielsen', 'http://dbpedia.org/resource/World_Fire_Brigade'], 'abstract': "Smile Empty Soul is an American rock band, originally from Santa Clarita, California, United States. It was started in 1998 by Sean Danielsen (vocals and guitar), Ryan Martin (bass), and Derek Gledhill (drums). Following the departure of Gledhill and Martin from the band in 2005 and 2017, respectively, Danielsen remains the only founding member still active as well as the band's primary songwriter, frontman, and leader."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': 'http://en.wikipedia.org/wiki/Korn', 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'start_year': '1993', 'labels': ['http://dbpedia.org/resource/Caroline_Records', 'http://dbpedia.org/resource/Concord_(entertainment_company)', 'http://dbpedia.org/resource/Elektra_Records', 'http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Immortal_Records', 'http://dbpedia.org/resource/Loma_Vista_Recordings', 'http://dbpedia.org/resource/Prospect_Park_(production_company)', 'http://dbpedia.org/resource/Roadrunner_Records', 'http://dbpedia.org/resource/Virgin_Records'], 'plays_in': ['http://dbpedia.org/resource/MTV_The_Return_of_the_Rock', 'http://dbpedia.org/resource/Woodstock_1999_(album)'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Nu_metal'], 'actual_members': ['http://dbpedia.org/resource/Brian_Welch', 'http://dbpedia.org/resource/James_Shaffer', 'http://dbpedia.org/resource/Jonathan_Davis', 'http://dbpedia.org/resource/Ray_Luzier', 'http://dbpedia.org/resource/Reginald_Arvizu'], 'old_members': ['http://dbpedia.org/resource/David_Silveria'], 'related_artists': ['http://dbpedia.org/resource/Adema', 'http://dbpedia.org/resource/Atticus_Ross', 'http://dbpedia.org/resource/Brian_Welch__Brian_Welch__1', 'http://dbpedia.org/resource/Brooks_Wackerman', 'http://dbpedia.org/resource/Clint_Lowery', 'http://dbpedia.org/resource/Datsik_(musician)', 'http://dbpedia.org/resource/Davey_Suicide', 'http://dbpedia.org/resource/David_Silveria', 'http://dbpedia.org/resource/Deadly_Apples', 'http://dbpedia.org/resource/Derrick_Green', 'http://dbpedia.org/resource/Destroid', 'http://dbpedia.org/resource/Dimmu_Borgir', 'http://dbpedia.org/resource/Fashion_Bomb', 'http://dbpedia.org/resource/James_Shaffer', 'http://dbpedia.org/resource/Jean_Luc_Ponpon', 'http://dbpedia.org/resource/Joey_Jordison', 'http://dbpedia.org/resource/Jonathan_Davis', 'http://dbpedia.org/resource/Jonathan_Davis_and_the_SFA', 'http://dbpedia.org/resource/Kill_the_Noise', 'http://dbpedia.org/resource/Killbot_(band)', 'http://dbpedia.org/resource/L.A.P.D._(band)', 'http://dbpedia.org/resource/Lauren_Christy', 'http://dbpedia.org/resource/Mass_Hysteria_(band)', 'http://dbpedia.org/resource/Mass_Mental', 'http://dbpedia.org/resource/Michael_Jochum', 'http://dbpedia.org/resource/Mike_Bordin', 'http://dbpedia.org/resource/Morgan_Rose', 'http://dbpedia.org/resource/Orgy_(band)', 'http://dbpedia.org/resource/Ray_Luzier', 'http://dbpedia.org/resource/Reginald_Arvizu', 'http://dbpedia.org/resource/Rob_Patterson', 'http://dbpedia.org/resource/Ross_Robinson', 'http://dbpedia.org/resource/Ryan_Martinie', 'http://dbpedia.org/resource/Ryan_Shuck', 'http://dbpedia.org/resource/Shane_Gibson_(musician)', 'http://dbpedia.org/resource/Sunflower_Dead', 'http://dbpedia.org/resource/Terry_Bozzio', 'http://dbpedia.org/resource/The_Matrix_(team)', 'http://dbpedia.org/resource/Twelvestep', 'http://dbpedia.org/resource/Wesley_Geer', 'http://dbpedia.org/resource/Zac_Baird'], 'abstract': 'Korn (stylized as KoЯn) is an American nu metal band from Bakersfield, California, formed in 1993. The band is notable for pioneering the nu metal genre and bringing it into the mainstream. Originally formed in 1993 by three members of the band L.A.P.D., Korn\'s current lineup features founding members James "Munky" Shaffer (rhythm guitar), Reginald "Fieldy" Arvizu (bass), Brian "Head" Welch (lead guitar, backing vocals), and Jonathan Davis (lead vocals, bagpipes), with the addition of Ray Luzier (drums) in 2007, replacing the band\'s first drummer, David Silveria. Korn made a demo tape, Neidermayer\'s Mind, in 1993, which was distributed free to record companies and on request to members of the public. Their debut album, Korn, was released in 1994, followed by Life Is Peachy in 1996. The band first experienced mainstream success with Follow the Leader (1998) and Issues (1999), both of which debuted at number one on the Billboard 200. The band\'s mainstream success continued with Untouchables (2002), Take a Look in the Mirror (2003) and See You on the Other Side (2005). A compilation album, Greatest Hits Vol. 1, was released in 2004, spanning a decade of singles and concluding the band\'s recording contract with Immortal Records and Epic Records. They signed to Virgin Records, releasing See You on the Other Side in 2005, and an untitled album in 2007. Korn\'s other recent albums, Korn III: Remember Who You Are (2010) and The Path of Totality (2011), were released via Roadrunner Records, The Paradigm Shift (2013) being released via Prospect Park and Caroline Records. The Serenity of Suffering, saw their return to Roadrunner Records. Their latest album, The Nothing, was released on September 13, 2019. As of 2018, Korn had sold more than 40 million records worldwide. Twelve of the band\'s official releases have peaked in the top ten of the Billboard 200, eight of which have peaked in the top five. Seven official releases are certified platinum by the Recording Industry Association of America (RIAA), two are certified double platinum, one is certified triple platinum, one is certified five times platinum and two are certified Gold. Korn has released seven video albums and 39 music videos. The band has released 41 singles, 28 of which have charted. Korn has earned two Grammy Awards out of eight nominations and two MTV Video Music Awards out of eleven nominations.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Adelitas_Way', 'artist_name': 'Adelitas way', 'wiki': 'http://en.wikipedia.org/wiki/Adelitas_Way', 'hometown': 'http://dbpedia.org/resource/Nevada', 'start_year': '2006', 'labels': ['http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/Virgin_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['http://dbpedia.org/resource/Rick_DeJesus', 'Trevor Stafford', 'Tavis Stanley', 'Andrew Cushing'], 'old_members': ['http://dbpedia.org/resource/Keith_Wallen', 'Creighton Taylor Bibbs', 'Derek Johnston', 'Robert Zakaryan', 'Chris Iorio'], 'related_artists': ['http://dbpedia.org/resource/Keith_Wallen', 'http://dbpedia.org/resource/Rick_DeJesus'], 'abstract': 'Adelitas Way is an independent American hard rock band formed in Las Vegas in 2006. The band\'s debut single "Invincible", broke them into the mainstream scene after the song made numerous television appearances in commercials and live sporting events. As of 2017, the band has toured with notable acts such as Guns N\' Roses, Creed, Papa Roach, Godsmack, Theory of a Deadman, Seether, Three Days Grace, Breaking Benjamin, Deftones, Puddle of Mudd, Sick Puppies, Shinedown, Staind, Alter Bridge, Skillet, Halestorm, Thousand Foot Krutch and others.'}</t>
+    <t>{'url': 'https://genius.com/artists/Adele', 'annotations': {'description': '&lt;p&gt;In this digital and single-driven age, it’s very difficult for artists to sell albums. Yet, this British singer-songwriter has managed to sell over 50 million units on the back of her two latest albums alone.&lt;/p&gt;\n\n&lt;p&gt;Known for her strong, unique vocal talents who also possesses a very down-to-earth persona, Adele Adkins, born on May 5, 1988, made her studio debut in 2008 with &lt;a href="https://genius.com/albums/Adele/19" rel="noopener" data-api_path="/albums/14858"&gt;&lt;em&gt;19&lt;/em&gt;&lt;/a&gt;, which netted the artist &lt;a href="https://www.grammy.com/grammys/awards/51st-annual-grammy-awards" rel="noopener nofollow"&gt;two Grammy awards&lt;/a&gt; and earned her significant acclaim in the UK.&lt;/p&gt;\n\n&lt;p&gt;In early 2011, Adele released her sophomore album, &lt;a href="https://genius.com/albums/Adele/21" rel="noopener" data-api_path="/albums/11093"&gt;&lt;em&gt;21&lt;/em&gt;&lt;/a&gt;, written in the aftermath of a tumultuous relationship and nasty break-up. The album has sold 35 million copies worldwide and is the 21st album of all time to be certified Diamond in the U.S. (10 million copies sold), a milestone achieved in less than two years after its release. At the &lt;a href="https://www.grammy.com/grammys/awards/54th-annual-grammy-awards" rel="noopener nofollow"&gt;2012 Grammys&lt;/a&gt;, Adele took home six trophies including Song, Record, and Album of the Year, making her only the second artist in Grammys history to win all four General Field categories. To this day, &lt;em&gt;21&lt;/em&gt; is the &lt;a href="http://www.billboard.com/charts/greatest-billboard-200-albums" rel="noopener nofollow"&gt;most successful album on the Billboard 200 ever&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Adele returned from a multi-year hiatus in 2015 after becoming a mother. She released her third studio album &lt;a href="https://genius.com/albums/Adele/25" rel="noopener" data-api_path="/albums/133542"&gt;&lt;em&gt;25&lt;/em&gt;&lt;/a&gt;, which sold more than 3 million units in its first week in the US, an amount unprecedented in all time. Globally, it was the biggest album sales week ever recorded as well. The titanic record featured Adele moving thematically into a sense of closure in her relationships and past. Hailed by critics for being responsible for encouraging the public to purchase physical copies of records, &lt;em&gt;25&lt;/em&gt; was certified Diamond in under a year in the US, and has sold 20 million copies worldwide. Again, at the &lt;a href="https://www.grammy.com/grammys/awards/59th-annual-grammy-awards" rel="noopener nofollow"&gt;2017 Grammys&lt;/a&gt;, Adele took home a boatload of Grammys, including another Song of the Year, Record of the Year, and Album of the Year award.&lt;/p&gt;', 'alternate_names': ['Adele Laurie Blue Adkins', 'Adele Adkins']}}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Bruno_Mars', 'artist_name': 'Bruno Mars', 'wiki': 'http://en.wikipedia.org/wiki/Bruno_Mars', 'birth_date': '08 October 1985', 'start_year': '2004', 'plays_in': ['http://dbpedia.org/resource/31_Minutes_to_Takeoff', 'http://dbpedia.org/resource/Amor_à_Vida', 'http://dbpedia.org/resource/Grammy_Nominees', 'http://dbpedia.org/resource/Press_It', 'http://dbpedia.org/resource/Sayonara_Hitori', 'http://dbpedia.org/resource/Taemin_(album)'], 'related_artists': ['http://dbpedia.org/resource/Alex_Hepburn', 'http://dbpedia.org/resource/Andrew_Wyatt__Andrew_Wyatt__1', 'http://dbpedia.org/resource/Brody_Brown', 'http://dbpedia.org/resource/CLMD', 'http://dbpedia.org/resource/Dave_Audé', 'http://dbpedia.org/resource/Elijah_Connor', 'http://dbpedia.org/resource/Graham_Marsh_(producer)', 'http://dbpedia.org/resource/Greg_Phillinganes', 'http://dbpedia.org/resource/Jamareo_Artis', 'http://dbpedia.org/resource/Laze_&amp;_Royal', 'http://dbpedia.org/resource/Philip_Lawrence_(songwriter)', 'http://dbpedia.org/resource/Saint_Cassius_(musician)', 'http://dbpedia.org/resource/The_Green_(band)', 'http://dbpedia.org/resource/The_Stereotypes', 'http://dbpedia.org/resource/Tom_Coyne_(music_engineer)'], 'abstract': 'Peter Gene Hernandez (born October 8, 1985), known professionally as Bruno Mars, is an American singer, songwriter, record producer, musician, and dancer. He is known for his stage performances, retro showmanship, and for performing in a wide range of musical styles, including pop, R&amp;B, funk, soul, reggae, disco, and rock. Mars is accompanied by his band, the Hooligans, who play a variety of instruments, such as electric guitar, bass, piano, keyboards, drums, and horns, and also serve as backup singers and dancers. Born and raised in Honolulu, Hawaii, Mars moved to Los Angeles in 2003 to pursue a musical career. In 2009, he co-founded the production team The Smeezingtons, responsible for various successful singles for Mars himself and other artists. He rose to fame in 2010 buoyed by the success of "Nothin\' on You" by B.o.B and "Billionaire" by Travie McCoy, both of which featured his vocals. That year, Mars released his debut studio album Doo-Wops &amp; Hooligans, which blended pop with reggae pop and R&amp;B. It spawned the international number-one singles "Just the Way You Are", "Grenade", and "The Lazy Song". Drawing inspiration from disco, funk, rock, reggae and soul genres, his second studio album, Unorthodox Jukebox (2012), was his first number one on the Billboard 200. It amassed two Billboard Hot 100 number-one hits, "Locked Out of Heaven" and "When I Was Your Man". In 2014, Mars was featured on Mark Ronson\'s "Uptown Funk", which topped various music charts, spending a total of fourteen and seven weeks atop the Billboard Hot 100 and the UK Singles Chart, respectively. Mars\'s third studio album, the R&amp;B-focused, 24K Magic (2016), received seven Grammy Awards, winning the major categories of Album of the Year, Record of the Year, and Song of the Year. The album also yielded the top-five singles "24K Magic", "That\'s What I Like", his seventh Billboard Hot 100 number-one single, and a remix of "Finesse" featuring Cardi B. In 2021, Mars and Anderson .Paak, as Silk Sonic, released the collaborative studio album, An Evening with Silk Sonic, whose single "Leave the Door Open" topped the Billboard Hot 100. Mars has sold over 130 million records worldwide, making him one of the best-selling music artists of all time. He has released eight number-one singles on the Billboard Hot 100 since his career launched in 2010, and became the first artist to receive five Diamond-certified songs in the United States. He was included in Music Week and Billboard magazine as one of the best songwriters of 2011 and 2013, respectively. Mars has received several awards and nominations, including 11 Grammy Awards, three Brit Awards, eleven American Music Awards, 13 Soul Train Awards and holds three Guinness world records. He appeared in Time magazine\'s annual list of the 100 most influential people in the world in 2011, Forbes magazine\'s list of "30 Under 30" in 2013, and Forbes\'s Celebrity 100 in 2014, 2018, and 2019.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Save_Ferris', 'artist_name': 'Save Ferris', 'wiki': 'http://en.wikipedia.org/wiki/Save_Ferris', 'hometown': 'http://dbpedia.org/resource/Orange_County,_California', 'start_year': '1995', 'end_year': '2003', 'labels': ['http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Starpool'], 'genres': ['http://dbpedia.org/resource/Ska_punk'], 'actual_members': ['Adam Bones', 'Alex Csillag', 'Brandon Dickert', "Max O'Leary", 'Monique Powell', 'Nate Light'], 'old_members': ['Adam Plost', 'Adrienne Nolff', 'Alex Burke', 'Alexander Mathias', 'Bill Uechi', 'Brian Mashburn', 'Connor McElwain', 'Denny Weston Jr.', 'Eric Zamora', 'Erik Hughes', 'Evan Kilbourne', 'Gordon Bash', 'Jesse Stern', 'Jesse Tunnell', 'Joe Berry', 'Jonathan Levi Shanes', 'José Castellaños', 'Marc Harismendy', 'Oliver Zavala', 'Patrick Ferguson', 'Richard Velzen', 'Scott Jones', 'Steve Cordero', 'Steve White', 'T-Bone Willy'], 'related_artists': ['http://dbpedia.org/resource/Hot_Numbers', 'http://dbpedia.org/resource/Mindrot', 'http://dbpedia.org/resource/Nuckle_Brothers', 'http://dbpedia.org/resource/Reel_Big_Fish', 'http://dbpedia.org/resource/Starpool'], 'abstract': "Save Ferris is an American ska punk band formed circa 1995 in Orange County, California, United States. Their name is a reference to the 1986 film Ferris Bueller's Day Off. In 1995, the band began to perform underground venues in Southern California. In 1996, the band won a Grammy showcase award for best unsigned band and a contract with Epic Records. Their album It Means Everything from 1997 was their first full-length album. By 1999, the band moved from ska-pop into pop-punk. After a hiatus, in 2017, Save Ferris released the Checkered Past EP."}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Silk_Sonic', 'artist_name': 'Silk Sonic', 'wiki': 'http://en.wikipedia.org/wiki/Silk_Sonic', 'start_year': '2021', 'labels': ['http://dbpedia.org/resource/Aftermath_Entertainment', 'http://dbpedia.org/resource/Atlantic_Records'], 'genres': ['http://dbpedia.org/resource/Contemporary_R&amp;B', 'http://dbpedia.org/resource/Funk', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Soul_music', 'soul', 'pop', 'R&amp;B'], 'actual_members': ['http://dbpedia.org/resource/Anderson_.Paak', 'http://dbpedia.org/resource/Bruno_Mars'], 'related_artists': ['http://dbpedia.org/resource/Anderson_.Paak', 'http://dbpedia.org/resource/Bootsy_Collins', 'http://dbpedia.org/resource/Brody_Brown', "http://dbpedia.org/resource/D'Mile", 'http://dbpedia.org/resource/Domitille_Degalle'], 'abstract': 'Silk Sonic is an American R&amp;B superduo composed of singer Bruno Mars and rapper and singer Anderson .Paak. The duo released its debut single, "Leave the Door Open", in March 2021, and its debut album, An Evening with Silk Sonic, in November 2021.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Beabadoobee', 'artist_name': 'Beabadoobee', 'wiki': 'http://en.wikipedia.org/wiki/Beabadoobee', 'hometown': 'http://dbpedia.org/resource/London', 'birth_date': '03 June 2000', 'start_year': '2017', 'aliases': ['Bea ', 'Beabadoobee'], 'labels': ['http://dbpedia.org/resource/Dirty_Hit'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Folk-pop', 'http://dbpedia.org/resource/Indie_pop', 'http://dbpedia.org/resource/Indie_rock', 'http://dbpedia.org/resource/Lo-fi_music', 'http://dbpedia.org/resource/Space_rock'], 'related_artists': ['http://dbpedia.org/resource/Powfu'], 'abstract': 'Beatrice Laus (born 3 June 2000), known professionally as beabadoobee (/biːbəˈduːbiː/; stylized in all lowercase), is a Filipino-British singer-songwriter. From 2018 to 2019, she released five extended plays under the independent label Dirty Hit: Lice (2018), Patched Up (2018), Loveworm (2019), Space Cadet (2019) and Our Extended Play (2021). Her debut studio album, Fake It Flowers, was released in October 2020 and received critical acclaim. Beabadoobee served as a supporting act for labelmates the 1975 during several legs of their Music for Cars Tour, as well as American singer Clairo during her Immunity Tour. She was nominated for the Rising Star Award at the 2020 Brit Awards, and was presented with the Radar Award at the 2020 NME Awards. Beabadoobee was also predicted as a breakthrough act for 2020 in an annual BBC poll of music critics, Sound of 2020.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Bush_(Canadian_band)', 'artist_name': 'Bush', 'wiki': 'http://en.wikipedia.org/wiki/Bush_(Canadian_band)', 'hometown': 'http://dbpedia.org/resource/Ontario', 'genres': ['http://dbpedia.org/resource/Rock_music'], 'related_artists': ['http://dbpedia.org/resource/Domenic_Troiano', 'http://dbpedia.org/resource/Pentti_Glan', 'http://dbpedia.org/resource/Roy_Kenner'], 'abstract': 'Bush was an early-70s Canadian rock band. It evolved from the club act Mandala, which had a minor Canadian hit with the song "Love-Itis". Bush consisted of ex-Mandala bandmates Domenic Troiano, Roy Kenner, Hugh Sullivan, Pentti Glan, and Prakash John. The group released a single eponymous album in 1970, on the RCA label in Canada and Dunhill in the US, and toured with label mates Steppenwolf and Three Dog Night. Three Dog Night released one of their songs, "I Can Hear You Calling" as the B-side of their successful single "Joy to the World". The song, co-written by Troiano, Kenner, Glan and Sullivan, also appeared on Three Dog Night\'s Naturally album. Bush was short-lived as a band, but its jazz-influenced rock influenced many musicians.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/DB_Boulevard', 'artist_name': 'DB Boulevard', 'wiki': 'http://en.wikipedia.org/wiki/DB_Boulevard', 'hometown': 'http://dbpedia.org/resource/Padua', 'start_year': '2001', 'end_year': '2006', 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Electronic_music', 'http://dbpedia.org/resource/House_music', 'Electronic', 'house'], 'old_members': ['http://dbpedia.org/resource/Moony', 'Mauro Ferrucci', 'Diego Broggio', 'Alfred Azzetto'], 'abstract': 'DB Boulevard was an Italian electronic rock group, consisting of members, vocalist Moony (Monica Bragato), along with producers Alfred Azzetto, Diego Broggio and Mauro Ferrucci. In 2002, their song "Point of View" peaked at number 1 on the Billboard Hot Dance Club Play chart in the US and at number 3 on the UK Singles Chart. It contains a re-recorded version of a song called "Heatwave" by French band Phoenix, which was released as a single in 1999. The video clip of the song featured a computer animated cardboard woman. The song was used by Sky Sports in their Speedway Grand Prix coverage. It was also used in Sex and the City\'s season five episode "Cover Girl". In Australia, the song was played frequently on the Seven Network idents.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Rembrandts', 'artist_name': 'The Rembrandts', 'wiki': 'http://en.wikipedia.org/wiki/The_Rembrandts', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '1989', 'end_year': '1997', 'labels': ['http://dbpedia.org/resource/Atco_Records', 'http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Blue_Élan_Records', 'http://dbpedia.org/resource/East_West_Records', 'http://dbpedia.org/resource/Fuel_2000'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Jangle_pop', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Power_pop', 'http://dbpedia.org/resource/Soft_rock'], 'related_artists': ['http://dbpedia.org/resource/Danny_Wilde_(musician)', 'http://dbpedia.org/resource/Dave_Schulz_(musician)', 'http://dbpedia.org/resource/Pat_Mastelotto', "http://dbpedia.org/resource/The_Three_O'Clock"], 'abstract': 'The Rembrandts are an American pop rock duo, formed by Danny Wilde and Phil Solem in 1989. They had previously worked together as members of Great Buildings in 1981. The Rembrandts are best known for the song "I\'ll Be There for You", which was used as the main theme song for the NBC sitcom Friends.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Taylor_Swift', 'artist_name': 'Taylor Swift', 'wiki': 'http://en.wikipedia.org/wiki/Taylor_Swift', 'birth_date': '13 December 1989', 'start_year': '2004', 'aliases': ['Nils Sjöberg'], 'plays_in': ['http://dbpedia.org/resource/Avenida_Brasil_(TV_series)', 'http://dbpedia.org/resource/Grammy_Nominees', 'http://dbpedia.org/resource/Miss_Americana', "http://dbpedia.org/resource/Taylor_Swift's_Reputation_Stadium_Tour"], 'related_artists': ['http://dbpedia.org/resource/Aaron_Dessner', 'http://dbpedia.org/resource/Ali_Payami', 'http://dbpedia.org/resource/Big_Red_Machine_(band)', 'http://dbpedia.org/resource/Bon_Iver', 'http://dbpedia.org/resource/Butch_Walker', 'http://dbpedia.org/resource/Cautious_Clay', 'http://dbpedia.org/resource/Chad_Lefkowitz-Brown', 'http://dbpedia.org/resource/Dan_Wilson_(musician)', 'http://dbpedia.org/resource/Eric_Darken', 'http://dbpedia.org/resource/Gary_Lightbody', 'http://dbpedia.org/resource/Hillary_Lindsey', 'http://dbpedia.org/resource/Jack_Antonoff', 'http://dbpedia.org/resource/Jennifer_Nettles', 'http://dbpedia.org/resource/Jimmy_Napes', 'http://dbpedia.org/resource/Joel_Little', 'http://dbpedia.org/resource/Jonathan_Yudkin', 'http://dbpedia.org/resource/Justin_Vernon', 'http://dbpedia.org/resource/Kristian_Bush', 'http://dbpedia.org/resource/Liz_Rose', 'http://dbpedia.org/resource/Louis_Bell', 'http://dbpedia.org/resource/Mattias_Bylund', 'http://dbpedia.org/resource/Nathan_Chapman_(record_producer)', 'http://dbpedia.org/resource/Nick_Buda', 'http://dbpedia.org/resource/Noel_Zancanella', 'http://dbpedia.org/resource/Phoebe_Bridgers__Phoebe_Bridgers__1', "http://dbpedia.org/resource/Please_Don't_Destroy", 'http://dbpedia.org/resource/Randy_Merrill', 'http://dbpedia.org/resource/Reeve_Carney', 'http://dbpedia.org/resource/Robert_Eibach', 'http://dbpedia.org/resource/Robert_Ellis_Orrall', 'http://dbpedia.org/resource/Sam_Dew', 'http://dbpedia.org/resource/Shea_Fisher', 'http://dbpedia.org/resource/Shellback_(record_producer)', 'http://dbpedia.org/resource/Sugarland', 'http://dbpedia.org/resource/The_National_(band)', 'http://dbpedia.org/resource/Tom_Coyne_(music_engineer)', 'http://dbpedia.org/resource/Tyler_Johnson_(musician)'], 'abstract': 'Taylor Alison Swift (born December 13, 1989) is an American singer-songwriter. Her discography spans multiple genres, and her narrative songwriting, which is often inspired by her personal life, has received widespread media coverage and critical praise. Born in West Reading, Pennsylvania, Swift relocated to Nashville, Tennessee, at the age of 14 to pursue a career in country music. She signed a songwriting deal with Sony/ATV Music Publishing in 2004 and a recording deal with Big Machine Records in 2005, and released her eponymous debut studio album in 2006. She explored country pop on her second and third studio albums, Fearless (2008) and Speak Now (2010). The success of the former\'s singles "Love Story" and "You Belong with Me" on both country and pop radio established Swift as a leading crossover artist. She experimented further with pop, rock, and electronic genres on her fourth studio album, Red (2012). Her fifth, the synth-pop album 1989 (2014), effectively transformed her status from country songstress to pop star, supported by the Billboard Hot 100 number-one singles "Shake It Off", "Blank Space", and "Bad Blood". The media scrutiny on her personal life that followed largely inspired Swift\'s sixth studio album, Reputation (2017), which delved into urban sounds. Parting ways with Big Machine to sign with Republic Records in 2018, Swift released her seventh studio album, Lover, in 2019. After consistent commercial success in the 2010s, she ventured into indie folk and alternative rock on her 2020 studio albums, Folklore and Evermore, whose lyricism, inspired by escapism during the COVID-19 pandemic, was commended for its nuanced storytelling. To gain ownership over the masters of her back catalog, Swift released two re-recorded albums in 2021, Fearless (Taylor\'s Version) and Red (Taylor\'s Version), both of which earned acclaim for their enhanced musicality and vocal performance. Besides music, Swift has played various supportive acting roles in films such as Valentine\'s Day (2010) and Cats (2019). She has released the autobiographical documentary Miss Americana (2020), and the self-directed musical films Folklore: The Long Pond Studio Sessions (2020) and All Too Well: The Short Film (2021), amongst other specials. Having sold over 200 million records worldwide, Swift is one of the best-selling music artists of all time. Her accolades include 11 Grammy Awards (including three Album of the Year wins), an Emmy Award, 12 Country Music Association Awards, 25 Billboard Music Awards (the most wins for a female artist), 34 American Music Awards (the most wins for an artist) and 52 Guinness World Records. She featured on Rolling Stone\'s 100 Greatest Songwriters of All Time (2015), placed eighth on Billboard\'s Greatest of All Time Artists list (2019), and appeared multiple times on power rankings such as the Time 100 and the Forbes Celebrity 100. Named the Woman of the 2010s Decade by Billboard and the Artist of the 2010s Decade by the American Music Awards, Swift has been recognized for her advocacy of artists\' rights and women\'s empowerment in the music industry.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/A_Flock_of_Seagulls', 'artist_name': 'A Flock of Seagulls', 'wiki': 'http://en.wikipedia.org/wiki/A_Flock_of_Seagulls', 'hometown': 'http://dbpedia.org/resource/Liverpool', 'start_year': '1979', 'end_year': '1986', 'labels': ['http://dbpedia.org/resource/Arista_Records', 'http://dbpedia.org/resource/I.R.S._Records', 'http://dbpedia.org/resource/Jive_Records'], 'genres': ['http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Synth-pop'], 'actual_members': ['http://dbpedia.org/resource/Mike_Score', 'Gord Deppe', 'Pando', 'Kevin Rankin'], 'old_members': ['http://dbpedia.org/resource/Paul_Reynolds_(musician)', 'Personnel section]] for others)', 'Ali Score', 'Frank Maudsley'], 'related_artists': ['http://dbpedia.org/resource/Bill_Nelson_(musician)', 'http://dbpedia.org/resource/Jimmy_D._Robinson'], 'abstract': 'A Flock of Seagulls is an English new wave band formed in Liverpool in 1979. The group, whose best-known line-up comprised Mike Score, Ali Score, Frank Maudsley and Paul Reynolds, hit the peak of their chart success in the early 1980s. The group had a string of international hit singles including "I Ran (So Far Away)" (1982), "Space Age Love Song" (1982), "Wishing (If I Had a Photograph of You)" (1982), and "The More You Live, the More You Love" (1984). Their video for "I Ran (So Far Away)" received airplay on MTV during the Second British Invasion. The band won a Grammy Award in 1983 for their instrumental "D.N.A." (1982). In 2018 the members of the original lineup came together to record an album with the Prague Philharmonic Orchestra entitled Ascension.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Psy', 'artist_name': 'Psy', 'wiki': 'http://en.wikipedia.org/wiki/Psy', 'birth_date': '31 December 1977', 'start_year': '2001', 'labels': ['http://dbpedia.org/resource/Avex_Trax', 'http://dbpedia.org/resource/Psy', 'http://dbpedia.org/resource/Republic_Records', 'http://dbpedia.org/resource/Schoolboy_Records', 'http://dbpedia.org/resource/YG_Entertainment'], 'plays_in': ['http://dbpedia.org/resource/Gangnam_Style_(music_video)'], 'genres': ['http://dbpedia.org/resource/K-pop', 'http://dbpedia.org/resource/Korean_hip_hop', 'K-hip hop'], 'abstract': 'Park Jae-sang (Korean: 박재상; Hanja: 朴載相, IPA: [pɐk̚.t͡ɕεsɐŋ]; born December 31, 1977), known professionally as Psy (stylized in all caps as PSY) (싸이; /saɪ/ SY; Korean: [s͈ai]), is a South Korean singer, rapper, songwriter, and record producer. Psy is known domestically for his humorous videos and stage performances, and internationally for his hit single "Gangnam Style". The song\'s refrain was entered into The Yale Book of Quotations as one of the most famous quotations of 2012. On October 23, 2012, Psy met United Nations Secretary-General Ban Ki-moon at the UN Headquarters where Ban expressed his desire to work with the singer because of his "unlimited global reach". On December 21, 2012, his music video for "Gangnam Style" exceeded one billion views on YouTube, becoming the first video to do so in the website\'s history. Psy was subsequently recognized by the media as the King of YouTube. On May 31, 2014, the video for Psy\'s "Gangnam Style" hit two billion views. As of March 2021, it is the eighth most viewed video on YouTube, with over 4 billion views. In December 2012, MTV noted Psy\'s rise from being little known outside South Korea, to being hailed as the "Viral Star of 2012". On December 31, 2012, Psy performed in a globally televised New Year\'s Eve celebration with American rapper MC Hammer on-stage in front of a live audience of over a million people in Times Square, New York City. Following his departure from YG Entertainment in 2018, he founded his own company, P Nation, in 2019.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Travis_Barker', 'artist_name': 'Travis Barker', 'wiki': 'http://en.wikipedia.org/wiki/Travis_Barker', 'birth_date': '14 November 1975', 'start_year': '1993', 'plays_in': ['http://dbpedia.org/resource/Give_the_Drummer_Some'], 'related_artists': ['http://dbpedia.org/resource/03_Greedo', 'http://dbpedia.org/resource/Asher_Roth', 'http://dbpedia.org/resource/Chester_French', 'http://dbpedia.org/resource/Cypress_Hill__Cypress_Hill__1', 'http://dbpedia.org/resource/DJ_AM', 'http://dbpedia.org/resource/Dave_Douglas_(drummer)', 'http://dbpedia.org/resource/Iann_Dior', 'http://dbpedia.org/resource/Jason_Aalon_Butler', 'http://dbpedia.org/resource/Jxdn', 'http://dbpedia.org/resource/KennyHoopla', 'http://dbpedia.org/resource/Lawrence_Vavra', 'http://dbpedia.org/resource/Matt_Schwartz', 'http://dbpedia.org/resource/Nothing,Nowhere', 'http://dbpedia.org/resource/Omer_Fedi', 'http://dbpedia.org/resource/Poorstacy', 'http://dbpedia.org/resource/Prayers_(duo)', 'http://dbpedia.org/resource/Scroobius_Pip', 'http://dbpedia.org/resource/Steve_Aoki', 'http://dbpedia.org/resource/Suicideboys', 'http://dbpedia.org/resource/The_Co-Captains', 'http://dbpedia.org/resource/The_Game_(rapper)', 'http://dbpedia.org/resource/Tinie_Tempah', 'http://dbpedia.org/resource/Trippie_Redd', 'http://dbpedia.org/resource/Yelawolf', 'http://dbpedia.org/resource/Yungblud'], 'abstract': 'Travis Landon Barker (born November 14, 1975) is an American musician who serves as the drummer for the rock band Blink-182. He has also performed as a frequent collaborator with hip hop artists, is a member of the rap rock group Transplants, founded the rock bands +44 and Box Car Racer, and thereafter joined Antemasque and Goldfinger. Barker was a frequent collaborator with the late DJ AM, and together they formed TRV$DJAM. Due to his fame, Rolling Stone referred to him as "punk\'s first superstar drummer" as well as one of the 100 greatest drummers of all time. Born in Fontana, California, Barker began drumming at an early age. He began playing for the Aquabats in 1996, but left to join Blink-182 in 1998, which encountered mainstream success with Enema of the State (1999). Barker established himself as a versatile drummer, producing and making guest appearances in music projects of numerous music genres including hip hop, alternative rock, pop, and country. He also starred in an MTV reality series named Meet the Barkers. He was involved in a plane crash in 2008, but he recovered and released his debut solo album, Give the Drummer Some, in 2011. He has continued to work with rappers, releasing extended plays with Yelawolf, Asher Roth, and Nottz, as well as with Blink-182 and the Transplants. Aside from drumming, he founded clothing company Famous Stars and Straps in 1999 and LaSalle Records in 2004. Companies such as DC Shoes and Zildjian cymbals have co-designed products in his name. He released a memoir, Can I Say: Living Large, Cheating Death, and Drums, Drums, Drums, in 2015.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Man_(band)', 'artist_name': 'Man', 'wiki': 'http://en.wikipedia.org/wiki/Man_(band)', 'hometown': 'http://dbpedia.org/resource/Merthyr_Tydfil', 'start_year': '1968', 'end_year': '1968', 'genres': ['http://dbpedia.org/resource/Blues_rock', 'http://dbpedia.org/resource/Progressive_rock', 'http://dbpedia.org/resource/Psychedelic_rock'], 'actual_members': ['http://dbpedia.org/resource/Malcolm_Morley_(musician)', 'Shane Dixon', 'James Beck', 'Josh Ace', 'Martin Ace'], 'old_members': ['http://dbpedia.org/resource/Bob_Richards_(musician)', 'http://dbpedia.org/resource/Deke_Leonard', 'http://dbpedia.org/resource/John_Cipollina', 'http://dbpedia.org/resource/John_McKenzie_(musician)', 'http://dbpedia.org/resource/John_Weathers', 'http://dbpedia.org/resource/Ken_Whaley', 'http://dbpedia.org/resource/Phil_Ryan_(musician)', 'http://dbpedia.org/resource/Terry_Williams_(drummer)', 'Rick Martinez', 'Clive John ', 'Micky Jones', 'Ray Williams', 'Rene Robrahn', 'Alan "Tweke" Lewis', 'George Jones', 'Gareth Llewellyn Thorrington', 'Jeff Jones', 'Will Youatt '], 'related_artists': ['http://dbpedia.org/resource/Deke_Leonard', 'http://dbpedia.org/resource/Help_Yourself_(band)', 'http://dbpedia.org/resource/John_Cipollina', 'http://dbpedia.org/resource/John_McKenzie_(musician)', 'http://dbpedia.org/resource/John_Weathers', 'http://dbpedia.org/resource/Ken_Whaley', 'http://dbpedia.org/resource/Malcolm_Morley_(musician)', 'http://dbpedia.org/resource/Phil_Ryan_(musician)', 'http://dbpedia.org/resource/Quicksand_(Welsh_band)', 'http://dbpedia.org/resource/Quicksilver_Messenger_Service', 'http://dbpedia.org/resource/Rockpile', 'http://dbpedia.org/resource/Terry_Williams_(drummer)'], 'abstract': 'Man are a rock band from Wales whose style is a mixture of American West Coast psychedelia, progressive rock, and blues. Formed in November 1968 as a reincarnation of Welsh rock harmony group the Bystanders, Man are renowned for the extended jams in their live performances.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Danzig_(band)', 'artist_name': 'Danzig', 'wiki': 'http://en.wikipedia.org/wiki/Danzig_(band)', 'hometown': 'http://dbpedia.org/resource/Lodi,_New_Jersey', 'start_year': '1987', 'end_year': '1987', 'labels': ['http://dbpedia.org/resource/American_Recordings_(record_label)', 'http://dbpedia.org/resource/Hollywood_Records', 'http://dbpedia.org/resource/Megaforce_Records', 'http://dbpedia.org/resource/Restless_Records', 'http://dbpedia.org/resource/Spitfire_Records', 'http://dbpedia.org/resource/The_End_Records'], 'genres': ['http://dbpedia.org/resource/Heavy_metal_music'], 'actual_members': ['http://dbpedia.org/resource/Glenn_Danzig', 'http://dbpedia.org/resource/Johnny_Kelly', 'http://dbpedia.org/resource/Steve_Zing', 'http://dbpedia.org/resource/Tommy_Victor'], 'old_members': ['http://dbpedia.org/resource/List_of_Danzig_band_members', 'see Former members'], 'related_artists': ['http://dbpedia.org/resource/Chrome_Locust', 'http://dbpedia.org/resource/Chuck_Biscuits', 'http://dbpedia.org/resource/Dave_Kushner', 'http://dbpedia.org/resource/Doyle_(band)', 'http://dbpedia.org/resource/Doyle_Wolfgang_von_Frankenstein', 'http://dbpedia.org/resource/Eerie_Von', 'http://dbpedia.org/resource/Glenn_Danzig', 'http://dbpedia.org/resource/Gorgeous_Frankenstein', 'http://dbpedia.org/resource/Halfcocked', 'http://dbpedia.org/resource/Howie_Pyro', 'http://dbpedia.org/resource/Jerry_Cantrell', 'http://dbpedia.org/resource/Joey_Castillo', 'http://dbpedia.org/resource/John_Christ', 'http://dbpedia.org/resource/Johnny_Kelly', 'http://dbpedia.org/resource/Kenny_Hickey', 'http://dbpedia.org/resource/Misfits_(band)', 'http://dbpedia.org/resource/MonstrO_(band)', "http://dbpedia.org/resource/Murphy's_Law_(band)", 'http://dbpedia.org/resource/Prong_(band)', 'http://dbpedia.org/resource/Rob_Nicholson_(musician)', 'http://dbpedia.org/resource/Samhain_(band)', 'http://dbpedia.org/resource/Son_of_Sam_(band)', 'http://dbpedia.org/resource/Steve_Zing', 'http://dbpedia.org/resource/Sugartooth', 'http://dbpedia.org/resource/The_Four_Horsemen_(band)', 'http://dbpedia.org/resource/The_Nig-Heist', 'http://dbpedia.org/resource/Todd_Youth', 'http://dbpedia.org/resource/Tommy_Victor', 'http://dbpedia.org/resource/Trauma_(American_band)', 'http://dbpedia.org/resource/Type_O_Negative', 'http://dbpedia.org/resource/Warzone_(band)', 'http://dbpedia.org/resource/Wasted_Youth_(American_band)', 'http://dbpedia.org/resource/Zilch_(band)'], 'abstract': 'Danzig is an American heavy metal band led by former Samhain and Misfits singer Glenn Danzig. Formed in 1987 in Lodi, New Jersey, the group early on became a unique voice in the rock scene, playing a bluesy, doom-laden metal with Glenn Danzig crooning in the style of Roy Orbison and Elvis Presley. Danzig\'s openly satanic lyrics and image stirred a degree of controversy. After a major hit with a live version of its 1988 song "Mother", the band experimented with industrial music but later returned to heavy metal. To date, Danzig has released 12 studio albums (two consisting entirely of cover versions), two EPs, one live album, and one compilation album.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Goo_Goo_Dolls', 'artist_name': 'The Goo Goo Dolls', 'wiki': 'http://en.wikipedia.org/wiki/Goo_Goo_Dolls', 'hometown': 'http://dbpedia.org/resource/Buffalo,_New_York', 'start_year': '1986', 'labels': ['http://dbpedia.org/resource/Celluloid_Records', 'http://dbpedia.org/resource/Metal_Blade_Records', 'http://dbpedia.org/resource/Warner_Records'], 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Post-grunge', 'http://dbpedia.org/resource/Punk_rock'], 'actual_members': ['http://dbpedia.org/resource/John_Rzeznik', 'http://dbpedia.org/resource/Robby_Takac'], 'old_members': ['http://dbpedia.org/resource/George_Tutuska', 'http://dbpedia.org/resource/Mike_Malinin'], 'related_artists': ['http://dbpedia.org/resource/Brad_Fernquist', 'http://dbpedia.org/resource/Carlos_López_Estrada', 'http://dbpedia.org/resource/Dave_Schulz_(musician)', 'http://dbpedia.org/resource/Greg_Suran', 'http://dbpedia.org/resource/Jason_Freese', 'http://dbpedia.org/resource/Jim_McGorman', 'http://dbpedia.org/resource/John_Rzeznik', 'http://dbpedia.org/resource/Mike_Malinin', 'http://dbpedia.org/resource/Paul_Gordon_(musician)__Paul_Gordon__1', 'http://dbpedia.org/resource/Robby_Takac', 'http://dbpedia.org/resource/Subwave_(band)', 'http://dbpedia.org/resource/The_Spill_Canvas', 'http://dbpedia.org/resource/Tim_Williams_(rock_musician)', 'http://dbpedia.org/resource/Tommy_Keene'], 'abstract': 'The Goo Goo Dolls are an American rock band formed in 1986 in Buffalo, New York, by guitarist/vocalist John Rzeznik, bassist/vocalist Robby Takac, and drummer George Tutuska. After starting off as a cover band and then developing a punk sound, The Goo Goo Dolls experienced mainstream success following the 1995 release of their breakthrough single, "Name". The band is renowned for its biggest hit, "Iris", released in 1998. The song spent nearly 12 straight months on the Billboard charts and held the number one position on the Hot 100 Airplay chart for 18 weeks. In October 2012, "Iris" was ranked #1 on Billboard\'s "Top 100 Pop Songs 1992–2012" chart. Other notable singles include "Slide", "Black Balloon", and "Broadway" from 1998\'s Dizzy Up the Girl; "Here Is Gone" from 2002\'s Gutterflower; and "Better Days", "Give a Little Bit", and "Stay with You" from 2006\'s Let Love In. The band has had 19 top ten singles on various charts has sold 15 million records worldwide, and has been nominated for four Grammy Awards.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Big_Mountain_(band)', 'artist_name': 'Big Mountain', 'wiki': 'http://en.wikipedia.org/wiki/Big_Mountain_(band)', 'hometown': 'http://dbpedia.org/resource/San_Diego', 'start_year': '1988', 'aliases': ['Shiloh'], 'labels': ['http://dbpedia.org/resource/Giant_Records_(Warner)', 'http://dbpedia.org/resource/Pony_Canyon'], 'genres': ['http://dbpedia.org/resource/Reggae'], 'actual_members': ['Andre Sias', 'Danny Lopilato', 'Jakob McWhinney', 'Joaquin "Quino" McWhinney', 'Luis Castillo', 'Michael Hyde', 'Michael Ortiz', 'Paul "Groove Galore" Kastick', 'Reggie Griffin', 'Richard "Goofy" Campbell'], 'old_members': ['http://dbpedia.org/resource/Carlton_%22Santa%22_Davis', 'http://dbpedia.org/resource/Valentine_Chin', 'Jerome Cruz', 'Lance Rhodes', 'James McWhinney', 'Carlos Arias', 'Lynn Copeland', 'Stephen Kamada/Tim Pacheco', 'Gregory Blakney', 'Billy "Bones" Stoll', 'Manfred Reinke'], 'related_artists': ['http://dbpedia.org/resource/Allan_Phillips', 'http://dbpedia.org/resource/Carlton_%22Santa%22_Davis'], 'abstract': 'Big Mountain is an American band known for its remake of Peter Frampton\'s "Baby, I Love Your Way", which became a top 10 hit single in the US in early 1994, reaching No. 6 on the US Billboard Hot 100, No. 1 on the Mainstream Top 40 and No. 2 in the UK.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Electric_Light_Orchestra', 'artist_name': 'Electric Light Orchestra', 'wiki': 'http://en.wikipedia.org/wiki/Electric_Light_Orchestra', 'hometown': 'http://dbpedia.org/resource/Birmingham', 'start_year': '2014', 'aliases': ['ELO', "Jeff Lynne's ELO"], 'labels': ['http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Harvest_Records', 'http://dbpedia.org/resource/Jet_Records', 'http://dbpedia.org/resource/United_Artists_Records', 'http://dbpedia.org/resource/Warner_Records'], 'plays_in': ['http://dbpedia.org/resource/Daicon_III_and_IV_Opening_Animations', 'http://dbpedia.org/resource/Xanadu_(film)'], 'genres': ['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Progressive_pop', 'http://dbpedia.org/resource/Progressive_rock'], 'actual_members': ['http://dbpedia.org/resource/Jeff_Lynne', 'http://dbpedia.org/resource/Richard_Tandy'], 'old_members': ['http://dbpedia.org/resource/Bev_Bevan', 'http://dbpedia.org/resource/Roy_Wood', 'See [[#Personnel'], 'related_artists': ['http://dbpedia.org/resource/Bev_Bevan', 'http://dbpedia.org/resource/David_Scott-Morgan', 'http://dbpedia.org/resource/Don_Airey', 'http://dbpedia.org/resource/ELO_Part_II', 'http://dbpedia.org/resource/Gregg_Bissonette', 'http://dbpedia.org/resource/Hugh_McDowell', 'http://dbpedia.org/resource/Jeff_Lynne', 'http://dbpedia.org/resource/John_Kosh', 'http://dbpedia.org/resource/Kelly_Groucutt', 'http://dbpedia.org/resource/Louis_Clark', 'http://dbpedia.org/resource/Melvyn_Gale', 'http://dbpedia.org/resource/Mik_Kaminski', 'http://dbpedia.org/resource/Mike_Edwards_(musician)', 'http://dbpedia.org/resource/Olivia_Newton-John', 'http://dbpedia.org/resource/Reinhold_Mack', 'http://dbpedia.org/resource/The_Idle_Race', 'http://dbpedia.org/resource/The_Move', 'http://dbpedia.org/resource/The_Orchestra_(band)', 'http://dbpedia.org/resource/Wilfred_Gibson', 'http://dbpedia.org/resource/Wizzard'], 'abstract': "The Electric Light Orchestra (ELO) are an English rock band formed in Birmingham in 1970 by songwriters and multi-instrumentalists Jeff Lynne and Roy Wood with drummer Bev Bevan. Their music is characterised by a fusion of Beatlesque pop, classical arrangements and futuristic iconography. After Wood's departure in 1972, Lynne became the band's sole leader, arranging and producing every album while writing nearly all of their original material. For their initial tenure, Lynne, Bevan and keyboardist Richard Tandy were the group's only consistent members. ELO was formed out of Lynne's and Wood's desire to create modern rock and pop songs with classical overtones. It derived as an offshoot of Wood's previous band, the Move, of which Lynne and Bevan were also members. During the 1970s and 1980s, ELO released a string of top 10 albums and singles, including two LPs that reached the top of British charts: the disco-inspired Discovery (1979) and the science-fiction-themed concept album Time (1981). In 1986 Lynne lost interest in the band and disbanded the group. Bevan responded by forming his own band, ELO Part II, which later became the Orchestra. Apart from a brief reunion in the early 2000s, ELO remained largely inactive until 2014, when Lynne re-formed the band again with Tandy as Jeff Lynne's ELO. During ELO's original 13-year period of active recording and touring, they sold over 50 million records worldwide, and collected 19 CRIA, 21 RIAA, and 38 BPI awards. From 1972 to 1986, ELO accumulated 27 top 40 songs on the UK Singles Chart, and fifteen top 20 songs on the US Billboard Hot 100. The band also holds the record for having the most Billboard Hot 100 top 40 hits (20) without a number one single of any band in US chart history. In 2017, the key members of ELO (Wood, Lynne, Bevan and Tandy) were inducted into the Rock and Roll Hall of Fame."}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Sex_Pistols', 'artist_name': 'Sex Pistols', 'wiki': 'http://en.wikipedia.org/wiki/Sex_Pistols', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1975', 'end_year': '1978', 'labels': ['http://dbpedia.org/resource/A&amp;M_Records', 'http://dbpedia.org/resource/EMI_Records', 'http://dbpedia.org/resource/Universal_Music_Group', 'http://dbpedia.org/resource/Virgin_Records', 'http://dbpedia.org/resource/Warner_Records'], 'plays_in': ['http://dbpedia.org/resource/D.O.A.:_A_Rite_of_Passage', 'http://dbpedia.org/resource/The_Filth_and_the_Fury', "http://dbpedia.org/resource/The_Great_Rock_'n'_Roll_Swindle"], 'genres': ['http://dbpedia.org/resource/Punk_rock'], 'old_members': ['http://dbpedia.org/resource/Glen_Matlock', 'http://dbpedia.org/resource/John_Lydon', 'http://dbpedia.org/resource/Paul_Cook', 'http://dbpedia.org/resource/Sid_Vicious', 'http://dbpedia.org/resource/Steve_Jones_(musician)', 'Johnny Rotten'], 'related_artists': ['http://dbpedia.org/resource/Bill_Price_(record_producer)', 'http://dbpedia.org/resource/Chequered_Past', 'http://dbpedia.org/resource/Chiefs_of_Relief', 'http://dbpedia.org/resource/Dave_Goodman_(record_producer)', 'http://dbpedia.org/resource/False_Alarm_(band)', 'http://dbpedia.org/resource/Glen_Matlock', 'http://dbpedia.org/resource/Go_Home_Productions', 'http://dbpedia.org/resource/John_Lydon', 'http://dbpedia.org/resource/Lightning_Raiders', 'http://dbpedia.org/resource/Malcolm_McLaren', 'http://dbpedia.org/resource/Man_Raze', 'http://dbpedia.org/resource/Neurotic_Outsiders', 'http://dbpedia.org/resource/Paul_Cook', 'http://dbpedia.org/resource/Public_Image_Ltd', 'http://dbpedia.org/resource/Rich_Kids', 'http://dbpedia.org/resource/Sham_Pistols', 'http://dbpedia.org/resource/Sid_Vicious', 'http://dbpedia.org/resource/Siouxsie_and_the_Banshees', 'http://dbpedia.org/resource/Steve_Jones_(musician)', 'http://dbpedia.org/resource/Steve_New', 'http://dbpedia.org/resource/Subway_Sect', 'http://dbpedia.org/resource/The_Fallen_Leaves', 'http://dbpedia.org/resource/The_Flowers_of_Romance_(British_band)', 'http://dbpedia.org/resource/The_International_Swingers', 'http://dbpedia.org/resource/The_London_Cowboys', 'http://dbpedia.org/resource/The_Professionals_(band)', 'http://dbpedia.org/resource/Vicious_White_Kids', 'http://dbpedia.org/resource/Wally_Nightingale'], 'abstract': 'The Sex Pistols were an English punk rock band that formed in London in 1975. Although their initial career lasted just two and a half years, they are regarded as one of the most groundbreaking acts in the history of popular music. They were responsible for initiating the punk movement in the United Kingdom and inspiring many later punk and alternative rock musicians. Their fashion and hairstyles have been credited as a significant influence on punk image, and they are often associated with anarchism within music. The Sex Pistols originally comprised vocalist John Lydon (known at the time by his stage name "Johnny Rotten"), guitarist Steve Jones, drummer Paul Cook and bassist Glen Matlock. Matlock was replaced by Sid Vicious in early 1977. Under the management of Malcolm McLaren, the band attracted controversies that both captivated and appalled Britain. Through an obscenity-laced television interview in December 1976 and their May 1977 single "God Save the Queen", attacking Britons\' social conformity and deference to the Crown, they popularised punk rock in the UK. It was banned not only by the BBC but also by nearly every independent radio station, making it the "most heavily censored record in British history". The band\'s only album Never Mind the Bollocks, Here\'s the Sex Pistols (1977)—a UK number one album—is a staple record of punk rock. In January 1978, at the end of their over-hyped and turbulent tour of the United States, Rotten announced the band\'s break-up. Over the next few months, the three remaining band members recorded songs for McLaren\'s film version of the Sex Pistols\' story, The Great Rock \'n\' Roll Swindle. Vicious died of a heroin overdose in February 1979, following his arrest for the alleged murder of his girlfriend, Nancy Spungen. Rotten, Jones, Cook and Matlock reunited for a highly successful concert tour in 1996. Further one-off performances and short tours followed over the next decade. The Sex Pistols have been recognised as an influential band. In 2004, Rolling Stone placed them No. 58 on its list of the "100 Greatest Artists of All Time". On 24 February 2006, the Sex Pistols—the four original members plus Vicious—were inducted into the Rock and Roll Hall of Fame, but they refused to attend the ceremony, calling the museum "a piss stain".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Kid_Laroi', 'artist_name': 'The Kid Laroi', 'wiki': 'http://en.wikipedia.org/wiki/The_Kid_Laroi', 'birth_date': '17 August 2003', 'start_year': '2018', 'labels': ['http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Lil_Bibby'], 'genres': ['http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Pop_rap'], 'related_artists': ['http://dbpedia.org/resource/Adam_Leber', 'http://dbpedia.org/resource/Cashmere_Cat', 'http://dbpedia.org/resource/FnZ', 'http://dbpedia.org/resource/Juice_Wrld', 'http://dbpedia.org/resource/Justin_Bieber', 'http://dbpedia.org/resource/Lil_Bibby', 'http://dbpedia.org/resource/Miracle_(rapper)', 'http://dbpedia.org/resource/Nick_Mira', 'http://dbpedia.org/resource/Omer_Fedi', 'http://dbpedia.org/resource/Onefour', 'http://dbpedia.org/resource/Polo_G'], 'abstract': 'Charlton Kenneth Jeffrey Howard (born 17 August 2003), professionally known as the Kid Laroi (stylised The Kid LAROI.), is an Australian singer, rapper and songwriter. Born in Waterloo, New South Wales, he originally gained recognition from his association and friendship with Juice Wrld while he was on tour in Australia. He gained a local following before joining a partnership agreement with Lil Bibby\'s Grade A Productions and Columbia Records. and attained further popularity with his song "Go" featuring Juice Wrld, which peaked at number 52 on the Billboard Hot 100. His debut mixtape F*ck Love (2020) peaked at number one on the Australian ARIA Charts, making him the youngest Australian solo artist ever to reach the top, and also reached number one on the US Billboard 200. Additionally, Laroi\'s songs "Without You", its remix with Miley Cyrus, and "Stay" (with Justin Bieber) reached the top ten of the Billboard Hot 100, with "Stay" peaking at number one for seven non-consecutive weeks. Among his accolades, Laroi has won an APRA Award, two ARIA Awards and a National Indigenous Music Award, and been nominated for two American Music Awards, two Grammy Awards, three MTV Video Music Awards, and four People\'s Choice Awards.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Skillet_(band)', 'artist_name': 'Skillet', 'wiki': 'http://en.wikipedia.org/wiki/Skillet_(band)', 'hometown': 'http://dbpedia.org/resource/Memphis,_Tennessee', 'start_year': '1996', 'labels': ['http://dbpedia.org/resource/Ardent_Records', 'http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Fair_Trade_Services', 'http://dbpedia.org/resource/ForeFront_Records', 'http://dbpedia.org/resource/Lava_Records', 'http://dbpedia.org/resource/Warner_Music_Group'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Christian_metal', 'http://dbpedia.org/resource/Christian_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Symphonic_metal'], 'actual_members': ['http://dbpedia.org/resource/Jen_Ledger', 'http://dbpedia.org/resource/John_Cooper_(musician)', 'Seth Morrison', 'Korey Cooper'], 'old_members': ['http://dbpedia.org/resource/Ken_Steorts', 'Lori Peters', 'Kevin Haaland', 'Jonathan Salas', 'Ben Kasica', 'Trey McClurkin'], 'related_artists': ['http://dbpedia.org/resource/Brian_Howes', 'http://dbpedia.org/resource/Jen_Ledger', 'http://dbpedia.org/resource/John_Cooper_(musician)', 'http://dbpedia.org/resource/Scarlet_White', 'http://dbpedia.org/resource/T._J._Harris'], 'abstract': 'Skillet is an American Christian rock band formed in Memphis, Tennessee, in 1996. The band currently consists of husband John Cooper (lead vocals, bass) and wife Korey Cooper (rhythm guitar, keyboards, backing vocals) along with Jen Ledger (drums, vocals) and Seth Morrison (lead guitar). The band has released ten albums, two of which, Collide and Comatose, received Grammy nominations. Two of their albums, Comatose and Awake, are certified Platinum and Double Platinum respectively by the RIAA, while Rise and Unleashed are certified Gold as of June 29, 2020. Five of their songs, "Whispers in the Dark", "Hero", "Monster", "Awake and Alive", and "Feel Invincible", are certified Platinum, while another four, "Rebirthing", "Comatose", "Not Gonna Die", and "The Resistance" are certified Gold. Skillet went through several line-up changes early in their career, leaving founder John Cooper as the only original member remaining in the band. They are known for a relentless touring schedule, which garnered them a top five ranking in the Hardest Working Bands of 2010 by Songkick.com.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Nightcrawlers_(band)', 'artist_name': 'Nightcrawlers', 'wiki': 'http://en.wikipedia.org/wiki/Nightcrawlers_(band)', 'hometown': 'http://dbpedia.org/resource/Glasgow', 'start_year': '1992', 'labels': ['http://dbpedia.org/resource/Universal_Music_Group'], 'genres': ['http://dbpedia.org/resource/House_music'], 'actual_members': ['John Reid'], 'old_members': ['http://dbpedia.org/resource/MK_(DJ)', 'http://dbpedia.org/resource/Ross_Campbell_(composer)', 'Hugh Brankin', 'Graham Wilson', 'Ronald Wilson'], 'related_artists': ['http://dbpedia.org/resource/DJ_S.K.T', 'http://dbpedia.org/resource/Taio_Cruz'], 'abstract': 'Nightcrawlers is a British house music project from Glasgow, Scotland, assembled by producer, DJ and vocalist John Reid (born 6 September 1963).'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Knack', 'artist_name': 'The Knack', 'wiki': 'http://en.wikipedia.org/wiki/The_Knack', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '1996', 'end_year': '2010', 'labels': ['http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/Charisma_Records'], 'genres': ['http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Power_pop'], 'related_artists': ['http://dbpedia.org/resource/Bruce_Gary', 'http://dbpedia.org/resource/Doug_Fieger', 'http://dbpedia.org/resource/Pat_Torpey', 'http://dbpedia.org/resource/Prescott_Niles', 'http://dbpedia.org/resource/Roadmaster_(band)', 'http://dbpedia.org/resource/Terry_Bozzio'], 'abstract': 'The Knack was an American rock band based in Los Angeles that rose to fame with its first single, "My Sharona", an international number-one hit in 1979.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Roxette', 'artist_name': 'Roxette', 'wiki': 'http://en.wikipedia.org/wiki/Roxette', 'hometown': 'http://dbpedia.org/resource/Sweden', 'start_year': '1986', 'end_year': '2019', 'labels': ['http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/EMI', 'http://dbpedia.org/resource/Edel_SE_&amp;_Co._KGaA', 'http://dbpedia.org/resource/Parlophone', 'http://dbpedia.org/resource/Warner_Music_Group'], 'plays_in': ['http://dbpedia.org/resource/The_Miracle_in_Valby'], 'genres': ['http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Power_pop', 'http://dbpedia.org/resource/Soft_rock', 'pop'], 'related_artists': ['http://dbpedia.org/resource/Christoffer_Lundquist', 'http://dbpedia.org/resource/Clarence_Öfwerman', 'http://dbpedia.org/resource/Gyllene_Tider', 'http://dbpedia.org/resource/Marianne_Flynner', 'http://dbpedia.org/resource/The_Lonely_Boys'], 'abstract': 'Roxette was a Swedish pop rock duo, consisting of Marie Fredriksson (vocals and keyboards) and Per Gessle (vocals and guitar). Formed in 1986, the duo became an international act in the late 1980s, when they released their breakthrough second album Look Sharp! Their third album Joyride, which was released in 1991, became just as successful as its predecessor. Roxette went on to achieve nineteen UK Top 40 hits and several US Hot 100 hits, including four US number-ones with "The Look", "Listen to Your Heart", "It Must Have Been Love", featured on the soundtrack of Pretty Woman, and "Joyride". Their other hits include "Dressed for Success", "Dangerous", and "Fading Like a Flower". Before coming together to form the duo, Fredriksson and Gessle were already established artists in Sweden, she having released a number of solo albums and he being the lead singer and songwriter of Gyllene Tider, a band that had three No. 1 albums. On the advice of the managing director of their record label, the two came together to record "Neverending Love", which became a hit single in Sweden. After the release of Don\'t Bore Us, Get to the Chorus!, a greatest hits record, the duo took a hiatus before returning with the albums Have a Nice Day (1999) and Room Service (2001). They continued to chart in other territories, mainly in Europe, Australia and Latin America, where they earned various Gold and Platinum awards until the beginning of the new millennium. In 2002, the duo took a break from recording and touring when Fredriksson was diagnosed with a brain tumour. Gessle went on to release solo albums and reunited with Gyllene Tider before Roxette took to the stage together again for the first time in eight years, in 2009, during Gessle\'s European Party Crasher tour. In 2011, they released Charm School, their first studio album in ten years, which was followed by Travelling in 2012. Their final studio album, Good Karma, was released in 2016. Marie Fredriksson died on 9 December 2019, at the age of 61, following a long battle with a brain tumour, and the group was disbanded shortly after Fredriksson\'s death. Their songs "It Must Have Been Love" and "Listen to Your Heart" continue to receive wide radio airplay, with both singles receiving awards from BMI in 2014 for achieving five million radio plays. They have sold an estimated 75 million records worldwide, with over 10 million in certified units from Germany, the US and the UK, achieving gold and platinum certifications for Joyride and Look Sharp! in all three regions. They are Sweden\'s second-best-selling music act after ABBA.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Blondie_(band)', 'artist_name': 'Blondie', 'wiki': 'http://en.wikipedia.org/wiki/Blondie_(band)', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '1974', 'end_year': '1982', 'labels': ['http://dbpedia.org/resource/Bertelsmann_Music_Group', 'http://dbpedia.org/resource/Chrysalis_Records', 'http://dbpedia.org/resource/EMI_Records', 'http://dbpedia.org/resource/Eleven_Seven_Label_Group', 'http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Private_Stock_Records', 'http://dbpedia.org/resource/Sanctuary_Records', 'http://dbpedia.org/resource/Sire_Records'], 'plays_in': ['http://dbpedia.org/resource/American_Gigolo'], 'genres': ['http://dbpedia.org/resource/Disco', 'http://dbpedia.org/resource/Funk', 'http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Punk_rock', 'http://dbpedia.org/resource/Reggae', 'New wave'], 'actual_members': ['http://dbpedia.org/resource/Chris_Stein', 'http://dbpedia.org/resource/Clem_Burke', 'http://dbpedia.org/resource/Debbie_Harry', 'http://dbpedia.org/resource/Matt_Katz-Bohen', 'http://dbpedia.org/resource/Tommy_Kessler', 'Leigh Foxx'], 'old_members': ['http://dbpedia.org/resource/Frank_Infante', 'http://dbpedia.org/resource/Fred_Smith_(bassist)', 'http://dbpedia.org/resource/Gary_Lachman', 'http://dbpedia.org/resource/Ivan_Král', 'http://dbpedia.org/resource/Jimmy_Destri', 'http://dbpedia.org/resource/Nigel_Harrison', "http://dbpedia.org/resource/The_Billy_O'Connor_Show"], 'related_artists': ['http://dbpedia.org/resource/Chequered_Past'], 'abstract': 'Blondie is an American rock band co-founded by singer Debbie Harry and guitarist Chris Stein. The band was a pioneer in the American new wave scene of the mid-1970s in New York. Their first two albums contained strong elements of these genres, and although highly successful in the United Kingdom and Australia, Blondie was regarded as an underground band in the United States until the release of Parallel Lines in 1978. Over the next five years, the band achieved several hit singles including "Heart of Glass", "Call Me", "Atomic", "The Tide Is High", and “Rapture”. The band became noted for its eclectic mix of musical styles, incorporating elements of disco, pop, reggae, and early rap music. Blondie disbanded after the release of its sixth studio album, The Hunter, in 1982. Debbie Harry continued to pursue a solo career with varied results after taking a few years off to care for partner Chris Stein, who was diagnosed with pemphigus, a rare autoimmune disease of the skin. The band re-formed in 1997, achieving renewed success and a number one single in the United Kingdom with "Maria" in 1999, exactly 20 years after their first UK No. 1 single ("Heart of Glass"). The group toured and performed throughout the world during the following years, and was inducted into the Rock and Roll Hall of Fame in 2006. Blondie has sold around 40 million records worldwide and is still active. The band\'s eleventh studio album, Pollinator, was released on May 5, 2017.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Alpha_Blondy', 'artist_name': 'Alpha Blondy', 'wiki': 'http://en.wikipedia.org/wiki/Alpha_Blondy', 'birth_date': '01 January 1953', 'start_year': '1981', 'labels': ['http://dbpedia.org/resource/EMI', 'http://dbpedia.org/resource/Shanachie_Records', 'http://dbpedia.org/resource/VP_Records', 'http://dbpedia.org/resource/Wagram_Music'], 'genres': ['http://dbpedia.org/resource/Reggae'], 'related_artists': ['http://dbpedia.org/resource/Aston_%22Family_Man%22_Barrett', 'http://dbpedia.org/resource/Bob_Marley_and_the_Wailers', 'http://dbpedia.org/resource/Jaya_Sri'], 'abstract': 'Seydou Koné (French pronunciation: \u200b[sɛdu kɔne]; born January 1, 1953 in Dimbokro), better known by his stage name Alpha Blondy, is an Ivorian reggae singer and international recording artist. Many of his songs are politically and socially motivated, and are mainly sung in his native language Dyula, French and English, though he occasionally uses other languages, for example, Arabic or Hebrew.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Hall_&amp;_Oates', 'artist_name': 'Daryl Hall &amp; John Oates', 'wiki': 'http://en.wikipedia.org/wiki/Hall_&amp;_Oates', 'hometown': 'http://dbpedia.org/resource/Philadelphia', 'start_year': '1970', 'labels': ['http://dbpedia.org/resource/Arista_Records', 'http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/RCA_Records'], 'genres': ['http://dbpedia.org/resource/Blue-eyed_soul', 'http://dbpedia.org/resource/Dance-rock', 'http://dbpedia.org/resource/Disco', 'http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Rhythm_and_blues', 'http://dbpedia.org/resource/Soft_rock', 'http://dbpedia.org/resource/Synth-pop', 'http://dbpedia.org/resource/Yacht_rock', 'synthpop', 'new wave'], 'actual_members': ['http://dbpedia.org/resource/Daryl_Hall', 'http://dbpedia.org/resource/John_Oates'], 'related_artists': ['http://dbpedia.org/resource/Arthur_Baker_(musician)', 'http://dbpedia.org/resource/Bernard_Purdie', 'http://dbpedia.org/resource/Billy_Mann', 'http://dbpedia.org/resource/Bob_Mayo', 'http://dbpedia.org/resource/Bruce_Hornsby', 'http://dbpedia.org/resource/Charles_DeChant', 'http://dbpedia.org/resource/Chuck_Burgi', 'http://dbpedia.org/resource/Daryl_Hall', 'http://dbpedia.org/resource/Dave_Carlock', 'http://dbpedia.org/resource/Doug_Stegmeyer', 'http://dbpedia.org/resource/Eliot_Lewis', 'http://dbpedia.org/resource/G._E._Smith', 'http://dbpedia.org/resource/Hugh_McCracken', 'http://dbpedia.org/resource/Jerry_Marotta', 'http://dbpedia.org/resource/John_Oates', 'http://dbpedia.org/resource/Kasim_Sulton', 'http://dbpedia.org/resource/Kenny_Passarelli', 'http://dbpedia.org/resource/Mac_Gollehon', 'http://dbpedia.org/resource/Mickey_Curry', 'http://dbpedia.org/resource/Pat_Buchanan_(musician)', 'http://dbpedia.org/resource/Paul_Pesco', 'http://dbpedia.org/resource/Richard_Tee__Richard_Tee__1', 'http://dbpedia.org/resource/Sara_Allen', 'http://dbpedia.org/resource/The_Jenkins', 'http://dbpedia.org/resource/Tim_Moore_(singer-songwriter)', 'http://dbpedia.org/resource/Tom_Wolk', 'http://dbpedia.org/resource/Utopia_(band)', 'http://dbpedia.org/resource/Yogi_Horton'], 'abstract': 'Daryl Hall and John Oates are an American pop rock duo formed in Philadelphia in 1970. Daryl Hall is generally the lead vocalist; John Oates primarily plays electric guitar and provides backing vocals. The two write most of the songs they perform, separately or in collaboration. They achieved their greatest fame from the mid-1970s to the late-1980s with a fusion of rock and roll and rhythm and blues. Credited as Daryl Hall &amp; John Oates (or Daryl Hall John Oates) on all of their US releases, the duo reached the US Top 40 with 29 of their 33 singles charting on Billboard\'s Hot 100 between 1974 and 1991. Six of these peaked at number one: "Rich Girl" (1977), "Kiss on My List" (1980), the two 1981 releases "Private Eyes", and "I Can\'t Go for That (No Can Do)" (also a Hot Soul No. 1), "Maneater" (1982) and "Out of Touch" (1984). Their overall 16 US Top Tens also include "She\'s Gone", "Sara Smile", "You Make My Dreams", "Family Man", "Say It Isn\'t So", and "Method of Modern Love". Seven of their albums have been RIAA-certified platinum and six of them gold. In the United Kingdom, they have achieved success with two Top Ten albums and six Top 40 singles, two of which – "I Can\'t Go for That (No Can Do)" and "Maneater" – reached the Top Ten. The duo have spent 120 weeks in the UK Top 75 albums chart and 84 weeks in the UK Top 75 singles chart. While employing a wide variety of session musicians on their recordings, they did have a long working relationship with several musicians who appeared on many of their works and have toured with them. They include guitarist G.E. Smith, bassist Tom "T-Bone" Wolk, and multi-instrumentalist Charles DeChant. In addition, they collaborated with sisters Sara Allen and Janna Allen on songwriting and composing. In 2003, Hall &amp; Oates were inducted into the Songwriters Hall of Fame. In August 2018, in a 60th-anniversary celebration of Billboard\'s Hot 100, the duo ranked 18 in a list of the top Hot 100 artists of all time and six in a list of the Hot 100\'s top duos/groups. They remain the most successful duo of all time, ahead of the Carpenters, the Everly Brothers, and Simon &amp; Garfunkel. In September 2010, VH1 placed the duo at no. 99 in their list of the 100 greatest artists of all time. In April 2014, they were inducted into the Rock and Roll Hall of Fame, and on September 2, 2016, they received a star on the Hollywood Walk of Fame.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Keane_(band)', 'artist_name': 'Keane', 'wiki': 'http://en.wikipedia.org/wiki/Keane_(band)', 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees'], 'genres': ['Alternative rock', 'indie rock', 'neo-psychedelia', 'pop rock', 'post-Britpop', 'soft rock'], 'actual_members': ['http://dbpedia.org/resource/Jesse_Quin', 'http://dbpedia.org/resource/Richard_Hughes_(musician)', 'http://dbpedia.org/resource/Tim_Rice-Oxley', 'http://dbpedia.org/resource/Tom_Chaplin'], 'old_members': ['http://dbpedia.org/resource/Dominic_Scott'], 'related_artists': ['http://dbpedia.org/resource/Barry_Grint', 'http://dbpedia.org/resource/Dominic_Scott', 'http://dbpedia.org/resource/Ian_Shepherd', 'http://dbpedia.org/resource/Jesse_Quin', 'http://dbpedia.org/resource/Jesse_Quin_&amp;_The_Mets', 'http://dbpedia.org/resource/Mike_Crossey', 'http://dbpedia.org/resource/Mt._Desolation__Mt._Desolation__1', 'http://dbpedia.org/resource/Richard_Hughes_(musician)', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Tim_Rice-Oxley', 'http://dbpedia.org/resource/Tom_Chaplin', 'http://dbpedia.org/resource/Zulu_Winter'], 'abstract': 'Keane are an English alternative rock band from Battle, East Sussex, formed in 1995. They met whilst at Tonbridge School together. The band currently comprises Tom Chaplin (lead vocals, electric/acoustic guitar), Tim Rice-Oxley (piano, synthesisers, bass guitar, backing vocals), Richard Hughes (drums, percussion, backing vocals), and Jesse Quin (bass guitar, acoustic/electric guitar, backing vocals). Their original line-up included founder and guitarist Dominic Scott, who left in 2001. Keane achieved mainstream, international success with the release of their debut album Hopes and Fears in 2004. Topping the UK charts, the album won the 2005 Brit Award for Best British Album and was the second best-selling British album of 2004. It is one of the best-selling albums in UK chart history. Their second album, Under the Iron Sea, released in 2006, topped the UK album charts and debuted at number four on the US Billboard 200. Their third album Perfect Symmetry was released in October 2008. In May 2008, both Hopes and Fears (number 13) and Under the Iron Sea (number 8) were voted by readers of Q magazine as among the best British albums ever, with Keane, The Beatles, Oasis and Radiohead the only artists having two albums in the top 20. In 2009, Hopes and Fears was listed as the ninth best-selling album of the 2000s decade in the UK. Their EP Night Train was released in May 2010. Their fourth studio album Strangeland was released in May 2012 and peaked at number one on the UK Albums Chart. Keane are known for using keyboards as the lead instrument instead of guitar, differentiating them from most other rock bands. The inclusion of a distorted piano effect in 2006 and various synthesisers were a common feature in their music which developed on the second and third albums. Keane have sold over 13 million records worldwide. After the release of their compilation album The Best of Keane in 2013, the band took a hiatus, lasting nearly 5 years. The band returned after the hiatus with new music, announcing their fifth studio album titled Cause and Effect on 6 June 2019 and releasing the lead single from the album "The Way I Feel". A collection of the songs were written by Tim Rice-Oxley during his divorce, and after discussions with Tom who had visited Tim the previous year, decided to proceed with recording the songs for the album. Cause and Effect was released on 20 September 2019. After the release of the album, the band embarked on the Cause and Effect Tour, visiting Europe and Latin America, before the remainder of the tour was postponed due to the COVID-19 pandemic.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Kool_Moe_Dee', 'artist_name': 'Kool Moe Dee', 'wiki': 'http://en.wikipedia.org/wiki/Kool_Moe_Dee', 'birth_date': '08 August 1962', 'start_year': '1978', 'aliases': ['Moel Dewes'], 'labels': ['http://dbpedia.org/resource/Bertelsmann_Music_Group', 'http://dbpedia.org/resource/Jive_Records', 'http://dbpedia.org/resource/M.A.R.S'], 'genres': ['http://dbpedia.org/resource/Hip_hop_music'], 'related_artists': ['http://dbpedia.org/resource/Grandmaster_Flash_and_the_Furious_Five', 'http://dbpedia.org/resource/Teddy_Riley', 'http://dbpedia.org/resource/Treacherous_Three'], 'abstract': 'Mohandas Dewese (born August 8, 1962), better known by his stage name Kool Moe Dee, is an American rapper, writer and actor. Considered one of the forerunners of the new jack swing sound in hip hop, he gained fame in the 1980s as a member of one of the pioneering groups in hip hop music, the Treacherous Three, and for his later solo career. During his career he released a total of seven studio albums (five of them solo), with 1994\'s Interlude being the last to date. His fast and aggressive rap style influenced following rap figures such as Big Daddy Kane, Beastie Boys, KRS-One, Rakim, Will Smith, N.W.A, Tupac Shakur, Nas, Jay-Z, among others. Among his most famous songs are "Go See the Doctor", "Wild Wild West" and "How Ya Like Me Now". Kool Moe Dee was ranked No. 33 on About.com\'s list of the 50 Greatest MCs of Our Time (1987–2007).'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Of_Monsters_and_Men', 'artist_name': 'Of Monsters and Men', 'wiki': 'http://en.wikipedia.org/wiki/Of_Monsters_and_Men', 'hometown': 'http://dbpedia.org/resource/Iceland', 'start_year': '2010', 'labels': ['http://dbpedia.org/resource/Republic_Records'], 'genres': ['http://dbpedia.org/resource/Chamber_pop', 'http://dbpedia.org/resource/Folk-pop', 'http://dbpedia.org/resource/Folk_rock', 'http://dbpedia.org/resource/Indie_folk', 'http://dbpedia.org/resource/Indie_rock'], 'actual_members': ['http://dbpedia.org/resource/Brynjar_Leifsson', 'http://dbpedia.org/resource/Nanna_Bryndís_Hilmarsdóttir', 'http://dbpedia.org/resource/Ragnar_Þórhallsson', 'Arnar Rósenkranz Hilmarsson', 'Kristján Páll Kristjánsson'], 'old_members': ['Árni Guðjónsson'], 'related_artists': ['http://dbpedia.org/resource/Brynjar_Leifsson', 'http://dbpedia.org/resource/Jacquire_King', 'http://dbpedia.org/resource/Nanna_Bryndís_Hilmarsdóttir', 'http://dbpedia.org/resource/Ragnar_Þórhallsson', 'http://dbpedia.org/resource/Totemo'], 'abstract': 'Of Monsters and Men is an Icelandic indie folk/rock band formed in Reykjavík in 2010. The members are lead singer and guitarist Nanna Bryndís Hilmarsdóttir, singer and guitarist Ragnar "Raggi" Þórhallsson, lead guitarist Brynjar Leifsson, drummer Arnar Rósenkranz Hilmarsson and bassist Kristján Páll Kristjánsson. The band won the Músíktilraunir in 2010, an annual battle of the bands competition in Iceland. In 2011, Of Monsters and Men released an EP titled Into the Woods. The band\'s 2011 debut album My Head Is an Animal, reached the No.1 position in Australia, Iceland, Ireland and the US Rock and Alternative charts, while peaking at No. 6 on the US Billboard 200 album chart, No. 3 in the UK, and Top 20 of most European charts and Canada. Its lead single "Little Talks" was an international success, reaching the Top 10 in most music charts in Europe, including No. 1 in Ireland and Iceland, and No. 1 on US Alternative Songs. Of Monsters and Men won the 2013 European Border Breakers Awards.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Peter_Schilling', 'artist_name': 'Peter Schilling', 'wiki': 'http://en.wikipedia.org/wiki/Peter_Schilling', 'birth_date': '28 January 1956', 'start_year': '1976', 'labels': ['http://dbpedia.org/resource/DA_Music', 'http://dbpedia.org/resource/Elektra_Records'], 'genres': ['http://dbpedia.org/resource/Neue_Deutsche_Welle', 'http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Synth-pop'], 'related_artists': ['http://dbpedia.org/resource/Anthony_Monn'], 'abstract': 'Peter Schilling (born Pierre Michael Schilling; 28 January 1956) is a German synthpop musician whose songs often feature science-fiction themes like aliens, astronauts and catastrophes. He is best-known for his 1983 hit single "Major Tom (Coming Home)" which was an international success.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Capital_Cities_(band)', 'artist_name': 'Capital Cities', 'wiki': 'http://en.wikipedia.org/wiki/Capital_Cities_(band)', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '2010', 'labels': ['http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/Roc_Nation'], 'genres': ['http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Indie_pop', 'http://dbpedia.org/resource/Indie_rock', 'http://dbpedia.org/resource/Synth-pop', 'indietronica'], 'actual_members': ['http://dbpedia.org/resource/Sebu_Simonian', 'Ryan Merchant'], 'related_artists': ['http://dbpedia.org/resource/Josh_Stevens', 'http://dbpedia.org/resource/Kiwi_Time', 'http://dbpedia.org/resource/Leland_(musician)', 'http://dbpedia.org/resource/Sebu_Simonian', 'http://dbpedia.org/resource/Spencer_Ludwig'], 'abstract': 'Capital Cities is an American pop duo from Los Angeles, California, formed in 2010 by Ryan Merchant (vocals, keyboard, guitar) and Sebu Simonian (vocals, keyboard). Their debut EP was released on June 7, 2011, with lead single "Safe and Sound" which became their first top ten hit single. The band currently consists of Ryan Merchant, Sebu Simonian, Manny Quintero on bass guitar, Spencer Ludwig on trumpet, Nick Merwin on guitar and Channing Holmes on drums. A subsequent single, "Kangaroo Court", was released on March 27, 2012. The band was featured on the Pop Up #1 compilation selected by Perez Hilton that was released on August 7, 2012. The band\'s song "Safe and Sound" charted at #1 on the US Alternative Songs chart. The song was also used in a German Vodafone commercial, in a television commercial in the United States and Canada for the 2014 Mazda 3, and in an Air New Zealand in-flight safety video. The song "Center Stage" was featured on ESPN\'s First Take where they played a short segment of the retro-sounding track before going to commercial breaks. The band\'s debut album, In a Tidal Wave of Mystery, was released June 4, 2013 via Capitol Records in partnership with Lazy Hooks. It was the first release of new material on Capitol with a Universal Music Group catalog number. The album debuted at number sixty-six on the Billboard 200 chart.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Bravery', 'artist_name': 'The Bravery', 'wiki': 'http://en.wikipedia.org/wiki/The_Bravery', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '2003', 'end_year': '2011', 'labels': ['http://dbpedia.org/resource/Island_Records', 'http://dbpedia.org/resource/Universal_Music_Group'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Dance-punk', 'http://dbpedia.org/resource/Indie_rock', 'http://dbpedia.org/resource/Post-punk_revival'], 'actual_members': ['http://dbpedia.org/resource/Mike_Hindert', 'http://dbpedia.org/resource/Sam_Endicott', 'http://dbpedia.org/resource/The_Bravery', 'Anthony Burulcich', 'John Conway'], 'related_artists': ['http://dbpedia.org/resource/Mike_Hindert', 'http://dbpedia.org/resource/Sam_Endicott'], 'abstract': 'The Bravery is an American rock band, formed in New York City in 2003. The band consists of lead vocalist Sam Endicott, guitarist Michael Zakarin, keyboardist John Conway, bassist Mike Hindert and drummer Anthony Burulcich. They are best known for their 2005 top 10 UK single "An Honest Mistake" and their certified gold 2008 single "Believe". Before their initial split, they released three studio albums: The Bravery (2005), The Sun and the Moon (2007) and Stir the Blood (2009). They also released a remixed edition of their second album, called The Sun and the Moon Complete, in 2008, as well as an Internet live album called Live at the Wiltern Theater in 2010. The group\'s music is mostly post-punk, dance-influenced rock. The band were inactive from the early 2010s onward, with Endicott confirming the band\'s indefinite hiatus in April 2014. On July 31st 2021, The Bravery\'s website confirmed the return of the group.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Trix_(Trillizas_de_oro)', 'artist_name': 'Trix', 'wiki': 'http://en.wikipedia.org/wiki/Trix_(Trillizas_de_oro)', 'hometown': 'http://dbpedia.org/resource/Buenos_Aires', 'start_year': '1969', 'aliases': ['Las Chicas de Oro', 'Las Marías', 'Las Tres Marías', 'Las Trillizas', 'Las Trillizas de Oro'], 'labels': ['http://dbpedia.org/resource/Fermata'], 'genres': ['http://dbpedia.org/resource/Disco', 'http://dbpedia.org/resource/Europop', 'http://dbpedia.org/resource/Pop_music'], 'actual_members': ['María Emilia Fernández Roussee', 'María Eugenia Fernández Roussee', 'María Laura Fernández Rousse'], 'abstract': 'Trix (born July 5, 1960 in Floresta, Buenos Aires, Argentina), is the stage name of the triplet sisters María Emilia Fernández Roussee, María Eugenia Fernández Roussee and María Laura Fernández Rousse.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Pato_Banton', 'artist_name': 'Pato Banton', 'wiki': 'http://en.wikipedia.org/wiki/Pato_Banton', 'hometown': 'http://dbpedia.org/resource/Birmingham', 'birth_date': '05 October 1961', 'start_year': '1980', 'labels': ['http://dbpedia.org/resource/Fashion_Records', 'http://dbpedia.org/resource/I.R.S._Records', 'http://dbpedia.org/resource/Mad_Professor'], 'genres': ['http://dbpedia.org/resource/Reggae'], 'related_artists': ['http://dbpedia.org/resource/Beshara_(band)', 'http://dbpedia.org/resource/Private_Domain', 'http://dbpedia.org/resource/Ray_Watts_(singer)', 'http://dbpedia.org/resource/Sotelúm', 'http://dbpedia.org/resource/The_Beat_(British_band)'], 'abstract': 'Pato Banton (born Patrick Murray; 5 October 1961) is a reggae singer and toaster from Birmingham, England. He received the nickname "Pato Banton" from his stepfather; The first name derives from a Jamaican night owl that stays up all night calling "patoo, patoo" and the last name from the disc jockey slang word "Banton" which means heavyweight lyricist or storyteller. In 1994, he achieved a number 1 on the UK Singles Chart with a cover of The Equals\' Baby Come Back featuring Robin and Ali Campbell of UB40.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Maroon_5', 'artist_name': 'Maroon 5', 'wiki': 'http://en.wikipedia.org/wiki/Maroon_5', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '1994', 'aliases': ["Kara's Flowers (1994–2001)"], 'labels': ['http://dbpedia.org/resource/222_Records', 'http://dbpedia.org/resource/A&amp;M_Octone_Records', 'http://dbpedia.org/resource/Interscope_Records', 'http://dbpedia.org/resource/J_Records', 'http://dbpedia.org/resource/Polydor_Records', 'http://dbpedia.org/resource/Reprise_Records', 'http://dbpedia.org/resource/Warner_Records'], 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees'], 'genres': ['http://dbpedia.org/resource/Blue-eyed_soul', 'http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Funk_rock', 'http://dbpedia.org/resource/Neo_soul', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Soft_rock', 'Pop'], 'actual_members': ['http://dbpedia.org/resource/James_Valentine_(musician)', 'http://dbpedia.org/resource/PJ_Morton', 'http://dbpedia.org/resource/Sam_Farrar', 'Matt Flynn', 'Adam Levine', 'Jesse Carmichael'], 'old_members': ['http://dbpedia.org/resource/Mickey_Madden', 'Ryan Dusick'], 'related_artists': ['http://dbpedia.org/resource/Adrian_Young__Adrian_Young__1', 'http://dbpedia.org/resource/Ammar_Malik', 'http://dbpedia.org/resource/Andre_Lindal', 'http://dbpedia.org/resource/Benny_Blanco', 'http://dbpedia.org/resource/Brian_West_(musician)', 'http://dbpedia.org/resource/Carlos_Sosa_(musician)', 'http://dbpedia.org/resource/Dave_Haywood', 'http://dbpedia.org/resource/Elliot_James_Mulhern', 'http://dbpedia.org/resource/Eric_Rosse', 'http://dbpedia.org/resource/Gian_Stone', 'http://dbpedia.org/resource/Grooveline_Horns', 'http://dbpedia.org/resource/James_Valentine_(musician)', 'http://dbpedia.org/resource/Jason_Evigan', 'http://dbpedia.org/resource/King_Henry_(producer)', 'http://dbpedia.org/resource/LunchMoney_Lewis', 'http://dbpedia.org/resource/Michael_Pollack_(musician)', 'http://dbpedia.org/resource/Mickey_Madden', 'http://dbpedia.org/resource/Mike_Elizondo', 'http://dbpedia.org/resource/Nate_Walcott', 'http://dbpedia.org/resource/Noah_Rubin_(music_executive)', 'http://dbpedia.org/resource/Randy_Merrill', 'http://dbpedia.org/resource/Robert_John_%22Mutt%22_Lange', 'http://dbpedia.org/resource/Robopop', 'http://dbpedia.org/resource/Ross_Golan', 'http://dbpedia.org/resource/Rozzi_Crane', 'http://dbpedia.org/resource/Ryan_Riback', 'http://dbpedia.org/resource/Sam_Farrar', 'http://dbpedia.org/resource/Sam_Martin_(singer)', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Square_(band)', 'http://dbpedia.org/resource/Starrah', 'http://dbpedia.org/resource/TMS_(production_team)', 'http://dbpedia.org/resource/Teddy_Geiger'], 'abstract': 'Maroon 5 is an American pop rock band from Los Angeles, California. It currently consists of lead vocalist Adam Levine, keyboardist and rhythm guitarist Jesse Carmichael, lead guitarist James Valentine, drummer Matt Flynn, keyboardist PJ Morton and multi-instrumentalist and occasional bassist Sam Farrar. Original members Levine, Carmichael, bassist Mickey Madden, and drummer Ryan Dusick first came together as Kara\'s Flowers in 1994, while they were still in high school. After self-releasing their independent album We Like Digging?, the band signed to Reprise Records and released the album The Fourth World in 1997. The album garnered a tepid response, after which the record label dropped the band and the members focused on college. In 2001, the band re-emerged as Maroon 5, pursuing a different direction and adding guitarist Valentine. The band signed with Octone Records, an independent record label with a separate joint venture relationship with J Records and released their debut album Songs About Jane in June 2002. Aided by the singles "Harder to Breathe", "This Love" and "She Will Be Loved", the album peaked at number six on the Billboard 200 chart and went quadruple platinum in 2005. In the same year, the band won the Grammy Award for Best New Artist. In 2006, Dusick left the band after suffering from serious wrist and shoulder injuries and was replaced by Matt Flynn. The band\'s second album It Won\'t Be Soon Before Long was released in May 2007. It debuted at number one on the US Billboard 200 chart and the lead single "Makes Me Wonder", became the band\'s first number-one single on the Billboard Hot 100. In 2010, the band released the third album Hands All Over, to favorable reviews, re-releasing a year later to include the single "Moves like Jagger", which topped the Billboard Hot 100. In 2012, Carmichael left the group and was replaced by musician PJ Morton, as the band released the fourth album Overexposed, with the song "One More Night", topping the Billboard Hot 100 chart for nine consecutive weeks. In 2014, Carmichael rejoined the band alongside Morton to record the fifth album V (roman numeral pronounced "five"), with the band signed to Interscope Records and Levine\'s own label 222 Records. Following the release of V, it reached number one on the Billboard 200. In 2016, Maroon 5 recruited their long-time collaborator Sam Farrar, as the band continued for the sixth studio album Red Pill Blues, which was released in November 2017. With the addition of Morton and Farrar, the band\'s lineup increased to seven members. The successful singles of both albums "Sugar" and "Girls Like You" peaked at numbers two and one on the Hot 100 chart respectively. The band\'s seventh album, Jordi, was released in June 2021. Maroon 5 has sold more than 135 million records, making them one of the world\'s best-selling music artists.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Cage_the_Elephant', 'artist_name': 'Cage the Elephant', 'wiki': 'http://en.wikipedia.org/wiki/Cage_the_Elephant', 'hometown': 'http://dbpedia.org/resource/Bowling_Green,_Kentucky', 'start_year': '2006', 'labels': ['http://dbpedia.org/resource/Jive_Records', 'http://dbpedia.org/resource/RCA_Records', 'http://dbpedia.org/resource/RED_Ink_Records', 'http://dbpedia.org/resource/Relentless_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Garage_rock', 'http://dbpedia.org/resource/Indie_rock', 'http://dbpedia.org/resource/Psychedelic_rock', 'http://dbpedia.org/resource/Punk_blues'], 'actual_members': ['http://dbpedia.org/resource/Brad_Shultz', 'http://dbpedia.org/resource/Daniel_Tichenor', 'http://dbpedia.org/resource/Jared_Champion', 'http://dbpedia.org/resource/Matt_Shultz', 'Matthan Minster', 'Nick Bockrath'], 'old_members': ['Lincoln Parish'], 'related_artists': ['http://dbpedia.org/resource/Alison_Mosshart', 'http://dbpedia.org/resource/Beck', 'http://dbpedia.org/resource/Brad_Shultz', 'http://dbpedia.org/resource/Dan_Auerbach', 'http://dbpedia.org/resource/Dave_Grohl', 'http://dbpedia.org/resource/Foo_Fighters', 'http://dbpedia.org/resource/Grouplove', 'http://dbpedia.org/resource/Iggy_Pop', 'http://dbpedia.org/resource/Jared_Champion', 'http://dbpedia.org/resource/Jay_Joyce', 'http://dbpedia.org/resource/Juliette_Lewis', 'http://dbpedia.org/resource/Matt_Shultz', 'http://dbpedia.org/resource/Morning_Teleportation', 'http://dbpedia.org/resource/Portugal._The_Man', 'http://dbpedia.org/resource/Queens_of_the_Stone_Age', 'http://dbpedia.org/resource/Randy_Merrill', 'http://dbpedia.org/resource/Rob_Cohen_(record_producer)', 'http://dbpedia.org/resource/Sleeper_Agent_(band)', 'http://dbpedia.org/resource/The_Black_Keys', 'http://dbpedia.org/resource/The_Stone_Foxes', "http://dbpedia.org/resource/Whiskey_N'_Rye"], 'abstract': "Cage the Elephant is an American rock band formed in 2006 in Bowling Green, Kentucky. They relocated to England and settled in London in 2008, shortly before their self-titled first album was released. The band currently consists of Matt Shultz (vocals), his older brother Brad Shultz (rhythm guitar), Nick Bockrath (lead guitar), Matthan Minster (guitar, keyboards), Daniel Tichenor (bass), and Jared Champion (drums). The band's first album was released to much success, spawning several successful radio singles and gained the band a large following in both the United States and the United Kingdom. It was influenced by classic rock, '90s alternative, blues, punk rock and funk music. Lincoln Parish served as the band's lead guitarist from their formation in 2006 until 2013, when he left on good terms to pursue a career in producing. The band's second album, Thank You, Happy Birthday, was released in 2011 and was heavily influenced by punk rock as well as bands such as Pixies and Nirvana. The band's third album, Melophobia, was released in 2013 as the band's concerted effort to find its own distinct musical identity. The band's fourth album, Tell Me I'm Pretty, was produced by Dan Auerbach and released in 2015. The band released a live album, Unpeeled, in 2017. Their fifth studio album, Social Cues, was released in 2019. They won the Grammy Award for Best Rock Album twice, in 2017 for Tell Me I'm Pretty and in 2020 for Social Cues."}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Supertramp', 'artist_name': 'Supertramp', 'wiki': 'http://en.wikipedia.org/wiki/Supertramp', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '2015', 'end_year': '2015', 'labels': ['http://dbpedia.org/resource/A&amp;M_Records', 'http://dbpedia.org/resource/Chrysalis_Records', 'http://dbpedia.org/resource/EMI_Records'], 'plays_in': ['http://dbpedia.org/resource/Return_of_the_Ewok'], 'old_members': ['http://dbpedia.org/resource/Bob_Siebenberg', 'http://dbpedia.org/resource/Carl_Verheyen', 'http://dbpedia.org/resource/Cliff_Hugo', 'http://dbpedia.org/resource/Dougie_Thomson', 'http://dbpedia.org/resource/Frank_Farrell_(musician)', 'http://dbpedia.org/resource/John_Helliwell', 'http://dbpedia.org/resource/Mark_Hart', 'http://dbpedia.org/resource/Richard_Palmer-James', 'http://dbpedia.org/resource/Rick_Davies', 'http://dbpedia.org/resource/Roger_Hodgson', 'Tom Walsh', 'Richard Palmer', 'Dave Winthrop\t', 'Kevin Currie\t', '*', 'Jesse Siebenberg', 'Lee Thornburg', 'Keith Baker', 'Robert Millar'], 'related_artists': ['http://dbpedia.org/resource/Bob_Siebenberg', 'http://dbpedia.org/resource/Carl_Verheyen', 'http://dbpedia.org/resource/Chuck_Kaye', 'http://dbpedia.org/resource/Cliff_Hugo', 'http://dbpedia.org/resource/Dougie_Thomson', 'http://dbpedia.org/resource/Frank_Farrell_(musician)', 'http://dbpedia.org/resource/Fred_Mandel', 'http://dbpedia.org/resource/John_Helliwell', 'http://dbpedia.org/resource/Mark_Hart', 'http://dbpedia.org/resource/Mike_Gormley', 'http://dbpedia.org/resource/Rick_Davies', 'http://dbpedia.org/resource/Roger_Hodgson', 'http://dbpedia.org/resource/Scott_Gorham', 'http://dbpedia.org/resource/Scott_Page', 'http://dbpedia.org/resource/Sonic_Elements', 'http://dbpedia.org/resource/The_Alan_Bown_Set'], 'abstract': 'Supertramp were an English rock band formed in London, England in mid 1969. Marked by the individual songwriting of founders Roger Hodgson (vocals, keyboards, and guitars) and Rick Davies (vocals and keyboards), they are distinguished for blending progressive rock and pop styles as well as for a sound that relied heavily on Wurlitzer electric piano. The group\'s line-up changed numerous times throughout their career, with Davies being the only consistent member throughout the decades. Other longtime members included bassist Dougie Thomson, drummer Bob Siebenberg, and saxophonist John Helliwell. The band were initially a prog-rock group, but starting with their third album, Crime of the Century (1974), they began moving towards a more pop-oriented sound. They reached their commercial peak with 1979\'s Breakfast in America, which yielded the international top 10 singles "The Logical Song", "Breakfast in America", "Goodbye Stranger", and "Take the Long Way Home". Their other top 40 hits included "Dreamer" (1974), "Give a Little Bit", (1977) and "It\'s Raining Again" (1982). In 1983, Hodgson left the group to pursue a solo career. Davies took over as the band\'s sole leader until 1988, after which they disbanded and periodically reformed in various configurations. As of 2007, Supertramp album sales exceeded 60 million. They attained significant popularity in North America, Europe, South Africa, and Australia. Their highest sales levels were in Canada, where they had two diamond-certified (ten-times platinum) albums (Crime of the Century and Breakfast in America), and their only number 1 singles anywhere ("The Logical Song" and "Dreamer").'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Dr._Alban', 'artist_name': 'Dr. Alban', 'wiki': 'http://en.wikipedia.org/wiki/Dr._Alban', 'hometown': 'http://dbpedia.org/resource/Stockholm', 'birth_date': '26 August 1957', 'start_year': '1980', 'labels': ['http://dbpedia.org/resource/Ariola', 'http://dbpedia.org/resource/Dr._Records'], 'genres': ['http://dbpedia.org/resource/Dancehall', 'http://dbpedia.org/resource/Eurodance', 'http://dbpedia.org/resource/Hip_hop_music', 'http://dbpedia.org/resource/Reggae'], 'related_artists': ['http://dbpedia.org/resource/Charly_Boy', 'http://dbpedia.org/resource/David_Longoria', 'http://dbpedia.org/resource/Dekumzy', 'http://dbpedia.org/resource/Denniz_Pop', 'http://dbpedia.org/resource/Haddaway', 'http://dbpedia.org/resource/Jose_Chameleone', 'http://dbpedia.org/resource/Kikki_Danielsson', 'http://dbpedia.org/resource/Leila_K', 'http://dbpedia.org/resource/Melissa_(singer)', 'http://dbpedia.org/resource/Sash!', 'http://dbpedia.org/resource/Swingfly'], 'abstract': 'Alban Uzoma Nwapa (born 26 August 1957), better known by his stage name Dr. Alban, is a Nigerian-Swedish recording artist and producer with his own record label, Dr. Records. His music can best be described as Eurodance/hip-hop reggae in a dancehall style. He has sold an estimated 16 million records worldwide and is most famous for his worldwide 1992 hit "It\'s My Life", from the album One Love.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Jack_Harlow', 'artist_name': 'Jack Harlow', 'wiki': 'http://en.wikipedia.org/wiki/Jack_Harlow', 'birth_date': '13 March 1998', 'start_year': '2011', 'labels': ['http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/DJ_Drama'], 'genres': ['http://dbpedia.org/resource/Hip_hop_music'], 'related_artists': ['http://dbpedia.org/resource/Audrey_Nuna', 'http://dbpedia.org/resource/Bryson_Tiller', 'http://dbpedia.org/resource/DJ_Drama', 'http://dbpedia.org/resource/DJ_Drama__DJ_Drama__1', 'http://dbpedia.org/resource/Don_Cannon', 'http://dbpedia.org/resource/JetsonMade'], 'abstract': 'Jackman Thomas Harlow (born March 13, 1998) is an American rapper and songwriter. He is signed to Don Cannon and DJ Drama\'s record label Generation Now, an imprint of Atlantic Records. He is also the co-founder of his own musical collective, Private Garden. His first major breakthrough came with the release of his 2020 single "Whats Poppin", which peaked at number two on the US Billboard Hot 100. His first studio album, Thats What They All Say, was released on December 11, 2020, and debuted at number 5 on the US Billboard 200. In 2021, he was a guest on Lil Nas X’s "Industry Baby". It reached #1 on the Hot 100, becoming Harlow’s highest charting song overall and his first chart topper.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/David_Lee_Roth', 'artist_name': 'David Lee Roth', 'wiki': 'http://en.wikipedia.org/wiki/David_Lee_Roth', 'birth_date': '10 October 1954', 'start_year': '1972', 'end_year': '2022', 'aliases': ['Diamond Dave'], 'labels': ['http://dbpedia.org/resource/CMH_Records', 'http://dbpedia.org/resource/Interscope_Records', 'http://dbpedia.org/resource/Magna_Carta_Records', 'http://dbpedia.org/resource/Warner_Records'], 'genres': ['http://dbpedia.org/resource/Glam_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music', 'http://dbpedia.org/resource/Pop_rock', 'heavy metal'], 'related_artists': ['http://dbpedia.org/resource/Billy_Sheehan', 'http://dbpedia.org/resource/Brett_Tuggle', 'http://dbpedia.org/resource/Craig_Goldy', 'http://dbpedia.org/resource/Dave_Amato', 'http://dbpedia.org/resource/Edgar_Winter', 'http://dbpedia.org/resource/Gregg_Bissonette', 'http://dbpedia.org/resource/James_LoMenzo', 'http://dbpedia.org/resource/Jason_Becker', 'http://dbpedia.org/resource/Jeff_Bova', 'http://dbpedia.org/resource/Jesse_Harms', 'http://dbpedia.org/resource/Joe_Holmes', 'http://dbpedia.org/resource/John_5_(guitarist)', 'http://dbpedia.org/resource/Loser_(band)', 'http://dbpedia.org/resource/Mr._Big_(American_band)', 'http://dbpedia.org/resource/Pat_Torpey', 'http://dbpedia.org/resource/Ray_Luzier', 'http://dbpedia.org/resource/Steve_Hunter', 'http://dbpedia.org/resource/Steve_Vai', 'http://dbpedia.org/resource/The_David_Lee_Roth_Band', 'http://dbpedia.org/resource/The_Outpatience__The_Outpatience__1', 'http://dbpedia.org/resource/Todd_Jensen', 'http://dbpedia.org/resource/Van_Halen'], 'abstract': "David Lee Roth (born October 10, 1954) is an American rock musician, singer, songwriter and former radio personality. Best known for his wild, energetic stage persona, he was the lead singer of the hard rock band Van Halen across three stints, from 1974 to 1985, in 1996 and again from 2006 to their disbandment in 2020. He was also known as a successful solo artist, releasing numerous RIAA-certified Gold and Platinum albums. After more than two decades apart, Roth re-joined Van Halen in 2006 for a North American tour that became the highest-grossing in the band's history and one of the highest-grossing of that year. In 2012, Roth and Van Halen released the comeback album A Different Kind of Truth. In 2007, he was inducted into the Rock and Roll Hall of Fame as a member of Van Halen."}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Whitesnake', 'artist_name': 'Whitesnake', 'wiki': 'http://en.wikipedia.org/wiki/Whitesnake', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1978', 'end_year': '1990', 'genres': ['http://dbpedia.org/resource/Blues_rock', 'http://dbpedia.org/resource/Glam_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music', 'heavy metal'], 'actual_members': ['http://dbpedia.org/resource/David_Coverdale', 'http://dbpedia.org/resource/Dino_Jelusick', 'http://dbpedia.org/resource/Joel_Hoekstra', 'http://dbpedia.org/resource/Michele_Luppi', 'http://dbpedia.org/resource/Reb_Beach', 'http://dbpedia.org/resource/Tommy_Aldridge', "Tanya O'Callaghan"], 'old_members': ['http://dbpedia.org/resource/List_of_Whitesnake_members'], 'related_artists': ['http://dbpedia.org/resource/Adrian_Vandenberg', 'http://dbpedia.org/resource/Aynsley_Dunbar__Aynsley_Dunbar__1', 'http://dbpedia.org/resource/Bernie_Marsden', 'http://dbpedia.org/resource/Black_Sabbath', 'http://dbpedia.org/resource/Blue_Murder_(band)', 'http://dbpedia.org/resource/Bow_Wow_(band)', 'http://dbpedia.org/resource/Brian_Tichy', 'http://dbpedia.org/resource/Burning_Rain', 'http://dbpedia.org/resource/Chris_Frazier', 'http://dbpedia.org/resource/Colin_Hodgkinson', 'http://dbpedia.org/resource/Coverdale–Page', 'http://dbpedia.org/resource/Cozy_Powell', 'http://dbpedia.org/resource/David_Coverdale', 'http://dbpedia.org/resource/Deep_Purple', 'http://dbpedia.org/resource/Derek_Sherinian', 'http://dbpedia.org/resource/Devil_City_Angels', 'http://dbpedia.org/resource/Dino_Jelusick', 'http://dbpedia.org/resource/Dio_(band)', 'http://dbpedia.org/resource/Don_Airey', 'http://dbpedia.org/resource/Doug_Aldrich', 'http://dbpedia.org/resource/House_of_Lords_(band)', 'http://dbpedia.org/resource/Ian_Paice', 'http://dbpedia.org/resource/Joel_Hoekstra', 'http://dbpedia.org/resource/Jon_Lord', 'http://dbpedia.org/resource/Keith_Olsen', 'http://dbpedia.org/resource/Lion_(band)__Lion__1', 'http://dbpedia.org/resource/Manic_Eden', 'http://dbpedia.org/resource/Marco_Mendoza__Marco_Mendoza__1', 'http://dbpedia.org/resource/Mel_Galley', 'http://dbpedia.org/resource/Michele_Luppi', 'http://dbpedia.org/resource/Micky_Moody', 'http://dbpedia.org/resource/Mike_Clink', 'http://dbpedia.org/resource/Neil_Murray_(British_musician)', 'http://dbpedia.org/resource/Night_Ranger', 'http://dbpedia.org/resource/Paice_Ashton_Lord', 'http://dbpedia.org/resource/Ratt', 'http://dbpedia.org/resource/Reb_Beach', 'http://dbpedia.org/resource/Rudy_Sarzo', 'http://dbpedia.org/resource/Runner_(band)', 'http://dbpedia.org/resource/Steve_Vai', 'http://dbpedia.org/resource/Sweet_Savage', 'http://dbpedia.org/resource/Tangier_(band)', 'http://dbpedia.org/resource/The_Company_of_Snakes', 'http://dbpedia.org/resource/The_Dead_Daisies', 'http://dbpedia.org/resource/The_Snakes', 'http://dbpedia.org/resource/Timothy_Drury', 'http://dbpedia.org/resource/Tommy_Aldridge', 'http://dbpedia.org/resource/Tony_Franklin_(musician)', 'http://dbpedia.org/resource/Trapeze_(band)', 'http://dbpedia.org/resource/Tygers_of_Pan_Tang', 'http://dbpedia.org/resource/Vandenberg_(band)', 'http://dbpedia.org/resource/Vivian_Campbell', 'http://dbpedia.org/resource/Warren_DeMartini', 'http://dbpedia.org/resource/Winger_(band)'], 'abstract': 'Whitesnake are a hard rock band formed in London in 1978. The group was originally put together as the backing band for singer David Coverdale, who had recently left Deep Purple. Though the band quickly developed into their own entity, Coverdale is the only constant member throughout their history. Whitesnake enjoyed much success in the UK, Europe and Japan through their early years. Their albums Ready an\' Willing, Come an\' Get It and Saints &amp; Sinners all reached the top ten on the UK Albums Chart. By the mid-1980s, however, Coverdale had set his sights on breaking through in North America, where Whitesnake remained largely unknown. With the backing of American label Geffen Records, Whitesnake released their eponymous album in 1987, which became their biggest success to date, selling over eight million copies in the US and spawning the hit singles "Here I Go Again" and "Is This Love". Whitesnake also adopted a more contemporary look, akin to the Los Angeles glam metal scene. After releasing Slip of the Tongue in 1989, Coverdale decided to put Whitesnake on hold to take a break from the music industry. Aside from a few short-lived reunions in the 1990s, Whitesnake remained mostly inactive until 2003, when Coverdale put together a new line-up to celebrate the band\'s 25th anniversary. Since then Whitesnake have released four more studio albums and toured extensively around the world. Whitesnake\'s early sound has been characterized by critics as blues rock, but by the mid-1980s the band slowly began moving toward a more commercially accessible hard rock style. Topics such as love and sex are common in Whitesnake\'s lyrics, which have been criticized for their excessive use of sexual innuendos and double entendres. Whitesnake have been nominated for several awards during their career, including Best British Group at the 1988 Brit Awards. They have also been featured on lists of the greatest hard rock bands of all time by several media outlets, while their songs and albums have appeared on many "best of" lists by outlets, such as VH1 and Rolling Stone.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Alice_Cooper', 'artist_name': 'Alice Cooper', 'wiki': 'http://en.wikipedia.org/wiki/Alice_Cooper', 'birth_date': '04 February 1948', 'start_year': '1964', 'plays_in': ['http://dbpedia.org/resource/Alice_Cooper_a_Paris', "http://dbpedia.org/resource/In_Tuned_Out_-_Live_'93", 'http://dbpedia.org/resource/Welcome_to_Our_Nightmare:_A_Tribute_to_Alice_Cooper'], 'related_artists': ['http://dbpedia.org/resource/Al_Pitrelli', 'http://dbpedia.org/resource/Alice_Cooper_(band)', 'http://dbpedia.org/resource/Alice_Cooper_(band)__The_Spiders__1', 'http://dbpedia.org/resource/Allan_Schwartzberg', 'http://dbpedia.org/resource/Bernie_Taupin', 'http://dbpedia.org/resource/Black_Star_Riders', 'http://dbpedia.org/resource/Blue_Öyster_Cult', 'http://dbpedia.org/resource/Bob_Ezrin', 'http://dbpedia.org/resource/Bob_Kulick', 'http://dbpedia.org/resource/Brent_Fitz', 'http://dbpedia.org/resource/Dave_Collins_(audio_engineer)', 'http://dbpedia.org/resource/Davey_Johnstone', 'http://dbpedia.org/resource/Davey_Suicide', 'http://dbpedia.org/resource/Dee_Murray', 'http://dbpedia.org/resource/Derek_Sherinian', 'http://dbpedia.org/resource/Desmond_Child', 'http://dbpedia.org/resource/Dick_Wagner', 'http://dbpedia.org/resource/Eric_Dover', 'http://dbpedia.org/resource/Erik_Scott', 'http://dbpedia.org/resource/Fred_Mandel', 'http://dbpedia.org/resource/Gentlemen_Afterdark', 'http://dbpedia.org/resource/Greg_Smith_(American_musician)__Greg_Smith__1', 'http://dbpedia.org/resource/Guy_Mann-Dude', 'http://dbpedia.org/resource/Hugh_McDonald_(American_musician)', 'http://dbpedia.org/resource/Jan_Uvena', 'http://dbpedia.org/resource/Jason_Hook', 'http://dbpedia.org/resource/Jim_Gordon_(musician)', 'http://dbpedia.org/resource/Jimmy_DeGrasso', 'http://dbpedia.org/resource/Joe_Satriani', 'http://dbpedia.org/resource/Jonathan_Mover', 'http://dbpedia.org/resource/Kane_Roberts', 'http://dbpedia.org/resource/Ken_Caillat', 'http://dbpedia.org/resource/Ken_Mary', 'http://dbpedia.org/resource/Keri_Kelli', 'http://dbpedia.org/resource/Kip_Winger', 'http://dbpedia.org/resource/Larry_Mullen_Jr.', 'http://dbpedia.org/resource/Love/Hate_(band)', "http://dbpedia.org/resource/Mama's_Boys", 'http://dbpedia.org/resource/Mark_Stein_(musician)', 'http://dbpedia.org/resource/Matt_Laug', 'http://dbpedia.org/resource/Michael_Bruce_(musician)', 'http://dbpedia.org/resource/Mickey_Curry', 'http://dbpedia.org/resource/Mike_Pinera', 'http://dbpedia.org/resource/Million_Dollar_Reload', 'http://dbpedia.org/resource/Neal_Smith_(drummer)', 'http://dbpedia.org/resource/Nick_Didkovsky', 'http://dbpedia.org/resource/Orianthi', 'http://dbpedia.org/resource/Parker_Gispert', 'http://dbpedia.org/resource/Paul_Taylor_(keyboardist)', 'http://dbpedia.org/resource/Pentti_Glan', 'http://dbpedia.org/resource/Pete_Friesen', 'http://dbpedia.org/resource/Piggy_D.', 'http://dbpedia.org/resource/Reb_Beach', 'http://dbpedia.org/resource/Rick_Boston', 'http://dbpedia.org/resource/Rob_Zombie', 'http://dbpedia.org/resource/Roy_Thomas_Baker', 'http://dbpedia.org/resource/Ryan_Roxie', 'http://dbpedia.org/resource/Saints_of_the_Underground', "http://dbpedia.org/resource/Slash's_Snakepit", 'http://dbpedia.org/resource/Steve_Hunter', 'http://dbpedia.org/resource/Stu_Daye', 'http://dbpedia.org/resource/The_Almighty_(band)', 'http://dbpedia.org/resource/Tommy_Clufetos', 'http://dbpedia.org/resource/Tommy_Henriksen', 'http://dbpedia.org/resource/Vinnie_Moore', 'http://dbpedia.org/resource/White_Lion', 'http://dbpedia.org/resource/Whitey_Kirst', 'http://dbpedia.org/resource/Winger_(band)'], 'abstract': 'Alice Cooper (born Vincent Damon Furnier, February 4, 1948) is an American singer, songwriter, and actor whose career spans over 50 years. With a raspy voice and a stage show that features numerous props and stage illusions, including pyrotechnics, guillotines, electric chairs, fake blood, reptiles, baby dolls, and dueling swords, Cooper is considered by music journalists and peers to be "The Godfather of Shock Rock". He has drawn equally from horror films, vaudeville, and garage rock to pioneer a macabre and theatrical brand of rock designed to shock audiences. Originating in Phoenix, Arizona, in 1964, "Alice Cooper" was originally a band with roots extending back to a band called The Earwigs 1964, consisting of Furnier on vocals and harmonica, Glen Buxton on lead guitar, and Dennis Dunaway on bass guitar and background vocals. By 1966, Michael Bruce on rhythm guitar joined the three and Neal Smith was added on drums in 1967. The five named the band \'Alice Cooper\' and released their debut album in 1969 with limited chart success. The band reached their commercial peak in 1973 with their sixth studio album, Billion Dollar Babies. They broke up in 1975 and Furnier adopted the band\'s name as both his legal name and his stage name, beginning his solo career with the 1975 concept album Welcome to My Nightmare. Cooper has experimented with a number of musical styles, including art rock, hard rock, heavy metal, new wave, glam metal, and industrial rock. He helped to shape the sound and look of heavy metal, and has been described as the artist who "first introduced horror imagery to rock and roll, and whose stagecraft and showmanship have permanently transformed the genre". He is also known for his wit offstage, with The Rolling Stone Album Guide calling him the world\'s most "beloved heavy metal entertainer". Away from music, Cooper is a film actor, a golfing celebrity, a restaurateur, and, since 2004, a radio DJ with his classic rock show Nights with Alice Cooper.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/DJ_Ötzi', 'artist_name': 'DJ Ötzi', 'wiki': 'http://en.wikipedia.org/wiki/DJ_Ötzi', 'birth_date': '07 January 1971', 'start_year': '1999', 'aliases': ['"DJ Ötzi Junior"'], 'labels': ['http://dbpedia.org/resource/EMI'], 'genres': ['http://dbpedia.org/resource/Eurodance', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Schlager_music'], 'related_artists': ['http://dbpedia.org/resource/Captain_Jack_(group)'], 'abstract': 'Gerhard "Gerry" Friedle (born 7 January 1971), better known by his stage name DJ Ötzi (pronounced [ˈdiːdʒɛɪ ˈœtsiː]), is an Austrian pop and Schlager singer. Successful mainly in German-speaking countries, he is best known in the English-speaking world for his 2000 single "Hey Baby (Uhh, Ahh)", a cover version of the Bruce Channel song "Hey! Baby". His stage name comes from Ötzi the Iceman, the name given to the 5,300-year-old frozen remains of a mummified man discovered in 1991 in South Tyrol\'s Ötztal Alps.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Natalie_Imbruglia', 'artist_name': 'Natalie Imbruglia', 'wiki': 'http://en.wikipedia.org/wiki/Natalie_Imbruglia', 'birth_date': '04 February 1975', 'start_year': '1992', 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees', 'http://dbpedia.org/resource/Mr._Deeds'], 'related_artists': ['http://dbpedia.org/resource/Anne_Preven', 'http://dbpedia.org/resource/Gary_Clark_(musician)', 'http://dbpedia.org/resource/Headswim', 'http://dbpedia.org/resource/Jamie_Hartman', 'http://dbpedia.org/resource/KK_(composer,_producer)', 'http://dbpedia.org/resource/Mark_Howard_(producer)', 'http://dbpedia.org/resource/Neil_Taylor_(guitarist)'], 'abstract': 'Natalie Jane Imbruglia (/ɪmˈbruːliə/ im-BROO-lee-ə, Italian: [imˈbruʎʎa]; born 4 February 1975) is an Australian-British singer-songwriter and actress. In the early 1990s, she played Beth Brennan in the Australian soap opera Neighbours. Three years after leaving the program, she began a singing career with her chart-topping cover of Ednaswap\'s song "Torn". Her subsequent album, Left of the Middle (1997), sold 7 million copies worldwide. Imbruglia\'s five subsequent albums have combined sales of 3 million copies worldwide, and her accolades include eight ARIA Awards, two Brit Awards, one Billboard Music Award, and three Grammy nominations. Imbruglia has appeared in several films, including the 2003 release Johnny English and the 2009 Australian indie film Closed for Winter. She has modelled for several brands, such as L\'Oreal, Gap, and Kailis. Amongst other philanthropic work, Imbruglia served as a longtime spokesperson for Virgin Unite and campaigns to raise awareness of obstetric fistula. On 16 June 2021, Imbruglia announced on her official Twitter page that her single "Build It Better" would be released on 18 June 2021. It serves as the first single from her sixth studio album Firebird, which was released on 24 September 2021. This album represents a return to music after a six year hiatus during which she says she experienced "writer\'s block."'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Captain_Jack_(group)', 'artist_name': 'Captain Jack', 'wiki': 'http://en.wikipedia.org/wiki/Captain_Jack_(group)', 'hometown': 'http://dbpedia.org/resource/Darmstadt', 'start_year': '1995', 'end_year': '2005', 'genres': ['http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Eurodance'], 'actual_members': ['Bruce Lacy', 'Michelle Stanley'], 'old_members': ['http://dbpedia.org/resource/Captain_Jack_(group)', 'http://dbpedia.org/resource/Franky_Gee', 'http://dbpedia.org/resource/Maloy_Lozanes', 'Liza da Costa', 'Laura Martin', 'Jamie Lee', 'Illi Love', 'Sharky Durban'], 'related_artists': ['http://dbpedia.org/resource/DJ_Ötzi', 'http://dbpedia.org/resource/Franky_Gee', 'http://dbpedia.org/resource/Maloy_Lozanes'], 'abstract': 'Captain Jack is a German Eurodance project formed in Darmstadt, Germany in 1995. The project is best known for the single "Captain Jack", which reached the Top-10 in many countries in Europe.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Bryson_Tiller', 'artist_name': 'Bryson Tiller', 'wiki': 'http://en.wikipedia.org/wiki/Bryson_Tiller', 'birth_date': '02 January 1993', 'start_year': '2011', 'aliases': ['Pen Griffey'], 'labels': ['http://dbpedia.org/resource/RCA_Records'], 'genres': ['http://dbpedia.org/resource/Contemporary_R&amp;B', 'http://dbpedia.org/resource/Hip_hop_music', 'http://dbpedia.org/resource/Soul_music'], 'related_artists': ['http://dbpedia.org/resource/Aaron_Bow', 'http://dbpedia.org/resource/DJ_Khaled', 'http://dbpedia.org/resource/FrancisGotHeat', 'http://dbpedia.org/resource/H.E.R.', 'http://dbpedia.org/resource/J-Louis', 'http://dbpedia.org/resource/Jack_Harlow', 'http://dbpedia.org/resource/Keyz_(producer)', 'http://dbpedia.org/resource/Marteen', 'http://dbpedia.org/resource/Saint_Cassius_(musician)', 'http://dbpedia.org/resource/Sy_Ari_da_Kid', 'http://dbpedia.org/resource/THEY.', 'http://dbpedia.org/resource/Teddy_Walton', 'http://dbpedia.org/resource/Thaddeus_Dixon', 'http://dbpedia.org/resource/Vory', 'http://dbpedia.org/resource/Young_Scrap'], 'abstract': 'Bryson Djuan Tiller (born January 2, 1993) is an American singer and rapper. Born in Louisville, Kentucky, he began his career in 2011 with a mixtape entitled Killer Instinct Vol. 1. Tiller initially gained mainstream success in 2015 following the release of the single, "Don\'t", which reached the top 20 on the Billboard Hot 100. The record\'s success led to a deal with RCA Records and served as the lead single to his debut studio album, Trapsoul (2015), which reached the top ten on the Billboard 200, and included the single "Exchange", which earned him a Grammy Award nomination. In May 2017, Tiller released his second studio album, True to Self, which debuted at number-one on the Billboard 200. That same year, he was also featured alongside Rihanna on the hit single "Wild Thoughts" by DJ Khaled, which reached number-two on the Billboard Hot 100. Tiller has received multiple accolades, including two BET Awards for Best New Artist and Best Male R&amp;B/Pop Artist; and in March 2016, he received the key to the city from Louisville Mayor Greg Fischer.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Michael_Sembello', 'artist_name': 'Michael Sembello', 'wiki': 'http://en.wikipedia.org/wiki/Michael_Sembello', 'birth_date': '17 April 1954', 'start_year': '1975', 'labels': ['http://dbpedia.org/resource/A&amp;M_Records', 'http://dbpedia.org/resource/EMI_Records', 'http://dbpedia.org/resource/Frontiers_Records', 'http://dbpedia.org/resource/Warner_Records'], 'plays_in': ['http://dbpedia.org/resource/Never_(Mie_album)'], 'genres': ['http://dbpedia.org/resource/Contemporary_R&amp;B', 'http://dbpedia.org/resource/Funk', 'http://dbpedia.org/resource/Hi-NRG', 'http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Soul_music', 'http://dbpedia.org/resource/Synth-pop'], 'related_artists': ['http://dbpedia.org/resource/David_Batteau', 'http://dbpedia.org/resource/Dawn_Elder', 'http://dbpedia.org/resource/Stevie_Wonder'], 'abstract': 'Michael Andrew Sembello (born April 17, 1954) is an American singer, guitarist, keyboardist, songwriter, composer and producer from Philadelphia, Pennsylvania. Sembello was nominated for an Academy Award and a Golden Globe for his 1983 song "Maniac", which he sang and co-wrote. The song reached number one in the United States and featured in the Flashdance film soundtrack. He is the brother of the late songwriter and composer Danny Sembello and the late singer songwriter John Sembello of Dino &amp; Sembello fame.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Akon', 'artist_name': 'Akon', 'wiki': 'http://en.wikipedia.org/wiki/Akon', 'birth_date': '16 April 1973', 'start_year': '1996', 'aliases': ['A-Kon', 'El Negreeto'], 'plays_in': ['http://dbpedia.org/resource/American_Heist', 'http://dbpedia.org/resource/Girlicious_(album)'], 'related_artists': ['http://dbpedia.org/resource/2C_(musician)', 'http://dbpedia.org/resource/Ali_Vegas', 'http://dbpedia.org/resource/Aventura_(band)', 'http://dbpedia.org/resource/B_Howard', 'http://dbpedia.org/resource/Black_Violin', 'http://dbpedia.org/resource/Booba', 'http://dbpedia.org/resource/Boss_AC', 'http://dbpedia.org/resource/Brick_&amp;_Lace', 'http://dbpedia.org/resource/C-Murder', 'http://dbpedia.org/resource/Cha_Cha_(rapper)', 'http://dbpedia.org/resource/Claude_Kelly', "http://dbpedia.org/resource/Colby_O'Donis", 'http://dbpedia.org/resource/Cyhi_the_Prynce', 'http://dbpedia.org/resource/D_Teck', 'http://dbpedia.org/resource/Danny_Mercer', 'http://dbpedia.org/resource/Detail_(record_producer)', 'http://dbpedia.org/resource/Djibril_Gibson_Kagni', 'http://dbpedia.org/resource/Don_Yute', 'http://dbpedia.org/resource/Faze_(musician)', 'http://dbpedia.org/resource/Flipsyde', 'http://dbpedia.org/resource/Giorgio_Tuinfort', 'http://dbpedia.org/resource/GoodWill_&amp;_MGI', 'http://dbpedia.org/resource/J_Rand', 'http://dbpedia.org/resource/Jethro_Sheeran', 'http://dbpedia.org/resource/Johnny_Wright_(music_manager)', 'http://dbpedia.org/resource/JonFX', 'http://dbpedia.org/resource/Jovi_(musician)', 'http://dbpedia.org/resource/Kardinal_Offishall', 'http://dbpedia.org/resource/Kat_DeLuna', 'http://dbpedia.org/resource/Kaye_Styles', 'http://dbpedia.org/resource/Lil_Zane', 'http://dbpedia.org/resource/Melissa_(singer)', 'http://dbpedia.org/resource/Melvin_E._Brown', 'http://dbpedia.org/resource/Mohombi', 'http://dbpedia.org/resource/Nyanda', 'http://dbpedia.org/resource/OG_Boo_Dirty', 'http://dbpedia.org/resource/P-Money', 'http://dbpedia.org/resource/P-Square', 'http://dbpedia.org/resource/R._City', 'http://dbpedia.org/resource/RedOne', 'http://dbpedia.org/resource/Red_Café', 'http://dbpedia.org/resource/Robin_Schulz', 'http://dbpedia.org/resource/Savage_(rapper)__Savage__1', 'http://dbpedia.org/resource/Spoks_Man', 'http://dbpedia.org/resource/Styles_P', 'http://dbpedia.org/resource/Sway_(musician)', 'http://dbpedia.org/resource/T-Pain', 'http://dbpedia.org/resource/Tone_Trump', 'http://dbpedia.org/resource/Tony_Dawsey', 'http://dbpedia.org/resource/VL_Mike', 'http://dbpedia.org/resource/Vishal–Shekhar', 'http://dbpedia.org/resource/William_Wiik_Larsen', 'http://dbpedia.org/resource/Wizkid', 'http://dbpedia.org/resource/Wurld_(musician)', 'http://dbpedia.org/resource/Ya_Boy', 'http://dbpedia.org/resource/Yukmouth'], 'abstract': 'Aliaune Damala Badara Akon Thiam (/ˈeɪkɒn/; born April 16, 1973), also known mononymously as Akon, is a Senegalese-American singer, songwriter, record producer, and entrepreneur from New Jersey. He rose to prominence in 2004 following the release of "Locked Up" (featuring Styles P), the first single from his debut album Trouble (2004), followed by the second single "Lonely". His second album, Konvicted (2006), received three Grammy Award nominations for Best Contemporary R&amp;B Album, and for Best Rap/Sung Collaboration for "Smack That" (featuring Eminem) and "I Wanna Love You" (featuring Snoop Dogg). Both singles became Billboard Hot 100 top ten hits, followed up by "Don\'t Matter" and "Sorry, Blame It on Me". His third studio album Freedom (2008) was led by the single "Right Now (Na Na Na)". Akon often provides vocals as a featured artist and is currently credited with over 300 guest appearances and more than 35 Billboard Hot 100 songs, resulting in five Grammy Award nominations. He is the first solo artist to hold both the number one and two spots simultaneously on the Billboard Hot 100 charts twice. Akon has had four songs certified as 3× platinum, three songs certified as 2× platinum, more than ten songs certified as 1× platinum and more than ten songs certified as gold by the RIAA. He was listed by Guinness World Records as the number-one selling artist for master ringtones in the world. Along with his own musical career, Akon later founded two successful record labels, Konvict Muzik and KonLive Distribution. The labels cultivated a multitude of successful acts, such as Lady Gaga, T-Pain, R. City, Kardinal Offishall, Jeffree Star, and Red Café, among others. Akon sports a concurrent career in producing and songwriting records mainly for artists on his respective labels, as well as for other mainstream artists including Michael Jackson, Snoop Dogg, Lionel Richie, Leona Lewis, Sean Paul, and Whitney Houston. Forbes ranked Akon 80th (Power Rank) in the Forbes Celebrity 100 in 2010 and 5th in the 40 Most Powerful Celebrities in Africa list, in 2011. Billboard ranked Akon No. 6 on the list of Top Digital Songs Artists of the decade.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Vengaboys', 'artist_name': 'Vengaboys', 'wiki': 'http://en.wikipedia.org/wiki/Vengaboys', 'hometown': 'http://dbpedia.org/resource/Netherlands', 'start_year': '1997', 'end_year': '2002', 'genres': ['http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Eurodance'], 'actual_members': ['Denise Post-Van Rijswijk', 'Donny Latupeirissa', 'Kim Sasabone', 'Robin Pors'], 'old_members': ['Roy Olivero den Burger', 'Yorick Bakker'], 'abstract': 'Vengaboys are a Dutch Eurodance music group based in Rotterdam. The group was the creation of Dutch producers Wessel van Diepen and Dennis van den Driesschen (known as Danski and Delmundo). It consists of lead (female) vocalists Kim Sasabone and Denise Post-Van Rijswijk and male vocalists Robin Pors and Donny Latupeirissa. Casting and selection of the performing act 1997–2000 was done by Wendelien van Diepen. The group enjoyed commercial success in the late 1990s. They are best known for their hit singles "We Like to Party", "Boom, Boom, Boom, Boom!!" and "We\'re Going to Ibiza", the latter two of which topped the UK Singles Chart. They have sold an estimated 25 million records worldwide. On 2 May 2001, the World Music Awards gave Vengaboys the award for best-selling dance group of the year.In 2019, Dutch online newspaper Nu.nl called Vengaboys the most successful Dutch pop group in history.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Foster_the_People', 'artist_name': 'Foster the People', 'wiki': 'http://en.wikipedia.org/wiki/Foster_the_People', 'hometown': 'http://dbpedia.org/resource/Los_Angeles', 'start_year': '2009', 'labels': ['http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Startime_International'], 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees', 'http://dbpedia.org/resource/The_Blazing_World_(film)'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Indie_pop', 'http://dbpedia.org/resource/Indie_rock', 'http://dbpedia.org/resource/Neo-psychedelia', 'indietronica'], 'actual_members': ['http://dbpedia.org/resource/Mark_Foster_(singer)', 'Sean Cimino', 'Isom Innis'], 'old_members': ['http://dbpedia.org/resource/Mark_Pontius', 'Jacob "Cubbie" Fink'], 'related_artists': ['http://dbpedia.org/resource/Danyew', 'http://dbpedia.org/resource/Gemma_Hayes', 'http://dbpedia.org/resource/Malbec_(band)', 'http://dbpedia.org/resource/Mark_Foster_(singer)__Mark_Foster__1', 'http://dbpedia.org/resource/Mark_Pontius', 'http://dbpedia.org/resource/Rich_Costey', 'http://dbpedia.org/resource/Swiss_Lips', 'http://dbpedia.org/resource/The_Velvet_Teen', 'http://dbpedia.org/resource/Young_&amp;_Sick'], 'abstract': 'Foster the People is an American indie pop band formed in Los Angeles, California, in 2009. It currently consists of lead vocalist Mark Foster, lead guitarist Sean Cimino and keyboardist Isom Innis. Foster founded the band in 2009 after spending several years in Los Angeles as a struggling musician and working as a commercial jingle writer. After Foster\'s song "Pumped Up Kicks" became a viral success in 2010, the group received a record deal from Startime International and gained a fanbase through small club shows and appearances at music festivals. After releasing their debut album Torches in May 2011, "Pumped Up Kicks" became a crossover hit on commercial radio in mid-2011 and eventually reached number three on the Billboard Hot 100. The record also featured the singles "Helena Beat" and "Don\'t Stop (Color on the Walls)". The group received three Grammy Award nominations for Torches and "Pumped Up Kicks". After touring for two years in support of Torches, Foster the People released their second album, Supermodel, in March 2014. It was preceded by the lead single "Coming of Age". In July 2017, the band released their third studio album, Sacred Hearts Club, with the addition of Isom Innis and Sean Cimino, both former touring members, to the official lineup. From this album, their song "Sit Next to Me" peaked at number 42 on the Billboard Hot 100 and was certified double platinum by the RIAA.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Gwen_Stefani', 'artist_name': 'Gwen Stefani', 'wiki': 'http://en.wikipedia.org/wiki/Gwen_Stefani', 'birth_date': '03 October 1969', 'start_year': '1986', 'aliases': ['Gwen Shelton'], 'related_artists': ['http://dbpedia.org/resource/Andre_Lindal', 'http://dbpedia.org/resource/Anita_Antoinette', 'http://dbpedia.org/resource/Bedtime_for_Toys', 'http://dbpedia.org/resource/Bradley_Nowell', 'http://dbpedia.org/resource/Bud_Gaugh', 'http://dbpedia.org/resource/Elan_Atias', 'http://dbpedia.org/resource/Eric_Stefani', 'http://dbpedia.org/resource/Eric_Wilson_(bassist)', 'http://dbpedia.org/resource/Eva_Gardner', 'http://dbpedia.org/resource/Gail_Ann_Dorsey', 'http://dbpedia.org/resource/J._R._Rotem', 'http://dbpedia.org/resource/Kristopher_Pooley', 'http://dbpedia.org/resource/MC_Kinky', 'http://dbpedia.org/resource/Mad_Lion', 'http://dbpedia.org/resource/Makoto_Izumitani', 'http://dbpedia.org/resource/Nellee_Hooper', 'http://dbpedia.org/resource/Piers_Baron', 'http://dbpedia.org/resource/Raja_Kumari', 'http://dbpedia.org/resource/Simon_Gogerly', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Sublime_(band)', 'http://dbpedia.org/resource/Taylor_John_Williams', 'http://dbpedia.org/resource/Tim_Rice-Oxley', 'http://dbpedia.org/resource/Tom_Rothrock', 'http://dbpedia.org/resource/Tony_Kanal', 'http://dbpedia.org/resource/Viktor_Király'], 'abstract': 'Gwen Renée Stefani (/stəˈfɑːni/; born October 3, 1969) is an American singer and songwriter. She is a co-founder, lead vocalist, and the primary songwriter of the band No Doubt, whose singles include "Just a Girl", "Spiderwebs", and "Don\'t Speak", from their 1995 breakthrough studio album Tragic Kingdom, as well as "Hey Baby" and "It\'s My Life" from later albums. During the band\'s hiatus, Stefani embarked on a solo pop career in 2004 by releasing her debut studio album Love. Angel. Music. Baby. Inspired by pop music from the 1980s, the album was a critical and commercial success. It spawned six singles, including "What You Waiting For?", "Rich Girl", "Hollaback Girl", and "Cool". "Hollaback Girl" reached number one on the Billboard Hot 100 chart while also becoming the first US download to sell one million copies. In 2006, Stefani released her second studio album, The Sweet Escape. Among the singles were "Wind It Up" and "The Sweet Escape", the latter of which was number three on the Billboard Hot 100 year-end chart of 2007. Her third solo album, This Is What the Truth Feels Like (2016), was her first solo album to reach number one on the Billboard 200 chart. Her fourth solo album and first full-length Christmas-themed album, You Make It Feel Like Christmas, was released in 2017 and charted 19 tracks on Billboard\'s Holiday Digital Song Sales component chart in the United States. Stefani has released several singles with Blake Shelton, including "Nobody but You" (2020), which reached number 18 in the US. Stefani has won three Grammy Awards. As a solo artist, she has received an American Music Award, Brit Award, World Music Award, and two Billboard Music Awards. In 2003, she debuted her clothing line L.A.M.B. and expanded her collection with the 2005 Harajuku Lovers line, inspired by Japanese culture and fashion. Billboard magazine ranked Stefani the 54th most successful artist and 37th most successful Hot 100 artist of the 2000–2009 decade. VH1 ranked her 13th on their "100 Greatest Women in Music" list in 2012. Including her work with No Doubt, Stefani has sold more than 30 million albums worldwide.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Weather_Girls', 'artist_name': 'The Weather Girls', 'wiki': 'http://en.wikipedia.org/wiki/The_Weather_Girls', 'hometown': 'http://dbpedia.org/resource/San_Francisco', 'start_year': '1976', 'end_year': '1988', 'aliases': ['The Two Tons', "Two Tons O' Fun"], 'labels': ['http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Fantasy_Records'], 'genres': ['http://dbpedia.org/resource/Disco', 'http://dbpedia.org/resource/Hi-NRG', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Soul_music'], 'actual_members': ['*Dynelle Rhodes', '*Dorrey Lin Lyles', '*Joan Faulkner'], 'old_members': ['http://dbpedia.org/resource/Izora_Armstead', 'http://dbpedia.org/resource/Martha_Wash', '*Ingrid Arthur'], 'related_artists': ['http://dbpedia.org/resource/Izora_Armstead', 'http://dbpedia.org/resource/Jeanie_Tracy', 'http://dbpedia.org/resource/Martha_Wash', 'http://dbpedia.org/resource/Patrick_Cowley', 'http://dbpedia.org/resource/Paul_Jabara', 'http://dbpedia.org/resource/Sylvester_(singer)'], 'abstract': 'The Weather Girls are an American female duo whose best-known line-up comprised Martha Wash and Izora Armstead. Formed in 1976 in San Francisco, California, The Weather Girls members began their musical career as Two Tons O\' Fun, the female backup duo for disco singer Sylvester. After years of limited success singing background for Sylvester, the duo were signed in 1979 to Fantasy Records. The Weather Girls was launched into mainstream recognition following the release of their best-selling single, "It\'s Raining Men" (1982), which became their first number-one Dance song. Despite critical and commercial success, the duo struggled to repeat the success of "It\'s Raining Men" and ultimately disbanded after the release of their self-titled fifth album The Weather Girls in 1988. In 1991, Armstead reformed the duo with her daughter Dynelle Rhodes. Over the course of a decade, the duo released three albums: Double Tons of Fun (1993), Think Big!, and Puttin\' On The Hits (1999). In 2004, Armstead died and was replaced with Ingrid Arthur in 2005. Following the release of two albums Totally Wild! (2005) and The Woman I Am (2009), Arthur left the group and was replaced with Dorrey Lin Lyles in 2012. The group received a Grammy Award nomination for Best R&amp;B Performance By A Duo Or Group With Vocal in 1983.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Alan_Walker_(music_producer)', 'artist_name': 'Alan Walker', 'wiki': 'http://en.wikipedia.org/wiki/Alan_Walker_(music_producer)', 'hometown': 'http://dbpedia.org/resource/Norway', 'birth_date': '24 August 1997', 'start_year': '2012', 'aliases': ['DJ Walkzz'], 'labels': ['http://dbpedia.org/resource/Gunnar_Greve', 'http://dbpedia.org/resource/NoCopyrightSounds', 'http://dbpedia.org/resource/RCA_Records', 'http://dbpedia.org/resource/Sony_Music', 'http://dbpedia.org/resource/Ultra_Music'], 'genres': ['http://dbpedia.org/resource/Big_room_house', 'http://dbpedia.org/resource/Deep_house', 'http://dbpedia.org/resource/Electro_house', 'http://dbpedia.org/resource/Electronic_dance_music', 'http://dbpedia.org/resource/Future_bass', 'http://dbpedia.org/resource/Progressive_house', 'http://dbpedia.org/resource/Styles_of_house_music'], 'related_artists': ['http://dbpedia.org/resource/Alexandra_Rotan', 'http://dbpedia.org/resource/Au/Ra', 'http://dbpedia.org/resource/Farruko', 'http://dbpedia.org/resource/Iselin_Solheim', 'http://dbpedia.org/resource/Julie_Bergan', 'http://dbpedia.org/resource/K-391', 'http://dbpedia.org/resource/Kameron_Alexander', 'http://dbpedia.org/resource/Kygo', 'http://dbpedia.org/resource/Lost_Stories_(DJs)', 'http://dbpedia.org/resource/Martin_Tungevaag', 'http://dbpedia.org/resource/Mood_Melodies', 'http://dbpedia.org/resource/Sören_von_Malmborg'], 'abstract': 'Alan Olav Walker (born 24 August 1997) is a British-Norwegian DJ, YouTuber and record producer, primarily known for the critically acclaimed single "Faded" (2015), which was certified platinum in 14 countries. Other songs include "Sing Me to Sleep", "Alone", "Darkside", and "Routine", all of which attracted millions of views. In early 2017, Walker\'s channel emerged as the most subscribed YouTube channel registered in Norway, with then 4.5 million subscribers. He also had the most views of Norwegian creators with an approximate 10.8 billion views as of 17 November 2021.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Metro_Station_(band)', 'artist_name': 'Metro Station', 'wiki': 'http://en.wikipedia.org/wiki/Metro_Station_(band)', 'start_year': '2006', 'end_year': '2010', 'labels': ['http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/RED_Ink_Records'], 'genres': ['http://dbpedia.org/resource/Dance-punk', 'http://dbpedia.org/resource/Electronic_rock', 'http://dbpedia.org/resource/Pop-punk', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Synth-pop', 'pop punk'], 'actual_members': ['http://dbpedia.org/resource/Mason_Musso', 'http://dbpedia.org/resource/Trace_Cyrus', 'Spencer Steffan'], 'old_members': ['Blake Healy', 'Anthony Improgo', 'Kenny Bozich', 'Austin Sands', 'Cary White'], 'related_artists': ['http://dbpedia.org/resource/Blood_on_the_Dance_Floor_(band)', 'http://dbpedia.org/resource/Boys_Like_Girls', 'http://dbpedia.org/resource/Forever_the_Sickest_Kids', 'http://dbpedia.org/resource/Luis_Dubuc', 'http://dbpedia.org/resource/Mason_Musso', 'http://dbpedia.org/resource/PJ_Bianco', 'http://dbpedia.org/resource/Powerspace', 'http://dbpedia.org/resource/Ronnie_Radke', 'http://dbpedia.org/resource/The_Ready_Set', 'http://dbpedia.org/resource/William_Beckett_(singer)'], 'abstract': 'Metro Station is an American pop rock band that was formed in Los Angeles, California by singer Mason Musso and bassist/guitarist Trace Cyrus. In late 2006, the band signed a recording contract with Columbia Records and RED Ink Records. The band is best known for the top 10 Billboard hit single "Shake It" from the group\'s self-titled debut album. In 2010, tension between Cyrus and Musso caused the band to go on hiatus. In 2011, the band returned, however, it was announced that Cyrus was no longer a part of the group and Musso had purchased the rights to the name. An EP entitled Middle of the Night was released in 2013, which was led by the single "Every Time I Touch You". In 2014, Cyrus and a new drummer, Spencer Steffan, came to the band, and a new single entitled "Love &amp; War" was released. In 2015, the band released a second full-length album, titled Savior. After this, the band went on a U.S and European tour, announcing an EP called Bury Me My Love along with a U.S. 10-year anniversary tour. Just before the tour started, the band announced it would be their final tour and that they were breaking up. They reunited once again in 2019 and released the single "I Hate Society" in 2020. The band is often described as a scene pop band due to the members\' sense of fashion and the band\'s unique blend of various pop styles.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Desireless', 'artist_name': 'Desireless', 'wiki': 'http://en.wikipedia.org/wiki/Desireless', 'birth_date': '25 December 1952', 'start_year': '1986', 'end_year': '1986', 'labels': ['http://dbpedia.org/resource/Choice_Of_Music', 'http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Sony_Music', 'http://dbpedia.org/resource/Sony_Music_Latin', 'http://dbpedia.org/resource/Urgence_Disk'], 'plays_in': ["http://dbpedia.org/resource/Moscow_Pride_'06"], 'genres': ['http://dbpedia.org/resource/Eurodisco', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Synth-pop'], 'abstract': 'Claudie Fritsch-Mentrop (born 25 December 1952), known by her stage name Desireless (French pronunciation: \u200b[deziʁlɛs]), is a French singer. Between 1986 and 1988, her hit single "Voyage, voyage" made it to number one on many European and Asian single charts. According to her official website, Desireless still releases new albums and performs live, and she released a new album with Operation of the Sun (Antoine Aureche) accompanied by a worldwide tour from 2012 onward.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Michelle_Branch', 'artist_name': 'Michelle Branch', 'wiki': 'http://en.wikipedia.org/wiki/Michelle_Branch', 'birth_date': '02 July 1983', 'start_year': '1999', 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees'], 'related_artists': ['http://dbpedia.org/resource/Jeff_Trott', 'http://dbpedia.org/resource/Jessica_Harp', 'http://dbpedia.org/resource/Santana_(band)', 'http://dbpedia.org/resource/Steuart_Smith'], 'abstract': 'Michelle Jacquet DeSevren Branch (born July 2, 1983) is an American singer, songwriter, and actress. During the early 2000s, she released two top-selling albums: The Spirit Room and Hotel Paper. She won a Grammy Award for Best Pop Collaboration with Vocals with Santana for "The Game of Love". In 2005, she formed the country music duo the Wreckers with Jessica Harp, and produced the Grammy-nominated single "Leave the Pieces". The Wreckers disbanded in 2007 to pursue their respective solo careers. Since then, she has released extended plays in 2010 and 2011, and a third solo album, Hopeless Romantic, on April 7, 2017.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Irene_Cara', 'artist_name': 'Irene Cara', 'wiki': 'http://en.wikipedia.org/wiki/Irene_Cara', 'birth_date': '18 March 1959', 'related_artists': ['http://dbpedia.org/resource/Andrew_Lane_(record_producer)', 'http://dbpedia.org/resource/Danny_Sembello', 'http://dbpedia.org/resource/Giorgio_Moroder', 'http://dbpedia.org/resource/Vicki_Sue_Robinson'], 'abstract': 'Irene Cara Escalera (born March 18, 1959) known professionally as Irene Cara, is an American singer, songwriter, dancer, and actress. Cara sang and co-wrote the song "Flashdance... What a Feeling" (from the film Flashdance), for which she won an Academy Award for Best Original Song and a Grammy Award for Best Female Pop Vocal Performance in 1984. Cara is also known for playing the role of Coco Hernandez in the 1980 film Fame, and for recording the film\'s title song "Fame". Prior to her success with Fame, Cara portrayed the title character Sparkle Williams in the original 1976 musical drama film Sparkle.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Caesars_(band)', 'artist_name': 'Caesars', 'wiki': 'http://en.wikipedia.org/wiki/Caesars_(band)', 'genres': ['http://dbpedia.org/resource/Garage_rock', 'http://dbpedia.org/resource/Indie_rock'], 'actual_members': ['http://dbpedia.org/resource/Joakim_Åhlund', 'Nino Keller', 'César Vidal', 'David Lindquist'], 'old_members': ['Jens Örjenheim', 'Klas Åhlund'], 'related_artists': ['http://dbpedia.org/resource/Joakim_Åhlund', 'http://dbpedia.org/resource/Teddybears_(band)'], 'abstract': 'Caesars are a Swedish indie rock band from Stockholm, formed in 1995. In their native country, the band was originally known as Caesars Palace, a name which was changed to avoid conflicting with the name of the Las Vegas hotel. In the rest of Scandinavia they are known as Twelve Caesars.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Fergie_(singer)', 'artist_name': 'Fergie', 'wiki': 'http://en.wikipedia.org/wiki/Fergie_(singer)', 'birth_date': '27 March 1975', 'start_year': '1984', 'aliases': ['Fergie Duhamel'], 'related_artists': ['http://dbpedia.org/resource/Blac_Elvis', 'http://dbpedia.org/resource/Brandon_Bell_(record_producer)', 'http://dbpedia.org/resource/Bucky_Jonson', 'http://dbpedia.org/resource/George_Pajon', 'http://dbpedia.org/resource/GoonRock', 'http://dbpedia.org/resource/Kristine_Elezaj', 'http://dbpedia.org/resource/Renee_Sands', 'http://dbpedia.org/resource/Ryan_Riback', 'http://dbpedia.org/resource/Taboo_(rapper)'], 'abstract': 'Fergie Duhamel (/ˈfɜːrɡi dəˈmɛl/; born Stacy Ann Ferguson; March 27, 1975) is an American singer, songwriter, and actress. She first achieved chart success as part of the hip hop group the Black Eyed Peas. Her debut solo album, The Dutchess (2006), saw commercial success and spawned three Billboard Hot 100 number one singles: "London Bridge", "Glamorous", and "Big Girls Don\'t Cry". Although she vocally incorporates rapping into some of her performances, she does not consider herself a rapper. Fergie was originally a member of the children\'s television series Kids Incorporated and the girl group Wild Orchid. In 2001, she left the group and in the subsequent year joined the Black Eyed Peas. She worked with the Black Eyed Peas on two albums before releasing her debut solo album, The Dutchess, in 2006. She continued her collaboration with the Black Eyed Peas and released a further two albums with them, The E.N.D. (2009) and The Beginning (2010). Fergie began touring with her own group in 2009. Her second solo album, Double Dutchess, was released in 2017. Fergie has additionally appeared in a number of films including Poseidon (2006), Grindhouse (2007), and Nine (2009). She launched her first fragrance, Outspoken, under Avon in May 2010 and has since released four more fragrances.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Morrissey', 'artist_name': 'Morrissey', 'wiki': 'http://en.wikipedia.org/wiki/Morrissey', 'birth_date': '22 May 1959', 'start_year': '1976', 'labels': ['http://dbpedia.org/resource/Attack_Records', 'http://dbpedia.org/resource/BMG_Rights_Management', 'http://dbpedia.org/resource/Decca_Records', 'http://dbpedia.org/resource/Harvest_Records', "http://dbpedia.org/resource/His_Master's_Voice", 'http://dbpedia.org/resource/Island_Records', 'http://dbpedia.org/resource/Liberty_Records', 'http://dbpedia.org/resource/Major_Minor_Records', 'http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/Parlophone', 'http://dbpedia.org/resource/RCA_Records', 'http://dbpedia.org/resource/Reprise_Records', 'http://dbpedia.org/resource/Sanctuary_Records', 'http://dbpedia.org/resource/Sire_Records', 'http://dbpedia.org/resource/Universal_Music_Group_Nashville'], 'plays_in': ['http://dbpedia.org/resource/Morrissey:_25_Live'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Indie_pop', 'http://dbpedia.org/resource/Indie_rock', 'http://dbpedia.org/resource/Jangle_pop'], 'related_artists': ['http://dbpedia.org/resource/Alain_Whyte', 'http://dbpedia.org/resource/Andrew_McGibbon', 'http://dbpedia.org/resource/Andy_Rourke', 'http://dbpedia.org/resource/Boz_Boorer', 'http://dbpedia.org/resource/Bradford_(band)', 'http://dbpedia.org/resource/Craig_Gannon', 'http://dbpedia.org/resource/Damien_Dempsey', 'http://dbpedia.org/resource/Ennio_Morricone', 'http://dbpedia.org/resource/Gary_Day_(musician)', 'http://dbpedia.org/resource/Jesse_Tobias', 'http://dbpedia.org/resource/Johnny_Marr', 'http://dbpedia.org/resource/Kristeen_Young', 'http://dbpedia.org/resource/Kristopher_Pooley', 'http://dbpedia.org/resource/Mark_Bedford', 'http://dbpedia.org/resource/Matt_Walker_(drummer)', 'http://dbpedia.org/resource/Michael_Farrell_(musician)', 'http://dbpedia.org/resource/Mick_Ronson__Mick_Ronson__1', 'http://dbpedia.org/resource/Mike_Joyce_(musician)', 'http://dbpedia.org/resource/Slaughter_&amp;_the_Dogs', 'http://dbpedia.org/resource/Stephen_Hopkins_(musician)__Steve_Hopkins__1', 'http://dbpedia.org/resource/The_Nosebleeds', 'http://dbpedia.org/resource/The_Smiths', 'http://dbpedia.org/resource/Tony_Visconti', 'http://dbpedia.org/resource/Vini_Reilly'], 'abstract': "Steven Patrick Morrissey (/ˈmɒrɪsiː/; born 22 May 1959), known professionally as Morrissey, is an English singer, songwriter, and author. He came to prominence as the frontman of rock band the Smiths, who were active from 1982 to 1987. Since then, he has pursued a successful solo career. Morrissey's music is characterised by his baritone voice and distinctive lyrics with recurring themes of emotional isolation, sexual longing, self-deprecating and dark humour, and anti-establishment stances. Born to working-class Irish immigrants in Davyhulme, Lancashire, Morrissey grew up in nearby Manchester. As a child, he developed a love of literature, kitchen sink realism, and 1960s pop music. In the late 1970s, he fronted punk rock band the Nosebleeds with little success before beginning a career in music journalism and writing several books on music and film in the early 1980s. He formed the Smiths with Johnny Marr in 1982 and the band soon attracted national recognition for their eponymous debut album. As the band's frontman, Morrissey attracted attention for his trademark quiff and witty and sardonic lyrics. Deliberately avoiding rock machismo, he cultivated the image of a sexually ambiguous social outsider who embraced celibacy. The Smiths released three further studio albums—Meat Is Murder, The Queen Is Dead, and Strangeways, Here We Come—and had a string of hit singles. The band were critically acclaimed and attracted a cult following. Personal differences between Morrissey and Marr resulted in the separation of the Smiths in 1987. In 1988 Morrissey launched his solo career with Viva Hate. This album and its follow-ups—Kill Uncle, Your Arsenal, and Vauxhall and I—all did well on the UK Albums Chart and spawned multiple hit singles. He took on Alain Whyte and Boz Boorer as his main co-writers to replace Marr. During this time his image began to shift into that of a burlier figure who toyed with patriotic imagery and working-class masculinity. In the mid-to-late 1990s, his albums Southpaw Grammar and Maladjusted also charted but were less well received. Relocating to Los Angeles, he took a musical hiatus from 1998 to 2003 before releasing a successful comeback album, You Are the Quarry, in 2004. Ensuing years saw the release of albums Ringleader of the Tormentors, Years of Refusal, World Peace Is None of Your Business, Low in High School, California Son, and I Am Not a Dog on a Chain, as well as his autobiography and his debut novel, List of the Lost. Highly influential, Morrissey has been credited as a seminal figure in the emergence of indie rock and Britpop. In a 2006 poll for the BBC's Culture Show, Morrissey was voted the second-greatest living British cultural icon. His work has been the subject of academic study. He has been a controversial figure throughout his music career due to his forthright opinions and outspoken nature—endorsing vegetarianism and animal rights, criticising royalty and prominent politicians, including support of some far-right activists with regard to freedom of speech and British heritage, defending a particular vision of national identity while critiquing the effect of immigration on the UK."}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Peter_Tosh', 'artist_name': 'Peter Tosh', 'wiki': 'http://en.wikipedia.org/wiki/Peter_Tosh', 'birth_date': '19 October 1944', 'death_date': '11 September 1987', 'start_year': '1961', 'end_year': '1987', 'aliases': ['Stepping Razor'], 'labels': ['http://dbpedia.org/resource/JAD_Records'], 'genres': ['http://dbpedia.org/resource/Reggae', 'http://dbpedia.org/resource/Rhythm_and_blues', 'http://dbpedia.org/resource/Rocksteady', 'http://dbpedia.org/resource/Ska'], 'related_artists': ['http://dbpedia.org/resource/Al_Anderson_(musician)', 'http://dbpedia.org/resource/Aston_%22Family_Man%22_Barrett', 'http://dbpedia.org/resource/Aston_Barrett_Jr', 'http://dbpedia.org/resource/Bob_Marley', 'http://dbpedia.org/resource/Bob_Marley_and_the_Wailers', 'http://dbpedia.org/resource/Bunny_Wailer', 'http://dbpedia.org/resource/Carlton_%22Santa%22_Davis', 'http://dbpedia.org/resource/Judy_Mowatt', 'http://dbpedia.org/resource/Keith_Sterling', 'http://dbpedia.org/resource/Mick_Jagger', 'http://dbpedia.org/resource/Mikey_Chung', 'http://dbpedia.org/resource/Nadine_Sutherland', 'http://dbpedia.org/resource/Richard_Hall_(musician)', 'http://dbpedia.org/resource/Robbie_Lyn', 'http://dbpedia.org/resource/The_Tamlins', 'http://dbpedia.org/resource/Tyrone_Downie'], 'abstract': 'Peter Tosh, OM (born Winston Hubert McIntosh; 19 October\u200a 1944 – 11 September 1987) was a Jamaican reggae musician. Along with Bob Marley and Bunny Wailer, he was one of the core members of the band the Wailers (1963–1976), after which he established himself as a successful solo artist and a promoter of Rastafari. He was murdered in 1987 during a home invasion.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Fleetwood_Mac', 'artist_name': 'Fleetwood Mac', 'wiki': 'http://en.wikipedia.org/wiki/Fleetwood_Mac', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1997', 'labels': ['http://dbpedia.org/resource/Blue_Horizon_(record_label)', 'http://dbpedia.org/resource/Reprise_Records', 'http://dbpedia.org/resource/Warner_Records'], 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees', 'http://dbpedia.org/resource/Walking_with_Dinosaurs_(film)'], 'genres': ['http://dbpedia.org/resource/Art_pop', 'http://dbpedia.org/resource/Blues_rock', 'http://dbpedia.org/resource/British_blues', 'http://dbpedia.org/resource/Folk_rock', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Rock_music', 'http://dbpedia.org/resource/Soft_rock', 'Rock'], 'actual_members': ['http://dbpedia.org/resource/Christine_McVie', 'http://dbpedia.org/resource/John_McVie', 'http://dbpedia.org/resource/Mick_Fleetwood', 'http://dbpedia.org/resource/Mike_Campbell_(musician)', 'http://dbpedia.org/resource/Neil_Finn', 'http://dbpedia.org/resource/Stevie_Nicks'], 'old_members': ['http://dbpedia.org/resource/Bekka_Bramlett', 'http://dbpedia.org/resource/Billy_Burnette', 'http://dbpedia.org/resource/Bob_Brunning', 'http://dbpedia.org/resource/Bob_Welch_(musician)', 'http://dbpedia.org/resource/Bob_Weston_(guitarist)', 'http://dbpedia.org/resource/Danny_Kirwan', 'http://dbpedia.org/resource/Dave_Mason', 'http://dbpedia.org/resource/Dave_Walker', 'http://dbpedia.org/resource/Jeremy_Spencer', 'http://dbpedia.org/resource/Lindsey_Buckingham', 'http://dbpedia.org/resource/Peter_Green_(musician)', 'http://dbpedia.org/resource/Rick_Vito'], 'related_artists': ['http://dbpedia.org/resource/Bekka_&amp;_Billy', 'http://dbpedia.org/resource/Buckingham_Nicks', 'http://dbpedia.org/resource/Duster_Bennett', 'http://dbpedia.org/resource/Eddie_Boyd', 'http://dbpedia.org/resource/John_Mayall_&amp;_the_Bluesbreakers', 'http://dbpedia.org/resource/Lindsey_Buckingham_Christine_McVie', 'http://dbpedia.org/resource/Tramp_(band)'], 'abstract': 'Fleetwood Mac are a British-American rock band, formed in London in 1967. Fleetwood Mac were founded by guitarist Peter Green, drummer Mick Fleetwood and guitarist Jeremy Spencer, before bassist John McVie joined the line-up for their self-titled debut album. Danny Kirwan joined as a third guitarist in 1968. Keyboardist and vocalist Christine Perfect, who contributed as a session musician from the second album, married McVie and joined in 1970. Primarily a British blues band at first, Fleetwood Mac scored a UK number one with "Albatross", and had other hits such as the singles "Oh Well" and "Man of the World". All three guitarists left in succession during the early 1970s, to be replaced by guitarists Bob Welch and Bob Weston and vocalist Dave Walker. By 1974, Welch, Weston and Walker had all either departed or been dismissed, leaving the band without a male lead vocalist or guitarist. In late 1974, while Fleetwood was scouting studios in Los Angeles, he heard American folk-rock duo Lindsey Buckingham and Stevie Nicks, and asked Buckingham to be their new lead guitarist, and Buckingham agreed on condition that Nicks could also join the band. The addition of Buckingham and Nicks gave the band a more pop rock sound, and their 1975 self-titled album, Fleetwood Mac, reached No. 1 in the United States. Rumours (1977), Fleetwood Mac\'s second album after the arrival of Buckingham and Nicks, produced four U.S. Top 10 singles and remained at number one on the American albums chart for 31 weeks. It also reached the top spot in countries around the world and won a Grammy Award for Album of the Year in 1978. Rumours has sold over 40 million copies worldwide, making it one of the best-selling albums in history. Although each member of the band went through a breakup (John and Christine McVie, Buckingham and Nicks, and Fleetwood and his wife Jenny) while recording the album, they continued to write and record music together. The band\'s personnel remained stable through three more studio albums, but by the late 1980s began to disintegrate. After Buckingham and Nicks each left the band, they were replaced by a number of other guitarists and vocalists. A 1993 one-off performance for the first inauguration of Bill Clinton featured the line-up of Fleetwood, John McVie, Christine McVie, Nicks, and Buckingham back together for the first time in six years. A full reunion occurred four years later, and the group released their fourth U.S. No. 1 album, The Dance (1997), a live compilation of their hits, also marking the 20th anniversary of Rumours. Christine McVie left the band in 1998, but continued to work with the band in a session capacity. Meanwhile, the group remained together as a four-piece, releasing their most recent studio album, Say You Will, in 2003. Christine McVie rejoined the band full-time in 2014. In 2018, Buckingham was fired from the band and was replaced by Mike Campbell, formerly of Tom Petty and the Heartbreakers, and Neil Finn of Split Enz and Crowded House. Fleetwood Mac have sold more than 120 million records worldwide, making them one of the world\'s best-selling bands. In 1979, the group were honoured with a star on the Hollywood Walk of Fame. In 1998 the band were inducted into the Rock and Roll Hall of Fame and received the Brit Award for Outstanding Contribution to Music. In 2018, the band received the MusiCares Person of the Year award by The Recording Academy in recognition of their artistic achievement in the music industry and dedication to philanthropy.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Steve_Aoki', 'artist_name': 'Steve Aoki', 'wiki': 'http://en.wikipedia.org/wiki/Steve_Aoki', 'hometown': 'http://dbpedia.org/resource/Newport_Beach,_California', 'birth_date': '30 November 1977', 'start_year': '1996', 'labels': ['http://dbpedia.org/resource/Dim_Mak_Records', 'http://dbpedia.org/resource/Ministry_of_Sound', "http://dbpedia.org/resource/Spinnin'_Records", 'http://dbpedia.org/resource/Ultra_Music'], 'genres': ['http://dbpedia.org/resource/Big_room_house', 'http://dbpedia.org/resource/Electro_house', 'http://dbpedia.org/resource/Electronic_dance_music', 'http://dbpedia.org/resource/Trap_music_(EDM)'], 'related_artists': ['http://dbpedia.org/resource/3_Are_Legend', 'http://dbpedia.org/resource/Alex_James_(songwriter)__Alex_James__1', 'http://dbpedia.org/resource/Angger_Dimas', 'http://dbpedia.org/resource/Annika_Wells__Annika_Wells__1', 'http://dbpedia.org/resource/BTS', 'http://dbpedia.org/resource/Bad_Royale', 'http://dbpedia.org/resource/Carnage_(DJ)', 'http://dbpedia.org/resource/Congorock', 'http://dbpedia.org/resource/Deorro', 'http://dbpedia.org/resource/Dzeko_&amp;_Torres', 'http://dbpedia.org/resource/Felix_Cartal', 'http://dbpedia.org/resource/Felix_Jaehn', 'http://dbpedia.org/resource/Foreign_Born', 'http://dbpedia.org/resource/Funkin_Matt', 'http://dbpedia.org/resource/Gazzo_(producer)', 'http://dbpedia.org/resource/Glowinthedark', 'http://dbpedia.org/resource/Headhunterz', 'http://dbpedia.org/resource/Infected_Mushroom', 'http://dbpedia.org/resource/Jayceeoh', 'http://dbpedia.org/resource/Josh_Stevens', 'http://dbpedia.org/resource/Kay_(singer)', 'http://dbpedia.org/resource/Kryoman', 'http://dbpedia.org/resource/Laidback_Luke', 'http://dbpedia.org/resource/Larry_Tee', 'http://dbpedia.org/resource/Lawrence_Vavra', 'http://dbpedia.org/resource/Lil_Jon', 'http://dbpedia.org/resource/Linkin_Park', 'http://dbpedia.org/resource/Linkin_Park__Linkin_Park__1', 'http://dbpedia.org/resource/Luke_Steele_(musician)', 'http://dbpedia.org/resource/Ming_(DJ)', 'http://dbpedia.org/resource/Moxie_Raia', 'http://dbpedia.org/resource/Nicholas_Furlong_(musician)', 'http://dbpedia.org/resource/The_Bloody_Beetroots', 'http://dbpedia.org/resource/The_Willowz', 'http://dbpedia.org/resource/Tiësto', 'http://dbpedia.org/resource/Travis_Barker', 'http://dbpedia.org/resource/Valentino_Khan', 'http://dbpedia.org/resource/Vini_Vici_(Psytrance_duo)', 'http://dbpedia.org/resource/W&amp;W', 'http://dbpedia.org/resource/Walk_the_Moon', 'http://dbpedia.org/resource/Will.i.am', 'http://dbpedia.org/resource/Yellow_Claw_(DJs)'], 'abstract': "Steven Hiroyuki Aoki (/eɪˈoʊki/; Japanese: スティーヴン・ヒロユキ・アオキ) (born November 30, 1977) is an American DJ, record producer, music programmer, record executive, and heir to his father Rocky Aoki's fortune from the Benihana restaurant franchise. In 2012, Pollstar designated Aoki as the highest grossing electronic dance music artist in North America from tours. He has collaborated with artists such as will.i.am, Afrojack, LMFAO, Linkin Park, Iggy Azalea, Lil Jon, blink-182, Laidback Luke, BTS, Monsta X, Louis Tomlinson, Backstreet Boys, Rise Against, Vini Vici, Lauren Jauregui, and Fall Out Boy and is known for his remixes of artists such as Kid Cudi. Aoki has released several Billboard-charting studio albums as well, notably Wonderland, which was nominated for Grammy Award for Best Dance/Electronica Album in 2013. He is the founder of the Steve Aoki Charitable Fund, which raises money for global humanitarian relief organizations. In 2019, Aoki published a memoir, Blue: The Color of Noise."}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Knife_Party', 'artist_name': 'Knife Party', 'wiki': 'http://en.wikipedia.org/wiki/Knife_Party', 'hometown': 'http://dbpedia.org/resource/Western_Australia', 'start_year': '2011', 'labels': ['http://dbpedia.org/resource/Big_Beat_Records_(American_record_label)', 'http://dbpedia.org/resource/Monstercat', 'http://dbpedia.org/resource/Warner_Records'], 'genres': ['http://dbpedia.org/resource/Drum_and_bass', 'http://dbpedia.org/resource/Dubstep', 'http://dbpedia.org/resource/Electro_house', 'drumstep', 'complextro'], 'actual_members': ['http://dbpedia.org/resource/Pendulum_(Australian_band)', 'http://dbpedia.org/resource/Rob_Swire', 'Gareth McGrillen'], 'related_artists': ['http://dbpedia.org/resource/Brass_Knuckles_(band)', 'http://dbpedia.org/resource/Foreign_Beggars', 'http://dbpedia.org/resource/Pegboard_Nerds', 'http://dbpedia.org/resource/Pendulum_(Australian_band)', 'http://dbpedia.org/resource/Raja_Kumari', 'http://dbpedia.org/resource/Rob_Swire', 'http://dbpedia.org/resource/ShockOne', 'http://dbpedia.org/resource/Skrillex', 'http://dbpedia.org/resource/Swedish_House_Mafia', 'http://dbpedia.org/resource/The_Nightwatchman', 'http://dbpedia.org/resource/The_Zombie_Kids', 'http://dbpedia.org/resource/Tom_Staar'], 'abstract': "Knife Party is an Australian electronic music duo consisting of Rob Swire and Gareth McGrillen, two members of the drum and bass band Pendulum. The duo has worked with artists such as Swedish House Mafia, Steve Aoki, MistaJam, Foreign Beggars, I See MONSTAS, Tom Staar, Pegboard Nerds and Tom Morello. Knife Party peaked at 23rd on DJMag's 2013 Top 100 DJs rankings."}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Samantha_Fox', 'artist_name': 'Samantha Fox', 'wiki': 'http://en.wikipedia.org/wiki/Samantha_Fox', 'birth_date': '15 April 1966', 'start_year': '1986', 'aliases': ['Sam Fox'], 'labels': ['http://dbpedia.org/resource/Jive_Records', 'http://dbpedia.org/resource/Sony_Music'], 'genres': ['http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Eurobeat', 'http://dbpedia.org/resource/Hi-NRG', 'http://dbpedia.org/resource/House_music', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Soft_rock'], 'related_artists': ['http://dbpedia.org/resource/Full_Force', 'http://dbpedia.org/resource/Günther_(singer)', 'http://dbpedia.org/resource/Marc_Mysterio', 'http://dbpedia.org/resource/Sabrina_Salerno', 'http://dbpedia.org/resource/Stock_Aitken_Waterman'], 'abstract': 'Samantha Karen Fox (born 15 April 1966) is an English singer and former glamour model. In 1983, at age 16, she began appearing as a topless model on Page 3 of British tabloid newspaper The Sun, and continued as a Page 3 girl until 1986. During this time, Fox became the most popular pin-up girl of her era, as well as one of the most photographed British women of the 1980s. In 1986, she launched a pop music career with her debut single "Touch Me (I Want Your Body)", which peaked at number one in 17 countries, and became the first of her three top 10 singles on the UK Singles Chart. Fox also had three songs reach the top 10 on the US Billboard Hot 100: "Touch Me (I Want Your Body)", "Naughty Girls (Need Love Too)" and "I Wanna Have Some Fun". In 1988, Fox received a Brit Award nomination for Best British Female Artist. She has also appeared in a number of films and reality television shows, and has occasionally worked as a television presenter.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Fountains_of_Wayne', 'artist_name': 'Fountains of Wayne', 'wiki': 'http://en.wikipedia.org/wiki/Fountains_of_Wayne', 'hometown': 'http://dbpedia.org/resource/New_York_(state)', 'start_year': '1995', 'end_year': '2013', 'labels': ['http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/S-Curve_Records', 'http://dbpedia.org/resource/Scratchie_Records', 'http://dbpedia.org/resource/Virgin_Records', 'http://dbpedia.org/resource/Yep_Roc_Records'], 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Geek_rock', 'http://dbpedia.org/resource/Indie_pop', 'http://dbpedia.org/resource/Pop-punk', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Power_pop', 'pop punk'], 'old_members': ['http://dbpedia.org/resource/Adam_Schlesinger', 'http://dbpedia.org/resource/Brian_Young_(drummer)', 'http://dbpedia.org/resource/Chris_Collingwood', 'http://dbpedia.org/resource/Jody_Porter'], 'related_artists': ['http://dbpedia.org/resource/Brian_Young_(drummer)', 'http://dbpedia.org/resource/Chris_Collingwood', 'http://dbpedia.org/resource/Danny_Weinkauf', 'http://dbpedia.org/resource/Fever_High', 'http://dbpedia.org/resource/Ivy_(band)', 'http://dbpedia.org/resource/Jody_Porter', 'http://dbpedia.org/resource/The_Genuine_Fakes', 'http://dbpedia.org/resource/The_Jesus_and_Mary_Chain', 'http://dbpedia.org/resource/The_Monkees', 'http://dbpedia.org/resource/The_Posies', 'http://dbpedia.org/resource/Tinted_Windows_(band)'], 'abstract': 'Fountains of Wayne was an American rock band that formed in New York City in 1995. The band consisted of Chris Collingwood, Adam Schlesinger, Jody Porter, and Brian Young. Their 2003 single "Stacy\'s Mom" was certified gold by the Recording Industry Association of America and was nominated for Best Vocal Pop Performance at the 2004 Grammys. The band effectively disbanded in 2013. Schlesinger died of complications from COVID-19 on April 1, 2020, and the surviving members of Fountains of Wayne reunited to perform an online one-shot concert as a tribute to Schlesinger on April 22, 2020.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Marilyn_Manson_(band)', 'artist_name': 'Marilyn Manson', 'wiki': 'http://en.wikipedia.org/wiki/Marilyn_Manson_(band)', 'hometown': 'http://dbpedia.org/resource/Fort_Lauderdale,_Florida', 'start_year': '1989', 'aliases': ['Marilyn Manson &amp; the Spooky Kids (1989–1993)'], 'labels': ['http://dbpedia.org/resource/Concord_Music_Group', 'http://dbpedia.org/resource/Cooking_Vinyl', 'http://dbpedia.org/resource/Hell,_etc._(label)', 'http://dbpedia.org/resource/Interscope_Records', 'http://dbpedia.org/resource/Loma_Vista_Recordings', 'http://dbpedia.org/resource/Nothing_Records', 'http://dbpedia.org/resource/Virgin_Music_Label_&amp;_Artist_Services'], 'plays_in': ['http://dbpedia.org/resource/Private_Parts_(1997_film)'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Industrial_metal', 'http://dbpedia.org/resource/Industrial_rock', 'http://dbpedia.org/resource/Shock_rock'], 'actual_members': ['http://dbpedia.org/resource/Juan_Alderete', 'http://dbpedia.org/resource/Marilyn_Manson', 'http://dbpedia.org/resource/Tim_Skold', 'Brandon Pertzborn', 'Paul Wiley', 'Tim Sköld'], 'old_members': ['http://dbpedia.org/resource/Chris_Vrenna', 'http://dbpedia.org/resource/Fred_Sablan', 'http://dbpedia.org/resource/Gidget_Gein', 'http://dbpedia.org/resource/Gil_Sharone', 'http://dbpedia.org/resource/Ginger_Fish', 'http://dbpedia.org/resource/John_5_(guitarist)', 'http://dbpedia.org/resource/Madonna_Wayne_Gacy', 'http://dbpedia.org/resource/Olivia_Newton_Bundy', 'http://dbpedia.org/resource/Sara_Lee_Lucas', 'http://dbpedia.org/resource/Scott_Putesky', 'http://dbpedia.org/resource/Twiggy_Ramirez', 'http://dbpedia.org/resource/Tyler_Bates', 'http://dbpedia.org/resource/Zim_Zum', 'Daisy Berkowitz', 'Zsa Zsa Speck'], 'related_artists': ['http://dbpedia.org/resource/Godhead_(band)', 'http://dbpedia.org/resource/Jack_Off_Jill', 'http://dbpedia.org/resource/Nine_Inch_Nails', 'http://dbpedia.org/resource/Rasputina_(band)', 'http://dbpedia.org/resource/Rob_Zombie', 'http://dbpedia.org/resource/Shooter_Jennings'], 'abstract': 'Marilyn Manson is an American rock band formed by namesake lead singer Marilyn Manson and guitarist Daisy Berkowitz in Fort Lauderdale, Florida, in 1989. Originally named Marilyn Manson &amp; the Spooky Kids, they gained a local cult following in South Florida in the early 1990s with their theatrical live performances. In 1993, they were the first act signed to Trent Reznor\'s Nothing Records label. Until 1996, the name of each member was created by combining the first name of a female sex symbol and the last name of a serial killer, for example Marilyn Monroe and Charles Manson. Their lineup has changed between many of their album releases; the eponymous lead singer is the only remaining original member. In the past, band members dressed in outlandish makeup and costumes, and engaged in intentionally shocking behavior both onstage and off. Their lyrics often received criticism for their anti-religious sentiment and references to sex, violence and drugs, while their live performances were frequently called offensive and obscene. On several occasions, protests and petitions led to the group being blocked from performing, with at least three US states passing legislation banning the group from performing at state-owned venues. They released a number of platinum-selling albums, including Antichrist Superstar (1996) and Mechanical Animals (1998). These albums, along with their highly stylized music videos and worldwide touring, brought public recognition to Marilyn Manson. In 1999, news media, infamously, falsely blamed the band for influencing the perpetrators of the Columbine High School massacre. As this controversy began to wane throughout the 2000s, so did the band\'s mainstream popularity. Despite this, Jon Wiederhorn of MTV, in June 2003, referred to Marilyn Manson as "the only true artist today". Marilyn Manson is widely regarded as being one of the most iconic and controversial figures in rock music, with the band and its lead singer influencing numerous other groups and musicians, both in metal-associated acts and also in wider popular culture. VH1 ranked Marilyn Manson as the seventy-eighth best rock band on their 100 Great Artists of Hard Rock. They were inducted into the Kerrang! Hall of Fame in 2000, and have been nominated for four Grammy Awards. In the U.S., the band has seen ten of its releases debut in the top ten, including two number-one albums. Marilyn Manson have sold in excess of 50 million records worldwide.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/La_Bouche', 'artist_name': 'La Bouche', 'wiki': 'http://en.wikipedia.org/wiki/La_Bouche', 'hometown': 'http://dbpedia.org/resource/Frankfurt', 'start_year': '1994', 'end_year': '2002', 'labels': ['http://dbpedia.org/resource/Bertelsmann_Music_Group', 'http://dbpedia.org/resource/RCA_Records'], 'genres': ['http://dbpedia.org/resource/Eurodance', 'http://dbpedia.org/resource/House_music'], 'actual_members': ['http://dbpedia.org/resource/Lane_McCray', 'https://mystiqua.godaddysites.com', 'Tímea Kullai'], 'old_members': ['http://dbpedia.org/resource/Kayo_Shekoni', 'http://dbpedia.org/resource/Melanie_Thornton'], 'related_artists': ['http://dbpedia.org/resource/Felix_Weber_(songwriter)', 'http://dbpedia.org/resource/Frank_Farian__Frank_Farian__1', 'http://dbpedia.org/resource/Jaya_Sri', 'http://dbpedia.org/resource/Lane_McCray', 'http://dbpedia.org/resource/Le_Click', 'http://dbpedia.org/resource/Mary_Susan_Applegate'], 'abstract': 'La Bouche (French for "The Mouth", pronounced [la buʃ]) is a German electronic dance music duo best known for the hits "Be My Lover", "Sweet Dreams", "You Won\'t Forget Me" and "Tonight is the Night". La Bouche was founded in 1994 by record producer Frank Farian in Frankfurt am Main. He worked together with techno DJ Ulli Brenner and producer Amir Saraf to produce the music, while American singer Melanie Thornton and American rapper-singer Lane McCray fronted the act. Thornton and McCray had already worked together in music, prior to La Bouche\'s creation. Thornton departed La Bouche in 2000, continuing her career as a solo singer. On November 24, 2001, Melanie Thornton died in the Crossair Flight 3597 crash in Zürich, Switzerland. As a tribute to the singer, Farian released "In Your Life", a previously unreleased song featuring vocals recorded earlier with Thornton and McCray. Farian later decided to release a compilation album in 2002 featuring remixes of Thornton\'s biggest La Bouche hits. McCray continues to tour the world as La Bouche, keeping the brand alive. In 2015, McCray pulled Hungarian-born singer Sophie Cairo out of obscurity to be the new official singer of the act. A new official remix titled "Sweet Dreams 2017" was released featuring vocals from McCray and Cairo.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Eurythmics', 'artist_name': 'Eurythmics', 'wiki': 'http://en.wikipedia.org/wiki/Eurythmics', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1980', 'end_year': '1990', 'labels': ['http://dbpedia.org/resource/Arista_Records', 'http://dbpedia.org/resource/RCA_Records', 'http://dbpedia.org/resource/Sony_BMG'], 'plays_in': ['http://dbpedia.org/resource/Framed_Youth:_The_Revenge_of_the_Teenage_Perverts', 'http://dbpedia.org/resource/Nineteen_Eighty-Four_(1984_film)'], 'genres': ['http://dbpedia.org/resource/Dance-rock', 'http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Synth-pop', 'new wave'], 'old_members': ['http://dbpedia.org/resource/Annie_Lennox', 'http://dbpedia.org/resource/Dave_Stewart_(musician_and_producer)'], 'related_artists': ['http://dbpedia.org/resource/Amanda_Kramer', 'http://dbpedia.org/resource/Annie_Lennox', 'http://dbpedia.org/resource/Chucho_Merchán', 'http://dbpedia.org/resource/Clem_Burke', 'http://dbpedia.org/resource/Conny_Plank', 'http://dbpedia.org/resource/Curve_(band)', 'http://dbpedia.org/resource/Dave_Stewart_(musician_and_producer)', 'http://dbpedia.org/resource/Dean_Garcia', 'http://dbpedia.org/resource/Dick_Cuthell', 'http://dbpedia.org/resource/Jaki_Liebezeit', 'http://dbpedia.org/resource/Jeremy_Stacey', 'http://dbpedia.org/resource/John_McKenzie_(musician)', 'http://dbpedia.org/resource/Joniece_Jamison', 'http://dbpedia.org/resource/Maggie_Ryder', 'http://dbpedia.org/resource/Olle_Romo', 'http://dbpedia.org/resource/Pete_Phipps', 'http://dbpedia.org/resource/SuperHeavy', 'http://dbpedia.org/resource/The_Tourists', 'http://dbpedia.org/resource/Vegas_(duo)'], 'abstract': 'Eurythmics were a British pop duo consisting of members Annie Lennox and Dave Stewart. Stewart and Lennox were both previously in The Tourists, a band which broke up in 1980; Eurythmics were formed later that year in Wagga Wagga, Australia. The duo released their first studio album, In the Garden, in 1981 to little success, but went on to achieve global success when their second album Sweet Dreams (Are Made of This), was released in 1983. The title track became a worldwide hit which topped the charts in various countries including the US. The duo went on to release a string of hit singles and albums before they split up in 1990. By this time, Stewart was a sought-after record producer, while Lennox began a solo recording career in 1992 with her debut album Diva. After almost a decade apart, Eurythmics reunited to record their ninth album, Peace, released in late 1999. They reunited again in 2005 to release the single "I\'ve Got a Life", as part of a new Eurythmics compilation album, Ultimate Collection. The duo have won an MTV Video Music Award for Best New Artist in 1984, the Grammy Award for Best Rock Performance by a Duo or Group with Vocal in 1987, the Brit Award for Outstanding Contribution to Music in 1999, and in 2005 were inducted into the UK Music Hall of Fame. The Eurythmics have sold an estimated 75 million records worldwide. In 2017, the group was nominated for induction into the Rock &amp; Roll Hall of Fame, and were nominated again in 2018.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/BodyRockers', 'artist_name': 'BodyRockers', 'wiki': 'http://en.wikipedia.org/wiki/BodyRockers', 'hometown': 'http://dbpedia.org/resource/England', 'start_year': '2004', 'end_year': '2007', 'labels': ['http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/Universal_Music_Group'], 'genres': ['http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Dance-rock', 'http://dbpedia.org/resource/Electronic_music', 'http://dbpedia.org/resource/Electronic_rock', 'http://dbpedia.org/resource/House_music'], 'old_members': ['http://dbpedia.org/resource/Kaz_James', 'Dylan Burns'], 'abstract': 'BodyRockers were an English–Australian electronic music duo, consisting of Dylan Burns and Kaz James, which formed in 2004. Their 2005 single, "I Like the Way", reached No. 3 on the United Kingdom Singles Chart, No. 12 on the Australian ARIA Singles Chart, and the Top 20 on both the United States Billboard Hot Dance Club Play and Hot Dance Airplay Charts. They issued a self-titled album that year and toured internationally in support of its release. Although they recorded material for a second album it was not issued and the group disbanded in 2007 with both Burns and James pursuing solo careers.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Franz_Ferdinand_(band)', 'artist_name': 'Franz Ferdinand', 'wiki': 'http://en.wikipedia.org/wiki/Franz_Ferdinand_(band)', 'hometown': 'http://dbpedia.org/resource/Glasgow', 'start_year': '2002', 'labels': ['http://dbpedia.org/resource/Domino_Recording_Company'], 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees'], 'genres': ['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Dance-punk', 'http://dbpedia.org/resource/Dance-rock', 'http://dbpedia.org/resource/Indie_rock', 'http://dbpedia.org/resource/Post-punk_revival'], 'actual_members': ['http://dbpedia.org/resource/Alex_Kapranos', 'http://dbpedia.org/resource/Bob_Hardy_(bassist)', 'http://dbpedia.org/resource/Dino_Bardot', 'http://dbpedia.org/resource/Miaoux_Miaoux', 'Audrey Tait', 'Julian Corrie'], 'old_members': ['http://dbpedia.org/resource/Nick_McCarthy', 'http://dbpedia.org/resource/Paul_Thomson'], 'related_artists': ['http://dbpedia.org/resource/Alex_Kapranos', 'http://dbpedia.org/resource/Andy_Knowles', 'http://dbpedia.org/resource/BNQT', 'http://dbpedia.org/resource/Björn_Yttling', 'http://dbpedia.org/resource/Bob_Hardy_(bassist)', 'http://dbpedia.org/resource/Cenzo_Townshend', 'http://dbpedia.org/resource/Dan_Carey_(record_producer)', 'http://dbpedia.org/resource/Dino_Bardot', 'http://dbpedia.org/resource/Embryo_(band)', 'http://dbpedia.org/resource/FFS_(band)', 'http://dbpedia.org/resource/LCD_Soundsystem', 'http://dbpedia.org/resource/Miaoux_Miaoux', 'http://dbpedia.org/resource/Nick_McCarthy', 'http://dbpedia.org/resource/Paul_Thomson', 'http://dbpedia.org/resource/Ron_Mael', 'http://dbpedia.org/resource/Russell_Mael', 'http://dbpedia.org/resource/Scatter_(band)', 'http://dbpedia.org/resource/Sparks_(band)', 'http://dbpedia.org/resource/The_Karelia', 'http://dbpedia.org/resource/The_Yummy_Fur', 'http://dbpedia.org/resource/Todd_Terje'], 'abstract': 'Franz Ferdinand are a Scottish rock band formed in Glasgow in 2002. The band\'s original line-up was composed of Alex Kapranos (lead vocals, lead guitar, keyboards), Nick McCarthy (rhythm guitar, keyboards, backing vocals), Bob Hardy (bass guitar), and Paul Thomson (drums, percussion, backing vocals). Julian Corrie (keyboards, lead guitar, backing vocals) and Dino Bardot (rhythm guitar, backing vocals) joined the band in 2017 after McCarthy left during the previous year, and Audrey Tait (drums) joined the band after Thomson left in 2021. The band is one of the more popular post-punk revival bands, garnering multiple UK top 20 hits. They have been nominated for several Grammy Awards and have received two Brit Awards – winning one for Best British Group – as well as one NME Award. The band\'s first two singles, "Darts of Pleasure" and "Take Me Out", peaked within the top 50 on the UK Singles Chart. "Take Me Out" charted in several countries and earned a Grammy nomination for Best Rock Performance by a Duo or Group with Vocal; it became the band\'s signature song. Their self-titled debut studio album won the 2004 Mercury Prize and earned a Grammy nomination for Best Alternative Album. In 2005, the band released their second studio album, You Could Have It So Much Better, produced by Rich Costey. It peaked within the top-ten in multiple countries and earned Grammy-nominations for Best Alternative Album and for one of the singles, "Do You Want To". The band\'s third studio album, Tonight: Franz Ferdinand, was released in January 2009; by then the band had shifted from a post-punk-focused sound to a more dance-oriented sound. A remix album of Tonight, titled Blood, was released in July 2009. Four years after the release of Tonight, the band released their fourth studio album, Right Thoughts, Right Words, Right Action, in August 2013. In 2015, Franz Ferdinand and American rock band Sparks formed the supergroup FFS and released a one-off self-titled album in June 2015. Following the departure of McCarthy, the band released their fifth studio album, Always Ascending, in February 2018.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Sean_Paul', 'artist_name': 'Sean Paul', 'wiki': 'http://en.wikipedia.org/wiki/Sean_Paul', 'birth_date': '09 January 1973', 'start_year': '1994', 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees'], 'related_artists': ['http://dbpedia.org/resource/Alexis_Jordan', 'http://dbpedia.org/resource/Amara_La_Negra', 'http://dbpedia.org/resource/Ammar_Malik', 'http://dbpedia.org/resource/Arif_Cooper', 'http://dbpedia.org/resource/Banx_&amp;_Ranx', 'http://dbpedia.org/resource/Beau_Vallis_(singer)', 'http://dbpedia.org/resource/Benny_Blanco', 'http://dbpedia.org/resource/Blackout_(musician)', 'http://dbpedia.org/resource/Brian_and_Tony_Gold', 'http://dbpedia.org/resource/Bynon', "http://dbpedia.org/resource/Ce'cile", 'http://dbpedia.org/resource/Clean_Bandit', 'http://dbpedia.org/resource/DJ_Shadow_Dubai', 'http://dbpedia.org/resource/Di_Genius', 'http://dbpedia.org/resource/Don_Yute', 'http://dbpedia.org/resource/Emily_Warren', 'http://dbpedia.org/resource/Fuse_ODG', 'http://dbpedia.org/resource/GoonRock', 'http://dbpedia.org/resource/Iakopo', 'http://dbpedia.org/resource/Jimmy_Cozier', 'http://dbpedia.org/resource/Jr_Blender', 'http://dbpedia.org/resource/Jully_Black', 'http://dbpedia.org/resource/Lucenzo', 'http://dbpedia.org/resource/Matt_Terry', 'http://dbpedia.org/resource/Michael_James_Down', 'http://dbpedia.org/resource/Ms._Triniti', 'http://dbpedia.org/resource/Nina_Sky', 'http://dbpedia.org/resource/Ricky_Blaze', 'http://dbpedia.org/resource/Sasha_(Jamaican_musician)', 'http://dbpedia.org/resource/StayBent_Krunk-a-Delic', 'http://dbpedia.org/resource/Stefflon_Don__Stefflon_Don__1', 'http://dbpedia.org/resource/Steven_%22Lenky%22_Marsden', 'http://dbpedia.org/resource/Stonebwoy', 'http://dbpedia.org/resource/Tainy', 'http://dbpedia.org/resource/Tal_(singer)', 'http://dbpedia.org/resource/Tony_Touch', 'http://dbpedia.org/resource/Valentino_Khan', 'http://dbpedia.org/resource/Yendry'], 'abstract': 'Sean Paul Ryan Francis Henriques OD (born 9 January 1973) is a Jamaican dancehall recording artist, singer, songwriter, and producer, who is regarded as one of the genre\'s most prolific artists. Paul\'s singles "Get Busy" and "Temperature" topped the Billboard Hot 100 chart in the United States and most of his albums have been nominated for the Grammy\'s Best Reggae Album, with Dutty Rock winning the award. Paul has also been featured in many other singles including chart-toppers "Baby Boy" with Beyoncé, "What About Us" by The Saturdays, "Rockabye" by Clean Bandit and "Cheap Thrills" by Sia.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Coldplay', 'artist_name': 'Coldplay', 'wiki': 'http://en.wikipedia.org/wiki/Coldplay', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1996', 'aliases': ['Los Unidades', 'Pectoralz', 'Starfish'], 'labels': ['http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/EMI', 'http://dbpedia.org/resource/Fierce_Panda_Records', 'http://dbpedia.org/resource/Parlophone', 'http://dbpedia.org/resource/Third_Man_Records'], 'plays_in': ['http://dbpedia.org/resource/Avenida_Brasil_(TV_series)', 'http://dbpedia.org/resource/Coldplay:_A_Head_Full_of_Dreams', 'http://dbpedia.org/resource/Coldplay_Live_2012', 'http://dbpedia.org/resource/Grammy_Nominees', 'http://dbpedia.org/resource/Home_(2016_British-Kosovan_film)'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Post-Britpop', 'pop'], 'actual_members': ['http://dbpedia.org/resource/Chris_Martin', 'http://dbpedia.org/resource/Guy_Berryman', 'http://dbpedia.org/resource/Jonny_Buckland', 'http://dbpedia.org/resource/Phil_Harvey_(manager)', 'http://dbpedia.org/resource/Will_Champion'], 'related_artists': ['http://dbpedia.org/resource/Apparatjik', 'http://dbpedia.org/resource/Brian_Eno', 'http://dbpedia.org/resource/Davide_Rossi', 'http://dbpedia.org/resource/Jon_Hopkins'], 'abstract': 'Coldplay are a British rock band formed in London in 1996. The band consists of vocalist, rhythm guitarist, and pianist Chris Martin; lead guitarist Jonny Buckland; bassist Guy Berryman; drummer Will Champion; and creative director Phil Harvey. They met at University College London and began playing music together from 1996 to 1998, first calling themselves Pectoralz and then Starfish. Coldplay released two EPs, Safety in 1998 and The Blue Room in 1999. The latter was their first release under a major record label, Parlophone. Coldplay achieved worldwide fame with the release of the song "Yellow" in 2000, followed in the same year by their debut album Parachutes, which was nominated for the Mercury Prize. The band\'s second album, A Rush of Blood to the Head (2002), was released to critical acclaim. Their next record, X&amp;Y, was the best-selling album worldwide of 2005; the Brian Eno-produced fourth studio album, Viva la Vida or Death and All His Friends (2008), was the best-selling album of that year and earned the band three Grammy Awards. In 2011, Coldplay released their fifth studio album, Mylo Xyloto, which topped the charts in over 34 countries and was the UK\'s best-selling rock album of 2011. The band have since released Ghost Stories (2014), A Head Full of Dreams (2015), Everyday Life (2019) and Music of the Spheres (2021). Coldplay have sold more than 100 million albums worldwide, making them one of the world\'s best-selling music artists. They have won numerous awards throughout their career, including nine Brit Awards, seven MTV Video Music Awards, eight MTV Europe Music Awards and seven Grammy Awards from 36 nominations. The band\'s first three albums — Parachutes (2000), A Rush of Blood to the Head (2002), and X&amp;Y (2005) — are among the best-selling albums in UK chart history. In December 2009, Rolling Stone readers voted the group the fourth-best artist of the 2000s and Q magazine included the group in their Artists of the Century list. Coldplay have supported various social and political causes, such as Oxfam\'s Make Trade Fair campaign and Amnesty International. They have also performed at charity projects, including Band Aid 20, Live 8, Global Citizen Festival, Sound Relief, Hope for Haiti Now: A Global Benefit for Earthquake Relief, One Love Manchester, The Secret Policeman\'s Ball, Sport Relief and the UK Teenage Cancer Trust.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Jamiroquai', 'artist_name': 'Jamiroquai', 'wiki': 'http://en.wikipedia.org/wiki/Jamiroquai', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1992', 'labels': ['http://dbpedia.org/resource/Acid_Jazz_Records', 'http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/S2_Records', 'http://dbpedia.org/resource/Virgin_EMI_Records', 'http://dbpedia.org/resource/Work_Group'], 'plays_in': ['http://dbpedia.org/resource/About_Last_Night_(2014_film)', 'http://dbpedia.org/resource/Grammy_Nominees', "http://dbpedia.org/resource/Guru's_Jazzmatazz,_Vol._2:_The_New_Reality", 'http://dbpedia.org/resource/Woodstock_1999_(album)'], 'genres': ['http://dbpedia.org/resource/Acid_jazz', 'http://dbpedia.org/resource/Contemporary_R&amp;B', 'http://dbpedia.org/resource/Disco', 'http://dbpedia.org/resource/Funk', 'http://dbpedia.org/resource/House_music', 'http://dbpedia.org/resource/Soul_music'], 'actual_members': ['http://dbpedia.org/resource/Jamiroquai', 'http://dbpedia.org/resource/Jay_Kay', 'http://dbpedia.org/resource/Matt_Johnson_(keyboardist)', 'http://dbpedia.org/resource/Paul_Turner_(bassist)', 'Derrick McKenzie', 'Rob Harris', 'Sola Akingbola'], 'related_artists': ['http://dbpedia.org/resource/Anastacia', 'http://dbpedia.org/resource/Jay_Kay__Jay_Kay__1', 'http://dbpedia.org/resource/Julian_Perretta', 'http://dbpedia.org/resource/Linda_Lewis', 'http://dbpedia.org/resource/Matt_Johnson_(keyboardist)', 'http://dbpedia.org/resource/Mike_Spencer', 'http://dbpedia.org/resource/Nick_Fyffe', 'http://dbpedia.org/resource/Paul_Turner_(bassist)', 'http://dbpedia.org/resource/Roddy_Lorimer', 'http://dbpedia.org/resource/Shuffler', 'http://dbpedia.org/resource/Simon_Hale', 'http://dbpedia.org/resource/Simon_Katz', 'http://dbpedia.org/resource/Stuart_Zender', 'http://dbpedia.org/resource/The_Temperance_Movement_(band)', 'http://dbpedia.org/resource/Toby_Smith'], 'abstract': 'Jamiroquai (/dʒəˈmɪrəkwaɪ/) are an English funk and acid jazz band from London. Formed in 1992, they are fronted by vocalist Jay Kay, and were prominent in the London-based funk and acid jazz movement of the 1990s. They built on their acid jazz sound in their early releases and later drew from rock, disco, electronic and Latin music genres. Lyrically, the group have addressed social and environmental justice. Kay has remained as the only original member through several line-up changes. The band made their debut under Acid Jazz Records, but they subsequently found mainstream success under Sony. While under this label, three of their albums have charted at number one in the UK, including Emergency on Planet Earth (1993), Synkronized (1999) and A Funk Odyssey (2001). The band\'s 1998 single, "Deeper Underground", was also number one in their native country. Jamiroquai has sold more than 26 million albums worldwide as of 2017. Their third album, Travelling Without Moving (1996), received a Guinness World Record for the best-selling funk album in history. The music video for its lead single, "Virtual Insanity", also contributed to the band\'s success. The song was named Video of the Year at the 1997 MTV Video Music Awards and earned the band a Grammy Award in 1998.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/David_Bowie', 'artist_name': 'David Bowie', 'wiki': 'http://en.wikipedia.org/wiki/David_Bowie', 'birth_date': '08 January 1947', 'death_date': '10 January 2016', 'start_year': '1962', 'end_year': '2016', 'plays_in': ['http://dbpedia.org/resource/Amor_à_Vida', 'http://dbpedia.org/resource/Christiane_F._(film)', 'http://dbpedia.org/resource/Cracked_Actor', 'http://dbpedia.org/resource/David_Bowie:_Black_Tie_White_Noise_(film)', 'http://dbpedia.org/resource/David_Bowie:_Sound_and_Vision_(documentary)', "http://dbpedia.org/resource/In_Tuned_Out_-_Live_'93", "http://dbpedia.org/resource/Jazzin'_for_Blue_Jean", 'http://dbpedia.org/resource/Lazarus_(musical)', 'http://dbpedia.org/resource/Les_Amants_du_Pont-Neuf', 'http://dbpedia.org/resource/Mauvais_Sang', 'http://dbpedia.org/resource/Mr._Deeds', 'http://dbpedia.org/resource/Ricochet_(documentary)', 'http://dbpedia.org/resource/The_Perks_of_Being_a_Wallflower_(film)', 'http://dbpedia.org/resource/Ziggy_Stardust_and_the_Spiders_from_Mars_(film)'], 'related_artists': ['http://dbpedia.org/resource/Adam_F', 'http://dbpedia.org/resource/Adrian_Belew', 'http://dbpedia.org/resource/Al_B._Sure!', 'http://dbpedia.org/resource/Amory_Kane', 'http://dbpedia.org/resource/Andy_Clark_(musician)', 'http://dbpedia.org/resource/Andy_Newmark', 'http://dbpedia.org/resource/Arcade_Fire', 'http://dbpedia.org/resource/Aynsley_Dunbar__Aynsley_Dunbar__1', 'http://dbpedia.org/resource/Barry_Grint', 'http://dbpedia.org/resource/Bernard_Edwards', 'http://dbpedia.org/resource/Bob_Pridden', 'http://dbpedia.org/resource/Brian_Eno', 'http://dbpedia.org/resource/Butterfly_Boucher', 'http://dbpedia.org/resource/Carmine_Rojas', 'http://dbpedia.org/resource/Charlie_Sexton__Charlie_Sexton__1', 'http://dbpedia.org/resource/Chic_(band)', 'http://dbpedia.org/resource/Chris_Haskett', 'http://dbpedia.org/resource/Chris_Julian_(producer)', 'http://dbpedia.org/resource/Colin_Thurston', 'http://dbpedia.org/resource/Cybernauts', 'http://dbpedia.org/resource/Dennis_Davis', 'http://dbpedia.org/resource/Dogstar_(band)', 'http://dbpedia.org/resource/Donny_McCaslin', 'http://dbpedia.org/resource/Earl_Slick', 'http://dbpedia.org/resource/Emm_Gryner', 'http://dbpedia.org/resource/G._E._Smith', 'http://dbpedia.org/resource/Gail_Ann_Dorsey', 'http://dbpedia.org/resource/Gary_Miller_(music_producer)', 'http://dbpedia.org/resource/Gerardo_Velez', 'http://dbpedia.org/resource/Gerry_Leonard', 'http://dbpedia.org/resource/Giorgio_Moroder', 'http://dbpedia.org/resource/Go_Home_Productions', 'http://dbpedia.org/resource/Greg_Calbi', 'http://dbpedia.org/resource/Henry_Hey', 'http://dbpedia.org/resource/Hugh_Padgham', 'http://dbpedia.org/resource/Ian_Hunter_(singer)', 'http://dbpedia.org/resource/Iva_Davies', 'http://dbpedia.org/resource/James_Murphy_(electronic_musician)', 'http://dbpedia.org/resource/Joe_LaPorta', 'http://dbpedia.org/resource/Johnny_Edward', 'http://dbpedia.org/resource/Jordan_Rudess', 'http://dbpedia.org/resource/Josh_Garza', "http://dbpedia.org/resource/Junior's_Eyes", 'http://dbpedia.org/resource/Justin_Lassen', 'http://dbpedia.org/resource/Klaus_Nomi', 'http://dbpedia.org/resource/Lauren_Christy', 'http://dbpedia.org/resource/Lester_Bowie', 'http://dbpedia.org/resource/Lisa_Germano', 'http://dbpedia.org/resource/Lou_Reed', 'http://dbpedia.org/resource/Lulu_(singer)', 'http://dbpedia.org/resource/Luther_Vandross', 'http://dbpedia.org/resource/Mac_Gollehon', 'http://dbpedia.org/resource/Malcolm_Toft', 'http://dbpedia.org/resource/Marc_Bolan', 'http://dbpedia.org/resource/Mark_Guiliana', 'http://dbpedia.org/resource/Mary_Hopkin', 'http://dbpedia.org/resource/Matthew_Seligman', 'http://dbpedia.org/resource/Maya_Lavelle', 'http://dbpedia.org/resource/Mick_Ronson__Mick_Ronson__1', 'http://dbpedia.org/resource/Mick_Woodmansey', 'http://dbpedia.org/resource/Mike_Garson', 'http://dbpedia.org/resource/Mike_Vernon_(record_producer)', 'http://dbpedia.org/resource/Mott_the_Hoople', 'http://dbpedia.org/resource/Nile_Rodgers', 'http://dbpedia.org/resource/Omar_Hakim', 'http://dbpedia.org/resource/Pet_Shop_Boys', 'http://dbpedia.org/resource/Peter_Frampton', 'http://dbpedia.org/resource/Photek', 'http://dbpedia.org/resource/Reeves_Gabrels', 'http://dbpedia.org/resource/Ricky_Gardiner', 'http://dbpedia.org/resource/Robin_Clark', 'http://dbpedia.org/resource/Roger_Pusey', 'http://dbpedia.org/resource/Ryan_Keberle', 'http://dbpedia.org/resource/Seu_Jorge', 'http://dbpedia.org/resource/Shel_Talmy', 'http://dbpedia.org/resource/Sid_McGinnis', 'http://dbpedia.org/resource/Sonic_Elements', 'http://dbpedia.org/resource/Sterling_Campbell', 'http://dbpedia.org/resource/TV_on_the_Radio__TV_on_the_Radio__1', 'http://dbpedia.org/resource/The_Rats_(British_band)', 'http://dbpedia.org/resource/The_Spiders_from_Mars', 'http://dbpedia.org/resource/Thomas_Dolby', 'http://dbpedia.org/resource/Tony_Kaye_(musician)', 'http://dbpedia.org/resource/Tony_Newman_(drummer)', 'http://dbpedia.org/resource/Tony_Thompson_(drummer)', 'http://dbpedia.org/resource/Tony_Visconti', 'http://dbpedia.org/resource/Trevor_Bolder', 'http://dbpedia.org/resource/Yossi_Fine'], 'abstract': 'David Robert Jones OAL (8 January 1947 – 10 January 2016), known professionally as David Bowie (/ˈboʊi/ BOH-ee), was an English singer-songwriter and actor. A leading figure in the music industry, Bowie is regarded as one of the most influential musicians of the 20th century. He was acclaimed by critics and musicians, particularly for his innovative work during the 1970s. His career was marked by reinvention and visual presentation, and his music and stagecraft had a significant impact on popular music. Bowie developed an interest in music as a child. He studied art, music and design before embarking on a professional career as a musician in 1963. "Space Oddity", released in 1969, was his first top-five entry on the UK Singles Chart. After a period of experimentation, he re-emerged in 1972 during the glam rock era with his flamboyant and androgynous alter ego Ziggy Stardust. The character was spearheaded by the success of Bowie\'s single "Starman" and album The Rise and Fall of Ziggy Stardust and the Spiders from Mars, which won him widespread popularity. In 1975, Bowie\'s style shifted towards a sound he characterised as "plastic soul", initially alienating many of his UK fans but garnering him his first major US crossover success with the number-one single "Fame" and the album Young Americans. In 1976, Bowie starred in the cult film The Man Who Fell to Earth, directed by Nicolas Roeg, and released Station to Station. In 1977, he further confounded expectations with the electronic-inflected album Low, the first of three collaborations with Brian Eno that came to be known as the "Berlin Trilogy". "Heroes" (1977) and Lodger (1979) followed; each album reached the UK top five and received lasting critical praise. After uneven commercial success in the late 1970s, Bowie had three number-one hits: the 1980 single "Ashes to Ashes", its album Scary Monsters (and Super Creeps), and "Under Pressure" (a 1981 collaboration with Queen). He reached his peak commercial success in 1983 with Let\'s Dance: its title track topped both the UK and US charts. Throughout the 1990s and 2000s, Bowie continued to experiment with musical styles, including industrial and jungle. He also continued acting: his roles included Major Jack Celliers in Merry Christmas, Mr. Lawrence (1983), Jareth the Goblin King in Labyrinth (1986), Pontius Pilate in The Last Temptation of Christ (1988), and Nikola Tesla in The Prestige (2006), among other film and television appearances and cameos. He stopped touring after 2004 and his last live performance was at a charity event in 2006. In 2013, Bowie returned from a decade-long recording hiatus with The Next Day. He remained musically active until his death from liver cancer at his home in New York City. He died two days after both his 69th birthday and the release of his final album, Blackstar (2016). During his lifetime, his record sales, estimated at over 100 million records worldwide, made him one of the best-selling music artists of all time. In the UK, he was awarded ten platinum, eleven gold and eight silver album certifications, and released 11 number-one albums. In the US, he received five platinum and nine gold certifications. He was inducted into the Rock and Roll Hall of Fame in 1996. Rolling Stone named him among the greatest artists in history and – after his death – the "greatest rock star ever".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Sean_Kingston', 'artist_name': 'Sean Kingston', 'wiki': 'http://en.wikipedia.org/wiki/Sean_Kingston', 'hometown': 'http://dbpedia.org/resource/Kingston,_Jamaica', 'birth_date': '03 February 1990', 'start_year': '2007', 'labels': ['http://dbpedia.org/resource/Beluga_Heights_Records', 'http://dbpedia.org/resource/Empire_Distribution', 'http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/MNRK_Music_Group'], 'plays_in': ['http://dbpedia.org/resource/Girlicious_(album)'], 'genres': ['http://dbpedia.org/resource/Contemporary_R&amp;B', 'http://dbpedia.org/resource/Hip_hop_music', 'http://dbpedia.org/resource/Reggae_fusion'], 'related_artists': ['http://dbpedia.org/resource/Afro_Brothers', 'http://dbpedia.org/resource/Asher_Monroe', 'http://dbpedia.org/resource/Auburn_(singer)', 'http://dbpedia.org/resource/Deezle', 'http://dbpedia.org/resource/E._Kidd_Bogart', 'http://dbpedia.org/resource/Flo_Rida', 'http://dbpedia.org/resource/Iyaz', 'http://dbpedia.org/resource/J._R._Rotem', 'http://dbpedia.org/resource/Jack_Newsome', 'http://dbpedia.org/resource/James_Abrahart', 'http://dbpedia.org/resource/Natasha_Bedingfield', 'http://dbpedia.org/resource/Ned_Cameron', 'http://dbpedia.org/resource/Nic_Nac', 'http://dbpedia.org/resource/R._City', 'http://dbpedia.org/resource/Soulja_Boy', 'http://dbpedia.org/resource/The_D.E.Y.__The_D.E.Y.__1', 'http://dbpedia.org/resource/The_Elev3n', 'http://dbpedia.org/resource/The_Jackie_Boyz', 'http://dbpedia.org/resource/Tory_Lanez', 'http://dbpedia.org/resource/Élan_Luz_Rivera'], 'abstract': 'Kisean Paul Anderson (born February 3, 1990), better known by his stage name Sean Kingston, is a Jamaican-American singer and songwriter. He is known for his hit songs "Beautiful Girls", "Fire Burning", "Take You There", and "Eenie Meenie".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Black_Eyed_Peas', 'artist_name': 'Black Eyed Peas', 'wiki': 'http://en.wikipedia.org/wiki/Black_Eyed_Peas', 'plays_in': ['http://dbpedia.org/resource/Along_Came_Polly', 'http://dbpedia.org/resource/Grammy_Nominees'], 'genres': ['Hip hop', 'R&amp;B', 'dance-pop', 'electropop', 'pop', 'pop-rap'], 'actual_members': ['will.i.am', 'apl.de.ap', 'Taboo', 'J. Rey Soul'], 'old_members': ['Fergie', 'Kim Hill'], 'related_artists': ['http://dbpedia.org/resource/A_Million_Pieces', 'http://dbpedia.org/resource/Anders_Grahn', 'http://dbpedia.org/resource/Atban_Klann', 'http://dbpedia.org/resource/Bedtime_for_Toys', 'http://dbpedia.org/resource/Bucky_Jonson', 'http://dbpedia.org/resource/DJ_Rectangle', 'http://dbpedia.org/resource/Darryl_Swann', 'http://dbpedia.org/resource/George_Pajon', 'http://dbpedia.org/resource/Jean-Baptiste_(songwriter)', 'http://dbpedia.org/resource/Jean_Luc_Ponpon', 'http://dbpedia.org/resource/Joey_Boy', 'http://dbpedia.org/resource/Johnny_Goldstein', 'http://dbpedia.org/resource/Julie_Frost', 'http://dbpedia.org/resource/Kim_Hill_(soul_musician)', 'http://dbpedia.org/resource/Kryoman', 'http://dbpedia.org/resource/Macy_Gray', 'http://dbpedia.org/resource/Noelle_Scaggs', 'http://dbpedia.org/resource/Printz_Board', 'http://dbpedia.org/resource/Rhett_Lawrence', 'http://dbpedia.org/resource/Taboo_(rapper)', 'http://dbpedia.org/resource/The_Click_Five', 'http://dbpedia.org/resource/Urban_Punk__Harrell_Harris_Jr.__1', 'http://dbpedia.org/resource/Wild_Orchid_(group)', 'http://dbpedia.org/resource/Will.i.am'], 'abstract': 'Black Eyed Peas (also known as The Black Eyed Peas) is an American musical group consisting of rappers will.i.am, apl.de.ap, Taboo and J. Rey Soul. Originally an alternative hip hop group, they subsequently refashioned themselves as a more marketable pop-rap act. Although the group was founded in Los Angeles in 1995, it was not until the release of their third album, Elephunk, in 2003, that they achieved high record sales. Black Eyed Peas\' first major hit was the 2003 single "Where Is the Love?" from Elephunk, which topped the charts in 13 countries, including the United Kingdom, where it spent seven weeks at number one and went on to become Britain\'s biggest-selling single of 2003. Their fourth album, Monkey Business, was an even bigger worldwide success, and became certified 3× Platinum in the United States. In 2009, the group became one of only 11 artists to have simultaneously held the number-one and number-two spots on the Billboard Hot 100, with their singles "Boom Boom Pow" and "I Gotta Feeling", which topped the chart for an unprecedented 26 consecutive weeks. The album The E.N.D. produced a third Hot 100 number-one placement with "Imma Be", making the group one of few to ever place three number one singles on the chart from the same album, before being followed with "Rock That Body" and "Meet Me Halfway", which peaked in the top 10 of the Hot 100. "I Gotta Feeling" became the first single to sell more than one million downloads in the United Kingdom. At the 52nd Grammy Awards ceremony, held in January 2010, they won three awards out of six nominations. In November 2010, they released the album The Beginning. In February 2011, the group performed in the Super Bowl XLV halftime show. Black Eyed Peas have sold an estimated 80 million records, making them one of the best-selling groups of all time. They were ranked 12th on Billboard\'s 2000s Decade-End Artist of the Decade Chart, and 7th on the Hot 100 Artists of the Decade.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Kid_Cudi', 'artist_name': 'Kid Cudi', 'wiki': 'http://en.wikipedia.org/wiki/Kid_Cudi', 'birth_date': '30 January 1984', 'start_year': '2003', 'plays_in': ['http://dbpedia.org/resource/James_White_(film)', 'http://dbpedia.org/resource/Maniac_(2011_film)'], 'related_artists': ['http://dbpedia.org/resource/Choo_Jackson', 'http://dbpedia.org/resource/Crada_(producer)', 'http://dbpedia.org/resource/Dan_Black', 'http://dbpedia.org/resource/Dot_da_Genius', 'http://dbpedia.org/resource/E*vax', 'http://dbpedia.org/resource/Emile_Haynie__Emile_Haynie__1', 'http://dbpedia.org/resource/Johnny_Polygon', 'http://dbpedia.org/resource/K._Sparks', 'http://dbpedia.org/resource/King_Chip', 'http://dbpedia.org/resource/Plain_Pat', 'http://dbpedia.org/resource/Raphael_Saadiq', 'http://dbpedia.org/resource/Ratatat', 'http://dbpedia.org/resource/Take_a_Daytrip', 'http://dbpedia.org/resource/Teddy_Walton'], 'abstract': 'Scott Ramon Seguro Mescudi (born January 30, 1984), better known by his stage name Kid Cudi (/ˈkʌdi/ KUDD-ee; often stylized as KiD CuDi), is an American rapper, singer, songwriter, record producer and actor. He has widely been recognized as an influence on several contemporary hip hop and alternative acts. His music is often autobiographical, telling of his childhood hardships dealing with depression, loneliness and alienation, his struggle with alcohol and drugs into adulthood, as well as themes of heartbreak, dissipation and celebration. Cudi began to gain major recognition following the release of his first official full-length project, a mixtape titled A Kid Named Cudi (2008), which caught the attention of American musician Kanye West, who subsequently signed Cudi to his GOOD Music label imprint by late 2008. In early 2008, Cudi had risen to prominence with the release of his commercial debut single "Day \'n\' Nite", which became a worldwide hit. The song was later featured on Cudi\'s seminal debut studio album, Man on the Moon: The End of Day (2009), which was eventually certified double platinum by the Recording Industry Association of America (RIAA) in 2017. The album also included the singles "Make Her Say" and "Pursuit of Happiness", both of which achieved significant chart success. In 2010, Cudi released his second album Man on the Moon II: The Legend of Mr. Rager, which features the singles "Erase Me" and "Mr. Rager". Later that year he formed WZRD, a rock band, with his long-time collaborator Dot da Genius. Their eponymous debut album (2012) debuted at number one on the Billboard Top Rock Albums chart. Cudi has since released the solo albums Indicud (2013), Satellite Flight: The Journey to Mother Moon (2014), Speedin\' Bullet 2 Heaven (2015), Passion, Pain &amp; Demon Slayin\' (2016), and Man on the Moon III: The Chosen (2020). Cudi\'s joint album with Kanye West, under the eponymous name Kids See Ghosts (2018), was met with widespread critical acclaim and was named among the best albums of 2018. In 2020, Cudi earned his first number-one song on the US Billboard Hot 100 chart with "The Scotts", a collaboration with Houston rapper Travis Scott. Cudi has sold 22 million certified records in the United States and has won two Grammy Awards from five nominations. He has worked with numerous prominent artists spanning several different genres in the music industry, such as Jay-Z, Eminem, Kendrick Lamar, David Guetta, Steve Aoki, MGMT, Mary J. Blige, Shakira, Ariana Grande and Michael Bolton, among others. After signing to GOOD Music, Cudi has since gone on to launch his own vanity labels, the now-dissolved Dream On and current label imprint Wicked Awesome Records. Cudi also ventured into acting when he was cast in the HBO series How to Make It in America. He has since appeared in several feature films, including Goodbye World (2013), Need for Speed (2014), Entourage (2015) and Bill &amp; Ted Face the Music (2020). In addition, he has made appearances on television shows such as One Tree Hill, The Cleveland Show, Brooklyn Nine-Nine, and Westworld. In 2015, he was the bandleader on the IFC series Comedy Bang! Bang! and in 2020 was added as a cast member for the HBO mini-series We Are Who We Are.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Erasure', 'artist_name': 'Erasure', 'wiki': 'http://en.wikipedia.org/wiki/Erasure', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1985', 'labels': ['http://dbpedia.org/resource/Elektra_Records', 'http://dbpedia.org/resource/Maverick_(company)', 'http://dbpedia.org/resource/Mute_Records', 'http://dbpedia.org/resource/Reprise_Records', 'http://dbpedia.org/resource/Sire_Records'], 'genres': ['http://dbpedia.org/resource/Dance_music', 'http://dbpedia.org/resource/Electropop', 'http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Synth-pop', 'dance', 'new wave'], 'actual_members': ['http://dbpedia.org/resource/Andy_Bell_(singer)', 'http://dbpedia.org/resource/Vince_Clarke'], 'related_artists': ['http://dbpedia.org/resource/All_Hail_the_Silence', 'http://dbpedia.org/resource/Andy_Bell_(singer)', 'http://dbpedia.org/resource/Bright_Light_Bright_Light', 'http://dbpedia.org/resource/Doug_Wimbish', 'http://dbpedia.org/resource/Eric_Radcliffe', 'http://dbpedia.org/resource/Gareth_Jones_(music_producer)', 'http://dbpedia.org/resource/MC_Kinky', 'http://dbpedia.org/resource/Mark_Saunders_(record_producer)', 'http://dbpedia.org/resource/Minute_Taker', 'http://dbpedia.org/resource/Parralox', 'http://dbpedia.org/resource/VCMG', 'http://dbpedia.org/resource/Vince_Clarke', 'http://dbpedia.org/resource/Yazoo_(band)'], 'abstract': 'Erasure (/əˈreɪʒər/) are an English synthpop duo formed in London in 1985, consisting of singer and songwriter Andy Bell with songwriter, producer and keyboardist Vince Clarke, previously known as co-founder of the band Depeche Mode. From their fourth single, "Sometimes" (1986), Erasure established themselves on the UK Singles Chart, becoming one of the most successful artists of the mid-1980s to the mid-1990s. From 1986 to 2007, the duo achieved 24 consecutive top 40 hits in the UK. By 2009, 34 of their 37 chart-eligible singles and EPs had made the UK top 40, including 17 climbing into the top 10. At the 1989 Brit Awards, Erasure won the Brit Award for Best British Group. Beyond this mainstream commercial success, Erasure are also popular within the LGBT community for whom the openly gay singer Andy Bell has become an icon in the UK. Although their debut album, Wonderland (1986) did not perform well, their second album, The Circus (1987), reached number 6 and spawned four top 20 singles on the UK charts. Their third album, The Innocents (1988) was rendered a number one and was followed the same year by the Christmas EP Crackers International (1988) peaking at number 2. It set the scene as the first in a string of albums to place in the top spot, with their next five consecutive longform releases reaching the pole position of the UK Albums Chart: the albums Wild! (1989) and Chorus (1991), the ABBA tribute EP Abba-esque (1992), the compilation Pop! The First 20 Hits (1992), then the album I Say I Say I Say (1994). Erasure\'s best-known songs are mainly from albums of this period and include the hits "Oh L\'amour", "Sometimes", "Victim of Love", "Ship of Fools", "Chains of Love", "A Little Respect", "Stop!", "Drama!", "Blue Savannah", "Star", "Chorus", "Love to Hate You", "Breath of Life", "Take a Chance on Me" (an ABBA cover), "Always" and "Run to the Sun". From 1995 onwards, Erasure\'s commercial success began to fade with the atmospheric self-titled album Erasure (1995) which, despite being a critical success, confused its audience. The mixed reception of the following album, Cowboy (1997), confirmed a decline in Erasure\'s popularity until the album Loveboat (2000), which went almost unnoticed. In the mid-2000s, however, the duo managed to make a commercial comeback in some European countries and in the United States, notably thanks to their cover album Other People\'s Songs (2003), followed by the album Nightbird (2005) which won back the fans. This return to favour gave the band their last two hit singles: "Solsbury Hill" (2003) (a Peter Gabriel song) and "Breathe" (2005). In the late 2000s, Erasure began a new commercial decline with the acoustic album Union Street (2006) followed by Light at the End of the World (2007). During the 2010s, the band\'s new albums briefly charted, with Tomorrow\'s World (2011), the Christmas album Snow Globe (2013), The Violet Flame (2014), World Be Gone (2017) and, finally, The Neon (2020). Despite the singles from this decade not managing to reach the charts, however, a solid international fanbase enables Erasure to maintain its activity through touring and online sales, not to mention the royalties attached to the catalogue of their past hits. Achieving mainstream success at home in the UK, Erasure also has a strong following abroad, especially in some European countries (mainly in Ireland, Germany, Austria, Denmark and Sweden) where the band enjoyed numerous hits. Surprisingly, Erasure has a broad audience in a few South American countries, especially in Argentina, Chile and Peru. In the US, Erasure had three hits: "Chains of Love" (1988) at number 12, their biggest chart placing ever in that country, "A Little Respect" (1988) at number 14, and "Always" (1994) at number 20. In Russia, as well as in the former Soviet bloc countries, Erasure is mostly known for the sole song "Love to Hate You" (1991). In France, "Oh L\'amour" (1986) was the only hit of the band, peaking at number 14 in the singles top 50 of that country, followed by "Sometimes" (1986) that underperformed at a low number 39 (in February 1987) and still remains to this day Erasure\'s last entry in the French singles chart. Overall in their career, Erasure have penned over 200 songs and have sold over 28 million albums worldwide.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Kenny_Loggins', 'artist_name': 'Kenny Loggins', 'wiki': 'http://en.wikipedia.org/wiki/Kenny_Loggins', 'birth_date': '07 January 1948', 'start_year': '1968', 'labels': ['http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/Walt_Disney_Records'], 'plays_in': ['http://dbpedia.org/resource/Crack_a_Smile..._and_More!', "http://dbpedia.org/resource/Donald_Trump's_The_Art_of_the_Deal:_The_Movie", 'http://dbpedia.org/resource/Footloose_(1984_film)'], 'related_artists': ['http://dbpedia.org/resource/Albhy_Galuten', 'http://dbpedia.org/resource/Carolyn_Dennis', 'http://dbpedia.org/resource/Don_Felder', 'http://dbpedia.org/resource/Doug_Jackson_(musician)', 'http://dbpedia.org/resource/Loren_Gold', 'http://dbpedia.org/resource/Max_Carl', 'http://dbpedia.org/resource/Michael_McDonald_(musician)', 'http://dbpedia.org/resource/Neil_Giraldo', 'http://dbpedia.org/resource/Pamela_Polland', 'http://dbpedia.org/resource/Paul_Peterson', 'http://dbpedia.org/resource/Steve_DiStanislao', 'http://dbpedia.org/resource/Tris_Imboden'], 'abstract': 'Kenneth Clark Loggins (born January 7, 1948) is an American musician, singer and songwriter. His early songs were recorded with the Nitty Gritty Dirt Band in 1970, which led to seven albums recorded as Loggins and Messina from 1972 to 1977. His early soundtrack contributions date back to A Star Is Born in 1976, and he is known as the King of the Movie Soundtrack. As a solo artist, Loggins experienced a string of soundtrack successes, including an Academy Award nomination for "Footloose" in 1985. Finally Home was released in 2013, shortly after Loggins formed the group Blue Sky Riders with Gary Burr and Georgia Middleman. He won a Daytime Emmy Award, two Grammy Awards, and was nominated for an Academy Award, a Tony Award, and a Golden Globe Award.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Beck', 'artist_name': 'Beck', 'wiki': 'http://en.wikipedia.org/wiki/Beck', 'birth_date': '08 July 1970', 'start_year': '1988', 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees', 'http://dbpedia.org/resource/The_Trouble_with_Being_Myself'], 'related_artists': ['http://dbpedia.org/resource/Alex_Lilly', 'http://dbpedia.org/resource/Badly_Drawn_Boy', 'http://dbpedia.org/resource/Bloodthirsty_Butchers', 'http://dbpedia.org/resource/Bon_Iver', 'http://dbpedia.org/resource/Brian_LeBarton', 'http://dbpedia.org/resource/Cage_the_Elephant', 'http://dbpedia.org/resource/Calvin_Johnson_(musician)', 'http://dbpedia.org/resource/DJ_Swamp', 'http://dbpedia.org/resource/Dean_Fertita', 'http://dbpedia.org/resource/Devendra_Banhart', 'http://dbpedia.org/resource/Elliott_Smith', 'http://dbpedia.org/resource/Forest_for_the_Trees_(band)', 'http://dbpedia.org/resource/Gothic_Tropic', 'http://dbpedia.org/resource/Greg_Kurstin', 'http://dbpedia.org/resource/Jakob_Dylan', 'http://dbpedia.org/resource/James_Gadson', 'http://dbpedia.org/resource/Jessica_Dobson', 'http://dbpedia.org/resource/Joey_Waronker', 'http://dbpedia.org/resource/Josh_Klinghoffer', 'http://dbpedia.org/resource/Justin_Meldal-Johnsen', 'http://dbpedia.org/resource/Justin_Stanley', 'http://dbpedia.org/resource/MC_Lord_Magrão', 'http://dbpedia.org/resource/Matt_Sherrod', 'http://dbpedia.org/resource/Mickey_Petralia', 'http://dbpedia.org/resource/Mike_D', 'http://dbpedia.org/resource/Natalie_Bergman', 'http://dbpedia.org/resource/Nate_Walcott', 'http://dbpedia.org/resource/Nicolas_Godin', 'http://dbpedia.org/resource/Nigel_Godrich', 'http://dbpedia.org/resource/Paleface_(musician)', 'http://dbpedia.org/resource/Paul_Livingstone__Paul_Livingstone__1', 'http://dbpedia.org/resource/Rachel_Haden', 'http://dbpedia.org/resource/Randy_Merrill', 'http://dbpedia.org/resource/Robert_Carranza', 'http://dbpedia.org/resource/Roger_Joseph_Manning_Jr.', 'http://dbpedia.org/resource/Smokey_Hormel', 'http://dbpedia.org/resource/Steven_Shane_McDonald', 'http://dbpedia.org/resource/Stevie_Blacke', 'http://dbpedia.org/resource/The_Blue_News', 'http://dbpedia.org/resource/The_Chemical_Brothers', 'http://dbpedia.org/resource/The_Ghost_of_a_Saber_Tooth_Tiger', 'http://dbpedia.org/resource/The_White_Stripes', 'http://dbpedia.org/resource/Tobacco_(musician)', 'http://dbpedia.org/resource/Tom_Rothrock', 'http://dbpedia.org/resource/Tortoise_(band)'], 'abstract': 'Beck David Hansen (born Bek David Campbell; July 8, 1970) is an American musician, singer, songwriter, and record producer. He rose to fame in the early 1990s with his experimental and lo-fi style, and became known for creating musical collages of wide-ranging genres. He has musically encompassed folk, funk, soul, hip hop, electronic, alternative rock, country, and psychedelia. He has released 14 studio albums (three of which were released on indie labels), as well as several non-album singles and a book of sheet music. Born and raised in Los Angeles, Beck grew towards hip-hop and folk in his teens and began to perform locally at coffeehouses and clubs. He moved to New York City in 1989 and became involved in the city\'s small but fiery anti-folk movement. Returning to Los Angeles in the early 1990s, he cut his breakthrough single "Loser", which became a worldwide hit in 1994, and released his first major album, Mellow Gold, the same year. Odelay, released in 1996, topped critic polls and won several awards. He released the country-influenced, twangy Mutations in 1998, and the funk-infused Midnite Vultures in 1999. The soft-acoustic Sea Change in 2002 showcased a more serious Beck, and 2005\'s Guero returned to Odelay\'s sample-based production. The Information in 2006 was inspired by electro-funk, hip hop, and psychedelia; 2008\'s Modern Guilt was inspired by \'60s pop music; and 2014\'s folk-infused Morning Phase won Album of the Year at the 57th Grammy Awards. His 2017 album, Colors, won awards for Best Alternative Album and Best Engineered Album at the 61st Annual Grammy Awards. His fourteenth studio album, Hyperspace, was released on November 22, 2019. With a pop art collage of musical styles, oblique and ironic lyrics, and postmodern arrangements incorporating samples, drum machines, live instrumentation and sound effects, Beck has been hailed by critics and the public throughout his musical career as being among the most idiosyncratically creative musicians of 1990s and 2000s alternative rock. Two of Beck\'s most popular and acclaimed recordings are Odelay and Sea Change, both of which were ranked on Rolling Stone\'s list of the 500 greatest albums of all time. The four-time platinum artist has collaborated with several artists and has made several contributions to soundtracks.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Herbie_Hancock', 'artist_name': 'Herbie Hancock', 'wiki': 'http://en.wikipedia.org/wiki/Herbie_Hancock', 'birth_date': '12 April 1940', 'start_year': '1961', 'labels': ['http://dbpedia.org/resource/Blue_Note_Records', 'http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Verve_Records', 'http://dbpedia.org/resource/Warner_Records'], 'plays_in': ["http://dbpedia.org/resource/A_Soldier's_Story", 'http://dbpedia.org/resource/Action_Jackson_(1988_film)', 'http://dbpedia.org/resource/Blowup', 'http://dbpedia.org/resource/Centrifugal_Funk', 'http://dbpedia.org/resource/Colors_(film)', 'http://dbpedia.org/resource/Death_Wish_(1974_film)', 'http://dbpedia.org/resource/Harlem_Nights', 'http://dbpedia.org/resource/Herbie_(film)', 'http://dbpedia.org/resource/Jo_Jo_Dancer,_Your_Life_Is_Calling', "http://dbpedia.org/resource/Livin'_Large", 'http://dbpedia.org/resource/On_the_Shoulders_of_Giants_(film)', 'http://dbpedia.org/resource/One_Night_with_Blue_Note', 'http://dbpedia.org/resource/Round_Midnight_(film)', 'http://dbpedia.org/resource/The_George_McKenna_Story', 'http://dbpedia.org/resource/The_Spook_Who_Sat_by_the_Door_(film)'], 'genres': ['http://dbpedia.org/resource/Classical_music', 'http://dbpedia.org/resource/Electro_(music)', 'http://dbpedia.org/resource/Jazz', 'http://dbpedia.org/resource/Jazz-funk', 'http://dbpedia.org/resource/Jazz_fusion', 'http://dbpedia.org/resource/Modal_jazz', 'http://dbpedia.org/resource/Post-bop'], 'related_artists': ['http://dbpedia.org/resource/Aditya_Kalyanpur', 'http://dbpedia.org/resource/Bennie_Maupin', 'http://dbpedia.org/resource/Bernard_Fowler', 'http://dbpedia.org/resource/Billy_Hart', 'http://dbpedia.org/resource/Billy_Higgins', 'http://dbpedia.org/resource/Bobby_McFerrin', 'http://dbpedia.org/resource/Buck_Clarke', 'http://dbpedia.org/resource/Chick_Corea', 'http://dbpedia.org/resource/Chris_Anderson_(pianist)', 'http://dbpedia.org/resource/Chuck_Israels', 'http://dbpedia.org/resource/Clark_Terry', 'http://dbpedia.org/resource/DJ_Disk', 'http://dbpedia.org/resource/Dee_Dee_Bridgewater', 'http://dbpedia.org/resource/Don_Alias', 'http://dbpedia.org/resource/Eli_Degibri', 'http://dbpedia.org/resource/Eliane_Elias', 'http://dbpedia.org/resource/Frank_Colón', 'http://dbpedia.org/resource/Freddie_Hubbard', 'http://dbpedia.org/resource/Freddie_Washington_(bassist)', 'http://dbpedia.org/resource/Garnett_Brown', 'http://dbpedia.org/resource/George_Coleman', 'http://dbpedia.org/resource/Gigi_(singer)', 'http://dbpedia.org/resource/Gonzalo_Rubalcaba', 'http://dbpedia.org/resource/Howard_Jones_(British_musician)', 'http://dbpedia.org/resource/Jack_DeJohnette', 'http://dbpedia.org/resource/Jaco_Pastorius', 'http://dbpedia.org/resource/James_Walbourne', 'http://dbpedia.org/resource/Jim_Blackley', 'http://dbpedia.org/resource/Joe_Henderson', 'http://dbpedia.org/resource/Joni_Mitchell', 'http://dbpedia.org/resource/Ken_Caillat', 'http://dbpedia.org/resource/Kimiko_Kasai', 'http://dbpedia.org/resource/Michael_Brecker__Michael_Brecker__1', 'http://dbpedia.org/resource/Mickey_Roker', 'http://dbpedia.org/resource/Mike_Clark_(jazz_musician)', 'http://dbpedia.org/resource/Miles_Davis_Quintet', 'http://dbpedia.org/resource/Nathan_East', 'http://dbpedia.org/resource/Omar_Hakim', 'http://dbpedia.org/resource/Patrick_Gleeson', 'http://dbpedia.org/resource/Tal_Wilkenfeld', 'http://dbpedia.org/resource/Thad_Jones', 'http://dbpedia.org/resource/The_Headhunters', 'http://dbpedia.org/resource/Timothy_Bloom', 'http://dbpedia.org/resource/Todd_Cochran', 'http://dbpedia.org/resource/V.S.O.P._(group)', 'http://dbpedia.org/resource/Vinnie_Colaiuta', 'http://dbpedia.org/resource/Wah_Wah_Watson', 'http://dbpedia.org/resource/Wayne_Shorter'], 'abstract': 'Herbert Jeffrey Hancock (born April 12, 1940) is an American jazz pianist, keyboardist, bandleader, composer, and occasional actor. Hancock started his career with trumpeter Donald Byrd’s group. He shortly thereafter joined the Miles Davis Quintet, where he helped to redefine the role of a jazz rhythm section and was one of the primary architects of the post-bop sound. In the 1970s, Hancock experimented with jazz fusion, funk, and electro styles, utilizing a wide array of synthesizers and electronics. It was during this period that he released perhaps his best-known and most influential album, Head Hunters. Hancock\'s best-known compositions include "Cantaloupe Island", "Watermelon Man", "Maiden Voyage" and "Chameleon", all of which are jazz standards. During the 1980s, he enjoyed a hit single with the electronic instrumental "Rockit", a collaboration with bassist/producer Bill Laswell. His 2007 Joni Mitchell tribute album River: The Joni Letters won the 2008 Grammy Award for Album of the Year, only the second jazz album to win the award after Getz/Gilberto in 1965. Since 2012, Hancock has served as a professor at the University of California, Los Angeles, where he teaches at the UCLA Herb Alpert School of Music. He is also the chairman of the Herbie Hancock Institute of Jazz (formerly known as the Thelonious Monk Institute of Jazz until 2019).'}</t>
+  </si>
+  <si>
+    <t>{'artist': "http://dbpedia.org/resource/Jane's_Addiction", 'artist_name': "Jane's Addiction", 'wiki': "http://en.wikipedia.org/wiki/Jane's_Addiction", 'hometown': 'http://dbpedia.org/resource/Los_Angeles', 'start_year': '1985', 'end_year': '1991', 'labels': ['http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/EMI', 'http://dbpedia.org/resource/Triple_X_Records', 'http://dbpedia.org/resource/Warner_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Funk_metal', 'http://dbpedia.org/resource/Neo-psychedelia', 'http://dbpedia.org/resource/Psychedelic_rock'], 'actual_members': ['http://dbpedia.org/resource/Chris_Chaney', 'http://dbpedia.org/resource/Dave_Navarro', 'http://dbpedia.org/resource/Perry_Farrell', 'http://dbpedia.org/resource/Stephen_Perkins'], 'old_members': ['http://dbpedia.org/resource/Dave_Sitek', 'http://dbpedia.org/resource/Duff_McKagan', 'http://dbpedia.org/resource/Eric_Avery', 'http://dbpedia.org/resource/Flea_(musician)', 'http://dbpedia.org/resource/Martyn_LeNoble'], 'related_artists': ['http://dbpedia.org/resource/Aaron_Embry', 'http://dbpedia.org/resource/Axis_of_Justice', 'http://dbpedia.org/resource/Banyan_(band)', 'http://dbpedia.org/resource/Camp_Freddy', 'http://dbpedia.org/resource/Carnival_Art', 'http://dbpedia.org/resource/Chris_Chaney', "http://dbpedia.org/resource/Class_of_'99", 'http://dbpedia.org/resource/Dave_Navarro', 'http://dbpedia.org/resource/Dave_Sitek', 'http://dbpedia.org/resource/Deconstruction_(band)', 'http://dbpedia.org/resource/Eric_Avery', 'http://dbpedia.org/resource/Flea_(musician)', 'http://dbpedia.org/resource/Infectious_Grooves', 'http://dbpedia.org/resource/Jean_Luc_Ponpon', 'http://dbpedia.org/resource/Jimmy_Boyle_(record_producer)', 'http://dbpedia.org/resource/John_Philip_Shenale', 'http://dbpedia.org/resource/Kommunity_FK', 'http://dbpedia.org/resource/Linda_Good', 'http://dbpedia.org/resource/Martyn_LeNoble', 'http://dbpedia.org/resource/Mikael_Johnston', 'http://dbpedia.org/resource/Nine_Inch_Nails', 'http://dbpedia.org/resource/Perry_Farrell', 'http://dbpedia.org/resource/Polar_Bear_(American_band)', 'http://dbpedia.org/resource/Porno_for_Pyros', 'http://dbpedia.org/resource/Psi_Com', 'http://dbpedia.org/resource/Red_Hot_Chili_Peppers', 'http://dbpedia.org/resource/Rich_Costey', 'http://dbpedia.org/resource/Satellite_Party', 'http://dbpedia.org/resource/Stephen_Perkins', 'http://dbpedia.org/resource/Tex_&amp;_the_Horseheads', 'http://dbpedia.org/resource/The_Birds_of_Satan', 'http://dbpedia.org/resource/The_Master_Musicians_of_Joujouka', 'http://dbpedia.org/resource/The_Panic_Channel', 'http://dbpedia.org/resource/The_Twigs', 'http://dbpedia.org/resource/Thelonious_Monster'], 'abstract': 'Jane\'s Addiction is an American rock band from Los Angeles, formed in 1985. The band consists of vocalist Perry Farrell, guitarist Dave Navarro, drummer Stephen Perkins and bassist Chris Chaney. Founded by Farrell and original bass guitarist Eric Avery following the disintegration of Farrell\'s previous band Psi Com, Jane\'s Addiction was one of the first bands from the early 1990s alternative rock movement to gain both mainstream media attention and commercial success in the United States. Jane\'s Addiction\'s first release was a self-titled live album in 1987 and quickly caught the attention of Warner Bros. Records. The band\'s first two studio albums, Nothing\'s Shocking (1988) and Ritual de lo Habitual (1990), were released to widespread critical acclaim, and an increasing cult fanbase. As a result, Jane\'s Addiction became icons of what Farrell dubbed the "Alternative Nation". The band\'s initial farewell tour, in 1991, launched the first Lollapalooza, which has since become a perennial alternative rock festival. The band briefly reunited in 1997, with Flea of the Red Hot Chili Peppers replacing Avery on bass guitar. In 2001, a second reunion took place, with Martyn LeNoble—and later Chris Chaney—occupying the role of bass guitarist. In 2003, the band released its third studio album, Strays, before dissolving again the following year. In 2008, the band\'s original line-up reunited and embarked on a world tour. Eric Avery, however, subsequently left the band in early 2010 as the group began working on new material. The band released its fourth studio album The Great Escape Artist in 2011, with Chaney returning to the band for its recording and subsequent tour, and featured the TV on the Radio\'s multi-instrumentalist Dave Sitek. In 2016, Jane\'s Addiction were nominated for induction into the Rock and Roll Hall of Fame.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Puddle_of_Mudd', 'artist_name': 'Puddle of Mudd', 'wiki': 'http://en.wikipedia.org/wiki/Puddle_of_Mudd', 'hometown': 'http://dbpedia.org/resource/Kansas_City,_Missouri', 'start_year': '1991', 'labels': ['http://dbpedia.org/resource/Flawless_Records', 'http://dbpedia.org/resource/Geffen_Records', 'http://dbpedia.org/resource/Universal_Music_Group'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['http://dbpedia.org/resource/Dave_Moreno', 'http://dbpedia.org/resource/Wes_Scantlin', 'Matt Fuller', 'Michael John Adams'], 'old_members': ['http://dbpedia.org/resource/3_Doors_Down', 'http://dbpedia.org/resource/Adam_Latiff', 'http://dbpedia.org/resource/Campfire_Girls_(band)', 'http://dbpedia.org/resource/Damien_Starkey', 'http://dbpedia.org/resource/Doug_Ardito', 'http://dbpedia.org/resource/Paul_Phillips_(guitarist)', 'http://dbpedia.org/resource/Puddle_of_Mudd', 'Jimmy Allen', 'Sean Sammon', 'Kenny Burkitt', 'Christian Stone', 'Greg Upchurch', 'Ryan Yerdon', 'Shannon Boone'], 'related_artists': ['http://dbpedia.org/resource/3_Doors_Down', 'http://dbpedia.org/resource/Against_All_Will', 'http://dbpedia.org/resource/Fuel_(band)', 'http://dbpedia.org/resource/Limp_Bizkit', 'http://dbpedia.org/resource/Operator_(band)'], 'abstract': 'Puddle of Mudd is an American rock band formed in Kansas City, Missouri, in 1991. To date, the band has sold over seven million albums and has had a string of No. 1 mainstream rock singles in the United States. Their major-label debut Come Clean has sold over five million copies. They have released an extended play, an independent album and five studio albums, with their latest being Welcome to Galvania in September 2019. Puddle of Mudd has been described as post-grunge, nu metal, hard rock, and alternative metal.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Majestic_(band)', 'artist_name': 'Majestic', 'wiki': 'http://en.wikipedia.org/wiki/Majestic_(band)', 'hometown': 'http://dbpedia.org/resource/Malmö', 'start_year': '1997', 'end_year': '2001', 'labels': ['http://dbpedia.org/resource/Massacre_Records'], 'genres': ['http://dbpedia.org/resource/Neoclassical_metal', 'http://dbpedia.org/resource/Power_metal'], 'actual_members': ['http://dbpedia.org/resource/Apollo_Papathanasio', 'http://dbpedia.org/resource/Magnus_Nordh', 'http://dbpedia.org/resource/Martin_Wezowski', 'http://dbpedia.org/resource/Peter_Wildoer', 'http://dbpedia.org/resource/Richard_Andersson'], 'old_members': ['Joel Linder', 'Jonas Blum', 'Peter Espinoza'], 'related_artists': ['http://dbpedia.org/resource/Apollo_Papathanasio', 'http://dbpedia.org/resource/Nasty_Idols', 'http://dbpedia.org/resource/Peter_Wildoer', 'http://dbpedia.org/resource/Richard_Andersson', 'http://dbpedia.org/resource/Time_Requiem'], 'abstract': 'Majestic, formerly known as Lab Rat, was a Swedish neo-classical power metal band, founded in 1997 by Peter Espinoza after he was asked to form a band. Richard Andersson was asked to join and they started to write music for the debut album. Tunes like Golden sea and Standing alone were meant to be on Peters second solo album but were rearranged for the sound and the keyboard and together the Majestic sound was born. Majestic made two albums : Abstract Symphony (1999) and Trinity Overture (2000), under the label Massacre Records. Peter left the band after the debut album for reunion and touring with Nasty Idols.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Martin_Solveig', 'artist_name': 'Martin Solveig', 'wiki': 'http://en.wikipedia.org/wiki/Martin_Solveig', 'hometown': 'http://dbpedia.org/resource/Neuilly-sur-Seine', 'birth_date': '22 September 1976', 'start_year': '2002', 'labels': ['http://dbpedia.org/resource/Big_Beat_Records_(American_record_label)', 'http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/Ministry_of_Sound', "http://dbpedia.org/resource/Spinnin'_Records"], 'plays_in': ['http://dbpedia.org/resource/Pitch_Perfect_(soundtrack)', 'http://dbpedia.org/resource/Skin:_The_Remixes'], 'genres': ['http://dbpedia.org/resource/Electro_(music)', 'http://dbpedia.org/resource/Electro_house', 'http://dbpedia.org/resource/Electronic_dance_music', 'http://dbpedia.org/resource/Electropop', 'http://dbpedia.org/resource/Future_house', 'http://dbpedia.org/resource/House_music', 'http://dbpedia.org/resource/Trap_music_(EDM)'], 'related_artists': ['http://dbpedia.org/resource/Dragonette', 'http://dbpedia.org/resource/Good_Times_Ahead', 'http://dbpedia.org/resource/Idoling!!!', 'http://dbpedia.org/resource/Kele_Okereke', 'http://dbpedia.org/resource/Laidback_Luke', 'http://dbpedia.org/resource/Martina_Sorbara', 'http://dbpedia.org/resource/Roy_Woods__Roy_Woods__1', 'http://dbpedia.org/resource/Salif_Keita', 'http://dbpedia.org/resource/The_Cataracs', 'http://dbpedia.org/resource/Tye_Morgan'], 'abstract': "Martin Laurent Picandet (French pronunciation: \u200b[maʁtɛ̃ lɔʁɑ̃ pikɑ̃dɛ]; born 22 September 1976), better known by his stage name Martin Solveig (French: [maʁtɛ̃ sɔlvɛɡ]), is a French DJ, singer, songwriter and record producer. He hosts a weekly radio show called C'est La Vie on radio stations worldwide, including Radio FG in his homeland. He has been active since 1994. Solveig manages his own label called Mixture Stereophonic and was ranked number 29 in the 2011 DJ Mag Top 100 DJs. He has collaborated with, among others, Ina Wroldsen, David Guetta, Jax Jones (together under the alias Europa), Laidback Luke, Dragonette, Kele of Bloc Party and Madonna."}</t>
+  </si>
+  <si>
+    <t>{'artist': "http://dbpedia.org/resource/Stereo_MC's", 'artist_name': "Stereo MC's", 'wiki': "http://en.wikipedia.org/wiki/Stereo_MC's", 'hometown': 'http://dbpedia.org/resource/England', 'start_year': '1985', 'labels': ["http://dbpedia.org/resource/4th_&amp;_B'way_Records", 'http://dbpedia.org/resource/Gee_Street_Records', 'http://dbpedia.org/resource/Island_Records', 'http://dbpedia.org/resource/Rhino_Entertainment'], 'plays_in': ['http://dbpedia.org/resource/Snake_City'], 'genres': ['http://dbpedia.org/resource/Alternative_dance', 'http://dbpedia.org/resource/Alternative_hip_hop', 'http://dbpedia.org/resource/Electronica', 'http://dbpedia.org/resource/Hip_hop_music', 'http://dbpedia.org/resource/Hip_house', 'http://dbpedia.org/resource/House_music'], 'actual_members': ['http://dbpedia.org/resource/Cath_Coffey', 'Rob Birch', 'Owen If', 'The Head', 'Aina Roxx'], 'abstract': 'Stereo MC\'s are an English hip hop/electronic dance group which formed in Nottingham, England, in 1985. They had an international Top 20 hit with their single "Connected". After releasing eight albums for Island Records, K7, Graffiti Recordings, and Pias, they formed the label Connected with Terranova to release their own material and that of other artists within the house/techno/electronic medium.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/George_Harrison', 'artist_name': 'George Harrison', 'wiki': 'http://en.wikipedia.org/wiki/George_Harrison', 'birth_date': '25 February 1943', 'death_date': '29 November 2001', 'start_year': '1958', 'end_year': '2001', 'plays_in': ['http://dbpedia.org/resource/Concert_for_George_(film)', 'http://dbpedia.org/resource/Everest_(1998_film)', 'http://dbpedia.org/resource/Grammy_Nominees', 'http://dbpedia.org/resource/Help!_(film)', 'http://dbpedia.org/resource/Let_It_Be_(1970_film)', 'http://dbpedia.org/resource/Let_It_Be_(musical)', "http://dbpedia.org/resource/Sgt._Pepper's_Lonely_Hearts_Club_Band_(film)", "http://dbpedia.org/resource/Sgt._Pepper's_Lonely_Hearts_Club_Band_on_the_Road", 'http://dbpedia.org/resource/Shanghai_Surprise', 'http://dbpedia.org/resource/Strictly_Diesel', 'http://dbpedia.org/resource/The_Concert_for_Bangladesh_(film)', 'http://dbpedia.org/resource/Wonderwall_(film)', 'http://dbpedia.org/resource/Yellow_Submarine_(film)', 'http://dbpedia.org/resource/Zé_Ramalho_Canta_Beatles'], 'related_artists': ['http://dbpedia.org/resource/Aashish_Khan', 'http://dbpedia.org/resource/Alvin_Taylor', 'http://dbpedia.org/resource/Andy_Fairweather_Low', 'http://dbpedia.org/resource/Badfinger', 'http://dbpedia.org/resource/Billy_Preston', 'http://dbpedia.org/resource/Bobby_Keys', 'http://dbpedia.org/resource/Carl_Perkins', 'http://dbpedia.org/resource/Dave_Mason', 'http://dbpedia.org/resource/David_Hentschel', 'http://dbpedia.org/resource/Derek_and_the_Dominos', 'http://dbpedia.org/resource/Dhani_Harrison', 'http://dbpedia.org/resource/Five_Stairsteps', 'http://dbpedia.org/resource/Gary_Wright', 'http://dbpedia.org/resource/Ian_Paice', 'http://dbpedia.org/resource/Jesse_Ed_Davis', 'http://dbpedia.org/resource/Jim_Gordon_(musician)', 'http://dbpedia.org/resource/Jim_Horn', 'http://dbpedia.org/resource/Jim_Keltner', 'http://dbpedia.org/resource/John_Guerin', 'http://dbpedia.org/resource/Klaus_Voormann', 'http://dbpedia.org/resource/Mac_and_Katie_Kissoon', 'http://dbpedia.org/resource/Pete_Ham', 'http://dbpedia.org/resource/Radha_Krishna_Temple', 'http://dbpedia.org/resource/Ravi_Shankar', 'http://dbpedia.org/resource/Ray_Cooper', 'http://dbpedia.org/resource/René_Tinner', 'http://dbpedia.org/resource/Richard_Dashut', 'http://dbpedia.org/resource/Richard_Tee__Richard_Tee__1', 'http://dbpedia.org/resource/Ronnie_Spector', 'http://dbpedia.org/resource/Steve_Ferrone', 'http://dbpedia.org/resource/The_Remo_Four', 'http://dbpedia.org/resource/The_Rutles', 'http://dbpedia.org/resource/Thenewno2', 'http://dbpedia.org/resource/Tom_Petty_and_the_Heartbreakers__Tom_Petty_and_the_Heartbreakers__1', 'http://dbpedia.org/resource/Tom_Scott_(musician)'], 'abstract': 'George Harrison MBE (25 February 1943 – 29 November 2001) was an English musician, singer-songwriter, and music and film producer who achieved international fame as the lead guitarist of the Beatles. Sometimes called "the quiet Beatle", Harrison embraced Indian culture and helped broaden the scope of popular music through his incorporation of Indian instrumentation and Hindu-aligned spirituality in the Beatles\' work. Although the majority of the band\'s songs were written by John Lennon and Paul McCartney, most Beatles albums from 1965 onwards contained at least two Harrison compositions. His songs for the group include "Taxman", "Within You Without You", "While My Guitar Gently Weeps", "Here Comes the Sun" and "Something". Harrison\'s earliest musical influences included George Formby and Django Reinhardt; Carl Perkins, Chet Atkins and Chuck Berry were subsequent influences. By 1965, he had begun to lead the Beatles into folk rock through his interest in Bob Dylan and the Byrds, and towards Indian classical music through his use of the sitar on "Norwegian Wood (This Bird Has Flown)". Having initiated the band\'s embracing of Transcendental Meditation in 1967, he subsequently developed an association with the Hare Krishna movement. After the band\'s break-up in 1970, Harrison released the triple album All Things Must Pass, a critically acclaimed work that produced his most successful hit single, "My Sweet Lord", and introduced his signature sound as a solo artist, the slide guitar. He also organised the 1971 Concert for Bangladesh with Indian musician Ravi Shankar, a precursor to later benefit concerts such as Live Aid. In his role as a music and film producer, Harrison produced acts signed to the Beatles\' Apple record label before founding Dark Horse Records in 1974 and co-founding HandMade Films in 1978. Harrison released several best-selling singles and albums as a solo performer. In 1988, he co-founded the platinum-selling supergroup the Traveling Wilburys. A prolific recording artist, he was featured as a guest guitarist on tracks by Badfinger, Ronnie Wood and Billy Preston, and collaborated on songs and music with Dylan, Eric Clapton, Ringo Starr and Tom Petty, among others. Rolling Stone magazine ranked him number 11 in their list of the "100 Greatest Guitarists of All Time". He is a two-time Rock and Roll Hall of Fame inductee – as a member of the Beatles in 1988, and posthumously for his solo career in 2004. Harrison\'s first marriage, to model Pattie Boyd in 1966, ended in divorce in 1977. The following year he married Olivia Arias, with whom he had a son, Dhani. Harrison died from lung cancer in 2001 at the age of 58, two years after surviving a knife attack by an intruder at his Friar Park home. His remains were cremated, and the ashes were scattered according to Hindu tradition in a private ceremony in the Ganges and Yamuna rivers in India. He left an estate of almost £100 million.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Kelly_Clarkson', 'artist_name': 'Kelly Clarkson', 'wiki': 'http://en.wikipedia.org/wiki/Kelly_Clarkson', 'birth_date': '24 April 1982', 'start_year': '2002', 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees'], 'related_artists': ['http://dbpedia.org/resource/Ali_Tamposi', 'http://dbpedia.org/resource/Andre_Lindal', 'http://dbpedia.org/resource/Andy_Gibson_(singer)', 'http://dbpedia.org/resource/Ashley_Arrison', 'http://dbpedia.org/resource/Barry_Weeks', 'http://dbpedia.org/resource/Ben_Moody', 'http://dbpedia.org/resource/Bryan_Todd_(record_producer)', 'http://dbpedia.org/resource/Carl_Sturken_and_Evan_Rogers', 'http://dbpedia.org/resource/Carlos_Sosa_(musician)', 'http://dbpedia.org/resource/Cassadee_Pope', 'http://dbpedia.org/resource/Catt_Gravitt', 'http://dbpedia.org/resource/Chris_Deaner', 'http://dbpedia.org/resource/Christian_Hebel', 'http://dbpedia.org/resource/Clif_Magness', 'http://dbpedia.org/resource/Dewain_Whitmore_Jr.', 'http://dbpedia.org/resource/Diztortion', 'http://dbpedia.org/resource/Earth,_Wind_&amp;_Fire_Horns', 'http://dbpedia.org/resource/Faouzia', 'http://dbpedia.org/resource/Greg_Kurstin', 'http://dbpedia.org/resource/Grooveline_Horns', 'http://dbpedia.org/resource/Jason_Aldean', 'http://dbpedia.org/resource/Jason_Halbert', 'http://dbpedia.org/resource/Jennifer_Hanson', 'http://dbpedia.org/resource/Jeremy_McCoy', 'http://dbpedia.org/resource/Jesse_Shatkin', 'http://dbpedia.org/resource/Joacim_Persson', 'http://dbpedia.org/resource/Joseph_Trapanese', 'http://dbpedia.org/resource/Josh_Abraham', "http://dbpedia.org/resource/Marty_O'Brien", 'http://dbpedia.org/resource/Melvin_LaThomas_Brimm', 'http://dbpedia.org/resource/Mick_Schultz', 'http://dbpedia.org/resource/Mickey_Jack_Cones', 'http://dbpedia.org/resource/Mozella', 'http://dbpedia.org/resource/Neil_Ormandy', 'http://dbpedia.org/resource/Nova_Wav', 'http://dbpedia.org/resource/Rhett_Lawrence', 'http://dbpedia.org/resource/Rob_Chiarelli', 'http://dbpedia.org/resource/Rozzi_Crane', 'http://dbpedia.org/resource/Ryan_Riback', 'http://dbpedia.org/resource/Shane_McAnally', 'http://dbpedia.org/resource/Sir_Nolan', 'http://dbpedia.org/resource/TMS_(production_team)', 'http://dbpedia.org/resource/The_Springs_(band)'], 'abstract': 'Kelly Brianne Clarkson (born April 24, 1982) is an American singer, songwriter, and television personality. She rose to fame for winning the first season of American Idol in 2002, which earned her a record deal with RCA. Her debut single, "A Moment Like This", topped the US Billboard Hot 100 and became the country\'s best selling single of 2002. It was included on her debut album, Thankful (2003), which debuted atop the Billboard 200. Trying to reinvent her image, Clarkson parted ways with Idol management and shifted to pop rock for her second studio album, Breakaway (2004). Supported by four US top-ten singles: "Breakaway", "Since U Been Gone", "Behind These Hazel Eyes", and "Because of You", Breakaway sold over 12 million copies worldwide and won two Grammy Awards. Clarkson took further creative control for her third studio album, My December (2007), by co-writing all of its tracks and becoming its executive producer. However, her label was dissatisfied with the album\'s darker rock music and promoted it reluctantly. Clarkson\'s fourth and fifth studio albums, All I Ever Wanted (2009) and Stronger (2011), returned to a lighter tone and pop rock sound, with the former becoming her second US number-one album, and the latter making her the first artist to win the Grammy Award for Best Pop Vocal Album twice. Both albums spawned a Hot 100 number-one single as well: "My Life Would Suck Without You", which holds the record for the biggest jump to number one in the charts history, and "Stronger (What Doesn\'t Kill You)", which became her best-selling single worldwide. Clarkson then became the first American female artist to release the best-selling holiday album of the year with Wrapped in Red (2013). Her seventh studio album, Piece by Piece (2015), debuted at number-one in the US, while its title track reached the top ten. After leaving RCA and signing with Atlantic in 2016, Clarkson released her soul-influenced eighth album, Meaning of Life (2017), which was promoted by her highest-grossing tour to date. She went on to release her ninth studio album and second Christmas album, When Christmas Comes Around... (2021). Clarkson has sold over 25 million albums and 45 million singles worldwide. She has 11 top-ten singles in the US, and nine top-ten singles in the UK, Canada, and Australia. She became the first artist in history to top each of Billboard\'s pop, adult contemporary, adult pop, country, and dance charts. Clarkson has served as a coach on The Voice since its fourteenth season, and since 2019, has hosted her own talk show, The Kelly Clarkson Show. Among her numerous accolades, Clarkson has received three MTV Video Music Awards, four American Music Awards, two Academy of Country Music Awards, and three Daytime Emmy Awards. Billboard has hailed Clarkson as "one of pop music\'s greatest singers", and honored her with the Powerhouse Award for her vocals, while VH1 ranked her nineteenth on their list of the 100 Greatest Women in Music.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Soul_Asylum', 'artist_name': 'Soul Asylum', 'wiki': 'http://en.wikipedia.org/wiki/Soul_Asylum', 'hometown': 'http://dbpedia.org/resource/Minneapolis', 'start_year': '1981', 'labels': ['http://dbpedia.org/resource/429_Records', 'http://dbpedia.org/resource/A&amp;M_Records', 'http://dbpedia.org/resource/Blue_Élan_Records', 'http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Entertainment_One', 'http://dbpedia.org/resource/Legacy_Recordings', 'http://dbpedia.org/resource/Sire_Records', 'http://dbpedia.org/resource/Twin/Tone_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Country_rock', 'http://dbpedia.org/resource/Grunge'], 'actual_members': ['http://dbpedia.org/resource/Dave_Pirner', 'http://dbpedia.org/resource/Michael_Bland', 'Winston Roye', 'Ryan Smith'], 'old_members': ['See [[#Band members'], 'related_artists': ['http://dbpedia.org/resource/Dan_Murphy_(musician)', 'http://dbpedia.org/resource/Dave_Pirner', 'http://dbpedia.org/resource/Ed_Ackerson', 'http://dbpedia.org/resource/Grant_Young_(musician)', 'http://dbpedia.org/resource/Joey_Huffman', 'http://dbpedia.org/resource/Michael_Bland', 'http://dbpedia.org/resource/Perfect_(American_band)', 'http://dbpedia.org/resource/Rami_Jaffee', 'http://dbpedia.org/resource/Sterling_Campbell', 'http://dbpedia.org/resource/The_Replacements_(band)', 'http://dbpedia.org/resource/Tommy_Stinson'], 'abstract': 'Soul Asylum is an American alternative rock band formed in 1981 in Minneapolis, Minnesota. Their 1993 hit "Runaway Train" won the Grammy Award for Best Rock Song. The band was originally called Loud Fast Rules, with a lineup consisting of Dave Pirner, Dan Murphy, Karl Mueller, and Pat Morley. They changed their name to Soul Asylum in 1983. Morley was replaced by Grant Young in 1984. The band recorded three albums with Twin/Tone Records and two with A&amp;M Records, with little commercial success. In 1992, they released the triple-platinum album Grave Dancers Union, featuring "Runaway Train". The band played at the inauguration of President Bill Clinton early the next year. They also scored a platinum record with the album Let Your Dim Light Shine three years later. In 1998 they recorded Candy from a Stranger. Mueller was diagnosed with cancer in 2004, and the band organized a benefit concert on his behalf. Mueller died a year later. The band released four more albums over the next 15 years. Their most recent was Hurry Up and Wait in 2020, their twelfth studio release.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Survivor_(band)', 'artist_name': 'Survivor', 'wiki': 'http://en.wikipedia.org/wiki/Survivor_(band)', 'hometown': 'http://dbpedia.org/resource/Chicago', 'start_year': '1979', 'end_year': '1988', 'labels': ['http://dbpedia.org/resource/Frontiers_Records', 'http://dbpedia.org/resource/PolyGram', 'http://dbpedia.org/resource/Scotti_Brothers_Records'], 'genres': ['http://dbpedia.org/resource/Arena_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Rock_music'], 'actual_members': ['http://dbpedia.org/resource/Frankie_Sullivan', 'Billy Ozzello', 'Cameron Barton', 'Jeffrey Bryan', 'Ryan Sullivan'], 'old_members': ['http://dbpedia.org/resource/Dave_Bickler', 'http://dbpedia.org/resource/Gary_Smith_(drummer)', 'http://dbpedia.org/resource/Jim_Peterik', 'http://dbpedia.org/resource/Jimi_Jamison', 'http://dbpedia.org/resource/Kyle_Woodring', 'http://dbpedia.org/resource/Robin_McAuley', 'Barry Dunaway', 'Chris Grove', 'Marc Droubay', 'Michael Young', 'Mitchell Sigman', 'Klem Hayes', 'Randy Riley', 'Gordon Patriarca', 'Dennis Keith Johnson', 'Stephan Ellis', 'Walter Tolentino', 'Bill Syniar'], 'related_artists': ['http://dbpedia.org/resource/Cobra_(American_band)', 'http://dbpedia.org/resource/Dave_Bickler', 'http://dbpedia.org/resource/Frankie_Sullivan', 'http://dbpedia.org/resource/Gary_Smith_(drummer)', 'http://dbpedia.org/resource/Jim_Peterik', 'http://dbpedia.org/resource/Jimi_Jamison', 'http://dbpedia.org/resource/Kyle_Woodring', 'http://dbpedia.org/resource/McAuley_Schenker_Group', 'http://dbpedia.org/resource/Robin_McAuley', 'http://dbpedia.org/resource/Target_(American_band)', 'http://dbpedia.org/resource/The_Ides_of_March_(band)'], 'abstract': 'Survivor are an American rock band formed in Chicago in 1978 by Jim Peterik and Frankie Sullivan. The band achieved its best success in the 1980s, producing many charting singles, especially in the United States. The band is best-known for their double-platinum-certified 1982 hit "Eye of the Tiger", the theme song for the 1982 motion picture Rocky III; that single spent six weeks at number one in the US. The band continued to chart in the mid-1980s with singles like "Burning Heart" (US number 2), "The Search Is Over" (US number 4), "High on You" (US number 8), "Is This Love" (US number 9), and "I Can\'t Hold Back" (US number 13).'}</t>
   </si>
   <si>
     <t>{'artist': 'http://dbpedia.org/resource/Good_Charlotte', 'artist_name': 'Good Charlotte', 'wiki': 'http://en.wikipedia.org/wiki/Good_Charlotte', 'hometown': 'http://dbpedia.org/resource/Waldorf,_Maryland', 'start_year': '1996', 'end_year': '2011', 'labels': ['http://dbpedia.org/resource/BMG_Rights_Management', 'http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/Daylight_Records', 'http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Kobalt_Label_Services'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Emo', 'http://dbpedia.org/resource/Pop-punk', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Punk_rock', 'Pop punk'], 'actual_members': ['http://dbpedia.org/resource/Benji_Madden', 'http://dbpedia.org/resource/Billy_Martin_(guitarist)', 'http://dbpedia.org/resource/Joel_Madden', 'http://dbpedia.org/resource/Paul_Thomas_(bassist)', 'Dean Butterworth'], 'old_members': ['Aaron Escolopio', 'Chris Wilson'], 'related_artists': ['http://dbpedia.org/resource/Billy_Martin_(guitarist)', 'http://dbpedia.org/resource/Josh_Freese', 'http://dbpedia.org/resource/Lola_Ray__Lola_Ray__1', 'http://dbpedia.org/resource/Mest', 'http://dbpedia.org/resource/One_Buck_Short', 'http://dbpedia.org/resource/Paul_Thomas_(bassist)', 'http://dbpedia.org/resource/Rockie_Fresh', 'http://dbpedia.org/resource/The_Madden_Brothers', 'http://dbpedia.org/resource/This_Century', 'http://dbpedia.org/resource/Wakefield_(band)'], 'abstract': 'Good Charlotte is an American rock band from Waldorf, Maryland that formed in 1996. Since 2005, the band\'s lineup has consisted of Joel Madden (lead vocals), Benji Madden (guitar and vocals), Paul Thomas (bass), Billy Martin (guitar and keyboards), and Dean Butterworth (drums and percussion). The band released their self-titled debut album in 2000 to mostly positive reviews. In 2002, they achieved breakthrough success with their second album, The Young and the Hopeless. Featuring the hit singles "Lifestyles of the Rich and Famous", "The Anthem" and "Girls &amp; Boys", The Young and the Hopeless sold 3.5 million copies in the US and was certified triple platinum by the RIAA, for a total of almost 5 million copies sold worldwide. The band followed up with The Chronicles of Life and Death in 2004; a darker album, both musically and lyrically. Backed by the singles "Predictable" and "I Just Wanna Live", The Chronicles of Life and Death continued the band\'s success, and the album was certified platinum by the RIAA, selling over one million copies in the US alone. In 2007, they released the dance-punk inspired album Good Morning Revival before going back to their pop punk-roots with the album Cardiology in 2010. After a four-year-long hiatus, the band announced its comeback on November 3, 2015. The band released Youth Authority to positive reviews in 2016, and in 2018 they released their latest album, Generation Rx. In addition, they released two compilations: Greatest Remixes in 2008 and Greatest Hits in 2010.'}</t>
   </si>
   <si>
-    <t>{'artist': 'http://dbpedia.org/resource/CKY_(band)', 'artist_name': 'CKY', 'wiki': 'http://en.wikipedia.org/wiki/CKY_(band)', 'hometown': 'http://dbpedia.org/resource/West_Chester,_Pennsylvania', 'start_year': '1998', 'aliases': ['Camp', 'Camp Kill Yourself'], 'labels': ['http://dbpedia.org/resource/Island_Records', 'http://dbpedia.org/resource/MNRK_Music_Group', 'http://dbpedia.org/resource/Roadrunner_Records', 'http://dbpedia.org/resource/SPV_GmbH', 'http://dbpedia.org/resource/Volcom_Entertainment'], 'plays_in': ['http://dbpedia.org/resource/CKY_(video_series)', 'http://dbpedia.org/resource/CKY_(video_series)__CKY2K__1', 'http://dbpedia.org/resource/CKY_(video_series)__CKY3__1', 'http://dbpedia.org/resource/CKY_(video_series)__CKY4:_The_Latest_&amp;_Greatest__1', 'http://dbpedia.org/resource/CKY_(video_series)__CKY__1', 'http://dbpedia.org/resource/The_Vision_of_Paolo_Soleri:_Prophet_in_the_Desert'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Skate_punk', 'http://dbpedia.org/resource/Stoner_rock'], 'actual_members': ['http://dbpedia.org/resource/Chad_I_Ginsburg', 'http://dbpedia.org/resource/Jess_Margera'], 'old_members': ['http://dbpedia.org/resource/Daniel_Davies_(musician)', 'http://dbpedia.org/resource/Deron_Miller', 'http://dbpedia.org/resource/Matt_Deis', 'Matt "Matty J" Janaitis'], 'related_artists': ['http://dbpedia.org/resource/96_Bitter_Beings', 'http://dbpedia.org/resource/Brent_Hinds', 'http://dbpedia.org/resource/Chad_I_Ginsburg', 'http://dbpedia.org/resource/Deron_Miller', 'http://dbpedia.org/resource/Foreign_Objects_(band)', 'http://dbpedia.org/resource/Gnarkill', 'http://dbpedia.org/resource/Jess_Margera', 'http://dbpedia.org/resource/Matt_Deis', 'http://dbpedia.org/resource/Viking_Skull', 'http://dbpedia.org/resource/World_Under_Blood', 'http://dbpedia.org/resource/Year_Long_Disaster'], 'abstract': "CKY (abbreviation of the band's original name Camp Kill Yourself) is an American rock band from West Chester, Pennsylvania. Formed in 1998 by vocalist and guitarist Deron Miller, guitarist Chad I Ginsburg and drummer Jess Margera, the group currently features Margera and Ginsburg with touring bassist Chris Weyh. CKY found initial recognition through its contributions to the CKY video series and Jackass TV series, both of which featured Margera's brother Bam. After releasing its debut album Volume 1 in 1999, CKY signed with Island/Def Jam and issued Infiltrate•Destroy•Rebuild in 2002, which gave the band its first experience of US chart success. In 2005 the album An Answer Can Be Found followed, after which the group signed with Roadrunner Records and released Carver City in 2009. Miller left the band in 2011, after which Ginsburg, Margera and bassist Matt Deis released The Phoenix on Entertainment One Music in 2017. CKY has been categorized in genres including post-grunge, hard rock, stoner rock and skate punk. The band's songwriting in the past was typically led by Miller, with production, engineering and mixing handled by Ginsburg. Since Miller's departure in 2011, Ginsburg has taken over as frontman. Miller has since reformed pre-CKY group Foreign Objects (which originally included Margera) and founded 96 Bitter Beings, his own continuance of the material he previously played with CKY."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Crossfade_(band)', 'artist_name': 'Crossfade', 'wiki': 'http://en.wikipedia.org/wiki/Crossfade_(band)', 'hometown': 'http://dbpedia.org/resource/Columbia,_South_Carolina', 'start_year': '1993', 'aliases': ['Sugardaddy Superstar (2000–2002)', 'The Nothing (1993–2000)'], 'labels': ['http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Eleven_Seven_Label_Group'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['http://dbpedia.org/resource/Les_Hall', 'Mitch James', 'Ryan Yerdon', 'Ed Sloan'], 'old_members': ['http://dbpedia.org/resource/Mark_Castillo', 'James Branham', 'Brian Geiger', 'Tony Byroads'], 'related_artists': ['http://dbpedia.org/resource/Les_Hall', 'http://dbpedia.org/resource/Mark_Castillo', 'http://dbpedia.org/resource/Will_Hunt'], 'abstract': 'Crossfade is an American rock band formed in Columbia, South Carolina, United States, in 1993. Before settling on the Crossfade name in 2002, the band had previously existed under the names The Nothing and Sugardaddy Superstar. As of 2019, their current lineup includes Ed Sloan on lead vocals and guitar, Les Hall on lead guitar, keyboard, and backing vocals, Mitch James on backing vocals and bass and Ryan Yerdon on drums. Since their formation, Crossfade has released three studio albums – their self-titled debut album in 2004, Falling Away in 2006, and We All Bleed in 2011.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Saving_Abel', 'artist_name': 'Saving Abel', 'wiki': 'http://en.wikipedia.org/wiki/Saving_Abel', 'hometown': 'http://dbpedia.org/resource/Corinth,_Mississippi', 'start_year': '2004', 'labels': ['http://dbpedia.org/resource/MNRK_Music_Group', 'http://dbpedia.org/resource/Virgin_Records'], 'genres': ['http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Post-grunge', 'http://dbpedia.org/resource/Southern_rock'], 'actual_members': ['http://dbpedia.org/resource/Scott_Wilson_(musician)', 'Scott Bartlett', 'Jason Null', 'Dave Matthews', 'Jared Weeks'], 'old_members': ['Michael McManus', 'Blake Dixon', 'Eric Taylor', 'Daniel Dwight', 'Scott Austin', 'Steven Pulley'], 'related_artists': ['http://dbpedia.org/resource/Jamie_Davis_(musician)', 'http://dbpedia.org/resource/Scott_Wilson_(musician)'], 'abstract': 'Saving Abel is an American rock band from Corinth, Mississippi, founded in 2004 by Jared Weeks and Jason Null. The band is named after the biblical story of Cain and Abel, in which a man named Cain kills his brother Abel. Band member Jason Null thought up the band title saying "I Googled the story of Cain and Abel and found a line about \'there was no saving Abel,\' which just jumped out at me." Lead singer Jared Weeks left the band at the end of 2013 to pursue a solo career, but returned in 2021, replacing Scott Austin.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Escape_the_Fate', 'artist_name': 'Escape the Fate', 'wiki': 'http://en.wikipedia.org/wiki/Escape_the_Fate', 'hometown': 'http://dbpedia.org/resource/Las_Vegas', 'start_year': '2004', 'labels': ['http://dbpedia.org/resource/DGC_Records', 'http://dbpedia.org/resource/Eleven_Seven_Label_Group', 'http://dbpedia.org/resource/Epitaph_Records', 'http://dbpedia.org/resource/Interscope_Records', 'http://dbpedia.org/resource/Polydor_Records', 'http://dbpedia.org/resource/Universal_Music_Group'], 'genres': ['http://dbpedia.org/resource/Emo', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Metalcore', 'http://dbpedia.org/resource/Post-hardcore', 'http://dbpedia.org/resource/Screamo'], 'actual_members': ['http://dbpedia.org/resource/Craig_Mabbitt', 'Thomas "TJ" Bell', 'Robert Ortiz', 'Kevin "Thrasher" Gruft'], 'old_members': ['http://dbpedia.org/resource/Carson_Allen', 'http://dbpedia.org/resource/Max_Green_(musician)', 'http://dbpedia.org/resource/Monte_Money', 'http://dbpedia.org/resource/Omar_Espinosa', 'http://dbpedia.org/resource/Ronnie_Radke', 'Michael Money'], 'related_artists': ['http://dbpedia.org/resource/Alex_Torres_(musician)', 'http://dbpedia.org/resource/Beyond_Unbroken_(band)', 'http://dbpedia.org/resource/Carson_Allen', 'http://dbpedia.org/resource/Craig_Mabbitt', 'http://dbpedia.org/resource/Derek_Jones_(musician)', 'http://dbpedia.org/resource/Falling_in_Reverse', 'http://dbpedia.org/resource/Fearless_Vampire_Killers_(band)', 'http://dbpedia.org/resource/LoveHateHero', 'http://dbpedia.org/resource/Max_Green_(musician)', 'http://dbpedia.org/resource/Monte_Money', 'http://dbpedia.org/resource/Omar_Espinosa', 'http://dbpedia.org/resource/On_the_Last_Day', 'http://dbpedia.org/resource/The_Dead_Rabbitts'], 'abstract': 'Escape the Fate is an American rock band from Las Vegas, Nevada, formed in 2004 and originally from Pahrump, Nevada. They are signed to Eleven Seven Music. The group consists of Robert Ortiz (drummer), Craig Mabbitt (lead vocalist), TJ Bell (rhythm guitarist and vocalist), Kevin "Thrasher" Gruft (lead guitarist) and touring musician Erik Jensen (bassist). As of 2013, Ortiz is the last founding member in the current lineup of the group. They have released three EPs and six full-length studio albums. Dying Is Your Latest Fashion was the band\'s first album. This War Is Ours was released on October 21, 2008. The album debuted at No. 35 on the Billboard 200, selling 13,000 copies in the first week. Their third studio album, Escape the Fate, was released worldwide on November 2, 2010. The album charted at No. 25 on the Billboard 200, No. 1 on Hard Rock Albums, No. 4 on Rock Albums, No. 3 on Alternative and Independent charts and No. 18 on the Digital Albums Chart. Their fourth album, Ungrateful, was released on May 14, 2013, by Eleven Seven Music, and charted at No. 27 on the Billboard 200, with 17,000 copies sold in its first week. Their fifth album, Hate Me, was released on October 30, 2015, and charted at No. 58 on the Billboard 200. Their sixth album, I Am Human, was released on March 30, 2018. Their seventh album, Chemical Warfare, was released on April 16, 2021.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Audioslave', 'artist_name': 'Audioslave', 'wiki': 'http://en.wikipedia.org/wiki/Audioslave', 'hometown': 'http://dbpedia.org/resource/Glendale,_California', 'start_year': '2001', 'end_year': '2007', 'labels': ['http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Interscope_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Post-grunge'], 'old_members': ['http://dbpedia.org/resource/Brad_Wilk', 'http://dbpedia.org/resource/Chris_Cornell', 'http://dbpedia.org/resource/Tim_Commerford', 'http://dbpedia.org/resource/Tom_Morello'], 'related_artists': ['http://dbpedia.org/resource/Axis_of_Justice', 'http://dbpedia.org/resource/Brad_Wilk', 'http://dbpedia.org/resource/Greg_Fidelman', 'http://dbpedia.org/resource/Lock_Up_(American_band)', 'http://dbpedia.org/resource/Prophets_of_Rage', 'http://dbpedia.org/resource/Rage_Against_the_Machine', 'http://dbpedia.org/resource/Rage_Against_the_Machine__Rage_Against_the_Machine__1', 'http://dbpedia.org/resource/Soundgarden', 'http://dbpedia.org/resource/Street_Sweeper_Social_Club', 'http://dbpedia.org/resource/The_Last_Internationale', 'http://dbpedia.org/resource/The_Nightwatchman', 'http://dbpedia.org/resource/Tim_Commerford', 'http://dbpedia.org/resource/Tom_Morello', 'http://dbpedia.org/resource/Wakrat'], 'abstract': "Audioslave was an American rock supergroup formed in Glendale, California, in 2001. The four-piece band consisted of Soundgarden's lead singer and rhythm guitarist Chris Cornell with Rage Against the Machine members Tom Morello (lead guitar), Tim Commerford (bass/backing vocals), and Brad Wilk (drums). Critics first described Audioslave as a combination of Soundgarden and Rage Against the Machine, but by the band's second album, Out of Exile, it was noted that they had established a separate identity. Their unique sound was created by blending 1970s hard rock and 1990s alternative rock, with musical influences that included 1960s funk, soul and R&amp;B. As with Rage Against the Machine, the band prided themselves on the fact that all sounds on their albums were produced using only guitars, bass, drums, and vocals, with emphasis on Cornell's wide vocal range and Morello's unconventional guitar solos. In their six years together, Audioslave released three albums, received three Grammy nominations, sold more than eight million records worldwide and became the first American rock band to perform an open-air concert in Cuba. They disbanded in February 2007 after Cornell issued a statement announcing that he was leaving the band. Later that year, Cornell and Morello released solo albums, and Morello, Commerford, and Wilk reunited with Zack de la Rocha for the Rage Against the Machine Reunion Tour. Audioslave reunited to perform at Prophets of Rage's Anti-Inaugural Ball, which took place on January 20, 2017. Cornell's death later that year precluded any chance of further reunions."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Soil_(British_band)', 'artist_name': 'Soil', 'wiki': 'http://en.wikipedia.org/wiki/Soil_(British_band)', 'hometown': 'http://dbpedia.org/resource/Manchester', 'start_year': '1984', 'end_year': '1987', 'genres': ['http://dbpedia.org/resource/Indie_pop'], 'old_members': ['Gary Farrell', "Ged O'Brien", 'Kevin Siddall', 'Lee Bennett', 'Matthew Karas', 'Phil Morris', 'Rob Kerford'], 'related_artists': ['http://dbpedia.org/resource/Glassglue'], 'abstract': 'Soil was a British indie pop group, formed in Manchester in 1984, by North Manchester school-friends, Kevin Siddall (songwriter/guitar), Lee Bennett (bass guitar) and Rob Kerford (drums), and University of Manchester student, Matthew Karas (songwriter/vocals/keyboards/harmonica). Kerford left the group, just before the first gig, and Matthew\'s neighbour, Ravi Low-Beer, stood in on drums. Low-Beer, Kerford and guitarist, Siddall, all played drums on the four song cassette, Too Ill to Close the Door, which was duplicated and distributed by the group, and reviewed in City Life and the Manchester Evening News. After auditioning a few drummers, Gary Farrell, from Stretford, joined the group. In this line-up, Soil supported The Smiths in Kilburn, on 23 October 1986, at Morrissey\'s invitation. This was the concert at which The Smiths\' live album, Rank, was recorded. Karas had given Morrissey a cassette during a chance encounter, and received a postcard shortly afterwards. In the same year, Soil played at venues around Manchester, and regularly appeared at The Boardwalk. They also supported Easterhouse on a short UK tour. Their only release was a flexi-single on the cover of Debris fanzine, edited by Dave Haslam. The track, "Front Room". was played on BBC Radio 1 by John Peel several times, as well as on the local radio stations, BBC Radio Manchester and Red Rose Radio. Karas and Kevin recorded three jingles for the BBC Radio Manchester show, Meltdown, which were played weekly for several months. Soon after the Smiths concert, both Farrell and Bennett left the group. Karas and Siddall played one concert with a backing tape, before recruiting bass guitarist, Phil Morris, and drummer, Ged O\'Brien, who played at their final performance at The Boardwalk in 1987. Karas and Siddall have written and recorded sporadically since 1987, but have not released anything or performed in public. They played a short set in 2013, at Karas\' 50th birthday party. Karas played bass guitar and harmonica with The Fallen Leaves from 2009 until 2021, and has been playing various instruments, writing and arranging with Glassglue since 2003.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Rob_Thomas_(musician)', 'artist_name': 'Rob Thomas', 'wiki': 'http://en.wikipedia.org/wiki/Rob_Thomas_(musician)', 'hometown': 'http://dbpedia.org/resource/Sarasota,_Florida', 'birth_date': '14 February 1972', 'start_year': '1990', 'labels': ['http://dbpedia.org/resource/Atlantic_Records'], 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees'], 'genres': ['http://dbpedia.org/resource/Adult_contemporary_music', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Post-grunge', 'http://dbpedia.org/resource/Soft_rock', 'adult contemporary', 'pop'], 'related_artists': ['http://dbpedia.org/resource/Britton_Buchanan', 'http://dbpedia.org/resource/Chris_Trapper', 'http://dbpedia.org/resource/Itaal_Shur', 'http://dbpedia.org/resource/Jeff_Trott', 'http://dbpedia.org/resource/Jon_Farriss', 'http://dbpedia.org/resource/Kyle_Cook', 'http://dbpedia.org/resource/LeAnn_Rimes', 'http://dbpedia.org/resource/Matchbox_Twenty', 'http://dbpedia.org/resource/Matt_Serletic', 'http://dbpedia.org/resource/Santana_(band)', "http://dbpedia.org/resource/Tabitha's_Secret", 'http://dbpedia.org/resource/The_Break_and_Repair_Method', 'http://dbpedia.org/resource/Tim_Williams_(rock_musician)'], 'abstract': 'Robert Kelly Thomas (born February 14, 1972) is an American singer, songwriter, and multi-instrumentalist best known for being the lead singer of the rock band Matchbox Twenty. Thomas also records and performs as a solo artist, with "Lonely No More" released in 2005 becoming his biggest solo chart success. Thomas received three Grammy Awards for co-writing and singing on the 1999 hit "Smooth" by Santana and it also was his first song as a solo artist. He has also been a songwriter for artists such as Willie Nelson, Mick Jagger, Marc Anthony, Pat Green, Taylor Hicks, Travis Tritt, and Daughtry. Since 1996, his band has released a string of hit singles to radio, including "Push", "3AM", "Real World", "Back 2 Good", "Bent", "If You\'re Gone", "Mad Season", "Disease", "Unwell", "Bright Lights", "How Far We\'ve Come", and "She\'s So Mean". In 2004, the Songwriters Hall of Fame awarded Thomas its first Hal David Starlight Award, recognizing young songwriters who have already had a lasting influence in the music industry.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Amy_Lee_(saxophonist)', 'artist_name': 'Amy Lee', 'wiki': 'http://en.wikipedia.org/wiki/Amy_Lee_(saxophonist)', 'hometown': 'http://dbpedia.org/resource/North_Adams,_Massachusetts', 'genres': ['Jazz'], 'abstract': "Amy Lee is an American saxophonist, composer and arranger. She has played with a variety of musicians and singers, and is best known for being a member of Jimmy Buffett's Coral Reefer Band. Lee was born in North Adams, Massachusetts and studied music at the University of Miami. After graduating, she moved to Atlanta, Georgia. While living in Atlanta, Lee met Charles Neville of The Neville Brothers and began playing for his group Diversity at the New Orleans Jazz and Heritage Festival. Her first album performance was in 1990 on Richard Smallwood's Portrait. After playing with Diversity for six years at the Festival, Lee was introduced to Jimmy Buffett by Neville, and in 1991, she joined Buffett's Coral Reefer Band, where she recorded and toured until 2006. During her career, Lee has recorded for gospel singer Luther Barnes and rap group Y'all So Stupid. She has also acted as a performer, arranger and writer for radio and television commercials. Lee released her first solo album in 1999, a jazz record titled Inside the Outside. A second album, Use Me, was released in 2004. All of her solo music is released on her independent label Publick Ptomaine Music."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Danko_Jones', 'artist_name': 'Danko Jones', 'wiki': 'http://en.wikipedia.org/wiki/Danko_Jones', 'hometown': 'http://dbpedia.org/resource/Toronto', 'start_year': '1996', 'labels': ['http://dbpedia.org/resource/Aquarius_Records_(Canada)', 'http://dbpedia.org/resource/Bad_Taste_Records'], 'genres': ['http://dbpedia.org/resource/Blues_rock', 'http://dbpedia.org/resource/Garage_punk_(fusion_genre)', 'http://dbpedia.org/resource/Garage_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Punk_blues'], 'actual_members': ['http://dbpedia.org/resource/Danko_Jones_(musician)', 'John Calabrese', 'Rich Knox'], 'old_members': ['Adam Willard', 'Damon Richardson', 'Dan Cornelius', 'Gavin Brown', 'Michael Caricari', 'Niko Quintal'], 'related_artists': ['http://dbpedia.org/resource/Atom_Willard', 'http://dbpedia.org/resource/Cold_Driven', 'http://dbpedia.org/resource/Cookie_Duster', 'http://dbpedia.org/resource/Danko_Jones_(musician)', 'http://dbpedia.org/resource/The_Special_Goodness'], 'abstract': "Danko Jones is a Canadian hard rock trio from Toronto. The band consists of Indo-Canadian Danko Jones (vocals/guitar), John 'JC' Calabrese (bass), and Rich Knox (drums). The band's music includes elements of hard rock and punk and they are known for their energetic live shows."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Theory_of_a_Deadman', 'artist_name': 'Theory of a Deadman', 'wiki': 'http://en.wikipedia.org/wiki/Theory_of_a_Deadman', 'hometown': 'http://dbpedia.org/resource/North_Delta', 'start_year': '1999', 'aliases': ['TOAD', 'Theory'], 'labels': ['http://dbpedia.org/resource/604_Records', 'http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Island_Records', 'http://dbpedia.org/resource/Roadrunner_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['Tyler Connolly', 'Dave Brenner', 'Dean Back', 'Joey Dandeneau'], 'old_members': ['http://dbpedia.org/resource/Brent_Fitz', 'Tim Hart', 'Robin Diaz'], 'related_artists': ['http://dbpedia.org/resource/Brent_Fitz', 'http://dbpedia.org/resource/Daniel_Adair', 'http://dbpedia.org/resource/Devin_Bronson', 'http://dbpedia.org/resource/Jocelyn_&amp;_Lisa', 'http://dbpedia.org/resource/Nickelback'], 'abstract': 'Theory of a Deadman (abbreviated as Theory or TOAD) is a Canadian rock band from North Delta, British Columbia. Formed in 1999, the band is currently signed to Roadrunner Records as well as 604 Records. The band includes traits of music styles, such as country and acoustic, in addition to their post-grunge and alternative rock foundation. Nine of their singles have entered the top ten of the US Billboard Mainstream Rock chart, including four songs that peaked at number one: "Bad Girlfriend", "Lowlife", "Rx (Medicate)" and "History of Violence".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Bad_Wolves', 'artist_name': 'Bad Wolves', 'wiki': 'http://en.wikipedia.org/wiki/Bad_Wolves', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '2017', 'labels': ['http://dbpedia.org/resource/Better_Noise_Music', 'http://dbpedia.org/resource/Eleven_Seven_Label_Group'], 'genres': ['http://dbpedia.org/resource/Djent', 'http://dbpedia.org/resource/Groove_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music', 'Heavy metal'], 'actual_members': ['John Boecklin ', 'Doc Coyle ', 'Chris Cain ', 'Kyle Konkiel ', 'Daniel "DL" Lasckiewicz'], 'old_members': ['http://dbpedia.org/resource/Tommy_Vext'], 'related_artists': ['http://dbpedia.org/resource/Bury_Your_Dead', 'http://dbpedia.org/resource/DevilDriver', 'http://dbpedia.org/resource/Divine_Heresy', 'http://dbpedia.org/resource/Five_Finger_Death_Punch', 'http://dbpedia.org/resource/God_Forbid', 'http://dbpedia.org/resource/In_This_Moment', 'http://dbpedia.org/resource/The_Acacia_Strain', 'http://dbpedia.org/resource/Tommy_Vext', 'http://dbpedia.org/resource/Vimic'], 'abstract': 'Bad Wolves is an American heavy metal band formed in 2017. Initially finding fame from their first single, a cover of the Cranberries\' 1994 hit "Zombie", the band proceeded to find further success with a number of songs topping the Billboard Mainstream Rock songs chart, including "Remember When", "Killing Me Slowly", and "Sober". To date, the band has released three studio albums, Disobey (2018), N.A.T.I.O.N. (2019) and Dear Monsters (2021). In January 2021, Vext left the band and was replaced by Daniel "DL" Lasckiewicz. Tensions ensued between Vext and the band, resulting in legal proceedings including Better Noise Music.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Greta_Van_Fleet', 'artist_name': 'Greta Van Fleet', 'wiki': 'http://en.wikipedia.org/wiki/Greta_Van_Fleet', 'hometown': 'http://dbpedia.org/resource/Frankenmuth,_Michigan', 'start_year': '2012', 'labels': ['http://dbpedia.org/resource/Lava_Records', 'http://dbpedia.org/resource/Republic_Records'], 'genres': ['http://dbpedia.org/resource/Blues_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Progressive_rock'], 'actual_members': ['Josh Kiszka', 'Jake Kiszka', 'Sam Kiszka', 'Danny Wagner'], 'old_members': ['Kyle Hauck'], 'abstract': 'Greta Van Fleet is an American rock band from Frankenmuth, Michigan, formed in 2012. It consists of Kiszka brothers Josh (vocals), Jake (guitar) and Sam (bass guitar, keyboards); and Danny Wagner (drums). They were signed to Lava Records in March 2017, and a month later they released their debut studio EP, Black Smoke Rising. Their debut single, "Highway Tune", topped the Billboard U.S. Mainstream Rock and Active Rock charts in September 2017 for four weeks in a row. Their second EP, From the Fires, containing the four songs from Black Smoke Rising and four new songs, was released on November 10, 2017, alongside a second single, "Safari Song". From the Fires went on to win the 2019 Grammy Award for Best Rock Album. Their debut full-length studio album, Anthem of the Peaceful Army, was released on October 19, 2018, and topped the Billboard Rock Album charts in the first week after its release. The album\'s first single, "When the Curtain Falls", was released ahead of it in July 2018 and became the band\'s third number-one single on the U.S. Billboard Mainstream Rock charts. Anthem of the Peaceful Army also debuted atop the Billboard Hard Rock charts and reached the number one spot on the Billboard Top Album Sales charts in the first week after its release. A second studio album, The Battle at Garden\'s Gate was released on April 16, 2021.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Jonathan_Davis', 'artist_name': 'Jonathan Davis', 'wiki': 'http://en.wikipedia.org/wiki/Jonathan_Davis', 'birth_date': '18 January 1971', 'start_year': '1987', 'aliases': ['J Devil', 'JD', 'JDevil'], 'labels': ['http://dbpedia.org/resource/Dim_Mak_Records', 'http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Immortal_Records', 'http://dbpedia.org/resource/MNRK_Music_Group', 'http://dbpedia.org/resource/Prospect_Park_(production_company)', 'http://dbpedia.org/resource/Roadrunner_Records', 'http://dbpedia.org/resource/Sumerian_Records', 'http://dbpedia.org/resource/Virgin_Records'], 'plays_in': ['http://dbpedia.org/resource/After_the_Dark', 'http://dbpedia.org/resource/Queen_of_the_Damned'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Heavy_metal_music', 'http://dbpedia.org/resource/Industrial_metal', 'http://dbpedia.org/resource/Nu_metal'], 'related_artists': ['http://dbpedia.org/resource/Amy_Lee', 'http://dbpedia.org/resource/Infected_Mushroom', 'http://dbpedia.org/resource/Jonathan_Davis_and_the_SFA', 'http://dbpedia.org/resource/Killbot_(band)', 'http://dbpedia.org/resource/Korn', 'http://dbpedia.org/resource/Limp_Bizkit', 'http://dbpedia.org/resource/Linkin_Park', 'http://dbpedia.org/resource/Michael_Jochum', 'http://dbpedia.org/resource/Motionless_in_White', 'http://dbpedia.org/resource/Sexart', 'http://dbpedia.org/resource/Skynd_(band)', 'http://dbpedia.org/resource/Suicide_Silence', 'http://dbpedia.org/resource/Sunflower_Dead'], 'abstract': "Jonathan Howsmon Davis (born January 18, 1971), also known as JD, or JDevil, is an American singer, songwriter, and musician. He is best known as the lead vocalist and frontman of nu metal band Korn, who are considered a pioneering act of the nu metal genre. Davis' distinctive personality and Korn's music influenced a generation of musicians and performers who have come after them. Davis co-founded Korn in Los Angeles in 1993 with the dissolution of two bands, Sexart and L.A.P.D. He had led Sexart during his years as an assistant coroner. Davis rapidly gained notoriety for his intense and powerful live performances with Korn. Anchored by his personal, passionate lyrics and unusual tenor vocals, Davis launched a successful career which has spanned almost three decades, although his popularity declined in the middle of the 2000s. Davis' vocals, which alternate from an angry tone to a high-pitched voice, switching from sounding atmospheric to aggressively screaming, have been the trademark of Korn throughout the band's career. From 2000 to 2001, Davis and Richard Gibbs wrote and produced the score and soundtrack album of Queen of the Damned, his first work outside the band. He began his side project called Jonathan Davis and the SFA in 2007, and continued to experiment with musical styles. He released his first solo album in 2018. He has collaborated with various artists over the course of his career, ranging from metal to alternative rock, rap, world music and electronic music. Davis is a multi-instrumentalist musician who plays guitar, drums, bagpipes; piano, upright bass, violin, and the clarinet. He is also versatile in many genres, mixing tracks and performs DJ sets with his alter ego JDevil. For decades, Davis has been passionate about visual arts, horror films, comics, and video games. Fourteen of his albums reached the top 10 on the Billboard 200, including MTV Unplugged and Greatest Hits, Vol. 1. In the U.S, he was awarded fifteen platinum album certifications by the Recording Industry Association of America (RIAA). In Australia, he received eight platinum album certifications by the Australian Recording Industry Association (ARIA), and in the UK he received six gold certifications. He won two Grammy Awards out of eight nominations throughout his career. As of 2018, Davis has sold over 40 million albums worldwide."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Sevendust', 'artist_name': 'Sevendust', 'wiki': 'http://en.wikipedia.org/wiki/Sevendust', 'hometown': 'http://dbpedia.org/resource/Atlanta', 'start_year': '1994', 'aliases': ['Crawlspace', 'Rumblefish'], 'labels': ['http://dbpedia.org/resource/Asylum_Records', 'http://dbpedia.org/resource/Rise_Records', 'http://dbpedia.org/resource/Roadrunner_Records', 'http://dbpedia.org/resource/TVT_Records'], 'plays_in': ['http://dbpedia.org/resource/MTV_The_Return_of_the_Rock', 'http://dbpedia.org/resource/Swimfan', 'http://dbpedia.org/resource/Woodstock_1999_(album)'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music', 'http://dbpedia.org/resource/Nu_metal', 'heavy metal'], 'actual_members': ['http://dbpedia.org/resource/Clint_Lowery', 'http://dbpedia.org/resource/John_Connolly_(musician)', 'http://dbpedia.org/resource/Lajon_Witherspoon', 'http://dbpedia.org/resource/Morgan_Rose', 'http://dbpedia.org/resource/Vinnie_Hornsby', 'Vince Hornsby'], 'old_members': ['http://dbpedia.org/resource/Sonny_Mayo'], 'related_artists': ['http://dbpedia.org/resource/Call_Me_No_One', 'http://dbpedia.org/resource/Clint_Lowery', 'http://dbpedia.org/resource/Corey_Lowery', 'http://dbpedia.org/resource/Dark_New_Day', 'http://dbpedia.org/resource/John_Connolly_(musician)__John_Connolly__1', 'http://dbpedia.org/resource/Morgan_Rose', 'http://dbpedia.org/resource/Projected', 'http://dbpedia.org/resource/Snot_(band)', 'http://dbpedia.org/resource/Stuck_Mojo'], 'abstract': 'Sevendust is an American rock band from Atlanta, Georgia, formed in 1994 by bassist Vince Hornsby, drummer Morgan Rose, and guitarist John Connolly. After their first demo, lead vocalist Lajon Witherspoon and guitarist Clint Lowery joined the group. Following a few name changes, the members settled on the name Sevendust and released their self-titled debut album on April 15, 1997, which sold only 310 copies in its first week but ultimately achieved gold certification through touring and support from their label, TVT Records. Since formation, Sevendust have attained success with three consecutive RIAA gold-certified albums, a Grammy nomination, and have sold millions of records worldwide. The group has released a total of thirteen studio albums, including a reissue of their debut as Sevendust: Definitive Edition, which contains five new tracks and a DVD.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Parkway_Drive', 'artist_name': 'Parkway Drive', 'wiki': 'http://en.wikipedia.org/wiki/Parkway_Drive', 'hometown': 'http://dbpedia.org/resource/Byron_Bay', 'start_year': '2003', 'aliases': ['PWD', 'Parkway'], 'labels': ['http://dbpedia.org/resource/Burning_Heart_Records', 'http://dbpedia.org/resource/Epitaph_Records', 'http://dbpedia.org/resource/Resist_Records'], 'genres': ['http://dbpedia.org/resource/Deathcore', 'http://dbpedia.org/resource/Heavy_metal_music', 'http://dbpedia.org/resource/Metalcore', 'heavy metal'], 'actual_members': ['Ben Gordon', 'Jeff Ling', "Jia O'Connor", 'Luke Kilpatrick', 'Winston McCall'], 'old_members': ['Brett Versteeg', 'Shaun Cash'], 'related_artists': ['http://dbpedia.org/resource/Adam_Dutkiewicz', 'http://dbpedia.org/resource/Confession_(band)', 'http://dbpedia.org/resource/I_Killed_the_Prom_Queen', 'http://dbpedia.org/resource/In_Hearts_Wake', 'http://dbpedia.org/resource/Northlane'], 'abstract': "Parkway Drive are an Australian metalcore band from Byron Bay, New South Wales, formed in 2003. As of 2018, Parkway Drive have released six studio albums, one EP, two DVDs, a split album and one book, titled Ten Years of Parkway Drive. The band's latest four albums have reached the top 10 of the Australian ARIA Charts, with Ire reaching number 1 in October 2015, and Reverence in May 2018. The band's line-up has been consistent since the addition of bassist Jia O'Connor in 2006, with Brett Versteeg having left in 2004 and Shaun Cash in 2006."}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'South Yorkshire', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/South_Yorkshire', 'place': 'http://sws.geonames.org/2637273/', 'geo_link': 'http://www.geonames.org/2637273/south-yorkshire.html', 'lat': '53.5', 'long': '-1.3333333333333333', 'population': '1292900'}</t>
+    <t>{'artist': 'http://dbpedia.org/resource/Adele', 'artist_name': 'Adele', 'wiki': 'http://en.wikipedia.org/wiki/Adele', 'birth_date': '05 May 1988', 'start_year': '2006', 'plays_in': ['http://dbpedia.org/resource/Avenida_Brasil_(TV_series)', 'http://dbpedia.org/resource/Grammy_Nominees'], 'related_artists': ['http://dbpedia.org/resource/Amanda_Brown_(singer)', 'http://dbpedia.org/resource/Andrew_Scheps', 'http://dbpedia.org/resource/Ariel_Rechtshaid', 'http://dbpedia.org/resource/Cameron_Craig', 'http://dbpedia.org/resource/Chris_Dave', 'http://dbpedia.org/resource/Connie_Constance', 'http://dbpedia.org/resource/Daniel_Merriweather', 'http://dbpedia.org/resource/Darius_Rucker', 'http://dbpedia.org/resource/Greg_Kurstin', 'http://dbpedia.org/resource/High_Contrast', 'http://dbpedia.org/resource/Inflo', 'http://dbpedia.org/resource/Jack_Peñate', 'http://dbpedia.org/resource/Jim_Abbiss', 'http://dbpedia.org/resource/Lil_Silva', 'http://dbpedia.org/resource/Ludwig_Göransson', 'http://dbpedia.org/resource/Neil_Cowley', "http://dbpedia.org/resource/Rag'n'Bone_Man__Rag'n'Bone_Man__1", 'http://dbpedia.org/resource/Randy_Merrill', 'http://dbpedia.org/resource/Rick_Nowels', 'http://dbpedia.org/resource/Rodaidh_McDonald', 'http://dbpedia.org/resource/SEARLS', 'http://dbpedia.org/resource/Sacha_Skarbek', 'http://dbpedia.org/resource/Samuel_Dixon', 'http://dbpedia.org/resource/Selan', 'http://dbpedia.org/resource/Tobias_Jesso_Jr.', 'http://dbpedia.org/resource/Tom_Coyne_(music_engineer)'], 'abstract': 'Adele Laurie Blue Adkins MBE (/əˈdɛl/; born 5 May 1988) is an English singer and songwriter. She is one of the world\'s best-selling music artists, with sales of over 120 million records. After graduating in arts from the BRIT School in 2006, Adele signed a record deal with XL Recordings. Her debut album, 19, was released in 2008 and spawned the UK top-five singles "Chasing Pavements" and "Make You Feel My Love". The album was certified 8× platinum in the UK and triple platinum in the US. Adele was honored with the Brit Award for Rising Star as well as the Grammy Award for Best New Artist. Adele released her second studio album, 21, in 2011. It became the world\'s best-selling album of the 21st century, with sales of over 31 million copies. It was certified 17× platinum in the UK (the highest by a solo artist of all time) and Diamond in the US. According to Billboard, 21 is the top-performing album in the US chart history, topping the Billboard 200 for 24 weeks (the longest for a female artist ever). She was the first female artist in the history of the Billboard Hot 100 to have three simultaneous top-ten singles as a lead artist, with "Rolling in the Deep", "Someone Like You", and "Set Fire to the Rain", all of which also topped the chart. The album received a record-tying six Grammy Awards, including Album of the Year and the Brit Award for British Album of the Year. The success of 21 earned Adele numerous mentions in the Guinness Book of Records. In 2012, Adele released "Skyfall", a soundtrack single for the James Bond film of the same name, which won the Academy Award and the Golden Globe Award for Best Original Song. Her third studio album, 25, was released in 2015 and became the year\'s best-selling album and broke first-week sales records in the UK and US. 25 was her second album to be certified Diamond in the US and earned her five Grammy Awards, including Album of the Year, and four Brit Awards, including British Album of the Year. The lead single, "Hello", became the first song in the US to sell over one million digital copies within a week of its release. Her fourth studio album 30, which contains the chart-topping single "Easy on Me", was released in 2021. Adele\'s accolades include fifteen Grammy Awards and nine Brit Awards. In 2011, 2012, and 2016, Billboard named her Artist of the Year. At the 2012 and 2016 Ivor Novello Awards, Adele was named Songwriter of the Year by the British Academy of Songwriters, Composers, and Authors. In 2012, she was listed at number five on VH1\'s 100 Greatest Women in Music. Time magazine named her one of the most influential people in the world in 2012 and 2016. Her third tour saw her break attendance records globally, including in the UK, Australia, and the US, and her album 21 has been listed in Rolling Stone\'s 500 Greatest Albums of All Time (2020).'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Orange County, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Orange_County%2C_California', 'place': 'http://sws.geonames.org/5379524/', 'geo_link': 'http://www.geonames.org/5379524/orange-county.html', 'lat': '33.67', 'long': '-117.78', 'population': '3010232'}</t>
   </si>
   <si>
     <t>{'place_name': 'London', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/London', 'place': 'http://sws.geonames.org/2643743/', 'geo_link': 'http://www.geonames.org/2643743/london.html', 'lat': '51.507222222222225', 'long': '-0.1275', 'population': '7556900'}</t>
   </si>
   <si>
-    <t>{'place_name': 'Gympie', 'country_code': 'AU', 'wiki': 'http://en.wikipedia.org/wiki/Gympie', 'place': 'http://sws.geonames.org/2164129/', 'geo_link': 'http://www.geonames.org/2164129/gympie.html', 'lat': '26.183333333333334', 'long': '152.66666666666666', 'population': '11027'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Des Moines, Iowa', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Des_Moines%2C_Iowa', 'place': 'http://sws.geonames.org/4853828/', 'postal_code': '50333', 'geo_link': 'http://www.geonames.org/4853828/des-moines.html', 'lat': '41.590833333333336', 'long': '-93.62083333333334', 'population': '203433'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Yorba Linda, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Yorba_Linda%2C_California', 'place': 'http://sws.geonames.org/5410902/', 'postal_code': '92886', 'geo_link': 'http://www.geonames.org/5410902/yorba-linda.html', 'lat': '33.888551', 'long': '-117.813231', 'population': '64234'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Las Vegas', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Las_Vegas', 'place': 'http://sws.geonames.org/5506956/', 'postal_code': '89106', 'geo_link': 'http://www.geonames.org/5506956/las-vegas.html', 'lat': '36.175', 'long': '-115.13638888888889', 'population': '583756'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Southfield, Michigan', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Southfield%2C_Michigan', 'place': 'http://sws.geonames.org/5010643/', 'geo_link': 'http://www.geonames.org/5010643/township-of-southfield.html', 'lat': '42.47972222222222', 'long': '-83.245'}</t>
+    <t>{'place_name': 'Ontario', 'country_code': 'CA', 'wiki': 'http://en.wikipedia.org/wiki/Ontario', 'place': 'http://sws.geonames.org/6093943/', 'geo_link': 'http://www.geonames.org/6093943/ontario.html', 'lat': '50.0', 'long': '-85.0', 'population': '12861940'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Padua', 'country_code': 'IT', 'wiki': 'http://en.wikipedia.org/wiki/Padua', 'place': 'http://sws.geonames.org/3171728/', 'geo_link': 'http://www.geonames.org/3171727/provincia-di-padova.html', 'lat': '45.416666666666664', 'long': '11.866666666666667', 'population': '921361'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/California', 'place': 'http://sws.geonames.org/5332921/', 'geo_link': 'http://www.geonames.org/5332921/california.html', 'lat': '35.458606', 'long': '-119.355165', 'population': '37691912'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Liverpool', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Liverpool', 'place': 'http://sws.geonames.org/3333167/', 'geo_link': 'http://www.geonames.org/2644210/liverpool.html', 'lat': '53.4', 'long': '-2.9833333333333334', 'population': '468945'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Merthyr Tydfil', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Merthyr_Tydfil', 'place': 'http://sws.geonames.org/2642705/', 'geo_link': 'http://www.geonames.org/2642705/merthyr-tydfil.html', 'lat': '51.743', 'long': '-3.378', 'population': '30821'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Lodi, New Jersey', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Lodi%2C_New_Jersey', 'place': 'http://sws.geonames.org/5100604/', 'postal_code': '07644', 'geo_link': 'http://www.geonames.org/5100604/lodi.html', 'lat': '40.877915', 'long': '-74.0825', 'population': '24136'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Buffalo, New York', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%91%D1%83%D1%84%D1%84%D0%B0%D0%BB%D0%BE', 'place': 'http://sws.geonames.org/5110629/', 'postal_code': '14202', 'geo_link': 'http://www.geonames.org/5110629/buffalo.html', 'lat': '42.90472222222222', 'long': '-78.84944444444444', 'population': '261310'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'San Diego', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/San_Diego', 'place': 'http://sws.geonames.org/5391811/', 'postal_code': '92140', 'geo_link': 'http://www.geonames.org/5391811/san-diego.html', 'lat': '32.715', 'long': '-117.1625', 'population': '1307402'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Birmingham', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Birmingham', 'place': 'http://sws.geonames.org/3333125/', 'geo_link': 'http://www.geonames.org/2655603/birmingham.html', 'lat': '52.48305555555555', 'long': '-1.8936111111111111', 'population': '984333'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Memphis, Tennessee', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%9C%D0%B5%D0%BC%D1%84%D0%B8%D1%81_%28%D0%A2%D0%B5%D0%BD%D0%BD%D0%B5%D1%81%D1%81%D0%B8%29', 'place': 'http://sws.geonames.org/4641239/', 'postal_code': '38173', 'geo_link': 'http://www.geonames.org/4641239/memphis.html', 'lat': '35.1175', 'long': '-89.97111111111111', 'population': '646889'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Glasgow', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Glasgow', 'place': 'http://sws.geonames.org/3333231/', 'geo_link': 'http://www.geonames.org/2648579/glasgow.html', 'lat': '55.858', 'long': '-4.259', 'population': '610268'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Sweden', 'country_code': 'SE', 'wiki': 'http://en.wikipedia.org/wiki/Sweden', 'place': 'http://sws.geonames.org/2661886/', 'geo_link': 'http://www.geonames.org/2661886/kingdom-of-sweden.html', 'lat': '62', 'long': '15', 'population': '9828655'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'New York City', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/New_York_City', 'place': 'http://sws.geonames.org/5128581/', 'postal_code': '10041', 'geo_link': 'http://www.geonames.org/5128581/new-york-city.html', 'lat': '40.7127', 'long': '-74.0059', 'population': '8175133'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Philadelphia', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Philadelphia', 'place': 'http://sws.geonames.org/4560349/', 'postal_code': '19109', 'geo_link': 'http://www.geonames.org/4560349/philadelphia.html', 'lat': '39.95', 'long': '-75.16666666666667', 'population': '1526006'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Iceland', 'country_code': 'IS', 'wiki': 'http://en.wikipedia.org/wiki/Iceland', 'place': 'http://sws.geonames.org/2629691/', 'geo_link': 'http://www.geonames.org/2629691/republic-of-iceland.html', 'lat': '65', 'long': '-18', 'population': '308910'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Buenos Aires', 'country_code': 'AR', 'wiki': 'http://en.wikipedia.org/wiki/Buenos_Aires', 'place': 'http://sws.geonames.org/3435910/', 'geo_link': 'http://www.geonames.org/3433955/ciudad-autonoma-de-buenos-aires.html', 'lat': '-34.60333333333333', 'long': '-58.38166666666667', 'population': '2776138'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Bowling Green, Kentucky', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Bowling_Green%2C_Kentucky', 'place': 'http://sws.geonames.org/4285268/', 'postal_code': '42101', 'geo_link': 'http://www.geonames.org/4285268/bowling-green.html', 'lat': '36.98166666666667', 'long': '-86.44444444444444', 'population': '58067'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Stockholm', 'country_code': 'SE', 'wiki': 'http://en.wikipedia.org/wiki/Stockholm', 'place': 'http://sws.geonames.org/2673730/', 'geo_link': 'http://www.geonames.org/2673730/stockholm.html', 'lat': '59.32944444444445', 'long': '18.06861111111111', 'population': '1253309'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Darmstadt', 'country_code': 'DE', 'wiki': 'http://en.wikipedia.org/wiki/Darmstadt', 'place': 'http://sws.geonames.org/3220962/', 'geo_link': 'http://www.geonames.org/2938913/darmstadt.html', 'lat': '49.86666666666667', 'long': '8.65', 'population': '140385'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Netherlands', 'country_code': 'NL', 'wiki': 'http://en.wikipedia.org/wiki/Netherlands', 'place': 'http://sws.geonames.org/2750405/', 'geo_link': 'http://www.geonames.org/2750405/kingdom-of-the-netherlands.html', 'lat': '52.36666666666667', 'long': '5.75', 'population': '16645000'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Los Angeles', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Los_Angeles', 'place': 'http://sws.geonames.org/5368361/', 'postal_code': '90001', 'geo_link': 'http://www.geonames.org/5368361/los-angeles.html', 'lat': '34.05', 'long': '-118.25', 'population': '3792621'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'San Francisco', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/San_Francisco', 'place': 'http://sws.geonames.org/5391997/', 'postal_code': '94118', 'geo_link': 'http://www.geonames.org/5391959/san-francisco.html', 'lat': '37.78333333333333', 'long': '-122.41666666666667', 'population': '805235'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Norway', 'country_code': 'NO', 'wiki': 'http://en.wikipedia.org/wiki/Norway', 'place': 'http://sws.geonames.org/3144096/', 'geo_link': 'http://www.geonames.org/3144096/kingdom-of-norway.html', 'lat': '62', 'long': '10', 'population': '5009150'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Newport Beach, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Newport_Beach%2C_California', 'place': 'http://sws.geonames.org/5376889/', 'geo_link': 'http://www.geonames.org/5376889/newport-beach.html', 'lat': '33.61666666666667', 'long': '-117.8975'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Western Australia', 'country_code': 'AU', 'wiki': 'http://en.wikipedia.org/wiki/Western_Australia', 'place': 'http://sws.geonames.org/2058645/', 'geo_link': 'http://www.geonames.org/2058645/state-of-western-australia.html', 'lat': '-25', 'long': '122', 'population': '2239170'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Fort Lauderdale, Florida', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Fort_Lauderdale%2C_Florida', 'place': 'http://sws.geonames.org/4155966/', 'postal_code': '33320', 'geo_link': 'http://www.geonames.org/4155966/fort-lauderdale.html', 'lat': '26.133333333333333', 'long': '-80.15', 'population': '165521'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Frankfurt', 'country_code': 'DE', 'wiki': 'http://en.wikipedia.org/wiki/Frankfurt', 'place': 'http://sws.geonames.org/6553153/', 'geo_link': 'http://www.geonames.org/2925533/frankfurt-am-main.html', 'lat': '50.11666666666667', 'long': '8.683333333333334', 'population': '650000'}</t>
   </si>
   <si>
     <t>{'place_name': 'England', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/England', 'place': 'http://sws.geonames.org/6269131/', 'geo_link': 'http://www.geonames.org/6269131/england.html', 'lat': '51.5', 'long': '-0.11666666666666667', 'population': '50000000'}</t>
   </si>
   <si>
-    <t>{'place_name': 'Huntington Beach, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Dwyer_Middle_School', 'place': 'http://sws.geonames.org/5358705/', 'postal_code': '92648', 'geo_link': 'http://www.geonames.org/5346952/ethel-dwyer-middle-school.html', 'lat': '33.69277777777778', 'long': '-118.00027777777778', 'population': '189992'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'San Antonio', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/San_Antonio', 'place': 'http://sws.geonames.org/4726206/', 'postal_code': '78233', 'geo_link': 'http://www.geonames.org/4726206/san-antonio.html', 'lat': '29.416666666666668', 'long': '-98.5', 'population': '1327407'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Newark, New Jersey', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Newark%2C_New_Jersey', 'place': 'http://sws.geonames.org/5101798/', 'postal_code': '07191', 'geo_link': 'http://www.geonames.org/5101798/newark.html', 'lat': '40.72422', 'long': '-74.172574', 'population': '277140'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Peterborough, Ontario', 'country_code': 'CA', 'wiki': 'http://en.wikipedia.org/wiki/Peterborough%2C_Ontario', 'place': 'http://sws.geonames.org/6101645/', 'geo_link': 'http://www.geonames.org/6101645/peterborough.html', 'lat': '44.3', 'long': '-78.31666666666666', 'population': '75877'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Memphis, Tennessee', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%9C%D0%B5%D0%BC%D1%84%D0%B8%D1%81_%28%D0%A2%D0%B5%D0%BD%D0%BD%D0%B5%D1%81%D1%81%D0%B8%29', 'place': 'http://sws.geonames.org/4641239/', 'postal_code': '38173', 'geo_link': 'http://www.geonames.org/4641239/memphis.html', 'lat': '35.1175', 'long': '-89.97111111111111', 'population': '646889'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Wilkes-Barre, Pennsylvania', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Wilkes-Barre%2C_Pennsylvania', 'place': 'http://sws.geonames.org/5219488/', 'geo_link': 'http://www.geonames.org/5219488/wilkes-barre.html', 'lat': '41.24444444444445', 'long': '-75.87805555555556', 'population': '41498'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Seattle', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Seattle', 'place': 'http://sws.geonames.org/5809844/', 'postal_code': '98166', 'geo_link': 'http://www.geonames.org/5809844/seattle.html', 'lat': '47.609722222222224', 'long': '-122.33305555555556', 'population': '608660'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Sydney', 'country_code': 'AU', 'wiki': 'http://en.wikipedia.org/wiki/Sydney', 'place': 'http://sws.geonames.org/2147714/', 'geo_link': 'http://www.geonames.org/2147714/sydney.html', 'lat': '33.865', 'long': '151.20944444444444', 'population': '4627345'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Jacksonville, Florida', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Jacksonville%2C_Florida', 'place': 'http://sws.geonames.org/4160021/', 'postal_code': '32232', 'geo_link': 'http://www.geonames.org/4160021/jacksonville.html', 'lat': '30.336944444444445', 'long': '-81.6613888888889', 'population': '821784'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Lawrence, Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Lawrence%2C_Massachusetts', 'place': 'http://sws.geonames.org/4941720/', 'postal_code': '01841', 'geo_link': 'http://www.geonames.org/4941720/lawrence.html', 'lat': '42.706944444444446', 'long': '-71.16361111111111', 'population': '76377'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Glendale, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Glendale%2C_California', 'place': 'http://sws.geonames.org/5352423/', 'postal_code': '91208', 'geo_link': 'http://www.geonames.org/5352423/glendale.html', 'lat': '34.14611111111111', 'long': '-118.255', 'population': '191719'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Los Angeles', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Los_Angeles', 'place': 'http://sws.geonames.org/5368361/', 'postal_code': '90001', 'geo_link': 'http://www.geonames.org/5368361/los-angeles.html', 'lat': '34.05', 'long': '-118.25', 'population': '3792621'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Fort Lauderdale, Florida', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Fort_Lauderdale%2C_Florida', 'place': 'http://sws.geonames.org/4155966/', 'postal_code': '33320', 'geo_link': 'http://www.geonames.org/4155966/fort-lauderdale.html', 'lat': '26.133333333333333', 'long': '-80.15', 'population': '165521'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Toronto', 'country_code': 'CA', 'wiki': 'http://en.wikipedia.org/wiki/Toronto', 'place': 'http://sws.geonames.org/8133394/', 'geo_link': 'http://www.geonames.org/6167865/toronto.html', 'lat': '43.7', 'long': '-79.4', 'population': '2600000'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Vacaville, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Vacaville%2C_California', 'place': 'http://sws.geonames.org/5405228/', 'postal_code': '95688', 'geo_link': 'http://www.geonames.org/5405228/vacaville.html', 'lat': '38.35388888888889', 'long': '-121.97277777777778', 'population': '92428'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Lancaster, Pennsylvania', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Lancaster%2C_Pennsylvania', 'place': 'http://sws.geonames.org/5197079/', 'postal_code': '17622', 'geo_link': 'http://www.geonames.org/5197079/lancaster.html', 'lat': '40.039722222222224', 'long': '-76.30444444444444', 'population': '59322'}</t>
+    <t>{'place_name': 'Kingston, Jamaica', 'country_code': 'JM', 'wiki': 'http://en.wikipedia.org/wiki/Kingston,_Jamaica', 'place': 'http://sws.geonames.org/3489854/', 'geo_link': 'http://www.geonames.org/3489854/kingston.html', 'lat': '17.983333333333334', 'long': '-76.8', 'population': '937700'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Kansas City, Missouri', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Kansas_City%2C_Missouri', 'place': 'http://sws.geonames.org/4393217/', 'postal_code': '64196', 'geo_link': 'http://www.geonames.org/4393217/kansas-city.html', 'lat': '39.09972222222222', 'long': '-94.57833333333333', 'population': '459787'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Malmö', 'country_code': 'SE', 'wiki': 'http://en.wikipedia.org/wiki/Malmo', 'place': 'http://sws.geonames.org/2692969/', 'geo_link': 'http://www.geonames.org/2692969/malmoe.html', 'lat': '55.60583333333334', 'long': '13.035833333333333', 'population': '261548'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Neuilly-sur-Seine', 'country_code': 'FR', 'wiki': 'http://en.wikipedia.org/wiki/Neuilly-sur-Seine', 'place': 'http://sws.geonames.org/2990611/', 'postal_code': '92200', 'geo_link': 'http://www.geonames.org/2990611/neuilly-sur-seine.html', 'lat': '48.8881', 'long': '2.2686', 'population': '61300'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Minneapolis', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Minneapolis', 'place': 'http://sws.geonames.org/5037649/', 'postal_code': '55484', 'geo_link': 'http://www.geonames.org/5037649/minneapolis.html', 'lat': '44.983333333333334', 'long': '-93.26666666666667', 'population': '382578'}</t>
   </si>
   <si>
     <t>{'place_name': 'Chicago', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Chicago', 'place': 'http://sws.geonames.org/4887398/', 'postal_code': '60633', 'geo_link': 'http://www.geonames.org/4887398/chicago.html', 'lat': '41.83694444444444', 'long': '-87.68472222222222', 'population': '2695598'}</t>
   </si>
   <si>
-    <t>{'place_name': 'Muskegon, Michigan', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Muskegon%2C_Michigan', 'place': 'http://sws.geonames.org/5003132/', 'postal_code': '49440', 'geo_link': 'http://www.geonames.org/5003132/muskegon.html', 'lat': '43.23416666666667', 'long': '-86.24833333333333', 'population': '38401'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Pretoria', 'country_code': 'ZA', 'wiki': 'http://en.wikipedia.org/wiki/Pretoria', 'place': 'http://sws.geonames.org/964137/', 'geo_link': 'http://www.geonames.org/964137/pretoria.html', 'lat': '-25.746111111111112', 'long': '28.188055555555554', 'population': '1619438'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Columbus, Ohio', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%9A%D0%BE%D0%BB%D1%83%D0%BC%D0%B1%D1%83%D1%81_%28%D0%9E%D0%B3%D0%B0%D0%B9%D0%BE%29', 'place': 'http://sws.geonames.org/4509177/', 'postal_code': '43232', 'geo_link': 'http://www.geonames.org/4509177/columbus.html', 'lat': '39.983333333333334', 'long': '-82.98333333333333', 'population': '787033'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Massachusetts', 'place': 'http://sws.geonames.org/6254926/', 'geo_link': 'http://www.geonames.org/6254926/massachusetts.html', 'lat': '42.36565', 'long': '-71.10832', 'population': '6433422'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Ohio', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Ohio', 'place': 'http://sws.geonames.org/5165418/', 'geo_link': 'http://www.geonames.org/5165418/ohio.html', 'lat': '41.121999833333334', 'long': '-80.68399983333333', 'population': '11467123'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Dallas', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Dallas', 'place': 'http://sws.geonames.org/4684888/', 'postal_code': '75221', 'geo_link': 'http://www.geonames.org/4684888/dallas.html', 'lat': '32.77583333333333', 'long': '-96.79666666666667', 'population': '1197816'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Illinois', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Illinois', 'place': 'http://sws.geonames.org/4896861/', 'geo_link': 'http://www.geonames.org/4896861/illinois.html', 'lat': '41.278216', 'long': '-88.380238', 'population': '12772888'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Springfield, Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Springfield%2C_Massachusetts', 'place': 'http://sws.geonames.org/4951788/', 'postal_code': '01111', 'geo_link': 'http://www.geonames.org/4951788/springfield.html', 'lat': '42.10138888888889', 'long': '-72.59027777777777', 'population': '153060'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Westfield, Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Westfield%2C_Massachusetts', 'place': 'http://sws.geonames.org/4955190/', 'postal_code': '01085', 'geo_link': 'http://www.geonames.org/4955190/westfield.html', 'lat': '42.125', 'long': '-72.75', 'population': '41094'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Costa Mesa, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Costa_Mesa%2C_California', 'place': 'http://sws.geonames.org/5339840/', 'postal_code': '92627', 'geo_link': 'http://www.geonames.org/5339840/costa-mesa.html', 'lat': '33.665', 'long': '-117.91222222222223', 'population': '109960'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'London, Ontario', 'country_code': 'CA', 'wiki': 'http://uk.wikipedia.org/wiki/%D0%9B%D0%BE%D0%BD%D0%B4%D0%BE%D0%BD_(%D0%9E%D0%BD%D1%82%D0%B0%D1%80%D1%96%D0%BE)', 'place': 'http://sws.geonames.org/6058560/', 'geo_link': 'http://www.geonames.org/6058560/london.html', 'lat': '42.9837', 'long': '-81.2497', 'population': '346765'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Jackson Township, New Jersey', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Jackson_Township%2C_New_Jersey', 'place': 'http://sws.geonames.org/5099769/', 'geo_link': 'http://www.geonames.org/5099769/township-of-jackson.html', 'lat': '40.093077', 'long': '-74.35618'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Garden Grove, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Garden_Grove%2C_California', 'place': 'http://sws.geonames.org/5351515/', 'postal_code': '92844', 'geo_link': 'http://www.geonames.org/5351515/garden-grove.html', 'lat': '33.778888888888886', 'long': '-117.96027777777778', 'population': '170883'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Bartlett, Tennessee', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Bartlett%2C_Tennessee', 'place': 'http://sws.geonames.org/4604183/', 'geo_link': 'http://www.geonames.org/4604183/bartlett.html', 'lat': '35.223055555555554', 'long': '-89.8411111111111', 'population': '54613'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/California', 'place': 'http://sws.geonames.org/5332921/', 'geo_link': 'http://www.geonames.org/5332921/california.html', 'lat': '35.458606', 'long': '-119.355165', 'population': '37691912'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Tennessee', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Tennessee', 'place': 'http://sws.geonames.org/4662168/', 'geo_link': 'http://www.geonames.org/4662168/tennessee.html', 'lat': '35.75035', 'long': '-86.25027', 'population': '5935099'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Little Rock, Arkansas', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Little_Rock%2C_Arkansas', 'place': 'http://sws.geonames.org/4119403/', 'postal_code': '72223', 'geo_link': 'http://www.geonames.org/4119403/little-rock.html', 'lat': '34.736111111111114', 'long': '-92.33111111111111', 'population': '193524'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Burlington, Ontario', 'country_code': 'CA', 'wiki': 'http://en.wikipedia.org/wiki/Burlington%2C_Ontario', 'place': 'http://sws.geonames.org/5911592/', 'geo_link': 'http://www.geonames.org/5911592/burlington.html', 'lat': '43.31666666666667', 'long': '-79.8', 'population': '164415'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Escatawpa, Mississippi', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Escatawpa%2C_Mississippi', 'place': 'http://sws.geonames.org/4425816/', 'postal_code': '39552', 'geo_link': 'http://www.geonames.org/4425816/escatawpa.html', 'lat': '30.489166666666666', 'long': '-88.55111111111111', 'population': '3722'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Hanna, Alberta', 'country_code': 'CA', 'wiki': 'http://en.wikipedia.org/wiki/Hanna%2C_Alberta', 'place': 'http://sws.geonames.org/5970234/', 'geo_link': 'http://www.geonames.org/5970234/hanna.html', 'lat': '51.638333333333335', 'long': '-111.94194444444445', 'population': '3140'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Washington (state)', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Washington_%28state%29', 'place': 'http://sws.geonames.org/5815135/', 'geo_link': 'http://www.geonames.org/5815135/washington.html', 'lat': '47.50012', 'long': '-120.50147', 'population': '6271775'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Tulsa, Oklahoma', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Tulsa,_Oklahoma', 'place': 'http://sws.geonames.org/4553433/', 'postal_code': '74182', 'geo_link': 'http://www.geonames.org/4553433/tulsa.html', 'lat': '36.131388888888885', 'long': '-95.93722222222222', 'population': '391906'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Oklahoma City', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Oklahoma_City', 'place': 'http://sws.geonames.org/4544349/', 'postal_code': '73143', 'geo_link': 'http://www.geonames.org/4544349/oklahoma-city.html', 'lat': '35.48222222222222', 'long': '-97.535', 'population': '579999'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Tallahassee, Florida', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%A2%D0%B0%D0%BB%D0%BB%D0%B0%D1%85%D0%B0%D1%81%D1%81%D0%B8', 'place': 'http://sws.geonames.org/4174715/', 'postal_code': '32314', 'geo_link': 'http://www.geonames.org/4174715/tallahassee.html', 'lat': '30.455', 'long': '-84.25333333333333', 'population': '181376'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Calabasas, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Calabasas%2C_California', 'place': 'http://sws.geonames.org/5332593/', 'postal_code': '91302', 'geo_link': 'http://www.geonames.org/5332593/calabasas.html', 'lat': '34.138333333333335', 'long': '-118.66083333333333', 'population': '23058'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Oakland, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Oakland%2C_California', 'place': 'http://sws.geonames.org/5378538/', 'postal_code': '94601', 'geo_link': 'http://www.geonames.org/5378538/oakland.html', 'lat': '37.80444444444444', 'long': '-122.27083333333333', 'population': '390724'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Washington, D.C.', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Washington,_D.C.', 'place': 'http://sws.geonames.org/4140963/', 'postal_code': '20578', 'geo_link': 'http://www.geonames.org/4138106/district-of-columbia.html', 'lat': '38.90472222222222', 'long': '-77.01638888888888', 'population': '552433'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'New York City', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/New_York_City', 'place': 'http://sws.geonames.org/5128581/', 'postal_code': '10041', 'geo_link': 'http://www.geonames.org/5128581/new-york-city.html', 'lat': '40.7127', 'long': '-74.0059', 'population': '8175133'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Long Beach, California', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%9B%D0%BE%D0%BD%D0%B3-%D0%91%D0%B8%D1%87_%28%D0%9A%D0%B0%D0%BB%D0%B8%D1%84%D0%BE%D1%80%D0%BD%D0%B8%D1%8F%29', 'place': 'http://sws.geonames.org/5367929/', 'postal_code': '90853', 'geo_link': 'http://www.geonames.org/5367929/long-beach.html', 'lat': '33.76833333333333', 'long': '-118.19555555555556', 'population': '462257'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Dublin', 'country_code': 'IE', 'wiki': 'http://en.wikipedia.org/wiki/Dublin', 'place': 'http://sws.geonames.org/7778677/', 'geo_link': 'http://www.geonames.org/2964574/dublin.html', 'lat': '53.34777777777778', 'long': '-6.259722222222222', 'population': '1024027'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Williamsburg, Virginia', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Williamsburg%2C_Virginia', 'place': 'http://sws.geonames.org/4793846/', 'postal_code': '23186', 'geo_link': 'http://www.geonames.org/4793846/williamsburg.html', 'lat': '37.270833333333336', 'long': '-76.70694444444445', 'population': '14068'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Copenhagen', 'country_code': 'DK', 'wiki': 'http://en.wikipedia.org/wiki/Copenhagen', 'place': 'http://sws.geonames.org/2618425/', 'geo_link': 'http://www.geonames.org/2618425/copenhagen.html', 'lat': '55.67611111111111', 'long': '12.568333333333333', 'population': '1153615'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Riverside, California', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%A0%D0%B8%D0%B2%D0%B5%D1%80%D1%81%D0%B0%D0%B9%D0%B4_%28%D0%9A%D0%B0%D0%BB%D0%B8%D1%84%D0%BE%D1%80%D0%BD%D0%B8%D1%8F%29', 'place': 'http://sws.geonames.org/5387877/', 'postal_code': '92501', 'geo_link': 'http://www.geonames.org/5387877/riverside.html', 'lat': '33.948055555555555', 'long': '-117.39611111111111', 'population': '303871'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Agoura Hills, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Agoura_Hills%2C_California', 'place': 'http://sws.geonames.org/5322553/', 'postal_code': '91301', 'geo_link': 'http://www.geonames.org/5322553/agoura-hills.html', 'lat': '34.153333333333336', 'long': '-118.76166666666667', 'population': '20330'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Texas', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Texas', 'place': 'http://sws.geonames.org/4736286/', 'geo_link': 'http://www.geonames.org/4736286/texas.html', 'lat': '31.0', 'long': '-100.0', 'population': '22875689'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Maryland', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Maryland', 'place': 'http://sws.geonames.org/4361885/', 'geo_link': 'http://www.geonames.org/4361885/maryland.html', 'lat': '39.00039', 'long': '-76.74997', 'population': '5624246'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Bakersfield, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Bakersfield%2C_California', 'place': 'http://sws.geonames.org/5325738/', 'postal_code': '93308', 'geo_link': 'http://www.geonames.org/5325738/bakersfield.html', 'lat': '35.36666666666667', 'long': '-119.01666666666667', 'population': '347483'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Nevada', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Nevada', 'place': 'http://sws.geonames.org/5509151/', 'geo_link': 'http://www.geonames.org/5509151/nevada.html', 'lat': '39.0', 'long': '-117.0', 'population': '2399532'}</t>
-  </si>
-  <si>
     <t>{'place_name': 'Waldorf, Maryland', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Waldorf%2C_Maryland', 'place': 'http://sws.geonames.org/4372599/', 'postal_code': '20603', 'geo_link': 'http://www.geonames.org/4372599/waldorf.html', 'lat': '38.64611111111111', 'long': '-76.89833333333333', 'population': '67752'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'West Chester, Pennsylvania', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/West_Chester%2C_Pennsylvania', 'place': 'http://sws.geonames.org/4562144/', 'postal_code': '19381', 'geo_link': 'http://www.geonames.org/4562144/west-chester.html', 'lat': '39.95861111111111', 'long': '-75.605', 'population': '18461'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Columbia, South Carolina', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Columbia%2C_South_Carolina', 'place': 'http://sws.geonames.org/4575352/', 'postal_code': '29225', 'geo_link': 'http://www.geonames.org/4575352/columbia.html', 'lat': '34.00055555555556', 'long': '-81.03472222222223', 'population': '129272'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Corinth, Mississippi', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Corinth%2C_Mississippi', 'place': 'http://sws.geonames.org/4422713/', 'postal_code': '38834', 'geo_link': 'http://www.geonames.org/4422713/corinth.html', 'lat': '34.937222222222225', 'long': '-88.51527777777778', 'population': '14573'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Manchester', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Manchester', 'place': 'http://sws.geonames.org/3333169/', 'geo_link': 'http://www.geonames.org/3333169/manchester.html', 'lat': '53.46666666666667', 'long': '-2.2333333333333334'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Sarasota, Florida', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Sarasota%2C_Florida', 'place': 'http://sws.geonames.org/4172131/', 'postal_code': '34278', 'geo_link': 'http://www.geonames.org/4172131/sarasota.html', 'lat': '27.337222222222223', 'long': '-82.53527777777778', 'population': '51917'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'North Adams, Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/North_Adams%2C_Massachusetts', 'place': 'http://sws.geonames.org/4945486/', 'postal_code': '01247', 'geo_link': 'http://www.geonames.org/4945486/north-adams.html', 'lat': '42.7', 'long': '-73.11666666666666', 'population': '13708'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Frankenmuth, Michigan', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Frankenmuth%2C_Michigan', 'place': 'http://sws.geonames.org/4993321/', 'postal_code': '48787', 'geo_link': 'http://www.geonames.org/4993321/frankenmuth.html', 'lat': '43.33222222222222', 'long': '-83.74194444444444', 'population': '4944'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Atlanta', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Atlanta', 'place': 'http://sws.geonames.org/4180439/', 'postal_code': '30305', 'geo_link': 'http://www.geonames.org/4180439/atlanta.html', 'lat': '33.755', 'long': '-84.39', 'population': '420003'}</t>
   </si>
 </sst>
 </file>
@@ -1855,19 +1735,16 @@
         <v>208</v>
       </c>
       <c r="E2" t="s">
-        <v>308</v>
-      </c>
-      <c r="F2" t="s">
-        <v>404</v>
+        <v>307</v>
       </c>
       <c r="G2">
-        <v>2.093254804611206</v>
+        <v>2.015378713607788</v>
       </c>
       <c r="H2">
-        <v>32.6181173324585</v>
+        <v>12.49707818031311</v>
       </c>
       <c r="I2">
-        <v>0.09373140335083008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1884,19 +1761,19 @@
         <v>209</v>
       </c>
       <c r="E3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F3" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="G3">
-        <v>1.296570777893066</v>
+        <v>0.968543529510498</v>
       </c>
       <c r="H3">
-        <v>10.06012654304504</v>
+        <v>22.38510704040527</v>
       </c>
       <c r="I3">
-        <v>0.09372186660766602</v>
+        <v>0.1095759868621826</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1913,19 +1790,16 @@
         <v>210</v>
       </c>
       <c r="E4" t="s">
-        <v>310</v>
-      </c>
-      <c r="F4" t="s">
-        <v>406</v>
+        <v>309</v>
       </c>
       <c r="G4">
-        <v>1.20283842086792</v>
+        <v>1.515503644943237</v>
       </c>
       <c r="H4">
-        <v>39.55541896820068</v>
+        <v>9.888748168945312</v>
       </c>
       <c r="I4">
-        <v>0.10931396484375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1942,19 +1816,19 @@
         <v>211</v>
       </c>
       <c r="E5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F5" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="G5">
-        <v>1.234078168869019</v>
+        <v>1.23408055305481</v>
       </c>
       <c r="H5">
-        <v>0.124969482421875</v>
+        <v>11.12209153175354</v>
       </c>
       <c r="I5">
-        <v>0.06249237060546875</v>
+        <v>0.1096117496490479</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1971,19 +1845,19 @@
         <v>212</v>
       </c>
       <c r="E6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F6" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G6">
-        <v>1.187222242355347</v>
+        <v>1.671214818954468</v>
       </c>
       <c r="H6">
-        <v>12.04402422904968</v>
+        <v>46.1140992641449</v>
       </c>
       <c r="I6">
-        <v>0.1093478202819824</v>
+        <v>0.1093466281890869</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1999,20 +1873,14 @@
       <c r="D7" t="s">
         <v>213</v>
       </c>
-      <c r="E7" t="s">
-        <v>313</v>
-      </c>
-      <c r="F7" t="s">
-        <v>409</v>
-      </c>
       <c r="G7">
-        <v>1.952663421630859</v>
+        <v>1.35905385017395</v>
       </c>
       <c r="H7">
-        <v>11.04426622390747</v>
+        <v>10.70085954666138</v>
       </c>
       <c r="I7">
-        <v>0.1093466281890869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2029,19 +1897,19 @@
         <v>214</v>
       </c>
       <c r="E8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F8" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G8">
-        <v>1.968284845352173</v>
+        <v>1.233907222747803</v>
       </c>
       <c r="H8">
-        <v>10.45116329193115</v>
+        <v>10.95053720474243</v>
       </c>
       <c r="I8">
-        <v>0.2346081733703613</v>
+        <v>0.1405930519104004</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2058,19 +1926,19 @@
         <v>215</v>
       </c>
       <c r="E9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F9" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="G9">
-        <v>1.780933618545532</v>
+        <v>1.202961444854736</v>
       </c>
       <c r="H9">
-        <v>24.2938084602356</v>
+        <v>32.54007887840271</v>
       </c>
       <c r="I9">
-        <v>0.2187366485595703</v>
+        <v>0.1090865135192871</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2087,19 +1955,16 @@
         <v>216</v>
       </c>
       <c r="E10" t="s">
-        <v>316</v>
-      </c>
-      <c r="F10" t="s">
-        <v>412</v>
+        <v>314</v>
       </c>
       <c r="G10">
-        <v>1.312251329421997</v>
+        <v>2.202742576599121</v>
       </c>
       <c r="H10">
-        <v>21.18261766433716</v>
+        <v>10.80994629859924</v>
       </c>
       <c r="I10">
-        <v>0.1249077320098877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2116,19 +1981,19 @@
         <v>217</v>
       </c>
       <c r="E11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F11" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="G11">
-        <v>1.327850580215454</v>
+        <v>1.43742823600769</v>
       </c>
       <c r="H11">
-        <v>9.498665809631348</v>
+        <v>12.12213277816772</v>
       </c>
       <c r="I11">
-        <v>0.09371328353881836</v>
+        <v>0.1247031688690186</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2145,19 +2010,16 @@
         <v>218</v>
       </c>
       <c r="E12" t="s">
-        <v>318</v>
-      </c>
-      <c r="F12" t="s">
-        <v>409</v>
+        <v>316</v>
       </c>
       <c r="G12">
-        <v>1.280932188034058</v>
+        <v>1.999529361724854</v>
       </c>
       <c r="H12">
-        <v>31.52672934532166</v>
+        <v>32.41394066810608</v>
       </c>
       <c r="I12">
-        <v>0.09374761581420898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2173,20 +2035,14 @@
       <c r="D13" t="s">
         <v>219</v>
       </c>
-      <c r="E13" t="s">
-        <v>319</v>
-      </c>
-      <c r="F13" t="s">
-        <v>414</v>
-      </c>
       <c r="G13">
-        <v>1.858941555023193</v>
+        <v>1.390297412872314</v>
       </c>
       <c r="H13">
-        <v>31.56031942367554</v>
+        <v>10.96615386009216</v>
       </c>
       <c r="I13">
-        <v>0.1093490123748779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2203,19 +2059,16 @@
         <v>220</v>
       </c>
       <c r="E14" t="s">
-        <v>320</v>
-      </c>
-      <c r="F14" t="s">
-        <v>415</v>
+        <v>317</v>
       </c>
       <c r="G14">
-        <v>1.265287399291992</v>
+        <v>1.671477556228638</v>
       </c>
       <c r="H14">
-        <v>12.56003642082214</v>
+        <v>10.68522214889526</v>
       </c>
       <c r="I14">
-        <v>0.09372973442077637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2232,19 +2085,19 @@
         <v>221</v>
       </c>
       <c r="E15" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F15" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="G15">
-        <v>1.296574592590332</v>
+        <v>1.34343409538269</v>
       </c>
       <c r="H15">
-        <v>13.70015931129456</v>
+        <v>13.01254439353943</v>
       </c>
       <c r="I15">
-        <v>0.1093404293060303</v>
+        <v>0.1093528270721436</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2257,23 +2110,14 @@
       <c r="C16" t="s">
         <v>122</v>
       </c>
-      <c r="D16" t="s">
-        <v>222</v>
-      </c>
-      <c r="E16" t="s">
-        <v>322</v>
-      </c>
-      <c r="F16" t="s">
-        <v>417</v>
-      </c>
       <c r="G16">
-        <v>1.140391111373901</v>
+        <v>0.6250793933868408</v>
       </c>
       <c r="H16">
-        <v>51.41340708732605</v>
+        <v>10.99717950820923</v>
       </c>
       <c r="I16">
-        <v>0.09393811225891113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2287,22 +2131,22 @@
         <v>123</v>
       </c>
       <c r="D17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E17" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F17" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="G17">
-        <v>1.437452077865601</v>
+        <v>1.390527963638306</v>
       </c>
       <c r="H17">
-        <v>21.73046207427979</v>
+        <v>13.26249194145203</v>
       </c>
       <c r="I17">
-        <v>0.1093499660491943</v>
+        <v>0.1091196537017822</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2316,22 +2160,22 @@
         <v>124</v>
       </c>
       <c r="D18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E18" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F18" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="G18">
-        <v>1.005218982696533</v>
+        <v>1.327774047851562</v>
       </c>
       <c r="H18">
-        <v>12.71630454063416</v>
+        <v>11.80947399139404</v>
       </c>
       <c r="I18">
-        <v>0.1749444007873535</v>
+        <v>0.09399700164794922</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2345,22 +2189,22 @@
         <v>125</v>
       </c>
       <c r="D19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E19" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F19" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="G19">
-        <v>1.124699354171753</v>
+        <v>1.359022855758667</v>
       </c>
       <c r="H19">
-        <v>36.4843418598175</v>
+        <v>15.96497535705566</v>
       </c>
       <c r="I19">
-        <v>0.1247403621673584</v>
+        <v>0.1093792915344238</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2374,22 +2218,22 @@
         <v>126</v>
       </c>
       <c r="D20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E20" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F20" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="G20">
-        <v>1.234254360198975</v>
+        <v>1.374824523925781</v>
       </c>
       <c r="H20">
-        <v>29.46180725097656</v>
+        <v>31.58601546287537</v>
       </c>
       <c r="I20">
-        <v>0.1249420642852783</v>
+        <v>0.09384346008300781</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2403,22 +2247,22 @@
         <v>127</v>
       </c>
       <c r="D21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E21" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F21" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="G21">
-        <v>1.406127214431763</v>
+        <v>1.530925750732422</v>
       </c>
       <c r="H21">
-        <v>0.1406886577606201</v>
+        <v>31.44607210159302</v>
       </c>
       <c r="I21">
-        <v>0.06227540969848633</v>
+        <v>0.09372901916503906</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2432,22 +2276,19 @@
         <v>128</v>
       </c>
       <c r="D22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E22" t="s">
-        <v>328</v>
-      </c>
-      <c r="F22" t="s">
-        <v>423</v>
+        <v>324</v>
       </c>
       <c r="G22">
-        <v>0.9170660972595215</v>
+        <v>2.843021631240845</v>
       </c>
       <c r="H22">
-        <v>34.71290946006775</v>
+        <v>10.99745273590088</v>
       </c>
       <c r="I22">
-        <v>0.1081118583679199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2461,22 +2302,22 @@
         <v>129</v>
       </c>
       <c r="D23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E23" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F23" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="G23">
-        <v>1.282668590545654</v>
+        <v>1.702449798583984</v>
       </c>
       <c r="H23">
-        <v>31.50236511230469</v>
+        <v>17.55831813812256</v>
       </c>
       <c r="I23">
-        <v>0.1149828433990479</v>
+        <v>0.1096136569976807</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2490,22 +2331,16 @@
         <v>130</v>
       </c>
       <c r="D24" t="s">
-        <v>230</v>
-      </c>
-      <c r="E24" t="s">
-        <v>330</v>
-      </c>
-      <c r="F24" t="s">
-        <v>425</v>
+        <v>229</v>
       </c>
       <c r="G24">
-        <v>1.242227792739868</v>
+        <v>1.733961820602417</v>
       </c>
       <c r="H24">
-        <v>19.0542778968811</v>
+        <v>6.467488765716553</v>
       </c>
       <c r="I24">
-        <v>0.1200056076049805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2519,22 +2354,22 @@
         <v>131</v>
       </c>
       <c r="D25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E25" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F25" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G25">
-        <v>1.388140439987183</v>
+        <v>1.858943700790405</v>
       </c>
       <c r="H25">
-        <v>15.38795375823975</v>
+        <v>10.56000256538391</v>
       </c>
       <c r="I25">
-        <v>0.1098873615264893</v>
+        <v>0.1405901908874512</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2548,19 +2383,22 @@
         <v>132</v>
       </c>
       <c r="D26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E26" t="s">
-        <v>332</v>
+        <v>327</v>
+      </c>
+      <c r="F26" t="s">
+        <v>403</v>
       </c>
       <c r="G26">
-        <v>1.752613544464111</v>
+        <v>1.390302658081055</v>
       </c>
       <c r="H26">
-        <v>35.05238604545593</v>
+        <v>10.68496918678284</v>
       </c>
       <c r="I26">
-        <v>0.1243159770965576</v>
+        <v>0.09372782707214355</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2574,22 +2412,22 @@
         <v>133</v>
       </c>
       <c r="D27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E27" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F27" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="G27">
-        <v>1.293233394622803</v>
+        <v>1.546509981155396</v>
       </c>
       <c r="H27">
-        <v>25.79675531387329</v>
+        <v>14.43393087387085</v>
       </c>
       <c r="I27">
-        <v>0.1050090789794922</v>
+        <v>0.1094973087310791</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2603,22 +2441,22 @@
         <v>134</v>
       </c>
       <c r="D28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E28" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="F28" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="G28">
-        <v>1.384778261184692</v>
+        <v>1.858969211578369</v>
       </c>
       <c r="H28">
-        <v>11.90709376335144</v>
+        <v>30.74336791038513</v>
       </c>
       <c r="I28">
-        <v>0.09373021125793457</v>
+        <v>0.1246998310089111</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2632,22 +2470,19 @@
         <v>135</v>
       </c>
       <c r="D29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E29" t="s">
-        <v>335</v>
-      </c>
-      <c r="F29" t="s">
-        <v>428</v>
+        <v>330</v>
       </c>
       <c r="G29">
-        <v>1.370736598968506</v>
+        <v>1.280946969985962</v>
       </c>
       <c r="H29">
-        <v>0.2701723575592041</v>
+        <v>10.46650552749634</v>
       </c>
       <c r="I29">
-        <v>0.06763195991516113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2661,22 +2496,22 @@
         <v>136</v>
       </c>
       <c r="D30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E30" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F30" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="G30">
-        <v>0.9556410312652588</v>
+        <v>1.296719074249268</v>
       </c>
       <c r="H30">
-        <v>13.613933801651</v>
+        <v>11.23148727416992</v>
       </c>
       <c r="I30">
-        <v>0.1202683448791504</v>
+        <v>0.1094298362731934</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2690,22 +2525,16 @@
         <v>137</v>
       </c>
       <c r="D31" t="s">
-        <v>237</v>
-      </c>
-      <c r="E31" t="s">
-        <v>337</v>
-      </c>
-      <c r="F31" t="s">
-        <v>430</v>
+        <v>236</v>
       </c>
       <c r="G31">
-        <v>1.376882553100586</v>
+        <v>1.078055143356323</v>
       </c>
       <c r="H31">
-        <v>51.69721961021423</v>
+        <v>9.232007503509521</v>
       </c>
       <c r="I31">
-        <v>0.1005103588104248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2719,22 +2548,19 @@
         <v>138</v>
       </c>
       <c r="D32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E32" t="s">
-        <v>338</v>
-      </c>
-      <c r="F32" t="s">
-        <v>431</v>
+        <v>332</v>
       </c>
       <c r="G32">
-        <v>1.394554376602173</v>
+        <v>1.468173265457153</v>
       </c>
       <c r="H32">
-        <v>12.29987668991089</v>
+        <v>12.05964708328247</v>
       </c>
       <c r="I32">
-        <v>0.1093106269836426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2748,22 +2574,19 @@
         <v>139</v>
       </c>
       <c r="D33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E33" t="s">
-        <v>339</v>
-      </c>
-      <c r="F33" t="s">
-        <v>432</v>
+        <v>333</v>
       </c>
       <c r="G33">
-        <v>7.017457246780396</v>
+        <v>1.296679735183716</v>
       </c>
       <c r="H33">
-        <v>13.61778140068054</v>
+        <v>11.91902327537537</v>
       </c>
       <c r="I33">
-        <v>0.1136629581451416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2777,22 +2600,22 @@
         <v>140</v>
       </c>
       <c r="D34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E34" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F34" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="G34">
-        <v>1.244073390960693</v>
+        <v>1.374684572219849</v>
       </c>
       <c r="H34">
-        <v>35.55896329879761</v>
+        <v>12.76249623298645</v>
       </c>
       <c r="I34">
-        <v>0.1103227138519287</v>
+        <v>0.1720962524414062</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2806,22 +2629,19 @@
         <v>141</v>
       </c>
       <c r="D35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E35" t="s">
-        <v>341</v>
-      </c>
-      <c r="F35" t="s">
-        <v>434</v>
+        <v>335</v>
       </c>
       <c r="G35">
-        <v>1.344690799713135</v>
+        <v>1.249937295913696</v>
       </c>
       <c r="H35">
-        <v>20.24324107170105</v>
+        <v>10.80970168113708</v>
       </c>
       <c r="I35">
-        <v>0.09372901916503906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2835,22 +2655,22 @@
         <v>142</v>
       </c>
       <c r="D36" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E36" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="F36" t="s">
-        <v>435</v>
+        <v>403</v>
       </c>
       <c r="G36">
-        <v>1.624898910522461</v>
+        <v>1.280701398849487</v>
       </c>
       <c r="H36">
-        <v>31.54113531112671</v>
+        <v>11.51290416717529</v>
       </c>
       <c r="I36">
-        <v>0.1090865135192871</v>
+        <v>0.1093626022338867</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2864,16 +2684,22 @@
         <v>143</v>
       </c>
       <c r="D37" t="s">
-        <v>243</v>
+        <v>242</v>
+      </c>
+      <c r="E37" t="s">
+        <v>337</v>
+      </c>
+      <c r="F37" t="s">
+        <v>413</v>
       </c>
       <c r="G37">
-        <v>1.493010282516479</v>
+        <v>1.34316611289978</v>
       </c>
       <c r="H37">
-        <v>73.01506567001343</v>
+        <v>12.52925491333008</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>0.1093354225158691</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2887,16 +2713,22 @@
         <v>144</v>
       </c>
       <c r="D38" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="E38" t="s">
+        <v>338</v>
+      </c>
+      <c r="F38" t="s">
+        <v>416</v>
       </c>
       <c r="G38">
-        <v>1.57923150062561</v>
+        <v>1.546276092529297</v>
       </c>
       <c r="H38">
-        <v>2.261905670166016</v>
+        <v>11.59129977226257</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>0.1093239784240723</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2910,22 +2742,22 @@
         <v>145</v>
       </c>
       <c r="D39" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E39" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F39" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="G39">
-        <v>1.803250789642334</v>
+        <v>0.984142541885376</v>
       </c>
       <c r="H39">
-        <v>28.45332193374634</v>
+        <v>32.68000388145447</v>
       </c>
       <c r="I39">
-        <v>0.1092283725738525</v>
+        <v>0.09372973442077637</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2939,22 +2771,22 @@
         <v>146</v>
       </c>
       <c r="D40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E40" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F40" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="G40">
-        <v>1.119688510894775</v>
+        <v>1.687255620956421</v>
       </c>
       <c r="H40">
-        <v>30.67842388153076</v>
+        <v>52.03433465957642</v>
       </c>
       <c r="I40">
-        <v>0.114586353302002</v>
+        <v>0.0938117504119873</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2968,22 +2800,22 @@
         <v>147</v>
       </c>
       <c r="D41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E41" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F41" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G41">
-        <v>1.190550565719604</v>
+        <v>1.749851942062378</v>
       </c>
       <c r="H41">
-        <v>18.83218479156494</v>
+        <v>24.35425281524658</v>
       </c>
       <c r="I41">
-        <v>0.1249251365661621</v>
+        <v>0.1403236389160156</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2997,22 +2829,22 @@
         <v>148</v>
       </c>
       <c r="D42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E42" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F42" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="G42">
-        <v>1.58787727355957</v>
+        <v>1.374672651290894</v>
       </c>
       <c r="H42">
-        <v>15.46010279655457</v>
+        <v>17.32379746437073</v>
       </c>
       <c r="I42">
-        <v>0.1093978881835938</v>
+        <v>0.1093142032623291</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -3026,22 +2858,22 @@
         <v>149</v>
       </c>
       <c r="D43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E43" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F43" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="G43">
-        <v>1.912166118621826</v>
+        <v>1.28071141242981</v>
       </c>
       <c r="H43">
-        <v>11.00788640975952</v>
+        <v>11.35669231414795</v>
       </c>
       <c r="I43">
-        <v>0.09591817855834961</v>
+        <v>0.1096136569976807</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -3055,22 +2887,19 @@
         <v>150</v>
       </c>
       <c r="D44" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E44" t="s">
-        <v>348</v>
-      </c>
-      <c r="F44" t="s">
-        <v>415</v>
+        <v>344</v>
       </c>
       <c r="G44">
-        <v>1.234088182449341</v>
+        <v>1.593283176422119</v>
       </c>
       <c r="H44">
-        <v>13.79670405387878</v>
+        <v>10.60710120201111</v>
       </c>
       <c r="I44">
-        <v>0.09384727478027344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -3084,22 +2913,19 @@
         <v>151</v>
       </c>
       <c r="D45" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E45" t="s">
-        <v>349</v>
-      </c>
-      <c r="F45" t="s">
-        <v>440</v>
+        <v>345</v>
       </c>
       <c r="G45">
-        <v>1.566835641860962</v>
+        <v>1.374675512313843</v>
       </c>
       <c r="H45">
-        <v>14.51227450370789</v>
+        <v>32.97666931152344</v>
       </c>
       <c r="I45">
-        <v>0.1091296672821045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -3113,22 +2939,22 @@
         <v>152</v>
       </c>
       <c r="D46" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E46" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F46" t="s">
-        <v>441</v>
+        <v>400</v>
       </c>
       <c r="G46">
-        <v>1.268276691436768</v>
+        <v>1.359089612960815</v>
       </c>
       <c r="H46">
-        <v>31.21272540092468</v>
+        <v>31.63392114639282</v>
       </c>
       <c r="I46">
-        <v>0.1178038120269775</v>
+        <v>0.1247057914733887</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -3142,22 +2968,19 @@
         <v>153</v>
       </c>
       <c r="D47" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E47" t="s">
-        <v>351</v>
-      </c>
-      <c r="F47" t="s">
-        <v>442</v>
+        <v>347</v>
       </c>
       <c r="G47">
-        <v>0.9951670169830322</v>
+        <v>1.671486139297485</v>
       </c>
       <c r="H47">
-        <v>33.98902988433838</v>
+        <v>12.93466973304749</v>
       </c>
       <c r="I47">
-        <v>0.1174173355102539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -3171,22 +2994,19 @@
         <v>154</v>
       </c>
       <c r="D48" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E48" t="s">
-        <v>352</v>
-      </c>
-      <c r="F48" t="s">
-        <v>443</v>
+        <v>348</v>
       </c>
       <c r="G48">
-        <v>1.328028202056885</v>
+        <v>1.280949592590332</v>
       </c>
       <c r="H48">
-        <v>31.76982665061951</v>
+        <v>11.85656452178955</v>
       </c>
       <c r="I48">
-        <v>0.1091346740722656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3200,22 +3020,19 @@
         <v>155</v>
       </c>
       <c r="D49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E49" t="s">
-        <v>353</v>
-      </c>
-      <c r="F49" t="s">
-        <v>407</v>
+        <v>349</v>
       </c>
       <c r="G49">
-        <v>1.358822584152222</v>
+        <v>1.249473094940186</v>
       </c>
       <c r="H49">
-        <v>21.59738969802856</v>
+        <v>15.3557448387146</v>
       </c>
       <c r="I49">
-        <v>0.09368705749511719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3229,22 +3046,22 @@
         <v>156</v>
       </c>
       <c r="D50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E50" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F50" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="G50">
-        <v>1.484805822372437</v>
+        <v>1.374407052993774</v>
       </c>
       <c r="H50">
-        <v>14.66285610198975</v>
+        <v>14.04378533363342</v>
       </c>
       <c r="I50">
-        <v>0.10780930519104</v>
+        <v>0.1093454360961914</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -3258,22 +3075,19 @@
         <v>157</v>
       </c>
       <c r="D51" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E51" t="s">
-        <v>355</v>
-      </c>
-      <c r="F51" t="s">
-        <v>444</v>
+        <v>351</v>
       </c>
       <c r="G51">
-        <v>1.128524303436279</v>
+        <v>2.140081405639648</v>
       </c>
       <c r="H51">
-        <v>15.39898943901062</v>
+        <v>11.77850079536438</v>
       </c>
       <c r="I51">
-        <v>0.09722232818603516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3287,22 +3101,19 @@
         <v>158</v>
       </c>
       <c r="D52" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E52" t="s">
-        <v>356</v>
-      </c>
-      <c r="F52" t="s">
-        <v>445</v>
+        <v>352</v>
       </c>
       <c r="G52">
-        <v>1.521080017089844</v>
+        <v>5.358067035675049</v>
       </c>
       <c r="H52">
-        <v>30.62946224212646</v>
+        <v>10.79436612129211</v>
       </c>
       <c r="I52">
-        <v>0.1136956214904785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3316,16 +3127,16 @@
         <v>159</v>
       </c>
       <c r="D53" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E53" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G53">
-        <v>1.553706884384155</v>
+        <v>1.484421730041504</v>
       </c>
       <c r="H53">
-        <v>12.28512692451477</v>
+        <v>11.79438447952271</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -3342,22 +3153,22 @@
         <v>160</v>
       </c>
       <c r="D54" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E54" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F54" t="s">
-        <v>446</v>
+        <v>420</v>
       </c>
       <c r="G54">
-        <v>1.049144983291626</v>
+        <v>1.328048229217529</v>
       </c>
       <c r="H54">
-        <v>15.17168760299683</v>
+        <v>11.60690188407898</v>
       </c>
       <c r="I54">
-        <v>0.09596133232116699</v>
+        <v>0.1403641700744629</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3371,22 +3182,22 @@
         <v>161</v>
       </c>
       <c r="D55" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E55" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F55" t="s">
-        <v>447</v>
+        <v>421</v>
       </c>
       <c r="G55">
-        <v>1.274666309356689</v>
+        <v>1.437400817871094</v>
       </c>
       <c r="H55">
-        <v>34.14464235305786</v>
+        <v>24.97846341133118</v>
       </c>
       <c r="I55">
-        <v>0.1249120235443115</v>
+        <v>0.1091158390045166</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3400,22 +3211,19 @@
         <v>162</v>
       </c>
       <c r="D56" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E56" t="s">
-        <v>360</v>
-      </c>
-      <c r="F56" t="s">
-        <v>448</v>
+        <v>356</v>
       </c>
       <c r="G56">
-        <v>2.024378538131714</v>
+        <v>1.656018972396851</v>
       </c>
       <c r="H56">
-        <v>51.63969612121582</v>
+        <v>10.23178625106812</v>
       </c>
       <c r="I56">
-        <v>0.1047904491424561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3429,22 +3237,22 @@
         <v>163</v>
       </c>
       <c r="D57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E57" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F57" t="s">
-        <v>449</v>
+        <v>422</v>
       </c>
       <c r="G57">
-        <v>1.396398067474365</v>
+        <v>1.280933856964111</v>
       </c>
       <c r="H57">
-        <v>31.55699110031128</v>
+        <v>11.77824687957764</v>
       </c>
       <c r="I57">
-        <v>0.1142544746398926</v>
+        <v>0.2970352172851562</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3458,22 +3266,22 @@
         <v>164</v>
       </c>
       <c r="D58" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E58" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F58" t="s">
-        <v>450</v>
+        <v>423</v>
       </c>
       <c r="G58">
-        <v>1.358585119247437</v>
+        <v>1.749810695648193</v>
       </c>
       <c r="H58">
-        <v>35.3053514957428</v>
+        <v>12.4345588684082</v>
       </c>
       <c r="I58">
-        <v>0.1280360221862793</v>
+        <v>0.1559891700744629</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3487,22 +3295,19 @@
         <v>165</v>
       </c>
       <c r="D59" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E59" t="s">
-        <v>363</v>
-      </c>
-      <c r="F59" t="s">
-        <v>451</v>
+        <v>359</v>
       </c>
       <c r="G59">
-        <v>1.593532562255859</v>
+        <v>1.311927795410156</v>
       </c>
       <c r="H59">
-        <v>11.72130846977234</v>
+        <v>34.10130524635315</v>
       </c>
       <c r="I59">
-        <v>0.09382987022399902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3516,22 +3321,19 @@
         <v>166</v>
       </c>
       <c r="D60" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E60" t="s">
-        <v>364</v>
-      </c>
-      <c r="F60" t="s">
-        <v>452</v>
+        <v>360</v>
       </c>
       <c r="G60">
-        <v>1.329698801040649</v>
+        <v>1.296574354171753</v>
       </c>
       <c r="H60">
-        <v>37.47839045524597</v>
+        <v>9.920439720153809</v>
       </c>
       <c r="I60">
-        <v>0.1078617572784424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3545,19 +3347,19 @@
         <v>167</v>
       </c>
       <c r="D61" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E61" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G61">
-        <v>1.612409830093384</v>
+        <v>1.671246528625488</v>
       </c>
       <c r="H61">
-        <v>15.89289021492004</v>
+        <v>13.66863775253296</v>
       </c>
       <c r="I61">
-        <v>0.09346127510070801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3571,22 +3373,19 @@
         <v>168</v>
       </c>
       <c r="D62" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E62" t="s">
-        <v>366</v>
-      </c>
-      <c r="F62" t="s">
-        <v>453</v>
+        <v>362</v>
       </c>
       <c r="G62">
-        <v>1.525615692138672</v>
+        <v>1.280945777893066</v>
       </c>
       <c r="H62">
-        <v>30.47605466842651</v>
+        <v>9.013726234436035</v>
       </c>
       <c r="I62">
-        <v>0.1202104091644287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3600,22 +3399,19 @@
         <v>169</v>
       </c>
       <c r="D63" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E63" t="s">
-        <v>367</v>
-      </c>
-      <c r="F63" t="s">
-        <v>454</v>
+        <v>363</v>
       </c>
       <c r="G63">
-        <v>1.346520185470581</v>
+        <v>1.421498537063599</v>
       </c>
       <c r="H63">
-        <v>30.51416516304016</v>
+        <v>11.27862024307251</v>
       </c>
       <c r="I63">
-        <v>0.09372901916503906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3629,22 +3425,19 @@
         <v>170</v>
       </c>
       <c r="D64" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E64" t="s">
-        <v>368</v>
-      </c>
-      <c r="F64" t="s">
-        <v>423</v>
+        <v>364</v>
       </c>
       <c r="G64">
-        <v>1.387774229049683</v>
+        <v>1.765160322189331</v>
       </c>
       <c r="H64">
-        <v>13.20685243606567</v>
+        <v>10.41926789283752</v>
       </c>
       <c r="I64">
-        <v>0.108264684677124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3658,22 +3451,19 @@
         <v>171</v>
       </c>
       <c r="D65" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E65" t="s">
-        <v>369</v>
-      </c>
-      <c r="F65" t="s">
-        <v>455</v>
+        <v>365</v>
       </c>
       <c r="G65">
-        <v>1.371681690216064</v>
+        <v>1.405786752700806</v>
       </c>
       <c r="H65">
-        <v>11.49943017959595</v>
+        <v>19.76100897789001</v>
       </c>
       <c r="I65">
-        <v>0.09372258186340332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3687,22 +3477,19 @@
         <v>172</v>
       </c>
       <c r="D66" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E66" t="s">
-        <v>370</v>
-      </c>
-      <c r="F66" t="s">
-        <v>423</v>
+        <v>366</v>
       </c>
       <c r="G66">
-        <v>1.567551612854004</v>
+        <v>1.531008243560791</v>
       </c>
       <c r="H66">
-        <v>11.26803398132324</v>
+        <v>10.8880500793457</v>
       </c>
       <c r="I66">
-        <v>0.1009881496429443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3716,22 +3503,22 @@
         <v>173</v>
       </c>
       <c r="D67" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E67" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F67" t="s">
-        <v>456</v>
+        <v>400</v>
       </c>
       <c r="G67">
-        <v>1.54776668548584</v>
+        <v>1.296620845794678</v>
       </c>
       <c r="H67">
-        <v>13.04003024101257</v>
+        <v>30.99349236488342</v>
       </c>
       <c r="I67">
-        <v>0.1094284057617188</v>
+        <v>0.2341856956481934</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3745,22 +3532,22 @@
         <v>174</v>
       </c>
       <c r="D68" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E68" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F68" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
       <c r="G68">
-        <v>1.662170886993408</v>
+        <v>1.687333822250366</v>
       </c>
       <c r="H68">
-        <v>11.77002906799316</v>
+        <v>35.69477820396423</v>
       </c>
       <c r="I68">
-        <v>0.1126570701599121</v>
+        <v>0.3121902942657471</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3774,22 +3561,22 @@
         <v>175</v>
       </c>
       <c r="D69" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E69" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F69" t="s">
-        <v>458</v>
+        <v>425</v>
       </c>
       <c r="G69">
-        <v>2.020787715911865</v>
+        <v>1.281099319458008</v>
       </c>
       <c r="H69">
-        <v>10.51760578155518</v>
+        <v>14.7308886051178</v>
       </c>
       <c r="I69">
-        <v>7.11480975151062</v>
+        <v>0.1091997623443604</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3803,22 +3590,19 @@
         <v>176</v>
       </c>
       <c r="D70" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E70" t="s">
-        <v>374</v>
-      </c>
-      <c r="F70" t="s">
-        <v>423</v>
+        <v>370</v>
       </c>
       <c r="G70">
-        <v>1.610518455505371</v>
+        <v>1.343180418014526</v>
       </c>
       <c r="H70">
-        <v>30.62441897392273</v>
+        <v>11.05990314483643</v>
       </c>
       <c r="I70">
-        <v>0.1093478202819824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3832,22 +3616,19 @@
         <v>177</v>
       </c>
       <c r="D71" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E71" t="s">
-        <v>375</v>
-      </c>
-      <c r="F71" t="s">
-        <v>418</v>
+        <v>371</v>
       </c>
       <c r="G71">
-        <v>1.063032150268555</v>
+        <v>1.312188625335693</v>
       </c>
       <c r="H71">
-        <v>52.51252388954163</v>
+        <v>30.85204911231995</v>
       </c>
       <c r="I71">
-        <v>0.1093652248382568</v>
+        <v>0.109611988067627</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3861,22 +3642,22 @@
         <v>178</v>
       </c>
       <c r="D72" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E72" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F72" t="s">
-        <v>459</v>
+        <v>426</v>
       </c>
       <c r="G72">
-        <v>0.9687097072601318</v>
+        <v>1.655592679977417</v>
       </c>
       <c r="H72">
-        <v>31.71832537651062</v>
+        <v>31.53998136520386</v>
       </c>
       <c r="I72">
-        <v>0.09377241134643555</v>
+        <v>0.1249663829803467</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3890,19 +3671,22 @@
         <v>179</v>
       </c>
       <c r="D73" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E73" t="s">
-        <v>377</v>
+        <v>373</v>
+      </c>
+      <c r="F73" t="s">
+        <v>427</v>
       </c>
       <c r="G73">
-        <v>1.731582403182983</v>
+        <v>1.343430042266846</v>
       </c>
       <c r="H73">
-        <v>31.71676635742188</v>
+        <v>12.21590113639832</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>0.1095800399780273</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3916,19 +3700,22 @@
         <v>180</v>
       </c>
       <c r="D74" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E74" t="s">
-        <v>378</v>
+        <v>374</v>
+      </c>
+      <c r="F74" t="s">
+        <v>400</v>
       </c>
       <c r="G74">
-        <v>1.014116048812866</v>
+        <v>1.296566009521484</v>
       </c>
       <c r="H74">
-        <v>34.63803029060364</v>
+        <v>23.88497638702393</v>
       </c>
       <c r="I74">
-        <v>0.1380341053009033</v>
+        <v>0.1093552112579346</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3942,22 +3729,22 @@
         <v>181</v>
       </c>
       <c r="D75" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E75" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F75" t="s">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="G75">
-        <v>1.686001062393188</v>
+        <v>1.4059157371521</v>
       </c>
       <c r="H75">
-        <v>49.42706346511841</v>
+        <v>12.35645961761475</v>
       </c>
       <c r="I75">
-        <v>0.1111869812011719</v>
+        <v>0.1093573570251465</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3971,22 +3758,22 @@
         <v>182</v>
       </c>
       <c r="D76" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E76" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F76" t="s">
-        <v>461</v>
+        <v>411</v>
       </c>
       <c r="G76">
-        <v>1.452202796936035</v>
+        <v>1.374910593032837</v>
       </c>
       <c r="H76">
-        <v>17.67366123199463</v>
+        <v>18.94835901260376</v>
       </c>
       <c r="I76">
-        <v>0.1059141159057617</v>
+        <v>0.09376811981201172</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -4000,22 +3787,19 @@
         <v>183</v>
       </c>
       <c r="D77" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E77" t="s">
-        <v>381</v>
-      </c>
-      <c r="F77" t="s">
-        <v>462</v>
+        <v>377</v>
       </c>
       <c r="G77">
-        <v>1.266761541366577</v>
+        <v>2.155478000640869</v>
       </c>
       <c r="H77">
-        <v>33.9345531463623</v>
+        <v>11.46602821350098</v>
       </c>
       <c r="I77">
-        <v>0.1093544960021973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -4029,22 +3813,22 @@
         <v>184</v>
       </c>
       <c r="D78" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E78" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F78" t="s">
-        <v>431</v>
+        <v>400</v>
       </c>
       <c r="G78">
-        <v>1.319576025009155</v>
+        <v>1.780678033828735</v>
       </c>
       <c r="H78">
-        <v>11.0186288356781</v>
+        <v>31.41551351547241</v>
       </c>
       <c r="I78">
-        <v>0.09376907348632812</v>
+        <v>0.1094086170196533</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -4058,22 +3842,22 @@
         <v>185</v>
       </c>
       <c r="D79" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E79" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F79" t="s">
-        <v>463</v>
+        <v>400</v>
       </c>
       <c r="G79">
-        <v>1.347567796707153</v>
+        <v>1.733969211578369</v>
       </c>
       <c r="H79">
-        <v>11.80336022377014</v>
+        <v>30.80536460876465</v>
       </c>
       <c r="I79">
-        <v>0.09376192092895508</v>
+        <v>0.1093497276306152</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -4087,13 +3871,16 @@
         <v>186</v>
       </c>
       <c r="D80" t="s">
-        <v>286</v>
+        <v>285</v>
+      </c>
+      <c r="E80" t="s">
+        <v>380</v>
       </c>
       <c r="G80">
-        <v>1.300116777420044</v>
+        <v>1.452962875366211</v>
       </c>
       <c r="H80">
-        <v>11.3578929901123</v>
+        <v>13.80905294418335</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -4110,22 +3897,22 @@
         <v>187</v>
       </c>
       <c r="D81" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E81" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F81" t="s">
-        <v>464</v>
+        <v>429</v>
       </c>
       <c r="G81">
-        <v>1.281841516494751</v>
+        <v>1.296723127365112</v>
       </c>
       <c r="H81">
-        <v>11.9986207485199</v>
+        <v>11.85629916191101</v>
       </c>
       <c r="I81">
-        <v>0.1099908351898193</v>
+        <v>0.09383988380432129</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -4139,22 +3926,19 @@
         <v>188</v>
       </c>
       <c r="D82" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E82" t="s">
-        <v>385</v>
-      </c>
-      <c r="F82" t="s">
-        <v>443</v>
+        <v>382</v>
       </c>
       <c r="G82">
-        <v>1.196420669555664</v>
+        <v>3.545804262161255</v>
       </c>
       <c r="H82">
-        <v>17.00235819816589</v>
+        <v>9.935150384902954</v>
       </c>
       <c r="I82">
-        <v>0.1108918190002441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -4168,22 +3952,19 @@
         <v>189</v>
       </c>
       <c r="D83" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E83" t="s">
-        <v>386</v>
-      </c>
-      <c r="F83" t="s">
-        <v>465</v>
+        <v>383</v>
       </c>
       <c r="G83">
-        <v>1.762254238128662</v>
+        <v>1.765463829040527</v>
       </c>
       <c r="H83">
-        <v>30.96127247810364</v>
+        <v>9.936071157455444</v>
       </c>
       <c r="I83">
-        <v>0.1174499988555908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -4197,22 +3978,22 @@
         <v>190</v>
       </c>
       <c r="D84" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E84" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F84" t="s">
-        <v>466</v>
+        <v>400</v>
       </c>
       <c r="G84">
-        <v>1.196721076965332</v>
+        <v>1.406152486801147</v>
       </c>
       <c r="H84">
-        <v>36.49984788894653</v>
+        <v>14.34025454521179</v>
       </c>
       <c r="I84">
-        <v>0.1090629100799561</v>
+        <v>0.09360289573669434</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -4226,22 +4007,16 @@
         <v>191</v>
       </c>
       <c r="D85" t="s">
-        <v>291</v>
-      </c>
-      <c r="E85" t="s">
-        <v>388</v>
-      </c>
-      <c r="F85" t="s">
-        <v>467</v>
+        <v>290</v>
       </c>
       <c r="G85">
-        <v>1.316385746002197</v>
+        <v>1.29680609703064</v>
       </c>
       <c r="H85">
-        <v>23.83874082565308</v>
+        <v>9.747461557388306</v>
       </c>
       <c r="I85">
-        <v>0.1189048290252686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -4255,22 +4030,16 @@
         <v>192</v>
       </c>
       <c r="D86" t="s">
-        <v>292</v>
-      </c>
-      <c r="E86" t="s">
-        <v>389</v>
-      </c>
-      <c r="F86" t="s">
-        <v>468</v>
+        <v>291</v>
       </c>
       <c r="G86">
-        <v>1.294800519943237</v>
+        <v>1.437164783477783</v>
       </c>
       <c r="H86">
-        <v>30.57967782020569</v>
+        <v>34.25751805305481</v>
       </c>
       <c r="I86">
-        <v>0.09385514259338379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -4284,22 +4053,19 @@
         <v>193</v>
       </c>
       <c r="D87" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E87" t="s">
-        <v>390</v>
-      </c>
-      <c r="F87" t="s">
-        <v>469</v>
+        <v>385</v>
       </c>
       <c r="G87">
-        <v>1.370093822479248</v>
+        <v>1.343666076660156</v>
       </c>
       <c r="H87">
-        <v>13.30207443237305</v>
+        <v>12.40307950973511</v>
       </c>
       <c r="I87">
-        <v>0.1057639122009277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -4313,22 +4079,19 @@
         <v>194</v>
       </c>
       <c r="D88" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E88" t="s">
-        <v>391</v>
-      </c>
-      <c r="F88" t="s">
-        <v>470</v>
+        <v>386</v>
       </c>
       <c r="G88">
-        <v>1.195100069046021</v>
+        <v>1.405909299850464</v>
       </c>
       <c r="H88">
-        <v>10.22328162193298</v>
+        <v>13.01255297660828</v>
       </c>
       <c r="I88">
-        <v>0.1221132278442383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -4342,22 +4105,19 @@
         <v>195</v>
       </c>
       <c r="D89" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E89" t="s">
-        <v>392</v>
-      </c>
-      <c r="F89" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="G89">
-        <v>1.421770095825195</v>
+        <v>1.359198093414307</v>
       </c>
       <c r="H89">
-        <v>30.20167016983032</v>
+        <v>31.96172308921814</v>
       </c>
       <c r="I89">
-        <v>0.09353399276733398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -4371,22 +4131,22 @@
         <v>196</v>
       </c>
       <c r="D90" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E90" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F90" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G90">
-        <v>1.313444375991821</v>
+        <v>1.687100172042847</v>
       </c>
       <c r="H90">
-        <v>16.84708881378174</v>
+        <v>31.18009042739868</v>
       </c>
       <c r="I90">
-        <v>0.1249635219573975</v>
+        <v>0.1093518733978271</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -4400,22 +4160,22 @@
         <v>197</v>
       </c>
       <c r="D91" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E91" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F91" t="s">
-        <v>471</v>
+        <v>430</v>
       </c>
       <c r="G91">
-        <v>1.401053667068481</v>
+        <v>1.311954736709595</v>
       </c>
       <c r="H91">
-        <v>32.38118696212769</v>
+        <v>52.64379811286926</v>
       </c>
       <c r="I91">
-        <v>0.117741584777832</v>
+        <v>0.09373116493225098</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -4429,22 +4189,22 @@
         <v>198</v>
       </c>
       <c r="D92" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E92" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F92" t="s">
-        <v>472</v>
+        <v>431</v>
       </c>
       <c r="G92">
-        <v>1.41534686088562</v>
+        <v>1.359321355819702</v>
       </c>
       <c r="H92">
-        <v>11.01852560043335</v>
+        <v>11.71594452857971</v>
       </c>
       <c r="I92">
-        <v>0.0937201976776123</v>
+        <v>0.1093490123748779</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -4458,22 +4218,22 @@
         <v>199</v>
       </c>
       <c r="D93" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E93" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F93" t="s">
-        <v>473</v>
+        <v>432</v>
       </c>
       <c r="G93">
-        <v>1.606808423995972</v>
+        <v>1.34316873550415</v>
       </c>
       <c r="H93">
-        <v>11.58230566978455</v>
+        <v>12.6695818901062</v>
       </c>
       <c r="I93">
-        <v>0.1191055774688721</v>
+        <v>0.3124573230743408</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4487,16 +4247,22 @@
         <v>200</v>
       </c>
       <c r="D94" t="s">
-        <v>300</v>
+        <v>299</v>
+      </c>
+      <c r="E94" t="s">
+        <v>392</v>
+      </c>
+      <c r="F94" t="s">
+        <v>428</v>
       </c>
       <c r="G94">
-        <v>1.324186325073242</v>
+        <v>1.312190055847168</v>
       </c>
       <c r="H94">
-        <v>10.33050990104675</v>
+        <v>12.43480539321899</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>0.1093358993530273</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4510,22 +4276,16 @@
         <v>201</v>
       </c>
       <c r="D95" t="s">
-        <v>301</v>
-      </c>
-      <c r="E95" t="s">
-        <v>397</v>
-      </c>
-      <c r="F95" t="s">
-        <v>425</v>
+        <v>300</v>
       </c>
       <c r="G95">
-        <v>1.231201410293579</v>
+        <v>1.124698162078857</v>
       </c>
       <c r="H95">
-        <v>20.75245332717896</v>
+        <v>12.27811336517334</v>
       </c>
       <c r="I95">
-        <v>0.1141910552978516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4539,19 +4299,19 @@
         <v>202</v>
       </c>
       <c r="D96" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E96" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G96">
-        <v>1.50527286529541</v>
+        <v>1.655857801437378</v>
       </c>
       <c r="H96">
-        <v>32.33318853378296</v>
+        <v>12.88784027099609</v>
       </c>
       <c r="I96">
-        <v>0.1049637794494629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -4565,22 +4325,19 @@
         <v>203</v>
       </c>
       <c r="D97" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E97" t="s">
-        <v>399</v>
-      </c>
-      <c r="F97" t="s">
-        <v>443</v>
+        <v>394</v>
       </c>
       <c r="G97">
-        <v>1.258138418197632</v>
+        <v>1.12472939491272</v>
       </c>
       <c r="H97">
-        <v>10.74559950828552</v>
+        <v>12.93444633483887</v>
       </c>
       <c r="I97">
-        <v>0.109525203704834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4594,22 +4351,22 @@
         <v>204</v>
       </c>
       <c r="D98" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E98" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F98" t="s">
-        <v>474</v>
+        <v>433</v>
       </c>
       <c r="G98">
-        <v>1.363327026367188</v>
+        <v>0.9841532707214355</v>
       </c>
       <c r="H98">
-        <v>10.75189971923828</v>
+        <v>20.33893752098083</v>
       </c>
       <c r="I98">
-        <v>0.1562142372131348</v>
+        <v>0.1249749660491943</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4623,19 +4380,22 @@
         <v>205</v>
       </c>
       <c r="D99" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E99" t="s">
-        <v>401</v>
+        <v>396</v>
+      </c>
+      <c r="F99" t="s">
+        <v>434</v>
       </c>
       <c r="G99">
-        <v>1.414520502090454</v>
+        <v>1.124734401702881</v>
       </c>
       <c r="H99">
-        <v>51.62481284141541</v>
+        <v>31.47706007957458</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>0.109344482421875</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4649,22 +4409,22 @@
         <v>206</v>
       </c>
       <c r="D100" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E100" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="F100" t="s">
-        <v>475</v>
+        <v>435</v>
       </c>
       <c r="G100">
-        <v>0.9113473892211914</v>
+        <v>1.35905385017395</v>
       </c>
       <c r="H100">
-        <v>31.33713984489441</v>
+        <v>19.32382273674011</v>
       </c>
       <c r="I100">
-        <v>0.124969482421875</v>
+        <v>0.1249709129333496</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4678,19 +4438,19 @@
         <v>207</v>
       </c>
       <c r="D101" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E101" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="G101">
-        <v>1.339086532592773</v>
+        <v>1.311921119689941</v>
       </c>
       <c r="H101">
-        <v>39.27577567100525</v>
+        <v>10.98177719116211</v>
       </c>
       <c r="I101">
-        <v>0.09376358985900879</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/lod_analysis/excels/artists_full.xlsx
+++ b/lod_analysis/excels/artists_full.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="430">
   <si>
     <t>artist_id</t>
   </si>
@@ -40,1288 +40,1270 @@
     <t>geonames_download_time</t>
   </si>
   <si>
-    <t>0du5cEVh5yTK9QJze8zA0C</t>
-  </si>
-  <si>
-    <t>1PAi6SNPtaiFqTRiTfecFr</t>
-  </si>
-  <si>
-    <t>6PvvGcCY2XtUcSRld1Wilr</t>
-  </si>
-  <si>
-    <t>35l9BRT7MXmM8bv2WDQiyB</t>
-  </si>
-  <si>
-    <t>78SHxLdtysAXgywQ4vE0Oa</t>
-  </si>
-  <si>
-    <t>1Fmb52lZ6Jv7FMWXXTPO3K</t>
-  </si>
-  <si>
-    <t>17jVKTope5TIJoBQBTzaxj</t>
-  </si>
-  <si>
-    <t>0gDg7FEsF4Y1jWddJJgcn4</t>
-  </si>
-  <si>
-    <t>06HL4z0CvFAxyc27GXpf02</t>
-  </si>
-  <si>
-    <t>0uAjBatvB4ubpd4kCfjmNt</t>
-  </si>
-  <si>
-    <t>2dd5mrQZvg6SmahdgVKDzh</t>
-  </si>
-  <si>
-    <t>4n1jUVWofpK6Lx1r2EnLCo</t>
-  </si>
-  <si>
-    <t>4exLIFE8sISLr28sqG1qNX</t>
-  </si>
-  <si>
-    <t>3NTbOmzlj2cL86XFuDVFvZ</t>
-  </si>
-  <si>
-    <t>6x9QLdzo6eBZxJ1bHsDkjg</t>
-  </si>
-  <si>
-    <t>34c4iQ5tkaZKu6Sv28BTde</t>
-  </si>
-  <si>
-    <t>2sil8z5kiy4r76CRTXxBCA</t>
-  </si>
-  <si>
-    <t>0Jeckitay8SbvKwqAzWuYH</t>
-  </si>
-  <si>
-    <t>7jefIIksOi1EazgRTfW2Pk</t>
+    <t>01WjpKiWVNurV5hjIadB8C</t>
+  </si>
+  <si>
+    <t>6J7biCazzYhU3gM9j1wfid</t>
+  </si>
+  <si>
+    <t>6TZdvF1kFzwnQLgHQynzsO</t>
+  </si>
+  <si>
+    <t>5svDnd8joFhbpbA3Ar0CfN</t>
+  </si>
+  <si>
+    <t>2AsusXITU8P25dlRNhcAbG</t>
+  </si>
+  <si>
+    <t>0Xf8oDAJYd2D0k3NLI19OV</t>
   </si>
   <si>
     <t>1u7kkVrr14iBvrpYnZILJR</t>
   </si>
   <si>
-    <t>2tIP7SsRs7vjIcLrU85W8J</t>
-  </si>
-  <si>
-    <t>49bzE5vRBRIota4qeHtQM8</t>
-  </si>
-  <si>
-    <t>6Ff53KvcvAj5U7Z1vojB5o</t>
-  </si>
-  <si>
-    <t>1gALaWbNDnwS2ECV09sn2A</t>
-  </si>
-  <si>
-    <t>0Nn9YwJzcaeuU1jJL06e3r</t>
-  </si>
-  <si>
-    <t>2SHhfs4BiDxGQ3oxqf0UHY</t>
-  </si>
-  <si>
-    <t>4tpUmLEVLCGFr93o8hFFIB</t>
-  </si>
-  <si>
-    <t>41ekW4MXG59xJMXR8dX1OG</t>
-  </si>
-  <si>
-    <t>77tT1kLj6mCWtFNqiOmP9H</t>
-  </si>
-  <si>
-    <t>0f5cjky3a6ee9e0WicpzhW</t>
-  </si>
-  <si>
-    <t>53A0W3U0s8diEn9RhXQhVz</t>
-  </si>
-  <si>
-    <t>2RE8NwNxsOyuNZDD0jRxHP</t>
-  </si>
-  <si>
-    <t>4dwdTW1Lfiq0cM8nBAqIIz</t>
-  </si>
-  <si>
-    <t>7ip3CWlgPZbQHvgJpmcGSS</t>
-  </si>
-  <si>
-    <t>4gwpcMTbLWtBUlOijbVpuu</t>
-  </si>
-  <si>
-    <t>2bcrMsFlF632EQ6VZERWFu</t>
-  </si>
-  <si>
-    <t>4OBJLual30L7gRl5UkeRcT</t>
-  </si>
-  <si>
-    <t>0cpt0xebTXatYk3KvnrU9m</t>
-  </si>
-  <si>
-    <t>04gDigrS5kc9YWfZHwBETP</t>
-  </si>
-  <si>
-    <t>26T3LtbuGT1Fu9m0eRq5X3</t>
-  </si>
-  <si>
-    <t>3JsMj0DEzyWc0VDlHuy9Bx</t>
-  </si>
-  <si>
-    <t>6BkcAbUkfIBM4XudxieMq8</t>
-  </si>
-  <si>
-    <t>2LIk90788K0zvyj2JJVwkJ</t>
-  </si>
-  <si>
-    <t>0KyCXNSa7ZMb5LydfKbLG3</t>
-  </si>
-  <si>
-    <t>3UbyYnvNIT5DFXU4WgiGpP</t>
-  </si>
-  <si>
-    <t>3EhbVgyfGd7HkpsagwL9GS</t>
-  </si>
-  <si>
-    <t>0DR4z5jMA1eqx0CmHBUpkr</t>
-  </si>
-  <si>
-    <t>0dlOr0VIysztGWvU1dpjmP</t>
-  </si>
-  <si>
-    <t>1b81zU0IfjHE8krv2IZ0Hf</t>
-  </si>
-  <si>
-    <t>2EMAnMvWE2eb56ToJVfCWs</t>
-  </si>
-  <si>
-    <t>771qBvjnXOH9Azr6lKy6FB</t>
-  </si>
-  <si>
-    <t>0z4gvV4rjIZ9wHck67ucSV</t>
-  </si>
-  <si>
-    <t>0cwmNvclzPd8mQnoHuIksj</t>
-  </si>
-  <si>
-    <t>7gP3bB2nilZXLfPHJhMdvc</t>
+    <t>2TzHIUhVpeeDxyJPpQfnV3</t>
+  </si>
+  <si>
+    <t>4y5wqoJUmlvr9xV6l5lO4b</t>
+  </si>
+  <si>
+    <t>31TPClRtHm23RisEBtV3X7</t>
+  </si>
+  <si>
+    <t>5EvFsr3kj42KNv97ZEnqij</t>
+  </si>
+  <si>
+    <t>2gsggkzM5R49q6jpPvazou</t>
+  </si>
+  <si>
+    <t>7KBkgunlONG7LPxs93pgpp</t>
+  </si>
+  <si>
+    <t>3X0tJzVYoWlfjLYI0Ridsw</t>
+  </si>
+  <si>
+    <t>3bhu7P5PfngueRHiB9hjcx</t>
+  </si>
+  <si>
+    <t>1gR0gsQYfi6joyO1dlp76N</t>
+  </si>
+  <si>
+    <t>3SYGWAHCe31oykdeUPpoJp</t>
+  </si>
+  <si>
+    <t>1bdytLV3FPjyhfrb6BhMej</t>
+  </si>
+  <si>
+    <t>4npEfmQ6YuiwW1GpUmaq3F</t>
+  </si>
+  <si>
+    <t>7KMqksf0UMdyA0UCf4R3ux</t>
+  </si>
+  <si>
+    <t>1yjAx9cww4f1QuAaN3dUI2</t>
+  </si>
+  <si>
+    <t>5ndkK3dpZLKtBklKjxNQwT</t>
+  </si>
+  <si>
+    <t>0qT79UgT5tY4yudH9VfsdT</t>
+  </si>
+  <si>
+    <t>2MqhkhX4npxDZ62ObR5ELO</t>
+  </si>
+  <si>
+    <t>4Eqd24yS5YcxI8b6Xfuwr8</t>
+  </si>
+  <si>
+    <t>0Suv0tRrNrUlRzAy8aXjma</t>
+  </si>
+  <si>
+    <t>2hl0xAkS2AIRAu23TVMBG1</t>
+  </si>
+  <si>
+    <t>1TqQi97nqeiuOJrIFv5Sw0</t>
+  </si>
+  <si>
+    <t>3vbKDsSS70ZX9D2OcvbZmS</t>
+  </si>
+  <si>
+    <t>5PTDGbHPxxXf81RrubpIOO</t>
+  </si>
+  <si>
+    <t>2siHvYaxjaW5rKVRiIrMYH</t>
+  </si>
+  <si>
+    <t>2iEvnFsWxR0Syqu2JNopAd</t>
+  </si>
+  <si>
+    <t>5OfhOoKunSnuubxxRML8J3</t>
+  </si>
+  <si>
+    <t>2ziB7fzrXBoh1HUPS6sVFn</t>
+  </si>
+  <si>
+    <t>0q8J3Yj810t5cpAYEJ7gxt</t>
+  </si>
+  <si>
+    <t>00FQb4jTyendYWaN8pK0wa</t>
+  </si>
+  <si>
+    <t>6w7fc6IZlo5zwBaKT5jU1X</t>
+  </si>
+  <si>
+    <t>5BcAKTbp20cv7tC5VqPFoC</t>
+  </si>
+  <si>
+    <t>7HqEmV7FeCi16bQyHMpIrF</t>
+  </si>
+  <si>
+    <t>4Wjf8diP59VmPG7fi4y724</t>
+  </si>
+  <si>
+    <t>5ZsFI1h6hIdQRw2ti0hz81</t>
+  </si>
+  <si>
+    <t>4M1FpEWs2PeYfJe7xxJfhH</t>
+  </si>
+  <si>
+    <t>4eQJIXFEujzhTVVS1gIfu5</t>
+  </si>
+  <si>
+    <t>0jgAONnsHxrwAlhkMUVS78</t>
+  </si>
+  <si>
+    <t>7dxF7y4hlGFazdArMsxbEx</t>
+  </si>
+  <si>
+    <t>6qqNVTkY8uBg9cP3Jd7DAH</t>
+  </si>
+  <si>
+    <t>1Yyag4BRejtPxsKTrSkKDz</t>
+  </si>
+  <si>
+    <t>545idYhdloaSlLGBY8E9u2</t>
+  </si>
+  <si>
+    <t>6xHUXzrfhFgnIv86EBR3Ml</t>
+  </si>
+  <si>
+    <t>1tqZaCwM57UFKjWoYwMLrw</t>
+  </si>
+  <si>
+    <t>32ckuKo8LrZhQMyCehYKkt</t>
+  </si>
+  <si>
+    <t>4hqDqHtBlgxXpLXVYf7c8L</t>
+  </si>
+  <si>
+    <t>0rvjqX7ttXeg3mTy8Xscbt</t>
+  </si>
+  <si>
+    <t>23zg3TcAtWQy7J6upgbUnj</t>
+  </si>
+  <si>
+    <t>3KEb1kbIZN5jumsjFEWgSW</t>
+  </si>
+  <si>
+    <t>07lbidCU8ZwtNCUrmaO0QU</t>
+  </si>
+  <si>
+    <t>3oZa8Xs6IjlIUGLAhVyK4G</t>
+  </si>
+  <si>
+    <t>2cNCyL3WSlAatld5duatyD</t>
+  </si>
+  <si>
+    <t>4bthk9UfsYUYdcFyqxmSUU</t>
+  </si>
+  <si>
+    <t>09l3QuYe7ExcyAZYosgVJx</t>
+  </si>
+  <si>
+    <t>5P5FTygHyx2G57oszR3Wot</t>
+  </si>
+  <si>
+    <t>5LtL2B9LC31DesMx7ihMFc</t>
+  </si>
+  <si>
+    <t>3Nrfpe0tUJi4K4DXYWgMUX</t>
+  </si>
+  <si>
+    <t>7jVv8c5Fj3E9VhNjxT4snq</t>
+  </si>
+  <si>
+    <t>0fA0VVWsXO9YnASrzqfmYu</t>
+  </si>
+  <si>
+    <t>6oMuImdp5ZcFhWP0ESe6mG</t>
   </si>
   <si>
     <t>4yiQZ8tQPux8cPriYMWUFP</t>
   </si>
   <si>
-    <t>19xz1vcuKNjniGEftTOSSH</t>
-  </si>
-  <si>
-    <t>7vk5e3vY1uw9plTHJAMwjN</t>
-  </si>
-  <si>
-    <t>7vXwfZyDp3spzIVNXDaTPN</t>
-  </si>
-  <si>
-    <t>1yjAx9cww4f1QuAaN3dUI2</t>
-  </si>
-  <si>
-    <t>5rScKX1Sh1U67meeUyTGwk</t>
-  </si>
-  <si>
-    <t>3oZa8Xs6IjlIUGLAhVyK4G</t>
-  </si>
-  <si>
-    <t>4rGrN4XDYhP6dUAZMvcuHr</t>
-  </si>
-  <si>
-    <t>3r17AfJCCUqC9Lf0OAc73G</t>
-  </si>
-  <si>
-    <t>3iTsJGG39nMg9YiolUgLMQ</t>
-  </si>
-  <si>
-    <t>0oea1hwGMfUxZbLxJc1XUN</t>
-  </si>
-  <si>
-    <t>08GQAI4eElDnROBrJRGE0X</t>
-  </si>
-  <si>
-    <t>77AiFEVeAVj2ORpC85QVJs</t>
-  </si>
-  <si>
-    <t>2DuJi13MWHjRHrqRUwk8vH</t>
-  </si>
-  <si>
-    <t>0ym94xKp2PIOJtTZKpxbAa</t>
-  </si>
-  <si>
-    <t>1pgtr4nhBQjp9oCUBPyYWh</t>
-  </si>
-  <si>
-    <t>2VYQTNDsvvKN9wmU5W7xpj</t>
-  </si>
-  <si>
-    <t>488v7rQzthLNK22r0UvMie</t>
-  </si>
-  <si>
-    <t>0NKDgy9j66h3DLnN8qu1bB</t>
-  </si>
-  <si>
-    <t>5GJmQjUNRyNQ2VZ4HOIx1C</t>
-  </si>
-  <si>
-    <t>0XNa1vTidXlvJ2gHSsRi4A</t>
-  </si>
-  <si>
-    <t>3Isy6kedDrgPYoTS1dazA9</t>
-  </si>
-  <si>
-    <t>4gzpq5DPGxSnKTe4SA8HAU</t>
-  </si>
-  <si>
-    <t>6J7biCazzYhU3gM9j1wfid</t>
-  </si>
-  <si>
-    <t>0oSGxfWSnnOXhD2fKuz2Gy</t>
-  </si>
-  <si>
-    <t>6S0dmVVn4udvppDhZIWxCr</t>
-  </si>
-  <si>
-    <t>1yxSLGMDHlW21z4YXirZDS</t>
-  </si>
-  <si>
-    <t>0fA0VVWsXO9YnASrzqfmYu</t>
-  </si>
-  <si>
-    <t>0z5DFXmhT4ZNzWElsM7V89</t>
-  </si>
-  <si>
-    <t>6tbjWDEIzxoDsBA1FuhfPW</t>
-  </si>
-  <si>
-    <t>7EQ0qTo7fWT7DPxmxtSYEc</t>
+    <t>4opTS86dN9uO313J9CE8xg</t>
+  </si>
+  <si>
+    <t>14ZxDAK6ITtZZqPdiWrvSn</t>
+  </si>
+  <si>
+    <t>7A9yZMTrFZcgEWAX2kBfK6</t>
+  </si>
+  <si>
+    <t>6XyY86QOPPrYVGvF9ch6wz</t>
+  </si>
+  <si>
+    <t>2jw70GZXlAI8QzWeY2bgRc</t>
+  </si>
+  <si>
+    <t>03ilIKH0i08IxmjKcn63ne</t>
+  </si>
+  <si>
+    <t>1KCSPY1glIKqW2TotWuXOR</t>
+  </si>
+  <si>
+    <t>0sHeX8oQ6o7xic3wMf4NBU</t>
+  </si>
+  <si>
+    <t>0Chxmm4XMM87mJOHvyiUzL</t>
+  </si>
+  <si>
+    <t>3MZsBdqDrRTJihTHQrO6Dq</t>
+  </si>
+  <si>
+    <t>4GLJPBj5Cdr9AgLKvLWM4n</t>
+  </si>
+  <si>
+    <t>6KImCVD70vtIoJWnq6nGn3</t>
+  </si>
+  <si>
+    <t>450iujbtN6XgiA9pv6fVZz</t>
+  </si>
+  <si>
+    <t>0X2BH1fck6amBIoJhDVmmJ</t>
   </si>
   <si>
     <t>3Y3xIwWyq5wnNHPp5gPjOW</t>
   </si>
   <si>
-    <t>3vbKDsSS70ZX9D2OcvbZmS</t>
-  </si>
-  <si>
-    <t>2ZvrvbQNrHKwjT7qfGFFUW</t>
-  </si>
-  <si>
-    <t>02NfyD6AlLA12crYzw5YcR</t>
-  </si>
-  <si>
-    <t>3dXaa6jwM7B52GZpaJEIr5</t>
-  </si>
-  <si>
-    <t>6QMABvTzixnxzsLYyhqRxI</t>
-  </si>
-  <si>
-    <t>1bj5GrcLom5gZFF5t949Xl</t>
-  </si>
-  <si>
-    <t>1k8VBufn1nBs8LN9n4snc8</t>
-  </si>
-  <si>
-    <t>2w7IutHv5g4e8LumrwtjWR</t>
-  </si>
-  <si>
-    <t>7FIoB5PHdrMZVC3q2HE5MS</t>
-  </si>
-  <si>
-    <t>3BmGtnKgCSGYIUhmivXKWX</t>
-  </si>
-  <si>
-    <t>02da1vDJ2hWqfK7aJL6SJm</t>
-  </si>
-  <si>
-    <t>26bcq2nyj5GB7uRr558iQg</t>
-  </si>
-  <si>
-    <t>5aYyPjAsLj7UzANzdupwnS</t>
-  </si>
-  <si>
-    <t>4dpARuHxo51G3z768sgnrY</t>
-  </si>
-  <si>
-    <t>Bruno Mars</t>
-  </si>
-  <si>
-    <t>Save Ferris</t>
-  </si>
-  <si>
-    <t>Silk Sonic</t>
-  </si>
-  <si>
-    <t>beabadoobee</t>
-  </si>
-  <si>
-    <t>Bush</t>
-  </si>
-  <si>
-    <t>Joan Jett &amp; The Blackhearts</t>
-  </si>
-  <si>
-    <t>DB Boulevard</t>
-  </si>
-  <si>
-    <t>The Rembrandts</t>
-  </si>
-  <si>
-    <t>Taylor Swift</t>
-  </si>
-  <si>
-    <t>A Flock Of Seagulls</t>
-  </si>
-  <si>
-    <t>PSY</t>
-  </si>
-  <si>
-    <t>The WAV.s</t>
-  </si>
-  <si>
-    <t>Travis Barker</t>
-  </si>
-  <si>
-    <t>MAN WITH A MISSION</t>
-  </si>
-  <si>
-    <t>Sisqo</t>
-  </si>
-  <si>
-    <t>Danzig</t>
-  </si>
-  <si>
-    <t>The Goo Goo Dolls</t>
-  </si>
-  <si>
-    <t>Big Mountain</t>
-  </si>
-  <si>
-    <t>Electric Light Orchestra</t>
+    <t>5mqguTgtaoCMNMZD6txCh6</t>
+  </si>
+  <si>
+    <t>1HY2Jd0NmPuamShAr6KMms</t>
+  </si>
+  <si>
+    <t>0epOFNiUfyON9EYx7Tpr6V</t>
+  </si>
+  <si>
+    <t>694QW15WkebjcrWgQHzRYF</t>
+  </si>
+  <si>
+    <t>3TOqt5oJwL9BE2NG9MEwDa</t>
+  </si>
+  <si>
+    <t>3nRifdQMP5925XSkIN07oC</t>
+  </si>
+  <si>
+    <t>11wRdbnoYqRddKBrpHt4Ue</t>
+  </si>
+  <si>
+    <t>39oSLGo3HkaeYXzUEGgAGQ</t>
+  </si>
+  <si>
+    <t>5A8UenAZRv51yZVv13nFQo</t>
+  </si>
+  <si>
+    <t>26VFTg2z8YR0cCuwLzESi2</t>
+  </si>
+  <si>
+    <t>0k17h0D3J5VfsdmQ1iZtE9</t>
+  </si>
+  <si>
+    <t>1ruutHJcECI7cos2n5TqpO</t>
+  </si>
+  <si>
+    <t>2wY79sveU1sp5g7SokKOiI</t>
+  </si>
+  <si>
+    <t>6m30rs1IQqnWqV5nKMpU7U</t>
+  </si>
+  <si>
+    <t>2eogQKWWoohI3BSnoG7E2U</t>
+  </si>
+  <si>
+    <t>0LbLWjaweRbO4FDKYlbfNt</t>
+  </si>
+  <si>
+    <t>0DxeaLnv6SyYk2DOqkLO8c</t>
+  </si>
+  <si>
+    <t>07QEuhtrNmmZ0zEcqE9SF6</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>Jamiroquai</t>
+  </si>
+  <si>
+    <t>Alien Ant Farm</t>
+  </si>
+  <si>
+    <t>Junkie XL</t>
+  </si>
+  <si>
+    <t>Gotye</t>
+  </si>
+  <si>
+    <t>CHIC</t>
   </si>
   <si>
     <t>Sex Pistols</t>
   </si>
   <si>
-    <t>The Kid LAROI</t>
-  </si>
-  <si>
-    <t>Skillet</t>
-  </si>
-  <si>
-    <t>*NSYNC</t>
-  </si>
-  <si>
-    <t>Nightcrawlers</t>
-  </si>
-  <si>
-    <t>The Knack</t>
-  </si>
-  <si>
-    <t>Roxette</t>
-  </si>
-  <si>
-    <t>Blondie</t>
-  </si>
-  <si>
-    <t>Alpha Blondy</t>
-  </si>
-  <si>
-    <t>Daryl Hall &amp; John Oates</t>
-  </si>
-  <si>
-    <t>Makedah</t>
-  </si>
-  <si>
-    <t>Keane</t>
-  </si>
-  <si>
-    <t>Kool Moe Dee</t>
-  </si>
-  <si>
-    <t>Of Monsters and Men</t>
-  </si>
-  <si>
-    <t>Peter Schilling</t>
-  </si>
-  <si>
-    <t>Capital Cities</t>
-  </si>
-  <si>
-    <t>The Bravery</t>
-  </si>
-  <si>
-    <t>T.I.</t>
-  </si>
-  <si>
-    <t>Pato Banton</t>
-  </si>
-  <si>
-    <t>Maroon 5</t>
-  </si>
-  <si>
-    <t>Cage The Elephant</t>
-  </si>
-  <si>
-    <t>Supertramp</t>
-  </si>
-  <si>
-    <t>Dr. Alban</t>
-  </si>
-  <si>
-    <t>Jack Harlow</t>
-  </si>
-  <si>
-    <t>David Lee Roth</t>
-  </si>
-  <si>
-    <t>Whitesnake</t>
-  </si>
-  <si>
-    <t>Alice Cooper</t>
-  </si>
-  <si>
-    <t>DJ Ötzi</t>
-  </si>
-  <si>
-    <t>Natalie Imbruglia</t>
-  </si>
-  <si>
-    <t>Captain Jack</t>
-  </si>
-  <si>
-    <t>Bryson Tiller</t>
-  </si>
-  <si>
-    <t>Michael Sembello</t>
-  </si>
-  <si>
-    <t>Akon</t>
-  </si>
-  <si>
-    <t>Vengaboys</t>
-  </si>
-  <si>
-    <t>Foster The People</t>
+    <t>Katrina &amp; The Waves</t>
+  </si>
+  <si>
+    <t>Carl Ward</t>
+  </si>
+  <si>
+    <t>Justin Timberlake</t>
+  </si>
+  <si>
+    <t>Shaggy</t>
+  </si>
+  <si>
+    <t>Jessie J</t>
+  </si>
+  <si>
+    <t>Mr. President</t>
+  </si>
+  <si>
+    <t>Suzanne Vega</t>
+  </si>
+  <si>
+    <t>Elle King</t>
+  </si>
+  <si>
+    <t>Justice</t>
+  </si>
+  <si>
+    <t>Miranda Cosgrove</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Ava Max</t>
+  </si>
+  <si>
+    <t>James Blunt</t>
+  </si>
+  <si>
+    <t>Desireless</t>
+  </si>
+  <si>
+    <t>B.o.B</t>
+  </si>
+  <si>
+    <t>Sum 41</t>
+  </si>
+  <si>
+    <t>Hoobastank</t>
+  </si>
+  <si>
+    <t>Eve 6</t>
+  </si>
+  <si>
+    <t>Haddaway</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Semisonic</t>
+  </si>
+  <si>
+    <t>Beck</t>
+  </si>
+  <si>
+    <t>Cutee B.</t>
+  </si>
+  <si>
+    <t>Anastacia</t>
+  </si>
+  <si>
+    <t>Smash Mouth</t>
+  </si>
+  <si>
+    <t>Mr. Big</t>
+  </si>
+  <si>
+    <t>Audioslave</t>
+  </si>
+  <si>
+    <t>Duck Sauce</t>
+  </si>
+  <si>
+    <t>Lana Del Rey</t>
+  </si>
+  <si>
+    <t>The Lemonheads</t>
+  </si>
+  <si>
+    <t>Macklemore &amp; Ryan Lewis</t>
+  </si>
+  <si>
+    <t>VASSY</t>
+  </si>
+  <si>
+    <t>Cedric Gervais</t>
+  </si>
+  <si>
+    <t>ZAYN</t>
+  </si>
+  <si>
+    <t>Freddie Mercury</t>
+  </si>
+  <si>
+    <t>Deee-Lite</t>
+  </si>
+  <si>
+    <t>Eddie Rabbitt</t>
+  </si>
+  <si>
+    <t>Joey Ramone</t>
+  </si>
+  <si>
+    <t>Billie Eilish</t>
+  </si>
+  <si>
+    <t>The Greg Kihn Band</t>
+  </si>
+  <si>
+    <t>Cameo</t>
+  </si>
+  <si>
+    <t>kai</t>
+  </si>
+  <si>
+    <t>The Cardigans</t>
+  </si>
+  <si>
+    <t>Tom Lord-Alge</t>
+  </si>
+  <si>
+    <t>Ashlee Simpson</t>
+  </si>
+  <si>
+    <t>Journey</t>
+  </si>
+  <si>
+    <t>Usher</t>
+  </si>
+  <si>
+    <t>Tal Bachman</t>
+  </si>
+  <si>
+    <t>Bizarre Inc</t>
+  </si>
+  <si>
+    <t>Irene Cara</t>
+  </si>
+  <si>
+    <t>Rahsaan</t>
+  </si>
+  <si>
+    <t>Tears For Fears</t>
+  </si>
+  <si>
+    <t>Jonezetta</t>
+  </si>
+  <si>
+    <t>Daughtry</t>
+  </si>
+  <si>
+    <t>That Poppy</t>
+  </si>
+  <si>
+    <t>BTS</t>
+  </si>
+  <si>
+    <t>Lil Nas X</t>
+  </si>
+  <si>
+    <t>Kid Cudi</t>
+  </si>
+  <si>
+    <t>Migos</t>
   </si>
   <si>
     <t>Gwen Stefani</t>
   </si>
   <si>
-    <t>The Weather Girls</t>
-  </si>
-  <si>
-    <t>Alan Walker</t>
-  </si>
-  <si>
-    <t>Metro Station</t>
-  </si>
-  <si>
-    <t>Desireless</t>
-  </si>
-  <si>
-    <t>Michelle Branch</t>
-  </si>
-  <si>
-    <t>Irene Cara</t>
-  </si>
-  <si>
-    <t>Caesars</t>
-  </si>
-  <si>
-    <t>Fergie</t>
-  </si>
-  <si>
-    <t>Morrissey</t>
-  </si>
-  <si>
-    <t>Peter Tosh</t>
-  </si>
-  <si>
-    <t>Fleetwood Mac</t>
-  </si>
-  <si>
-    <t>Steve Aoki</t>
-  </si>
-  <si>
-    <t>Knife Party</t>
-  </si>
-  <si>
-    <t>Samantha Fox</t>
-  </si>
-  <si>
-    <t>Fountains Of Wayne</t>
-  </si>
-  <si>
-    <t>Marilyn Manson</t>
-  </si>
-  <si>
-    <t>La Bouche</t>
-  </si>
-  <si>
-    <t>Eurythmics</t>
-  </si>
-  <si>
-    <t>Bodyrockers</t>
-  </si>
-  <si>
-    <t>Franz Ferdinand</t>
-  </si>
-  <si>
-    <t>Sean Paul</t>
-  </si>
-  <si>
-    <t>Coldplay</t>
-  </si>
-  <si>
-    <t>Jamiroquai</t>
-  </si>
-  <si>
-    <t>David Bowie</t>
-  </si>
-  <si>
-    <t>Sean Kingston</t>
-  </si>
-  <si>
-    <t>Black Eyed Peas</t>
-  </si>
-  <si>
-    <t>Kid Cudi</t>
-  </si>
-  <si>
-    <t>Erasure</t>
-  </si>
-  <si>
-    <t>Madonna</t>
-  </si>
-  <si>
-    <t>Bastille</t>
+    <t>Skid Row</t>
+  </si>
+  <si>
+    <t>Everlast</t>
+  </si>
+  <si>
+    <t>Huey Lewis &amp; The News</t>
+  </si>
+  <si>
+    <t>Linkin Park</t>
+  </si>
+  <si>
+    <t>Nelly Furtado</t>
+  </si>
+  <si>
+    <t>Drake Bell</t>
+  </si>
+  <si>
+    <t>P!nk</t>
+  </si>
+  <si>
+    <t>Supergrass</t>
+  </si>
+  <si>
+    <t>Kevin Rudolf</t>
+  </si>
+  <si>
+    <t>Joji</t>
+  </si>
+  <si>
+    <t>Dragonette</t>
+  </si>
+  <si>
+    <t>Harry Styles</t>
+  </si>
+  <si>
+    <t>Razorlight</t>
+  </si>
+  <si>
+    <t>Ellie Goulding</t>
   </si>
   <si>
     <t>Kenny Loggins</t>
   </si>
   <si>
-    <t>Beck</t>
-  </si>
-  <si>
-    <t>Herbie Hancock</t>
-  </si>
-  <si>
-    <t>Jane's Addiction</t>
-  </si>
-  <si>
-    <t>Puddle Of Mudd</t>
-  </si>
-  <si>
-    <t>Majestic</t>
-  </si>
-  <si>
-    <t>Martin Solveig</t>
-  </si>
-  <si>
-    <t>Stereo MC's</t>
-  </si>
-  <si>
-    <t>Stardust</t>
-  </si>
-  <si>
-    <t>George Harrison</t>
-  </si>
-  <si>
-    <t>Kelly Clarkson</t>
-  </si>
-  <si>
-    <t>Soul Asylum</t>
-  </si>
-  <si>
-    <t>Survivor</t>
-  </si>
-  <si>
-    <t>Good Charlotte</t>
-  </si>
-  <si>
-    <t>Adele</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Bruno-mars', 'annotations': {'description': '&lt;p&gt;Peter Gene Hernandez (born October 8, 1985), known by his stage name Bruno Mars, is an American singer-songwriter and record producer.&lt;/p&gt;\n\n&lt;p&gt;Raised in Honolulu, Hawaii, by a family of musicians, Mars began making music at a young age and performed in various musical venues in his hometown throughout his childhood. He graduated from high school and moved to Los Angeles, California, to pursue a musical career.&lt;/p&gt;\n\n&lt;p&gt;His debut album &lt;a href="https://genius.com/albums/Bruno-mars/Doo-wops-hooligans" rel="noopener" data-api_path="/albums/13120"&gt;&lt;em&gt;Doo-Wops and Hooligans&lt;/em&gt;&lt;/a&gt; was released in 2010 with three hit singles. His second album, &lt;a href="https://genius.com/albums/Bruno-mars/Unorthodox-jukebox" rel="noopener" data-api_path="/albums/493008"&gt;&lt;em&gt;Unorthodox Jukebox&lt;/em&gt;&lt;/a&gt;, was released in 2012 and quickly reached the number one selling album in the U.S. at the time while spawning multiple hit singles of its own. On Friday, October 7th, 2016, he released the lead single and music video for &lt;a href="https://genius.com/Bruno-mars-24k-magic-lyrics" rel="noopener" data-api_path="/songs/2872960"&gt;“24K Magic,”&lt;/a&gt; from his &lt;a href="https://genius.com/albums/Bruno-mars/24k-magic" rel="noopener" data-api_path="/albums/229460"&gt;third studio album of the same name&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Having sold over 100 million records in the short span of his career, he is one of the best-selling artists of all time. To date, he has had six number-one singles on the Billboard Hot 100: plus, having started his career in 2010, he is the fastest artist to score five No. 1 hits since Memphis-based rockstar &lt;a href="https://genius.com/artists/Elvis-presley" rel="noopener" data-api_path="/artists/1645"&gt;Elvis Presley&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Mars has also produced many hit songs for other artists with his production team, &lt;a href="https://genius.com/artists/The-smeezingtons" rel="noopener" data-api_path="/artists/27679"&gt;The Smeezingtons&lt;/a&gt;, that was organized in 2009.&lt;/p&gt;', 'alternate_names': ['Pete Hernandez', 'Peter Hernandez', 'Peter G. Hernandez', 'Peter Gene Hernandez']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Save-ferris', 'annotations': {'description': '&lt;p&gt;Save Ferris is a ska punk band formed circa 1995 in Orange County, California. Their name is a reference to the 1986 film Ferris Bueller’s Day Off. The group’s original lineup consisted of Monique Powell (Vocals), Bill Uechi (Bass), Eric Zamora (Alto &amp;amp; Tenor Saxophone), Brian Mashburn (Guitar, Vocals), T-Bone Willy (Trombone), José Castellaños  (Trumpet), Marc Harismendy (Drums).&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Silk-sonic', 'annotations': {'description': '&lt;p&gt;Silk Sonic is an R&amp;amp;B/soul and funk super-duo, consisting of American singer-songwriters &lt;a href="https://genius.com/artists/Bruno-mars" rel="noopener" data-api_path="/artists/500"&gt;Bruno Mars&lt;/a&gt; and &lt;a href="https://genius.com/artists/Anderson-paak" rel="noopener" data-api_path="/artists/58017"&gt;Anderson .Paak&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In late February 2021, the duo announced their debut album under this banner, titled &lt;a href="https://genius.com/albums/Silk-sonic/An-evening-with-silk-sonic" rel="noopener" data-api_path="/albums/740313"&gt;&lt;em&gt;An Evening With Silk Sonic&lt;/em&gt;&lt;/a&gt;, which was previewed by three singles, &lt;a href="https://genius.com/Silk-sonic-leave-the-door-open-lyrics" rel="noopener" data-api_path="/songs/6531412"&gt;“Leave The Door Open”&lt;/a&gt; (released on March 5), &lt;a href="https://genius.com/Silk-sonic-skate-lyrics" rel="noopener" data-api_path="/songs/7055426"&gt;“Skate”&lt;/a&gt; (on July 30), and &lt;a href="https://genius.com/Silk-sonic-smokin-out-the-window-lyrics" rel="noopener" data-api_path="/songs/7131091"&gt;“Smokin\' Out The Window”&lt;/a&gt; (on November 5).&lt;/p&gt;\n\n&lt;p&gt;The album was eventually released on November 12, 2021 and represented the creative peak of the artists\' collaboration: in fact, while .Paak was opening for Bruno on the European leg of his &lt;em&gt;24K Magic Tour&lt;/em&gt; in 2017, the two started developing what would become Silk Sonic’s debut album.&lt;/p&gt;\n\n&lt;p&gt;While Silk Sonic represents Bruno Mars\' first proper collaborative project, Paak had previously collaborated with producer &lt;a href="https://genius.com/artists/Knxwledge" rel="noopener" data-api_path="/artists/30574"&gt;Knxwledge&lt;/a&gt; under the banner &lt;a href="https://genius.com/artists/Nxworries" rel="noopener" data-api_path="/artists/339382"&gt;NxWorries&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Bruno Mars Anderson .Paak &amp; Silk Sonic', 'Anderson .Paak Bruno Mars &amp; Silk Sonic']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Powfu-and-beabadoobee', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Bush', 'annotations': {'description': '&lt;p&gt;Bush, a band from London, England, was formed in 1992.&lt;/p&gt;\n\n&lt;p&gt;In 1994 they released their debut album &lt;a href="https://genius.com/albums/Bush/Sixteen-stone" rel="noopener" data-api_path="/albums/52112"&gt;&lt;em&gt;Sixteen Stone&lt;/em&gt;&lt;/a&gt;. It had immediate success and has been certified &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;ar=BUSH&amp;amp;ti=SIXTEEN+STONE" rel="noopener nofollow"&gt;6x multi-platinum&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Bush has been on the &lt;a href="https://www.billboard.com/charts/hot-mainstream-rock-tracks" rel="noopener nofollow"&gt;Billboard mainstream rock charts&lt;/a&gt; numerous times and they hit #1 with their sophomore album &lt;a href="https://genius.com/albums/Bush/Razorblade-suitcase" rel="noopener" data-api_path="/albums/68464"&gt;&lt;em&gt;Razorblade Suitcase&lt;/em&gt;&lt;/a&gt; in 1996.&lt;/p&gt;\n\n&lt;p&gt;The band broke up in 2002. Vocalist &lt;a href="https://genius.com/artists/Gavin-rossdale" rel="noopener" data-api_path="/artists/239033"&gt;Gavin Rossdale&lt;/a&gt; used this time to form a new band called &lt;a href="https://genius.com/artists/Institute" rel="noopener" data-api_path="/artists/365706"&gt;Institute&lt;/a&gt; in 2004. When Institute failed to have commercial success Rossdale went solo.&lt;/p&gt;\n\n&lt;p&gt;Since then, the band has reformed with new members &lt;a href="https://genius.com/artists/Chris-traynor" rel="noopener" data-api_path="/artists/1786070"&gt;Chris Traynor&lt;/a&gt; and &lt;a href="https://genius.com/artists/Corey-britz" rel="noopener" data-api_path="/artists/1971328"&gt;Corey Britz&lt;/a&gt; taking the spots of &lt;a href="https://genius.com/artists/Nigel-pulsford" rel="noopener" data-api_path="/artists/612039"&gt;Nigel Pulsford&lt;/a&gt; and &lt;a href="https://genius.com/artists/Dave-parsons" rel="noopener" data-api_path="/artists/38599"&gt;Dave Parsons&lt;/a&gt; in 2010.&lt;/p&gt;\n\n&lt;p&gt;They quickly announced their new album &lt;em&gt;&lt;a href="https://genius.com/albums/Bush/The-sea-of-memories" rel="noopener" data-api_path="/albums/131140"&gt;The Sea of Memories&lt;/a&gt;&lt;/em&gt; (previously titled &lt;em&gt;Everything Always Now&lt;/em&gt;) and their first single “&lt;a href="https://genius.com/Bush-afterlife-lyrics" rel="noopener" data-api_path="/songs/944317"&gt;Afterlife&lt;/a&gt;” at the 2010 &lt;a href="https://epicenterfestival.com/" rel="noopener nofollow"&gt;Epicenter Music Festival&lt;/a&gt; in Fontana, California. The album released September 13, 2011, and peaked at #18 on the &lt;a href="https://www.billboard.com/music/bush/chart-history/TLP" rel="noopener nofollow"&gt;Billboard 200&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;They released their sixth studio album &lt;em&gt;&lt;a href="https://genius.com/albums/Bush/Man-on-the-run" rel="noopener" data-api_path="/albums/113268"&gt;Man On the Run&lt;/a&gt;&lt;/em&gt; on October 21, 2014. The album was lead by the single “&lt;a href="https://genius.com/Bush-the-only-way-out-lyrics" rel="noopener" data-api_path="/songs/534423"&gt;The Only Way Out&lt;/a&gt;”.&lt;/p&gt;\n\n&lt;p&gt;Preceding their seventh album release Bush released their lead single “&lt;a href="https://genius.com/Bush-mad-love-lyrics" rel="noopener" data-api_path="/songs/2977300"&gt;Mad Love&lt;/a&gt;”. &lt;em&gt;&lt;a href="https://genius.com/albums/Bush/Black-and-white-rainbows" rel="noopener" data-api_path="/albums/328961"&gt;Black and White Rainbows&lt;/a&gt;&lt;/em&gt; was released March 10, 2017, and peaked at #8 on &lt;a href="https://www.billboard.com/music/bush/chart-history/RCK" rel="noopener nofollow"&gt;Billboard Top Rock Albums&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In May of 2019 Bush titled their eighth studio album &lt;em&gt;The Mind Plays Trick on You&lt;/em&gt;, but later changed it to &lt;em&gt;&lt;a href="https://genius.com/albums/Bush/The-kingdom" rel="noopener" data-api_path="/albums/609283"&gt;The Kingdom&lt;/a&gt;&lt;/em&gt; on March 3, 2020, after releasing their single “&lt;a href="https://genius.com/Bush-flowers-on-a-grave-lyrics" rel="noopener" data-api_path="/songs/5317160"&gt;Flowers on a Grave&lt;/a&gt;”.&lt;/p&gt;', 'alternate_names': ['Stingray (Bush)']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Joan-jett-and-the-blackhearts', 'annotations': {'description': '&lt;p&gt;After splitting with &lt;a href="https://genius.com/artists/The-runaways" rel="noopener" data-api_path="/artists/37911"&gt;The Runaways&lt;/a&gt;, and releasing her first solo album, &lt;a href="https://genius.com/artists/Joan-jett" rel="noopener" data-api_path="/artists/63682"&gt;Joan Jett&lt;/a&gt; placed an ad in LA Weekly looking for bandmates. Gary Ryan, Eric Ambel, and Danny “Furious” O\'Brien joined her, creating the orginial Blackhearts lineup.&lt;br&gt;\nAfter their initial tour though, O\'Brien was replaced with Lee Crystal.&lt;/p&gt;\n\n&lt;p&gt;Early on, keeping the band afloat was not easy. Joan and producer &lt;a href="https://genius.com/artists/Kenny-laguna" rel="noopener" data-api_path="/artists/73857"&gt;Kenny Laguna&lt;/a&gt; struggled, sometimes selling copies of albums from the trunk of his car. Eventually unable to keep up with the demand for Joan Jett’s album, they signed with Boardwalk Records.&lt;/p&gt;\n\n&lt;p&gt;In 1981 the band released their first album together, &lt;a href="https://genius.com/albums/Joan-jett-and-the-blackhearts/I-love-rock-n-roll" rel="noopener" data-api_path="/albums/46351"&gt;&lt;em&gt;I Love Rock N Roll&lt;/em&gt;&lt;/a&gt;. The band’s line up has continued to change over the years.&lt;/p&gt;\n\n&lt;p&gt;To date the band has ten studio albums, with two additional albums released under just “Joan Jett.”&lt;br&gt;\nTheir current line up is Joan Jett, Dougie Needles, Hal B. Selzer, and Thommy Price.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Db-boulevard', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/The-rembrandts', 'annotations': {'description': '&lt;p&gt;The band fated to be remembered for the theme song from &lt;em&gt;Friends&lt;/em&gt;, &lt;a href="https://genius.com/The-rembrandts-ill-be-there-for-you-lyrics" rel="noopener" data-api_path="/songs/118120"&gt;“I’ll Be There for You”&lt;/a&gt;, was created in 1989 when music-industry veterans Phil Solem (formerly of The Quick and a solo career) and Danny Wilde (formerly of Great Buildings) recorded their self-titled album in Wilde’s home. The duo split in 1997 but have periodically reunited to write new songs and produce for other artists.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Taylor-swift', 'annotations': {'description': '&lt;p&gt;One of the defining artists of the 2010s, Taylor Alison Swift, born December 13th, &lt;a href="https://genius.com/albums/Taylor-swift/1989" rel="noopener" data-api_path="/albums/110728"&gt;1989&lt;/a&gt;, is an American singer-songwriter and actress who has achieved success in both country and pop. Raised on a &lt;a href="https://genius.com/Taylor-swift-christmas-tree-farm-lyrics" rel="noopener" data-api_path="/songs/5077615"&gt;Christmas tree farm&lt;/a&gt; in Reading, Pennsylvania, Swift moved to &lt;a href="https://www.visitmusiccity.com/" rel="noopener nofollow"&gt;Nashville, Tennessee&lt;/a&gt; at age fourteen to pursue a career in country music. &lt;a href="https://genius.com/artists/scott-borchetta" rel="noopener" data-api_path="/artists/661895"&gt;Scott Borchetta&lt;/a&gt; signed Swift to his then-nonexistent label &lt;a href="https://genius.com/artists/big-machine-records" rel="noopener" data-api_path="/artists/1049237"&gt;Big Machine Records&lt;/a&gt; after seeing her perform at the &lt;a href="https://www.tennessean.com/story/entertainment/music/2018/08/23/taylor-swift-nashville-nissan-stadium-tickets-bluebird-cafe/1066495002/" rel="noopener nofollow"&gt;Bluebird Cafe&lt;/a&gt; in November 2004.&lt;/p&gt;\n\n&lt;p&gt;Swift debuted in June 2006 with &lt;a href="https://genius.com/Taylor-swift-tim-mcgraw-lyrics" rel="noopener" data-api_path="/songs/132077"&gt;“Tim McGraw,”&lt;/a&gt; an ode to a lover who would be leaving town. The song served as an introduction to her &lt;a href="https://genius.com/albums/Taylor-swift/Taylor-swift" rel="noopener" data-api_path="/albums/12682"&gt;self-titled debut album&lt;/a&gt;, which touched upon topics like heartbreak and bullying Swift faced at school. Her honesty and relatability appealed to fans from all walks of life, and went on to become the &lt;a href="https://www.bbc.co.uk/newsround/51711128" rel="noopener nofollow"&gt;longest-charting album&lt;/a&gt; of the 2000s, spending 227 weeks on the &lt;em&gt;Billboard&lt;/em&gt; 200.&lt;/p&gt;\n\n&lt;p&gt;Swift’s sophomore effort, &lt;a href="https://genius.com/albums/taylor-swift/fearless" rel="noopener" data-api_path="/albums/12731"&gt;&lt;em&gt;Fearless&lt;/em&gt;&lt;/a&gt;, came in November 2008 and cemented her status as a country superstar, while tracks like &lt;a href="https://genius.com/taylor-swift-love-story-lyrics" rel="noopener" data-api_path="/songs/98867"&gt;“Love Story”&lt;/a&gt; and &lt;a href="https://genius.com/taylor-swift-you-belong-with-me-lyrics" rel="noopener" data-api_path="/songs/98869"&gt;“You Belong With Me”&lt;/a&gt; also garnered mainstream attention. Not only did the record become her first &lt;a href="https://www.billboard.com/articles/news/1043458/taylor-swift-soars-to-no-1-debut" rel="noopener nofollow"&gt;number one&lt;/a&gt;, but it also became the &lt;a href="https://web.archive.org/web/20101115082527/http://www.bigmachinerecords.com/index.cfm?id=6&amp;amp;viewStory=369" rel="noopener nofollow"&gt;most-awarded country album&lt;/a&gt; of all time, winning accolades such as the Grammy award for &lt;a href="http://edition.cnn.com/2010/SHOWBIZ/Music/01/31/ent.grammys/" rel="noopener nofollow"&gt;Album of the Year&lt;/a&gt;. Until &lt;a href="https://genius.com/artists/billie-eilish" rel="noopener" data-api_path="/artists/615550"&gt;Billie Eilish&lt;/a&gt;’s 2020 win, then-20-year-old Swift was the youngest person to have ever received the honor.&lt;/p&gt;\n\n&lt;p&gt;Following the success of &lt;em&gt;Fearless&lt;/em&gt;, some had &lt;a href="https://genius.com/Taylor-swift-billboard-woman-of-the-decade-speech-annotated" rel="noopener" data-api_path="/songs/5123299"&gt;doubts&lt;/a&gt; about Swift’s songwriting abilities, and Swift wrote her third album, &lt;a href="https://genius.com/albums/Taylor-swift/Speak-now" rel="noopener" data-api_path="/albums/10982"&gt;&lt;em&gt;Speak Now&lt;/em&gt;&lt;/a&gt;, alone to prove herself. It became the &lt;a href="https://www.guinnessworldrecords.com/world-records/fastest-selling-digital-album-in-the-us-by-a-female-artist/" rel="noopener nofollow"&gt;fastest-selling digital album&lt;/a&gt; by a female artist in the U.S., selling over 278,000 digital downloads in its first week, and although it lost critic’s-choice awards like the &lt;a href="http://www.cmt.com/acm-awards/2011/nominees.jhtml" rel="noopener nofollow"&gt;ACM Album of the Year&lt;/a&gt; and &lt;a href="http://www.hollywoodreporter.com/news/grammy-awards-2012-winners-whitney-houston-death-adele-289778" rel="noopener nofollow"&gt;Grammy for Best Country Album&lt;/a&gt;, it saw great success at fan-influenced shows like the &lt;a href="http://www.billboard.com/articles/news/471886/2011-billboard-music-awards-winners-list" rel="noopener nofollow"&gt;&lt;em&gt;Billboard&lt;/em&gt; Music Awards&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Before releasing &lt;a href="https://genius.com/albums/taylor-swift/red" rel="noopener" data-api_path="/albums/22453"&gt;&lt;em&gt;Red&lt;/em&gt;&lt;/a&gt; in October 2012, Swift began straightening her signature curly hair, signaling a new era in her personal life and career. After going through a whirlwind heartbreak, she channeled her emotions into fan-favorite songs like &lt;a href="https://genius.com/taylor-swift-all-too-well-lyrics" rel="noopener" data-api_path="/songs/102701"&gt;“All Too Well,”&lt;/a&gt; which &lt;a href="https://www.rollingstone.com/music/music-lists/rob-sheffield-best-songs-2010s-930083/taylor-swift-all-too-well-single-2012-930279/" rel="noopener nofollow"&gt;&lt;em&gt;Rolling Stone&lt;/em&gt;&lt;/a&gt; named as the best song of the 2010s. Despite being a cult-classic, &lt;em&gt;Red&lt;/em&gt; infamously &lt;a href="http://www.latimes.com/entertainment/music/la-et-ms-grammy-nominations-winners-list-story.html#page=1" rel="noopener nofollow"&gt;lost the Grammy&lt;/a&gt; for Album of the Year, pushing Swift to change her sound and approach to music.&lt;/p&gt;\n\n&lt;p&gt;October 2014’s &lt;a href="https://genius.com/albums/taylor-swift/1989" rel="noopener" data-api_path="/albums/110728"&gt;&lt;em&gt;1989&lt;/em&gt;&lt;/a&gt; was Swift’s official entrance to the pop music scene, and it cemented her status as a musical titan, becoming the &lt;a href="http://www.billboard.com/articles/columns/chart-beat/6304536/official-taylor-swifts-1989-debuts-with-1287-million-sold-in" rel="noopener nofollow"&gt;only album of 2014&lt;/a&gt; to sell over a million copies in its first week and spending &lt;a href="https://www.billboard.com/pro/taylor-swift-1989-11th-week-no-1-billboard-200/" rel="noopener nofollow"&gt;eleven non-consecutive weeks&lt;/a&gt; at #1. She also won the coveted Grammy for &lt;a href="https://web.archive.org/web/20160221180634/http://www.theguardian.com/music/2016/feb/15/grammy-awards-2016-the-main-nominees" rel="noopener nofollow"&gt;Album of the Year&lt;/a&gt;, using her &lt;a href="https://genius.com/Taylor-swift-album-of-the-year-acceptance-speech-grammys-2016-annotated" rel="noopener" data-api_path="/songs/2423744"&gt;acceptance speech&lt;/a&gt; to applaud hard-working women and becoming the &lt;a href="https://web.archive.org/web/20160301073145/http://www.billboard.com/articles/news/grammys/6882510/taylor-swift-grammy-album-of-the-year-win-multiple" rel="noopener nofollow"&gt;first woman&lt;/a&gt; to win Album of the Year twice, and for different genres. Lead single &lt;a href="https://genius.com/taylor-swift-shake-it-off-lyrics" rel="noopener" data-api_path="/songs/499725"&gt;“Shake It Off”&lt;/a&gt; became one of her biggest hits, earning Swift her &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;ar=Taylor+Swift&amp;amp;ti=Shake+It+Off#search_section" rel="noopener nofollow"&gt;first diamond single&lt;/a&gt; by March 2020.&lt;/p&gt;\n\n&lt;p&gt;Around the time of her triumphant Grammy win, Swift became entangled in a &lt;a href="https://www.cbsnews.com/media/kanye-west-vs-taylor-swift-timeline/" rel="noopener nofollow"&gt;highly-publicized feud&lt;/a&gt; with rapper &lt;a href="https://www.cbsnews.com/media/kanye-west-vs-taylor-swift-timeline/" rel="noopener nofollow"&gt;Kanye West&lt;/a&gt;, who claimed that his interrupting her speech at the &lt;a href="https://www.youtube.com/watch?v=1z8gCZ7zpsQ" rel="noopener nofollow"&gt;2009 Video Music Awards&lt;/a&gt; was what “made [her] famous” on his track &lt;a href="https://genius.com/kanye-west-famous-lyrics" rel="noopener" data-api_path="/songs/2412662"&gt;“Famous.”&lt;/a&gt; After standing up for herself and claiming West never told her he would call her a “bitch” on the song, the public turned against Swift and began calling her things like a &lt;a href="https://www.billboard.com/articles/columns/pop/7934297/taylor-swift-the-snake-history-kim-kanye-instagram" rel="noopener nofollow"&gt;“snake”&lt;/a&gt; and a liar on social media.&lt;/p&gt;\n\n&lt;p&gt;Following the backlash, Swift took a hiatus from the spotlight, breaking her typical cycle of releasing an album every two years. During this time, Swift worked on songs like &lt;a href="https://genius.com/Calvin-harris-this-is-what-you-came-for-lyrics" rel="noopener" data-api_path="/songs/2463453"&gt;“This Is What You Came For,”&lt;/a&gt; which she wrote for then-boyfriend &lt;a href="https://genius.com/artists/calvin-harris" rel="noopener" data-api_path="/artists/2069"&gt;Calvin Harris&lt;/a&gt; under a pseudonym, &lt;a href="https://genius.com/little-big-town-better-man-lyrics" rel="noopener" data-api_path="/songs/2887929"&gt;“Better Man,”&lt;/a&gt; which she wrote for country group &lt;a href="https://genius.com/artists/little-big-town" rel="noopener" data-api_path="/artists/62418"&gt;Little Big Town&lt;/a&gt;, and &lt;a href="https://genius.com/Zayn-and-taylor-swift-i-dont-wanna-live-forever-fifty-shades-darker-lyrics" rel="noopener" data-api_path="/songs/2927948"&gt;“I Don’t Wanna Live Forever,”&lt;/a&gt; a collaboration with &lt;a href="https://genius.com/artists/zayn" rel="noopener" data-api_path="/artists/339472"&gt;ZAYN&lt;/a&gt; that appeared in the film &lt;a href="http://www.imdb.com/title/tt4465564/" rel="noopener nofollow"&gt;&lt;em&gt;Fifty Shades Darker&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In August 2017, Swift took a &lt;a href="https://www.nbcnews.com/pop-culture/pop-culture-news/taylor-swift-sexual-assault-trial-heads-jury-n792636" rel="noopener nofollow"&gt;DJ who groped her to court&lt;/a&gt;, after he tried to sue her for defamation. She counter-sued for a symbolic $1 and the jury decided in her favor. Swift told &lt;a href="https://time.com/5049659/taylor-swift-interview-person-of-the-year-2017/" rel="noopener nofollow"&gt;&lt;em&gt;TIME&lt;/em&gt;&lt;/a&gt; that she went through with the trial to stand in solidarity with other survivors of sexual assault, which was especially poignant in the face of the &lt;a href="https://metoomvmt.org/" rel="noopener nofollow"&gt;#MeToo Movement&lt;/a&gt; that was rising at the time.&lt;/p&gt;\n\n&lt;p&gt;Just days after the case concluded, Swift &lt;a href="https://www.theverge.com/tldr/2017/8/18/16169342/taylor-swift-social-media-black-out-reddit-theories" rel="noopener nofollow"&gt;wiped her social media accounts&lt;/a&gt; to tease the release of &lt;a href="https://genius.com/Taylor-swift-look-what-you-made-me-do-lyrics" rel="noopener" data-api_path="/songs/3210592"&gt;“Look What You Made Me Do”&lt;/a&gt; and her sixth studio album, November 2017’s &lt;a href="https://genius.com/albums/Taylor-swift/Reputation" rel="noopener" data-api_path="/albums/350247"&gt;&lt;em&gt;reputation&lt;/em&gt;&lt;/a&gt;. Despite the previous summer’s conflict, the record had her biggest sales week to date, debuting at #1 and selling &lt;a href="https://www.billboard.com/articles/business/8046278/taylor-swift-streaming-services-reputation-music-industry-analysis" rel="noopener nofollow"&gt;1.2 million copies&lt;/a&gt; in the U.S. in its first week, more than all the other 199 albums on the &lt;em&gt;Billboard&lt;/em&gt; chart combined. It also went on to become the &lt;a href="https://www.billboard.com/charts/year-end/2018/top-billboard-200-albums" rel="noopener nofollow"&gt;best-selling U.S. album&lt;/a&gt; of 2018, despite its 2017 release, and won accolades like the American Music Award for &lt;a href="https://www.hollywoodreporter.com/lists/ama-nominations-2018-list-full-1142123" rel="noopener nofollow"&gt;Favorite Pop/Rock Album&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;reputation&lt;/em&gt; was Swift’s last album with &lt;a href="https://genius.com/artists/big-machine-records" rel="noopener" data-api_path="/artists/1049237"&gt;Big Machine Records&lt;/a&gt; before &lt;a href="https://www.instagram.com/p/BqXgDJBlz7d/" rel="noopener nofollow"&gt;signing&lt;/a&gt; with &lt;a href="https://genius.com/artists/republic-records" rel="noopener" data-api_path="/artists/1011844"&gt;Republic Records&lt;/a&gt;. Following her new contract, Scott Borchetta &lt;a href="https://www.billboard.com/articles/business/8518119/scooter-braun-acquires-big-machine-label-group-scott-borchetta" rel="noopener nofollow"&gt;sold Big Machine Records&lt;/a&gt; to entertainment mogul &lt;a href="https://genius.com/artists/Scooter-braun" rel="noopener" data-api_path="/artists/649687"&gt;Scooter Braun&lt;/a&gt;. Swift &lt;a href="https://mashable.com/article/taylor-swift-tumblr-letter-scooter-braun/" rel="noopener nofollow"&gt;took to social media&lt;/a&gt; to describe her disappointment, but vowed to &lt;a href="https://www.cbsnews.com/news/taylor-swift-moving-to-regain-control-of-her-catalog-by-re-recording-masters-of-prior-songs/" rel="noopener nofollow"&gt;re-record the albums&lt;/a&gt; Braun purchased so she could be the full owner.&lt;/p&gt;\n\n&lt;p&gt;Swift’s dedication to artistic ownership became a large focus of the &lt;a href="https://genius.com/albums/taylor-swift/lover" rel="noopener" data-api_path="/albums/520929"&gt;&lt;em&gt;Lover&lt;/em&gt;&lt;/a&gt; era — she co-produced most tracks on the album, as well as directing or co-directing each music video, including &lt;a href="https://genius.com/taylor-swift-me-lyrics" rel="noopener" data-api_path="/songs/4472545"&gt;“ME!”&lt;/a&gt; and &lt;a href="https://genius.com/taylor-swift-lover-lyrics" rel="noopener" data-api_path="/songs/4508914"&gt;“Lover.”&lt;/a&gt; Swift also became politically vocal, starting with an &lt;a href="https://time.com/5418427/taylor-swift-politics/" rel="noopener nofollow"&gt;October 2018 Instagram post&lt;/a&gt; about the U.S. midterm elections and continuing with acts like her support of the LGBT community on &lt;a href="https://genius.com/taylor-swift-you-need-to-calm-down-lyrics" rel="noopener" data-api_path="/songs/4625737"&gt;“You Need to Calm Down.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;In November 2019, the &lt;a href="https://people.com/music/amas-2019-taylor-swift-artist-of-the-decade-speech/" rel="noopener nofollow"&gt;American Music Awards&lt;/a&gt; named Swift as the Artist of the Decade, and she performed a &lt;a href="https://www.youtube.com/watch?v=SVY8I46dkb0" rel="noopener nofollow"&gt;medley&lt;/a&gt; of some of her biggest hits at the ceremony. That night, she also beat &lt;a href="https://genius.com/artists/michael-jackson" rel="noopener" data-api_path="/artists/835"&gt;Michael Jackson&lt;/a&gt;’s record to become the artist with the &lt;a href="https://www.cbsnews.com/news/taylor-swift-ama-singer-beats-michael-jackson-for-most-american-music-awards-2019-performance-artist-of-the-decade/" rel="noopener nofollow"&gt;most AMA wins in history&lt;/a&gt;, earning her 29th award. The next month, &lt;a href="https://www.billboard.com/articles/columns/pop/8543996/taylor-swift-first-ever-woman-of-the-decade-award" rel="noopener nofollow"&gt;&lt;em&gt;Billboard&lt;/em&gt;&lt;/a&gt; named Swift their &lt;a href="https://genius.com/Taylor-swift-billboard-woman-of-the-decade-speech-annotated" rel="noopener" data-api_path="/songs/5123299"&gt;Woman of the Decade&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In January 2020, Swift released &lt;a href="https://www.imdb.com/title/tt11388580/" rel="noopener nofollow"&gt;&lt;em&gt;Miss Americana&lt;/em&gt;&lt;/a&gt;, a documentary directed by &lt;a href="https://www.imdb.com/name/nm5300836/" rel="noopener nofollow"&gt;Lana Wilson&lt;/a&gt; that offered fans an unprecedented glimpse into Swift’s everyday life and decision to speak up about politics, alongside &lt;a href="https://genius.com/taylor-swift-only-the-young-lyrics" rel="noopener" data-api_path="/songs/5191847"&gt;“Only The Young”&lt;/a&gt;, a political track she wrote while recording &lt;a href="https://genius.com/albums/taylor-swift/lover" rel="noopener" data-api_path="/albums/520929"&gt;&lt;em&gt;Lover&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In July 2020, Swift released her eighth studio album, &lt;a href="https://genius.com/albums/Taylor-swift/Folklore" rel="noopener" data-api_path="/albums/659925"&gt;&lt;em&gt;folklore&lt;/em&gt;&lt;/a&gt;, after announcing it the day before, making it her first “surprise” release. While most of her work is autobiographical, she notably focused on &lt;a href="https://www.instagram.com/p/CDAsU8BDzLt/" rel="noopener nofollow"&gt;telling other people’s stories&lt;/a&gt; throughout the record. She went on to release &lt;em&gt;The Long Pond Studio Sessions&lt;/em&gt; on the streaming service, Disney+, where she performed &lt;em&gt;folklore&lt;/em&gt; live for the first time. &lt;em&gt;folklore&lt;/em&gt; won the &lt;a href="https://variety.com/2021/music/news/taylor-swift-grammys-album-of-year-first-woman-three-times-folklore-1234930200/" rel="noopener nofollow"&gt;Grammy Award for Album of the Year&lt;/a&gt; in March 2021, making Swift the first woman and fourth artist overall to win Album of the Year three times.&lt;/p&gt;\n\n&lt;p&gt;Swift released the follow-up project &lt;a href="https://genius.com/albums/Taylor-swift/Evermore" rel="noopener" data-api_path="/albums/710140"&gt;&lt;em&gt;evermore&lt;/em&gt;&lt;/a&gt; in December 2020, expanding the stories she told on &lt;em&gt;folklore&lt;/em&gt; as well as becoming her second surprise release. It featured collaborations with &lt;a href="https://genius.com/artists/bon-iver" rel="noopener" data-api_path="/artists/589"&gt;Bon Iver&lt;/a&gt;, who also appeared on &lt;em&gt;folklore&lt;/em&gt;, her long-time friends in &lt;a href="https://genius.com/artists/haim" rel="noopener" data-api_path="/artists/43588"&gt;HAIM&lt;/a&gt;, and &lt;a href="https://genius.com/artists/the-national" rel="noopener" data-api_path="/artists/658"&gt;The National&lt;/a&gt;, whose member &lt;a href="https://genius.com/artists/aaron-dessner" rel="noopener" data-api_path="/artists/243981"&gt;Aaron Dessner&lt;/a&gt; was a key collaborator and producer throughout both &lt;em&gt;folklore&lt;/em&gt; and &lt;em&gt;evermore&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt; Swift shifted her focus to her back-catalog in 2021, vowing to &lt;a href="https://www.npr.org/2019/08/22/753393630/look-what-they-made-her-do-taylor-swift-to-re-record-her-catalog" rel="noopener nofollow"&gt;rerecord&lt;/a&gt; her first six albums to regain legal ownership. She kicked off this release cycle with &lt;a href="https://genius.com/Taylor-swift-love-story-taylors-version-lyrics" rel="noopener" data-api_path="/songs/6478833"&gt;“Love Story (Taylor’s Version)”&lt;/a&gt; in February 2021, which preceded the release of &lt;a href="https://genius.com/albums/Taylor-swift/Fearless-taylors-version" rel="noopener" data-api_path="/albums/734107"&gt;&lt;em&gt;Fearless&lt;/em&gt; (Taylor’s Version)&lt;/a&gt; in April. To make these releases more exciting for fans, she added “Vault” songs that she never released to each rerecording.&lt;/p&gt;\n\n&lt;p&gt;For the second rerecord, Swift announced the &lt;a href="https://genius.com/albums/Taylor-swift/Red-taylors-version" rel="noopener" data-api_path="/albums/758022"&gt;&lt;em&gt;Red&lt;/em&gt; (Taylor’s Version)&lt;/a&gt; which, includes 30 songs and 9 “Vault” songs.&lt;/p&gt;', 'alternate_names': ['Nils Sjöberg', 'Taylor A. Swift', 'Taylor Alison Swift']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/A-flock-of-seagulls', 'annotations': {'description': '&lt;p&gt;A Flock of Seagulls are an English new wave band formed by brothers Mike and Ali Score in Liverpool in 1980. They are famous for their international hits “I Ran”, “Space Age Love Song,” “Wishing (If I Had a Photograph of You)” and “The More You Live, the More You Love” – and infamous for the unique hairstyle of frontman Mike Score, which was &lt;a href="http://www.worcestermag.com/2017/04/26/mike-score-still-flying-with-flock-of-seagulls" rel="noopener nofollow"&gt;accidentally created one night&lt;/a&gt; as the band was rushing to get on stage.&lt;/p&gt;\n\n&lt;p&gt;Originally named Level 7, the members were at a Stranglers concert when the singer &lt;a href="http://www.worcestermag.com/2017/04/26/mike-score-still-flying-with-flock-of-seagulls" rel="noopener nofollow"&gt;looked directly at them&lt;/a&gt; and sang the lyric &lt;a href="https://genius.com/15461027" rel="noopener" data-api_path="/referents/15461027"&gt;“a flock of seagulls!”&lt;/a&gt; They took this as a sign to change their name.&lt;/p&gt;\n\n&lt;p&gt;Their 1982 self-titled debut album has been called “a pioneering mixture of angular guitar riffs, skewed melodies and vibrant synths” that found &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=A+Flock+Of+Seagulls&amp;amp;titel=A+Flock+Of+Seagulls&amp;amp;cat=a" rel="noopener nofollow"&gt;international success&lt;/a&gt; including a #10 peak &lt;a href="https://www.billboard.com/music/a-flock-of-seagulls/chart-history/billboard-200" rel="noopener nofollow"&gt;in the US&lt;/a&gt;. The single “I Ran” was a massive hit, reaching the top 10 in four countries and making the top 50 in four others. The follow-up single “Space Age Love Song” was also a success, reaching the top 30 in three countries.&lt;/p&gt;\n\n&lt;p&gt;“Wishing (If I Had A Photograph Of You)”, the lead single of their sophomore album &lt;em&gt;Listen&lt;/em&gt;, reached the top 10 in four countries, their first and only in their homeland &lt;a href="http://www.officialcharts.com/artist/19502/a-flock-of-seagulls/" rel="noopener nofollow"&gt;the UK&lt;/a&gt;. The next two singles performed well &lt;a href="http://www.officialcharts.com/artist/19502/a-flock-of-seagulls/" rel="noopener nofollow"&gt;in the UK&lt;/a&gt; but had sporadic success elsewhere.&lt;/p&gt;\n\n&lt;p&gt;A third album &lt;em&gt;The Story of a Young Heart&lt;/em&gt; spawned the band’s final hit “The More You Live, The More You Love”, performing admirably in six countries. Their fourth album &lt;em&gt;Dream Come True&lt;/em&gt; made no impact outside of the UK in 1986. The band broke up later that year when the Score brothers &lt;a href="https://www.axs.com/whatever-happened-to-a-flock-of-seagulls-112566" rel="noopener nofollow"&gt;had a falling out&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Mike Score revived the band a couple years later on his own, moving to Philedelphia and &lt;a href="https://yeahthatstheticket.wordpress.com/2015/08/29/1988-11-18-a-flock-of-seagulls/" rel="noopener nofollow"&gt;recruiting local musicians&lt;/a&gt;. But both a 1989 single and a 1995 album &lt;em&gt;The Light at the End of the World&lt;/em&gt; did not chart internationally.&lt;/p&gt;\n\n&lt;p&gt;In 2003 the band &lt;a href="https://www.rollingstone.com/music/music-lists/where-are-they-now-1982s-biggest-pop-acts-20600/a-flock-of-seagulls-65603/" rel="noopener nofollow"&gt;briefly reunited&lt;/a&gt; for a one-off performance on the VH1 series &lt;em&gt;Bands Reunited&lt;/em&gt;, followed by a brief tour of the US, but frontman Mike Score &lt;a href="https://www.billboard.com/articles/columns/rock/8457384/a-flock-of-seagulls-reunion-new-album-interview" rel="noopener nofollow"&gt;later shared&lt;/a&gt; “that didn’t work out well for me”. However in 2017, August Day Records approached him to reunite the band again to re-record their songs with an orchestra. He agreed and the four original members were assembled to create &lt;em&gt;Ascension&lt;/em&gt; in 2018, re-recordings of their earlier songs with accompaniment by the Prague Philharmonic Orchestra. A second orchestral album &lt;em&gt;String Theory&lt;/em&gt; &lt;a href="https://www.iconvsicon.com/2021/06/28/a-flock-of-seagulls-return-with-say-you-love-me-single-from-their-new-album-string-theory/" rel="noopener nofollow"&gt;arrived in 2021&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Psy', 'annotations': {'description': '&lt;p&gt;Park Jae-sang, better known by his stage name Psy, stylized PSY, is a South Korean singer, songwriter, rapper, dancer, record producer and television personality.&lt;/p&gt;\n\n&lt;p&gt;His earlier efforts showcased his comedic stylings within the Korean music world, but none matched that off 2012’s &lt;a href="https://genius.com/Psy-gangnam-style-lyrics" rel="noopener" data-api_path="/songs/88368"&gt;“Gangnam Style”&lt;/a&gt;, which would eventually hit more than 4 billion views on YouTube. In 2013, he was also made the official South Korean &lt;a href="https://web.archive.org/web/20200810111413/http://travel.cnn.com/psy-named-korea-tourism-ambassador-877941/" rel="noopener nofollow"&gt;tourism ambassador&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Psy also founded the South Korean label &lt;a href="https://genius.com/artists/P-nation" rel="noopener" data-api_path="/artists/160396"&gt;P-Nation&lt;/a&gt; with artists such as &lt;a href="https://genius.com/artists/Crush" rel="noopener" data-api_path="/artists/51935"&gt;Crush&lt;/a&gt;, &lt;a href="https://genius.com/artists/Jessi" rel="noopener" data-api_path="/artists/672794"&gt;Jessi&lt;/a&gt;, &lt;a href="https://genius.com/artists/Dawn-korea-rapper" rel="noopener" data-api_path="/artists/1469207"&gt;Dawn&lt;/a&gt;, &lt;a href="https://genius.com/artists/Hyuna" rel="noopener" data-api_path="/artists/27893"&gt;HyunA&lt;/a&gt;, and himself.&lt;/p&gt;', 'alternate_names': ['Park Jae-Sang (박재상)']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/The-wavs', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Travis-barker', 'annotations': {'description': '&lt;p&gt;Travis Barker is an American musician, producer, businessman, &lt;a href="https://genius.com/Travis-barker-travis-barkers-tattoos-annotated" rel="noopener" data-api_path="/songs/3208986"&gt;tattoo enthusiast&lt;/a&gt;, and drummer extraordinaire, best known for his involvement in the pop-punk goliath &lt;a href="https://genius.com/artists/Blink-182" rel="noopener" data-api_path="/artists/13373"&gt;blink-182&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Compelled to constantly stay busy, Barker has taken on many music projects, often simultaneously, and even founded his own record label &lt;a href="https://genius.com/artists/Dta-records" rel="noopener" data-api_path="/artists/2186912"&gt;DTA Records&lt;/a&gt;. Travis\' musical acts (and his time with them):&lt;/p&gt;\n\n&lt;ul&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/The-aquabats" rel="noopener" data-api_path="/artists/311271"&gt;The Aquabats&lt;/a&gt; (1997-1998)&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Blink-182" rel="noopener" data-api_path="/artists/13373"&gt;Blink-182&lt;/a&gt; (1998-2005, 2009-present)&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Box-car-racer" rel="noopener" data-api_path="/artists/62212"&gt;Box Car Racer&lt;/a&gt; (2001-2003)&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Transplants" rel="noopener" data-api_path="/artists/1435"&gt;Transplants&lt;/a&gt; (2002-2003, 2004-2006, 2010-present)&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/44" rel="noopener" data-api_path="/artists/136713"&gt;+44&lt;/a&gt; (2005-2009)&lt;/li&gt;\n&lt;li&gt;Expen$ive Taste (2005-2010)&lt;/li&gt;\n&lt;li&gt;TRV$DJAM (2008-2009)&lt;/li&gt;\n&lt;/ul&gt;\n\n\n&lt;p&gt;Additionally, he released &lt;a href="https://genius.com/albums/Travis-barker-and-yelawolf/Psycho-white" rel="noopener" data-api_path="/albums/21355"&gt;a collaborative album with Yelawolf&lt;/a&gt; and &lt;a href="http://www.hotnewhiphop.com/asher-roth-and-nottz-and-travis-barker-rawther-new-mixtape.116259.html" rel="noopener nofollow"&gt;a collaborative EP with Asher Roth and Nottz&lt;/a&gt; – not to mention his &lt;a href="https://en.wikipedia.org/wiki/Travis_Barker#Guest_appearances" rel="noopener nofollow"&gt;extensive list of guest appearances&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Aside from music, Barker founded the apparel &amp;amp; accessory line &lt;a href="https://www.famoussas.com/" rel="noopener nofollow"&gt;Famous Stars and Straps&lt;/a&gt; in 1999 and record label LaSalle Records in 2004. He also &lt;a href="http://skately.com/library/shoes/dc-shoes-alias/remix-white-black" rel="noopener nofollow"&gt;developed a shoe for DC Shoe Company&lt;/a&gt; and has his own line of drumming products through Zildjian.&lt;/p&gt;\n\n&lt;p&gt;Travis is &lt;a href="https://www.mensjournal.com/entertainment/blink-182s-travis-barker-why-im-vegan-w473107/" rel="noopener nofollow"&gt;reportedly&lt;/a&gt; also a pure vegan.&lt;/p&gt;', 'alternate_names': ['Travis L. Barker', 'Travis Landon Barker']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Man-with-a-mission', 'annotations': {'description': '&lt;p&gt;Hailing from Shibuya, Tokyo, Japan, MAN WITH A MISSION (&lt;a href="https://www.mwamjapan.info/" rel="noopener nofollow"&gt;MWAM&lt;/a&gt;), is a five-member Japanese rock band which formed in 2010.&lt;/p&gt;\n\n&lt;p&gt;The members, which consist of Tokyo Tanaka (lead vocals), Jean-Ken Johnny (guitar, co-lead vocals, rapper), Kamikaze Boy (bass guitar, backing vocals), DJ Santa Monica (DJ, sampling), and Spear Rib (drums) debuted with the single &lt;a href="https://genius.com/Man-with-a-mission-wake-myself-again-lyrics" rel="noopener" data-api_path="/songs/2936559"&gt;“Wake Myself Again”&lt;/a&gt; on July 1, 2013.&lt;/p&gt;\n\n&lt;p&gt;MWAM is known for wearing wolf masks, which change in design often at concerts and in music videos. They are often also associated for providing the theme songs for video games, live action shows and anime.&lt;/p&gt;\n\n&lt;p&gt;According to the band’s &lt;a href="https://www.mwamjapan.info/" rel="noopener nofollow"&gt;official website&lt;/a&gt;, the band’s concept is described as follows:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;In the year 19XX the earth was engulfed in war.&lt;br&gt;\nNation pitted against nation, human against human. Every living thing on the planet was locked in a chaotic battle to acquire each other’s wealth and power.&lt;br&gt;\nIn the meantime, in the farthest away land of “Ladyland” there lived a genius biologist named Dr. Jimi (hobby: guitar) who was about to conclude a mad science experiment for a pack of superior creatures that would be called MAN WITH A MISSION (MWAM).&lt;/p&gt;&lt;/blockquote&gt;', 'alternate_names': ['MWAM']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Danzig', 'annotations': {'description': '&lt;p&gt;Danzig is a metal band originating from New Jersey in 1987. Overtime, the lineup has lost and gained many musicians. Glenn Danzig, the vocalist and songwriter, is the only member who has been in the band from the start. Danzig is well known for the old hit “Mother” released in 1989 on the band’s self-titled album. As of April 2018, Danzig has released 11 studio albums. Each album from “Danzig II: Lucifuge” to “Danzig 777: I Luciferi” somehow incorporate the number of the album into the title. The first three Danzig albums have bluesy-metal sounds, and are seen as the highlight of Danzig’s music. “Danzig 4”, or “4p,” is the final album to include the original lineup of Chuck Biscuits on drums, Eerie Von on bass, and John Christ on guitar. Biscuits left shortly after the album’s release due to a contract dispute, and Von and Christ left because they didn’t like what Glenn was planning for the band. “Danzig 5: Blackacidevil,” as well as the two albums following it, have dark, industrial metal sounds. It is obvious that Glenn’s voice had begun weakening due to years of constant touring. “Circle of Snakes” is heavy doom metal, featuring the song “Skincarver” that is frequently played at Danzig concerts. A six year break followed in which “The Lost Tracks of Danzig” was released, a compilation of tracks Glenn believed did not fit in with the mood of the albums they were written for. The break ended when “Deth Red Sabaoth” was released, with heavy metal sounds. Glenn’s voice was surprisingly strong in this album. “Skeletons” was released 5 years later, featuring a few covers such as Glenn’s metal-ifying of Elvis Presley’s “Let Yourself Go.” In 2017, Danzig released “Black Laden Crown,” which received a bit of backlash due to Glenn’s weak vocals on a few of the tracks. Glenn actually played drums, guitar, and bass on some of the songs. 2018 is Danzig’s 30th anniversary, where they will be playing multiple shows in Europe and in the US.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/The-goo-goo-dolls', 'annotations': {'description': '&lt;p&gt;The Goo Goo Dolls are an American rock band formed in 1986 in Buffalo, NY, during one of Buffalo’s most prolific underground music phases. The band was formed by &lt;b&gt;John Rzeznik&lt;/b&gt; (Also known as&lt;b&gt; Johnny Rzeznik&lt;/b&gt;), lead singer and songwriter for the band, with bassist/vocalist &lt;b&gt;Robby Takac&lt;/b&gt;, and drummer &lt;b&gt;George Tutuska&lt;/b&gt;. &lt;b&gt;Mike Malinin&lt;/b&gt; later replaced Tutuska as the band’s drummer.&lt;/p&gt;\n\n&lt;p&gt;The band has released twelve studio albums between 1986 and 2020, but they are best known for platinum-selling &lt;b&gt;&lt;em&gt;A Boy Named Goo&lt;/em&gt;&lt;/b&gt; (1995) and &lt;b&gt;&lt;em&gt;Dizzy Up the Girl&lt;/em&gt;&lt;/b&gt; (1998). These mid- to late 1990s albums contain the Goo Goo Dolls\' biggest hits to date – &lt;b&gt;Name&lt;/b&gt; and “&lt;b&gt;Iris&lt;/b&gt;” most notably, but also “&lt;b&gt;Slide&lt;/b&gt;,” “&lt;b&gt;Black Balloon&lt;/b&gt;,” and “&lt;b&gt;Dizzy&lt;/b&gt;.”&lt;/p&gt;\n\n&lt;p&gt;These hits made the Goo Goo Dolls a household name for radio-friendly “&lt;b&gt;prom night power balladry&lt;/b&gt;” (as one &lt;a href="http://absolutegoo.com/throwback-thursday2002rolling-stone-reviews-gutterflower/" rel="noopener nofollow"&gt;Rolling Stone review&lt;/a&gt; put it), but the band’s early output was often far rougher musically, melding the band’s edgier punk influences with an often soft sensibility in the mold of the band’s early heroes, &lt;a href="https://genius.com/artists/The-replacements" rel="noopener" data-api_path="/artists/4749"&gt;The Replacements&lt;/a&gt;. One can hear these influences on many songs on &lt;b&gt;&lt;em&gt;A Boy Named Goo&lt;/em&gt;&lt;/b&gt; though these affinities would fade after &lt;b&gt;&lt;em&gt;Dizzy Up the Girl&lt;/em&gt;&lt;/b&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Big-mountain', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Electric-light-orchestra', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/artists/Roy-wood" rel="noopener" data-api_path="/artists/32623"&gt;Roy Wood&lt;/a&gt;, &lt;a href="https://genius.com/artists/Jeff-lynne" rel="noopener" data-api_path="/artists/34990"&gt;Jeff Lynne&lt;/a&gt; and &lt;a href="https://genius.com/artists/Bev-bevan" rel="noopener" data-api_path="/artists/1212371"&gt;Bev Bevan&lt;/a&gt; from Birmingham, England formed the progressive pop-rock band Electric Light Orchestra (ELO) in 1970, best known for their poppy, futuristic, and classical sound.&lt;/p&gt;\n\n&lt;p&gt;Roy Wood departed the band in 1972, and Jeff Lynne took over with writing and arranging as well as producing all their albums.  During the 13 years when E.L.O. was most active, they sold 50 million, achieving 21 RIAA, 19 CRIA, and 38 BPI awards.&lt;/p&gt;', 'alternate_names': ['ELO', "Jeff Lynne's ELO"]}}</t>
+    <t>Phum Viphurit</t>
+  </si>
+  <si>
+    <t>Lady Gaga</t>
+  </si>
+  <si>
+    <t>The Strokes</t>
+  </si>
+  <si>
+    <t>Everclear</t>
+  </si>
+  <si>
+    <t>Disturbed</t>
+  </si>
+  <si>
+    <t>Ryan Paris</t>
+  </si>
+  <si>
+    <t>Kasabian</t>
+  </si>
+  <si>
+    <t>EMF</t>
+  </si>
+  <si>
+    <t>Gerard Presencer</t>
+  </si>
+  <si>
+    <t>Halsey</t>
+  </si>
+  <si>
+    <t>Pink Floyd</t>
+  </si>
+  <si>
+    <t>Nayer</t>
+  </si>
+  <si>
+    <t>Sam Smith</t>
+  </si>
+  <si>
+    <t>Ohio Players</t>
+  </si>
+  <si>
+    <t>Donna Summer</t>
+  </si>
+  <si>
+    <t>Kaiser Chiefs</t>
+  </si>
+  <si>
+    <t>MAGIC!</t>
+  </si>
+  <si>
+    <t>Owl City</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Filter', 'annotations': {'description': '&lt;p&gt;Filter is an American industrial rock band, led by lead singer &lt;a href="https://genius.com/artists/Richard-patrick" rel="noopener" data-api_path="/artists/78435"&gt;Richard Patrick&lt;/a&gt; (former guitarist for &lt;a href="https://genius.com/artists/Nine-inch-nails" rel="noopener" data-api_path="/artists/12757"&gt;Nine Inch Nails&lt;/a&gt;) and guitarist &lt;a href="https://genius.com/artists/Brian-liesegang" rel="noopener" data-api_path="/artists/78434"&gt;Brian Liesegang&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/957619c5fe724ca0712a7ed966d44a97.500x300x1.jpg" alt="" width="500" height="300" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Their first studio album, &lt;em&gt;&lt;a href="https://genius.com/albums/Filter/Short-bus" rel="noopener" data-api_path="/albums/48178"&gt;Short Bus&lt;/a&gt;,&lt;/em&gt; (1995) went platinum, sold over 1 million copies, and boasted the band’s first hit single, &lt;a href="https://genius.com/Filter-hey-man-nice-shot-lyrics" rel="noopener" data-api_path="/songs/238443"&gt;“Hey Man Nice Shot”.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;After Liesegang’s departure from the band in 1997, Patrick and the remaining members released their second platinum record, &lt;a href="https://genius.com/albums/Filter/Title-of-record" rel="noopener" data-api_path="/albums/64997"&gt;&lt;em&gt;Title of Record,&lt;/em&gt;&lt;/a&gt; which provided fans in early 2000 with both a second hit single, &lt;a href="https://genius.com/Filter-take-a-picture-lyrics" rel="noopener" data-api_path="/songs/297604"&gt;“Take a Picture,”&lt;/a&gt; and a new sound unlike the industrial rock of the past.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Jamiroquai', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Jamiroquai&lt;/strong&gt; is an acid-jazz band formed in London in 1992. It’s led by frontman &lt;a href="https://genius.com/artists/Jason-kay" rel="noopener" data-api_path="/artists/2521215"&gt;Jay Kay&lt;/a&gt;, the band’s best-known and only remaining original member. Early Jamiroquai records were known for the use of a didgeridoo, played by &lt;a href="https://genius.com/artists/Wallis-buchanan" rel="noopener" data-api_path="/artists/989947"&gt;Wallis Buchanan&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The name “Jamiroquai” is a portmanteau of “jam session” and the Native American “Iroquoi” tribe. Jay Kay’s interest in Native Americans can be seen clearly in the video for &lt;a href="https://genius.com/Jamiroquai-too-young-to-die-lyrics" rel="noopener" data-api_path="/songs/2165125"&gt;“Too Young To Die.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;As of January 2017, Jamiroquai is:&lt;br&gt;\n– Jay Kay&lt;br&gt;\n– &lt;a href="https://genius.com/artists/Derrick-mckenzie" rel="noopener" data-api_path="/artists/514811"&gt;Derrick McKenzie&lt;/a&gt;&lt;br&gt;\n– &lt;a href="https://genius.com/artists/Sola-akingbola" rel="noopener" data-api_path="/artists/989949"&gt;Sola Akingbola&lt;/a&gt;&lt;br&gt;\n– &lt;a href="https://genius.com/artists/Rob-harris" rel="noopener" data-api_path="/artists/430309"&gt;Rob Harris&lt;/a&gt;&lt;br&gt;\n– &lt;a href="https://genius.com/artists/Matthew-johnson" rel="noopener" data-api_path="/artists/669257"&gt;Matthew Johnson&lt;/a&gt;&lt;br&gt;\n– &lt;a href="https://genius.com/artists/Paul-turner" rel="noopener" data-api_path="/artists/531823"&gt;Paul Turner&lt;/a&gt;&lt;br&gt;\n– Jim Corry&lt;br&gt;\n– Malcolm Strachan&lt;/p&gt;\n\n&lt;p&gt;The group’s 7th album titled &lt;a href="https://genius.com/albums/Jamiroquai/Automaton" rel="noopener" data-api_path="/albums/327380"&gt;&lt;em&gt;Automaton&lt;/em&gt;&lt;/a&gt; was released on 31 March, 2017, nearly 6,5 years after the release of &lt;a href="https://genius.com/albums/Jamiroquai/Rock-dust-light-star" rel="noopener" data-api_path="/albums/125040"&gt;&lt;em&gt;Rock Dust Light Star.&lt;/em&gt;&lt;/a&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Alien-ant-farm', 'annotations': {'description': '&lt;p&gt;Alien Ant Farm is an American rock band &lt;a href="http://www.mtv.com/news/1454457/alien-ant-farm-injured-in-bus-accident/" rel="noopener nofollow"&gt;of childhood friends&lt;/a&gt; formed in Riverside, California, in 1995. Their name comes &lt;a href="https://www.fredericksburg.com/calendar/charity_fundraisers/alien-ant-farm-at-hard-times/event_262095da-7025-11e4-9677-c392b372c9ea.html" rel="noopener nofollow"&gt;from an idea&lt;/a&gt; original guitarist Terry Corso had about aliens and the Earth:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It was just my daydream about our planet being seeded by entities from other dimensions.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;After self-releasing two EPs, AAF released their first &lt;a href="https://www.discogs.com/Alien-Ant-Farm-Greatest-Hits/release/3402074" rel="noopener nofollow"&gt;full album&lt;/a&gt; &lt;em&gt;Greatest Hits&lt;/em&gt; on Chick Music Records, featuring the original recordings of two future hits “Movies” and a cover of Michael Jackson’s “Smooth Criminal” (listed as “Slick Thief”). The &lt;a href="http://archives.starbulletin.com/2005/08/19/features/index3.html" rel="noopener nofollow"&gt;album won&lt;/a&gt; Best Independent Album at that year’s LA Music Awards and, through a friendship with Papa Roach, AAF was signed to DreamWorks Records.&lt;/p&gt;\n\n&lt;p&gt;In 2001 AAF released &lt;em&gt;ANThology&lt;/em&gt; with “Movies” as the band’s first single. It originally reached #53 in the UK and #18 on the &lt;a href="https://www.billboard.com/music/alien-ant-farm/chart-history/alternative-songs" rel="noopener nofollow"&gt;US Alternative Chart&lt;/a&gt; in the first half of 2001. Next “Smooth Criminal” was released and it became an international smash hit, reaching the top 30 &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Alien+Ant+Farm&amp;amp;titel=Smooth+Criminal&amp;amp;cat=s" rel="noopener nofollow"&gt;in fifteen countries&lt;/a&gt;. While “Criminal” was gaining steam, AAF toured with Linkin Park and Papa Roach, traveled with The Warped Tour, and headlined an MTV Fall Tour.&lt;/p&gt;\n\n&lt;p&gt;The success of “Criminal” shot “Movies” up to #5 in the UK and the top 30 in &lt;a href="https://australian-charts.com/showitem.asp?interpret=Alien+Ant+Farm&amp;amp;titel=Movies&amp;amp;cat=s" rel="noopener nofollow"&gt;Australia &amp;amp; New Zealand&lt;/a&gt; in early 2002. The band appeared at several European festivals that year, Australia’s Big Day Out and headlined in Japan.  On the way to a festival in Spain, the band’s tour bus &lt;a href="http://www.mtv.com/news/1454457/alien-ant-farm-injured-in-bus-accident/" rel="noopener nofollow"&gt;collided with&lt;/a&gt; a parked truck, killing the bus driver and injuring several members of the band and their crew, one ending up in a coma.&lt;/p&gt;\n\n&lt;p&gt;In 2003, AAF released &lt;em&gt;Truant&lt;/em&gt; and &lt;a href="http://genxsummer.com/alienantfarm.html" rel="noopener nofollow"&gt;toured Europe&lt;/a&gt; with Metallica. The album’s lead single “These Days” was a minor Alternative and Rock hit in the US. The follow-up single “Glow” reached #5 &lt;a href="https://charts.nz/showitem.asp?interpret=Alien+Ant+Farm&amp;amp;titel=Glow&amp;amp;cat=s" rel="noopener nofollow"&gt;in New Zealand&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;DreamWorks Records was soon after sold to Universal and the band was placed under Universal’s Geffen Records, who shelved the band’s fourth album. AAF &lt;a href="http://www.popentertainment.com/alienantfarm.htm" rel="noopener nofollow"&gt;responded by&lt;/a&gt; bootlegging it and selling ‘a few thousand’ copies to fans.&lt;/p&gt;\n\n&lt;p&gt;Eventually Geffen relented and allowed the release of the album on a different label owned by Universal. The song “Forgive And Forget” was added and it was released as &lt;em&gt;Up In The Attic&lt;/em&gt; in 2006. None of the album’s singles charted. Its lack of success led to an &lt;a href="https://answerstoall.com/language/why-did-alien-ant-farm-break-up/" rel="noopener nofollow"&gt;unannounced 2007 breakup&lt;/a&gt;, that would only last until 2008. The band then toured for a few years before beginning work on their fifth album &lt;em&gt;Always And Forever&lt;/em&gt; in 2012, which found little success upon release in 2015.&lt;/p&gt;\n\n&lt;p&gt;Since then, the band continues to tour, taking part in 2016’s Make America Rock Again tour with Saliva, Saving Abel, Tantric, Trapt, Crazy Town and 12 Stones, as well as 2018’s Gen-X Summer Tour with Buckcherry, Lit and POD. As of summer 2018, the band had &lt;a href="http://genxsummer.com/alienantfarm.html" rel="noopener nofollow"&gt;sold over 5 million units&lt;/a&gt; worldwide.  In 2020, during their Covid-19 quarantine, AAF released another 80s cover, this time Wham’s “Everything She Wants”. Its  &lt;a href="https://www.youtube.com/watch?v=Kfg4t-PAcBg" rel="noopener nofollow"&gt;music video&lt;/a&gt; features cameos by several famous musicians.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Junkie-xl', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Thomas Holkenborg']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Gotye', 'annotations': {'description': '&lt;p&gt;Wauter De Backer, better known as Gotye, is an Australian musician. As well as performing numerous instruments, he writes and performs his own lyrics. He was born in Belguim but he moved to Australia at the age of two.&lt;/p&gt;\n\n&lt;p&gt;To date, Gotye has released three studio albums and one remix album, the most popular being &lt;a href="https://genius.com/albums/Gotye/Making-mirrors" rel="noopener" data-api_path="/albums/14938"&gt;&lt;em&gt;Making Mirrors&lt;/em&gt;&lt;/a&gt; which delivered the smash hit single &lt;a href="https://genius.com/Gotye-somebody-that-i-used-to-know-lyrics" rel="noopener" data-api_path="/songs/65848"&gt;“Somebody That I Used To Know,”&lt;/a&gt; which hit number one in over twenty countries. He is also a founding member of the band &lt;a href="https://genius.com/artists/The-basics" rel="noopener" data-api_path="/artists/260112"&gt;The Basics&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Wally De Backer', 'Wauter Andre E. De Backer', 'Wauter De Backer']}}</t>
   </si>
   <si>
     <t>{'url': 'https://genius.com/artists/Sex-pistols', 'annotations': {'description': '&lt;p&gt;Short-lived, yet long-influencing, the Sex Pistols were an English punk band formed in London in 1975. They initiated the punk movement in the UK and subsequently inspired a plethora of groups. Their original line-up consisted of singer &lt;a href="https://genius.com/artists/John-lydon" rel="noopener" data-api_path="/artists/221228"&gt;John “Johnny Rotten” Lydon&lt;/a&gt;, guitarist &lt;a href="https://genius.com/artists/Steve-jones" rel="noopener" data-api_path="/artists/374884"&gt;Steve “Jonesy” Jones&lt;/a&gt;, bassist Glen Matlock (replaced by trainwreck and subsequent punk icon &lt;a href="https://genius.com/artists/Sid-vicious" rel="noopener" data-api_path="/artists/346731"&gt;Sid Vicious&lt;/a&gt;), and drummer Paul Cook. Under the management of Malcolm McLaren, the Pistols created a ton of controversy, scoring even more publicity as a result.&lt;/p&gt;\n\n&lt;p&gt;Their first and only studio album, &lt;a href="https://genius.com/albums/Sex-pistols/Never-mind-the-bollocks-here-s-the-sex-pistols" rel="noopener" data-api_path="/albums/17469"&gt;&lt;em&gt;Never Mind the Bollocks, Here’s the Sex Pistols&lt;/em&gt;&lt;/a&gt;, was released in 1977. During a promotional tour in the United States the following year, the group decided to disband. The original four reunited in the 90s with the adequately titled “Never Mind The Pistols… Here`s the Filthy Lucre” Tour.&lt;/p&gt;', 'alternate_names': []}}</t>
   </si>
   <si>
-    <t>{'url': 'https://genius.com/artists/The-kid-laroi', 'annotations': {'description': '&lt;p&gt;Charlton Kenneth-Jeffery Howard (b. August 17, 2003), better known as The Kid Laroi (stylized as The Kid LAROI), is an Australian rapper/singer hailing from South Sydney.&lt;/p&gt;\n\n&lt;p&gt;Originally from the Redfern/Waterloo area, The Kid Laroi’s precocious talent impressed the Australian underground hip-hop scene. His first demo &lt;a href="https://genius.com/The-kid-laroi-disconnect-demo-lyrics" rel="noopener" data-api_path="/songs/3882778"&gt;“Disconnect”&lt;/a&gt; was &lt;a href="http://www.abc.net.au/triplej/programs/triplej-breakfast/ue-high-finalist-the-kid-laroi/10077264" rel="noopener nofollow"&gt;even selected as a &lt;em&gt;Triple J&lt;/em&gt; Unearthed High 2018 finalist&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;He soon caught the attention of American rappers &lt;a href="https://genius.com/artists/lil-skies" rel="noopener" data-api_path="/artists/1015007"&gt;Lil Skies&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Juice-wrld" rel="noopener" data-api_path="/artists/1237094"&gt;Juice WRLD&lt;/a&gt;. In early January 2019, Laroi toured with Juice WRLD during his Australian tour. It was announced shortly after the tour with Juice that he would also be the supporting act of &lt;a href="https://genius.com/artists/denzel-curry" rel="noopener" data-api_path="/artists/16690"&gt;Denzel Curry&lt;/a&gt;’s Sydney concert. This opened up more opportunities, including a career-changing slot at &lt;em&gt;Rolling Loud&lt;/em&gt; 2019 for the then 16 year old.&lt;/p&gt;\n\n&lt;p&gt;Laroi soon relocated to the US, utilising a strong social media presence to build a rapidly growing fanbase. In June 2020, Laroi and late mentor Juice WRLD released their long-awaited collaboration titled &lt;a href="https://genius.com/The-kid-laroi-and-juice-wrld-go-lyrics" rel="noopener" data-api_path="/songs/5288212"&gt;“GO,“&lt;/a&gt; which &lt;a href="https://www.billboard.com/music/juice-wrld/chart-history/HSI/song/1208449" rel="noopener nofollow"&gt;peaked at #52&lt;/a&gt; on the &lt;em&gt;Billboard&lt;/em&gt; charts.&lt;/p&gt;\n\n&lt;p&gt;Laroi released his debut studio mixtape, &lt;a href="https://genius.com/albums/The-kid-laroi/F-ck-love" rel="noopener" data-api_path="/albums/599735"&gt;&lt;em&gt;F*CK LOVE&lt;/em&gt;&lt;/a&gt;, on July 24, 2020. The mixtape showed a young artist experimenting with different musical styles resembling more of a melodic blend of pop and emo rap, as he sang and rapped on issues of love and broken hearts.&lt;/p&gt;\n\n&lt;p&gt;In November 2020, Laroi released a deluxe version of this mixtape, titled &lt;a href="https://genius.com/albums/The-kid-laroi/F-ck-love-savage" rel="noopener" data-api_path="/albums/672580"&gt;&lt;i&gt;F*CK LOVE (SAVAGE)&lt;/i&gt;&lt;/a&gt;. The project was led by the hit track &lt;a href="https://genius.com/The-kid-laroi-so-done-lyrics" rel="noopener" data-api_path="/songs/5289231"&gt;“SO DONE”&lt;/a&gt; and ultimately saw five of its seven tracks reach the &lt;em&gt;Billboard Hot 100&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;For the majority of this time, Laroi had been signed to &lt;a href="https://genius.com/artists/lil-bibby" rel="noopener" data-api_path="/artists/33238"&gt;Lil Bibby&lt;/a&gt; management &lt;a href="https://genius.com/artists/Grade-a-productions" rel="noopener" data-api_path="/artists/669837"&gt;Grade A Productions&lt;/a&gt; and Columbia Records/Sony Music Australia. In June 2021, it was announced that Laroi would be managed by &lt;a href="https://www.nme.com/en_au/news/music/the-kid-laroi-joins-scooter-braun-projects-management-roster-2956308" rel="noopener nofollow"&gt;none other than Scooter Braun&lt;/a&gt;, famous for managing &lt;a href="https://genius.com/artists/justin-bieber" rel="noopener" data-api_path="/artists/357"&gt;Justin Bieber&lt;/a&gt; and &lt;a href="https://genius.com/artists/ariana-grande" rel="noopener" data-api_path="/artists/26507"&gt;Ariana Grande&lt;/a&gt; amongst others.&lt;/p&gt;\n\n&lt;p&gt;In July 2021, Laroi released another deluxe version of his mixtape titled &lt;a href="https://genius.com/albums/The-kid-laroi/F-ck-love-3-over-you" rel="noopener" data-api_path="/albums/695020"&gt;&lt;em&gt;F&lt;/em&gt;CK LOVE 3: Over You*&lt;/a&gt;. The mixtape featured a star-studded features list including Justin Bieber, Machine Gun Kelly and Polo G. The mixtape debuted at #1 on the Billboard Global 200, making Laroi the &lt;a href="https://www.abc.net.au/triplej/news/musicnews/the-kid-laroi-1-billboard-200-us-chart-records-f*ck-love/13479922" rel="noopener nofollow"&gt;youngest artist to make #1 since Billie Eilish in 2019&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Laroi’s debut album is expected to drop in late 2021/early 2022.&lt;/p&gt;\n\n&lt;hr&gt;\n\n\n&lt;p&gt;Howard’s moniker ‘Laroi’ is derived from his Indigenous Australian roots, namely the &lt;a href="https://en.wikipedia.org/wiki/Gamilaraay" rel="noopener nofollow"&gt;Gamilaraay/Gomeroi/Kamilaroi/Gamilaroi&lt;/a&gt; people of northern inland New South Wales. They are one of the four largest Indigenous nations in Australia.&lt;/p&gt;\n\n&lt;p&gt;The name is formed from “gamil”, meaning “no”, and the suffix -(b)araay, bearing the sense of “having”. It is a common practice among Australian tribes to have themselves identified according to their respective words for “no”. Unfortunately, the spoken language is considered to have died out by the 1950s, although anthropological research seeks to piece it together once more.&lt;/p&gt;', 'alternate_names': ['Charlton Kenneth-Jeffery Howard', 'Charlton Howard', 'Laroi']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Skillet', 'annotations': {'description': '&lt;p&gt;Skillet is a heavy rock band from Memphis, TN that has been a voice in both the mainstream and Christian music industries. The band has been led by John Cooper since the band’s start in 1996. Later on in 2000, the year the band’s third album &lt;em&gt;Invincible&lt;/em&gt; came out, Cooper’s wife Korey joined the band as rhythm guitarist and pianist.&lt;/p&gt;\n\n&lt;p&gt;The band started gaining mainstream attention when moving from Ardent Records to Atlantic Records in 2003. The band’s first breakthrough album, &lt;em&gt;Comatose&lt;/em&gt;, making it to No. 55 on the Billboard 200 and certified Gold by the RIAA. Skillet continued to rise up on the charts with their 8&lt;sup&gt;th&lt;/sup&gt; studio album, &lt;em&gt;Awake&lt;/em&gt;, charting at No. 2 on the Billboard 200. The album featured a new addition to the band, Jen Ledger, who provided both drums and vocals.&lt;/p&gt;\n\n&lt;p&gt;Since then, Skillet has continued to see mainstream success with their 9&lt;sup&gt;th&lt;/sup&gt; studio album, &lt;em&gt;Unleashed&lt;/em&gt;, with their lead single “Feel Invincible” becoming one of the theme songs for WWE’s Battleground (2016).&lt;/p&gt;\n\n&lt;p&gt;In 2018, both Jen Ledger and John Cooper released their own side projects &lt;a href="https://genius.com/artists/ledger" rel="noopener" data-api_path="/artists/656529"&gt;LEDGER&lt;/a&gt; and &lt;a href="https://genius.com/artists/fight-the-fury" rel="noopener" data-api_path="/artists/1582744"&gt;Fight the Fury&lt;/a&gt;, respectively. The intention behind the projects was not to disband Skillet, but instead to explore each artist’s own creative sides.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Nsync', 'annotations': {'description': '&lt;p&gt;*NSYNC (sometimes stylized as ★NSYNC, formally stylized as ‘N Sync) was an American boy band formed in Orlando, Florida in 1995 and launched in Germany by BMG Ariola Munich. The group consisted of &lt;a href="https://genius.com/artists/Justin-timberlake" rel="noopener" data-api_path="/artists/334"&gt;Justin Timberlake&lt;/a&gt;, &lt;a href="https://genius.com/artists/Jc-chasez" rel="noopener" data-api_path="/artists/8613"&gt;J.C. Chasez&lt;/a&gt;, &lt;a href="https://genius.com/artists/Chris-kirkpatrick" rel="noopener" data-api_path="/artists/218290"&gt;Chris Kirkpatrick&lt;/a&gt;, &lt;a href="https://genius.com/artists/Joey-fatone" rel="noopener" data-api_path="/artists/390329"&gt;Joey Fatone&lt;/a&gt; and &lt;a href="https://genius.com/artists/Lance-bass" rel="noopener" data-api_path="/artists/996500"&gt;Lance Bass&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;After heavily publicized legal battles with their former manager Lou Pearlman and former record label Sony BMG, the group’s second album, &lt;em&gt;&lt;a href="https://genius.com/albums/N-sync/No-strings-attached" rel="noopener" data-api_path="/albums/6463"&gt;No Strings Attached&lt;/a&gt;&lt;/em&gt;, sold over one million copies in one day and 2.42 million copies in one week.&lt;/p&gt;\n\n&lt;p&gt;In addition to a host of Grammy Award nominations, *NSYNC has performed at the World Series, the Super Bowl and the Olympic Games, and sang or recorded with &lt;a href="https://genius.com/artists/Elton-john" rel="noopener" data-api_path="/artists/560"&gt;Elton John&lt;/a&gt;, &lt;a href="https://genius.com/artists/Lisa-left-eye-lopes" rel="noopener" data-api_path="/artists/7393"&gt;Lisa ‘Left Eye’ Lopes&lt;/a&gt;, &lt;a href="https://genius.com/artists/Aerosmith" rel="noopener" data-api_path="/artists/533"&gt;Aerosmith&lt;/a&gt;, &lt;a href="https://genius.com/artists/Mary-j-blige" rel="noopener" data-api_path="/artists/358"&gt;Mary J. Blige&lt;/a&gt;, &lt;a href="https://genius.com/artists/Britney-spears" rel="noopener" data-api_path="/artists/1052"&gt;Britney Spears&lt;/a&gt;, &lt;a href="https://genius.com/artists/Nelly" rel="noopener" data-api_path="/artists/148"&gt;Nelly&lt;/a&gt;, &lt;a href="https://genius.com/artists/Michael-jackson" rel="noopener" data-api_path="/artists/835"&gt;Michael Jackson&lt;/a&gt;, &lt;a href="https://genius.com/artists/Phil-collins" rel="noopener" data-api_path="/artists/3927"&gt;Phil Collins&lt;/a&gt;, &lt;a href="https://genius.com/artists/Stevie-wonder" rel="noopener" data-api_path="/artists/1602"&gt;Stevie Wonder&lt;/a&gt;, &lt;a href="https://genius.com/artists/Celine-dion" rel="noopener" data-api_path="/artists/65300"&gt;Céline Dion&lt;/a&gt; and &lt;a href="https://genius.com/artists/Gloria-estefan" rel="noopener" data-api_path="/artists/83348"&gt;Gloria Estefan&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;While *NSYNC announced a “temporary hiatus” in spring 2002, the band has not recorded new material since. The group’s official website was shut down in the summer of 2006, and in 2007, Lance Bass confirmed that the group has “definitely broken up.” They have sold over 50 million albums during their career.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Riton-and-nightcrawlers', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/The-knack', 'annotations': {'description': '&lt;p&gt;The Knack was an American rock band based in Los Angeles that rose to fame with their first single, “My Sharona”, an international number-one hit in 1979.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/e7da446954646ea01484e56a690d87de.800x531x1.jpg" alt="" width="800" height="531" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Roxette', 'annotations': {'description': '&lt;p&gt;Roxette is a Swedish pop rock duo, consisting of Marie Fredriksson (vocals and keyboards) and Per Gessle (vocals and guitar).&lt;/p&gt;\n\n&lt;p&gt;Formed in 1986, the duo became an international act in the late 1980s, when they released their breakthrough album &lt;a href="https://genius.com/albums/Roxette/Look-sharp" rel="noopener" data-api_path="/albums/126089"&gt;&lt;em&gt;Look Sharp!&lt;/em&gt;&lt;/a&gt; Their third album &lt;a href="https://genius.com/albums/Roxette/Joyride" rel="noopener" data-api_path="/albums/230483"&gt;&lt;em&gt;Joyride&lt;/em&gt;&lt;/a&gt; released in 1991 became just as successful as its predecessor.&lt;/p&gt;\n\n&lt;p&gt;Roxette went on to achieve nineteen UK Top 40 hits and several US Hot 100 hits, including four US number-ones with &lt;a href="https://genius.com/Roxette-the-look-lyrics" rel="noopener" data-api_path="/songs/1547969"&gt;“The Look,”&lt;/a&gt; &lt;a href="https://genius.com/Roxette-listen-to-your-heart-lyrics" rel="noopener" data-api_path="/songs/415215"&gt;“Listen to Your Heart,”&lt;/a&gt; &lt;a href="https://genius.com/Roxette-it-must-have-been-love-lyrics" rel="noopener" data-api_path="/songs/2109110"&gt;“It Must Have Been Love,”&lt;/a&gt; and &lt;a href="https://genius.com/Roxette-joyride-lyrics" rel="noopener" data-api_path="/songs/1113891"&gt;“Joyride.”&lt;/a&gt; Other hits include &lt;a href="https://genius.com/Roxette-dangerous-lyrics" rel="noopener" data-api_path="/songs/1342102"&gt;“Dangerous,”&lt;/a&gt; &lt;a href="https://genius.com/Roxette-fading-like-a-flower-every-time-you-leave-lyrics" rel="noopener" data-api_path="/songs/994670"&gt;“Fading Like a Flower,”&lt;/a&gt; &lt;a href="https://genius.com/Roxette-spending-my-time-lyrics" rel="noopener" data-api_path="/songs/1666849"&gt;“Spending My Time,”&lt;/a&gt; &lt;a href="https://genius.com/Roxette-how-do-you-do-lyrics" rel="noopener" data-api_path="/songs/1242128"&gt;“How Do You Do!”&lt;/a&gt; and &lt;a href="https://genius.com/Roxette-sleeping-in-my-car-lyrics" rel="noopener" data-api_path="/songs/533376"&gt;“Sleeping in My Car.”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;On December 9, 2019, lead vocalist Marie Fredriksson &lt;a href="https://www.billboard.com/articles/columns/pop/8545847/roxette-singer-marie-fredriksson-dies-61-obituary" rel="noopener nofollow"&gt;passed away&lt;/a&gt; at the age of 61 due to a long 17 year battle with cancer.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Blondie', 'annotations': {'description': '&lt;p&gt;&lt;a href="http://punkturns30.blogspot.com/2007/05/blondie-is-group.html" rel="noopener nofollow"&gt;Blondie is a Group!&lt;/a&gt; hailed the merch for their April 1978 gigs, when the 5-member band (give or take 1 or 2, time-wise) had an underground following in the U.S. (especially in their hood, NYC), after two critically lauded records and hits outside their turf: the UK and Australia.&lt;/p&gt;\n\n&lt;p&gt;The captivating vocalist &lt;a href="https://genius.com/artists/Debbie-harry" rel="noopener" data-api_path="/artists/118226"&gt;Debbie Harry&lt;/a&gt;, a brunette raised in Jersey, had stage-presence and more visual appeal as a (bleached) blonde, sang clever songs with hooks.  Some bordered on punk, but with synths, like “&lt;a href="https://genius.com/Blondie-rip-her-to-shreds-lyrics" rel="noopener" data-api_path="/songs/192723"&gt;Rip Her to Shreds&lt;/a&gt;”; More than a few had a retro girl-group pop  1960s feel, “&lt;a href="https://genius.com/Blondie-in-the-flesh-lyrics" rel="noopener" data-api_path="/songs/192084"&gt;In The Flesh&lt;/a&gt;”.  Others delivered a cinematic flair, e.g., the fun spy-thrill ride, “&lt;a href="https://genius.com/Blondie-contact-in-red-square-lyrics" rel="noopener" data-api_path="/songs/192748"&gt;Contact in Red Square&lt;/a&gt;”, plotted in just over two minutes.  Many critics dubbed the band retro, to the shock of &lt;a href="https://genius.com/artists/Debbie-harry" rel="noopener" data-api_path="/artists/118226"&gt;Debbie Harry&lt;/a&gt; who stated at the time they were firmly &lt;a href="https://www.rocksbackpages.com/Library/Article/blondies-debbie-harry-1978" rel="noopener nofollow"&gt;new wave&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;September 1978’s 3rd album made Blondie platinum.  Hit producer &lt;a href="https://genius.com/artists/Mike-chapman" rel="noopener" data-api_path="/artists/30909"&gt;Mike Chapman&lt;/a&gt; pushed the band to deliver their best (at least in a commercial sense).  He proposed an electronic-loop to an old song in their repertoire that never made the cut as a studio recording, dubbed “&lt;a href="https://genius.com/Blondie/Heart-of-glass" rel="noopener"&gt;Heart of Glass&lt;/a&gt;”, blowing up early 1979 airwaves as the the 3rd or 4th single from the 1978 album, i.e., 4th in the UK and other countries.  In the U.S. it was the 3rd single, the first 2 (the only cover songs on the album) having failed to scratch the HOT 100.  In the UK, the 1st single, “&lt;a href="https://genius.com/artists/Picture-this" rel="noopener" data-api_path="/artists/624636"&gt;Picture This&lt;/a&gt;“, penned by Harrry/Stein/Destri got to# 12, doing almost as well in Sweden and other European countries.&lt;/p&gt;\n\n&lt;p&gt;“&lt;a href="https://genius.com/Blondie/Heart-of-glass" rel="noopener"&gt;Heart of Glass&lt;/a&gt;“ from the 3rd record &lt;a href="https://genius.com/albums/Blondie/Parallel-lines" rel="noopener" data-api_path="/albums/28158"&gt;&lt;em&gt;Parallel Lines&lt;/em&gt;&lt;/a&gt; turned the band into a brand, despite being critically acclaimed.  It hurled out 2 more hits, ”&lt;a href="https://genius.com/artists/One-way-or-another" rel="noopener" data-api_path="/artists/455903"&gt;One way or another&lt;/a&gt;“ in North America, by Debbie Harry and &lt;a href="https://genius.com/artists/Nigel-harrison" rel="noopener" data-api_path="/artists/540398"&gt;Nigel Harrison&lt;/a&gt;, their English bassist.  ”&lt;a href="https://genius.com/artists/Sunday-girl" rel="noopener" data-api_path="/artists/390926"&gt;Sunday Girl&lt;/a&gt;“ by &lt;a href="https://genius.com/artists/Chris-stein" rel="noopener" data-api_path="/artists/713417"&gt;Chris Stein&lt;/a&gt;, became their 2nd #1 in the UK.&lt;/p&gt;\n\n&lt;p&gt;The 4th record, served in September 1979 &lt;a href="https://genius.com/albums/Blondie/Eat-to-the-beat" rel="noopener" data-api_path="/albums/40103"&gt;&lt;em&gt;Eat to the Beat&lt;/em&gt;&lt;/a&gt; did not disappoint, despite or because of more eclectic and experimental tunes.  It moved steadily into U.S. platinum; for that it didn’t need to break out another “Heart of Glass”.  Album sales weren’t hurt when February 1980’s soon-to-be monster hit ate the beat, pimped out of the main theme of a movie, &lt;a href="https://www.imdb.com/title/tt0080365/" rel="noopener nofollow"&gt;American Gigolo&lt;/a&gt;.  &lt;a href="https://genius.com/Blondie-call-me-lyrics" rel="noopener" data-api_path="/songs/193085"&gt;“Call Me”&lt;/a&gt;“, penned and produced by &lt;a href="https://genius.com/artists/Giorgio-moroder" rel="noopener" data-api_path="/artists/50122"&gt;Giorgio Moroder&lt;/a&gt;, with lyrics by Debbie Harry, was a world-wide smash, becoming Billboard’s #1 single of 1980.&lt;/p&gt;\n\n&lt;p&gt;In November 1980 Blondie spawned a more daring album with some originals that smacked of show-tunes, closing with an actual siren-song cover, &lt;a href="https://genius.com/albums/E-girls-jp/Follow-me" rel="noopener" data-api_path="/albums/753247"&gt;Follow Me&lt;/a&gt; from the 1960 musical Camelot.  The opening (mostly) instrumental track is a dramatic, string-hued piece culminating to a space-age outro and Debbie Harry’s spoken deadpan narration of a future history; panned by critics, it has an &lt;a href="https://genius.com/artists/Ennio-morricone" rel="noopener" data-api_path="/artists/47679"&gt;Ennio Morricone&lt;/a&gt;-esqe edge.   Despite its sheer musicality, &lt;a href="https://genius.com/albums/Blondie/Autoamerican" rel="noopener" data-api_path="/albums/6414"&gt;&lt;em&gt;Autoamerican&lt;/em&gt;&lt;/a&gt; drove it through: the reggae cover-song single “&lt;a href="https://genius.com/albums/John-holt/The-tide-is-high" rel="noopener" data-api_path="/albums/255121"&gt;The Tide Is High&lt;/a&gt;”, was a worldwide tidal wave splash, #1 in the U.S., as was the next single, an about-face to the beach water of tide’s high, a song with an urban-sense, made to dance.  It bested the “Tide”, particularly in the U.S., rapping it up to #1.  “&lt;a href="https://genius.com/artists/rapture" rel="noopener" data-api_path="/artists/17012"&gt;Rapture&lt;/a&gt;“ was Blondie’s 3rd and last #1 (in the U.S., that is), and the 2nd penned by Harry/Stein.  A &lt;a href="https://genius.com/artists/Chris-stein" rel="noopener" data-api_path="/artists/713417"&gt;Chris Stein&lt;/a&gt; quote sums it up well, from &lt;a href="https://www.biography.com/news/blondie-debbie-harry-rapture-tide-is-high" rel="noopener nofollow"&gt;Biography&lt;/a&gt;,&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;“Rapture” was the first time many Americans were exposed to this new art form. U-God and Inspectah Deck from the Wu-Tang Clan once told me that ‘Rapture’ was the first rap song they ever heard as kids,” Stein told the New York Post. “That’s mind-boggling.”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/albums/Blondie/Autoamerican" rel="noopener" data-api_path="/albums/6414"&gt;&lt;em&gt;Autoamerican&lt;/em&gt;&lt;/a&gt; was recorded in L.A. at the insistence of their producer.  The music and painted album cover still attested to the band’s roots, musically and physically, firmly, NYC.  Along with quintessential bands such as &lt;a href="https://genius.com/artists/Ramones" rel="noopener" data-api_path="/artists/765"&gt;Ramones&lt;/a&gt;, &lt;a href="https://genius.com/artists/Talking-heads" rel="noopener" data-api_path="/artists/13347"&gt;Talking Heads&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Television" rel="noopener" data-api_path="/artists/31147"&gt;Television&lt;/a&gt;, Blondie gained underground grounding by regularly gigging at &lt;a href="https://genius.com/De-la-soul-cbgbs-lyrics" rel="noopener" data-api_path="/songs/2845157"&gt;CBGB’S&lt;/a&gt; and Live at Max’s Kansas City- the venue’s 2nd phase in 1975&lt;/p&gt;\n\n&lt;p&gt;1982 brought on the band’s sixth studio album, a commercial flop compared to its predecessors: &lt;a href="https://genius.com/albums/blondie/the-hunter" rel="noopener" data-api_path="/albums/40144"&gt;&lt;em&gt;The Hunter&lt;/em&gt;&lt;/a&gt; yielded a couple of semi-hits, primarily the Harry/Stein song “&lt;a href="https://genius.com/Blondie-island-of-lost-souls-lyrics" rel="noopener" data-api_path="/songs/192946"&gt;Island of Lost Souls&lt;/a&gt;”.&lt;/p&gt;\n\n&lt;p&gt;Blondie, the band, fizzled-out afterwards.  &lt;a href="https://genius.com/artists/Debbie-harry" rel="noopener" data-api_path="/artists/118226"&gt;Debbie Harry&lt;/a&gt; would continue putting out solo records (Chris Stein’s chops contributing when possible), the first of which was before &lt;a href="https://genius.com/Red-hot-chili-peppers-the-hunter-lyrics" rel="noopener" data-api_path="/songs/2467627"&gt;The Hunter&lt;/a&gt;, 1981’s &lt;a href="https://genius.com/artists/Kookoo" rel="noopener" data-api_path="/artists/1427490"&gt;Kookoo&lt;/a&gt;, produced and co-written by &lt;a href="https://genius.com/artists/Nile-rodgers" rel="noopener" data-api_path="/artists/34636"&gt;Nile Rodgers&lt;/a&gt; and &lt;a href="https://genius.com/artists/Bernard-edwards" rel="noopener" data-api_path="/artists/189401"&gt;Bernard Edwards&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Not until 1999 did Blondie yield a  “comeback album”, sort of: &lt;a href="https://genius.com/albums/blondie/no-exit" rel="noopener" data-api_path="/albums/40159"&gt;&lt;em&gt;No Exit&lt;/em&gt;&lt;/a&gt; had one big international hit, Blondie’s sixth #1 in the UK, &lt;a href="https://genius.com/Blondie-maria-lyrics" rel="noopener" data-api_path="/songs/193016"&gt;“Maria”&lt;/a&gt;, penned by keyboardist &lt;a href="https://genius.com/artists/Jimmy-destri" rel="noopener" data-api_path="/artists/1036333"&gt;Jimmy Destri&lt;/a&gt;.  Since then the band (or variation thereof, always with “Harry/Stein”) have continued releasing albums.&lt;/p&gt;\n\n&lt;p&gt;In 2006, Blondie was inducted into &lt;a href="https://www.rockhall.com/inductees/blondie" rel="noopener nofollow"&gt;The Rock &amp;amp; Roll Hall of Fame&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://www.morrisonhotelgallery.com/search/Mick--Rock" rel="noopener nofollow"&gt;Mick Rock&lt;/a&gt;, photographer, &lt;a href="https://www.morrisonhotelgallery.com/collections/JE4xhs/The-Best-Photographs-of-Debbie-Harry" rel="noopener nofollow"&gt;took the best shots of Debbie Harry, or was it Andy Warhol, who turned them into…paintings?&lt;/a&gt;.  Picture this:&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/40bac203f70bccd6a20017700e646dae.411x490x1.jpg" alt="" width="411" height="490" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Alpha-blondy', 'annotations': {'description': "&lt;p&gt;Hailing from the Cote d'Ivoire, Alpha Blondy is among the world’s most popular reggae artists. With his 12-piece band Solar System, Blondy offers a reggae beat with a distinctive African cast. Calling himself an African Rasta, Blondy creates Jah-centered anthems promoting morality, love, peace, and social consciousness. With a range that moves from sensitivity to rage over injustice, much of Blondy’s music empathizes with the impoverished and those on society’s fringe. Blondy is also a staunch supporter of African unity, and to this end, he sings to Muslim audiences in Hebrew and sings in Arabic to Israelis. Some of his best-known songs include “Cocody Rock,” “Jerusalem,” and “Apartheid Is Nazism.”&lt;/p&gt;", 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Hall-and-oates', 'annotations': {'description': '&lt;p&gt;Hall &amp;amp; Oates released the first of their 18 albums in 1972 on Atlantic Records. They would go on to sell 13 million albums and 6 million singles primarily during the 70’s and 80’s when they recorded their most prolific and profound music. They blended  rock, jazz, soul, and pop create a genre they titled rock and soul.&lt;/p&gt;\n\n&lt;p&gt;While their technical musicianship, innovative songwriting styles, and popular live performances were praised, they also had a fruitful partnership with their manager Tommy Mottola, who was helped Hall &amp;amp; Oates break into music videos before they were popular and made profitable financial deals by helping them get on the ground level of and corporate sponsorship of tours. Hall &amp;amp; Oates were inducted into the Rock and Roll Hall of Fame in 2014.&lt;/p&gt;', 'alternate_names': ['Daryl Hall John Oates', 'Daryl Hall &amp; John Oates']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Makedah', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Keane', 'annotations': {'description': '&lt;p&gt;Keane, formed as The Lotus Eaters by Dominic Scott, Richard Hughes and Tim Rice-Oxley, who nearly became a member of &lt;a href="https://genius.com/artists/Coldplay" rel="noopener" data-api_path="/artists/8351"&gt;Coldplay&lt;/a&gt;, in 1995, and soon joined by singer Tom Chaplin in 1997, became one of the leading British bands of the 2000s alongside groups such as Coldplay, Snow Patrol, Travis and Muse. After Scott left the group in 2001, Keane had a commercial breakthrough with their first full-length studio album, &lt;em&gt;Hopes and Fears&lt;/em&gt;, scoring top 10 hits with &lt;a href="https://genius.com/Keane-somewhere-only-we-know-lyrics" rel="noopener" data-api_path="/songs/134995"&gt;“Somewhere Only We Know”&lt;/a&gt;, &lt;a href="https://genius.com/Keane-everybodys-changing-lyrics" rel="noopener" data-api_path="/songs/445234"&gt;“Everybody’s Changing”&lt;/a&gt; and &lt;a href="https://genius.com/Keane-bedshaped-lyrics" rel="noopener" data-api_path="/songs/380953"&gt;“Bedshaped”&lt;/a&gt;. The group gained recognition for their piano-based rock sound, which mostly lacked guitars after Scott’s departure.&lt;/p&gt;\n\n&lt;p&gt;Keane continued to have similar commercial success with their next three albums, &lt;em&gt;Under the Iron Sea&lt;/em&gt; (2006), &lt;em&gt;Perfect Symmetry&lt;/em&gt; (2008) and &lt;em&gt;Strangeland&lt;/em&gt; (2012), bringing bassist Jesse Quin into the lineup in 2008. The group then went on an extended hiatus after releasing a greatest hits compilation, but it was revealed in January 2019 that they had begun working on new material.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Kool-moe-dee', 'annotations': {'description': '&lt;p&gt;Kool Moe Dee is one of rap’s earliest stars. Starting his career in the early ‘70s, he formed the legendary Treacherous Three with DJ Easy Lee, Special K, and L.A. Sunshine.&lt;/p&gt;\n\n&lt;p&gt;After the group’s first break-up in ‘84, Kool Moe Dee went solo, establishing himself as one of hip-hop’s first big stars with his breakout solo album, &lt;a href="https://genius.com/albums/Kool-moe-dee/How-ya-like-me-now" rel="noopener" data-api_path="/albums/4541"&gt;&lt;em&gt;“How Ya Like Me Now?”&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;He became one of the first hip-hop acts to get a Grammy, and became the first to perform at the Grammy’s.&lt;/p&gt;\n\n&lt;p&gt;Kool Moe Dee is now mostly remembered for his feud with &lt;a href="https://genius.com/artists/Ll-cool-j" rel="noopener" data-api_path="/artists/848"&gt;LL Cool J&lt;/a&gt;, where they exchanged musical punches that entertained hip-hop heads for years, with the winner of the feud still being debated to this day.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Of-monsters-and-men', 'annotations': {'description': '&lt;p&gt;Of Monsters and Men is an Icelandic folk band from Keflavík, Iceland, formed in 2010. The band consists of lead singers and guitarists &lt;a href="https://genius.com/artists/Nanna-bryndis-hilmarsdottir" rel="noopener" data-api_path="/artists/102029"&gt;Nanna Bryndís Hilmarsdóttir&lt;/a&gt; and &lt;a href="https://genius.com/artists/Ragnar-orhallsson" rel="noopener" data-api_path="/artists/393570"&gt;Ragnar “Raggi” Þórhallsson,&lt;/a&gt; guitarist &lt;a href="https://genius.com/artists/Brynjar-leifsson" rel="noopener" data-api_path="/artists/685038"&gt;Brynjar Leifsson&lt;/a&gt;, drummer &lt;a href="https://genius.com/artists/Arnar-rosenkranz-hilmarsson" rel="noopener" data-api_path="/artists/393569"&gt;Arnar Rósenkranz Hilmarsson&lt;/a&gt; and bassist &lt;a href="https://genius.com/artists/Kristjan-pall-kristjansson" rel="noopener" data-api_path="/artists/1053642"&gt;Kristján Páll Kristjánsson&lt;/a&gt;. Their debut album, &lt;a href="https://genius.com/albums/Of-monsters-and-men/My-head-is-an-animal" rel="noopener" data-api_path="/albums/688607"&gt;&lt;em&gt;My Head Is An Animal&lt;/em&gt;&lt;/a&gt;, first released in 2011, and its lead single, &lt;a href="https://genius.com/Of-monsters-and-men-little-talks-lyrics" rel="noopener" data-api_path="/songs/68718"&gt;“Little Talks”&lt;/a&gt; were successful worldwide. In 2015, their sophomore album, &lt;a href="https://genius.com/albums/Of-monsters-and-men/Beneath-the-skin" rel="noopener" data-api_path="/albums/121632"&gt;&lt;em&gt;Beneath the Skin&lt;/em&gt;&lt;/a&gt; was released to generally positive reviews and is the band’s highest charting album, reaching #3 on Billboard’s Top 200.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Peter-schilling', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Pierre Schilling', 'Pierre Michael Schilling']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Capital-cities', 'annotations': {'description': '&lt;p&gt;Capital Cities is an American indie pop duo from Los Angeles, California, formed by Ryan Merchant and Sebu Simonian. Its debut EP was released on June 7, 2011, with lead single “Safe And Sound.” A subsequent single, “Kangaroo Court,” was released on May 1, 2012. The band was featured on the Pop Up #1 compilation curated by Perez Hilton that was released on August 7, 2012. The band’s song “Safe and Sound” charted at #1 on the US Alternative Songs chart. The song was also used in a German Vodafone commercial. The song “Center Stage” was featured on ESPN’s First Take where they played a short segment of the retro sounding track before going to commercial breaks&lt;/p&gt;', 'alternate_names': ['Ryan Merchant &amp; Sebu Simonian']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/The-bravery', 'annotations': {'description': '&lt;p&gt;Formed in New York City in 2003, The Bravery was a post-punk revival group consisting of lead vocalist Sam Endicott, guitarist Michael Zakarin, keyboardist John Conway, bassist Mike Hindert and drummer Anthony Burulcich. The band released three dance-rock albums before “taking a hiatus” in 2012. Currently, the group has no plans to get back together.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Ti', 'annotations': {'description': '&lt;p&gt;Clifford Harris, Jr., better known as &lt;strong&gt;T.I.&lt;/strong&gt;, is a rapper, film &amp;amp; music producer, actor, and author from Atlanta. He is also the founder and CEO of Grand Hustle Records.&lt;/p&gt;\n\n&lt;p&gt;T.I. has released eleven studio albums and has had a successful acting career, starring in the films &lt;a href="http://www.imdb.com/title/tt0478970/" rel="noopener nofollow"&gt;&lt;em&gt;Ant-Man&lt;/em&gt;&lt;/a&gt;, &lt;a href="http://www.imdb.com/title/tt1135084/?ref_=fn_al_tt_1" rel="noopener nofollow"&gt;&lt;em&gt;Takers&lt;/em&gt;&lt;/a&gt; and &lt;a href="http://www.imdb.com/title/tt0466856/?ref_=fn_al_tt_1" rel="noopener nofollow"&gt;&lt;em&gt;ATL&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Clifford J. Harris Jr.', 'Clifford Harris', 'Clifford Joseph Harris Jr.', 'Clifford Joseph Harris', 'Clifford Harris Jr', 'T.I.P.']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Pato-banton', 'annotations': {'description': '&lt;p&gt;Pato Banton is a reggae singer and toaster from Birmingham, England. He received the nickname “Pato Banton” from his stepfather; The first name derives from a Jamaican night owl that stays up all night calling “patoo, patoo” and the last name from the disc jockey slang word “Banton” which means heavyweight lyricist or storyteller.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Maroon-5', 'annotations': {'description': '&lt;p&gt;Maroon 5 is an American pop rock band. They were originally formed in 1994 as &lt;a href="https://genius.com/artists/Karas-flowers" rel="noopener" data-api_path="/artists/215848"&gt;Kara’s Flowers&lt;/a&gt; while they were still attending high school. They signed to Reprise Records and released an album, &lt;em&gt;The Fourth World&lt;/em&gt;, in 1997. After a mediocre response to the album, the band parted with their record label and attended college, but in 2001, the band regrouped, added James Valentine to the lineup, and pursued a new direction under the name Maroon 5.&lt;/p&gt;\n\n&lt;p&gt;Their first big hit came in the form of &lt;a href="https://genius.com/Maroon-5-harder-to-breathe-lyrics" rel="noopener" data-api_path="/songs/64029"&gt;“Harder to Breathe,”&lt;/a&gt; the edgier lead single from their debut, &lt;a href="https://genius.com/albums/Maroon-5/Songs-about-jane" rel="noopener" data-api_path="/albums/14452"&gt;&lt;em&gt;Songs About Jane&lt;/em&gt;&lt;/a&gt;. The continued success of that song and other singles &lt;a href="https://genius.com/Maroon-5-this-love-lyrics" rel="noopener" data-api_path="/songs/102120"&gt;“This Love,”&lt;/a&gt; &lt;a href="https://genius.com/Maroon-5-she-will-be-loved-lyrics" rel="noopener" data-api_path="/songs/87556"&gt;“She Will Be Loved,”&lt;/a&gt; and &lt;a href="https://genius.com/Maroon-5-sunday-morning-lyrics" rel="noopener" data-api_path="/songs/190916"&gt;“Sunday Morning”&lt;/a&gt; cemented the quintet as a pop-rock band to keep an eye out for.&lt;/p&gt;\n\n&lt;p&gt;However, for their second album, &lt;a href="https://genius.com/albums/Maroon-5/It-won-t-be-soon-before-long" rel="noopener" data-api_path="/albums/26459"&gt;&lt;em&gt;It Won’t Be Soon Before Long&lt;/em&gt;&lt;/a&gt;, they switched to ambing up on slick pop production—and it worked for them. Lead single &lt;a href="https://genius.com/Maroon-5-makes-me-wonder-lyrics" rel="noopener" data-api_path="/songs/107870"&gt;“Makes Me Wonder”&lt;/a&gt; jumped 63 places in one week to reach number one, becoming their first ever #1 single.&lt;/p&gt;\n\n&lt;p&gt;With the releases of &lt;a href="https://genius.com/albums/Maroon-5/Hands-all-over" rel="noopener" data-api_path="/albums/12388"&gt;&lt;em&gt;Hands All Over&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Maroon-5/Overexposed" rel="noopener" data-api_path="/albums/16329"&gt;&lt;em&gt;Overexposed&lt;/em&gt;&lt;/a&gt;, and &lt;a href="https://genius.com/albums/Maroon-5/V" rel="noopener" data-api_path="/albums/105603"&gt;&lt;em&gt;V&lt;/em&gt;&lt;/a&gt;, the group has been slowly growing poppier yet keeping their appeal. In fact, after the #14 peak of their 2010 single &lt;a href="https://genius.com/Maroon-5-misery-lyrics" rel="noopener" data-api_path="/songs/72945"&gt;“Misery,”&lt;/a&gt; they hit the top ten with every single one of their singles until 2015’s &lt;a href="https://genius.com/Maroon-5-this-summers-gonna-hurt-lyrics" rel="noopener" data-api_path="/songs/1862772"&gt;“This Summer’s Gonna Hurt.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Their tried-and-true formula of songs that blur the line between love and hooking up has kept all of their fans from the early 2000s and made new ones far into the 2010s.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Cage-the-elephant', 'annotations': {'description': '&lt;p&gt;Cage The Elephant is an American Rock band that formed in Bowling Green, Kentucky in 2006. They are known for their electric live performances.&lt;/p&gt;\n\n&lt;p&gt;They have released four albums, the first being their self-titled album, &lt;a href="http://rock.genius.com/albums/Cage-the-elephant/Cage-the-elephant" rel="noopener" data-api_path="/albums/5961"&gt;&lt;em&gt;Cage The Elephant&lt;/em&gt;,&lt;/a&gt; which got even more attention after their single &lt;a href="http://rock.genius.com/Cage-the-elephant-aint-no-rest-for-the-wicked-lyrics" rel="noopener" data-api_path="/songs/31934"&gt;“Ain’t No Rest for the Wicked”&lt;/a&gt; was used for the intro of the popular video game &lt;a href="http://tinyurl.com/8m6lj4" rel="noopener nofollow"&gt;&lt;em&gt;Borderlands&lt;/em&gt;&lt;/a&gt;.&lt;br&gt;\n&lt;a href="https://genius.com/albums/Cage-the-elephant/Thank-you-happy-birthday" rel="noopener" data-api_path="/albums/71313"&gt;&lt;em&gt;Thank You, Happy Birthday&lt;/em&gt;&lt;/a&gt; followed in 2011, then came  &lt;a href="https://genius.com/albums/Cage-the-elephant/Melophobia" rel="noopener" data-api_path="/albums/41942"&gt;&lt;em&gt;Melophobia&lt;/em&gt;&lt;/a&gt; in 2013 and 2015’s &lt;a href="https://genius.com/albums/Cage-the-elephant/Tell-me-i-m-pretty" rel="noopener" data-api_path="/albums/134192"&gt;&lt;em&gt;Tell Me I’m Pretty&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Members of Cage the Elephant had previously been involved in the band Perfect Confusion when they were in high school. They only released one album, self-titled, and is available to listen on Spotify.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Supertramp', 'annotations': {'description': '&lt;p&gt;Supertramp are an English rock band formed in 1969 (assuming this name in 1970). Their style oscillates between progressive rock and a more mainstream pop rock. The band’s work is marked by the songwriting of founders Rick Davies and Roger Hodgson and the prominent use of Wurlitzer electric piano and saxophone.&lt;/p&gt;\n\n&lt;p&gt;Garnering tremendous success in the latter half of the ‘70s, Supertramp created several very popular and recognisable hit singles, beginning with &lt;a href="https://genius.com/Supertramp-school-lyrics" rel="noopener" data-api_path="/songs/307015"&gt;School&lt;/a&gt; and &lt;a href="https://genius.com/Supertramp-dreamer-lyrics" rel="noopener" data-api_path="/songs/732412"&gt;Dreamer&lt;/a&gt; off their 1974 commercial breakthrough, &lt;a href="https://genius.com/albums/Supertramp/Crime-of-the-century" rel="noopener" data-api_path="/albums/67354"&gt;&lt;em&gt;Crime Of The Century&lt;/em&gt;&lt;/a&gt;. 1977’s &lt;a href="https://genius.com/albums/Supertramp/Even-in-the-quietest-moments" rel="noopener" data-api_path="/albums/147348"&gt;&lt;em&gt;Even In The Quietest Moments…&lt;/em&gt;&lt;/a&gt; saw two more Hodgson-penned highlights in &lt;a href="https://genius.com/Supertramp-give-a-little-bit-lyrics" rel="noopener" data-api_path="/songs/967668"&gt;Give A Little Bit&lt;/a&gt; and &lt;a href="https://genius.com/Supertramp-fools-overture-lyrics" rel="noopener" data-api_path="/songs/1645350"&gt;Fool’s Overture&lt;/a&gt;, before the band and its leading duo reached their peak with the band’s top-selling record, 1979’s &lt;a href="https://genius.com/albums/Supertramp/Breakfast-in-america" rel="noopener" data-api_path="/albums/82564"&gt;&lt;em&gt;Breakfast In America&lt;/em&gt;&lt;/a&gt;. This album alone includes no less than 6 popular tracks: four of Hodgson’s (&lt;a href="https://genius.com/Supertramp-the-logical-song-lyrics" rel="noopener" data-api_path="/songs/440468"&gt;The Logical Song&lt;/a&gt;, &lt;a href="https://genius.com/Supertramp-take-the-long-way-home-lyrics" rel="noopener" data-api_path="/songs/482326"&gt;Take The Long Way Home&lt;/a&gt;, &lt;a href="https://genius.com/Supertramp-child-of-vision-lyrics" rel="noopener" data-api_path="/songs/477112"&gt;Child Of Vision&lt;/a&gt; and &lt;a href="https://genius.com/Supertramp-breakfast-in-america-lyrics" rel="noopener" data-api_path="/songs/482324"&gt;the title track&lt;/a&gt;) and the two most well-known of Davies’ creations, &lt;a href="https://genius.com/Supertramp-gone-hollywood-lyrics" rel="noopener" data-api_path="/songs/482321"&gt;Gone Hollywood&lt;/a&gt; and &lt;a href="https://genius.com/Supertramp-goodbye-stranger-lyrics" rel="noopener" data-api_path="/songs/361826"&gt;Goodbye Stranger&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The next album would be the last including Roger Hodgson, after which Richard Davies helmed the band alone into the ‘80s and the rise of digital synthesizers.&lt;/p&gt;\n\n&lt;p&gt;While Supertramp still exists, the latest album by the band was released in 2002.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Dr-alban', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Jack-harlow', 'annotations': {'description': '&lt;p&gt;Jack Harlow (born March 13, 1998) is an American rapper from Louisville, Kentucky. He released his first official project in 2014 titled &lt;a href="https://genius.com/albums/Jack-harlow/Finally-handsome" rel="noopener" data-api_path="/albums/637961"&gt;&lt;em&gt;Finally Handsome&lt;/em&gt;&lt;/a&gt;, as well as an &lt;a href="https://genius.com/albums/Jack-harlow/The-handsome-harlow-ep" rel="noopener" data-api_path="/albums/168646"&gt;EP&lt;/a&gt; the following year which kickstarted his drive to make music.&lt;/p&gt;\n\n&lt;p&gt;After racking up around 250,000 total views on YouTube as of 2016, his 2017 project, &lt;a href="https://genius.com/albums/Jack-harlow/Gazebo" rel="noopener" data-api_path="/albums/381055"&gt;&lt;em&gt;Gazebo&lt;/em&gt;&lt;/a&gt;, was immediately met with a very positive reaction by fans and celebrities alike; launching his career to another platform. &lt;a href="https://genius.com/Jack-harlow-dark-knight-lyrics" rel="noopener" data-api_path="/songs/3292652"&gt;“Dark Knight”&lt;/a&gt;—the second song released off the album—eventually featured on the front page of Worldstar Hip-Hop and racked up 1,000,000+ views on YouTube. Additionally, he even got a co-sign for the aforementioned song from both &lt;a href="https://genius.com/artists/Peter-rosenberg" rel="noopener" data-api_path="/artists/28758"&gt;Peter Rosenberg&lt;/a&gt; and fellow Louisville native &lt;a href="https://genius.com/artists/Bryson-tiller" rel="noopener" data-api_path="/artists/264368"&gt;Bryson Tiller&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Harlow is now associated with DJ Drama and Don Cannon’s &lt;a href="http://thegenerationnow.com/bio.html" rel="noopener nofollow"&gt;Generation Now&lt;/a&gt; record label. In 2018, he released &lt;a href="https://genius.com/albums/Jack-harlow/Loose" rel="noopener" data-api_path="/albums/450642"&gt;&lt;em&gt;Loose&lt;/em&gt;&lt;/a&gt;. Harlow’s fourth official project and his first major release since &lt;a href="https://www.billboard.com/articles/columns/hip-hop/8468418/jack-harlow-signs-with-atlantic-records-generation-now-sundown-video" rel="noopener nofollow"&gt;signing with Generation Now and Atlantic Records&lt;/a&gt;, the project was a showcase of his increasing stardom, as he managed to get rap veteran &lt;a href="https://genius.com/artists/Cyhi-the-prynce" rel="noopener" data-api_path="/artists/758"&gt;CyHi The Prynce&lt;/a&gt; and former XXL Freshman &lt;a href="https://genius.com/artists/K-camp" rel="noopener" data-api_path="/artists/20742"&gt;K Camp&lt;/a&gt; to feature on the project. That same year, Harlow was even a guest performer at Genius\' very own &lt;a href="https://genius.com/a/announcing-the-second-annual-genius-iq-bbq-live-concert-with-headliner-2-chainz" rel="noopener" data-api_path="/articles/5743"&gt;IQ/BBQ&lt;/a&gt;. Jack was later named to the 2020 XXL Freshman list, himself.&lt;/p&gt;\n\n&lt;p&gt;His shot to stardom reached a peak it had never seen in 2020, as his song &lt;a href="https://genius.com/amp/Jack-harlow-whats-poppin-remix-lyrics" rel="noopener" data-api_path="/songs/5701202"&gt;“WHATS POPPIN”&lt;/a&gt; acquired features from Lil Wayne, DaBaby, and Tory Lanez and made it to the Top Ten of the Billboard Hot 100.&lt;/p&gt;', 'alternate_names': ['Jackman Harlow', 'Jackman Thomas Harlow', 'Missionary Jack']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/David-lee-roth', 'annotations': {'description': '&lt;p&gt;David Lee Roth (born October 10, 1954) is an American rock vocalist, songwriter, actor, author, and former radio personality. Roth is best known as the original (1974–1985) and current (2006–present) lead singer of hard rock band &lt;a href="https://genius.com/artists/Van-halen" rel="noopener" data-api_path="/artists/38215"&gt;Van Halen&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;More information here: &lt;/p&gt;&lt;div class="embedly_preview"&gt;\n&lt;a href="https://www.bbc.co.uk/music/artists/802d37d5-0aaa-492e-b366-99f75e5a196f"&gt;\n  &lt;div class="gray_container"&gt;\n    \n      &lt;div class="embedly_preview-thumb"&gt;\n        &lt;img src="https://i.genius.com/365d55b2ac1bbd11c99ae06262a1b2337aba5b89?url=https%3A%2F%2Fichef.bbci.co.uk%2Fimages%2Fic%2F960x540%2Fp01bqtl7.jpg"&gt;\n      &lt;/div&gt;\n    \n    &lt;div class="embedly_preview-text"&gt;\n      &lt;span class="embedly_preview-title"&gt;David Lee Roth - New Songs, Playlists &amp;amp; Latest News - BBC Music&lt;/span&gt;\n      \n        &lt;span class="embedly_preview-dash"&gt; — &lt;/span&gt;\n        &lt;span class="embedly_preview-provider"&gt;BBC&lt;/span&gt;\n      \n      \n        &lt;div class="embedly_preview-description"&gt;The BBC artist page for David Lee Roth. Find the best clips, watch programmes, catch up on the news, and read the latest David Lee Roth interviews.&lt;/div&gt;\n      \n    &lt;/div&gt;\n  &lt;/div&gt;\n&lt;/a&gt;\n&lt;/div&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Whitesnake', 'annotations': {'description': '&lt;p&gt;&lt;b&gt;Whitesnake&lt;/b&gt; are a rock band formed in England in 1978 by &lt;a href="https://genius.com/artists/David-coverdale" rel="noopener" data-api_path="/artists/368979"&gt;David Coverdale&lt;/a&gt;, after his departure from his previous band &lt;b&gt;&lt;a href="https://genius.com/artists/Deep-purple" rel="noopener" data-api_path="/artists/34310"&gt;Deep Purple&lt;/a&gt;&lt;/b&gt;. Their early material has been compared by critics to the blues rock of Deep Purple, but they slowly began moving toward a more commercially accessible rock style. By the turn of the decade, the band’s commercial fortunes changed and they released a string of UK top 10 albums, &lt;i&gt;Ready an\' Willing&lt;/i&gt; (1980), &lt;i&gt;Come an\' Get It&lt;/i&gt; (1981), &lt;i&gt;Saints &amp;amp; Sinners&lt;/i&gt; (1982) and &lt;i&gt;Slide It In&lt;/i&gt; (1984), the last of which was their first to chart in the US and is certified 2x platinum.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Alice-cooper', 'annotations': {'description': '&lt;p&gt;Alice Cooper is the stage name and &lt;a href="http://www.chicagotribune.com/entertainment/ct-ott-1031-alice-cooper-20141029-story.html" rel="noopener nofollow"&gt;‘fun villain’&lt;/a&gt; character of Vincent Furnier. Cooper became the target of parents and ministers for his dark lyrics and gory theatrical performances that &lt;a href="https://www.grammy.com/grammys/videos/alice-cooper-godfather-shock-rock" rel="noopener nofollow"&gt;earned him the&lt;/a&gt; title Godfather of Shock Rock. Despite once &lt;a href="http://mentalfloss.com/article/26158/quick-10-10-famous-uses-ouija-board" rel="noopener nofollow"&gt;claiming the name was conjured&lt;/a&gt; from a ouija board that told him he’s the reincarnation of a 17th century witch, Cooper laughs the topic off with flippant &lt;a href="https://www.alicecooperechive.com/articles/feature/torb/961222" rel="noopener nofollow"&gt;answers like&lt;/a&gt; “It was either a Scrabble board or a bowl of alphabet soup” &lt;a href="https://www.alicecooperechive.com/articles/feature/hesu/050616" rel="noopener nofollow"&gt;and&lt;/a&gt; “I didn’t want a name like Iron Butterfly or Black Sabbath. I wanted it to be something your aunt might be called.”&lt;/p&gt;\n\n&lt;p&gt;The band Alice Cooper was &lt;a href="http://ultimateclassicrock.com/alice-cooper-pretties-for-you/" rel="noopener nofollow"&gt;originally signed&lt;/a&gt; by Frank Zappa to his own record label. Their first notoriety came when Cooper tossed a wayward chicken (possibly &lt;a href="https://www.theguardian.com/music/2014/jun/12/alice-cooper-i-realised-rock-needed-a-villain-super-duper-alice-cooper-documentary" rel="noopener nofollow"&gt;arranged by&lt;/a&gt; long-time manager Shep Gordon) into the crowd, who then tore it apart at the 1969 Toronto Rock ‘n’ Roll Revival Festival. Newspapers claimed he’d bit the bird’s head off and drank its blood. Zappa advised them to not deny the story and Cooper used it as &lt;a href="https://www.theguardian.com/music/2014/jun/12/alice-cooper-i-realised-rock-needed-a-villain-super-duper-alice-cooper-documentary" rel="noopener nofollow"&gt;inspiration to&lt;/a&gt; make his character darker.&lt;/p&gt;\n\n&lt;p&gt;The band’s teaming with producer Bob Ezrin for their third album &lt;em&gt;Love It To Death&lt;/em&gt; led to their US breakthrough with a &lt;a href="https://www.billboard.com/music/alice-cooper/chart-history" rel="noopener nofollow"&gt;top 30&lt;/a&gt; hit “I’m Eighteen” in early 1971. By then, the band was already infamous for their stage show, which had escalated into simulated torture and executions. That same year, &lt;em&gt;Killer&lt;/em&gt; was released with its two singles “Under My Wheels” and “Be My Lover” finding moderate US success, and both albums being &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;se=alice+cooper#search_section" rel="noopener nofollow"&gt;certified gold&lt;/a&gt; the following year.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;School’s Out&lt;/em&gt; and &lt;em&gt;Billion Dollar Babies&lt;/em&gt; expanded the band’s success to overseas with four songs &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Alice+Cooper&amp;amp;titel=No+More+Mr%2E+Nice+Guy&amp;amp;cat=s" rel="noopener nofollow"&gt;cracking the top 20&lt;/a&gt; in &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Alice+Cooper&amp;amp;titel=Hello+Hurray&amp;amp;cat=s" rel="noopener nofollow"&gt;several countries&lt;/a&gt; including the UK &lt;a href="http://www.officialcharts.com/artist/14640/alice-cooper/" rel="noopener nofollow"&gt;chart-topper&lt;/a&gt; “School’s Out”. Both albums reached the top 10 around the globe and the band’s stage show began incorporating the decapitation of dolls &lt;a href="https://www.alicecooperechive.com/articles/feature/torb/961222" rel="noopener nofollow"&gt;with butcher knives&lt;/a&gt; and &lt;a href="https://www.theguardian.com/music/2014/jun/12/alice-cooper-i-realised-rock-needed-a-villain-super-duper-alice-cooper-documentary" rel="noopener nofollow"&gt;props like&lt;/a&gt; the gallows, a guillotine and a live boa constrictor.&lt;/p&gt;\n\n&lt;p&gt;Less success with their sixth album &lt;em&gt;Muscle Of Love&lt;/em&gt; and &lt;a href="https://archive.is/20130115174817/http://news.google.ca/newspapers?id=gD8dAAAAIBAJ&amp;amp;sjid=26YEAAAAIBAJ&amp;amp;pg=3132,2262079&amp;amp;dq=dennis-dunaway+billion-dollar-babies&amp;amp;hl=en" rel="noopener nofollow"&gt;strained relations&lt;/a&gt; between members drove Furnier to legally change his name to Alice Cooper and begin a solo career in 1975 with the release of &lt;em&gt;Welcome To My Nightmare&lt;/em&gt;. His first four solo efforts were internationally successful, but sales were largely fueled by his softer ballads “Only Women Bleed”, “I Never Cry”, “You and Me” and “How You Gonna See Me Now”. Bob Ezrin stopped producing Cooper’s albums halfway through this era.&lt;/p&gt;\n\n&lt;p&gt;By the late 1970s, Cooper’s public image softened with appearances on The Muppets, Hollywood Squares and in various films including &lt;em&gt;Sgt Pepper’s Lonely Hearts Club Band&lt;/em&gt;. By the early 1980s, &lt;a href="https://www.theguardian.com/music/2014/jun/12/alice-cooper-i-realised-rock-needed-a-villain-super-duper-alice-cooper-documentary" rel="noopener nofollow"&gt;punk and hair metal&lt;/a&gt; began to make his 70s glam rock look tame. Meanwhile, Cooper was &lt;a href="https://www.theguardian.com/music/2014/jun/12/alice-cooper-i-realised-rock-needed-a-villain-super-duper-alice-cooper-documentary" rel="noopener nofollow"&gt;drinking himself&lt;/a&gt; almost to death. His next four albums from 1980-1983 only offered one US top 40 and a few modest chart appearances overseas.&lt;/p&gt;\n\n&lt;p&gt;After being hospitalized more than once for alcoholism and dropped from his record label, Cooper &lt;a href="http://ultimateclassicrock.com/alice-cooper-survived-80s/" rel="noopener nofollow"&gt;finally got sober&lt;/a&gt; and renewed his faith in 1984, &lt;a href="https://www.theguardian.com/music/2014/jun/12/alice-cooper-i-realised-rock-needed-a-villain-super-duper-alice-cooper-documentary" rel="noopener nofollow"&gt;reinventing his character&lt;/a&gt; as an abuser instead of a victim:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Alice had to be reborn as an arrogant villain. Now he wasn’t the one who was beaten, he was the one who was going to beat. He was the dominatrix, he wasn’t the trick.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Cooper’s next two albums for MCA Records were somewhat more successful than his previous four, but it wasn’t until 1989’s &lt;em&gt;Poison&lt;/em&gt; for Epic Records, a collaborative effort with hitmaker Desmond Child, that Cooper had a big comeback. Its title track reached the top 30 &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Alice+Cooper&amp;amp;titel=Poison&amp;amp;cat=s" rel="noopener nofollow"&gt;in several countries&lt;/a&gt; and three more singles found further scattered chart success, helping &lt;em&gt;Poison&lt;/em&gt; reach the top 20 around the world. Efforts since, however, have not generated the same level of massive worldwide chart success, the best showing being in the UK where he scored five more modest hits in the first half of the 90s.&lt;/p&gt;\n\n&lt;p&gt;In 1999, two years after the passing of original guitarist Glen Buxton, Cooper &lt;a href="http://www.pennyblackmusic.co.uk/magsitepages/article/8875/Alice-Cooper-50th-Anniversary-of-the-Alice-Cooper-Group-Original-Line-Up-Celebration-Part-1" rel="noopener nofollow"&gt;reunited with&lt;/a&gt; his remaining old bandmates for a single performance. In the 2000s, Cooper received a number of awards including &lt;a href="http://projects.latimes.com/hollywood/star-walk/alice-cooper/" rel="noopener nofollow"&gt;a star on&lt;/a&gt; the Hollywood Walk Of Fame, an honorary degree, a key to the city of Alice, North Dakota, and a &lt;a href="https://www.gettyimages.com/detail/news-photo/alice-cooper-with-his-living-legend-award-at-the-classic-news-photo/832572814" rel="noopener nofollow"&gt;living legend award&lt;/a&gt;. The original incarnation of the Alice Cooper band was &lt;a href="https://www.rockhall.com/inductees/alice-cooper" rel="noopener nofollow"&gt;inducted into&lt;/a&gt; the Rock And Roll Hall Of Fame in 2011.&lt;/p&gt;\n\n&lt;p&gt;Beginning in 2015, Cooper has &lt;a href="https://www.rollingstone.com/music/music-news/alice-cooper-breaks-silence-on-joe-perry-collapse-251164/" rel="noopener nofollow"&gt;participated as frontman&lt;/a&gt; of the supergroup Hollywood Vampires alongside Joe Perry of Aerosmith and actor Johnny Depp. In 2017, his 27th studio album &lt;em&gt;Paranormal&lt;/em&gt; featured “The Sound Of A” – a song lost for five decades that Cooper had originally &lt;a href="https://www.loudersound.com/news/alice-cooper-launches-creepy-video-for-50-year-old-song-the-sound-of-a" rel="noopener nofollow"&gt;written in&lt;/a&gt; 1967.&lt;/p&gt;', 'alternate_names': ['Vincent Furnier', 'Vincent Damon Furnier']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Dj-otzi', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;DJ Ötzi&lt;/strong&gt;, born 7 January 1971, is an Austrian singer, internationally best known for his 2001 single &lt;a href="https://genius.com/Dj-otzi-hey-baby-lyrics" rel="noopener" data-api_path="/songs/1000672"&gt;Hey Baby&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Natalie-imbruglia', 'annotations': {'description': "&lt;p&gt;Natalie Jane Imbruglia, born 4 February 1975), is an Australian singer-songwriter, model and actress, naturalised in the UK. In the early 1990s, she played Beth Brennan in the Australian soap opera Neighbours. Three years after leaving the program, she began a singing career with her successful hit cover of Ednaswap’s song “Torn”.&lt;/p&gt;\n\n&lt;p&gt;Her subsequent album, Left of the Middle (1997), sold 7 million copies worldwide. Further releases include White Lilies Island (2001), Counting Down the Days (2005), a hits compilation, Glorious: The Singles 97–07 (2007), Come to Life (2009), and a cover album of songs originally performed by male artists, Male (2015). Since 1997, Imbruglia has sold 10 million records worldwide, and received several accolades, including eight ARIA Awards, two Brit Awards, one Billboard Music Award, and three Grammy nominations.&lt;/p&gt;\n\n&lt;p&gt;In addition to her singing career, Imbruglia has appeared in several films, including 2003 film Johnny English and an Australian indie film, Closed for Winter (2009). She has also modelled for several brands, such as L'Oreal, Gap, and Kailis.&lt;/p&gt;\n\n&lt;p&gt;Since 2005, Imbruglia has been a spokesperson of Virgin Unite and campaigns to raise awareness of obstetric fistula.&lt;/p&gt;", 'alternate_names': ['Natalie Jane Imbruglia']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Captain-jack', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Bryson-tiller', 'annotations': {'description': '&lt;p&gt;Bryson Tiller is an American singer-songwriter from Louisville, Kentucky.&lt;/p&gt;\n\n&lt;p&gt;Bryson’s success didn’t happen overnight. Bryson released &lt;a href="https://genius.com/albums/Bryson-tiller/Killer-instinct" rel="noopener" data-api_path="/albums/141252"&gt;&lt;em&gt;Killer Instinct&lt;/em&gt;&lt;/a&gt; back in 2011. At the same time, he worked two jobs whilst also dealing with relationship issues. At one point, Bryson even considered applying for a third job to provide for his newborn daughter, Harley, who is featured in the &lt;a href="https://genius.com/albums/Bryson-tiller/True-to-self" rel="noopener" data-api_path="/albums/326050"&gt;&lt;em&gt;True To Self&lt;/em&gt;&lt;/a&gt; cover art.&lt;/p&gt;\n\n&lt;p&gt;Bryson’s life changed forever with the release of his breakout single &lt;a href="https://genius.com/Bryson-tiller-dont-lyrics" rel="noopener" data-api_path="/songs/579968"&gt;“Don’t,”&lt;/a&gt; which he dropped on SoundCloud in 2014 and has since been streamed over 35 million times. With the release of this track, Tiller began receiving attention from music industry insiders, receiving early co-signs from super-producer &lt;a href="https://genius.com/artists/Timbaland" rel="noopener" data-api_path="/artists/112"&gt;Timbaland&lt;/a&gt; and rapper &lt;a href="https://genius.com/artists/Drake" rel="noopener" data-api_path="/artists/130"&gt;Drake&lt;/a&gt;. This led to multiple major label deals for Bryson, one of those being an &lt;a href="https://genius.com/artists/Ovo-sound" rel="noopener" data-api_path="/artists/1247315"&gt;OVO&lt;/a&gt; contract from Drizzy, but Bryson surprisingly declined the offer. Later, Bryson chose to sign a creative partnership with RCA Records on August 25, 2015.&lt;/p&gt;\n\n&lt;p&gt;Since the release of “Don’t,” Bryson has dropped three albums: his debut studio album, &lt;a href="https://genius.com/albums/Bryson-tiller/T-r-a-p-s-o-u-l" rel="noopener" data-api_path="/albums/129455"&gt;&lt;em&gt;T R A P S O U L&lt;/em&gt;&lt;/a&gt;, in 2015, &lt;em&gt;True To Self&lt;/em&gt; in 2017, and &lt;a href="https://genius.com/albums/Bryson-tiller/A-n-n-i-v-e-r-s-a-r-y" rel="noopener" data-api_path="/albums/433638"&gt;&lt;em&gt;A N N I V E R S A R Y&lt;/em&gt;&lt;/a&gt; in 2020, precisely five years after the release of his debut album.&lt;/p&gt;', 'alternate_names': ['Pen Griffey', 'Gawdtilla', 'Young Tiller', 'Bryson D. Tiller', 'Bryson Djuan Tiller', 'Bryson Dujuan Tiller']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Michael-sembello', 'annotations': {'description': '&lt;p&gt;Michael Andrew Sembello (born April 17, 1954) is an American singer, musician, songwriter, composer and producer from Philadelphia, Pennsylvania.&lt;/p&gt;', 'alternate_names': ['Michael Andrew Sembello', 'Mike Sembello']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Akon', 'annotations': {'description': '&lt;p&gt;Akon (born Aliaume Akon Thiam), is a Senegalese-American Grammy-nominated and platinum-selling rapper, songwriter, singer and businessman. His trademark is singing the word ‘convict’ at the beginning of most of his songs.&lt;/p&gt;\n\n&lt;p&gt;Akon was born in the US but &lt;a href="https://wbssmedia.com/artists/detail/645" rel="noopener nofollow"&gt;spent much&lt;/a&gt; of childhood in the West African country Senegal. There, he learned to play five instruments including the djembe, guitar and drums. Early on Akon &lt;a href="http://www.hollywood.com/general/akon-sued-for-150-million-by-former-business-partner-report-60686814/" rel="noopener nofollow"&gt;signed a deal with&lt;/a&gt; Elektra Records, but was later dropped from the label.&lt;/p&gt;\n\n&lt;p&gt;His &lt;a href="http://www.hollywood.com/general/akon-sued-for-150-million-by-former-business-partner-report-60686814/" rel="noopener nofollow"&gt;career took off&lt;/a&gt; when Lil Zane introduced Akon to music executive DeVyne Stephens, who signed him to his label UpFront Records &lt;a href="http://www.hollywood.com/general/akon-sued-for-150-million-by-former-business-partner-report-60686814/" rel="noopener nofollow"&gt;and became his&lt;/a&gt; longtime manager and business partner.&lt;/p&gt;\n\n&lt;p&gt;Akon’s music with Stephens, specifically “Lonely”, caught the attention of SRC Records (under Universal). SRC’s A&amp;amp;R man Jerome Foster and CEO Steve Rifkind flew to Atlanta on a private plane &lt;a href="https://wbssmedia.com/artists/detail/645" rel="noopener nofollow"&gt;to sign him&lt;/a&gt;. His 2004 debut album &lt;em&gt;Trouble&lt;/em&gt; scored two international smash hits with “Locked Up” and “Lonely”, the latter topping the pop chart &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Akon&amp;amp;titel=Lonely&amp;amp;cat=s" rel="noopener nofollow"&gt;in seven countries&lt;/a&gt; and reaching the top 5 in seven more including &lt;a href="https://www.billboard.com/music/akon/chart-history" rel="noopener nofollow"&gt;the US&lt;/a&gt; and &lt;a href="http://www.officialcharts.com/artist/14451/akon/" rel="noopener nofollow"&gt;the UK&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;That year, Akon launched Konvict Music – a record label that would release Akon’s next albums in addition to albums by T-Pain and Sway. In 2005, Akon made two guest appearances during the success of &lt;em&gt;Trouble&lt;/em&gt; that were also successful: the Young Jeezy song “Soul Survivor” which did well in the US and UK, and “Moonshine” with Savage which was a huge hit in Australia and New Zealand.&lt;/p&gt;\n\n&lt;p&gt;His 2006 sophomore album &lt;em&gt;Konvicted&lt;/em&gt; spawned three international chart-toppers: “Smack That” featuring Eminem (top 10 &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Akon+feat%2E+Eminem&amp;amp;titel=Smack+That&amp;amp;cat=s" rel="noopener nofollow"&gt;in twelve countries&lt;/a&gt;), “I Wanna Love You” featuring Snoop Dogg (top 20 &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Akon+feat%2E+Snoop+Dogg&amp;amp;titel=I+Wanna+Love+You&amp;amp;cat=s" rel="noopener nofollow"&gt;in ten countries&lt;/a&gt;), and “Don’t Matter” (top 10 &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Akon+feat%2E+Snoop+Dogg&amp;amp;titel=I+Wanna+Love+You&amp;amp;cat=s" rel="noopener nofollow"&gt;in five countries&lt;/a&gt;). The album was &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;ar=AKON&amp;amp;ti=KONVICTED" rel="noopener nofollow"&gt;certified platinum&lt;/a&gt; within seven weeks, eventually reaching triple platinum a year later. Also that year, he made a guest appearance on the Gwen Stefani song “The Sweet Escape”, a top 10 song &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Gwen+Stefani+feat%2E+Akon&amp;amp;titel=The+Sweet+Escape&amp;amp;cat=s" rel="noopener nofollow"&gt;in twelve countries&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;2007 and 2008 saw Akon make several more guest appearances with various artists, giving him eight more US top 40 hits with scattered international success – the biggest being “Dangerous” with Kardinal Offishal, taken from an album he’d executive-produced.&lt;/p&gt;\n\n&lt;p&gt;Akon’s third album &lt;em&gt;Freedom&lt;/em&gt; was internationally successful in late 2008 with three singles reaching the top 10 in several countries, but it did not equal the success of his previous albums. During this time, Akon also remixed “Wanna Be Startin\' Somethin\'” for the 25th anniversary re-release of Michael Jackson’s &lt;em&gt;Thriller&lt;/em&gt;, &lt;a href="https://wbssmedia.com/artists/detail/645" rel="noopener nofollow"&gt;launched a clothing line&lt;/a&gt;, and founded KonLive Distribution (the label that signed Lady Gaga and released her first three albums) with Jimmy Iovine.&lt;/p&gt;\n\n&lt;p&gt;Since 2009, Akon has continued to collaborate with several artists, his most successful being the &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=David+Guetta+feat%2E+Akon&amp;amp;titel=Sexy+Bitch&amp;amp;cat=s" rel="noopener nofollow"&gt;international chart topper&lt;/a&gt; “Sexy Bitch” with David Guetta. His other work includes being one-third of the rap supergroup Flipsyde, heavy involvement in “We Are the World 25 for Haiti”, and co-writing for artists like NKOTB and Whitney Houston.&lt;/p&gt;\n\n&lt;p&gt;Outside of music, Akon has appeared in the films &lt;em&gt;Black November&lt;/em&gt; and &lt;em&gt;American Heist&lt;/em&gt; and founded &lt;a href="http://akonlightingafrica.com/our-activities/overview/" rel="noopener nofollow"&gt;Akon Lighting Africa&lt;/a&gt;, an effort to provide electricity via solar energy to African villages without power. His fourth album, a five-part concept album tentatively titled &lt;em&gt;Stadium&lt;/em&gt;, was in the works in 2010, but aside from &lt;a href="https://www.billboard.com/articles/news/6429405/akon-new-album-stadium" rel="noopener nofollow"&gt;teasing random singles&lt;/a&gt; like “To Each His Own”, “Whole Lot” and “Just A Man”, the full project did not materialize. Instead, Akon released two albums in 2019 and a mixtape in 2020.&lt;/p&gt;', 'alternate_names': ['Aliune Akon Thiam', 'Aliaune Damala Badara Akon Thiam', 'Aliaune Thiam']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Vengaboys', 'annotations': {'description': '&lt;p&gt;Vengaboys are a very popular bubblegum pop group. The members of the group are &lt;a href="http://www.bubblegumdancer.com/project.php?id=128#ixzz5IzGQMbFa" rel="noopener nofollow"&gt;Kim Sasabone, Denise Post-Van Rijswijk, Yorick Bakker, and Donny Latupeirissa&lt;/a&gt;. They’re well-known for their cartoonish poppy songs such as “Boom, Boom, Boom, Boom!!” They’ve sold an estimated &lt;a href="https://en.wikipedia.org/wiki/Vengaboys#Discography" rel="noopener nofollow"&gt;25 million records worldwide&lt;/a&gt; and was named the “Best Selling Music Group” in 2003 by World Music Awards.&lt;/p&gt;\n\n&lt;p&gt;The group has released three albums; &lt;em&gt;Up &amp;amp; Down-The Party Album&lt;/em&gt;, &lt;em&gt;The Party Album!&lt;/em&gt;, and &lt;em&gt;The Platinum Album&lt;/em&gt;; two of the albums have achieved gold and platinum status in other countries.&lt;/p&gt;\n\n&lt;p&gt;The group took a hiatus after 2000 and returned in 2006 with a new member Donny Latupeirissa, or Ma\'Donny. In 2010, the band confirmed that their &lt;a href="https://en.wikipedia.org/wiki/Vengaboys#Discography" rel="noopener nofollow"&gt;comeback single&lt;/a&gt; would be “Rocket to Uranus” and was released in June. In 2013, they released a new single called “Hot Hot Hot”.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;The X-mas Party Album&lt;/em&gt; was released in 2014. In 2017, the band announced Party On the Dance Floor Tour.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Foster-the-people', 'annotations': {'description': '&lt;p&gt;Foster the People is an American indie pop band formed in Los Angeles, California in 2009. The group is composed of &lt;a href="https://genius.com/artists/Mark-foster" rel="noopener" data-api_path="/artists/20731"&gt;Mark Foster&lt;/a&gt;, &lt;a href="https://genius.com/artists/Mark-pontius" rel="noopener" data-api_path="/artists/634157"&gt;Mark Pontius&lt;/a&gt;, &lt;a href="https://genius.com/artists/Sean-cimino" rel="noopener" data-api_path="/artists/634158"&gt;Sean Cimino&lt;/a&gt; and &lt;a href="https://genius.com/artists/Isom-innis" rel="noopener" data-api_path="/artists/182399"&gt;Isom Innis&lt;/a&gt;. The group’s music, described as melodic dance-infused pop and rock, spans many genres. Tyler Halford is currently a touring member of the band. &lt;a href="https://genius.com/artists/Danyew" rel="noopener" data-api_path="/artists/479945"&gt;Phil Danyew&lt;/a&gt; toured with the band from 2014-2019, as he now has his own project, Elephant Castle. &lt;a href="https://genius.com/artists/Jacob-fink" rel="noopener" data-api_path="/artists/634156"&gt;Jacob “Cubbie” Fink&lt;/a&gt; was once a member but had left the band in 2015 after the release of their second album. &lt;a href="https://genius.com/artists/Arlene-deradoorian" rel="noopener" data-api_path="/artists/1019524"&gt;Arlene Deradoorian&lt;/a&gt; (sister of Angel Deradoorian) and &lt;a href="https://genius.com/artists/Haley-dekle" rel="noopener" data-api_path="/artists/236557"&gt;Haley Dekle&lt;/a&gt; had also provided backing vocals for the group in 2014.&lt;/p&gt;', 'alternate_names': []}}</t>
+    <t>{'url': 'https://genius.com/artists/Katrina-and-the-waves', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Carl-ward', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Justin-timberlake', 'annotations': {'description': '&lt;p&gt;Justin Randall Timberlake (born January 31, 1981) is an American singer, songwriter, and actor. Born in Memphis, Tennessee, he appeared on the television shows &lt;em&gt;Star Search&lt;/em&gt; and &lt;em&gt;The All-New Mickey Mouse Club&lt;/em&gt; as a child. In the late 1990s, Timberlake rose to prominence as one of the two lead vocalists and youngest member of the boy band &lt;a href="https://genius.com/artists/N-sync" rel="noopener" data-api_path="/artists/8625"&gt;NSYNC&lt;/a&gt;, which eventually became one of the best-selling boy bands of all time.&lt;/p&gt;\n\n&lt;p&gt;In 2002, Timberlake released his solo debut, &lt;em&gt;Justified,&lt;/em&gt; with some help from The Neptunes and Timbaland on production. Timbaland and Timberlake would continue their collaboration on 2006’s &lt;em&gt;FutueSex/LoveSounds&lt;/em&gt;, on which Timbaland produced all but two tracks.&lt;/p&gt;', 'alternate_names': ['Justin Randall', 'Justin R. Timberlake', 'Justin Randall Timberlake']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Shaggy', 'annotations': {'description': '&lt;p&gt;Orville Richard Burrell CD (born October 22, 1968), known mostly by his stage name Shaggy, is a Jamaican reggae fusion singer and deejay. He took his nickname from Shaggy Rogers, from the cartoon Scooby Doo.&lt;/p&gt;\n\n&lt;p&gt;He was born on October 22, 1968 in Kingston, Jamaica. In 1975 he and his family moved to Brooklyn, New York.&lt;/p&gt;\n\n&lt;p&gt;The singer released his first hit “Oh Carolina” in 1993, which was a dancehall re-make of a ska hit by the Folkes Brothers.&lt;br&gt;\nIn 1995 he published his most famous hit “Boombastic”.&lt;br&gt;\nIn 2000, Shaggy released the album Hot Shot, which was certified 6x Platinum in the U.S. The album featured the singles “It Wasn’t Me” and “Angel”.&lt;/p&gt;', 'alternate_names': ['Mr. Boombastic', 'Orville Burrell', 'Orville Richard Burrell', 'Orville R. Burrell']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Jessie-j', 'annotations': {'description': '&lt;p&gt;Jessie J is a British singer. Born in 1988, she first came to fame when her single, &lt;a href="https://genius.com/Jessie-j-do-it-like-a-ude-lyrics" rel="noopener"&gt;“Do It Like A Dude”&lt;/a&gt; hit #2 in the UK. Singles &lt;a href="https://genius.com/Jessie-j-laserlight-lyrics" rel="noopener" data-api_path="/songs/248955"&gt;“LaserLight”&lt;/a&gt;, &lt;a href="https://genius.com/Jessie-j-nobodys-perfect-lyrics" rel="noopener" data-api_path="/songs/62391"&gt;“Nobody’s Perfect”&lt;/a&gt;, &lt;a href="https://genius.com/Jessie-j-who-you-are-lyrics" rel="noopener" data-api_path="/songs/81908"&gt;“Who You Are”&lt;/a&gt;, &lt;a href="https://genius.com/Jessie-j-domino-lyrics" rel="noopener" data-api_path="/songs/67446"&gt;“Domino”&lt;/a&gt;, and &lt;a href="https://genius.com/Jessie-j-price-tag-lyrics" rel="noopener" data-api_path="/songs/6125"&gt;“Price Tag”&lt;/a&gt; all hit the Top 10 in the UK, making her the first British female artist to achieve 6 Top 10 singles in the UK. The latter two became Top 25 hits in the US, with &lt;a href="https://genius.com/Jessie-j-domino-lyrics" rel="noopener" data-api_path="/songs/67446"&gt;“Domino”&lt;/a&gt; peaking at #6 and &lt;a href="https://genius.com/Jessie-j-price-tag-lyrics" rel="noopener" data-api_path="/songs/6125"&gt;“Price Tag”&lt;/a&gt; hitting #23.&lt;/p&gt;\n\n&lt;p&gt;Jessie J’s second album, &lt;a href="https://genius.com/albums/Jessie-j/Alive" rel="noopener" data-api_path="/albums/42826"&gt;&lt;em&gt;Alive&lt;/em&gt;&lt;/a&gt;, became a UK-only release. The three singles, &lt;a href="https://genius.com/Jessie-j-wild-lyrics" rel="noopener" data-api_path="/songs/155565"&gt;“Wild”&lt;/a&gt;, &lt;a href="https://genius.com/Jessie-j-its-my-party-lyrics" rel="noopener" data-api_path="/songs/207003"&gt;“It’s My Party”&lt;/a&gt;, and &lt;a href="https://genius.com/Jessie-j-thunder-lyrics" rel="noopener" data-api_path="/songs/221197"&gt;“Thunder”&lt;/a&gt; all hit the Top 20 in the UK, with the first two making Top 5. On the album charts, it hit #3 and went gold.&lt;/p&gt;\n\n&lt;p&gt;Her third album, &lt;a href="https://genius.com/albums/Jessie-j/Sweet-talker" rel="noopener" data-api_path="/albums/111122"&gt;&lt;em&gt;Sweet Talker&lt;/em&gt;&lt;/a&gt;, was released internationally and preceded by the smash single &lt;a href="https://genius.com/Jessie-j-ariana-grande-and-nicki-minaj-bang-bang-lyrics" rel="noopener" data-api_path="/songs/486355"&gt;“Bang Bang”&lt;/a&gt; featuring &lt;a href="https://genius.com/artists/Ariana-grande" rel="noopener" data-api_path="/artists/26507"&gt;Ariana Grande&lt;/a&gt; and &lt;a href="https://genius.com/artists/Nicki-minaj" rel="noopener" data-api_path="/artists/92"&gt;Nicki Minaj&lt;/a&gt;. In the UK, it went straight to the top of the charts, while in the US, it debuted at #6, tying her highest peak. Eventually, it hit #3, becoming Jessie’s highest peak, Grande’s second-highest, and Minaj’s tied-for-highest. (Minaj later surpassed her peak with her number two single, &lt;a href="https://genius.com/Nicki-minaj-anaconda-lyrics" rel="noopener" data-api_path="/songs/483960"&gt;“Anaconda”&lt;/a&gt;.) “Bang Bang” also hit the Top 10 in Australia, Canada, Denmark, and New Zealand and went Platinum X6 according to RIIA. The next single, &lt;a href="https://genius.com/Jessie-j-burnin-up-lyrics" rel="noopener" data-api_path="/songs/510163"&gt;“Burnin\' Up”&lt;/a&gt; was less successful, although it cracked the Top 100 in both the US and UK. Third single &lt;a href="https://genius.com/Jessie-j-sweet-talker-lyrics" rel="noopener" data-api_path="/songs/458228"&gt;“Sweet Talker”&lt;/a&gt; was released in only the UK/Ireland, and fourth single &lt;a href="https://genius.com/Jessie-j-masterpiece-lyrics" rel="noopener" data-api_path="/songs/538461"&gt;“Masterpiece”&lt;/a&gt; hit the US Hot 100, but only managed a 159 peak in the UK.&lt;/p&gt;\n\n&lt;p&gt;After 3 years away from the music scene, Jessie came back with a fourth LP, &lt;a href="https://genius.com/albums/Jessie-j/R-o-s-e" rel="noopener" data-api_path="/albums/368378"&gt;&lt;em&gt;R.O.S.E.&lt;/em&gt;&lt;/a&gt; (2018). The official single from the album is &lt;a href="https://genius.com/Jessie-j-queen-lyrics" rel="noopener" data-api_path="/songs/3237259"&gt;“Queen”&lt;/a&gt; along with two promo singles &lt;a href="https://genius.com/Jessie-j-think-about-that-lyrics" rel="noopener" data-api_path="/songs/3226086"&gt;“Think About That”&lt;/a&gt; and &lt;a href="https://genius.com/Jessie-j-not-my-ex-lyrics" rel="noopener" data-api_path="/songs/3237257"&gt;“Not My Ex”&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Jessie E. Cornish', 'Jessica Cornish', 'Jessica Ellen Cornish']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Mr-president', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Suzanne-vega', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Elle-king', 'annotations': {'description': '&lt;p&gt;Elle King is an American singer-songwriter and actress. She was born Tanner Elle Schneider on July 3rd, 1989, to actor Rob Schneider and model London King. Despite the fact that she has famous parents, Elle became well-known by showcasing her own talent and drive.&lt;/p&gt;\n\n&lt;p&gt;Elle got her start by performing in bars as a teenager. In an &lt;a href="http://nypost.com/2015/02/28/rob-Schneiders-daughter-elle-king-debuts-first-rock-album" rel="noopener nofollow"&gt;interview with &lt;em&gt;The Post,&lt;/em&gt;&lt;/a&gt; she says:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I played my first show in New York when I was sixteen. [My mom] found my fake IDs and would cut them up, but I would get another one. Finally, she just said ‘Fine, I’m coming with you,’ to make sure I didn’t drink!"&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Elle released her first studio album, &lt;a href="https://genius.com/albums/Elle-king/love-stuff" rel="noopener" data-api_path="/albums/120148"&gt;&lt;em&gt;Love Stuff&lt;/em&gt;,&lt;/a&gt; on February 13th, 2015. Its lead single, &lt;a href="https://genius.com/Elle-king-exs-and-ohs-lyrics" rel="noopener" data-api_path="/songs/720473"&gt;“Ex’s and Oh’s,”&lt;/a&gt; was released in September 2014, and became a smash hit, &lt;a href="http://billboard.com/artist/6415177/Elle+King/chart?f=902" rel="noopener nofollow"&gt;peaking at #10&lt;/a&gt; on the US &lt;em&gt;Billboard&lt;/em&gt; Hot 100 and being &lt;a href="http://riaa.com/goldandplatinum.php?artist=Elle+King" rel="noopener nofollow"&gt;certified Platinum&lt;/a&gt; in the US by RIAA.&lt;/p&gt;', 'alternate_names': ['Tanner Schneider', 'Tanner Elle Schneider']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Victoria-justice', 'annotations': {'description': '&lt;p&gt;Victoria Justice (born February 19, 1993) is an American actress, singer-songwriter, and dancer. She debuted as an actress at the age of 10 and has since appeared in several films and television series including the Nickelodeon series &lt;a href="https://en.wikipedia.org/wiki/Zoey_101" rel="noopener nofollow"&gt;Zoey 101&lt;/a&gt; and &lt;a href="https://en.wikipedia.org/wiki/Victorious" rel="noopener nofollow"&gt;Victorious&lt;/a&gt;. When not filming or recording music, Victoria is participating in several charity events.&lt;/p&gt;', 'alternate_names': ['Victoria Dawn Justice']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Miranda-cosgrove', 'annotations': {'description': '&lt;p&gt;Miranda Cosgrove is an American actress and singer. Her career began at the age of three, when she appeared in television commercials. Her film debut came in 2003, when she played Summer Hathaway in School of Rock. She appeared in a number of minor television roles over several years before coming to prominence as Megan Parker on the Nickelodeon TV series Drake &amp;amp; Josh. A few years later, she landed the role of Carly Shay, the lead character in the Nickelodeon TV series iCarly.&lt;/p&gt;\n\n&lt;p&gt;As of May 2010, Cosgrove earned $180,000 per episode of iCarly, making her the second-highest-paid child star on television. Following the success of iCarly, a &lt;a href="https://genius.com/albums/Various-artists/Icarly-soundtrack" rel="noopener" data-api_path="/albums/122122"&gt;soundtrack album&lt;/a&gt; was released in June 2008, in which she performed four songs. Her debut album, &lt;em&gt;Sparks Fly&lt;/em&gt;, was released on April 27, 2010.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Asia', 'annotations': {'description': '&lt;p&gt;Asia are a British progressive art rock supergroup formed by John Wetton of King Crimson with the help of his manager Brian Lane. The two recruited Yes guitarist Steve Howe, Geoff Downes of Yes/The Buggles, and Carl Palmer of ELP to complete the lineup.&lt;/p&gt;\n\n&lt;p&gt;The band signed to Geffen Records in the summer of 1981 and their eponymous debut album was released in March of 1982. Asia embarked on a 30-stop US tour beginning in April as their debut single “Heat Of The Moment” topped the US Rock Chart. &lt;em&gt;Asia&lt;/em&gt; quickly reached #11 in the UK and topped the US albums chart. By June, “Heat Of The Moment” had crossed over to the pop charts, &lt;a href="https://www.billboard.com/music/asia/chart-history" rel="noopener nofollow"&gt;reaching the top 10&lt;/a&gt; in the US, Germany and Switzerland, and becoming a &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Asia&amp;amp;titel=Heat+Of+The+Moment&amp;amp;cat=s" rel="noopener nofollow"&gt;minor hit in&lt;/a&gt; New Zealand, The UK and The Netherlands. The album racked up six total Rock Chart entries in the US, including another pop crossover hit with “Only Time Will Tell” and the album topped the US albums chart for nine non-consecutive weeks and was quickly certified multi-platinum. The group’s music videos were also in &lt;a href="https://originalasia.com/about/" rel="noopener nofollow"&gt;heavy rotation&lt;/a&gt; throughout 1982 on MTV and they were nominated for a Grammy for Best New Artist.&lt;/p&gt;\n\n&lt;p&gt;The band’s sophomore album &lt;em&gt;Alpha&lt;/em&gt; was almost as successful commercially, reaching #6 in the US. Its first single “Don’t Cry” gave the band its second and final Rock Chart #1 and pop crossover top 10 hit in the US. It also remains their highest charter in the UK at #33. “The Smile Has Left Your Eyes” became the band’s last US top 40 and was also a minor hit in the UK and Germany. Five songs from &lt;em&gt;Alpha&lt;/em&gt; reached the US Rock Chart top 30 that year. However, tensions had been growing in the band before the release of &lt;em&gt;Alpha&lt;/em&gt;. Geffen was &lt;a href="https://originalasia.com/about/" rel="noopener nofollow"&gt;pressuring the band&lt;/a&gt; to follow up their radio-friendly hits with more of the same. Also, personal conflicts began tearing the band apart. Cracks began to show when Wetton left the band weeks before a sold-out December 1983 show in Tokyo, forcing the band to replace him quickly with Palmer’s ex-bandmate Greg Lake.&lt;/p&gt;\n\n&lt;p&gt;Wetton returned in 1984, but soon after starting work on a third album, Howe left to form GTR with Steve Hackett of Genesis. Krokus guitarist Mandy Meyer replaced him and &lt;em&gt;Astra&lt;/em&gt; came out in late 1985, but its success paled in comparison to the two previous albums. Its lead single “Go” was a #7 US Rock Chart hit and almost made the pop top 40. Two further singles would find little success on rock radio. Soon after, the members of Asia all moved on to other projects.&lt;/p&gt;\n\n&lt;p&gt;After a failed 1987 attempt to reunite by Wetton and Downes (the demos of which were &lt;a href="https://www.discogs.com/John-Wetton-And-Geoffrey-Downes-John-WettonGeoffrey-Downes/master/560534" rel="noopener nofollow"&gt;later released&lt;/a&gt; in 2001), Wetton, Palmer and Downes officially reunited in 1989, adding guitarist Pat Thrall, and recorded four new songs that made up most of the ‘Now’ section of the 1990 compilation &lt;em&gt;Then &amp;amp; Now&lt;/em&gt; – their final album for Geffen. “Days Like These”, a new track, became a #2 US Rock Chart hit and reached #64 on the pop chart, becoming their final single to chart worldwide. Asia followed the release up with a tour, notably performing &lt;a href="https://www.allmusic.com/artist/asia-mn0000623254/biography" rel="noopener nofollow"&gt;two sold-out dates&lt;/a&gt; in Moscow for 20,000 fans.&lt;/p&gt;\n\n&lt;p&gt;When Wetton left the band again, Downes invited John Payne to replace him in 1991. Over the next thirteen years, Asia saw ever-changing membership during the release of eight studio albums that found moderate success in Germany and Japan, and occasional minor chart success in the UK and US.&lt;/p&gt;\n\n&lt;p&gt;In 2005, the original Asia lineup reunited and released three studio albums which all found varied chart success in the US, UK, Germany and Japan. Meanwhile, Payne formed ‘Asia featuring John Payne’, released &lt;a href="https://www.discogs.com/Asia-Featuring-John-Payne-Scandinavia/release/3210169" rel="noopener nofollow"&gt;a live album&lt;/a&gt; in 2007 and &lt;a href="https://web.archive.org/web/20080828084926/http://www.theasiaband.com/2008/06/03/scranton-pocono-500-fanfest-interview-with-john/" rel="noopener nofollow"&gt;began touring&lt;/a&gt; in 2008.&lt;/p&gt;\n\n&lt;p&gt;Howe again retired from Asia in 2013 and was replaced by Sam Coulson. &lt;em&gt;Gravitas&lt;/em&gt; was released in 2014 – the band’s final album before Wetton’s death in 2017. In 2022, the band (with original members Palmer &amp;amp; Downes) &lt;a href="https://www.prnewswire.com/news-releases/asia-with-original-members-carl-palmer--geoff-downes-announces-40th-anniversary-celebration-301470029.html?fbclid=IwAR26RFupiCtkNxqeoYrcR9mRTJ3cgeVuJCWsmG-k5cKhDQ9ITS2Pw8j2IIY" rel="noopener nofollow"&gt;announced&lt;/a&gt; a 40th anniversary tour with new frontman Marc Bonilla.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Ava-max', 'annotations': {'description': '&lt;p&gt;Coupling powerhouse vocals with simultaneously catchy and powerful songwriting, Ava Max is one of the fastest rising pop singers. Born Amanda Ava Koci on February 16, 1994, in Milwaukee, Wisconsin to &lt;a href="https://www.broadwayworld.com/bwwmusic/article/Ava-Max-Takes-Control-With-New-Single-My-Way-20180501" rel="noopener nofollow"&gt;Albanian immigrants&lt;/a&gt;, Max didn’t get her start in the music industry until 2017 with her feature on “&lt;a href="https://genius.com/Le-youth-clap-your-hands-lyrics" rel="noopener" data-api_path="/songs/3183877"&gt;Clap Your Hands&lt;/a&gt;”.&lt;/p&gt;\n\n&lt;p&gt;Before long, she scored her breakout hit through &lt;a href="https://genius.com/Ava-max-sweet-but-psycho-lyrics" rel="noopener" data-api_path="/songs/3905115"&gt;“Sweet but Psycho”&lt;/a&gt;, which reached number one on several music charts around the world before climbing into the top 10 of the Billboard Hot 100.&lt;/p&gt;\n\n&lt;p&gt;On September 18th 2020, her debut album was released, containing the songs “Sweet But Psycho”, &lt;a href="https://genius.com/Ava-max-salt-lyrics" rel="noopener" data-api_path="/songs/3905214"&gt;“Salt”&lt;/a&gt; and &lt;a href="https://genius.com/Ava-max-kings-and-queens-lyrics" rel="noopener" data-api_path="/songs/5183065"&gt;“Kings &amp;amp; Queens”&lt;/a&gt;. She managed to get the number one spot in the UK album charts.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/Ava-max-my-head-and-my-heart-lyrics" rel="noopener" data-api_path="/songs/6014343"&gt;“My Head &amp;amp; My Heart”&lt;/a&gt;, the promotional single for the deluxe version of the album, reached 1st place in America in the iTunes charts.&lt;/p&gt;', 'alternate_names': ['Amanda Koci', 'Amanda Kay', 'Amanda Ava Koci']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/James-blunt', 'annotations': {'description': '&lt;p&gt;A former British Army officer, singer/songwriter James Blunt is a thoughtful performer with a knack for crafting melodic contemporary soft rock tunes.&lt;/p&gt;\n\n&lt;p&gt;Born in Tidworth, Wiltshire, England in 1974 to a family with a long military history, Blunt entered the Army after graduating from the Royal Military Academy Sandhurst. Ultimately achieving the rank of captain, Blunt served with the NATO peacekeeping force in Kosovo and finished out his time in the military as a member of the Life Guard Regiment in the British Household Cavalry. Having long been interested in music, Blunt wasted no time in pursuing a pop career after leaving the Army.&lt;/p&gt;\n\n&lt;p&gt;A subsequent performance at the South by Southwest festival in Austin, Texas brought Blunt to the attention of 4 Non Blondes singer/producer Linda Perry, who signed Blunt to her Custard Records label.&lt;/p&gt;\n\n&lt;p&gt;Released in 2005, Blunt’s debut album, &lt;a href="https://genius.com/albums/James-blunt/Back-to-bedlam" rel="noopener" data-api_path="/albums/48390"&gt;&lt;em&gt;Back to Bedlam&lt;/em&gt;&lt;/a&gt;, and its hit single, &lt;a href="https://genius.com/James-blunt-youre-beautiful-lyrics" rel="noopener" data-api_path="/songs/95061"&gt;“You’re Beautiful”&lt;/a&gt;, were hugely successful – the single hit number one in over a dozen countries, and sold over ten million copies worldwide.&lt;/p&gt;\n\n&lt;p&gt;Blunt toured for much of 2005 and 2006, then released the two-disc “odds and sods” CD/DVD &lt;a href="https://genius.com/albums/James-blunt/Chasing-time-the-bedlam-sessions" rel="noopener" data-api_path="/albums/354560"&gt;&lt;em&gt;Chasing Time: The Bedlam Sessions&lt;/em&gt;&lt;/a&gt; in 2006. He had been writing songs while on the road, and brought Back to Bedlam producer Tom Rothrock in again to record. (The songs featured writing collaborations with Mark Batson, Jimmy Hogarth, Steve McEwan, and Max Martin, while the recordings featured Blunt’s live backing band.)&lt;/p&gt;\n\n&lt;p&gt;His sophomore effort, &lt;a href="https://genius.com/albums/James-blunt/All-the-lost-souls" rel="noopener" data-api_path="/albums/113071"&gt;&lt;em&gt;All the Lost Souls&lt;/em&gt;&lt;/a&gt;, featuring the leadoff single &lt;a href="https://genius.com/James-blunt-1973-lyrics" rel="noopener" data-api_path="/songs/531200"&gt;“1973”&lt;/a&gt;, finally dropped in September 2007.&lt;/p&gt;\n\n&lt;p&gt;Disillusioned by success and what he felt as a perceived loss of artistic credibility, Blunt took a break from music before coming back in 2010 with his third full-length effort, &lt;a href="https://genius.com/albums/James-blunt/Some-kind-of-trouble" rel="noopener" data-api_path="/albums/18815"&gt;&lt;em&gt;Some Kind of Trouble&lt;/em&gt;&lt;/a&gt;, a more optimistic, spontaneous album influenced by ‘70s U.S. pop/rock, which sold well despite not being critically well-received.&lt;/p&gt;\n\n&lt;p&gt;In 2012 he returned to the studio with Tom Rothrock to track his fourth album, &lt;a href="https://genius.com/albums/James-blunt/Moon-landing" rel="noopener" data-api_path="/albums/110213"&gt;&lt;em&gt;Moon Landing&lt;/em&gt;&lt;/a&gt;. Featuring &lt;a href="https://genius.com/James-blunt-miss-america-lyrics" rel="noopener" data-api_path="/songs/493595"&gt;“Miss America,”&lt;/a&gt; Blunt’s tribute to the late Whitney Houston, and the country-folk-influenced single &lt;a href="https://genius.com/James-blunt-bonfire-heart-lyrics" rel="noopener" data-api_path="/songs/197282"&gt;“Bonfire Heart,”&lt;/a&gt; the record was released in October 2013.&lt;/p&gt;\n\n&lt;p&gt;Roughly four years passed before Blunt would release another album. He returned in early 2017 with his fifth studio album, &lt;a href="https://genius.com/albums/James-blunt/The-afterlove" rel="noopener" data-api_path="/albums/327366"&gt;&lt;em&gt;The Afterlove&lt;/em&gt;&lt;/a&gt;, which featured songwriting assistance from Blunt’s friend &lt;a href="https://genius.com/artists/Ed-sheeran" rel="noopener" data-api_path="/artists/12418"&gt;Ed Sheeran&lt;/a&gt; and OneRepublic’s &lt;a href="https://genius.com/artists/Ryan-tedder" rel="noopener" data-api_path="/artists/1653"&gt;Ryan Tedder&lt;/a&gt;&lt;/p&gt;', 'alternate_names': ['James Hillier Blount']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Desireless', 'annotations': {'description': '&lt;p&gt;Claudie Fritsch-Mentrop, known by her stage name Desireless (born 25 December 1952, Paris, France), is a French singer. Between 1986 and 1988, her hit single “Voyage, voyage” made it to number one in many European and Asian single charts and sold over five million copies.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Bob', 'annotations': {'description': '&lt;p&gt;Bobby Ray Simmons, Jr. has released over &lt;strong&gt;21&lt;/strong&gt; bodies of work, that along with countless features, chart-toppers, and production-credits highlights just how hardworking this southeastern artist truly is.&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;His musical output began in 2007, releasing 3 projects that year, as well as the following year. Then, in 2009, B.o.B released &lt;em&gt;&lt;a href="https://genius.com/albums/Bob/B-o-b-vs-bobby-ray" rel="noopener" data-api_path="/albums/1016"&gt;B.o.B Vs. Bobby Ray&lt;/a&gt;&lt;/em&gt;, and was made an &lt;a href="http://www.xxlmag.com/news/2011/03/where-are-they-now-2009-freshman-recap/" rel="noopener nofollow"&gt;XXL Freshman&lt;/a&gt;, however he’d not even started to see success. That is, until the &lt;a href="https://genius.com/artists/Bruno-mars" rel="noopener" data-api_path="/artists/500"&gt;Bruno Mars&lt;/a&gt; assisted #1 single &lt;a href="https://genius.com/Bob-nothin-on-you-lyrics" rel="noopener" data-api_path="/songs/1411"&gt;“Nothin\' On You”&lt;/a&gt; was released – one of the many successful singles from his debut album &lt;em&gt;&lt;a href="https://genius.com/albums/Bob/B-o-b-presents-the-adventures-of-bobby-ray" rel="noopener" data-api_path="/albums/1010"&gt;B.o.B Presents The Adventures of Bobby Ray&lt;/a&gt;&lt;/em&gt;, which peaked at &lt;a href="http://www.billboard.com/artist/275499/bob/chart?f=305" rel="noopener nofollow"&gt;#1 on the Billboard Charts.&lt;/a&gt; The album also received favourable reviews and 5 Grammy nominations (one for &lt;a href="https://genius.com/Bob-airplanes-pt-2-lyrics" rel="noopener" data-api_path="/songs/722"&gt;“Airplanes, Pt 2 (feat. Eminem &amp;amp; Hayley Williams)”&lt;/a&gt; – Best Pop Collaboration with Vocals).&lt;/p&gt;\n\n&lt;p&gt;After this amount of success many would take a well-earned hiatus, but not B.o.B. Before 2010’s end he released his beloved mixtape &lt;em&gt;&lt;a href="https://genius.com/artists/No-genre" rel="noopener" data-api_path="/artists/515387"&gt;No Genre&lt;/a&gt;&lt;/em&gt;. Less than a year later he released another well received mixtape, &lt;em&gt;&lt;a href="https://genius.com/albums/Bob/E-p-i-c-every-play-is-crucial" rel="noopener" data-api_path="/albums/13180"&gt;E.P.I.C. (Every Play is Crucial)&lt;/a&gt;&lt;/em&gt;, which was composed of songs of the excess songs he couldn’t fit on his sophomore album, &lt;em&gt;&lt;a href="https://genius.com/albums/Bob/Strange-clouds" rel="noopener" data-api_path="/albums/12465"&gt;Strange Clouds.&lt;/a&gt;&lt;/em&gt;&lt;/p&gt;\n\n&lt;p&gt;Unfortunately, his incredible run of mainstream success couldn’t last, with his following album,  &lt;em&gt;&lt;a href="https://genius.com/albums/Bob/Underground-luxury" rel="noopener" data-api_path="/albums/35052"&gt;Underground Luxury&lt;/a&gt;&lt;/em&gt;, receiving little attention from radio. Since however, his output hasn’t diminished, with 5 mixtapes released since his 3rd studio album – this output may’ve even been greater if it hadn’t been for him founding his label ‘No Genre’ (after his mixtape), and helping to establish his roster.&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;Whatever anyone may have to say about B.o.B, no one can deny he is one of the hardest working in the industry.&lt;/p&gt;', 'alternate_names': ['Bobby Ray Simmons Jr.', 'Bobby Ray']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Sum-41', 'annotations': {'description': '&lt;p&gt;Sum 41 is a Canadian rock band from Ajax, Ontario. They formed in 1996 as a five-piece consisting of lead vocalist/rhythm guitarist &lt;a href="https://genius.com/artists/Deryck-whibley" rel="noopener" data-api_path="/artists/124140"&gt;Deryck Whibley&lt;/a&gt;, lead guitarist &lt;a href="https://genius.com/artists/Dave-baksh" rel="noopener" data-api_path="/artists/341905"&gt;Dave Baksh&lt;/a&gt;, guitarist &lt;a href="https://genius.com/artists/Tom-thacker" rel="noopener" data-api_path="/artists/1098961"&gt;Tom Thacker&lt;/a&gt;, bassist &lt;a href="https://genius.com/artists/Jason-mccaslin" rel="noopener" data-api_path="/artists/244346"&gt;Jason McCaslin&lt;/a&gt; and drummer &lt;a href="https://genius.com/artists/Stevo32" rel="noopener" data-api_path="/artists/649671"&gt;Frank Zummo&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Though they were originally called Kaspir, the group members decided to change the band’s name for a Supernova show on September 28, 1996, which happened to be the &lt;strong&gt;41&lt;/strong&gt;&lt;sup&gt;st&lt;/sup&gt; day of their &lt;strong&gt;sum&lt;/strong&gt;mer vacation. The band released their debut record as Sum 41 called &lt;a href="https://genius.com/albums/Sum-41/Half-hour-of-power" rel="noopener" data-api_path="/albums/89972"&gt;&lt;em&gt;Half Hour of Power&lt;/em&gt;&lt;/a&gt; in 2000. They followed it with the breakout sophomore record &lt;a href="https://genius.com/albums/Sum-41/All-killer-no-filler" rel="noopener" data-api_path="/albums/23564"&gt;&lt;em&gt;All Killer No Filler&lt;/em&gt;&lt;/a&gt; in 2001 and it contained several charting songs such as &lt;a href="https://genius.com/Sum-41-fat-lip-lyrics" rel="noopener" data-api_path="/songs/96082"&gt;“Fat Lip”&lt;/a&gt; and &lt;a href="https://genius.com/Sum-41-in-too-deep-lyrics" rel="noopener" data-api_path="/songs/96086"&gt;“In Too Deep.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;In 2002, the band released &lt;a href="https://genius.com/albums/Sum-41/Does-this-look-infected" rel="noopener" data-api_path="/albums/78047"&gt;&lt;em&gt;Does This Look Infected?&lt;/em&gt;&lt;/a&gt; which was also a commercial and critical success. The singles &lt;a href="https://genius.com/Sum-41-the-hell-song-lyrics" rel="noopener" data-api_path="/songs/381815"&gt;“The Hell Song”&lt;/a&gt; and &lt;a href="https://genius.com/Sum-41-still-waiting-lyrics" rel="noopener" data-api_path="/songs/389921"&gt;“Still Waiting”&lt;/a&gt; drove the band to stardom, and with their 2004 record &lt;a href="https://genius.com/albums/Sum-41/Chuck" rel="noopener" data-api_path="/albums/28847"&gt;&lt;em&gt;Chuck&lt;/em&gt;&lt;/a&gt;, they planted themselves as giants in the punk rock scene.&lt;/p&gt;\n\n&lt;p&gt;Though it was received with mixed reviews, their 2007 album &lt;a href="https://genius.com/albums/Sum-41/Underclass-hero" rel="noopener" data-api_path="/albums/42860"&gt;&lt;em&gt;Underclass Hero&lt;/em&gt;&lt;/a&gt; became the highest grossing album of the band to date. It was then followed by &lt;a href="https://genius.com/albums/Sum-41/Screaming-bloody-murder" rel="noopener" data-api_path="/albums/21310"&gt;&lt;em&gt;Screaming Bloody Murder&lt;/em&gt;&lt;/a&gt; in 2011, &lt;a href="https://genius.com/albums/Sum-41/13-voices" rel="noopener" data-api_path="/albums/157898"&gt;&lt;em&gt;13 Voices&lt;/em&gt;&lt;/a&gt; in 2016 and &lt;a href="https://genius.com/albums/Sum-41/Order-in-decline" rel="noopener" data-api_path="/albums/523533"&gt;&lt;em&gt;Order in Decline&lt;/em&gt;&lt;/a&gt; in 2019. While none of these albums have been able to reach the commercial success as their predecessors, they have nevertheless received praise from fans and critics alike.&lt;/p&gt;\n\n&lt;p&gt;Sum 41 occasionally played as an alter-ego 1980s heavy metal band called Pain for Pleasure during shows.&lt;/p&gt;\n\n&lt;p&gt;It is also hypothesized by many fans that the band’s name comes from the fact that if you take the word “fuck” and add all its letters (“F” being the 6th letter of the alphabet, “U” being number 21, etc) you get 41.&lt;/p&gt;', 'alternate_names': ['Pain for pleasure', 'Kaspir']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Hoobastank', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Hoobustank']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Eve-6', 'annotations': {'description': '&lt;p&gt;Eve 6 are an American rock band from Southern California, who are most well known for their hit singles “Inside Out”, “Here’s to the Night”, and “Victoria”. They disbanded in 2004, returned for numerous tours in 2007 with a new lineup, and finally reunited with all three original members in early 2011. They signed to Fearless Records in the spring of that year, and released their long-awaited fourth album Speak in Code, containing the singles “Victoria” and “Curtain”, in April 2012, It’s a Great band with 2 hit songs&lt;br&gt;\n“Inside Out”&lt;br&gt;\nPeaked at #28 on 12.19.1998&lt;br&gt;\n“Here’s To The Night”&lt;br&gt;\nPeaked at #30 on 7.28.2001&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/99e53bfbd299a981fa5f8b3354609834.305x225x1.jpg" alt="" width="305" height="225" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Haddaway', 'annotations': {'description': '&lt;p&gt;Nestor Alexander Haddaway (born 9 January 1965) is a Trinidadian-born German vocalist and musician  best known for his 1993 hit single “What Is Love”, which reached number 1 in 13 countries.&lt;/p&gt;', 'alternate_names': ['Nestor Haddaway', 'Nestor Alexander Haddaway']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Kansas', 'annotations': {'description': '&lt;p&gt;Kansas is an American rock band that became popular in the 1970s initially on album-oriented rock charts and later with hit singles such as &lt;a href="https://genius.com/Kansas-carry-on-wayward-son-lyrics" rel="noopener" data-api_path="/songs/94674"&gt;“Carry On Wayward Son”&lt;/a&gt; and &lt;a href="https://genius.com/Kansas-dust-in-the-wind-lyrics" rel="noopener" data-api_path="/songs/161567"&gt;“Dust in the Wind”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The band has produced nine gold albums, three multi-platinum albums, one platinum studio album, one platinum live double album, and a million-selling single, “Dust in the Wind”.&lt;/p&gt;\n\n&lt;p&gt;Kansas appeared on the Billboard charts for over 200 weeks throughout the 1970s and 1980s and played to sold-out arenas and stadiums throughout North America, Europe and Japan. “Carry On Wayward Son” was the second-most-played track on US classic rock radio in 1995 and No. 1 in 1997&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Semisonic', 'annotations': {'description': '&lt;p&gt;Semisonic is an alternative rock band from Minneapolis, Minnesota, formed by Dan Wilson, Jon Munson, and Jacob Slichter in 1995. Their 1998 album &lt;em&gt;&lt;a href="https://genius.com/albums/Semisonic/Feeling-strangely-fine" rel="noopener" data-api_path="/albums/152225"&gt;Feeling Strangely Fine&lt;/a&gt;&lt;/em&gt; contained the hit song “&lt;a href="https://genius.com/Semisonic-closing-time-lyrics" rel="noopener" data-api_path="/songs/71637"&gt;Closing Time&lt;/a&gt;”, and they are often considered a one-hit wonder. After the release of their third album, &lt;em&gt;&lt;a href="https://genius.com/albums/Semisonic/All-about-chemistry" rel="noopener" data-api_path="/albums/160158"&gt;All About Chemistry&lt;/a&gt;&lt;/em&gt;, in 2001, the band went on hiatus for 16 years. They reformed in 2017 to commemorate the twentieth anniversary of their debut album, &lt;em&gt;&lt;a href="https://genius.com/albums/Semisonic/Great-divide" rel="noopener" data-api_path="/albums/107581"&gt;Great Divide&lt;/a&gt;&lt;/em&gt;. In 2020, they released the EP &lt;em&gt;&lt;a href="https://genius.com/albums/Semisonic/Youre-not-alone-ep" rel="noopener" data-api_path="/albums/650719"&gt;You’re Not Alone&lt;/a&gt;&lt;/em&gt;, their first release of new material in 19 years.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Beck', 'annotations': {'description': '&lt;p&gt;Beck took the lo-fi sound of DIY indie rock to the &lt;a href="https://www.billboard.com/music/beck/chart-history/alternative-songs/song/23942" rel="noopener nofollow"&gt;Billboard charts&lt;/a&gt; in 1994 with his slacker anthem &lt;a href="https://genius.com/Beck-loser-lyrics" rel="noopener" data-api_path="/songs/4905"&gt;“Loser,”&lt;/a&gt; but his avant-pop palette extends well beyond the folk-rap beats and samples of that hit; encompassing everything from funk, soul, and psychedelia to wild experiments with feedback, toy instruments, and found sounds. Plus, his disjointed, surreal lyrics (which were often compared to &lt;a href="https://genius.com/albums/Bob-dylan/Highway-61-revisited" rel="noopener" data-api_path="/albums/13573"&gt;&lt;em&gt;Highway 61 Revisited&lt;/em&gt;&lt;/a&gt;-era &lt;a href="https://genius.com/artists/Bob-dylan" rel="noopener" data-api_path="/artists/181"&gt;Bob Dylan&lt;/a&gt;) made for an alt-pop sound that helped define the ‘90s and made Beck one of the most interesting musicians of his era.&lt;/p&gt;', 'alternate_names': ['Bek Campbell', 'Bek D. Campbell', 'Bek David Campbell', 'Beck D. Hansen', 'Beck David Hansen', 'Beck Hansen']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Cutee-b', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Anastacia', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Anastacia Lyn Newkirk&lt;/strong&gt; (born September 17, 1968), known simply as &lt;strong&gt;Anastacia&lt;/strong&gt;, is an American singer-songwriter, producer and former dancer. She is best known for her eclectic pop music of the early 2000s which had a significant impact in Europe and Oceania. Her first two albums &lt;a href="https://genius.com/albums/Anastacia/Not-that-kind" rel="noopener" data-api_path="/albums/170859"&gt;&lt;em&gt;“Not That Kind”&lt;/em&gt;&lt;/a&gt; (2000) and &lt;a href="https://genius.com/albums/Anastacia/Freak-of-nature" rel="noopener" data-api_path="/albums/138358"&gt;&lt;em&gt;“Freak of Nature”&lt;/em&gt;&lt;/a&gt; (2001) were released in quick succession to major success. Known for her powerful mezzo-soprano voice and her small stature of 5 feet 2 inches (157 cm), she has been dubbed “the little lady with the big voice”.&lt;/p&gt;\n\n&lt;p&gt;She has sold over 52 million records worldwide and has topped the U.S. dance chart on two separate occasions.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Smash-mouth', 'annotations': {'description': "&lt;p&gt;Smash Mouth is an American rock band from San Jose, California. The band was formed in 1994, and was originally composed of Steve Harwell (vocals), Kevin Coleman (drums), Greg Camp (guitar), and Paul De Lisle (bass). They are known for such songs as “Walkin' on the Sun” (1997) and “All Star” (1999).&lt;/p&gt;\n\n&lt;p&gt;The band has adopted retro styles covering several decades of popular music. They have also performed numerous covers of popular songs, including The Monkees' “I’m a Believer”, War’s “Why Can’t We Be Friends?”, Simple Minds' “Don’t You (Forget About Me)”, ? &amp;amp; the Mysterians’s “Can’t Get Enough of You Baby”, The Beatles' “Getting Better” and Disney’s “I Wan'na Be Like You”.&lt;/p&gt;", 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Mr-bigg', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Mr. Bigg Time', 'Donald Pears II']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Audioslave', 'annotations': {'description': '&lt;p&gt;Audioslave was an American rock supergroup that formed in Los Angeles, California in 2001 and disbanded in 2007. Its members consisted of lead vocalist/rhythm guitarist &lt;a href="https://genius.com/artists/Chris-cornell" rel="noopener" data-api_path="/artists/18435"&gt;Chris Cornell&lt;/a&gt; (who at the time broke away from the band &lt;a href="https://genius.com/artists/Soundgarden" rel="noopener" data-api_path="/artists/19976"&gt;Soundgarden&lt;/a&gt;), lead guitarist &lt;a href="https://genius.com/artists/Tom-morello" rel="noopener" data-api_path="/artists/4781"&gt;Tom Morello&lt;/a&gt;, bassist &lt;a href="https://genius.com/artists/tim-commerford" rel="noopener" data-api_path="/artists/646888"&gt;Tim Commerford&lt;/a&gt;, and drummer &lt;a href="https://genius.com/artists/brad-wilk" rel="noopener" data-api_path="/artists/646889"&gt;Brad Wilk&lt;/a&gt; (all three of which were members of the then-broken-up band &lt;a href="https://genius.com/artists/Rage-against-the-machine" rel="noopener" data-api_path="/artists/1499"&gt;Rage Against the Machine&lt;/a&gt;). Thus, they were initially described as a combination of both bands, but by the time their 2005 album &lt;em&gt;Out of Exile&lt;/em&gt; came out, they became noted as being their own band.&lt;/p&gt;\n\n&lt;p&gt;They produced three studio albums and received just as many Grammy nominations over their six years of existence, and were the first American rock band to perform an open-air concert in Cuba. Their biggest hit was &lt;a href="https://genius.com/Audioslave-like-a-stone-lyrics" rel="noopener" data-api_path="/songs/121557"&gt;“Like A Stone”&lt;/a&gt; from their 2002 self-titled debut album.&lt;/p&gt;\n\n&lt;p&gt;They broke up in 2007 due to “irresolvable personality conflicts as well as musical differences”, according to Cornell, which was later solidified by the reunion tour of Rage and solo album releases by Morello and Cornell in the same year.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Duck-sauce', 'annotations': {'description': '&lt;p&gt;Duck Sauce is the producer duo comprised of A-Trak and Armand Van Helden, who have taken the world by storm with tracks like “aNYway” and “Barbra Streisand,” which joyously mash classic disco house with forward-thinking dancefloor energy and expert production. A-Trak and AVH are bona fide DJ heroes whose team-ups are fueled by anything-goes samples, an almost childlike sense of fun, and 100% NYC attitude. This approach has made Duck Sauce fans-for-life out of partygoers around the globe.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Lana-del-rey', 'annotations': {'description': '&lt;blockquote&gt;&lt;p&gt;&lt;em&gt;Lana Del Rey has one of the most enigmatic personalities of modern pop, and it’s won her one of the most devoted audiences of the 2010s.&lt;/em&gt;&lt;br&gt;\n— &lt;a href="http://www.billboard.com/articles/columns/pop/7710162/lana-del-rey-lyrics-songs-prove-step-ahead-haters" rel="noopener nofollow"&gt;&lt;em&gt;Billboard&lt;/em&gt;&lt;/a&gt;&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Elizabeth Woolridge Grant (b. June 21, 1985), best known by her stage name Lana Del Rey, is an icon of modern alternative singing and songwriting.&lt;/p&gt;\n\n&lt;hr&gt;  \n\n\n&lt;p&gt;At age 18, Lana began performing in clubs around Brooklyn, NY under various monikers including Lizzy Grant, May Jailer, and Sparkle Rope Jump Queen. Around the same time, she began attending &lt;a href="https://www.fordham.edu/" rel="noopener nofollow"&gt;Fordham University&lt;/a&gt; in &lt;a href="https://en.wikipedia.org/wiki/The_Bronx" rel="noopener nofollow"&gt;The Bronx&lt;/a&gt;, where she majored in philosophy with a specific focus on metaphysics.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I was interested in God and how technology could bring us closer to finding out where we came from and why,&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;she said about her degree. The theme of God and science remains persistent in all of her music, as well as the effects of attending a Christian high school.&lt;/p&gt;\n\n&lt;p&gt;She signed her first recording contract with 5 Points Records in 2007 and her first digital album, &lt;a href="https://genius.com/albums/Lana-del-rey/Lana-del-ray" rel="noopener" data-api_path="/albums/23389"&gt;&lt;em&gt;Lana Del Ray a.k.a. Lizzy Grant&lt;/em&gt;&lt;/a&gt;, was released in January 2010.&lt;/p&gt;\n\n&lt;p&gt;Traces of this era can still be found online but this commercially unsuccessful epoch was ultimately abandoned to make way for the rebrand of Lana Del Rey.&lt;/p&gt;\n\n&lt;p&gt;In 2011, &lt;a href="https://www.youtube.com/watch?v=cE6wxDqdOV0" rel="noopener nofollow"&gt;a homemade music video&lt;/a&gt; for &lt;a href="https://genius.com/Lana-del-rey-video-games-lyrics" rel="noopener" data-api_path="/songs/64755"&gt;“Video Games”&lt;/a&gt; was uploaded to Lana’s YouTube channel. The track became a viral sensation, sparking widespread interest in the artist, and she signed with Interscope/Polydor in the October of that year. On the acknowledgements for her fifth studio album, &lt;a href="https://genius.com/albums/Lana-del-rey/Lust-for-life" rel="noopener" data-api_path="/albums/331260"&gt;&lt;em&gt;Lust for Life&lt;/em&gt;&lt;/a&gt; she wrote&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Abel, I still think of the day u posted video games on your Tumblr. Grateful for u.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Here, she is referring the R&amp;amp;B-Hip-Hop singer and frequent collaborator, &lt;a href="https://genius.com/artists/The-weeknd" rel="noopener" data-api_path="/artists/2358"&gt;The Weeknd&lt;/a&gt;. Their friendship eventually blossomed into a collaboration on the title track for said album as well as &lt;a href="https://genius.com/The-weeknd-stargirl-interlude-lyrics" rel="noopener" data-api_path="/songs/2911566"&gt;“Stargirl Interlude”&lt;/a&gt; on The Weeknd’s album &lt;a href="https://genius.com/albums/The-weeknd/Starboy" rel="noopener" data-api_path="/albums/221906"&gt;&lt;em&gt;Starboy&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Since then, Lana has since delivered a flair unlike any other artist of her generation, praised for its cinematic sound and references to various aspects of pop culture, particularly that of the 1950s and 1960s Americana.&lt;/p&gt;\n\n&lt;p&gt;After many studio releases that were removed from streaming platforms to make way for her rebrand, &lt;a href="https://www.vogue.co.uk/article/lana-del-rey-interview" rel="noopener nofollow"&gt;Lana explained the meaning of her stage name&lt;/a&gt; and how it was influenced by her time in Florida while in college.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I wanted a name I could shape the music towards. I was going to Miami quite a lot at the time, speaking a lot of Spanish with my friends from Cuba – Lana Del Rey reminded us of the glamour of the seaside. It sounded gorgeous coming off the tip of the tongue.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Before using &lt;em&gt;Del Rey&lt;/em&gt;, she initially chose the alternate spelling &lt;em&gt;Lana Del Ray&lt;/em&gt; and released an album under that name, but ultimately chose the latter moving forward.&lt;/p&gt;\n\n&lt;p&gt;On January 27, 2012, Lana’s first major-label project, &lt;a href="https://genius.com/albums/Lana-del-rey/Born-to-die" rel="noopener" data-api_path="/albums/14533"&gt;&lt;em&gt;Born to Die&lt;/em&gt;&lt;/a&gt;, was released. Despite mixed reviews from critics, it is the second-longest charting album on the Billboard 200 by a female artist, and gave Lana her best-known smash hit &lt;a href="https://genius.com/Lana-del-rey-summertime-sadness-lyrics" rel="noopener" data-api_path="/songs/64764"&gt;“Summertime Sadness”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Later that year, the Grammy-nominated EP &lt;a href="https://genius.com/albums/Lana-del-rey/Paradise" rel="noopener" data-api_path="/albums/23755"&gt;&lt;em&gt;Paradise&lt;/em&gt;&lt;/a&gt; was released, and was packaged alongside the &lt;a href="https://genius.com/albums/Lana-del-rey/Born-to-die-the-paradise-edition" rel="noopener" data-api_path="/albums/696755"&gt;reissue&lt;/a&gt; of &lt;em&gt;Born to Die&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;Two years later, the atmospheric album &lt;a href="https://genius.com/albums/Lana-del-rey/Ultraviolence" rel="noopener" data-api_path="/albums/93816"&gt;&lt;em&gt;Ultraviolence&lt;/em&gt;&lt;/a&gt; was released, showcasing a slightly darker sound and theme. The term comes from the Anthony Burgess novel, &lt;em&gt;A Clockwork Orange&lt;/em&gt;, and refers to excessive or unjustified violence.&lt;/p&gt;\n\n&lt;p&gt;2015 saw the arrival of &lt;a href="https://genius.com/albums/Lana-del-rey/Honeymoon" rel="noopener" data-api_path="/albums/126114"&gt;&lt;em&gt;Honeymoon&lt;/em&gt;&lt;/a&gt; which Lana &lt;a href="https://youtu.be/QBrApmX2QfQ?t=184" rel="noopener nofollow"&gt;described&lt;/a&gt; as being “a tribute to Los Angeles”. The album became the subject of much critical acclaim, garnering the most praise of all of her projects before it, with some even calling it her best work yet.&lt;/p&gt;\n\n&lt;p&gt;Her fifth studio album &lt;a href="https://genius.com/albums/Lana-del-rey/Lust-for-life" rel="noopener" data-api_path="/albums/331260"&gt;&lt;em&gt;Lust For Life&lt;/em&gt;&lt;/a&gt; followed in 2017, packing some high-profile features with artists including &lt;a href="https://genius.com/artists/The-weeknd" rel="noopener" data-api_path="/artists/2358"&gt;The Weeknd&lt;/a&gt;, &lt;a href="https://genius.com/artists/A-ap-rocky" rel="noopener" data-api_path="/artists/12417"&gt;A$AP Rocky&lt;/a&gt;, &lt;a href="https://genius.com/artists/Playboi-carti" rel="noopener" data-api_path="/artists/289976"&gt;Playboi Carti&lt;/a&gt; and &lt;a href="https://genius.com/artists/Stevie-nicks" rel="noopener" data-api_path="/artists/21747"&gt;Stevie Nicks&lt;/a&gt;. &lt;em&gt;Billboard&lt;/em&gt; &lt;a href="https://www.billboard.com/articles/columns/pop/8527901/lana-del-rey-billboard-cover-story-2019" rel="noopener nofollow"&gt;called it&lt;/a&gt; a “new-age folk” record and it was named in the Top 50 Best Album of the Year lists by several high-profile music publications.&lt;/p&gt;\n\n&lt;p&gt;After much anticipation, teasing and at least one deferred release date, on August 30, 2019, &lt;a href="https://genius.com/albums/Lana-del-rey/Norman-fucking-rockwell" rel="noopener" data-api_path="/albums/459810"&gt;&lt;em&gt;Norman Fucking Rockwell!&lt;/em&gt;&lt;/a&gt; was debuted to the world. This album earned her Grammy nominations and places on year-end lists, launching her further than ever into the limelight.&lt;/p&gt;\n\n&lt;p&gt;Only days after &lt;em&gt;NFR!&lt;/em&gt;’s release, in &lt;a href="https://www.thetimes.co.uk/article/lana-del-rey-interview-trump-is-hurting-people-and-encouraging-violence-h5q9cxzsd" rel="noopener nofollow"&gt;an interview with &lt;em&gt;The Times&lt;/em&gt;&lt;/a&gt;, Lana confirmed that a new project entitled &lt;a href="https://genius.com/albums/Lana-del-rey/Chemtrails-over-the-country-club" rel="noopener" data-api_path="/albums/621392"&gt;&lt;em&gt;Chemtrails Over the Country Club&lt;/em&gt;&lt;/a&gt; (originally called as &lt;em&gt;White Hot Forever&lt;/em&gt;) was in the works with a potential release in 2020. Nearing the end of 2019, Lana also &lt;a href="https://www.instagram.com/p/B6RioLjJl4P/" rel="noopener nofollow"&gt;announced&lt;/a&gt; she would be releasing a spoken word poetry album on January 4th, 2020, as the book itself was taking long to hand-bind.&lt;/p&gt;\n\n&lt;p&gt;Similar to the way &lt;a href="https://genius.com/albums/Lana-del-rey/Chemtrails-over-the-country-club" rel="noopener" data-api_path="/albums/621392"&gt;&lt;em&gt;Chemtrails Over The Country Club&lt;/em&gt;&lt;/a&gt; was announced, Lana took to &lt;a href="https://www.instagram.com/p/CMqBcHah785/" rel="noopener nofollow"&gt;Instagram&lt;/a&gt;  after the release of &lt;a href="https://genius.com/albums/Lana-del-rey/Chemtrails-over-the-country-club" rel="noopener" data-api_path="/albums/621392"&gt;&lt;em&gt;Chemtrails&lt;/em&gt;&lt;/a&gt; to announce a follow-up eighth studio album called &lt;a href="https://genius.com/albums/Lana-del-rey/Blue-banisters" rel="noopener" data-api_path="/albums/749828"&gt;&lt;em&gt;Blue Banisters&lt;/em&gt;&lt;/a&gt; that is expected to be released on July 4th, 2021. Three singles from &lt;em&gt;Blue Banisters&lt;/em&gt; were released on May 20th, 2021.&lt;/p&gt;\n\n&lt;hr&gt;  \n\n\n&lt;p&gt;A visual artist as well as performer, Del Rey has released a number of music videos, including a short music film that she wrote, directed and starred in, titled &lt;a href="https://genius.com/albums/Lana-del-rey/Tropico-ep" rel="noopener" data-api_path="/albums/249618"&gt;&lt;em&gt;Tropico&lt;/em&gt;&lt;/a&gt;. The piece features dark undertones and haunting scenes of vintage technicolor.&lt;/p&gt;\n\n&lt;p&gt;Lana’s lyrics explore a broad range of intricate topics such as love and relationships, famous icons and her idols, her own experiences with fame, pop culture, religion, patriotism and nostalgia.&lt;br&gt;\nShe uniquely encapsulates a mix of magic, glamour and beauty, intertwined with grit, destruction and sadness. &lt;em&gt;Vogue UK&lt;/em&gt; &lt;a href="https://www.vogue.co.uk/article/lana-del-rey-interview" rel="noopener nofollow"&gt;published an interview&lt;/a&gt; with Lana in late 2011 where it was revealed that she refers to her musical artistry as “Hollywood sadcore”.&lt;/p&gt;\n\n&lt;p&gt;Lana’s catalog of work is not made up of a constant stream of mainstream radio hits, and she continues to remain singular in her style of writing and singing, showing no similarity to any artist in modern pop or alternative music.&lt;/p&gt;', 'alternate_names': ['Lana Del Ray', 'Elizabeth Grant', 'Sparkle Jump Rope Queen', 'Lizzy Grant', 'May Jailer', 'Elizabeth Woolridge Grant']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-lemonheads', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Macklemore-and-ryan-lewis', 'annotations': {'description': '&lt;p&gt;Macklemore &amp;amp; Ryan Lewis are a hip-hop duo from Seattle, Washington, comprised of rapper &lt;a href="https://genius.com/artists/Macklemore" rel="noopener" data-api_path="/artists/2026"&gt;&lt;strong&gt;Macklemore&lt;/strong&gt;&lt;/a&gt; and producer &lt;a href="https://genius.com/artists/Ryan-lewis" rel="noopener" data-api_path="/artists/2025"&gt;&lt;strong&gt;Ryan Lewis&lt;/strong&gt;&lt;/a&gt; which formed in 2008. Together they have made two studio albums &lt;a href="https://genius.com/albums/Macklemore-and-ryan-lewis/The-heist" rel="noopener" data-api_path="/albums/22968"&gt;&lt;em&gt;The Heist&lt;/em&gt;&lt;/a&gt;, in 2012, and &lt;a href="https://genius.com/albums/Macklemore-and-ryan-lewis/This-unruly-mess-i-ve-made" rel="noopener" data-api_path="/albums/141904"&gt;&lt;em&gt;This Unruly Mess I’ve Made&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt; &lt;a href="https://genius.com/albums/Macklemore-and-ryan-lewis/The-heist" rel="noopener" data-api_path="/albums/22968"&gt;&lt;em&gt;The Heist&lt;/em&gt;&lt;/a&gt; spawned two number one singles &lt;a href="https://genius.com/Macklemore-and-ryan-lewis-cant-hold-us-lyrics" rel="noopener" data-api_path="/songs/57234"&gt;“Can’t Hold Us”&lt;/a&gt; and &lt;a href="https://genius.com/Macklemore-and-ryan-lewis-thrift-shop-lyrics" rel="noopener" data-api_path="/songs/86538"&gt;“Thrift Shop”&lt;/a&gt; by mixing poppy, likeable beats with catchy hooks. They also had a hit with the gay rights song &lt;a href="https://genius.com/Macklemore-and-ryan-lewis-same-love-lyrics" rel="noopener" data-api_path="/songs/81672"&gt;“Same Love”&lt;/a&gt; featuring &lt;a href="https://genius.com/artists/Mary-lambert" rel="noopener" data-api_path="/artists/22717"&gt;Mary Lambert&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Their second album &lt;a href="https://genius.com/albums/Macklemore-and-ryan-lewis/This-unruly-mess-i-ve-made" rel="noopener" data-api_path="/albums/141904"&gt;&lt;em&gt;This Unruly Mess I’ve Made&lt;/em&gt;&lt;/a&gt; was released in February\u200b 2016, preceded by the single &lt;a href="https://genius.com/Macklemore-and-ryan-lewis-downtown-lyrics" rel="noopener" data-api_path="/songs/2291611"&gt;“Downtown”&lt;/a&gt; featuring hip-hop legends &lt;a href="https://genius.com/artists/Grandmaster-melle-mel" rel="noopener" data-api_path="/artists/9911"&gt;Grandmaster Melle Mell&lt;/a&gt; and &lt;a href="https://genius.com/artists/Grandmaster-caz" rel="noopener" data-api_path="/artists/5137"&gt;Grandmaster Caz&lt;/a&gt;.  They also released the &lt;a href="http://pitchfork.com/thepitch/1003-macklemores-white-privilege-ii-is-a-mess-but-we-should-talk-about-it/" rel="noopener nofollow"&gt;controversial&lt;/a&gt; song &lt;a href="https://genius.com/Macklemore-and-ryan-lewis-white-privilege-ii-lyrics" rel="noopener" data-api_path="/songs/2411196"&gt;“White Privilege II”&lt;/a&gt; as a promotional single, which explored the ideas of white privilege and the Black Lives Matter movement.&lt;/p&gt;\n\n&lt;p&gt;In 2016, Macklemore and Ryan Lewis amicably split for the time being and Macklemore has since released &lt;a href="https://genius.com/albums/Macklemore/Gemini" rel="noopener" data-api_path="/albums/358991"&gt;a solo album&lt;/a&gt;. However, one cannot rule out the possibility that there will be more Macklemore &amp;amp; Ryan Lewis music in the future.&lt;/p&gt;', 'alternate_names': ['Ryan Lewis &amp; Macklemore']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Vassy', 'annotations': {'description': '&lt;p&gt;One of the most highly sought-after vocalists around the world in dance music, VASSY, the Australian powerhouse has quite an impressive track record of massive collaborations under her belt.  Her discography includes a myriad of chart-topping multi platinum records with prolific acts including Tiesto, David Guetta, Afrojack, KSHMR, &amp;amp; many more.&lt;br&gt;\nHere to prove she has no intention of slowing down, VASSY is maintaining her momentum with a brand-new summer anthem “Doomsday” with award-winning producer &amp;amp; remixer of the year Lodato.  The hypnotic record is now available via SONY Red’s KMV Music, an imprint spearheaded by VASSY herself.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/c67fbbef0a552835dd7e35108c09a5d7.1000x1000x1.jpg" alt="" width="1000" height="1000" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Cedric-gervais', 'annotations': {'description': '&lt;p&gt;Cédric Gervais is a Grammy Award-winning French DJ and producer of house music. He released the electro-house song “Molly” in 2012, which was heavily sampled in the song of the same name by rapper Tyga.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Zayn', 'annotations': {'description': '&lt;p&gt;Zain Javadd “Zayn” Malik is an English/Pakistani singer and songwriter, and a former member of the boy band &lt;a href="https://genius.com/artists/One-direction" rel="noopener" data-api_path="/artists/19657"&gt;One Direction&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2010, Malik auditioned for the British television series &lt;em&gt;The X Factor&lt;/em&gt;. After being eliminated as a solo performer, Malik was brought back into the competition, along with four other contestants, to form the group that would later be known as One Direction. During Zayn’s time in the band, they released four commercially successful albums, performed on a worldwide tour, and won several awards.&lt;/p&gt;\n\n&lt;p&gt;In March 2015, Malik’s representative announced the singer’s departure from the band, and Malik signed a solo recording contract with RCA Records. On November 17th, 2015, through an interview for &lt;em&gt;The Fader&lt;/em&gt;, Malik teased the release of a new song, &lt;a href="https://genius.com/Zayn-malik-befour-lyrics" rel="noopener" data-api_path="/songs/2372597"&gt;“Befour”&lt;/a&gt;, from his debut album &lt;a href="https://genius.com/albums/Zayn/Mind-of-mine" rel="noopener" data-api_path="/albums/142850"&gt;&lt;em&gt;Mind Of Mine&lt;/em&gt;&lt;/a&gt;. Lead single &lt;a href="https://genius.com/Zayn-pillowtalk-lyrics" rel="noopener" data-api_path="/songs/2414425"&gt;“PILLOWTALK”&lt;/a&gt; debuted at #1 on the Hot 100, becoming Zayn’s first number one single. By reaching #1 in the US, it achieved something that One Direction never did—their best ranking was #2 with &lt;a href="https://genius.com/One-direction-best-song-ever-lyrics" rel="noopener" data-api_path="/songs/194065"&gt;“Best Song Ever.”&lt;/a&gt;&lt;/p&gt;', 'alternate_names': ['Zain Malik', 'Zayn J. Malik', 'Zain Javadd "Zayn" Malik', 'Zain Javadd Malik', 'Zayn Malik']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Freddie-mercury', 'annotations': {'description': '&lt;p&gt;Farrokh Bulsara, of Parsi heritage (Zoroastrian)/ethnicity, was born in 1946 in the British protectorate/sultanate Zanzibar (now part of Tanzania).  In 1964 the Bulsara family moved to England, fleeing the Zanzibar Revolution.&lt;/p&gt;\n\n&lt;p&gt;In 1970 the aspiring and ambitious artist changed his name to Freddie Mercury and formed the band &lt;a href="https://genius.com/artists/Queen" rel="noopener" data-api_path="/artists/563"&gt;Queen&lt;/a&gt; with guitarist &lt;a href="https://genius.com/artists/Brian-may" rel="noopener" data-api_path="/artists/16631"&gt;Brian May&lt;/a&gt; and drummer &lt;a href="https://genius.com/artists/Roger-taylor" rel="noopener" data-api_path="/artists/359481"&gt;Roger Taylor&lt;/a&gt;.  Bassist &lt;a href="https://genius.com/artists/John-deacon" rel="noopener" data-api_path="/artists/384923"&gt;John Deacon&lt;/a&gt; joined in 1971.&lt;/p&gt;\n\n&lt;p&gt;Mercury died at the age of 45 and has since become regarded as one of the greatest singers and frontmen in rock music history.  His dynamic, powerful voice and theatricality mesmerized audiences; his ability to connect and engage with stadium-sized crowds – no matter what language – became legendary.&lt;/p&gt;\n\n&lt;p&gt;Mercury’s songwriting, musically eclectic and complex, became uncannily accessible when he penned “&lt;a href="https://genius.com/Queen-Killer-queen-lyrics" rel="noopener" data-api_path="/songs/75244"&gt;Killer Queen&lt;/a&gt;”, the hit single which drove the popularity of Queen’s 3rd album, turning the struggling-4-year-old band into bonafide rock stars by late 1974. However, financially they were bankrupt; Freddie’s ability to obtain [Elton John]’s manager, [John Reed] was a masterstroke in driving the next album’s success, in every respect.&lt;/p&gt;\n\n&lt;p&gt;Mercury’s tour-de-force chart-busting “&lt;a href="https://genius.com/Queen-bohemian-rhapsody-lyrics" rel="noopener" data-api_path="/songs/1063"&gt;Bohemian Rhapsody&lt;/a&gt;” marked Queen’s rise to mega-stardom in very late 1975.  It was the first hit from &lt;a href="https://genius.com/albums/Queen/A-night-at-the-opera" rel="noopener" data-api_path="/albums/35169"&gt;&lt;em&gt;A Night At The Opera&lt;/em&gt;&lt;/a&gt;, Queen’s 4th LP, the musical (and commercial) force brought on by all four of &lt;a href="https://genius.com/artists/Queen" rel="noopener" data-api_path="/artists/563"&gt;Queen&lt;/a&gt;’s men (all of whom were songwriters), from studio to stadium.&lt;/p&gt;\n\n&lt;p&gt;Queen toured relentlessly for each album, mastering the art of “spectacle”, offering OTP showmanship and theatrics, an ever-present element to the band upon inception, thanks to Freddie’s insistence.  Queen became a unique brand of stadium rock,  transcending borders and music charts from country-to-country, and by 1981, those in Latin America, risky territory at the time for a band so popular.&lt;/p&gt;\n\n&lt;p&gt;Mercury’s solo work (contrary to the 2018 blockbuster biopic’s dramatic license, Queen’s frontman never desired to “go solo”)  is limited to various singles and two studio albums-proper, 1985’s &lt;a href="https://genius.com/albums/Freddie-mercury/Mr-bad-guy" rel="noopener" data-api_path="/albums/113564"&gt;&lt;em&gt;Mr. Bad Guy&lt;/em&gt;&lt;/a&gt;, and 1988’s &lt;a href="https://genius.com/albums-Freddie-mercury/Barcelona-special-edition" rel="noopener"&gt;&lt;em&gt;Barcelona&lt;/em&gt;&lt;/a&gt;, his opera-meets-rock LP featuring his opera idol’s chops, the legendary soprano &lt;a href="https://genius.com/artists/Montserrat-caballe" rel="noopener" data-api_path="/artists/361801"&gt;Montserrat Caballé&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Just over two decades since John Deacon had completed Queen’s classic lineup in 1971, Mercury died, in November 24, 1991.&lt;/p&gt;', 'alternate_names': ['Frederick Mercury', 'Farrokh Bulsara']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Deee-lite', 'annotations': {'description': '&lt;p&gt;Deee-Lite was comprised of three members. Lady Miss Kier, the lead singer, met Super DJ Dmitry Brill in New York. They started dating and got swept up in the New York dance music scene. They met DJ Towa Tei at a club and thus the group was formed. The group was known for its positive world-unifying message and ‘70s-inspired fashion aesthetic.&lt;/p&gt;\n\n&lt;p&gt;Dee-Lite dropped three albums in quick succession—&lt;em&gt;World Clique&lt;/em&gt; (1990), &lt;em&gt;Infinity Within&lt;/em&gt; (1992), and &lt;em&gt;Dewdrops in the Garden&lt;/em&gt; (1994). Their biggest hit came at the beginning however—&lt;a href="https://genius.com/Deee-lite-groove-is-in-the-heart-lyrics" rel="noopener" data-api_path="/songs/32351"&gt;“Groove Is In The Heart”&lt;/a&gt; from their debut album was a major hit worldwide.&lt;/p&gt;\n\n&lt;p&gt;The group dissolved in 1996 due to creative differences.  All three now mainly work as headlining club DJs, with Lady Miss Kier also doing side work as a fashion consultant and public speaker.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Eddie-rabbitt', 'annotations': {'description': '&lt;p&gt;Edward Thomas Rabbitt was born November 27, 1941 in Brooklyn, New York to Irish immigrant parents.  He was raised in East Orange, New Jersey.  On his 35th birthday, he married Janine Girardi.  They had three children.  One daughter, Demelza, and two sons, Timmy &amp;amp; Tommy.  Timmy was born with biliary atresia and died in childhood after a failed liver transplant intended to save his life.  In March 1997, Eddie learned that he had lung cancer.  He passed away on May 7, 1998.  Rabbitt received several awards over the years.  The Academy of Country Music Awards Top New Male Vocalist in 1977.  Music City News Country Songwriter of the Year and BMI’s Robert J. Burton Award for &lt;a href="https://genius.com/Eddie-rabbitt-suspicions-lyrics" rel="noopener" data-api_path="/songs/2278080"&gt;“Suspicions”&lt;/a&gt; in 1979. 1980 brought BMI’s Song of the Year for “Suspicions.”  In 1996 he pulled in BMI’s Three Million-Air Award and Two Million-Air Awards for &lt;a href="https://genius.com/Eddie-rabbitt-i-love-a-rainy-night-lyrics" rel="noopener" data-api_path="/songs/146840"&gt;“I Love a Rainy Night”&lt;/a&gt; and &lt;a href="https://genius.com/Eddie-rabbitt-kentucky-rain-lyrics" rel="noopener" data-api_path="/songs/1030438"&gt;“Kentucky Rain”&lt;/a&gt;, respectively.  He was inducted into the Nashville Songwriters Hall of Fame the year of his death, 1998.  Eddie’s final #1 hit came in 1989 with &lt;a href="https://genius.com/Eddie-rabbitt-on-second-thought-lyrics" rel="noopener" data-api_path="/songs/2263489"&gt;“On Second Thought”&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Edward Rabbitt', 'Edward Thomas Rabbitt']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Joey-ramone', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Jeff Hyman', 'Jeffrey Hyman', 'Jeffrey Ross Hyman']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Billie-eilish', 'annotations': {'description': '&lt;p&gt;Billie Eilish Pirate Baird O\'Connell (b. December 18, 2001), known professionally as Billie Eilish, is an American singer and songwriter born and raised in Los Angeles, California.&lt;/p&gt;\n\n&lt;p&gt;Working alongside her older brother &lt;a href="https://genius.com/artists/Finneas" rel="noopener" data-api_path="/artists/615565"&gt;Finneas&lt;/a&gt;, her co-writer and producer, she’s taken the internet by storm with her haunting vocals and eerily beautiful lyrics and genre-defying production that was poised to breakout.&lt;/p&gt;\n\n&lt;p&gt;For Billie, creating music wasn’t always her niche—dancing was. Born and raised in the entertainment mecca of Los Angeles, from a family comprised of musicians and actors, Billie was enthralled in the spotlight of dance. However, amid a &lt;a href="https://www.interviewmagazine.com/music/discovery-billie-eilish" rel="noopener nofollow"&gt;growth plate injury in 2015&lt;/a&gt;, she was in practice for a recital dancing eleven hours a week for, she became an underground pop sensation.&lt;/p&gt;\n\n&lt;p&gt;Singing and songwriting had never been unknown to Billie, having &lt;a href="http://www.bbc.com/news/entertainment-arts-40580489" rel="noopener nofollow"&gt;written her first song at four and joined the Los Angeles Children’s Choir at eight&lt;/a&gt;. &lt;a href="https://www.harpersbazaar.com/culture/art-books-music/a13040159/billie-eilish-interview/" rel="noopener nofollow"&gt;So when her dance instructor was looking for a song to choreograph&lt;/a&gt;, Billie, with help from Finneas, created &lt;a href="https://genius.com/Billie-eilish-ocean-eyes-lyrics" rel="noopener" data-api_path="/songs/2403346"&gt;“ocean eyes.”&lt;/a&gt; The two also agreed to upload it to SoundCloud, where it went viral with over two million streams, landing her a record deal with Interscope.&lt;/p&gt;\n\n&lt;p&gt;From there, &lt;a href="https://open.spotify.com/artist/6qqNVTkY8uBg9cP3Jd7DAH" rel="noopener nofollow"&gt;several remixes spawned and a follow-up single&lt;/a&gt; &lt;a href="https://genius.com/Billie-eilish-six-feet-under-lyrics" rel="noopener" data-api_path="/songs/2800298"&gt;“Six Feet Under”&lt;/a&gt; &lt;a href="https://open.spotify.com/artist/6qqNVTkY8uBg9cP3Jd7DAH" rel="noopener nofollow"&gt;was released the following year.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;In 2017, she released her debut EP, &lt;a href="https://genius.com/albums/Billie-eilish/Dont-smile-at-me-ep" rel="noopener" data-api_path="/albums/353310"&gt;&lt;i&gt;dont smile at me&lt;/i&gt;&lt;/a&gt;, which received mainstream applause and landed her a spot on Apple Music’s showcase for upcoming artists, &lt;a href="https://itunes.apple.com/us/show/up-next-billie-eilish/1271486673" rel="noopener nofollow"&gt;&lt;i&gt;UpNext&lt;/i&gt;.&lt;/a&gt; The EP also hit the top 40 on the &lt;a href="https://www.billboard.com/articles/columns/chart-beat/8467303/billboard-200-chart-moves-billie-eilishs-dont-smile-at-me-top-40" rel="noopener nofollow"&gt;&lt;i&gt;Billboard 200&lt;/i&gt;&lt;/a&gt; on July 19th.&lt;/p&gt;\n\n&lt;p&gt;On March 29th, 2019, Billie Eilish released her highly anticipated debut album, &lt;a href="https://genius.com/albums/Billie-eilish/When-we-all-fall-asleep-where-do-we-go" rel="noopener" data-api_path="/albums/418893"&gt;&lt;em&gt;WHEN WE ALL FALL ASLEEP, WHERE DO WE GO?&lt;/em&gt;&lt;/a&gt; — a record centered around Eilish’s fascination with dreams and nightmares. Two weeks before its release, the album was officially &lt;a href="https://www.macrumors.com/2019/03/22/billie-eilish-breaks-record-pre-adding/" rel="noopener nofollow"&gt;given the title&lt;/a&gt; of “most pre-saved album of all time on Apple Music,” with over 800,000 to its name.&lt;/p&gt;\n\n&lt;p&gt;In 2020, Billie Eilish was nominated for 6 categories for the &lt;a href="https://www.grammy.com/grammys/news/2020-grammy-awards-nominations-complete-winners-list" rel="noopener nofollow"&gt;62nd Grammy Awards&lt;/a&gt; ceremony, alongside with her brother Finneas. She was nominated in the five main categories (“Album of the Year”, “Best New Artist”, “Best Pop Solo Performance”, “Song of the Year”, Record of the Year") and “Best Pop Vocal Album”. Finneas was nominated in “Producer of the Year – non classical” and he won. Eilish won 5 Grammys in the 62nd ceremony: Album of the Year (“WHEN WE ALL FALL ASLEEP, WHERE DO WE GO ?”), Song of the Year (“bad guy”), Record of the Year (“bad guy”), Best New Artist and Best Pop Vocal Album (“WHEN WE ALL FALL ASLEEP, WHERE DO WE GO ?).&lt;/p&gt;\n\n&lt;p&gt;In 2021, Billie and Finneas also won in the &lt;a href="https://www.grammy.com/grammys/news/2021-grammys-complete-winners-nominees-list" rel="noopener nofollow"&gt;63rd Grammy Awards&lt;/a&gt; with two categories: Best Song Written for a Visual Media (“&lt;a href="https://genius.com/Billie-eilish-no-time-to-die-lyrics" rel="noopener" data-api_path="/songs/5173169"&gt;No Time To Die&lt;/a&gt;”, for the last James Bond movie) and Record of the Year (“&lt;a href="https://genius.com/Billie-eilish-everything-i-wanted-lyrics" rel="noopener" data-api_path="/songs/5013279"&gt;everything i wanted&lt;/a&gt;”, released in 2019).&lt;/p&gt;\n\n&lt;p&gt;On April 26, 2021, Billie Eilish &lt;a href="https://twitter.com/billieeilish/status/1386711797906898946" rel="noopener nofollow"&gt;teased&lt;/a&gt; the album’s title track, &lt;a href="https://genius.com/Billie-eilish-happier-than-ever-lyrics" rel="noopener" data-api_path="/songs/6533253"&gt;&lt;em&gt;Happier Than Ever.&lt;/em&gt;&lt;/a&gt; Shortly after, &lt;a href="https://twitter.com/kelsucker/status/1387018534337843200" rel="noopener nofollow"&gt;billboards&lt;/a&gt; appeared in different locations that revealed the album’s title and release date of July 30, 2021, and an &lt;a href="https://www.instagram.com/p/COLIii2FB_R/?utm_source=ig_web_copy_link" rel="noopener nofollow"&gt;Instagram post&lt;/a&gt; from April 27 revealed the album’s cover artwork and announced the release of a new single on April 29, 2021. Eilish &lt;a href="https://www.musictimes.com/articles/82556/20210730/billie-eilish-breaks-record-happier-listen.htm" rel="noopener nofollow"&gt;broke her previous record&lt;/a&gt; for the most pre-saved album with a whopping 1,028,000 pre-saves for &lt;em&gt;Happier Than Ever.&lt;/em&gt;&lt;/p&gt;', 'alternate_names': ["Billie Eilish O'Connell", "Billie O'Connell", "Billie Eilish Pirate Baird O'Connell"]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Cameo', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-cardigans', 'annotations': {'description': '&lt;p&gt;One of the most pleasing pop groups of the ‘90s, the Cardigans specialized in sugary confections that would grow annoying very quickly if they weren’t backed by solid musicianship and clever arrangements. The band’s 1995 breakout album, Life, reflected the Cardigans at their most saccharine – the sunny disposition of vocalist Nina Persson being the major argument in favor – and critics inserted the group into the space age pop revivalist camp. the Cardigans later proved that they were more difficult to pigeonhole, however.&lt;br&gt;\nEven the band’s origins showed that their later appearance was quite misleading; two heavy metal fanatics formed the group in October 1992 in Jonkoping, Sweden. Guitarist Peter Svensson met bassist Magnus Sveningsson in a hardcore group, though he had previously trained in music theory and jazz arranging. The two later grew tired of metal and decided to form a pop band with vocalist Nina Persson – an art-school friend who had never sung professionally – plus keyboard player Lars-Olof Johansson and drummer Bengt Lagerberg.&lt;/p&gt;\n\n&lt;p&gt;All five Cardigans moved into a small apartment in 1993 and began recording a demo tape that entered the hands of producer Tore Johansson later that year. He liked what he heard and invited the group to record at his Malmö studio. Signed to the dance-oriented Stockholm label, the Cardigans released Emmerdale in May 1994. The single “Rise &amp;amp; Shine” became a hit on Swedish radio soon after the release of the LP, and a readers poll in Sweden’s Slitz magazine voted Emmerdale the best album of 1994.&lt;br&gt;\nThe Cardigans spent the last half of 1994 touring Europe and recording their second album. A satirical response to their moody debut, Life showed the band at their most upbeat, including an angelic picture of Persson in an ice-skating outfit for the cover. Released in March 1995 – with several re-recordings of songs from Emmerdale – the album eventually sold one and a half million copies worldwide and became especially popular in Japan, where it achieved platinum status.&lt;/p&gt;\n\n&lt;p&gt;A deal with Minty Fresh gave the Cardigans an American release of Life in spring 1996, and the group played eight sold-out shows in the U.S. that summer. The American major labels began to notice the attention, and Mercury signed them soon after. First Band on the Moon, released in September 1996, de-emphasized the pure pop in favor of abstract arrangements and some rather violent themes. Nevertheless, the infectious single “Lovefool” became a radio hit by early 1997, and First Band on the Moon eventually reached gold status in America, as well as platinum certification in Japan (just three weeks after its release).&lt;br&gt;\nGran Turismo followed in 1998, though it lacked an obvious hit and led to a long hiatus for the band. Finally, the Cardigans returned in 2003 with Long Gone Before Daylight, marking a clear transition with confessional material closer to the singer/songwriter tradition. Super Extra Gravity followed in 2005.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Tom-lordalge', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Ashlee-simpson', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Ashlee Simpson&lt;/strong&gt; (born October 3, 1984) is an American singer-songwriter and actress. The younger sister of pop singer &lt;a href="https://genius.com/artists/Jessica-simpson" rel="noopener" data-api_path="/artists/8535"&gt;Jessica Simpson&lt;/a&gt;, she rose to prominence in the latter’s MTV reality show, and starred in her own spin-off &lt;em&gt;The Ashlee Simpson Show&lt;/em&gt; which followed her creating her debut album, &lt;a href="https://genius.com/albums/Ashlee-simpson/Autobiography" rel="noopener" data-api_path="/albums/36719"&gt;&lt;em&gt;Autobiography&lt;/em&gt;&lt;/a&gt;, with the media noting her “punk-rock” image as a contrast to her sister. The album was released after the show’s first season in 2004 and became a big success, debuting at number one on the US albums chart being certified Triple Platinum. Following a North American concert tour and a film appearance, Ashlee released her second Platinum number-one album, &lt;a href="https://genius.com/albums/Ashlee-simpson/I-am-me" rel="noopener" data-api_path="/albums/42890"&gt;&lt;em&gt;I Am Me&lt;/em&gt;&lt;/a&gt; (2005). Ashlee assumed creative control over her less successful but well-received third album, &lt;a href="https://genius.com/albums/Ashlee-simpson/Bittersweet-world" rel="noopener" data-api_path="/albums/42865"&gt;&lt;em&gt;Bittersweet World&lt;/em&gt;&lt;/a&gt; (2008), which differed from the pop-rock music of her previous efforts and featured a dance-pop, 1980s themed sound. In following years, she focused more on her acting career, scoring television and theatre roles while also starting her own family. In 2016, Simpson revealed she was working on new music with her husband &lt;a href="https://genius.com/artists/Evan-ross" rel="noopener" data-api_path="/artists/649521"&gt;Evan Ross&lt;/a&gt; and, in late 2018, they begun releasing music as a duo and called the project &lt;a href="https://genius.com/artists/Ashlee-evan" rel="noopener" data-api_path="/artists/1571688"&gt;ASHLEE + EVAN&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Ashley Nicolle Simpson', 'Ashlee Simpson Ross']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Journey', 'annotations': {'description': "&lt;p&gt;Journey is an American rock band that formed in San Francisco in 1973, composed of former members of Santana and Frumious Bandersnatch. The band has gone through several phases; its strongest commercial success occurred while fronted by vocalist Steve Perry, from 1978 until the group’s disbandment in 1987. During that period, the band released a series of hit songs, including 1981’s “Don’t Stop Believin'”, which in 2009 became the top-selling track in iTunes history amongst songs not released in the 21st century. Its parent studio album, Escape, the band’s eighth and most successful, reached No. 1 on the Billboard 200 and yielded another of their most popular singles, “Open Arms”. Its 1983 follow-up album, Frontiers, was almost as successful in the United States, reaching No. 2 and spawning several successful singles; it broadened the band’s appeal in the United Kingdom, where it reached No. 6 on the UK Albums Chart. Journey enjoyed a successful reunion with Perry in the mid-1990s and later regrouped with a series of lead singers.&lt;/p&gt;", 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Usher', 'annotations': {'description': '&lt;p&gt;With a career spanning over twenty-five years, Usher Raymond has become one of the most influential voices in contemporary R&amp;amp;B. Having sold over 75 million records worldwide, also attaining nine number-one records on the Billboard 100 charts, he is one of the most accomplished R&amp;amp;B singers in the world.&lt;/p&gt;\n\n&lt;p&gt;Coming into the scene in 90’s under the guidance of a young Puff Daddy finding his way. It wasn’t until he connected with the up-and-coming producer Jermaine Dupri did Usher begin having his success with his second and third albums, &lt;em&gt;My Way&lt;/em&gt; and &lt;em&gt;8701&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;He made an impact with his fourth studio album Confessions that sold 1.1 million copies in the first week and produced four consecutive Billboard Hot 100 number one singles —"Yeah!“, "Burn”, “Confessions Part II”, and “My Boo”.  Confessions went on to sell over 20 million copies worldwide and is the last album certified diamond by a black artist.&lt;/p&gt;\n\n&lt;p&gt;His fifth studio album Here I Stand sold over half a million copies in the first week and spawned the number one single “Love In This Club”. In 2010, his album Raymond v. Raymond was his third consecutive number one album on the Billboard 200 and launched the nearly sold-out OMG Tour, one of the highest grossing tours of the 2010s. The album also produced his ninth Billboard Hot 100 number one single “OMG”.  With “OMG” Usher became only the fourth artist to have number one hits across three consecutive decades.&lt;/p&gt;\n\n&lt;p&gt;Usher has continued success into the 2010s decade with his sixth studio album Lookin\' 4 Myself which produced the top 10, Grammy award-winning single “Climax”.  In 2015, his single “I Don’t Mind” reached number eleven on the Billboard Hot 100 and was his thirteenth number one hit on the Billboard Hot R&amp;amp;B/Hip-hop songs chart.  This feat was achieved with no promotion or music video, showing just how much star power Usher still holds in his hands.&lt;/p&gt;\n\n&lt;p&gt;He’s also received numerous awards and accolades including 18 Billboard Music Awards, 8 Grammy awards and a star on the Hollywood Walk of Fame.&lt;/p&gt;\n\n&lt;p&gt;As music evolves so does Usher. He goes by the saying “Evolve or Evaporate” and that’s what he does.   Whether it’s the singles “I Don’t Mind” or “No Limit” he knows how to stay on top of the game.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="http://usherworld.com/" rel="noopener nofollow"&gt;Website&lt;/a&gt;&lt;/p&gt;', 'alternate_names': ['U. Raymond', 'Usher Raymond IV', 'Usher Raymond']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Tal-bachman', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Talmage Charles Robert Bachman', 'Talmage Bachman']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Bizarre-inc', 'annotations': {'description': "&lt;p&gt;Bizarre Inc. were an English electronic music group. Originally formed in 1989 as a duo between English DJs Dean Meredith and Mark ‘'Aaron’‘ Archer, they later re-formed as a trio consisting of Andrew Meecham, Dean Meredith and Carl Turner in 1990.&lt;/p&gt;", 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Irene-cara', 'annotations': {'description': '&lt;p&gt;An 80s pop star. Most famous for her work on the Flashdance soundtrack and her role in Fame.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Rahsaan-patterson', 'annotations': {'description': '&lt;p&gt;Soul vocalist and songwriter Rahsaan Patterson is another in the line of new-school R&amp;amp;B singers, such as &lt;a href="https://genius.com/artists/Maxwell" rel="noopener" data-api_path="/artists/3056"&gt;Maxwell&lt;/a&gt; and &lt;a href="https://genius.com/artists/Erykah-badu" rel="noopener" data-api_path="/artists/909"&gt;Erykah Badu&lt;/a&gt;, who displayed a bit more integrity than most of the chart-toppers during the 1990s.&lt;/p&gt;\n\n&lt;p&gt;After singing in church since he was six years old, Patterson moved with his family from New York to California to star in the children’s show &lt;a href="https://www.imdb.com/title/tt0086744/" rel="noopener nofollow"&gt;&lt;em&gt;KIDS Incorporated&lt;/em&gt;&lt;/a&gt;, which also starred other future music stars like &lt;a href="https://genius.com/artists/Fergie" rel="noopener" data-api_path="/artists/950"&gt;Fergie&lt;/a&gt; and &lt;a href="https://genius.com/artists/Martika" rel="noopener" data-api_path="/artists/339866"&gt;Martika&lt;/a&gt;. He later moved back to the East Coast, resuming his career with small TV roles and assorted commercials, but eventually returned to Los Angeles in the early ‘90s, in order to taking his passion for music seriously: he started recording demos and contributing backing vocals to albums by Martika and &lt;a href="https://genius.com/artists/Brandy" rel="noopener" data-api_path="/artists/1425"&gt;Brandy&lt;/a&gt;, among others.&lt;/p&gt;\n\n&lt;p&gt;Throughout the years, Patterson proved himself to be a skilled songwriter, as well, by penning hits like &lt;a href="https://genius.com/artists/Tevin-campbell" rel="noopener" data-api_path="/artists/8544"&gt;Tevin Campbell&lt;/a&gt;’s &lt;a href="https://genius.com/Tevin-campbell-back-to-the-world-lyrics" rel="noopener" data-api_path="/songs/717614"&gt;“Back to the World”&lt;/a&gt; and Brandy’s &lt;a href="https://genius.com/Brandy-baby-lyrics" rel="noopener" data-api_path="/songs/171617"&gt;“Baby.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Those successes finally earned him a recording contract with MCA, which issued his &lt;a href="https://genius.com/albums/Rahsaan-patterson/Rahsaan-patterson" rel="noopener" data-api_path="/albums/289464"&gt;self-titled&lt;/a&gt; debut album in early 1997, with &lt;a href="https://genius.com/albums/Rahsaan-patterson/Love-in-stereo" rel="noopener" data-api_path="/albums/188453"&gt;&lt;em&gt;Love in Stereo&lt;/em&gt;&lt;/a&gt; following two years later. After a hiatus from the performance spotlight, he released &lt;a href="https://genius.com/albums/Rahsaan-patterson/After-hours" rel="noopener" data-api_path="/albums/116750"&gt;&lt;em&gt;After Hours&lt;/em&gt;&lt;/a&gt; in August 2005 and &lt;a href="https://genius.com/albums/Rahsaan-patterson/Wines-spirits" rel="noopener" data-api_path="/albums/284856"&gt;&lt;em&gt;Wines &amp;amp; Spirits&lt;/em&gt;&lt;/a&gt; in September 2007. These two albums made him one of the most appreciated artist in the underground R&amp;amp;B scene. The sprawling &lt;a href="https://genius.com/albums/Rahsaan-patterson/Bleuphoria" rel="noopener" data-api_path="/albums/289410"&gt;&lt;em&gt;Bleuphoria&lt;/em&gt;&lt;/a&gt;, issued nearly four years after &lt;em&gt;Wines &amp;amp; Spirits&lt;/em&gt;, was his most eclectic and creatively ambitious album, while his 2019 effort &lt;a href="https://genius.com/albums/Rahsaan-patterson/Heroes-gods" rel="noopener" data-api_path="/albums/530126"&gt;&lt;em&gt;Heroes &amp;amp; Gods&lt;/em&gt;&lt;/a&gt; saw him coming back to his roots.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Tears-for-fears', 'annotations': {'description': '&lt;p&gt;Tears for Fears are an English pop band formed in 1981 by Roland Orzabal and Curt Smith.&lt;/p&gt;\n\n&lt;p&gt;The group rose to fame in 1982 with single &lt;a href="https://genius.com/Tears-for-fears-mad-world-lyrics" rel="noopener" data-api_path="/songs/506924"&gt;“Mad World”&lt;/a&gt;, which made it to number 3 in the UK charts and paved the way for the huge success of debut album &lt;a href="https://genius.com/albums/tears-for-fears/the-hurting" rel="noopener" data-api_path="/albums/125257"&gt;&lt;em&gt;The Hurting&lt;/em&gt;&lt;/a&gt;, released in 1983. However, it wasn’t until &lt;a href="https://genius.com/albums/tears-for-fears/songs-from-the-big-chair" rel="noopener" data-api_path="/albums/22239"&gt;&lt;em&gt;Songs from the Big Chair&lt;/em&gt;&lt;/a&gt; in 1985, a change in musical direction towards pop, that the band made it internationally. The record proved to be hit, reaching #2 in the UK and #1 in the US charts, and contains their most well-known singles, &lt;a href="https://genius.com/Tears-for-fears-shout-lyrics" rel="noopener" data-api_path="/songs/304899"&gt;“Shout”&lt;/a&gt; and &lt;a href="https://genius.com/Tears-for-fears-everybody-wants-to-rule-the-world-lyrics" rel="noopener" data-api_path="/songs/91174"&gt;“Everybody Wants to Rule the World”&lt;/a&gt;. Third album &lt;a href="https://genius.com/albums/tears-for-fears/the-seeds-of-love" rel="noopener" data-api_path="/albums/120772"&gt;&lt;em&gt;The Seeds of Love&lt;/em&gt;&lt;/a&gt;, released in 1989, performed similarly, entering the UK Albums charts at #1.&lt;/p&gt;\n\n&lt;p&gt;In 1991, the band broke up. Curt Smith went on as a solo artist while Roland Orzabal continued as Tears for Fears, releasing &lt;a href="https://genius.com/albums/tears-for-fears/elemental" rel="noopener" data-api_path="/albums/147271"&gt;&lt;em&gt;Elemental&lt;/em&gt;&lt;/a&gt; in 1993 to much success in the UK (though significantly less in the US) and &lt;a href="https://genius.com/albums/tears-for-fears/raoul-and-the-kings-of-spain" rel="noopener" data-api_path="/albums/147272"&gt;&lt;em&gt;Raoul and the Kings of Spain&lt;/em&gt;&lt;/a&gt; in 1995, which did poorly in the charts, only reaching #41 in the UK but with some acclaim in continental Europe. In 2000, Curt and Roland reunited and recorded what became &lt;a href="https://genius.com/albums/tears-for-fears/everybody-loves-a-happy-ending" rel="noopener" data-api_path="/albums/147275"&gt;&lt;em&gt;Everybody Loves a Happy Ending&lt;/em&gt;&lt;/a&gt;, released in 2004 to positive reviews and moderate success. The band currently continues to tour.&lt;/p&gt;\n\n&lt;p&gt;Curt and Roland are &lt;a href="http://www.billboard.com/articles/columns/rock/7408801/tears-for-fears-announce-tour-new-studio-record" rel="noopener nofollow"&gt;slated to release their fifth studio album in 2017&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Jonezetta', 'annotations': {'description': '&lt;p&gt;Jonezetta was a five-piece rock band hailing from Mississippi. Their first album, Popularity, is filled with fun, upbeat music, and was released in 2006. It was recorded shortly after the death of their close friend, Timothy Jordan II, and it is dedicated to his memory.&lt;br&gt;\nTheir second album, Cruel to be Young, was released in 2008, and is a very different sound than that of Popularity, being much more somber in tone, and deals with darker themes, such as death and how to deal with the fallout of a broken relationship.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Daughtry', 'annotations': {'description': '&lt;p&gt;Daughtry is an American rock band formed and fronted by namesake Chris Daughtry, who was a finalist on the fifth season of American Idol. Their self-titled debut album was released in November 2006. The album reached number one on the Billboard 200, went on to sell more than four million copies in the United States, and has been certified quadruple platinum by the RIAA. Daughtry was also named the best-selling album of 2007 by Billboard, becoming the fastest-selling debut rock album in Soundscan history. The album produced four top 20 hits on the Billboard Hot 100, including top five hits “It’s Not Over” and “Home”.&lt;/p&gt;\n\n&lt;p&gt;The band’s second album, Leave This Town, was released in July 2009. It debuted at number one on the Billboard 200 chart, becoming Daughtry’s second number one album in the United States. To date, Leave This Town has sold over 1.3 million copies in the United States and has been certified platinum by the RIAA. The album’s lead single, “No Surprise,” became the band’s fifth top-20 hit on the Hot 100. Their third studio album, Break the Spell was released in November 2011. It debuted inside the top ten on the Billboard 200 chart and has been certified Gold by the RIAA. Daughtry’s fourth studio album, Baptized was released on November 19, 2013 and it debuted at number six on the 200 chart, selling approximately 90,000 units. To date, Daughtry has sold over 8 million albums and over 22.6 million digital tracks in the U.S.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Clarkoh-got-that-sauce', 'annotations': {'description': '&lt;p&gt;Emerging onto the scene from Boston, MA, Clarkoh (formerly “Clark Sage”) began his career as a result of a 9th grade science project. Now, he creates music that derives from experiences and moments of his life. Any set of circumstances may inspire different feelings in his music such as chill or jumpy or moving. The final product, however, is music that’s original and memorable.&lt;/p&gt;', 'alternate_names': ['Clark Sage', 'Clarkoh Poppa Zeus']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Bts', 'annotations': {'description': '&lt;p&gt;BTS is a South Korean pop (hip-hop influenced) group consisting of &lt;a href="https://genius.com/artists/Rm" rel="noopener" data-api_path="/artists/70110"&gt;RM&lt;/a&gt;, &lt;a href="https://genius.com/artists/Jin-bts" rel="noopener" data-api_path="/artists/520162"&gt;Jin&lt;/a&gt;, &lt;a href="https://genius.com/artists/Suga-bts" rel="noopener" data-api_path="/artists/520160"&gt;SUGA&lt;/a&gt;, &lt;a href="https://genius.com/artists/j-hope" rel="noopener" data-api_path="/artists/70112"&gt;j-hope&lt;/a&gt;, &lt;a href="https://genius.com/artists/Jimin-bts" rel="noopener" data-api_path="/artists/1016911"&gt;Jimin&lt;/a&gt;, &lt;a href="https://genius.com/artists/V-bts" rel="noopener" data-api_path="/artists/520161"&gt;V&lt;/a&gt; and &lt;a href="https://genius.com/artists/Jungkook-bts" rel="noopener" data-api_path="/artists/1016907"&gt;Jung Kook&lt;/a&gt;. The group’s name is an acronym for ‘Bangtan Sonyeondan’ (방탄소년단) which translates into ‘Bulletproof Boy Scouts.’&lt;/p&gt;\n\n&lt;p&gt;The group is currently one of the most recognized music acts worldwide, holds over 20 &lt;a href="https://www.guinnessworldrecords.com/search?term=BTS&amp;amp;page=1&amp;amp;type=record&amp;amp;max=20&amp;amp;partial=_Results&amp;amp;" rel="noopener nofollow"&gt;Guinness World Records&lt;/a&gt;, and won over 350 main &lt;a href="https://allforarmy.com/more/about-bts/awards-achievements/#" rel="noopener nofollow"&gt;music awards&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The members are heavily involved in their music production, &lt;a href="https://www.ibtimes.sg/producer-talks-about-why-bts-became-successful-k-pop-10615" rel="noopener nofollow"&gt;90 percent of their lyrics are penned by them&lt;/a&gt; and some of them also act as producers.&lt;/p&gt;\n\n&lt;p&gt;BTS combines various genres of music, ranging from pop sounds like on &lt;a href="https://genius.com/Bts-i-need-u-lyrics" rel="noopener" data-api_path="/songs/2016756"&gt;“I Need U,”&lt;/a&gt; hip-hop (&lt;a href="https://genius.com/Bts-ugh-lyrics" rel="noopener" data-api_path="/songs/5268364"&gt;“욱 (UGH!)”&lt;/a&gt;) or  &lt;a href="https://themusicmind.com/blog/2016/what-is-moombahton-what-does-it-have-to-do-with-kpop" rel="noopener nofollow"&gt;moombahton&lt;/a&gt; (&lt;a href="https://genius.com/Bts-blood-sweat-and-tears-lyrics" rel="noopener" data-api_path="/songs/2877866"&gt;“피 땀 눈물 (Blood Sweat &amp;amp; Tears)”&lt;/a&gt;), to British rock in &lt;a href="https://genius.com/Bts-springtime-lyrics" rel="noopener" data-api_path="/songs/764417"&gt;“봄날 (Spring Day).”&lt;/a&gt; Lyrically, they lean heavily on the struggles and excitement of youth, but &lt;a href="https://www.billboard.com/articles/columns/k-town/8098832/bts-lyrics-social-commentary-political" rel="noopener nofollow"&gt;they also criticize social issues&lt;/a&gt; through songs like &lt;a href="https://genius.com/Bts-crow-tit-try-hard-lyrics" rel="noopener" data-api_path="/songs/2923868"&gt;“뱁새 (Silver Spoon)”&lt;/a&gt; and &lt;a href="https://genius.com/Bts-am-i-wrong-lyrics" rel="noopener" data-api_path="/songs/2883218"&gt;“Am I Wrong,”&lt;/a&gt; causing them to be &lt;a href="http://www.billboard.com/articles/columns/k-town/7752412/bts-bang-hitman-conscious-k-pop-cross-over-interview" rel="noopener nofollow"&gt;perceived as one of the more socially conscious k-pop artists&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The combination of their musical storytelling and &lt;a href="https://youtu.be/7OX7dIRReSA?list=PL_Cqw69_m_yzbMVGvQA8QWrL_HdVXJQX7" rel="noopener nofollow"&gt;aesthetic&lt;/a&gt;, &lt;a href="https://youtu.be/cbSy36fu6Pk" rel="noopener nofollow"&gt;powerful and heavily choreographed stage performances&lt;/a&gt;, and &lt;a href="https://www.youtube.com/user/BANGTANTV" rel="noopener nofollow"&gt;sneak peeks into their daily life&lt;/a&gt; through social media has &lt;a href="https://www.quora.com/Why-do-you-like-BTS" rel="noopener nofollow"&gt;earned them&lt;/a&gt; a loyal fanbase called ARMY.&lt;/p&gt;\n\n&lt;p&gt;The septet debuted on June 13, 2013 with &lt;a href="https://genius.com/Bts-no-more-dream-lyrics" rel="noopener" data-api_path="/songs/215358"&gt;“No More Dream,”&lt;/a&gt; of their debut single album &lt;a href="https://genius.com/albums/Bts/2-cool-4-skool" rel="noopener" data-api_path="/albums/127649"&gt;&lt;em&gt;2 Cool 4 Skool&lt;/em&gt;&lt;/a&gt;, which encourages their listeners to achieve their dreams. Throughout their various mini albums and a first studio album, &lt;a href="https://genius.com/albums/Bts/Dark-and-wild" rel="noopener" data-api_path="/albums/134257"&gt;&lt;em&gt;Dark &amp;amp; Wild&lt;/em&gt;&lt;/a&gt;, BTS continued to display a rebellious concept with the addition of a newfound romance. The studio album also marked the end of the ‘school era.’&lt;/p&gt;\n\n&lt;p&gt;In 2015, they wholly evolved through ‘HYYH (The Most Beautiful Moment In Life) era,’ releasing three mini albums and defining themselves through referencing youth-related struggles and mental health in their lyrics.&lt;/p&gt;\n\n&lt;p&gt;In 2016 they released their second studio album, &lt;a href="https://genius.com/albums/Bts/Wings" rel="noopener" data-api_path="/albums/229995"&gt;&lt;em&gt;Wings&lt;/em&gt;&lt;/a&gt;. The album thematically deals with temptation and growth and is heavily &lt;a href="https://channel-korea.com/bts-wings-teaser-novel-demian/" rel="noopener nofollow"&gt;inspired&lt;/a&gt; by the Hermann Hesse’s novel, &lt;a href="https://www.amazon.com/Demian-Story-Sinclairs-Penguin-Classics/dp/0143106783/ref=pd_lpo_14_t_1/138-3097738-1356301" rel="noopener nofollow"&gt;&lt;em&gt;Demian&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2017 the group revealed a new brand identity—the &lt;a href="https://www.billboard.com/articles/columns/k-town/7857156/bts-beyond-the-scene-name-change" rel="noopener nofollow"&gt;new logo&lt;/a&gt; and they &lt;a href="https://www.billboard.com/articles/columns/k-town/7857156/bts-beyond-the-scene-name-change" rel="noopener nofollow"&gt;extended their name&lt;/a&gt; with ‘Beyond the Scene’ as the additional acronym for BTS. The group also began their ‘Love Yourself’ era, with two mini albums and their third studio album, &lt;a href="https://genius.com/albums/Bts/Love-yourself-tear" rel="noopener" data-api_path="/albums/417118"&gt;&lt;em&gt;Love Yourself: Tear&lt;/em&gt;&lt;/a&gt;. Following this, BTS became &lt;a href="https://www.soompi.com/2017/05/21/bts-becomes-first-k-pop-group-win-billboard-music-awards/" rel="noopener nofollow"&gt;the first-ever K-pop group&lt;/a&gt; to win the &lt;a href="https://www.billboardmusicawards.com/2017/05/bts-wins-top-social-artist-bbmas/" rel="noopener nofollow"&gt;Billboard Music Award&lt;/a&gt;. They went on to &lt;a href="https://www.billboard.com/articles/news/bbma/8456936/bts-wins-top-social-artist-2018-billboard-music-awards" rel="noopener nofollow"&gt;win this award for the second time in 2018&lt;/a&gt;, overtaking other international superstars, and they debuted their song, &lt;a href="https://genius.com/Bts-fake-love-lyrics" rel="noopener" data-api_path="/songs/3690426"&gt;“FAKE LOVE”&lt;/a&gt; on television at the BBMAs, another feat never seen before in the K-pop industry.&lt;/p&gt;\n\n&lt;p&gt;Also in 2017, as the first Korean artist, BTS &lt;a href="https://www.etonline.com/bts-partners-unicef-love-myself-anti-violence-campaign-90286" rel="noopener nofollow"&gt;joined the United Nations Children’s Fund (UNICEF) to stage campaigns against violence toward children and teens around the world&lt;/a&gt;. One year later, BTS made history being the &lt;a href="https://www.forbes.com/sites/caitlinkelley/2018/09/25/bts-deliver-speech-at-united-nations-urging-young-people-to-find-your-voice/#48de9957142d" rel="noopener nofollow"&gt;first K-pop group to speak at the United Nations (UN) General Assembly&lt;/a&gt; and were &lt;a href="https://www.koreatimes.co.kr/www/art/2018/10/732_256678.html" rel="noopener nofollow"&gt;awarded the fifth-class Hwagwan Order of Cultural Merit&lt;/a&gt; by the President of South Korea for the contribution to Korean culture.&lt;/p&gt;\n\n&lt;p&gt;In 2019 with a &lt;a href="https://genius.com/albums/Bts/Map-of-the-soul-persona" rel="noopener" data-api_path="/albums/515340"&gt;mini album&lt;/a&gt; they’ve started ‘Map of the Soul’ era. Following this, they were nominated for and earned two Billboard Music Awards—&lt;a href="https://www.billboard.com/articles/news/awards/8509652/bts-2019-bbmas-red-carpet-top-social-artist" rel="noopener nofollow"&gt;Top Social Artist&lt;/a&gt; and &lt;a href="https://www.billboard.com/articles/news/awards/8509655/billboard-music-awards-2019-winners-list" rel="noopener nofollow"&gt;Top Duo/Group&lt;/a&gt;, becoming the first K-pop group to achieve the latter.&lt;/p&gt;\n\n&lt;p&gt;Their fourth studio album, &lt;a href="https://genius.com/albums/Bts/Map-of-the-soul-7" rel="noopener" data-api_path="/albums/592290"&gt;&lt;em&gt;Map of The Soul: 7&lt;/em&gt;&lt;/a&gt;, was released in 2020, and become &lt;a href="https://variety.com/2021/music/news/bts-map-of-the-soul-7-wins-ifpis-global-album-chart-award-1234927226" rel="noopener nofollow"&gt;#1 Album of 2020 Worldwide&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In September 2020, BTS became the first Korean act to hit #1 on Billboard Hot 100 with their first English language song as a lead artist, &lt;a href="https://genius.com/Bts-dynamite-lyrics" rel="noopener" data-api_path="/songs/5827731"&gt;“Dynamite.”&lt;/a&gt; The song &lt;a href="https://genius.com/Bts-dynamite-lyrics" rel="noopener" data-api_path="/songs/5827731"&gt;broke numerous worldwide records&lt;/a&gt;, including &lt;a href="https://www.guinnessworldrecords.com/news/2020/9/bts-smash-youtube-viewing-records-once-again-with-single-dynamite-628998" rel="noopener nofollow"&gt;three Guinness World Records&lt;/a&gt;. The group &lt;a href="https://mobile.twitter.com/charts_k/status/1310762545674936320" rel="noopener nofollow"&gt;held #1 simultaneously on seven Billboard charts&lt;/a&gt;. Just few weeks later, BTS scored &lt;a href="https://twitter.com/BigHitEnt/status/1315717984615186433" rel="noopener nofollow"&gt;#1 on Billboard Hot 100 with the second song&lt;/a&gt;—&lt;a href="https://genius.com/Jawsh-685-jason-derulo-and-bts-savage-love-laxed-siren-beat-bts-remix-lyrics" rel="noopener" data-api_path="/songs/6003613"&gt;“Savage Love (Laxed – Siren Beat) [BTS Remix].”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;The fifth Korean studio album, &lt;a href="https://genius.com/albums/Bts/Be" rel="noopener" data-api_path="/albums/693732"&gt;&lt;em&gt;BE&lt;/em&gt;&lt;/a&gt;, was released on November 20, 2020 with the lead single &lt;a href="https://genius.com/Bts-life-goes-on-lyrics" rel="noopener" data-api_path="/songs/6116502"&gt;“Life Goes On.”&lt;/a&gt; The single debuted at &lt;a href="https://www.billboard.com/articles/business/chart-beat/9491302/bts-life-goes-on-number-one-hot-100/" rel="noopener nofollow"&gt;# 1 on Billboard Hot 100&lt;/a&gt;, the first predominantly non-English-language song to do so. They later became the first Korean pop artist to be &lt;a href="https://twitter.com/recordingacad/status/1331297419326210049?s=21" rel="noopener nofollow"&gt;nominated for the &lt;em&gt;GRAMMY Awards&lt;/em&gt;&lt;/a&gt; (for Best Pop Duo/Group Performance with “Dynamite”).&lt;/p&gt;\n\n&lt;p&gt;Following that, in May, the group released their second English language song as a lead artist, &lt;a href="https://genius.com/Bts-butter-lyrics" rel="noopener" data-api_path="/songs/6746160"&gt;“Butter.”&lt;/a&gt; The song &lt;a href="https://genius.com/Bts-butter-lyrics" rel="noopener" data-api_path="/songs/6746160"&gt;debuted simultaneously at #1 on four main Billboard US charts&lt;/a&gt;, and broke &lt;a href="https://genius.com/Bts-butter-lyrics" rel="noopener" data-api_path="/songs/6746160"&gt;numerous records&lt;/a&gt;, including these set previously by &lt;a href="https://genius.com/Bts-dynamite-lyrics" rel="noopener" data-api_path="/songs/5827731"&gt;“Dynamite.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;After seven weeks on #1 with &lt;a href="https://genius.com/Bts-butter-lyrics" rel="noopener" data-api_path="/songs/6746160"&gt;“Butter,”&lt;/a&gt; BTS replaced themselves on top and debuted on it their next single, &lt;a href="https://genius.com/Bts-permission-to-dance-lyrics" rel="noopener" data-api_path="/songs/6913616"&gt;“Permission to Dance,”&lt;/a&gt; making them &lt;a href="https://www.billboard.com/articles/news/9603058/bts-permission-to-dance-number-one-hot-100/" rel="noopener nofollow"&gt;the first group in history to earn four #1 debuts&lt;/a&gt; on the Billboard Hot 100, and &lt;a href="https://www.billboard.com/articles/news/9603058/bts-permission-to-dance-number-one-hot-100/" rel="noopener nofollow"&gt;the first group in history to replace their #1 debut song with another #1 debut song&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['防弾少年団 (Bodan Shonendan)', '방탄소년단 (Bangtan Sonyeondan)', 'Beyond the Scene', 'Bulletproof Boy Scouts', 'Bangtan Boys']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Lil-nas-x', 'annotations': {'description': '&lt;p&gt;Montero Lamar Hill (b. April 9, 1999), better known by his stage name Lil Nas X, is a hip-hop artist from Atlanta. In 2018, he dropped out of college during his freshman year to pursue music full-time. Regarding this, &lt;a href="https://www.instagram.com/p/Bu_x3DQldcm/?utm_source=ig_embed&amp;amp;utm_medium=loading" rel="noopener nofollow"&gt;he said&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Everybody thought I was crazy, I knew what I was doing. Thank you everyone, this just the mf beginning!&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;His stage name was originally meant to be a joke. In a January 2021 &lt;a href="https://youtu.be/xxg_HapJ3u4?t=56" rel="noopener nofollow"&gt;Jimmy Fallon interview&lt;/a&gt;, Nas revealed the origin of his stage name:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Nas was like my internet alias and then when I started doing music, I was like, “I want to have fun with this,” and every new rapper’s named Lil, Lil, Lil. What if I was Lil Nas? That’d be funny. So I was like, “Alright, bet. I’ll be Lil Nas.” And I added the X later on.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Lil Nas X’s debut mixtape came in the form of &lt;a href="https://genius.com/albums/Lil-nas-x/Nasarati" rel="noopener" data-api_path="/albums/460024"&gt;&lt;em&gt;NASARATI&lt;/em&gt;&lt;/a&gt;, released in July 2018. The mixtape was released on Youtube and Soundcloud, but after a &lt;a href="https://www.worldipreview.com/news/lil-nas-x-sued-for-25m-over-carry-on-sample-18411" rel="noopener nofollow"&gt;lawsuit&lt;/a&gt; over its title track, &lt;a href="https://genius.com/Lil-nas-x-carry-on-lyrics" rel="noopener" data-api_path="/songs/3843778"&gt;“CARRY ON,”&lt;/a&gt; it was taken off the platforms. Following the mixtape’s release, Nas\' breakthrough would come in the form of the December 2018 smash hit, &lt;a href="https://genius.com/Lil-nas-x-old-town-road-lyrics" rel="noopener" data-api_path="/songs/4133841"&gt;“Old Town Road,”&lt;/a&gt; which blew up through &lt;a href="https://www.youtube.com/watch?v=LxwpKKK3P4s" rel="noopener nofollow"&gt;TikTok memes&lt;/a&gt; and its April 2019 &lt;a href="https://genius.com/Lil-nas-x-old-town-road-remix-lyrics" rel="noopener" data-api_path="/songs/4445394"&gt;remix&lt;/a&gt; featuring country singer &lt;a href="https://genius.com/artists/billy-ray-cyrus" rel="noopener" data-api_path="/artists/60166"&gt;Billy Ray Cyrus&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The song &lt;a href="https://hypebeast.com/2019/3/lil-nas-xs-old-town-road-billboard-100-tiktok-charting" rel="noopener nofollow"&gt;entered the &lt;em&gt;Billboard&lt;/em&gt; Hot 100&lt;/a&gt; in March 2019, over a year after its original release. “Old Town Road” reached #1 on Spotify, iTunes and Apple Music, as well as becoming the first song to simultaneously chart on the Billboard country and hip-hop/R&amp;amp;B charts before it was disqualified from the country charts. The move by Billboard &lt;a href="https://www.vulture.com/2019/04/lil-nas-x-old-town-road-controversy-explained.html" rel="noopener nofollow"&gt;received a lot of backlash&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;June 21, 2019 marked the release of his debut EP, &lt;a href="https://genius.com/albums/Lil-nas-x/7" rel="noopener" data-api_path="/albums/530418"&gt;&lt;em&gt;7&lt;/em&gt;&lt;/a&gt;. The EP received acclaim, including a &lt;a href="https://www.grammy.com/grammys/news/2020-grammy-awards-nominations-complete-winners-list" rel="noopener nofollow"&gt;GRAMMY nomination&lt;/a&gt; for “Album of the Year.” It debuted at &lt;a href="https://www.billboard.com/articles/columns/chart-beat/8518137/the-raconteurs-first-no-1-album-billboard-200" rel="noopener nofollow"&gt;#2 on the Billboard 200&lt;/a&gt; selling 77,000 copies.&lt;/p&gt;\n\n&lt;p&gt;“Old Town Road (Remix)” became the most certified song ever in January 2021, with a &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;se=OLD+TOWN+ROAD#search_section" rel="noopener nofollow"&gt;14x Platinum&lt;/a&gt; certification, representing 14 million equivalent song units sold. The same month, Lil Nas X released a children’s picture book, &lt;a href="https://www.amazon.com/C-Country-Lil-Nas-X/dp/0593300785" rel="noopener nofollow"&gt;“C is For Country,”&lt;/a&gt; which became a &lt;a href="https://www.soundslikenashville.com/news/lil-nas-x-c-is-for-country-childrens-book/" rel="noopener nofollow"&gt;New York Times Bestseller&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Lil Nas X released &lt;a href="https://genius.com/Lil-nas-x-montero-call-me-by-your-name-lyrics" rel="noopener" data-api_path="/songs/5751286"&gt;“MONTERO (Call Me By Your Name”&lt;/a&gt; in March 2021, following it with the announcement of his first studio album, &lt;a href="https://genius.com/albums/Lil-nas-x/Montero" rel="noopener" data-api_path="/albums/558945"&gt;&lt;em&gt;MONTERO&lt;/em&gt;&lt;/a&gt;, which was released on September 17 of the same year. The song took the world by the storm, with the &lt;a href="https://www.youtube.com/watch?time_continue=14&amp;amp;v=6swmTBVI83k&amp;amp;feature=emb_title" rel="noopener nofollow"&gt;music video&lt;/a&gt; receiving &lt;a href="https://www.newuniversity.org/2021/04/06/lil-nas-xs-montero-call-me-by-your-name-sparks-a-hell-of-a-controversy/" rel="noopener nofollow"&gt;mixed receptions&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The Atlanta native would follow up the single with  May 2021 &lt;a href="https://genius.com/Lil-nas-x-and-jack-harlow-industry-baby-lyrics" rel="noopener" data-api_path="/songs/6083409"&gt;“SUN GOES DOWN”&lt;/a&gt; and July 2021’s collaboration with &lt;a href="https://genius.com/artists/Jack-harlow" rel="noopener" data-api_path="/artists/615747"&gt;Jack Harlow&lt;/a&gt;, &lt;a href="https://genius.com/Lil-nas-x-and-jack-harlow-industry-baby-lyrics" rel="noopener" data-api_path="/songs/6083409"&gt;“INDUSTRY BABY.”&lt;/a&gt;&lt;/p&gt;', 'alternate_names': ['Lil Nas', 'Montero L. Hill', 'Montero Hill', 'Montero Lamar Hill', 'Nas X']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Kid-cudi', 'annotations': {'description': '&lt;p&gt;Kid Cudi, born Scott Ramon Seguro Mescudi on January 30, 1984, is an American recording artist from Cleveland, Ohio.&lt;/p&gt;\n\n&lt;p&gt;His debut single &lt;a href="https://genius.com/Kid-cudi-day-n-nite-nightmare-lyrics" rel="noopener" data-api_path="/songs/131"&gt;“Day ‘n’ Nite”&lt;/a&gt; became an online favorite in 2008. Based in Brooklyn, he first became affiliated with &lt;a href="https://en.wikipedia.org/wiki/Fool%27s_Gold_Records" rel="noopener nofollow"&gt;Fool’s Gold&lt;/a&gt;, the label of DJs &lt;a href="https://genius.com/artists/A-trak" rel="noopener" data-api_path="/artists/2906"&gt;A-Trak&lt;/a&gt; and &lt;a href="https://genius.com/artists/nick-catchdubs" rel="noopener" data-api_path="/artists/49829"&gt;Nick Catchdubs&lt;/a&gt;. After releasing his popular mixtape &lt;a href="https://genius.com/albums/Kid-cudi/A-kid-named-cudi" rel="noopener" data-api_path="/albums/4424"&gt;&lt;em&gt;A Kid Named Cudi&lt;/em&gt;&lt;/a&gt;, Cudi’s career took off as he got associated with &lt;a href="https://genius.com/artists/Kanye-west" rel="noopener" data-api_path="/artists/72"&gt;Kanye West&lt;/a&gt; and joined his label &lt;a href="http://en.wikipedia.org/wiki/GOOD_Music" rel="noopener nofollow"&gt;G.O.O.D Music&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;His catalog currently counts 7 solo studio albums, entitled: &lt;a href="https://genius.com/albums/Kid-cudi/Man-on-the-moon-the-end-of-day" rel="noopener" data-api_path="/albums/4427"&gt;&lt;em&gt;Man on the Moon: The End of Day&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Kid-cudi/Man-on-the-moon-ii-the-legend-of-mr-rager" rel="noopener" data-api_path="/albums/4428"&gt;&lt;em&gt;Man on the Moon II: The Legend of Mr. Rager&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Kid-cudi/Indicud" rel="noopener" data-api_path="/albums/20193"&gt;&lt;em&gt;Indicud&lt;/em&gt;&lt;/a&gt; which was released after Cudi &lt;a href="http://hypetrak.com/2013/04/kid-cudi-leaves-good-music/" rel="noopener nofollow"&gt;famously departed from GOOD Music&lt;/a&gt; and the latest ones &lt;a href="https://genius.com/albums/Kid-cudi/Satellite-flight-the-journey-to-mother-moon" rel="noopener" data-api_path="/albums/67138"&gt;&lt;em&gt;Satellite Flight: The Journey To Mother Moon&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Kid-cudi/Speedin-bullet-2-heaven" rel="noopener" data-api_path="/albums/128397"&gt;&lt;em&gt;Speedin\' Bullet To Heaven&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Kid-cudi/Passion-pain-demon-slayin" rel="noopener" data-api_path="/albums/152011"&gt;&lt;em&gt;Passion, Pain &amp;amp; Demon Slayin\'&lt;/em&gt;&lt;/a&gt;, and the long anticipated &lt;a href="https://genius.com/albums/Kid-cudi/man-on-the-moon-iii-the-chosen" rel="noopener" data-api_path="/albums/692902"&gt;&lt;em&gt;Man on the Moon III: The Chosen&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In addition, Cudi released an alternative rock album with long-time friend and collaborator &lt;a href="https://genius.com/artists/dot-da-genius" rel="noopener" data-api_path="/artists/11845"&gt;Dot Da Genius&lt;/a&gt; in duo group &lt;a href="https://genius.com/artists/Wzrd" rel="noopener" data-api_path="/artists/15049"&gt;WZRD&lt;/a&gt;, as well as a &lt;a href="https://genius.com/albums/Kids-see-ghosts/Kids-see-ghosts" rel="noopener" data-api_path="/albums/425948"&gt;collaborative album&lt;/a&gt; with on-again-off-again friend &lt;a href="https://genius.com/artists/Kanye-west" rel="noopener" data-api_path="/artists/72"&gt;Kanye West&lt;/a&gt; as duo group &lt;a href="https://genius.com/artists/kids-see-ghosts" rel="noopener" data-api_path="/artists/1464821"&gt;Kids See Ghosts&lt;/a&gt;. Cudi has also been featured on the G.O.O.D Music projects: &lt;a href="https://genius.com/albums/Good-music-group/Cruel-summer" rel="noopener"&gt;&lt;em&gt;Cruel Summer&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/Kanye-west/G-o-o-d-fridays" rel="noopener" data-api_path="/albums/14775"&gt;&lt;em&gt;G.O.O.D. Fridays&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['King WZRD', 'S. R. S. Mescudi', 'Scott R. S. Mescudi', 'Scott S. Mescudi', 'Scott R. Mescudi', 'Scott Ramon Mescudi', 'Scott Seguro Mescudi', 'Cud Life', 'King Cudi', 'Scott Mescudi', 'The Man on the Moon', 'Mr. Solo Dolo', 'Scott Ramon Seguro Mescudi', 'Cudi', 'Cudder', 'Mr. Rager', 'King Wizard']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Migos', 'annotations': {'description': '&lt;p&gt;Migos is a rap group from Lawrenceville, Georgia, formed in 2008. The trio consists of &lt;a href="https://genius.com/artists/Quavo" rel="noopener" data-api_path="/artists/61600"&gt;Quavo&lt;/a&gt; (real name Quavious Marshall), &lt;a href="https://genius.com/artists/Takeoff" rel="noopener" data-api_path="/artists/148761"&gt;Takeoff&lt;/a&gt; (real name Kirshnik Ball) and &lt;a href="https://genius.com/artists/Offset" rel="noopener" data-api_path="/artists/88813"&gt;Offset&lt;/a&gt; (real name Kiari Cephus). The Migos are relatives: members Quavo and Takeoff are uncle and nephew, and members Quavo and Offset are cousins.&lt;/p&gt;\n\n&lt;p&gt;They are most known for their hit songs &lt;a href="https://genius.com/Migos-versace-original-version-lyrics" rel="noopener" data-api_path="/songs/176951"&gt;“Versace”&lt;/a&gt;, that became even more successful after &lt;a href="https://genius.com/artists/Drake" rel="noopener" data-api_path="/artists/130"&gt;Drake&lt;/a&gt; released a &lt;a href="https://genius.com/Migos-versace-remix-lyrics" rel="noopener" data-api_path="/songs/176872"&gt;remix&lt;/a&gt; of it, and &lt;a href="https://genius.com/Migos-bad-and-boujee-lyrics" rel="noopener" data-api_path="/songs/2845980"&gt;“Bad and Boujee.”&lt;/a&gt; Despite this, &lt;a href="https://genius.com/Migos-bando-lyrics" rel="noopener" data-api_path="/songs/168255"&gt;“Bando”&lt;/a&gt; was their first hit song.&lt;/p&gt;\n\n&lt;p&gt;They have released numerous mixtapes since 2011, most notably &lt;a href="https://genius.com/albums/Migos/Young-rich-niggas" rel="noopener" data-api_path="/albums/36011"&gt;&lt;em&gt;Young Rich Niggas&lt;/em&gt;,&lt;/a&gt; &lt;a href="https://genius.com/albums/Migos/No-label-ii" rel="noopener" data-api_path="/albums/104703"&gt;&lt;em&gt;No Label 2&lt;/em&gt;,&lt;/a&gt; &lt;a href="https://genius.com/albums/Migos/Rich-nigga-timeline" rel="noopener" data-api_path="/albums/113969"&gt;&lt;em&gt;Rich Nigga Timeline&lt;/em&gt;&lt;/a&gt; &amp;amp; &lt;a href="https://genius.com/albums/Migos/Young-rich-niggas-2" rel="noopener" data-api_path="/albums/53796"&gt;&lt;em&gt;Young Rich Niggas 2.&lt;/em&gt;&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;They released their debut album &lt;a href="https://genius.com/albums/Migos/Yung-rich-nation" rel="noopener" data-api_path="/albums/119474"&gt;&lt;em&gt;Yung Rich Nation&lt;/em&gt;&lt;/a&gt; on July 31st, 2015, their second studio album, &lt;a href="https://genius.com/albums/Migos/Culture" rel="noopener" data-api_path="/albums/168545"&gt;&lt;em&gt;Culture&lt;/em&gt;&lt;/a&gt;, was released on January 27th, 2017. The group’s 3rd album, &lt;a href="https://genius.com/albums/migos/culture-ii" rel="noopener" data-api_path="/albums/369295"&gt;&lt;em&gt;Culture II&lt;/em&gt;&lt;/a&gt;, was released on January 26th, 2018.&lt;/p&gt;\n\n&lt;p&gt;With the release of &lt;em&gt;Culture II,&lt;/em&gt; Migos tied &lt;a href="https://genius.com/artists/The-beatles" rel="noopener" data-api_path="/artists/586"&gt;The Beatles&lt;/a&gt; for most simultaneous Hot 100 songs by a group on the Billboard chart with 14.&lt;/p&gt;', 'alternate_names': []}}</t>
   </si>
   <si>
     <t>{'url': 'https://genius.com/artists/Gwen-stefani', 'annotations': {'description': '&lt;p&gt;Gwen Renée Stefani, known simply as Gwen Stefani, is an American singer and songwriter, born on October 3, 1969 in Fullerton, California. She started her musical career as the lead singer in the American pop-rock band, &lt;a href="https://genius.com/artists/No-doubt" rel="noopener" data-api_path="/artists/24421"&gt;No Doubt&lt;/a&gt;, in the early ‘90s. The band has achieved major success with their 1995 album &lt;a href="https://genius.com/albums/No-doubt/Tragic-kingdom" rel="noopener" data-api_path="/albums/43506"&gt;&lt;em&gt;Tragic Kingdom&lt;/em&gt;&lt;/a&gt;, which spawned the hit singles &lt;a href="https://genius.com/No-doubt-just-a-girl-lyrics" rel="noopener" data-api_path="/songs/210348"&gt;“Just a Girl”&lt;/a&gt; and &lt;a href="https://genius.com/No-doubt-dont-speak-lyrics" rel="noopener" data-api_path="/songs/208107"&gt;“Don’t Speak”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2004, Stefani released her first solo album, &lt;a href="https://genius.com/albums/Gwen-stefani/Love-angel-music-baby" rel="noopener" data-api_path="/albums/6076"&gt;&lt;em&gt;Love. Angel. Music. Baby.&lt;/em&gt;&lt;/a&gt;, which spawned the hit songs &lt;a href="https://genius.com/Gwen-stefani-rich-girl-lyrics" rel="noopener" data-api_path="/songs/32729"&gt;“Rich Girl”&lt;/a&gt;, &lt;a href="https://genius.com/Gwen-stefani-hollaback-girl-lyrics" rel="noopener" data-api_path="/songs/4385"&gt;“Hollaback Girl”&lt;/a&gt;, and &lt;a href="https://genius.com/Gwen-stefani-what-you-waiting-for-lyrics" rel="noopener" data-api_path="/songs/284592"&gt;“What You Waiting For?”&lt;/a&gt;; all three songs went number one on the Billboard Hot 100 chart, and also became the first US music download to sell one million copies.&lt;/p&gt;\n\n&lt;p&gt;In 2006, Stefani released her second solo album, &lt;a href="https://genius.com/albums/Gwen-stefani/The-sweet-escape" rel="noopener" data-api_path="/albums/22036"&gt;&lt;em&gt;The Sweet Escape&lt;/em&gt;&lt;/a&gt;, which spawned singles &lt;a href="https://genius.com/Gwen-stefani-the-sweet-escape-lyrics" rel="noopener" data-api_path="/songs/90487"&gt;“The Sweet Escape”&lt;/a&gt; and &lt;a href="https://genius.com/Gwen-stefani-wind-it-up-lyrics" rel="noopener" data-api_path="/songs/423090"&gt;“Wind It Up”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2016, she released her third solo album, &lt;a href="https://genius.com/albums/Gwen-stefani/This-is-what-the-truth-feels-like" rel="noopener" data-api_path="/albums/113812"&gt;&lt;em&gt;This Is What the Truth Feels Like&lt;/em&gt;&lt;/a&gt;, which became her first solo number-one album to chart on the Billboard 200. The album had hit songs such as, &lt;a href="https://genius.com/Gwen-stefani-make-me-like-you-lyrics" rel="noopener" data-api_path="/songs/2417511"&gt;“Make Me Like You”&lt;/a&gt; and &lt;a href="https://genius.com/Gwen-stefani-used-to-love-you-lyrics" rel="noopener" data-api_path="/songs/2332048"&gt;“Used to Love You”&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Gwen Renée Stefani Shelton', 'Gwen Renée Stefani']}}</t>
   </si>
   <si>
-    <t>{'url': 'https://genius.com/artists/The-weather-girls', 'annotations': {'description': "&lt;p&gt;&lt;strong&gt;The Weather Girls&lt;/strong&gt; is a female American duo of &lt;strong&gt;Martha Wash&lt;/strong&gt; and &lt;strong&gt;Izora Armstead&lt;/strong&gt; as his most well-known line-up. The Weather girls members launched their musical career in 1976 in San Francisco, California as the Sylvester disco-female singer’s backup duet, &lt;strong&gt;Two Tons O' Fun&lt;/strong&gt;. In 1979 the duo signed Fantasy Records after years of modest success with Sylvester’s history. Following the release of “It’s Raining Men” (1982), the Weather Girls became their first number-one dance hit, a successful recognition.&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;Despite critical and commercial success, the duo struggled to repeat the success of “It’s Raining Men” and ultimately disbanded after the release of their self-titled fifth album The Weather Girls in 1988.&lt;/p&gt;", 'alternate_names': ["Two Tons O' Fun"]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Alan-walker', 'annotations': {'description': '&lt;p&gt;Alan Walker is a record producer and DJ, born in Northampton, England, on 24th of August 1997, but was raised and has lived in Bergen, Norway since the age of 2.&lt;/p&gt;\n\n&lt;p&gt; He initially had no musical background, however, he later taught himself by watching tutorials on YouTube based on music production. In July 2012, with the help and feedback from his fans online, he began pursuing his music production career and slowly began posting his music to &lt;a href="https://www.youtube.com/channel/UCJrOtniJ0-NWz37R30urifQ" rel="noopener nofollow"&gt;YouTube&lt;/a&gt; and &lt;a href="https://soundcloud.com/alanwalker" rel="noopener nofollow"&gt;SoundCloud&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;His song &lt;a href="https://genius.com/Alan-walker-fade-lyrics" rel="noopener" data-api_path="/songs/2865113"&gt;“Fade”&lt;/a&gt; gained attention after its release on YouTube via the label NCS. After signing with MER Musikk under Sony Music Sweden, Walker released his first official single &lt;a href="https://genius.com/Alan-walker-faded-lyrics" rel="noopener" data-api_path="/songs/2396871"&gt;“Faded”&lt;/a&gt;, a remastered vocal version of “Fade”. After the song and the video were released, they gained worldwide attention. The single topped the year-end charts in Austria, Germany, Switzerland and Sweden, iTunes charts in 32 countries, as well as entering top 10 in Spotify Global Chart.&lt;/p&gt;\n\n&lt;p&gt;On October 27th of 2018, Walker released the song &lt;a href="https://genius.com/Alan-walker-noah-cyrus-and-digital-farm-animals-all-falls-down-lyrics" rel="noopener" data-api_path="/songs/3234393"&gt;“All Falls Down”&lt;/a&gt; which featured American singer &lt;a href="https://genius.com/artists/Noah-cyrus" rel="noopener" data-api_path="/artists/405554"&gt;Noah Cyrus&lt;/a&gt; and British DJ and record producer &lt;a href="https://genius.com/artists/Digital-farm-animals" rel="noopener" data-api_path="/artists/497319"&gt;Digital Farm Animals&lt;/a&gt;. With this song followed an announcement of Walker’s first studio album, &lt;a href="https://genius.com/albums/Alan-walker/Different-world" rel="noopener" data-api_path="/albums/368574"&gt;&lt;em&gt;Different World&lt;/em&gt;&lt;/a&gt; which was released in December 2018.&lt;/p&gt;', 'alternate_names': ['Alan Olav Walker', 'Walkzz', 'DJ Walkzz']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Metro-station', 'annotations': {'description': '&lt;p&gt;Metro Station is an American pop band that was formed in Los Angeles by &lt;a href="https://genius.com/artists/Trace-cyrus" rel="noopener" data-api_path="/artists/59818"&gt;Trace Cyrus&lt;/a&gt; and &lt;a href="https://genius.com/artists/Mason-musso" rel="noopener" data-api_path="/artists/681526"&gt;Mason Musso&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Desireless', 'annotations': {'description': '&lt;p&gt;Claudie Fritsch-Mentrop, known by her stage name Desireless (born 25 December 1952, Paris, France), is a French singer. Between 1986 and 1988, her hit single “Voyage, voyage” made it to number one in many European and Asian single charts and sold over five million copies.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Michelle-branch', 'annotations': {'description': '&lt;p&gt;Michelle Branch, born on July 2, 1983, is a pop-rock American singer and songwriter from Sedona, Arizona, U.S.&lt;/p&gt;\n\n&lt;p&gt;On June 1, 2000, Branch released her debut album, &lt;a href="https://genius.com/albums/Michelle-branch/Broken-bracelet" rel="noopener" data-api_path="/albums/213284"&gt;&lt;em&gt;Broken Bracelet&lt;/em&gt;&lt;/a&gt;, which was self produced and released independently.&lt;/p&gt;\n\n&lt;p&gt;In 2001, she &lt;a href="https://usatoday30.usatoday.com/life/music/2001-09-14-michelle-branch.htm" rel="noopener nofollow"&gt;signed&lt;/a&gt; a record deal with &lt;a href="https://maverick.com/" rel="noopener nofollow"&gt;Maverick Records&lt;/a&gt;. The same year, she released her second studio album, &lt;a href="https://genius.com/albums/Michelle-branch/The-spirit-room" rel="noopener" data-api_path="/albums/84655"&gt;&lt;em&gt;The Spirit Room&lt;/em&gt;&lt;/a&gt;, on August 14th. The album peaked at #28 on the &lt;a href="https://www.billboard.com/music/Michelle-Branch/chart-history/TLP" rel="noopener nofollow"&gt;Billboard 200&lt;/a&gt;, making it her first album to appear on the chart at the time. The album produced three singles: &lt;a href="https://genius.com/Michelle-branch-everywhere-lyrics" rel="noopener" data-api_path="/songs/857056"&gt;“Everywhere”&lt;/a&gt;, &lt;a href="https://genius.com/Michelle-branch-all-you-wanted-lyrics" rel="noopener" data-api_path="/songs/369728"&gt;“All You Wanted”&lt;/a&gt;, and &lt;a href="https://genius.com/Michelle-branch-goodbye-to-you-lyrics" rel="noopener" data-api_path="/songs/857297"&gt;“Goodbye To You”&lt;/a&gt;. All singles &lt;a href="https://www.billboard.com/music/michelle-branch/chart-history/HSI" rel="noopener nofollow"&gt;peaked&lt;/a&gt; within the top 25 on the Billboard Hot 100, at #12, #6, and #21, respectively.&lt;/p&gt;\n\n&lt;p&gt;On June 21, 2003, she released her third studio album, &lt;a href="https://genius.com/albums/Michelle-branch/Hotel-paper" rel="noopener" data-api_path="/albums/163274"&gt;&lt;em&gt;Hotel Paper&lt;/em&gt;&lt;/a&gt;. The album &lt;a href="https://www.billboard.com/music/michelle-branch/chart-history/TLP" rel="noopener nofollow"&gt;peaked&lt;/a&gt; at #2 on the Billboard 200, making it her highest peaking album on the chart at the time. Two singles were released from the album: &lt;a href="https://genius.com/Michelle-branch-are-you-happy-now-lyrics" rel="noopener" data-api_path="/songs/857127"&gt;“Are You Happy Now?”&lt;/a&gt; and &lt;a href="https://genius.com/Michelle-branch-breathe-lyrics" rel="noopener" data-api_path="/songs/856569"&gt;“Breathe”&lt;/a&gt;, both &lt;a href="https://www.billboard.com/music/michelle-branch/chart-history/HSI" rel="noopener nofollow"&gt;peaking&lt;/a&gt; within the top 40 on the Hot 100.&lt;/p&gt;\n\n&lt;p&gt;In 2005, Branch was part of a country duo with fellow solo artist Jessica Harp, naming themselves The Wreckers. Their debut and only studio album, &lt;a href="https://genius.com/albums/The-wreckers/Stand-still-look-pretty" rel="noopener" data-api_path="/albums/220220"&gt;&lt;em&gt;Stand Still, Look Pretty&lt;/em&gt;&lt;/a&gt;, was released on May 23, 2006. The duo &lt;a href="http://www.contactmusic.com/news/the-wreckers-split_1058117" rel="noopener nofollow"&gt;eventually&lt;/a&gt; split up in 2008.&lt;/p&gt;\n\n&lt;p&gt;In 2010, she released an extended play titled &lt;a href="https://genius.com/albums/Michelle-branch/Everything-comes-and-goes-ep" rel="noopener" data-api_path="/albums/163277"&gt;&lt;em&gt;Everything Comes and Goes&lt;/em&gt;&lt;/a&gt;, and in 2011 an extended play, titled &lt;a href="https://genius.com/albums/Michelle-branch/The-loud-music-hits-ep" rel="noopener" data-api_path="/albums/207631"&gt;&lt;em&gt;The Loud Music Hits&lt;/em&gt;&lt;/a&gt;, which featured several of Branch’s biggest hit singles from her career and a new song titled &lt;a href="https://genius.com/Michelle-branch-loud-music-lyrics" rel="noopener" data-api_path="/songs/857805"&gt;“Loud Music”&lt;/a&gt;. An album titled &lt;em&gt;West Coast Time&lt;/em&gt; was &lt;a href="https://www.billboard.com/articles/news/467749/michelle-branch-the-making-of-new-album-west-coast-time-exclusive-video" rel="noopener nofollow"&gt;set to be released&lt;/a&gt; the same year, but never came to fruition, though many songs from the album sessions have leaked online. In 2015, Branch &lt;a href="https://twitter.com/michellebranch/status/623344244543983616?lang=en" rel="noopener nofollow"&gt;confirmed&lt;/a&gt; the album would not be released.&lt;/p&gt;\n\n&lt;p&gt;For the first time in fourteen years, Branch released her fourth full-length studio album, &lt;a href="https://genius.com/albums/Michelle-branch/Hopeless-romantic" rel="noopener" data-api_path="/albums/328350"&gt;&lt;em&gt;Hopeless Romantic&lt;/em&gt;&lt;/a&gt;. The album was her first on a new label, Verve Records.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Irene-cara', 'annotations': {'description': '&lt;p&gt;An 80s pop star. Most famous for her work on the Flashdance soundtrack and her role in Fame.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Caesars', 'annotations': {'description': '&lt;p&gt;Caesars was a four member band formed in Stockholm in 1993. They released their first EP in 1995 and their third studio-album ‘Love for the Streets’ in their native country in 2002. It was the album that carried their biggest hit ‘Jerk it out’ which gained global success when it appeared in a wildly broadcasted commercial in 2005.&lt;br&gt;\nThey released their last full-length album called “Strawberry Weed” in 2008.&lt;br&gt;\nIn 2012 the band’s guitarist Joakim Åhlund stated that they’d “put the band on ice”, and they haven’t released anything since.&lt;/p&gt;', 'alternate_names': ["Caesar's Palace"]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Fergie', 'annotations': {'description': '&lt;p&gt;Fergie Duhamel, born Stacy Ann Ferguson, started her career in television. She starred in six seasons of &lt;em&gt;Kids Incorporated&lt;/em&gt; before leaving the show in 1989. Fergie would venture through a couple of gigs including music group &lt;a href="https://genius.com/artists/Wild-orchid" rel="noopener" data-api_path="/artists/360903"&gt;Wild Orchid&lt;/a&gt; before landing success with one of the most recognizable band of the 2000s: &lt;a href="https://genius.com/artists/Black-eyed-peas" rel="noopener" data-api_path="/artists/425"&gt;Black Eyed Peas&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Joining the band in 2003, with her first feature on hit single &lt;a href="https://genius.com/Black-eyed-peas-where-is-the-love-lyrics" rel="noopener" data-api_path="/songs/10680"&gt;“Where is the Love?”"&lt;/a&gt;, Fergie, &lt;a href="https://genius.com/artists/William" rel="noopener" data-api_path="/artists/713"&gt;\u200bwill.i.am&lt;/a&gt;, &lt;a href="https://genius.com/artists/Apldeap" rel="noopener" data-api_path="/artists/47060"&gt;Apl.de.ap&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Taboo" rel="noopener" data-api_path="/artists/5181"&gt;Taboo&lt;/a&gt; reached mainstream success as the Black Eyed Peas grew in renown and popularity as a pop-hiphop group. After releasing the commercially successful album &lt;em&gt;&lt;a href="https://genius.com/albums/Black-eyed-peas-monkey-business" rel="noopener"&gt;Monkey Business&lt;/a&gt;&lt;/em&gt; with the Black Eyed Peas in mid-2005, Fergie ventured into her solo career with a debut album that continues to be her greatest work: &lt;em&gt;&lt;a href="https://genius.com/albums/The-Dutchess" rel="noopener"&gt;The Dutchess&lt;/a&gt;&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;Released in 2006, the record brought Fergie five multi-platinum singles, including &lt;a href="https://genius.com/Fergie-glamorous-lyrics" rel="noopener" data-api_path="/songs/32326"&gt;“Glamorous”&lt;/a&gt;, &lt;a href="https://genius.com/Fergie-big-girls-dont-cry-lyrics" rel="noopener" data-api_path="/songs/268843"&gt;“Big Girls Don’t Cry”&lt;/a&gt;, and &lt;a href="https://genius.com/Fergie-fergalicious-lyrics" rel="noopener" data-api_path="/songs/32275"&gt;“Fergalicious”&lt;/a&gt;. The latter has catapulted Fergie into pop culture relevance, and the term “fergalicious” or some variation of it is never put to rest in American pop culture.&lt;/p&gt;\n\n&lt;p&gt;With the Black Eyed Peas, Fergie climbed to even greater heights, with singles &lt;a href="https://genius.com/Black-eyed-peas-boom-boom-pow" rel="noopener"&gt;“Boom Boom Pow”&lt;/a&gt; and &lt;a href="https://genius.com/Black-eyed-i-gotta-feeling" rel="noopener"&gt;“I Gotta Feeling”&lt;/a&gt; dominating 2009.&lt;/p&gt;\n\n&lt;p&gt;Fergie later got a &lt;a href="http://www.dailymail.co.uk/tvshowbiz/article-2040842/Fergie-unveils-wax-figure-doppelg-nger-Madame-Tussauds.html" rel="noopener nofollow"&gt;Madame Tussauds figure&lt;/a&gt;, headlined the &lt;a href="https://www.youtube.com/watch?v=11T2B9NH8yM" rel="noopener nofollow"&gt;Super Bowl halftime show with the rest of the band&lt;/a&gt;; and &lt;a href="https://www.avon.com/product/39692/outspoken-by-fergie-eau-de-parfum-spray?setlang=en" rel="noopener nofollow"&gt;released her own fragrance &lt;em&gt;Outspoken&lt;/em&gt;&lt;/a&gt;. She returned to her solo career in 2014 with &lt;a href="https://genius.com/Fergie-la-love-la-la-lyrics" rel="noopener" data-api_path="/songs/520238"&gt;“L.A. LOVE”&lt;/a&gt; and &lt;a href="https://genius.com/Fergie-milf-lyrics" rel="noopener" data-api_path="/songs/2710603"&gt;“M.I.L.F. $”&lt;/a&gt; in 2016.&lt;/p&gt;\n\n&lt;p&gt;Fergie has fearlessly imprinted the face of modern pop music. The world can only wait to see what she will conquer next.&lt;/p&gt;', 'alternate_names': ['Stacy Ann Ferguson', 'Stacy Ferguson']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Morrissey', 'annotations': {'description': '&lt;p&gt;Steven Patrick Morrissey is an English singer and lyricist, most notably known for being the lead vocalist in English band &lt;a href="https://genius.com/artists/The-smiths" rel="noopener" data-api_path="/artists/16669"&gt;The Smiths&lt;/a&gt;. He’s also had a successful solo career after the group disbanded in 1987.&lt;/p&gt;', 'alternate_names': ['Steven Morrissey', 'Steven P. Morrissey', 'Steven Patrick Morrissey']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Peter-tosh', 'annotations': {'description': '&lt;p&gt;Hubert Winston McIntosh (October 19, 1944 – September 11, 1987), better known by his stage name Peter Tosh, was a talented reggae multi-instrumentalist, songwriter, and vocalist from Jamaica. In addition to being a founding member of &lt;a href="https://genius.com/artists/The-wailers" rel="noopener" data-api_path="/artists/16126"&gt;The Wailers&lt;/a&gt;, Tosh would go on to distinguish himself as one of the biggest reggae artists of the 1970’s and 1980’s.&lt;/p&gt;\n\n&lt;p&gt;Many of the songs that he wrote for the Wailers were influenced by the prevailing &lt;a href="http://www.jamaicaobserver.com/news/the-making-of-peter-tosh-live-at-the-one-love-peace-concert_131076" rel="noopener nofollow"&gt;political and economic repression.&lt;/a&gt; Sung with his rich baritone, Wailer hits like &lt;a href="https://genius.com/The-wailers-no-sympathy-lyrics" rel="noopener" data-api_path="/songs/809985"&gt;“No Sympathy,”&lt;/a&gt; &lt;a href="https://genius.com/The-wailers-400-years-lyrics" rel="noopener" data-api_path="/songs/810134"&gt;“400 Years,”&lt;/a&gt; and “&lt;a href="https://genius.com/The-wailers-stop-that-train-lyrics" rel="noopener" data-api_path="/songs/306027"&gt;Stop That Train"&lt;/a&gt; all reflect his response to the political and social situation of the oppressed. He also co-wrote one of the most celebrated reggae anthems, &lt;a href="https://genius.com/The-wailers-get-up-stand-up-lyrics" rel="noopener" data-api_path="/songs/4743273"&gt;“Get Up, Stand Up,”&lt;/a&gt; with Bob Marley.&lt;/p&gt;\n\n&lt;p&gt;By the time The Wailers\' released their 1973 album, &lt;em&gt;Burnin\'&lt;/em&gt;, Tosh &lt;a href="https://web.archive.org/web/20120709081953/http://lareviewofbooks.org/article.php?type=&amp;amp;id=688&amp;amp;fulltext=1&amp;amp;media=" rel="noopener nofollow"&gt;had begun to chafe&lt;/a&gt; at Island Records insistence on marketing the group as Bob Marley &amp;amp; The Wailers. Resentful of the perception that he was merely backing up his old friend (Bob Marley), Tosh decided to become a solo artist. His 1976 debut album, &lt;a href="https://genius.com/albums/Peter-tosh/Legalize-it" rel="noopener" data-api_path="/albums/27664"&gt;&lt;em&gt;Legalize It&lt;/em&gt;,&lt;/a&gt; spent two weeks in the &lt;a href="https://www.billboard.com/music/peter-tosh/chart-history/billboard-200/song/194689" rel="noopener nofollow"&gt;Billboard 200&lt;/a&gt; and even got platinum certified. Its title track &lt;a href="http://petertosh.com/legalize-it-jamaicas-weed-decriminalization-explained-by-the-wailers-lyrics-of-peter-tosh/" rel="noopener nofollow"&gt;became an international mantra&lt;/a&gt; as it espoused decriminalizing the use and possession of marijuana.&lt;/p&gt;\n\n&lt;p&gt;Tosh was murdered by robbers at the age of 42, he died &lt;a href="https://www.nytimes.com/1987/09/13/world/gunmen-kill-peter-tosh-reggae-star-in-jamaica.html" rel="noopener nofollow"&gt;from gunshot wounds&lt;/a&gt; sustained during a home invasion in 1987. In 2012, Tosh was posthumously awarded Jamaica’s &lt;a href="http://www.jamaicaobserver.com/news/Peter-Tosh-heads-national-honours-list_12208356" rel="noopener nofollow"&gt;Order of Merit&lt;/a&gt;, and a museum commemorating his life has been open to the public in Kingston, Jamaica since 2016.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Fleetwood-mac', 'annotations': {'description': '&lt;p&gt;Formed from the ashes of John Mayall’s Bluesbreaker, legendary blues guitarist Peter Green, drummer Mick Fleetwood and bassist John (Mac) McVie formed Fleetwood Mac and had several songs reach the top two spots of the UK Chart in the late 1960s and early 1970s. The band went through &lt;a href="https://www.buzzfeed.com/perpetua/19-things-you-might-not-know-about-fleetwood-mac?utm_term=.bt97VVBqm#.hlON88R4W" rel="noopener nofollow"&gt;nine lineup changes&lt;/a&gt;, including Green’s exit, before the addition of Stevie Nicks and Lindsey Buckingham, a move that elevated the band to international stardom with their self-titled 1975 album, which scored &lt;a href="https://www.billboard.com/music/fleetwood-mac/chart-history" rel="noopener nofollow"&gt;three top 20 US hits&lt;/a&gt;, and its follow-up &lt;em&gt;Rumours&lt;/em&gt;, one of the &lt;a href="https://www.businessinsider.com/50-best-selling-albums-all-time-2016-9#11-shania-twain-come-on-over-40" rel="noopener nofollow"&gt;best-selling albums&lt;/a&gt; of all time, spawning four top 10 hits in the US and four top 40s in the UK.&lt;/p&gt;\n\n&lt;p&gt;The band released three more albums over the next ten years that reached the top 10 in several countries around the world, racking up 9 more US top 20s and 5 more UK top 10s, but &lt;a href="https://www.uncut.co.uk/features/fleetwood-mac-everybody-was-pretty-weirded-out-the-story-of-rumours-26395" rel="noopener nofollow"&gt;relations between members&lt;/a&gt; were in a &lt;a href="https://www.buzzfeed.com/perpetua/19-things-you-might-not-know-about-fleetwood-mac?utm_term=.xcyDpp2nw#.njnwkkPVA" rel="noopener nofollow"&gt;continuous state of turmoil&lt;/a&gt; with breakups, marriages, divorces, affairs and overindulgence in alcohol and drugs. &lt;a href="http://creation.com.es/news/fleetwood-mac-hold-me/" rel="noopener nofollow"&gt;A prime example can be found&lt;/a&gt; in the 1982 video shoot for “Hold Me\', with the producer calling it “a fucking nightmare” and its director adding, “Four of them—I can’t recall which four—couldn’t be together in the same room for very long … John McVie was drunk and tried to punch me. Stevie Nicks didn’t want to walk on the sand with her platforms. Christine McVie was fed up with all of them. Mick thought she was being a bitch, he wouldn’t talk to her.”&lt;/p&gt;\n\n&lt;p&gt;Nicks, Buckingham and Christine McVie had each also launched successful solo careers during their membership in the band, but after the band’s internationally successful 1987 album &lt;em&gt;Tango In The Night&lt;/em&gt; spawned four US top 20 hits, &lt;a href="https://www.rollingstone.com/music/music-news/lindsey-buckingham-leaves-fleetwood-mac-84541/" rel="noopener nofollow"&gt;Buckingham officially left that year&lt;/a&gt;. Fleetwood Mac struggled to remain relevant with 1990’s &lt;em&gt;Behind The Mask&lt;/em&gt; finding moderate success and 1995’s &lt;em&gt;Time&lt;/em&gt; going largely unnoticed.&lt;/p&gt;\n\n&lt;p&gt;In 1997, the classic lineup of Fleetwood / McVie / McVie / Nicks / Buckingham &lt;a href="http://ultimateclassicrock.com/fleetwood-macs-reunion-album-the-dance-turns-15/" rel="noopener nofollow"&gt;reunited&lt;/a&gt; to record the live album &lt;em&gt;The Dance&lt;/em&gt;, which led to international success, three Grammy nominations, a 44-date North American tour and a 1998 induction into the Rock And Roll Hall Of Fame. A 2003 album without Christine McVie found success at first, but cooled quickly. The band has continued to see its members occasionally exit and return since.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Steve-aoki', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://steveaoki.com/" rel="noopener nofollow"&gt;Steve Aoki&lt;/a&gt; is an American electronic house DJ, producer, and founder of &lt;a href="https://genius.com/artists/Dim-mak-records" rel="noopener" data-api_path="/artists/1013116"&gt;Dim Mak Records&lt;/a&gt;, heard world-wide. He is also the son of the &lt;a href="http://www.benihana.com/about/" rel="noopener nofollow"&gt;Benihana’s&lt;/a&gt; founder, Rocky Aoki.&lt;/p&gt;\n\n&lt;p&gt;Throughout his career, Aoki has built an extensive catalog of collaborations with other acts, such as &lt;a href="https://genius.com/artists/William" rel="noopener" data-api_path="/artists/713"&gt;\u200bwill.i.am&lt;/a&gt;, &lt;a href="https://genius.com/artists/Bts" rel="noopener" data-api_path="/artists/70113"&gt;BTS&lt;/a&gt;, &lt;a href="https://genius.com/artists/Fall-out-boy" rel="noopener" data-api_path="/artists/7811"&gt;Fall Out Boy&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Monsta-x" rel="noopener" data-api_path="/artists/653084"&gt;MONSTA X&lt;/a&gt;, just to name a few. Some of his most popular tracks are remixes of other artists\' works, such as his remix of &lt;a href="https://genius.com/artists/Kid-cudi" rel="noopener" data-api_path="/artists/68"&gt;Kid Cudi&lt;/a&gt;’s &lt;a href="https://genius.com/Kid-cudi-pursuit-of-happiness-steve-aoki-remix-lyrics" rel="noopener" data-api_path="/songs/2102308"&gt;“Pursuit of Happiness”&lt;/a&gt;, or the remix of &lt;a href="https://genius.com/Bts-mic-drop-steve-aoki-remix-lyrics" rel="noopener" data-api_path="/songs/3333474"&gt;“MIC Drop”&lt;/a&gt; by BTS.&lt;/p&gt;\n\n&lt;p&gt;Aoki has also dedicated himself to other projects, such as DIM MAK’s &lt;a href="https://dimmakcollection.com/" rel="noopener nofollow"&gt;clothing line&lt;/a&gt; or the &lt;a href="https://aokifoundation.org/" rel="noopener nofollow"&gt;Aoki Foundation&lt;/a&gt;, which aims to support organizations in the field of brain science and research.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Knife-party', 'annotations': {'description': '&lt;p&gt;America has Skrillex. Australia has Knife Party. Both make the same type of music – in very different styles.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Samantha-fox', 'annotations': {'description': '&lt;p&gt;Samantha Karen Fox (born April 15, 1966) is an English singer-songwriter and actress. She rose to fame in the 1980s as a Page 3 model, but became a legitimate star after the release of her debut single, “&lt;a href="https://genius.com/Samantha-fox-touch-me-i-want-your-body-lyrics" rel="noopener" data-api_path="/songs/1929749"&gt;Touch Me (I Want Your Body)&lt;/a&gt;”.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Fountains-of-wayne', 'annotations': {'description': '&lt;p&gt;Fountains of Wayne was an American rock band that formed in New York City in 1995. The band consisted of singer Chris Collingwood, bassist Adam Schlesinger, guitarist Jody Porter, and drummer Brian Young. The band was best known for their 2003 Grammy-nominated single “Stacy’s Mom.”&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Marilyn-manson', 'annotations': {'description': '&lt;p&gt;Brian Hugh Warner who is better known under his stage name of &lt;strong&gt;Marilyn Manson&lt;/strong&gt; is a musician, painter, actor, multimedia artist, and former music journalist. His stage name is a combination of the names of two American icons, actress &lt;a href="https://genius.com/artists/Marilyn-monroe" rel="noopener" data-api_path="/artists/1949"&gt;Marilyn Monroe&lt;/a&gt; and multiple murder conspiracy convict &lt;a href="https://genius.com/artists/Charles-manson" rel="noopener" data-api_path="/artists/25277"&gt;Charles Manson&lt;/a&gt;.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I picked that (Marilyn Manson) as the fakest stage name of all to say that this is what show business is, fake. Marilyn Monroe wasn’t even her real name, Charles Manson isn’t his real name, and now, I’m taking that to be my real name. But what’s real? You can’t find the truth, you just pick the lie you like the best. As long as you know everything’s a lie, you can’t hurt yourself.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;—&lt;a href="http://hollywoodlife.com/celeb/marilyn-manson/" rel="noopener nofollow"&gt;Marylin Manson&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Marilyn Manson is also the name of his rock band, originally “Marilyn Manson and the Spooky Kids”, where everyone had the same naming convention as the singer:&lt;/p&gt;\n\n&lt;ul&gt;\n&lt;li&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Twiggy-ramirez" rel="noopener" data-api_path="/artists/1099065"&gt;Twiggy Ramirez&lt;/a&gt;:&lt;/strong&gt; &lt;a href="https://genius.com/artists/Twiggy" rel="noopener" data-api_path="/artists/19553"&gt;Twiggy&lt;/a&gt; + &lt;a href="https://en.wikipedia.org/wiki/Richard_Ramirez" rel="noopener nofollow"&gt;Richard Ramirez&lt;/a&gt;\n&lt;/li&gt;\n&lt;li&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Madonna-wayne-gacy" rel="noopener" data-api_path="/artists/649881"&gt;Madonna Wayne Gacy&lt;/a&gt;:&lt;/strong&gt; &lt;a href="https://genius.com/artists/Madonna" rel="noopener" data-api_path="/artists/276"&gt;Madonna&lt;/a&gt; + &lt;a href="https://en.wikipedia.org/wiki/John_Wayne_Gacy" rel="noopener nofollow"&gt;John Wayne Gacy&lt;/a&gt;\n&lt;/li&gt;\n&lt;li&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Ginger-fish" rel="noopener" data-api_path="/artists/649880"&gt;Ginger Fish&lt;/a&gt;:&lt;/strong&gt; &lt;a href="https://genius.com/artists/Fred-astaire-and-ginger-rogers" rel="noopener" data-api_path="/artists/382665"&gt;Ginger Roberts&lt;/a&gt; + &lt;a href="https://en.wikipedia.org/wiki/Albert_Fish" rel="noopener nofollow"&gt;Albert FIsh&lt;/a&gt;\n&lt;/li&gt;\n&lt;li&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Daisy-berkowitz" rel="noopener" data-api_path="/artists/404173"&gt;Daisy Berkowitz&lt;/a&gt;:&lt;/strong&gt; &lt;a href="https://en.wikipedia.org/wiki/Daisy_Duke" rel="noopener nofollow"&gt;Daisy Duke&lt;/a&gt; + &lt;a href="https://en.wikipedia.org/wiki/David_Berkowitz" rel="noopener nofollow"&gt;David “Son of Sam” Berkowitz&lt;/a&gt;\n&lt;/li&gt;\n&lt;li&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Gidget-gein" rel="noopener" data-api_path="/artists/526358"&gt;Gidget Gein&lt;/a&gt;:&lt;/strong&gt; &lt;a href="https://en.wikipedia.org/wiki/Gidget" rel="noopener nofollow"&gt;Gidget&lt;/a&gt; + &lt;a href="https://en.wikipedia.org/wiki/Ed_Gein" rel="noopener nofollow"&gt;Ed Gein&lt;/a&gt;\n&lt;/li&gt;\n&lt;li&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Sara-lee-lucas" rel="noopener" data-api_path="/artists/491172"&gt;Sara Lee Lucas&lt;/a&gt;:&lt;/strong&gt; &lt;a href="https://en.wikipedia.org/wiki/Sara_Lee_Corporation" rel="noopener nofollow"&gt;Sara Lee&lt;/a&gt; + &lt;a href="https://en.wikipedia.org/wiki/Henry_Lee_Lucas" rel="noopener nofollow"&gt;Henry Lee Lucas&lt;/a&gt;\n&lt;/li&gt;\n&lt;li&gt;Plus &lt;a href="https://genius.com/artists/Olivia-newton-john" rel="noopener" data-api_path="/artists/281740"&gt;Olivia Newton&lt;/a&gt;, &lt;a href="https://en.wikipedia.org/wiki/Ted_Bundy" rel="noopener nofollow"&gt;Bundy&lt;/a&gt; and &lt;a href="https://genius.com/artists/Zsa-zsa-gabor" rel="noopener" data-api_path="/artists/14183"&gt;Zsa Zsa&lt;/a&gt; &lt;a href="https://en.wikipedia.org/wiki/Richard_Speck" rel="noopener nofollow"&gt;Speck&lt;/a&gt;, who left early in the band.&lt;/li&gt;\n&lt;/ul&gt;', 'alternate_names': ['Brian H. Warner', 'Brian Hugh Warner', 'Brian Warner']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/La-bouche', 'annotations': {'description': '&lt;p&gt;La Bouche is a duo, created in 1987. Their career started to take off when they released “Sweet Dreams” and “Be My Lover” which both were hits on the Billboard Hot 100, peaking at #13 and #6, respectively. In 2018, They came back with a new single called ‘Night After Night’.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Eurythmics', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://www.theguardian.com/music/2016/feb/13/dave-stewart-interview-annie-lennox-eurythmics-sweet-dreams-are-made-of-this" rel="noopener nofollow"&gt;While working&lt;/a&gt; as a waitress at a health food restaurant in London, Annie Lennox met Dave Stewart, with whom she formed the band Catch with singer-songwriter Peet Coombes. Catch &lt;a href="https://www.discogs.com/artist/2435996-The-Catch-2" rel="noopener nofollow"&gt;released one single&lt;/a&gt; before adding two more members and changing their name to The Tourists. Under that name, the band &lt;a href="https://www.officialcharts.com/artist/17717/tourists/" rel="noopener nofollow"&gt;scored five UK hits&lt;/a&gt; before Coombes\' substance abuse broke the band apart.&lt;/p&gt;\n\n&lt;p&gt;Lennox and Stewart continued writing together as Eurythmics, with Stewart moving from guitar to synthesizer and Lennox adopting an androgynous look. Within a few years, the duo was propelled into international stardom when “Sweet Dreams (Are Made Of This)”, a single from their second album, became a top ten hit in nine countries.&lt;/p&gt;\n\n&lt;p&gt;Over the decade, the duo moved away from their dark new wave sound and S&amp;amp;M imagery, evolving into a more mainstream synthpop and rock band. In that time, they scored &lt;a href="https://www.officialcharts.com/artist/27723/eurythmics/" rel="noopener nofollow"&gt;twenty-one&lt;/a&gt; UK top 40’s (ten of which were also US top 40 hits). In 1990, Eurythmics quietly disbanded and Lennox took a break from music to have her first child. Stewart collaborated Candy Dulfer and scored a top 20 hit in several countries around the world with “Lily Was Here”.&lt;/p&gt;\n\n&lt;p&gt;Stewart then formed Dave Stewart and the Spiritual Cowboys that year, releasing two albums. He also launched a successful career as a solo musician and producer, collaborating with several artists like Paul McCartney, Bono, Stevie Nicks and Mick Jagger. In 1992, Lennox began her own successful solo career, releasing several singles that reached the top 20 in at least nine countries around the world.&lt;/p&gt;\n\n&lt;p&gt;Lennox and Stewart reunited in 1999 for the album &lt;em&gt;Peace&lt;/em&gt;. It gave the group two more UK top 40 singles that also found additional scattered chart success overseas. That same year, the band &lt;a href="https://www.telegraph.co.uk/culture/music/brit-awards/11432476/The-Brit-Awards-most-successful-acts.html?frame=3210735" rel="noopener nofollow"&gt;won an award&lt;/a&gt; for Outstanding Contribution to British Music.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Bodyrockers', 'annotations': {'description': '&lt;p&gt;Bodyrockers were an Anglo-Irish / Australian Dance Rock Group consisting of Kaz James and Dylan Burns. The group released their first (and only) album in 2005 which featured the single “I Like The Way (You Move)”.&lt;br&gt;\nThis song was their biggest hit as it charted all over the globe.&lt;/p&gt;\n\n&lt;p&gt;After creating an unreleased second album, the duo disbanded shortly afterwards and worked on solo work on their own.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Franz-ferdinand', 'annotations': {'description': '&lt;p&gt;Franz Ferdinand are a Scottish rock band formed in 2002 and based in Glasgow. The band was originally composed of Alex Kapranos (lead vocals and guitar), Bob Hardy (bass guitar), Nick McCarthy (rhythm guitar, keyboards and backing vocals), and Paul Thomson (drums, percussion and backing vocals). Following McCarthy’s departure in 2016 after four albums and a full-length collaboration with &lt;a href="https://genius.com/artists/Sparks" rel="noopener" data-api_path="/artists/3490"&gt;Sparks&lt;/a&gt; using the name &lt;a href="https://genius.com/artists/Ffs" rel="noopener" data-api_path="/artists/341895"&gt;FFS&lt;/a&gt;, the band brought in Julian Corrie (keyboards, synthesizers, backing vocals) before working on their fifth album, &lt;a href="https://genius.com/albums/Franz-ferdinand/Always-ascending" rel="noopener" data-api_path="/albums/376692"&gt;&lt;em&gt;Always Ascending&lt;/em&gt;&lt;/a&gt;. After the album’s recording, they added Dino Bardot (guitar and backing vocals) to the line-up.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Sean-paul', 'annotations': {'description': '&lt;p&gt;Sean Paul Ryan Francis Henriques (born January 9, 1973), better known as Sean Paul is a Jamaican dancehall musician.&lt;/p&gt;\n\n&lt;p&gt;On March 28, 2000, he had released his debut studio album, &lt;a href="https://genius.com/albums/Sean-paul/Stage-one" rel="noopener" data-api_path="/albums/22227"&gt;&lt;em&gt;Stage One&lt;/em&gt;&lt;/a&gt;, through &lt;a href="https://genius.com/artists/Vp-records" rel="noopener" data-api_path="/artists/157515"&gt;VP Records&lt;/a&gt; and &lt;a href="https://genius.com/artists/Universal-music-group" rel="noopener" data-api_path="/artists/1104563"&gt;Universal Music Group&lt;/a&gt;. The album’s most notable song was its first single &lt;a href="https://genius.com/Sean-paul-deport-them-lyrics" rel="noopener" data-api_path="/songs/91093"&gt;“Deport Them”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;On November 12, 2002, Sean Paul released his second album, entitled &lt;a href="https://genius.com/albums/Sean-paul/Dutty-rock" rel="noopener" data-api_path="/albums/6553"&gt;&lt;em&gt;Dutty Rock&lt;/em&gt;&lt;/a&gt;, which later inspired him to name his own record label, &lt;a href="https://genius.com/artists/Dutty%20Rock%20Productions" rel="noopener" data-api_path="/artists/1336468"&gt;Dutty-rock-productions&lt;/a&gt;. The album’s most popular songs were the solo singles &lt;a href="https://genius.com/Sean-paul-like-glue-lyrics" rel="noopener" data-api_path="/songs/107606"&gt;“Like Glue”&lt;/a&gt; and &lt;a href="https://genius.com/Sean-paul-get-busy-lyrics" rel="noopener" data-api_path="/songs/33067"&gt;“Get Busy”&lt;/a&gt;, and his collaboration with singer &lt;a href="https://genius.com/artists/Beyonce" rel="noopener" data-api_path="/artists/498"&gt;Beyoncé&lt;/a&gt;, called &lt;a href="https://genius.com/Beyonce-baby-boy-lyrics" rel="noopener" data-api_path="/songs/81345"&gt;“Baby Boy”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;On September 27, 2005, Sean released his third studio album, &lt;a href="https://genius.com/albums/Sean-paul/The-trinity" rel="noopener" data-api_path="/albums/165398"&gt;&lt;em&gt;The Trinity&lt;/em&gt;&lt;/a&gt;, under the label &lt;a href="https://genius.com/artists/Atlantic-records" rel="noopener" data-api_path="/artists/68978"&gt;Atlantic Records&lt;/a&gt;. The project contains songs like &lt;a href="https://genius.com/Sean-paul-temperature-lyrics" rel="noopener" data-api_path="/songs/55368"&gt;“Temperature”&lt;/a&gt;, &lt;a href="https://genius.com/Sean-paul-ever-blazin-lyrics" rel="noopener" data-api_path="/songs/829779"&gt;“Ever Blazin\'”&lt;/a&gt; and &lt;a href="https://genius.com/Sean-paul-we-be-burnin-recognize-it-lyrics" rel="noopener" data-api_path="/songs/54129"&gt;“We Be Burnin\' (Recognize It)”&lt;/a&gt;, which serves as the radio edit of &lt;a href="https://genius.com/Sean-paul-we-be-burnin-legalize-it-lyrics" rel="noopener" data-api_path="/songs/334550"&gt;“We Be Burnin\' (Legalize It)”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;On August 18, 2009, Sean Paul released his fourth studio album, &lt;a href="https://genius.com/albums/Sean-paul/Imperial-blaze" rel="noopener" data-api_path="/albums/13349"&gt;&lt;em&gt;Imperial Blaze&lt;/em&gt;&lt;/a&gt;, via &lt;a href="https://genius.com/artists/Vp-records" rel="noopener" data-api_path="/artists/157515"&gt;VP Records&lt;/a&gt;. The most notable songs in the album are &lt;a href="https://genius.com/Sean-paul-press-it-up-lyrics" rel="noopener" data-api_path="/songs/829552"&gt;“Press It Up”&lt;/a&gt;, &lt;a href="https://genius.com/Sean-paul-so-fine-lyrics" rel="noopener" data-api_path="/songs/75931"&gt;“So Fine”&lt;/a&gt; and &lt;a href="https://genius.com/Sean-paul-hold-my-hand-lyrics" rel="noopener" data-api_path="/songs/829962"&gt;“Hold My Hand”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;On January 24, 2012, he had released his fifth studio album, entitled &lt;a href="https://genius.com/albums/Sean-paul/Tomahawk-technique" rel="noopener" data-api_path="/albums/219947"&gt;&lt;em&gt;Tomahawk Technique&lt;/em&gt;&lt;/a&gt;, under the label &lt;a href="https://genius.com/artists/Atlantic-records" rel="noopener" data-api_path="/artists/68978"&gt;Atlantic Records&lt;/a&gt;. The project contains songs like &lt;a href="https://genius.com/Sean-paul-she-doesnt-mind-lyrics" rel="noopener" data-api_path="/songs/66696"&gt;“She Doesn’t Mind”&lt;/a&gt;, &lt;a href="https://genius.com/Sean-paul-body-lyrics" rel="noopener" data-api_path="/songs/829432"&gt;“Body”&lt;/a&gt;, and &lt;a href="https://genius.com/Sean-paul-got-2-luv-u-lyrics" rel="noopener" data-api_path="/songs/59823"&gt;“Got 2 Luv U”&lt;/a&gt;, which features &lt;a href="https://genius.com/artists/Alexis-jordan" rel="noopener" data-api_path="/artists/15103"&gt;Alexis Jordan&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Sean P. F. Henriques', 'Sean Henriques', 'Sean Paul Francis Henriques', 'Dutty Paul']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Coldplay', 'annotations': {'description': '&lt;p&gt;Coldplay is a British rock band, formed in 1997 by University College London classmates &lt;a href="https://genius.com/artists/Chris-martin" rel="noopener" data-api_path="/artists/353"&gt;Chris Martin&lt;/a&gt; (vocals, guitar, piano), &lt;a href="https://genius.com/artists/Jonny-buckland" rel="noopener" data-api_path="/artists/182604"&gt;Jonny Buckland&lt;/a&gt; (guitar) and &lt;a href="https://genius.com/artists/Guy-berryman" rel="noopener" data-api_path="/artists/173684"&gt;Guy Berryman&lt;/a&gt; (bass), along with drummer &lt;a href="https://genius.com/artists/Will-champion" rel="noopener" data-api_path="/artists/182605"&gt;Will Champion&lt;/a&gt;. The band’s name comes from &lt;a href="https://web.archive.org/web/20170809171008/http://www.coldplay.com/newsdetail.php?id=80" rel="noopener nofollow"&gt;Tim Crompton&lt;/a&gt;, a student who was in the same university as the members (University College London) at the time. They were previously known as Pectoralz, then changed their name to Starfish in 1997 &lt;a href="https://kiisfm.iheart.com/content/2021-06-15-24-facts-you-need-to-know-about-our-2021-iheartradio-music-festival-lineup/" rel="noopener nofollow"&gt;before finally settling on the name Coldplay&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Once they issued their debut, &lt;em&gt;&lt;a href="https://genius.com/albums/Coldplay/Parachutes" rel="noopener" data-api_path="/albums/18002"&gt;Parachutes&lt;/a&gt;&lt;/em&gt; in 2000, many saw them as a &lt;a href="https://genius.com/artists/Radiohead" rel="noopener" data-api_path="/artists/604"&gt;Radiohead&lt;/a&gt; knock-off. No doubt, Coldplay’s sound —elegant, melodic, vaguely spacey and very dramatic — bore plenty of similarity to mid-1990s Radiohead. But the group’s hooks, sharpened by frontman Chris Martin’s ability to pull heartstrings, and the their willingness to evolve their sound, gave Coldplay staying power. The greatest examples are second album &lt;em&gt;&lt;a href="https://genius.com/albums/Coldplay/A-rush-of-blood-to-the-head" rel="noopener" data-api_path="/albums/17979"&gt;A Rush of Blood to the Head&lt;/a&gt;&lt;/em&gt; (2002), which was generally considered to be musically and lyrically more mature and sophisticated, and less obviously the product of one particular influence, and the fourth one &lt;em&gt;&lt;a href="https://genius.com/albums/Coldplay/A-rush-of-blood-to-the-head" rel="noopener" data-api_path="/albums/17979"&gt;Viva La Vida or Death and All His Friends&lt;/a&gt;&lt;/em&gt; (2008), where producer &lt;a href="https://genius.com/artists/Brian-eno" rel="noopener" data-api_path="/artists/29972"&gt;Brian Eno&lt;/a&gt; influenced the band to broaden their sound and led to various sonic landscapes. Both won the Grammy Award for Best Rock Album and spawned sucessful singles such as &lt;a href="https://genius.com/Coldplay-clocks-lyrics" rel="noopener" data-api_path="/songs/53753"&gt;“Clocks”&lt;/a&gt;, &lt;a href="https://genius.com/Coldplay-viva-la-vida-lyrics" rel="noopener" data-api_path="/songs/49192"&gt;“Viva la Vida”&lt;/a&gt;, &lt;a href="https://genius.com/Coldplay-in-my-place-lyrics" rel="noopener" data-api_path="/songs/77596"&gt;“In My Place”&lt;/a&gt;, &lt;a href="https://genius.com/Coldplay-violet-hill-lyrics" rel="noopener" data-api_path="/songs/64086"&gt;“Violet Hill”&lt;/a&gt; and &lt;a href="https://genius.com/Coldplay-the-scientist-lyrics" rel="noopener" data-api_path="/songs/77594"&gt;“The Scientist”&lt;/a&gt;.&lt;br&gt;\nColdplay also proved they can use truly rock sounds in their albums, as shown in &lt;a href="https://genius.com/albums/Coldplay/X-y" rel="noopener" data-api_path="/albums/11506"&gt;&lt;em&gt;X&amp;amp;Y&lt;/em&gt;&lt;/a&gt;, and juggle with more electronics albums like &lt;a href="https://genius.com/albums/Coldplay/Mylo-xyloto" rel="noopener" data-api_path="/albums/12250"&gt;&lt;em&gt;Mylo Xyloto&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Coldplay/Ghost-stories" rel="noopener" data-api_path="/albums/85921"&gt;&lt;em&gt;Ghost Stories&lt;/em&gt;&lt;/a&gt; or &lt;a href="https://genius.com/albums/Coldplay/A-head-full-of-dreams" rel="noopener" data-api_path="/albums/134218"&gt;&lt;em&gt;A Head Full of Dreams&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;As a result, the band became one of the most commercially successful acts of the new millennium, with over 80 million albums sold – even if along with the acclaim came a vocal opposition, due to the supposedly derivative nature, the overtly emotional lyrics, and the fact they’re good-mannered English boys instead of wild rockstars. As a result, Coldplay are thought as either a punchline showing all that’s wrong with 21st century rock, or a really good if overplayed band with songs tailor made for stadium performances.&lt;/p&gt;', 'alternate_names': ['Starfish']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Jamiroquai', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Jamiroquai&lt;/strong&gt; is an acid-jazz band formed in London in 1992. It’s led by frontman &lt;a href="https://genius.com/artists/Jason-kay" rel="noopener" data-api_path="/artists/2521215"&gt;Jay Kay&lt;/a&gt;, the band’s best-known and only remaining original member. Early Jamiroquai records were known for the use of a didgeridoo, played by &lt;a href="https://genius.com/artists/Wallis-buchanan" rel="noopener" data-api_path="/artists/989947"&gt;Wallis Buchanan&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The name “Jamiroquai” is a portmanteau of “jam session” and the Native American “Iroquoi” tribe. Jay Kay’s interest in Native Americans can be seen clearly in the video for &lt;a href="https://genius.com/Jamiroquai-too-young-to-die-lyrics" rel="noopener" data-api_path="/songs/2165125"&gt;“Too Young To Die.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;As of January 2017, Jamiroquai is:&lt;br&gt;\n– Jay Kay&lt;br&gt;\n– &lt;a href="https://genius.com/artists/Derrick-mckenzie" rel="noopener" data-api_path="/artists/514811"&gt;Derrick McKenzie&lt;/a&gt;&lt;br&gt;\n– &lt;a href="https://genius.com/artists/Sola-akingbola" rel="noopener" data-api_path="/artists/989949"&gt;Sola Akingbola&lt;/a&gt;&lt;br&gt;\n– &lt;a href="https://genius.com/artists/Rob-harris" rel="noopener" data-api_path="/artists/430309"&gt;Rob Harris&lt;/a&gt;&lt;br&gt;\n– &lt;a href="https://genius.com/artists/Matthew-johnson" rel="noopener" data-api_path="/artists/669257"&gt;Matthew Johnson&lt;/a&gt;&lt;br&gt;\n– &lt;a href="https://genius.com/artists/Paul-turner" rel="noopener" data-api_path="/artists/531823"&gt;Paul Turner&lt;/a&gt;&lt;br&gt;\n– Jim Corry&lt;br&gt;\n– Malcolm Strachan&lt;/p&gt;\n\n&lt;p&gt;The group’s 7th album titled &lt;a href="https://genius.com/albums/Jamiroquai/Automaton" rel="noopener" data-api_path="/albums/327380"&gt;&lt;em&gt;Automaton&lt;/em&gt;&lt;/a&gt; was released on 31 March, 2017, nearly 6,5 years after the release of &lt;a href="https://genius.com/albums/Jamiroquai/Rock-dust-light-star" rel="noopener" data-api_path="/albums/125040"&gt;&lt;em&gt;Rock Dust Light Star.&lt;/em&gt;&lt;/a&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/David-bowie', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://www.davidbowie.com/" rel="noopener nofollow"&gt;David Bowie&lt;/a&gt; (1947 – 2016) was a British musician, and one of the most iconic rock stars with a widely diverse career where he frequently changed his appearance and musical style, resulting in an acclaimed  discography comparable to other stalwarts such as &lt;a href="https://genius.com/artists/The-beatles" rel="noopener" data-api_path="/artists/586"&gt;The Beatles&lt;/a&gt; and &lt;a href="https://genius.com/artists/Bob-dylan" rel="noopener" data-api_path="/artists/181"&gt;Bob Dylan&lt;/a&gt;. In 1966 David Robert Jones chose the surname “Bowie” (as in a Bowie knife, or a Jagger) to cut out any association with teen idol &lt;a href="https://genius.com/artists/Davy-jones" rel="noopener" data-api_path="/artists/386169"&gt;Davy Jones&lt;/a&gt;. Enduring many early missteps, his music had a seminal lift-off with &lt;a href="https://genius.com/David-bowie-space-oddity-lyrics" rel="noopener" data-api_path="/songs/112817"&gt;“Space Oddity”&lt;/a&gt;, used in the BBC’s coverage of the 1969 &lt;a href="http://www.telegraph.co.uk/news/science/space/5871370/Apollo-11-moon-landing-Moon-music.html" rel="noopener nofollow"&gt;Apollo 11 moon landing&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The single rose to #5 in the UK charts as a result of his Top of the Pops performance.  The sci-fi rubric of the song about a fictional character, Major Tom, foreshadowed his future 1972 breakthrough.  In the meantime, Bowie remained a cult figure. 1971’s landmark album, &lt;a href="https://genius.com/albums/David-bowie/Hunky-dory" rel="noopener" data-api_path="/albums/24468"&gt;&lt;em&gt;Hunky Dory&lt;/em&gt;&lt;/a&gt; went largely unnoticed, despite being his first Major RCA release.&lt;/p&gt;\n\n&lt;p&gt;By early 1972, Bowie not only commanded notice, he set the plaform(s) for a genre.  His alter-ego, an androgynous alien that dazzled and shocked, did not mask the brilliance of his musical acumen: it put the public spotlight on it.  Cut from the punk rock performance debauchery of &lt;a href="https://genius.com/artists/Iggy-pop" rel="noopener" data-api_path="/artists/21273"&gt;Iggy Pop&lt;/a&gt; with the alternative underground, aloof artistry of &lt;a href="https://genius.com/artists/Lou-reed" rel="noopener" data-api_path="/artists/13277"&gt;Lou Reed&lt;/a&gt;, Ziggy Stardust was the main-man-alien lead in his conceptual &lt;a href="https://genius.com/albums/David-bowie/The-rise-and-fall-of-ziggy-stardust-and-the-spiders-from-mars" rel="noopener" data-api_path="/albums/18495"&gt;breakthrough album&lt;/a&gt;, and the public persona which haunted him beyond Ziggy’s expiration date.  Ziggy’s “fall” in the plot of the album’s theme took on an ambiguous direction, which drove &lt;a href="https://genius.com/albums/David-bowie/alladin-sane" rel="noopener"&gt;&lt;em&gt;Aladdin Sane&lt;/em&gt;&lt;/a&gt;’s zigzagging broader musical strokes without a conceptual framework.  And yet it framed, over time, the penultimate image of Ziggy, as an icon, emblem, fashion-plate, rock-saint, emoji, etc.&lt;/p&gt;\n\n&lt;p&gt;Bowie used his new-found popularity to move to America, and dabble with new musical directions and cocaine. &lt;a href="https://genius.com/albums/David-bowie/diamond-dogs" rel="noopener" data-api_path="/albums/46048"&gt;&lt;em&gt;Diamond Dogs&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/David-bowie/young-americans" rel="noopener" data-api_path="/albums/76501"&gt;&lt;em&gt;Young Americans&lt;/em&gt;&lt;/a&gt; continue to divide critics, but &lt;a href="https://genius.com/albums/David-bowie/station-to-station" rel="noopener" data-api_path="/albums/32130"&gt;&lt;em&gt;Station To Station&lt;/em&gt;&lt;/a&gt; found Bowie at a new creative peak, despite escalating drug use and related health issues.&lt;/p&gt;\n\n&lt;p&gt;Moving back to Europe helped Bowie reach even greater musical heights. He recorded his iconic “Berlin Trilogy” – &lt;a href="https://genius.com/albums/David-bowie/low" rel="noopener" data-api_path="/albums/28910"&gt;&lt;em&gt;Low&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/David-bowie/heroes" rel="noopener" data-api_path="/albums/28200"&gt;&lt;em&gt;“Heroes”&lt;/em&gt;&lt;/a&gt;, and &lt;a href="https://genius.com/albums/David-bowie/Lodger" rel="noopener" data-api_path="/albums/76513"&gt;&lt;em&gt;Lodger&lt;/em&gt;&lt;/a&gt;, with &lt;a href="https://genius.com/artists/Brian-eno" rel="noopener" data-api_path="/artists/29972"&gt;Brian Eno&lt;/a&gt; and &lt;a href="https://genius.com/artists/Tony-visconti" rel="noopener" data-api_path="/artists/37268"&gt;Tony Visconti&lt;/a&gt; (despite the name, only &lt;em&gt;Heroes&lt;/em&gt; was recorded in Berlin), and produced Iggy Pop’s first two solo albums. This was followed by the hard-rocking &lt;a href="https://genius.com/albums/David-bowie/Scary-monsters-and-super-creeps" rel="noopener" data-api_path="/albums/76520"&gt;&lt;em&gt;Scary Monsters (And Super Creeps)&lt;/em&gt;&lt;/a&gt;, and disco-influenced &lt;a href="https://genius.com/albums/David-bowie/Let-s-dance" rel="noopener" data-api_path="/albums/26657"&gt;&lt;em&gt;Let’s Dance&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Bowie entered a period of critical apathy during the 1980s, as albums like &lt;a href="https://genius.com/albums/David-bowie/Tonight" rel="noopener" data-api_path="/albums/76500"&gt;&lt;em&gt;Tonight&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/David-bowie/Never-let-me-down" rel="noopener" data-api_path="/albums/76508"&gt;&lt;em&gt;Never Let Me Down&lt;/em&gt;&lt;/a&gt; fell relatively flat. These were his &lt;a href="https://genius.com/artists/Tin-machine" rel="noopener" data-api_path="/artists/359829"&gt;Tin Machine&lt;/a&gt; days, and they paved the way for a renaissance of huge proportions, with albums such as &lt;a href="https://genius.com/albums/David-bowie/1-outside" rel="noopener" data-api_path="/albums/76519"&gt;&lt;em&gt;1. Outside&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/David-bowie/Earthling" rel="noopener" data-api_path="/albums/76522"&gt;&lt;em&gt;Earthling&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/David-bowie/Heathen" rel="noopener" data-api_path="/albums/47864"&gt;&lt;em&gt;Heathen&lt;/em&gt;&lt;/a&gt;, and &lt;a href="https://genius.com/albums/David-bowie/Reality" rel="noopener" data-api_path="/albums/76523"&gt;&lt;em&gt;Reality&lt;/em&gt;&lt;/a&gt; reclaiming his status as a number one pop star. Radio silence then ensued for much of the 2000s, until he surprisingly issued 2013’s &lt;a href="https://genius.com/albums/David-bowie/The-next-day" rel="noopener" data-api_path="/albums/26468"&gt;&lt;em&gt;The Next Day&lt;/em&gt;&lt;/a&gt;, recorded in secret and released to critical acclaim.&lt;/p&gt;\n\n&lt;p&gt;David Bowie passed away on January 10, 2016, due to cancer, two days after his 69th birthday and the release of his final album, &lt;a href="https://genius.com/albums/David-bowie/Blackstar" rel="noopener" data-api_path="/albums/138144"&gt;&lt;em&gt;Blackstar&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['David R. Jones', 'Ziggy Stardust', 'David Robert Jones']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Sean-kingston', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Kisean Paul Anderson']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Black-eyed-peas', 'annotations': {'description': '&lt;p&gt;The Black Eyed Peas is a hip-hop and pop group, currently consisting of rappers &lt;a href="https://genius.com/artists/William" rel="noopener" data-api_path="/artists/713"&gt;will.i.am,&lt;/a&gt; &lt;a href="https://genius.com/artists/Apldeap" rel="noopener" data-api_path="/artists/47060"&gt;apl.de.ap,&lt;/a&gt; &lt;a href="https://genius.com/artists/Taboo" rel="noopener" data-api_path="/artists/5181"&gt;Taboo,&lt;/a&gt; and singer &lt;a href="https://genius.com/artists/Jessica-reynoso" rel="noopener" data-api_path="/artists/324362"&gt;Jessica Reynoso.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Originally, The Black Eyed Peas were a hip-hop group, standing alongside the likes of &lt;a href="https://genius.com/artists/Talib-kweli" rel="noopener" data-api_path="/artists/388"&gt;Talib Kweli&lt;/a&gt; and &lt;a href="https://genius.com/artists/Jurassic-5" rel="noopener" data-api_path="/artists/1191"&gt;Jurassic 5.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/a95485251f6d98334766291552e4008a.400x318x1.jpg" alt="" width="400" height="318" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;In the early 2000s, they started to add pop and EDM influences to their music. They subsequently added &lt;a href="https://genius.com/artists/Fergie" rel="noopener" data-api_path="/artists/950"&gt;Fergie&lt;/a&gt; to the group and became the pop sensations that they became from 2003 to 2011. Fergie eventually left in 2018 and the Peas returned to their hip-hop roots.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Kid-cudi', 'annotations': {'description': '&lt;p&gt;Kid Cudi, born Scott Ramon Seguro Mescudi on January 30, 1984, is an American recording artist from Cleveland, Ohio.&lt;/p&gt;\n\n&lt;p&gt;His debut single &lt;a href="https://genius.com/Kid-cudi-day-n-nite-nightmare-lyrics" rel="noopener" data-api_path="/songs/131"&gt;“Day ‘n’ Nite”&lt;/a&gt; became an online favorite in 2008. Based in Brooklyn, he first became affiliated with &lt;a href="https://en.wikipedia.org/wiki/Fool%27s_Gold_Records" rel="noopener nofollow"&gt;Fool’s Gold&lt;/a&gt;, the label of DJs &lt;a href="https://genius.com/artists/A-trak" rel="noopener" data-api_path="/artists/2906"&gt;A-Trak&lt;/a&gt; and &lt;a href="https://genius.com/artists/nick-catchdubs" rel="noopener" data-api_path="/artists/49829"&gt;Nick Catchdubs&lt;/a&gt;. After releasing his popular mixtape &lt;a href="https://genius.com/albums/Kid-cudi/A-kid-named-cudi" rel="noopener" data-api_path="/albums/4424"&gt;&lt;em&gt;A Kid Named Cudi&lt;/em&gt;&lt;/a&gt;, Cudi’s career took off as he got associated with &lt;a href="https://genius.com/artists/Kanye-west" rel="noopener" data-api_path="/artists/72"&gt;Kanye West&lt;/a&gt; and joined his label &lt;a href="http://en.wikipedia.org/wiki/GOOD_Music" rel="noopener nofollow"&gt;G.O.O.D Music&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;His catalog currently counts 7 solo studio albums, entitled: &lt;a href="https://genius.com/albums/Kid-cudi/Man-on-the-moon-the-end-of-day" rel="noopener" data-api_path="/albums/4427"&gt;&lt;em&gt;Man on the Moon: The End of Day&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Kid-cudi/Man-on-the-moon-ii-the-legend-of-mr-rager" rel="noopener" data-api_path="/albums/4428"&gt;&lt;em&gt;Man on the Moon II: The Legend of Mr. Rager&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Kid-cudi/Indicud" rel="noopener" data-api_path="/albums/20193"&gt;&lt;em&gt;Indicud&lt;/em&gt;&lt;/a&gt; which was released after Cudi &lt;a href="http://hypetrak.com/2013/04/kid-cudi-leaves-good-music/" rel="noopener nofollow"&gt;famously departed from GOOD Music&lt;/a&gt; and the latest ones &lt;a href="https://genius.com/albums/Kid-cudi/Satellite-flight-the-journey-to-mother-moon" rel="noopener" data-api_path="/albums/67138"&gt;&lt;em&gt;Satellite Flight: The Journey To Mother Moon&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Kid-cudi/Speedin-bullet-2-heaven" rel="noopener" data-api_path="/albums/128397"&gt;&lt;em&gt;Speedin\' Bullet To Heaven&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Kid-cudi/Passion-pain-demon-slayin" rel="noopener" data-api_path="/albums/152011"&gt;&lt;em&gt;Passion, Pain &amp;amp; Demon Slayin\'&lt;/em&gt;&lt;/a&gt;, and the long anticipated &lt;a href="https://genius.com/albums/Kid-cudi/man-on-the-moon-iii-the-chosen" rel="noopener" data-api_path="/albums/692902"&gt;&lt;em&gt;Man on the Moon III: The Chosen&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In addition, Cudi released an alternative rock album with long-time friend and collaborator &lt;a href="https://genius.com/artists/dot-da-genius" rel="noopener" data-api_path="/artists/11845"&gt;Dot Da Genius&lt;/a&gt; in duo group &lt;a href="https://genius.com/artists/Wzrd" rel="noopener" data-api_path="/artists/15049"&gt;WZRD&lt;/a&gt;, as well as a &lt;a href="https://genius.com/albums/Kids-see-ghosts/Kids-see-ghosts" rel="noopener" data-api_path="/albums/425948"&gt;collaborative album&lt;/a&gt; with on-again-off-again friend &lt;a href="https://genius.com/artists/Kanye-west" rel="noopener" data-api_path="/artists/72"&gt;Kanye West&lt;/a&gt; as duo group &lt;a href="https://genius.com/artists/kids-see-ghosts" rel="noopener" data-api_path="/artists/1464821"&gt;Kids See Ghosts&lt;/a&gt;. Cudi has also been featured on the G.O.O.D Music projects: &lt;a href="https://genius.com/albums/Good-music-group/Cruel-summer" rel="noopener"&gt;&lt;em&gt;Cruel Summer&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/Kanye-west/G-o-o-d-fridays" rel="noopener" data-api_path="/albums/14775"&gt;&lt;em&gt;G.O.O.D. Fridays&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['King WZRD', 'S. R. S. Mescudi', 'Scott R. S. Mescudi', 'Scott S. Mescudi', 'Scott R. Mescudi', 'Scott Ramon Mescudi', 'Scott Seguro Mescudi', 'Cud Life', 'King Cudi', 'Scott Mescudi', 'The Man on the Moon', 'Mr. Solo Dolo', 'Scott Ramon Seguro Mescudi', 'Cudi', 'Cudder', 'Mr. Rager', 'King Wizard']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Erasure', 'annotations': {'description': '&lt;p&gt;&lt;img src="https://images.rapgenius.com/49fb726842ac1beeb5661ce204e0c7a7.906x428x1.jpg" alt="" width="906" height="428" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Erasure are an English synthpop duo that formed in London in 1985. Since then, singer/lyricist &lt;a href="https://genius.com/artists/Andy-bell" rel="noopener" data-api_path="/artists/350629"&gt;Andy Bell&lt;/a&gt; (left) and composer/producer &lt;a href="https://genius.com/artists/Vince-clarke" rel="noopener" data-api_path="/artists/494624"&gt;Vince Clarke&lt;/a&gt; (right) have unleashed 18 albums and dozens of singles and EPs onto the charts. Their latest album, &lt;a href="https://genius.com/albums/Erasure/The-neon" rel="noopener" data-api_path="/albums/643348"&gt;&lt;em&gt;The Neon&lt;/em&gt;&lt;/a&gt;, is slated for release on August 2020.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Madonna', 'annotations': {'description': '&lt;p&gt;With more than 335 million copies of her albums sold, &lt;strong&gt;Madonna&lt;/strong&gt; is the most successful female artist of all time.&lt;/p&gt;\n\n&lt;p&gt;Her career as a singer, songwriter, producer and entertainer has spanned almost 40 years, with the release of 14 studio albums, making her impact on pop culture undeniable, inspiring almost every big female act to come up after her.&lt;/p&gt;\n\n&lt;p&gt;An activist against racism, LGBTQphobia and sexism through almost all of her career, she has brought up several controversial topics to the pop music scene such as abortion, sexual freedom, female empowerment and the search for fame.&lt;/p&gt;', 'alternate_names': ['The Queen of Pop', 'Madonna Ciccone', 'Madonna Louise Ciccone', 'Madonna Louise Veronica Ciccone']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Bastille', 'annotations': {'description': '&lt;p&gt;Bastille is a British indie pop band. After releasing &lt;a href="https://www.discogs.com/Bastille-Flaws/release/3697903" rel="noopener nofollow"&gt;a limited single&lt;/a&gt; in 2010 and the &lt;a href="https://www.discogs.com/Bastille-Laura-Palmer-EP/release/5534706" rel="noopener nofollow"&gt;Laura Palmer EP&lt;/a&gt; in 2011, the band was &lt;a href="https://www.musicweek.com/news/read/emi-signs-bastille-and-eric-prydz-to-virgin-records/047494" rel="noopener nofollow"&gt;signed to Virgin Records&lt;/a&gt;. Following their signing, the band released two mix-tapes – &lt;a href="https://genius.com/albums/Bastille/Other-people-s-heartache" rel="noopener" data-api_path="/albums/43947"&gt;&lt;em&gt;Other People’s Heartache&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/Bastille/Other-people-s-heartache-pt-2" rel="noopener" data-api_path="/albums/109619"&gt;&lt;em&gt;Other People’s Heartache Pt. 2&lt;/em&gt;&lt;/a&gt; — for free. In &lt;a href="https://www.theguardian.com/music/2014/jan/23/bastille-weve-enjoyed-proving-people-wrong" rel="noopener nofollow"&gt;an interview with &lt;em&gt;The Guardian&lt;/em&gt;&lt;/a&gt;, Dan Smith discussed the mixtapes:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Someone recently said to us: ‘The mixtapes were very clever, was that the label’s idea?’ Actually the label were completely against it; we were stealing and sampling illegally left, right and centre. The label said: ‘We want nothing to do with this.’ When it came to hosting the mixtapes, I had to register the website myself.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/a3c564f64111e77b0d1f1ec5caf9d50a.600x400x1.jpg" alt="" width="600" height="400" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Preceding the release of their debut album, &lt;a href="https://genius.com/albums/Bastille/Bad-blood" rel="noopener" data-api_path="/albums/30558"&gt;&lt;em&gt;Bad Blood&lt;/em&gt;&lt;/a&gt;, the band released several singles — &lt;a href="https://genius.com/Bastille-overjoyed-lyrics" rel="noopener" data-api_path="/songs/349744"&gt;“Overjoyed”&lt;/a&gt;, &lt;a href="https://genius.com/Bastille-bad-blood-lyrics" rel="noopener" data-api_path="/songs/201672"&gt;“Bad Blood”&lt;/a&gt; and &lt;a href="https://genius.com/Bastille-flaws-lyrics" rel="noopener" data-api_path="/songs/261175"&gt;“Flaws”&lt;/a&gt;— to moderate commercial success. In February 2013, the band was catapulted into the charts by the album’s fourth single, &lt;a href="https://genius.com/Bastille-pompeii-lyrics" rel="noopener" data-api_path="/songs/133381"&gt;“Pompeii”&lt;/a&gt;. The song was &lt;a href="http://goo.gl/QRwhwa" rel="noopener nofollow"&gt;a commercial hit&lt;/a&gt;, going &lt;a href="http://goo.gl/GCv38Y" rel="noopener nofollow"&gt;up to 5x Platinum around the world&lt;/a&gt;. In June 2014, “Pompeii” was confirmed to be the &lt;a href="http://www.officialcharts.com/chart-news/the-top-10-most-streamed-songs-and-artists-of-all-time-revealed-__4249/" rel="noopener nofollow"&gt;United Kingdom’s most streamed song&lt;/a&gt; ever. Unfortunately, it has since &lt;a href="https://en.wikipedia.org/wiki/List_of_most_streamed_songs_in_the_United_Kingdom#Most_streamed_songs" rel="noopener nofollow"&gt;been overtaken&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Bad Blood&lt;/em&gt; was released in March 2013 and reissued as &lt;a href="https://genius.com/albums/Bastille/All-this-bad-blood" rel="noopener" data-api_path="/albums/75074"&gt;&lt;em&gt;All This Bad Blood&lt;/em&gt;&lt;/a&gt; in November that year to include bonus tracks and the &lt;em&gt;Other People’s Heartache&lt;/em&gt; mixtapes.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/29ddd0e0a627a9d7108a6c5846153e75.636x421x1.jpg" alt="" width="636" height="421" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;In 2014, the band released &lt;a href="https://genius.com/albums/Bastille/Vs-other-people-s-heartache-pt-iii" rel="noopener" data-api_path="/albums/113882"&gt;&lt;em&gt;VS. (Other People’s Heartache Pt. III)&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In September 2016, the band released their hotly anticipated sophomore album, &lt;a href="https://genius.com/albums/Bastille/Wild-world" rel="noopener" data-api_path="/albums/154570"&gt;&lt;em&gt;Wild World&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In June 2019 the band has released their 3rd studio album &lt;a href="https://genius.com/albums/Bastille/Doom-days" rel="noopener" data-api_path="/albums/425185"&gt;&lt;em&gt;Doom Days,&lt;/em&gt;&lt;/a&gt; which was described by Dan as an “apocalyptic party album.” &lt;a href="https://genius.com/albums/Bastille/Doom-days-this-got-out-of-hand" rel="noopener" data-api_path="/albums/583438"&gt;An extended version&lt;/a&gt; of the album was then released in December of 2019.&lt;/p&gt;\n\n&lt;p&gt;The band consists of lead singer &lt;a href="https://genius.com/artists/Dan-smith" rel="noopener" data-api_path="/artists/43323"&gt;Dan Smith,&lt;/a&gt; keyboardist &lt;a href="https://genius.com/artists/Kyle-simmons" rel="noopener" data-api_path="/artists/1004461"&gt;Kyle Simmons,&lt;/a&gt; bassist and guitarist &lt;a href="https://genius.com/artists/Will-farquarson" rel="noopener" data-api_path="/artists/1805068"&gt;Will Farquarson,&lt;/a&gt; and drummer &lt;a href="https://genius.com/artists/Chris-woody-wood" rel="noopener" data-api_path="/artists/659373"&gt;Chris “Woody” Wood&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['BΔSTILLE']}}</t>
+    <t>{'url': 'https://genius.com/artists/Skid-row', 'annotations': {'description': '&lt;p&gt;Skid Row is a rock band from New Jersey, USA. The band was formed in 1986 by bassist Rachel Bolan and guitarist Dave Sabo. Sabo and Bolan went to the same high school and met at a guitar store where Sabo worked. These two would play in Bolan’s garage and they soon recruited more band members via newspapers ads and performed in local clubs.&lt;/p&gt;\n\n&lt;p&gt;The band then released its debut album titled &lt;a href="https://genius.com/albums/Skid-row/Skid-row" rel="noopener" data-api_path="/albums/28408"&gt;&lt;em&gt;Skid Row&lt;/em&gt;&lt;/a&gt; in 1989 and the album was an immediate success and went 5x platinum. Skid Row’s &lt;a href="https://genius.com/albums/Skid-row/Slave-to-the-grind" rel="noopener" data-api_path="/albums/189045"&gt;second album&lt;/a&gt; went 2x platinum&lt;/p&gt;\n\n&lt;p&gt;Skid Row released a &lt;a href="https://genius.com/albums/Skid-row/Subhuman-race" rel="noopener" data-api_path="/albums/209337"&gt;third album&lt;/a&gt; in 1994 after a one year hiatus. The album charted on the top 40. The rest of Skid Row’s releases were not as successful as the first few.&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;&lt;strong&gt;Current Members&lt;/strong&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/Dave-the-snake-sabo" rel="noopener" data-api_path="/artists/1033447"&gt;Dave “The Snake” Sabo&lt;/a&gt; – Guitar, Backing Vocals&lt;br&gt;\n&lt;a href="https://genius.com/artists/Rachel-bolan" rel="noopener" data-api_path="/artists/1004507"&gt;Rachel Bolan&lt;/a&gt; – Bass, Backing Vocals&lt;br&gt;\n&lt;a href="https://genius.com/artists/Scotti-hill" rel="noopener" data-api_path="/artists/2479393"&gt;Scotti Hill&lt;/a&gt; – guitar, Backing Vocals&lt;br&gt;\nRob Hammersmith – Drums, Backing vocals&lt;br&gt;\n&lt;a href="https://genius.com/artists/Zp-theart" rel="noopener" data-api_path="/artists/1188919"&gt;ZP Theart&lt;/a&gt; – Lead Vocals&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Everlast', 'annotations': {'description': '&lt;p&gt;Everlast was barely of legal drinking age when he released his major label rap debut, Forever Everlasting, as part of Ice-T’s Rhyme Syndicate.&lt;/p&gt;\n\n&lt;p&gt;Next he teamed with his high school pal &lt;a href="https://genius.com/artists/danny-boy" rel="noopener" data-api_path="/artists/429"&gt;Danny “Danny Boy” O\'Connor&lt;/a&gt; to form the Irish American-centric &lt;a href="https://genius.com/artists/house-of-pain" rel="noopener" data-api_path="/artists/942"&gt;House Of Pain&lt;/a&gt;, backed by Everlast’s longtime DJ, DJ Lethal. “Jump Around” pushed House Of Pain’s debut to multiplatinum status. Their sophomore album went gold, but the group disbanded on the eve of their third album’s release.&lt;/p&gt;\n\n&lt;p&gt;After suffering a heart attack, Everlast went multiplatinum yet again, this time as a solo artist with the acoustic/rap hybrid, &lt;em&gt;Whitey Ford Sings The Blues&lt;/em&gt;. His collaboration with Carlos Santana was massive and he’s continued to record and tour with a mixture of acoustic rock, blues, country, and hip-hop. He was a member of &lt;a href="https://genius.com/artists/la-coka-nostra" rel="noopener" data-api_path="/artists/11346"&gt;La Coka Nostra&lt;/a&gt; for a time and occasionally reunites with House Of Pain for festivals and club shows.&lt;/p&gt;', 'alternate_names': ['Eric Schrody', 'Erik F. Schrody', 'Erik Francis Schrody', 'Erik Schrody']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Huey-lewis-and-the-news', 'annotations': {'description': '&lt;p&gt;Huey Lewis and the News is a pop rock band from San Francisco who had a series of hit singles in the 1980s and early 90s. They’re best known for their “instantly memorable hooks, driven home with economical precision by a tight bar band,” &lt;a href="http://www.allmusic.com/album/sports-mw0000195256" rel="noopener nofollow"&gt;[1]&lt;/a&gt; especially in their back-to-back multiplatinum albums &lt;a href="https://genius.com/albums/Huey-lewis-and-the-news/Sports" rel="noopener" data-api_path="/albums/125836"&gt;&lt;em&gt;Sports&lt;/em&gt;&lt;/a&gt; (1983) and &lt;a href="https://genius.com/albums/Huey-lewis-and-the-news/Fore" rel="noopener" data-api_path="/albums/32925"&gt;&lt;em&gt;Fore&lt;/em&gt;&lt;/a&gt; (1986). Their song &lt;a href="https://genius.com/Huey-lewis-and-the-news-hip-to-be-square-lyrics" rel="noopener" data-api_path="/songs/147345"&gt;“Hip to be Square,”&lt;/a&gt; on &lt;a href="https://genius.com/albums/Huey-lewis-and-the-news/Fore" rel="noopener" data-api_path="/albums/32925"&gt;&lt;em&gt;Fore!&lt;/em&gt;&lt;/a&gt;, was made famous in a scene in &lt;em&gt;American Psycho&lt;/em&gt;, in which Pat Bateman says:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;In ‘87, Huey released &lt;em&gt;Fore!&lt;/em&gt;, their most accomplished album. I think their undisputed masterpiece is “Hip to Be Square,” a song so catchy most people probably don’t listen to the lyrics. But they &lt;em&gt;should&lt;/em&gt;, because it’s not just about the pleasures of conformity, and the importance of trends, it’s also a personal statement about the band itself.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The band got its start when singer and harmonica player &lt;a href="https://genius.com/artists/Huey-lewis" rel="noopener" data-api_path="/artists/61400"&gt;Huey Lewis&lt;/a&gt; and keyboardist &lt;a href="https://genius.com/artists/Sean-hopper" rel="noopener" data-api_path="/artists/582291"&gt;Sean Hopper&lt;/a&gt; hooked up with a Bay Area jazz-funk band called &lt;a href="https://genius.com/artists/Clover" rel="noopener" data-api_path="/artists/355320"&gt;Clover&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;After &lt;em&gt;Fore!&lt;/em&gt; the band declined in stature, and the lineup changed substantially. They recorded the theme song to the 2008 movie &lt;em&gt;Pineapple Express&lt;/em&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Linkin-park', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/albums/Linkin-park/Hybrid-theory" rel="noopener" data-api_path="/albums/15321"&gt;&lt;em&gt;Hybrid Theory&lt;/em&gt;&lt;/a&gt; isn’t just the title of Linkin Park’s chart-topping debut album, but a career mission statement.&lt;/p&gt;\n\n&lt;p&gt;From day one, the same six players (lead vocalist &lt;a href="https://genius.com/artists/Chester-bennington" rel="noopener" data-api_path="/artists/1015"&gt;Chester Bennington&lt;/a&gt;, drummer/percussionist &lt;a href="https://genius.com/artists/Rob-bourdon" rel="noopener" data-api_path="/artists/643808"&gt;Rob Bourdon&lt;/a&gt;, guitarist &lt;a href="https://genius.com/artists/Brad-delson" rel="noopener" data-api_path="/artists/177201"&gt;Brad Delson&lt;/a&gt;, bassist &lt;a href="https://genius.com/artists/Dave-farrell" rel="noopener" data-api_path="/artists/635618"&gt;Dave ‘Phoenix’ Farrell&lt;/a&gt;, DJ/Programmer &lt;a href="https://genius.com/artists/Joe-hahn" rel="noopener" data-api_path="/artists/271318"&gt;Joe Hahn&lt;/a&gt;, and keyboardist, guitarist, and co-lead vocals &lt;a href="https://genius.com/artists/Mike-shinoda" rel="noopener" data-api_path="/artists/4431"&gt;Mike Shinoda&lt;/a&gt;) built the band by fusing all their favorite styles of music into one unmistakable signature sound. With each album, Linkin Park defiantly challenges themselves and their fans by blasting into new musical territory. After setting the template for rock that incorporated hip-hop influences with &lt;em&gt;Hybrid Theory&lt;/em&gt; and &lt;a href="https://genius.com/albums/Linkin-park/Meteora" rel="noopener" data-api_path="/albums/5986"&gt;&lt;em&gt;Meteora&lt;/em&gt;&lt;/a&gt;, they shifted gears completely and defied expectations with the polychromatic &lt;a href="https://genius.com/albums/Linkin-park/Minutes-to-midnight" rel="noopener" data-api_path="/albums/16008"&gt;&lt;em&gt;Minutes to Midnight&lt;/em&gt;&lt;/a&gt;, and again with the esoteric &lt;a href="https://genius.com/albums/Linkin-park/A-thousand-suns" rel="noopener" data-api_path="/albums/15414"&gt;&lt;em&gt;A Thousand Suns&lt;/em&gt;&lt;/a&gt;, before melding a piece of them all into 2012’s &lt;a href="https://genius.com/albums/Linkin-park/Living-things" rel="noopener" data-api_path="/albums/16392"&gt;&lt;em&gt;LIVING THINGS&lt;/em&gt;&lt;/a&gt;. With their 2014 release and heaviest offering in years, &lt;a href="https://genius.com/albums/Linkin-park/The-hunting-party" rel="noopener" data-api_path="/albums/100521"&gt;&lt;em&gt;The Hunting Party&lt;/em&gt;&lt;/a&gt;, Linkin Park manage to capture their ever-innovative spirit with a hunger seldom seen in bands on their seventh album. &lt;a href="https://genius.com/albums/Linkin-park/One-more-light" rel="noopener" data-api_path="/albums/330664"&gt;&lt;em&gt;One More Light&lt;/em&gt;&lt;/a&gt; (2017) is an interesting personal album, filled with a lot of emotion.&lt;/p&gt;\n\n&lt;p&gt;Unfortunately, on July 20, 2017, Chester unexpectedly &lt;a href="http://www.tmz.com/2017/07/20/linkin-park-singer-chester-bennington-dead-commits-suicide/" rel="noopener nofollow"&gt;died by suicide&lt;/a&gt;, shocking and saddening both fans and his own band members alike.&lt;/p&gt;\n\n&lt;p&gt;As for the band’s name, they were originally called Hybrid Theory, but trademark issues with a band called Hybrid forced the band to rethink their name. According to &lt;a href="https://www.altpress.com/features/entry/how_bands_got_their_names/P1" rel="noopener nofollow"&gt;&lt;em&gt;Alternative Press&lt;/em&gt;&lt;/a&gt;, Bennington suggested “Lincoln Park” since he had to drive past there after band practice to get home. However, the domain name “lincolnpark.com” cost more than the band could afford so they changed the spelling to Linkin Park. It was also suggested that the name change would help them appear right next to Limp Bizkit at record stores.&lt;/p&gt;', 'alternate_names': ['Hybrid Theory', 'Xero', 'MMM...COOKIES']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Nelly-furtado', 'annotations': {'description': '&lt;p&gt;Nelly Kim Furtado (born December 2, 1978) is a Portuguese-Canadian singer and songwriter. The songstress is well-known for hits such as “I’m Like a Bird”, “Turn Off the Light”, and “Promiscuous”.&lt;/p&gt;\n\n&lt;p&gt;She began her career in &lt;a href="https://en.wikipedia.org/wiki/Nelly_Furtado#1996%E2%80%931999:_Career_beginnings" rel="noopener nofollow"&gt;1996&lt;/a&gt; contributing vocals to Plains of Fascination’s “Walkin\' 4 The Streets” and forming Nelstar. After leaving the group, Furtado &lt;a href="https://en.wikipedia.org/wiki/Nelly_Furtado#1996%E2%80%931999:_Career_beginnings" rel="noopener nofollow"&gt;released&lt;/a&gt; her debut single “Party’s Just Begun (Again)”.&lt;/p&gt;\n\n&lt;p&gt;Her debut album &lt;em&gt;Whoa! Nelly&lt;/em&gt; was released in 2000 to worldwide success with hits such as “I’m Like a Bird”, “Turn Off the Light”, and “…On the Radio (Remember the Days)”. It received &lt;a href="https://en.wikipedia.org/wiki/Nelly_Furtado#2000%E2%80%932005:_Whoa,_Nelly!_and_Folklore" rel="noopener nofollow"&gt;four&lt;/a&gt; Grammy nominations and one of the singles won for Best Female Pop Vocal Performance. It’s sold nine-million copies worldwide to date. &lt;em&gt;Folklore&lt;/em&gt; is Furtado’s second album released in 2003. The album was not as successful as the previous one due to change in sound. “Try” and “Powerless (Say What You Want)” were the only top-ten &lt;a href="https://en.wikipedia.org/wiki/Nelly_Furtado#2000%E2%80%932005:_Whoa,_Nelly!_and_Folklore" rel="noopener nofollow"&gt;hits&lt;/a&gt; from the album.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Loose&lt;/em&gt; is the sexually-ambitious third album by Furtado. The album was handled by Timbaland and became Furtado’s best-selling album. It reached the top of multiple countries, including the Billboard 200. The record spawned hits such as “Promiscuous”, “Maneater”, “Say It Right”, and “All Good Things (Come to an End)”. It’s sold twelve-million copies worldwide. &lt;em&gt;Mi Plan&lt;/em&gt; is Furtado’s first Spanish and fourth studio album. It achieved &lt;a href="https://en.wikipedia.org/wiki/Nelly_Furtado#2009%E2%80%932011:_Mi_Plan_and_The_Best_of_Nelly_Furtado" rel="noopener nofollow"&gt;moderate&lt;/a&gt; success in European countries and received a Latin Grammy for the record, becoming the first Portuguese-Canadian to achieve this.&lt;/p&gt;\n\n&lt;p&gt;In 2012, Furtado released &lt;em&gt;The Spirit Indestructible&lt;/em&gt;, which peaked at number eighteen on the Billboard 200. She released her sixth album &lt;em&gt;The Ride&lt;/em&gt; in 2017.&lt;/p&gt;', 'alternate_names': ['Nelly K. Furtado', 'Nelly Kim Furtado']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Drake-bell', 'annotations': {'description': '&lt;p&gt;Drake Bell born June 27, 1986, is an American actor, voice actor, comedian, singer-songwriter, and multi-instrumentalist. In 2005 he independently released his debut album, Telegraph, released under Bell’s own name. His second album, It’s Only Time, was released in 2006 after signing with Universal Motown Records and debuted at #81 on the Billboard 200, selling over 23,000 copies its first week of release. It’s Only Time has sold 178,000 copies in the United States as of 2012.Bell released an EP in 2011 called A Reminder independently. In 2014, Bell released his third album, Ready Steady Go! under indie label Surfdog Records. Ready Steady Go! debuted at #182 on the Billboard 200, and sold 2,000 copies in its first week of release.&lt;/p&gt;', 'alternate_names': ['Jared Drake Bell', 'Drake Campana']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/P-nk', 'annotations': {'description': "&lt;p&gt;Alecia Beth Moore (born September 8, 1979), better known by her stage name Pink (stylized as P!nk), is an American singer-songwriter and actress. Originally a member of the girl group Choice, she began her solo career with the 2000 single “There You Go” from her debut album, Can’t Take Me Home; the R&amp;amp;B album was certified double-platinum in the United States. She gained further recognition alongside Lil' Kim, Christina Aguilera, and Mýa covering “Lady Marmalade” for the Moulin Rouge! soundtrack; the collaboration earned Pink both her first Grammy Award and first number-one single on the Billboard Hot 100.&lt;/p&gt;", 'alternate_names': ['Alecia B. Moore', 'Alecia Beth Moore', 'Pink']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Supergrass', 'annotations': {'description': '&lt;p&gt;Supergrass were an English rock band, formed in 1993 in Oxford. The band consisted of brothers Gaz (guitar and lead vocals) and Rob Coombes (keyboards and backing vocals), Mick Quinn (bass and backing vocals) and Danny Goffey (drums and backing vocals).&lt;/p&gt;\n\n&lt;p&gt;The band was active from 1993-2010.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Kevin-rudolf', 'annotations': {'description': '&lt;p&gt;Kevin Rudolf is an American singer, record producer, guitarist, and drummer from New York City, New York. He was originally signed to Madonna’s vanity label, going under the name &lt;strong&gt;Binocular&lt;/strong&gt;. He released his first album under the name, however his career wouldnt invigorate his signing with Cash Money Records in 2006. Being the first rock artist signed to the label, 2 years later his debut chart-topping single “Let It Rock,” featuring Lil Wayne. It peaked at #5 on the Billboard charts, and #32 on the Year-End Charts. His follow-up singles were “I Made It (Cash Money Heroes)” in 2009, and “You Make The Rain Fall” featuring Flo Rida in 2010. He is also a noted record producer, producing singles such as “Round &amp;amp; Round” by Selena Gomez, “Ghost” by Fefe Dobson, and “Good Girls Go Bad” by Cobra Spaceship, among others.&lt;/p&gt;', 'alternate_names': ['Kevin "Phantom" Rudolf', 'Kevin Winston Rudolf']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Joji', 'annotations': {'description': '&lt;p&gt;George Kusunoki Miller (Japanese: ジョージ・ミラー, born September 18th, 1992), commonly known as Joji, is a New York based producer and singer signed to &lt;a href="https://genius.com/artists/88rising" rel="noopener" data-api_path="/artists/995039"&gt;88rising&lt;/a&gt;. His artist name comes from the Japanese pronunciation of “George,” as he is half Australian/Japanese.&lt;/p&gt;\n\n&lt;p&gt;Originally producing comedy skits on YouTube under the name &lt;a href="https://www.youtube.com/user/DizastaMusic" rel="noopener nofollow"&gt;DizastaMusic&lt;/a&gt;, his first break came &lt;a href="https://www.youtube.com/watch?v=GH9JfE6Kq7Q" rel="noopener nofollow"&gt;when he uploaded this video in 2011.&lt;/a&gt; This was the origin of his bizarre, inappropriate, YouTube community guideline-bending persona known as &lt;a href="https://www.youtube.com/user/TVFilthyFrank" rel="noopener nofollow"&gt;Filthy Frank&lt;/a&gt;, through which he gained internet prominence and millions of YouTube subscribers.&lt;/p&gt;\n\n&lt;p&gt;His more serious venture into music was compromised as a side-project to his comedy skits, and so he started releasing music under Joji in 2015 on his private &lt;a href="http://soundcloud.com/chloeburbank" rel="noopener nofollow"&gt;SoundCloud page.&lt;/a&gt; He explained in a &lt;a href="https://www.instagram.com/p/BAeMSDqtL99/?hl=en" rel="noopener nofollow"&gt;January 2016 Instagram post&lt;/a&gt;, he then decided to make his account public and released two singles from his then-upcoming project &lt;a href="https://genius.com/albums/Joji/Chloe-burbank-volume-1" rel="noopener" data-api_path="/albums/142155"&gt;&lt;em&gt;Chloe Burbank Volume 1:&lt;/em&gt;&lt;/a&gt; &lt;a href="https://genius.com/Joji-you-suck-charlie-lyrics" rel="noopener" data-api_path="/songs/2407150"&gt;“you suck charlie”&lt;/a&gt; and &lt;a href="https://genius.com/Joji-thom-lyrics" rel="noopener" data-api_path="/songs/2407146"&gt;“thom.”&lt;/a&gt; While he kept releasing material on his SoundCloud page.&lt;/p&gt;\n\n&lt;p&gt;In April 2017, Joji released &lt;a href="https://genius.com/Joji-i-dont-wanna-waste-my-time-lyrics" rel="noopener" data-api_path="/songs/3067226"&gt;“i don’t wanna waste my time,”&lt;/a&gt; which was presumed to be the lead single from an upcoming project. However, in October 2017, he released &lt;a href="https://genius.com/Joji-will-he-lyrics" rel="noopener" data-api_path="/songs/3138313"&gt;“will he,”&lt;/a&gt; and soon after confirmed that song to be the lead single off his debut EP, &lt;a href="https://genius.com/albums/Joji/In-tongues" rel="noopener" data-api_path="/albums/374847"&gt;&lt;em&gt;In Tongues&lt;/em&gt;&lt;/a&gt;. The EP was released on November 3, 2017. To accompany the EP, he released three previously unreleased songs called &lt;a href="https://genius.com/albums/Joji/Lost-instruments" rel="noopener" data-api_path="/albums/377381"&gt;&lt;em&gt;Lost Instruments&lt;/em&gt;&lt;/a&gt; a week before &lt;em&gt;In Tongues&lt;/em&gt; came out.&lt;/p&gt;\n\n&lt;p&gt;On December 29th, 2017, he officially stated that he would retire from comedy and would no longer be making Filthy Frank videos due to mental and physical health concerns. However, he will still be working on other projects.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/a5f720cb8a997468d298725982db203d.638x585x1.png" alt="" width="638" height="585" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Afterwards in 2018, he collaborated with various artists and released &lt;a href="https://genius.com/88rising-midsummer-madness-lyrics" rel="noopener" data-api_path="/songs/3730894"&gt;“Midsummer Madness”&lt;/a&gt; and &lt;a href="https://genius.com/88rising-peach-jam-lyrics" rel="noopener" data-api_path="/songs/3841895"&gt;“Peach Jam”&lt;/a&gt; with &lt;a href="https://genius.com/artists/Blocboy-jb" rel="noopener" data-api_path="/artists/1254513"&gt;BlocBoy JB&lt;/a&gt;. Subsequently, on 26 October 2018, Joji released his debut studio album &lt;em&gt;&lt;a href="https://genius.com/albums/Joji/Ballads-1" rel="noopener" data-api_path="/albums/429215"&gt;BALLADS 1&lt;/a&gt;&lt;/em&gt;. Its second single &lt;a href="https://genius.com/Joji-slow-dancing-in-the-dark-lyrics" rel="noopener" data-api_path="/songs/3716416"&gt;“SLOW DANCING IN THE DARK”&lt;/a&gt; became one of Joji’s most successful songs to date.&lt;/p&gt;\n\n&lt;p&gt;On September 25, 2020, he released his second studio album &lt;em&gt;&lt;a href="https://genius.com/albums/Joji/Nectar" rel="noopener" data-api_path="/albums/537421"&gt;Nectar&lt;/a&gt;&lt;/em&gt;, the album includes previous singles such as &lt;a href="https://genius.com/Joji-sanctuary-lyrics" rel="noopener" data-api_path="/songs/4606292"&gt;“Sanctuary,”&lt;/a&gt; &lt;a href="https://genius.com/Joji-run-lyrics" rel="noopener" data-api_path="/songs/5209088"&gt;“Run,”&lt;/a&gt; and many more.&lt;/p&gt;\n\n&lt;p&gt;Joji has also released two comedic albums and various other less serious songs under the name &lt;a href="https://genius.com/artists/Pink-guy" rel="noopener" data-api_path="/artists/44083"&gt;Pink Guy.&lt;/a&gt; Pink Guy’s music is separated from Joji’s page and can be found &lt;a href="https://genius.com/artists/Pink-guy" rel="noopener" data-api_path="/artists/44083"&gt;here&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['George Kusunoki Miller', 'Joji Kusunoki', 'George Miller']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Dragonette', 'annotations': {'description': '&lt;p&gt;Dragonette is a Canadian electronic music band from Toronto, Ontario, formed in 2005. The band consists of singer-songwriter Martina Sorbara, bassist and producer Dan Kurtz (also in The New Deal) and drummer Joel Stouffer.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Harry-styles', 'annotations': {'description': '&lt;p&gt;Harry Edward Styles (born February 1st, 1994) is a widely-recognized English singer, songwriter and up-and-coming actor. He rose to fame during his time with &lt;a href="https://genius.com/artists/One-direction" rel="noopener" data-api_path="/artists/19657"&gt;One Direction&lt;/a&gt;—a platinum-selling, world-renowned boy band. Since the band went on an indefinite hiatus in 2015, Styles has produced two chart-topping studio albums and launched his acting career. He is credited with writing music for &lt;a href="https://genius.com/artists/Ariana-grande" rel="noopener" data-api_path="/artists/26507"&gt;Ariana Grande&lt;/a&gt;, the 2018 rom-com &lt;a href="https://www.imdb.com/title/tt5164432/" rel="noopener nofollow"&gt;&lt;em&gt;Love, Simon&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/artists/Meghan-trainor" rel="noopener" data-api_path="/artists/201194"&gt;Meghan Trainor&lt;/a&gt;, One Direction, himself and more.&lt;/p&gt;\n\n&lt;p&gt;Styles was born and raised in Holmes Chapel, Cheshire, with his sister, supported by their loving mother and step-father. Growing up, Styles always had a passion for singing; he would record covers on his karaoke machine as a kid and went on to be the lead singer of Manchester band &lt;a href="https://genius.com/artists/White-eskimo" rel="noopener" data-api_path="/artists/631564"&gt;White Eskimo&lt;/a&gt;. In 2010, 16-year-old Styles &lt;a href="https://www.youtube.com/watch?v=irKluYOMkI0" rel="noopener nofollow"&gt;auditioned&lt;/a&gt; as a solo artist on &lt;a href="http://www.imdb.com/title/tt0423776/" rel="noopener nofollow"&gt;&lt;em&gt;The X Factor&lt;/em&gt;&lt;/a&gt; before judge Simon Cowell grouped him with four other boys to form English-Irish pop boy band, One Direction.&lt;/p&gt;\n\n&lt;p&gt;In April 2017, two years after One Direction announced their hiatus, Styles dropped his debut solo single &lt;a href="https://genius.com/Harry-styles-sign-of-the-times-lyrics" rel="noopener" data-api_path="/songs/3040789"&gt;“Sign Of The Times”&lt;/a&gt; which was greeted with enormous praise as the song landed the number one spot on the charts in over twenty countries. Influenced by rock bands such as &lt;a href="https://genius.com/artists/Pink-floyd" rel="noopener" data-api_path="/artists/694"&gt;Pink Floyd&lt;/a&gt;, &lt;a href="https://genius.com/artists/Fleetwood-mac" rel="noopener" data-api_path="/artists/2579"&gt;Fleetwood Mac&lt;/a&gt; and &lt;a href="https://genius.com/artists/The-rolling-stones" rel="noopener" data-api_path="/artists/774"&gt;The Rolling Stones&lt;/a&gt;, Harry Styles’s &lt;a href="https://genius.com/albums/Harry-styles/Harry-styles" rel="noopener" data-api_path="/albums/339829"&gt;self-titled debut album&lt;/a&gt; immediately shot to the top of the charts upon its release in May 2017, landing the number one position in 84 different countries along with selling a historic, record-breaking 230,000 album units. He now holds the title for the &lt;a href="https://www.rollingstone.com/music/music-news/on-the-charts-harry-styles-breaks-record-with-number-one-debut-196714/" rel="noopener nofollow"&gt;biggest debut sales week for a British male musician in the United States&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Two weeks before the release of his album, Styles took to &lt;a href="https://twitter.com/Harry_Styles/status/857928900839587840" rel="noopener nofollow"&gt;Twitter&lt;/a&gt; the announcement of his first solo world tour. A week before the world even heard the entirety of his album, &lt;a href="https://time.com/4769079/harry-styles-tour-sold-out/" rel="noopener nofollow"&gt;Styles’ world tour had sold out in under two minutes&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In October 2019, &lt;a href="https://genius.com/Harry-styles-lights-up-lyrics" rel="noopener" data-api_path="/songs/4935579"&gt;“Lights Up”&lt;/a&gt; was released which &lt;a href="https://www.officialcharts.com/artist/51376/harry-styles/" rel="noopener nofollow"&gt;debuted at number three in the U.K.&lt;/a&gt; and served as the lead single for Styles\' second studio album, &lt;a href="https://genius.com/albums/Harry-styles/Fine-line" rel="noopener" data-api_path="/albums/568792"&gt;&lt;em&gt;Fine Line&lt;/em&gt;&lt;/a&gt;. “Lights Up” was followed by his second single &lt;a href="https://genius.com/Harry-styles-watermelon-sugar-lyrics" rel="noopener" data-api_path="/songs/5007939"&gt;“Watermelon Sugar,”&lt;/a&gt;, which became his &lt;a href="https://www.billboard.com/articles/business/chart-beat/9431815/harry-styles-watermelon-sugar-hot-100" rel="noopener nofollow"&gt;first No. 1 on Billboard Hot 100&lt;/a&gt;, and then his third single &lt;a href="https://genius.com/Harry-styles-adore-you-lyrics" rel="noopener" data-api_path="/songs/5037350"&gt;“Adore You,”&lt;/a&gt; went to &lt;a href="https://www.officialcharts.com/artist/51376/harry-styles/" rel="noopener nofollow"&gt;peak at number seven in the U.K. charts&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;On December 13th 2019, Styles shared his highly-anticipated second album &lt;a href="https://genius.com/albums/Harry-styles/Fine-line" rel="noopener" data-api_path="/albums/568792"&gt;&lt;em&gt;Fine Line&lt;/em&gt;&lt;/a&gt;. It &lt;a href="https://www.officialcharts.com/artist/51376/harry-styles/" rel="noopener nofollow"&gt;topped the U.K.&lt;/a&gt; and U.S. charts. This made him the &lt;a href="https://www.iheart.com/content/2019-12-30-harry-styles-fine-line-reigns-with-second-week-at-no-1/" rel="noopener nofollow"&gt;first British male artist to have his first two albums debut at number one&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In between making music, Styles is sought after by award-winning directors. He appeared on the big screen as a WWII soldier in &lt;a href="http://www.imdb.com/name/nm0634240/" rel="noopener nofollow"&gt;Christopher Nolan&lt;/a&gt;’s &lt;a href="http://www.imdb.com/title/tt5013056/" rel="noopener nofollow"&gt;&lt;em&gt;Dunkirk&lt;/em&gt;&lt;/a&gt; (2017) within the same year he debuted as a solo artist. He is set to star as the male lead in &lt;a href="https://www.imdb.com/name/nm1312575/" rel="noopener nofollow"&gt;Olivia Wilde&lt;/a&gt;’s &lt;a href="https://www.imdb.com/title/tt10731256/" rel="noopener nofollow"&gt;&lt;em&gt;Don’t Worry Darling&lt;/em&gt;&lt;/a&gt;, as well as one of the male leads in [Michael Grandage’s] [&lt;em&gt;My Policeman&lt;/em&gt;], based on the novel of the same name by Bethan Roberts.&lt;/p&gt;', 'alternate_names': ['Harry Edward Styles', 'Harry E. Styles']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Razorlight', 'annotations': {'description': '&lt;p&gt;Razorlight are an English indie rock band formed in 2002 by lead singer and rhythm guitarist &lt;a href="https://genius.com/artists/johnny-borrell" rel="noopener" data-api_path="/artists/998952"&gt;Johnny Borrell&lt;/a&gt;. The band are primarily known in the UK, having topped the charts with the 2006 single &lt;a href="https://genius.com/razorlight-america-lyrics" rel="noopener" data-api_path="/songs/421323"&gt;“America.”&lt;/a&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Ellie-goulding', 'annotations': {'description': '&lt;p&gt;Elena Jane “Ellie” Goulding (born 30 December 1986) – is an English singer-songwriter. In 2010, she became the second artist to both &lt;a href="http://news.bbc.co.uk/1/hi/entertainment/8442389.stm" rel="noopener nofollow"&gt;top the BBC’s annual Sound of… poll&lt;/a&gt; and win &lt;a href="http://www.brits.co.uk/britstv/2010-critics-choice-ellie-goulding" rel="noopener nofollow"&gt;the Critics\' Choice Award at the Brit Awards&lt;/a&gt; in the same year, following &lt;a href="https://genius.com/artists/Adele" rel="noopener" data-api_path="/artists/2300"&gt;Adele’s&lt;/a&gt; win of both in 2008. Originally her music incorporated elements of folk, pop, electronica, and folktronica.&lt;/p&gt;\n\n&lt;p&gt;In July 2009, Goulding signed with Polydor Records, and released her debut EP &lt;em&gt;&lt;a href="https://genius.com/albums/Ellie-goulding/An-introduction-to-ellie-goulding" rel="noopener" data-api_path="/albums/177255"&gt;An Introduction to Ellie Goulding&lt;/a&gt;&lt;/em&gt;, later that year. Her debut single, &lt;a href="https://genius.com/Ellie-goulding-under-the-sheets-lyrics" rel="noopener" data-api_path="/songs/157218"&gt;“Under The Sheets”&lt;/a&gt; was then released in November.&lt;/p&gt;\n\n&lt;p&gt;In 2010 Goulding recorded and released her debut record &lt;em&gt;&lt;a href="https://genius.com/albums/Ellie-goulding/Lights" rel="noopener" data-api_path="/albums/34852"&gt;Lights&lt;/a&gt;&lt;/em&gt;, which spawned four charting singles in the UK, the biggest of which “&lt;a href="https://genius.com/Ellie-goulding-starry-eyed-lyrics" rel="noopener" data-api_path="/songs/52959"&gt;Starry Eyes&lt;/a&gt;” peaked at #4 in the UK and charted in many European countries and Australia.&lt;/p&gt;\n\n&lt;p&gt;At the end of the year the album’s reissue &lt;em&gt;&lt;a href="https://genius.com/albums/Ellie-goulding/Bright-lights" rel="noopener" data-api_path="/albums/18640"&gt;Bright Lights&lt;/a&gt;&lt;/em&gt; was released, and spawned two singles: &lt;a href="https://genius.com/Ellie-goulding-lights-lyrics" rel="noopener" data-api_path="/songs/79697"&gt;“Lights”&lt;/a&gt; and a cover of &lt;a href="https://genius.com/artists/Elton-john" rel="noopener" data-api_path="/artists/560"&gt;Elton John’s&lt;/a&gt; “&lt;a href="https://genius.com/Ellie-goulding-your-song-lyrics" rel="noopener" data-api_path="/songs/198880"&gt;Your Song&lt;/a&gt;.” The former of which propelled Goulding into international stardom after becoming a sleeper hit in the United States, eventually peaking at #2 after almost a year of the song charting.&lt;/p&gt;\n\n&lt;p&gt;In 2012, Goulding’s sophomore record &lt;em&gt;&lt;a href="https://genius.com/albums/Ellie-goulding/Halcyon" rel="noopener" data-api_path="/albums/20565"&gt;Halcyon&lt;/a&gt;&lt;/em&gt; was released, featuring lead single “&lt;a href="https://genius.com/Ellie-goulding-anything-could-happen-lyrics" rel="noopener" data-api_path="/songs/85737"&gt;“Anything Could Happen”&lt;/a&gt;, which was another U.S. hit.&lt;/p&gt;\n\n&lt;p&gt;It’s re-issue, &lt;em&gt;&lt;a href="https://genius.com/albums/Ellie-goulding/Halcyon-days" rel="noopener" data-api_path="/albums/42358"&gt;Halcyon Days&lt;/a&gt;&lt;/em&gt; saw critical acclaim for Goulding’s happier lyrical content and musical exploration into EDM. Its lead single, &lt;a href="https://genius.com/Ellie-goulding-burn-lyrics" rel="noopener" data-api_path="/songs/183325"&gt;“Burn”&lt;/a&gt; was a top 20 hit in the United States, becoming a mega-success worldwide.&lt;/p&gt;\n\n&lt;p&gt;Goulding’s vocal connection with EDM has been explored through collaborations with &lt;a href="https://genius.com/artists/Calvin-harris" rel="noopener" data-api_path="/artists/2069"&gt;Calvin Harris&lt;/a&gt;, on hits “&lt;a href="https://genius.com/Calvin-harris-i-need-your-love-lyrics" rel="noopener" data-api_path="/songs/154286"&gt;I Need Your Love&lt;/a&gt;,” and “&lt;a href="https://genius.com/Calvin-harris-outside-lyrics" rel="noopener" data-api_path="/songs/546962"&gt;Outside&lt;/a&gt;”, as well as songs with &lt;a href="https://genius.com/Major-lazer-powerful-lyrics" rel="noopener" data-api_path="/songs/1363351"&gt;Major Lazer&lt;/a&gt;, &lt;a href="https://genius.com/Clean-bandit-mama-lyrics" rel="noopener" data-api_path="/songs/3983995"&gt;Clean Bandit&lt;/a&gt;, &lt;a href="https://genius.com/Zedd-and-lucky-date-fall-into-the-sky-lyrics" rel="noopener" data-api_path="/songs/342832"&gt;Zedd&lt;/a&gt;, &lt;a href="https://genius.com/Ellie-goulding-stay-awake-lyrics" rel="noopener" data-api_path="/songs/198928"&gt;Madeon&lt;/a&gt;, and &lt;a href="https://genius.com/Kygo-and-ellie-goulding-first-time-lyrics" rel="noopener" data-api_path="/songs/3066143"&gt;Kygo&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The beginning of 2015 began with Goulding releasing her biggest hit to date, &lt;a href="https://genius.com/Ellie-goulding-love-me-like-you-do-lyrics/" rel="noopener" data-api_path="/songs/665379"&gt;“Love Me Like You Do”&lt;/a&gt;“ for the &lt;a href="https://genius.com/albums/Various-artists/Fifty-shades-of-grey-original-motion-picture-soundtrack" rel="noopener" data-api_path="/albums/118063"&gt;50 Shades of Grey Soundtrack&lt;/a&gt;. The song was acclaimed by critics and peaked at #1 around the world and #3 in the United States. The song garnered her a Best Pop Solo Performance Grammy Nomination.&lt;/p&gt;\n\n&lt;p&gt;Goulding later re-upped on her pop game with 2015’s &lt;em&gt;&lt;a href="https://genius.com/albums/Ellie-goulding/Delirium" rel="noopener" data-api_path="/albums/131217"&gt;Delirium&lt;/a&gt;&lt;/em&gt;. The album incorporated Goulding’s affiliation with club bangers and explored a poppier sound than her original albums. The album’s lead single &lt;a href="https://genius.com/Ellie-goulding-on-my-mind-lyrics/" rel="noopener" data-api_path="/songs/2308425"&gt;“On My Mind”&lt;/a&gt; became an international success, and received media attention as speculated to be an answer song to &lt;a href="https://genius.com/artists/Ed-sheeran" rel="noopener" data-api_path="/artists/12418"&gt;Ed Sheeran’s&lt;/a&gt; “&lt;a href="https://genius.com/Ed-sheeran-dont-lyrics" rel="noopener" data-api_path="/songs/403031"&gt;Don’t.&lt;/a&gt;” The album’s third single, &lt;a href="https://genius.com/%28/Ellie-goulding-something-in-the-way-you-move-lyrics/" rel="noopener"&gt;“Something In The Way You Move”&lt;/a&gt; was another hit, peaking at #43 on the Hot 100.&lt;/p&gt;\n\n&lt;p&gt;2018 saw Goulding prepare for her fourth record. “&lt;a href="https://genius.com/Ellie-goulding-and-diplo-close-to-me-lyrics" rel="noopener" data-api_path="/songs/4037296"&gt;Close To Me&lt;/a&gt;” with &lt;a href="https://genius.com/artists/Diplo" rel="noopener" data-api_path="/artists/12908"&gt;Diplo&lt;/a&gt; and featuring &lt;a href="https://genius.com/artists/Swae-lee" rel="noopener" data-api_path="/artists/209139"&gt;Swae Lee&lt;/a&gt; saw success, peaking at #24 in the U.S, and she followed these up with 2019’s “&lt;a href="https://genius.com/Ellie-goulding-flux-lyrics" rel="noopener" data-api_path="/songs/4202475"&gt;Flux&lt;/a&gt;” and “&lt;a href="https://genius.com/Ellie-goulding-sixteen-lyrics" rel="noopener" data-api_path="/songs/4427896"&gt;Sixteen&lt;/a&gt;” which are assumed to be album singles.&lt;/p&gt;', 'alternate_names': ['Elena Jane Goulding']}}</t>
   </si>
   <si>
     <t>{'url': 'https://genius.com/artists/Kenny-loggins', 'annotations': {'description': '&lt;p&gt;Singer, songwriter, and guitarist Kenny Loggins has enjoyed more than three decades of success in the music business, as a songwriter and performer, mostly in a soft rock vein. He was born Kenneth Clarke Loggins in Everett, WA in early 1948, and the family later moved to Detroit, and finally to Alhambra, CA when he was in his teens. He initially turned to music as a way of compensating for his extreme shyness, and found that he was, indeed, a talented guitarist and had a voice. For a time in the late ‘60s he was based in Pasadena, studying at Pasadena City College. At the end of the decade, Loggins passed through the lineup of a band called Gator Creek, who were good enough to get signed to Mercury Records. The group recorded one self-titled album, which was issued in 1970 and included an early version of “Danny’s Song,” a track that he later recorded again as part of Loggins &amp;amp; Messina. He also spent time with a short-lived group called Second Helping, and was a member of the stage incarnation of the Electric Prunes during a later phase of that group’s history.&lt;br&gt;\nLoggins was proficient on the guitar and piano, but it was his songwriting that allowed him to make his first lasting impression on the music industry. He took a job as a staff writer for Wingate Music, for $100.00 a week, and later that year four of his songs ended up on the Nitty Gritty Dirt Band album Uncle Charlie &amp;amp; His Dog Teddy. This event was particularly fortuitous, as that album was the first release by the newly reconstituted version of the group, and included what proved to be their biggest hit, “Mr. Bojangles.” The presence of the latter helped make Uncle Charlie one of the group’s biggest selling long-players; and the exposure generated a second hit in the form of Loggins’ own “House at Pooh Corner.”&lt;br&gt;\nThe success of the Nitty Gritty Dirt Band’s recordings brought Loggins to the attention of former Poco member Jim Messina, who was working as a staff producer at CBS. It was Messina’s intention to produce Loggins\' debut album, but he also ended up playing and singing on the record, and it worked out so well that the two ended up in a duo. Loggins &amp;amp; Messina were among the most popular folk-based soft rock acts of the first half of the ‘70s and enjoyed a four-year string of successful albums.&lt;br&gt;\nLoggins &amp;amp; Messina broke up in 1976, and Loggins retained a strong following in the years immediately after. He went on to solo stardom with such million-selling albums as Celebrate Me Home, Nightwatch (which included the hit “Whenever I Call You Friend”), and Keep the Fire, all in the cheerful, sensitive style he had displayed in Loggins &amp;amp; Messina. Loggins also became known as the king of the movie soundtrack song, scoring Top Ten hits with “I’m Alright” (from Caddyshack), “Footloose” (from Footloose), “Danger Zone” (from Top Gun), and “Nobody’s Fool” (from Caddyshack II). During this period, he was also one of the participants in USA for Africa on the benefit recording “We Are the World.” His own albums sold less well (and came less frequently) throughout the \'80s, with later efforts like 1991’s Leap of Faith, 1997’s The Unimaginable Life, and 1998’s December finding favor primarily in adult contemporary circles; in 1994, he also issued a children’s album, Return to Pooh Corner, and released its sequel, More Songs from Pooh Corner, in early 2000. He reunited with Messina in 2005 for a successful tour, album, and concert video, and in 2007, Loggins released How About Now, his first new solo album in four years. It was followed by All Join In in 2009. ~ William Ruhlmann &amp;amp; Bruce Eder, Rovi&lt;/p&gt;\n\n&lt;p&gt;(Retrieved 12/21/15 from &lt;/p&gt;&lt;div class="embedly_preview"&gt;\n&lt;a href="http://www.billboard.com/artist/305726/kenny-loggins/biography"&gt;\n  &lt;div class="gray_container"&gt;\n    \n      &lt;div class="embedly_preview-thumb"&gt;\n        &lt;img src="https://i.genius.com/c2d069d55c90776f5b2646d3adb0b14c5f8f2bf0?url=http%3A%2F%2Fwww.billboard.com%2Ffiles%2Fstyles%2Fmagazine_cover%2Fpublic%2Fmedia%2Fbb10-nicky-jam-j-balvin-2017-billboard-225.jpg"&gt;\n      &lt;/div&gt;\n    \n    &lt;div class="embedly_preview-text"&gt;\n      &lt;span class="embedly_preview-title"&gt;Kenny Loggins - Biography | Billboard&lt;/span&gt;\n      \n        &lt;span class="embedly_preview-dash"&gt; — &lt;/span&gt;\n        &lt;span class="embedly_preview-provider"&gt;Billboard&lt;/span&gt;\n      \n      \n    &lt;/div&gt;\n  &lt;/div&gt;\n&lt;/a&gt;\n&lt;/div&gt;)', 'alternate_names': ['Kenneth Loggins', 'Kenneth C. Loggins', 'Kenneth Clark Loggins']}}</t>
   </si>
   <si>
-    <t>{'url': 'https://genius.com/artists/Beck', 'annotations': {'description': '&lt;p&gt;Beck took the lo-fi sound of DIY indie rock to the &lt;a href="https://www.billboard.com/music/beck/chart-history/alternative-songs/song/23942" rel="noopener nofollow"&gt;Billboard charts&lt;/a&gt; in 1994 with his slacker anthem &lt;a href="https://genius.com/Beck-loser-lyrics" rel="noopener" data-api_path="/songs/4905"&gt;“Loser,”&lt;/a&gt; but his avant-pop palette extends well beyond the folk-rap beats and samples of that hit; encompassing everything from funk, soul, and psychedelia to wild experiments with feedback, toy instruments, and found sounds. Plus, his disjointed, surreal lyrics (which were often compared to &lt;a href="https://genius.com/albums/Bob-dylan/Highway-61-revisited" rel="noopener" data-api_path="/albums/13573"&gt;&lt;em&gt;Highway 61 Revisited&lt;/em&gt;&lt;/a&gt;-era &lt;a href="https://genius.com/artists/Bob-dylan" rel="noopener" data-api_path="/artists/181"&gt;Bob Dylan&lt;/a&gt;) made for an alt-pop sound that helped define the ‘90s and made Beck one of the most interesting musicians of his era.&lt;/p&gt;', 'alternate_names': ['Bek Campbell', 'Bek D. Campbell', 'Bek David Campbell', 'Beck D. Hansen', 'Beck David Hansen', 'Beck Hansen']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Herbie-hancock', 'annotations': {'description': '&lt;p&gt;Herbert Jeffrey “Herbie” Hancock (born April 12, 1940) is an American pianist, keyboardist, bandleader, composer and actor from Chicago, Illinois.&lt;/p&gt;\n\n&lt;p&gt;In 1960 he began working with &lt;a href="https://en.wikipedia.org/wiki/Donald_Byrd" rel="noopener nofollow"&gt;Donald Byrd&lt;/a&gt; and &lt;a href="https://en.wikipedia.org/wiki/Coleman_Hawkins" rel="noopener nofollow"&gt;Coleman Hawkins&lt;/a&gt;. He recorded his first solo album &lt;em&gt;“Takin\' Off”&lt;/em&gt; for Blue Note Records in 1962. &lt;em&gt;“Watermelon Man”&lt;/em&gt;. Thanks to the album he caught the attention of &lt;a href="https://genius.com/artists/Miles-Davis" rel="noopener" data-api_path="/artists/8150"&gt;Miles Davis&lt;/a&gt;, who asks, in May 1963, Hancock to join his &lt;a href="https://en.wikipedia.org/wiki/Miles_Davis_Quintet#Second_Great_Quintet_.281964.E2.80.9368.29" rel="noopener nofollow"&gt;Second Great Quintet&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In the sixties he records two important albums in jazz history: &lt;em&gt;“Empyrean Isles”&lt;/em&gt; (1964) and &lt;em&gt;“Maiden Voyage”&lt;/em&gt; (1965), both for Blue Note. During this period, Hancock also composed the score to &lt;a href="https://en.wikipedia.org/wiki/Michelangelo_Antonioni" rel="noopener nofollow"&gt;Michelangelo Antonioni&lt;/a&gt;’s film &lt;a href="https://en.wikipedia.org/wiki/Blowup" rel="noopener nofollow"&gt;Blowup&lt;/a&gt; (1966), the first of many film soundtracks he recorded in his career.&lt;/p&gt;\n\n&lt;p&gt;Hancock left Blue Note in 1969, signing with Warner Bros. Records. In the seventies he changes his style, using electronic instruments to create a blend of funk and jazz. This change culminate in album like &lt;em&gt;“Head Hunters”&lt;/em&gt;. Later he recorded many albums consisting of jazz-inflected disco and pop music. During this years he found time to record more traditional jazz while creating more commercially oriented music. His instrumental single “Rockit” was the first jazz hip-hop song and became a worldwide anthem for the breakdancers and for the hip-hop culture of the 1980s. It was also the first mainstream single to feature scratching, and also featured an innovative animated music video.&lt;/p&gt;\n\n&lt;p&gt;In 1986 Hancock performed and acted in the film ‘Round Midnight. He also wrote the score/soundtrack, for which he won an Academy Award for Original Music Score.&lt;/p&gt;\n\n&lt;p&gt;During the last decades he recorded also tribute albums (&lt;em&gt;“Gershwin’s World”&lt;/em&gt;, &lt;em&gt;“River: The Joni Letters”&lt;/em&gt;) or the album &lt;em&gt;“The New Standard”&lt;/em&gt; in which he reinterprets contemporaneous rock and R&amp;amp;B songs.&lt;/p&gt;\n\n&lt;p&gt;In his career he won &lt;a href="https://en.wikipedia.org/wiki/Herbie_Hancock#Awards" rel="noopener nofollow"&gt;many prizes&lt;/a&gt;, including one Academy Award and fourteen Grammy.&lt;/p&gt;\n\n&lt;p&gt;Herbie Hancock helped to redefine the role of a jazz rhythm section and was one of the primary architects of the post-bop sound. He was one of the first jazz musicians to embrace synthesizers and funk music. Hancock’s music is often melodic and accessible; he has had many songs “cross over” and achieved success among pop audiences.&lt;/p&gt;', 'alternate_names': ['Herbert Hancock', 'Herbert J. Hancock', 'Herbert Jeffrey Hancock', 'H. Hancock']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Janes-addiction', 'annotations': {'description': '&lt;p&gt;Without &lt;a href="http://www.janesaddiction.com/biography" rel="noopener nofollow"&gt;Jane’s Addiction&lt;/a&gt;, there might still have been a &lt;a href="https://genius.com/artists/Soundgarden" rel="noopener" data-api_path="/artists/19976"&gt;Soundgarden&lt;/a&gt;, an &lt;a href="https://genius.com/artists/Alice-in-chains" rel="noopener" data-api_path="/artists/32179"&gt;Alice in Chains&lt;/a&gt;, a &lt;a href="https://genius.com/artists/Nine-inch-nails" rel="noopener" data-api_path="/artists/12757"&gt;Nine Inch Nails&lt;/a&gt;, a &lt;a href="https://genius.com/artists/Rage-against-the-machine" rel="noopener" data-api_path="/artists/1499"&gt;Rage Against the Machine&lt;/a&gt;, and even a &lt;a href="https://genius.com/artists/Nirvana" rel="noopener" data-api_path="/artists/12712"&gt;Nirvana&lt;/a&gt;, but they wouldn’t sound the same. As Tom Morello said when inducting Jane’s into Guitar Center’s Rock Walk of Fame in June 2011:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Nirvana often gets credit for being the first ‘Alternative’ band to break through, the band that changed music and led rock out of the hair metal wilderness of the ’80’s. That’s just not true. It was Jane’s Addiction.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;strong&gt;Members&lt;/strong&gt;&lt;br&gt;\n&lt;a href="https://genius.com/artists/Perry-farrell" rel="noopener" data-api_path="/artists/133786"&gt;Perry Farrell&lt;/a&gt; – lead vocals (1985–1991, 1997, 2001–2004, 2008–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Dave-navarro" rel="noopener" data-api_path="/artists/27020"&gt;Dave Navarro&lt;/a&gt; – lead and rhythm guitars, acoustic guitar, piano (1986–1991, 1997, 2001–2004, 2008–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Eric-avery" rel="noopener" data-api_path="/artists/25892"&gt;Eric Avery&lt;/a&gt; – bass (1985–1991, 2008–2010)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Stephen-perkins" rel="noopener" data-api_path="/artists/27021"&gt;Stephen Perkins&lt;/a&gt; – drums, percussion (1986–1991, 1997, 2001–2004, 2008–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Chris-chaney" rel="noopener" data-api_path="/artists/978390"&gt;Chris Chaney&lt;/a&gt; – bass (2002–2004, 2011–present)&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Puddle-of-mudd', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Puddle of Mudd&lt;/strong&gt; is an American rock band. They formed in 1991 in Kansas City, Missouri. The group currently consists of Wes Scantlin, Dave Moreno, Michael John Adams, and Matt Fuller.&lt;/p&gt;\n\n&lt;p&gt;The group is best known for a series of hits in the 2000s, including &lt;em&gt;“Blurry”&lt;/em&gt;, &lt;em&gt;“She Hates Me”&lt;/em&gt;, and “&lt;em&gt;Psycho&lt;/em&gt;”.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Madam-majestic', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Martin-solveig', 'annotations': {'description': '&lt;p&gt;Born as Martin Picandet, Martin Solveig is a french DJ, singer, songwriter, producer and radio host. He became a DJ at 18, starting to work in Parisian nightclubs. His tracks mix house, electro, pop and trap. His first album, “Sur la Terre” was released on 2008, with his latest singe being “Do it Right” (2016).&lt;/p&gt;', 'alternate_names': ['Martin Laurent Picandet', 'Martin Picandet']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Stereo-mcs', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Stardust', 'annotations': {'description': '&lt;p&gt;Short-lived collaborative project with members Alain “Braxe” Quême, Benjamin “Diamond” Cohen and Thomas Bangalter. “Music Sounds Better With You” became their only song and won the DJ Award for “Track of the Season”.  The band was founded in 1997 and disbanded in 1998.&lt;/p&gt;\n\n&lt;p&gt;Stardust denied a request to make an album from many labels, one of which offered $1,000,000.&lt;/p&gt;\n\n&lt;p&gt;In 2018, Benjamin Diamond announced Stardust would be returning to re-release Music Sounds Better With You which would release on streaming services and vinyl summer of 2019.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/George-harrison', 'annotations': {'description': '&lt;p&gt;If George Harrison were merely remembered for his involvement in &lt;a href="https://genius.com/artists/The-beatles" rel="noopener" data-api_path="/artists/586"&gt;The Beatles&lt;/a&gt;, his legacy would be solidified as one of rock’s greatest names. Along with staging the &lt;a href="https://www.imdb.com/title/tt0158560/" rel="noopener nofollow"&gt;world’s first benefit concert&lt;/a&gt; where major artists performed together for humanitarian relief, introducing pop culture to classical Indian music and gaining three #1 singles as a solo artist, he was also a film producer and an avid gardener.&lt;/p&gt;\n\n&lt;p&gt;In 1957, he met a young &lt;a href="https://genius.com/artists/Paul-mccartney" rel="noopener" data-api_path="/artists/1601"&gt;Paul McCartney&lt;/a&gt; on a bus they both took to school. McCartney then introduced him to &lt;a href="https://genius.com/artists/John-lennon" rel="noopener" data-api_path="/artists/16450"&gt;John Lennon&lt;/a&gt; to audition for his skiffle group, the Quarrymen. Lennon originally rejected Harrison as he thought he was too young to be the band, having just turned 15. Harrison eventually impressed Lennon with his guitar skills and was accepted as a member of the group.&lt;/p&gt;\n\n&lt;p&gt;During his time with The Beatles, Harrison was the lead guitarist, one of the singers, and contributed many songs such as &lt;a href="https://genius.com/The-beatles-taxman-lyrics" rel="noopener" data-api_path="/songs/75223"&gt;“Taxman,”&lt;/a&gt; &lt;a href="https://genius.com/The-beatles-within-you-without-you-lyrics" rel="noopener" data-api_path="/songs/76567"&gt;“Within You Without You,”&lt;/a&gt; &lt;a href="https://genius.com/The-beatles-while-my-guitar-gently-weeps-lyrics" rel="noopener" data-api_path="/songs/75670"&gt;“While My Guitar Gently Weeps,”&lt;/a&gt; &lt;a href="https://genius.com/The-beatles-here-comes-the-sun-lyrics" rel="noopener" data-api_path="/songs/87577"&gt;“Here Comes the Sun”&lt;/a&gt; and &lt;a href="https://genius.com/The-beatles-something-lyrics" rel="noopener" data-api_path="/songs/87564"&gt;“Something.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Harrison released his debut album, &lt;a href="https://genius.com/albums/George-harrison/Wonderwall-music" rel="noopener" data-api_path="/albums/345852"&gt;&lt;em&gt;Wonderwall Music&lt;/em&gt;&lt;/a&gt;, during 1968 as the soundtrack to the film &lt;em&gt;Wonderwall&lt;/em&gt;. It was the first solo album to be released by a Beatle. Harrison released another album, &lt;a href="https://genius.com/albums/George-harrison/Electronic-sound" rel="noopener" data-api_path="/albums/185269"&gt;&lt;em&gt;Electronic Sounds&lt;/em&gt;&lt;/a&gt;, before The Beatles breakup in 1970.&lt;/p&gt;\n\n&lt;p&gt;In 1970, Harrison released the critically acclaimed triple album, &lt;a href="https://genius.com/albums/George-harrison/All-things-must-pass" rel="noopener" data-api_path="/albums/41860"&gt;&lt;em&gt;All Things Must Pass&lt;/em&gt;&lt;/a&gt;. The album consisted of songs that Harrison had been collecting throughout his time with The Beatles. The album was co-produced by &lt;a href="https://genius.com/artists/Phil-spector" rel="noopener" data-api_path="/artists/29024"&gt;Phil Spector&lt;/a&gt; and made use of his famous Wall Of Sound technique. The album produced the #1 hit, &lt;a href="https://genius.com/George-harrison-my-sweet-lord-lyrics" rel="noopener" data-api_path="/songs/202126"&gt;“My Sweet Lord.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;In later years, Harrison released 9 studio albums spawning two #1 singles: &lt;a href="https://genius.com/George-harrison-give-me-love-give-me-peace-on-earth-lyrics" rel="noopener" data-api_path="/songs/207155"&gt;“Give Me Love (Give Me Peace On Earth)”&lt;/a&gt; and &lt;a href="https://genius.com/George-harrison-got-my-mind-set-on-you-lyrics" rel="noopener" data-api_path="/songs/402440"&gt;“Got My Mind Set On You.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;During 1988, Harrison founded supergroup, &lt;a href="https://genius.com/artists/The-traveling-wilburys" rel="noopener" data-api_path="/artists/60612"&gt;The Travelling Wilburys&lt;/a&gt;, along with &lt;a href="https://genius.com/artists/Jeff-lynne" rel="noopener" data-api_path="/artists/34990"&gt;Jeff Lynne&lt;/a&gt;, &lt;a href="https://genius.com/artists/Tom-petty" rel="noopener" data-api_path="/artists/20785"&gt;Tom Petty&lt;/a&gt;, &lt;a href="https://genius.com/artists/Bob-dylan" rel="noopener" data-api_path="/artists/181"&gt;Bob Dylan&lt;/a&gt; and &lt;a href="https://genius.com/artists/Roy-orbison" rel="noopener" data-api_path="/artists/47372"&gt;Roy Orbison&lt;/a&gt;. The group released &lt;a href="https://genius.com/albums/The-traveling-wilburys/Traveling-wilburys-vol-1" rel="noopener" data-api_path="/albums/39460"&gt;&lt;em&gt;Traveling Wilburys, Vol. 1&lt;/em&gt;&lt;/a&gt; to much success. Following Orbison’s death, the remaining members released their final album, &lt;a href="https://genius.com/albums/The-traveling-wilburys/Traveling-wilburys-vol-3" rel="noopener" data-api_path="/albums/171091"&gt;&lt;em&gt;Traveling Wilburys, Vol. 3&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;During 1970, Harrison bought Friar Park, a 62 acre mansion in Henley-on-Thames. He spent years renovating the mansion and personally caring for  it’s grounds. The cover for &lt;em&gt;All Things Must Pass&lt;/em&gt; was shot in the grounds of the mansion along with many of his music videos.&lt;/p&gt;\n\n&lt;p&gt;During the filming of &lt;a href="https://www.imdb.com/title/tt0058182/" rel="noopener nofollow"&gt;&lt;em&gt;A Hard Day’s Night&lt;/em&gt;&lt;/a&gt;, Harrison met his first wife Pattie Boyd, who played the role of a schoolgirl. They married in 1966, divorcing in 1977 on the grounds of Harrison’s infidelities. Boyd later on married Harrison’s longtime friend &lt;a href="https://genius.com/artists/Eric-clapton" rel="noopener" data-api_path="/artists/19272"&gt;Eric Clapton&lt;/a&gt;. Harrison then met Olivia Arias who was working for Harrison’s record label, &lt;a href="http://www.georgeharrison.com/dark-horse-records/" rel="noopener nofollow"&gt;Dark Horse Records&lt;/a&gt;, as a secretary. They married in 1978 and had a son, Dhani, born on August 1st, 1978.&lt;/p&gt;\n\n&lt;p&gt;In 1999, Harrison’s home was broken into by a crazed fan who stabbed him multiple times, only to be stopped by Harrison’s wife.&lt;/p&gt;\n\n&lt;p&gt;George Harrison (1943-2001) passed away at 58 to a long battle with cancer.&lt;/p&gt;', 'alternate_names': ['Nelson Wilbury']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Kelly-clarkson', 'annotations': {'description': '&lt;p&gt;Kelly Brianne Clarkson (born April 24, 1982) is an American singer, songwriter, and occasional actress. In 2002, she came to prominence after winning the first season of American Idol, and has since been established as “The Original American Idol”. Her debut single, “A Moment Like This”, topped the US Billboard Hot 100 and broke the record for the biggest jump to number one in the chart’s history.&lt;/p&gt;\n\n&lt;p&gt;Her first album, &lt;em&gt;&lt;a href="https://genius.com/albums/Kelly-clarkson/Thankful" rel="noopener" data-api_path="/albums/41088"&gt;Thankful&lt;/a&gt;&lt;/em&gt; included the top ten single “Miss Independent”, which earned her first Grammy nomination. Her second album &lt;em&gt;&lt;a href="https://genius.com/albums/Kelly-clarkson/Breakaway" rel="noopener" data-api_path="/albums/41090"&gt;Breakaway&lt;/a&gt;&lt;/em&gt; produced the hit single “Since U Been Gone” which reached number two on the Hot 100 and was certified platinum by the RIAA.&lt;/p&gt;\n\n&lt;p&gt;Clarkson went in a different direction with her self-creatively-controlled third album, &lt;em&gt;&lt;a href="https://genius.com/albums/Kelly-clarkson/My-december" rel="noopener" data-api_path="/albums/41095"&gt;My December&lt;/a&gt;&lt;/em&gt;. It debuted at number two on the Billboard 200 and produced the top-ten single “Never Again.” Her fourth album, &lt;em&gt;&lt;a href="https://genius.com/albums/Kelly-clarkson/All-i-ever-wanted" rel="noopener" data-api_path="/albums/11133"&gt;All I Ever Wanted&lt;/a&gt;&lt;/em&gt; debuted at number one on the Billboard 200. Lead single “My Life Would Suck Without You” re-broke the record for biggest jump to number one on the Hot 100, jumping 97-1 in its second week on the chart. The record still stands today.&lt;/p&gt;\n\n&lt;p&gt;Fifth album &lt;em&gt;&lt;a href="https://genius.com/albums/Kelly-clarkson/Stronger" rel="noopener" data-api_path="/albums/41114"&gt;Stronger&lt;/a&gt;&lt;/em&gt; produced the top-ten “Mr. Know It All” and her third number one, “Stronger (What Doesn’t Kill You).” Later, she released her &lt;a href="https://genius.com/albums/Kelly-clarkson/Greatest-hits-chapter-one" rel="noopener" data-api_path="/albums/108251"&gt;greatest hits&lt;/a&gt; album, producing the top-twenty single “Catch My Breath.” Her holiday album, &lt;em&gt;&lt;a href="https://genius.com/albums/Kelly-clarkson/Wrapped-in-red" rel="noopener" data-api_path="/albums/80779"&gt;Wrapped in Red&lt;/a&gt;&lt;/em&gt; became the highest-selling holiday album of 2013, which made Clarkson the first female to accomplish a feat.&lt;/p&gt;\n\n&lt;p&gt;Her sixth album, &lt;em&gt;&lt;a href="https://genius.com/albums/Kelly-clarkson/Piece-by-piece" rel="noopener" data-api_path="/albums/118882"&gt;Piece by Piece&lt;/a&gt;&lt;/em&gt;, was released on March 3, 2015. Lead single “Heartbeat Song” was released on January 12, 2015, and has peaked at 21 on the Hot 100.&lt;/p&gt;', 'alternate_names': ['Kelly Brianne Clarkson']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Soul-asylum', 'annotations': {'description': '&lt;p&gt;Soul Asylum is an American alternative rock band formed in 1981 in Minneapolis, Minnesota, best known for the Grammy-winning 1993 hit “Runaway Train”. The band was originally called Loud Fast Rules, with a lineup consisting of Dave Pirner, Dan Murphy, Karl Mueller, and Pat Morley. They changed their name to Soul Asylum in 1983. Morley was replaced by Grant Young in 1984. The band recorded three albums with Twin/Tone Records and two with A&amp;amp;M Records, with little commercial success. In 1992, they released the triple-platinum album Grave Dancers Union, featuring “Runaway Train”. The band played at the inauguration of President Bill Clinton early the next year. They also scored a platinum record with the album Let Your Dim Light Shine three years later.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/f7ed8205179ddd2b4c40090997cd9664.653x827x1.jpg" alt="" width="653" height="827" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Survivor', 'annotations': {'description': '&lt;p&gt;The legendary Chicago rock band Survivor formed in 1978 by guitarist/songwriter Jim Peterik. They are most notably recognized by their double platinum single &lt;a href="https://genius.com/Survivor-eye-of-the-tiger-lyrics" rel="noopener" data-api_path="/songs/202978"&gt;“Eye of the Tiger”&lt;/a&gt;, the theme song for the motion picture &lt;a href="https://en.wikipedia.org/wiki/Rocky_III" rel="noopener nofollow"&gt;&lt;em&gt;Rocky III&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The band has gone through &lt;a href="https://en.wikipedia.org/wiki/Survivor_%28band%29" rel="noopener nofollow"&gt;several lineups&lt;/a&gt; throughout the years and has split/reunited several times.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Good-charlotte', 'annotations': {'description': '&lt;p&gt;First formed in 1996 by brothers Joel and Benji Madden, Maryland’s GOOD CHARLOTTE soundtracked the turn-of-the-century and empowered a generation with one cleverly catchy anthem after another. 2000’s landmark self-titled debut earned a gold plaque and quietly set the stage for worldwide superstardom. In 2002, they unleashed the now-classic The Young and the Hopeless, which eventually went RIAA triple-platinum and would be lauded in the Top 20 of Rolling Stone’s “50 Greatest Pop-Punk Albums” and BuzzFeed’s “36 Pop Punk Albums You Need to Hear Before You F——ing Die.” 2004’s The Chronicles of Life and Death bowed at #3 on the Billboard Top 200 and reached platinum status as Good Morning Revival [2007] and Cardiology [2010] repeated that Top 10 success and brought the band around the world multiple times in front of countless screaming fans. Along the way, everyone from N.E.R.D. and Three 6 Mafia to Avenged Sevenfold and Tonight Alive jumped at the chance to collaborate. By 2018, cumulative sales exceeded 11 million worldwide, while accolades encompassed everything from KERRANG! Awards to an MTV VMA. Following a six-year hiatus, they made a much-lauded return with their first independent offering Youth Authority during 2016. However, their music and message prove as potent as ever on 2018’s Generation Rx—the first album to be released under their partnership with BMG. Generation Rx needed a voice, and there’s no one better to provide it than GOOD CHARLOTTE.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Adele', 'annotations': {'description': '&lt;p&gt;In this digital and single-driven age, it’s very difficult for artists to sell albums. Yet, this British singer-songwriter has managed to sell over 50 million units on the back of her two latest albums alone.&lt;/p&gt;\n\n&lt;p&gt;Known for her strong, unique vocal talents who also possesses a very down-to-earth persona, Adele Adkins, born on May 5, 1988, made her studio debut in 2008 with &lt;a href="https://genius.com/albums/Adele/19" rel="noopener" data-api_path="/albums/14858"&gt;&lt;em&gt;19&lt;/em&gt;&lt;/a&gt;, which netted the artist &lt;a href="https://www.grammy.com/grammys/awards/51st-annual-grammy-awards" rel="noopener nofollow"&gt;two Grammy awards&lt;/a&gt; and earned her significant acclaim in the UK.&lt;/p&gt;\n\n&lt;p&gt;In early 2011, Adele released her sophomore album, &lt;a href="https://genius.com/albums/Adele/21" rel="noopener" data-api_path="/albums/11093"&gt;&lt;em&gt;21&lt;/em&gt;&lt;/a&gt;, written in the aftermath of a tumultuous relationship and nasty break-up. The album has sold 35 million copies worldwide and is the 21st album of all time to be certified Diamond in the U.S. (10 million copies sold), a milestone achieved in less than two years after its release. At the &lt;a href="https://www.grammy.com/grammys/awards/54th-annual-grammy-awards" rel="noopener nofollow"&gt;2012 Grammys&lt;/a&gt;, Adele took home six trophies including Song, Record, and Album of the Year, making her only the second artist in Grammys history to win all four General Field categories. To this day, &lt;em&gt;21&lt;/em&gt; is the &lt;a href="http://www.billboard.com/charts/greatest-billboard-200-albums" rel="noopener nofollow"&gt;most successful album on the Billboard 200 ever&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Adele returned from a multi-year hiatus in 2015 after becoming a mother. She released her third studio album &lt;a href="https://genius.com/albums/Adele/25" rel="noopener" data-api_path="/albums/133542"&gt;&lt;em&gt;25&lt;/em&gt;&lt;/a&gt;, which sold more than 3 million units in its first week in the US, an amount unprecedented in all time. Globally, it was the biggest album sales week ever recorded as well. The titanic record featured Adele moving thematically into a sense of closure in her relationships and past. Hailed by critics for being responsible for encouraging the public to purchase physical copies of records, &lt;em&gt;25&lt;/em&gt; was certified Diamond in under a year in the US, and has sold 20 million copies worldwide. Again, at the &lt;a href="https://www.grammy.com/grammys/awards/59th-annual-grammy-awards" rel="noopener nofollow"&gt;2017 Grammys&lt;/a&gt;, Adele took home a boatload of Grammys, including another Song of the Year, Record of the Year, and Album of the Year award.&lt;/p&gt;', 'alternate_names': ['Adele Laurie Blue Adkins', 'Adele Adkins']}}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Bruno_Mars', 'artist_name': 'Bruno Mars', 'wiki': 'http://en.wikipedia.org/wiki/Bruno_Mars', 'birth_date': '08 October 1985', 'start_year': '2004', 'plays_in': ['http://dbpedia.org/resource/31_Minutes_to_Takeoff', 'http://dbpedia.org/resource/Amor_à_Vida', 'http://dbpedia.org/resource/Grammy_Nominees', 'http://dbpedia.org/resource/Press_It', 'http://dbpedia.org/resource/Sayonara_Hitori', 'http://dbpedia.org/resource/Taemin_(album)'], 'related_artists': ['http://dbpedia.org/resource/Alex_Hepburn', 'http://dbpedia.org/resource/Andrew_Wyatt__Andrew_Wyatt__1', 'http://dbpedia.org/resource/Brody_Brown', 'http://dbpedia.org/resource/CLMD', 'http://dbpedia.org/resource/Dave_Audé', 'http://dbpedia.org/resource/Elijah_Connor', 'http://dbpedia.org/resource/Graham_Marsh_(producer)', 'http://dbpedia.org/resource/Greg_Phillinganes', 'http://dbpedia.org/resource/Jamareo_Artis', 'http://dbpedia.org/resource/Laze_&amp;_Royal', 'http://dbpedia.org/resource/Philip_Lawrence_(songwriter)', 'http://dbpedia.org/resource/Saint_Cassius_(musician)', 'http://dbpedia.org/resource/The_Green_(band)', 'http://dbpedia.org/resource/The_Stereotypes', 'http://dbpedia.org/resource/Tom_Coyne_(music_engineer)'], 'abstract': 'Peter Gene Hernandez (born October 8, 1985), known professionally as Bruno Mars, is an American singer, songwriter, record producer, musician, and dancer. He is known for his stage performances, retro showmanship, and for performing in a wide range of musical styles, including pop, R&amp;B, funk, soul, reggae, disco, and rock. Mars is accompanied by his band, the Hooligans, who play a variety of instruments, such as electric guitar, bass, piano, keyboards, drums, and horns, and also serve as backup singers and dancers. Born and raised in Honolulu, Hawaii, Mars moved to Los Angeles in 2003 to pursue a musical career. In 2009, he co-founded the production team The Smeezingtons, responsible for various successful singles for Mars himself and other artists. He rose to fame in 2010 buoyed by the success of "Nothin\' on You" by B.o.B and "Billionaire" by Travie McCoy, both of which featured his vocals. That year, Mars released his debut studio album Doo-Wops &amp; Hooligans, which blended pop with reggae pop and R&amp;B. It spawned the international number-one singles "Just the Way You Are", "Grenade", and "The Lazy Song". Drawing inspiration from disco, funk, rock, reggae and soul genres, his second studio album, Unorthodox Jukebox (2012), was his first number one on the Billboard 200. It amassed two Billboard Hot 100 number-one hits, "Locked Out of Heaven" and "When I Was Your Man". In 2014, Mars was featured on Mark Ronson\'s "Uptown Funk", which topped various music charts, spending a total of fourteen and seven weeks atop the Billboard Hot 100 and the UK Singles Chart, respectively. Mars\'s third studio album, the R&amp;B-focused, 24K Magic (2016), received seven Grammy Awards, winning the major categories of Album of the Year, Record of the Year, and Song of the Year. The album also yielded the top-five singles "24K Magic", "That\'s What I Like", his seventh Billboard Hot 100 number-one single, and a remix of "Finesse" featuring Cardi B. In 2021, Mars and Anderson .Paak, as Silk Sonic, released the collaborative studio album, An Evening with Silk Sonic, whose single "Leave the Door Open" topped the Billboard Hot 100. Mars has sold over 130 million records worldwide, making him one of the best-selling music artists of all time. He has released eight number-one singles on the Billboard Hot 100 since his career launched in 2010, and became the first artist to receive five Diamond-certified songs in the United States. He was included in Music Week and Billboard magazine as one of the best songwriters of 2011 and 2013, respectively. Mars has received several awards and nominations, including 11 Grammy Awards, three Brit Awards, eleven American Music Awards, 13 Soul Train Awards and holds three Guinness world records. He appeared in Time magazine\'s annual list of the 100 most influential people in the world in 2011, Forbes magazine\'s list of "30 Under 30" in 2013, and Forbes\'s Celebrity 100 in 2014, 2018, and 2019.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Save_Ferris', 'artist_name': 'Save Ferris', 'wiki': 'http://en.wikipedia.org/wiki/Save_Ferris', 'hometown': 'http://dbpedia.org/resource/Orange_County,_California', 'start_year': '1995', 'end_year': '2003', 'labels': ['http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Starpool'], 'genres': ['http://dbpedia.org/resource/Ska_punk'], 'actual_members': ['Adam Bones', 'Alex Csillag', 'Brandon Dickert', "Max O'Leary", 'Monique Powell', 'Nate Light'], 'old_members': ['Adam Plost', 'Adrienne Nolff', 'Alex Burke', 'Alexander Mathias', 'Bill Uechi', 'Brian Mashburn', 'Connor McElwain', 'Denny Weston Jr.', 'Eric Zamora', 'Erik Hughes', 'Evan Kilbourne', 'Gordon Bash', 'Jesse Stern', 'Jesse Tunnell', 'Joe Berry', 'Jonathan Levi Shanes', 'José Castellaños', 'Marc Harismendy', 'Oliver Zavala', 'Patrick Ferguson', 'Richard Velzen', 'Scott Jones', 'Steve Cordero', 'Steve White', 'T-Bone Willy'], 'related_artists': ['http://dbpedia.org/resource/Hot_Numbers', 'http://dbpedia.org/resource/Mindrot', 'http://dbpedia.org/resource/Nuckle_Brothers', 'http://dbpedia.org/resource/Reel_Big_Fish', 'http://dbpedia.org/resource/Starpool'], 'abstract': "Save Ferris is an American ska punk band formed circa 1995 in Orange County, California, United States. Their name is a reference to the 1986 film Ferris Bueller's Day Off. In 1995, the band began to perform underground venues in Southern California. In 1996, the band won a Grammy showcase award for best unsigned band and a contract with Epic Records. Their album It Means Everything from 1997 was their first full-length album. By 1999, the band moved from ska-pop into pop-punk. After a hiatus, in 2017, Save Ferris released the Checkered Past EP."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Silk_Sonic', 'artist_name': 'Silk Sonic', 'wiki': 'http://en.wikipedia.org/wiki/Silk_Sonic', 'start_year': '2021', 'labels': ['http://dbpedia.org/resource/Aftermath_Entertainment', 'http://dbpedia.org/resource/Atlantic_Records'], 'genres': ['http://dbpedia.org/resource/Contemporary_R&amp;B', 'http://dbpedia.org/resource/Funk', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Soul_music', 'soul', 'pop', 'R&amp;B'], 'actual_members': ['http://dbpedia.org/resource/Anderson_.Paak', 'http://dbpedia.org/resource/Bruno_Mars'], 'related_artists': ['http://dbpedia.org/resource/Anderson_.Paak', 'http://dbpedia.org/resource/Bootsy_Collins', 'http://dbpedia.org/resource/Brody_Brown', "http://dbpedia.org/resource/D'Mile", 'http://dbpedia.org/resource/Domitille_Degalle'], 'abstract': 'Silk Sonic is an American R&amp;B superduo composed of singer Bruno Mars and rapper and singer Anderson .Paak. The duo released its debut single, "Leave the Door Open", in March 2021, and its debut album, An Evening with Silk Sonic, in November 2021.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Beabadoobee', 'artist_name': 'Beabadoobee', 'wiki': 'http://en.wikipedia.org/wiki/Beabadoobee', 'hometown': 'http://dbpedia.org/resource/London', 'birth_date': '03 June 2000', 'start_year': '2017', 'aliases': ['Bea ', 'Beabadoobee'], 'labels': ['http://dbpedia.org/resource/Dirty_Hit'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Folk-pop', 'http://dbpedia.org/resource/Indie_pop', 'http://dbpedia.org/resource/Indie_rock', 'http://dbpedia.org/resource/Lo-fi_music', 'http://dbpedia.org/resource/Space_rock'], 'related_artists': ['http://dbpedia.org/resource/Powfu'], 'abstract': 'Beatrice Laus (born 3 June 2000), known professionally as beabadoobee (/biːbəˈduːbiː/; stylized in all lowercase), is a Filipino-British singer-songwriter. From 2018 to 2019, she released five extended plays under the independent label Dirty Hit: Lice (2018), Patched Up (2018), Loveworm (2019), Space Cadet (2019) and Our Extended Play (2021). Her debut studio album, Fake It Flowers, was released in October 2020 and received critical acclaim. Beabadoobee served as a supporting act for labelmates the 1975 during several legs of their Music for Cars Tour, as well as American singer Clairo during her Immunity Tour. She was nominated for the Rising Star Award at the 2020 Brit Awards, and was presented with the Radar Award at the 2020 NME Awards. Beabadoobee was also predicted as a breakthrough act for 2020 in an annual BBC poll of music critics, Sound of 2020.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Bush_(Canadian_band)', 'artist_name': 'Bush', 'wiki': 'http://en.wikipedia.org/wiki/Bush_(Canadian_band)', 'hometown': 'http://dbpedia.org/resource/Ontario', 'genres': ['http://dbpedia.org/resource/Rock_music'], 'related_artists': ['http://dbpedia.org/resource/Domenic_Troiano', 'http://dbpedia.org/resource/Pentti_Glan', 'http://dbpedia.org/resource/Roy_Kenner'], 'abstract': 'Bush was an early-70s Canadian rock band. It evolved from the club act Mandala, which had a minor Canadian hit with the song "Love-Itis". Bush consisted of ex-Mandala bandmates Domenic Troiano, Roy Kenner, Hugh Sullivan, Pentti Glan, and Prakash John. The group released a single eponymous album in 1970, on the RCA label in Canada and Dunhill in the US, and toured with label mates Steppenwolf and Three Dog Night. Three Dog Night released one of their songs, "I Can Hear You Calling" as the B-side of their successful single "Joy to the World". The song, co-written by Troiano, Kenner, Glan and Sullivan, also appeared on Three Dog Night\'s Naturally album. Bush was short-lived as a band, but its jazz-influenced rock influenced many musicians.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/DB_Boulevard', 'artist_name': 'DB Boulevard', 'wiki': 'http://en.wikipedia.org/wiki/DB_Boulevard', 'hometown': 'http://dbpedia.org/resource/Padua', 'start_year': '2001', 'end_year': '2006', 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Electronic_music', 'http://dbpedia.org/resource/House_music', 'Electronic', 'house'], 'old_members': ['http://dbpedia.org/resource/Moony', 'Mauro Ferrucci', 'Diego Broggio', 'Alfred Azzetto'], 'abstract': 'DB Boulevard was an Italian electronic rock group, consisting of members, vocalist Moony (Monica Bragato), along with producers Alfred Azzetto, Diego Broggio and Mauro Ferrucci. In 2002, their song "Point of View" peaked at number 1 on the Billboard Hot Dance Club Play chart in the US and at number 3 on the UK Singles Chart. It contains a re-recorded version of a song called "Heatwave" by French band Phoenix, which was released as a single in 1999. The video clip of the song featured a computer animated cardboard woman. The song was used by Sky Sports in their Speedway Grand Prix coverage. It was also used in Sex and the City\'s season five episode "Cover Girl". In Australia, the song was played frequently on the Seven Network idents.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/The_Rembrandts', 'artist_name': 'The Rembrandts', 'wiki': 'http://en.wikipedia.org/wiki/The_Rembrandts', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '1989', 'end_year': '1997', 'labels': ['http://dbpedia.org/resource/Atco_Records', 'http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Blue_Élan_Records', 'http://dbpedia.org/resource/East_West_Records', 'http://dbpedia.org/resource/Fuel_2000'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Jangle_pop', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Power_pop', 'http://dbpedia.org/resource/Soft_rock'], 'related_artists': ['http://dbpedia.org/resource/Danny_Wilde_(musician)', 'http://dbpedia.org/resource/Dave_Schulz_(musician)', 'http://dbpedia.org/resource/Pat_Mastelotto', "http://dbpedia.org/resource/The_Three_O'Clock"], 'abstract': 'The Rembrandts are an American pop rock duo, formed by Danny Wilde and Phil Solem in 1989. They had previously worked together as members of Great Buildings in 1981. The Rembrandts are best known for the song "I\'ll Be There for You", which was used as the main theme song for the NBC sitcom Friends.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Taylor_Swift', 'artist_name': 'Taylor Swift', 'wiki': 'http://en.wikipedia.org/wiki/Taylor_Swift', 'birth_date': '13 December 1989', 'start_year': '2004', 'aliases': ['Nils Sjöberg'], 'plays_in': ['http://dbpedia.org/resource/Avenida_Brasil_(TV_series)', 'http://dbpedia.org/resource/Grammy_Nominees', 'http://dbpedia.org/resource/Miss_Americana', "http://dbpedia.org/resource/Taylor_Swift's_Reputation_Stadium_Tour"], 'related_artists': ['http://dbpedia.org/resource/Aaron_Dessner', 'http://dbpedia.org/resource/Ali_Payami', 'http://dbpedia.org/resource/Big_Red_Machine_(band)', 'http://dbpedia.org/resource/Bon_Iver', 'http://dbpedia.org/resource/Butch_Walker', 'http://dbpedia.org/resource/Cautious_Clay', 'http://dbpedia.org/resource/Chad_Lefkowitz-Brown', 'http://dbpedia.org/resource/Dan_Wilson_(musician)', 'http://dbpedia.org/resource/Eric_Darken', 'http://dbpedia.org/resource/Gary_Lightbody', 'http://dbpedia.org/resource/Hillary_Lindsey', 'http://dbpedia.org/resource/Jack_Antonoff', 'http://dbpedia.org/resource/Jennifer_Nettles', 'http://dbpedia.org/resource/Jimmy_Napes', 'http://dbpedia.org/resource/Joel_Little', 'http://dbpedia.org/resource/Jonathan_Yudkin', 'http://dbpedia.org/resource/Justin_Vernon', 'http://dbpedia.org/resource/Kristian_Bush', 'http://dbpedia.org/resource/Liz_Rose', 'http://dbpedia.org/resource/Louis_Bell', 'http://dbpedia.org/resource/Mattias_Bylund', 'http://dbpedia.org/resource/Nathan_Chapman_(record_producer)', 'http://dbpedia.org/resource/Nick_Buda', 'http://dbpedia.org/resource/Noel_Zancanella', 'http://dbpedia.org/resource/Phoebe_Bridgers__Phoebe_Bridgers__1', "http://dbpedia.org/resource/Please_Don't_Destroy", 'http://dbpedia.org/resource/Randy_Merrill', 'http://dbpedia.org/resource/Reeve_Carney', 'http://dbpedia.org/resource/Robert_Eibach', 'http://dbpedia.org/resource/Robert_Ellis_Orrall', 'http://dbpedia.org/resource/Sam_Dew', 'http://dbpedia.org/resource/Shea_Fisher', 'http://dbpedia.org/resource/Shellback_(record_producer)', 'http://dbpedia.org/resource/Sugarland', 'http://dbpedia.org/resource/The_National_(band)', 'http://dbpedia.org/resource/Tom_Coyne_(music_engineer)', 'http://dbpedia.org/resource/Tyler_Johnson_(musician)'], 'abstract': 'Taylor Alison Swift (born December 13, 1989) is an American singer-songwriter. Her discography spans multiple genres, and her narrative songwriting, which is often inspired by her personal life, has received widespread media coverage and critical praise. Born in West Reading, Pennsylvania, Swift relocated to Nashville, Tennessee, at the age of 14 to pursue a career in country music. She signed a songwriting deal with Sony/ATV Music Publishing in 2004 and a recording deal with Big Machine Records in 2005, and released her eponymous debut studio album in 2006. She explored country pop on her second and third studio albums, Fearless (2008) and Speak Now (2010). The success of the former\'s singles "Love Story" and "You Belong with Me" on both country and pop radio established Swift as a leading crossover artist. She experimented further with pop, rock, and electronic genres on her fourth studio album, Red (2012). Her fifth, the synth-pop album 1989 (2014), effectively transformed her status from country songstress to pop star, supported by the Billboard Hot 100 number-one singles "Shake It Off", "Blank Space", and "Bad Blood". The media scrutiny on her personal life that followed largely inspired Swift\'s sixth studio album, Reputation (2017), which delved into urban sounds. Parting ways with Big Machine to sign with Republic Records in 2018, Swift released her seventh studio album, Lover, in 2019. After consistent commercial success in the 2010s, she ventured into indie folk and alternative rock on her 2020 studio albums, Folklore and Evermore, whose lyricism, inspired by escapism during the COVID-19 pandemic, was commended for its nuanced storytelling. To gain ownership over the masters of her back catalog, Swift released two re-recorded albums in 2021, Fearless (Taylor\'s Version) and Red (Taylor\'s Version), both of which earned acclaim for their enhanced musicality and vocal performance. Besides music, Swift has played various supportive acting roles in films such as Valentine\'s Day (2010) and Cats (2019). She has released the autobiographical documentary Miss Americana (2020), and the self-directed musical films Folklore: The Long Pond Studio Sessions (2020) and All Too Well: The Short Film (2021), amongst other specials. Having sold over 200 million records worldwide, Swift is one of the best-selling music artists of all time. Her accolades include 11 Grammy Awards (including three Album of the Year wins), an Emmy Award, 12 Country Music Association Awards, 25 Billboard Music Awards (the most wins for a female artist), 34 American Music Awards (the most wins for an artist) and 52 Guinness World Records. She featured on Rolling Stone\'s 100 Greatest Songwriters of All Time (2015), placed eighth on Billboard\'s Greatest of All Time Artists list (2019), and appeared multiple times on power rankings such as the Time 100 and the Forbes Celebrity 100. Named the Woman of the 2010s Decade by Billboard and the Artist of the 2010s Decade by the American Music Awards, Swift has been recognized for her advocacy of artists\' rights and women\'s empowerment in the music industry.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/A_Flock_of_Seagulls', 'artist_name': 'A Flock of Seagulls', 'wiki': 'http://en.wikipedia.org/wiki/A_Flock_of_Seagulls', 'hometown': 'http://dbpedia.org/resource/Liverpool', 'start_year': '1979', 'end_year': '1986', 'labels': ['http://dbpedia.org/resource/Arista_Records', 'http://dbpedia.org/resource/I.R.S._Records', 'http://dbpedia.org/resource/Jive_Records'], 'genres': ['http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Synth-pop'], 'actual_members': ['http://dbpedia.org/resource/Mike_Score', 'Gord Deppe', 'Pando', 'Kevin Rankin'], 'old_members': ['http://dbpedia.org/resource/Paul_Reynolds_(musician)', 'Personnel section]] for others)', 'Ali Score', 'Frank Maudsley'], 'related_artists': ['http://dbpedia.org/resource/Bill_Nelson_(musician)', 'http://dbpedia.org/resource/Jimmy_D._Robinson'], 'abstract': 'A Flock of Seagulls is an English new wave band formed in Liverpool in 1979. The group, whose best-known line-up comprised Mike Score, Ali Score, Frank Maudsley and Paul Reynolds, hit the peak of their chart success in the early 1980s. The group had a string of international hit singles including "I Ran (So Far Away)" (1982), "Space Age Love Song" (1982), "Wishing (If I Had a Photograph of You)" (1982), and "The More You Live, the More You Love" (1984). Their video for "I Ran (So Far Away)" received airplay on MTV during the Second British Invasion. The band won a Grammy Award in 1983 for their instrumental "D.N.A." (1982). In 2018 the members of the original lineup came together to record an album with the Prague Philharmonic Orchestra entitled Ascension.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Psy', 'artist_name': 'Psy', 'wiki': 'http://en.wikipedia.org/wiki/Psy', 'birth_date': '31 December 1977', 'start_year': '2001', 'labels': ['http://dbpedia.org/resource/Avex_Trax', 'http://dbpedia.org/resource/Psy', 'http://dbpedia.org/resource/Republic_Records', 'http://dbpedia.org/resource/Schoolboy_Records', 'http://dbpedia.org/resource/YG_Entertainment'], 'plays_in': ['http://dbpedia.org/resource/Gangnam_Style_(music_video)'], 'genres': ['http://dbpedia.org/resource/K-pop', 'http://dbpedia.org/resource/Korean_hip_hop', 'K-hip hop'], 'abstract': 'Park Jae-sang (Korean: 박재상; Hanja: 朴載相, IPA: [pɐk̚.t͡ɕεsɐŋ]; born December 31, 1977), known professionally as Psy (stylized in all caps as PSY) (싸이; /saɪ/ SY; Korean: [s͈ai]), is a South Korean singer, rapper, songwriter, and record producer. Psy is known domestically for his humorous videos and stage performances, and internationally for his hit single "Gangnam Style". The song\'s refrain was entered into The Yale Book of Quotations as one of the most famous quotations of 2012. On October 23, 2012, Psy met United Nations Secretary-General Ban Ki-moon at the UN Headquarters where Ban expressed his desire to work with the singer because of his "unlimited global reach". On December 21, 2012, his music video for "Gangnam Style" exceeded one billion views on YouTube, becoming the first video to do so in the website\'s history. Psy was subsequently recognized by the media as the King of YouTube. On May 31, 2014, the video for Psy\'s "Gangnam Style" hit two billion views. As of March 2021, it is the eighth most viewed video on YouTube, with over 4 billion views. In December 2012, MTV noted Psy\'s rise from being little known outside South Korea, to being hailed as the "Viral Star of 2012". On December 31, 2012, Psy performed in a globally televised New Year\'s Eve celebration with American rapper MC Hammer on-stage in front of a live audience of over a million people in Times Square, New York City. Following his departure from YG Entertainment in 2018, he founded his own company, P Nation, in 2019.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Travis_Barker', 'artist_name': 'Travis Barker', 'wiki': 'http://en.wikipedia.org/wiki/Travis_Barker', 'birth_date': '14 November 1975', 'start_year': '1993', 'plays_in': ['http://dbpedia.org/resource/Give_the_Drummer_Some'], 'related_artists': ['http://dbpedia.org/resource/03_Greedo', 'http://dbpedia.org/resource/Asher_Roth', 'http://dbpedia.org/resource/Chester_French', 'http://dbpedia.org/resource/Cypress_Hill__Cypress_Hill__1', 'http://dbpedia.org/resource/DJ_AM', 'http://dbpedia.org/resource/Dave_Douglas_(drummer)', 'http://dbpedia.org/resource/Iann_Dior', 'http://dbpedia.org/resource/Jason_Aalon_Butler', 'http://dbpedia.org/resource/Jxdn', 'http://dbpedia.org/resource/KennyHoopla', 'http://dbpedia.org/resource/Lawrence_Vavra', 'http://dbpedia.org/resource/Matt_Schwartz', 'http://dbpedia.org/resource/Nothing,Nowhere', 'http://dbpedia.org/resource/Omer_Fedi', 'http://dbpedia.org/resource/Poorstacy', 'http://dbpedia.org/resource/Prayers_(duo)', 'http://dbpedia.org/resource/Scroobius_Pip', 'http://dbpedia.org/resource/Steve_Aoki', 'http://dbpedia.org/resource/Suicideboys', 'http://dbpedia.org/resource/The_Co-Captains', 'http://dbpedia.org/resource/The_Game_(rapper)', 'http://dbpedia.org/resource/Tinie_Tempah', 'http://dbpedia.org/resource/Trippie_Redd', 'http://dbpedia.org/resource/Yelawolf', 'http://dbpedia.org/resource/Yungblud'], 'abstract': 'Travis Landon Barker (born November 14, 1975) is an American musician who serves as the drummer for the rock band Blink-182. He has also performed as a frequent collaborator with hip hop artists, is a member of the rap rock group Transplants, founded the rock bands +44 and Box Car Racer, and thereafter joined Antemasque and Goldfinger. Barker was a frequent collaborator with the late DJ AM, and together they formed TRV$DJAM. Due to his fame, Rolling Stone referred to him as "punk\'s first superstar drummer" as well as one of the 100 greatest drummers of all time. Born in Fontana, California, Barker began drumming at an early age. He began playing for the Aquabats in 1996, but left to join Blink-182 in 1998, which encountered mainstream success with Enema of the State (1999). Barker established himself as a versatile drummer, producing and making guest appearances in music projects of numerous music genres including hip hop, alternative rock, pop, and country. He also starred in an MTV reality series named Meet the Barkers. He was involved in a plane crash in 2008, but he recovered and released his debut solo album, Give the Drummer Some, in 2011. He has continued to work with rappers, releasing extended plays with Yelawolf, Asher Roth, and Nottz, as well as with Blink-182 and the Transplants. Aside from drumming, he founded clothing company Famous Stars and Straps in 1999 and LaSalle Records in 2004. Companies such as DC Shoes and Zildjian cymbals have co-designed products in his name. He released a memoir, Can I Say: Living Large, Cheating Death, and Drums, Drums, Drums, in 2015.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Man_(band)', 'artist_name': 'Man', 'wiki': 'http://en.wikipedia.org/wiki/Man_(band)', 'hometown': 'http://dbpedia.org/resource/Merthyr_Tydfil', 'start_year': '1968', 'end_year': '1968', 'genres': ['http://dbpedia.org/resource/Blues_rock', 'http://dbpedia.org/resource/Progressive_rock', 'http://dbpedia.org/resource/Psychedelic_rock'], 'actual_members': ['http://dbpedia.org/resource/Malcolm_Morley_(musician)', 'Shane Dixon', 'James Beck', 'Josh Ace', 'Martin Ace'], 'old_members': ['http://dbpedia.org/resource/Bob_Richards_(musician)', 'http://dbpedia.org/resource/Deke_Leonard', 'http://dbpedia.org/resource/John_Cipollina', 'http://dbpedia.org/resource/John_McKenzie_(musician)', 'http://dbpedia.org/resource/John_Weathers', 'http://dbpedia.org/resource/Ken_Whaley', 'http://dbpedia.org/resource/Phil_Ryan_(musician)', 'http://dbpedia.org/resource/Terry_Williams_(drummer)', 'Rick Martinez', 'Clive John ', 'Micky Jones', 'Ray Williams', 'Rene Robrahn', 'Alan "Tweke" Lewis', 'George Jones', 'Gareth Llewellyn Thorrington', 'Jeff Jones', 'Will Youatt '], 'related_artists': ['http://dbpedia.org/resource/Deke_Leonard', 'http://dbpedia.org/resource/Help_Yourself_(band)', 'http://dbpedia.org/resource/John_Cipollina', 'http://dbpedia.org/resource/John_McKenzie_(musician)', 'http://dbpedia.org/resource/John_Weathers', 'http://dbpedia.org/resource/Ken_Whaley', 'http://dbpedia.org/resource/Malcolm_Morley_(musician)', 'http://dbpedia.org/resource/Phil_Ryan_(musician)', 'http://dbpedia.org/resource/Quicksand_(Welsh_band)', 'http://dbpedia.org/resource/Quicksilver_Messenger_Service', 'http://dbpedia.org/resource/Rockpile', 'http://dbpedia.org/resource/Terry_Williams_(drummer)'], 'abstract': 'Man are a rock band from Wales whose style is a mixture of American West Coast psychedelia, progressive rock, and blues. Formed in November 1968 as a reincarnation of Welsh rock harmony group the Bystanders, Man are renowned for the extended jams in their live performances.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Danzig_(band)', 'artist_name': 'Danzig', 'wiki': 'http://en.wikipedia.org/wiki/Danzig_(band)', 'hometown': 'http://dbpedia.org/resource/Lodi,_New_Jersey', 'start_year': '1987', 'end_year': '1987', 'labels': ['http://dbpedia.org/resource/American_Recordings_(record_label)', 'http://dbpedia.org/resource/Hollywood_Records', 'http://dbpedia.org/resource/Megaforce_Records', 'http://dbpedia.org/resource/Restless_Records', 'http://dbpedia.org/resource/Spitfire_Records', 'http://dbpedia.org/resource/The_End_Records'], 'genres': ['http://dbpedia.org/resource/Heavy_metal_music'], 'actual_members': ['http://dbpedia.org/resource/Glenn_Danzig', 'http://dbpedia.org/resource/Johnny_Kelly', 'http://dbpedia.org/resource/Steve_Zing', 'http://dbpedia.org/resource/Tommy_Victor'], 'old_members': ['http://dbpedia.org/resource/List_of_Danzig_band_members', 'see Former members'], 'related_artists': ['http://dbpedia.org/resource/Chrome_Locust', 'http://dbpedia.org/resource/Chuck_Biscuits', 'http://dbpedia.org/resource/Dave_Kushner', 'http://dbpedia.org/resource/Doyle_(band)', 'http://dbpedia.org/resource/Doyle_Wolfgang_von_Frankenstein', 'http://dbpedia.org/resource/Eerie_Von', 'http://dbpedia.org/resource/Glenn_Danzig', 'http://dbpedia.org/resource/Gorgeous_Frankenstein', 'http://dbpedia.org/resource/Halfcocked', 'http://dbpedia.org/resource/Howie_Pyro', 'http://dbpedia.org/resource/Jerry_Cantrell', 'http://dbpedia.org/resource/Joey_Castillo', 'http://dbpedia.org/resource/John_Christ', 'http://dbpedia.org/resource/Johnny_Kelly', 'http://dbpedia.org/resource/Kenny_Hickey', 'http://dbpedia.org/resource/Misfits_(band)', 'http://dbpedia.org/resource/MonstrO_(band)', "http://dbpedia.org/resource/Murphy's_Law_(band)", 'http://dbpedia.org/resource/Prong_(band)', 'http://dbpedia.org/resource/Rob_Nicholson_(musician)', 'http://dbpedia.org/resource/Samhain_(band)', 'http://dbpedia.org/resource/Son_of_Sam_(band)', 'http://dbpedia.org/resource/Steve_Zing', 'http://dbpedia.org/resource/Sugartooth', 'http://dbpedia.org/resource/The_Four_Horsemen_(band)', 'http://dbpedia.org/resource/The_Nig-Heist', 'http://dbpedia.org/resource/Todd_Youth', 'http://dbpedia.org/resource/Tommy_Victor', 'http://dbpedia.org/resource/Trauma_(American_band)', 'http://dbpedia.org/resource/Type_O_Negative', 'http://dbpedia.org/resource/Warzone_(band)', 'http://dbpedia.org/resource/Wasted_Youth_(American_band)', 'http://dbpedia.org/resource/Zilch_(band)'], 'abstract': 'Danzig is an American heavy metal band led by former Samhain and Misfits singer Glenn Danzig. Formed in 1987 in Lodi, New Jersey, the group early on became a unique voice in the rock scene, playing a bluesy, doom-laden metal with Glenn Danzig crooning in the style of Roy Orbison and Elvis Presley. Danzig\'s openly satanic lyrics and image stirred a degree of controversy. After a major hit with a live version of its 1988 song "Mother", the band experimented with industrial music but later returned to heavy metal. To date, Danzig has released 12 studio albums (two consisting entirely of cover versions), two EPs, one live album, and one compilation album.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Goo_Goo_Dolls', 'artist_name': 'The Goo Goo Dolls', 'wiki': 'http://en.wikipedia.org/wiki/Goo_Goo_Dolls', 'hometown': 'http://dbpedia.org/resource/Buffalo,_New_York', 'start_year': '1986', 'labels': ['http://dbpedia.org/resource/Celluloid_Records', 'http://dbpedia.org/resource/Metal_Blade_Records', 'http://dbpedia.org/resource/Warner_Records'], 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Post-grunge', 'http://dbpedia.org/resource/Punk_rock'], 'actual_members': ['http://dbpedia.org/resource/John_Rzeznik', 'http://dbpedia.org/resource/Robby_Takac'], 'old_members': ['http://dbpedia.org/resource/George_Tutuska', 'http://dbpedia.org/resource/Mike_Malinin'], 'related_artists': ['http://dbpedia.org/resource/Brad_Fernquist', 'http://dbpedia.org/resource/Carlos_López_Estrada', 'http://dbpedia.org/resource/Dave_Schulz_(musician)', 'http://dbpedia.org/resource/Greg_Suran', 'http://dbpedia.org/resource/Jason_Freese', 'http://dbpedia.org/resource/Jim_McGorman', 'http://dbpedia.org/resource/John_Rzeznik', 'http://dbpedia.org/resource/Mike_Malinin', 'http://dbpedia.org/resource/Paul_Gordon_(musician)__Paul_Gordon__1', 'http://dbpedia.org/resource/Robby_Takac', 'http://dbpedia.org/resource/Subwave_(band)', 'http://dbpedia.org/resource/The_Spill_Canvas', 'http://dbpedia.org/resource/Tim_Williams_(rock_musician)', 'http://dbpedia.org/resource/Tommy_Keene'], 'abstract': 'The Goo Goo Dolls are an American rock band formed in 1986 in Buffalo, New York, by guitarist/vocalist John Rzeznik, bassist/vocalist Robby Takac, and drummer George Tutuska. After starting off as a cover band and then developing a punk sound, The Goo Goo Dolls experienced mainstream success following the 1995 release of their breakthrough single, "Name". The band is renowned for its biggest hit, "Iris", released in 1998. The song spent nearly 12 straight months on the Billboard charts and held the number one position on the Hot 100 Airplay chart for 18 weeks. In October 2012, "Iris" was ranked #1 on Billboard\'s "Top 100 Pop Songs 1992–2012" chart. Other notable singles include "Slide", "Black Balloon", and "Broadway" from 1998\'s Dizzy Up the Girl; "Here Is Gone" from 2002\'s Gutterflower; and "Better Days", "Give a Little Bit", and "Stay with You" from 2006\'s Let Love In. The band has had 19 top ten singles on various charts has sold 15 million records worldwide, and has been nominated for four Grammy Awards.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Big_Mountain_(band)', 'artist_name': 'Big Mountain', 'wiki': 'http://en.wikipedia.org/wiki/Big_Mountain_(band)', 'hometown': 'http://dbpedia.org/resource/San_Diego', 'start_year': '1988', 'aliases': ['Shiloh'], 'labels': ['http://dbpedia.org/resource/Giant_Records_(Warner)', 'http://dbpedia.org/resource/Pony_Canyon'], 'genres': ['http://dbpedia.org/resource/Reggae'], 'actual_members': ['Andre Sias', 'Danny Lopilato', 'Jakob McWhinney', 'Joaquin "Quino" McWhinney', 'Luis Castillo', 'Michael Hyde', 'Michael Ortiz', 'Paul "Groove Galore" Kastick', 'Reggie Griffin', 'Richard "Goofy" Campbell'], 'old_members': ['http://dbpedia.org/resource/Carlton_%22Santa%22_Davis', 'http://dbpedia.org/resource/Valentine_Chin', 'Jerome Cruz', 'Lance Rhodes', 'James McWhinney', 'Carlos Arias', 'Lynn Copeland', 'Stephen Kamada/Tim Pacheco', 'Gregory Blakney', 'Billy "Bones" Stoll', 'Manfred Reinke'], 'related_artists': ['http://dbpedia.org/resource/Allan_Phillips', 'http://dbpedia.org/resource/Carlton_%22Santa%22_Davis'], 'abstract': 'Big Mountain is an American band known for its remake of Peter Frampton\'s "Baby, I Love Your Way", which became a top 10 hit single in the US in early 1994, reaching No. 6 on the US Billboard Hot 100, No. 1 on the Mainstream Top 40 and No. 2 in the UK.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Electric_Light_Orchestra', 'artist_name': 'Electric Light Orchestra', 'wiki': 'http://en.wikipedia.org/wiki/Electric_Light_Orchestra', 'hometown': 'http://dbpedia.org/resource/Birmingham', 'start_year': '2014', 'aliases': ['ELO', "Jeff Lynne's ELO"], 'labels': ['http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Harvest_Records', 'http://dbpedia.org/resource/Jet_Records', 'http://dbpedia.org/resource/United_Artists_Records', 'http://dbpedia.org/resource/Warner_Records'], 'plays_in': ['http://dbpedia.org/resource/Daicon_III_and_IV_Opening_Animations', 'http://dbpedia.org/resource/Xanadu_(film)'], 'genres': ['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Progressive_pop', 'http://dbpedia.org/resource/Progressive_rock'], 'actual_members': ['http://dbpedia.org/resource/Jeff_Lynne', 'http://dbpedia.org/resource/Richard_Tandy'], 'old_members': ['http://dbpedia.org/resource/Bev_Bevan', 'http://dbpedia.org/resource/Roy_Wood', 'See [[#Personnel'], 'related_artists': ['http://dbpedia.org/resource/Bev_Bevan', 'http://dbpedia.org/resource/David_Scott-Morgan', 'http://dbpedia.org/resource/Don_Airey', 'http://dbpedia.org/resource/ELO_Part_II', 'http://dbpedia.org/resource/Gregg_Bissonette', 'http://dbpedia.org/resource/Hugh_McDowell', 'http://dbpedia.org/resource/Jeff_Lynne', 'http://dbpedia.org/resource/John_Kosh', 'http://dbpedia.org/resource/Kelly_Groucutt', 'http://dbpedia.org/resource/Louis_Clark', 'http://dbpedia.org/resource/Melvyn_Gale', 'http://dbpedia.org/resource/Mik_Kaminski', 'http://dbpedia.org/resource/Mike_Edwards_(musician)', 'http://dbpedia.org/resource/Olivia_Newton-John', 'http://dbpedia.org/resource/Reinhold_Mack', 'http://dbpedia.org/resource/The_Idle_Race', 'http://dbpedia.org/resource/The_Move', 'http://dbpedia.org/resource/The_Orchestra_(band)', 'http://dbpedia.org/resource/Wilfred_Gibson', 'http://dbpedia.org/resource/Wizzard'], 'abstract': "The Electric Light Orchestra (ELO) are an English rock band formed in Birmingham in 1970 by songwriters and multi-instrumentalists Jeff Lynne and Roy Wood with drummer Bev Bevan. Their music is characterised by a fusion of Beatlesque pop, classical arrangements and futuristic iconography. After Wood's departure in 1972, Lynne became the band's sole leader, arranging and producing every album while writing nearly all of their original material. For their initial tenure, Lynne, Bevan and keyboardist Richard Tandy were the group's only consistent members. ELO was formed out of Lynne's and Wood's desire to create modern rock and pop songs with classical overtones. It derived as an offshoot of Wood's previous band, the Move, of which Lynne and Bevan were also members. During the 1970s and 1980s, ELO released a string of top 10 albums and singles, including two LPs that reached the top of British charts: the disco-inspired Discovery (1979) and the science-fiction-themed concept album Time (1981). In 1986 Lynne lost interest in the band and disbanded the group. Bevan responded by forming his own band, ELO Part II, which later became the Orchestra. Apart from a brief reunion in the early 2000s, ELO remained largely inactive until 2014, when Lynne re-formed the band again with Tandy as Jeff Lynne's ELO. During ELO's original 13-year period of active recording and touring, they sold over 50 million records worldwide, and collected 19 CRIA, 21 RIAA, and 38 BPI awards. From 1972 to 1986, ELO accumulated 27 top 40 songs on the UK Singles Chart, and fifteen top 20 songs on the US Billboard Hot 100. The band also holds the record for having the most Billboard Hot 100 top 40 hits (20) without a number one single of any band in US chart history. In 2017, the key members of ELO (Wood, Lynne, Bevan and Tandy) were inducted into the Rock and Roll Hall of Fame."}</t>
+    <t>{'url': 'https://genius.com/artists/Phum-viphurit', 'annotations': {'description': '&lt;p&gt;Phum Viphurit is a Thai born, New Zealand raised, Bangkok resident singer-songwriter.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Lady-gaga', 'annotations': {'description': '&lt;p&gt;Stefani Joanne Angelina Germanotta, better known by her stage name Lady Gaga, is an American singer, songwriter and actress. She is known for her flamboyant fashion statements and live performances. Although her music is easily mistaken as vapid, it often has a self-empowering message.&lt;/p&gt;\n\n&lt;p&gt;She started working for Interscope Records when she was 20 years old, writing songs for &lt;a href="https://genius.com/artists/The-pussycat-dolls" rel="noopener" data-api_path="/artists/8390"&gt;The Pussycat Dolls&lt;/a&gt;, among others. From there, she became one of the biggest pop stars in the world, ranking in numerous #1 albums and singles along with a variety of awards.&lt;/p&gt;\n\n&lt;p&gt;She has acted in several movies and TV shows. In 2016, she won a Golden Globe Award for Best Actress in a Miniseries or Television Film for her portrayal of Elizabeth, a lead character in the fifth season of &lt;a href="http://www.imdb.com/title/tt1844624/" rel="noopener nofollow"&gt;&lt;em&gt;American Horror Story&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;&lt;em&gt;Fun Fact:&lt;/em&gt;&lt;/strong&gt; The &lt;a href="http://www.billboard.com/articles/news/958922/lady-gaga-sued-by-producer-rob-fusari" rel="noopener nofollow"&gt;“Lady Gaga” moniker&lt;/a&gt; was created by her former boyfriend and producer &lt;a href="https://genius.com/artists/Rob-fusari" rel="noopener" data-api_path="/artists/51436"&gt;Rob Fusari&lt;/a&gt;—he sent a text message with an autocorrected version of &lt;a href="https://genius.com/artists/Queen" rel="noopener" data-api_path="/artists/563"&gt;Queen&lt;/a&gt;’s song &lt;a href="https://genius.com/Queen-radio-ga-ga-lyrics" rel="noopener" data-api_path="/songs/309595"&gt;“Radio Ga Ga”&lt;/a&gt; (a song he sang every time she entered the studio).&lt;/p&gt;', 'alternate_names': ['Mother Monster', 'Stefani Germanotta Band', 'Stefani Germanotta', 'Stefani Joanne Angelina Germanotta', 'Gaga']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-strokes', 'annotations': {'description': '&lt;p&gt;The Strokes burst onto the scene at a time when rock fans were desperate for an alternative to the rap-rock that was dominating the airwaves. That the band lived up to expectations after being hailed ‘saviors of guitar rock’ solely based on the strength of a &lt;a href="https://genius.com/albums/The-strokes/The-modern-age" rel="noopener" data-api_path="/albums/117472"&gt;three song EP&lt;/a&gt; is a testament to the quality of their flawless debut, July 2001’s &lt;a href="https://genius.com/albums/The-strokes/Is-this-it" rel="noopener" data-api_path="/albums/14191"&gt;&lt;em&gt;Is This It&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Ultimately, they are a band that truly relies on the strength of the entire group: lead singer &lt;a href="https://genius.com/artists/Julian-casablancas" rel="noopener" data-api_path="/artists/34880"&gt;Julian Casablancas&lt;/a&gt;, lead guitarist &lt;a href="https://genius.com/artists/Nick-valensi" rel="noopener" data-api_path="/artists/391343"&gt;Nick Valensi&lt;/a&gt;, drummer &lt;a href="https://genius.com/artists/Fabrizio-moretti" rel="noopener" data-api_path="/artists/154667"&gt;Fabrizio Moretti&lt;/a&gt;, guitarist &lt;a href="https://genius.com/artists/Albert-hammond-jr" rel="noopener" data-api_path="/artists/108780"&gt;Albert Hammond Jr.&lt;/a&gt;, and bassist &lt;a href="https://genius.com/artists/Nikolai-fraiture" rel="noopener" data-api_path="/artists/977801"&gt;Nikolai Fraiture&lt;/a&gt;. However, much of The Strokes\' output has been influenced by the domineering vision of Casablancas\' songwriting.&lt;/p&gt;\n\n&lt;p&gt;Before he took a small step back on their third album, January 2006’s &lt;a href="https://genius.com/albums/The-strokes/First-impressions-of-earth" rel="noopener" data-api_path="/albums/17768"&gt;&lt;em&gt;First Impressions of Earth&lt;/em&gt;&lt;/a&gt;, and then &lt;a href="http://www.vulture.com/2011/03/the_strokes_didnt_have_a_ton_o.html" rel="noopener nofollow"&gt;isolated himself&lt;/a&gt; to record March 2011’s &lt;a href="https://genius.com/albums/The-strokes/Angles" rel="noopener" data-api_path="/albums/19858"&gt;&lt;em&gt;Angles&lt;/em&gt;&lt;/a&gt;, Casablancas was involved in almost every step of The Strokes\' recording process. He wrote all of the lyrics and the music on their first two albums and was constantly involved in the mixing of the records.&lt;/p&gt;\n\n&lt;p&gt;While they may have a reputation as a group who started to fizzle out after a knock-out debut, the real story is one of evolution and reinvention. After their sophomore album, October 2003’s &lt;a href="https://genius.com/albums/The-strokes/Room-on-fire" rel="noopener" data-api_path="/albums/14617"&gt;&lt;em&gt;Room on Fire&lt;/em&gt;&lt;/a&gt;, was generally praised for the band’s technical improvements but treated as an imitation of their debut, the band pushed in a new direction on each of their following releases. &lt;em&gt;First Impressions of Earth&lt;/em&gt; and &lt;em&gt;Angles&lt;/em&gt; isolated some of the darkness and light that coexisted on the first two records, while March 2013’s &lt;a href="https://genius.com/albums/The-strokes/Comedown-machine" rel="noopener" data-api_path="/albums/28335"&gt;&lt;em&gt;Comedown Machine&lt;/em&gt;&lt;/a&gt; retained the energy of the group’s earlier days, yet also featured a more chilled-out, lo-fi atmosphere. Even the group’s June 2016 four-song EP, &lt;a href="https://genius.com/albums/The-strokes/Future-present-past" rel="noopener" data-api_path="/albums/153765"&gt;&lt;em&gt;Future Present Past&lt;/em&gt;&lt;/a&gt;, conveyed a group that would rather make bold shifts in sound than recycle the music that endeared them to so many.&lt;/p&gt;\n\n&lt;p&gt;On April 10 2020, The Strokes\' released their 6th studio album, &lt;em&gt;The New Abnormal&lt;/em&gt;, produced by Rick Rubin. The album received &lt;a href="https://www.metacritic.com/music/the-new-abnormal/the-strokes/critic-reviews" rel="noopener nofollow"&gt;generally positive reviews&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Everclear', 'annotations': {'description': '&lt;p&gt;Everclear is an alternative rock band formed in Portland, Oregan in 1995 by (lead vocalist, guitarist, and songwriter)  &lt;a href="https://genius.com/Art-Alexis" rel="noopener"&gt;Art Alexkis&lt;/a&gt;. With nine studio albums from 1995 to 2015, Art used many combinations of band members throughout the years (even performing solo briefly).&lt;/p&gt;\n\n&lt;p&gt;During the height of their popularity; Alexkis, &lt;a href="https://genius.com/Craig-Montoya" rel="noopener"&gt;Craig Montoya&lt;/a&gt; (bass guitar) and &lt;a href="https://genius.com/Greg-Eklund" rel="noopener"&gt;Greg Eklund&lt;/a&gt; (drums) independantly released the band’s debut album, &lt;em&gt;White Noise&lt;/em&gt; before signing with Capital Records. The first three albums all went certified platinum: &lt;em&gt;Sparkle and Fade&lt;/em&gt;, &lt;em&gt;So Much for the Afterglow&lt;/em&gt;, and &lt;em&gt;Songs from an American Movie Vol. One: Learning How to Smile&lt;/em&gt;.&lt;a href="http://www.wikipedia.com/Everclear" rel="noopener nofollow"&gt;1&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;However, the following two albums, &lt;em&gt;Songs from an American Movie Vol. Two: Good Time for a Bad Attitude&lt;/em&gt; and &lt;em&gt;Slow Motion Daydream&lt;/em&gt;, were not as popular, and sales suffered, prompting Montoya and Eklund to leave the band shortly after in 2003.&lt;/p&gt;\n\n&lt;p&gt;After a short time of performing solo, Alexkis got new bandmates, and Everclear released two more studio albums, &lt;em&gt;Welcome to the Drama Club&lt;/em&gt; and &lt;em&gt;Invisible Stars&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2012, Alexakis started the Summerland Tour. Every summer,  Everclear, along with other 1990s alternative rock bands, to playing to loyal fans who love the genre.&lt;/p&gt;\n\n&lt;p&gt;In April 2015, &lt;em&gt;Black is the New Black&lt;/em&gt; was released; the ninth studio album.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Disturbed', 'annotations': {'description': '&lt;p&gt;Disturbed is an American heavy metal band formed in 1994 (named Brawl at this time) from Chicago, Illinois. In 1996 singer Erich Awalt was replaced by David Draiman and the band was renamed “Disturbed”.&lt;/p&gt;\n\n&lt;p&gt;Disturbed is most famously known for their songs “&lt;a href="https://genius.com/Disturbed-down-with-the-sickness-lyrics" rel="noopener" data-api_path="/songs/97449"&gt;Down With The Sickness&lt;/a&gt;” and their cover of “&lt;a href="https://genius.com/Disturbed-the-sound-of-silence-lyrics" rel="noopener" data-api_path="/songs/2282530"&gt;The Sound of Silence&lt;/a&gt;”.&lt;/p&gt;\n\n&lt;p&gt;Disturbed went on hiatus in July 2011, to get a break from touring, but started to miss it and engaged in some side projects; &lt;a href="https://genius.com/artists/Device" rel="noopener" data-api_path="/artists/170170"&gt;Device&lt;/a&gt;, &lt;a href="https://genius.com/artists/Fight-or-flight" rel="noopener" data-api_path="/artists/343727"&gt;Fight Or Flight&lt;/a&gt;, &lt;a href="https://genius.com/artists/Adrenaline-mob" rel="noopener" data-api_path="/artists/329908"&gt;Adrenaline Mob&lt;/a&gt; and &lt;a href="https://genius.com/artists/Art-of-anarchy" rel="noopener" data-api_path="/artists/1019795"&gt;Art Of Anarchy&lt;/a&gt;.&lt;br&gt;\nDisturbed returned in 2015 announcing their return with their new album – &lt;em&gt;&lt;a href="https://genius.com/albums/Disturbed/Immortalized" rel="noopener" data-api_path="/albums/126740"&gt;Immortalized&lt;/a&gt;&lt;/em&gt;, which was recorded in secret and releasing the first single from the album, “&lt;a href="https://genius.com/Disturbed-the-vengeful-one-lyrics" rel="noopener" data-api_path="/songs/2149822"&gt;The Vengeful One&lt;/a&gt;,” in advance.&lt;br&gt;\n&lt;em&gt;Immortalized&lt;/em&gt; was &lt;a href="https://www.billboard.com/articles/columns/chart-beat/6678673/disturbed-scores-fifth-no-1-album-on-billboard-200-chart" rel="noopener nofollow"&gt;Disturbed’s fifth straight No. 1-debuting studio album on Billboard 200&lt;/a&gt;, making them the third group in history to have achieved five consecutive studio albums at No. 1. The other two being &lt;a href="https://genius.com/artists/Metallica" rel="noopener" data-api_path="/artists/10662"&gt;Metallica&lt;/a&gt; and &lt;a href="https://genius.com/artists/Dave-matthews-band" rel="noopener" data-api_path="/artists/18451"&gt;Dave Matthews Band&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Members:&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/David-draiman" rel="noopener" data-api_path="/artists/71550"&gt;David Draiman&lt;/a&gt; – vocals&lt;br&gt;\n&lt;a href="https://genius.com/artists/Dan-donegan" rel="noopener" data-api_path="/artists/177598"&gt;Dan Donegan&lt;/a&gt; – guitar, keyboards&lt;br&gt;\n&lt;a href="https://genius.com/artists/John-moyer" rel="noopener" data-api_path="/artists/684586"&gt;John Moyer&lt;/a&gt; – bass, backing vocals&lt;br&gt;\n&lt;a href="https://genius.com/artists/Mike-wengren" rel="noopener" data-api_path="/artists/177599"&gt;Mike Wengren&lt;/a&gt; – drums&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Ryan-paris', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Kasabian', 'annotations': {'description': '&lt;p&gt;Kasabian are a British rock band, formed in Leicester, England in 1997. It consists of singer Tom Meighan, guitarist and singer Sergio Pizzorno, bassist Chris Edwards, drummer Ian Matthews and guitarist Tim Carter, plus touring members Ben Kealey and Gary Alesbrook. Kasabian have released six studio albums to date.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Emf', 'annotations': {'description': '&lt;p&gt;EMF are a British alternative rock band from Cinderford, Gloucestershire, who came to prominence at the beginning of the 1990s. Their name is the acronym for Epsom Mad Funkers, a fan club of the band &lt;a href="https://genius.com/artists/New-order" rel="noopener" data-api_path="/artists/37694"&gt;New Order&lt;/a&gt;. They are most well-known for their hit “Unbelievable.” Since then, the band has had 2 hiatuses and 3 reunions.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Gerard-presencer', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Halsey', 'annotations': {'description': '&lt;p&gt;Halsey is the stage name of New Jersey singer &lt;a href="https://genius.com/artists/Ashley-frangipane" rel="noopener" data-api_path="/artists/228636"&gt;Ashley Nicolette Frangipane&lt;/a&gt;. It is an anagram of her first name and taken from the &lt;a href="http://www.yelp.com/biz/halsey-street-subway-station-new-york" rel="noopener nofollow"&gt;Halsey Street subway stop&lt;/a&gt; and street in Brooklyn&amp;lt; New York where she used to live. &lt;a href="http://iamhalsey.com/aboutme" rel="noopener nofollow"&gt;The bio on her website&lt;/a&gt; reads:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I am Halsey. I will never be anything but honest. I write songs about sex and being sad.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Halsey was diagnosed with bipolar disorder when she was 17. This has greatly influenced her creative process from the start of her career. Songs like &lt;a href="https://genius.com/Halsey-control-lyrics" rel="noopener" data-api_path="/songs/726676"&gt;“Control”&lt;/a&gt; and &lt;a href="https://genius.com/Halsey-gasoline-lyrics" rel="noopener" data-api_path="/songs/2286804"&gt;“Gasoline”&lt;/a&gt; explicitly delve into her psychological and emotional battles. &lt;em&gt;Manic&lt;/em&gt;, Halsey’s third album and arguably her rawest and most emotionally vulnerable, &lt;a href="https://www.rollingstone.com/music/music-features/halsey-rebel-peace-cover-story-849084/" rel="noopener nofollow"&gt;was written in a fully manic state&lt;/a&gt; rather than a depressive one.&lt;/p&gt;\n\n&lt;p&gt;When Halsey was a teen with over 14,000 friends on MySpace, she posted covers of songs on YouTube. In 2012, she recorded &lt;a href="https://genius.com/ashley-frangipane-the-haylor-song-lyrics" rel="noopener" data-api_path="/songs/2320385"&gt;“The Haylor Song,”&lt;/a&gt; &lt;a href="https://www.youtube.com/watch?v=ehnEkmUTqyI" rel="noopener nofollow"&gt;a parody&lt;/a&gt; of &lt;a href="https://genius.com/artists/Taylor-swift" rel="noopener" data-api_path="/artists/1177"&gt;Taylor Swift&lt;/a&gt;’s hit song &lt;a href="https://genius.com/taylor-swift-i-knew-you-were-trouble-lyrics" rel="noopener" data-api_path="/songs/92224"&gt;“I Knew You Were Trouble”&lt;/a&gt; that created controversy over the nature of the lyrics. Nevertheless, she had accumulated a respectable amount of online attention, reaching 16,000 subscribers on YouTube at the age of 18.&lt;/p&gt;\n\n&lt;p&gt;In 2014, Halsey posted her first single &lt;a href="https://genius.com/halsey-ghost-lyrics" rel="noopener" data-api_path="/songs/519309"&gt;“Ghost”&lt;/a&gt; on Soundcloud, which turned heads in her direction. Her close friend Anthony &lt;a href="http://www.bbc.co.uk/newsbeat/article/34061249/how-halsey-ruled-the-world-before-releasing-debut-badlands" rel="noopener nofollow"&gt;pretended to be her manager&lt;/a&gt;, accompanying her in various meetings with different record labels. After being signed to &lt;a href="http://twitter.com/Astralwerks" rel="noopener nofollow"&gt;Astralwerks&lt;/a&gt;, she released her EP &lt;a href="https://genius.com/albums/Halsey/Room-93" rel="noopener" data-api_path="/albums/117562"&gt;&lt;em&gt;Room 93&lt;/em&gt;&lt;/a&gt; in late 2014, with four of the five tracks carrying accompanying music videos, giving the EP a “visual” feel. She was the most mentioned artist online at &lt;a href="http://www.billboard.com/articles/events/festivals/6509472/sxsw-twitter-stats-miley-cyrus-run-the-jewels" rel="noopener nofollow"&gt;SXSW 2015&lt;/a&gt;, which was evident by her ever-increasing fanbase. She reached over half a million followers on Twitter at the age of 20.&lt;/p&gt;\n\n&lt;p&gt;In anticipation of her debut effort, &lt;a href="https://genius.com/albums/Halsey/Badlands" rel="noopener" data-api_path="/albums/530224"&gt;&lt;em&gt;Badlands&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/halsey-hold-me-down" rel="noopener"&gt;“Hold Me Down”&lt;/a&gt; was released as a pre-order single, followed by &lt;a href="https://genius.com/halsey-new-americana-lyrics" rel="noopener" data-api_path="/songs/733666"&gt;“New Americana,”&lt;/a&gt; the anthem of today’s diversified generation. &lt;em&gt;Badlands&lt;/em&gt; was officially released on August 28, 2015, described by Halsey as &lt;a href="http://www.coupdemainmagazine.com/interviews/interview-halsey-her-debut-album-badlands" rel="noopener nofollow"&gt;“an angry female record”&lt;/a&gt;. It also represents her &lt;a href="http://www.coupdemainmagazine.com/interviews/interview-halsey-her-debut-album-badlands" rel="noopener nofollow"&gt;mental state&lt;/a&gt;. At Firefly Music Festival 2015, she told an &lt;a href="https://www.youtube.com/watch?v=DIdyEDFf4dA" rel="noopener nofollow"&gt;interviewer&lt;/a&gt;, “For me, it was about creating a universe and making it so that people felt like they were actually being transported somewhere.”&lt;/p&gt;\n\n&lt;p&gt;Halsey and &lt;a href="https://genius.com/artists/Justin-bieber" rel="noopener" data-api_path="/artists/357"&gt;Justin Bieber&lt;/a&gt; got together on the Skrillex-produced track &lt;a href="https://genius.com/justin-bieber-the-feeling-lyrics" rel="noopener" data-api_path="/songs/2342330"&gt;“The Feeling,”&lt;/a&gt; which they performed together on the TODAY Show in promotion for Bieber’s fourth album &lt;a href="https://genius.com/albums/Justin-bieber/Purpose" rel="noopener" data-api_path="/albums/132311"&gt;&lt;em&gt;Purpose&lt;/em&gt;&lt;/a&gt;. In 2016, she collaborated &lt;a href="https://genius.com/artists/The-chainsmokers" rel="noopener" data-api_path="/artists/150934"&gt;The Chainsmokers&lt;/a&gt; on the song of the summer, &lt;a href="https://genius.com/the-chainsmokers-closer-lyrics" rel="noopener" data-api_path="/songs/2458848"&gt;“Closer,”&lt;/a&gt; which would go onto become her biggest hit. The Grammy-nominated earworm maintained its reign at the top of the &lt;a href="https://www.billboard.com/music/halsey/chart-history/hot-100/song/987759" rel="noopener nofollow"&gt;&lt;em&gt;Billboard&lt;/em&gt; Hot 100 for 12 consecutive weeks.&lt;/a&gt; Halsey later dropped &lt;a href="https://genius.com/Halsey-not-afraid-anymore-lyrics" rel="noopener" data-api_path="/songs/2953972"&gt;“Not Afraid Anymore”&lt;/a&gt; for the &lt;a href="https://genius.com/albums/Various-artists/Fifty-shades-darker-original-motion-picture-soundtrack" rel="noopener" data-api_path="/albums/313068"&gt;soundtrack&lt;/a&gt; of the 2017 film &lt;em&gt;Fifty Shades Darker.&lt;/em&gt;&lt;/p&gt;\n\n&lt;p&gt;Halsey’s sophomore album &lt;a href="https://genius.com/albums/Halsey/Hopeless-fountain-kingdom" rel="noopener" data-api_path="/albums/334524"&gt;&lt;em&gt;hopeless fountain kingdom&lt;/em&gt;&lt;/a&gt; was released June 2, 2017. The record’s title fulfills the long-debated acronym “HFK” that she continuously hinted at through the years. The album is &lt;a href="http://www.mtv.com/news/3001539/halsey-romeo-and-juliet-hopeless-fountain-kingdom-symbolism/" rel="noopener nofollow"&gt;inspired by the story of &lt;i&gt;Romeo and Juliet&lt;/i&gt;&lt;/a&gt;. That same year, Halsey and her then-boyfriend &lt;a href="https://genius.com/artists/G-eazy" rel="noopener" data-api_path="/artists/11395"&gt;G-Eazy&lt;/a&gt; released &lt;a href="https://genius.com/G-eazy-and-halsey-him-and-i-lyrics." rel="noopener"&gt;“Him &amp;amp; I.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Halsey’s first track of 2018 was a feature on &lt;a href="https://genius.com/artists/Thirty-seconds-to-mars" rel="noopener" data-api_path="/artists/60945"&gt;Thirty Seconds to Mars\'&lt;/a&gt; &lt;a href="https://genius.com/Thirty-seconds-to-mars-love-is-madness-lyrics" rel="noopener" data-api_path="/songs/3596894"&gt;“Love Is Madness.”&lt;/a&gt; The collabo track &lt;a href="https://genius.com/Benny-blanco-halsey-and-khalid-eastside-lyrics" rel="noopener" data-api_path="/songs/3828011"&gt;“Eastside”&lt;/a&gt; saw her teaming up with &lt;a href="https://genius.com/artists/Khalid" rel="noopener" data-api_path="/artists/9932"&gt;Khalid&lt;/a&gt; and &lt;a href="https://genius.com/artists/Benny-blanco" rel="noopener" data-api_path="/artists/28906"&gt;benny blanco.&lt;/a&gt; Soon after Halsey dropped &lt;a href="https://genius.com/Halsey-without-me-lyrics" rel="noopener" data-api_path="/songs/3977187"&gt;“Without Me,”&lt;/a&gt; the first single from her then-unannounced 2020 album, she and G-Eazy &lt;a href="https://people.com/music/halsey-talks-g-eazy-split-suicide-attempt-glamour-interview/" rel="noopener nofollow"&gt;ended their on-again-off-again relationship,&lt;/a&gt; leading fans to speculate and later confirm that “Without Me” was &lt;a href="https://genius.com/15518820" rel="noopener" data-api_path="/referents/15518820"&gt;about their very public relationship.&lt;/a&gt; “Without Me” hit #1 on the Billboard Hot 100, and in honor of its charting success, she dropped a &lt;a href="https://genius.com/Halsey-without-me-remix-lyrics" rel="noopener" data-api_path="/songs/4215971"&gt;remix&lt;/a&gt; with &lt;a href="https://genius.com/artists/Juice-wrld" rel="noopener" data-api_path="/artists/1237094"&gt;the now-deceased rapper Juice WRLD&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Halsey’s 2019 began with a collaboration with English rocker &lt;a href="https://genius.com/artists/Yungblud" rel="noopener" data-api_path="/artists/1120585"&gt;YUNGBLUD&lt;/a&gt; titled &lt;a href="https://genius.com/Yungblud-and-halsey-11-minutes-lyrics" rel="noopener" data-api_path="/songs/4284170"&gt;“11 Minutes,”&lt;/a&gt; Soon after, the pair &lt;a href="https://www.kiss1027.fm/2019/02/24/halsey-addresses-dating-rumours-in-new-interview/" rel="noopener nofollow"&gt;confirmed they were dating&lt;/a&gt; The duo went on to record a cover of &lt;a href="https://genius.com/artists/Death-cab-for-cutie" rel="noopener" data-api_path="/artists/22559"&gt;Death Cab for Cutie’s&lt;/a&gt; &lt;a href="https://genius.com/Death-cab-for-cutie-i-will-follow-you-into-the-dark-lyrics" rel="noopener" data-api_path="/songs/145060"&gt;“I Will Follow You into the Dark”&lt;/a&gt; for &lt;a href="https://www.abc.net.au/triplej/" rel="noopener nofollow"&gt;triple J.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;After years of friendship, Korean-pop group &lt;a href="https://genius.com/artists/Bts" rel="noopener" data-api_path="/artists/70113"&gt;BTS&lt;/a&gt; featured Halsey in &lt;a href="https://genius.com/Bts-boy-with-luv-lyrics" rel="noopener" data-api_path="/songs/4453270"&gt;“Boy With Luv,”&lt;/a&gt; which &lt;a href="https://variety.com/2019/digital/news/bts-youtube-record-boy-with-luv-halsey-1203188877/" rel="noopener nofollow"&gt;broke YouTube’s record for most views on a music video in 24 hours, with 78 million views&lt;/a&gt;. As of October 2020, the video now has over 990 million views.&lt;/p&gt;\n\n&lt;p&gt;On May 17, 2019, Halsey released the stand-alone single, &lt;a href="https://genius.com/Halsey-nightmare-lyrics" rel="noopener" data-api_path="/songs/4541747"&gt;“Nightmare,”&lt;/a&gt; initially intended to be the first single of her third album &lt;a href="https://genius.com/albums/Halsey/Manic" rel="noopener" data-api_path="/albums/488527"&gt;&lt;em&gt;Manic.&lt;/em&gt;&lt;/a&gt; Following this, &lt;a href="https://genius.com/Halsey-graveyard-lyrics" rel="noopener" data-api_path="/songs/4838396"&gt;“Graveyard”&lt;/a&gt; was released, with Halsey announcing that &lt;em&gt;Manic&lt;/em&gt; would drop in January 2020. Singles &lt;a href="https://genius.com/Halsey-finally-beautiful-stranger-lyrics" rel="noopener" data-api_path="/songs/5072613"&gt;“Finally // beautiful stranger,”&lt;/a&gt; &lt;a href="https://genius.com/Halsey-suga-and-bts-sugas-interlude-lyrics" rel="noopener" data-api_path="/songs/5072616"&gt;“SUGA’s Interlude,”&lt;/a&gt; and &lt;a href="https://genius.com/Halsey-you-should-be-sad-lyrics" rel="noopener" data-api_path="/songs/5009294"&gt;“You should be sad”&lt;/a&gt; dropped in anticipation for the album.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Manic&lt;/em&gt; is Halsey’s first album that does not “hide behind a concept"—it’s fully raw nature brings forward her most vulnerable self. She told &lt;a href="https://www.rollingstone.com/music/music-features/halsey-rebel-peace-cover-story-849084/" rel="noopener nofollow"&gt;&lt;em&gt;Rolling Stone&lt;/em&gt;&lt;/a&gt; that mania is "that thing in the back of our minds that drives us to outrageous thoughts. Like when you’re driving a car and you’re like [she mimes suddenly cutting over the wheel], or you’re on top of a building, and you’re like, ‘What if I just jump?’ … You are controlled by those impulses rather than logic and reason.”&lt;/p&gt;\n\n&lt;p&gt;Since releasing their third studio album, Manic, on Jan. 17, 2020, Halsey has delved into her artistic side in more ways than one. On November 10, 2020, Halsey released a book of poems titled I Would Leave Me If I Could, which explores topics such as mental health, sexuality, relationships, longing, and love. The book debuted on The New York Times Best Sellers list, and the cover features an original piece of artwork by Halsey called “American Woman.”&lt;/p&gt;\n\n&lt;p&gt;Alongside her recent poetry book, Halsey also revealed her makeup line, About-Face, on January 25, 2021. This line was described by Halsey as a “multi-dimension makeup brand for everyone,” promoting inclusivity, diversity, and beauty of all forms.&lt;/p&gt;\n\n&lt;p&gt;On January 27, 2021, over a year after the release of &lt;em&gt;Manic&lt;/em&gt;, Halsey announced their pregnancy, alongside a set of photos on Instagram. In the photos, she tagged boyfriend Alev Aydin’s Instagram account right over her belly.&lt;/p&gt;\n\n&lt;p&gt;In March of 2021, Halsey quietly announced their pronouns, putting “she/they” in her Instagram bio. They later spoke more on the subject in their Instagram story, saying “For those asking RE: my updated IG bio, I am happy with either pronouns.” … “The inclusion of ‘they’ in addition to ‘she’ feels most authentic to me. If you know me at all, you know what it means to me to express this outwardly. Thanks for being the best.” Halsey also said this when speaking on her gender identity and pregnancy: “I thought pregnancy would give me very strong, binary feelings about ‘womanhood,’” they wrote. “But truly, it has leveled my perception of gender entirely. My sensitivity to my body has made me hyper aware of my humanness and that’s all.”&lt;/p&gt;\n\n&lt;p&gt;On June 28, Halsey announced their fourth studio album “If I Can’t Have Love, I Want Power”. Produced by Trent Reznor and Atticus Ross, this full-length album is assumed to include their stand-alone single &lt;a href="https://genius.com/Halsey-nightmare-lyrics" rel="noopener" data-api_path="/songs/4541747"&gt;“Nightmare,”&lt;/a&gt; from 2019. On July 7, 2021, the album art was revealed along with a brief Instagram caption from Halsey, where they described it as a “concept album about the joys and horrors of pregnancy and childbirth.” Halsey continued in this caption by saying, “It was very important to me that the cover art conveyed the sentiment of my journey over the past few months. The dichotomy of the Madonna and the Whore. The idea that me as a sexual being and my body as a vessel and gift to my child are two concepts that can co-exist peacefully and powerfully. My body has belonged to the world in many different ways the past few years, and this image is my means of reclaiming my autonomy and establishing my pride and strength as a life force for my human being.” The album’s release date is set to be August 27, 2021.&lt;/p&gt;', 'alternate_names': ['Ashley Frangipane', 'Ashley N. Frangipane', 'Ashley Nicolette Frangipane']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Pink-floyd', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://www.pinkfloyd.com/home.php" rel="noopener nofollow"&gt;Pink Floyd&lt;/a&gt; was a British rock band who managed to carve a path for progressive and psychedelic music in a way that was uniquely fascinating at the time and has remained equally momentous in the modern age. The name “Pink Floyd” came from two blues musicians that founding member Syd Barrett idolized—&lt;a href="https://genius.com/artists/Pink-anderson" rel="noopener" data-api_path="/artists/350877"&gt;Pink Anderson&lt;/a&gt; and &lt;a href="https://genius.com/artists/Floyd-council" rel="noopener" data-api_path="/artists/380346"&gt;Floyd Council&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The band was formed in 1965 London by &lt;a href="https://genius.com/artists/Syd-barrett" rel="noopener" data-api_path="/artists/62540"&gt;Barrett&lt;/a&gt; (guitars, vocals), &lt;a href="https://genius.com/artists/Nick-mason" rel="noopener" data-api_path="/artists/174898"&gt;Nick Mason&lt;/a&gt; (drums), &lt;a href="https://genius.com/artists/Roger-waters" rel="noopener" data-api_path="/artists/33624"&gt;Roger Waters&lt;/a&gt; (bass), and &lt;a href="https://genius.com/artists/Richard-wright-musician" rel="noopener" data-api_path="/artists/41626"&gt;Richard Wright&lt;/a&gt; (keyboards). Sometime after releasing their debut album, 1967’s &lt;a href="https://genius.com/albums/Pink-floyd/The-piper-at-the-gates-of-dawn" rel="noopener" data-api_path="/albums/31179"&gt;&lt;em&gt;The Piper at the Gates of Dawn&lt;/em&gt;&lt;/a&gt;, the group saw the addition of a second singer-guitarist, &lt;a href="https://genius.com/artists/David-gilmour" rel="noopener" data-api_path="/artists/33622"&gt;David Gilmour&lt;/a&gt;. This acted largely as a means of replacing Barrett, who was forced to leave in 1968 &lt;a href="http://sydbarrett.net/subpages/articles/syd_barrett_story_by_syd_and_tho.htm" rel="noopener nofollow"&gt;for mental health reasons&lt;/a&gt;, resulting in Waters taking over as the main vocalist.&lt;/p&gt;\n\n&lt;p&gt;The band broke into the mainstream with 1973’s &lt;a href="https://genius.com/albums/Pink-floyd/The-dark-side-of-the-moon" rel="noopener" data-api_path="/albums/14530"&gt;&lt;em&gt;Dark Side of the Moon&lt;/em&gt;&lt;/a&gt;, an album that became one of the &lt;a href="http://www.rollingstone.com/music/news/erykah-badu-billy-corgan-and-more-on-legacy-of-dark-side-of-the-moon-20110928" rel="noopener nofollow"&gt;best-selling and most influential&lt;/a&gt; records in music history. Their follow-up efforts, 1975’s &lt;a href="https://genius.com/albums/Pink-floyd/Wish-you-were-here" rel="noopener" data-api_path="/albums/22136"&gt;&lt;em&gt;Wish You Were Here&lt;/em&gt;&lt;/a&gt; and 1977’s &lt;a href="https://genius.com/albums/Pink-floyd/Animals" rel="noopener" data-api_path="/albums/15067"&gt;&lt;em&gt;Animals&lt;/em&gt;&lt;/a&gt;, also sold well. However, the band started to see some &lt;a href="http://www.rollingstone.com/music/news/roger-waters-david-gilmour-is-uninterested-in-touring-the-wall-20100505" rel="noopener nofollow"&gt;in-fighting&lt;/a&gt; while making their next album, a rock opera about how Waters felt frustrated and detached from his audience. Waters seemingly became extremely controlling, firing Wright over disputes about touring and his contributions to the album. The result, 1979’s &lt;a href="https://genius.com/albums/Pink-floyd/The-wall" rel="noopener" data-api_path="/albums/14831"&gt;&lt;em&gt;The Wall&lt;/em&gt;&lt;/a&gt;, became the best-selling double album of all time. It spawned iconic songs such as the #1 hit, &lt;a href="https://genius.com/Pink-floyd-another-brick-in-the-wall-part-ii-lyrics" rel="noopener" data-api_path="/songs/106641"&gt;“Another Brick in the Wall, Pt. 2,”&lt;/a&gt; and the melodic &lt;a href="https://genius.com/Pink-floyd-comfortably-numb-lyrics" rel="noopener" data-api_path="/songs/65489"&gt;“Comfortably Numb.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;After the not-so-well-received &lt;a href="https://genius.com/albums/Pink-floyd/The-final-cut" rel="noopener" data-api_path="/albums/32739"&gt;&lt;em&gt;Final Cut&lt;/em&gt;&lt;/a&gt;, released in 1983, Waters decided to call it quits and attempted to dissolve the band. However, Gilmour, Mason, and Wright opted to make more albums with the band’s name despite a lawsuit by Waters, keeping Floyd alive until their collective hiatus in 1996, following the 1994 &lt;a href="https://genius.com/albums/pink-floyd/the-division-bell" rel="noopener" data-api_path="/albums/32748"&gt;&lt;em&gt;The Division Bell&lt;/em&gt;&lt;/a&gt; tour.&lt;/p&gt;\n\n&lt;p&gt;The quartet managed to make amends and reunite for a final gig in 2005, performing five songs for the Live 8 concert at Hyde Park. Barrett died in 2006 and Wright died in 2008, but Pink Floyd’s legacy remains alive through their extensive &lt;a href="https://genius.com/Pink-floyd-pink-floyd-discography-annotated" rel="noopener" data-api_path="/songs/1226330"&gt;discography&lt;/a&gt;, as well as Gilmour and Waters\' many solo projects, re-releases of the group’s catalog, and the band’s final album, November 2014’s &lt;a href="https://genius.com/albums/Pink-floyd/The-endless-river" rel="noopener" data-api_path="/albums/112608"&gt;&lt;em&gt;The Endless River&lt;/em&gt;&lt;/a&gt;—a record composed of leftover &lt;em&gt;Division Bell&lt;/em&gt;-era recordings.&lt;/p&gt;\n\n&lt;p&gt;In September of 2019, the band launched a &lt;a href="https://pinkfloydexhibition.de/eng/exhibition.html" rel="noopener nofollow"&gt;five-month-long multimedia tour&lt;/a&gt; in Germany. “The Pink Floyd Exhibition: Their Mortal Remains” seeks to reveal to visitors experiences that they would not get anywhere else. For example, the exhibition features unreleased recordings from gigs, tokens from band members, and more.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Nayer', 'annotations': {'description': '&lt;p&gt;Latin pop singer known for being a featured artist along with Ne-Yo for Pitbull’s 2011 hit single “Give Me Everything”, produced by Afrojack. She is also known for her hit single in 2012 titled “Suave (Kiss Me)” featuring Pitbull and Swedish-Congolese singer-songwriter Mohombi. She also was featured by Enrique Iglesias in the Remix of his single “Dirty Dancer” along with other artists, such as Lil Wayne and Usher.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Sam-smith', 'annotations': {'description': '&lt;p&gt;Sam Smith was born on 19th May 1992 and grew up in a rural village on the border of Hertfordshire and Cambridgeshire, the nearest town being Bishops Stortford. They’re the oldest of three siblings and are said to be close to their younger sisters. Their mother is a successful City of London trader and their father a stay-at-home dad who brought up the children.&lt;/p&gt;\n\n&lt;p&gt;Smith showed an early talent for singing, and their parents responded by arranging singing lessons from the age of eight with professional jazz singer and songwriter, Joanna Eden. At the early age of seventeen, they left school to pursue their dream, living in a small one-bed flat and working in a London pub, but ended up isolated and beset by loneliness.&lt;/p&gt;\n\n&lt;p&gt;Sam knew they were gay, they said, for as long as they could remember. They suffered bullying at school and were shocked to find that even in London—close to gay communities—they were subjected to homophobic attacks. These negative experiences, combined with an inherently emotional nature, inform their songwriting and delivery. The soulful, beautifully rich tone of their voice and the subject of the lyrics ‘speak’ to many people and have led to their success.&lt;/p&gt;\n\n&lt;p&gt; It was through collaboration with &lt;a href="https://genius.com/artists/Disclosure" rel="noopener" data-api_path="/artists/43384"&gt;Disclosure&lt;/a&gt;’s “&lt;a href="https://genius.com/Disclosure-latch-lyrics" rel="noopener" data-api_path="/songs/133531"&gt;Latch&lt;/a&gt;” and &lt;a href="https://genius.com/artists/Naughty-boy" rel="noopener" data-api_path="/artists/31376"&gt;Naughty Boy&lt;/a&gt;’s “&lt;a href="https://genius.com/Naughty-boy-la-la-la-lyrics" rel="noopener" data-api_path="/songs/153223"&gt;La La La&lt;/a&gt;”, Smith found themselves more and more in-demand throughout 2012 and 2013. They &lt;a href="http://www.huffingtonpost.com/2014/05/28/sam-smith-gay_n_5404783.html" rel="noopener nofollow"&gt;publicly came out as gay&lt;/a&gt; shortly before releasing their debut album &lt;em&gt;&lt;a href="https://genius.com/albums/Sam-smith/In-the-lonely-hour" rel="noopener" data-api_path="/albums/75786"&gt;In the Lonely Hour&lt;/a&gt;&lt;/em&gt; on 26 May 2014, which they wrote because they were in love with a man who “didn’t love [them] back”.&lt;/p&gt;\n\n&lt;p&gt;In 2015 Sam won the Grammys for Best New Artist, Record of the Year and Best Pop Vocal Album. Their popular single &lt;a href="https://genius.com/Sam-smith-stay-with-me-lyrics" rel="noopener" data-api_path="/songs/387414"&gt;“Stay With Me”&lt;/a&gt; won the 2015 Grammy for Song of the Year.&lt;/p&gt;\n\n&lt;p&gt;In 2017 Sam came out as non-binary stating &lt;a href="http://www.news.com.au/entertainment/celebrity-life/sam-smith-i-feel-just-as-much-a-woman-as-i-am-man/news-story/1ffc1d95c5d053b246c89d80bd3887b5" rel="noopener nofollow"&gt;“I feel as much a woman as I am a man”&lt;/a&gt;, and in 2019 announced on Instagram that they were changing their pronouns to the gender neutral they/them.  In subsequent &lt;a href="https://www.independent.co.uk/life-style/sam-smith-non-binary-gender-bullying-b1758928.html" rel="noopener nofollow"&gt;interviews&lt;/a&gt; Sam confessed that “… gender, for me, has been nothing but traumatising” and that they weren’t prepared for the “ridicule” that was directed at them.&lt;/p&gt;\n\n&lt;p&gt;In terms of professional life, Sam’s career has been nothing but successful. In September 2017 Sam’s single &lt;a href="https://genius.com/Sam-smith-too-good-at-goodbyes-lyrics" rel="noopener" data-api_path="/songs/3219597"&gt;‘Too Good at Goodbyes’&lt;/a&gt;, the lead single of their sophomore album, was released. It &lt;a href="https://www.officialcharts.com/chart-news/sam-smiths-too-good-at-goodbyes-scores-a-second-week-at-number-1__20498/" rel="noopener nofollow"&gt;topped the charts&lt;/a&gt; in their home country and &lt;a href="https://www.billboard.com/articles/columns/chart-beat/8039394/sam-smith-too-good-at-goodbye-streaming-songs-top-five" rel="noopener nofollow"&gt;reached the top five&lt;/a&gt; in the U.S. It has accumulated over &lt;a href="https://www.youtube.com/watch?v=J_ub7Etch2U" rel="noopener nofollow"&gt;a billion views&lt;/a&gt; on the streaming service, YouTube. In early November, their album &lt;a href="https://genius.com/albums/Sam-smith/The-thrill-of-it-all" rel="noopener" data-api_path="/albums/366486"&gt;‘The Thrill Of It All’&lt;/a&gt; managed to top the official charts of eleven countries.&lt;/p&gt;\n\n&lt;p&gt;On March 20, 2018, Sam began their &lt;a href="https://genius.com/albums/Sam-smith/The-thrill-of-it-all" rel="noopener" data-api_path="/albums/366486"&gt;“The Thrill of It All World Tour”&lt;/a&gt; in Sheffield, England. It visited Europe, North America, Asia, New Zealand and Australia. The South Africa leg of the tour began in Cape Town, but was cut short by what at the time was said to be voice strain and Sam’s fear that they would damage their voice further if the tour continued. However, they subsequently admitted to panic and stress following the grief of their &lt;a href="https://www.youtube.com/watch?v=WKGbUiQdi2M" rel="noopener nofollow"&gt;break-up with ex-boyfriend, Brandon Flynn&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;On 27 March 2018, they released &lt;a href="https://genius.com/Sam-smith-pray-remix-lyrics" rel="noopener" data-api_path="/songs/3608789"&gt;“Pray”&lt;/a&gt; featuring American rapper &lt;a href="https://genius.com/artists/Logic" rel="noopener" data-api_path="/artists/7922"&gt;Logic&lt;/a&gt;. On 17 August 2018, the singer collaborated as the main vocalist on &lt;a href="https://genius.com/artists/Calvin-harris" rel="noopener" data-api_path="/artists/2069"&gt;Calvin Harris&lt;/a&gt;’s new track &lt;a href="https://genius.com/Calvin-harris-and-sam-smith-promises-lyrics" rel="noopener" data-api_path="/songs/3897728"&gt;“Promises”&lt;/a&gt;. The song became Smith’s &lt;a href="https://www.officialcharts.com/chart-news/calvin-harris-and-sam-smith-score-a-record-breaking-number-1-with-promises-i-am-overwhelmed__23886/" rel="noopener nofollow"&gt;seventh number one hit on the UK Singles Chart&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In January 2019, Sam Smith released the R&amp;amp;B-tinged, somewhat autobiographical &lt;a href="https://genius.com/Sam-smith-and-normani-dancing-with-a-stranger-lyrics" rel="noopener" data-api_path="/songs/4172650"&gt;‘\'Dancing with a Stranger"&lt;/a&gt;, a timely collaboration with &lt;a href="https://genius.com/artists/Fifth-harmony" rel="noopener" data-api_path="/artists/60437"&gt;Fifth Harmony&lt;/a&gt;’s starlet &lt;a href="https://genius.com/artists/Normani" rel="noopener" data-api_path="/artists/636165"&gt;Normani&lt;/a&gt; – a girl group that Sam has been a huge fan of.&lt;/p&gt;\n\n&lt;p&gt;In July 2019 “&lt;a href="https://genius.com/Sam-smith-how-do-you-sleep-lyrics" rel="noopener" data-api_path="/songs/4690095"&gt;How Do You Sleep"&lt;/a&gt; was released, accompanied by a &lt;a href="https://www.youtube.com/watch?v=PmYypVozQb4" rel="noopener nofollow"&gt;music video&lt;/a&gt; that garnered a hundred million views in less than two months. Sam has said in an interview with Kiss Radio that the story behind the song is broadly autobiographical.&lt;/p&gt;\n\n&lt;p&gt;In October 2019 Sam received the &lt;a href="https://attitude.co.uk/article/attitude-person-of-the-year-award-supported-by-virgin-atlantic-sam-smith/21993/" rel="noopener nofollow"&gt;Person of the Year&lt;/a&gt; award from &lt;em&gt;Attitude&lt;/em&gt; Magazine for their campaigning on behalf of the non-binary community.&lt;/p&gt;\n\n&lt;p&gt;On 1st November 2019 Sam released a cover, to positive reviews, of &lt;a href="https://genius.com/Sam-smith-i-feel-love-lyrics" rel="noopener" data-api_path="/songs/4967470"&gt;I Feel Love&lt;/a&gt;, originally released by &lt;a href="https://genius.com/Donna-summer-i-feel-love-lyrics" rel="noopener" data-api_path="/songs/579882"&gt;Donna Summer&lt;/a&gt; in 1977.&lt;/p&gt;\n\n&lt;p&gt;Sam’s prolific output didn’t end in 2019. In 2020 Sam’s single &lt;a href="https://genius.com/Sam-smith-to-die-for-lyrics" rel="noopener" data-api_path="/songs/5171420"&gt;To Die For&lt;/a&gt; was released in February 2020. Intended as the title track of their album, planned initially for release in May, this was deferred because of the global Coronavirus pandemic. The title and content were deemed inappropriate have been revised.&lt;/p&gt;\n\n&lt;p&gt;On 18th September 2020 the second single &lt;a href="https://genius.com/Sam-smith-diamonds-lyrics" rel="noopener" data-api_path="/songs/5926981"&gt;Diamonds&lt;/a&gt; from Sam’s third album, re-titled &lt;a href="https://genius.com/Sam-smith-love-goes-lyrics" rel="noopener" data-api_path="/songs/5267538"&gt;Love Goes&lt;/a&gt; was released.  The full album dropped on 30th October 2020.  A significant proportion of the tracks have been attributed by Sam himself to their relationship and &lt;a href="https://genius.com/Sam-smith-dance-til-you-love-someone-else-lyrics" rel="noopener" data-api_path="/songs/5973500"&gt;break-up with Brandon Flynn&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Samuel F. Smith', 'Samuel Frederick Smith']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Ohio-players', 'annotations': {'description': '&lt;p&gt;The Ohio Players were an American funk and R&amp;amp;B band best known for their songs “Fire” and “Love Rollercoaster”. They hit their peak popularity in the 1970s.&lt;/p&gt;\n\n&lt;p&gt;Their songs “Funky Worm”, “Skin Tight”, “Fire”, and “Love Rollercoaster” were all awarded gold certifications along with their albums “Skin Tight,” “Fire,” and “Honey.”&lt;/p&gt;', 'alternate_names': ['Ohio Untouchables']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Donna-summer', 'annotations': {'description': '&lt;p&gt;As the unquestioned queen of disco, the one and only Donna Summer lit up the late 70s and 80s with flashy, exuberant vocals and automatic earworms. Born LaDonna Adrian Gaines on Dec. 31, 1948, Summer moved to Germany after being cast in a Munich production of &lt;em&gt;Hair&lt;/em&gt;. There, she happened to meet &lt;a href="https://genius.com/artists/Giorgio-moroder" rel="noopener" data-api_path="/artists/50122"&gt;Giorgio Moroder&lt;/a&gt; and &lt;a href="https://genius.com/artists/Pete-bellotte" rel="noopener" data-api_path="/artists/225679"&gt;Pete Bellotte&lt;/a&gt;, and the trio conglomerated to form a dynamic music team. With Moroder, Summer forged together her first album, &lt;em&gt;The Hostage&lt;/em&gt;, which reached moderate success in Northern Europe. Summer’s big break, however, would come later with the release of 1975’s sexual &lt;a href="https://genius.com/Donna-summer-love-to-love-you-baby-lyrics" rel="noopener" data-api_path="/songs/579877"&gt;“Love to Love You Baby”&lt;/a&gt;, which became one of disco’s first mainstream hits and reached #2 on the Billboard Charts.&lt;/p&gt;\n\n&lt;p&gt;1977 came around with the concept album &lt;a href="https://genius.com/albums/Donna-summer/I-remember-yesterday" rel="noopener" data-api_path="/albums/114971"&gt;&lt;em&gt;I Remember Yesterday&lt;/em&gt;&lt;/a&gt;, which featured the Top 10 single &lt;a href="https://genius.com/Donna-summer-i-feel-love-lyrics" rel="noopener" data-api_path="/songs/579882"&gt;“I Feel Love”&lt;/a&gt;. The next year, Summer hit the silver screen with the movie &lt;em&gt;Thank God It’s Friday&lt;/em&gt;, whose &lt;a href="https://genius.com/albums/Donna-summer/thank-god-its-friday" rel="noopener"&gt;soundtrack&lt;/a&gt; featured one of her own songs: the iconic &lt;a href="https://genius.com/Donna-summer-last-dance-lyrics" rel="noopener" data-api_path="/songs/579885"&gt;“Last Dance.”&lt;/a&gt; This would later become one of the disco legends\' signature songs. “Dance” would take home an Academy Award for Best Original Song, a Grammy, and a Golden Globe, and it jumped to a peak of #3 on the charts.&lt;/p&gt;\n\n&lt;p&gt;Yet Summer’s illustrious career was far from finished – Summer’s first live album &lt;a href="https://genius.com/albums/Donna-summer/Live-and-more" rel="noopener" data-api_path="/albums/114973"&gt;&lt;em&gt;Live and More&lt;/em&gt;&lt;/a&gt; featured the single &lt;a href="https://genius.com/Donna-summer-macarthur-park-lyrics" rel="noopener" data-api_path="/songs/579888"&gt;“MacArthur Park”&lt;/a&gt;, a melting ballad that was a cover of the &lt;a href="https://genius.com/artists/Jimmy-webb" rel="noopener" data-api_path="/artists/343497"&gt;Jimmy Webb&lt;/a&gt; ballad of the same name. “Park” became Summer’s first – and perhaps most memorable – No. 1 hit, and cemented her status as a vocalist as well as a performer. With the track, she became the first female in modern rock history to hold the top spot in both the Hot 100 and the Billboard 200. 1979, though, would really be the peak of her career.&lt;/p&gt;\n\n&lt;p&gt;Her seventh studio album, &lt;a href="https://genius.com/albums/Donna-summer/Bad-girls" rel="noopener" data-api_path="/albums/111546"&gt;&lt;em&gt;Bad Girls&lt;/em&gt;&lt;/a&gt;, became arguably Summer’s most signature record. Equipped with three number ones (&lt;a href="https://genius.com/Donna-summer-bad-girls-lyrics" rel="noopener" data-api_path="/songs/513277"&gt;“Bad Girls”&lt;/a&gt;, &lt;a href="https://genius.com/Donna-summer-hot-stuff-lyrics" rel="noopener" data-api_path="/songs/509097"&gt;“Hot Stuff”&lt;/a&gt;, the &lt;a href="https://genius.com/artists/Barbra-streisand" rel="noopener" data-api_path="/artists/65306"&gt;Barbra Streisand&lt;/a&gt; duet &lt;a href="https://genius.com/Donna-summer-no-more-tears-enough-is-enough-lyrics" rel="noopener" data-api_path="/songs/972328"&gt;“No More Tears (Enough is Enough)”&lt;/a&gt;) and a number two (&lt;a href="https://genius.com/Donna-summer-dim-all-the-lights-lyrics" rel="noopener" data-api_path="/songs/515101"&gt;“Dim All The Lights”&lt;/a&gt;), &lt;em&gt;Bad Girls&lt;/em&gt; roared to triple-platinum. Summer set a host of Billboard records – one of them being the first woman to have three number-ones in a calendar year – and also took home a Grammy for “Stuff”.&lt;/p&gt;\n\n&lt;p&gt;Throughout the rest of her career, Summer continued to clock Top 40 hit after top 40 hit, eventually racking up 12 tracks that went gold, along with a multitude of commercially and chartwise successful albums. Summer passed away on May 17th, 2012 due to her battle with lung cancer, but her legacy for women in the music industry and for disco are unforgettable.&lt;/p&gt;\n\n&lt;p&gt;Donna’s daughter, Amanda, sings for the folk duo &lt;a href="https://genius.com/artists/JOHNNYSWIM" rel="noopener" data-api_path="/artists/357528"&gt;JOHNNYSWIM&lt;/a&gt;. Amanda sings with her husband, Abner, as well.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Kaiser-chiefs', 'annotations': {'description': '&lt;p&gt;Kaiser Chiefs emerged in the mid-2000s as one of the major players in the Post-Punk Revival movement. After a slight false start with their first album, &lt;a href="https://genius.com/albums/Parva/22" rel="noopener" data-api_path="/albums/193898"&gt;&lt;em&gt;22&lt;/em&gt;&lt;/a&gt; (released under the name “Parva”), the band achieved considerable commercial success with their first two major-label studio albums, &lt;a href="https://genius.com/albums/Kaiser-chiefs/Employment" rel="noopener" data-api_path="/albums/43933"&gt;&lt;em&gt;Employment&lt;/em&gt;&lt;/a&gt; (2005) and &lt;a href="https://genius.com/albums/Kaiser-chiefs/Yours-truly-angry-mob" rel="noopener" data-api_path="/albums/80470"&gt;&lt;em&gt;Yours Truly, Angry Mob&lt;/em&gt;&lt;/a&gt; (2007). The latter also spawned the single, &lt;a href="https://genius.com/Kaiser-chiefs-ruby-lyrics" rel="noopener" data-api_path="/songs/220610"&gt;“Ruby”&lt;/a&gt;, which scored the band their first UK #1 in 2007. The group gained recognition for their Britpop and Punk-influenced sound, which made them stand out among their contemporaries.&lt;/p&gt;\n\n&lt;p&gt;Their next album, &lt;a href="https://genius.com/albums/Kaiser-chiefs/Off-with-their-heads" rel="noopener" data-api_path="/albums/164847"&gt;&lt;em&gt;Off With Their Heads&lt;/em&gt;&lt;/a&gt;, was also a commercial hit, but 2011’s &lt;a href="https://genius.com/albums/Kaiser-chiefs/The-future-is-medieval-start-the-revolution-without-me" rel="noopener" data-api_path="/albums/43934"&gt;&lt;em&gt;The Future is Medieval&lt;/em&gt;&lt;/a&gt;, was less successful, and the band only returned to the limelight three years later, following the departure of drummer &lt;a href="https://genius.com/artists/Nick-hodgson" rel="noopener" data-api_path="/artists/143730"&gt;Nick Hodgson&lt;/a&gt; and &lt;a href="https://genius.com/artists/Ricky-wilson" rel="noopener" data-api_path="/artists/52329"&gt;Ricky Wilson’s&lt;/a&gt; appearance as a judge on &lt;em&gt;The Voice UK&lt;/em&gt;, when &lt;a href="https://genius.com/albums/Kaiser-chiefs/Education-education-education-war" rel="noopener" data-api_path="/albums/73523"&gt;&lt;em&gt;Education, Education, Education &amp;amp; War&lt;/em&gt;&lt;/a&gt; became their second album to top the UK charts.&lt;/p&gt;\n\n&lt;p&gt;After this, the band stepped away from their trademark punk sound and moved into a more commercial, poppy direction with 2016’s &lt;a href="https://genius.com/albums/Kaiser-chiefs/Stay-together" rel="noopener" data-api_path="/albums/156158"&gt;&lt;em&gt;Stay Together&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Parva (2000-03)']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Magic', 'annotations': {'description': '&lt;p&gt;MAGIC! is a Canadian reggae-pop band, composed of songwriter and record producer &lt;a href="https://genius.com/artists/Nasri-atweh" rel="noopener" data-api_path="/artists/204998"&gt;Nasri Atweh&lt;/a&gt;, &lt;a href="https://genius.com/artists/Mark-pellizzer" rel="noopener" data-api_path="/artists/204999"&gt;Mark Pellizzer&lt;/a&gt;, &lt;a href="https://genius.com/artists/Alex-tanas" rel="noopener" data-api_path="/artists/205000"&gt;Alex Tanas&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Ben-spivak" rel="noopener" data-api_path="/artists/676957"&gt;Ben Spivak&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2014, they released their debut single, &lt;a href="https://genius.com/Magic-rude-lyrics" rel="noopener" data-api_path="/songs/380162"&gt;“Rude”&lt;/a&gt;. It topped charts worldwide including the US and UK, and peaked at number six in Canada. Their &lt;a href="https://genius.com/albums/Magic/Don-t-kill-the-magic" rel="noopener" data-api_path="/albums/108042"&gt;debut album&lt;/a&gt; was released on June 30, 2014, and peaked at six in the US and five in Canada.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Owl-city', 'annotations': {'description': '&lt;p&gt;Originally making songs in his basement for his friends as &lt;a href="https://genius.com/artists/Sky-sailing" rel="noopener" data-api_path="/artists/360480"&gt;Sky Sailing&lt;/a&gt;, &lt;a href="https://genius.com/artists/Adam-young" rel="noopener" data-api_path="/artists/39521"&gt;Adam Young&lt;/a&gt; then discovered synth music and became Owl City, releasing two relatively unpopular albums &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Maybe-i-m-dreaming" rel="noopener" data-api_path="/albums/40282"&gt;Maybe I’m Dreaming&lt;/a&gt;&lt;/em&gt; and &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Of-june" rel="noopener" data-api_path="/albums/100523"&gt;Of June&lt;/a&gt;&lt;/em&gt; before making his hit single “&lt;a href="https://genius.com/Owl-city-fireflies-lyrics" rel="noopener" data-api_path="/songs/54831"&gt;Fireflies&lt;/a&gt;” which made his third album as Owl City, &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Ocean-eyes" rel="noopener" data-api_path="/albums/12041"&gt;Ocean Eyes&lt;/a&gt;&lt;/em&gt; a hit.&lt;/p&gt;\n\n&lt;p&gt;After this worldwide success he put on two more albums, &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/All-things-bright-and-beautiful" rel="noopener" data-api_path="/albums/12197"&gt;All Things Bright and Beautiful&lt;/a&gt;&lt;/em&gt; in 2011, and &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/The-midsummer-station" rel="noopener" data-api_path="/albums/20412"&gt;The Midsummer Station&lt;/a&gt;&lt;/em&gt; in 2012. In 2014 he released an EP, &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Ultraviolet-ep" rel="noopener" data-api_path="/albums/105845"&gt;Ultraviolet&lt;/a&gt;&lt;/em&gt;, composed of 4 songs &lt;a href="https://genius.com/Owl-city-this-isnt-the-end-lyrics" rel="noopener" data-api_path="/songs/461949"&gt;whom one&lt;/a&gt; would appear on his following album, &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Mobile-orchestra" rel="noopener" data-api_path="/albums/124470"&gt;Mobile Orchestra&lt;/a&gt;&lt;/em&gt;. Retiring from Owl City in 2016 to focus on &lt;a href="https://www.ayoungscores.com/" rel="noopener nofollow"&gt;Adam Young Scores&lt;/a&gt;, a new project made of orchestral soundtracks about historic events, he reappeared in 2017 to tease his upcoming new album &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Cinematic" rel="noopener" data-api_path="/albums/377687"&gt;Cinematic&lt;/a&gt;&lt;/em&gt;, with the release of a series of three EPs, called &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Reel-1-ep" rel="noopener" data-api_path="/albums/377817"&gt;Reel 1&lt;/a&gt;&lt;/em&gt; , &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Reel-2-ep" rel="noopener" data-api_path="/albums/399481"&gt;2&lt;/a&gt;&lt;/em&gt; and &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Reel-3-ep" rel="noopener" data-api_path="/albums/417372"&gt;3&lt;/a&gt;&lt;/em&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Starcrawler', 'artist_name': 'Filter', 'wiki': 'http://en.wikipedia.org/wiki/Starcrawler', 'start_year': '2015', 'labels': ['http://dbpedia.org/resource/Rough_Trade_Records'], 'genres': ['http://dbpedia.org/resource/Pop-punk', 'http://dbpedia.org/resource/Rock_music'], 'actual_members': ['Arrow de Wilde', 'Henri Cash', 'Seth Carolina', 'Tim Franco'], 'old_members': ['Austin Smith'], 'abstract': "Starcrawler is an American rock band from Los Angeles, formed in 2015. The band consists of lead singer Arrow de Wilde, guitarist Henri Cash, bassist Tim Franco and drummer Seth Carolina. They have released two studio albums, Starcrawler (2018) and Devour You (2019). Starcrawler lead singer Arrow de Wilde and guitarist Henri Cash both attended Los Angeles' Grand Arts High School. De Wilde is the child of photographer Autumn de Wilde and drummer Aaron Sperske."}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Jamiroquai', 'artist_name': 'Jamiroquai', 'wiki': 'http://en.wikipedia.org/wiki/Jamiroquai', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1992', 'labels': ['http://dbpedia.org/resource/Acid_Jazz_Records', 'http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/S2_Records', 'http://dbpedia.org/resource/Virgin_EMI_Records', 'http://dbpedia.org/resource/Work_Group'], 'plays_in': ['http://dbpedia.org/resource/About_Last_Night_(2014_film)', 'http://dbpedia.org/resource/Grammy_Nominees', "http://dbpedia.org/resource/Guru's_Jazzmatazz,_Vol._2:_The_New_Reality", 'http://dbpedia.org/resource/Woodstock_1999_(album)'], 'genres': ['http://dbpedia.org/resource/Acid_jazz', 'http://dbpedia.org/resource/Contemporary_R&amp;B', 'http://dbpedia.org/resource/Disco', 'http://dbpedia.org/resource/Funk', 'http://dbpedia.org/resource/House_music', 'http://dbpedia.org/resource/Soul_music'], 'actual_members': ['http://dbpedia.org/resource/Jamiroquai', 'http://dbpedia.org/resource/Jay_Kay', 'http://dbpedia.org/resource/Matt_Johnson_(keyboardist)', 'http://dbpedia.org/resource/Paul_Turner_(bassist)', 'Sola Akingbola', 'Rob Harris', 'Derrick McKenzie'], 'related_artists': ['http://dbpedia.org/resource/Anastacia', 'http://dbpedia.org/resource/Jay_Kay__Jay_Kay__1', 'http://dbpedia.org/resource/Julian_Perretta', 'http://dbpedia.org/resource/Linda_Lewis', 'http://dbpedia.org/resource/Matt_Johnson_(keyboardist)', 'http://dbpedia.org/resource/Mike_Spencer', 'http://dbpedia.org/resource/Nick_Fyffe', 'http://dbpedia.org/resource/Paul_Turner_(bassist)', 'http://dbpedia.org/resource/Roddy_Lorimer', 'http://dbpedia.org/resource/Shuffler', 'http://dbpedia.org/resource/Simon_Hale', 'http://dbpedia.org/resource/Simon_Katz', 'http://dbpedia.org/resource/Stuart_Zender', 'http://dbpedia.org/resource/The_Temperance_Movement_(band)', 'http://dbpedia.org/resource/Toby_Smith'], 'abstract': 'Jamiroquai (/dʒəˈmɪrəkwaɪ/) are an English funk and acid jazz band from London. Formed in 1992, they are fronted by vocalist Jay Kay, and were prominent in the London-based funk and acid jazz movement of the 1990s. They built on their acid jazz sound in their early releases and later drew from rock, disco, electronic and Latin music genres. Lyrically, the group have addressed social and environmental justice. Kay has remained as the only original member through several line-up changes. The band made their debut under Acid Jazz Records, but they subsequently found mainstream success under Sony. While under this label, three of their albums have charted at number one in the UK, including Emergency on Planet Earth (1993), Synkronized (1999) and A Funk Odyssey (2001). The band\'s 1998 single, "Deeper Underground", was also number one in their native country. Jamiroquai has sold more than 26 million albums worldwide as of 2017. Their third album, Travelling Without Moving (1996), received a Guinness World Record for the best-selling funk album in history. The music video for its lead single, "Virtual Insanity", also contributed to the band\'s success. The song was named Video of the Year at the 1997 MTV Video Music Awards and earned the band a Grammy Award in 1998.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Alien_Ant_Farm', 'artist_name': 'Alien Ant Farm', 'wiki': 'http://en.wikipedia.org/wiki/Alien_Ant_Farm', 'hometown': 'http://dbpedia.org/resource/Riverside,_California', 'start_year': '1996', 'labels': ['http://dbpedia.org/resource/DreamWorks_Records', 'http://dbpedia.org/resource/Executive_Music_Group', 'http://dbpedia.org/resource/Universal_Music_Group'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Pop-punk', 'http://dbpedia.org/resource/Punk_rock', 'pop punk'], 'actual_members': ['Dryden Mitchell', 'Terry Corso', 'Tim Peugh', 'Mike Cosgrove'], 'old_members': ['Tye Zamora', 'Joe Hill'], 'related_artists': ['http://dbpedia.org/resource/Chain_of_Strength', 'http://dbpedia.org/resource/Excel_(band)', 'http://dbpedia.org/resource/Inside_Out_(band)', 'http://dbpedia.org/resource/Jay_Baumgardner'], 'abstract': 'Alien Ant Farm is an American rock band that formed in Riverside, California in 1996. They have released five studio albums and sold over 5 million units worldwide. The band\'s cover of Michael Jackson\'s "Smooth Criminal" topped the Billboard Alternative songs charts in 2001, and was featured in the film American Pie 2. They released their debut album Greatest Hits independently in 1999, then signed to DreamWorks Records in 2000. Their second album ANThology was released in 2001 and has been certified platinum by the RIAA, selling over one million copies and reaching number 11 on the Billboard 200. Following up that was their third album, TruANT, released in 2003. The album was produced by brothers Robert and Dean DeLeo of Stone Temple Pilots, and made it to number 42 on the Billboard 200. In 2005 the band recorded their next album 3rd Draft, however its release was denied by the label after Geffen bought out DreamWorks. It was eventually released in 2006 as Up in the Attic, charting at number 114 on the Billboard 200. After several years of sporadic touring, the band\'s fifth studio album Always and Forever was released in February 2015.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Junkie_XL', 'artist_name': 'Junkie XL', 'wiki': 'http://en.wikipedia.org/wiki/Junkie_XL', 'birth_date': '08 December 1967', 'start_year': '1988', 'aliases': ['JXL', 'Junkie XL'], 'labels': ['http://dbpedia.org/resource/Nettwerk', 'http://dbpedia.org/resource/Roadrunner_Records', 'http://dbpedia.org/resource/Ultra_Music'], 'plays_in': ['http://dbpedia.org/resource/300:_Rise_of_an_Empire', 'http://dbpedia.org/resource/Alita:_Battle_Angel', 'http://dbpedia.org/resource/Alita:_Battle_Angel__Alita:_Battle_Angel__1', 'http://dbpedia.org/resource/Army_of_the_Dead', 'http://dbpedia.org/resource/Batman_v_Superman:_Dawn_of_Justice', 'http://dbpedia.org/resource/Black_Mass_(film)', 'http://dbpedia.org/resource/Blind_(2007_film)', 'http://dbpedia.org/resource/Brimstone_(2016_film)', 'http://dbpedia.org/resource/Bringing_Up_Bobby_(2011_film)', 'http://dbpedia.org/resource/DOA:_Dead_or_Alive', 'http://dbpedia.org/resource/DOA:_Dead_or_Alive__DOA:_Dead_or_Alive__1', 'http://dbpedia.org/resource/Deadpool_(film)', 'http://dbpedia.org/resource/Deadpool_(film)__Deadpool__1', 'http://dbpedia.org/resource/Divergent_(film)', 'http://dbpedia.org/resource/God_of_War_II', 'http://dbpedia.org/resource/Godzilla_vs._Kong', 'http://dbpedia.org/resource/Kill_Your_Friends_(film)', 'http://dbpedia.org/resource/Mad_Max:_Fury_Road', 'http://dbpedia.org/resource/Mortal_Engines_(film)', 'http://dbpedia.org/resource/New_Kids_Turbo', 'http://dbpedia.org/resource/Paranoia_(2013_film)', 'http://dbpedia.org/resource/Point_Break_(2015_film)', 'http://dbpedia.org/resource/Run_All_Night_(film)', 'http://dbpedia.org/resource/Scoob!', 'http://dbpedia.org/resource/Siberia_(1998_film)', 'http://dbpedia.org/resource/Sonic_the_Hedgehog_(film)', 'http://dbpedia.org/resource/Sonic_the_Hedgehog_2_(film)', 'http://dbpedia.org/resource/Spectral', 'http://dbpedia.org/resource/Terminator:_Dark_Fate', 'http://dbpedia.org/resource/The_355', 'http://dbpedia.org/resource/The_Amazing_Spider-Man_2', 'http://dbpedia.org/resource/The_Animatrix', 'http://dbpedia.org/resource/The_Dark_Tower_(2017_film)', 'http://dbpedia.org/resource/The_Happy_Housewife', 'http://dbpedia.org/resource/The_Heineken_Kidnapping', 'http://dbpedia.org/resource/Three_Thousand_Years_of_Longing', 'http://dbpedia.org/resource/Tomb_Raider_(film)', "http://dbpedia.org/resource/Zack_Snyder's_Justice_League"], 'genres': ['http://dbpedia.org/resource/Big_beat', 'http://dbpedia.org/resource/Electronic_music', 'http://dbpedia.org/resource/Electronic_rock', 'http://dbpedia.org/resource/Film_score', 'http://dbpedia.org/resource/Trance_music', 'trance', 'electronic'], 'related_artists': ['http://dbpedia.org/resource/Hans_Zimmer', 'http://dbpedia.org/resource/Kēvens', 'http://dbpedia.org/resource/Man_with_a_Mission', 'http://dbpedia.org/resource/Remote_Control_Productions_(American_company)'], 'abstract': 'Tom Holkenborg (born 8 December 1967), also known by his stage name Junkie XL or occasionally JXL, is a Dutch composer, multi-instrumentalist, DJ, producer, and engineer. Originally known for his trance productions, he has moved to producing electronica and big beat music and film scores. His remix of Elvis Presley\'s "A Little Less Conversation" became a worldwide hit in 2002. In film scores, he has worked with Hans Zimmer and his company Remote Control Productions on Man of Steel and Batman v Superman: Dawn of Justice, as well as composing the scores for Zack Snyder\'s Justice League, Divergent, Mad Max: Fury Road, Deadpool, Tomb Raider, Alita: Battle Angel, Terminator: Dark Fate, Sonic the Hedgehog, Scoob!, Godzilla vs. Kong and Army of the Dead.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Gotye', 'artist_name': 'Gotye', 'wiki': 'http://en.wikipedia.org/wiki/Gotye', 'hometown': 'http://dbpedia.org/resource/Victoria_(Australia)', 'birth_date': '21 May 1980', 'start_year': '2001', 'aliases': ['Wally De Backer'], 'labels': ['http://dbpedia.org/resource/Creative_Vibes', 'http://dbpedia.org/resource/Eleven:_A_Music_Company', 'http://dbpedia.org/resource/Republic_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Indie_pop', 'http://dbpedia.org/resource/Indie_rock', 'http://dbpedia.org/resource/Trip_hop'], 'related_artists': ['http://dbpedia.org/resource/François_Tétaz', 'http://dbpedia.org/resource/Jean-Jacques_Perrey', 'http://dbpedia.org/resource/Kimbra', 'http://dbpedia.org/resource/The_Basics', 'http://dbpedia.org/resource/The_Night_Game'], 'abstract': 'Wouter "Wally" De Backer (born 21 May 1980), better known by his stage name Gotye (/ˈɡɒtieɪ/ GOT-ee-ay), is a Belgian-Australian multi-instrumentalist and singer-songwriter. The name "Gotye" is a pronunciation respelling of "Gauthier", the French cognate of his Dutch given name "Wouter". Gotye has released three studio albums independently and one album featuring remixes of tracks from his first two albums. He is a founding member of the Melbourne indie-pop trio The Basics, who have independently released four studio albums and numerous other titles since 2002. His voice has been compared to those of Peter Gabriel and Sting. Gotye achieved breakout success with his 2011 single "Somebody That I Used to Know", reaching number one on the Billboard Hot 100 and becoming the best-selling song of 2012. This made him the fifth Australian-based artist to top the chart and the second born in Belgium (after The Singing Nun in 1963). He has won five ARIA Awards and received a nomination for an MTV EMA for Best Asia and Pacific Act. On 10 February 2013, he won three Grammy Awards at the 55th Annual Grammy Awards Show: Record of the Year and Best Pop Duo/Group Performance for "Somebody That I Used to Know" and Best Alternative Music Album for Making Mirrors. Gotye has said he sometimes feels "less of a musician, more of a tinkerer."'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Chic_(band)', 'artist_name': 'Chic', 'wiki': 'http://en.wikipedia.org/wiki/Chic_(band)', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '1972', 'end_year': '1983', 'aliases': ['The Big Apple Band (1972–1977)'], 'labels': ['http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Buddah_Records', 'http://dbpedia.org/resource/Sumthing_Distribution', 'http://dbpedia.org/resource/Virgin_EMI_Records', 'http://dbpedia.org/resource/Warner_Records'], 'genres': ['http://dbpedia.org/resource/Disco', 'http://dbpedia.org/resource/Funk', 'http://dbpedia.org/resource/Rhythm_and_blues'], 'actual_members': ['http://dbpedia.org/resource/Bill_Holloman', 'http://dbpedia.org/resource/Nile_Rodgers', 'Curt Ramm', 'Folami', 'Russell Graham', 'Kimberly Davis', 'Jerry Barnes', 'Ralph Rolle', 'Richard Hilton'], 'related_artists': ['http://dbpedia.org/resource/Al_Jarreau', 'http://dbpedia.org/resource/Bernard_Edwards', 'http://dbpedia.org/resource/Bloom_Twins', 'http://dbpedia.org/resource/Carly_Simon', 'http://dbpedia.org/resource/David_Bowie', 'http://dbpedia.org/resource/David_Lasley', 'http://dbpedia.org/resource/Debbie_Harry', 'http://dbpedia.org/resource/Diana_Ross', 'http://dbpedia.org/resource/Distance_(band)', 'http://dbpedia.org/resource/Duran_Duran', 'http://dbpedia.org/resource/Fonzi_Thornton', 'http://dbpedia.org/resource/Gerardo_Velez', 'http://dbpedia.org/resource/Johnny_Kemp', 'http://dbpedia.org/resource/Johnny_Mathis', 'http://dbpedia.org/resource/Kool_&amp;_the_Gang', 'http://dbpedia.org/resource/Luther_Vandross', 'http://dbpedia.org/resource/Mac_Gollehon', 'http://dbpedia.org/resource/Madonna', 'http://dbpedia.org/resource/Nile_Rodgers', 'http://dbpedia.org/resource/Norma_Jean_Wright', 'http://dbpedia.org/resource/Omar_Hakim', 'http://dbpedia.org/resource/Robert_Palmer_(singer)', 'http://dbpedia.org/resource/Robin_Beck', 'http://dbpedia.org/resource/Sheila_and_B._Devotion', 'http://dbpedia.org/resource/Sister_Sledge', 'http://dbpedia.org/resource/Sylver_Logan_Sharp', 'http://dbpedia.org/resource/The_Honeydrippers', 'http://dbpedia.org/resource/The_Power_Station_(band)', 'http://dbpedia.org/resource/Tony_Thompson_(drummer)'], 'abstract': 'Chic (/ʃiːk/ SHEEK), currently called Nile Rodgers &amp; Chic, is an American band that was organized in 1972 by guitarist Nile Rodgers and bassist Bernard Edwards. It recorded many commercially successful disco songs, including "Dance, Dance, Dance (Yowsah, Yowsah, Yowsah)" (1977), "Everybody Dance" (1977), "Le Freak" (1978), "I Want Your Love" (1978), "Good Times" (1979), and "My Forbidden Lover" (1979). The group regarded themselves as a rock band for the disco movement "that made good on hippie peace, love and freedom". In 2017, Chic was nominated for induction into the Rock and Roll Hall of Fame for the eleventh time.'}</t>
   </si>
   <si>
     <t>{'artist': 'http://dbpedia.org/resource/Sex_Pistols', 'artist_name': 'Sex Pistols', 'wiki': 'http://en.wikipedia.org/wiki/Sex_Pistols', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1975', 'end_year': '1978', 'labels': ['http://dbpedia.org/resource/A&amp;M_Records', 'http://dbpedia.org/resource/EMI_Records', 'http://dbpedia.org/resource/Universal_Music_Group', 'http://dbpedia.org/resource/Virgin_Records', 'http://dbpedia.org/resource/Warner_Records'], 'plays_in': ['http://dbpedia.org/resource/D.O.A.:_A_Rite_of_Passage', 'http://dbpedia.org/resource/The_Filth_and_the_Fury', "http://dbpedia.org/resource/The_Great_Rock_'n'_Roll_Swindle"], 'genres': ['http://dbpedia.org/resource/Punk_rock'], 'old_members': ['http://dbpedia.org/resource/Glen_Matlock', 'http://dbpedia.org/resource/John_Lydon', 'http://dbpedia.org/resource/Paul_Cook', 'http://dbpedia.org/resource/Sid_Vicious', 'http://dbpedia.org/resource/Steve_Jones_(musician)', 'Johnny Rotten'], 'related_artists': ['http://dbpedia.org/resource/Bill_Price_(record_producer)', 'http://dbpedia.org/resource/Chequered_Past', 'http://dbpedia.org/resource/Chiefs_of_Relief', 'http://dbpedia.org/resource/Dave_Goodman_(record_producer)', 'http://dbpedia.org/resource/False_Alarm_(band)', 'http://dbpedia.org/resource/Glen_Matlock', 'http://dbpedia.org/resource/Go_Home_Productions', 'http://dbpedia.org/resource/John_Lydon', 'http://dbpedia.org/resource/Lightning_Raiders', 'http://dbpedia.org/resource/Malcolm_McLaren', 'http://dbpedia.org/resource/Man_Raze', 'http://dbpedia.org/resource/Neurotic_Outsiders', 'http://dbpedia.org/resource/Paul_Cook', 'http://dbpedia.org/resource/Public_Image_Ltd', 'http://dbpedia.org/resource/Rich_Kids', 'http://dbpedia.org/resource/Sham_Pistols', 'http://dbpedia.org/resource/Sid_Vicious', 'http://dbpedia.org/resource/Siouxsie_and_the_Banshees', 'http://dbpedia.org/resource/Steve_Jones_(musician)', 'http://dbpedia.org/resource/Steve_New', 'http://dbpedia.org/resource/Subway_Sect', 'http://dbpedia.org/resource/The_Fallen_Leaves', 'http://dbpedia.org/resource/The_Flowers_of_Romance_(British_band)', 'http://dbpedia.org/resource/The_International_Swingers', 'http://dbpedia.org/resource/The_London_Cowboys', 'http://dbpedia.org/resource/The_Professionals_(band)', 'http://dbpedia.org/resource/Vicious_White_Kids', 'http://dbpedia.org/resource/Wally_Nightingale'], 'abstract': 'The Sex Pistols were an English punk rock band that formed in London in 1975. Although their initial career lasted just two and a half years, they are regarded as one of the most groundbreaking acts in the history of popular music. They were responsible for initiating the punk movement in the United Kingdom and inspiring many later punk and alternative rock musicians. Their fashion and hairstyles have been credited as a significant influence on punk image, and they are often associated with anarchism within music. The Sex Pistols originally comprised vocalist John Lydon (known at the time by his stage name "Johnny Rotten"), guitarist Steve Jones, drummer Paul Cook and bassist Glen Matlock. Matlock was replaced by Sid Vicious in early 1977. Under the management of Malcolm McLaren, the band attracted controversies that both captivated and appalled Britain. Through an obscenity-laced television interview in December 1976 and their May 1977 single "God Save the Queen", attacking Britons\' social conformity and deference to the Crown, they popularised punk rock in the UK. It was banned not only by the BBC but also by nearly every independent radio station, making it the "most heavily censored record in British history". The band\'s only album Never Mind the Bollocks, Here\'s the Sex Pistols (1977)—a UK number one album—is a staple record of punk rock. In January 1978, at the end of their over-hyped and turbulent tour of the United States, Rotten announced the band\'s break-up. Over the next few months, the three remaining band members recorded songs for McLaren\'s film version of the Sex Pistols\' story, The Great Rock \'n\' Roll Swindle. Vicious died of a heroin overdose in February 1979, following his arrest for the alleged murder of his girlfriend, Nancy Spungen. Rotten, Jones, Cook and Matlock reunited for a highly successful concert tour in 1996. Further one-off performances and short tours followed over the next decade. The Sex Pistols have been recognised as an influential band. In 2004, Rolling Stone placed them No. 58 on its list of the "100 Greatest Artists of All Time". On 24 February 2006, the Sex Pistols—the four original members plus Vicious—were inducted into the Rock and Roll Hall of Fame, but they refused to attend the ceremony, calling the museum "a piss stain".'}</t>
   </si>
   <si>
-    <t>{'artist': 'http://dbpedia.org/resource/The_Kid_Laroi', 'artist_name': 'The Kid Laroi', 'wiki': 'http://en.wikipedia.org/wiki/The_Kid_Laroi', 'birth_date': '17 August 2003', 'start_year': '2018', 'labels': ['http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Lil_Bibby'], 'genres': ['http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Pop_rap'], 'related_artists': ['http://dbpedia.org/resource/Adam_Leber', 'http://dbpedia.org/resource/Cashmere_Cat', 'http://dbpedia.org/resource/FnZ', 'http://dbpedia.org/resource/Juice_Wrld', 'http://dbpedia.org/resource/Justin_Bieber', 'http://dbpedia.org/resource/Lil_Bibby', 'http://dbpedia.org/resource/Miracle_(rapper)', 'http://dbpedia.org/resource/Nick_Mira', 'http://dbpedia.org/resource/Omer_Fedi', 'http://dbpedia.org/resource/Onefour', 'http://dbpedia.org/resource/Polo_G'], 'abstract': 'Charlton Kenneth Jeffrey Howard (born 17 August 2003), professionally known as the Kid Laroi (stylised The Kid LAROI.), is an Australian singer, rapper and songwriter. Born in Waterloo, New South Wales, he originally gained recognition from his association and friendship with Juice Wrld while he was on tour in Australia. He gained a local following before joining a partnership agreement with Lil Bibby\'s Grade A Productions and Columbia Records. and attained further popularity with his song "Go" featuring Juice Wrld, which peaked at number 52 on the Billboard Hot 100. His debut mixtape F*ck Love (2020) peaked at number one on the Australian ARIA Charts, making him the youngest Australian solo artist ever to reach the top, and also reached number one on the US Billboard 200. Additionally, Laroi\'s songs "Without You", its remix with Miley Cyrus, and "Stay" (with Justin Bieber) reached the top ten of the Billboard Hot 100, with "Stay" peaking at number one for seven non-consecutive weeks. Among his accolades, Laroi has won an APRA Award, two ARIA Awards and a National Indigenous Music Award, and been nominated for two American Music Awards, two Grammy Awards, three MTV Video Music Awards, and four People\'s Choice Awards.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Skillet_(band)', 'artist_name': 'Skillet', 'wiki': 'http://en.wikipedia.org/wiki/Skillet_(band)', 'hometown': 'http://dbpedia.org/resource/Memphis,_Tennessee', 'start_year': '1996', 'labels': ['http://dbpedia.org/resource/Ardent_Records', 'http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Fair_Trade_Services', 'http://dbpedia.org/resource/ForeFront_Records', 'http://dbpedia.org/resource/Lava_Records', 'http://dbpedia.org/resource/Warner_Music_Group'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Christian_metal', 'http://dbpedia.org/resource/Christian_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Symphonic_metal'], 'actual_members': ['http://dbpedia.org/resource/Jen_Ledger', 'http://dbpedia.org/resource/John_Cooper_(musician)', 'Seth Morrison', 'Korey Cooper'], 'old_members': ['http://dbpedia.org/resource/Ken_Steorts', 'Lori Peters', 'Kevin Haaland', 'Jonathan Salas', 'Ben Kasica', 'Trey McClurkin'], 'related_artists': ['http://dbpedia.org/resource/Brian_Howes', 'http://dbpedia.org/resource/Jen_Ledger', 'http://dbpedia.org/resource/John_Cooper_(musician)', 'http://dbpedia.org/resource/Scarlet_White', 'http://dbpedia.org/resource/T._J._Harris'], 'abstract': 'Skillet is an American Christian rock band formed in Memphis, Tennessee, in 1996. The band currently consists of husband John Cooper (lead vocals, bass) and wife Korey Cooper (rhythm guitar, keyboards, backing vocals) along with Jen Ledger (drums, vocals) and Seth Morrison (lead guitar). The band has released ten albums, two of which, Collide and Comatose, received Grammy nominations. Two of their albums, Comatose and Awake, are certified Platinum and Double Platinum respectively by the RIAA, while Rise and Unleashed are certified Gold as of June 29, 2020. Five of their songs, "Whispers in the Dark", "Hero", "Monster", "Awake and Alive", and "Feel Invincible", are certified Platinum, while another four, "Rebirthing", "Comatose", "Not Gonna Die", and "The Resistance" are certified Gold. Skillet went through several line-up changes early in their career, leaving founder John Cooper as the only original member remaining in the band. They are known for a relentless touring schedule, which garnered them a top five ranking in the Hardest Working Bands of 2010 by Songkick.com.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Nightcrawlers_(band)', 'artist_name': 'Nightcrawlers', 'wiki': 'http://en.wikipedia.org/wiki/Nightcrawlers_(band)', 'hometown': 'http://dbpedia.org/resource/Glasgow', 'start_year': '1992', 'labels': ['http://dbpedia.org/resource/Universal_Music_Group'], 'genres': ['http://dbpedia.org/resource/House_music'], 'actual_members': ['John Reid'], 'old_members': ['http://dbpedia.org/resource/MK_(DJ)', 'http://dbpedia.org/resource/Ross_Campbell_(composer)', 'Hugh Brankin', 'Graham Wilson', 'Ronald Wilson'], 'related_artists': ['http://dbpedia.org/resource/DJ_S.K.T', 'http://dbpedia.org/resource/Taio_Cruz'], 'abstract': 'Nightcrawlers is a British house music project from Glasgow, Scotland, assembled by producer, DJ and vocalist John Reid (born 6 September 1963).'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/The_Knack', 'artist_name': 'The Knack', 'wiki': 'http://en.wikipedia.org/wiki/The_Knack', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '1996', 'end_year': '2010', 'labels': ['http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/Charisma_Records'], 'genres': ['http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Power_pop'], 'related_artists': ['http://dbpedia.org/resource/Bruce_Gary', 'http://dbpedia.org/resource/Doug_Fieger', 'http://dbpedia.org/resource/Pat_Torpey', 'http://dbpedia.org/resource/Prescott_Niles', 'http://dbpedia.org/resource/Roadmaster_(band)', 'http://dbpedia.org/resource/Terry_Bozzio'], 'abstract': 'The Knack was an American rock band based in Los Angeles that rose to fame with its first single, "My Sharona", an international number-one hit in 1979.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Roxette', 'artist_name': 'Roxette', 'wiki': 'http://en.wikipedia.org/wiki/Roxette', 'hometown': 'http://dbpedia.org/resource/Sweden', 'start_year': '1986', 'end_year': '2019', 'labels': ['http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/EMI', 'http://dbpedia.org/resource/Edel_SE_&amp;_Co._KGaA', 'http://dbpedia.org/resource/Parlophone', 'http://dbpedia.org/resource/Warner_Music_Group'], 'plays_in': ['http://dbpedia.org/resource/The_Miracle_in_Valby'], 'genres': ['http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Power_pop', 'http://dbpedia.org/resource/Soft_rock', 'pop'], 'related_artists': ['http://dbpedia.org/resource/Christoffer_Lundquist', 'http://dbpedia.org/resource/Clarence_Öfwerman', 'http://dbpedia.org/resource/Gyllene_Tider', 'http://dbpedia.org/resource/Marianne_Flynner', 'http://dbpedia.org/resource/The_Lonely_Boys'], 'abstract': 'Roxette was a Swedish pop rock duo, consisting of Marie Fredriksson (vocals and keyboards) and Per Gessle (vocals and guitar). Formed in 1986, the duo became an international act in the late 1980s, when they released their breakthrough second album Look Sharp! Their third album Joyride, which was released in 1991, became just as successful as its predecessor. Roxette went on to achieve nineteen UK Top 40 hits and several US Hot 100 hits, including four US number-ones with "The Look", "Listen to Your Heart", "It Must Have Been Love", featured on the soundtrack of Pretty Woman, and "Joyride". Their other hits include "Dressed for Success", "Dangerous", and "Fading Like a Flower". Before coming together to form the duo, Fredriksson and Gessle were already established artists in Sweden, she having released a number of solo albums and he being the lead singer and songwriter of Gyllene Tider, a band that had three No. 1 albums. On the advice of the managing director of their record label, the two came together to record "Neverending Love", which became a hit single in Sweden. After the release of Don\'t Bore Us, Get to the Chorus!, a greatest hits record, the duo took a hiatus before returning with the albums Have a Nice Day (1999) and Room Service (2001). They continued to chart in other territories, mainly in Europe, Australia and Latin America, where they earned various Gold and Platinum awards until the beginning of the new millennium. In 2002, the duo took a break from recording and touring when Fredriksson was diagnosed with a brain tumour. Gessle went on to release solo albums and reunited with Gyllene Tider before Roxette took to the stage together again for the first time in eight years, in 2009, during Gessle\'s European Party Crasher tour. In 2011, they released Charm School, their first studio album in ten years, which was followed by Travelling in 2012. Their final studio album, Good Karma, was released in 2016. Marie Fredriksson died on 9 December 2019, at the age of 61, following a long battle with a brain tumour, and the group was disbanded shortly after Fredriksson\'s death. Their songs "It Must Have Been Love" and "Listen to Your Heart" continue to receive wide radio airplay, with both singles receiving awards from BMI in 2014 for achieving five million radio plays. They have sold an estimated 75 million records worldwide, with over 10 million in certified units from Germany, the US and the UK, achieving gold and platinum certifications for Joyride and Look Sharp! in all three regions. They are Sweden\'s second-best-selling music act after ABBA.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Blondie_(band)', 'artist_name': 'Blondie', 'wiki': 'http://en.wikipedia.org/wiki/Blondie_(band)', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '1974', 'end_year': '1982', 'labels': ['http://dbpedia.org/resource/Bertelsmann_Music_Group', 'http://dbpedia.org/resource/Chrysalis_Records', 'http://dbpedia.org/resource/EMI_Records', 'http://dbpedia.org/resource/Eleven_Seven_Label_Group', 'http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Private_Stock_Records', 'http://dbpedia.org/resource/Sanctuary_Records', 'http://dbpedia.org/resource/Sire_Records'], 'plays_in': ['http://dbpedia.org/resource/American_Gigolo'], 'genres': ['http://dbpedia.org/resource/Disco', 'http://dbpedia.org/resource/Funk', 'http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Punk_rock', 'http://dbpedia.org/resource/Reggae', 'New wave'], 'actual_members': ['http://dbpedia.org/resource/Chris_Stein', 'http://dbpedia.org/resource/Clem_Burke', 'http://dbpedia.org/resource/Debbie_Harry', 'http://dbpedia.org/resource/Matt_Katz-Bohen', 'http://dbpedia.org/resource/Tommy_Kessler', 'Leigh Foxx'], 'old_members': ['http://dbpedia.org/resource/Frank_Infante', 'http://dbpedia.org/resource/Fred_Smith_(bassist)', 'http://dbpedia.org/resource/Gary_Lachman', 'http://dbpedia.org/resource/Ivan_Král', 'http://dbpedia.org/resource/Jimmy_Destri', 'http://dbpedia.org/resource/Nigel_Harrison', "http://dbpedia.org/resource/The_Billy_O'Connor_Show"], 'related_artists': ['http://dbpedia.org/resource/Chequered_Past'], 'abstract': 'Blondie is an American rock band co-founded by singer Debbie Harry and guitarist Chris Stein. The band was a pioneer in the American new wave scene of the mid-1970s in New York. Their first two albums contained strong elements of these genres, and although highly successful in the United Kingdom and Australia, Blondie was regarded as an underground band in the United States until the release of Parallel Lines in 1978. Over the next five years, the band achieved several hit singles including "Heart of Glass", "Call Me", "Atomic", "The Tide Is High", and “Rapture”. The band became noted for its eclectic mix of musical styles, incorporating elements of disco, pop, reggae, and early rap music. Blondie disbanded after the release of its sixth studio album, The Hunter, in 1982. Debbie Harry continued to pursue a solo career with varied results after taking a few years off to care for partner Chris Stein, who was diagnosed with pemphigus, a rare autoimmune disease of the skin. The band re-formed in 1997, achieving renewed success and a number one single in the United Kingdom with "Maria" in 1999, exactly 20 years after their first UK No. 1 single ("Heart of Glass"). The group toured and performed throughout the world during the following years, and was inducted into the Rock and Roll Hall of Fame in 2006. Blondie has sold around 40 million records worldwide and is still active. The band\'s eleventh studio album, Pollinator, was released on May 5, 2017.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Alpha_Blondy', 'artist_name': 'Alpha Blondy', 'wiki': 'http://en.wikipedia.org/wiki/Alpha_Blondy', 'birth_date': '01 January 1953', 'start_year': '1981', 'labels': ['http://dbpedia.org/resource/EMI', 'http://dbpedia.org/resource/Shanachie_Records', 'http://dbpedia.org/resource/VP_Records', 'http://dbpedia.org/resource/Wagram_Music'], 'genres': ['http://dbpedia.org/resource/Reggae'], 'related_artists': ['http://dbpedia.org/resource/Aston_%22Family_Man%22_Barrett', 'http://dbpedia.org/resource/Bob_Marley_and_the_Wailers', 'http://dbpedia.org/resource/Jaya_Sri'], 'abstract': 'Seydou Koné (French pronunciation: \u200b[sɛdu kɔne]; born January 1, 1953 in Dimbokro), better known by his stage name Alpha Blondy, is an Ivorian reggae singer and international recording artist. Many of his songs are politically and socially motivated, and are mainly sung in his native language Dyula, French and English, though he occasionally uses other languages, for example, Arabic or Hebrew.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Hall_&amp;_Oates', 'artist_name': 'Daryl Hall &amp; John Oates', 'wiki': 'http://en.wikipedia.org/wiki/Hall_&amp;_Oates', 'hometown': 'http://dbpedia.org/resource/Philadelphia', 'start_year': '1970', 'labels': ['http://dbpedia.org/resource/Arista_Records', 'http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/RCA_Records'], 'genres': ['http://dbpedia.org/resource/Blue-eyed_soul', 'http://dbpedia.org/resource/Dance-rock', 'http://dbpedia.org/resource/Disco', 'http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Rhythm_and_blues', 'http://dbpedia.org/resource/Soft_rock', 'http://dbpedia.org/resource/Synth-pop', 'http://dbpedia.org/resource/Yacht_rock', 'synthpop', 'new wave'], 'actual_members': ['http://dbpedia.org/resource/Daryl_Hall', 'http://dbpedia.org/resource/John_Oates'], 'related_artists': ['http://dbpedia.org/resource/Arthur_Baker_(musician)', 'http://dbpedia.org/resource/Bernard_Purdie', 'http://dbpedia.org/resource/Billy_Mann', 'http://dbpedia.org/resource/Bob_Mayo', 'http://dbpedia.org/resource/Bruce_Hornsby', 'http://dbpedia.org/resource/Charles_DeChant', 'http://dbpedia.org/resource/Chuck_Burgi', 'http://dbpedia.org/resource/Daryl_Hall', 'http://dbpedia.org/resource/Dave_Carlock', 'http://dbpedia.org/resource/Doug_Stegmeyer', 'http://dbpedia.org/resource/Eliot_Lewis', 'http://dbpedia.org/resource/G._E._Smith', 'http://dbpedia.org/resource/Hugh_McCracken', 'http://dbpedia.org/resource/Jerry_Marotta', 'http://dbpedia.org/resource/John_Oates', 'http://dbpedia.org/resource/Kasim_Sulton', 'http://dbpedia.org/resource/Kenny_Passarelli', 'http://dbpedia.org/resource/Mac_Gollehon', 'http://dbpedia.org/resource/Mickey_Curry', 'http://dbpedia.org/resource/Pat_Buchanan_(musician)', 'http://dbpedia.org/resource/Paul_Pesco', 'http://dbpedia.org/resource/Richard_Tee__Richard_Tee__1', 'http://dbpedia.org/resource/Sara_Allen', 'http://dbpedia.org/resource/The_Jenkins', 'http://dbpedia.org/resource/Tim_Moore_(singer-songwriter)', 'http://dbpedia.org/resource/Tom_Wolk', 'http://dbpedia.org/resource/Utopia_(band)', 'http://dbpedia.org/resource/Yogi_Horton'], 'abstract': 'Daryl Hall and John Oates are an American pop rock duo formed in Philadelphia in 1970. Daryl Hall is generally the lead vocalist; John Oates primarily plays electric guitar and provides backing vocals. The two write most of the songs they perform, separately or in collaboration. They achieved their greatest fame from the mid-1970s to the late-1980s with a fusion of rock and roll and rhythm and blues. Credited as Daryl Hall &amp; John Oates (or Daryl Hall John Oates) on all of their US releases, the duo reached the US Top 40 with 29 of their 33 singles charting on Billboard\'s Hot 100 between 1974 and 1991. Six of these peaked at number one: "Rich Girl" (1977), "Kiss on My List" (1980), the two 1981 releases "Private Eyes", and "I Can\'t Go for That (No Can Do)" (also a Hot Soul No. 1), "Maneater" (1982) and "Out of Touch" (1984). Their overall 16 US Top Tens also include "She\'s Gone", "Sara Smile", "You Make My Dreams", "Family Man", "Say It Isn\'t So", and "Method of Modern Love". Seven of their albums have been RIAA-certified platinum and six of them gold. In the United Kingdom, they have achieved success with two Top Ten albums and six Top 40 singles, two of which – "I Can\'t Go for That (No Can Do)" and "Maneater" – reached the Top Ten. The duo have spent 120 weeks in the UK Top 75 albums chart and 84 weeks in the UK Top 75 singles chart. While employing a wide variety of session musicians on their recordings, they did have a long working relationship with several musicians who appeared on many of their works and have toured with them. They include guitarist G.E. Smith, bassist Tom "T-Bone" Wolk, and multi-instrumentalist Charles DeChant. In addition, they collaborated with sisters Sara Allen and Janna Allen on songwriting and composing. In 2003, Hall &amp; Oates were inducted into the Songwriters Hall of Fame. In August 2018, in a 60th-anniversary celebration of Billboard\'s Hot 100, the duo ranked 18 in a list of the top Hot 100 artists of all time and six in a list of the Hot 100\'s top duos/groups. They remain the most successful duo of all time, ahead of the Carpenters, the Everly Brothers, and Simon &amp; Garfunkel. In September 2010, VH1 placed the duo at no. 99 in their list of the 100 greatest artists of all time. In April 2014, they were inducted into the Rock and Roll Hall of Fame, and on September 2, 2016, they received a star on the Hollywood Walk of Fame.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Keane_(band)', 'artist_name': 'Keane', 'wiki': 'http://en.wikipedia.org/wiki/Keane_(band)', 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees'], 'genres': ['Alternative rock', 'indie rock', 'neo-psychedelia', 'pop rock', 'post-Britpop', 'soft rock'], 'actual_members': ['http://dbpedia.org/resource/Jesse_Quin', 'http://dbpedia.org/resource/Richard_Hughes_(musician)', 'http://dbpedia.org/resource/Tim_Rice-Oxley', 'http://dbpedia.org/resource/Tom_Chaplin'], 'old_members': ['http://dbpedia.org/resource/Dominic_Scott'], 'related_artists': ['http://dbpedia.org/resource/Barry_Grint', 'http://dbpedia.org/resource/Dominic_Scott', 'http://dbpedia.org/resource/Ian_Shepherd', 'http://dbpedia.org/resource/Jesse_Quin', 'http://dbpedia.org/resource/Jesse_Quin_&amp;_The_Mets', 'http://dbpedia.org/resource/Mike_Crossey', 'http://dbpedia.org/resource/Mt._Desolation__Mt._Desolation__1', 'http://dbpedia.org/resource/Richard_Hughes_(musician)', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Tim_Rice-Oxley', 'http://dbpedia.org/resource/Tom_Chaplin', 'http://dbpedia.org/resource/Zulu_Winter'], 'abstract': 'Keane are an English alternative rock band from Battle, East Sussex, formed in 1995. They met whilst at Tonbridge School together. The band currently comprises Tom Chaplin (lead vocals, electric/acoustic guitar), Tim Rice-Oxley (piano, synthesisers, bass guitar, backing vocals), Richard Hughes (drums, percussion, backing vocals), and Jesse Quin (bass guitar, acoustic/electric guitar, backing vocals). Their original line-up included founder and guitarist Dominic Scott, who left in 2001. Keane achieved mainstream, international success with the release of their debut album Hopes and Fears in 2004. Topping the UK charts, the album won the 2005 Brit Award for Best British Album and was the second best-selling British album of 2004. It is one of the best-selling albums in UK chart history. Their second album, Under the Iron Sea, released in 2006, topped the UK album charts and debuted at number four on the US Billboard 200. Their third album Perfect Symmetry was released in October 2008. In May 2008, both Hopes and Fears (number 13) and Under the Iron Sea (number 8) were voted by readers of Q magazine as among the best British albums ever, with Keane, The Beatles, Oasis and Radiohead the only artists having two albums in the top 20. In 2009, Hopes and Fears was listed as the ninth best-selling album of the 2000s decade in the UK. Their EP Night Train was released in May 2010. Their fourth studio album Strangeland was released in May 2012 and peaked at number one on the UK Albums Chart. Keane are known for using keyboards as the lead instrument instead of guitar, differentiating them from most other rock bands. The inclusion of a distorted piano effect in 2006 and various synthesisers were a common feature in their music which developed on the second and third albums. Keane have sold over 13 million records worldwide. After the release of their compilation album The Best of Keane in 2013, the band took a hiatus, lasting nearly 5 years. The band returned after the hiatus with new music, announcing their fifth studio album titled Cause and Effect on 6 June 2019 and releasing the lead single from the album "The Way I Feel". A collection of the songs were written by Tim Rice-Oxley during his divorce, and after discussions with Tom who had visited Tim the previous year, decided to proceed with recording the songs for the album. Cause and Effect was released on 20 September 2019. After the release of the album, the band embarked on the Cause and Effect Tour, visiting Europe and Latin America, before the remainder of the tour was postponed due to the COVID-19 pandemic.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Kool_Moe_Dee', 'artist_name': 'Kool Moe Dee', 'wiki': 'http://en.wikipedia.org/wiki/Kool_Moe_Dee', 'birth_date': '08 August 1962', 'start_year': '1978', 'aliases': ['Moel Dewes'], 'labels': ['http://dbpedia.org/resource/Bertelsmann_Music_Group', 'http://dbpedia.org/resource/Jive_Records', 'http://dbpedia.org/resource/M.A.R.S'], 'genres': ['http://dbpedia.org/resource/Hip_hop_music'], 'related_artists': ['http://dbpedia.org/resource/Grandmaster_Flash_and_the_Furious_Five', 'http://dbpedia.org/resource/Teddy_Riley', 'http://dbpedia.org/resource/Treacherous_Three'], 'abstract': 'Mohandas Dewese (born August 8, 1962), better known by his stage name Kool Moe Dee, is an American rapper, writer and actor. Considered one of the forerunners of the new jack swing sound in hip hop, he gained fame in the 1980s as a member of one of the pioneering groups in hip hop music, the Treacherous Three, and for his later solo career. During his career he released a total of seven studio albums (five of them solo), with 1994\'s Interlude being the last to date. His fast and aggressive rap style influenced following rap figures such as Big Daddy Kane, Beastie Boys, KRS-One, Rakim, Will Smith, N.W.A, Tupac Shakur, Nas, Jay-Z, among others. Among his most famous songs are "Go See the Doctor", "Wild Wild West" and "How Ya Like Me Now". Kool Moe Dee was ranked No. 33 on About.com\'s list of the 50 Greatest MCs of Our Time (1987–2007).'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Of_Monsters_and_Men', 'artist_name': 'Of Monsters and Men', 'wiki': 'http://en.wikipedia.org/wiki/Of_Monsters_and_Men', 'hometown': 'http://dbpedia.org/resource/Iceland', 'start_year': '2010', 'labels': ['http://dbpedia.org/resource/Republic_Records'], 'genres': ['http://dbpedia.org/resource/Chamber_pop', 'http://dbpedia.org/resource/Folk-pop', 'http://dbpedia.org/resource/Folk_rock', 'http://dbpedia.org/resource/Indie_folk', 'http://dbpedia.org/resource/Indie_rock'], 'actual_members': ['http://dbpedia.org/resource/Brynjar_Leifsson', 'http://dbpedia.org/resource/Nanna_Bryndís_Hilmarsdóttir', 'http://dbpedia.org/resource/Ragnar_Þórhallsson', 'Arnar Rósenkranz Hilmarsson', 'Kristján Páll Kristjánsson'], 'old_members': ['Árni Guðjónsson'], 'related_artists': ['http://dbpedia.org/resource/Brynjar_Leifsson', 'http://dbpedia.org/resource/Jacquire_King', 'http://dbpedia.org/resource/Nanna_Bryndís_Hilmarsdóttir', 'http://dbpedia.org/resource/Ragnar_Þórhallsson', 'http://dbpedia.org/resource/Totemo'], 'abstract': 'Of Monsters and Men is an Icelandic indie folk/rock band formed in Reykjavík in 2010. The members are lead singer and guitarist Nanna Bryndís Hilmarsdóttir, singer and guitarist Ragnar "Raggi" Þórhallsson, lead guitarist Brynjar Leifsson, drummer Arnar Rósenkranz Hilmarsson and bassist Kristján Páll Kristjánsson. The band won the Músíktilraunir in 2010, an annual battle of the bands competition in Iceland. In 2011, Of Monsters and Men released an EP titled Into the Woods. The band\'s 2011 debut album My Head Is an Animal, reached the No.1 position in Australia, Iceland, Ireland and the US Rock and Alternative charts, while peaking at No. 6 on the US Billboard 200 album chart, No. 3 in the UK, and Top 20 of most European charts and Canada. Its lead single "Little Talks" was an international success, reaching the Top 10 in most music charts in Europe, including No. 1 in Ireland and Iceland, and No. 1 on US Alternative Songs. Of Monsters and Men won the 2013 European Border Breakers Awards.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Peter_Schilling', 'artist_name': 'Peter Schilling', 'wiki': 'http://en.wikipedia.org/wiki/Peter_Schilling', 'birth_date': '28 January 1956', 'start_year': '1976', 'labels': ['http://dbpedia.org/resource/DA_Music', 'http://dbpedia.org/resource/Elektra_Records'], 'genres': ['http://dbpedia.org/resource/Neue_Deutsche_Welle', 'http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Synth-pop'], 'related_artists': ['http://dbpedia.org/resource/Anthony_Monn'], 'abstract': 'Peter Schilling (born Pierre Michael Schilling; 28 January 1956) is a German synthpop musician whose songs often feature science-fiction themes like aliens, astronauts and catastrophes. He is best-known for his 1983 hit single "Major Tom (Coming Home)" which was an international success.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Capital_Cities_(band)', 'artist_name': 'Capital Cities', 'wiki': 'http://en.wikipedia.org/wiki/Capital_Cities_(band)', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '2010', 'labels': ['http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/Roc_Nation'], 'genres': ['http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Indie_pop', 'http://dbpedia.org/resource/Indie_rock', 'http://dbpedia.org/resource/Synth-pop', 'indietronica'], 'actual_members': ['http://dbpedia.org/resource/Sebu_Simonian', 'Ryan Merchant'], 'related_artists': ['http://dbpedia.org/resource/Josh_Stevens', 'http://dbpedia.org/resource/Kiwi_Time', 'http://dbpedia.org/resource/Leland_(musician)', 'http://dbpedia.org/resource/Sebu_Simonian', 'http://dbpedia.org/resource/Spencer_Ludwig'], 'abstract': 'Capital Cities is an American pop duo from Los Angeles, California, formed in 2010 by Ryan Merchant (vocals, keyboard, guitar) and Sebu Simonian (vocals, keyboard). Their debut EP was released on June 7, 2011, with lead single "Safe and Sound" which became their first top ten hit single. The band currently consists of Ryan Merchant, Sebu Simonian, Manny Quintero on bass guitar, Spencer Ludwig on trumpet, Nick Merwin on guitar and Channing Holmes on drums. A subsequent single, "Kangaroo Court", was released on March 27, 2012. The band was featured on the Pop Up #1 compilation selected by Perez Hilton that was released on August 7, 2012. The band\'s song "Safe and Sound" charted at #1 on the US Alternative Songs chart. The song was also used in a German Vodafone commercial, in a television commercial in the United States and Canada for the 2014 Mazda 3, and in an Air New Zealand in-flight safety video. The song "Center Stage" was featured on ESPN\'s First Take where they played a short segment of the retro-sounding track before going to commercial breaks. The band\'s debut album, In a Tidal Wave of Mystery, was released June 4, 2013 via Capitol Records in partnership with Lazy Hooks. It was the first release of new material on Capitol with a Universal Music Group catalog number. The album debuted at number sixty-six on the Billboard 200 chart.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/The_Bravery', 'artist_name': 'The Bravery', 'wiki': 'http://en.wikipedia.org/wiki/The_Bravery', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '2003', 'end_year': '2011', 'labels': ['http://dbpedia.org/resource/Island_Records', 'http://dbpedia.org/resource/Universal_Music_Group'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Dance-punk', 'http://dbpedia.org/resource/Indie_rock', 'http://dbpedia.org/resource/Post-punk_revival'], 'actual_members': ['http://dbpedia.org/resource/Mike_Hindert', 'http://dbpedia.org/resource/Sam_Endicott', 'http://dbpedia.org/resource/The_Bravery', 'Anthony Burulcich', 'John Conway'], 'related_artists': ['http://dbpedia.org/resource/Mike_Hindert', 'http://dbpedia.org/resource/Sam_Endicott'], 'abstract': 'The Bravery is an American rock band, formed in New York City in 2003. The band consists of lead vocalist Sam Endicott, guitarist Michael Zakarin, keyboardist John Conway, bassist Mike Hindert and drummer Anthony Burulcich. They are best known for their 2005 top 10 UK single "An Honest Mistake" and their certified gold 2008 single "Believe". Before their initial split, they released three studio albums: The Bravery (2005), The Sun and the Moon (2007) and Stir the Blood (2009). They also released a remixed edition of their second album, called The Sun and the Moon Complete, in 2008, as well as an Internet live album called Live at the Wiltern Theater in 2010. The group\'s music is mostly post-punk, dance-influenced rock. The band were inactive from the early 2010s onward, with Endicott confirming the band\'s indefinite hiatus in April 2014. On July 31st 2021, The Bravery\'s website confirmed the return of the group.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Trix_(Trillizas_de_oro)', 'artist_name': 'Trix', 'wiki': 'http://en.wikipedia.org/wiki/Trix_(Trillizas_de_oro)', 'hometown': 'http://dbpedia.org/resource/Buenos_Aires', 'start_year': '1969', 'aliases': ['Las Chicas de Oro', 'Las Marías', 'Las Tres Marías', 'Las Trillizas', 'Las Trillizas de Oro'], 'labels': ['http://dbpedia.org/resource/Fermata'], 'genres': ['http://dbpedia.org/resource/Disco', 'http://dbpedia.org/resource/Europop', 'http://dbpedia.org/resource/Pop_music'], 'actual_members': ['María Emilia Fernández Roussee', 'María Eugenia Fernández Roussee', 'María Laura Fernández Rousse'], 'abstract': 'Trix (born July 5, 1960 in Floresta, Buenos Aires, Argentina), is the stage name of the triplet sisters María Emilia Fernández Roussee, María Eugenia Fernández Roussee and María Laura Fernández Rousse.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Pato_Banton', 'artist_name': 'Pato Banton', 'wiki': 'http://en.wikipedia.org/wiki/Pato_Banton', 'hometown': 'http://dbpedia.org/resource/Birmingham', 'birth_date': '05 October 1961', 'start_year': '1980', 'labels': ['http://dbpedia.org/resource/Fashion_Records', 'http://dbpedia.org/resource/I.R.S._Records', 'http://dbpedia.org/resource/Mad_Professor'], 'genres': ['http://dbpedia.org/resource/Reggae'], 'related_artists': ['http://dbpedia.org/resource/Beshara_(band)', 'http://dbpedia.org/resource/Private_Domain', 'http://dbpedia.org/resource/Ray_Watts_(singer)', 'http://dbpedia.org/resource/Sotelúm', 'http://dbpedia.org/resource/The_Beat_(British_band)'], 'abstract': 'Pato Banton (born Patrick Murray; 5 October 1961) is a reggae singer and toaster from Birmingham, England. He received the nickname "Pato Banton" from his stepfather; The first name derives from a Jamaican night owl that stays up all night calling "patoo, patoo" and the last name from the disc jockey slang word "Banton" which means heavyweight lyricist or storyteller. In 1994, he achieved a number 1 on the UK Singles Chart with a cover of The Equals\' Baby Come Back featuring Robin and Ali Campbell of UB40.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Maroon_5', 'artist_name': 'Maroon 5', 'wiki': 'http://en.wikipedia.org/wiki/Maroon_5', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '1994', 'aliases': ["Kara's Flowers (1994–2001)"], 'labels': ['http://dbpedia.org/resource/222_Records', 'http://dbpedia.org/resource/A&amp;M_Octone_Records', 'http://dbpedia.org/resource/Interscope_Records', 'http://dbpedia.org/resource/J_Records', 'http://dbpedia.org/resource/Polydor_Records', 'http://dbpedia.org/resource/Reprise_Records', 'http://dbpedia.org/resource/Warner_Records'], 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees'], 'genres': ['http://dbpedia.org/resource/Blue-eyed_soul', 'http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Funk_rock', 'http://dbpedia.org/resource/Neo_soul', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Soft_rock', 'Pop'], 'actual_members': ['http://dbpedia.org/resource/James_Valentine_(musician)', 'http://dbpedia.org/resource/PJ_Morton', 'http://dbpedia.org/resource/Sam_Farrar', 'Matt Flynn', 'Adam Levine', 'Jesse Carmichael'], 'old_members': ['http://dbpedia.org/resource/Mickey_Madden', 'Ryan Dusick'], 'related_artists': ['http://dbpedia.org/resource/Adrian_Young__Adrian_Young__1', 'http://dbpedia.org/resource/Ammar_Malik', 'http://dbpedia.org/resource/Andre_Lindal', 'http://dbpedia.org/resource/Benny_Blanco', 'http://dbpedia.org/resource/Brian_West_(musician)', 'http://dbpedia.org/resource/Carlos_Sosa_(musician)', 'http://dbpedia.org/resource/Dave_Haywood', 'http://dbpedia.org/resource/Elliot_James_Mulhern', 'http://dbpedia.org/resource/Eric_Rosse', 'http://dbpedia.org/resource/Gian_Stone', 'http://dbpedia.org/resource/Grooveline_Horns', 'http://dbpedia.org/resource/James_Valentine_(musician)', 'http://dbpedia.org/resource/Jason_Evigan', 'http://dbpedia.org/resource/King_Henry_(producer)', 'http://dbpedia.org/resource/LunchMoney_Lewis', 'http://dbpedia.org/resource/Michael_Pollack_(musician)', 'http://dbpedia.org/resource/Mickey_Madden', 'http://dbpedia.org/resource/Mike_Elizondo', 'http://dbpedia.org/resource/Nate_Walcott', 'http://dbpedia.org/resource/Noah_Rubin_(music_executive)', 'http://dbpedia.org/resource/Randy_Merrill', 'http://dbpedia.org/resource/Robert_John_%22Mutt%22_Lange', 'http://dbpedia.org/resource/Robopop', 'http://dbpedia.org/resource/Ross_Golan', 'http://dbpedia.org/resource/Rozzi_Crane', 'http://dbpedia.org/resource/Ryan_Riback', 'http://dbpedia.org/resource/Sam_Farrar', 'http://dbpedia.org/resource/Sam_Martin_(singer)', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Square_(band)', 'http://dbpedia.org/resource/Starrah', 'http://dbpedia.org/resource/TMS_(production_team)', 'http://dbpedia.org/resource/Teddy_Geiger'], 'abstract': 'Maroon 5 is an American pop rock band from Los Angeles, California. It currently consists of lead vocalist Adam Levine, keyboardist and rhythm guitarist Jesse Carmichael, lead guitarist James Valentine, drummer Matt Flynn, keyboardist PJ Morton and multi-instrumentalist and occasional bassist Sam Farrar. Original members Levine, Carmichael, bassist Mickey Madden, and drummer Ryan Dusick first came together as Kara\'s Flowers in 1994, while they were still in high school. After self-releasing their independent album We Like Digging?, the band signed to Reprise Records and released the album The Fourth World in 1997. The album garnered a tepid response, after which the record label dropped the band and the members focused on college. In 2001, the band re-emerged as Maroon 5, pursuing a different direction and adding guitarist Valentine. The band signed with Octone Records, an independent record label with a separate joint venture relationship with J Records and released their debut album Songs About Jane in June 2002. Aided by the singles "Harder to Breathe", "This Love" and "She Will Be Loved", the album peaked at number six on the Billboard 200 chart and went quadruple platinum in 2005. In the same year, the band won the Grammy Award for Best New Artist. In 2006, Dusick left the band after suffering from serious wrist and shoulder injuries and was replaced by Matt Flynn. The band\'s second album It Won\'t Be Soon Before Long was released in May 2007. It debuted at number one on the US Billboard 200 chart and the lead single "Makes Me Wonder", became the band\'s first number-one single on the Billboard Hot 100. In 2010, the band released the third album Hands All Over, to favorable reviews, re-releasing a year later to include the single "Moves like Jagger", which topped the Billboard Hot 100. In 2012, Carmichael left the group and was replaced by musician PJ Morton, as the band released the fourth album Overexposed, with the song "One More Night", topping the Billboard Hot 100 chart for nine consecutive weeks. In 2014, Carmichael rejoined the band alongside Morton to record the fifth album V (roman numeral pronounced "five"), with the band signed to Interscope Records and Levine\'s own label 222 Records. Following the release of V, it reached number one on the Billboard 200. In 2016, Maroon 5 recruited their long-time collaborator Sam Farrar, as the band continued for the sixth studio album Red Pill Blues, which was released in November 2017. With the addition of Morton and Farrar, the band\'s lineup increased to seven members. The successful singles of both albums "Sugar" and "Girls Like You" peaked at numbers two and one on the Hot 100 chart respectively. The band\'s seventh album, Jordi, was released in June 2021. Maroon 5 has sold more than 135 million records, making them one of the world\'s best-selling music artists.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Cage_the_Elephant', 'artist_name': 'Cage the Elephant', 'wiki': 'http://en.wikipedia.org/wiki/Cage_the_Elephant', 'hometown': 'http://dbpedia.org/resource/Bowling_Green,_Kentucky', 'start_year': '2006', 'labels': ['http://dbpedia.org/resource/Jive_Records', 'http://dbpedia.org/resource/RCA_Records', 'http://dbpedia.org/resource/RED_Ink_Records', 'http://dbpedia.org/resource/Relentless_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Garage_rock', 'http://dbpedia.org/resource/Indie_rock', 'http://dbpedia.org/resource/Psychedelic_rock', 'http://dbpedia.org/resource/Punk_blues'], 'actual_members': ['http://dbpedia.org/resource/Brad_Shultz', 'http://dbpedia.org/resource/Daniel_Tichenor', 'http://dbpedia.org/resource/Jared_Champion', 'http://dbpedia.org/resource/Matt_Shultz', 'Matthan Minster', 'Nick Bockrath'], 'old_members': ['Lincoln Parish'], 'related_artists': ['http://dbpedia.org/resource/Alison_Mosshart', 'http://dbpedia.org/resource/Beck', 'http://dbpedia.org/resource/Brad_Shultz', 'http://dbpedia.org/resource/Dan_Auerbach', 'http://dbpedia.org/resource/Dave_Grohl', 'http://dbpedia.org/resource/Foo_Fighters', 'http://dbpedia.org/resource/Grouplove', 'http://dbpedia.org/resource/Iggy_Pop', 'http://dbpedia.org/resource/Jared_Champion', 'http://dbpedia.org/resource/Jay_Joyce', 'http://dbpedia.org/resource/Juliette_Lewis', 'http://dbpedia.org/resource/Matt_Shultz', 'http://dbpedia.org/resource/Morning_Teleportation', 'http://dbpedia.org/resource/Portugal._The_Man', 'http://dbpedia.org/resource/Queens_of_the_Stone_Age', 'http://dbpedia.org/resource/Randy_Merrill', 'http://dbpedia.org/resource/Rob_Cohen_(record_producer)', 'http://dbpedia.org/resource/Sleeper_Agent_(band)', 'http://dbpedia.org/resource/The_Black_Keys', 'http://dbpedia.org/resource/The_Stone_Foxes', "http://dbpedia.org/resource/Whiskey_N'_Rye"], 'abstract': "Cage the Elephant is an American rock band formed in 2006 in Bowling Green, Kentucky. They relocated to England and settled in London in 2008, shortly before their self-titled first album was released. The band currently consists of Matt Shultz (vocals), his older brother Brad Shultz (rhythm guitar), Nick Bockrath (lead guitar), Matthan Minster (guitar, keyboards), Daniel Tichenor (bass), and Jared Champion (drums). The band's first album was released to much success, spawning several successful radio singles and gained the band a large following in both the United States and the United Kingdom. It was influenced by classic rock, '90s alternative, blues, punk rock and funk music. Lincoln Parish served as the band's lead guitarist from their formation in 2006 until 2013, when he left on good terms to pursue a career in producing. The band's second album, Thank You, Happy Birthday, was released in 2011 and was heavily influenced by punk rock as well as bands such as Pixies and Nirvana. The band's third album, Melophobia, was released in 2013 as the band's concerted effort to find its own distinct musical identity. The band's fourth album, Tell Me I'm Pretty, was produced by Dan Auerbach and released in 2015. The band released a live album, Unpeeled, in 2017. Their fifth studio album, Social Cues, was released in 2019. They won the Grammy Award for Best Rock Album twice, in 2017 for Tell Me I'm Pretty and in 2020 for Social Cues."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Supertramp', 'artist_name': 'Supertramp', 'wiki': 'http://en.wikipedia.org/wiki/Supertramp', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '2015', 'end_year': '2015', 'labels': ['http://dbpedia.org/resource/A&amp;M_Records', 'http://dbpedia.org/resource/Chrysalis_Records', 'http://dbpedia.org/resource/EMI_Records'], 'plays_in': ['http://dbpedia.org/resource/Return_of_the_Ewok'], 'old_members': ['http://dbpedia.org/resource/Bob_Siebenberg', 'http://dbpedia.org/resource/Carl_Verheyen', 'http://dbpedia.org/resource/Cliff_Hugo', 'http://dbpedia.org/resource/Dougie_Thomson', 'http://dbpedia.org/resource/Frank_Farrell_(musician)', 'http://dbpedia.org/resource/John_Helliwell', 'http://dbpedia.org/resource/Mark_Hart', 'http://dbpedia.org/resource/Richard_Palmer-James', 'http://dbpedia.org/resource/Rick_Davies', 'http://dbpedia.org/resource/Roger_Hodgson', 'Tom Walsh', 'Richard Palmer', 'Dave Winthrop\t', 'Kevin Currie\t', '*', 'Jesse Siebenberg', 'Lee Thornburg', 'Keith Baker', 'Robert Millar'], 'related_artists': ['http://dbpedia.org/resource/Bob_Siebenberg', 'http://dbpedia.org/resource/Carl_Verheyen', 'http://dbpedia.org/resource/Chuck_Kaye', 'http://dbpedia.org/resource/Cliff_Hugo', 'http://dbpedia.org/resource/Dougie_Thomson', 'http://dbpedia.org/resource/Frank_Farrell_(musician)', 'http://dbpedia.org/resource/Fred_Mandel', 'http://dbpedia.org/resource/John_Helliwell', 'http://dbpedia.org/resource/Mark_Hart', 'http://dbpedia.org/resource/Mike_Gormley', 'http://dbpedia.org/resource/Rick_Davies', 'http://dbpedia.org/resource/Roger_Hodgson', 'http://dbpedia.org/resource/Scott_Gorham', 'http://dbpedia.org/resource/Scott_Page', 'http://dbpedia.org/resource/Sonic_Elements', 'http://dbpedia.org/resource/The_Alan_Bown_Set'], 'abstract': 'Supertramp were an English rock band formed in London, England in mid 1969. Marked by the individual songwriting of founders Roger Hodgson (vocals, keyboards, and guitars) and Rick Davies (vocals and keyboards), they are distinguished for blending progressive rock and pop styles as well as for a sound that relied heavily on Wurlitzer electric piano. The group\'s line-up changed numerous times throughout their career, with Davies being the only consistent member throughout the decades. Other longtime members included bassist Dougie Thomson, drummer Bob Siebenberg, and saxophonist John Helliwell. The band were initially a prog-rock group, but starting with their third album, Crime of the Century (1974), they began moving towards a more pop-oriented sound. They reached their commercial peak with 1979\'s Breakfast in America, which yielded the international top 10 singles "The Logical Song", "Breakfast in America", "Goodbye Stranger", and "Take the Long Way Home". Their other top 40 hits included "Dreamer" (1974), "Give a Little Bit", (1977) and "It\'s Raining Again" (1982). In 1983, Hodgson left the group to pursue a solo career. Davies took over as the band\'s sole leader until 1988, after which they disbanded and periodically reformed in various configurations. As of 2007, Supertramp album sales exceeded 60 million. They attained significant popularity in North America, Europe, South Africa, and Australia. Their highest sales levels were in Canada, where they had two diamond-certified (ten-times platinum) albums (Crime of the Century and Breakfast in America), and their only number 1 singles anywhere ("The Logical Song" and "Dreamer").'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Dr._Alban', 'artist_name': 'Dr. Alban', 'wiki': 'http://en.wikipedia.org/wiki/Dr._Alban', 'hometown': 'http://dbpedia.org/resource/Stockholm', 'birth_date': '26 August 1957', 'start_year': '1980', 'labels': ['http://dbpedia.org/resource/Ariola', 'http://dbpedia.org/resource/Dr._Records'], 'genres': ['http://dbpedia.org/resource/Dancehall', 'http://dbpedia.org/resource/Eurodance', 'http://dbpedia.org/resource/Hip_hop_music', 'http://dbpedia.org/resource/Reggae'], 'related_artists': ['http://dbpedia.org/resource/Charly_Boy', 'http://dbpedia.org/resource/David_Longoria', 'http://dbpedia.org/resource/Dekumzy', 'http://dbpedia.org/resource/Denniz_Pop', 'http://dbpedia.org/resource/Haddaway', 'http://dbpedia.org/resource/Jose_Chameleone', 'http://dbpedia.org/resource/Kikki_Danielsson', 'http://dbpedia.org/resource/Leila_K', 'http://dbpedia.org/resource/Melissa_(singer)', 'http://dbpedia.org/resource/Sash!', 'http://dbpedia.org/resource/Swingfly'], 'abstract': 'Alban Uzoma Nwapa (born 26 August 1957), better known by his stage name Dr. Alban, is a Nigerian-Swedish recording artist and producer with his own record label, Dr. Records. His music can best be described as Eurodance/hip-hop reggae in a dancehall style. He has sold an estimated 16 million records worldwide and is most famous for his worldwide 1992 hit "It\'s My Life", from the album One Love.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Jack_Harlow', 'artist_name': 'Jack Harlow', 'wiki': 'http://en.wikipedia.org/wiki/Jack_Harlow', 'birth_date': '13 March 1998', 'start_year': '2011', 'labels': ['http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/DJ_Drama'], 'genres': ['http://dbpedia.org/resource/Hip_hop_music'], 'related_artists': ['http://dbpedia.org/resource/Audrey_Nuna', 'http://dbpedia.org/resource/Bryson_Tiller', 'http://dbpedia.org/resource/DJ_Drama', 'http://dbpedia.org/resource/DJ_Drama__DJ_Drama__1', 'http://dbpedia.org/resource/Don_Cannon', 'http://dbpedia.org/resource/JetsonMade'], 'abstract': 'Jackman Thomas Harlow (born March 13, 1998) is an American rapper and songwriter. He is signed to Don Cannon and DJ Drama\'s record label Generation Now, an imprint of Atlantic Records. He is also the co-founder of his own musical collective, Private Garden. His first major breakthrough came with the release of his 2020 single "Whats Poppin", which peaked at number two on the US Billboard Hot 100. His first studio album, Thats What They All Say, was released on December 11, 2020, and debuted at number 5 on the US Billboard 200. In 2021, he was a guest on Lil Nas X’s "Industry Baby". It reached #1 on the Hot 100, becoming Harlow’s highest charting song overall and his first chart topper.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/David_Lee_Roth', 'artist_name': 'David Lee Roth', 'wiki': 'http://en.wikipedia.org/wiki/David_Lee_Roth', 'birth_date': '10 October 1954', 'start_year': '1972', 'end_year': '2022', 'aliases': ['Diamond Dave'], 'labels': ['http://dbpedia.org/resource/CMH_Records', 'http://dbpedia.org/resource/Interscope_Records', 'http://dbpedia.org/resource/Magna_Carta_Records', 'http://dbpedia.org/resource/Warner_Records'], 'genres': ['http://dbpedia.org/resource/Glam_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music', 'http://dbpedia.org/resource/Pop_rock', 'heavy metal'], 'related_artists': ['http://dbpedia.org/resource/Billy_Sheehan', 'http://dbpedia.org/resource/Brett_Tuggle', 'http://dbpedia.org/resource/Craig_Goldy', 'http://dbpedia.org/resource/Dave_Amato', 'http://dbpedia.org/resource/Edgar_Winter', 'http://dbpedia.org/resource/Gregg_Bissonette', 'http://dbpedia.org/resource/James_LoMenzo', 'http://dbpedia.org/resource/Jason_Becker', 'http://dbpedia.org/resource/Jeff_Bova', 'http://dbpedia.org/resource/Jesse_Harms', 'http://dbpedia.org/resource/Joe_Holmes', 'http://dbpedia.org/resource/John_5_(guitarist)', 'http://dbpedia.org/resource/Loser_(band)', 'http://dbpedia.org/resource/Mr._Big_(American_band)', 'http://dbpedia.org/resource/Pat_Torpey', 'http://dbpedia.org/resource/Ray_Luzier', 'http://dbpedia.org/resource/Steve_Hunter', 'http://dbpedia.org/resource/Steve_Vai', 'http://dbpedia.org/resource/The_David_Lee_Roth_Band', 'http://dbpedia.org/resource/The_Outpatience__The_Outpatience__1', 'http://dbpedia.org/resource/Todd_Jensen', 'http://dbpedia.org/resource/Van_Halen'], 'abstract': "David Lee Roth (born October 10, 1954) is an American rock musician, singer, songwriter and former radio personality. Best known for his wild, energetic stage persona, he was the lead singer of the hard rock band Van Halen across three stints, from 1974 to 1985, in 1996 and again from 2006 to their disbandment in 2020. He was also known as a successful solo artist, releasing numerous RIAA-certified Gold and Platinum albums. After more than two decades apart, Roth re-joined Van Halen in 2006 for a North American tour that became the highest-grossing in the band's history and one of the highest-grossing of that year. In 2012, Roth and Van Halen released the comeback album A Different Kind of Truth. In 2007, he was inducted into the Rock and Roll Hall of Fame as a member of Van Halen."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Whitesnake', 'artist_name': 'Whitesnake', 'wiki': 'http://en.wikipedia.org/wiki/Whitesnake', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1978', 'end_year': '1990', 'genres': ['http://dbpedia.org/resource/Blues_rock', 'http://dbpedia.org/resource/Glam_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music', 'heavy metal'], 'actual_members': ['http://dbpedia.org/resource/David_Coverdale', 'http://dbpedia.org/resource/Dino_Jelusick', 'http://dbpedia.org/resource/Joel_Hoekstra', 'http://dbpedia.org/resource/Michele_Luppi', 'http://dbpedia.org/resource/Reb_Beach', 'http://dbpedia.org/resource/Tommy_Aldridge', "Tanya O'Callaghan"], 'old_members': ['http://dbpedia.org/resource/List_of_Whitesnake_members'], 'related_artists': ['http://dbpedia.org/resource/Adrian_Vandenberg', 'http://dbpedia.org/resource/Aynsley_Dunbar__Aynsley_Dunbar__1', 'http://dbpedia.org/resource/Bernie_Marsden', 'http://dbpedia.org/resource/Black_Sabbath', 'http://dbpedia.org/resource/Blue_Murder_(band)', 'http://dbpedia.org/resource/Bow_Wow_(band)', 'http://dbpedia.org/resource/Brian_Tichy', 'http://dbpedia.org/resource/Burning_Rain', 'http://dbpedia.org/resource/Chris_Frazier', 'http://dbpedia.org/resource/Colin_Hodgkinson', 'http://dbpedia.org/resource/Coverdale–Page', 'http://dbpedia.org/resource/Cozy_Powell', 'http://dbpedia.org/resource/David_Coverdale', 'http://dbpedia.org/resource/Deep_Purple', 'http://dbpedia.org/resource/Derek_Sherinian', 'http://dbpedia.org/resource/Devil_City_Angels', 'http://dbpedia.org/resource/Dino_Jelusick', 'http://dbpedia.org/resource/Dio_(band)', 'http://dbpedia.org/resource/Don_Airey', 'http://dbpedia.org/resource/Doug_Aldrich', 'http://dbpedia.org/resource/House_of_Lords_(band)', 'http://dbpedia.org/resource/Ian_Paice', 'http://dbpedia.org/resource/Joel_Hoekstra', 'http://dbpedia.org/resource/Jon_Lord', 'http://dbpedia.org/resource/Keith_Olsen', 'http://dbpedia.org/resource/Lion_(band)__Lion__1', 'http://dbpedia.org/resource/Manic_Eden', 'http://dbpedia.org/resource/Marco_Mendoza__Marco_Mendoza__1', 'http://dbpedia.org/resource/Mel_Galley', 'http://dbpedia.org/resource/Michele_Luppi', 'http://dbpedia.org/resource/Micky_Moody', 'http://dbpedia.org/resource/Mike_Clink', 'http://dbpedia.org/resource/Neil_Murray_(British_musician)', 'http://dbpedia.org/resource/Night_Ranger', 'http://dbpedia.org/resource/Paice_Ashton_Lord', 'http://dbpedia.org/resource/Ratt', 'http://dbpedia.org/resource/Reb_Beach', 'http://dbpedia.org/resource/Rudy_Sarzo', 'http://dbpedia.org/resource/Runner_(band)', 'http://dbpedia.org/resource/Steve_Vai', 'http://dbpedia.org/resource/Sweet_Savage', 'http://dbpedia.org/resource/Tangier_(band)', 'http://dbpedia.org/resource/The_Company_of_Snakes', 'http://dbpedia.org/resource/The_Dead_Daisies', 'http://dbpedia.org/resource/The_Snakes', 'http://dbpedia.org/resource/Timothy_Drury', 'http://dbpedia.org/resource/Tommy_Aldridge', 'http://dbpedia.org/resource/Tony_Franklin_(musician)', 'http://dbpedia.org/resource/Trapeze_(band)', 'http://dbpedia.org/resource/Tygers_of_Pan_Tang', 'http://dbpedia.org/resource/Vandenberg_(band)', 'http://dbpedia.org/resource/Vivian_Campbell', 'http://dbpedia.org/resource/Warren_DeMartini', 'http://dbpedia.org/resource/Winger_(band)'], 'abstract': 'Whitesnake are a hard rock band formed in London in 1978. The group was originally put together as the backing band for singer David Coverdale, who had recently left Deep Purple. Though the band quickly developed into their own entity, Coverdale is the only constant member throughout their history. Whitesnake enjoyed much success in the UK, Europe and Japan through their early years. Their albums Ready an\' Willing, Come an\' Get It and Saints &amp; Sinners all reached the top ten on the UK Albums Chart. By the mid-1980s, however, Coverdale had set his sights on breaking through in North America, where Whitesnake remained largely unknown. With the backing of American label Geffen Records, Whitesnake released their eponymous album in 1987, which became their biggest success to date, selling over eight million copies in the US and spawning the hit singles "Here I Go Again" and "Is This Love". Whitesnake also adopted a more contemporary look, akin to the Los Angeles glam metal scene. After releasing Slip of the Tongue in 1989, Coverdale decided to put Whitesnake on hold to take a break from the music industry. Aside from a few short-lived reunions in the 1990s, Whitesnake remained mostly inactive until 2003, when Coverdale put together a new line-up to celebrate the band\'s 25th anniversary. Since then Whitesnake have released four more studio albums and toured extensively around the world. Whitesnake\'s early sound has been characterized by critics as blues rock, but by the mid-1980s the band slowly began moving toward a more commercially accessible hard rock style. Topics such as love and sex are common in Whitesnake\'s lyrics, which have been criticized for their excessive use of sexual innuendos and double entendres. Whitesnake have been nominated for several awards during their career, including Best British Group at the 1988 Brit Awards. They have also been featured on lists of the greatest hard rock bands of all time by several media outlets, while their songs and albums have appeared on many "best of" lists by outlets, such as VH1 and Rolling Stone.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Alice_Cooper', 'artist_name': 'Alice Cooper', 'wiki': 'http://en.wikipedia.org/wiki/Alice_Cooper', 'birth_date': '04 February 1948', 'start_year': '1964', 'plays_in': ['http://dbpedia.org/resource/Alice_Cooper_a_Paris', "http://dbpedia.org/resource/In_Tuned_Out_-_Live_'93", 'http://dbpedia.org/resource/Welcome_to_Our_Nightmare:_A_Tribute_to_Alice_Cooper'], 'related_artists': ['http://dbpedia.org/resource/Al_Pitrelli', 'http://dbpedia.org/resource/Alice_Cooper_(band)', 'http://dbpedia.org/resource/Alice_Cooper_(band)__The_Spiders__1', 'http://dbpedia.org/resource/Allan_Schwartzberg', 'http://dbpedia.org/resource/Bernie_Taupin', 'http://dbpedia.org/resource/Black_Star_Riders', 'http://dbpedia.org/resource/Blue_Öyster_Cult', 'http://dbpedia.org/resource/Bob_Ezrin', 'http://dbpedia.org/resource/Bob_Kulick', 'http://dbpedia.org/resource/Brent_Fitz', 'http://dbpedia.org/resource/Dave_Collins_(audio_engineer)', 'http://dbpedia.org/resource/Davey_Johnstone', 'http://dbpedia.org/resource/Davey_Suicide', 'http://dbpedia.org/resource/Dee_Murray', 'http://dbpedia.org/resource/Derek_Sherinian', 'http://dbpedia.org/resource/Desmond_Child', 'http://dbpedia.org/resource/Dick_Wagner', 'http://dbpedia.org/resource/Eric_Dover', 'http://dbpedia.org/resource/Erik_Scott', 'http://dbpedia.org/resource/Fred_Mandel', 'http://dbpedia.org/resource/Gentlemen_Afterdark', 'http://dbpedia.org/resource/Greg_Smith_(American_musician)__Greg_Smith__1', 'http://dbpedia.org/resource/Guy_Mann-Dude', 'http://dbpedia.org/resource/Hugh_McDonald_(American_musician)', 'http://dbpedia.org/resource/Jan_Uvena', 'http://dbpedia.org/resource/Jason_Hook', 'http://dbpedia.org/resource/Jim_Gordon_(musician)', 'http://dbpedia.org/resource/Jimmy_DeGrasso', 'http://dbpedia.org/resource/Joe_Satriani', 'http://dbpedia.org/resource/Jonathan_Mover', 'http://dbpedia.org/resource/Kane_Roberts', 'http://dbpedia.org/resource/Ken_Caillat', 'http://dbpedia.org/resource/Ken_Mary', 'http://dbpedia.org/resource/Keri_Kelli', 'http://dbpedia.org/resource/Kip_Winger', 'http://dbpedia.org/resource/Larry_Mullen_Jr.', 'http://dbpedia.org/resource/Love/Hate_(band)', "http://dbpedia.org/resource/Mama's_Boys", 'http://dbpedia.org/resource/Mark_Stein_(musician)', 'http://dbpedia.org/resource/Matt_Laug', 'http://dbpedia.org/resource/Michael_Bruce_(musician)', 'http://dbpedia.org/resource/Mickey_Curry', 'http://dbpedia.org/resource/Mike_Pinera', 'http://dbpedia.org/resource/Million_Dollar_Reload', 'http://dbpedia.org/resource/Neal_Smith_(drummer)', 'http://dbpedia.org/resource/Nick_Didkovsky', 'http://dbpedia.org/resource/Orianthi', 'http://dbpedia.org/resource/Parker_Gispert', 'http://dbpedia.org/resource/Paul_Taylor_(keyboardist)', 'http://dbpedia.org/resource/Pentti_Glan', 'http://dbpedia.org/resource/Pete_Friesen', 'http://dbpedia.org/resource/Piggy_D.', 'http://dbpedia.org/resource/Reb_Beach', 'http://dbpedia.org/resource/Rick_Boston', 'http://dbpedia.org/resource/Rob_Zombie', 'http://dbpedia.org/resource/Roy_Thomas_Baker', 'http://dbpedia.org/resource/Ryan_Roxie', 'http://dbpedia.org/resource/Saints_of_the_Underground', "http://dbpedia.org/resource/Slash's_Snakepit", 'http://dbpedia.org/resource/Steve_Hunter', 'http://dbpedia.org/resource/Stu_Daye', 'http://dbpedia.org/resource/The_Almighty_(band)', 'http://dbpedia.org/resource/Tommy_Clufetos', 'http://dbpedia.org/resource/Tommy_Henriksen', 'http://dbpedia.org/resource/Vinnie_Moore', 'http://dbpedia.org/resource/White_Lion', 'http://dbpedia.org/resource/Whitey_Kirst', 'http://dbpedia.org/resource/Winger_(band)'], 'abstract': 'Alice Cooper (born Vincent Damon Furnier, February 4, 1948) is an American singer, songwriter, and actor whose career spans over 50 years. With a raspy voice and a stage show that features numerous props and stage illusions, including pyrotechnics, guillotines, electric chairs, fake blood, reptiles, baby dolls, and dueling swords, Cooper is considered by music journalists and peers to be "The Godfather of Shock Rock". He has drawn equally from horror films, vaudeville, and garage rock to pioneer a macabre and theatrical brand of rock designed to shock audiences. Originating in Phoenix, Arizona, in 1964, "Alice Cooper" was originally a band with roots extending back to a band called The Earwigs 1964, consisting of Furnier on vocals and harmonica, Glen Buxton on lead guitar, and Dennis Dunaway on bass guitar and background vocals. By 1966, Michael Bruce on rhythm guitar joined the three and Neal Smith was added on drums in 1967. The five named the band \'Alice Cooper\' and released their debut album in 1969 with limited chart success. The band reached their commercial peak in 1973 with their sixth studio album, Billion Dollar Babies. They broke up in 1975 and Furnier adopted the band\'s name as both his legal name and his stage name, beginning his solo career with the 1975 concept album Welcome to My Nightmare. Cooper has experimented with a number of musical styles, including art rock, hard rock, heavy metal, new wave, glam metal, and industrial rock. He helped to shape the sound and look of heavy metal, and has been described as the artist who "first introduced horror imagery to rock and roll, and whose stagecraft and showmanship have permanently transformed the genre". He is also known for his wit offstage, with The Rolling Stone Album Guide calling him the world\'s most "beloved heavy metal entertainer". Away from music, Cooper is a film actor, a golfing celebrity, a restaurateur, and, since 2004, a radio DJ with his classic rock show Nights with Alice Cooper.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/DJ_Ötzi', 'artist_name': 'DJ Ötzi', 'wiki': 'http://en.wikipedia.org/wiki/DJ_Ötzi', 'birth_date': '07 January 1971', 'start_year': '1999', 'aliases': ['"DJ Ötzi Junior"'], 'labels': ['http://dbpedia.org/resource/EMI'], 'genres': ['http://dbpedia.org/resource/Eurodance', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Schlager_music'], 'related_artists': ['http://dbpedia.org/resource/Captain_Jack_(group)'], 'abstract': 'Gerhard "Gerry" Friedle (born 7 January 1971), better known by his stage name DJ Ötzi (pronounced [ˈdiːdʒɛɪ ˈœtsiː]), is an Austrian pop and Schlager singer. Successful mainly in German-speaking countries, he is best known in the English-speaking world for his 2000 single "Hey Baby (Uhh, Ahh)", a cover version of the Bruce Channel song "Hey! Baby". His stage name comes from Ötzi the Iceman, the name given to the 5,300-year-old frozen remains of a mummified man discovered in 1991 in South Tyrol\'s Ötztal Alps.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Natalie_Imbruglia', 'artist_name': 'Natalie Imbruglia', 'wiki': 'http://en.wikipedia.org/wiki/Natalie_Imbruglia', 'birth_date': '04 February 1975', 'start_year': '1992', 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees', 'http://dbpedia.org/resource/Mr._Deeds'], 'related_artists': ['http://dbpedia.org/resource/Anne_Preven', 'http://dbpedia.org/resource/Gary_Clark_(musician)', 'http://dbpedia.org/resource/Headswim', 'http://dbpedia.org/resource/Jamie_Hartman', 'http://dbpedia.org/resource/KK_(composer,_producer)', 'http://dbpedia.org/resource/Mark_Howard_(producer)', 'http://dbpedia.org/resource/Neil_Taylor_(guitarist)'], 'abstract': 'Natalie Jane Imbruglia (/ɪmˈbruːliə/ im-BROO-lee-ə, Italian: [imˈbruʎʎa]; born 4 February 1975) is an Australian-British singer-songwriter and actress. In the early 1990s, she played Beth Brennan in the Australian soap opera Neighbours. Three years after leaving the program, she began a singing career with her chart-topping cover of Ednaswap\'s song "Torn". Her subsequent album, Left of the Middle (1997), sold 7 million copies worldwide. Imbruglia\'s five subsequent albums have combined sales of 3 million copies worldwide, and her accolades include eight ARIA Awards, two Brit Awards, one Billboard Music Award, and three Grammy nominations. Imbruglia has appeared in several films, including the 2003 release Johnny English and the 2009 Australian indie film Closed for Winter. She has modelled for several brands, such as L\'Oreal, Gap, and Kailis. Amongst other philanthropic work, Imbruglia served as a longtime spokesperson for Virgin Unite and campaigns to raise awareness of obstetric fistula. On 16 June 2021, Imbruglia announced on her official Twitter page that her single "Build It Better" would be released on 18 June 2021. It serves as the first single from her sixth studio album Firebird, which was released on 24 September 2021. This album represents a return to music after a six year hiatus during which she says she experienced "writer\'s block."'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Captain_Jack_(group)', 'artist_name': 'Captain Jack', 'wiki': 'http://en.wikipedia.org/wiki/Captain_Jack_(group)', 'hometown': 'http://dbpedia.org/resource/Darmstadt', 'start_year': '1995', 'end_year': '2005', 'genres': ['http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Eurodance'], 'actual_members': ['Bruce Lacy', 'Michelle Stanley'], 'old_members': ['http://dbpedia.org/resource/Captain_Jack_(group)', 'http://dbpedia.org/resource/Franky_Gee', 'http://dbpedia.org/resource/Maloy_Lozanes', 'Liza da Costa', 'Laura Martin', 'Jamie Lee', 'Illi Love', 'Sharky Durban'], 'related_artists': ['http://dbpedia.org/resource/DJ_Ötzi', 'http://dbpedia.org/resource/Franky_Gee', 'http://dbpedia.org/resource/Maloy_Lozanes'], 'abstract': 'Captain Jack is a German Eurodance project formed in Darmstadt, Germany in 1995. The project is best known for the single "Captain Jack", which reached the Top-10 in many countries in Europe.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Bryson_Tiller', 'artist_name': 'Bryson Tiller', 'wiki': 'http://en.wikipedia.org/wiki/Bryson_Tiller', 'birth_date': '02 January 1993', 'start_year': '2011', 'aliases': ['Pen Griffey'], 'labels': ['http://dbpedia.org/resource/RCA_Records'], 'genres': ['http://dbpedia.org/resource/Contemporary_R&amp;B', 'http://dbpedia.org/resource/Hip_hop_music', 'http://dbpedia.org/resource/Soul_music'], 'related_artists': ['http://dbpedia.org/resource/Aaron_Bow', 'http://dbpedia.org/resource/DJ_Khaled', 'http://dbpedia.org/resource/FrancisGotHeat', 'http://dbpedia.org/resource/H.E.R.', 'http://dbpedia.org/resource/J-Louis', 'http://dbpedia.org/resource/Jack_Harlow', 'http://dbpedia.org/resource/Keyz_(producer)', 'http://dbpedia.org/resource/Marteen', 'http://dbpedia.org/resource/Saint_Cassius_(musician)', 'http://dbpedia.org/resource/Sy_Ari_da_Kid', 'http://dbpedia.org/resource/THEY.', 'http://dbpedia.org/resource/Teddy_Walton', 'http://dbpedia.org/resource/Thaddeus_Dixon', 'http://dbpedia.org/resource/Vory', 'http://dbpedia.org/resource/Young_Scrap'], 'abstract': 'Bryson Djuan Tiller (born January 2, 1993) is an American singer and rapper. Born in Louisville, Kentucky, he began his career in 2011 with a mixtape entitled Killer Instinct Vol. 1. Tiller initially gained mainstream success in 2015 following the release of the single, "Don\'t", which reached the top 20 on the Billboard Hot 100. The record\'s success led to a deal with RCA Records and served as the lead single to his debut studio album, Trapsoul (2015), which reached the top ten on the Billboard 200, and included the single "Exchange", which earned him a Grammy Award nomination. In May 2017, Tiller released his second studio album, True to Self, which debuted at number-one on the Billboard 200. That same year, he was also featured alongside Rihanna on the hit single "Wild Thoughts" by DJ Khaled, which reached number-two on the Billboard Hot 100. Tiller has received multiple accolades, including two BET Awards for Best New Artist and Best Male R&amp;B/Pop Artist; and in March 2016, he received the key to the city from Louisville Mayor Greg Fischer.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Michael_Sembello', 'artist_name': 'Michael Sembello', 'wiki': 'http://en.wikipedia.org/wiki/Michael_Sembello', 'birth_date': '17 April 1954', 'start_year': '1975', 'labels': ['http://dbpedia.org/resource/A&amp;M_Records', 'http://dbpedia.org/resource/EMI_Records', 'http://dbpedia.org/resource/Frontiers_Records', 'http://dbpedia.org/resource/Warner_Records'], 'plays_in': ['http://dbpedia.org/resource/Never_(Mie_album)'], 'genres': ['http://dbpedia.org/resource/Contemporary_R&amp;B', 'http://dbpedia.org/resource/Funk', 'http://dbpedia.org/resource/Hi-NRG', 'http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Soul_music', 'http://dbpedia.org/resource/Synth-pop'], 'related_artists': ['http://dbpedia.org/resource/David_Batteau', 'http://dbpedia.org/resource/Dawn_Elder', 'http://dbpedia.org/resource/Stevie_Wonder'], 'abstract': 'Michael Andrew Sembello (born April 17, 1954) is an American singer, guitarist, keyboardist, songwriter, composer and producer from Philadelphia, Pennsylvania. Sembello was nominated for an Academy Award and a Golden Globe for his 1983 song "Maniac", which he sang and co-wrote. The song reached number one in the United States and featured in the Flashdance film soundtrack. He is the brother of the late songwriter and composer Danny Sembello and the late singer songwriter John Sembello of Dino &amp; Sembello fame.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Akon', 'artist_name': 'Akon', 'wiki': 'http://en.wikipedia.org/wiki/Akon', 'birth_date': '16 April 1973', 'start_year': '1996', 'aliases': ['A-Kon', 'El Negreeto'], 'plays_in': ['http://dbpedia.org/resource/American_Heist', 'http://dbpedia.org/resource/Girlicious_(album)'], 'related_artists': ['http://dbpedia.org/resource/2C_(musician)', 'http://dbpedia.org/resource/Ali_Vegas', 'http://dbpedia.org/resource/Aventura_(band)', 'http://dbpedia.org/resource/B_Howard', 'http://dbpedia.org/resource/Black_Violin', 'http://dbpedia.org/resource/Booba', 'http://dbpedia.org/resource/Boss_AC', 'http://dbpedia.org/resource/Brick_&amp;_Lace', 'http://dbpedia.org/resource/C-Murder', 'http://dbpedia.org/resource/Cha_Cha_(rapper)', 'http://dbpedia.org/resource/Claude_Kelly', "http://dbpedia.org/resource/Colby_O'Donis", 'http://dbpedia.org/resource/Cyhi_the_Prynce', 'http://dbpedia.org/resource/D_Teck', 'http://dbpedia.org/resource/Danny_Mercer', 'http://dbpedia.org/resource/Detail_(record_producer)', 'http://dbpedia.org/resource/Djibril_Gibson_Kagni', 'http://dbpedia.org/resource/Don_Yute', 'http://dbpedia.org/resource/Faze_(musician)', 'http://dbpedia.org/resource/Flipsyde', 'http://dbpedia.org/resource/Giorgio_Tuinfort', 'http://dbpedia.org/resource/GoodWill_&amp;_MGI', 'http://dbpedia.org/resource/J_Rand', 'http://dbpedia.org/resource/Jethro_Sheeran', 'http://dbpedia.org/resource/Johnny_Wright_(music_manager)', 'http://dbpedia.org/resource/JonFX', 'http://dbpedia.org/resource/Jovi_(musician)', 'http://dbpedia.org/resource/Kardinal_Offishall', 'http://dbpedia.org/resource/Kat_DeLuna', 'http://dbpedia.org/resource/Kaye_Styles', 'http://dbpedia.org/resource/Lil_Zane', 'http://dbpedia.org/resource/Melissa_(singer)', 'http://dbpedia.org/resource/Melvin_E._Brown', 'http://dbpedia.org/resource/Mohombi', 'http://dbpedia.org/resource/Nyanda', 'http://dbpedia.org/resource/OG_Boo_Dirty', 'http://dbpedia.org/resource/P-Money', 'http://dbpedia.org/resource/P-Square', 'http://dbpedia.org/resource/R._City', 'http://dbpedia.org/resource/RedOne', 'http://dbpedia.org/resource/Red_Café', 'http://dbpedia.org/resource/Robin_Schulz', 'http://dbpedia.org/resource/Savage_(rapper)__Savage__1', 'http://dbpedia.org/resource/Spoks_Man', 'http://dbpedia.org/resource/Styles_P', 'http://dbpedia.org/resource/Sway_(musician)', 'http://dbpedia.org/resource/T-Pain', 'http://dbpedia.org/resource/Tone_Trump', 'http://dbpedia.org/resource/Tony_Dawsey', 'http://dbpedia.org/resource/VL_Mike', 'http://dbpedia.org/resource/Vishal–Shekhar', 'http://dbpedia.org/resource/William_Wiik_Larsen', 'http://dbpedia.org/resource/Wizkid', 'http://dbpedia.org/resource/Wurld_(musician)', 'http://dbpedia.org/resource/Ya_Boy', 'http://dbpedia.org/resource/Yukmouth'], 'abstract': 'Aliaune Damala Badara Akon Thiam (/ˈeɪkɒn/; born April 16, 1973), also known mononymously as Akon, is a Senegalese-American singer, songwriter, record producer, and entrepreneur from New Jersey. He rose to prominence in 2004 following the release of "Locked Up" (featuring Styles P), the first single from his debut album Trouble (2004), followed by the second single "Lonely". His second album, Konvicted (2006), received three Grammy Award nominations for Best Contemporary R&amp;B Album, and for Best Rap/Sung Collaboration for "Smack That" (featuring Eminem) and "I Wanna Love You" (featuring Snoop Dogg). Both singles became Billboard Hot 100 top ten hits, followed up by "Don\'t Matter" and "Sorry, Blame It on Me". His third studio album Freedom (2008) was led by the single "Right Now (Na Na Na)". Akon often provides vocals as a featured artist and is currently credited with over 300 guest appearances and more than 35 Billboard Hot 100 songs, resulting in five Grammy Award nominations. He is the first solo artist to hold both the number one and two spots simultaneously on the Billboard Hot 100 charts twice. Akon has had four songs certified as 3× platinum, three songs certified as 2× platinum, more than ten songs certified as 1× platinum and more than ten songs certified as gold by the RIAA. He was listed by Guinness World Records as the number-one selling artist for master ringtones in the world. Along with his own musical career, Akon later founded two successful record labels, Konvict Muzik and KonLive Distribution. The labels cultivated a multitude of successful acts, such as Lady Gaga, T-Pain, R. City, Kardinal Offishall, Jeffree Star, and Red Café, among others. Akon sports a concurrent career in producing and songwriting records mainly for artists on his respective labels, as well as for other mainstream artists including Michael Jackson, Snoop Dogg, Lionel Richie, Leona Lewis, Sean Paul, and Whitney Houston. Forbes ranked Akon 80th (Power Rank) in the Forbes Celebrity 100 in 2010 and 5th in the 40 Most Powerful Celebrities in Africa list, in 2011. Billboard ranked Akon No. 6 on the list of Top Digital Songs Artists of the decade.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Vengaboys', 'artist_name': 'Vengaboys', 'wiki': 'http://en.wikipedia.org/wiki/Vengaboys', 'hometown': 'http://dbpedia.org/resource/Netherlands', 'start_year': '1997', 'end_year': '2002', 'genres': ['http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Eurodance'], 'actual_members': ['Denise Post-Van Rijswijk', 'Donny Latupeirissa', 'Kim Sasabone', 'Robin Pors'], 'old_members': ['Roy Olivero den Burger', 'Yorick Bakker'], 'abstract': 'Vengaboys are a Dutch Eurodance music group based in Rotterdam. The group was the creation of Dutch producers Wessel van Diepen and Dennis van den Driesschen (known as Danski and Delmundo). It consists of lead (female) vocalists Kim Sasabone and Denise Post-Van Rijswijk and male vocalists Robin Pors and Donny Latupeirissa. Casting and selection of the performing act 1997–2000 was done by Wendelien van Diepen. The group enjoyed commercial success in the late 1990s. They are best known for their hit singles "We Like to Party", "Boom, Boom, Boom, Boom!!" and "We\'re Going to Ibiza", the latter two of which topped the UK Singles Chart. They have sold an estimated 25 million records worldwide. On 2 May 2001, the World Music Awards gave Vengaboys the award for best-selling dance group of the year.In 2019, Dutch online newspaper Nu.nl called Vengaboys the most successful Dutch pop group in history.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Foster_the_People', 'artist_name': 'Foster the People', 'wiki': 'http://en.wikipedia.org/wiki/Foster_the_People', 'hometown': 'http://dbpedia.org/resource/Los_Angeles', 'start_year': '2009', 'labels': ['http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Startime_International'], 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees', 'http://dbpedia.org/resource/The_Blazing_World_(film)'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Indie_pop', 'http://dbpedia.org/resource/Indie_rock', 'http://dbpedia.org/resource/Neo-psychedelia', 'indietronica'], 'actual_members': ['http://dbpedia.org/resource/Mark_Foster_(singer)', 'Sean Cimino', 'Isom Innis'], 'old_members': ['http://dbpedia.org/resource/Mark_Pontius', 'Jacob "Cubbie" Fink'], 'related_artists': ['http://dbpedia.org/resource/Danyew', 'http://dbpedia.org/resource/Gemma_Hayes', 'http://dbpedia.org/resource/Malbec_(band)', 'http://dbpedia.org/resource/Mark_Foster_(singer)__Mark_Foster__1', 'http://dbpedia.org/resource/Mark_Pontius', 'http://dbpedia.org/resource/Rich_Costey', 'http://dbpedia.org/resource/Swiss_Lips', 'http://dbpedia.org/resource/The_Velvet_Teen', 'http://dbpedia.org/resource/Young_&amp;_Sick'], 'abstract': 'Foster the People is an American indie pop band formed in Los Angeles, California, in 2009. It currently consists of lead vocalist Mark Foster, lead guitarist Sean Cimino and keyboardist Isom Innis. Foster founded the band in 2009 after spending several years in Los Angeles as a struggling musician and working as a commercial jingle writer. After Foster\'s song "Pumped Up Kicks" became a viral success in 2010, the group received a record deal from Startime International and gained a fanbase through small club shows and appearances at music festivals. After releasing their debut album Torches in May 2011, "Pumped Up Kicks" became a crossover hit on commercial radio in mid-2011 and eventually reached number three on the Billboard Hot 100. The record also featured the singles "Helena Beat" and "Don\'t Stop (Color on the Walls)". The group received three Grammy Award nominations for Torches and "Pumped Up Kicks". After touring for two years in support of Torches, Foster the People released their second album, Supermodel, in March 2014. It was preceded by the lead single "Coming of Age". In July 2017, the band released their third studio album, Sacred Hearts Club, with the addition of Isom Innis and Sean Cimino, both former touring members, to the official lineup. From this album, their song "Sit Next to Me" peaked at number 42 on the Billboard Hot 100 and was certified double platinum by the RIAA.'}</t>
+    <t>{'artist': 'http://dbpedia.org/resource/Katrina_and_the_Waves', 'artist_name': 'Katrina &amp; the Waves', 'wiki': 'http://en.wikipedia.org/wiki/Katrina_and_the_Waves', 'hometown': 'http://dbpedia.org/resource/Cambridgeshire', 'start_year': '1981', 'end_year': '1999', 'labels': ['http://dbpedia.org/resource/Attic_Records', 'http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/EMI', 'http://dbpedia.org/resource/Polydor_Records', 'http://dbpedia.org/resource/SBK_Records', 'http://dbpedia.org/resource/Virgin_Schallplatten', 'http://dbpedia.org/resource/Warner_Music_Group'], 'genres': ['http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Rock_music', 'Rock', 'new wave'], 'old_members': ['http://dbpedia.org/resource/Katrina_Leskanich', 'http://dbpedia.org/resource/Kimberley_Rew', 'Alex Cooper', 'Vince de la Cruz'], 'related_artists': ['http://dbpedia.org/resource/Katrina_Leskanich', 'http://dbpedia.org/resource/Kimberley_Rew', 'http://dbpedia.org/resource/The_Soft_Boys'], 'abstract': 'Katrina and the Waves were a British-American rock band best known for the 1985 hit "Walking on Sunshine". They also won the 1997 Eurovision Song Contest with the song "Love Shine a Light".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Justin_Timberlake', 'artist_name': 'Justin Timberlake', 'wiki': 'http://en.wikipedia.org/wiki/Justin_Timberlake', 'birth_date': '31 January 1981', 'start_year': '1992', 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees', 'http://dbpedia.org/resource/New_Breed_(Jay_Park_album)', 'http://dbpedia.org/resource/The_Book_of_Love_(film)'], 'related_artists': ['http://dbpedia.org/resource/Bravo_All_Stars', 'http://dbpedia.org/resource/Common_Kings', 'http://dbpedia.org/resource/Craig_Bauer', 'http://dbpedia.org/resource/DJ_Rectangle', 'http://dbpedia.org/resource/Dana_Nielsen', 'http://dbpedia.org/resource/Danja_(record_producer)', 'http://dbpedia.org/resource/David_Elitch', 'http://dbpedia.org/resource/Esmée_Denters', 'http://dbpedia.org/resource/Ethan_Farmer', 'http://dbpedia.org/resource/Francesco_Yates', 'http://dbpedia.org/resource/Greg_Howe', 'http://dbpedia.org/resource/J-Roc', 'http://dbpedia.org/resource/James_Fauntleroy', 'http://dbpedia.org/resource/Jawbreakers_(duo)', 'http://dbpedia.org/resource/Jay_E', 'http://dbpedia.org/resource/Jimmy_Douglass', 'http://dbpedia.org/resource/Johnny_Wright_(music_manager)', 'http://dbpedia.org/resource/Kovas_(musician)', 'http://dbpedia.org/resource/Marcella_Araica', 'http://dbpedia.org/resource/Melvin_E._Brown', 'http://dbpedia.org/resource/Ram_Sampath', 'http://dbpedia.org/resource/The_Lonely_Island', 'http://dbpedia.org/resource/The_Neptunes', 'http://dbpedia.org/resource/Tye_Tribbett'], 'abstract': 'Justin Randall Timberlake (born January 31, 1981) is an American singer, songwriter, record producer and actor. He is one of the world\'s best-selling music artists, with sales of over 88 million records worldwide. Timberlake is the recipient of numerous awards and accolades, including ten Grammy Awards, four Primetime Emmy Awards, three Brit Awards, nine Billboard Music Awards, the Contemporary Icon Award by the Songwriters Hall of Fame, and the Michael Jackson Video Vanguard Award. According to Billboard, he is the best performing male soloist in the history of the Mainstream Top 40. Born and raised in Tennessee, he appeared on the television shows Star Search and The All-New Mickey Mouse Club as a child. In the late 1990s, Timberlake rose to prominence as one of the two lead vocalists and youngest member of NSYNC, which eventually became one of the best-selling boy bands of all time. Timberlake won two Grammy Awards for his R&amp;B-focused debut solo album Justified (2002) and its single "Cry Me a River". Another single from the album, "Rock Your Body", was also successful. His critically acclaimed second album FutureSex/LoveSounds (2006), characterized by its diversity in music genres, debuted atop the U.S. Billboard 200 and spawned the Hot 100 consecutive number-one singles with "SexyBack" (featuring Timbaland), "My Love" (featuring T.I.), and "What Goes Around... Comes Around". Established as a solo artist worldwide, his first two albums both exceeded sales of 10 million copies, as he continued producing records and collaborating with other artists. From 2008 through 2012, Timberlake focused on his acting career, effectively putting his music career on hiatus. He held starring roles in the films The Social Network, Bad Teacher, Friends with Benefits, and In Time. Timberlake resumed his music career in 2013 with his third and fourth albums The 20/20 Experience and The 20/20 Experience – 2 of 2, exploring neo soul styles, partly inspired by the expansive song structures of 1960s and 1970s rock. The former became the best-selling album of the year and spawned the top three singles "Suit &amp; Tie" (featuring Jay-Z) and "Mirrors". Timberlake voiced Branch in DreamWorks Animation\'s Trolls (2016), whose soundtrack includes his fifth Billboard Hot 100 chart-topping single, "Can\'t Stop the Feeling!", which earned him a Academy Award nomination. His fifth studio album Man of the Woods (2018) became his fourth number-one album in the US. Supported by the two top ten singles, "Filthy" and "Say Something" (featuring Chris Stapleton), it concluded 2018 as the sixth best-selling album of the year.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Shaggy_(musician)', 'artist_name': 'Shaggy', 'wiki': 'http://en.wikipedia.org/wiki/Shaggy_(musician)', 'birth_date': '22 October 1968', 'start_year': '1992', 'related_artists': ['http://dbpedia.org/resource/Blacka_Di_Danca', 'http://dbpedia.org/resource/Blackout_(musician)', 'http://dbpedia.org/resource/Brian_and_Tony_Gold', "http://dbpedia.org/resource/Che'Nelle", 'http://dbpedia.org/resource/Costi_Ioniță', 'http://dbpedia.org/resource/E-Dee', 'http://dbpedia.org/resource/Faydee', 'http://dbpedia.org/resource/Gabry_Ponte', 'http://dbpedia.org/resource/Iakopo', 'http://dbpedia.org/resource/Ida_Corr', 'http://dbpedia.org/resource/Jaya_Sri', 'http://dbpedia.org/resource/Jimmy_Cozier', 'http://dbpedia.org/resource/Jon_Redwine', 'http://dbpedia.org/resource/Kat_DeLuna', 'http://dbpedia.org/resource/Keith_Hetrick', 'http://dbpedia.org/resource/Kreesha_Turner', 'http://dbpedia.org/resource/Kylie_and_Garibay', 'http://dbpedia.org/resource/Leo_Aberer', 'http://dbpedia.org/resource/Ms._Triniti', 'http://dbpedia.org/resource/Olaf_Blackwood', 'http://dbpedia.org/resource/Rayvon', 'http://dbpedia.org/resource/Ricky_Blaze', 'http://dbpedia.org/resource/Rupee_(musician)', 'http://dbpedia.org/resource/Shaun_Pizzonia', 'http://dbpedia.org/resource/Stonebwoy', 'http://dbpedia.org/resource/Tessanne_Chin'], 'abstract': 'Orville Richard Burrell CD (born October 22, 1968), better known by his stage name Shaggy, is a Jamaican-American reggae musician, singer, DJ, and actor who scored hits with the songs "It Wasn\'t Me", "Boombastic", "In The Summertime", "Oh Carolina", and "Angel". He has been nominated for seven Grammy Awards, winning twice for Best Reggae Album with Boombastic in 1996 and 44/876 with Sting in 2019, and has won the Brit Award for International Male Solo Artist in 2002. In 2007, he was awarded the Jamaican Order of Distinction with the rank of Commander.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Jessie_J', 'artist_name': 'Jessie J', 'wiki': 'http://en.wikipedia.org/wiki/Jessie_J', 'plays_in': ['http://dbpedia.org/resource/Easy_A', 'http://dbpedia.org/resource/Pitch_Perfect_2', 'http://dbpedia.org/resource/Pitch_Perfect_2_(soundtrack)', 'http://dbpedia.org/resource/Summer_of_Love_(album)', 'http://dbpedia.org/resource/The_Mortal_Instruments:_City_of_Bones'], 'related_artists': ['http://dbpedia.org/resource/Ali_Tennant', 'http://dbpedia.org/resource/Cassius_Henry', 'http://dbpedia.org/resource/Claude_Kelly', 'http://dbpedia.org/resource/Cory_Rooney', 'http://dbpedia.org/resource/DJ_Cassidy', 'http://dbpedia.org/resource/Emily_Warren', 'http://dbpedia.org/resource/Julian_Perretta', 'http://dbpedia.org/resource/Kyle_Townsend', 'http://dbpedia.org/resource/Livvia', 'http://dbpedia.org/resource/Rickard_Göransson', 'http://dbpedia.org/resource/Steve_Booker_(producer)', 'http://dbpedia.org/resource/William_Wiik_Larsen'], 'abstract': 'Jessica Ellen Cornish (born 27 March 1988), known professionally as Jessie J, is an English singer-songwriter. Born and raised in London, she began her career on stage, aged 11, with a role in the West End musical Whistle Down the Wind. She studied at the BRIT School before signing with Gut Records and striking a songwriting deal with Sony/ATV Music Publishing. After signing with Republic Records, Jessie J came to prominence following the release of her debut single "Do It Like a Dude". Her following single "Price Tag" topped the charts in nineteen countries including the UK and was followed by the release of her debut album, Who You Are (2011), which peaked at number two in the UK. Other singles from the album included "Nobody\'s Perfect", "Who You Are", "Domino" and "Laserlight", all of which peaked within the top ten on the UK Singles Chart, making Jessie J the first British female artist to have six top-ten singles from a sole studio album. "Domino" also attained further international success, peaking at number six on the US Billboard Hot 100 and becoming her second number-one single in the UK. In 2012, Jessie J performed at the Queen\'s Diamond Jubilee Concert outside Buckingham Palace in June, as well as the closing ceremony of the 2012 Olympic Games in London on 12 August. Her second album Alive (2013) peaked within the top five on the UK Albums Chart and also included the top-five singles "Wild" and "It\'s My Party". The release of her third album Sweet Talker (2014) was preceded by the single "Bang Bang" which debuted at number one in the UK and went multi-platinum worldwide. The album made the top five in the UK and peaked at number ten on the US Billboard 200, her highest-charting album in the US. As of January 2015, Jessie J had sold over 20 million singles and 3 million albums worldwide. Citing various influences, Jessie J is recognised for an unconventional musical and performance style that mixes soul vocals with contemporary R&amp;B, pop, electropop, and hip-hop beats. She has received various accolades throughout her career, including the 2011 Critics\' Choice Brit Award and the BBC\'s Sound of 2011. Jessie J has supported various charitable causes, and has appeared on the UK charity telethons BBC Children in Need and Comic Relief. She has served as a coach on the competition series The Voice UK, The Voice Australia and The Voice Kids UK. In 2018, Jessie J received widespread recognition in China following her appearance in the Hunan TV reality program Singer (previously called I Am a Singer).'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Mr._President_(band)', 'artist_name': 'Mr. President', 'wiki': 'http://en.wikipedia.org/wiki/Mr._President_(band)', 'hometown': 'http://dbpedia.org/resource/Bremen', 'start_year': '1991', 'end_year': '1991', 'aliases': ['Satellite One'], 'labels': ['http://dbpedia.org/resource/Warner_Records'], 'genres': ['http://dbpedia.org/resource/Eurodance', 'http://dbpedia.org/resource/Hip_hop_music', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Reggae_fusion'], 'old_members': ['Daniela Haak', 'Delroy Rennalls', 'Franziska Frank', 'George Jones', 'Judith Hinkelmann', 'Myriam Beckmann', 'Nadia Ayche'], 'related_artists': ['http://dbpedia.org/resource/Bravo_All_Stars'], 'abstract': 'Mr. President was a German Eurodance project best known for the crossover world hit "Coco Jamboo" released in 1996. The group is also famous in Europe for the dance hits "Up\'n Away", "I\'ll Follow the Sun", "I Give You My Heart", "4 on the Floor", "Jojo Action" and the hit albums Up\'n Away – The Album and We See the Same Sun. Mr. President was originally formed in 1991 in Bremen, Germany, by producers Jens Neumann and Kai Matthiesen. In the beginning, the group consisted of the German singers Judith Hinkelmann (T-Seven), Daniela Haak (Lady Danii) and American rapper George Jones (Sir Prophet). In 1994, Jones was replaced by British rapper Delroy Rennalls (Layzee Dee). When Hinklemann departed the act in 2000 to begin a solo career, singer Nadia Ayche joined the group as her replacement. Ayche, however, was quickly replaced by singer Myra Beckmann in 2001. When Beckmann also departed the act in 2003, singer Franziska Frank (Franzi) joined the act. By 2008, Mr. President had officially disbanded. Since 2008, Rennalls has continued to tour across Europe as LayZee formerly of Mr. President in addition to releasing his own solo material. In 2014, he recruited Hungarian-born singer Erika Kovács into his live act. Today, Rennalls and Kovács perform the Mr. President hits as a live duo act worldwide.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Suzanne_Vega', 'artist_name': 'Suzanne Vega', 'wiki': 'http://en.wikipedia.org/wiki/Suzanne_Vega', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'birth_date': '11 July 1959', 'start_year': '1982', 'labels': ['http://dbpedia.org/resource/A&amp;M_Records', 'http://dbpedia.org/resource/Blue_Note_Records', 'http://dbpedia.org/resource/Cooking_Vinyl', 'http://dbpedia.org/resource/Suzanne_Vega'], 'plays_in': ['http://dbpedia.org/resource/Women_&amp;_Men_2'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Folk_rock'], 'related_artists': ['http://dbpedia.org/resource/Cameron_Craig', 'http://dbpedia.org/resource/DNA_(duo)', 'http://dbpedia.org/resource/Danger_Mouse_(musician)', 'http://dbpedia.org/resource/Duncan_Sheik', 'http://dbpedia.org/resource/Gerry_Leonard', 'http://dbpedia.org/resource/Joe_Jackson_(musician)', 'http://dbpedia.org/resource/Jonathan_Coulton', 'http://dbpedia.org/resource/Robin_Danar', 'http://dbpedia.org/resource/Shawn_Colvin', 'http://dbpedia.org/resource/Sparklehorse'], 'abstract': 'Suzanne Nadine Vega (born July 11, 1959) is an American singer-songwriter best known for her folk-inspired music. Vega\'s music career spans almost 40 years. She came to prominence in the mid-1980s, releasing four singles that entered the Top 40 charts in the UK during the 1980s and 1990s, including "Marlene on the Wall", "Left of Center", "Luka" and "No Cheap Thrill". "Tom\'s Diner", which was originally released as an a cappella recording on Vega\'s second album, Solitude Standing (1987), was remixed in 1990 as a dance track by English electronic duo DNA with Vega as featured artist, and it became a Top 10 hit in over five countries. The original a capella recording of the song was used as a test during the creation of the MP3 format. The role of her song in the development of the MP3 compression prompted Vega to be given the title of "The Mother of the MP3". Vega has released nine studio albums to date, the latest of which is Lover, Beloved: Songs from an Evening with Carson McCullers, released in 2016.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Elle_King', 'artist_name': 'Elle King', 'wiki': 'http://en.wikipedia.org/wiki/Elle_King', 'birth_date': '03 July 1989', 'related_artists': ['http://dbpedia.org/resource/Miranda_Lambert', 'http://dbpedia.org/resource/Sterling_Fox'], 'abstract': 'Tanner Elle Schneider (born July 3, 1989), known professionally as Elle King, is an American singer, songwriter, multi-instrumentalist, television personality, and actress. Her musical style encompasses country, soul, rock and blues. In 2012, King released her debut EP, The Elle King EP, on RCA; one track from that EP, "Playing for Keeps", is the theme song for VH1\'s Mob Wives Chicago series. She released her debut album, Love Stuff on February 17, 2015. The album produced the US top 10 single "Ex\'s &amp; Oh\'s", which earned her two Grammy Award nominations. King has also toured with acts such as Of Monsters and Men, Train, James Bay, The Chicks, Heart, Joan Jett, Michael Kiwanuka and Miranda Lambert. She is the daughter of actor and comedian Rob Schneider and former model London King. She resides in Los Angeles.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Justice_(singer)', 'artist_name': 'Justice', 'wiki': 'http://en.wikipedia.org/wiki/Justice_(singer)', 'start_year': '2011', 'genres': ['http://dbpedia.org/resource/Soul_music', 'Pop, soul, dance'], 'related_artists': ['http://dbpedia.org/resource/Jean-Michel_Soupraya'], 'abstract': 'Justice, born Lauren Justice, is an American female pop recording artist.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Asia_(band)', 'artist_name': 'Asia', 'wiki': 'http://en.wikipedia.org/wiki/Asia_(band)', 'genres': ['http://dbpedia.org/resource/Arena_rock', 'http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Progressive_rock'], 'actual_members': ['http://dbpedia.org/resource/Billy_Sherwood', 'http://dbpedia.org/resource/Carl_Palmer', 'http://dbpedia.org/resource/Geoff_Downes', 'http://dbpedia.org/resource/Ron_%22Bumblefoot%22_Thal'], 'old_members': ['http://dbpedia.org/resource/John_Wetton', 'http://dbpedia.org/resource/Steve_Howe', 'others'], 'related_artists': ['http://dbpedia.org/resource/Al_Pitrelli', 'http://dbpedia.org/resource/Asia_featuring_John_Payne__Asia_featuring_John_Payne__1', 'http://dbpedia.org/resource/Aziz_Ibrahim', 'http://dbpedia.org/resource/Billy_Sherwood', 'http://dbpedia.org/resource/Brian_Lane_(manager)', 'http://dbpedia.org/resource/Carl_Palmer', 'http://dbpedia.org/resource/Chris_Slade', 'http://dbpedia.org/resource/Circa_(band)', 'http://dbpedia.org/resource/Danger_Danger', 'http://dbpedia.org/resource/Emerson,_Lake_&amp;_Palmer', 'http://dbpedia.org/resource/GTR_(band)', 'http://dbpedia.org/resource/Geoff_Downes', 'http://dbpedia.org/resource/Greg_Lake', 'http://dbpedia.org/resource/Guthrie_Govan', 'http://dbpedia.org/resource/Jay_Schellen', 'http://dbpedia.org/resource/John_Payne_(singer)', 'http://dbpedia.org/resource/John_Young_(British_musician)', 'http://dbpedia.org/resource/Kim_Nielsen_(guitarist)', 'http://dbpedia.org/resource/King_Crimson__King_Crimson__1', 'http://dbpedia.org/resource/Mandy_Meyer', 'http://dbpedia.org/resource/Mike_Sturgis', 'http://dbpedia.org/resource/Pat_Thrall', 'http://dbpedia.org/resource/Qango_(band)', 'http://dbpedia.org/resource/Ron_%22Bumblefoot%22_Thal', 'http://dbpedia.org/resource/Saga_(band)', 'http://dbpedia.org/resource/Sam_Coulson', 'http://dbpedia.org/resource/Scott_Gorham', 'http://dbpedia.org/resource/Steve_Howe', 'http://dbpedia.org/resource/U.K._(band)', 'http://dbpedia.org/resource/Unisonic_(band)', 'http://dbpedia.org/resource/Vinny_Burns', 'http://dbpedia.org/resource/Yes_(band)'], 'abstract': 'Asia are an English rock supergroup formed in London in 1981. The most commercially successful line-up was its original, which consisted of four members of different progressive rock bands that had enjoyed great success in the 1970s: lead vocalist and bassist John Wetton of King Crimson and U.K., guitarist Steve Howe of Yes, keyboardist Geoff Downes of Yes and The Buggles, and drummer Carl Palmer of Emerson, Lake &amp; Palmer. Their debut album, Asia, released in 1982, remains their best selling album and went to number one in several countries. The lead single from the album, "Heat of the Moment", remains their top charting and best-known song, reaching the top 40 in over a dozen markets and peaking in the U.S. at #4 on the Billboard Hot 100 and #1 on the Billboard Mainstream Rock chart. The band underwent multiple line-up changes before the original four members reunited in 2006. As a result, a band called Asia Featuring John Payne exists as a continuation of John Payne\'s career as Asia\'s frontman from 1991 until Wetton\'s return in 2006. In 2013, the original line-up was broken once again when Howe retired from the band and was replaced by guitarist Sam Coulson. After a few years of inactivity, Billy Sherwood (of Yes, World Trade and Circa:) replaced an ailing Wetton (who died shortly thereafter) in Asia for a summer 2017 tour with Journey. Following the end of the tour, the band went on hiatus again, re-emerging in 2019 with Ron "Bumblefoot" Thal replacing both Sherwood on vocals and Coulson on guitar.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Ava_Max', 'artist_name': 'Ava Max', 'wiki': 'http://en.wikipedia.org/wiki/Ava_Max', 'birth_date': '16 February 1994', 'start_year': '2013', 'aliases': ['Amanda Kay', 'Ava', 'Ava Koci'], 'labels': ['http://dbpedia.org/resource/Atlantic_Records'], 'genres': ['http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Pop_music'], 'related_artists': ['http://dbpedia.org/resource/Autumn_Rowe', 'http://dbpedia.org/resource/Cirkut', 'http://dbpedia.org/resource/Hitimpulse', 'http://dbpedia.org/resource/Kastra_(musical_artist)'], 'abstract': 'Amanda Ava Koci (born Amanda Koci; February 16, 1994), known professionally as Ava Max, is an American singer and songwriter. After moving from several states in the United States to pursue a music career since her childhood, Max signed with Atlantic Records in 2016, where she released the song "Sweet but Psycho" in August 2018. It became her breakthrough single after peaking at number one in 22 countries, including the United Kingdom, Germany, Austria, Switzerland, Sweden, and New Zealand. The song also peaked at number two in Australia, and at number 10 on the US Billboard Hot 100. In March 2020, Max released the song "Kings &amp; Queens", which peaked at number 13 on the Billboard Hot 100 and at number 19 on the UK Singles Chart. It was followed by the release of her debut studio album, Heaven &amp; Hell, in September 2020, which charted at number two on the UK Albums Chart and at number 27 on the US Billboard 200. In November 2020, the song "My Head &amp; My Heart" was released, which peaked at number 45 on the Billboard Hot 100 and at number 18 on the UK Singles Chart.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/James_Blunt', 'artist_name': 'James Blunt', 'wiki': 'http://en.wikipedia.org/wiki/James_Blunt', 'birth_date': '22 February 1974', 'start_year': '2003', 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees'], 'related_artists': ["http://dbpedia.org/resource/Daddy's_Groove", 'http://dbpedia.org/resource/Dewain_Whitmore_Jr.', 'http://dbpedia.org/resource/Glen_Scott', 'http://dbpedia.org/resource/John_Garrison_(musician)', 'http://dbpedia.org/resource/Robin_Schulz', 'http://dbpedia.org/resource/Sacha_Skarbek', 'http://dbpedia.org/resource/Sinik', 'http://dbpedia.org/resource/Steve_Robson', 'http://dbpedia.org/resource/Tom_Rothrock'], 'abstract': 'James Hillier Blount (born 22 February 1974), better known as James Blunt, is an English singer, songwriter, multi-instrumentalist, and record producer. A former reconnaissance officer in the Life Guards regiment of the British Army, he served under NATO during the 1999 Kosovo War. After leaving the military, he rose to fame in 2004 with the release of his debut album Back to Bedlam, achieving worldwide fame with the singles "You\'re Beautiful" and "Goodbye My Lover". Blunt\'s first album has sold over 11 million copies worldwide, topping the UK Albums Chart and peaking at number two in the US. "You\'re Beautiful" was number one in the UK, the US and a dozen other countries. Back to Bedlam was the best-selling album of the 2000s in the UK, and is one of the best-selling albums in UK chart history. Blunt has since sold over 20 million records worldwide. He has received several awards, including two Brit Awards—winning Best British Male in 2006—two MTV Video Music Awards, and two Ivor Novello Awards, as well as receiving five Grammy Award nominations and an Honorary Doctorate for Music in 2016 by the University of Bristol.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Desireless', 'artist_name': 'Desireless', 'wiki': 'http://en.wikipedia.org/wiki/Desireless', 'birth_date': '25 December 1952', 'start_year': '1986', 'end_year': '1986', 'labels': ['http://dbpedia.org/resource/Choice_Of_Music', 'http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Sony_Music', 'http://dbpedia.org/resource/Sony_Music_Latin', 'http://dbpedia.org/resource/Urgence_Disk'], 'plays_in': ["http://dbpedia.org/resource/Moscow_Pride_'06"], 'genres': ['http://dbpedia.org/resource/Eurodisco', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Synth-pop'], 'abstract': 'Claudie Fritsch-Mentrop (born 25 December 1952), known by her stage name Desireless (French pronunciation: \u200b[deziʁlɛs]), is a French singer. Between 1986 and 1988, her hit single "Voyage, voyage" made it to number one on many European and Asian single charts. According to her official website, Desireless still releases new albums and performs live, and she released a new album with Operation of the Sun (Antoine Aureche) accompanied by a worldwide tour from 2012 onward.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/B.o.B', 'artist_name': 'B.o.B', 'wiki': 'http://en.wikipedia.org/wiki/B.o.B', 'hometown': 'http://dbpedia.org/resource/Decatur,_Georgia', 'birth_date': '15 November 1988', 'start_year': '2006', 'labels': ['http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Grand_Hustle_Records', 'http://dbpedia.org/resource/Jim_Jonsin', 'http://dbpedia.org/resource/Label_No_Genre'], 'genres': ['http://dbpedia.org/resource/Alternative_hip_hop', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Southern_hip_hop', 'dirty south'], 'related_artists': ['http://dbpedia.org/resource/B.o.B', 'http://dbpedia.org/resource/Big_Boi', 'http://dbpedia.org/resource/Big_Boi__Big_Boi__1', 'http://dbpedia.org/resource/Bun_B', 'http://dbpedia.org/resource/Cirkut', 'http://dbpedia.org/resource/Classified_(rapper)', 'http://dbpedia.org/resource/Cobra_Starship', "http://dbpedia.org/resource/Daddy's_Groove", 'http://dbpedia.org/resource/Divinity_Roxx', 'http://dbpedia.org/resource/Giggs_(rapper)', 'http://dbpedia.org/resource/Grand_Hustle_Records', 'http://dbpedia.org/resource/Ilan_Kidron', 'http://dbpedia.org/resource/Jim_Jonsin', 'http://dbpedia.org/resource/Ki_Fitzgerald', 'http://dbpedia.org/resource/Lauriana_Mae', 'http://dbpedia.org/resource/Lupe_Fiasco', 'http://dbpedia.org/resource/Melanie_Fiona', 'http://dbpedia.org/resource/Mila_J', 'http://dbpedia.org/resource/Scotty_ATL', 'http://dbpedia.org/resource/Sevyn_Streeter', 'http://dbpedia.org/resource/Skatterman', 'http://dbpedia.org/resource/SoFly_and_Nius', 'http://dbpedia.org/resource/T.I.', 'http://dbpedia.org/resource/Tommy_Brown_(record_producer)', 'http://dbpedia.org/resource/Wurld_(musician)', 'http://dbpedia.org/resource/Young_Dro', 'http://dbpedia.org/resource/Zaytoven'], 'abstract': 'Bobby Ray Simmons Jr. (born November 15, 1988), known professionally as B.o.B, is an American rapper and record producer from Decatur, Georgia. In 2006, B.o.B was discovered by Brian Richardson, who then introduced him to TJ Chapman, who subsequently brought him to American record producer Jim Jonsin. After hearing his music, Jonsin signed B.o.B to his Rebel Rock Entertainment imprint. Two years later, Jonsin and B.o.B signed a joint venture deal, with Atlantic Records and American rapper T.I.\'s Grand Hustle Records. B.o.B quickly rose to fame after his commercial debut single "Nothin\' on You" (featuring Bruno Mars), reached number one in both the United States and the United Kingdom in 2009. He would later release his third single "Airplanes" (featuring Hayley Williams of Paramore), which also topped several major music charts. His fifth single "Magic", became his 3rd top 10 hit on the US Billboard Hot 100. B.o.B\'s debut studio album The Adventures of Bobby Ray, which was preceded by two extended plays (EPs) and several mixtapes, was released in April 2010. The album reached number one on the US Billboard 200 and was eventually certified 2× platinum by the Recording Industry Association of America (RIAA) in 2016. B.o.B was named the ninth "Hottest MC in the Game of 2010" by MTV, on their annual list. B.o.B released his second studio album Strange Clouds, in May 2012. The album spawned six singles, four of which charted exceptionally well internationally. The album\'s eponymous lead single (featuring Lil Wayne) became his fourth top 10 hit on the Billboard Hot 100. The singles "So Good", "Both of Us" (featuring Taylor Swift) and "Out of My Mind" (featuring Nicki Minaj), followed behind, with the former two being certified platinum by the RIAA. The album itself debuted at number five on the Billboard 200. His third album Underground Luxury, was released in December 2013 and supported by the lead single "HeadBand" (featuring 2 Chainz). In August 2015, B.o.B released the commercial mixtape Psycadelik Thoughtz, via digital distribution, with little-to-no promotion. B.o.B is an outspoken believer that the earth is flat.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Sum_41', 'artist_name': 'Sum 41', 'wiki': 'http://en.wikipedia.org/wiki/Sum_41', 'hometown': 'http://dbpedia.org/resource/Ajax,_Ontario', 'start_year': '1996', 'aliases': ['Kaspir (1996)', 'Pain for Pleasure'], 'labels': ['http://dbpedia.org/resource/Aquarius_Records_(Canada)', 'http://dbpedia.org/resource/Hopeless_Records', 'http://dbpedia.org/resource/Island_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Melodic_hardcore', 'http://dbpedia.org/resource/Pop-punk', 'http://dbpedia.org/resource/Punk_rock', 'http://dbpedia.org/resource/Skate_punk', 'pop punk'], 'actual_members': ['http://dbpedia.org/resource/Dave_Baksh', 'http://dbpedia.org/resource/Deryck_Whibley', 'http://dbpedia.org/resource/Frank_Zummo', 'http://dbpedia.org/resource/Jason_McCaslin', 'http://dbpedia.org/resource/Tom_Thacker_(musician)'], 'old_members': ['http://dbpedia.org/resource/Mark_Spicoluk', 'http://dbpedia.org/resource/Steve_Jocz', 'Richard Roy', 'Jon Marshall'], 'related_artists': ['http://dbpedia.org/resource/Billy_Talent', 'http://dbpedia.org/resource/Brown_Brigade', 'http://dbpedia.org/resource/Closet_Monster_(band)', 'http://dbpedia.org/resource/Dan_Druff_(musician)', 'http://dbpedia.org/resource/Darrin_Pfeiffer', 'http://dbpedia.org/resource/Dave_Baksh', 'http://dbpedia.org/resource/Devin_Bronson', 'http://dbpedia.org/resource/Fonzie_(band)__Fonzie__1', 'http://dbpedia.org/resource/Gob_(band)', 'http://dbpedia.org/resource/Greig_Nori', 'http://dbpedia.org/resource/Jason_McCaslin', 'http://dbpedia.org/resource/Marc_Costanzo', 'http://dbpedia.org/resource/Mark_Spicoluk', 'http://dbpedia.org/resource/Matt_Hyde', 'http://dbpedia.org/resource/One_Buck_Short', 'http://dbpedia.org/resource/Organ_Thieves', 'http://dbpedia.org/resource/Permanent_Me', 'http://dbpedia.org/resource/Street_Drum_Corps', 'http://dbpedia.org/resource/The_Operation_M.D.', 'http://dbpedia.org/resource/Tom_Thacker_(musician)', 'http://dbpedia.org/resource/Treble_Charger'], 'abstract': 'Sum 41 is a Canadian rock band from Ajax, Ontario. Originally called Kaspir, the band was formed in 1996 and currently consists of Deryck Whibley (lead vocals, guitars, keyboards), Dave Baksh (lead guitar, backing vocals), Jason "Cone" McCaslin (bass, backing vocals), Tom Thacker (guitars, keyboards, backing vocals), and Frank Zummo (drums, occasional backing vocals). In 1999, Sum 41 signed an international record deal with Island Records and released its first EP, Half Hour of Power, in 2000. The band released its debut album, All Killer No Filler, in 2001. The album achieved mainstream success with its first single, "Fat Lip", which reached number one on the Billboard Modern Rock Tracks chart and remains the band\'s most successful single to date. The album\'s next singles "In Too Deep" and "Motivation" also achieved commercial success. All Killer No Filler was certified platinum in both the United States and the United Kingdom and triple platinum in Canada. In 2002, the band released Does This Look Infected?, which was also a commercial and critical success. The singles "The Hell Song" and "Still Waiting" both charted highly on the modern rock charts. The band released its next album, Chuck, in 2004, led by singles "We\'re All to Blame" and "Pieces". The album proved successful, peaking at number 10 on the Billboard 200. In 2007, the band released Underclass Hero, which was met with a mixed reception, but gained some commercial success, becoming the band\'s highest charting album to date. It was also the band\'s last album on Aquarius Records. The band released the album Screaming Bloody Murder, on Island Records in 2011 to a generally positive reception, though it fell short of its predecessors\' commercial success. The band\'s sixth studio album, 13 Voices was released in 2016. IMPALA awarded the album with a double gold award for 150,000 sold copies across Europe. The band\'s seventh studio album Order in Decline was released on July 19, 2019. The band often performs more than 300 times each year and holds long global tours, most of which last more than a year. The group have been nominated for seven Juno Awards and won twice – Group of the Year in 2002, and Rock Album of the Year for Chuck in 2005. Sum 41 was nominated for a Grammy Award for Best Hard Rock/Metal Performance for the song "Blood in My Eyes". From their formation to 2016, Sum 41 were the 31st best-selling Canadian artist in Canada and among the top 10 best-selling Canadian bands in Canada.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Hoobastank', 'artist_name': 'Hoobastank', 'wiki': 'http://en.wikipedia.org/wiki/Hoobastank', 'hometown': 'http://dbpedia.org/resource/Agoura_Hills,_California', 'start_year': '1994', 'aliases': ['Hoobustank (1994–2001)'], 'labels': ['http://dbpedia.org/resource/EMI', 'http://dbpedia.org/resource/Island_Records', 'http://dbpedia.org/resource/Napalm_Records'], 'plays_in': ['http://dbpedia.org/resource/Halo_2_Original_Soundtrack'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Funk_metal', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Post-grunge', 'http://dbpedia.org/resource/Ska_punk'], 'actual_members': ['Doug Robb', 'Dan Estrin', 'Chris Hesse', 'Jesse Charland'], 'old_members': ['Markku Lappalainen', 'Jeremy Wasser', 'Derek Kwan', 'Matt McKenzie', 'Josh Moreau', 'David Amezcua', 'Kevin Antreassian'], 'related_artists': ['http://dbpedia.org/resource/Linkin_Park', 'http://dbpedia.org/resource/Vanessa_Amorosi'], 'abstract': 'Hoobastank (sometimes stylized as h∞bastank, and originally known as Hoobustank) is an American rock band formed in 1994 in Agoura Hills, California by lead vocalist Doug Robb, guitarist Dan Estrin, drummer Chris Hesse, and original bassist Markku Lappalainen. They were signed to Island Records from 2001 to 2012 and have released six albums and one extended play to date. Their most recent album, Push Pull, was released on May 25, 2018. They have sold 10 million albums worldwide. The band is best known for their biggest hit single "The Reason".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Eve_6', 'artist_name': 'Eve 6', 'wiki': 'http://en.wikipedia.org/wiki/Eve_6', 'hometown': 'http://dbpedia.org/resource/La_Crescenta-Montrose,_California', 'start_year': '2007', 'aliases': ['Eleventeen (1996–1997)', 'Yakoo (1995–1996)'], 'labels': ['http://dbpedia.org/resource/Bertelsmann_Music_Group', 'http://dbpedia.org/resource/Fearless_Records', 'http://dbpedia.org/resource/RCA_Records', 'http://dbpedia.org/resource/Sony_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Pop-punk'], 'actual_members': ['http://dbpedia.org/resource/Jon_Siebels', 'http://dbpedia.org/resource/Max_Collins_(musician)', 'Ben Hilzinger'], 'old_members': ['http://dbpedia.org/resource/Matthew_Koma', 'http://dbpedia.org/resource/Tony_Fagenson', 'Nick Meyers'], 'related_artists': ['http://dbpedia.org/resource/Aaron_Johnson_(musician)', 'http://dbpedia.org/resource/Fitness_(band)', 'http://dbpedia.org/resource/Fitness_(band)__Fitness__1', 'http://dbpedia.org/resource/Jon_Siebels', 'http://dbpedia.org/resource/Max_Collins_(musician)', 'http://dbpedia.org/resource/Tony_Fagenson'], 'abstract': 'Eve 6 is an American rock band formed in 1995 in Southern California, best known for their hit singles "Inside Out", "Leech", "Here\'s to the Night", and "Promise". They disbanded in 2004, returned for numerous tours in 2007 with a new lineup, and finally reunited with all three original members in early 2011. They signed to Fearless Records in the spring of that year, and released their fourth album Speak in Code, containing the singles "Victoria" and "Curtain", in April 2012.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Haddaway', 'artist_name': 'Haddaway', 'wiki': 'http://en.wikipedia.org/wiki/Haddaway', 'hometown': 'http://dbpedia.org/resource/Cologne', 'birth_date': '09 January 1965', 'start_year': '1987', 'labels': ['http://dbpedia.org/resource/Arista_Records', 'http://dbpedia.org/resource/Coconut_Records', 'http://dbpedia.org/resource/Razor_&amp;_Tie', 'http://dbpedia.org/resource/Sire_Records'], 'genres': ['http://dbpedia.org/resource/Electronica', 'http://dbpedia.org/resource/Eurodance'], 'related_artists': ['http://dbpedia.org/resource/Dr._Alban', 'http://dbpedia.org/resource/Melissa_(singer)', 'http://dbpedia.org/resource/Tony_Hendrik'], 'abstract': 'Nestor Alexander Haddaway (born 9 January 1965) is a Trinidadian-German singer best known for his 1993 hit single "What Is Love", which reached number 1 in 13 countries.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Kansas_(band)', 'artist_name': 'Kansas', 'wiki': 'http://en.wikipedia.org/wiki/Kansas_(band)', 'hometown': 'http://dbpedia.org/resource/Topeka,_Kansas', 'start_year': '1973', 'end_year': '1984', 'labels': ['http://dbpedia.org/resource/Don_Kirshner', 'http://dbpedia.org/resource/Inside_Out_Music', 'http://dbpedia.org/resource/MCA_Records', 'http://dbpedia.org/resource/Magna_Carta_Records'], 'genres': ['http://dbpedia.org/resource/Arena_rock', 'http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Progressive_rock'], 'actual_members': ['http://dbpedia.org/resource/Billy_Greer', 'http://dbpedia.org/resource/David_Ragsdale', 'http://dbpedia.org/resource/Phil_Ehart', 'http://dbpedia.org/resource/Rich_Williams', 'http://dbpedia.org/resource/Tom_Brislin', 'Ronnie Platt'], 'old_members': ['http://dbpedia.org/resource/Dave_Hope', 'http://dbpedia.org/resource/John_Elefante', 'http://dbpedia.org/resource/Kerry_Livgren', 'http://dbpedia.org/resource/Lynn_Meredith', 'http://dbpedia.org/resource/Robby_Steinhardt', 'http://dbpedia.org/resource/Steve_Morse', 'http://dbpedia.org/resource/Steve_Walsh_(musician)', 'David Manion', 'Greg Allen', 'Larry Baker', 'Brad Schulz', 'Don Montre', 'Zeke Lowe', 'Greg Robert', 'Zak Rizvi', 'Dan Wright', 'Rod Mikinski', 'John Bolton'], 'related_artists': ['http://dbpedia.org/resource/AD_(band)', 'http://dbpedia.org/resource/Billy_Greer', 'http://dbpedia.org/resource/Dave_Hope', 'http://dbpedia.org/resource/David_Ragsdale', 'http://dbpedia.org/resource/Deep_Purple', 'http://dbpedia.org/resource/Dixie_Dregs', 'http://dbpedia.org/resource/Explorers_Club_(band)__Explorers_Club__1', 'http://dbpedia.org/resource/Hedras_Ramos', 'http://dbpedia.org/resource/John_Elefante', 'http://dbpedia.org/resource/Kerry_Livgren', 'http://dbpedia.org/resource/Lynn_Meredith', 'http://dbpedia.org/resource/Mastedon', 'http://dbpedia.org/resource/Michael_Gleason_(musician)', 'http://dbpedia.org/resource/Native_Window', 'http://dbpedia.org/resource/Phil_Ehart', 'http://dbpedia.org/resource/Proto-Kaw', 'http://dbpedia.org/resource/Rich_Williams', 'http://dbpedia.org/resource/Robby_Steinhardt', 'http://dbpedia.org/resource/Seventh_Key', 'http://dbpedia.org/resource/Shooting_Star_(band)', 'http://dbpedia.org/resource/Steve_Morse', 'http://dbpedia.org/resource/Steve_Walsh_(musician)', 'http://dbpedia.org/resource/Streets_(band)', 'http://dbpedia.org/resource/Tom_Brislin', 'http://dbpedia.org/resource/Warren_Ham'], 'abstract': 'Kansas is an American rock band that became popular in the 1970s initially on album-oriented rock charts and later with hit singles such as "Carry On Wayward Son" and "Dust in the Wind". The band has produced nine gold albums, three multi-platinum albums (Leftoverture 4×, Point of Know Return 4×, and The Best of Kansas 4×), one other platinum studio album (Monolith), one platinum live double album (Two for the Show), and a million-selling single, "Dust in the Wind". Kansas appeared on the Billboard charts for over 200 weeks throughout the 1970s and 1980s and played to sold-out arenas and stadiums throughout North America, Europe and Japan. "Carry On Wayward Son" was the second-most-played track on US classic rock radio in 1995 and No. 1 in 1997.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Semisonic', 'artist_name': 'Semisonic', 'wiki': 'http://en.wikipedia.org/wiki/Semisonic', 'hometown': 'http://dbpedia.org/resource/Minneapolis', 'start_year': '1995', 'end_year': '2001', 'labels': ['http://dbpedia.org/resource/MCA_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_country', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Roots_rock'], 'actual_members': ['http://dbpedia.org/resource/Dan_Wilson_(musician)', 'http://dbpedia.org/resource/Jacob_Slichter', 'http://dbpedia.org/resource/John_Munson'], 'related_artists': ['http://dbpedia.org/resource/Dan_Wilson_(musician)', 'http://dbpedia.org/resource/Jacob_Slichter', 'http://dbpedia.org/resource/John_Munson', 'http://dbpedia.org/resource/L.E.O._(band)', 'http://dbpedia.org/resource/The_Twilight_Hours', 'http://dbpedia.org/resource/Trip_Shakespeare'], 'abstract': 'Semisonic is an American rock band formed in Minneapolis, Minnesota, in 1995. The band has three members: Dan Wilson (lead vocals, guitar, keyboards), John Munson (bass guitar, keyboards, backing vocals, guitar), and Jacob Slichter (drums, percussion, keyboards, backing vocals). They are best known in the U.S. for their 1998 single "Closing Time".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Beck', 'artist_name': 'Beck', 'wiki': 'http://en.wikipedia.org/wiki/Beck', 'birth_date': '08 July 1970', 'start_year': '1988', 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees', 'http://dbpedia.org/resource/The_Trouble_with_Being_Myself'], 'related_artists': ['http://dbpedia.org/resource/Alex_Lilly', 'http://dbpedia.org/resource/Badly_Drawn_Boy', 'http://dbpedia.org/resource/Bloodthirsty_Butchers', 'http://dbpedia.org/resource/Bon_Iver', 'http://dbpedia.org/resource/Brian_LeBarton', 'http://dbpedia.org/resource/Cage_the_Elephant', 'http://dbpedia.org/resource/Calvin_Johnson_(musician)', 'http://dbpedia.org/resource/DJ_Swamp', 'http://dbpedia.org/resource/Dean_Fertita', 'http://dbpedia.org/resource/Devendra_Banhart', 'http://dbpedia.org/resource/Elliott_Smith', 'http://dbpedia.org/resource/Forest_for_the_Trees_(band)', 'http://dbpedia.org/resource/Gothic_Tropic', 'http://dbpedia.org/resource/Greg_Kurstin', 'http://dbpedia.org/resource/Jakob_Dylan', 'http://dbpedia.org/resource/James_Gadson', 'http://dbpedia.org/resource/Jessica_Dobson', 'http://dbpedia.org/resource/Joey_Waronker', 'http://dbpedia.org/resource/Josh_Klinghoffer', 'http://dbpedia.org/resource/Justin_Meldal-Johnsen', 'http://dbpedia.org/resource/Justin_Stanley', 'http://dbpedia.org/resource/MC_Lord_Magrão', 'http://dbpedia.org/resource/Matt_Sherrod', 'http://dbpedia.org/resource/Mickey_Petralia', 'http://dbpedia.org/resource/Mike_D', 'http://dbpedia.org/resource/Natalie_Bergman', 'http://dbpedia.org/resource/Nate_Walcott', 'http://dbpedia.org/resource/Nicolas_Godin', 'http://dbpedia.org/resource/Nigel_Godrich', 'http://dbpedia.org/resource/Paleface_(musician)', 'http://dbpedia.org/resource/Paul_Livingstone__Paul_Livingstone__1', 'http://dbpedia.org/resource/Rachel_Haden', 'http://dbpedia.org/resource/Randy_Merrill', 'http://dbpedia.org/resource/Robert_Carranza', 'http://dbpedia.org/resource/Roger_Joseph_Manning_Jr.', 'http://dbpedia.org/resource/Smokey_Hormel', 'http://dbpedia.org/resource/Steven_Shane_McDonald', 'http://dbpedia.org/resource/Stevie_Blacke', 'http://dbpedia.org/resource/The_Blue_News', 'http://dbpedia.org/resource/The_Chemical_Brothers', 'http://dbpedia.org/resource/The_Ghost_of_a_Saber_Tooth_Tiger', 'http://dbpedia.org/resource/The_White_Stripes', 'http://dbpedia.org/resource/Tobacco_(musician)', 'http://dbpedia.org/resource/Tom_Rothrock', 'http://dbpedia.org/resource/Tortoise_(band)'], 'abstract': 'Beck David Hansen (born Bek David Campbell; July 8, 1970) is an American musician, singer, songwriter, and record producer. He rose to fame in the early 1990s with his experimental and lo-fi style, and became known for creating musical collages of wide-ranging genres. He has musically encompassed folk, funk, soul, hip hop, electronic, alternative rock, country, and psychedelia. He has released 14 studio albums (three of which were released on indie labels), as well as several non-album singles and a book of sheet music. Born and raised in Los Angeles, Beck grew towards hip-hop and folk in his teens and began to perform locally at coffeehouses and clubs. He moved to New York City in 1989 and became involved in the city\'s small but fiery anti-folk movement. Returning to Los Angeles in the early 1990s, he cut his breakthrough single "Loser", which became a worldwide hit in 1994, and released his first major album, Mellow Gold, the same year. Odelay, released in 1996, topped critic polls and won several awards. He released the country-influenced, twangy Mutations in 1998, and the funk-infused Midnite Vultures in 1999. The soft-acoustic Sea Change in 2002 showcased a more serious Beck, and 2005\'s Guero returned to Odelay\'s sample-based production. The Information in 2006 was inspired by electro-funk, hip hop, and psychedelia; 2008\'s Modern Guilt was inspired by \'60s pop music; and 2014\'s folk-infused Morning Phase won Album of the Year at the 57th Grammy Awards. His 2017 album, Colors, won awards for Best Alternative Album and Best Engineered Album at the 61st Annual Grammy Awards. His fourteenth studio album, Hyperspace, was released on November 22, 2019. With a pop art collage of musical styles, oblique and ironic lyrics, and postmodern arrangements incorporating samples, drum machines, live instrumentation and sound effects, Beck has been hailed by critics and the public throughout his musical career as being among the most idiosyncratically creative musicians of 1990s and 2000s alternative rock. Two of Beck\'s most popular and acclaimed recordings are Odelay and Sea Change, both of which were ranked on Rolling Stone\'s list of the 500 greatest albums of all time. The four-time platinum artist has collaborated with several artists and has made several contributions to soundtracks.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Anastacia', 'artist_name': 'Anastacia', 'wiki': 'http://en.wikipedia.org/wiki/Anastacia', 'birth_date': '17 September 1968', 'start_year': '1990', 'labels': ['http://dbpedia.org/resource/BMG_Rights_Management', 'http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/Sony_Music', 'http://dbpedia.org/resource/Universal_Music_Group'], 'genres': ['http://dbpedia.org/resource/Blue-eyed_soul', 'http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Pop_rock'], 'related_artists': ['http://dbpedia.org/resource/Anders_Grahn', 'http://dbpedia.org/resource/Auryn', "http://dbpedia.org/resource/Ben's_Brother", 'http://dbpedia.org/resource/Ben_Moody', 'http://dbpedia.org/resource/Billy_Mann', 'http://dbpedia.org/resource/Canela_Cox', 'http://dbpedia.org/resource/Celine_Dion', 'http://dbpedia.org/resource/Chaka_Khan', 'http://dbpedia.org/resource/Dallas_Austin', 'http://dbpedia.org/resource/David_Morales', 'http://dbpedia.org/resource/Dima_Bilan', 'http://dbpedia.org/resource/Elton_John', 'http://dbpedia.org/resource/Eros_Ramazzotti', 'http://dbpedia.org/resource/Faith_Evans', 'http://dbpedia.org/resource/Jamiroquai', 'http://dbpedia.org/resource/Jive_Jones', 'http://dbpedia.org/resource/Jon_Bon_Jovi', 'http://dbpedia.org/resource/Kurt_Carr', 'http://dbpedia.org/resource/Lisa_Lopes', 'http://dbpedia.org/resource/Luciano_Pavarotti', 'http://dbpedia.org/resource/Michael_Jackson', 'http://dbpedia.org/resource/Natalia_(Belgian_singer)', 'http://dbpedia.org/resource/Tommy_Organ', 'http://dbpedia.org/resource/Will_Wheaton'], 'abstract': 'Anastacia Lyn Newkirk (/ˌænəˈsteɪʒə/ AN-ə-STAY-zhə; born September 17, 1968) is an American singer-songwriter, producer and former dancer. Her first two albums Not That Kind (2000) and Freak of Nature (2001) were released in quick succession to major success. Spurred on by the multi-platinum, global smash "I\'m Outta Love", Anastacia was awarded as the \'World\'s Best-Selling New Female Pop Artist\' in 2001. Her commercial success continued with international hits such as "Paid My Dues", "One Day In Your Life" and the official song of the 2002 FIFA World Cup, "Boom". After recovering from cancer, she returned with 2004\'s Anastacia which deviated from previous albums into pop-rock. Peaking at number one in 11 countries, it became Europe\'s second-biggest-selling album of the year. Its lead single "Left Outside Alone" remained at number one on the European Billboard chart for 15 weeks and helped Anastacia launch the most successful European tour by a solo artist that same year. The album also provided another three singles: "Sick and Tired", "Welcome to My Truth", and "Heavy on My Heart". In 2005, the multi-platinum compilation project Pieces of a Dream was released, which spawned the chart-topping duet with Eros Ramazzotti, "I Belong to You (Il Ritmo della Passione)". Her fourth studio album Heavy Rotation (2008) produced the songs "Absolutely Positively", "Defeated", and "I Can Feel You". Her cover album It\'s a Man\'s World (2012) was followed by a sixth studio album Resurrection (2014), which reached the top ten of several European charts. Her Ultimate Collection was released in 2015 and peaked in the top ten of the UK charts, giving the singer her sixth top-ten album in Britain. In 2017, Anastacia released the studio album Evolution and its lead single "Caught in the Middle". Anastacia has established herself as one of the best-selling international female singers of the 2000s and 2010s. As of 2016, she has reported worldwide sales of more than 50 million. She has had five top ten singles on U.S. Billboard\'s Dance Club chart and three albums on its Top Album Sales chart. Known for her powerful mezzo-soprano voice and her small stature of 5 feet 2 inches (157 cm), she has been dubbed "the little lady with the big voice". She underwent corrective LASIK surgery in August 2005, although she still frequently wears the glasses for which she became noted when she first became famous. During her life Anastacia has battled many health problems. She was diagnosed with Crohn\'s disease when she was 13, breast cancer at the age of 34, and supraventricular tachycardia aged 39. In 2013, Anastacia was diagnosed with breast cancer for a second time. In recognition of her decade-long charitable efforts in breast cancer awareness, Anastacia became the second woman ever to be presented with the Humanitarian Award at the GQ Men of the Year Awards in 2013.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Smash_Mouth', 'artist_name': 'Smash Mouth', 'wiki': 'http://en.wikipedia.org/wiki/Smash_Mouth', 'hometown': 'http://dbpedia.org/resource/San_Jose,_California', 'start_year': '1994', 'labels': ['http://dbpedia.org/resource/429_Records', 'http://dbpedia.org/resource/Interscope_Records', 'http://dbpedia.org/resource/Universal_Records_(1995−2005)'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Pop-punk', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Power_pop', 'http://dbpedia.org/resource/Ska_punk', 'http://dbpedia.org/resource/Surf_music', 'surf rock', 'new wave'], 'actual_members': ['http://dbpedia.org/resource/Paul_De_Lisle', 'http://dbpedia.org/resource/Randy_Cooke', 'http://dbpedia.org/resource/Sean_Hurwitz', 'Michael Klooster'], 'old_members': ['http://dbpedia.org/resource/Greg_Camp', 'http://dbpedia.org/resource/Jason_Sutter', 'http://dbpedia.org/resource/Leroy_(musician)', 'http://dbpedia.org/resource/Michael_Urbano', 'http://dbpedia.org/resource/Steve_Harwell', 'Mike Krompass', 'Mark Cervantes', 'Charlie Paxson', 'Kevin Coleman', 'Mitch Marine', 'Sam Eigen'], 'related_artists': ['http://dbpedia.org/resource/Greg_Camp', 'http://dbpedia.org/resource/Paul_De_Lisle', 'http://dbpedia.org/resource/Robert_Eibach', 'http://dbpedia.org/resource/Romeo_Johnson', 'http://dbpedia.org/resource/Sean_Hurwitz', 'http://dbpedia.org/resource/Steve_Harwell', 'http://dbpedia.org/resource/Tripping_Daisy'], 'abstract': 'Smash Mouth is an American rock band from San Jose, California. The band was formed in 1994, and was originally composed of Steve Harwell (lead vocals), Kevin Coleman (drums), Greg Camp (guitar), and Paul De Lisle (bass). They are known for their songs "Walkin\' on the Sun" (1997), "All Star" (1999), and "Then The Morning Comes" (1999), as well as a cover of The Monkees\' "I\'m a Believer" (2001). The band adopted retro styles covering several decades of popular music. They have also performed numerous covers of popular songs, including War\'s "Why Can\'t We Be Friends?", Simple Minds\' "Don\'t You (Forget About Me)", ? &amp; the Mysterians\' "Can\'t Get Enough of You Baby", the Beatles\' "Getting Better", and "I Wan\'na Be Like You" from The Jungle Book. They also composed two songs for the South Korean animated film Pororo, The Racing Adventure: "Beside Myself" and "Everything Just Crazy".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Mr._Big_(American_band)', 'artist_name': 'Mr. Big', 'wiki': 'http://en.wikipedia.org/wiki/Mr._Big_(American_band)', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '2009', 'end_year': '2018', 'labels': ['http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Frontiers_Records', 'http://dbpedia.org/resource/Warner_Music_Group'], 'genres': ['http://dbpedia.org/resource/Arena_rock', 'http://dbpedia.org/resource/Glam_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music', 'http://dbpedia.org/resource/Soft_rock'], 'actual_members': ['http://dbpedia.org/resource/Billy_Sheehan', 'http://dbpedia.org/resource/Eric_Martin_(musician)', 'http://dbpedia.org/resource/Paul_Gilbert'], 'old_members': ['http://dbpedia.org/resource/Pat_Torpey', 'http://dbpedia.org/resource/Richie_Kotzen'], 'related_artists': ['http://dbpedia.org/resource/Billy_Sheehan', 'http://dbpedia.org/resource/David_Lee_Roth', 'http://dbpedia.org/resource/Eric_Martin_(musician)', 'http://dbpedia.org/resource/G3_(tour)', 'http://dbpedia.org/resource/Impellitteri', 'http://dbpedia.org/resource/Matt_Starr', 'http://dbpedia.org/resource/Pat_Torpey', 'http://dbpedia.org/resource/Paul_Gilbert', 'http://dbpedia.org/resource/Racer_X_(band)', 'http://dbpedia.org/resource/Richie_Kotzen', 'http://dbpedia.org/resource/Sons_of_Apollo', 'http://dbpedia.org/resource/Tak_Matsumoto_Group', 'http://dbpedia.org/resource/The_Winery_Dogs', 'http://dbpedia.org/resource/Willie_Basse'], 'abstract': 'Mr. Big is an American glam metal band formed in Los Angeles, California, in 1988. The band was originally composed of Eric Martin (lead vocals), Paul Gilbert (guitar, backing vocals), Billy Sheehan (bass guitar, backing vocals), and Pat Torpey (drums, percussion, backing vocals). Though primarily a metal band, they are most known for scoring softer hits. Their songs are often marked by strong vocals and vocal harmonies. Their hits include "To Be with You" (a number-one single in 15 countries in 1992) and "Just Take My Heart". The band takes its name from a song by Free which it covered on the 1993 album Bump Ahead. Mr. Big remained active and popular for over a decade despite internal conflicts and changing music trends, releasing four studio albums: Mr. Big (1989), Lean into It (1991), Bump Ahead (1993) and Hey Man (1996). Guitarist Paul Gilbert departed the band in 1999, and Richie Kotzen was brought as a guitarist and vocalist. The band released two more albums with this line-up: Get Over It (1999) and Actual Size (2001). Mr. Big broke up in 2002. Following requests from fans, Mr. Big reunited with its original line-up in 2009. The band\'s first post-reunion tour was in Japan. In 2010, Mr. Big released its first album in 15 years with the same line-up: What If.... During the recording of the follow-up album ...The Stories We Could Tell (2014), Pat Torpey was diagnosed with Parkinson\'s disease and participated only marginally as a touring support. The band\'s ninth album, Defying Gravity (2017), was its last record involving Torpey as drum producer; he died the following year. Not wanting to continue without Torpey, the band intended to release a final studio album, conduct a farewell tour and disband. However, since then they have been on hiatus, they still exist as musical entity, but with no concrete plans to continue with a different drummer and haven\'t discussed their future, as affirmed by Billy Sheehan. Mr. Big is frequently cited as an example of the "Big in Japan" phenomenon, where a musical act is disproportionately more popular in Japan compared to similar groups. Some consider Mr. Big as one-hit wonder for "To Be with You", but they maintained consistent popularity in the Japanese market for years.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Audioslave', 'artist_name': 'Audioslave', 'wiki': 'http://en.wikipedia.org/wiki/Audioslave', 'hometown': 'http://dbpedia.org/resource/Glendale,_California', 'start_year': '2001', 'end_year': '2007', 'labels': ['http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Interscope_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Post-grunge'], 'old_members': ['http://dbpedia.org/resource/Brad_Wilk', 'http://dbpedia.org/resource/Chris_Cornell', 'http://dbpedia.org/resource/Tim_Commerford', 'http://dbpedia.org/resource/Tom_Morello'], 'related_artists': ['http://dbpedia.org/resource/Axis_of_Justice', 'http://dbpedia.org/resource/Brad_Wilk', 'http://dbpedia.org/resource/Greg_Fidelman', 'http://dbpedia.org/resource/Lock_Up_(American_band)', 'http://dbpedia.org/resource/Prophets_of_Rage', 'http://dbpedia.org/resource/Rage_Against_the_Machine', 'http://dbpedia.org/resource/Rage_Against_the_Machine__Rage_Against_the_Machine__1', 'http://dbpedia.org/resource/Soundgarden', 'http://dbpedia.org/resource/Street_Sweeper_Social_Club', 'http://dbpedia.org/resource/The_Last_Internationale', 'http://dbpedia.org/resource/The_Nightwatchman', 'http://dbpedia.org/resource/Tim_Commerford', 'http://dbpedia.org/resource/Tom_Morello', 'http://dbpedia.org/resource/Wakrat'], 'abstract': "Audioslave was an American rock supergroup formed in Glendale, California, in 2001. The four-piece band consisted of Soundgarden's lead singer and rhythm guitarist Chris Cornell with Rage Against the Machine members Tom Morello (lead guitar), Tim Commerford (bass/backing vocals), and Brad Wilk (drums). Critics first described Audioslave as a combination of Soundgarden and Rage Against the Machine, but by the band's second album, Out of Exile, it was noted that they had established a separate identity. Their unique sound was created by blending 1970s hard rock and 1990s alternative rock, with musical influences that included 1960s funk, soul and R&amp;B. As with Rage Against the Machine, the band prided themselves on the fact that all sounds on their albums were produced using only guitars, bass, drums, and vocals, with emphasis on Cornell's wide vocal range and Morello's unconventional guitar solos. In their six years together, Audioslave released three albums, received three Grammy nominations, sold more than eight million records worldwide and became the first American rock band to perform an open-air concert in Cuba. They disbanded in February 2007 after Cornell issued a statement announcing that he was leaving the band. Later that year, Cornell and Morello released solo albums, and Morello, Commerford, and Wilk reunited with Zack de la Rocha for the Rage Against the Machine Reunion Tour. Audioslave reunited to perform at Prophets of Rage's Anti-Inaugural Ball, which took place on January 20, 2017. Cornell's death later that year precluded any chance of further reunions."}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Duck_Sauce', 'artist_name': 'Duck Sauce', 'wiki': 'http://en.wikipedia.org/wiki/Duck_Sauce', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '2009', 'labels': ['http://dbpedia.org/resource/All_Around_the_World_Productions', 'http://dbpedia.org/resource/Arista_Records', 'http://dbpedia.org/resource/Casablanca_Records', "http://dbpedia.org/resource/Fool's_Gold_Records", 'http://dbpedia.org/resource/Ministry_of_Sound', 'http://dbpedia.org/resource/Republic_Records', 'http://dbpedia.org/resource/Ultra_Music'], 'genres': ['http://dbpedia.org/resource/Funky_house', 'http://dbpedia.org/resource/House_music', 'http://dbpedia.org/resource/Nu-disco'], 'actual_members': ['http://dbpedia.org/resource/A-Trak', 'http://dbpedia.org/resource/Armand_van_Helden'], 'related_artists': ['http://dbpedia.org/resource/A-Trak', 'http://dbpedia.org/resource/Armand_van_Helden__Armand_van_Helden__1', 'http://dbpedia.org/resource/Pascal_&amp;_Pearce'], 'abstract': 'Duck Sauce is an electronic music duo, formed in 2009 in New York City. The duo consists of American DJ Armand van Helden and Canadian DJ A-Trak. They are best known for their 2010 single "Barbra Streisand".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Lana_Del_Rey', 'artist_name': 'Lana Del Rey', 'wiki': 'http://en.wikipedia.org/wiki/Lana_Del_Rey', 'birth_date': '21 June 1985', 'start_year': '2005', 'plays_in': ['http://dbpedia.org/resource/Amor_à_Vida', 'http://dbpedia.org/resource/Avenida_Brasil_(TV_series)', 'http://dbpedia.org/resource/Grammy_Nominees', 'http://dbpedia.org/resource/Norman_Fucking_Rockwell_(film)', 'http://dbpedia.org/resource/Tropico_(film)'], 'related_artists': ['http://dbpedia.org/resource/Aaron_A._Brooks', 'http://dbpedia.org/resource/Al_Shux', 'http://dbpedia.org/resource/Andrew_Scheps', 'http://dbpedia.org/resource/Bobby_Womack', 'http://dbpedia.org/resource/Bristeil', 'http://dbpedia.org/resource/Børns', 'http://dbpedia.org/resource/Cat_Power', 'http://dbpedia.org/resource/Cedric_Gervais', 'http://dbpedia.org/resource/Chris_Braide', 'http://dbpedia.org/resource/Clara_Luciani', 'http://dbpedia.org/resource/Contemplate_(pop_duo)', 'http://dbpedia.org/resource/Emile_Haynie__Emile_Haynie__1', 'http://dbpedia.org/resource/Gemini_(musician)', 'http://dbpedia.org/resource/Jack_Antonoff', 'http://dbpedia.org/resource/Jimmy_Gnecco', 'http://dbpedia.org/resource/Justin_Parker', 'http://dbpedia.org/resource/Leon_Michels', 'http://dbpedia.org/resource/Maya_Lavelle', 'http://dbpedia.org/resource/Mike_Daly', 'http://dbpedia.org/resource/Miles_Kane', 'http://dbpedia.org/resource/Pearl_Charles', 'http://dbpedia.org/resource/Photek', 'http://dbpedia.org/resource/Princess_Superstar', 'http://dbpedia.org/resource/Reeve_Carney', 'http://dbpedia.org/resource/Rick_Nowels', 'http://dbpedia.org/resource/Robopop', 'http://dbpedia.org/resource/Sacha_Skarbek', 'http://dbpedia.org/resource/Sean_Lennon', 'http://dbpedia.org/resource/Seye_Adelekan', 'http://dbpedia.org/resource/Sterling_Fox', 'http://dbpedia.org/resource/Weyes_Blood', 'http://dbpedia.org/resource/Zac_Rae', 'http://dbpedia.org/resource/Zach_Dawes', 'http://dbpedia.org/resource/Zella_Day'], 'abstract': 'Elizabeth Woolridge Grant (born June 21, 1985), known professionally as Lana Del Rey, is an American singer-songwriter. Her music is noted for its cinematic quality and exploration of tragic romance, glamour, and melancholia, containing references to contemporary pop culture, as well as 1950s and 1960s Americana. She is the recipient of various accolades, including two Brit Awards, two MTV Europe Music Awards, a Satellite Award, and has been nominated for six Grammy Awards and one Golden Globe Award. She also has been recognized with the Variety\'s Decade Award at the Variety Hitmakers Awards for being ″regarded as one of the most influential singer-songwriters of the 21st century″. Raised in upstate New York, Del Rey moved to New York City in 2005 to pursue a music career. After numerous projects, including her self-titled debut studio album, Del Rey\'s breakthrough came in 2011 with the viral success of her single "Video Games"; she subsequently signed a recording contract with Polydor and Interscope. She achieved critical and commercial success with her second album, Born to Die (2012), which contained the sleeper hit "Summertime Sadness". Del Rey\'s third album, Ultraviolence (2014), featured greater use of guitar-driven instrumentation and debuted atop the U.S. Billboard 200. Her fourth and fifth albums, Honeymoon (2015) and Lust for Life (2017), saw a return to the stylistic traditions of her earlier releases, while her critically acclaimed sixth album, Norman Fucking Rockwell! (2019), explored soft rock. Del Rey followed this with the albums Chemtrails over the Country Club and Blue Banisters, both in 2021. Del Rey has collaborated on soundtracks for visual media; in 2013, she wrote and starred in the critically acclaimed musical short Tropico, and performed "Young and Beautiful" for the romantic drama The Great Gatsby. In 2014, she recorded "Once Upon a Dream" for the dark fantasy adventure film Maleficent and the self-titled theme song for the biopic Big Eyes. Del Rey collaborated with Ariana Grande and Miley Cyrus on "Don\'t Call Me Angel" for the action comedy Charlie\'s Angels (2019), which peaked at number 13 on the U.S. Billboard Hot 100, becoming her highest charting song. Outside of music, Del Rey published the poetry and photography collection Violet Bent Backwards over the Grass (2020).'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Lemonheads', 'artist_name': 'The Lemonheads', 'wiki': 'http://en.wikipedia.org/wiki/The_Lemonheads', 'hometown': 'http://dbpedia.org/resource/Massachusetts', 'start_year': '1986', 'end_year': '1997', 'labels': ['http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Fire_Records_(UK)', 'http://dbpedia.org/resource/Taang!_Records', 'http://dbpedia.org/resource/The_End_Records', 'http://dbpedia.org/resource/Vagrant_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/College_rock', 'http://dbpedia.org/resource/Grunge', 'http://dbpedia.org/resource/Power_pop', 'http://dbpedia.org/resource/Punk_rock'], 'actual_members': ['http://dbpedia.org/resource/Evan_Dando'], 'old_members': ['http://dbpedia.org/resource/Angel_Rot', 'http://dbpedia.org/resource/Ben_Deily', 'http://dbpedia.org/resource/Bill_Stevenson_(musician)', 'http://dbpedia.org/resource/Jesse_Peretz', 'http://dbpedia.org/resource/John_Strohm_(musician)', 'http://dbpedia.org/resource/Josh_Lattanzi', 'http://dbpedia.org/resource/Juliana_Hatfield', 'http://dbpedia.org/resource/Kenny_Lyon', 'http://dbpedia.org/resource/Murph_(drummer)', 'http://dbpedia.org/resource/Nic_Dalton', 'http://dbpedia.org/resource/T._Corey_Brennan', 'http://dbpedia.org/resource/Vess_Ruhtenberg', 'Mark "Budola" NewmanKarl Alvarez', 'Doug Trachten', 'Mark Cutsinger', 'John Kent', 'David Ryan', 'P. David Hazel', 'Ben Daughtry', 'Devon Ashley', 'Byron Hoagland'], 'related_artists': ['http://dbpedia.org/resource/All_(band)', 'http://dbpedia.org/resource/Black_Flag_(band)', 'http://dbpedia.org/resource/Blake_Babies', 'http://dbpedia.org/resource/Bullet_LaVolta', 'http://dbpedia.org/resource/Descendents', 'http://dbpedia.org/resource/Dinosaur_Jr.', 'http://dbpedia.org/resource/Juliana_Hatfield', 'http://dbpedia.org/resource/Smudge_(band)', 'http://dbpedia.org/resource/Sneeze_(band)', 'http://dbpedia.org/resource/The_Plunderers_(band)'], 'abstract': 'The Lemonheads are an American alternative rock band formed in Boston, Massachusetts, in 1986 by Evan Dando, Ben Deily, and Jesse Peretz. Dando has remained the band\'s only constant member.After their initial punk-influenced releases and tours as an independent/college rock band in the late 1980s, the Lemonheads\' popularity with a mass audience grew in 1992 with the major label album It\'s a Shame about Ray, which was produced, engineered, and mixed by The Robb Brothers (Bruce Robb, Dee, and Joe). This was followed by a cover of Simon and Garfunkel\'s "Mrs. Robinson", which eventually became one of the band\'s most successful singles. Then Lemonheads were active until 1997 before going on hiatus, but reformed with a new lineup in 2005 and released The Lemonheads the following year. The band released its latest album, Varshons 2, in February 2019. Since its formation, recording and touring lineups of the band have included co-founders Deily and Peretz, John Strohm (Blake Babies), Doug Trachten, Corey Loog Brennan, Byron Hoagland (Folks On Fire), Ben Daughtrey (Squirrel Bait), Juliana Hatfield (Blake Babies), Nic Dalton (Godstar, Sneeze, The Plunderers), David Ryan (Fuzzy), Patrick "Murph" Murphy (Dinosaur Jr), George Berz (Dinosaur Jr, Gobblehoof), Josh Lattanzi, Bill Gibson (The Eastern Dark), Mark \'Budola\' Newman, Kenny Lyon, Vess Ruhtenberg, Devon Ashley, Karl Alvarez and Bill Stevenson (Descendents), P. David Hazel and various others.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Macklemore_&amp;_Ryan_Lewis', 'artist_name': 'Macklemore &amp; Ryan Lewis', 'wiki': 'http://en.wikipedia.org/wiki/Macklemore_&amp;_Ryan_Lewis', 'hometown': 'http://dbpedia.org/resource/Seattle', 'start_year': '2008', 'end_year': '2017', 'labels': ['http://dbpedia.org/resource/Macklemore'], 'genres': ['http://dbpedia.org/resource/Alternative_hip_hop', 'http://dbpedia.org/resource/Pop_rap', 'http://dbpedia.org/resource/Progressive_rap'], 'old_members': ['http://dbpedia.org/resource/Macklemore', 'http://dbpedia.org/resource/Ryan_Lewis'], 'related_artists': ['http://dbpedia.org/resource/Fences_(band)', 'http://dbpedia.org/resource/Hollis_(singer)', 'http://dbpedia.org/resource/Ryan_Lewis', 'http://dbpedia.org/resource/Tom_Coyne_(music_engineer)'], 'abstract': 'Macklemore &amp; Ryan Lewis are an American hip hop duo, formed in 2008, from Seattle, Washington. The duo is composed of Ben Haggerty, a rapper who goes by the stage name of Macklemore, and Ryan Lewis, a record producer, DJ, and professional photographer, who met the former at a photo shoot. In 2009, they released their first collaborative effort, an EP titled VS. EP. They later followed up with VS. Redux (2010), the Grammy Award-winning album The Heist (2012) and This Unruly Mess I\'ve Made (2016). Macklemore and Lewis\' single "Thrift Shop" reached number one on the US Billboard Hot 100 in 2013. The single was soon dubbed the first song since 1994 to top the Hot 100 chart without the support of a major record label by Billboard, although Macklemore, in a slightly unusual recording contract, pays a nominal percentage of sales to use Warner Bros. Records\' radio promotion department to push his singles. Their second single, "Can\'t Hold Us", also peaked at number one on the Hot 100 Chart, making Macklemore and Lewis the first duo in the chart\'s history to have their first two singles both reach the peak position. Macklemore and Lewis released their debut studio album, The Heist, on October 9, 2012, which charted at number 2 on the US Billboard 200. The pair won four Grammy Awards at the 2014 ceremony, including Best New Artist, Best Rap Album (The Heist), Best Rap Song and Best Rap Performance ("Thrift Shop"). Their second album, This Unruly Mess I\'ve Made, was released on February 26, 2016. As of 2021, the band has sold 2 million records worldwide. On June 15, 2017, Macklemore announced that the duo were on hiatus. On October 26, 2021, Macklemore and Ryan Lewis announced that a new track, titled "Next Year", featuring pop musician Windser is set to be released on October 29, on their respective Instagram pages.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Vassy_(singer)', 'artist_name': 'Vassy', 'wiki': 'http://en.wikipedia.org/wiki/Vassy_(singer)', 'birth_date': '18 February 1983', 'start_year': '2003', 'labels': ['http://dbpedia.org/resource/ABC_Music', 'http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Ultra_Music', 'http://dbpedia.org/resource/Universal_Music_Group', 'http://dbpedia.org/resource/Warner_Records'], 'genres': ['http://dbpedia.org/resource/Dance_music', 'http://dbpedia.org/resource/Electronic_dance_music', 'http://dbpedia.org/resource/Indie_pop', 'http://dbpedia.org/resource/Pop_music', 'Pop', 'dance', 'EDM'], 'related_artists': ['http://dbpedia.org/resource/Afrojack', 'http://dbpedia.org/resource/Benny_Benassi', 'http://dbpedia.org/resource/Crystal_Waters', 'http://dbpedia.org/resource/David_Guetta', 'http://dbpedia.org/resource/Florian_Picasso', 'http://dbpedia.org/resource/Kshmr', 'http://dbpedia.org/resource/Pitbull_(rapper)', 'http://dbpedia.org/resource/Salvatore_Lodato', 'http://dbpedia.org/resource/Scooter_(band)', 'http://dbpedia.org/resource/Showtek', 'http://dbpedia.org/resource/The_Cataracs', 'http://dbpedia.org/resource/Tim_Myers', 'http://dbpedia.org/resource/Tiësto'], 'abstract': 'Vassy Karagiorgos, known mononymously as Vassy (frequently stylised as VASSY, born 18 February 1983) is an Australian singer, songwriter and record producer.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Cedric_Gervais', 'artist_name': 'Cedric Gervais', 'wiki': 'http://en.wikipedia.org/wiki/Cedric_Gervais', 'birth_date': '07 June 1979', 'labels': ['http://dbpedia.org/resource/Armada_Music', 'http://dbpedia.org/resource/Interscope_Records', 'http://dbpedia.org/resource/Polydor_Records', "http://dbpedia.org/resource/Spinnin'_Records", 'http://dbpedia.org/resource/Ultra_Music'], 'genres': ['http://dbpedia.org/resource/Big_room_house', 'http://dbpedia.org/resource/Dance_music', 'http://dbpedia.org/resource/Electro_house', 'http://dbpedia.org/resource/Progressive_house', 'http://dbpedia.org/resource/Tech_house', 'Dance'], 'related_artists': ['http://dbpedia.org/resource/Ali_Tamposi', 'http://dbpedia.org/resource/Borgore', 'http://dbpedia.org/resource/David_Guetta', 'http://dbpedia.org/resource/Deep_Dish_(duo)', 'http://dbpedia.org/resource/Howard_Jones_(British_musician)', 'http://dbpedia.org/resource/Lana_Del_Rey', 'http://dbpedia.org/resource/Lenny_Kravitz'], 'abstract': 'Cédric DePasquale (French pronunciation: \u200b[sedʁik dəpaskal], born 7 June 1979), better known by his stage name Cedric Gervais (French pronunciation: \u200b[sedʁik ʒɛʁvɛ]), is a French DJ, record producer and actor residing in Miami Beach, Florida. In 2013, he produced a remix of Lana Del Rey\'s "Summertime Sadness", for which he won a Grammy Award.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Zayn_Malik', 'artist_name': 'Zayn', 'wiki': 'http://en.wikipedia.org/wiki/Zayn_Malik', 'birth_date': '12 January 1993', 'start_year': '2010', 'related_artists': ['http://dbpedia.org/resource/Malay_(record_producer)', 'http://dbpedia.org/resource/Melissa_Steel', 'http://dbpedia.org/resource/Snakehips_(duo)', 'http://dbpedia.org/resource/The_Invisible_Men', 'http://dbpedia.org/resource/Tushar_Apte', 'http://dbpedia.org/resource/Zhavia_Ward'], 'abstract': 'Zain Javadd Malik (/ˈmælɪk/; born 12 January 1993), known mononymously as Zayn, is a British singer. Born and raised in Bradford, Malik auditioned as a solo contestant for the British music competition The X Factor in 2010. After being eliminated as a solo performer, Malik was brought back into the competition, along with four other contestants, to form the boy band One Direction, which went on to become one of the best-selling boy bands of all time. Malik left the group in March 2015 and subsequently signed a solo recording contract with RCA Records. Adopting a more alternative R&amp;B music style with his debut studio album, Mind of Mine (2016), and its lead single, "Pillowtalk", Malik became the first British male artist to debut at number one in both the UK and US, with his debut single and debut album. His collaborative singles, "I Don\'t Wanna Live Forever" with Taylor Swift and "Dusk Till Dawn" featuring Sia, were met with international success. Malik released his second studio album, Icarus Falls, in 2018. His third album, Nobody Is Listening, was released in January 2021. Malik is the recipient of several accolades, including an American Music Award and a MTV Video Music Award. He is also the only artist to have won the Billboard Music Award for New Artist of the Year twice, receiving it once as a member of One Direction in 2013 and then again in 2017 as a solo artist.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Freddie_Mercury', 'artist_name': 'Freddie Mercury', 'wiki': 'http://en.wikipedia.org/wiki/Freddie_Mercury', 'birth_date': '05 September 1946', 'death_date': '24 November 1991', 'start_year': '1969', 'end_year': '1991', 'aliases': ['Freddie Bulsara', 'Larry Lurex'], 'plays_in': ["http://dbpedia.org/resource/Hunter's_Moon_(Delain_EP)", 'http://dbpedia.org/resource/II_(Lords_of_Black_album)'], 'related_artists': ['http://dbpedia.org/resource/Giorgio_Moroder', 'http://dbpedia.org/resource/Jo_Burt', 'http://dbpedia.org/resource/Sour_Milk_Sea_(band)'], 'abstract': 'Freddie Mercury (born Farrokh Bulsara; 5 September 1946 – 24 November 1991) was a British singer, songwriter, record producer, and lead vocalist of the rock band Queen. Regarded as one of the greatest singers in the history of rock music, he was known for his flamboyant stage persona and four-octave vocal range. Mercury defied the conventions of a rock frontman, with his highly theatrical style influencing the artistic direction of Queen. Born in 1946 in Zanzibar to Parsi-Indian parents, he attended English-style boarding schools in India from the age of eight and returned to Zanzibar after secondary school. In 1964, his family fled the Zanzibar Revolution, moving to Middlesex, England. Having studied and written music for years, he formed Queen in 1970 with guitarist Brian May and drummer Roger Taylor. Mercury wrote numerous hits for Queen, including "Killer Queen", "Bohemian Rhapsody", "Somebody to Love", "We Are the Champions", "Don\'t Stop Me Now", and "Crazy Little Thing Called Love". His charismatic stage performances often saw him interact with the audience, as displayed at the 1985 Live Aid concert. He also led a solo career and served as a producer and guest musician for other artists. Mercury died in 1991 at age 45 due to complications from AIDS. He confirmed the day before his death that he had contracted the disease, having been diagnosed in 1987. Mercury had continued to record with Queen following his diagnosis, and he was posthumously featured on the band\'s final album, Made in Heaven (1995). In 1992, his tribute concert was held at Wembley Stadium. As a member of Queen, Mercury was posthumously inducted into the Rock and Roll Hall of Fame in 2001, the Songwriters Hall of Fame in 2003, and the UK Music Hall of Fame in 2004. In 1990, he and the other Queen members were awarded the Brit Award for Outstanding Contribution to British Music, and one year after his death Mercury was awarded it individually. In 2005, Queen were awarded an Ivor Novello Award for Outstanding Song Collection from the British Academy of Songwriters, Composers, and Authors. In 2002, Mercury ranked number 58 in the BBC\'s poll of the 100 Greatest Britons. His career with Queen was dramatised in the 2018 biopic Bohemian Rhapsody.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Eddie_Rabbitt', 'artist_name': 'Eddie Rabbitt', 'wiki': 'http://en.wikipedia.org/wiki/Eddie_Rabbitt', 'birth_date': '27 November 1941', 'death_date': '07 May 1998', 'start_year': '1964', 'end_year': '1998', 'labels': ['http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/Elektra_Records', 'http://dbpedia.org/resource/Liberty_Records', 'http://dbpedia.org/resource/RCA_Records', 'http://dbpedia.org/resource/Warner_Records'], 'genres': ['http://dbpedia.org/resource/Country_music', 'http://dbpedia.org/resource/Country_pop', 'http://dbpedia.org/resource/Country_rock', 'http://dbpedia.org/resource/Truck-driving_country'], 'related_artists': ['http://dbpedia.org/resource/David_Malloy', 'http://dbpedia.org/resource/Juice_Newton', 'http://dbpedia.org/resource/Richard_Landis', 'http://dbpedia.org/resource/Ronnie_Milsap', 'http://dbpedia.org/resource/T._G._Sheppard'], 'abstract': 'Edward Thomas Rabbitt (November 27, 1941 – May 7, 1998) was an American country music singer and songwriter. His career began as a songwriter in the late 1960s, springboarding to a recording career after composing hits such as "Kentucky Rain" for Elvis Presley in 1970 and "Pure Love" for Ronnie Milsap in 1974. Later in the 1970s, Rabbitt helped to develop the crossover-influenced sound of country music prevalent in the 1980s with such hits as "Suspicions", "I Love a Rainy Night" (a number-one hit single on the Billboard Hot 100), and "Every Which Way but Loose" (the theme from the film of the same title). His duets "Both to Each Other (Friends and Lovers)" with Juice Newton and "You and I" with Crystal Gayle later appeared on the soap operas Days of Our Lives and All My Children.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Joey_Ramone', 'artist_name': 'Joey Ramone', 'wiki': 'http://en.wikipedia.org/wiki/Joey_Ramone', 'birth_date': '19 May 1951', 'death_date': '15 April 2001', 'start_year': '1972', 'end_year': '2001', 'aliases': ['Jeff Starship', 'Joey Ramone'], 'labels': ['http://dbpedia.org/resource/Radioactive_Records', 'http://dbpedia.org/resource/Sire_Records'], 'genres': ['http://dbpedia.org/resource/Punk_rock'], 'related_artists': ["http://dbpedia.org/resource/Dr._Chud's_X-Ward", 'http://dbpedia.org/resource/Ramones', 'http://dbpedia.org/resource/Ronnie_Spector', 'http://dbpedia.org/resource/Sniper_(American_band)', 'http://dbpedia.org/resource/Steven_Van_Zandt'], 'abstract': "Jeffrey Ross Hyman (May 19, 1951 – April 15, 2001), known professionally as Joey Ramone, was an American musician, singer, composer, and lead vocalist of the punk rock band the Ramones. Ramone's image, voice, and tenure as frontman of the Ramones made him a countercultural icon."}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Greg_Kihn_Band', 'artist_name': 'The Greg Kihn Band', 'wiki': 'http://en.wikipedia.org/wiki/The_Greg_Kihn_Band', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '1976', 'labels': ['http://dbpedia.org/resource/Beserkley_Records'], 'genres': ['http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Power_pop', 'http://dbpedia.org/resource/Rock_music', 'Rock'], 'actual_members': ['http://dbpedia.org/resource/Greg_Kihn', 'http://dbpedia.org/resource/Robert_Berry', 'Ry Kihn', 'Dave "Bro" Lauser', 'Dave Danza'], 'old_members': ['http://dbpedia.org/resource/Dave_Carpender', 'http://dbpedia.org/resource/Gary_Phillips_(keyboardist)', 'http://dbpedia.org/resource/Greg_Douglass', 'http://dbpedia.org/resource/Joe_Satriani', 'http://dbpedia.org/resource/Larry_Lynch', 'http://dbpedia.org/resource/Steve_Wright_(bassist)', '*Craig Kirchoff', '*Dennis Murphy', 'Jimmy Lyon', 'Robbie Dunbar', 'Tyler Eng', 'Pat Mosca'], 'related_artists': ['http://dbpedia.org/resource/Dave_Carpender', 'http://dbpedia.org/resource/Gary_Phillips_(keyboardist)', 'http://dbpedia.org/resource/Greg_Douglass', 'http://dbpedia.org/resource/Greg_Kihn', 'http://dbpedia.org/resource/Joe_Satriani', 'http://dbpedia.org/resource/Robert_Berry', 'http://dbpedia.org/resource/Steve_Wright_(bassist)'], 'abstract': 'The Greg Kihn Band is an American band that was started by frontman Greg Kihn and bassist Steve Wright. Their most successful singles include "The Breakup Song (They Don\'t Write \'Em)" (Billboard Hot 100 #15) and "Jeopardy" (Billboard Hot 100 #2). The band\'s musical style and genres comprise rock, pop rock and power pop.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Cameo_(band)', 'artist_name': 'Cameo', 'wiki': 'http://en.wikipedia.org/wiki/Cameo_(band)', 'start_year': '1974', 'end_year': '2001', 'labels': ['http://dbpedia.org/resource/Atlanta_Artists', 'http://dbpedia.org/resource/Chocolate_City_Records', 'http://dbpedia.org/resource/Reprise_Records'], 'genres': ['http://dbpedia.org/resource/Funk', 'http://dbpedia.org/resource/Rhythm_and_blues', 'http://dbpedia.org/resource/Soul_music'], 'actual_members': ['http://dbpedia.org/resource/Larry_Blackmon', 'Anthony Lockett', 'Aaron Mills', 'Jeff Nelson'], 'old_members': ['http://dbpedia.org/resource/Pat_Buchanan_(musician)', 'http://dbpedia.org/resource/Tomi_Jenkins', 'Stephen Moore', 'Greg Johnson', 'Gary Dow', 'Kenni Hairston', 'Dominic Christie', 'Harold Gander ', 'Robert L. Smith', 'Kurt Jeter', 'John Kellogg', 'Melvin Wells', 'William Revis', 'Charlie Singleton', 'Michael Burnett', 'Robert Branch', 'Charles Sampson', 'Nathan Leftenant', 'Eric Nelson', 'Merve de Peyer', 'William Morris', 'Arnett Leftenant', 'Kevin Kendrick', 'Damon Mendes', 'Thomas Campbell', 'Paul Andrews', 'Gregory Johnson', 'Azza Meah', 'Arnold Ramsey', 'Eric Durham', 'Wayne Cooper', 'Jeryl Bright'], 'related_artists': ['http://dbpedia.org/resource/Bernard_Wright', 'http://dbpedia.org/resource/Flow_Tribe', 'http://dbpedia.org/resource/Haras_Fyre__East_CoastfeaturingGwen_Guthrie__1', 'http://dbpedia.org/resource/Jean_Beauvoir', 'http://dbpedia.org/resource/John_Blackwell_(musician)', 'http://dbpedia.org/resource/Larry_Blackmon', 'http://dbpedia.org/resource/Louis_A._McCall_Sr.', 'http://dbpedia.org/resource/Outkast', 'http://dbpedia.org/resource/Pat_Buchanan_(musician)', 'http://dbpedia.org/resource/Tomi_Jenkins', 'http://dbpedia.org/resource/Yarbrough_and_Peoples'], 'abstract': 'Cameo is an American funk band that formed in 1974. Cameo was initially a 14-member group known as the New York City Players; this name was later changed to Cameo. As of the first half of 2009, some of the original members continue to perform together. Two other original members were hired by the hip hop group Outkast. In 2015, Cameo announced a new residency show at the Westgate Las Vegas Resort &amp; Casino, opening in March 2016. On February 20, 2019, Larry Blackmon of Cameo announced "El Passo", the first new single from the band in 19 years. Cameo topped the R&amp;B charts for more than a decade, has sold more than 18 million albums and is considered one of the most popular funk/soul bands of its era.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Kai_(Canadian_singer)', 'artist_name': 'Kai', 'wiki': 'http://en.wikipedia.org/wiki/Kai_(Canadian_singer)', 'birth_date': '17 March 1990', 'start_year': '2008', 'aliases': ['Kai (and Alessia De Gasperis)'], 'labels': ['http://dbpedia.org/resource/Warner_Music_Group'], 'genres': ['http://dbpedia.org/resource/Pop_music'], 'related_artists': ['http://dbpedia.org/resource/Adventure_Club', 'http://dbpedia.org/resource/Diplo', 'http://dbpedia.org/resource/Donald_Glover', 'http://dbpedia.org/resource/Flume_(musician)', 'http://dbpedia.org/resource/Hunter_Siegel', 'http://dbpedia.org/resource/Jack_Ü', 'http://dbpedia.org/resource/Skrillex'], 'abstract': 'Alessia De Gasperis (born 17 March 1990), formerly known as Kai (also stylized as kai), is a Canadian singer-songwriter from Toronto, Ontario. Best known for her collaborations, she co-wrote and was featured on Flume\'s Grammy-nominated "Never Be like You", Diplo\'s "Revolution", and "Mind" from by Jack Ü\'s Grammy award-winning 2015 album.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Cardigans', 'artist_name': 'The Cardigans', 'wiki': 'http://en.wikipedia.org/wiki/The_Cardigans', 'hometown': 'http://dbpedia.org/resource/Jönköping', 'start_year': '1992', 'labels': ['http://dbpedia.org/resource/MCA_Inc.', 'http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/Minty_Fresh', 'http://dbpedia.org/resource/Stockholm_Records', 'http://dbpedia.org/resource/Universal_Music_Group'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Indie_pop', 'http://dbpedia.org/resource/Indie_rock', 'http://dbpedia.org/resource/Pop_rock'], 'actual_members': ['http://dbpedia.org/resource/Lars-Olof_Johansson', 'http://dbpedia.org/resource/Magnus_Sveningsson', 'http://dbpedia.org/resource/Nina_Persson', 'http://dbpedia.org/resource/Peter_Svensson', 'http://dbpedia.org/resource/The_Cardigans'], 'related_artists': ['http://dbpedia.org/resource/A_Camp', 'http://dbpedia.org/resource/Nina_Persson', 'http://dbpedia.org/resource/Paus_(band)', 'http://dbpedia.org/resource/Peter_Svensson', 'http://dbpedia.org/resource/Righteous_Boy'], 'abstract': 'The Cardigans is a Swedish rock band formed in Jönköping, Sweden, in 1992 by guitarist Peter Svensson, bassist Magnus Sveningsson, drummer Bengt Lagerberg, keyboardist Lars-Olof Johansson and lead singer Nina Persson. Post-hiatus shows since 2012 have been with Oskar Humlebo on guitar instead of Svensson. With their debut album Emmerdale (1994) they gained a solid base in their home country and enjoyed some success abroad, especially in Japan. Their second album Life (1995) secured them an international reputation. Their popularity rose when their single "Lovefool", from the album First Band on the Moon (1996), was included in the soundtrack to the 1996 film Romeo + Juliet. Other singles included "Erase/Rewind" and "My Favourite Game" from the album Gran Turismo (1998). After a two-year hiatus, the band returned recording and releasing their fifth album Long Gone Before Daylight (2003), a mellower country-flavoured record. Their last album Super Extra Gravity (2005) displays a continuation of the country influence, infused by pop sensibility and a further maturing of their sound. After a 2006 tour, the band embarked on a five-year break from musical activities before reuniting in 2012 to play several concerts. They have sold over 15 million albums worldwide.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Journey_(band)', 'artist_name': 'Journey', 'wiki': 'http://en.wikipedia.org/wiki/Journey_(band)', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '1973', 'end_year': '1987', 'aliases': ['Golden Gate Rhythm Section (1973)'], 'labels': ['http://dbpedia.org/resource/BMG_Rights_Management', 'http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Frontiers_Records', 'http://dbpedia.org/resource/Sanctuary_Records'], 'plays_in': ['http://dbpedia.org/resource/Made_in_America_(The_Sopranos)'], 'genres': ['http://dbpedia.org/resource/Arena_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Jazz_fusion', 'http://dbpedia.org/resource/Progressive_rock', 'http://dbpedia.org/resource/Soft_rock', 'jazz-rock'], 'actual_members': ['Arnel Pineda', 'Deen Castronovo', 'Jason Derlatka', 'Jonathan Cain', 'Narada Michael Walden', 'Neal Schon', 'Randy Jackson'], 'old_members': ['Aynsley Dunbar', 'George Tickner', 'Jeff Scott Soto', 'Omar Hakim', 'Prairie Prince', 'Robert Fleischman', 'Steve Augeri', 'Steve Smith'], 'related_artists': ['http://dbpedia.org/resource/Abraxas_Pool', 'http://dbpedia.org/resource/Bad_English', 'http://dbpedia.org/resource/Frumious_Bandersnatch', 'http://dbpedia.org/resource/Hardline_(band)', 'http://dbpedia.org/resource/Santana_(band)', 'http://dbpedia.org/resource/Schon_&amp;_Hammer', 'http://dbpedia.org/resource/Soul_SirkUS', 'http://dbpedia.org/resource/The_Storm_(American_band)', 'http://dbpedia.org/resource/Vital_Information'], 'abstract': 'Journey is an American rock band formed in San Francisco in 1973 by former members of Santana, Steve Miller Band, and Frumious Bandersnatch. Journey had their biggest commercial success between 1978 and 1987, when Steve Perry was lead vocalist; they released a series of hit songs, including "Don\'t Stop Believin\'" (1981), which in 2009 became the top-selling track in iTunes history among songs not released in the 21st century. Escape, Journey\'s seventh and most successful album, reached No. 1 on the Billboard 200 and yielded another of their most popular singles, "Open Arms". The 1983 follow-up album, Frontiers, was almost as successful in the United States, reaching No. 2 and spawning several successful singles; it broadened the band\'s appeal in the United Kingdom, where it reached No. 6 on the UK Albums Chart. Journey enjoyed a successful reunion in the mid-1990s and have since regrouped twice; first with Steve Augeri from 1998-2006, then with Arnel Pineda from 2007 to the present. Sales have resulted in twenty five gold and platinum albums, in addition to the fifteen-time platinum RIAA Diamond Certified, 1988\'s Greatest Hits album. They have had nineteen Top 40 singles in the U.S. (the second most without a Billboard Hot 100 number one single behind Electric Light Orchestra with 20), six of which reached the Top 10 of the US chart and two of which reached No. 1 on other Billboard charts, and a No. 6 hit on the UK Singles Chart in "Don\'t Stop Believin\'". In 2005, "Don\'t Stop Believin\'" reached No. 3 on iTunes downloads. Originally a progressive rock band, Journey was described by AllMusic as having cemented a reputation as "one of America\'s most beloved (and sometimes hated) commercial rock/pop bands" by 1978, when they redefined their sound by embracing pop arrangements on their fourth album, Infinity. According to the Recording Industry Association of America, Journey has sold 48 million albums in the U.S., making them the 25th best-selling band. Their worldwide sales have reached over 80 million records globally, making them one of the world\'s best-selling bands of all time. A 2005 USA Today opinion poll named Journey the fifth-best U.S. rock band in history. Their songs have become arena rock staples and are still played on rock radio stations across the world. Journey ranks No. 96 on VH1\'s 100 Greatest Artists of All Time. Journey was inducted into the Rock and Roll Hall of Fame with the class of 2017. Inductees included lead singer Steve Perry, guitarist Neal Schon, keyboardists Jonathan Cain and Gregg Rolie, bassist Ross Valory, and drummers Aynsley Dunbar and Steve Smith.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Tal_Bachman', 'artist_name': 'Tal Bachman', 'wiki': 'http://en.wikipedia.org/wiki/Tal_Bachman', 'hometown': 'http://dbpedia.org/resource/Manitoba', 'birth_date': '13 August 1968', 'start_year': '1992', 'aliases': ['Ian Starglow'], 'labels': ['http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Daylight_Records'], 'genres': ['http://dbpedia.org/resource/Pop_rock'], 'related_artists': ['http://dbpedia.org/resource/Ben_Carey', 'http://dbpedia.org/resource/Chris_Wyse', 'http://dbpedia.org/resource/Randy_Bachman'], 'abstract': 'Talmage Charles Robert Bachman (born August 13, 1968) is a Canadian singer-songwriter and guitarist. He is best known for his late 1998 hit, "She\'s So High", a pop rock tune from his self-titled 1999 album that led to a BMI award.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Bizarre_Inc', 'artist_name': 'Bizarre Inc', 'wiki': 'http://en.wikipedia.org/wiki/Bizarre_Inc', 'hometown': 'http://dbpedia.org/resource/Stafford', 'start_year': '1989', 'end_year': '1996', 'labels': ['http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/Some_Bizzare_Records', 'http://dbpedia.org/resource/Sony_Records', 'http://dbpedia.org/resource/Vinyl_Solution'], 'genres': ['http://dbpedia.org/resource/Breakbeat_hardcore', 'http://dbpedia.org/resource/Techno'], 'actual_members': ['Andrew Meecham', 'Dean Meredith'], 'old_members': ['Carl Turner', 'Mark Archer'], 'related_artists': ['http://dbpedia.org/resource/Angie_Brown', 'http://dbpedia.org/resource/Stevo_Pearce'], 'abstract': 'Bizarre Inc were an English techno group. Originally formed in 1989 as a duo between English DJs Dean Meredith and Mark "Aaron" Archer (not to be confused with the film producer of same name), they later re-formed as a trio consisting of Meredith, Andrew Meecham, and Carl Turner in 1990.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Irene_Cara', 'artist_name': 'Irene Cara', 'wiki': 'http://en.wikipedia.org/wiki/Irene_Cara', 'birth_date': '18 March 1959', 'related_artists': ['http://dbpedia.org/resource/Andrew_Lane_(record_producer)', 'http://dbpedia.org/resource/Danny_Sembello', 'http://dbpedia.org/resource/Giorgio_Moroder', 'http://dbpedia.org/resource/Vicki_Sue_Robinson'], 'abstract': 'Irene Cara Escalera (born March 18, 1959) known professionally as Irene Cara, is an American singer, songwriter, dancer, and actress. Cara sang and co-wrote the song "Flashdance... What a Feeling" (from the film Flashdance), for which she won an Academy Award for Best Original Song and a Grammy Award for Best Female Pop Vocal Performance in 1984. Cara is also known for playing the role of Coco Hernandez in the 1980 film Fame, and for recording the film\'s title song "Fame". Prior to her success with Fame, Cara portrayed the title character Sparkle Williams in the original 1976 musical drama film Sparkle.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Tears_for_Fears', 'artist_name': 'Tears for Fears', 'wiki': 'http://en.wikipedia.org/wiki/Tears_for_Fears', 'hometown': 'http://dbpedia.org/resource/Bath,_Somerset', 'start_year': '1981', 'labels': ['http://dbpedia.org/resource/Concord_Records', 'http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Fontana_Records', 'http://dbpedia.org/resource/Gut_Records', 'http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/Phonogram_Inc.', 'http://dbpedia.org/resource/Universal_Music_Group'], 'genres': ['http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Synth-pop'], 'related_artists': ['http://dbpedia.org/resource/Carina_Round', 'http://dbpedia.org/resource/Curt_Smith', 'http://dbpedia.org/resource/Gail_Ann_Dorsey', 'http://dbpedia.org/resource/Graduate_(band)', 'http://dbpedia.org/resource/Ian_Stanley', 'http://dbpedia.org/resource/Interview_(band)', 'http://dbpedia.org/resource/Jeff_Trott', 'http://dbpedia.org/resource/Manny_Elias', 'http://dbpedia.org/resource/Neil_Taylor_(guitarist)', 'http://dbpedia.org/resource/Neon_(British_band)', "http://dbpedia.org/resource/Nick_D'Virgilio", 'http://dbpedia.org/resource/Nicky_Holland', 'http://dbpedia.org/resource/Oleta_Adams', 'http://dbpedia.org/resource/Roland_Orzabal', 'http://dbpedia.org/resource/Steven_Wilson', 'http://dbpedia.org/resource/The_Escape_(band)', 'http://dbpedia.org/resource/Will_Gregory'], 'abstract': 'Tears for Fears are an English pop rock band formed in Bath, England, in 1981 by Roland Orzabal and Curt Smith. Founded after the dissolution of their first band, the mod-influenced Graduate, Tears for Fears were associated with the new wave synthesizer bands of the early 1980s, and attained international chart success. Tears for Fears were part of the MTV-driven Second British Invasion of the US. The band\'s debut album, The Hurting (1983), reached number one on the UK Albums Chart. Their second album, Songs from the Big Chair (1985), reached number one on the US Billboard 200, achieving multi-platinum status in both the UK and the US. Songs from the Big Chair contained two Billboard Hot 100 number one hits: "Shout" and "Everybody Wants to Rule the World". The latter song won the Brit Award for Best British Single in 1986. After the release of their platinum-selling third album, The Seeds of Love (1989), Smith and Orzabal had an acrimonious split in 1991. Orzabal retained the Tears for Fears name as a solo project, releasing the albums Elemental (1993) and Raoul and the Kings of Spain (1995). Orzabal and Smith reconciled in 2000 and released an album of new material, Everybody Loves a Happy Ending, in 2004. The duo have toured on a semi-regular basis since then. After spending almost a decade in development, the band\'s seventh album, The Tipping Point, has been announced for release in February 2022.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Jonezetta', 'artist_name': 'Jonezetta', 'wiki': 'http://en.wikipedia.org/wiki/Jonezetta', 'hometown': 'http://dbpedia.org/resource/United_States', 'start_year': '2002', 'end_year': '2009', 'labels': ['http://dbpedia.org/resource/Tooth_&amp;_Nail_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Indie_rock'], 'actual_members': ['Alex Warren', 'Kyle Howe', 'Robert Chisolm', 'Ty Garvey', 'Tyler Kemp'], 'old_members': ['http://dbpedia.org/resource/Timothy_Jordan_II', 'Mick Parsons', 'Tony Abercrombie'], 'related_artists': ['http://dbpedia.org/resource/Action_Action', 'http://dbpedia.org/resource/Timothy_Jordan_II'], 'abstract': 'Jonezetta was an American rock band from Clinton, Mississippi, which released two full-length albums on Tooth and Nail Records in the 2000s.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Daughtry_(band)', 'artist_name': 'Daughtry', 'wiki': 'http://en.wikipedia.org/wiki/Daughtry_(band)', 'hometown': 'http://dbpedia.org/resource/McLeansville,_North_Carolina', 'start_year': '2006', 'labels': ['http://dbpedia.org/resource/19_Recordings', 'http://dbpedia.org/resource/RCA_Records', 'http://dbpedia.org/resource/Warner_Music_Group'], 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees'], 'genres': ['http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['http://dbpedia.org/resource/Chris_Daughtry', 'http://dbpedia.org/resource/Josh_Paul_(musician)', 'Brian Craddock', 'Elvio Fernandes', 'Josh Steely', 'Brandon Maclin'], 'old_members': ['Jeremy Brady', 'Joey Barnes', 'Robin Diaz'], 'related_artists': ['http://dbpedia.org/resource/Chris_Daughtry', 'http://dbpedia.org/resource/Day_of_Fire', 'http://dbpedia.org/resource/Jacquire_King', 'http://dbpedia.org/resource/Josh_Paul_(musician)', 'http://dbpedia.org/resource/Julian_Emery', 'http://dbpedia.org/resource/Lifehouse_(band)', 'http://dbpedia.org/resource/Sarah_Burgess_(singer)'], 'abstract': 'Daughtry /ˈdɔːtri/ is an American rock band formed and fronted by namesake Chris Daughtry, who was a finalist on the fifth season of American Idol. Their self-titled debut album was released in November 2006 and reached number one on the Billboard 200. The album went on to sell more than six million copies in the United States, and has been certified six times platinum by the RIAA. Daughtry was also named the best selling album of 2007 by Billboard, becoming the fastest-selling debut rock album in Nielsen SoundScan history. The album produced four top 20 hits on the Billboard Hot 100, including top five hits "It\'s Not Over" and "Home". The band\'s second album, Leave This Town, was released in July 2009 and debuted at number one on the Billboard 200 chart, becoming Daughtry\'s second number one album in the United States. To date, Leave This Town has sold over 1.3 million copies in the United States and has been certified platinum by the RIAA. The album\'s lead single, "No Surprise", became the band\'s fifth top 20 hit on the Hot 100. Their third studio album, Break the Spell, was released in November 2011 and debuted within the top 10 on the Billboard 200 chart. The album has been certified Gold by the RIAA. Daughtry\'s fourth studio album, Baptized, was released on November 19, 2013, and debuted at number six on the Billboard 200 chart, selling approximately 90,000 units. To date, Daughtry has sold over 9 million albums and over 25.6 million digital tracks in the U.S.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/BTS', 'artist_name': 'BTS', 'wiki': 'http://en.wikipedia.org/wiki/BTS', 'hometown': 'http://dbpedia.org/resource/Seoul', 'start_year': '2013', 'aliases': ['Bangtan Boys', 'Bangtan Sonyeondan', 'Beyond the Scene', 'Bulletproof Boy Scouts'], 'labels': ['http://dbpedia.org/resource/Big_Hit_Music', 'http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Def_Jam_Recordings', 'http://dbpedia.org/resource/Pony_Canyon', 'http://dbpedia.org/resource/Universal_Music_Group'], 'plays_in': ['http://dbpedia.org/resource/Break_the_Silence:_The_Movie', 'http://dbpedia.org/resource/Bring_the_Soul:_The_Movie', 'http://dbpedia.org/resource/Burn_the_Stage:_The_Movie', 'http://dbpedia.org/resource/Love_Yourself_in_Seoul'], 'genres': ['http://dbpedia.org/resource/Contemporary_R&amp;B', 'http://dbpedia.org/resource/Electronic_dance_music', 'http://dbpedia.org/resource/Hip_hop_music', 'http://dbpedia.org/resource/K-pop', 'http://dbpedia.org/resource/Pop_music', 'pop', 'hip hop', 'R&amp;B', 'EDM'], 'actual_members': ['http://dbpedia.org/resource/J-Hope', 'http://dbpedia.org/resource/Jimin_(singer,_born_1995)', 'http://dbpedia.org/resource/Jungkook', 'http://dbpedia.org/resource/Kim_Seok-jin', 'http://dbpedia.org/resource/RM_(rapper)', 'http://dbpedia.org/resource/Suga_(rapper)', 'http://dbpedia.org/resource/V_(singer)', 'Jin'], 'related_artists': ['http://dbpedia.org/resource/Annika_Wells__Annika_Wells__1', 'http://dbpedia.org/resource/Arcades_(band)', 'http://dbpedia.org/resource/Brian_Puspos', 'http://dbpedia.org/resource/Brother_Su', 'http://dbpedia.org/resource/Coyle_Girelli', 'http://dbpedia.org/resource/Kanata_Okajima', 'http://dbpedia.org/resource/Lauv', 'http://dbpedia.org/resource/Matthew_Tishler', 'http://dbpedia.org/resource/Melanie_Fontana', 'http://dbpedia.org/resource/Randy_Merrill', 'http://dbpedia.org/resource/Steve_Aoki', 'http://dbpedia.org/resource/Tushar_Apte'], 'abstract': 'BTS (Korean: 방탄소년단; RR: Bangtan Sonyeondan), also known as the Bangtan Boys, is a South Korean boy band that was formed in 2010 and debuted in 2013 under Big Hit Entertainment. The septet—consisting of members Jin, Suga, J-Hope, RM, Jimin, V, and Jungkook—co-writes and co-produces much of their own output. Originally a hip hop group, their musical style has evolved to include a wide range of genres. Their lyrics, often focused on personal and social commentary, touch on the themes of mental health, troubles of school-age youth and coming of age, loss, the journey towards loving oneself, and individualism. Their work also often references literature and psychological concepts and includes an alternative universe storyline. After debuting in 2013 with their single album 2 Cool 4 Skool, BTS released their first Korean-language studio album, Dark &amp; Wild, and Japanese-language studio album, Wake Up, in 2014. The group\'s second Korean studio album, Wings (2016), was their first to sell one million copies in South Korea. By 2017, BTS crossed into the global music market, leading the Korean Wave into the United States and breaking numerous sales records. They became the first Korean group to receive a certification from the Recording Industry Association of America (RIAA) for their single "Mic Drop", as well as the first Korean act to top the US Billboard 200 with their studio album Love Yourself: Tear (2018). BTS became one of the few groups since the Beatles to earn four US number-one albums in less than two years, and Love Yourself: Answer (2018) was the first Korean album certified platinum by the RIAA. In 2020, BTS became the first all-South Korean act to reach number one on the Billboard Global 200 and US Billboard Hot 100 with their Grammy-nominated single "Dynamite". Their follow-up releases "Savage Love", "Life Goes On", "Butter", and "Permission to Dance" made BTS the fastest act to accumulate five US number-one singles since Michael Jackson. Having sold over 20 million albums on the Gaon Music Chart, BTS is the best-selling artist in South Korean history and holds the best-selling album in South Korea with Map of the Soul: 7. They are the first Asian and non-English speaking act to be named International Federation of the Phonographic Industry (IFPI) Global Recording Artist of the Year (2020), to chart on Billboard\'s Top Touring Artists of the 2010s (placing at number 45), and to headline and sell out Wembley Stadium and Rose Bowl Stadium (Love Yourself World Tour in 2019). Featured on Time\'s international cover as "Next Generation Leaders" and dubbed "Princes of Pop", BTS has also appeared on the magazine\'s lists of the 25 most influential people on the internet (2017–2019) and the 100 most influential people in the world (2019). The group\'s numerous accolades include six American Music Awards, nine Billboard Music Awards, 24 Golden Disk Awards, and nominations for two Grammy Awards and a Brit Award. Outside of music, they partnered with UNICEF to establish the Love Myself anti-violence campaign, addressed three United Nations General Assemblies, and became the youngest ever recipients of the Order of Cultural Merit from the President of South Korea due to their contributions in spreading Korean culture and language.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Kid_Cudi', 'artist_name': 'Kid Cudi', 'wiki': 'http://en.wikipedia.org/wiki/Kid_Cudi', 'birth_date': '30 January 1984', 'start_year': '2003', 'plays_in': ['http://dbpedia.org/resource/James_White_(film)', 'http://dbpedia.org/resource/Maniac_(2011_film)'], 'related_artists': ['http://dbpedia.org/resource/Choo_Jackson', 'http://dbpedia.org/resource/Crada_(producer)', 'http://dbpedia.org/resource/Dan_Black', 'http://dbpedia.org/resource/Dot_da_Genius', 'http://dbpedia.org/resource/E*vax', 'http://dbpedia.org/resource/Emile_Haynie__Emile_Haynie__1', 'http://dbpedia.org/resource/Johnny_Polygon', 'http://dbpedia.org/resource/K._Sparks', 'http://dbpedia.org/resource/King_Chip', 'http://dbpedia.org/resource/Plain_Pat', 'http://dbpedia.org/resource/Raphael_Saadiq', 'http://dbpedia.org/resource/Ratatat', 'http://dbpedia.org/resource/Take_a_Daytrip', 'http://dbpedia.org/resource/Teddy_Walton'], 'abstract': 'Scott Ramon Seguro Mescudi (born January 30, 1984), better known by his stage name Kid Cudi (/ˈkʌdi/ KUDD-ee; often stylized as KiD CuDi), is an American rapper, singer, songwriter, record producer and actor. He has widely been recognized as an influence on several contemporary hip hop and alternative acts. His music is often autobiographical, telling of his childhood hardships dealing with depression, loneliness and alienation, his struggle with alcohol and drugs into adulthood, as well as themes of heartbreak, dissipation and celebration. Cudi began to gain major recognition following the release of his first official full-length project, a mixtape titled A Kid Named Cudi (2008), which caught the attention of American musician Kanye West, who subsequently signed Cudi to his GOOD Music label imprint by late 2008. In early 2008, Cudi had risen to prominence with the release of his commercial debut single "Day \'n\' Nite", which became a worldwide hit. The song was later featured on Cudi\'s seminal debut studio album, Man on the Moon: The End of Day (2009), which was eventually certified double platinum by the Recording Industry Association of America (RIAA) in 2017. The album also included the singles "Make Her Say" and "Pursuit of Happiness", both of which achieved significant chart success. In 2010, Cudi released his second album Man on the Moon II: The Legend of Mr. Rager, which features the singles "Erase Me" and "Mr. Rager". Later that year he formed WZRD, a rock band, with his long-time collaborator Dot da Genius. Their eponymous debut album (2012) debuted at number one on the Billboard Top Rock Albums chart. Cudi has since released the solo albums Indicud (2013), Satellite Flight: The Journey to Mother Moon (2014), Speedin\' Bullet 2 Heaven (2015), Passion, Pain &amp; Demon Slayin\' (2016), and Man on the Moon III: The Chosen (2020). Cudi\'s joint album with Kanye West, under the eponymous name Kids See Ghosts (2018), was met with widespread critical acclaim and was named among the best albums of 2018. In 2020, Cudi earned his first number-one song on the US Billboard Hot 100 chart with "The Scotts", a collaboration with Houston rapper Travis Scott. Cudi has sold 22 million certified records in the United States and has won two Grammy Awards from five nominations. He has worked with numerous prominent artists spanning several different genres in the music industry, such as Jay-Z, Eminem, Kendrick Lamar, David Guetta, Steve Aoki, MGMT, Mary J. Blige, Shakira, Ariana Grande and Michael Bolton, among others. After signing to GOOD Music, Cudi has since gone on to launch his own vanity labels, the now-dissolved Dream On and current label imprint Wicked Awesome Records. Cudi also ventured into acting when he was cast in the HBO series How to Make It in America. He has since appeared in several feature films, including Goodbye World (2013), Need for Speed (2014), Entourage (2015) and Bill &amp; Ted Face the Music (2020). In addition, he has made appearances on television shows such as One Tree Hill, The Cleveland Show, Brooklyn Nine-Nine, and Westworld. In 2015, he was the bandleader on the IFC series Comedy Bang! Bang! and in 2020 was added as a cast member for the HBO mini-series We Are Who We Are.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Migos', 'artist_name': 'Migos', 'wiki': 'http://en.wikipedia.org/wiki/Migos', 'hometown': 'http://dbpedia.org/resource/Lawrenceville,_Georgia', 'start_year': '2008', 'labels': ['http://dbpedia.org/resource/300_Entertainment', 'http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/Motown', 'http://dbpedia.org/resource/Quality_Control_Music'], 'genres': ['http://dbpedia.org/resource/Hip_hop_music', 'http://dbpedia.org/resource/Trap_music'], 'actual_members': ['http://dbpedia.org/resource/Offset_(rapper)', 'http://dbpedia.org/resource/Quavo', 'http://dbpedia.org/resource/Takeoff_(rapper)'], 'related_artists': ['http://dbpedia.org/resource/Breyan_Isaac', 'http://dbpedia.org/resource/Buddah_Bless', 'http://dbpedia.org/resource/Carnage_(DJ)', 'http://dbpedia.org/resource/DJ_Durel', 'http://dbpedia.org/resource/Deko', 'http://dbpedia.org/resource/Doughboy_(record_producer)', 'http://dbpedia.org/resource/Gradur', 'http://dbpedia.org/resource/Gucci_Mane', 'http://dbpedia.org/resource/Honorable_C.N.O.T.E.', 'http://dbpedia.org/resource/Marty_Baller', 'http://dbpedia.org/resource/Murda_Beatz', 'http://dbpedia.org/resource/OG_Parker', 'http://dbpedia.org/resource/Offset_(rapper)', 'http://dbpedia.org/resource/Quavo', 'http://dbpedia.org/resource/Rayven_Justice', 'http://dbpedia.org/resource/Rich_the_Kid', 'http://dbpedia.org/resource/Ricky_Racks', 'http://dbpedia.org/resource/Section_8_(record_producer)', 'http://dbpedia.org/resource/Takeoff_(rapper)', 'http://dbpedia.org/resource/Taylor_Girlz', 'http://dbpedia.org/resource/Tommee_Profitt', 'http://dbpedia.org/resource/Young_Thug', 'http://dbpedia.org/resource/Zaytoven'], 'abstract': 'Migos (/ˈmiːɡoʊs/) are an American hip hop trio from Lawrenceville, Georgia, founded in 2008. The group is composed of three rappers known by their stage names Quavo, Offset, and Takeoff. They are managed by Coach K, the former manager of Atlanta-based rappers Gucci Mane and Young Jeezy, and frequently collaborate with producers such as Zaytoven, DJ Durel, Murda Beatz, and Buddah Bless. Migos released their commercial debut single "Versace" in 2013, taken from their mixtape Y.R.N. (Young Rich Niggas). They have gone on to release several more singles, including "Fight Night" (2014), "Look at My Dab" (2015), and their four Billboard Hot 100 top 10 entries "Bad and Boujee" (featuring Lil Uzi Vert) (2016), peaking at number one, "MotorSport" (with Nicki Minaj and Cardi B) (2017), peaking at six, "Stir Fry" (2018), peaking at eight, and "Walk It Talk It" (featuring Drake) (2018), peaking at ten. Migos released their debut album Yung Rich Nation in July 2015, through Quality Control Music and 300 Entertainment. Their second album, Culture, was released in January 2017 also through both record labels, and debuted atop the US Billboard 200 chart. The group later signed a deal with Motown and Capitol Records in February 2017, and followed up the latter album with Culture II in January 2018, giving the group their second number one album in the United States. In 2021, the trio released their long-awaited fourth album Culture III, the third and final installment of their Culture trilogy.'}</t>
   </si>
   <si>
     <t>{'artist': 'http://dbpedia.org/resource/Gwen_Stefani', 'artist_name': 'Gwen Stefani', 'wiki': 'http://en.wikipedia.org/wiki/Gwen_Stefani', 'birth_date': '03 October 1969', 'start_year': '1986', 'aliases': ['Gwen Shelton'], 'related_artists': ['http://dbpedia.org/resource/Andre_Lindal', 'http://dbpedia.org/resource/Anita_Antoinette', 'http://dbpedia.org/resource/Bedtime_for_Toys', 'http://dbpedia.org/resource/Bradley_Nowell', 'http://dbpedia.org/resource/Bud_Gaugh', 'http://dbpedia.org/resource/Elan_Atias', 'http://dbpedia.org/resource/Eric_Stefani', 'http://dbpedia.org/resource/Eric_Wilson_(bassist)', 'http://dbpedia.org/resource/Eva_Gardner', 'http://dbpedia.org/resource/Gail_Ann_Dorsey', 'http://dbpedia.org/resource/J._R._Rotem', 'http://dbpedia.org/resource/Kristopher_Pooley', 'http://dbpedia.org/resource/MC_Kinky', 'http://dbpedia.org/resource/Mad_Lion', 'http://dbpedia.org/resource/Makoto_Izumitani', 'http://dbpedia.org/resource/Nellee_Hooper', 'http://dbpedia.org/resource/Piers_Baron', 'http://dbpedia.org/resource/Raja_Kumari', 'http://dbpedia.org/resource/Simon_Gogerly', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Sublime_(band)', 'http://dbpedia.org/resource/Taylor_John_Williams', 'http://dbpedia.org/resource/Tim_Rice-Oxley', 'http://dbpedia.org/resource/Tom_Rothrock', 'http://dbpedia.org/resource/Tony_Kanal', 'http://dbpedia.org/resource/Viktor_Király'], 'abstract': 'Gwen Renée Stefani (/stəˈfɑːni/; born October 3, 1969) is an American singer and songwriter. She is a co-founder, lead vocalist, and the primary songwriter of the band No Doubt, whose singles include "Just a Girl", "Spiderwebs", and "Don\'t Speak", from their 1995 breakthrough studio album Tragic Kingdom, as well as "Hey Baby" and "It\'s My Life" from later albums. During the band\'s hiatus, Stefani embarked on a solo pop career in 2004 by releasing her debut studio album Love. Angel. Music. Baby. Inspired by pop music from the 1980s, the album was a critical and commercial success. It spawned six singles, including "What You Waiting For?", "Rich Girl", "Hollaback Girl", and "Cool". "Hollaback Girl" reached number one on the Billboard Hot 100 chart while also becoming the first US download to sell one million copies. In 2006, Stefani released her second studio album, The Sweet Escape. Among the singles were "Wind It Up" and "The Sweet Escape", the latter of which was number three on the Billboard Hot 100 year-end chart of 2007. Her third solo album, This Is What the Truth Feels Like (2016), was her first solo album to reach number one on the Billboard 200 chart. Her fourth solo album and first full-length Christmas-themed album, You Make It Feel Like Christmas, was released in 2017 and charted 19 tracks on Billboard\'s Holiday Digital Song Sales component chart in the United States. Stefani has released several singles with Blake Shelton, including "Nobody but You" (2020), which reached number 18 in the US. Stefani has won three Grammy Awards. As a solo artist, she has received an American Music Award, Brit Award, World Music Award, and two Billboard Music Awards. In 2003, she debuted her clothing line L.A.M.B. and expanded her collection with the 2005 Harajuku Lovers line, inspired by Japanese culture and fashion. Billboard magazine ranked Stefani the 54th most successful artist and 37th most successful Hot 100 artist of the 2000–2009 decade. VH1 ranked her 13th on their "100 Greatest Women in Music" list in 2012. Including her work with No Doubt, Stefani has sold more than 30 million albums worldwide.'}</t>
   </si>
   <si>
-    <t>{'artist': 'http://dbpedia.org/resource/The_Weather_Girls', 'artist_name': 'The Weather Girls', 'wiki': 'http://en.wikipedia.org/wiki/The_Weather_Girls', 'hometown': 'http://dbpedia.org/resource/San_Francisco', 'start_year': '1976', 'end_year': '1988', 'aliases': ['The Two Tons', "Two Tons O' Fun"], 'labels': ['http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Fantasy_Records'], 'genres': ['http://dbpedia.org/resource/Disco', 'http://dbpedia.org/resource/Hi-NRG', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Soul_music'], 'actual_members': ['*Dynelle Rhodes', '*Dorrey Lin Lyles', '*Joan Faulkner'], 'old_members': ['http://dbpedia.org/resource/Izora_Armstead', 'http://dbpedia.org/resource/Martha_Wash', '*Ingrid Arthur'], 'related_artists': ['http://dbpedia.org/resource/Izora_Armstead', 'http://dbpedia.org/resource/Jeanie_Tracy', 'http://dbpedia.org/resource/Martha_Wash', 'http://dbpedia.org/resource/Patrick_Cowley', 'http://dbpedia.org/resource/Paul_Jabara', 'http://dbpedia.org/resource/Sylvester_(singer)'], 'abstract': 'The Weather Girls are an American female duo whose best-known line-up comprised Martha Wash and Izora Armstead. Formed in 1976 in San Francisco, California, The Weather Girls members began their musical career as Two Tons O\' Fun, the female backup duo for disco singer Sylvester. After years of limited success singing background for Sylvester, the duo were signed in 1979 to Fantasy Records. The Weather Girls was launched into mainstream recognition following the release of their best-selling single, "It\'s Raining Men" (1982), which became their first number-one Dance song. Despite critical and commercial success, the duo struggled to repeat the success of "It\'s Raining Men" and ultimately disbanded after the release of their self-titled fifth album The Weather Girls in 1988. In 1991, Armstead reformed the duo with her daughter Dynelle Rhodes. Over the course of a decade, the duo released three albums: Double Tons of Fun (1993), Think Big!, and Puttin\' On The Hits (1999). In 2004, Armstead died and was replaced with Ingrid Arthur in 2005. Following the release of two albums Totally Wild! (2005) and The Woman I Am (2009), Arthur left the group and was replaced with Dorrey Lin Lyles in 2012. The group received a Grammy Award nomination for Best R&amp;B Performance By A Duo Or Group With Vocal in 1983.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Alan_Walker_(music_producer)', 'artist_name': 'Alan Walker', 'wiki': 'http://en.wikipedia.org/wiki/Alan_Walker_(music_producer)', 'hometown': 'http://dbpedia.org/resource/Norway', 'birth_date': '24 August 1997', 'start_year': '2012', 'aliases': ['DJ Walkzz'], 'labels': ['http://dbpedia.org/resource/Gunnar_Greve', 'http://dbpedia.org/resource/NoCopyrightSounds', 'http://dbpedia.org/resource/RCA_Records', 'http://dbpedia.org/resource/Sony_Music', 'http://dbpedia.org/resource/Ultra_Music'], 'genres': ['http://dbpedia.org/resource/Big_room_house', 'http://dbpedia.org/resource/Deep_house', 'http://dbpedia.org/resource/Electro_house', 'http://dbpedia.org/resource/Electronic_dance_music', 'http://dbpedia.org/resource/Future_bass', 'http://dbpedia.org/resource/Progressive_house', 'http://dbpedia.org/resource/Styles_of_house_music'], 'related_artists': ['http://dbpedia.org/resource/Alexandra_Rotan', 'http://dbpedia.org/resource/Au/Ra', 'http://dbpedia.org/resource/Farruko', 'http://dbpedia.org/resource/Iselin_Solheim', 'http://dbpedia.org/resource/Julie_Bergan', 'http://dbpedia.org/resource/K-391', 'http://dbpedia.org/resource/Kameron_Alexander', 'http://dbpedia.org/resource/Kygo', 'http://dbpedia.org/resource/Lost_Stories_(DJs)', 'http://dbpedia.org/resource/Martin_Tungevaag', 'http://dbpedia.org/resource/Mood_Melodies', 'http://dbpedia.org/resource/Sören_von_Malmborg'], 'abstract': 'Alan Olav Walker (born 24 August 1997) is a British-Norwegian DJ, YouTuber and record producer, primarily known for the critically acclaimed single "Faded" (2015), which was certified platinum in 14 countries. Other songs include "Sing Me to Sleep", "Alone", "Darkside", and "Routine", all of which attracted millions of views. In early 2017, Walker\'s channel emerged as the most subscribed YouTube channel registered in Norway, with then 4.5 million subscribers. He also had the most views of Norwegian creators with an approximate 10.8 billion views as of 17 November 2021.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Metro_Station_(band)', 'artist_name': 'Metro Station', 'wiki': 'http://en.wikipedia.org/wiki/Metro_Station_(band)', 'start_year': '2006', 'end_year': '2010', 'labels': ['http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/RED_Ink_Records'], 'genres': ['http://dbpedia.org/resource/Dance-punk', 'http://dbpedia.org/resource/Electronic_rock', 'http://dbpedia.org/resource/Pop-punk', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Synth-pop', 'pop punk'], 'actual_members': ['http://dbpedia.org/resource/Mason_Musso', 'http://dbpedia.org/resource/Trace_Cyrus', 'Spencer Steffan'], 'old_members': ['Blake Healy', 'Anthony Improgo', 'Kenny Bozich', 'Austin Sands', 'Cary White'], 'related_artists': ['http://dbpedia.org/resource/Blood_on_the_Dance_Floor_(band)', 'http://dbpedia.org/resource/Boys_Like_Girls', 'http://dbpedia.org/resource/Forever_the_Sickest_Kids', 'http://dbpedia.org/resource/Luis_Dubuc', 'http://dbpedia.org/resource/Mason_Musso', 'http://dbpedia.org/resource/PJ_Bianco', 'http://dbpedia.org/resource/Powerspace', 'http://dbpedia.org/resource/Ronnie_Radke', 'http://dbpedia.org/resource/The_Ready_Set', 'http://dbpedia.org/resource/William_Beckett_(singer)'], 'abstract': 'Metro Station is an American pop rock band that was formed in Los Angeles, California by singer Mason Musso and bassist/guitarist Trace Cyrus. In late 2006, the band signed a recording contract with Columbia Records and RED Ink Records. The band is best known for the top 10 Billboard hit single "Shake It" from the group\'s self-titled debut album. In 2010, tension between Cyrus and Musso caused the band to go on hiatus. In 2011, the band returned, however, it was announced that Cyrus was no longer a part of the group and Musso had purchased the rights to the name. An EP entitled Middle of the Night was released in 2013, which was led by the single "Every Time I Touch You". In 2014, Cyrus and a new drummer, Spencer Steffan, came to the band, and a new single entitled "Love &amp; War" was released. In 2015, the band released a second full-length album, titled Savior. After this, the band went on a U.S and European tour, announcing an EP called Bury Me My Love along with a U.S. 10-year anniversary tour. Just before the tour started, the band announced it would be their final tour and that they were breaking up. They reunited once again in 2019 and released the single "I Hate Society" in 2020. The band is often described as a scene pop band due to the members\' sense of fashion and the band\'s unique blend of various pop styles.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Desireless', 'artist_name': 'Desireless', 'wiki': 'http://en.wikipedia.org/wiki/Desireless', 'birth_date': '25 December 1952', 'start_year': '1986', 'end_year': '1986', 'labels': ['http://dbpedia.org/resource/Choice_Of_Music', 'http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Sony_Music', 'http://dbpedia.org/resource/Sony_Music_Latin', 'http://dbpedia.org/resource/Urgence_Disk'], 'plays_in': ["http://dbpedia.org/resource/Moscow_Pride_'06"], 'genres': ['http://dbpedia.org/resource/Eurodisco', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Synth-pop'], 'abstract': 'Claudie Fritsch-Mentrop (born 25 December 1952), known by her stage name Desireless (French pronunciation: \u200b[deziʁlɛs]), is a French singer. Between 1986 and 1988, her hit single "Voyage, voyage" made it to number one on many European and Asian single charts. According to her official website, Desireless still releases new albums and performs live, and she released a new album with Operation of the Sun (Antoine Aureche) accompanied by a worldwide tour from 2012 onward.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Michelle_Branch', 'artist_name': 'Michelle Branch', 'wiki': 'http://en.wikipedia.org/wiki/Michelle_Branch', 'birth_date': '02 July 1983', 'start_year': '1999', 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees'], 'related_artists': ['http://dbpedia.org/resource/Jeff_Trott', 'http://dbpedia.org/resource/Jessica_Harp', 'http://dbpedia.org/resource/Santana_(band)', 'http://dbpedia.org/resource/Steuart_Smith'], 'abstract': 'Michelle Jacquet DeSevren Branch (born July 2, 1983) is an American singer, songwriter, and actress. During the early 2000s, she released two top-selling albums: The Spirit Room and Hotel Paper. She won a Grammy Award for Best Pop Collaboration with Vocals with Santana for "The Game of Love". In 2005, she formed the country music duo the Wreckers with Jessica Harp, and produced the Grammy-nominated single "Leave the Pieces". The Wreckers disbanded in 2007 to pursue their respective solo careers. Since then, she has released extended plays in 2010 and 2011, and a third solo album, Hopeless Romantic, on April 7, 2017.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Irene_Cara', 'artist_name': 'Irene Cara', 'wiki': 'http://en.wikipedia.org/wiki/Irene_Cara', 'birth_date': '18 March 1959', 'related_artists': ['http://dbpedia.org/resource/Andrew_Lane_(record_producer)', 'http://dbpedia.org/resource/Danny_Sembello', 'http://dbpedia.org/resource/Giorgio_Moroder', 'http://dbpedia.org/resource/Vicki_Sue_Robinson'], 'abstract': 'Irene Cara Escalera (born March 18, 1959) known professionally as Irene Cara, is an American singer, songwriter, dancer, and actress. Cara sang and co-wrote the song "Flashdance... What a Feeling" (from the film Flashdance), for which she won an Academy Award for Best Original Song and a Grammy Award for Best Female Pop Vocal Performance in 1984. Cara is also known for playing the role of Coco Hernandez in the 1980 film Fame, and for recording the film\'s title song "Fame". Prior to her success with Fame, Cara portrayed the title character Sparkle Williams in the original 1976 musical drama film Sparkle.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Caesars_(band)', 'artist_name': 'Caesars', 'wiki': 'http://en.wikipedia.org/wiki/Caesars_(band)', 'genres': ['http://dbpedia.org/resource/Garage_rock', 'http://dbpedia.org/resource/Indie_rock'], 'actual_members': ['http://dbpedia.org/resource/Joakim_Åhlund', 'Nino Keller', 'César Vidal', 'David Lindquist'], 'old_members': ['Jens Örjenheim', 'Klas Åhlund'], 'related_artists': ['http://dbpedia.org/resource/Joakim_Åhlund', 'http://dbpedia.org/resource/Teddybears_(band)'], 'abstract': 'Caesars are a Swedish indie rock band from Stockholm, formed in 1995. In their native country, the band was originally known as Caesars Palace, a name which was changed to avoid conflicting with the name of the Las Vegas hotel. In the rest of Scandinavia they are known as Twelve Caesars.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Fergie_(singer)', 'artist_name': 'Fergie', 'wiki': 'http://en.wikipedia.org/wiki/Fergie_(singer)', 'birth_date': '27 March 1975', 'start_year': '1984', 'aliases': ['Fergie Duhamel'], 'related_artists': ['http://dbpedia.org/resource/Blac_Elvis', 'http://dbpedia.org/resource/Brandon_Bell_(record_producer)', 'http://dbpedia.org/resource/Bucky_Jonson', 'http://dbpedia.org/resource/George_Pajon', 'http://dbpedia.org/resource/GoonRock', 'http://dbpedia.org/resource/Kristine_Elezaj', 'http://dbpedia.org/resource/Renee_Sands', 'http://dbpedia.org/resource/Ryan_Riback', 'http://dbpedia.org/resource/Taboo_(rapper)'], 'abstract': 'Fergie Duhamel (/ˈfɜːrɡi dəˈmɛl/; born Stacy Ann Ferguson; March 27, 1975) is an American singer, songwriter, and actress. She first achieved chart success as part of the hip hop group the Black Eyed Peas. Her debut solo album, The Dutchess (2006), saw commercial success and spawned three Billboard Hot 100 number one singles: "London Bridge", "Glamorous", and "Big Girls Don\'t Cry". Although she vocally incorporates rapping into some of her performances, she does not consider herself a rapper. Fergie was originally a member of the children\'s television series Kids Incorporated and the girl group Wild Orchid. In 2001, she left the group and in the subsequent year joined the Black Eyed Peas. She worked with the Black Eyed Peas on two albums before releasing her debut solo album, The Dutchess, in 2006. She continued her collaboration with the Black Eyed Peas and released a further two albums with them, The E.N.D. (2009) and The Beginning (2010). Fergie began touring with her own group in 2009. Her second solo album, Double Dutchess, was released in 2017. Fergie has additionally appeared in a number of films including Poseidon (2006), Grindhouse (2007), and Nine (2009). She launched her first fragrance, Outspoken, under Avon in May 2010 and has since released four more fragrances.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Morrissey', 'artist_name': 'Morrissey', 'wiki': 'http://en.wikipedia.org/wiki/Morrissey', 'birth_date': '22 May 1959', 'start_year': '1976', 'labels': ['http://dbpedia.org/resource/Attack_Records', 'http://dbpedia.org/resource/BMG_Rights_Management', 'http://dbpedia.org/resource/Decca_Records', 'http://dbpedia.org/resource/Harvest_Records', "http://dbpedia.org/resource/His_Master's_Voice", 'http://dbpedia.org/resource/Island_Records', 'http://dbpedia.org/resource/Liberty_Records', 'http://dbpedia.org/resource/Major_Minor_Records', 'http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/Parlophone', 'http://dbpedia.org/resource/RCA_Records', 'http://dbpedia.org/resource/Reprise_Records', 'http://dbpedia.org/resource/Sanctuary_Records', 'http://dbpedia.org/resource/Sire_Records', 'http://dbpedia.org/resource/Universal_Music_Group_Nashville'], 'plays_in': ['http://dbpedia.org/resource/Morrissey:_25_Live'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Indie_pop', 'http://dbpedia.org/resource/Indie_rock', 'http://dbpedia.org/resource/Jangle_pop'], 'related_artists': ['http://dbpedia.org/resource/Alain_Whyte', 'http://dbpedia.org/resource/Andrew_McGibbon', 'http://dbpedia.org/resource/Andy_Rourke', 'http://dbpedia.org/resource/Boz_Boorer', 'http://dbpedia.org/resource/Bradford_(band)', 'http://dbpedia.org/resource/Craig_Gannon', 'http://dbpedia.org/resource/Damien_Dempsey', 'http://dbpedia.org/resource/Ennio_Morricone', 'http://dbpedia.org/resource/Gary_Day_(musician)', 'http://dbpedia.org/resource/Jesse_Tobias', 'http://dbpedia.org/resource/Johnny_Marr', 'http://dbpedia.org/resource/Kristeen_Young', 'http://dbpedia.org/resource/Kristopher_Pooley', 'http://dbpedia.org/resource/Mark_Bedford', 'http://dbpedia.org/resource/Matt_Walker_(drummer)', 'http://dbpedia.org/resource/Michael_Farrell_(musician)', 'http://dbpedia.org/resource/Mick_Ronson__Mick_Ronson__1', 'http://dbpedia.org/resource/Mike_Joyce_(musician)', 'http://dbpedia.org/resource/Slaughter_&amp;_the_Dogs', 'http://dbpedia.org/resource/Stephen_Hopkins_(musician)__Steve_Hopkins__1', 'http://dbpedia.org/resource/The_Nosebleeds', 'http://dbpedia.org/resource/The_Smiths', 'http://dbpedia.org/resource/Tony_Visconti', 'http://dbpedia.org/resource/Vini_Reilly'], 'abstract': "Steven Patrick Morrissey (/ˈmɒrɪsiː/; born 22 May 1959), known professionally as Morrissey, is an English singer, songwriter, and author. He came to prominence as the frontman of rock band the Smiths, who were active from 1982 to 1987. Since then, he has pursued a successful solo career. Morrissey's music is characterised by his baritone voice and distinctive lyrics with recurring themes of emotional isolation, sexual longing, self-deprecating and dark humour, and anti-establishment stances. Born to working-class Irish immigrants in Davyhulme, Lancashire, Morrissey grew up in nearby Manchester. As a child, he developed a love of literature, kitchen sink realism, and 1960s pop music. In the late 1970s, he fronted punk rock band the Nosebleeds with little success before beginning a career in music journalism and writing several books on music and film in the early 1980s. He formed the Smiths with Johnny Marr in 1982 and the band soon attracted national recognition for their eponymous debut album. As the band's frontman, Morrissey attracted attention for his trademark quiff and witty and sardonic lyrics. Deliberately avoiding rock machismo, he cultivated the image of a sexually ambiguous social outsider who embraced celibacy. The Smiths released three further studio albums—Meat Is Murder, The Queen Is Dead, and Strangeways, Here We Come—and had a string of hit singles. The band were critically acclaimed and attracted a cult following. Personal differences between Morrissey and Marr resulted in the separation of the Smiths in 1987. In 1988 Morrissey launched his solo career with Viva Hate. This album and its follow-ups—Kill Uncle, Your Arsenal, and Vauxhall and I—all did well on the UK Albums Chart and spawned multiple hit singles. He took on Alain Whyte and Boz Boorer as his main co-writers to replace Marr. During this time his image began to shift into that of a burlier figure who toyed with patriotic imagery and working-class masculinity. In the mid-to-late 1990s, his albums Southpaw Grammar and Maladjusted also charted but were less well received. Relocating to Los Angeles, he took a musical hiatus from 1998 to 2003 before releasing a successful comeback album, You Are the Quarry, in 2004. Ensuing years saw the release of albums Ringleader of the Tormentors, Years of Refusal, World Peace Is None of Your Business, Low in High School, California Son, and I Am Not a Dog on a Chain, as well as his autobiography and his debut novel, List of the Lost. Highly influential, Morrissey has been credited as a seminal figure in the emergence of indie rock and Britpop. In a 2006 poll for the BBC's Culture Show, Morrissey was voted the second-greatest living British cultural icon. His work has been the subject of academic study. He has been a controversial figure throughout his music career due to his forthright opinions and outspoken nature—endorsing vegetarianism and animal rights, criticising royalty and prominent politicians, including support of some far-right activists with regard to freedom of speech and British heritage, defending a particular vision of national identity while critiquing the effect of immigration on the UK."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Peter_Tosh', 'artist_name': 'Peter Tosh', 'wiki': 'http://en.wikipedia.org/wiki/Peter_Tosh', 'birth_date': '19 October 1944', 'death_date': '11 September 1987', 'start_year': '1961', 'end_year': '1987', 'aliases': ['Stepping Razor'], 'labels': ['http://dbpedia.org/resource/JAD_Records'], 'genres': ['http://dbpedia.org/resource/Reggae', 'http://dbpedia.org/resource/Rhythm_and_blues', 'http://dbpedia.org/resource/Rocksteady', 'http://dbpedia.org/resource/Ska'], 'related_artists': ['http://dbpedia.org/resource/Al_Anderson_(musician)', 'http://dbpedia.org/resource/Aston_%22Family_Man%22_Barrett', 'http://dbpedia.org/resource/Aston_Barrett_Jr', 'http://dbpedia.org/resource/Bob_Marley', 'http://dbpedia.org/resource/Bob_Marley_and_the_Wailers', 'http://dbpedia.org/resource/Bunny_Wailer', 'http://dbpedia.org/resource/Carlton_%22Santa%22_Davis', 'http://dbpedia.org/resource/Judy_Mowatt', 'http://dbpedia.org/resource/Keith_Sterling', 'http://dbpedia.org/resource/Mick_Jagger', 'http://dbpedia.org/resource/Mikey_Chung', 'http://dbpedia.org/resource/Nadine_Sutherland', 'http://dbpedia.org/resource/Richard_Hall_(musician)', 'http://dbpedia.org/resource/Robbie_Lyn', 'http://dbpedia.org/resource/The_Tamlins', 'http://dbpedia.org/resource/Tyrone_Downie'], 'abstract': 'Peter Tosh, OM (born Winston Hubert McIntosh; 19 October\u200a 1944 – 11 September 1987) was a Jamaican reggae musician. Along with Bob Marley and Bunny Wailer, he was one of the core members of the band the Wailers (1963–1976), after which he established himself as a successful solo artist and a promoter of Rastafari. He was murdered in 1987 during a home invasion.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Fleetwood_Mac', 'artist_name': 'Fleetwood Mac', 'wiki': 'http://en.wikipedia.org/wiki/Fleetwood_Mac', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1997', 'labels': ['http://dbpedia.org/resource/Blue_Horizon_(record_label)', 'http://dbpedia.org/resource/Reprise_Records', 'http://dbpedia.org/resource/Warner_Records'], 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees', 'http://dbpedia.org/resource/Walking_with_Dinosaurs_(film)'], 'genres': ['http://dbpedia.org/resource/Art_pop', 'http://dbpedia.org/resource/Blues_rock', 'http://dbpedia.org/resource/British_blues', 'http://dbpedia.org/resource/Folk_rock', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Rock_music', 'http://dbpedia.org/resource/Soft_rock', 'Rock'], 'actual_members': ['http://dbpedia.org/resource/Christine_McVie', 'http://dbpedia.org/resource/John_McVie', 'http://dbpedia.org/resource/Mick_Fleetwood', 'http://dbpedia.org/resource/Mike_Campbell_(musician)', 'http://dbpedia.org/resource/Neil_Finn', 'http://dbpedia.org/resource/Stevie_Nicks'], 'old_members': ['http://dbpedia.org/resource/Bekka_Bramlett', 'http://dbpedia.org/resource/Billy_Burnette', 'http://dbpedia.org/resource/Bob_Brunning', 'http://dbpedia.org/resource/Bob_Welch_(musician)', 'http://dbpedia.org/resource/Bob_Weston_(guitarist)', 'http://dbpedia.org/resource/Danny_Kirwan', 'http://dbpedia.org/resource/Dave_Mason', 'http://dbpedia.org/resource/Dave_Walker', 'http://dbpedia.org/resource/Jeremy_Spencer', 'http://dbpedia.org/resource/Lindsey_Buckingham', 'http://dbpedia.org/resource/Peter_Green_(musician)', 'http://dbpedia.org/resource/Rick_Vito'], 'related_artists': ['http://dbpedia.org/resource/Bekka_&amp;_Billy', 'http://dbpedia.org/resource/Buckingham_Nicks', 'http://dbpedia.org/resource/Duster_Bennett', 'http://dbpedia.org/resource/Eddie_Boyd', 'http://dbpedia.org/resource/John_Mayall_&amp;_the_Bluesbreakers', 'http://dbpedia.org/resource/Lindsey_Buckingham_Christine_McVie', 'http://dbpedia.org/resource/Tramp_(band)'], 'abstract': 'Fleetwood Mac are a British-American rock band, formed in London in 1967. Fleetwood Mac were founded by guitarist Peter Green, drummer Mick Fleetwood and guitarist Jeremy Spencer, before bassist John McVie joined the line-up for their self-titled debut album. Danny Kirwan joined as a third guitarist in 1968. Keyboardist and vocalist Christine Perfect, who contributed as a session musician from the second album, married McVie and joined in 1970. Primarily a British blues band at first, Fleetwood Mac scored a UK number one with "Albatross", and had other hits such as the singles "Oh Well" and "Man of the World". All three guitarists left in succession during the early 1970s, to be replaced by guitarists Bob Welch and Bob Weston and vocalist Dave Walker. By 1974, Welch, Weston and Walker had all either departed or been dismissed, leaving the band without a male lead vocalist or guitarist. In late 1974, while Fleetwood was scouting studios in Los Angeles, he heard American folk-rock duo Lindsey Buckingham and Stevie Nicks, and asked Buckingham to be their new lead guitarist, and Buckingham agreed on condition that Nicks could also join the band. The addition of Buckingham and Nicks gave the band a more pop rock sound, and their 1975 self-titled album, Fleetwood Mac, reached No. 1 in the United States. Rumours (1977), Fleetwood Mac\'s second album after the arrival of Buckingham and Nicks, produced four U.S. Top 10 singles and remained at number one on the American albums chart for 31 weeks. It also reached the top spot in countries around the world and won a Grammy Award for Album of the Year in 1978. Rumours has sold over 40 million copies worldwide, making it one of the best-selling albums in history. Although each member of the band went through a breakup (John and Christine McVie, Buckingham and Nicks, and Fleetwood and his wife Jenny) while recording the album, they continued to write and record music together. The band\'s personnel remained stable through three more studio albums, but by the late 1980s began to disintegrate. After Buckingham and Nicks each left the band, they were replaced by a number of other guitarists and vocalists. A 1993 one-off performance for the first inauguration of Bill Clinton featured the line-up of Fleetwood, John McVie, Christine McVie, Nicks, and Buckingham back together for the first time in six years. A full reunion occurred four years later, and the group released their fourth U.S. No. 1 album, The Dance (1997), a live compilation of their hits, also marking the 20th anniversary of Rumours. Christine McVie left the band in 1998, but continued to work with the band in a session capacity. Meanwhile, the group remained together as a four-piece, releasing their most recent studio album, Say You Will, in 2003. Christine McVie rejoined the band full-time in 2014. In 2018, Buckingham was fired from the band and was replaced by Mike Campbell, formerly of Tom Petty and the Heartbreakers, and Neil Finn of Split Enz and Crowded House. Fleetwood Mac have sold more than 120 million records worldwide, making them one of the world\'s best-selling bands. In 1979, the group were honoured with a star on the Hollywood Walk of Fame. In 1998 the band were inducted into the Rock and Roll Hall of Fame and received the Brit Award for Outstanding Contribution to Music. In 2018, the band received the MusiCares Person of the Year award by The Recording Academy in recognition of their artistic achievement in the music industry and dedication to philanthropy.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Steve_Aoki', 'artist_name': 'Steve Aoki', 'wiki': 'http://en.wikipedia.org/wiki/Steve_Aoki', 'hometown': 'http://dbpedia.org/resource/Newport_Beach,_California', 'birth_date': '30 November 1977', 'start_year': '1996', 'labels': ['http://dbpedia.org/resource/Dim_Mak_Records', 'http://dbpedia.org/resource/Ministry_of_Sound', "http://dbpedia.org/resource/Spinnin'_Records", 'http://dbpedia.org/resource/Ultra_Music'], 'genres': ['http://dbpedia.org/resource/Big_room_house', 'http://dbpedia.org/resource/Electro_house', 'http://dbpedia.org/resource/Electronic_dance_music', 'http://dbpedia.org/resource/Trap_music_(EDM)'], 'related_artists': ['http://dbpedia.org/resource/3_Are_Legend', 'http://dbpedia.org/resource/Alex_James_(songwriter)__Alex_James__1', 'http://dbpedia.org/resource/Angger_Dimas', 'http://dbpedia.org/resource/Annika_Wells__Annika_Wells__1', 'http://dbpedia.org/resource/BTS', 'http://dbpedia.org/resource/Bad_Royale', 'http://dbpedia.org/resource/Carnage_(DJ)', 'http://dbpedia.org/resource/Congorock', 'http://dbpedia.org/resource/Deorro', 'http://dbpedia.org/resource/Dzeko_&amp;_Torres', 'http://dbpedia.org/resource/Felix_Cartal', 'http://dbpedia.org/resource/Felix_Jaehn', 'http://dbpedia.org/resource/Foreign_Born', 'http://dbpedia.org/resource/Funkin_Matt', 'http://dbpedia.org/resource/Gazzo_(producer)', 'http://dbpedia.org/resource/Glowinthedark', 'http://dbpedia.org/resource/Headhunterz', 'http://dbpedia.org/resource/Infected_Mushroom', 'http://dbpedia.org/resource/Jayceeoh', 'http://dbpedia.org/resource/Josh_Stevens', 'http://dbpedia.org/resource/Kay_(singer)', 'http://dbpedia.org/resource/Kryoman', 'http://dbpedia.org/resource/Laidback_Luke', 'http://dbpedia.org/resource/Larry_Tee', 'http://dbpedia.org/resource/Lawrence_Vavra', 'http://dbpedia.org/resource/Lil_Jon', 'http://dbpedia.org/resource/Linkin_Park', 'http://dbpedia.org/resource/Linkin_Park__Linkin_Park__1', 'http://dbpedia.org/resource/Luke_Steele_(musician)', 'http://dbpedia.org/resource/Ming_(DJ)', 'http://dbpedia.org/resource/Moxie_Raia', 'http://dbpedia.org/resource/Nicholas_Furlong_(musician)', 'http://dbpedia.org/resource/The_Bloody_Beetroots', 'http://dbpedia.org/resource/The_Willowz', 'http://dbpedia.org/resource/Tiësto', 'http://dbpedia.org/resource/Travis_Barker', 'http://dbpedia.org/resource/Valentino_Khan', 'http://dbpedia.org/resource/Vini_Vici_(Psytrance_duo)', 'http://dbpedia.org/resource/W&amp;W', 'http://dbpedia.org/resource/Walk_the_Moon', 'http://dbpedia.org/resource/Will.i.am', 'http://dbpedia.org/resource/Yellow_Claw_(DJs)'], 'abstract': "Steven Hiroyuki Aoki (/eɪˈoʊki/; Japanese: スティーヴン・ヒロユキ・アオキ) (born November 30, 1977) is an American DJ, record producer, music programmer, record executive, and heir to his father Rocky Aoki's fortune from the Benihana restaurant franchise. In 2012, Pollstar designated Aoki as the highest grossing electronic dance music artist in North America from tours. He has collaborated with artists such as will.i.am, Afrojack, LMFAO, Linkin Park, Iggy Azalea, Lil Jon, blink-182, Laidback Luke, BTS, Monsta X, Louis Tomlinson, Backstreet Boys, Rise Against, Vini Vici, Lauren Jauregui, and Fall Out Boy and is known for his remixes of artists such as Kid Cudi. Aoki has released several Billboard-charting studio albums as well, notably Wonderland, which was nominated for Grammy Award for Best Dance/Electronica Album in 2013. He is the founder of the Steve Aoki Charitable Fund, which raises money for global humanitarian relief organizations. In 2019, Aoki published a memoir, Blue: The Color of Noise."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Knife_Party', 'artist_name': 'Knife Party', 'wiki': 'http://en.wikipedia.org/wiki/Knife_Party', 'hometown': 'http://dbpedia.org/resource/Western_Australia', 'start_year': '2011', 'labels': ['http://dbpedia.org/resource/Big_Beat_Records_(American_record_label)', 'http://dbpedia.org/resource/Monstercat', 'http://dbpedia.org/resource/Warner_Records'], 'genres': ['http://dbpedia.org/resource/Drum_and_bass', 'http://dbpedia.org/resource/Dubstep', 'http://dbpedia.org/resource/Electro_house', 'drumstep', 'complextro'], 'actual_members': ['http://dbpedia.org/resource/Pendulum_(Australian_band)', 'http://dbpedia.org/resource/Rob_Swire', 'Gareth McGrillen'], 'related_artists': ['http://dbpedia.org/resource/Brass_Knuckles_(band)', 'http://dbpedia.org/resource/Foreign_Beggars', 'http://dbpedia.org/resource/Pegboard_Nerds', 'http://dbpedia.org/resource/Pendulum_(Australian_band)', 'http://dbpedia.org/resource/Raja_Kumari', 'http://dbpedia.org/resource/Rob_Swire', 'http://dbpedia.org/resource/ShockOne', 'http://dbpedia.org/resource/Skrillex', 'http://dbpedia.org/resource/Swedish_House_Mafia', 'http://dbpedia.org/resource/The_Nightwatchman', 'http://dbpedia.org/resource/The_Zombie_Kids', 'http://dbpedia.org/resource/Tom_Staar'], 'abstract': "Knife Party is an Australian electronic music duo consisting of Rob Swire and Gareth McGrillen, two members of the drum and bass band Pendulum. The duo has worked with artists such as Swedish House Mafia, Steve Aoki, MistaJam, Foreign Beggars, I See MONSTAS, Tom Staar, Pegboard Nerds and Tom Morello. Knife Party peaked at 23rd on DJMag's 2013 Top 100 DJs rankings."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Samantha_Fox', 'artist_name': 'Samantha Fox', 'wiki': 'http://en.wikipedia.org/wiki/Samantha_Fox', 'birth_date': '15 April 1966', 'start_year': '1986', 'aliases': ['Sam Fox'], 'labels': ['http://dbpedia.org/resource/Jive_Records', 'http://dbpedia.org/resource/Sony_Music'], 'genres': ['http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Eurobeat', 'http://dbpedia.org/resource/Hi-NRG', 'http://dbpedia.org/resource/House_music', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Soft_rock'], 'related_artists': ['http://dbpedia.org/resource/Full_Force', 'http://dbpedia.org/resource/Günther_(singer)', 'http://dbpedia.org/resource/Marc_Mysterio', 'http://dbpedia.org/resource/Sabrina_Salerno', 'http://dbpedia.org/resource/Stock_Aitken_Waterman'], 'abstract': 'Samantha Karen Fox (born 15 April 1966) is an English singer and former glamour model. In 1983, at age 16, she began appearing as a topless model on Page 3 of British tabloid newspaper The Sun, and continued as a Page 3 girl until 1986. During this time, Fox became the most popular pin-up girl of her era, as well as one of the most photographed British women of the 1980s. In 1986, she launched a pop music career with her debut single "Touch Me (I Want Your Body)", which peaked at number one in 17 countries, and became the first of her three top 10 singles on the UK Singles Chart. Fox also had three songs reach the top 10 on the US Billboard Hot 100: "Touch Me (I Want Your Body)", "Naughty Girls (Need Love Too)" and "I Wanna Have Some Fun". In 1988, Fox received a Brit Award nomination for Best British Female Artist. She has also appeared in a number of films and reality television shows, and has occasionally worked as a television presenter.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Fountains_of_Wayne', 'artist_name': 'Fountains of Wayne', 'wiki': 'http://en.wikipedia.org/wiki/Fountains_of_Wayne', 'hometown': 'http://dbpedia.org/resource/New_York_(state)', 'start_year': '1995', 'end_year': '2013', 'labels': ['http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/S-Curve_Records', 'http://dbpedia.org/resource/Scratchie_Records', 'http://dbpedia.org/resource/Virgin_Records', 'http://dbpedia.org/resource/Yep_Roc_Records'], 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Geek_rock', 'http://dbpedia.org/resource/Indie_pop', 'http://dbpedia.org/resource/Pop-punk', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Power_pop', 'pop punk'], 'old_members': ['http://dbpedia.org/resource/Adam_Schlesinger', 'http://dbpedia.org/resource/Brian_Young_(drummer)', 'http://dbpedia.org/resource/Chris_Collingwood', 'http://dbpedia.org/resource/Jody_Porter'], 'related_artists': ['http://dbpedia.org/resource/Brian_Young_(drummer)', 'http://dbpedia.org/resource/Chris_Collingwood', 'http://dbpedia.org/resource/Danny_Weinkauf', 'http://dbpedia.org/resource/Fever_High', 'http://dbpedia.org/resource/Ivy_(band)', 'http://dbpedia.org/resource/Jody_Porter', 'http://dbpedia.org/resource/The_Genuine_Fakes', 'http://dbpedia.org/resource/The_Jesus_and_Mary_Chain', 'http://dbpedia.org/resource/The_Monkees', 'http://dbpedia.org/resource/The_Posies', 'http://dbpedia.org/resource/Tinted_Windows_(band)'], 'abstract': 'Fountains of Wayne was an American rock band that formed in New York City in 1995. The band consisted of Chris Collingwood, Adam Schlesinger, Jody Porter, and Brian Young. Their 2003 single "Stacy\'s Mom" was certified gold by the Recording Industry Association of America and was nominated for Best Vocal Pop Performance at the 2004 Grammys. The band effectively disbanded in 2013. Schlesinger died of complications from COVID-19 on April 1, 2020, and the surviving members of Fountains of Wayne reunited to perform an online one-shot concert as a tribute to Schlesinger on April 22, 2020.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Marilyn_Manson_(band)', 'artist_name': 'Marilyn Manson', 'wiki': 'http://en.wikipedia.org/wiki/Marilyn_Manson_(band)', 'hometown': 'http://dbpedia.org/resource/Fort_Lauderdale,_Florida', 'start_year': '1989', 'aliases': ['Marilyn Manson &amp; the Spooky Kids (1989–1993)'], 'labels': ['http://dbpedia.org/resource/Concord_Music_Group', 'http://dbpedia.org/resource/Cooking_Vinyl', 'http://dbpedia.org/resource/Hell,_etc._(label)', 'http://dbpedia.org/resource/Interscope_Records', 'http://dbpedia.org/resource/Loma_Vista_Recordings', 'http://dbpedia.org/resource/Nothing_Records', 'http://dbpedia.org/resource/Virgin_Music_Label_&amp;_Artist_Services'], 'plays_in': ['http://dbpedia.org/resource/Private_Parts_(1997_film)'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Industrial_metal', 'http://dbpedia.org/resource/Industrial_rock', 'http://dbpedia.org/resource/Shock_rock'], 'actual_members': ['http://dbpedia.org/resource/Juan_Alderete', 'http://dbpedia.org/resource/Marilyn_Manson', 'http://dbpedia.org/resource/Tim_Skold', 'Brandon Pertzborn', 'Paul Wiley', 'Tim Sköld'], 'old_members': ['http://dbpedia.org/resource/Chris_Vrenna', 'http://dbpedia.org/resource/Fred_Sablan', 'http://dbpedia.org/resource/Gidget_Gein', 'http://dbpedia.org/resource/Gil_Sharone', 'http://dbpedia.org/resource/Ginger_Fish', 'http://dbpedia.org/resource/John_5_(guitarist)', 'http://dbpedia.org/resource/Madonna_Wayne_Gacy', 'http://dbpedia.org/resource/Olivia_Newton_Bundy', 'http://dbpedia.org/resource/Sara_Lee_Lucas', 'http://dbpedia.org/resource/Scott_Putesky', 'http://dbpedia.org/resource/Twiggy_Ramirez', 'http://dbpedia.org/resource/Tyler_Bates', 'http://dbpedia.org/resource/Zim_Zum', 'Daisy Berkowitz', 'Zsa Zsa Speck'], 'related_artists': ['http://dbpedia.org/resource/Godhead_(band)', 'http://dbpedia.org/resource/Jack_Off_Jill', 'http://dbpedia.org/resource/Nine_Inch_Nails', 'http://dbpedia.org/resource/Rasputina_(band)', 'http://dbpedia.org/resource/Rob_Zombie', 'http://dbpedia.org/resource/Shooter_Jennings'], 'abstract': 'Marilyn Manson is an American rock band formed by namesake lead singer Marilyn Manson and guitarist Daisy Berkowitz in Fort Lauderdale, Florida, in 1989. Originally named Marilyn Manson &amp; the Spooky Kids, they gained a local cult following in South Florida in the early 1990s with their theatrical live performances. In 1993, they were the first act signed to Trent Reznor\'s Nothing Records label. Until 1996, the name of each member was created by combining the first name of a female sex symbol and the last name of a serial killer, for example Marilyn Monroe and Charles Manson. Their lineup has changed between many of their album releases; the eponymous lead singer is the only remaining original member. In the past, band members dressed in outlandish makeup and costumes, and engaged in intentionally shocking behavior both onstage and off. Their lyrics often received criticism for their anti-religious sentiment and references to sex, violence and drugs, while their live performances were frequently called offensive and obscene. On several occasions, protests and petitions led to the group being blocked from performing, with at least three US states passing legislation banning the group from performing at state-owned venues. They released a number of platinum-selling albums, including Antichrist Superstar (1996) and Mechanical Animals (1998). These albums, along with their highly stylized music videos and worldwide touring, brought public recognition to Marilyn Manson. In 1999, news media, infamously, falsely blamed the band for influencing the perpetrators of the Columbine High School massacre. As this controversy began to wane throughout the 2000s, so did the band\'s mainstream popularity. Despite this, Jon Wiederhorn of MTV, in June 2003, referred to Marilyn Manson as "the only true artist today". Marilyn Manson is widely regarded as being one of the most iconic and controversial figures in rock music, with the band and its lead singer influencing numerous other groups and musicians, both in metal-associated acts and also in wider popular culture. VH1 ranked Marilyn Manson as the seventy-eighth best rock band on their 100 Great Artists of Hard Rock. They were inducted into the Kerrang! Hall of Fame in 2000, and have been nominated for four Grammy Awards. In the U.S., the band has seen ten of its releases debut in the top ten, including two number-one albums. Marilyn Manson have sold in excess of 50 million records worldwide.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/La_Bouche', 'artist_name': 'La Bouche', 'wiki': 'http://en.wikipedia.org/wiki/La_Bouche', 'hometown': 'http://dbpedia.org/resource/Frankfurt', 'start_year': '1994', 'end_year': '2002', 'labels': ['http://dbpedia.org/resource/Bertelsmann_Music_Group', 'http://dbpedia.org/resource/RCA_Records'], 'genres': ['http://dbpedia.org/resource/Eurodance', 'http://dbpedia.org/resource/House_music'], 'actual_members': ['http://dbpedia.org/resource/Lane_McCray', 'https://mystiqua.godaddysites.com', 'Tímea Kullai'], 'old_members': ['http://dbpedia.org/resource/Kayo_Shekoni', 'http://dbpedia.org/resource/Melanie_Thornton'], 'related_artists': ['http://dbpedia.org/resource/Felix_Weber_(songwriter)', 'http://dbpedia.org/resource/Frank_Farian__Frank_Farian__1', 'http://dbpedia.org/resource/Jaya_Sri', 'http://dbpedia.org/resource/Lane_McCray', 'http://dbpedia.org/resource/Le_Click', 'http://dbpedia.org/resource/Mary_Susan_Applegate'], 'abstract': 'La Bouche (French for "The Mouth", pronounced [la buʃ]) is a German electronic dance music duo best known for the hits "Be My Lover", "Sweet Dreams", "You Won\'t Forget Me" and "Tonight is the Night". La Bouche was founded in 1994 by record producer Frank Farian in Frankfurt am Main. He worked together with techno DJ Ulli Brenner and producer Amir Saraf to produce the music, while American singer Melanie Thornton and American rapper-singer Lane McCray fronted the act. Thornton and McCray had already worked together in music, prior to La Bouche\'s creation. Thornton departed La Bouche in 2000, continuing her career as a solo singer. On November 24, 2001, Melanie Thornton died in the Crossair Flight 3597 crash in Zürich, Switzerland. As a tribute to the singer, Farian released "In Your Life", a previously unreleased song featuring vocals recorded earlier with Thornton and McCray. Farian later decided to release a compilation album in 2002 featuring remixes of Thornton\'s biggest La Bouche hits. McCray continues to tour the world as La Bouche, keeping the brand alive. In 2015, McCray pulled Hungarian-born singer Sophie Cairo out of obscurity to be the new official singer of the act. A new official remix titled "Sweet Dreams 2017" was released featuring vocals from McCray and Cairo.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Eurythmics', 'artist_name': 'Eurythmics', 'wiki': 'http://en.wikipedia.org/wiki/Eurythmics', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1980', 'end_year': '1990', 'labels': ['http://dbpedia.org/resource/Arista_Records', 'http://dbpedia.org/resource/RCA_Records', 'http://dbpedia.org/resource/Sony_BMG'], 'plays_in': ['http://dbpedia.org/resource/Framed_Youth:_The_Revenge_of_the_Teenage_Perverts', 'http://dbpedia.org/resource/Nineteen_Eighty-Four_(1984_film)'], 'genres': ['http://dbpedia.org/resource/Dance-rock', 'http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Synth-pop', 'new wave'], 'old_members': ['http://dbpedia.org/resource/Annie_Lennox', 'http://dbpedia.org/resource/Dave_Stewart_(musician_and_producer)'], 'related_artists': ['http://dbpedia.org/resource/Amanda_Kramer', 'http://dbpedia.org/resource/Annie_Lennox', 'http://dbpedia.org/resource/Chucho_Merchán', 'http://dbpedia.org/resource/Clem_Burke', 'http://dbpedia.org/resource/Conny_Plank', 'http://dbpedia.org/resource/Curve_(band)', 'http://dbpedia.org/resource/Dave_Stewart_(musician_and_producer)', 'http://dbpedia.org/resource/Dean_Garcia', 'http://dbpedia.org/resource/Dick_Cuthell', 'http://dbpedia.org/resource/Jaki_Liebezeit', 'http://dbpedia.org/resource/Jeremy_Stacey', 'http://dbpedia.org/resource/John_McKenzie_(musician)', 'http://dbpedia.org/resource/Joniece_Jamison', 'http://dbpedia.org/resource/Maggie_Ryder', 'http://dbpedia.org/resource/Olle_Romo', 'http://dbpedia.org/resource/Pete_Phipps', 'http://dbpedia.org/resource/SuperHeavy', 'http://dbpedia.org/resource/The_Tourists', 'http://dbpedia.org/resource/Vegas_(duo)'], 'abstract': 'Eurythmics were a British pop duo consisting of members Annie Lennox and Dave Stewart. Stewart and Lennox were both previously in The Tourists, a band which broke up in 1980; Eurythmics were formed later that year in Wagga Wagga, Australia. The duo released their first studio album, In the Garden, in 1981 to little success, but went on to achieve global success when their second album Sweet Dreams (Are Made of This), was released in 1983. The title track became a worldwide hit which topped the charts in various countries including the US. The duo went on to release a string of hit singles and albums before they split up in 1990. By this time, Stewart was a sought-after record producer, while Lennox began a solo recording career in 1992 with her debut album Diva. After almost a decade apart, Eurythmics reunited to record their ninth album, Peace, released in late 1999. They reunited again in 2005 to release the single "I\'ve Got a Life", as part of a new Eurythmics compilation album, Ultimate Collection. The duo have won an MTV Video Music Award for Best New Artist in 1984, the Grammy Award for Best Rock Performance by a Duo or Group with Vocal in 1987, the Brit Award for Outstanding Contribution to Music in 1999, and in 2005 were inducted into the UK Music Hall of Fame. The Eurythmics have sold an estimated 75 million records worldwide. In 2017, the group was nominated for induction into the Rock &amp; Roll Hall of Fame, and were nominated again in 2018.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/BodyRockers', 'artist_name': 'BodyRockers', 'wiki': 'http://en.wikipedia.org/wiki/BodyRockers', 'hometown': 'http://dbpedia.org/resource/England', 'start_year': '2004', 'end_year': '2007', 'labels': ['http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/Universal_Music_Group'], 'genres': ['http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Dance-rock', 'http://dbpedia.org/resource/Electronic_music', 'http://dbpedia.org/resource/Electronic_rock', 'http://dbpedia.org/resource/House_music'], 'old_members': ['http://dbpedia.org/resource/Kaz_James', 'Dylan Burns'], 'abstract': 'BodyRockers were an English–Australian electronic music duo, consisting of Dylan Burns and Kaz James, which formed in 2004. Their 2005 single, "I Like the Way", reached No. 3 on the United Kingdom Singles Chart, No. 12 on the Australian ARIA Singles Chart, and the Top 20 on both the United States Billboard Hot Dance Club Play and Hot Dance Airplay Charts. They issued a self-titled album that year and toured internationally in support of its release. Although they recorded material for a second album it was not issued and the group disbanded in 2007 with both Burns and James pursuing solo careers.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Franz_Ferdinand_(band)', 'artist_name': 'Franz Ferdinand', 'wiki': 'http://en.wikipedia.org/wiki/Franz_Ferdinand_(band)', 'hometown': 'http://dbpedia.org/resource/Glasgow', 'start_year': '2002', 'labels': ['http://dbpedia.org/resource/Domino_Recording_Company'], 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees'], 'genres': ['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Dance-punk', 'http://dbpedia.org/resource/Dance-rock', 'http://dbpedia.org/resource/Indie_rock', 'http://dbpedia.org/resource/Post-punk_revival'], 'actual_members': ['http://dbpedia.org/resource/Alex_Kapranos', 'http://dbpedia.org/resource/Bob_Hardy_(bassist)', 'http://dbpedia.org/resource/Dino_Bardot', 'http://dbpedia.org/resource/Miaoux_Miaoux', 'Audrey Tait', 'Julian Corrie'], 'old_members': ['http://dbpedia.org/resource/Nick_McCarthy', 'http://dbpedia.org/resource/Paul_Thomson'], 'related_artists': ['http://dbpedia.org/resource/Alex_Kapranos', 'http://dbpedia.org/resource/Andy_Knowles', 'http://dbpedia.org/resource/BNQT', 'http://dbpedia.org/resource/Björn_Yttling', 'http://dbpedia.org/resource/Bob_Hardy_(bassist)', 'http://dbpedia.org/resource/Cenzo_Townshend', 'http://dbpedia.org/resource/Dan_Carey_(record_producer)', 'http://dbpedia.org/resource/Dino_Bardot', 'http://dbpedia.org/resource/Embryo_(band)', 'http://dbpedia.org/resource/FFS_(band)', 'http://dbpedia.org/resource/LCD_Soundsystem', 'http://dbpedia.org/resource/Miaoux_Miaoux', 'http://dbpedia.org/resource/Nick_McCarthy', 'http://dbpedia.org/resource/Paul_Thomson', 'http://dbpedia.org/resource/Ron_Mael', 'http://dbpedia.org/resource/Russell_Mael', 'http://dbpedia.org/resource/Scatter_(band)', 'http://dbpedia.org/resource/Sparks_(band)', 'http://dbpedia.org/resource/The_Karelia', 'http://dbpedia.org/resource/The_Yummy_Fur', 'http://dbpedia.org/resource/Todd_Terje'], 'abstract': 'Franz Ferdinand are a Scottish rock band formed in Glasgow in 2002. The band\'s original line-up was composed of Alex Kapranos (lead vocals, lead guitar, keyboards), Nick McCarthy (rhythm guitar, keyboards, backing vocals), Bob Hardy (bass guitar), and Paul Thomson (drums, percussion, backing vocals). Julian Corrie (keyboards, lead guitar, backing vocals) and Dino Bardot (rhythm guitar, backing vocals) joined the band in 2017 after McCarthy left during the previous year, and Audrey Tait (drums) joined the band after Thomson left in 2021. The band is one of the more popular post-punk revival bands, garnering multiple UK top 20 hits. They have been nominated for several Grammy Awards and have received two Brit Awards – winning one for Best British Group – as well as one NME Award. The band\'s first two singles, "Darts of Pleasure" and "Take Me Out", peaked within the top 50 on the UK Singles Chart. "Take Me Out" charted in several countries and earned a Grammy nomination for Best Rock Performance by a Duo or Group with Vocal; it became the band\'s signature song. Their self-titled debut studio album won the 2004 Mercury Prize and earned a Grammy nomination for Best Alternative Album. In 2005, the band released their second studio album, You Could Have It So Much Better, produced by Rich Costey. It peaked within the top-ten in multiple countries and earned Grammy-nominations for Best Alternative Album and for one of the singles, "Do You Want To". The band\'s third studio album, Tonight: Franz Ferdinand, was released in January 2009; by then the band had shifted from a post-punk-focused sound to a more dance-oriented sound. A remix album of Tonight, titled Blood, was released in July 2009. Four years after the release of Tonight, the band released their fourth studio album, Right Thoughts, Right Words, Right Action, in August 2013. In 2015, Franz Ferdinand and American rock band Sparks formed the supergroup FFS and released a one-off self-titled album in June 2015. Following the departure of McCarthy, the band released their fifth studio album, Always Ascending, in February 2018.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Sean_Paul', 'artist_name': 'Sean Paul', 'wiki': 'http://en.wikipedia.org/wiki/Sean_Paul', 'birth_date': '09 January 1973', 'start_year': '1994', 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees'], 'related_artists': ['http://dbpedia.org/resource/Alexis_Jordan', 'http://dbpedia.org/resource/Amara_La_Negra', 'http://dbpedia.org/resource/Ammar_Malik', 'http://dbpedia.org/resource/Arif_Cooper', 'http://dbpedia.org/resource/Banx_&amp;_Ranx', 'http://dbpedia.org/resource/Beau_Vallis_(singer)', 'http://dbpedia.org/resource/Benny_Blanco', 'http://dbpedia.org/resource/Blackout_(musician)', 'http://dbpedia.org/resource/Brian_and_Tony_Gold', 'http://dbpedia.org/resource/Bynon', "http://dbpedia.org/resource/Ce'cile", 'http://dbpedia.org/resource/Clean_Bandit', 'http://dbpedia.org/resource/DJ_Shadow_Dubai', 'http://dbpedia.org/resource/Di_Genius', 'http://dbpedia.org/resource/Don_Yute', 'http://dbpedia.org/resource/Emily_Warren', 'http://dbpedia.org/resource/Fuse_ODG', 'http://dbpedia.org/resource/GoonRock', 'http://dbpedia.org/resource/Iakopo', 'http://dbpedia.org/resource/Jimmy_Cozier', 'http://dbpedia.org/resource/Jr_Blender', 'http://dbpedia.org/resource/Jully_Black', 'http://dbpedia.org/resource/Lucenzo', 'http://dbpedia.org/resource/Matt_Terry', 'http://dbpedia.org/resource/Michael_James_Down', 'http://dbpedia.org/resource/Ms._Triniti', 'http://dbpedia.org/resource/Nina_Sky', 'http://dbpedia.org/resource/Ricky_Blaze', 'http://dbpedia.org/resource/Sasha_(Jamaican_musician)', 'http://dbpedia.org/resource/StayBent_Krunk-a-Delic', 'http://dbpedia.org/resource/Stefflon_Don__Stefflon_Don__1', 'http://dbpedia.org/resource/Steven_%22Lenky%22_Marsden', 'http://dbpedia.org/resource/Stonebwoy', 'http://dbpedia.org/resource/Tainy', 'http://dbpedia.org/resource/Tal_(singer)', 'http://dbpedia.org/resource/Tony_Touch', 'http://dbpedia.org/resource/Valentino_Khan', 'http://dbpedia.org/resource/Yendry'], 'abstract': 'Sean Paul Ryan Francis Henriques OD (born 9 January 1973) is a Jamaican dancehall recording artist, singer, songwriter, and producer, who is regarded as one of the genre\'s most prolific artists. Paul\'s singles "Get Busy" and "Temperature" topped the Billboard Hot 100 chart in the United States and most of his albums have been nominated for the Grammy\'s Best Reggae Album, with Dutty Rock winning the award. Paul has also been featured in many other singles including chart-toppers "Baby Boy" with Beyoncé, "What About Us" by The Saturdays, "Rockabye" by Clean Bandit and "Cheap Thrills" by Sia.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Coldplay', 'artist_name': 'Coldplay', 'wiki': 'http://en.wikipedia.org/wiki/Coldplay', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1996', 'aliases': ['Los Unidades', 'Pectoralz', 'Starfish'], 'labels': ['http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/EMI', 'http://dbpedia.org/resource/Fierce_Panda_Records', 'http://dbpedia.org/resource/Parlophone', 'http://dbpedia.org/resource/Third_Man_Records'], 'plays_in': ['http://dbpedia.org/resource/Avenida_Brasil_(TV_series)', 'http://dbpedia.org/resource/Coldplay:_A_Head_Full_of_Dreams', 'http://dbpedia.org/resource/Coldplay_Live_2012', 'http://dbpedia.org/resource/Grammy_Nominees', 'http://dbpedia.org/resource/Home_(2016_British-Kosovan_film)'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Post-Britpop', 'pop'], 'actual_members': ['http://dbpedia.org/resource/Chris_Martin', 'http://dbpedia.org/resource/Guy_Berryman', 'http://dbpedia.org/resource/Jonny_Buckland', 'http://dbpedia.org/resource/Phil_Harvey_(manager)', 'http://dbpedia.org/resource/Will_Champion'], 'related_artists': ['http://dbpedia.org/resource/Apparatjik', 'http://dbpedia.org/resource/Brian_Eno', 'http://dbpedia.org/resource/Davide_Rossi', 'http://dbpedia.org/resource/Jon_Hopkins'], 'abstract': 'Coldplay are a British rock band formed in London in 1996. The band consists of vocalist, rhythm guitarist, and pianist Chris Martin; lead guitarist Jonny Buckland; bassist Guy Berryman; drummer Will Champion; and creative director Phil Harvey. They met at University College London and began playing music together from 1996 to 1998, first calling themselves Pectoralz and then Starfish. Coldplay released two EPs, Safety in 1998 and The Blue Room in 1999. The latter was their first release under a major record label, Parlophone. Coldplay achieved worldwide fame with the release of the song "Yellow" in 2000, followed in the same year by their debut album Parachutes, which was nominated for the Mercury Prize. The band\'s second album, A Rush of Blood to the Head (2002), was released to critical acclaim. Their next record, X&amp;Y, was the best-selling album worldwide of 2005; the Brian Eno-produced fourth studio album, Viva la Vida or Death and All His Friends (2008), was the best-selling album of that year and earned the band three Grammy Awards. In 2011, Coldplay released their fifth studio album, Mylo Xyloto, which topped the charts in over 34 countries and was the UK\'s best-selling rock album of 2011. The band have since released Ghost Stories (2014), A Head Full of Dreams (2015), Everyday Life (2019) and Music of the Spheres (2021). Coldplay have sold more than 100 million albums worldwide, making them one of the world\'s best-selling music artists. They have won numerous awards throughout their career, including nine Brit Awards, seven MTV Video Music Awards, eight MTV Europe Music Awards and seven Grammy Awards from 36 nominations. The band\'s first three albums — Parachutes (2000), A Rush of Blood to the Head (2002), and X&amp;Y (2005) — are among the best-selling albums in UK chart history. In December 2009, Rolling Stone readers voted the group the fourth-best artist of the 2000s and Q magazine included the group in their Artists of the Century list. Coldplay have supported various social and political causes, such as Oxfam\'s Make Trade Fair campaign and Amnesty International. They have also performed at charity projects, including Band Aid 20, Live 8, Global Citizen Festival, Sound Relief, Hope for Haiti Now: A Global Benefit for Earthquake Relief, One Love Manchester, The Secret Policeman\'s Ball, Sport Relief and the UK Teenage Cancer Trust.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Jamiroquai', 'artist_name': 'Jamiroquai', 'wiki': 'http://en.wikipedia.org/wiki/Jamiroquai', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1992', 'labels': ['http://dbpedia.org/resource/Acid_Jazz_Records', 'http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/S2_Records', 'http://dbpedia.org/resource/Virgin_EMI_Records', 'http://dbpedia.org/resource/Work_Group'], 'plays_in': ['http://dbpedia.org/resource/About_Last_Night_(2014_film)', 'http://dbpedia.org/resource/Grammy_Nominees', "http://dbpedia.org/resource/Guru's_Jazzmatazz,_Vol._2:_The_New_Reality", 'http://dbpedia.org/resource/Woodstock_1999_(album)'], 'genres': ['http://dbpedia.org/resource/Acid_jazz', 'http://dbpedia.org/resource/Contemporary_R&amp;B', 'http://dbpedia.org/resource/Disco', 'http://dbpedia.org/resource/Funk', 'http://dbpedia.org/resource/House_music', 'http://dbpedia.org/resource/Soul_music'], 'actual_members': ['http://dbpedia.org/resource/Jamiroquai', 'http://dbpedia.org/resource/Jay_Kay', 'http://dbpedia.org/resource/Matt_Johnson_(keyboardist)', 'http://dbpedia.org/resource/Paul_Turner_(bassist)', 'Derrick McKenzie', 'Rob Harris', 'Sola Akingbola'], 'related_artists': ['http://dbpedia.org/resource/Anastacia', 'http://dbpedia.org/resource/Jay_Kay__Jay_Kay__1', 'http://dbpedia.org/resource/Julian_Perretta', 'http://dbpedia.org/resource/Linda_Lewis', 'http://dbpedia.org/resource/Matt_Johnson_(keyboardist)', 'http://dbpedia.org/resource/Mike_Spencer', 'http://dbpedia.org/resource/Nick_Fyffe', 'http://dbpedia.org/resource/Paul_Turner_(bassist)', 'http://dbpedia.org/resource/Roddy_Lorimer', 'http://dbpedia.org/resource/Shuffler', 'http://dbpedia.org/resource/Simon_Hale', 'http://dbpedia.org/resource/Simon_Katz', 'http://dbpedia.org/resource/Stuart_Zender', 'http://dbpedia.org/resource/The_Temperance_Movement_(band)', 'http://dbpedia.org/resource/Toby_Smith'], 'abstract': 'Jamiroquai (/dʒəˈmɪrəkwaɪ/) are an English funk and acid jazz band from London. Formed in 1992, they are fronted by vocalist Jay Kay, and were prominent in the London-based funk and acid jazz movement of the 1990s. They built on their acid jazz sound in their early releases and later drew from rock, disco, electronic and Latin music genres. Lyrically, the group have addressed social and environmental justice. Kay has remained as the only original member through several line-up changes. The band made their debut under Acid Jazz Records, but they subsequently found mainstream success under Sony. While under this label, three of their albums have charted at number one in the UK, including Emergency on Planet Earth (1993), Synkronized (1999) and A Funk Odyssey (2001). The band\'s 1998 single, "Deeper Underground", was also number one in their native country. Jamiroquai has sold more than 26 million albums worldwide as of 2017. Their third album, Travelling Without Moving (1996), received a Guinness World Record for the best-selling funk album in history. The music video for its lead single, "Virtual Insanity", also contributed to the band\'s success. The song was named Video of the Year at the 1997 MTV Video Music Awards and earned the band a Grammy Award in 1998.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/David_Bowie', 'artist_name': 'David Bowie', 'wiki': 'http://en.wikipedia.org/wiki/David_Bowie', 'birth_date': '08 January 1947', 'death_date': '10 January 2016', 'start_year': '1962', 'end_year': '2016', 'plays_in': ['http://dbpedia.org/resource/Amor_à_Vida', 'http://dbpedia.org/resource/Christiane_F._(film)', 'http://dbpedia.org/resource/Cracked_Actor', 'http://dbpedia.org/resource/David_Bowie:_Black_Tie_White_Noise_(film)', 'http://dbpedia.org/resource/David_Bowie:_Sound_and_Vision_(documentary)', "http://dbpedia.org/resource/In_Tuned_Out_-_Live_'93", "http://dbpedia.org/resource/Jazzin'_for_Blue_Jean", 'http://dbpedia.org/resource/Lazarus_(musical)', 'http://dbpedia.org/resource/Les_Amants_du_Pont-Neuf', 'http://dbpedia.org/resource/Mauvais_Sang', 'http://dbpedia.org/resource/Mr._Deeds', 'http://dbpedia.org/resource/Ricochet_(documentary)', 'http://dbpedia.org/resource/The_Perks_of_Being_a_Wallflower_(film)', 'http://dbpedia.org/resource/Ziggy_Stardust_and_the_Spiders_from_Mars_(film)'], 'related_artists': ['http://dbpedia.org/resource/Adam_F', 'http://dbpedia.org/resource/Adrian_Belew', 'http://dbpedia.org/resource/Al_B._Sure!', 'http://dbpedia.org/resource/Amory_Kane', 'http://dbpedia.org/resource/Andy_Clark_(musician)', 'http://dbpedia.org/resource/Andy_Newmark', 'http://dbpedia.org/resource/Arcade_Fire', 'http://dbpedia.org/resource/Aynsley_Dunbar__Aynsley_Dunbar__1', 'http://dbpedia.org/resource/Barry_Grint', 'http://dbpedia.org/resource/Bernard_Edwards', 'http://dbpedia.org/resource/Bob_Pridden', 'http://dbpedia.org/resource/Brian_Eno', 'http://dbpedia.org/resource/Butterfly_Boucher', 'http://dbpedia.org/resource/Carmine_Rojas', 'http://dbpedia.org/resource/Charlie_Sexton__Charlie_Sexton__1', 'http://dbpedia.org/resource/Chic_(band)', 'http://dbpedia.org/resource/Chris_Haskett', 'http://dbpedia.org/resource/Chris_Julian_(producer)', 'http://dbpedia.org/resource/Colin_Thurston', 'http://dbpedia.org/resource/Cybernauts', 'http://dbpedia.org/resource/Dennis_Davis', 'http://dbpedia.org/resource/Dogstar_(band)', 'http://dbpedia.org/resource/Donny_McCaslin', 'http://dbpedia.org/resource/Earl_Slick', 'http://dbpedia.org/resource/Emm_Gryner', 'http://dbpedia.org/resource/G._E._Smith', 'http://dbpedia.org/resource/Gail_Ann_Dorsey', 'http://dbpedia.org/resource/Gary_Miller_(music_producer)', 'http://dbpedia.org/resource/Gerardo_Velez', 'http://dbpedia.org/resource/Gerry_Leonard', 'http://dbpedia.org/resource/Giorgio_Moroder', 'http://dbpedia.org/resource/Go_Home_Productions', 'http://dbpedia.org/resource/Greg_Calbi', 'http://dbpedia.org/resource/Henry_Hey', 'http://dbpedia.org/resource/Hugh_Padgham', 'http://dbpedia.org/resource/Ian_Hunter_(singer)', 'http://dbpedia.org/resource/Iva_Davies', 'http://dbpedia.org/resource/James_Murphy_(electronic_musician)', 'http://dbpedia.org/resource/Joe_LaPorta', 'http://dbpedia.org/resource/Johnny_Edward', 'http://dbpedia.org/resource/Jordan_Rudess', 'http://dbpedia.org/resource/Josh_Garza', "http://dbpedia.org/resource/Junior's_Eyes", 'http://dbpedia.org/resource/Justin_Lassen', 'http://dbpedia.org/resource/Klaus_Nomi', 'http://dbpedia.org/resource/Lauren_Christy', 'http://dbpedia.org/resource/Lester_Bowie', 'http://dbpedia.org/resource/Lisa_Germano', 'http://dbpedia.org/resource/Lou_Reed', 'http://dbpedia.org/resource/Lulu_(singer)', 'http://dbpedia.org/resource/Luther_Vandross', 'http://dbpedia.org/resource/Mac_Gollehon', 'http://dbpedia.org/resource/Malcolm_Toft', 'http://dbpedia.org/resource/Marc_Bolan', 'http://dbpedia.org/resource/Mark_Guiliana', 'http://dbpedia.org/resource/Mary_Hopkin', 'http://dbpedia.org/resource/Matthew_Seligman', 'http://dbpedia.org/resource/Maya_Lavelle', 'http://dbpedia.org/resource/Mick_Ronson__Mick_Ronson__1', 'http://dbpedia.org/resource/Mick_Woodmansey', 'http://dbpedia.org/resource/Mike_Garson', 'http://dbpedia.org/resource/Mike_Vernon_(record_producer)', 'http://dbpedia.org/resource/Mott_the_Hoople', 'http://dbpedia.org/resource/Nile_Rodgers', 'http://dbpedia.org/resource/Omar_Hakim', 'http://dbpedia.org/resource/Pet_Shop_Boys', 'http://dbpedia.org/resource/Peter_Frampton', 'http://dbpedia.org/resource/Photek', 'http://dbpedia.org/resource/Reeves_Gabrels', 'http://dbpedia.org/resource/Ricky_Gardiner', 'http://dbpedia.org/resource/Robin_Clark', 'http://dbpedia.org/resource/Roger_Pusey', 'http://dbpedia.org/resource/Ryan_Keberle', 'http://dbpedia.org/resource/Seu_Jorge', 'http://dbpedia.org/resource/Shel_Talmy', 'http://dbpedia.org/resource/Sid_McGinnis', 'http://dbpedia.org/resource/Sonic_Elements', 'http://dbpedia.org/resource/Sterling_Campbell', 'http://dbpedia.org/resource/TV_on_the_Radio__TV_on_the_Radio__1', 'http://dbpedia.org/resource/The_Rats_(British_band)', 'http://dbpedia.org/resource/The_Spiders_from_Mars', 'http://dbpedia.org/resource/Thomas_Dolby', 'http://dbpedia.org/resource/Tony_Kaye_(musician)', 'http://dbpedia.org/resource/Tony_Newman_(drummer)', 'http://dbpedia.org/resource/Tony_Thompson_(drummer)', 'http://dbpedia.org/resource/Tony_Visconti', 'http://dbpedia.org/resource/Trevor_Bolder', 'http://dbpedia.org/resource/Yossi_Fine'], 'abstract': 'David Robert Jones OAL (8 January 1947 – 10 January 2016), known professionally as David Bowie (/ˈboʊi/ BOH-ee), was an English singer-songwriter and actor. A leading figure in the music industry, Bowie is regarded as one of the most influential musicians of the 20th century. He was acclaimed by critics and musicians, particularly for his innovative work during the 1970s. His career was marked by reinvention and visual presentation, and his music and stagecraft had a significant impact on popular music. Bowie developed an interest in music as a child. He studied art, music and design before embarking on a professional career as a musician in 1963. "Space Oddity", released in 1969, was his first top-five entry on the UK Singles Chart. After a period of experimentation, he re-emerged in 1972 during the glam rock era with his flamboyant and androgynous alter ego Ziggy Stardust. The character was spearheaded by the success of Bowie\'s single "Starman" and album The Rise and Fall of Ziggy Stardust and the Spiders from Mars, which won him widespread popularity. In 1975, Bowie\'s style shifted towards a sound he characterised as "plastic soul", initially alienating many of his UK fans but garnering him his first major US crossover success with the number-one single "Fame" and the album Young Americans. In 1976, Bowie starred in the cult film The Man Who Fell to Earth, directed by Nicolas Roeg, and released Station to Station. In 1977, he further confounded expectations with the electronic-inflected album Low, the first of three collaborations with Brian Eno that came to be known as the "Berlin Trilogy". "Heroes" (1977) and Lodger (1979) followed; each album reached the UK top five and received lasting critical praise. After uneven commercial success in the late 1970s, Bowie had three number-one hits: the 1980 single "Ashes to Ashes", its album Scary Monsters (and Super Creeps), and "Under Pressure" (a 1981 collaboration with Queen). He reached his peak commercial success in 1983 with Let\'s Dance: its title track topped both the UK and US charts. Throughout the 1990s and 2000s, Bowie continued to experiment with musical styles, including industrial and jungle. He also continued acting: his roles included Major Jack Celliers in Merry Christmas, Mr. Lawrence (1983), Jareth the Goblin King in Labyrinth (1986), Pontius Pilate in The Last Temptation of Christ (1988), and Nikola Tesla in The Prestige (2006), among other film and television appearances and cameos. He stopped touring after 2004 and his last live performance was at a charity event in 2006. In 2013, Bowie returned from a decade-long recording hiatus with The Next Day. He remained musically active until his death from liver cancer at his home in New York City. He died two days after both his 69th birthday and the release of his final album, Blackstar (2016). During his lifetime, his record sales, estimated at over 100 million records worldwide, made him one of the best-selling music artists of all time. In the UK, he was awarded ten platinum, eleven gold and eight silver album certifications, and released 11 number-one albums. In the US, he received five platinum and nine gold certifications. He was inducted into the Rock and Roll Hall of Fame in 1996. Rolling Stone named him among the greatest artists in history and – after his death – the "greatest rock star ever".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Sean_Kingston', 'artist_name': 'Sean Kingston', 'wiki': 'http://en.wikipedia.org/wiki/Sean_Kingston', 'hometown': 'http://dbpedia.org/resource/Kingston,_Jamaica', 'birth_date': '03 February 1990', 'start_year': '2007', 'labels': ['http://dbpedia.org/resource/Beluga_Heights_Records', 'http://dbpedia.org/resource/Empire_Distribution', 'http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/MNRK_Music_Group'], 'plays_in': ['http://dbpedia.org/resource/Girlicious_(album)'], 'genres': ['http://dbpedia.org/resource/Contemporary_R&amp;B', 'http://dbpedia.org/resource/Hip_hop_music', 'http://dbpedia.org/resource/Reggae_fusion'], 'related_artists': ['http://dbpedia.org/resource/Afro_Brothers', 'http://dbpedia.org/resource/Asher_Monroe', 'http://dbpedia.org/resource/Auburn_(singer)', 'http://dbpedia.org/resource/Deezle', 'http://dbpedia.org/resource/E._Kidd_Bogart', 'http://dbpedia.org/resource/Flo_Rida', 'http://dbpedia.org/resource/Iyaz', 'http://dbpedia.org/resource/J._R._Rotem', 'http://dbpedia.org/resource/Jack_Newsome', 'http://dbpedia.org/resource/James_Abrahart', 'http://dbpedia.org/resource/Natasha_Bedingfield', 'http://dbpedia.org/resource/Ned_Cameron', 'http://dbpedia.org/resource/Nic_Nac', 'http://dbpedia.org/resource/R._City', 'http://dbpedia.org/resource/Soulja_Boy', 'http://dbpedia.org/resource/The_D.E.Y.__The_D.E.Y.__1', 'http://dbpedia.org/resource/The_Elev3n', 'http://dbpedia.org/resource/The_Jackie_Boyz', 'http://dbpedia.org/resource/Tory_Lanez', 'http://dbpedia.org/resource/Élan_Luz_Rivera'], 'abstract': 'Kisean Paul Anderson (born February 3, 1990), better known by his stage name Sean Kingston, is a Jamaican-American singer and songwriter. He is known for his hit songs "Beautiful Girls", "Fire Burning", "Take You There", and "Eenie Meenie".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Black_Eyed_Peas', 'artist_name': 'Black Eyed Peas', 'wiki': 'http://en.wikipedia.org/wiki/Black_Eyed_Peas', 'plays_in': ['http://dbpedia.org/resource/Along_Came_Polly', 'http://dbpedia.org/resource/Grammy_Nominees'], 'genres': ['Hip hop', 'R&amp;B', 'dance-pop', 'electropop', 'pop', 'pop-rap'], 'actual_members': ['will.i.am', 'apl.de.ap', 'Taboo', 'J. Rey Soul'], 'old_members': ['Fergie', 'Kim Hill'], 'related_artists': ['http://dbpedia.org/resource/A_Million_Pieces', 'http://dbpedia.org/resource/Anders_Grahn', 'http://dbpedia.org/resource/Atban_Klann', 'http://dbpedia.org/resource/Bedtime_for_Toys', 'http://dbpedia.org/resource/Bucky_Jonson', 'http://dbpedia.org/resource/DJ_Rectangle', 'http://dbpedia.org/resource/Darryl_Swann', 'http://dbpedia.org/resource/George_Pajon', 'http://dbpedia.org/resource/Jean-Baptiste_(songwriter)', 'http://dbpedia.org/resource/Jean_Luc_Ponpon', 'http://dbpedia.org/resource/Joey_Boy', 'http://dbpedia.org/resource/Johnny_Goldstein', 'http://dbpedia.org/resource/Julie_Frost', 'http://dbpedia.org/resource/Kim_Hill_(soul_musician)', 'http://dbpedia.org/resource/Kryoman', 'http://dbpedia.org/resource/Macy_Gray', 'http://dbpedia.org/resource/Noelle_Scaggs', 'http://dbpedia.org/resource/Printz_Board', 'http://dbpedia.org/resource/Rhett_Lawrence', 'http://dbpedia.org/resource/Taboo_(rapper)', 'http://dbpedia.org/resource/The_Click_Five', 'http://dbpedia.org/resource/Urban_Punk__Harrell_Harris_Jr.__1', 'http://dbpedia.org/resource/Wild_Orchid_(group)', 'http://dbpedia.org/resource/Will.i.am'], 'abstract': 'Black Eyed Peas (also known as The Black Eyed Peas) is an American musical group consisting of rappers will.i.am, apl.de.ap, Taboo and J. Rey Soul. Originally an alternative hip hop group, they subsequently refashioned themselves as a more marketable pop-rap act. Although the group was founded in Los Angeles in 1995, it was not until the release of their third album, Elephunk, in 2003, that they achieved high record sales. Black Eyed Peas\' first major hit was the 2003 single "Where Is the Love?" from Elephunk, which topped the charts in 13 countries, including the United Kingdom, where it spent seven weeks at number one and went on to become Britain\'s biggest-selling single of 2003. Their fourth album, Monkey Business, was an even bigger worldwide success, and became certified 3× Platinum in the United States. In 2009, the group became one of only 11 artists to have simultaneously held the number-one and number-two spots on the Billboard Hot 100, with their singles "Boom Boom Pow" and "I Gotta Feeling", which topped the chart for an unprecedented 26 consecutive weeks. The album The E.N.D. produced a third Hot 100 number-one placement with "Imma Be", making the group one of few to ever place three number one singles on the chart from the same album, before being followed with "Rock That Body" and "Meet Me Halfway", which peaked in the top 10 of the Hot 100. "I Gotta Feeling" became the first single to sell more than one million downloads in the United Kingdom. At the 52nd Grammy Awards ceremony, held in January 2010, they won three awards out of six nominations. In November 2010, they released the album The Beginning. In February 2011, the group performed in the Super Bowl XLV halftime show. Black Eyed Peas have sold an estimated 80 million records, making them one of the best-selling groups of all time. They were ranked 12th on Billboard\'s 2000s Decade-End Artist of the Decade Chart, and 7th on the Hot 100 Artists of the Decade.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Kid_Cudi', 'artist_name': 'Kid Cudi', 'wiki': 'http://en.wikipedia.org/wiki/Kid_Cudi', 'birth_date': '30 January 1984', 'start_year': '2003', 'plays_in': ['http://dbpedia.org/resource/James_White_(film)', 'http://dbpedia.org/resource/Maniac_(2011_film)'], 'related_artists': ['http://dbpedia.org/resource/Choo_Jackson', 'http://dbpedia.org/resource/Crada_(producer)', 'http://dbpedia.org/resource/Dan_Black', 'http://dbpedia.org/resource/Dot_da_Genius', 'http://dbpedia.org/resource/E*vax', 'http://dbpedia.org/resource/Emile_Haynie__Emile_Haynie__1', 'http://dbpedia.org/resource/Johnny_Polygon', 'http://dbpedia.org/resource/K._Sparks', 'http://dbpedia.org/resource/King_Chip', 'http://dbpedia.org/resource/Plain_Pat', 'http://dbpedia.org/resource/Raphael_Saadiq', 'http://dbpedia.org/resource/Ratatat', 'http://dbpedia.org/resource/Take_a_Daytrip', 'http://dbpedia.org/resource/Teddy_Walton'], 'abstract': 'Scott Ramon Seguro Mescudi (born January 30, 1984), better known by his stage name Kid Cudi (/ˈkʌdi/ KUDD-ee; often stylized as KiD CuDi), is an American rapper, singer, songwriter, record producer and actor. He has widely been recognized as an influence on several contemporary hip hop and alternative acts. His music is often autobiographical, telling of his childhood hardships dealing with depression, loneliness and alienation, his struggle with alcohol and drugs into adulthood, as well as themes of heartbreak, dissipation and celebration. Cudi began to gain major recognition following the release of his first official full-length project, a mixtape titled A Kid Named Cudi (2008), which caught the attention of American musician Kanye West, who subsequently signed Cudi to his GOOD Music label imprint by late 2008. In early 2008, Cudi had risen to prominence with the release of his commercial debut single "Day \'n\' Nite", which became a worldwide hit. The song was later featured on Cudi\'s seminal debut studio album, Man on the Moon: The End of Day (2009), which was eventually certified double platinum by the Recording Industry Association of America (RIAA) in 2017. The album also included the singles "Make Her Say" and "Pursuit of Happiness", both of which achieved significant chart success. In 2010, Cudi released his second album Man on the Moon II: The Legend of Mr. Rager, which features the singles "Erase Me" and "Mr. Rager". Later that year he formed WZRD, a rock band, with his long-time collaborator Dot da Genius. Their eponymous debut album (2012) debuted at number one on the Billboard Top Rock Albums chart. Cudi has since released the solo albums Indicud (2013), Satellite Flight: The Journey to Mother Moon (2014), Speedin\' Bullet 2 Heaven (2015), Passion, Pain &amp; Demon Slayin\' (2016), and Man on the Moon III: The Chosen (2020). Cudi\'s joint album with Kanye West, under the eponymous name Kids See Ghosts (2018), was met with widespread critical acclaim and was named among the best albums of 2018. In 2020, Cudi earned his first number-one song on the US Billboard Hot 100 chart with "The Scotts", a collaboration with Houston rapper Travis Scott. Cudi has sold 22 million certified records in the United States and has won two Grammy Awards from five nominations. He has worked with numerous prominent artists spanning several different genres in the music industry, such as Jay-Z, Eminem, Kendrick Lamar, David Guetta, Steve Aoki, MGMT, Mary J. Blige, Shakira, Ariana Grande and Michael Bolton, among others. After signing to GOOD Music, Cudi has since gone on to launch his own vanity labels, the now-dissolved Dream On and current label imprint Wicked Awesome Records. Cudi also ventured into acting when he was cast in the HBO series How to Make It in America. He has since appeared in several feature films, including Goodbye World (2013), Need for Speed (2014), Entourage (2015) and Bill &amp; Ted Face the Music (2020). In addition, he has made appearances on television shows such as One Tree Hill, The Cleveland Show, Brooklyn Nine-Nine, and Westworld. In 2015, he was the bandleader on the IFC series Comedy Bang! Bang! and in 2020 was added as a cast member for the HBO mini-series We Are Who We Are.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Erasure', 'artist_name': 'Erasure', 'wiki': 'http://en.wikipedia.org/wiki/Erasure', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1985', 'labels': ['http://dbpedia.org/resource/Elektra_Records', 'http://dbpedia.org/resource/Maverick_(company)', 'http://dbpedia.org/resource/Mute_Records', 'http://dbpedia.org/resource/Reprise_Records', 'http://dbpedia.org/resource/Sire_Records'], 'genres': ['http://dbpedia.org/resource/Dance_music', 'http://dbpedia.org/resource/Electropop', 'http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Synth-pop', 'dance', 'new wave'], 'actual_members': ['http://dbpedia.org/resource/Andy_Bell_(singer)', 'http://dbpedia.org/resource/Vince_Clarke'], 'related_artists': ['http://dbpedia.org/resource/All_Hail_the_Silence', 'http://dbpedia.org/resource/Andy_Bell_(singer)', 'http://dbpedia.org/resource/Bright_Light_Bright_Light', 'http://dbpedia.org/resource/Doug_Wimbish', 'http://dbpedia.org/resource/Eric_Radcliffe', 'http://dbpedia.org/resource/Gareth_Jones_(music_producer)', 'http://dbpedia.org/resource/MC_Kinky', 'http://dbpedia.org/resource/Mark_Saunders_(record_producer)', 'http://dbpedia.org/resource/Minute_Taker', 'http://dbpedia.org/resource/Parralox', 'http://dbpedia.org/resource/VCMG', 'http://dbpedia.org/resource/Vince_Clarke', 'http://dbpedia.org/resource/Yazoo_(band)'], 'abstract': 'Erasure (/əˈreɪʒər/) are an English synthpop duo formed in London in 1985, consisting of singer and songwriter Andy Bell with songwriter, producer and keyboardist Vince Clarke, previously known as co-founder of the band Depeche Mode. From their fourth single, "Sometimes" (1986), Erasure established themselves on the UK Singles Chart, becoming one of the most successful artists of the mid-1980s to the mid-1990s. From 1986 to 2007, the duo achieved 24 consecutive top 40 hits in the UK. By 2009, 34 of their 37 chart-eligible singles and EPs had made the UK top 40, including 17 climbing into the top 10. At the 1989 Brit Awards, Erasure won the Brit Award for Best British Group. Beyond this mainstream commercial success, Erasure are also popular within the LGBT community for whom the openly gay singer Andy Bell has become an icon in the UK. Although their debut album, Wonderland (1986) did not perform well, their second album, The Circus (1987), reached number 6 and spawned four top 20 singles on the UK charts. Their third album, The Innocents (1988) was rendered a number one and was followed the same year by the Christmas EP Crackers International (1988) peaking at number 2. It set the scene as the first in a string of albums to place in the top spot, with their next five consecutive longform releases reaching the pole position of the UK Albums Chart: the albums Wild! (1989) and Chorus (1991), the ABBA tribute EP Abba-esque (1992), the compilation Pop! The First 20 Hits (1992), then the album I Say I Say I Say (1994). Erasure\'s best-known songs are mainly from albums of this period and include the hits "Oh L\'amour", "Sometimes", "Victim of Love", "Ship of Fools", "Chains of Love", "A Little Respect", "Stop!", "Drama!", "Blue Savannah", "Star", "Chorus", "Love to Hate You", "Breath of Life", "Take a Chance on Me" (an ABBA cover), "Always" and "Run to the Sun". From 1995 onwards, Erasure\'s commercial success began to fade with the atmospheric self-titled album Erasure (1995) which, despite being a critical success, confused its audience. The mixed reception of the following album, Cowboy (1997), confirmed a decline in Erasure\'s popularity until the album Loveboat (2000), which went almost unnoticed. In the mid-2000s, however, the duo managed to make a commercial comeback in some European countries and in the United States, notably thanks to their cover album Other People\'s Songs (2003), followed by the album Nightbird (2005) which won back the fans. This return to favour gave the band their last two hit singles: "Solsbury Hill" (2003) (a Peter Gabriel song) and "Breathe" (2005). In the late 2000s, Erasure began a new commercial decline with the acoustic album Union Street (2006) followed by Light at the End of the World (2007). During the 2010s, the band\'s new albums briefly charted, with Tomorrow\'s World (2011), the Christmas album Snow Globe (2013), The Violet Flame (2014), World Be Gone (2017) and, finally, The Neon (2020). Despite the singles from this decade not managing to reach the charts, however, a solid international fanbase enables Erasure to maintain its activity through touring and online sales, not to mention the royalties attached to the catalogue of their past hits. Achieving mainstream success at home in the UK, Erasure also has a strong following abroad, especially in some European countries (mainly in Ireland, Germany, Austria, Denmark and Sweden) where the band enjoyed numerous hits. Surprisingly, Erasure has a broad audience in a few South American countries, especially in Argentina, Chile and Peru. In the US, Erasure had three hits: "Chains of Love" (1988) at number 12, their biggest chart placing ever in that country, "A Little Respect" (1988) at number 14, and "Always" (1994) at number 20. In Russia, as well as in the former Soviet bloc countries, Erasure is mostly known for the sole song "Love to Hate You" (1991). In France, "Oh L\'amour" (1986) was the only hit of the band, peaking at number 14 in the singles top 50 of that country, followed by "Sometimes" (1986) that underperformed at a low number 39 (in February 1987) and still remains to this day Erasure\'s last entry in the French singles chart. Overall in their career, Erasure have penned over 200 songs and have sold over 28 million albums worldwide.'}</t>
+    <t>{'artist': 'http://dbpedia.org/resource/Skid_Row_(Irish_band)', 'artist_name': 'Skid Row', 'wiki': 'http://en.wikipedia.org/wiki/Skid_Row_(Irish_band)', 'hometown': 'http://dbpedia.org/resource/Dublin', 'start_year': '1967', 'end_year': '1972', 'labels': ['http://dbpedia.org/resource/Columbia_Records'], 'genres': ['http://dbpedia.org/resource/Blues_rock', 'http://dbpedia.org/resource/Psychedelic_rock'], 'old_members': ['http://dbpedia.org/resource/Brush_Shiels', 'http://dbpedia.org/resource/Ed_Deane', 'http://dbpedia.org/resource/Gary_Moore', 'http://dbpedia.org/resource/John_Wilson_(drummer)', 'http://dbpedia.org/resource/Kevin_McAlea', 'http://dbpedia.org/resource/Noel_Bridgeman', 'http://dbpedia.org/resource/Paul_Chapman_(musician)', 'http://dbpedia.org/resource/Phil_Lynott', 'http://dbpedia.org/resource/Robbie_Brennan', 'Eamonn Gibney', 'Bernard "Bernie" Cheevers', 'Noel "Nollaig" Bridgeman'], 'related_artists': ['http://dbpedia.org/resource/Brush_Shiels', 'http://dbpedia.org/resource/Eric_Bell', 'http://dbpedia.org/resource/Gary_Moore', 'http://dbpedia.org/resource/Gerry_McAvoy', 'http://dbpedia.org/resource/Noel_Bridgeman', 'http://dbpedia.org/resource/Paul_Chapman_(musician)', 'http://dbpedia.org/resource/Phil_Lynott', 'http://dbpedia.org/resource/Thin_Lizzy'], 'abstract': 'Skid Row were an Irish blues rock band of the late 1960s and early 1970s, based in Dublin and fronted by bass guitarist Brendan "Brush" Shiels. It was the first band in which future Thin Lizzy members Phil Lynott and Gary Moore played professionally.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Everlast', 'artist_name': 'Everlast', 'wiki': 'http://en.wikipedia.org/wiki/Everlast', 'hometown': 'http://dbpedia.org/resource/Los_Angeles', 'birth_date': '18 August 1969', 'start_year': '1989', 'aliases': ['Whitey Ford'], 'labels': ['http://dbpedia.org/resource/Island_Records', 'http://dbpedia.org/resource/PIAS_Recordings', 'http://dbpedia.org/resource/The_Island_Def_Jam_Music_Group', 'http://dbpedia.org/resource/Tommy_Boy_Records', 'http://dbpedia.org/resource/Universal_Music_Group', 'http://dbpedia.org/resource/Warner_Records'], 'plays_in': ['http://dbpedia.org/resource/Woodstock_1999_(album)'], 'genres': ['http://dbpedia.org/resource/Blues', 'http://dbpedia.org/resource/Country_music', 'http://dbpedia.org/resource/Hip_hop_music', 'http://dbpedia.org/resource/Rock_music'], 'related_artists': ['http://dbpedia.org/resource/Bronx_Style_Bob', 'http://dbpedia.org/resource/Cypress_Hill', 'http://dbpedia.org/resource/DJ_Muggs', 'http://dbpedia.org/resource/Darius_Holbert', 'http://dbpedia.org/resource/Divine_Styler', 'http://dbpedia.org/resource/House_of_Pain', 'http://dbpedia.org/resource/Ice-T', 'http://dbpedia.org/resource/Ill_Bill', 'http://dbpedia.org/resource/Kurupt', 'http://dbpedia.org/resource/La_Coka_Nostra', 'http://dbpedia.org/resource/Sadat_X', 'http://dbpedia.org/resource/Santana_(band)', 'http://dbpedia.org/resource/Siba_Giba', 'http://dbpedia.org/resource/Soul_Assassins', 'http://dbpedia.org/resource/The_Alchemist_(musician)', 'http://dbpedia.org/resource/The_Soul_of_John_Black', 'http://dbpedia.org/resource/Zac_Baird'], 'abstract': 'Erik Francis Schrody (born August 18, 1969), known by his stage name Everlast, is an American musician, singer, rapper, and songwriter, known for his solo work and as the frontman for hip hop group House of Pain. He was also part of the hip hop supergroup La Coka Nostra, which consists of members of House of Pain and other rappers. In 2000, he received a Grammy Award for Best Rock Performance by a Duo or Group with Vocal with Latin rock band Santana for "Put Your Lights On".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Huey_Lewis_and_the_News', 'artist_name': 'Huey Lewis &amp; The News', 'wiki': 'http://en.wikipedia.org/wiki/Huey_Lewis_and_the_News', 'hometown': 'http://dbpedia.org/resource/San_Francisco', 'start_year': '1979', 'labels': ['http://dbpedia.org/resource/BMG_Rights_Management', 'http://dbpedia.org/resource/Chrysalis_Records', 'http://dbpedia.org/resource/Elektra_Records'], 'plays_in': ['http://dbpedia.org/resource/Animal_Crackers_(2017_film)'], 'genres': ['http://dbpedia.org/resource/Blue-eyed_soul', 'http://dbpedia.org/resource/Blues_rock', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Rock_music'], 'actual_members': ['http://dbpedia.org/resource/Huey_Lewis', 'http://dbpedia.org/resource/Johnny_Colla', 'John Pierce', 'James Harrah', 'Bill Gibson', 'Stef Burns', 'Sean Hopper'], 'old_members': ['http://dbpedia.org/resource/Huey_Lewis_and_the_News', 'Mario Cipollina', 'Chris Hayes'], 'related_artists': ['http://dbpedia.org/resource/Bill_Schnee', 'http://dbpedia.org/resource/Clover_(band)', 'http://dbpedia.org/resource/Joel_Jaffe', 'http://dbpedia.org/resource/John_McFee__John_McFee__1', 'http://dbpedia.org/resource/Johnny_Colla', 'http://dbpedia.org/resource/Nick_Lowe', 'http://dbpedia.org/resource/Robert_John_%22Mutt%22_Lange', 'http://dbpedia.org/resource/Rubicon_(American_band)', 'http://dbpedia.org/resource/Tower_of_Power'], 'abstract': 'Huey Lewis and the News is an American rock band based in San Francisco, California. They had a run of hit singles during the 1980s and early 1990s, eventually achieving 19 top ten singles across the Billboard Hot 100, Adult Contemporary, and Mainstream Rock charts. Their most successful album, Sports, was released in 1983. The album, along with its videos being featured on MTV, catapulted the group to worldwide fame. Their popularity expanded when the hit song "The Power of Love" was featured in the 1985 film Back to the Future. "The Power of Love" reached number one on the Billboard Hot 100 singles chart and was nominated for the Academy Award for Best Original Song.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Linkin_Park', 'artist_name': 'Linkin Park', 'wiki': 'http://en.wikipedia.org/wiki/Linkin_Park', 'plays_in': ['http://dbpedia.org/resource/Inside_Living_Things'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Electronic_rock', 'rap rock', 'Alternative rock', 'pop rock', 'nu metal'], 'actual_members': ['Rob Bourdon', 'Brad Delson', 'Mike Shinoda', 'Dave Farrell', 'Joe Hahn'], 'old_members': ['Mark Wakefield', 'Chester Bennington'], 'related_artists': ['http://dbpedia.org/resource/Aaron_Lewis', 'http://dbpedia.org/resource/Adrian_Young__Adrian_Young__1', 'http://dbpedia.org/resource/Amir_Derakh', 'http://dbpedia.org/resource/Beta_State', 'http://dbpedia.org/resource/Brad_Delson', 'http://dbpedia.org/resource/Camp_Freddy', 'http://dbpedia.org/resource/Contemplate_(pop_duo)', 'http://dbpedia.org/resource/DJ_Lynnwood', 'http://dbpedia.org/resource/Dave_Farrell', 'http://dbpedia.org/resource/David_Brown_(British_musician)', 'http://dbpedia.org/resource/Dead_by_Sunrise', 'http://dbpedia.org/resource/Hoobastank', 'http://dbpedia.org/resource/Ilsey_Juber', 'http://dbpedia.org/resource/J._R._Rotem', 'http://dbpedia.org/resource/Joe_Hahn', 'http://dbpedia.org/resource/Jonathan_Davis', 'http://dbpedia.org/resource/Josh_Abraham', 'http://dbpedia.org/resource/Julien-K', 'http://dbpedia.org/resource/Justin_Lassen', 'http://dbpedia.org/resource/Kings_of_Chaos_(band)', 'http://dbpedia.org/resource/KutMasta_Kurt', 'http://dbpedia.org/resource/Mickey_Petralia', 'http://dbpedia.org/resource/Money_Mark', 'http://dbpedia.org/resource/Neal_Avron', 'http://dbpedia.org/resource/RAC_(musician)', 'http://dbpedia.org/resource/Rob_Bourdon', 'http://dbpedia.org/resource/Ryan_Key', 'http://dbpedia.org/resource/Ryan_Shuck', 'http://dbpedia.org/resource/Shavo_Odadjian', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Steve_Aoki', 'http://dbpedia.org/resource/Steve_Jablonsky', 'http://dbpedia.org/resource/Steven_McKellar', 'http://dbpedia.org/resource/Stone_Temple_Pilots', 'http://dbpedia.org/resource/Styles_of_Beyond', 'http://dbpedia.org/resource/The_X-Ecutioners', 'http://dbpedia.org/resource/Tom_Dumont', 'http://dbpedia.org/resource/Tony_Kanal', 'http://dbpedia.org/resource/Unkle', 'http://dbpedia.org/resource/Xombie_(band)', 'http://dbpedia.org/resource/Z-Trip'], 'abstract': 'Linkin Park is an American rock band from Agoura Hills, California. The band\'s current lineup comprises vocalist/rhythm guitarist/keyboardist Mike Shinoda, lead guitarist Brad Delson, bassist Dave Farrell, DJ/turntablist Joe Hahn and drummer Rob Bourdon, all of whom are founding members. Vocalists Mark Wakefield and Chester Bennington are former members of the band. Categorized as alternative rock, Linkin Park\'s earlier music spanned a fusion of heavy metal and hip hop, while their later music features more electronica and pop elements. Formed in 1996, Linkin Park rose to international fame with their debut studio album, Hybrid Theory (2000), which became certified Diamond by the Recording Industry Association of America (RIAA). Released during the peak of the nu metal scene, the album\'s singles\' heavy airplay on MTV led the singles "One Step Closer", "Crawling" and "In the End" all to chart highly on the Mainstream Rock chart; the latter crossed over to the pop chart. Their second album, Meteora (2003), continued the band\'s success. The band explored experimental sounds on their third album, Minutes to Midnight (2007). By the end of the decade, Linkin Park was among the most successful and popular rock acts. The band continued to explore a wider variation of musical types on their fourth album, A Thousand Suns (2010), layering their music with more electronic sounds. The band\'s fifth album, Living Things (2012), combined musical elements from all of their previous records. Their sixth album, The Hunting Party (2014), returned to a heavier rock sound, and their seventh album, One More Light (2017), was their first pop-oriented record. Linkin Park went on a hiatus when longtime lead vocalist Bennington died by suicide in July 2017. In April 2020, bassist Dave Farrell revealed the band was working on new music. Linkin Park is among the best-selling bands of the 21st century and the world\'s best-selling music artists, having sold over 100 million records worldwide. They have won two Grammy Awards, six American Music Awards, two Billboard Music Awards, four MTV Video Music Awards, 10 MTV Europe Music Awards and three World Music Awards. In 2003, MTV2 named Linkin Park the sixth-greatest band of the music video era and the third-best of the new millennium. Billboard ranked Linkin Park No. 19 on the Best Artists of the Decade list. In 2012, the band was voted as the greatest artist of the 2000s in a Bracket Madness poll on VH1. In 2014, the band was declared as "The Biggest Rock Band in the World Right Now" by Kerrang!.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Nelly_Furtado', 'artist_name': 'Nelly Furtado', 'wiki': 'http://en.wikipedia.org/wiki/Nelly_Furtado', 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees'], 'related_artists': ['http://dbpedia.org/resource/Alex_Cuba', 'http://dbpedia.org/resource/Andre_Lindal', 'http://dbpedia.org/resource/Brian_West_(musician)', 'http://dbpedia.org/resource/David_Jost', 'http://dbpedia.org/resource/Di_Genius', 'http://dbpedia.org/resource/Dima_Bilan', 'http://dbpedia.org/resource/Gabriel_Coss', 'http://dbpedia.org/resource/J-Roc', 'http://dbpedia.org/resource/Jelleestone', 'http://dbpedia.org/resource/Jon_Levine', 'http://dbpedia.org/resource/Juanes', 'http://dbpedia.org/resource/Jurassic_5', "http://dbpedia.org/resource/K'naan", 'http://dbpedia.org/resource/Kim_Bingham', 'http://dbpedia.org/resource/Mala_Rodríguez', 'http://dbpedia.org/resource/Marcella_Araica', 'http://dbpedia.org/resource/Rea_Garvey', 'http://dbpedia.org/resource/Russ_Miller', 'http://dbpedia.org/resource/Saukrates', 'http://dbpedia.org/resource/Sean_Kelly_(Canadian_musician)', 'http://dbpedia.org/resource/SoShy', 'http://dbpedia.org/resource/StayBent_Krunk-a-Delic'], 'abstract': 'Nelly Kim Furtado ComIH (/fɜːrˈtɑːdoʊ/; Portuguese: [fuɾˈtaðu]; born December 2, 1978) is a Canadian singer and songwriter. She first gained fame with her trip hop-inspired debut album, Whoa, Nelly! (2000), which was a critical and commercial success that spawned two top-10 singles on the Billboard Hot 100, "I\'m Like a Bird" and "Turn Off the Light". The first of the two singles won her a Grammy Award for Best Female Pop Vocal Performance. Furtado\'s introspective folk-heavy 2003 second album, Folklore, explored her Portuguese roots. Its singles received moderate success in Europe, but the album\'s underperformance compared to her debut was regarded as a sophomore slump. Furtado\'s third album, Loose (2006), was a smash hit and became her bestselling album, with more than 12 million copies sold worldwide, also making it one of the bestselling albums of the 2000s. Considered a radical image reinvention, Furtado continued to explore her Portuguese heritage while leaning heavier into hip hop. The album spawned four successful number-one singles worldwide; "Promiscuous", "Maneater", "Say It Right", and "All Good Things (Come to an End)". Her Timbaland collaboration "Give It to Me" (2007) in the same era also topped the charts in the US and overseas. Furtado\'s critically acclaimed duet with James Morrison, "Broken Strings", also topped the charts in Europe in 2008. She released her first Spanish-language album, Mi Plan, in 2009, which won her a Latin Grammy Award for Best Female Pop Vocal Album. In 2012, Furtado released her nostalgia-inspired fifth album The Spirit Indestructible. Furtado split with her management and went independent thereafter, releasing her indie-pop sixth album, The Ride, in 2017 under her own label Nelstar Entertainment. Furtado has sold over 40 million records worldwide, making her one of the most successful Canadian artists. She has won several awards throughout her career, including one Grammy Award from seven nominations, one Latin Grammy Award, ten Juno Awards, one BRIT Award, one Billboard Music Award, one MTV Europe Music Award, one World Music Award, and three Much Music Video Awards. Furtado has a star on Canada\'s Walk of Fame, and was awarded Commander of the Order of Prince Henry on February 28, 2014, in Toronto by Aníbal Cavaco Silva, the then-President of Portugal.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Pink_(singer)', 'artist_name': 'P!nk', 'wiki': 'http://en.wikipedia.org/wiki/Pink_(singer)', 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees', 'http://dbpedia.org/resource/Pink:_All_I_Know_So_Far'], 'related_artists': ['http://dbpedia.org/resource/Barb_Morrison', 'http://dbpedia.org/resource/Belén_Arjona', 'http://dbpedia.org/resource/Beth_Cohen_(musician)', 'http://dbpedia.org/resource/Bibi_McGill', 'http://dbpedia.org/resource/Billy_Mann', 'http://dbpedia.org/resource/Butch_Walker', 'http://dbpedia.org/resource/Chin_Injeti', 'http://dbpedia.org/resource/Dan_Wilson_(musician)', 'http://dbpedia.org/resource/Dave_Carlock', 'http://dbpedia.org/resource/Devin_Bronson', 'http://dbpedia.org/resource/Eva_Gardner', 'http://dbpedia.org/resource/Greg_Kurstin', 'http://dbpedia.org/resource/Henrik_Janson', 'http://dbpedia.org/resource/Indigo_Girls', 'http://dbpedia.org/resource/Janis_Tanaka', 'http://dbpedia.org/resource/Joi_(singer)', 'http://dbpedia.org/resource/Josh_Abraham', 'http://dbpedia.org/resource/Leah_Randi', 'http://dbpedia.org/resource/Marcella_Araica', 'http://dbpedia.org/resource/Mark_Needham', 'http://dbpedia.org/resource/Mark_Schulman', 'http://dbpedia.org/resource/No_Doubt', 'http://dbpedia.org/resource/Peter_Thomas_(musician)', "http://dbpedia.org/resource/Rag'n'Bone_Man__Rag'n'Bone_Man__1", 'http://dbpedia.org/resource/Rob_Chiarelli', 'http://dbpedia.org/resource/Scott_Harris_(songwriter)', 'http://dbpedia.org/resource/Screechy_Peach', 'http://dbpedia.org/resource/Shellback_(record_producer)', 'http://dbpedia.org/resource/Steve_Robson', 'http://dbpedia.org/resource/Stevie_Blacke', 'http://dbpedia.org/resource/Teddy_Geiger', 'http://dbpedia.org/resource/The_New_Royales', 'http://dbpedia.org/resource/Tony_Kanal'], 'abstract': 'Alecia Beth Moore (born September 8, 1979), known professionally as Pink (stylized as P!nk), is an American singer and songwriter. She was originally a member of the girl group Choice. In 1995, LaFace Records saw potential in Pink and offered her a solo recording contract. Her R&amp;B-influenced debut studio album Can\'t Take Me Home (2000) was certified double-platinum in the United States and spawned two Billboard Hot 100 top-ten songs: "There You Go" and "Most Girls". She gained further recognition with the collaborative single "Lady Marmalade" from the Moulin Rouge! soundtrack, which topped many charts worldwide. Refocusing her sound to pop rock with her second studio album Missundaztood (2001), the album sold more than 13 million copies worldwide and yielded the international number-one songs "Get the Party Started", "Don\'t Let Me Get Me", and "Just Like a Pill". While Pink\'s third studio album, Try This (2003), sold significantly less than her previous work, it earned her the Grammy Award for Best Female Rock Vocal Performance. She returned to the top of record charts with her fourth and fifth studio albums, I\'m Not Dead (2006) and Funhouse (2008), which spawned the top-ten entries "Who Knew" and "U + Ur Hand", as well as the number-one single "So What". Pink\'s sixth studio album, The Truth About Love (2012), was her first Billboard 200 number-one album and spawned her fourth US number-one single, "Just Give Me a Reason". In 2014, Pink recorded a collaborative album, Rose Ave., with Canadian musician Dallas Green under a folk music duo named You+Me. Her next studio albums, Beautiful Trauma (2017) and Hurts 2B Human (2019), both debuted at atop the Billboard 200 chart, with the former becoming the world\'s third best-selling album of the year. Noted for her distinctive raspy voice and acrobatic stage presence, Pink has sold over 100 million records worldwide, making her one of the world\'s best-selling music artists. Her career accolades include three Grammy Awards, two Brit Awards, a Daytime Emmy Award and seven MTV Video Music Awards, including the Michael Jackson Video Vanguard Award. In 2009, Billboard named Pink the Pop Songs Artist of the Decade. Pink was also the second most-played female solo artist in the United Kingdom during the 2000s decade, behind only Madonna. VH1 ranked her at number ten on their list of the 100 Greatest Women in Music, while Billboard awarded her the Woman of the Year award in 2013. At the 63rd annual BMI Pop Awards, she received the BMI President\'s Award for "her outstanding achievement in songwriting and global impact on pop culture and the entertainment industry."'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Supergrass', 'artist_name': 'Supergrass', 'wiki': 'http://en.wikipedia.org/wiki/Supergrass', 'hometown': 'http://dbpedia.org/resource/Oxford', 'start_year': '1993', 'end_year': '1993', 'labels': ['http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/Cooking_Vinyl', 'http://dbpedia.org/resource/Parlophone', 'http://dbpedia.org/resource/Sub_Pop', 'http://dbpedia.org/resource/Supergrass_(album)', 'http://dbpedia.org/resource/The_Echo_Label', 'http://dbpedia.org/resource/The_Island_Def_Jam_Music_Group'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Britpop'], 'actual_members': ['http://dbpedia.org/resource/Danny_Goffey', 'http://dbpedia.org/resource/Gaz_Coombes', 'http://dbpedia.org/resource/Mick_Quinn', 'http://dbpedia.org/resource/Rob_Coombes'], 'old_members': ['http://dbpedia.org/resource/Dom_and_Nic', 'Danny Goffey', 'Dan Fox', 'Gaz Coombes', 'Andy Davies'], 'related_artists': ['http://dbpedia.org/resource/22-20s', 'http://dbpedia.org/resource/Charly_Coombes', 'http://dbpedia.org/resource/Danny_Goffey', 'http://dbpedia.org/resource/Gaz_Coombes', 'http://dbpedia.org/resource/Laurence_Colbert', 'http://dbpedia.org/resource/Lodger_(British_band)', 'http://dbpedia.org/resource/Mick_Quinn', 'http://dbpedia.org/resource/Robert_Carranza', 'http://dbpedia.org/resource/Roddy_Lorimer', 'http://dbpedia.org/resource/Sam_Williams_(record_producer)', 'http://dbpedia.org/resource/Supergrass', 'http://dbpedia.org/resource/Swervedriver', 'http://dbpedia.org/resource/The_Hotrats'], 'abstract': 'Supergrass are an English rock band formed in 1993 in Oxford. The band consists of brothers Gaz (guitar and lead vocals) and Rob Coombes (keyboards), Mick Quinn (bass and backing vocals) and Danny Goffey (drums and backing vocals). Originally a 3-piece, Gaz\'s brother Rob Coombes officially joined the band in 2002. The band signed to Parlophone Records in 1994 and produced I Should Coco (1995), the best-selling debut album for the label since The Beatles\' Please Please Me. Their first album\'s fourth single "Alright" was a huge international hit that established the band\'s reputation. Since then the band have released five albums: In It for the Money (1997), Supergrass (1999), Life on Other Planets (2002), Road to Rouen (2005) and Diamond Hoo Ha (2008), as well as a decade-ending compilation called Supergrass Is 10 (2004). In August 2009 the band signed to Cooking Vinyl and began work on their seventh studio album Release the Drones. The album remained unreleased and unfinished as, on 12 April 2010, the band announced that they were splitting up due to musical and creative differences. The group disbanded after four farewell gigs, the final one at La Cigale, Paris on 11 June 2010. The band reformed in 2019, initially to perform at Pilton Party followed by a ‘secret’ gig at Oslo in Hackney, London.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Kevin_Rudolf', 'artist_name': 'Kevin Rudolf', 'wiki': 'http://en.wikipedia.org/wiki/Kevin_Rudolf', 'hometown': 'http://dbpedia.org/resource/Pulaski,_Mississippi', 'birth_date': '17 February 1983', 'start_year': '2000', 'aliases': ['Binocular'], 'labels': ['http://dbpedia.org/resource/Cash_Money_Records', 'http://dbpedia.org/resource/Island_Records', 'http://dbpedia.org/resource/Maverick_(company)', 'http://dbpedia.org/resource/Primary_Wave_(company)', 'http://dbpedia.org/resource/Universal_Records_(1995−2005)'], 'genres': ['http://dbpedia.org/resource/Dance-punk', 'http://dbpedia.org/resource/Glam_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Hip_hop_music', 'http://dbpedia.org/resource/Neo-psychedelia', 'http://dbpedia.org/resource/Rap_rock', 'http://dbpedia.org/resource/Rock_music', 'http://dbpedia.org/resource/Southern_hip_hop', 'http://dbpedia.org/resource/Southern_rock'], 'related_artists': ['http://dbpedia.org/resource/David_Banner', 'http://dbpedia.org/resource/David_Rush_(rapper)', 'http://dbpedia.org/resource/Kevin_Lyttle', 'http://dbpedia.org/resource/Lifehouse_(band)', 'http://dbpedia.org/resource/Lil_Wayne', 'http://dbpedia.org/resource/T_Lopez'], 'abstract': 'Kevin Winston Rudolf (born February 17, 1983) is an American singer, songwriter, record producer, rapper, and multi-instrumentalist from New York City, New York. He is best known for his 2008 single "Let It Rock".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Dragonette', 'artist_name': 'Dragonette', 'wiki': 'http://en.wikipedia.org/wiki/Dragonette', 'hometown': 'http://dbpedia.org/resource/Ontario', 'start_year': '2005', 'labels': ['http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/Universal_Music_Group'], 'plays_in': ['http://dbpedia.org/resource/G.B.F._(film)'], 'genres': ['http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Dance-rock', 'http://dbpedia.org/resource/Electropop', 'http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Synth-pop'], 'actual_members': ['http://dbpedia.org/resource/Martina_Sorbara'], 'old_members': ['Dan Kurtz', 'Joel Stouffer', 'Simon Craig', 'Will Stapleton', 'Chris Huggett'], 'related_artists': ['http://dbpedia.org/resource/Idoling!!!', 'http://dbpedia.org/resource/Joey_Stylez__Joey_Stylez__1', 'http://dbpedia.org/resource/Kaskade', 'http://dbpedia.org/resource/Martin_Solveig', 'http://dbpedia.org/resource/Martina_Sorbara', 'http://dbpedia.org/resource/Mike_Mago', 'http://dbpedia.org/resource/The_New_Deal_(band)'], 'abstract': "Dragonette is a Canadian electronic music band from Toronto, Ontario, formed in 2005. The band consists of singer-songwriter Martina Sorbara, bassist and producer Dan Kurtz (also in The New Deal), and drummer Joel Stouffer. Dragonette released a self-titled EP in 2005 before being signed to Mercury Records and relocating to London, where they recorded and released their debut studio album, Galore, in August 2007 to moderate critical appreciation. A second studio album, Fixin to Thrill, was released in September 2009. The group's third studio album, Bodyparts, was released in September 2012 and their fourth, Royal Blues, followed in November 2016. Following the relationship split of founding members Martina Sorbara and Dan Kurtz in 2016, Kurtz also left the group. He elected to rejoin his previous band The New Deal. Sorbara has since announced she will be continuing the Dragonette name as a solo artist henceforth."}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Harry_Styles', 'artist_name': 'Harry Styles', 'wiki': 'http://en.wikipedia.org/wiki/Harry_Styles', 'birth_date': '01 February 1994', 'start_year': '2010', 'related_artists': ['http://dbpedia.org/resource/Muna_(band)', 'http://dbpedia.org/resource/Pauli_Lovejoy', 'http://dbpedia.org/resource/Randy_Merrill', 'http://dbpedia.org/resource/Sarah_Jones_(drummer)', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Tyler_Johnson_(musician)'], 'abstract': 'Harry Edward Styles (born 1 February 1994) is an English singer, songwriter, and actor. His musical career began in 2010 as a solo contestant on the British music competition series The X Factor. Following his elimination early on, he was brought back to join the boy band One Direction, which went on to become one of the best-selling boy bands of all time. Styles released his self-titled debut solo album through Columbia Records in 2017. It debuted at number one in the UK and the US, and became one of the world\'s top-ten best-selling albums of the year. Its lead single, "Sign of the Times", topped the UK Singles Chart. Styles made his acting debut in Christopher Nolan\'s 2017 war film Dunkirk. His second album, Fine Line (2019), debuted atop the US Billboard 200 with the biggest first-week sales by an English male artist in history, and was listed among Rolling Stone\'s "500 Greatest Albums of All Time" in 2020. Its fourth single, "Watermelon Sugar", topped the US Billboard Hot 100. Throughout his career, Styles has earned several accolades, including two Brit Awards, a Grammy Award, an Ivor Novello Award, and an American Music Award. Aside from music, he is also known for his flamboyant fashion, and is the first man to appear solo on the cover of Vogue magazine.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Razorlight', 'artist_name': 'Razorlight', 'wiki': 'http://en.wikipedia.org/wiki/Razorlight', 'start_year': '2002', 'end_year': '2014', 'labels': ['http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/Vertigo_Records'], 'genres': ['http://dbpedia.org/resource/Garage_rock', 'http://dbpedia.org/resource/Indie_rock', 'http://dbpedia.org/resource/Post-punk_revival'], 'actual_members': ['http://dbpedia.org/resource/Andy_Burrows', 'http://dbpedia.org/resource/Johnny_Borrell', 'http://dbpedia.org/resource/Reni_Lane', 'Carl Dalemo', 'Björn Ågren'], 'old_members': ['Ben Ellis', 'David Ellis', 'David Sullivan Kaplan', 'Freddie Stitz', 'Gus Robertson', 'Harry Deacon', 'João Mello', 'Mat Hector', 'Shïan Smith-Pancorvo'], 'related_artists': ['http://dbpedia.org/resource/Andy_Burrows', 'http://dbpedia.org/resource/I_Am_Arrows', 'http://dbpedia.org/resource/Johnny_Borrell', 'http://dbpedia.org/resource/The_Chavs', 'http://dbpedia.org/resource/The_Libertines'], 'abstract': 'Razorlight are an English indie rock band, formed in 2002 in London by lead singer and guitarist Johnny Borrell. Along with Borrell, the current line-up of the band is composed of founding members Björn Ågren on guitar and bassist Carl Delemo, as well as drummer Andy Burrows. This lineup is a reunion of the lineup from the band\'s second and third albums. The band have gone through several line-up changes, with Borrell remaining the sole permanent member. They released three studio albums before splitting up in 2014. The band reformed in 2017 and released the album Olympus Sleeping in 2018. They are best known for the singles "Golden Touch" and "America", the latter of which was a number-one single on the UK Singles Chart in 2006.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Ellie_Goulding', 'artist_name': 'Ellie Goulding', 'wiki': 'http://en.wikipedia.org/wiki/Ellie_Goulding', 'birth_date': '30 December 1986', 'start_year': '2009', 'related_artists': ['http://dbpedia.org/resource/Active_Child', 'http://dbpedia.org/resource/Ali_Payami', 'http://dbpedia.org/resource/Arcades_(band)', 'http://dbpedia.org/resource/Carl_Falk', 'http://dbpedia.org/resource/Chris_Ketley', 'http://dbpedia.org/resource/Clean_Bandit', 'http://dbpedia.org/resource/Erik_Hassle', 'http://dbpedia.org/resource/Gemini_(musician)', 'http://dbpedia.org/resource/Hitimpulse', 'http://dbpedia.org/resource/Jakwob', 'http://dbpedia.org/resource/Joel_Little', 'http://dbpedia.org/resource/Julian_Perretta', 'http://dbpedia.org/resource/Justin_Parker', 'http://dbpedia.org/resource/Kygo', 'http://dbpedia.org/resource/Lauv', 'http://dbpedia.org/resource/Lissie', 'http://dbpedia.org/resource/Madeon', 'http://dbpedia.org/resource/Mike_Spencer', 'http://dbpedia.org/resource/Openside', 'http://dbpedia.org/resource/Seye_Adelekan', 'http://dbpedia.org/resource/Shy_Martin', 'http://dbpedia.org/resource/Skrillex', 'http://dbpedia.org/resource/Starsmith', 'http://dbpedia.org/resource/Steven_Malcolmson', 'http://dbpedia.org/resource/Stevie_Blacke', 'http://dbpedia.org/resource/Tarrus_Riley', 'http://dbpedia.org/resource/Tinie_Tempah'], 'abstract': 'Elena Jane Goulding (/ˈɡoʊldɪŋ/ GOHL-ding; born 30 December 1986) is an English singer and songwriter. Her career began when she met record producers Starsmith and Frankmusik, and she was later spotted by Jamie Lillywhite, who later became her manager and A&amp;R. After signing to Polydor Records in July 2009, Goulding released her debut extended play, An Introduction to Ellie Goulding later that year. In 2010, she became the second artist to top the BBC\'s annual Sound of... poll and win the Critics\' Choice Award at the Brit Awards in the same year. She released her debut studio album, Lights, in 2010; it debuted at No.\u20091 on the UK Albums Chart and has sold over 850,000 copies in the United Kingdom. In November 2010, the album was reissued as Bright Lights, which spawned two singles: a cover of Elton John\'s "Your Song" which was selected for the first John Lewis Christmas advert, reached No.\u20092 on the UK Singles Chart, and "Lights", which became Goulding\'s highest-charting single on the US Billboard Hot 100 to date, peaking at No.\u20092. Goulding\'s second studio album, Halcyon, was released in October 2012. "Anything Could Happen" preceded the album as the lead single. The album debuted at No.\u20092 on the UK Albums Chart, and after 65 weeks, it reached No.\u20091. Halcyon debuted at No.\u20099 on the US Billboard 200. Halcyon Days, a repackaged edition of Halcyon, was released in August 2013, generating singles, such as "Burn", which became her first No.\u20091 single in the UK. At the 2014 Brit Awards, she received the award for British Female Solo Artist. Goulding released her third studio album, titled Delirium, on 6 November 2015, with "On My Mind" as the album\'s lead single. In December 2015, she received her first Grammy Award nomination for Best Pop Solo Performance for her single "Love Me Like You Do". Her fourth studio album Brightest Blue was released on 17 July 2020, becoming her third to top the UK Albums Chart, and her fourth consecutive RIAA certified album.'}</t>
   </si>
   <si>
     <t>{'artist': 'http://dbpedia.org/resource/Kenny_Loggins', 'artist_name': 'Kenny Loggins', 'wiki': 'http://en.wikipedia.org/wiki/Kenny_Loggins', 'birth_date': '07 January 1948', 'start_year': '1968', 'labels': ['http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/Walt_Disney_Records'], 'plays_in': ['http://dbpedia.org/resource/Crack_a_Smile..._and_More!', "http://dbpedia.org/resource/Donald_Trump's_The_Art_of_the_Deal:_The_Movie", 'http://dbpedia.org/resource/Footloose_(1984_film)'], 'related_artists': ['http://dbpedia.org/resource/Albhy_Galuten', 'http://dbpedia.org/resource/Carolyn_Dennis', 'http://dbpedia.org/resource/Don_Felder', 'http://dbpedia.org/resource/Doug_Jackson_(musician)', 'http://dbpedia.org/resource/Loren_Gold', 'http://dbpedia.org/resource/Max_Carl', 'http://dbpedia.org/resource/Michael_McDonald_(musician)', 'http://dbpedia.org/resource/Neil_Giraldo', 'http://dbpedia.org/resource/Pamela_Polland', 'http://dbpedia.org/resource/Paul_Peterson', 'http://dbpedia.org/resource/Steve_DiStanislao', 'http://dbpedia.org/resource/Tris_Imboden'], 'abstract': 'Kenneth Clark Loggins (born January 7, 1948) is an American musician, singer and songwriter. His early songs were recorded with the Nitty Gritty Dirt Band in 1970, which led to seven albums recorded as Loggins and Messina from 1972 to 1977. His early soundtrack contributions date back to A Star Is Born in 1976, and he is known as the King of the Movie Soundtrack. As a solo artist, Loggins experienced a string of soundtrack successes, including an Academy Award nomination for "Footloose" in 1985. Finally Home was released in 2013, shortly after Loggins formed the group Blue Sky Riders with Gary Burr and Georgia Middleman. He won a Daytime Emmy Award, two Grammy Awards, and was nominated for an Academy Award, a Tony Award, and a Golden Globe Award.'}</t>
   </si>
   <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Beck', 'artist_name': 'Beck', 'wiki': 'http://en.wikipedia.org/wiki/Beck', 'birth_date': '08 July 1970', 'start_year': '1988', 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees', 'http://dbpedia.org/resource/The_Trouble_with_Being_Myself'], 'related_artists': ['http://dbpedia.org/resource/Alex_Lilly', 'http://dbpedia.org/resource/Badly_Drawn_Boy', 'http://dbpedia.org/resource/Bloodthirsty_Butchers', 'http://dbpedia.org/resource/Bon_Iver', 'http://dbpedia.org/resource/Brian_LeBarton', 'http://dbpedia.org/resource/Cage_the_Elephant', 'http://dbpedia.org/resource/Calvin_Johnson_(musician)', 'http://dbpedia.org/resource/DJ_Swamp', 'http://dbpedia.org/resource/Dean_Fertita', 'http://dbpedia.org/resource/Devendra_Banhart', 'http://dbpedia.org/resource/Elliott_Smith', 'http://dbpedia.org/resource/Forest_for_the_Trees_(band)', 'http://dbpedia.org/resource/Gothic_Tropic', 'http://dbpedia.org/resource/Greg_Kurstin', 'http://dbpedia.org/resource/Jakob_Dylan', 'http://dbpedia.org/resource/James_Gadson', 'http://dbpedia.org/resource/Jessica_Dobson', 'http://dbpedia.org/resource/Joey_Waronker', 'http://dbpedia.org/resource/Josh_Klinghoffer', 'http://dbpedia.org/resource/Justin_Meldal-Johnsen', 'http://dbpedia.org/resource/Justin_Stanley', 'http://dbpedia.org/resource/MC_Lord_Magrão', 'http://dbpedia.org/resource/Matt_Sherrod', 'http://dbpedia.org/resource/Mickey_Petralia', 'http://dbpedia.org/resource/Mike_D', 'http://dbpedia.org/resource/Natalie_Bergman', 'http://dbpedia.org/resource/Nate_Walcott', 'http://dbpedia.org/resource/Nicolas_Godin', 'http://dbpedia.org/resource/Nigel_Godrich', 'http://dbpedia.org/resource/Paleface_(musician)', 'http://dbpedia.org/resource/Paul_Livingstone__Paul_Livingstone__1', 'http://dbpedia.org/resource/Rachel_Haden', 'http://dbpedia.org/resource/Randy_Merrill', 'http://dbpedia.org/resource/Robert_Carranza', 'http://dbpedia.org/resource/Roger_Joseph_Manning_Jr.', 'http://dbpedia.org/resource/Smokey_Hormel', 'http://dbpedia.org/resource/Steven_Shane_McDonald', 'http://dbpedia.org/resource/Stevie_Blacke', 'http://dbpedia.org/resource/The_Blue_News', 'http://dbpedia.org/resource/The_Chemical_Brothers', 'http://dbpedia.org/resource/The_Ghost_of_a_Saber_Tooth_Tiger', 'http://dbpedia.org/resource/The_White_Stripes', 'http://dbpedia.org/resource/Tobacco_(musician)', 'http://dbpedia.org/resource/Tom_Rothrock', 'http://dbpedia.org/resource/Tortoise_(band)'], 'abstract': 'Beck David Hansen (born Bek David Campbell; July 8, 1970) is an American musician, singer, songwriter, and record producer. He rose to fame in the early 1990s with his experimental and lo-fi style, and became known for creating musical collages of wide-ranging genres. He has musically encompassed folk, funk, soul, hip hop, electronic, alternative rock, country, and psychedelia. He has released 14 studio albums (three of which were released on indie labels), as well as several non-album singles and a book of sheet music. Born and raised in Los Angeles, Beck grew towards hip-hop and folk in his teens and began to perform locally at coffeehouses and clubs. He moved to New York City in 1989 and became involved in the city\'s small but fiery anti-folk movement. Returning to Los Angeles in the early 1990s, he cut his breakthrough single "Loser", which became a worldwide hit in 1994, and released his first major album, Mellow Gold, the same year. Odelay, released in 1996, topped critic polls and won several awards. He released the country-influenced, twangy Mutations in 1998, and the funk-infused Midnite Vultures in 1999. The soft-acoustic Sea Change in 2002 showcased a more serious Beck, and 2005\'s Guero returned to Odelay\'s sample-based production. The Information in 2006 was inspired by electro-funk, hip hop, and psychedelia; 2008\'s Modern Guilt was inspired by \'60s pop music; and 2014\'s folk-infused Morning Phase won Album of the Year at the 57th Grammy Awards. His 2017 album, Colors, won awards for Best Alternative Album and Best Engineered Album at the 61st Annual Grammy Awards. His fourteenth studio album, Hyperspace, was released on November 22, 2019. With a pop art collage of musical styles, oblique and ironic lyrics, and postmodern arrangements incorporating samples, drum machines, live instrumentation and sound effects, Beck has been hailed by critics and the public throughout his musical career as being among the most idiosyncratically creative musicians of 1990s and 2000s alternative rock. Two of Beck\'s most popular and acclaimed recordings are Odelay and Sea Change, both of which were ranked on Rolling Stone\'s list of the 500 greatest albums of all time. The four-time platinum artist has collaborated with several artists and has made several contributions to soundtracks.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Herbie_Hancock', 'artist_name': 'Herbie Hancock', 'wiki': 'http://en.wikipedia.org/wiki/Herbie_Hancock', 'birth_date': '12 April 1940', 'start_year': '1961', 'labels': ['http://dbpedia.org/resource/Blue_Note_Records', 'http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Verve_Records', 'http://dbpedia.org/resource/Warner_Records'], 'plays_in': ["http://dbpedia.org/resource/A_Soldier's_Story", 'http://dbpedia.org/resource/Action_Jackson_(1988_film)', 'http://dbpedia.org/resource/Blowup', 'http://dbpedia.org/resource/Centrifugal_Funk', 'http://dbpedia.org/resource/Colors_(film)', 'http://dbpedia.org/resource/Death_Wish_(1974_film)', 'http://dbpedia.org/resource/Harlem_Nights', 'http://dbpedia.org/resource/Herbie_(film)', 'http://dbpedia.org/resource/Jo_Jo_Dancer,_Your_Life_Is_Calling', "http://dbpedia.org/resource/Livin'_Large", 'http://dbpedia.org/resource/On_the_Shoulders_of_Giants_(film)', 'http://dbpedia.org/resource/One_Night_with_Blue_Note', 'http://dbpedia.org/resource/Round_Midnight_(film)', 'http://dbpedia.org/resource/The_George_McKenna_Story', 'http://dbpedia.org/resource/The_Spook_Who_Sat_by_the_Door_(film)'], 'genres': ['http://dbpedia.org/resource/Classical_music', 'http://dbpedia.org/resource/Electro_(music)', 'http://dbpedia.org/resource/Jazz', 'http://dbpedia.org/resource/Jazz-funk', 'http://dbpedia.org/resource/Jazz_fusion', 'http://dbpedia.org/resource/Modal_jazz', 'http://dbpedia.org/resource/Post-bop'], 'related_artists': ['http://dbpedia.org/resource/Aditya_Kalyanpur', 'http://dbpedia.org/resource/Bennie_Maupin', 'http://dbpedia.org/resource/Bernard_Fowler', 'http://dbpedia.org/resource/Billy_Hart', 'http://dbpedia.org/resource/Billy_Higgins', 'http://dbpedia.org/resource/Bobby_McFerrin', 'http://dbpedia.org/resource/Buck_Clarke', 'http://dbpedia.org/resource/Chick_Corea', 'http://dbpedia.org/resource/Chris_Anderson_(pianist)', 'http://dbpedia.org/resource/Chuck_Israels', 'http://dbpedia.org/resource/Clark_Terry', 'http://dbpedia.org/resource/DJ_Disk', 'http://dbpedia.org/resource/Dee_Dee_Bridgewater', 'http://dbpedia.org/resource/Don_Alias', 'http://dbpedia.org/resource/Eli_Degibri', 'http://dbpedia.org/resource/Eliane_Elias', 'http://dbpedia.org/resource/Frank_Colón', 'http://dbpedia.org/resource/Freddie_Hubbard', 'http://dbpedia.org/resource/Freddie_Washington_(bassist)', 'http://dbpedia.org/resource/Garnett_Brown', 'http://dbpedia.org/resource/George_Coleman', 'http://dbpedia.org/resource/Gigi_(singer)', 'http://dbpedia.org/resource/Gonzalo_Rubalcaba', 'http://dbpedia.org/resource/Howard_Jones_(British_musician)', 'http://dbpedia.org/resource/Jack_DeJohnette', 'http://dbpedia.org/resource/Jaco_Pastorius', 'http://dbpedia.org/resource/James_Walbourne', 'http://dbpedia.org/resource/Jim_Blackley', 'http://dbpedia.org/resource/Joe_Henderson', 'http://dbpedia.org/resource/Joni_Mitchell', 'http://dbpedia.org/resource/Ken_Caillat', 'http://dbpedia.org/resource/Kimiko_Kasai', 'http://dbpedia.org/resource/Michael_Brecker__Michael_Brecker__1', 'http://dbpedia.org/resource/Mickey_Roker', 'http://dbpedia.org/resource/Mike_Clark_(jazz_musician)', 'http://dbpedia.org/resource/Miles_Davis_Quintet', 'http://dbpedia.org/resource/Nathan_East', 'http://dbpedia.org/resource/Omar_Hakim', 'http://dbpedia.org/resource/Patrick_Gleeson', 'http://dbpedia.org/resource/Tal_Wilkenfeld', 'http://dbpedia.org/resource/Thad_Jones', 'http://dbpedia.org/resource/The_Headhunters', 'http://dbpedia.org/resource/Timothy_Bloom', 'http://dbpedia.org/resource/Todd_Cochran', 'http://dbpedia.org/resource/V.S.O.P._(group)', 'http://dbpedia.org/resource/Vinnie_Colaiuta', 'http://dbpedia.org/resource/Wah_Wah_Watson', 'http://dbpedia.org/resource/Wayne_Shorter'], 'abstract': 'Herbert Jeffrey Hancock (born April 12, 1940) is an American jazz pianist, keyboardist, bandleader, composer, and occasional actor. Hancock started his career with trumpeter Donald Byrd’s group. He shortly thereafter joined the Miles Davis Quintet, where he helped to redefine the role of a jazz rhythm section and was one of the primary architects of the post-bop sound. In the 1970s, Hancock experimented with jazz fusion, funk, and electro styles, utilizing a wide array of synthesizers and electronics. It was during this period that he released perhaps his best-known and most influential album, Head Hunters. Hancock\'s best-known compositions include "Cantaloupe Island", "Watermelon Man", "Maiden Voyage" and "Chameleon", all of which are jazz standards. During the 1980s, he enjoyed a hit single with the electronic instrumental "Rockit", a collaboration with bassist/producer Bill Laswell. His 2007 Joni Mitchell tribute album River: The Joni Letters won the 2008 Grammy Award for Album of the Year, only the second jazz album to win the award after Getz/Gilberto in 1965. Since 2012, Hancock has served as a professor at the University of California, Los Angeles, where he teaches at the UCLA Herb Alpert School of Music. He is also the chairman of the Herbie Hancock Institute of Jazz (formerly known as the Thelonious Monk Institute of Jazz until 2019).'}</t>
-  </si>
-  <si>
-    <t>{'artist': "http://dbpedia.org/resource/Jane's_Addiction", 'artist_name': "Jane's Addiction", 'wiki': "http://en.wikipedia.org/wiki/Jane's_Addiction", 'hometown': 'http://dbpedia.org/resource/Los_Angeles', 'start_year': '1985', 'end_year': '1991', 'labels': ['http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/EMI', 'http://dbpedia.org/resource/Triple_X_Records', 'http://dbpedia.org/resource/Warner_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Funk_metal', 'http://dbpedia.org/resource/Neo-psychedelia', 'http://dbpedia.org/resource/Psychedelic_rock'], 'actual_members': ['http://dbpedia.org/resource/Chris_Chaney', 'http://dbpedia.org/resource/Dave_Navarro', 'http://dbpedia.org/resource/Perry_Farrell', 'http://dbpedia.org/resource/Stephen_Perkins'], 'old_members': ['http://dbpedia.org/resource/Dave_Sitek', 'http://dbpedia.org/resource/Duff_McKagan', 'http://dbpedia.org/resource/Eric_Avery', 'http://dbpedia.org/resource/Flea_(musician)', 'http://dbpedia.org/resource/Martyn_LeNoble'], 'related_artists': ['http://dbpedia.org/resource/Aaron_Embry', 'http://dbpedia.org/resource/Axis_of_Justice', 'http://dbpedia.org/resource/Banyan_(band)', 'http://dbpedia.org/resource/Camp_Freddy', 'http://dbpedia.org/resource/Carnival_Art', 'http://dbpedia.org/resource/Chris_Chaney', "http://dbpedia.org/resource/Class_of_'99", 'http://dbpedia.org/resource/Dave_Navarro', 'http://dbpedia.org/resource/Dave_Sitek', 'http://dbpedia.org/resource/Deconstruction_(band)', 'http://dbpedia.org/resource/Eric_Avery', 'http://dbpedia.org/resource/Flea_(musician)', 'http://dbpedia.org/resource/Infectious_Grooves', 'http://dbpedia.org/resource/Jean_Luc_Ponpon', 'http://dbpedia.org/resource/Jimmy_Boyle_(record_producer)', 'http://dbpedia.org/resource/John_Philip_Shenale', 'http://dbpedia.org/resource/Kommunity_FK', 'http://dbpedia.org/resource/Linda_Good', 'http://dbpedia.org/resource/Martyn_LeNoble', 'http://dbpedia.org/resource/Mikael_Johnston', 'http://dbpedia.org/resource/Nine_Inch_Nails', 'http://dbpedia.org/resource/Perry_Farrell', 'http://dbpedia.org/resource/Polar_Bear_(American_band)', 'http://dbpedia.org/resource/Porno_for_Pyros', 'http://dbpedia.org/resource/Psi_Com', 'http://dbpedia.org/resource/Red_Hot_Chili_Peppers', 'http://dbpedia.org/resource/Rich_Costey', 'http://dbpedia.org/resource/Satellite_Party', 'http://dbpedia.org/resource/Stephen_Perkins', 'http://dbpedia.org/resource/Tex_&amp;_the_Horseheads', 'http://dbpedia.org/resource/The_Birds_of_Satan', 'http://dbpedia.org/resource/The_Master_Musicians_of_Joujouka', 'http://dbpedia.org/resource/The_Panic_Channel', 'http://dbpedia.org/resource/The_Twigs', 'http://dbpedia.org/resource/Thelonious_Monster'], 'abstract': 'Jane\'s Addiction is an American rock band from Los Angeles, formed in 1985. The band consists of vocalist Perry Farrell, guitarist Dave Navarro, drummer Stephen Perkins and bassist Chris Chaney. Founded by Farrell and original bass guitarist Eric Avery following the disintegration of Farrell\'s previous band Psi Com, Jane\'s Addiction was one of the first bands from the early 1990s alternative rock movement to gain both mainstream media attention and commercial success in the United States. Jane\'s Addiction\'s first release was a self-titled live album in 1987 and quickly caught the attention of Warner Bros. Records. The band\'s first two studio albums, Nothing\'s Shocking (1988) and Ritual de lo Habitual (1990), were released to widespread critical acclaim, and an increasing cult fanbase. As a result, Jane\'s Addiction became icons of what Farrell dubbed the "Alternative Nation". The band\'s initial farewell tour, in 1991, launched the first Lollapalooza, which has since become a perennial alternative rock festival. The band briefly reunited in 1997, with Flea of the Red Hot Chili Peppers replacing Avery on bass guitar. In 2001, a second reunion took place, with Martyn LeNoble—and later Chris Chaney—occupying the role of bass guitarist. In 2003, the band released its third studio album, Strays, before dissolving again the following year. In 2008, the band\'s original line-up reunited and embarked on a world tour. Eric Avery, however, subsequently left the band in early 2010 as the group began working on new material. The band released its fourth studio album The Great Escape Artist in 2011, with Chaney returning to the band for its recording and subsequent tour, and featured the TV on the Radio\'s multi-instrumentalist Dave Sitek. In 2016, Jane\'s Addiction were nominated for induction into the Rock and Roll Hall of Fame.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Puddle_of_Mudd', 'artist_name': 'Puddle of Mudd', 'wiki': 'http://en.wikipedia.org/wiki/Puddle_of_Mudd', 'hometown': 'http://dbpedia.org/resource/Kansas_City,_Missouri', 'start_year': '1991', 'labels': ['http://dbpedia.org/resource/Flawless_Records', 'http://dbpedia.org/resource/Geffen_Records', 'http://dbpedia.org/resource/Universal_Music_Group'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['http://dbpedia.org/resource/Dave_Moreno', 'http://dbpedia.org/resource/Wes_Scantlin', 'Matt Fuller', 'Michael John Adams'], 'old_members': ['http://dbpedia.org/resource/3_Doors_Down', 'http://dbpedia.org/resource/Adam_Latiff', 'http://dbpedia.org/resource/Campfire_Girls_(band)', 'http://dbpedia.org/resource/Damien_Starkey', 'http://dbpedia.org/resource/Doug_Ardito', 'http://dbpedia.org/resource/Paul_Phillips_(guitarist)', 'http://dbpedia.org/resource/Puddle_of_Mudd', 'Jimmy Allen', 'Sean Sammon', 'Kenny Burkitt', 'Christian Stone', 'Greg Upchurch', 'Ryan Yerdon', 'Shannon Boone'], 'related_artists': ['http://dbpedia.org/resource/3_Doors_Down', 'http://dbpedia.org/resource/Against_All_Will', 'http://dbpedia.org/resource/Fuel_(band)', 'http://dbpedia.org/resource/Limp_Bizkit', 'http://dbpedia.org/resource/Operator_(band)'], 'abstract': 'Puddle of Mudd is an American rock band formed in Kansas City, Missouri, in 1991. To date, the band has sold over seven million albums and has had a string of No. 1 mainstream rock singles in the United States. Their major-label debut Come Clean has sold over five million copies. They have released an extended play, an independent album and five studio albums, with their latest being Welcome to Galvania in September 2019. Puddle of Mudd has been described as post-grunge, nu metal, hard rock, and alternative metal.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Majestic_(band)', 'artist_name': 'Majestic', 'wiki': 'http://en.wikipedia.org/wiki/Majestic_(band)', 'hometown': 'http://dbpedia.org/resource/Malmö', 'start_year': '1997', 'end_year': '2001', 'labels': ['http://dbpedia.org/resource/Massacre_Records'], 'genres': ['http://dbpedia.org/resource/Neoclassical_metal', 'http://dbpedia.org/resource/Power_metal'], 'actual_members': ['http://dbpedia.org/resource/Apollo_Papathanasio', 'http://dbpedia.org/resource/Magnus_Nordh', 'http://dbpedia.org/resource/Martin_Wezowski', 'http://dbpedia.org/resource/Peter_Wildoer', 'http://dbpedia.org/resource/Richard_Andersson'], 'old_members': ['Joel Linder', 'Jonas Blum', 'Peter Espinoza'], 'related_artists': ['http://dbpedia.org/resource/Apollo_Papathanasio', 'http://dbpedia.org/resource/Nasty_Idols', 'http://dbpedia.org/resource/Peter_Wildoer', 'http://dbpedia.org/resource/Richard_Andersson', 'http://dbpedia.org/resource/Time_Requiem'], 'abstract': 'Majestic, formerly known as Lab Rat, was a Swedish neo-classical power metal band, founded in 1997 by Peter Espinoza after he was asked to form a band. Richard Andersson was asked to join and they started to write music for the debut album. Tunes like Golden sea and Standing alone were meant to be on Peters second solo album but were rearranged for the sound and the keyboard and together the Majestic sound was born. Majestic made two albums : Abstract Symphony (1999) and Trinity Overture (2000), under the label Massacre Records. Peter left the band after the debut album for reunion and touring with Nasty Idols.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Martin_Solveig', 'artist_name': 'Martin Solveig', 'wiki': 'http://en.wikipedia.org/wiki/Martin_Solveig', 'hometown': 'http://dbpedia.org/resource/Neuilly-sur-Seine', 'birth_date': '22 September 1976', 'start_year': '2002', 'labels': ['http://dbpedia.org/resource/Big_Beat_Records_(American_record_label)', 'http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/Ministry_of_Sound', "http://dbpedia.org/resource/Spinnin'_Records"], 'plays_in': ['http://dbpedia.org/resource/Pitch_Perfect_(soundtrack)', 'http://dbpedia.org/resource/Skin:_The_Remixes'], 'genres': ['http://dbpedia.org/resource/Electro_(music)', 'http://dbpedia.org/resource/Electro_house', 'http://dbpedia.org/resource/Electronic_dance_music', 'http://dbpedia.org/resource/Electropop', 'http://dbpedia.org/resource/Future_house', 'http://dbpedia.org/resource/House_music', 'http://dbpedia.org/resource/Trap_music_(EDM)'], 'related_artists': ['http://dbpedia.org/resource/Dragonette', 'http://dbpedia.org/resource/Good_Times_Ahead', 'http://dbpedia.org/resource/Idoling!!!', 'http://dbpedia.org/resource/Kele_Okereke', 'http://dbpedia.org/resource/Laidback_Luke', 'http://dbpedia.org/resource/Martina_Sorbara', 'http://dbpedia.org/resource/Roy_Woods__Roy_Woods__1', 'http://dbpedia.org/resource/Salif_Keita', 'http://dbpedia.org/resource/The_Cataracs', 'http://dbpedia.org/resource/Tye_Morgan'], 'abstract': "Martin Laurent Picandet (French pronunciation: \u200b[maʁtɛ̃ lɔʁɑ̃ pikɑ̃dɛ]; born 22 September 1976), better known by his stage name Martin Solveig (French: [maʁtɛ̃ sɔlvɛɡ]), is a French DJ, singer, songwriter and record producer. He hosts a weekly radio show called C'est La Vie on radio stations worldwide, including Radio FG in his homeland. He has been active since 1994. Solveig manages his own label called Mixture Stereophonic and was ranked number 29 in the 2011 DJ Mag Top 100 DJs. He has collaborated with, among others, Ina Wroldsen, David Guetta, Jax Jones (together under the alias Europa), Laidback Luke, Dragonette, Kele of Bloc Party and Madonna."}</t>
-  </si>
-  <si>
-    <t>{'artist': "http://dbpedia.org/resource/Stereo_MC's", 'artist_name': "Stereo MC's", 'wiki': "http://en.wikipedia.org/wiki/Stereo_MC's", 'hometown': 'http://dbpedia.org/resource/England', 'start_year': '1985', 'labels': ["http://dbpedia.org/resource/4th_&amp;_B'way_Records", 'http://dbpedia.org/resource/Gee_Street_Records', 'http://dbpedia.org/resource/Island_Records', 'http://dbpedia.org/resource/Rhino_Entertainment'], 'plays_in': ['http://dbpedia.org/resource/Snake_City'], 'genres': ['http://dbpedia.org/resource/Alternative_dance', 'http://dbpedia.org/resource/Alternative_hip_hop', 'http://dbpedia.org/resource/Electronica', 'http://dbpedia.org/resource/Hip_hop_music', 'http://dbpedia.org/resource/Hip_house', 'http://dbpedia.org/resource/House_music'], 'actual_members': ['http://dbpedia.org/resource/Cath_Coffey', 'Rob Birch', 'Owen If', 'The Head', 'Aina Roxx'], 'abstract': 'Stereo MC\'s are an English hip hop/electronic dance group which formed in Nottingham, England, in 1985. They had an international Top 20 hit with their single "Connected". After releasing eight albums for Island Records, K7, Graffiti Recordings, and Pias, they formed the label Connected with Terranova to release their own material and that of other artists within the house/techno/electronic medium.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/George_Harrison', 'artist_name': 'George Harrison', 'wiki': 'http://en.wikipedia.org/wiki/George_Harrison', 'birth_date': '25 February 1943', 'death_date': '29 November 2001', 'start_year': '1958', 'end_year': '2001', 'plays_in': ['http://dbpedia.org/resource/Concert_for_George_(film)', 'http://dbpedia.org/resource/Everest_(1998_film)', 'http://dbpedia.org/resource/Grammy_Nominees', 'http://dbpedia.org/resource/Help!_(film)', 'http://dbpedia.org/resource/Let_It_Be_(1970_film)', 'http://dbpedia.org/resource/Let_It_Be_(musical)', "http://dbpedia.org/resource/Sgt._Pepper's_Lonely_Hearts_Club_Band_(film)", "http://dbpedia.org/resource/Sgt._Pepper's_Lonely_Hearts_Club_Band_on_the_Road", 'http://dbpedia.org/resource/Shanghai_Surprise', 'http://dbpedia.org/resource/Strictly_Diesel', 'http://dbpedia.org/resource/The_Concert_for_Bangladesh_(film)', 'http://dbpedia.org/resource/Wonderwall_(film)', 'http://dbpedia.org/resource/Yellow_Submarine_(film)', 'http://dbpedia.org/resource/Zé_Ramalho_Canta_Beatles'], 'related_artists': ['http://dbpedia.org/resource/Aashish_Khan', 'http://dbpedia.org/resource/Alvin_Taylor', 'http://dbpedia.org/resource/Andy_Fairweather_Low', 'http://dbpedia.org/resource/Badfinger', 'http://dbpedia.org/resource/Billy_Preston', 'http://dbpedia.org/resource/Bobby_Keys', 'http://dbpedia.org/resource/Carl_Perkins', 'http://dbpedia.org/resource/Dave_Mason', 'http://dbpedia.org/resource/David_Hentschel', 'http://dbpedia.org/resource/Derek_and_the_Dominos', 'http://dbpedia.org/resource/Dhani_Harrison', 'http://dbpedia.org/resource/Five_Stairsteps', 'http://dbpedia.org/resource/Gary_Wright', 'http://dbpedia.org/resource/Ian_Paice', 'http://dbpedia.org/resource/Jesse_Ed_Davis', 'http://dbpedia.org/resource/Jim_Gordon_(musician)', 'http://dbpedia.org/resource/Jim_Horn', 'http://dbpedia.org/resource/Jim_Keltner', 'http://dbpedia.org/resource/John_Guerin', 'http://dbpedia.org/resource/Klaus_Voormann', 'http://dbpedia.org/resource/Mac_and_Katie_Kissoon', 'http://dbpedia.org/resource/Pete_Ham', 'http://dbpedia.org/resource/Radha_Krishna_Temple', 'http://dbpedia.org/resource/Ravi_Shankar', 'http://dbpedia.org/resource/Ray_Cooper', 'http://dbpedia.org/resource/René_Tinner', 'http://dbpedia.org/resource/Richard_Dashut', 'http://dbpedia.org/resource/Richard_Tee__Richard_Tee__1', 'http://dbpedia.org/resource/Ronnie_Spector', 'http://dbpedia.org/resource/Steve_Ferrone', 'http://dbpedia.org/resource/The_Remo_Four', 'http://dbpedia.org/resource/The_Rutles', 'http://dbpedia.org/resource/Thenewno2', 'http://dbpedia.org/resource/Tom_Petty_and_the_Heartbreakers__Tom_Petty_and_the_Heartbreakers__1', 'http://dbpedia.org/resource/Tom_Scott_(musician)'], 'abstract': 'George Harrison MBE (25 February 1943 – 29 November 2001) was an English musician, singer-songwriter, and music and film producer who achieved international fame as the lead guitarist of the Beatles. Sometimes called "the quiet Beatle", Harrison embraced Indian culture and helped broaden the scope of popular music through his incorporation of Indian instrumentation and Hindu-aligned spirituality in the Beatles\' work. Although the majority of the band\'s songs were written by John Lennon and Paul McCartney, most Beatles albums from 1965 onwards contained at least two Harrison compositions. His songs for the group include "Taxman", "Within You Without You", "While My Guitar Gently Weeps", "Here Comes the Sun" and "Something". Harrison\'s earliest musical influences included George Formby and Django Reinhardt; Carl Perkins, Chet Atkins and Chuck Berry were subsequent influences. By 1965, he had begun to lead the Beatles into folk rock through his interest in Bob Dylan and the Byrds, and towards Indian classical music through his use of the sitar on "Norwegian Wood (This Bird Has Flown)". Having initiated the band\'s embracing of Transcendental Meditation in 1967, he subsequently developed an association with the Hare Krishna movement. After the band\'s break-up in 1970, Harrison released the triple album All Things Must Pass, a critically acclaimed work that produced his most successful hit single, "My Sweet Lord", and introduced his signature sound as a solo artist, the slide guitar. He also organised the 1971 Concert for Bangladesh with Indian musician Ravi Shankar, a precursor to later benefit concerts such as Live Aid. In his role as a music and film producer, Harrison produced acts signed to the Beatles\' Apple record label before founding Dark Horse Records in 1974 and co-founding HandMade Films in 1978. Harrison released several best-selling singles and albums as a solo performer. In 1988, he co-founded the platinum-selling supergroup the Traveling Wilburys. A prolific recording artist, he was featured as a guest guitarist on tracks by Badfinger, Ronnie Wood and Billy Preston, and collaborated on songs and music with Dylan, Eric Clapton, Ringo Starr and Tom Petty, among others. Rolling Stone magazine ranked him number 11 in their list of the "100 Greatest Guitarists of All Time". He is a two-time Rock and Roll Hall of Fame inductee – as a member of the Beatles in 1988, and posthumously for his solo career in 2004. Harrison\'s first marriage, to model Pattie Boyd in 1966, ended in divorce in 1977. The following year he married Olivia Arias, with whom he had a son, Dhani. Harrison died from lung cancer in 2001 at the age of 58, two years after surviving a knife attack by an intruder at his Friar Park home. His remains were cremated, and the ashes were scattered according to Hindu tradition in a private ceremony in the Ganges and Yamuna rivers in India. He left an estate of almost £100 million.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Kelly_Clarkson', 'artist_name': 'Kelly Clarkson', 'wiki': 'http://en.wikipedia.org/wiki/Kelly_Clarkson', 'birth_date': '24 April 1982', 'start_year': '2002', 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees'], 'related_artists': ['http://dbpedia.org/resource/Ali_Tamposi', 'http://dbpedia.org/resource/Andre_Lindal', 'http://dbpedia.org/resource/Andy_Gibson_(singer)', 'http://dbpedia.org/resource/Ashley_Arrison', 'http://dbpedia.org/resource/Barry_Weeks', 'http://dbpedia.org/resource/Ben_Moody', 'http://dbpedia.org/resource/Bryan_Todd_(record_producer)', 'http://dbpedia.org/resource/Carl_Sturken_and_Evan_Rogers', 'http://dbpedia.org/resource/Carlos_Sosa_(musician)', 'http://dbpedia.org/resource/Cassadee_Pope', 'http://dbpedia.org/resource/Catt_Gravitt', 'http://dbpedia.org/resource/Chris_Deaner', 'http://dbpedia.org/resource/Christian_Hebel', 'http://dbpedia.org/resource/Clif_Magness', 'http://dbpedia.org/resource/Dewain_Whitmore_Jr.', 'http://dbpedia.org/resource/Diztortion', 'http://dbpedia.org/resource/Earth,_Wind_&amp;_Fire_Horns', 'http://dbpedia.org/resource/Faouzia', 'http://dbpedia.org/resource/Greg_Kurstin', 'http://dbpedia.org/resource/Grooveline_Horns', 'http://dbpedia.org/resource/Jason_Aldean', 'http://dbpedia.org/resource/Jason_Halbert', 'http://dbpedia.org/resource/Jennifer_Hanson', 'http://dbpedia.org/resource/Jeremy_McCoy', 'http://dbpedia.org/resource/Jesse_Shatkin', 'http://dbpedia.org/resource/Joacim_Persson', 'http://dbpedia.org/resource/Joseph_Trapanese', 'http://dbpedia.org/resource/Josh_Abraham', "http://dbpedia.org/resource/Marty_O'Brien", 'http://dbpedia.org/resource/Melvin_LaThomas_Brimm', 'http://dbpedia.org/resource/Mick_Schultz', 'http://dbpedia.org/resource/Mickey_Jack_Cones', 'http://dbpedia.org/resource/Mozella', 'http://dbpedia.org/resource/Neil_Ormandy', 'http://dbpedia.org/resource/Nova_Wav', 'http://dbpedia.org/resource/Rhett_Lawrence', 'http://dbpedia.org/resource/Rob_Chiarelli', 'http://dbpedia.org/resource/Rozzi_Crane', 'http://dbpedia.org/resource/Ryan_Riback', 'http://dbpedia.org/resource/Shane_McAnally', 'http://dbpedia.org/resource/Sir_Nolan', 'http://dbpedia.org/resource/TMS_(production_team)', 'http://dbpedia.org/resource/The_Springs_(band)'], 'abstract': 'Kelly Brianne Clarkson (born April 24, 1982) is an American singer, songwriter, and television personality. She rose to fame for winning the first season of American Idol in 2002, which earned her a record deal with RCA. Her debut single, "A Moment Like This", topped the US Billboard Hot 100 and became the country\'s best selling single of 2002. It was included on her debut album, Thankful (2003), which debuted atop the Billboard 200. Trying to reinvent her image, Clarkson parted ways with Idol management and shifted to pop rock for her second studio album, Breakaway (2004). Supported by four US top-ten singles: "Breakaway", "Since U Been Gone", "Behind These Hazel Eyes", and "Because of You", Breakaway sold over 12 million copies worldwide and won two Grammy Awards. Clarkson took further creative control for her third studio album, My December (2007), by co-writing all of its tracks and becoming its executive producer. However, her label was dissatisfied with the album\'s darker rock music and promoted it reluctantly. Clarkson\'s fourth and fifth studio albums, All I Ever Wanted (2009) and Stronger (2011), returned to a lighter tone and pop rock sound, with the former becoming her second US number-one album, and the latter making her the first artist to win the Grammy Award for Best Pop Vocal Album twice. Both albums spawned a Hot 100 number-one single as well: "My Life Would Suck Without You", which holds the record for the biggest jump to number one in the charts history, and "Stronger (What Doesn\'t Kill You)", which became her best-selling single worldwide. Clarkson then became the first American female artist to release the best-selling holiday album of the year with Wrapped in Red (2013). Her seventh studio album, Piece by Piece (2015), debuted at number-one in the US, while its title track reached the top ten. After leaving RCA and signing with Atlantic in 2016, Clarkson released her soul-influenced eighth album, Meaning of Life (2017), which was promoted by her highest-grossing tour to date. She went on to release her ninth studio album and second Christmas album, When Christmas Comes Around... (2021). Clarkson has sold over 25 million albums and 45 million singles worldwide. She has 11 top-ten singles in the US, and nine top-ten singles in the UK, Canada, and Australia. She became the first artist in history to top each of Billboard\'s pop, adult contemporary, adult pop, country, and dance charts. Clarkson has served as a coach on The Voice since its fourteenth season, and since 2019, has hosted her own talk show, The Kelly Clarkson Show. Among her numerous accolades, Clarkson has received three MTV Video Music Awards, four American Music Awards, two Academy of Country Music Awards, and three Daytime Emmy Awards. Billboard has hailed Clarkson as "one of pop music\'s greatest singers", and honored her with the Powerhouse Award for her vocals, while VH1 ranked her nineteenth on their list of the 100 Greatest Women in Music.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Soul_Asylum', 'artist_name': 'Soul Asylum', 'wiki': 'http://en.wikipedia.org/wiki/Soul_Asylum', 'hometown': 'http://dbpedia.org/resource/Minneapolis', 'start_year': '1981', 'labels': ['http://dbpedia.org/resource/429_Records', 'http://dbpedia.org/resource/A&amp;M_Records', 'http://dbpedia.org/resource/Blue_Élan_Records', 'http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Entertainment_One', 'http://dbpedia.org/resource/Legacy_Recordings', 'http://dbpedia.org/resource/Sire_Records', 'http://dbpedia.org/resource/Twin/Tone_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Country_rock', 'http://dbpedia.org/resource/Grunge'], 'actual_members': ['http://dbpedia.org/resource/Dave_Pirner', 'http://dbpedia.org/resource/Michael_Bland', 'Winston Roye', 'Ryan Smith'], 'old_members': ['See [[#Band members'], 'related_artists': ['http://dbpedia.org/resource/Dan_Murphy_(musician)', 'http://dbpedia.org/resource/Dave_Pirner', 'http://dbpedia.org/resource/Ed_Ackerson', 'http://dbpedia.org/resource/Grant_Young_(musician)', 'http://dbpedia.org/resource/Joey_Huffman', 'http://dbpedia.org/resource/Michael_Bland', 'http://dbpedia.org/resource/Perfect_(American_band)', 'http://dbpedia.org/resource/Rami_Jaffee', 'http://dbpedia.org/resource/Sterling_Campbell', 'http://dbpedia.org/resource/The_Replacements_(band)', 'http://dbpedia.org/resource/Tommy_Stinson'], 'abstract': 'Soul Asylum is an American alternative rock band formed in 1981 in Minneapolis, Minnesota. Their 1993 hit "Runaway Train" won the Grammy Award for Best Rock Song. The band was originally called Loud Fast Rules, with a lineup consisting of Dave Pirner, Dan Murphy, Karl Mueller, and Pat Morley. They changed their name to Soul Asylum in 1983. Morley was replaced by Grant Young in 1984. The band recorded three albums with Twin/Tone Records and two with A&amp;M Records, with little commercial success. In 1992, they released the triple-platinum album Grave Dancers Union, featuring "Runaway Train". The band played at the inauguration of President Bill Clinton early the next year. They also scored a platinum record with the album Let Your Dim Light Shine three years later. In 1998 they recorded Candy from a Stranger. Mueller was diagnosed with cancer in 2004, and the band organized a benefit concert on his behalf. Mueller died a year later. The band released four more albums over the next 15 years. Their most recent was Hurry Up and Wait in 2020, their twelfth studio release.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Survivor_(band)', 'artist_name': 'Survivor', 'wiki': 'http://en.wikipedia.org/wiki/Survivor_(band)', 'hometown': 'http://dbpedia.org/resource/Chicago', 'start_year': '1979', 'end_year': '1988', 'labels': ['http://dbpedia.org/resource/Frontiers_Records', 'http://dbpedia.org/resource/PolyGram', 'http://dbpedia.org/resource/Scotti_Brothers_Records'], 'genres': ['http://dbpedia.org/resource/Arena_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Rock_music'], 'actual_members': ['http://dbpedia.org/resource/Frankie_Sullivan', 'Billy Ozzello', 'Cameron Barton', 'Jeffrey Bryan', 'Ryan Sullivan'], 'old_members': ['http://dbpedia.org/resource/Dave_Bickler', 'http://dbpedia.org/resource/Gary_Smith_(drummer)', 'http://dbpedia.org/resource/Jim_Peterik', 'http://dbpedia.org/resource/Jimi_Jamison', 'http://dbpedia.org/resource/Kyle_Woodring', 'http://dbpedia.org/resource/Robin_McAuley', 'Barry Dunaway', 'Chris Grove', 'Marc Droubay', 'Michael Young', 'Mitchell Sigman', 'Klem Hayes', 'Randy Riley', 'Gordon Patriarca', 'Dennis Keith Johnson', 'Stephan Ellis', 'Walter Tolentino', 'Bill Syniar'], 'related_artists': ['http://dbpedia.org/resource/Cobra_(American_band)', 'http://dbpedia.org/resource/Dave_Bickler', 'http://dbpedia.org/resource/Frankie_Sullivan', 'http://dbpedia.org/resource/Gary_Smith_(drummer)', 'http://dbpedia.org/resource/Jim_Peterik', 'http://dbpedia.org/resource/Jimi_Jamison', 'http://dbpedia.org/resource/Kyle_Woodring', 'http://dbpedia.org/resource/McAuley_Schenker_Group', 'http://dbpedia.org/resource/Robin_McAuley', 'http://dbpedia.org/resource/Target_(American_band)', 'http://dbpedia.org/resource/The_Ides_of_March_(band)'], 'abstract': 'Survivor are an American rock band formed in Chicago in 1978 by Jim Peterik and Frankie Sullivan. The band achieved its best success in the 1980s, producing many charting singles, especially in the United States. The band is best-known for their double-platinum-certified 1982 hit "Eye of the Tiger", the theme song for the 1982 motion picture Rocky III; that single spent six weeks at number one in the US. The band continued to chart in the mid-1980s with singles like "Burning Heart" (US number 2), "The Search Is Over" (US number 4), "High on You" (US number 8), "Is This Love" (US number 9), and "I Can\'t Hold Back" (US number 13).'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Good_Charlotte', 'artist_name': 'Good Charlotte', 'wiki': 'http://en.wikipedia.org/wiki/Good_Charlotte', 'hometown': 'http://dbpedia.org/resource/Waldorf,_Maryland', 'start_year': '1996', 'end_year': '2011', 'labels': ['http://dbpedia.org/resource/BMG_Rights_Management', 'http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/Daylight_Records', 'http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Kobalt_Label_Services'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Emo', 'http://dbpedia.org/resource/Pop-punk', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Punk_rock', 'Pop punk'], 'actual_members': ['http://dbpedia.org/resource/Benji_Madden', 'http://dbpedia.org/resource/Billy_Martin_(guitarist)', 'http://dbpedia.org/resource/Joel_Madden', 'http://dbpedia.org/resource/Paul_Thomas_(bassist)', 'Dean Butterworth'], 'old_members': ['Aaron Escolopio', 'Chris Wilson'], 'related_artists': ['http://dbpedia.org/resource/Billy_Martin_(guitarist)', 'http://dbpedia.org/resource/Josh_Freese', 'http://dbpedia.org/resource/Lola_Ray__Lola_Ray__1', 'http://dbpedia.org/resource/Mest', 'http://dbpedia.org/resource/One_Buck_Short', 'http://dbpedia.org/resource/Paul_Thomas_(bassist)', 'http://dbpedia.org/resource/Rockie_Fresh', 'http://dbpedia.org/resource/The_Madden_Brothers', 'http://dbpedia.org/resource/This_Century', 'http://dbpedia.org/resource/Wakefield_(band)'], 'abstract': 'Good Charlotte is an American rock band from Waldorf, Maryland that formed in 1996. Since 2005, the band\'s lineup has consisted of Joel Madden (lead vocals), Benji Madden (guitar and vocals), Paul Thomas (bass), Billy Martin (guitar and keyboards), and Dean Butterworth (drums and percussion). The band released their self-titled debut album in 2000 to mostly positive reviews. In 2002, they achieved breakthrough success with their second album, The Young and the Hopeless. Featuring the hit singles "Lifestyles of the Rich and Famous", "The Anthem" and "Girls &amp; Boys", The Young and the Hopeless sold 3.5 million copies in the US and was certified triple platinum by the RIAA, for a total of almost 5 million copies sold worldwide. The band followed up with The Chronicles of Life and Death in 2004; a darker album, both musically and lyrically. Backed by the singles "Predictable" and "I Just Wanna Live", The Chronicles of Life and Death continued the band\'s success, and the album was certified platinum by the RIAA, selling over one million copies in the US alone. In 2007, they released the dance-punk inspired album Good Morning Revival before going back to their pop punk-roots with the album Cardiology in 2010. After a four-year-long hiatus, the band announced its comeback on November 3, 2015. The band released Youth Authority to positive reviews in 2016, and in 2018 they released their latest album, Generation Rx. In addition, they released two compilations: Greatest Remixes in 2008 and Greatest Hits in 2010.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Adele', 'artist_name': 'Adele', 'wiki': 'http://en.wikipedia.org/wiki/Adele', 'birth_date': '05 May 1988', 'start_year': '2006', 'plays_in': ['http://dbpedia.org/resource/Avenida_Brasil_(TV_series)', 'http://dbpedia.org/resource/Grammy_Nominees'], 'related_artists': ['http://dbpedia.org/resource/Amanda_Brown_(singer)', 'http://dbpedia.org/resource/Andrew_Scheps', 'http://dbpedia.org/resource/Ariel_Rechtshaid', 'http://dbpedia.org/resource/Cameron_Craig', 'http://dbpedia.org/resource/Chris_Dave', 'http://dbpedia.org/resource/Connie_Constance', 'http://dbpedia.org/resource/Daniel_Merriweather', 'http://dbpedia.org/resource/Darius_Rucker', 'http://dbpedia.org/resource/Greg_Kurstin', 'http://dbpedia.org/resource/High_Contrast', 'http://dbpedia.org/resource/Inflo', 'http://dbpedia.org/resource/Jack_Peñate', 'http://dbpedia.org/resource/Jim_Abbiss', 'http://dbpedia.org/resource/Lil_Silva', 'http://dbpedia.org/resource/Ludwig_Göransson', 'http://dbpedia.org/resource/Neil_Cowley', "http://dbpedia.org/resource/Rag'n'Bone_Man__Rag'n'Bone_Man__1", 'http://dbpedia.org/resource/Randy_Merrill', 'http://dbpedia.org/resource/Rick_Nowels', 'http://dbpedia.org/resource/Rodaidh_McDonald', 'http://dbpedia.org/resource/SEARLS', 'http://dbpedia.org/resource/Sacha_Skarbek', 'http://dbpedia.org/resource/Samuel_Dixon', 'http://dbpedia.org/resource/Selan', 'http://dbpedia.org/resource/Tobias_Jesso_Jr.', 'http://dbpedia.org/resource/Tom_Coyne_(music_engineer)'], 'abstract': 'Adele Laurie Blue Adkins MBE (/əˈdɛl/; born 5 May 1988) is an English singer and songwriter. She is one of the world\'s best-selling music artists, with sales of over 120 million records. After graduating in arts from the BRIT School in 2006, Adele signed a record deal with XL Recordings. Her debut album, 19, was released in 2008 and spawned the UK top-five singles "Chasing Pavements" and "Make You Feel My Love". The album was certified 8× platinum in the UK and triple platinum in the US. Adele was honored with the Brit Award for Rising Star as well as the Grammy Award for Best New Artist. Adele released her second studio album, 21, in 2011. It became the world\'s best-selling album of the 21st century, with sales of over 31 million copies. It was certified 17× platinum in the UK (the highest by a solo artist of all time) and Diamond in the US. According to Billboard, 21 is the top-performing album in the US chart history, topping the Billboard 200 for 24 weeks (the longest for a female artist ever). She was the first female artist in the history of the Billboard Hot 100 to have three simultaneous top-ten singles as a lead artist, with "Rolling in the Deep", "Someone Like You", and "Set Fire to the Rain", all of which also topped the chart. The album received a record-tying six Grammy Awards, including Album of the Year and the Brit Award for British Album of the Year. The success of 21 earned Adele numerous mentions in the Guinness Book of Records. In 2012, Adele released "Skyfall", a soundtrack single for the James Bond film of the same name, which won the Academy Award and the Golden Globe Award for Best Original Song. Her third studio album, 25, was released in 2015 and became the year\'s best-selling album and broke first-week sales records in the UK and US. 25 was her second album to be certified Diamond in the US and earned her five Grammy Awards, including Album of the Year, and four Brit Awards, including British Album of the Year. The lead single, "Hello", became the first song in the US to sell over one million digital copies within a week of its release. Her fourth studio album 30, which contains the chart-topping single "Easy on Me", was released in 2021. Adele\'s accolades include fifteen Grammy Awards and nine Brit Awards. In 2011, 2012, and 2016, Billboard named her Artist of the Year. At the 2012 and 2016 Ivor Novello Awards, Adele was named Songwriter of the Year by the British Academy of Songwriters, Composers, and Authors. In 2012, she was listed at number five on VH1\'s 100 Greatest Women in Music. Time magazine named her one of the most influential people in the world in 2012 and 2016. Her third tour saw her break attendance records globally, including in the UK, Australia, and the US, and her album 21 has been listed in Rolling Stone\'s 500 Greatest Albums of All Time (2020).'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Orange County, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Orange_County%2C_California', 'place': 'http://sws.geonames.org/5379524/', 'geo_link': 'http://www.geonames.org/5379524/orange-county.html', 'lat': '33.67', 'long': '-117.78', 'population': '3010232'}</t>
+    <t>{'artist': 'http://dbpedia.org/resource/Phum_Viphurit', 'artist_name': 'Phum Viphurit', 'wiki': 'http://en.wikipedia.org/wiki/Phum_Viphurit', 'birth_date': '16 August 1995', 'start_year': '2014', 'aliases': ['Phum'], 'genres': ['http://dbpedia.org/resource/Indie_folk', 'http://dbpedia.org/resource/Neo_soul'], 'related_artists': ['http://dbpedia.org/resource/Higher_Brothers', 'http://dbpedia.org/resource/Niki_(singer)'], 'abstract': 'Viphurit Siritip (Thai: วิภูริศ ศิริทิพย์, born 1995), known by his nickname Phum (ภูมิ), is a Thai singer-songwriter. He achieved international fame in 2018 from his single "Lover Boy". His music demonstrates influences of various genres, especially neo soul.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Lady_Gaga', 'artist_name': 'Lady Gaga', 'wiki': 'http://en.wikipedia.org/wiki/Lady_Gaga', 'birth_date': '28 March 1986', 'start_year': '2001', 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees', 'http://dbpedia.org/resource/Percy_Jackson_&amp;_the_Olympians:_The_Lightning_Thief'], 'related_artists': ['http://dbpedia.org/resource/Andrew_Wyatt__Andrew_Wyatt__1', 'http://dbpedia.org/resource/Arthur_Fogel', 'http://dbpedia.org/resource/BloodPop', 'http://dbpedia.org/resource/Bree_Runway', 'http://dbpedia.org/resource/Cazwell', 'http://dbpedia.org/resource/Chew_Fu', 'http://dbpedia.org/resource/Chris_Gehringer', 'http://dbpedia.org/resource/Clinton_Sparks', "http://dbpedia.org/resource/Colby_O'Donis", 'http://dbpedia.org/resource/DJ_Snake', 'http://dbpedia.org/resource/Dan_Balan', 'http://dbpedia.org/resource/David_Jost', 'http://dbpedia.org/resource/Frédéric_Yonnet', 'http://dbpedia.org/resource/Gary_Go', 'http://dbpedia.org/resource/Hillary_Lindsey', 'http://dbpedia.org/resource/Hyper_Crush', 'http://dbpedia.org/resource/Infected_Mushroom', 'http://dbpedia.org/resource/Jae_Deal', 'http://dbpedia.org/resource/Jake_Gosling', 'http://dbpedia.org/resource/Jeppe_Laursen', 'http://dbpedia.org/resource/Kalenna_Harper', 'http://dbpedia.org/resource/Kyle_Townsend', 'http://dbpedia.org/resource/LaShawn_Daniels', 'http://dbpedia.org/resource/Larry_Tee', 'http://dbpedia.org/resource/Madeon', 'http://dbpedia.org/resource/Martin_Kierszenbaum', 'http://dbpedia.org/resource/Melle_Mel', 'http://dbpedia.org/resource/Melvin_E._Brown', 'http://dbpedia.org/resource/Michael_Woods_(DJ)', 'http://dbpedia.org/resource/New_Kids_on_the_Block', 'http://dbpedia.org/resource/Nico_Constantine', 'http://dbpedia.org/resource/Nile_Rodgers', 'http://dbpedia.org/resource/Orville_Peck', 'http://dbpedia.org/resource/Rafa_Sardina', 'http://dbpedia.org/resource/Rami_Yacoub', 'http://dbpedia.org/resource/Randy_Merrill', 'http://dbpedia.org/resource/RedOne', 'http://dbpedia.org/resource/Robert_John_%22Mutt%22_Lange', 'http://dbpedia.org/resource/Rodney_Jerkins', 'http://dbpedia.org/resource/Rudy_Nicoletti', 'http://dbpedia.org/resource/Ryan_Shore', 'http://dbpedia.org/resource/Salem_Al_Fakir', 'http://dbpedia.org/resource/Samantha_Ronson', 'http://dbpedia.org/resource/Sander_van_Doorn', 'http://dbpedia.org/resource/Space_Cowboy_(musician)', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Starsmith', 'http://dbpedia.org/resource/Teddy_Riley', 'http://dbpedia.org/resource/Vincent_Herbert', 'http://dbpedia.org/resource/Water_(producer)'], 'abstract': 'Stefani Joanne Angelina Germanotta (/ˈstɛfəni ˌdʒɜːrməˈnɒtə/ STEF-ən-ee JUR-mə-NOT-ə; born March 28, 1986), known professionally as Lady Gaga, is an American singer, songwriter, and actress. She is known for her image reinventions and musical versatility. Gaga began performing as a teenager, singing at open mic nights, and acting in school plays. She studied at Collaborative Arts Project 21, through New York University\'s Tisch School of the Arts, before dropping out to pursue a career in music. After Def Jam Recordings canceled her contract, she worked as a songwriter for Sony/ATV Music Publishing, where she signed a joint deal with Interscope Records and Akon\'s label, KonLive Distribution, in 2007. Gaga rose to prominence the following year with her debut studio album, The Fame, and its chart-topping singles "Just Dance" and "Poker Face". The album was later reissued to include the EP The Fame Monster (2009), which yielded the successful singles "Bad Romance", "Telephone", and "Alejandro". Gaga\'s five succeeding studio albums all debuted atop the US Billboard 200. Her second full-length album, Born This Way (2011), explored electronic rock and techno-pop and sold more than one million copies in its first week. The title track became the fastest-selling song on the iTunes Store, with over one million downloads in less than a week. Following her EDM-influenced third album, Artpop (2013), and its lead single "Applause", Gaga released the jazz album Cheek to Cheek (2014) with Tony Bennett, and the soft rock album Joanne (2016). She also ventured into acting, playing leading roles in the miniseries American Horror Story: Hotel (2015–2016), for which she received a Golden Globe Award for Best Actress, and the critically acclaimed musical drama film A Star Is Born (2018). Her contributions to the latter\'s soundtrack, which spawned the chart-topping single "Shallow", made her the first woman to win an Academy, BAFTA, Golden Globe, and Grammy Award in one year. Gaga returned to her dance-pop roots with her sixth studio album, Chromatica (2020), which yielded the number-one single "Rain on Me". She followed this with her second collaborative album with Bennett, Love for Sale, and a starring role in the biographical crime film House of Gucci, both in 2021. Having sold 124 million records as of 2014, Gaga is one of the world\'s best-selling music artists and the fourth highest-earning female musician of the 2010s. Her accolades include 12 Grammy Awards, 18 MTV Video Music Awards, 16 Guinness World Records, awards from the Songwriters Hall of Fame and the Council of Fashion Designers of America, and recognition as Billboard\'s Artist of the Year (2010) and Woman of the Year (2015). She has also been included in several Forbes\' power rankings and ranked fourth on VH1\'s Greatest Women in Music (2012). Time magazine named her one of the 100 most influential people in the world in 2010 and 2019 and placed her on their All-Time 100 Fashion Icons list. Her philanthropy and activism focus on mental health awareness and LGBT rights; in 2012, she founded the Born This Way Foundation, a non-profit organization aiming to empower youth, improve mental health, and prevent bullying. Gaga\'s business ventures include Haus Laboratories, a vegan cosmetics brand that launched in 2019.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Strokes', 'artist_name': 'The Strokes', 'wiki': 'http://en.wikipedia.org/wiki/The_Strokes', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '1998', 'labels': ['http://dbpedia.org/resource/Cult_Records', 'http://dbpedia.org/resource/RCA_Records', 'http://dbpedia.org/resource/Rough_Trade_Records'], 'genres': ['http://dbpedia.org/resource/Indie_rock', 'http://dbpedia.org/resource/Post-punk_revival'], 'actual_members': ['http://dbpedia.org/resource/Albert_Hammond_Jr.', 'http://dbpedia.org/resource/Fabrizio_Moretti', 'http://dbpedia.org/resource/Julian_Casablancas', 'http://dbpedia.org/resource/Nick_Valensi', 'http://dbpedia.org/resource/Nikolai_Fraiture'], 'related_artists': ['http://dbpedia.org/resource/CRX_(band)', 'http://dbpedia.org/resource/Chris_Tabron', 'http://dbpedia.org/resource/David_Bason', 'http://dbpedia.org/resource/Devendra_Banhart', 'http://dbpedia.org/resource/Elvis_Costello', 'http://dbpedia.org/resource/Faulkner_(band)', 'http://dbpedia.org/resource/Gordon_Raphael', 'http://dbpedia.org/resource/Greg_Calbi', 'http://dbpedia.org/resource/Gus_Oberg', 'http://dbpedia.org/resource/Little_Joy', 'http://dbpedia.org/resource/Nikolai_Fraiture', 'http://dbpedia.org/resource/Noah_Georgeson', 'http://dbpedia.org/resource/Richie_Follin', 'http://dbpedia.org/resource/Ryan_Gentles', 'http://dbpedia.org/resource/The_Postelles', 'http://dbpedia.org/resource/The_Voidz', 'http://dbpedia.org/resource/Zerobridge'], 'abstract': 'The Strokes are an American rock band from New York City. Formed in 1998, the band is composed of singer Julian Casablancas, guitarists Nick Valensi and Albert Hammond Jr., bassist Nikolai Fraiture, and drummer Fabrizio Moretti. They were a leading group of the early-2000s indie rock revival. The release of their EP The Modern Age in early 2001 sparked a bidding war among major labels, with the band eventually signing to RCA Records. That summer, they released their debut album, Is This It, to critical acclaim and strong sales. It has since appeared on numerous "best album" lists. It was followed by Room on Fire (2003) and First Impressions of Earth (2006), both of which sold well but failed to match Is This It in critical success. Following a five-year hiatus, they released Angles (2011) and Comedown Machine (2013) to lukewarm critical reception and dwindling sales. Following the end of their initial contract with RCA, they released the Future Present Past EP (2016) through Casablancas\' label Cult. The band were relatively inactive throughout the decade, making infrequent live appearances and directing most media attention to individual projects. In 2020, they released their first studio album in seven years, The New Abnormal, produced by Rick Rubin and released through Cult and RCA. Critics considered the album a return to form. It went on to win Best Rock Album at the 63rd Annual Grammy Awards. As of 2020, the band has sold 5 million albums worldwide.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Everclear_(band)', 'artist_name': 'Everclear', 'wiki': 'http://en.wikipedia.org/wiki/Everclear_(band)', 'hometown': 'http://dbpedia.org/resource/Portland,_Oregon', 'start_year': '1991', 'labels': ['http://dbpedia.org/resource/429_Records', 'http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/Cleopatra_Records', 'http://dbpedia.org/resource/Eleven_Seven_Label_Group', 'http://dbpedia.org/resource/The_End_Records', 'http://dbpedia.org/resource/Tim/Kerr'], 'plays_in': ['http://dbpedia.org/resource/Woodstock_1999_(album)'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Grunge', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Post-grunge', 'http://dbpedia.org/resource/Power_pop'], 'actual_members': ['http://dbpedia.org/resource/Art_Alexakis', 'Dave French', 'Freddy Herrera', 'Brian Nolan'], 'old_members': ['[[#Former members'], 'related_artists': ['http://dbpedia.org/resource/Art_Alexakis', 'http://dbpedia.org/resource/Audio_Learning_Center', 'http://dbpedia.org/resource/Brynn_Arens', 'http://dbpedia.org/resource/Craig_Montoya', 'http://dbpedia.org/resource/Greg_Eklund', 'http://dbpedia.org/resource/Josh_Todd_and_the_Conflict', 'http://dbpedia.org/resource/Neal_Avron', 'http://dbpedia.org/resource/Stacy_Jones', 'http://dbpedia.org/resource/The_Exies', 'http://dbpedia.org/resource/Tommy_Stewart'], 'abstract': "Everclear is an American rock band formed in Portland, Oregon, in 1991. The band was formed by Art Alexakis, the band's lead songwriter, vocalist, and guitarist; and for most of the band's height of popularity, consisted of Craig Montoya on bass guitar and Greg Eklund on drums. After the limited release of their independently released debut album, World of Noise, the band found success with their first three albums on Capitol Records: Sparkle and Fade, So Much for the Afterglow, and Songs from an American Movie Vol. One: Learning How to Smile, which were all certified platinum in sales. However, the following two albums Songs from an American Movie Vol. Two: Good Time for a Bad Attitude and Slow Motion Daydream, were not as well received, and as sales suffered, Montoya and Eklund left the band shortly after in 2003. After a brief stint of solo performances, Alexakis decided to push forward with the Everclear name, finding new musicians to perform with and releasing two more albums, Welcome to the Drama Club and Invisible Stars. In 2012, Alexakis started a 1990s nostalgia tour, named the Summerland Tour, which occurs every summer with Everclear and other 1990s alternative rock bands. In April 2015, the band released a ninth studio album, entitled Black is the New Black."}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Disturbed_(band)', 'artist_name': 'Disturbed', 'wiki': 'http://en.wikipedia.org/wiki/Disturbed_(band)', 'hometown': 'http://dbpedia.org/resource/Chicago', 'start_year': '1994', 'end_year': '2011', 'labels': ['http://dbpedia.org/resource/Giant_Records_(Warner)', 'http://dbpedia.org/resource/Reprise_Records', 'http://dbpedia.org/resource/Warner_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music', 'http://dbpedia.org/resource/Nu_metal', 'Heavy metal'], 'actual_members': ['http://dbpedia.org/resource/Dan_Donegan', 'http://dbpedia.org/resource/David_Draiman', 'http://dbpedia.org/resource/John_Moyer', 'http://dbpedia.org/resource/Mike_Wengren'], 'old_members': ['Erich Awalt', 'Steve Kmak'], 'related_artists': ['http://dbpedia.org/resource/Dan_Donegan', 'http://dbpedia.org/resource/David_Draiman', 'http://dbpedia.org/resource/Fight_or_Flight_(band)', 'http://dbpedia.org/resource/Heaven_Below', 'http://dbpedia.org/resource/John_Moyer__John_Moyer__1', 'http://dbpedia.org/resource/Kevin_Churko', "http://dbpedia.org/resource/Marty_O'Brien", 'http://dbpedia.org/resource/Mike_Wengren', 'http://dbpedia.org/resource/Neal_Avron', 'http://dbpedia.org/resource/The_Union_Underground'], 'abstract': 'Disturbed is an American heavy metal band from Chicago, formed in 1994. The band includes vocalist David Draiman, guitarist/keyboardist Dan Donegan, bassist John Moyer and drummer Mike Wengren. Donegan and Wengren have been involved in the band since its inception, with Moyer replacing former bassist Steve "Fuzz" Kmak and Draiman replacing original lead vocalist Erich Awalt. The band has released seven studio albums, five of which have consecutively debuted at number one on the Billboard 200. Disturbed went into hiatus in October 2011, during which the band\'s members focused on various side projects, and returned in June 2015, releasing their first album in four years, Immortalized in August 2015. They also released two live albums, Music as a Weapon II in February 2004 and Disturbed: Live at Red Rocks in November 2016. Disturbed has sold over 17 million records worldwide, making them one of the most successful rock bands in the modern era alongside Slipknot and Godsmack, among others.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Ryan_Paris', 'artist_name': 'Ryan Paris', 'wiki': 'http://en.wikipedia.org/wiki/Ryan_Paris', 'birth_date': '12 March 1953', 'start_year': '1983', 'abstract': 'Fabio Roscioli (born 12 March 1953), known by his stage name Ryan Paris, is an Italian singer, songwriter, musician and actor who gained international popularity in 1983 for the worldwide hit single "Dolce Vita", written and produced by Pierluigi Giombini. "Dolce Vita" was released in the United Kingdom on the Carrere Records label, distributed by RCA and spent ten weeks in the UK Singles Chart, peaking at Number 5. The record peaked at Number 1 in France, Belgium, Netherlands, Denmark, Norway, Spain and peaked at Number 3 in Germany. Ryan Paris continued to release records in the mid-1980s and 1990s. In 2010 he made a comeback with a new song, "I Wanna Love You Once Again", which he wrote and composed, with production by Eddy Mi Ami. At the end of that year, Paris co-produced a remix of "Dolce Vita" which peaked at number 54 in the official French club chart. In 2013, the song "Sensation of Love", written and produced by Paris, was released as a single by Bulgarian artist Miroslav Kostadinov, peaking at number 15 in the official Bulgarian CD chart. A new version of the song, with a more 1980s vibe, co-produced by Paris together with Eddy Mi Ami and sung in a duet with Valerie Flor, was released in March 2014. Paris continues to record and produce songs; his most recent releases include the songs "You Are My Life", "Buonasera Dolce Vita" and "Love on Ice". In December 2017, Paris sang "Dolce Vita" in the Catalan language for the Fundació la Marato. This version was produced by Jordi Cubino (David Lyme) and was recorded as a charity single for the benefit of the foundation, with the proceeds being utilised for the study of several human illnesses.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Kasabian', 'artist_name': 'Kasabian', 'wiki': 'http://en.wikipedia.org/wiki/Kasabian', 'hometown': 'http://dbpedia.org/resource/Leicester', 'start_year': '1997', 'aliases': ['Saracuse'], 'labels': ['http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/RCA_Records', 'http://dbpedia.org/resource/Sony_Music'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Electronic_rock', 'http://dbpedia.org/resource/Electronica', 'http://dbpedia.org/resource/Indie_rock', 'http://dbpedia.org/resource/Space_rock'], 'actual_members': ['http://dbpedia.org/resource/Ian_Matthews_(drummer)', 'http://dbpedia.org/resource/Serge_Pizzorno', 'Tim Carter', 'Chris Edwards', 'Sergio Pizzorno'], 'old_members': ['http://dbpedia.org/resource/Tom_Meighan', 'Chris Karloff'], 'related_artists': ['http://dbpedia.org/resource/Beady_Eye', 'http://dbpedia.org/resource/Ian_Matthews_(drummer)', 'http://dbpedia.org/resource/Jay_Mehler', 'http://dbpedia.org/resource/Jim_Abbiss', 'http://dbpedia.org/resource/Loose_Tapestries', 'http://dbpedia.org/resource/Nika_Boon', 'http://dbpedia.org/resource/Noel_Fielding', 'http://dbpedia.org/resource/Oasis_(band)', 'http://dbpedia.org/resource/Serge_Pizzorno', 'http://dbpedia.org/resource/Stuart_Price__Stuart_Price__1', 'http://dbpedia.org/resource/The_S.L.P.', 'http://dbpedia.org/resource/Tom_Meighan'], 'abstract': 'Kasabian (/kəˈseɪbiən/ kə-SAY-bee-ən) are an English rock band formed in Leicester in 1997 by Tom Meighan, Sergio Pizzorno, Chris Karloff, and Chris Edwards. Drummer Ian Matthews joined in 2004. Karloff left the band in 2006 and founded a new band called Black Onassis. Jay Mehler joined as touring lead guitarist in 2006, leaving for Liam Gallagher\'s Beady Eye in 2013, to be replaced by Tim Carter. Meighan left the band in July 2020. In 2010 and 2014, Kasabian won the Q Awards for "Best Act in the World Today", while they were also named "Best Live Act" at the 2014 Q Awards and the 2007 and 2018 NME Awards. The band\'s music is often described as "indie rock", but Pizzorno has said he "hates indie bands" and does not feel Kasabian fit into that category. Kasabian have released six studio albums – Kasabian (2004), Empire (2006), West Ryder Pauper Lunatic Asylum (2009), Velociraptor! (2011), 48:13 (2014), and For Crying Out Loud (2017). The band\'s music has been described as a mix between The Stone Roses and Primal Scream with the swagger of Oasis. Their music has won them several awards and recognition in the media, including a Brit Award in 2010 for Best British Group, and their live performances have received praise, the most notable of which was their appearance as headliners at the 2014 Glastonbury Festival.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/EMF_(band)', 'artist_name': 'EMF', 'wiki': 'http://en.wikipedia.org/wiki/EMF_(band)', 'hometown': 'http://dbpedia.org/resource/Cinderford', 'start_year': '1989', 'labels': ['http://dbpedia.org/resource/Parlophone'], 'genres': ['http://dbpedia.org/resource/Alternative_dance', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Baggy'], 'actual_members': ['http://dbpedia.org/resource/Ian_Dench', 'Derry Brownson', 'Mark Decloedt', 'Stevey Marsh', 'Jack Stephens', 'DJ Milf', 'James Atkin'], 'old_members': ['Zac Foley'], 'related_artists': ['http://dbpedia.org/resource/Grand_Theft_Audio', 'http://dbpedia.org/resource/Ian_Dench', 'http://dbpedia.org/resource/Pascal_Gabriel'], 'abstract': 'EMF are a British alternative rock band from Cinderford, Gloucestershire, who came to prominence at the beginning of the 1990s. During their initial eight-year run, from 1989 to 1997, the band released three studio albums before a hiatus. Their first single, "Unbelievable", reached number 3 on the UK Singles Chart, and was a number 1 hit on the US Billboard Hot 100 chart. Their debut album, Schubert Dip, went to number 3 on the UK Albums Chart. The band have split up and re-formed three times.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Gerard_Presencer', 'artist_name': 'Gerard Presencer', 'wiki': 'http://en.wikipedia.org/wiki/Gerard_Presencer', 'birth_date': '12 September 1972', 'start_year': '1987', 'genres': ['http://dbpedia.org/resource/Contemporary_classical_music', 'http://dbpedia.org/resource/Jazz'], 'abstract': 'Gerard Presencer (born 12 September 1972) is an English jazz trumpeter.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Halsey_(singer)', 'artist_name': 'Halsey', 'wiki': 'http://en.wikipedia.org/wiki/Halsey_(singer)', 'birth_date': '29 September 1994', 'start_year': '2012', 'related_artists': ['http://dbpedia.org/resource/Aron_Forbes', 'http://dbpedia.org/resource/Atticus_Ross', 'http://dbpedia.org/resource/Benny_Blanco', 'http://dbpedia.org/resource/Cashmere_Cat', 'http://dbpedia.org/resource/Charlie_Hugall', 'http://dbpedia.org/resource/Dominic_Fike', 'http://dbpedia.org/resource/G-Eazy', 'http://dbpedia.org/resource/Gian_Stone', 'http://dbpedia.org/resource/Greg_Kurstin', 'http://dbpedia.org/resource/Lani_Renaldo', 'http://dbpedia.org/resource/Lost_Kings', 'http://dbpedia.org/resource/Louis_Bell', 'http://dbpedia.org/resource/Matt_Schwartz', 'http://dbpedia.org/resource/Young_Rising_Sons', 'http://dbpedia.org/resource/Yungblud'], 'abstract': 'Ashley Nicolette Frangipane (/ˌfrændʒɪˈpɑːni/; born September 29, 1994), known professionally as Halsey (IPA: /ˈhɔːlzi/, /ˈhɑːlzi/), is an American singer and songwriter. Gaining attention from self-released music on social media platforms, she was signed by Astralwerks in 2014 and released her debut EP, Room 93, later that year. Halsey released her debut studio album, Badlands, in 2015. It was certified Double Platinum by the Recording Industry Association of America (RIAA), as were its tracks "Colors" and "Gasoline". In 2016, she was featured on the Chainsmokers\' single "Closer", which topped the charts in over 10 countries. Her second studio album, Hopeless Fountain Kingdom (2017), consisted of more "radio-friendly" music than her previous releases; its singles "Now or Never" and "Bad at Love" reached the top 20 of the Billboard Hot 100, with the latter peaking in the top five. Halsey\'s third studio album, Manic (2020), became her best selling album worldwide, while its lead single "Without Me" became her most successful single as a lead artist. Her fourth studio album, If I Can\'t Have Love, I Want Power (2021), moved away from her previous sound in favor of a darker industrial sound; described by Halsey as "the album [she] always wanted to make", it was produced by Nine Inch Nails members Trent Reznor and Atticus Ross and received generally positive reviews. In 2020, Billboard reported that Halsey has sold over 1 million albums and received over 6 billion streams in the United States. She is noted for her distinctive singing voice. Her awards and nominations include four Billboard Music Awards, one American Music Award, one GLAAD Media Award, an MTV Video Music Award, two Grammy Awards, and being named Songwriter of the year by BMI Film &amp; TV Awards in 2021. She was also included on Time magazine\'s annual list of the 100 most influential people in the world in 2020. Aside from music, she has been involved in suicide prevention awareness, sexual assault victim advocacy, and racial justice protests.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Pink_Floyd', 'artist_name': 'Pink Floyd', 'wiki': 'http://en.wikipedia.org/wiki/Pink_Floyd', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1964', 'end_year': '1995', 'aliases': ['Sigma 6', 'The Pink Floyd Sound', 'The Tea Set'], 'labels': ['http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/Columbia_Graphophone_Company', 'http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/EMI_Records', 'http://dbpedia.org/resource/Harvest_Records', 'http://dbpedia.org/resource/Parlophone', 'http://dbpedia.org/resource/Sony_Music', 'http://dbpedia.org/resource/Tower_Records_(record_label)'], 'plays_in': ['http://dbpedia.org/resource/Crystal_Voyager', 'http://dbpedia.org/resource/Delicate_Sound_of_Thunder_(film)', 'http://dbpedia.org/resource/La_Carrera_Panamericana', 'http://dbpedia.org/resource/La_Vallée_(film)', 'http://dbpedia.org/resource/More_(1969_film)', 'http://dbpedia.org/resource/Pink_Floyd:_Live_at_Pompeii', 'http://dbpedia.org/resource/Pulse_(1995_film)', 'http://dbpedia.org/resource/The_Committee_(film)', 'http://dbpedia.org/resource/The_Story_of_Wish_You_Were_Here', 'http://dbpedia.org/resource/Zabriskie_Point_(film)'], 'genres': ['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Experimental_rock', 'http://dbpedia.org/resource/Progressive_rock', 'http://dbpedia.org/resource/Psychedelic_music', 'http://dbpedia.org/resource/Space_rock', 'psychedelia'], 'old_members': ['http://dbpedia.org/resource/Bob_Klose', 'http://dbpedia.org/resource/Nick_Mason', 'http://dbpedia.org/resource/Richard_Wright_(musician)', 'Roger Waters', 'Syd Barrett', 'David Gilmour'], 'related_artists': ['http://dbpedia.org/resource/Andy_Roberts_(musician)', 'http://dbpedia.org/resource/Bobbye_Hall', 'http://dbpedia.org/resource/Nick_Mason', 'http://dbpedia.org/resource/Ron_Geesin', 'http://dbpedia.org/resource/Venetta_Fields'], 'abstract': 'Pink Floyd were an English rock band formed in London in 1964. Gaining an early following as one of the first British psychedelic groups, they were distinguished for their extended compositions, sonic experimentation, philosophical lyrics and elaborate live shows. They became a leading band of the progressive rock genre, cited by some as the greatest progressive rock band of all time. Pink Floyd were founded in 1964 by Syd Barrett (guitar, lead vocals), Nick Mason (drums), Roger Waters (bass guitar, vocals), Richard Wright (keyboards, vocals) and Bob Klose (guitars); Klose quit in 1965. Under Barrett\'s leadership, they released two charting singles and the successful debut album The Piper at the Gates of Dawn (1967). Guitarist and vocalist David Gilmour joined in December 1967; Barrett left in April 1968 due to deteriorating mental health. Waters became the primary lyricist and thematic leader, devising the concepts behind the band\'s peak success with the albums The Dark Side of the Moon (1973), Wish You Were Here (1975), Animals (1977) and The Wall (1979). The musical film based on The Wall, Pink Floyd – The Wall (1982), won two BAFTA Awards. Following personal tensions, Wright left Pink Floyd in 1979, followed by Waters in 1985. Gilmour and Mason continued as Pink Floyd, rejoined later by Wright. The band produced two more albums—A Momentary Lapse of Reason (1987) and The Division Bell (1994)—and toured in support of both albums before entering a long period of inactivity. In 2005, all but Barrett reunited for a one-off performance at the global awareness event Live 8. Barrett died in 2006, and Wright in 2008. The last Pink Floyd studio album, The Endless River (2014), was based on unreleased material from the Division Bell recording sessions. By 2013, Pink Floyd had sold more than 250 million records worldwide, making them one of the best-selling music artists of all time. Wish You Were Here, The Dark Side of the Moon, and The Wall are among the best-selling albums of all time, and the latter two have been inducted into the Grammy Hall of Fame. Four of the band\'s albums topped the US Billboard 200, and five of their albums topped the UK Album Chart. Hit singles include "See Emily Play" (1967), "Money" (1973), "Another Brick in the Wall, Part 2" (1979), "Not Now John" (1983), "On the Turning Away" (1987) and "High Hopes" (1994). The band also composed several film scores. They were inducted into the US Rock and Roll Hall of Fame in 1996 and the UK Music Hall of Fame in 2005. In 2008, King Carl XVI Gustaf of Sweden presented Pink Floyd with the Polar Music Prize for their contribution to modern music.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Nayer', 'artist_name': 'Nayer', 'wiki': 'http://en.wikipedia.org/wiki/Nayer', 'start_year': '2002', 'labels': ['http://dbpedia.org/resource/Independent_music'], 'genres': ['http://dbpedia.org/resource/Dance_music', 'http://dbpedia.org/resource/Latin_pop'], 'related_artists': ['http://dbpedia.org/resource/Afrojack', 'http://dbpedia.org/resource/Jean-Roch', 'http://dbpedia.org/resource/Melissa_(singer)', 'http://dbpedia.org/resource/Pitbull_(rapper)'], 'abstract': 'Nayer Regalado known as Nayer, is a Latin-American singer and songwriter. She gained recognition in 2011 after being featured on Pitbull\'s hit single "Give Me Everything", produced by Afrojack, and releasing her single "Suave (Kiss Me)" featuring Pitbull and Swedish-Congolese singer-songwriter Mohombi which was a success in Europe and the Middle East. Her other known collaborations include songs with Ne-Yo, Enrique Iglesias, Lil Wayne, Usher, Fonseca, Juan Magan, Yomil (of the Cuban duo Yomil y el Dany), Jean-Roch and Melissa.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Sam_Smith_(painter)', 'artist_name': 'Sam Smith', 'wiki': 'http://en.wikipedia.org/wiki/Sam_Smith_(painter)', 'birth_date': '11 February 1918', 'death_date': '23 May 1999', 'abstract': 'Samuel David Smith (born Thorndale, Texas on February 11, 1918 — May 23, 1999) was an American artist.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Ohio_Players', 'artist_name': 'Ohio Players', 'wiki': 'http://en.wikipedia.org/wiki/Ohio_Players', 'hometown': 'http://dbpedia.org/resource/Ohio', 'start_year': '1959', 'aliases': ['The Ohio Untouchables'], 'labels': ['http://dbpedia.org/resource/Arista_Records', 'http://dbpedia.org/resource/Boardwalk_Records', 'http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/Westbound_Records'], 'genres': ['http://dbpedia.org/resource/Funk', 'http://dbpedia.org/resource/Progressive_soul'], 'old_members': ['http://dbpedia.org/resource/Dutch_Robinson', 'http://dbpedia.org/resource/Leroy_%22Sugarfoot%22_Bonner', 'http://dbpedia.org/resource/Marshall_%22Rock%22_Jones', 'http://dbpedia.org/resource/Robert_Ward_(blues_musician)', 'http://dbpedia.org/resource/Walter_%22Junie%22_Morrison', 'Clarence "Chet" Willis', 'Shaun "Shaunie Mac" Dedrick', 'Greg Webster', 'Dean Simms', 'Marvin "Merv" Pierce', 'William "Billy" Beck', 'Paul Machowsky', 'Michael "Slyde" Jennings', 'Cornelius Johnson', 'Jimmy Sampson', 'Ronald "Nooky" Nooks', 'Odeen "Deeno" Mays', 'Ralph "Pee Wee" Middlebrooks', 'Wes Boatman', 'Bruce Napier', 'Ronnie "Diamond" Hoard', 'Bobby Lee Fears', 'Andrew Noland', 'Charles Dale Allen', 'Vincent Thomas', 'Robert "Kuumba" Jones', 'Clarence "Satch" Satchell', 'James "Diamond" Williams'], 'related_artists': ['http://dbpedia.org/resource/Faze-O', 'http://dbpedia.org/resource/Leroy_%22Sugarfoot%22_Bonner', 'http://dbpedia.org/resource/Marshall_%22Rock%22_Jones', 'http://dbpedia.org/resource/Shadow_(group)', 'http://dbpedia.org/resource/Walter_%22Junie%22_Morrison'], 'abstract': 'Ohio Players is an American funk band, most popular in the 1970s. They are best known for their songs "Fire" and "Love Rollercoaster"; as well as for their erotic album covers that featured nude or nearly nude women. Many of the women were models featured in Playboy. The singles "Funky Worm", "Skin Tight", "Fire", and "Love Rollercoaster"; as well as their albums Skin Tight, Fire, and Honey, were awarded Gold certifications. On August 17, 2013, Ohio Players were inducted into the inaugural class of the Rhythm and Blues Music Hall of Fame that took place at Cleveland State University in Cleveland, Ohio.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Donna_Summer', 'artist_name': 'Donna Summer', 'wiki': 'http://en.wikipedia.org/wiki/Donna_Summer', 'birth_date': '31 December 1948', 'death_date': '17 May 2012', 'start_year': '1968', 'end_year': '2012', 'aliases': ['Donna Gaines', 'Gayn Pierre', 'The First Lady of Love', 'The Queen of Disco'], 'labels': ['http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Burgundy_Records', 'http://dbpedia.org/resource/Casablanca_Records', 'http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Geffen_Records', 'http://dbpedia.org/resource/Giorgio_Moroder', 'http://dbpedia.org/resource/Island_Records', 'http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/United_Artists_Records', 'http://dbpedia.org/resource/Warner_Music_Group'], 'plays_in': ['http://dbpedia.org/resource/Picture_Perfect_(1997_film)'], 'genres': ['http://dbpedia.org/resource/Contemporary_R&amp;B', 'http://dbpedia.org/resource/Dance_music', 'http://dbpedia.org/resource/Disco', 'http://dbpedia.org/resource/Eurodisco', 'http://dbpedia.org/resource/Hi-NRG', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Post-disco'], 'related_artists': ['http://dbpedia.org/resource/Barbara_Ingram', 'http://dbpedia.org/resource/Barbra_Streisand', 'http://dbpedia.org/resource/Bob_Conti', 'http://dbpedia.org/resource/Brenda_Russell', 'http://dbpedia.org/resource/Brooklyn_Dreams_(group)', 'http://dbpedia.org/resource/Bruce_Roberts_(singer)', 'http://dbpedia.org/resource/Bruce_Springsteen', 'http://dbpedia.org/resource/Bruce_Sudano', 'http://dbpedia.org/resource/Carlena_Williams', 'http://dbpedia.org/resource/Chaka_Khan', 'http://dbpedia.org/resource/Darwin_Hobbs', 'http://dbpedia.org/resource/David_Batteau', 'http://dbpedia.org/resource/David_Foster', 'http://dbpedia.org/resource/Gary_Miller_(music_producer)', 'http://dbpedia.org/resource/Giorgio_Moroder', 'http://dbpedia.org/resource/Graham_Stack_(record_producer)', 'http://dbpedia.org/resource/Harold_Faltermeyer', 'http://dbpedia.org/resource/Joe_Esposito_(singer)', 'http://dbpedia.org/resource/Johnnyswim', 'http://dbpedia.org/resource/Kygo', 'http://dbpedia.org/resource/Liza_Minnelli', 'http://dbpedia.org/resource/Matthew_Ward_(singer)', 'http://dbpedia.org/resource/Michael_Omartian', 'http://dbpedia.org/resource/Mickey_Thomas_(singer)', 'http://dbpedia.org/resource/Mike_Stock_(musician)', 'http://dbpedia.org/resource/Musical_Youth', 'http://dbpedia.org/resource/Omega_Red_(rapper)', 'http://dbpedia.org/resource/Paul_Jabara', 'http://dbpedia.org/resource/Pete_Bellotte', 'http://dbpedia.org/resource/Quincy_Jones', 'http://dbpedia.org/resource/Rosabel', 'http://dbpedia.org/resource/Stock_Aitken_Waterman', 'http://dbpedia.org/resource/Westlife', 'http://dbpedia.org/resource/Ziggy_Marley'], 'abstract': 'LaDonna Adrian Gaines (December 31, 1948 – May 17, 2012), known professionally as Donna Summer, was an American singer, songwriter, and actress. She gained prominence during the disco era of the 1970s and became known as the "Queen of Disco", while her music gained a global following. Influenced by the counterculture of the 1960s, Summer became the lead singer of a psychedelic rock band named Crow and moved to New York City. In 1968 she joined a German adaptation of the musical Hair in Munich, where she spent several years living, acting, and singing. There, she met music producers Giorgio Moroder and Pete Bellotte, and they went on to record influential disco hits together such as "Love to Love You Baby" and "I Feel Love", marking Summer\'s breakthrough into international music markets. Summer returned to the United States in 1976, and more hits such as "Last Dance", her version of "MacArthur Park", "Heaven Knows", "Hot Stuff", "Bad Girls", "Dim All the Lights", "No More Tears (Enough Is Enough)" with Barbra Streisand, and "On the Radio" followed. Summer earned a total of 42 hit singles on the US Billboard Hot 100 in her lifetime, with 14 of those reaching the top ten. She claimed a top-40 hit every year between 1975 and 1984, and from her first top-ten hit in 1976, to the end of 1982, she had 12 top-ten hits (10 were top-five hits), more than any other act during that time period. She returned to the Hot 100\'s top five in 1983, and claimed her final top-ten hit in 1989 with "This Time I Know It\'s for Real". She was the first artist to have three consecutive double albums reach the top of the US Billboard 200 chart and charted four number-one singles in the US within a 12-month period. She also charted two number-one singles on the R&amp;B Singles chart in the US and a number-one single in the United Kingdom. Her most recent Hot 100 hit came in 1999 with "I Will Go with You (Con te partirò)". While her fortunes on the Hot 100 waned in subsequent decades, Summer remained a force on the Billboard Dance Club Songs chart throughout her entire career. Summer died on May 17, 2012, from lung cancer, at her home in Naples, Florida. She sold over 100 million records worldwide, making her one of the best-selling music artists of all time. She won five Grammy Awards. In her obituary in The Times, she was described as the "undisputed queen of the Seventies disco boom" who reached the status of "one of the world\'s leading female singers." Moroder described Summer\'s work on the song "I Feel Love" as "really the start of electronic dance" music. In 2013, Summer was inducted into the Rock and Roll Hall of Fame. In December 2016, Billboard ranked her sixth on its list of the "Greatest of All Time Top Dance Club Artists".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Kaiser_Chiefs', 'artist_name': 'Kaiser Chiefs', 'wiki': 'http://en.wikipedia.org/wiki/Kaiser_Chiefs', 'hometown': 'http://dbpedia.org/resource/Leeds', 'start_year': '2000', 'labels': ['http://dbpedia.org/resource/ATO_Records', 'http://dbpedia.org/resource/B-Unique_Records', 'http://dbpedia.org/resource/Drowned_in_Sound', 'http://dbpedia.org/resource/Fiction_Records', 'http://dbpedia.org/resource/Liberation_Music', 'http://dbpedia.org/resource/Polydor_Records', 'http://dbpedia.org/resource/Universal_Music_Group', 'http://dbpedia.org/resource/Virgin_Music_Label_&amp;_Artist_Services'], 'genres': ['http://dbpedia.org/resource/Britpop', 'http://dbpedia.org/resource/Indie_rock', 'http://dbpedia.org/resource/Power_pop'], 'actual_members': ['http://dbpedia.org/resource/Andrew_White_(musician)', 'http://dbpedia.org/resource/Kaiser_Chiefs', 'http://dbpedia.org/resource/Ricky_Wilson_(singer)', 'Nick Baines', 'Vijay Mistry', 'Simon Rix'], 'old_members': ['http://dbpedia.org/resource/Nick_Hodgson'], 'related_artists': ['http://dbpedia.org/resource/Andrew_White_(musician)', 'http://dbpedia.org/resource/Cenzo_Townshend', 'http://dbpedia.org/resource/Charlie_Hugall', 'http://dbpedia.org/resource/Culprit_1', 'http://dbpedia.org/resource/Nick_Hodgson', 'http://dbpedia.org/resource/Ricky_Wilson_(singer)', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Tony_Visconti'], 'abstract': 'Kaiser Chiefs are an English indie rock band from Leeds who formed in 2000 as Parva, releasing one studio album, 22, in 2003, before renaming and establishing themselves in their current name that same year. Since their formation the band has consisted of lead vocalist Charles Richard Wilson, guitarist Andrew "Whitey" White, bassist Simon Rix, keyboardist Nick "Peanut" Baines and since 2013 drummer Vijay Mistry, who replaced founding drummer Nick Hodgson following his departure from the band in late 2012. Primarily inspired by new wave and punk rock music of the late 1970s and 1980s, the band have released seven original studio albums: Employment (2005), Yours Truly, Angry Mob (2007), Off with Their Heads (2008), The Future Is Medieval (2011), Education, Education, Education &amp; War (2014), Stay Together (2016), and Duck (2019), one EP: Lap of Honour (2005), one compilation album: Souvenir: The Singles 2004–2012 (2012) and numerous singles, including the number one hit song "Ruby". Their album Employment enjoyed critical and commercial success with over three million copies sold. It has won the band three Brit Awards, including the award for Best British Group, a NME award for Best Album, and was shortlisted for the Mercury Prize. Their UK hit singles include 2004 and 2005 number 9 hit "I Predict a Riot", 2007 UK number 1 hit "Ruby", which has sold over 461,000 copies, from their platinum album Yours Truly, Angry Mob plus a further two Top 20 singles in 2007 with "The Angry Mob" and "Everything Is Average Nowadays". Their singles "Ruby", "I Predict a Riot", "Everyday I Love You Less and Less", "Never Miss a Beat" and "Oh My God" had sold a combined total of 1.1 million up to August 2012.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Magic!', 'artist_name': 'Magic!', 'wiki': 'http://en.wikipedia.org/wiki/Magic!', 'hometown': 'http://dbpedia.org/resource/Ontario', 'start_year': '2012', 'labels': ['http://dbpedia.org/resource/RCA_Records', 'http://dbpedia.org/resource/Sony_Music'], 'genres': ['http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Reggae_fusion', 'http://dbpedia.org/resource/Reggae_rock'], 'actual_members': ['http://dbpedia.org/resource/Alex_Tanas', 'http://dbpedia.org/resource/Ben_Spivak', 'http://dbpedia.org/resource/Mark_%22Pelli%22_Pellizzer', 'http://dbpedia.org/resource/Nasri_(musician)', 'Mark "Pelli" Pellizzer'], 'related_artists': ['http://dbpedia.org/resource/Adam_Messinger', 'http://dbpedia.org/resource/Nasri_(musician)', 'http://dbpedia.org/resource/The_Messengers_(producers)'], 'abstract': 'Magic! is a Canadian reggae fusion band based in Toronto, Ontario. The band is composed of lead vocalist, guitarist and producer Nasri Atweh (Nasri), guitarist and keyboardist Mark "Pelli" Pellizzer, bassist Ben Spivak, and drummer Alex Tanas. Active since 2012, the band is signed with Latium, Sony, and RCA Records, releasing their debut studio album Don\'t Kill the Magic in 2014, their second studio album Primary Colours in 2016, and their third studio album Expectations in 2018. They are best known for their hit single "Rude", which charted at No. 1 in several countries worldwide, including the US and UK. The band is heavily inspired by the Police and Bob Marley and the Wailers. They are known for having a signature reggae-influenced pop sound.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Owl_City', 'artist_name': 'Owl City', 'wiki': 'http://en.wikipedia.org/wiki/Owl_City', 'hometown': 'http://dbpedia.org/resource/Owatonna,_Minnesota', 'birth_date': '05 July 1986', 'start_year': '2007', 'labels': ['http://dbpedia.org/resource/Republic_Records'], 'genres': ['http://dbpedia.org/resource/Christian_electronic_dance_music', 'http://dbpedia.org/resource/Contemporary_Christian_music', 'http://dbpedia.org/resource/Electronica', 'http://dbpedia.org/resource/Indie_rock', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Synth-pop', 'pop', 'CCM', 'CEDM', 'indietronica'], 'actual_members': ['Adam Young'], 'related_artists': ['http://dbpedia.org/resource/Breanne_Düren', 'http://dbpedia.org/resource/Keith_Kenniff', 'http://dbpedia.org/resource/Lights_(musician)', 'http://dbpedia.org/resource/Matt_Thiessen', 'http://dbpedia.org/resource/Sekai_no_Owari', 'http://dbpedia.org/resource/Swimming_With_Dolphins_(band)', 'http://dbpedia.org/resource/Windsor_Airlift'], 'abstract': 'Owl City is an American electronic music project created in 2007 in Owatonna, Minnesota; it is one of several projects by singer, songwriter and multi-instrumentalist Adam Young. Young created the project while experimenting with music in his parents\' basement. Owl City developed a following on the social networking site MySpace, like many musicians who achieved success in the late 2000s, before signing with Universal Republic Records, now Republic Records, in 2008. After two independent releases, Owl City gained mainstream popularity with the 2009 major label debut album Ocean Eyes, which includes the six-time Platinum single "Fireflies". The album was certified Platinum in the United States in April 2010. In June 2011, Owl City released its third studio album, All Things Bright and Beautiful, which was followed by The Midsummer Station in August 2012. Owl City has recorded songs for several animated films, including Legend of the Guardians: The Owls of Ga\'Hoole, Wreck-It Ralph, The Croods and The Smurfs 2. Owl City also has released several charting singles, most notably "Good Time" and "Fireflies".'}</t>
   </si>
   <si>
     <t>{'place_name': 'London', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/London', 'place': 'http://sws.geonames.org/2643743/', 'geo_link': 'http://www.geonames.org/2643743/london.html', 'lat': '51.507222222222225', 'long': '-0.1275', 'population': '7556900'}</t>
   </si>
   <si>
+    <t>{'place_name': 'Riverside, California', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%A0%D0%B8%D0%B2%D0%B5%D1%80%D1%81%D0%B0%D0%B9%D0%B4_%28%D0%9A%D0%B0%D0%BB%D0%B8%D1%84%D0%BE%D1%80%D0%BD%D0%B8%D1%8F%29', 'place': 'http://sws.geonames.org/5387877/', 'postal_code': '92501', 'geo_link': 'http://www.geonames.org/5387877/riverside.html', 'lat': '33.948055555555555', 'long': '-117.39611111111111', 'population': '303871'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Victoria (Australia)', 'country_code': 'AU', 'wiki': 'http://en.wikipedia.org/wiki/Victoria_(Australia)', 'place': 'http://sws.geonames.org/2145234/', 'geo_link': 'http://www.geonames.org/2145234/state-of-victoria.html', 'lat': '37.0', 'long': '145', 'population': '5354042'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'New York City', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/New_York_City', 'place': 'http://sws.geonames.org/5128581/', 'postal_code': '10041', 'geo_link': 'http://www.geonames.org/5128581/new-york-city.html', 'lat': '40.7127', 'long': '-74.0059', 'population': '8175133'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Bremen', 'country_code': 'DE', 'wiki': 'http://en.wikipedia.org/wiki/Bremen', 'place': 'http://sws.geonames.org/3220905/', 'geo_link': 'http://www.geonames.org/2944388/bremen.html', 'lat': '53.083333333333336', 'long': '8.8', 'population': '546501'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Decatur, Georgia', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Decatur%2C_Georgia', 'place': 'http://sws.geonames.org/4191124/', 'postal_code': '30032', 'geo_link': 'http://www.geonames.org/4191124/decatur.html', 'lat': '33.771388888888886', 'long': '-84.29777777777778', 'population': '19335'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Ajax, Ontario', 'country_code': 'CA', 'wiki': 'http://en.wikipedia.org/wiki/Ajax%2C_Ontario', 'place': 'http://sws.geonames.org/5882873/', 'geo_link': 'http://www.geonames.org/5882873/ajax.html', 'lat': '43.858333333333334', 'long': '-79.0363888888889', 'population': '90167'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Agoura Hills, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Agoura_Hills%2C_California', 'place': 'http://sws.geonames.org/5322553/', 'postal_code': '91301', 'geo_link': 'http://www.geonames.org/5322553/agoura-hills.html', 'lat': '34.153333333333336', 'long': '-118.76166666666667', 'population': '20330'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'La Crescenta-Montrose, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/La_Crescenta-Montrose%2C_California', 'place': 'http://sws.geonames.org/7261553/', 'geo_link': 'http://www.geonames.org/7261553/la-crescenta-montrose.html', 'lat': '34.225', 'long': '-118.23694444444445', 'population': '19653'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Cologne', 'country_code': 'DE', 'wiki': 'http://en.wikipedia.org/wiki/Cologne', 'place': 'http://sws.geonames.org/6553049/', 'geo_link': 'http://www.geonames.org/6553049/koeln.html', 'lat': '50.93638888888889', 'long': '6.9527777777777775', 'population': '1024373'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Topeka, Kansas', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Topeka%2C_Kansas', 'place': 'http://sws.geonames.org/4280517/', 'geo_link': 'http://www.geonames.org/4280517/township-of-topeka.html', 'lat': '39.05583333333333', 'long': '-95.68944444444445'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Minneapolis', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Minneapolis', 'place': 'http://sws.geonames.org/5037649/', 'postal_code': '55484', 'geo_link': 'http://www.geonames.org/5037649/minneapolis.html', 'lat': '44.983333333333334', 'long': '-93.26666666666667', 'population': '382578'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'San Jose, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/George_Miner_Elementary_School', 'place': 'http://sws.geonames.org/5392171/', 'postal_code': '95159', 'geo_link': 'http://www.geonames.org/5351939/george-miner-elementary-school.html', 'lat': '37.333333333333336', 'long': '-121.9', 'population': '945942'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/California', 'place': 'http://sws.geonames.org/5332921/', 'geo_link': 'http://www.geonames.org/5332921/california.html', 'lat': '35.458606', 'long': '-119.355165', 'population': '37691912'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Glendale, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Glendale%2C_California', 'place': 'http://sws.geonames.org/5352423/', 'postal_code': '91208', 'geo_link': 'http://www.geonames.org/5352423/glendale.html', 'lat': '34.14611111111111', 'long': '-118.255', 'population': '191719'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Massachusetts', 'place': 'http://sws.geonames.org/6254926/', 'geo_link': 'http://www.geonames.org/6254926/massachusetts.html', 'lat': '42.36565', 'long': '-71.10832', 'population': '6433422'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Seattle', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Seattle', 'place': 'http://sws.geonames.org/5809844/', 'postal_code': '98166', 'geo_link': 'http://www.geonames.org/5809844/seattle.html', 'lat': '47.609722222222224', 'long': '-122.33305555555556', 'population': '608660'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Jönköping', 'country_code': 'SE', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%99%D1%91%D0%BD%D1%87%D1%91%D0%BF%D0%B8%D0%BD%D0%B3', 'place': 'http://sws.geonames.org/2702979/', 'geo_link': 'http://www.geonames.org/2702979/joenkoeping.html', 'lat': '57.78277777777778', 'long': '14.160555555555556', 'population': '83202'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Manitoba', 'country_code': 'CA', 'wiki': 'http://en.wikipedia.org/wiki/Manitoba', 'place': 'http://sws.geonames.org/6065171/', 'geo_link': 'http://www.geonames.org/6065171/manitoba.html', 'lat': '55.0', 'long': '-97.0', 'population': '1193566'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Stafford', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Stafford', 'place': 'http://sws.geonames.org/2637142/', 'geo_link': 'http://www.geonames.org/2637142/stafford.html', 'lat': '52.8066', 'long': '-2.1171', 'population': '65290'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Bath, Somerset', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Bath%2C_Somerset', 'place': 'http://sws.geonames.org/2656173/', 'geo_link': 'http://www.geonames.org/2656173/bath.html', 'lat': '51.38', 'long': '-2.36', 'population': '93238'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'United States', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/United_States', 'place': 'http://sws.geonames.org/6252001/', 'geo_link': 'http://www.geonames.org/6252001/united-states.html', 'lat': '40.0', 'long': '-100.0', 'population': '310232863'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'McLeansville, North Carolina', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/McLeansville%2C_North_Carolina', 'place': 'http://sws.geonames.org/4478715/', 'geo_link': 'http://www.geonames.org/4478715/mcleansville.html', 'lat': '36.10388888888889', 'long': '-79.66027777777778', 'population': '1021'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Seoul', 'country_code': 'KR', 'wiki': 'http://en.wikipedia.org/wiki/Seoul', 'place': 'http://sws.geonames.org/1835848/', 'geo_link': 'http://www.geonames.org/1835847/seoul.html', 'lat': '37.56666666666667', 'long': '127', 'population': '10349312'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Lawrenceville, Georgia', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Lawrenceville%2C_Georgia', 'place': 'http://sws.geonames.org/4205196/', 'postal_code': '30044', 'geo_link': 'http://www.geonames.org/4205196/lawrenceville.html', 'lat': '33.95305555555556', 'long': '-83.9925', 'population': '28546'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Dublin', 'country_code': 'IE', 'wiki': 'http://en.wikipedia.org/wiki/Dublin', 'place': 'http://sws.geonames.org/7778677/', 'geo_link': 'http://www.geonames.org/2964574/dublin.html', 'lat': '53.34777777777778', 'long': '-6.259722222222222', 'population': '1024027'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Los Angeles', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Los_Angeles', 'place': 'http://sws.geonames.org/5368361/', 'postal_code': '90001', 'geo_link': 'http://www.geonames.org/5368361/los-angeles.html', 'lat': '34.05', 'long': '-118.25', 'population': '3792621'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'San Francisco', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/San_Francisco', 'place': 'http://sws.geonames.org/5391997/', 'postal_code': '94118', 'geo_link': 'http://www.geonames.org/5391959/san-francisco.html', 'lat': '37.78333333333333', 'long': '-122.41666666666667', 'population': '805235'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Oxford', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Oxford', 'place': 'http://sws.geonames.org/7290621/', 'geo_link': 'http://www.geonames.org/7290621/oxford-district.html', 'lat': '51.75194444444445', 'long': '-1.2577777777777777'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Pulaski, Mississippi', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Pulaski%2C_Mississippi', 'place': 'http://sws.geonames.org/4442609/', 'postal_code': '39152', 'geo_link': 'http://www.geonames.org/4442609/pulaski.html', 'lat': '32.272222222222226', 'long': '-89.60222222222222'}</t>
+  </si>
+  <si>
     <t>{'place_name': 'Ontario', 'country_code': 'CA', 'wiki': 'http://en.wikipedia.org/wiki/Ontario', 'place': 'http://sws.geonames.org/6093943/', 'geo_link': 'http://www.geonames.org/6093943/ontario.html', 'lat': '50.0', 'long': '-85.0', 'population': '12861940'}</t>
   </si>
   <si>
-    <t>{'place_name': 'Padua', 'country_code': 'IT', 'wiki': 'http://en.wikipedia.org/wiki/Padua', 'place': 'http://sws.geonames.org/3171728/', 'geo_link': 'http://www.geonames.org/3171727/provincia-di-padova.html', 'lat': '45.416666666666664', 'long': '11.866666666666667', 'population': '921361'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/California', 'place': 'http://sws.geonames.org/5332921/', 'geo_link': 'http://www.geonames.org/5332921/california.html', 'lat': '35.458606', 'long': '-119.355165', 'population': '37691912'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Liverpool', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Liverpool', 'place': 'http://sws.geonames.org/3333167/', 'geo_link': 'http://www.geonames.org/2644210/liverpool.html', 'lat': '53.4', 'long': '-2.9833333333333334', 'population': '468945'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Merthyr Tydfil', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Merthyr_Tydfil', 'place': 'http://sws.geonames.org/2642705/', 'geo_link': 'http://www.geonames.org/2642705/merthyr-tydfil.html', 'lat': '51.743', 'long': '-3.378', 'population': '30821'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Lodi, New Jersey', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Lodi%2C_New_Jersey', 'place': 'http://sws.geonames.org/5100604/', 'postal_code': '07644', 'geo_link': 'http://www.geonames.org/5100604/lodi.html', 'lat': '40.877915', 'long': '-74.0825', 'population': '24136'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Buffalo, New York', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%91%D1%83%D1%84%D1%84%D0%B0%D0%BB%D0%BE', 'place': 'http://sws.geonames.org/5110629/', 'postal_code': '14202', 'geo_link': 'http://www.geonames.org/5110629/buffalo.html', 'lat': '42.90472222222222', 'long': '-78.84944444444444', 'population': '261310'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'San Diego', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/San_Diego', 'place': 'http://sws.geonames.org/5391811/', 'postal_code': '92140', 'geo_link': 'http://www.geonames.org/5391811/san-diego.html', 'lat': '32.715', 'long': '-117.1625', 'population': '1307402'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Birmingham', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Birmingham', 'place': 'http://sws.geonames.org/3333125/', 'geo_link': 'http://www.geonames.org/2655603/birmingham.html', 'lat': '52.48305555555555', 'long': '-1.8936111111111111', 'population': '984333'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Memphis, Tennessee', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%9C%D0%B5%D0%BC%D1%84%D0%B8%D1%81_%28%D0%A2%D0%B5%D0%BD%D0%BD%D0%B5%D1%81%D1%81%D0%B8%29', 'place': 'http://sws.geonames.org/4641239/', 'postal_code': '38173', 'geo_link': 'http://www.geonames.org/4641239/memphis.html', 'lat': '35.1175', 'long': '-89.97111111111111', 'population': '646889'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Glasgow', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Glasgow', 'place': 'http://sws.geonames.org/3333231/', 'geo_link': 'http://www.geonames.org/2648579/glasgow.html', 'lat': '55.858', 'long': '-4.259', 'population': '610268'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Sweden', 'country_code': 'SE', 'wiki': 'http://en.wikipedia.org/wiki/Sweden', 'place': 'http://sws.geonames.org/2661886/', 'geo_link': 'http://www.geonames.org/2661886/kingdom-of-sweden.html', 'lat': '62', 'long': '15', 'population': '9828655'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'New York City', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/New_York_City', 'place': 'http://sws.geonames.org/5128581/', 'postal_code': '10041', 'geo_link': 'http://www.geonames.org/5128581/new-york-city.html', 'lat': '40.7127', 'long': '-74.0059', 'population': '8175133'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Philadelphia', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Philadelphia', 'place': 'http://sws.geonames.org/4560349/', 'postal_code': '19109', 'geo_link': 'http://www.geonames.org/4560349/philadelphia.html', 'lat': '39.95', 'long': '-75.1666